--- a/trunk/Document/VietinBankSC Project Plan v2012.009.20.xlsx
+++ b/trunk/Document/VietinBankSC Project Plan v2012.009.20.xlsx
@@ -16,7 +16,7 @@
     <externalReference r:id="rId5"/>
   </externalReferences>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Plan!$A$18:$BF$77</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Plan!$A$18:$BF$100</definedName>
     <definedName name="members">'[1]Thành viên - Vị trí'!$C$3:$C$13</definedName>
   </definedNames>
   <calcPr calcId="124519"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="141">
   <si>
     <t>GVCM</t>
   </si>
@@ -396,6 +396,69 @@
   </si>
   <si>
     <t>Phân quyền người sử dụng</t>
+  </si>
+  <si>
+    <t>Danh mục loại trái phiếu</t>
+  </si>
+  <si>
+    <t>Danh mục phân nhóm trái chủ</t>
+  </si>
+  <si>
+    <t>Danh mục hình thức thanh toán coupon</t>
+  </si>
+  <si>
+    <t>Danh mục từ điển</t>
+  </si>
+  <si>
+    <t>Danh mục loại từ điển</t>
+  </si>
+  <si>
+    <t>Trang chủ hệ thống</t>
+  </si>
+  <si>
+    <t>Danh mục ngày làm việc</t>
+  </si>
+  <si>
+    <t>Quản lý danh sách trái phiếu</t>
+  </si>
+  <si>
+    <t>Quản lý danh sách trái chủ</t>
+  </si>
+  <si>
+    <t>Quản lý tổ chức phát hành</t>
+  </si>
+  <si>
+    <t>Quản lý danh sách đợt phát hành</t>
+  </si>
+  <si>
+    <t>Quản lý lịch trả coupon trái phiếu</t>
+  </si>
+  <si>
+    <t>Cập nhật lãi suất thả nổi</t>
+  </si>
+  <si>
+    <t>Quản lý thỏa thuận lãi suất</t>
+  </si>
+  <si>
+    <t>Quản lý tham số nhắc việc</t>
+  </si>
+  <si>
+    <t>Quản lý chuyển nhượng</t>
+  </si>
+  <si>
+    <t>Quản lý phong tỏa</t>
+  </si>
+  <si>
+    <t>Quản lý giải tỏa</t>
+  </si>
+  <si>
+    <t>Quản lý trả coupon (tính lãi)</t>
+  </si>
+  <si>
+    <t>Quản lý trả gốc</t>
+  </si>
+  <si>
+    <t>Nhắc việc (Cho phép thêm ghi chú vào công việc)</t>
   </si>
 </sst>
 </file>
@@ -625,16 +688,23 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="165" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="7" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="88">
+  <dxfs count="143">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -649,523 +719,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FF0000CC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF0000CC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF0000CC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF0000CC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF0000CC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF0000CC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF0000CC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF0000CC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF0000CC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF0000CC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF0000CC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF0000CC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF0000CC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF0000CC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF0000CC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF0000CC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF0000CC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF0000CC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF0000CC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF0000CC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF0000CC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF0000CC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF0000CC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF0000CC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF0000CC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF0000CC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF0000CC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF0000CC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF0000CC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF0000CC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF0000CC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1199,33 +752,6 @@
         <color theme="0"/>
       </font>
       <fill>
-        <patternFill>
-          <bgColor rgb="FF0000CC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.14996795556505021"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
         <gradientFill>
           <stop position="0">
             <color rgb="FF0000CC"/>
@@ -1268,6 +794,67 @@
         <color theme="0"/>
       </font>
       <fill>
+        <patternFill>
+          <bgColor rgb="FF0000CC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.14996795556505021"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0000CC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0000CC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
         <gradientFill>
           <stop position="0">
             <color rgb="FF0000CC"/>
@@ -1283,33 +870,6 @@
         <color theme="0"/>
       </font>
       <fill>
-        <patternFill>
-          <bgColor rgb="FF0000CC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.14996795556505021"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
         <gradientFill>
           <stop position="0">
             <color rgb="FF0000CC"/>
@@ -1344,6 +904,1100 @@
       <fill>
         <patternFill>
           <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0000CC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.14996795556505021"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0000CC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <gradientFill>
+          <stop position="0">
+            <color rgb="FF0000CC"/>
+          </stop>
+          <stop position="1">
+            <color rgb="FFFF0000"/>
+          </stop>
+        </gradientFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0000CC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.14996795556505021"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0000CC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0000CC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <gradientFill>
+          <stop position="0">
+            <color rgb="FF0000CC"/>
+          </stop>
+          <stop position="1">
+            <color rgb="FFFF0000"/>
+          </stop>
+        </gradientFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <gradientFill>
+          <stop position="0">
+            <color rgb="FF0000CC"/>
+          </stop>
+          <stop position="1">
+            <color rgb="FFFF0000"/>
+          </stop>
+        </gradientFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0000CC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.14996795556505021"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0000CC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.14996795556505021"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0000CC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0000CC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <gradientFill>
+          <stop position="0">
+            <color rgb="FF0000CC"/>
+          </stop>
+          <stop position="1">
+            <color rgb="FFFF0000"/>
+          </stop>
+        </gradientFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <gradientFill>
+          <stop position="0">
+            <color rgb="FF0000CC"/>
+          </stop>
+          <stop position="1">
+            <color rgb="FFFF0000"/>
+          </stop>
+        </gradientFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0000CC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.14996795556505021"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0000CC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.14996795556505021"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0000CC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <gradientFill>
+          <stop position="0">
+            <color rgb="FF0000CC"/>
+          </stop>
+          <stop position="1">
+            <color rgb="FFFF0000"/>
+          </stop>
+        </gradientFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0000CC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.14996795556505021"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0000CC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0000CC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <gradientFill>
+          <stop position="0">
+            <color rgb="FF0000CC"/>
+          </stop>
+          <stop position="1">
+            <color rgb="FFFF0000"/>
+          </stop>
+        </gradientFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <gradientFill>
+          <stop position="0">
+            <color rgb="FF0000CC"/>
+          </stop>
+          <stop position="1">
+            <color rgb="FFFF0000"/>
+          </stop>
+        </gradientFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0000CC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.14996795556505021"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0000CC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.14996795556505021"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0000CC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0000CC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <gradientFill>
+          <stop position="0">
+            <color rgb="FF0000CC"/>
+          </stop>
+          <stop position="1">
+            <color rgb="FFFF0000"/>
+          </stop>
+        </gradientFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <gradientFill>
+          <stop position="0">
+            <color rgb="FF0000CC"/>
+          </stop>
+          <stop position="1">
+            <color rgb="FFFF0000"/>
+          </stop>
+        </gradientFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0000CC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.14996795556505021"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0000CC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.14996795556505021"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0000CC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0000CC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <gradientFill>
+          <stop position="0">
+            <color rgb="FF0000CC"/>
+          </stop>
+          <stop position="1">
+            <color rgb="FFFF0000"/>
+          </stop>
+        </gradientFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <gradientFill>
+          <stop position="0">
+            <color rgb="FF0000CC"/>
+          </stop>
+          <stop position="1">
+            <color rgb="FFFF0000"/>
+          </stop>
+        </gradientFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0000CC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.14996795556505021"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0000CC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.14996795556505021"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0000CC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <gradientFill>
+          <stop position="0">
+            <color rgb="FF0000CC"/>
+          </stop>
+          <stop position="1">
+            <color rgb="FFFF0000"/>
+          </stop>
+        </gradientFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0000CC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.14996795556505021"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0000CC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0000CC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <gradientFill>
+          <stop position="0">
+            <color rgb="FF0000CC"/>
+          </stop>
+          <stop position="1">
+            <color rgb="FFFF0000"/>
+          </stop>
+        </gradientFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <gradientFill>
+          <stop position="0">
+            <color rgb="FF0000CC"/>
+          </stop>
+          <stop position="1">
+            <color rgb="FFFF0000"/>
+          </stop>
+        </gradientFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0000CC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.14996795556505021"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0000CC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.14996795556505021"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0000CC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <gradientFill>
+          <stop position="0">
+            <color rgb="FF0000CC"/>
+          </stop>
+          <stop position="1">
+            <color rgb="FFFF0000"/>
+          </stop>
+        </gradientFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0000CC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.14996795556505021"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0000CC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0000CC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0000CC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0000CC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0000CC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0000CC"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1902,7 +2556,7 @@
       </c>
     </row>
     <row r="3" spans="1:10">
-      <c r="A3" s="37" t="s">
+      <c r="A3" s="39" t="s">
         <v>22</v>
       </c>
       <c r="B3" s="1" t="s">
@@ -1919,7 +2573,7 @@
       </c>
     </row>
     <row r="4" spans="1:10">
-      <c r="A4" s="37"/>
+      <c r="A4" s="39"/>
       <c r="B4" s="1" t="s">
         <v>1</v>
       </c>
@@ -1934,7 +2588,7 @@
       </c>
     </row>
     <row r="5" spans="1:10">
-      <c r="A5" s="37" t="s">
+      <c r="A5" s="39" t="s">
         <v>21</v>
       </c>
       <c r="B5" s="1" t="s">
@@ -1949,7 +2603,7 @@
       <c r="E5" s="2"/>
     </row>
     <row r="6" spans="1:10">
-      <c r="A6" s="37"/>
+      <c r="A6" s="39"/>
       <c r="B6" s="1" t="s">
         <v>3</v>
       </c>
@@ -1962,7 +2616,7 @@
       <c r="E6" s="2"/>
     </row>
     <row r="7" spans="1:10">
-      <c r="A7" s="37"/>
+      <c r="A7" s="39"/>
       <c r="B7" s="1" t="s">
         <v>4</v>
       </c>
@@ -2058,10 +2712,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:CT81"/>
+  <dimension ref="A1:CT104"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="J7" sqref="J7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F81" sqref="F81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2185,7 +2839,7 @@
         <v>58</v>
       </c>
       <c r="D9" s="16">
-        <f>SUMIF($D$19:$D$77,C9,$G$19:$G$77)</f>
+        <f>SUMIF($D$19:$D$100,C9,$G$19:$G$100)</f>
         <v>0</v>
       </c>
       <c r="E9" s="33"/>
@@ -2199,7 +2853,7 @@
         <v>61</v>
       </c>
       <c r="D10" s="16">
-        <f>SUMIF($D$19:$D$77,C10,$G$19:$G$77)</f>
+        <f>SUMIF($D$19:$D$100,C10,$G$19:$G$100)</f>
         <v>0</v>
       </c>
       <c r="E10" s="33"/>
@@ -2224,7 +2878,7 @@
         <v>59</v>
       </c>
       <c r="D12" s="16">
-        <f>SUMIF($D$19:$D$77,C12,$G$19:$G$77)</f>
+        <f>SUMIF($D$19:$D$100,C12,$G$19:$G$100)</f>
         <v>0</v>
       </c>
       <c r="E12" s="33"/>
@@ -2249,7 +2903,7 @@
         <v>57</v>
       </c>
       <c r="D14" s="16">
-        <f>SUMIF($D$19:$D$77,C14,$G$19:$G$77)</f>
+        <f>SUMIF($D$19:$D$100,C14,$G$19:$G$100)</f>
         <v>0</v>
       </c>
       <c r="E14" s="33"/>
@@ -2489,7 +3143,7 @@
         <v>83</v>
       </c>
       <c r="D16" s="16">
-        <f>SUMIF($D$19:$D$77,C16,$G$19:$G$77)</f>
+        <f>SUMIF($D$19:$D$100,C16,$G$19:$G$100)</f>
         <v>0</v>
       </c>
       <c r="E16" s="33"/>
@@ -4689,7 +5343,7 @@
     <row r="45" spans="2:66" s="20" customFormat="1">
       <c r="B45" s="21"/>
       <c r="C45" s="30" t="s">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="D45" s="21"/>
       <c r="E45" s="21"/>
@@ -4758,18 +5412,16 @@
     <row r="46" spans="2:66">
       <c r="B46" s="22"/>
       <c r="C46" s="29" t="s">
-        <v>96</v>
-      </c>
-      <c r="D46" s="22" t="s">
-        <v>83</v>
-      </c>
+        <v>121</v>
+      </c>
+      <c r="D46" s="22"/>
       <c r="E46" s="22"/>
       <c r="F46" s="22"/>
       <c r="G46" s="22"/>
       <c r="H46" s="23"/>
       <c r="I46" s="23"/>
       <c r="J46" s="23" t="s">
-        <v>40</v>
+        <v>95</v>
       </c>
       <c r="K46" s="22"/>
       <c r="L46" s="1"/>
@@ -4831,18 +5483,16 @@
     <row r="47" spans="2:66">
       <c r="B47" s="22"/>
       <c r="C47" s="29" t="s">
-        <v>97</v>
-      </c>
-      <c r="D47" s="22" t="s">
-        <v>83</v>
-      </c>
+        <v>122</v>
+      </c>
+      <c r="D47" s="22"/>
       <c r="E47" s="22"/>
       <c r="F47" s="22"/>
       <c r="G47" s="22"/>
       <c r="H47" s="23"/>
       <c r="I47" s="23"/>
       <c r="J47" s="23" t="s">
-        <v>40</v>
+        <v>95</v>
       </c>
       <c r="K47" s="22"/>
       <c r="L47" s="1"/>
@@ -4904,18 +5554,16 @@
     <row r="48" spans="2:66">
       <c r="B48" s="22"/>
       <c r="C48" s="29" t="s">
-        <v>98</v>
-      </c>
-      <c r="D48" s="22" t="s">
-        <v>60</v>
-      </c>
+        <v>123</v>
+      </c>
+      <c r="D48" s="22"/>
       <c r="E48" s="22"/>
       <c r="F48" s="22"/>
       <c r="G48" s="22"/>
       <c r="H48" s="23"/>
       <c r="I48" s="23"/>
       <c r="J48" s="23" t="s">
-        <v>40</v>
+        <v>95</v>
       </c>
       <c r="K48" s="22"/>
       <c r="L48" s="1"/>
@@ -4974,22 +5622,18 @@
       <c r="BM48" s="1"/>
       <c r="BN48" s="1"/>
     </row>
-    <row r="49" spans="1:66">
+    <row r="49" spans="2:66">
       <c r="B49" s="22"/>
       <c r="C49" s="29" t="s">
-        <v>99</v>
-      </c>
-      <c r="D49" s="22" t="s">
-        <v>61</v>
-      </c>
+        <v>127</v>
+      </c>
+      <c r="D49" s="22"/>
       <c r="E49" s="22"/>
       <c r="F49" s="22"/>
       <c r="G49" s="22"/>
       <c r="H49" s="23"/>
       <c r="I49" s="23"/>
-      <c r="J49" s="23" t="s">
-        <v>40</v>
-      </c>
+      <c r="J49" s="23"/>
       <c r="K49" s="22"/>
       <c r="L49" s="1"/>
       <c r="M49" s="1"/>
@@ -5047,9 +5691,11 @@
       <c r="BM49" s="1"/>
       <c r="BN49" s="1"/>
     </row>
-    <row r="50" spans="1:66">
+    <row r="50" spans="2:66">
       <c r="B50" s="22"/>
-      <c r="C50" s="29"/>
+      <c r="C50" s="29" t="s">
+        <v>128</v>
+      </c>
       <c r="D50" s="22"/>
       <c r="E50" s="22"/>
       <c r="F50" s="22"/>
@@ -5114,80 +5760,79 @@
       <c r="BM50" s="1"/>
       <c r="BN50" s="1"/>
     </row>
-    <row r="51" spans="1:66" s="20" customFormat="1">
-      <c r="A51"/>
-      <c r="B51" s="21"/>
-      <c r="C51" s="30" t="s">
-        <v>112</v>
-      </c>
-      <c r="D51" s="21"/>
-      <c r="E51" s="21"/>
-      <c r="F51" s="21"/>
-      <c r="G51" s="21"/>
-      <c r="H51" s="21"/>
-      <c r="I51" s="21"/>
-      <c r="J51" s="21"/>
-      <c r="K51" s="21"/>
-      <c r="L51" s="21"/>
-      <c r="M51" s="21"/>
-      <c r="N51" s="21"/>
-      <c r="O51" s="21"/>
-      <c r="P51" s="21"/>
-      <c r="Q51" s="21"/>
-      <c r="R51" s="21"/>
-      <c r="S51" s="21"/>
-      <c r="T51" s="21"/>
-      <c r="U51" s="21"/>
-      <c r="V51" s="21"/>
-      <c r="W51" s="21"/>
-      <c r="X51" s="21"/>
-      <c r="Y51" s="21"/>
-      <c r="Z51" s="21"/>
-      <c r="AA51" s="21"/>
-      <c r="AB51" s="21"/>
-      <c r="AC51" s="21"/>
-      <c r="AD51" s="21"/>
-      <c r="AE51" s="21"/>
-      <c r="AF51" s="21"/>
-      <c r="AG51" s="21"/>
-      <c r="AH51" s="21"/>
-      <c r="AI51" s="21"/>
-      <c r="AJ51" s="21"/>
-      <c r="AK51" s="21"/>
-      <c r="AL51" s="21"/>
-      <c r="AM51" s="21"/>
-      <c r="AN51" s="21"/>
-      <c r="AO51" s="21"/>
-      <c r="AP51" s="21"/>
-      <c r="AQ51" s="21"/>
-      <c r="AR51" s="21"/>
-      <c r="AS51" s="21"/>
-      <c r="AT51" s="21"/>
-      <c r="AU51" s="21"/>
-      <c r="AV51" s="21"/>
-      <c r="AW51" s="21"/>
-      <c r="AX51" s="21"/>
-      <c r="AY51" s="21"/>
-      <c r="AZ51" s="21"/>
-      <c r="BA51" s="21"/>
-      <c r="BB51" s="21"/>
-      <c r="BC51" s="21"/>
-      <c r="BD51" s="21"/>
-      <c r="BE51" s="21"/>
-      <c r="BF51" s="21"/>
-      <c r="BG51" s="21"/>
-      <c r="BH51" s="21"/>
-      <c r="BI51" s="21"/>
-      <c r="BJ51" s="21"/>
-      <c r="BK51" s="21"/>
-      <c r="BL51" s="21"/>
-      <c r="BM51" s="21"/>
-      <c r="BN51" s="21"/>
-    </row>
-    <row r="52" spans="1:66">
+    <row r="51" spans="2:66">
+      <c r="B51" s="22"/>
+      <c r="C51" s="29" t="s">
+        <v>129</v>
+      </c>
+      <c r="D51" s="22"/>
+      <c r="E51" s="22"/>
+      <c r="F51" s="22"/>
+      <c r="G51" s="22"/>
+      <c r="H51" s="23"/>
+      <c r="I51" s="23"/>
+      <c r="J51" s="23"/>
+      <c r="K51" s="22"/>
+      <c r="L51" s="1"/>
+      <c r="M51" s="1"/>
+      <c r="N51" s="1"/>
+      <c r="O51" s="1"/>
+      <c r="P51" s="1"/>
+      <c r="Q51" s="1"/>
+      <c r="R51" s="1"/>
+      <c r="S51" s="1"/>
+      <c r="T51" s="1"/>
+      <c r="U51" s="1"/>
+      <c r="V51" s="1"/>
+      <c r="W51" s="1"/>
+      <c r="X51" s="1"/>
+      <c r="Y51" s="1"/>
+      <c r="Z51" s="1"/>
+      <c r="AA51" s="1"/>
+      <c r="AB51" s="1"/>
+      <c r="AC51" s="1"/>
+      <c r="AD51" s="1"/>
+      <c r="AE51" s="1"/>
+      <c r="AF51" s="1"/>
+      <c r="AG51" s="1"/>
+      <c r="AH51" s="1"/>
+      <c r="AI51" s="1"/>
+      <c r="AJ51" s="1"/>
+      <c r="AK51" s="1"/>
+      <c r="AL51" s="1"/>
+      <c r="AM51" s="1"/>
+      <c r="AN51" s="1"/>
+      <c r="AO51" s="1"/>
+      <c r="AP51" s="1"/>
+      <c r="AQ51" s="1"/>
+      <c r="AR51" s="1"/>
+      <c r="AS51" s="1"/>
+      <c r="AT51" s="1"/>
+      <c r="AU51" s="1"/>
+      <c r="AV51" s="1"/>
+      <c r="AW51" s="1"/>
+      <c r="AX51" s="1"/>
+      <c r="AY51" s="1"/>
+      <c r="AZ51" s="1"/>
+      <c r="BA51" s="1"/>
+      <c r="BB51" s="1"/>
+      <c r="BC51" s="1"/>
+      <c r="BD51" s="1"/>
+      <c r="BE51" s="1"/>
+      <c r="BF51" s="1"/>
+      <c r="BG51" s="1"/>
+      <c r="BH51" s="1"/>
+      <c r="BI51" s="1"/>
+      <c r="BJ51" s="1"/>
+      <c r="BK51" s="1"/>
+      <c r="BL51" s="1"/>
+      <c r="BM51" s="1"/>
+      <c r="BN51" s="1"/>
+    </row>
+    <row r="52" spans="2:66">
       <c r="B52" s="22"/>
-      <c r="C52" s="39" t="s">
-        <v>113</v>
+      <c r="C52" s="29" t="s">
+        <v>130</v>
       </c>
       <c r="D52" s="22"/>
       <c r="E52" s="22"/>
@@ -5253,22 +5898,20 @@
       <c r="BM52" s="1"/>
       <c r="BN52" s="1"/>
     </row>
-    <row r="53" spans="1:66">
+    <row r="53" spans="2:66">
       <c r="B53" s="22"/>
-      <c r="C53" s="38" t="s">
-        <v>114</v>
+      <c r="C53" s="29" t="s">
+        <v>96</v>
       </c>
       <c r="D53" s="22" t="s">
-        <v>59</v>
+        <v>83</v>
       </c>
       <c r="E53" s="22"/>
       <c r="F53" s="22"/>
       <c r="G53" s="22"/>
       <c r="H53" s="23"/>
       <c r="I53" s="23"/>
-      <c r="J53" s="23" t="s">
-        <v>40</v>
-      </c>
+      <c r="J53" s="23"/>
       <c r="K53" s="22"/>
       <c r="L53" s="1"/>
       <c r="M53" s="1"/>
@@ -5326,20 +5969,20 @@
       <c r="BM53" s="1"/>
       <c r="BN53" s="1"/>
     </row>
-    <row r="54" spans="1:66">
+    <row r="54" spans="2:66">
       <c r="B54" s="22"/>
-      <c r="C54" s="38" t="s">
-        <v>104</v>
-      </c>
-      <c r="D54" s="22"/>
+      <c r="C54" s="29" t="s">
+        <v>97</v>
+      </c>
+      <c r="D54" s="22" t="s">
+        <v>83</v>
+      </c>
       <c r="E54" s="22"/>
       <c r="F54" s="22"/>
       <c r="G54" s="22"/>
       <c r="H54" s="23"/>
       <c r="I54" s="23"/>
-      <c r="J54" s="23" t="s">
-        <v>95</v>
-      </c>
+      <c r="J54" s="23"/>
       <c r="K54" s="22"/>
       <c r="L54" s="1"/>
       <c r="M54" s="1"/>
@@ -5397,12 +6040,14 @@
       <c r="BM54" s="1"/>
       <c r="BN54" s="1"/>
     </row>
-    <row r="55" spans="1:66">
+    <row r="55" spans="2:66">
       <c r="B55" s="22"/>
-      <c r="C55" s="39" t="s">
-        <v>115</v>
-      </c>
-      <c r="D55" s="22"/>
+      <c r="C55" s="29" t="s">
+        <v>98</v>
+      </c>
+      <c r="D55" s="22" t="s">
+        <v>60</v>
+      </c>
       <c r="E55" s="22"/>
       <c r="F55" s="22"/>
       <c r="G55" s="22"/>
@@ -5466,20 +6111,20 @@
       <c r="BM55" s="1"/>
       <c r="BN55" s="1"/>
     </row>
-    <row r="56" spans="1:66">
+    <row r="56" spans="2:66">
       <c r="B56" s="22"/>
-      <c r="C56" s="38" t="s">
-        <v>105</v>
-      </c>
-      <c r="D56" s="22"/>
+      <c r="C56" s="29" t="s">
+        <v>99</v>
+      </c>
+      <c r="D56" s="22" t="s">
+        <v>61</v>
+      </c>
       <c r="E56" s="22"/>
       <c r="F56" s="22"/>
       <c r="G56" s="22"/>
       <c r="H56" s="23"/>
       <c r="I56" s="23"/>
-      <c r="J56" s="23" t="s">
-        <v>95</v>
-      </c>
+      <c r="J56" s="23"/>
       <c r="K56" s="22"/>
       <c r="L56" s="1"/>
       <c r="M56" s="1"/>
@@ -5537,10 +6182,10 @@
       <c r="BM56" s="1"/>
       <c r="BN56" s="1"/>
     </row>
-    <row r="57" spans="1:66">
+    <row r="57" spans="2:66">
       <c r="B57" s="22"/>
-      <c r="C57" s="38" t="s">
-        <v>106</v>
+      <c r="C57" s="29" t="s">
+        <v>124</v>
       </c>
       <c r="D57" s="22"/>
       <c r="E57" s="22"/>
@@ -5608,10 +6253,10 @@
       <c r="BM57" s="1"/>
       <c r="BN57" s="1"/>
     </row>
-    <row r="58" spans="1:66">
+    <row r="58" spans="2:66">
       <c r="B58" s="22"/>
-      <c r="C58" s="38" t="s">
-        <v>107</v>
+      <c r="C58" s="29" t="s">
+        <v>125</v>
       </c>
       <c r="D58" s="22"/>
       <c r="E58" s="22"/>
@@ -5679,10 +6324,10 @@
       <c r="BM58" s="1"/>
       <c r="BN58" s="1"/>
     </row>
-    <row r="59" spans="1:66">
+    <row r="59" spans="2:66">
       <c r="B59" s="22"/>
-      <c r="C59" s="38" t="s">
-        <v>108</v>
+      <c r="C59" s="29" t="s">
+        <v>126</v>
       </c>
       <c r="D59" s="22"/>
       <c r="E59" s="22"/>
@@ -5750,20 +6395,16 @@
       <c r="BM59" s="1"/>
       <c r="BN59" s="1"/>
     </row>
-    <row r="60" spans="1:66">
+    <row r="60" spans="2:66">
       <c r="B60" s="22"/>
-      <c r="C60" s="39" t="s">
-        <v>109</v>
-      </c>
+      <c r="C60" s="29"/>
       <c r="D60" s="22"/>
       <c r="E60" s="22"/>
       <c r="F60" s="22"/>
       <c r="G60" s="22"/>
       <c r="H60" s="23"/>
       <c r="I60" s="23"/>
-      <c r="J60" s="23" t="s">
-        <v>95</v>
-      </c>
+      <c r="J60" s="23"/>
       <c r="K60" s="22"/>
       <c r="L60" s="1"/>
       <c r="M60" s="1"/>
@@ -5821,20 +6462,16 @@
       <c r="BM60" s="1"/>
       <c r="BN60" s="1"/>
     </row>
-    <row r="61" spans="1:66">
+    <row r="61" spans="2:66">
       <c r="B61" s="22"/>
-      <c r="C61" s="39" t="s">
-        <v>110</v>
-      </c>
+      <c r="C61" s="29"/>
       <c r="D61" s="22"/>
       <c r="E61" s="22"/>
       <c r="F61" s="22"/>
       <c r="G61" s="22"/>
       <c r="H61" s="23"/>
       <c r="I61" s="23"/>
-      <c r="J61" s="23" t="s">
-        <v>95</v>
-      </c>
+      <c r="J61" s="23"/>
       <c r="K61" s="22"/>
       <c r="L61" s="1"/>
       <c r="M61" s="1"/>
@@ -5892,20 +6529,16 @@
       <c r="BM61" s="1"/>
       <c r="BN61" s="1"/>
     </row>
-    <row r="62" spans="1:66">
+    <row r="62" spans="2:66">
       <c r="B62" s="22"/>
-      <c r="C62" s="39" t="s">
-        <v>116</v>
-      </c>
+      <c r="C62" s="29"/>
       <c r="D62" s="22"/>
       <c r="E62" s="22"/>
       <c r="F62" s="22"/>
       <c r="G62" s="22"/>
       <c r="H62" s="23"/>
       <c r="I62" s="23"/>
-      <c r="J62" s="23" t="s">
-        <v>95</v>
-      </c>
+      <c r="J62" s="23"/>
       <c r="K62" s="22"/>
       <c r="L62" s="1"/>
       <c r="M62" s="1"/>
@@ -5963,87 +6596,89 @@
       <c r="BM62" s="1"/>
       <c r="BN62" s="1"/>
     </row>
-    <row r="63" spans="1:66">
-      <c r="B63" s="22"/>
-      <c r="C63" s="39" t="s">
-        <v>111</v>
-      </c>
-      <c r="D63" s="22"/>
-      <c r="E63" s="22"/>
-      <c r="F63" s="22"/>
-      <c r="G63" s="22"/>
-      <c r="H63" s="23"/>
-      <c r="I63" s="23"/>
-      <c r="J63" s="23" t="s">
-        <v>95</v>
-      </c>
-      <c r="K63" s="22"/>
-      <c r="L63" s="1"/>
-      <c r="M63" s="1"/>
-      <c r="N63" s="1"/>
-      <c r="O63" s="1"/>
-      <c r="P63" s="1"/>
-      <c r="Q63" s="1"/>
-      <c r="R63" s="1"/>
-      <c r="S63" s="1"/>
-      <c r="T63" s="1"/>
-      <c r="U63" s="1"/>
-      <c r="V63" s="1"/>
-      <c r="W63" s="1"/>
-      <c r="X63" s="1"/>
-      <c r="Y63" s="1"/>
-      <c r="Z63" s="1"/>
-      <c r="AA63" s="1"/>
-      <c r="AB63" s="1"/>
-      <c r="AC63" s="1"/>
-      <c r="AD63" s="1"/>
-      <c r="AE63" s="1"/>
-      <c r="AF63" s="1"/>
-      <c r="AG63" s="1"/>
-      <c r="AH63" s="1"/>
-      <c r="AI63" s="1"/>
-      <c r="AJ63" s="1"/>
-      <c r="AK63" s="1"/>
-      <c r="AL63" s="1"/>
-      <c r="AM63" s="1"/>
-      <c r="AN63" s="1"/>
-      <c r="AO63" s="1"/>
-      <c r="AP63" s="1"/>
-      <c r="AQ63" s="1"/>
-      <c r="AR63" s="1"/>
-      <c r="AS63" s="1"/>
-      <c r="AT63" s="1"/>
-      <c r="AU63" s="1"/>
-      <c r="AV63" s="1"/>
-      <c r="AW63" s="1"/>
-      <c r="AX63" s="1"/>
-      <c r="AY63" s="1"/>
-      <c r="AZ63" s="1"/>
-      <c r="BA63" s="1"/>
-      <c r="BB63" s="1"/>
-      <c r="BC63" s="1"/>
-      <c r="BD63" s="1"/>
-      <c r="BE63" s="1"/>
-      <c r="BF63" s="1"/>
-      <c r="BG63" s="1"/>
-      <c r="BH63" s="1"/>
-      <c r="BI63" s="1"/>
-      <c r="BJ63" s="1"/>
-      <c r="BK63" s="1"/>
-      <c r="BL63" s="1"/>
-      <c r="BM63" s="1"/>
-      <c r="BN63" s="1"/>
-    </row>
-    <row r="64" spans="1:66">
+    <row r="63" spans="2:66" s="20" customFormat="1">
+      <c r="B63" s="21"/>
+      <c r="C63" s="30" t="s">
+        <v>100</v>
+      </c>
+      <c r="D63" s="21"/>
+      <c r="E63" s="21"/>
+      <c r="F63" s="21"/>
+      <c r="G63" s="21"/>
+      <c r="H63" s="21"/>
+      <c r="I63" s="21"/>
+      <c r="J63" s="21"/>
+      <c r="K63" s="21"/>
+      <c r="L63" s="21"/>
+      <c r="M63" s="21"/>
+      <c r="N63" s="21"/>
+      <c r="O63" s="21"/>
+      <c r="P63" s="21"/>
+      <c r="Q63" s="21"/>
+      <c r="R63" s="21"/>
+      <c r="S63" s="21"/>
+      <c r="T63" s="21"/>
+      <c r="U63" s="21"/>
+      <c r="V63" s="21"/>
+      <c r="W63" s="21"/>
+      <c r="X63" s="21"/>
+      <c r="Y63" s="21"/>
+      <c r="Z63" s="21"/>
+      <c r="AA63" s="21"/>
+      <c r="AB63" s="21"/>
+      <c r="AC63" s="21"/>
+      <c r="AD63" s="21"/>
+      <c r="AE63" s="21"/>
+      <c r="AF63" s="21"/>
+      <c r="AG63" s="21"/>
+      <c r="AH63" s="21"/>
+      <c r="AI63" s="21"/>
+      <c r="AJ63" s="21"/>
+      <c r="AK63" s="21"/>
+      <c r="AL63" s="21"/>
+      <c r="AM63" s="21"/>
+      <c r="AN63" s="21"/>
+      <c r="AO63" s="21"/>
+      <c r="AP63" s="21"/>
+      <c r="AQ63" s="21"/>
+      <c r="AR63" s="21"/>
+      <c r="AS63" s="21"/>
+      <c r="AT63" s="21"/>
+      <c r="AU63" s="21"/>
+      <c r="AV63" s="21"/>
+      <c r="AW63" s="21"/>
+      <c r="AX63" s="21"/>
+      <c r="AY63" s="21"/>
+      <c r="AZ63" s="21"/>
+      <c r="BA63" s="21"/>
+      <c r="BB63" s="21"/>
+      <c r="BC63" s="21"/>
+      <c r="BD63" s="21"/>
+      <c r="BE63" s="21"/>
+      <c r="BF63" s="21"/>
+      <c r="BG63" s="21"/>
+      <c r="BH63" s="21"/>
+      <c r="BI63" s="21"/>
+      <c r="BJ63" s="21"/>
+      <c r="BK63" s="21"/>
+      <c r="BL63" s="21"/>
+      <c r="BM63" s="21"/>
+      <c r="BN63" s="21"/>
+    </row>
+    <row r="64" spans="2:66">
       <c r="B64" s="22"/>
-      <c r="C64" s="29"/>
+      <c r="C64" s="29" t="s">
+        <v>131</v>
+      </c>
       <c r="D64" s="22"/>
       <c r="E64" s="22"/>
       <c r="F64" s="22"/>
       <c r="G64" s="22"/>
       <c r="H64" s="23"/>
       <c r="I64" s="23"/>
-      <c r="J64" s="23"/>
+      <c r="J64" s="23" t="s">
+        <v>40</v>
+      </c>
       <c r="K64" s="22"/>
       <c r="L64" s="1"/>
       <c r="M64" s="1"/>
@@ -6101,82 +6736,85 @@
       <c r="BM64" s="1"/>
       <c r="BN64" s="1"/>
     </row>
-    <row r="65" spans="1:66" s="20" customFormat="1">
-      <c r="A65"/>
-      <c r="B65" s="21"/>
-      <c r="C65" s="30" t="s">
-        <v>117</v>
-      </c>
-      <c r="D65" s="21"/>
-      <c r="E65" s="21"/>
-      <c r="F65" s="21"/>
-      <c r="G65" s="21"/>
-      <c r="H65" s="21"/>
-      <c r="I65" s="21"/>
-      <c r="J65" s="21"/>
-      <c r="K65" s="21"/>
-      <c r="L65" s="21"/>
-      <c r="M65" s="21"/>
-      <c r="N65" s="21"/>
-      <c r="O65" s="21"/>
-      <c r="P65" s="21"/>
-      <c r="Q65" s="21"/>
-      <c r="R65" s="21"/>
-      <c r="S65" s="21"/>
-      <c r="T65" s="21"/>
-      <c r="U65" s="21"/>
-      <c r="V65" s="21"/>
-      <c r="W65" s="21"/>
-      <c r="X65" s="21"/>
-      <c r="Y65" s="21"/>
-      <c r="Z65" s="21"/>
-      <c r="AA65" s="21"/>
-      <c r="AB65" s="21"/>
-      <c r="AC65" s="21"/>
-      <c r="AD65" s="21"/>
-      <c r="AE65" s="21"/>
-      <c r="AF65" s="21"/>
-      <c r="AG65" s="21"/>
-      <c r="AH65" s="21"/>
-      <c r="AI65" s="21"/>
-      <c r="AJ65" s="21"/>
-      <c r="AK65" s="21"/>
-      <c r="AL65" s="21"/>
-      <c r="AM65" s="21"/>
-      <c r="AN65" s="21"/>
-      <c r="AO65" s="21"/>
-      <c r="AP65" s="21"/>
-      <c r="AQ65" s="21"/>
-      <c r="AR65" s="21"/>
-      <c r="AS65" s="21"/>
-      <c r="AT65" s="21"/>
-      <c r="AU65" s="21"/>
-      <c r="AV65" s="21"/>
-      <c r="AW65" s="21"/>
-      <c r="AX65" s="21"/>
-      <c r="AY65" s="21"/>
-      <c r="AZ65" s="21"/>
-      <c r="BA65" s="21"/>
-      <c r="BB65" s="21"/>
-      <c r="BC65" s="21"/>
-      <c r="BD65" s="21"/>
-      <c r="BE65" s="21"/>
-      <c r="BF65" s="21"/>
-      <c r="BG65" s="21"/>
-      <c r="BH65" s="21"/>
-      <c r="BI65" s="21"/>
-      <c r="BJ65" s="21"/>
-      <c r="BK65" s="21"/>
-      <c r="BL65" s="21"/>
-      <c r="BM65" s="21"/>
-      <c r="BN65" s="21"/>
+    <row r="65" spans="1:66">
+      <c r="B65" s="22"/>
+      <c r="C65" s="29" t="s">
+        <v>136</v>
+      </c>
+      <c r="D65" s="22" t="s">
+        <v>58</v>
+      </c>
+      <c r="E65" s="22"/>
+      <c r="F65" s="22"/>
+      <c r="G65" s="22"/>
+      <c r="H65" s="23"/>
+      <c r="I65" s="23"/>
+      <c r="J65" s="23"/>
+      <c r="K65" s="22"/>
+      <c r="L65" s="1"/>
+      <c r="M65" s="1"/>
+      <c r="N65" s="1"/>
+      <c r="O65" s="1"/>
+      <c r="P65" s="1"/>
+      <c r="Q65" s="1"/>
+      <c r="R65" s="1"/>
+      <c r="S65" s="1"/>
+      <c r="T65" s="1"/>
+      <c r="U65" s="1"/>
+      <c r="V65" s="1"/>
+      <c r="W65" s="1"/>
+      <c r="X65" s="1"/>
+      <c r="Y65" s="1"/>
+      <c r="Z65" s="1"/>
+      <c r="AA65" s="1"/>
+      <c r="AB65" s="1"/>
+      <c r="AC65" s="1"/>
+      <c r="AD65" s="1"/>
+      <c r="AE65" s="1"/>
+      <c r="AF65" s="1"/>
+      <c r="AG65" s="1"/>
+      <c r="AH65" s="1"/>
+      <c r="AI65" s="1"/>
+      <c r="AJ65" s="1"/>
+      <c r="AK65" s="1"/>
+      <c r="AL65" s="1"/>
+      <c r="AM65" s="1"/>
+      <c r="AN65" s="1"/>
+      <c r="AO65" s="1"/>
+      <c r="AP65" s="1"/>
+      <c r="AQ65" s="1"/>
+      <c r="AR65" s="1"/>
+      <c r="AS65" s="1"/>
+      <c r="AT65" s="1"/>
+      <c r="AU65" s="1"/>
+      <c r="AV65" s="1"/>
+      <c r="AW65" s="1"/>
+      <c r="AX65" s="1"/>
+      <c r="AY65" s="1"/>
+      <c r="AZ65" s="1"/>
+      <c r="BA65" s="1"/>
+      <c r="BB65" s="1"/>
+      <c r="BC65" s="1"/>
+      <c r="BD65" s="1"/>
+      <c r="BE65" s="1"/>
+      <c r="BF65" s="1"/>
+      <c r="BG65" s="1"/>
+      <c r="BH65" s="1"/>
+      <c r="BI65" s="1"/>
+      <c r="BJ65" s="1"/>
+      <c r="BK65" s="1"/>
+      <c r="BL65" s="1"/>
+      <c r="BM65" s="1"/>
+      <c r="BN65" s="1"/>
     </row>
     <row r="66" spans="1:66">
       <c r="B66" s="22"/>
-      <c r="C66" s="38" t="s">
-        <v>118</v>
-      </c>
-      <c r="D66" s="22"/>
+      <c r="C66" s="29" t="s">
+        <v>137</v>
+      </c>
+      <c r="D66" s="22" t="s">
+        <v>58</v>
+      </c>
       <c r="E66" s="22"/>
       <c r="F66" s="22"/>
       <c r="G66" s="22"/>
@@ -6242,10 +6880,12 @@
     </row>
     <row r="67" spans="1:66">
       <c r="B67" s="22"/>
-      <c r="C67" s="38" t="s">
-        <v>119</v>
-      </c>
-      <c r="D67" s="22"/>
+      <c r="C67" s="29" t="s">
+        <v>138</v>
+      </c>
+      <c r="D67" s="22" t="s">
+        <v>71</v>
+      </c>
       <c r="E67" s="22"/>
       <c r="F67" s="22"/>
       <c r="G67" s="22"/>
@@ -6311,8 +6951,12 @@
     </row>
     <row r="68" spans="1:66">
       <c r="B68" s="22"/>
-      <c r="C68" s="29"/>
-      <c r="D68" s="22"/>
+      <c r="C68" s="29" t="s">
+        <v>139</v>
+      </c>
+      <c r="D68" s="22" t="s">
+        <v>71</v>
+      </c>
       <c r="E68" s="22"/>
       <c r="F68" s="22"/>
       <c r="G68" s="22"/>
@@ -6376,94 +7020,84 @@
       <c r="BM68" s="1"/>
       <c r="BN68" s="1"/>
     </row>
-    <row r="69" spans="1:66" s="20" customFormat="1">
-      <c r="A69">
-        <v>5</v>
-      </c>
-      <c r="B69" s="21"/>
-      <c r="C69" s="30" t="s">
-        <v>54</v>
-      </c>
-      <c r="D69" s="21"/>
-      <c r="E69" s="21"/>
-      <c r="F69" s="21"/>
-      <c r="G69" s="21"/>
-      <c r="H69" s="21"/>
-      <c r="I69" s="21"/>
-      <c r="J69" s="21"/>
-      <c r="K69" s="21"/>
-      <c r="L69" s="21"/>
-      <c r="M69" s="21"/>
-      <c r="N69" s="21"/>
-      <c r="O69" s="21"/>
-      <c r="P69" s="21"/>
-      <c r="Q69" s="21"/>
-      <c r="R69" s="21"/>
-      <c r="S69" s="21"/>
-      <c r="T69" s="21"/>
-      <c r="U69" s="21"/>
-      <c r="V69" s="21"/>
-      <c r="W69" s="21"/>
-      <c r="X69" s="21"/>
-      <c r="Y69" s="21"/>
-      <c r="Z69" s="21"/>
-      <c r="AA69" s="21"/>
-      <c r="AB69" s="21"/>
-      <c r="AC69" s="21"/>
-      <c r="AD69" s="21"/>
-      <c r="AE69" s="21"/>
-      <c r="AF69" s="21"/>
-      <c r="AG69" s="21"/>
-      <c r="AH69" s="21"/>
-      <c r="AI69" s="21"/>
-      <c r="AJ69" s="21"/>
-      <c r="AK69" s="21"/>
-      <c r="AL69" s="21"/>
-      <c r="AM69" s="21"/>
-      <c r="AN69" s="21"/>
-      <c r="AO69" s="21"/>
-      <c r="AP69" s="21"/>
-      <c r="AQ69" s="21"/>
-      <c r="AR69" s="21"/>
-      <c r="AS69" s="21"/>
-      <c r="AT69" s="21"/>
-      <c r="AU69" s="21"/>
-      <c r="AV69" s="21"/>
-      <c r="AW69" s="21"/>
-      <c r="AX69" s="21"/>
-      <c r="AY69" s="21"/>
-      <c r="AZ69" s="21"/>
-      <c r="BA69" s="21"/>
-      <c r="BB69" s="21"/>
-      <c r="BC69" s="21"/>
-      <c r="BD69" s="21"/>
-      <c r="BE69" s="21"/>
-      <c r="BF69" s="21"/>
-      <c r="BG69" s="21"/>
-      <c r="BH69" s="21"/>
-      <c r="BI69" s="21"/>
-      <c r="BJ69" s="21"/>
-      <c r="BK69" s="21"/>
-      <c r="BL69" s="21"/>
-      <c r="BM69" s="21"/>
-      <c r="BN69" s="21"/>
+    <row r="69" spans="1:66">
+      <c r="B69" s="22"/>
+      <c r="C69" s="29" t="s">
+        <v>132</v>
+      </c>
+      <c r="D69" s="22"/>
+      <c r="E69" s="22"/>
+      <c r="F69" s="22"/>
+      <c r="G69" s="22"/>
+      <c r="H69" s="23"/>
+      <c r="I69" s="23"/>
+      <c r="J69" s="23" t="s">
+        <v>40</v>
+      </c>
+      <c r="K69" s="22"/>
+      <c r="L69" s="1"/>
+      <c r="M69" s="1"/>
+      <c r="N69" s="1"/>
+      <c r="O69" s="1"/>
+      <c r="P69" s="1"/>
+      <c r="Q69" s="1"/>
+      <c r="R69" s="1"/>
+      <c r="S69" s="1"/>
+      <c r="T69" s="1"/>
+      <c r="U69" s="1"/>
+      <c r="V69" s="1"/>
+      <c r="W69" s="1"/>
+      <c r="X69" s="1"/>
+      <c r="Y69" s="1"/>
+      <c r="Z69" s="1"/>
+      <c r="AA69" s="1"/>
+      <c r="AB69" s="1"/>
+      <c r="AC69" s="1"/>
+      <c r="AD69" s="1"/>
+      <c r="AE69" s="1"/>
+      <c r="AF69" s="1"/>
+      <c r="AG69" s="1"/>
+      <c r="AH69" s="1"/>
+      <c r="AI69" s="1"/>
+      <c r="AJ69" s="1"/>
+      <c r="AK69" s="1"/>
+      <c r="AL69" s="1"/>
+      <c r="AM69" s="1"/>
+      <c r="AN69" s="1"/>
+      <c r="AO69" s="1"/>
+      <c r="AP69" s="1"/>
+      <c r="AQ69" s="1"/>
+      <c r="AR69" s="1"/>
+      <c r="AS69" s="1"/>
+      <c r="AT69" s="1"/>
+      <c r="AU69" s="1"/>
+      <c r="AV69" s="1"/>
+      <c r="AW69" s="1"/>
+      <c r="AX69" s="1"/>
+      <c r="AY69" s="1"/>
+      <c r="AZ69" s="1"/>
+      <c r="BA69" s="1"/>
+      <c r="BB69" s="1"/>
+      <c r="BC69" s="1"/>
+      <c r="BD69" s="1"/>
+      <c r="BE69" s="1"/>
+      <c r="BF69" s="1"/>
+      <c r="BG69" s="1"/>
+      <c r="BH69" s="1"/>
+      <c r="BI69" s="1"/>
+      <c r="BJ69" s="1"/>
+      <c r="BK69" s="1"/>
+      <c r="BL69" s="1"/>
+      <c r="BM69" s="1"/>
+      <c r="BN69" s="1"/>
     </row>
     <row r="70" spans="1:66">
-      <c r="A70">
-        <v>6</v>
-      </c>
-      <c r="B70" s="22">
-        <v>5</v>
-      </c>
+      <c r="B70" s="22"/>
       <c r="C70" s="29" t="s">
-        <v>87</v>
-      </c>
-      <c r="D70" s="22" t="s">
-        <v>64</v>
-      </c>
-      <c r="E70" s="22" t="s">
-        <v>70</v>
-      </c>
+        <v>133</v>
+      </c>
+      <c r="D70" s="22"/>
+      <c r="E70" s="22"/>
       <c r="F70" s="22"/>
       <c r="G70" s="22"/>
       <c r="H70" s="23"/>
@@ -6530,14 +7164,18 @@
     </row>
     <row r="71" spans="1:66">
       <c r="B71" s="22"/>
-      <c r="C71" s="29"/>
+      <c r="C71" s="29" t="s">
+        <v>134</v>
+      </c>
       <c r="D71" s="22"/>
       <c r="E71" s="22"/>
       <c r="F71" s="22"/>
       <c r="G71" s="22"/>
       <c r="H71" s="23"/>
       <c r="I71" s="23"/>
-      <c r="J71" s="23"/>
+      <c r="J71" s="23" t="s">
+        <v>40</v>
+      </c>
       <c r="K71" s="22"/>
       <c r="L71" s="1"/>
       <c r="M71" s="1"/>
@@ -6595,101 +7233,89 @@
       <c r="BM71" s="1"/>
       <c r="BN71" s="1"/>
     </row>
-    <row r="72" spans="1:66" s="20" customFormat="1">
-      <c r="A72">
-        <v>57</v>
-      </c>
-      <c r="B72" s="21"/>
-      <c r="C72" s="28" t="s">
-        <v>62</v>
-      </c>
-      <c r="D72" s="21"/>
-      <c r="E72" s="21"/>
-      <c r="F72" s="21"/>
-      <c r="G72" s="21"/>
-      <c r="H72" s="21"/>
-      <c r="I72" s="21"/>
-      <c r="J72" s="21"/>
-      <c r="K72" s="21"/>
-      <c r="L72" s="21"/>
-      <c r="M72" s="21"/>
-      <c r="N72" s="21"/>
-      <c r="O72" s="21"/>
-      <c r="P72" s="21"/>
-      <c r="Q72" s="21"/>
-      <c r="R72" s="21"/>
-      <c r="S72" s="21"/>
-      <c r="T72" s="21"/>
-      <c r="U72" s="21"/>
-      <c r="V72" s="21"/>
-      <c r="W72" s="21"/>
-      <c r="X72" s="21"/>
-      <c r="Y72" s="21"/>
-      <c r="Z72" s="21"/>
-      <c r="AA72" s="21"/>
-      <c r="AB72" s="21"/>
-      <c r="AC72" s="21"/>
-      <c r="AD72" s="21"/>
-      <c r="AE72" s="21"/>
-      <c r="AF72" s="21"/>
-      <c r="AG72" s="21"/>
-      <c r="AH72" s="21"/>
-      <c r="AI72" s="21"/>
-      <c r="AJ72" s="21"/>
-      <c r="AK72" s="21"/>
-      <c r="AL72" s="21"/>
-      <c r="AM72" s="21"/>
-      <c r="AN72" s="21"/>
-      <c r="AO72" s="21"/>
-      <c r="AP72" s="21"/>
-      <c r="AQ72" s="21"/>
-      <c r="AR72" s="21"/>
-      <c r="AS72" s="21"/>
-      <c r="AT72" s="21"/>
-      <c r="AU72" s="21"/>
-      <c r="AV72" s="21"/>
-      <c r="AW72" s="21"/>
-      <c r="AX72" s="21"/>
-      <c r="AY72" s="21"/>
-      <c r="AZ72" s="21"/>
-      <c r="BA72" s="21"/>
-      <c r="BB72" s="21"/>
-      <c r="BC72" s="21"/>
-      <c r="BD72" s="21"/>
-      <c r="BE72" s="21"/>
-      <c r="BF72" s="21"/>
-      <c r="BG72" s="21"/>
-      <c r="BH72" s="21"/>
-      <c r="BI72" s="21"/>
-      <c r="BJ72" s="21"/>
-      <c r="BK72" s="21"/>
-      <c r="BL72" s="21"/>
-      <c r="BM72" s="21"/>
-      <c r="BN72" s="21"/>
+    <row r="72" spans="1:66">
+      <c r="B72" s="22"/>
+      <c r="C72" s="29" t="s">
+        <v>140</v>
+      </c>
+      <c r="D72" s="22"/>
+      <c r="E72" s="22"/>
+      <c r="F72" s="22"/>
+      <c r="G72" s="22"/>
+      <c r="H72" s="23"/>
+      <c r="I72" s="23"/>
+      <c r="J72" s="23"/>
+      <c r="K72" s="22"/>
+      <c r="L72" s="1"/>
+      <c r="M72" s="1"/>
+      <c r="N72" s="1"/>
+      <c r="O72" s="1"/>
+      <c r="P72" s="1"/>
+      <c r="Q72" s="1"/>
+      <c r="R72" s="1"/>
+      <c r="S72" s="1"/>
+      <c r="T72" s="1"/>
+      <c r="U72" s="1"/>
+      <c r="V72" s="1"/>
+      <c r="W72" s="1"/>
+      <c r="X72" s="1"/>
+      <c r="Y72" s="1"/>
+      <c r="Z72" s="1"/>
+      <c r="AA72" s="1"/>
+      <c r="AB72" s="1"/>
+      <c r="AC72" s="1"/>
+      <c r="AD72" s="1"/>
+      <c r="AE72" s="1"/>
+      <c r="AF72" s="1"/>
+      <c r="AG72" s="1"/>
+      <c r="AH72" s="1"/>
+      <c r="AI72" s="1"/>
+      <c r="AJ72" s="1"/>
+      <c r="AK72" s="1"/>
+      <c r="AL72" s="1"/>
+      <c r="AM72" s="1"/>
+      <c r="AN72" s="1"/>
+      <c r="AO72" s="1"/>
+      <c r="AP72" s="1"/>
+      <c r="AQ72" s="1"/>
+      <c r="AR72" s="1"/>
+      <c r="AS72" s="1"/>
+      <c r="AT72" s="1"/>
+      <c r="AU72" s="1"/>
+      <c r="AV72" s="1"/>
+      <c r="AW72" s="1"/>
+      <c r="AX72" s="1"/>
+      <c r="AY72" s="1"/>
+      <c r="AZ72" s="1"/>
+      <c r="BA72" s="1"/>
+      <c r="BB72" s="1"/>
+      <c r="BC72" s="1"/>
+      <c r="BD72" s="1"/>
+      <c r="BE72" s="1"/>
+      <c r="BF72" s="1"/>
+      <c r="BG72" s="1"/>
+      <c r="BH72" s="1"/>
+      <c r="BI72" s="1"/>
+      <c r="BJ72" s="1"/>
+      <c r="BK72" s="1"/>
+      <c r="BL72" s="1"/>
+      <c r="BM72" s="1"/>
+      <c r="BN72" s="1"/>
     </row>
     <row r="73" spans="1:66">
-      <c r="A73">
+      <c r="B73" s="22"/>
+      <c r="C73" s="29" t="s">
+        <v>135</v>
+      </c>
+      <c r="D73" s="22" t="s">
         <v>58</v>
       </c>
-      <c r="B73" s="22">
-        <v>44</v>
-      </c>
-      <c r="C73" s="29" t="s">
-        <v>62</v>
-      </c>
-      <c r="D73" s="22" t="s">
-        <v>59</v>
-      </c>
-      <c r="E73" s="22" t="s">
-        <v>64</v>
-      </c>
+      <c r="E73" s="22"/>
       <c r="F73" s="22"/>
       <c r="G73" s="22"/>
       <c r="H73" s="23"/>
       <c r="I73" s="23"/>
-      <c r="J73" s="23" t="s">
-        <v>39</v>
-      </c>
+      <c r="J73" s="23"/>
       <c r="K73" s="22"/>
       <c r="L73" s="1"/>
       <c r="M73" s="1"/>
@@ -6747,99 +7373,152 @@
       <c r="BM73" s="1"/>
       <c r="BN73" s="1"/>
     </row>
-    <row r="74" spans="1:66">
-      <c r="A74">
+    <row r="74" spans="1:66" s="20" customFormat="1">
+      <c r="A74"/>
+      <c r="B74" s="21"/>
+      <c r="C74" s="30" t="s">
+        <v>112</v>
+      </c>
+      <c r="D74" s="21"/>
+      <c r="E74" s="21"/>
+      <c r="F74" s="21"/>
+      <c r="G74" s="21"/>
+      <c r="H74" s="21"/>
+      <c r="I74" s="21"/>
+      <c r="J74" s="21"/>
+      <c r="K74" s="21"/>
+      <c r="L74" s="21"/>
+      <c r="M74" s="21"/>
+      <c r="N74" s="21"/>
+      <c r="O74" s="21"/>
+      <c r="P74" s="21"/>
+      <c r="Q74" s="21"/>
+      <c r="R74" s="21"/>
+      <c r="S74" s="21"/>
+      <c r="T74" s="21"/>
+      <c r="U74" s="21"/>
+      <c r="V74" s="21"/>
+      <c r="W74" s="21"/>
+      <c r="X74" s="21"/>
+      <c r="Y74" s="21"/>
+      <c r="Z74" s="21"/>
+      <c r="AA74" s="21"/>
+      <c r="AB74" s="21"/>
+      <c r="AC74" s="21"/>
+      <c r="AD74" s="21"/>
+      <c r="AE74" s="21"/>
+      <c r="AF74" s="21"/>
+      <c r="AG74" s="21"/>
+      <c r="AH74" s="21"/>
+      <c r="AI74" s="21"/>
+      <c r="AJ74" s="21"/>
+      <c r="AK74" s="21"/>
+      <c r="AL74" s="21"/>
+      <c r="AM74" s="21"/>
+      <c r="AN74" s="21"/>
+      <c r="AO74" s="21"/>
+      <c r="AP74" s="21"/>
+      <c r="AQ74" s="21"/>
+      <c r="AR74" s="21"/>
+      <c r="AS74" s="21"/>
+      <c r="AT74" s="21"/>
+      <c r="AU74" s="21"/>
+      <c r="AV74" s="21"/>
+      <c r="AW74" s="21"/>
+      <c r="AX74" s="21"/>
+      <c r="AY74" s="21"/>
+      <c r="AZ74" s="21"/>
+      <c r="BA74" s="21"/>
+      <c r="BB74" s="21"/>
+      <c r="BC74" s="21"/>
+      <c r="BD74" s="21"/>
+      <c r="BE74" s="21"/>
+      <c r="BF74" s="21"/>
+      <c r="BG74" s="21"/>
+      <c r="BH74" s="21"/>
+      <c r="BI74" s="21"/>
+      <c r="BJ74" s="21"/>
+      <c r="BK74" s="21"/>
+      <c r="BL74" s="21"/>
+      <c r="BM74" s="21"/>
+      <c r="BN74" s="21"/>
+    </row>
+    <row r="75" spans="1:66">
+      <c r="B75" s="22"/>
+      <c r="C75" s="38" t="s">
+        <v>113</v>
+      </c>
+      <c r="D75" s="22"/>
+      <c r="E75" s="22"/>
+      <c r="F75" s="22"/>
+      <c r="G75" s="22"/>
+      <c r="H75" s="23"/>
+      <c r="I75" s="23"/>
+      <c r="J75" s="23"/>
+      <c r="K75" s="22"/>
+      <c r="L75" s="1"/>
+      <c r="M75" s="1"/>
+      <c r="N75" s="1"/>
+      <c r="O75" s="1"/>
+      <c r="P75" s="1"/>
+      <c r="Q75" s="1"/>
+      <c r="R75" s="1"/>
+      <c r="S75" s="1"/>
+      <c r="T75" s="1"/>
+      <c r="U75" s="1"/>
+      <c r="V75" s="1"/>
+      <c r="W75" s="1"/>
+      <c r="X75" s="1"/>
+      <c r="Y75" s="1"/>
+      <c r="Z75" s="1"/>
+      <c r="AA75" s="1"/>
+      <c r="AB75" s="1"/>
+      <c r="AC75" s="1"/>
+      <c r="AD75" s="1"/>
+      <c r="AE75" s="1"/>
+      <c r="AF75" s="1"/>
+      <c r="AG75" s="1"/>
+      <c r="AH75" s="1"/>
+      <c r="AI75" s="1"/>
+      <c r="AJ75" s="1"/>
+      <c r="AK75" s="1"/>
+      <c r="AL75" s="1"/>
+      <c r="AM75" s="1"/>
+      <c r="AN75" s="1"/>
+      <c r="AO75" s="1"/>
+      <c r="AP75" s="1"/>
+      <c r="AQ75" s="1"/>
+      <c r="AR75" s="1"/>
+      <c r="AS75" s="1"/>
+      <c r="AT75" s="1"/>
+      <c r="AU75" s="1"/>
+      <c r="AV75" s="1"/>
+      <c r="AW75" s="1"/>
+      <c r="AX75" s="1"/>
+      <c r="AY75" s="1"/>
+      <c r="AZ75" s="1"/>
+      <c r="BA75" s="1"/>
+      <c r="BB75" s="1"/>
+      <c r="BC75" s="1"/>
+      <c r="BD75" s="1"/>
+      <c r="BE75" s="1"/>
+      <c r="BF75" s="1"/>
+      <c r="BG75" s="1"/>
+      <c r="BH75" s="1"/>
+      <c r="BI75" s="1"/>
+      <c r="BJ75" s="1"/>
+      <c r="BK75" s="1"/>
+      <c r="BL75" s="1"/>
+      <c r="BM75" s="1"/>
+      <c r="BN75" s="1"/>
+    </row>
+    <row r="76" spans="1:66">
+      <c r="B76" s="22"/>
+      <c r="C76" s="29" t="s">
+        <v>114</v>
+      </c>
+      <c r="D76" s="22" t="s">
         <v>59</v>
-      </c>
-      <c r="B74" s="22"/>
-      <c r="C74" s="29"/>
-      <c r="D74" s="22"/>
-      <c r="E74" s="22"/>
-      <c r="F74" s="22"/>
-      <c r="G74" s="22"/>
-      <c r="H74" s="23"/>
-      <c r="I74" s="23"/>
-      <c r="J74" s="22"/>
-      <c r="K74" s="22"/>
-      <c r="L74" s="1"/>
-      <c r="M74" s="1"/>
-      <c r="N74" s="1"/>
-      <c r="O74" s="1"/>
-      <c r="P74" s="1"/>
-      <c r="Q74" s="1"/>
-      <c r="R74" s="1"/>
-      <c r="S74" s="1"/>
-      <c r="T74" s="1"/>
-      <c r="U74" s="1"/>
-      <c r="V74" s="1"/>
-      <c r="W74" s="1"/>
-      <c r="X74" s="1"/>
-      <c r="Y74" s="1"/>
-      <c r="Z74" s="1"/>
-      <c r="AA74" s="1"/>
-      <c r="AB74" s="1"/>
-      <c r="AC74" s="1"/>
-      <c r="AD74" s="1"/>
-      <c r="AE74" s="1"/>
-      <c r="AF74" s="1"/>
-      <c r="AG74" s="1"/>
-      <c r="AH74" s="1"/>
-      <c r="AI74" s="1"/>
-      <c r="AJ74" s="1"/>
-      <c r="AK74" s="1"/>
-      <c r="AL74" s="1"/>
-      <c r="AM74" s="1"/>
-      <c r="AN74" s="1"/>
-      <c r="AO74" s="1"/>
-      <c r="AP74" s="1"/>
-      <c r="AQ74" s="1"/>
-      <c r="AR74" s="1"/>
-      <c r="AS74" s="1"/>
-      <c r="AT74" s="1"/>
-      <c r="AU74" s="1"/>
-      <c r="AV74" s="1"/>
-      <c r="AW74" s="1"/>
-      <c r="AX74" s="1"/>
-      <c r="AY74" s="1"/>
-      <c r="AZ74" s="1"/>
-      <c r="BA74" s="1"/>
-      <c r="BB74" s="1"/>
-      <c r="BC74" s="1"/>
-      <c r="BD74" s="1"/>
-      <c r="BE74" s="1"/>
-      <c r="BF74" s="1"/>
-      <c r="BG74" s="1"/>
-      <c r="BH74" s="1"/>
-      <c r="BI74" s="1"/>
-      <c r="BJ74" s="1"/>
-      <c r="BK74" s="1"/>
-      <c r="BL74" s="1"/>
-      <c r="BM74" s="1"/>
-      <c r="BN74" s="1"/>
-    </row>
-    <row r="75" spans="1:66" s="28" customFormat="1">
-      <c r="A75">
-        <v>60</v>
-      </c>
-      <c r="C75" s="28" t="s">
-        <v>63</v>
-      </c>
-      <c r="J75" s="28" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="76" spans="1:66">
-      <c r="A76">
-        <v>61</v>
-      </c>
-      <c r="B76" s="22">
-        <v>45</v>
-      </c>
-      <c r="C76" s="29" t="s">
-        <v>63</v>
-      </c>
-      <c r="D76" s="22" t="s">
-        <v>71</v>
       </c>
       <c r="E76" s="22"/>
       <c r="F76" s="22"/>
@@ -6847,7 +7526,7 @@
       <c r="H76" s="23"/>
       <c r="I76" s="23"/>
       <c r="J76" s="23" t="s">
-        <v>95</v>
+        <v>40</v>
       </c>
       <c r="K76" s="22"/>
       <c r="L76" s="1"/>
@@ -6870,9 +7549,7 @@
       <c r="AC76" s="1"/>
       <c r="AD76" s="1"/>
       <c r="AE76" s="1"/>
-      <c r="AF76" s="1" t="s">
-        <v>52</v>
-      </c>
+      <c r="AF76" s="1"/>
       <c r="AG76" s="1"/>
       <c r="AH76" s="1"/>
       <c r="AI76" s="1"/>
@@ -6908,283 +7585,1865 @@
       <c r="BM76" s="1"/>
       <c r="BN76" s="1"/>
     </row>
-    <row r="77" spans="1:66" s="20" customFormat="1">
-      <c r="A77"/>
-      <c r="B77" s="21"/>
-      <c r="C77" s="28" t="s">
+    <row r="77" spans="1:66">
+      <c r="B77" s="22"/>
+      <c r="C77" s="29" t="s">
+        <v>104</v>
+      </c>
+      <c r="D77" s="22"/>
+      <c r="E77" s="22"/>
+      <c r="F77" s="22"/>
+      <c r="G77" s="22"/>
+      <c r="H77" s="23"/>
+      <c r="I77" s="23"/>
+      <c r="J77" s="23" t="s">
+        <v>95</v>
+      </c>
+      <c r="K77" s="22"/>
+      <c r="L77" s="1"/>
+      <c r="M77" s="1"/>
+      <c r="N77" s="1"/>
+      <c r="O77" s="1"/>
+      <c r="P77" s="1"/>
+      <c r="Q77" s="1"/>
+      <c r="R77" s="1"/>
+      <c r="S77" s="1"/>
+      <c r="T77" s="1"/>
+      <c r="U77" s="1"/>
+      <c r="V77" s="1"/>
+      <c r="W77" s="1"/>
+      <c r="X77" s="1"/>
+      <c r="Y77" s="1"/>
+      <c r="Z77" s="1"/>
+      <c r="AA77" s="1"/>
+      <c r="AB77" s="1"/>
+      <c r="AC77" s="1"/>
+      <c r="AD77" s="1"/>
+      <c r="AE77" s="1"/>
+      <c r="AF77" s="1"/>
+      <c r="AG77" s="1"/>
+      <c r="AH77" s="1"/>
+      <c r="AI77" s="1"/>
+      <c r="AJ77" s="1"/>
+      <c r="AK77" s="1"/>
+      <c r="AL77" s="1"/>
+      <c r="AM77" s="1"/>
+      <c r="AN77" s="1"/>
+      <c r="AO77" s="1"/>
+      <c r="AP77" s="1"/>
+      <c r="AQ77" s="1"/>
+      <c r="AR77" s="1"/>
+      <c r="AS77" s="1"/>
+      <c r="AT77" s="1"/>
+      <c r="AU77" s="1"/>
+      <c r="AV77" s="1"/>
+      <c r="AW77" s="1"/>
+      <c r="AX77" s="1"/>
+      <c r="AY77" s="1"/>
+      <c r="AZ77" s="1"/>
+      <c r="BA77" s="1"/>
+      <c r="BB77" s="1"/>
+      <c r="BC77" s="1"/>
+      <c r="BD77" s="1"/>
+      <c r="BE77" s="1"/>
+      <c r="BF77" s="1"/>
+      <c r="BG77" s="1"/>
+      <c r="BH77" s="1"/>
+      <c r="BI77" s="1"/>
+      <c r="BJ77" s="1"/>
+      <c r="BK77" s="1"/>
+      <c r="BL77" s="1"/>
+      <c r="BM77" s="1"/>
+      <c r="BN77" s="1"/>
+    </row>
+    <row r="78" spans="1:66">
+      <c r="B78" s="22"/>
+      <c r="C78" s="38" t="s">
+        <v>115</v>
+      </c>
+      <c r="D78" s="22"/>
+      <c r="E78" s="22"/>
+      <c r="F78" s="22"/>
+      <c r="G78" s="22"/>
+      <c r="H78" s="23"/>
+      <c r="I78" s="23"/>
+      <c r="J78" s="23"/>
+      <c r="K78" s="22"/>
+      <c r="L78" s="1"/>
+      <c r="M78" s="1"/>
+      <c r="N78" s="1"/>
+      <c r="O78" s="1"/>
+      <c r="P78" s="1"/>
+      <c r="Q78" s="1"/>
+      <c r="R78" s="1"/>
+      <c r="S78" s="1"/>
+      <c r="T78" s="1"/>
+      <c r="U78" s="1"/>
+      <c r="V78" s="1"/>
+      <c r="W78" s="1"/>
+      <c r="X78" s="1"/>
+      <c r="Y78" s="1"/>
+      <c r="Z78" s="1"/>
+      <c r="AA78" s="1"/>
+      <c r="AB78" s="1"/>
+      <c r="AC78" s="1"/>
+      <c r="AD78" s="1"/>
+      <c r="AE78" s="1"/>
+      <c r="AF78" s="1"/>
+      <c r="AG78" s="1"/>
+      <c r="AH78" s="1"/>
+      <c r="AI78" s="1"/>
+      <c r="AJ78" s="1"/>
+      <c r="AK78" s="1"/>
+      <c r="AL78" s="1"/>
+      <c r="AM78" s="1"/>
+      <c r="AN78" s="1"/>
+      <c r="AO78" s="1"/>
+      <c r="AP78" s="1"/>
+      <c r="AQ78" s="1"/>
+      <c r="AR78" s="1"/>
+      <c r="AS78" s="1"/>
+      <c r="AT78" s="1"/>
+      <c r="AU78" s="1"/>
+      <c r="AV78" s="1"/>
+      <c r="AW78" s="1"/>
+      <c r="AX78" s="1"/>
+      <c r="AY78" s="1"/>
+      <c r="AZ78" s="1"/>
+      <c r="BA78" s="1"/>
+      <c r="BB78" s="1"/>
+      <c r="BC78" s="1"/>
+      <c r="BD78" s="1"/>
+      <c r="BE78" s="1"/>
+      <c r="BF78" s="1"/>
+      <c r="BG78" s="1"/>
+      <c r="BH78" s="1"/>
+      <c r="BI78" s="1"/>
+      <c r="BJ78" s="1"/>
+      <c r="BK78" s="1"/>
+      <c r="BL78" s="1"/>
+      <c r="BM78" s="1"/>
+      <c r="BN78" s="1"/>
+    </row>
+    <row r="79" spans="1:66">
+      <c r="B79" s="22"/>
+      <c r="C79" s="29" t="s">
+        <v>105</v>
+      </c>
+      <c r="D79" s="22"/>
+      <c r="E79" s="22"/>
+      <c r="F79" s="22"/>
+      <c r="G79" s="22"/>
+      <c r="H79" s="23"/>
+      <c r="I79" s="23"/>
+      <c r="J79" s="23" t="s">
+        <v>95</v>
+      </c>
+      <c r="K79" s="22"/>
+      <c r="L79" s="1"/>
+      <c r="M79" s="1"/>
+      <c r="N79" s="1"/>
+      <c r="O79" s="1"/>
+      <c r="P79" s="1"/>
+      <c r="Q79" s="1"/>
+      <c r="R79" s="1"/>
+      <c r="S79" s="1"/>
+      <c r="T79" s="1"/>
+      <c r="U79" s="1"/>
+      <c r="V79" s="1"/>
+      <c r="W79" s="1"/>
+      <c r="X79" s="1"/>
+      <c r="Y79" s="1"/>
+      <c r="Z79" s="1"/>
+      <c r="AA79" s="1"/>
+      <c r="AB79" s="1"/>
+      <c r="AC79" s="1"/>
+      <c r="AD79" s="1"/>
+      <c r="AE79" s="1"/>
+      <c r="AF79" s="1"/>
+      <c r="AG79" s="1"/>
+      <c r="AH79" s="1"/>
+      <c r="AI79" s="1"/>
+      <c r="AJ79" s="1"/>
+      <c r="AK79" s="1"/>
+      <c r="AL79" s="1"/>
+      <c r="AM79" s="1"/>
+      <c r="AN79" s="1"/>
+      <c r="AO79" s="1"/>
+      <c r="AP79" s="1"/>
+      <c r="AQ79" s="1"/>
+      <c r="AR79" s="1"/>
+      <c r="AS79" s="1"/>
+      <c r="AT79" s="1"/>
+      <c r="AU79" s="1"/>
+      <c r="AV79" s="1"/>
+      <c r="AW79" s="1"/>
+      <c r="AX79" s="1"/>
+      <c r="AY79" s="1"/>
+      <c r="AZ79" s="1"/>
+      <c r="BA79" s="1"/>
+      <c r="BB79" s="1"/>
+      <c r="BC79" s="1"/>
+      <c r="BD79" s="1"/>
+      <c r="BE79" s="1"/>
+      <c r="BF79" s="1"/>
+      <c r="BG79" s="1"/>
+      <c r="BH79" s="1"/>
+      <c r="BI79" s="1"/>
+      <c r="BJ79" s="1"/>
+      <c r="BK79" s="1"/>
+      <c r="BL79" s="1"/>
+      <c r="BM79" s="1"/>
+      <c r="BN79" s="1"/>
+    </row>
+    <row r="80" spans="1:66">
+      <c r="B80" s="22"/>
+      <c r="C80" s="29" t="s">
+        <v>106</v>
+      </c>
+      <c r="D80" s="22"/>
+      <c r="E80" s="22"/>
+      <c r="F80" s="22"/>
+      <c r="G80" s="22"/>
+      <c r="H80" s="23"/>
+      <c r="I80" s="23"/>
+      <c r="J80" s="23" t="s">
+        <v>95</v>
+      </c>
+      <c r="K80" s="22"/>
+      <c r="L80" s="1"/>
+      <c r="M80" s="1"/>
+      <c r="N80" s="1"/>
+      <c r="O80" s="1"/>
+      <c r="P80" s="1"/>
+      <c r="Q80" s="1"/>
+      <c r="R80" s="1"/>
+      <c r="S80" s="1"/>
+      <c r="T80" s="1"/>
+      <c r="U80" s="1"/>
+      <c r="V80" s="1"/>
+      <c r="W80" s="1"/>
+      <c r="X80" s="1"/>
+      <c r="Y80" s="1"/>
+      <c r="Z80" s="1"/>
+      <c r="AA80" s="1"/>
+      <c r="AB80" s="1"/>
+      <c r="AC80" s="1"/>
+      <c r="AD80" s="1"/>
+      <c r="AE80" s="1"/>
+      <c r="AF80" s="1"/>
+      <c r="AG80" s="1"/>
+      <c r="AH80" s="1"/>
+      <c r="AI80" s="1"/>
+      <c r="AJ80" s="1"/>
+      <c r="AK80" s="1"/>
+      <c r="AL80" s="1"/>
+      <c r="AM80" s="1"/>
+      <c r="AN80" s="1"/>
+      <c r="AO80" s="1"/>
+      <c r="AP80" s="1"/>
+      <c r="AQ80" s="1"/>
+      <c r="AR80" s="1"/>
+      <c r="AS80" s="1"/>
+      <c r="AT80" s="1"/>
+      <c r="AU80" s="1"/>
+      <c r="AV80" s="1"/>
+      <c r="AW80" s="1"/>
+      <c r="AX80" s="1"/>
+      <c r="AY80" s="1"/>
+      <c r="AZ80" s="1"/>
+      <c r="BA80" s="1"/>
+      <c r="BB80" s="1"/>
+      <c r="BC80" s="1"/>
+      <c r="BD80" s="1"/>
+      <c r="BE80" s="1"/>
+      <c r="BF80" s="1"/>
+      <c r="BG80" s="1"/>
+      <c r="BH80" s="1"/>
+      <c r="BI80" s="1"/>
+      <c r="BJ80" s="1"/>
+      <c r="BK80" s="1"/>
+      <c r="BL80" s="1"/>
+      <c r="BM80" s="1"/>
+      <c r="BN80" s="1"/>
+    </row>
+    <row r="81" spans="1:66">
+      <c r="B81" s="22"/>
+      <c r="C81" s="29" t="s">
+        <v>107</v>
+      </c>
+      <c r="D81" s="22"/>
+      <c r="E81" s="22"/>
+      <c r="F81" s="22"/>
+      <c r="G81" s="22"/>
+      <c r="H81" s="23"/>
+      <c r="I81" s="23"/>
+      <c r="J81" s="23" t="s">
+        <v>95</v>
+      </c>
+      <c r="K81" s="22"/>
+      <c r="L81" s="1"/>
+      <c r="M81" s="1"/>
+      <c r="N81" s="1"/>
+      <c r="O81" s="1"/>
+      <c r="P81" s="1"/>
+      <c r="Q81" s="1"/>
+      <c r="R81" s="1"/>
+      <c r="S81" s="1"/>
+      <c r="T81" s="1"/>
+      <c r="U81" s="1"/>
+      <c r="V81" s="1"/>
+      <c r="W81" s="1"/>
+      <c r="X81" s="1"/>
+      <c r="Y81" s="1"/>
+      <c r="Z81" s="1"/>
+      <c r="AA81" s="1"/>
+      <c r="AB81" s="1"/>
+      <c r="AC81" s="1"/>
+      <c r="AD81" s="1"/>
+      <c r="AE81" s="1"/>
+      <c r="AF81" s="1"/>
+      <c r="AG81" s="1"/>
+      <c r="AH81" s="1"/>
+      <c r="AI81" s="1"/>
+      <c r="AJ81" s="1"/>
+      <c r="AK81" s="1"/>
+      <c r="AL81" s="1"/>
+      <c r="AM81" s="1"/>
+      <c r="AN81" s="1"/>
+      <c r="AO81" s="1"/>
+      <c r="AP81" s="1"/>
+      <c r="AQ81" s="1"/>
+      <c r="AR81" s="1"/>
+      <c r="AS81" s="1"/>
+      <c r="AT81" s="1"/>
+      <c r="AU81" s="1"/>
+      <c r="AV81" s="1"/>
+      <c r="AW81" s="1"/>
+      <c r="AX81" s="1"/>
+      <c r="AY81" s="1"/>
+      <c r="AZ81" s="1"/>
+      <c r="BA81" s="1"/>
+      <c r="BB81" s="1"/>
+      <c r="BC81" s="1"/>
+      <c r="BD81" s="1"/>
+      <c r="BE81" s="1"/>
+      <c r="BF81" s="1"/>
+      <c r="BG81" s="1"/>
+      <c r="BH81" s="1"/>
+      <c r="BI81" s="1"/>
+      <c r="BJ81" s="1"/>
+      <c r="BK81" s="1"/>
+      <c r="BL81" s="1"/>
+      <c r="BM81" s="1"/>
+      <c r="BN81" s="1"/>
+    </row>
+    <row r="82" spans="1:66">
+      <c r="B82" s="22"/>
+      <c r="C82" s="29" t="s">
+        <v>108</v>
+      </c>
+      <c r="D82" s="22"/>
+      <c r="E82" s="22"/>
+      <c r="F82" s="22"/>
+      <c r="G82" s="22"/>
+      <c r="H82" s="23"/>
+      <c r="I82" s="23"/>
+      <c r="J82" s="23" t="s">
+        <v>95</v>
+      </c>
+      <c r="K82" s="22"/>
+      <c r="L82" s="1"/>
+      <c r="M82" s="1"/>
+      <c r="N82" s="1"/>
+      <c r="O82" s="1"/>
+      <c r="P82" s="1"/>
+      <c r="Q82" s="1"/>
+      <c r="R82" s="1"/>
+      <c r="S82" s="1"/>
+      <c r="T82" s="1"/>
+      <c r="U82" s="1"/>
+      <c r="V82" s="1"/>
+      <c r="W82" s="1"/>
+      <c r="X82" s="1"/>
+      <c r="Y82" s="1"/>
+      <c r="Z82" s="1"/>
+      <c r="AA82" s="1"/>
+      <c r="AB82" s="1"/>
+      <c r="AC82" s="1"/>
+      <c r="AD82" s="1"/>
+      <c r="AE82" s="1"/>
+      <c r="AF82" s="1"/>
+      <c r="AG82" s="1"/>
+      <c r="AH82" s="1"/>
+      <c r="AI82" s="1"/>
+      <c r="AJ82" s="1"/>
+      <c r="AK82" s="1"/>
+      <c r="AL82" s="1"/>
+      <c r="AM82" s="1"/>
+      <c r="AN82" s="1"/>
+      <c r="AO82" s="1"/>
+      <c r="AP82" s="1"/>
+      <c r="AQ82" s="1"/>
+      <c r="AR82" s="1"/>
+      <c r="AS82" s="1"/>
+      <c r="AT82" s="1"/>
+      <c r="AU82" s="1"/>
+      <c r="AV82" s="1"/>
+      <c r="AW82" s="1"/>
+      <c r="AX82" s="1"/>
+      <c r="AY82" s="1"/>
+      <c r="AZ82" s="1"/>
+      <c r="BA82" s="1"/>
+      <c r="BB82" s="1"/>
+      <c r="BC82" s="1"/>
+      <c r="BD82" s="1"/>
+      <c r="BE82" s="1"/>
+      <c r="BF82" s="1"/>
+      <c r="BG82" s="1"/>
+      <c r="BH82" s="1"/>
+      <c r="BI82" s="1"/>
+      <c r="BJ82" s="1"/>
+      <c r="BK82" s="1"/>
+      <c r="BL82" s="1"/>
+      <c r="BM82" s="1"/>
+      <c r="BN82" s="1"/>
+    </row>
+    <row r="83" spans="1:66">
+      <c r="B83" s="22"/>
+      <c r="C83" s="38" t="s">
+        <v>109</v>
+      </c>
+      <c r="D83" s="22"/>
+      <c r="E83" s="22"/>
+      <c r="F83" s="22"/>
+      <c r="G83" s="22"/>
+      <c r="H83" s="23"/>
+      <c r="I83" s="23"/>
+      <c r="J83" s="23" t="s">
+        <v>95</v>
+      </c>
+      <c r="K83" s="22"/>
+      <c r="L83" s="1"/>
+      <c r="M83" s="1"/>
+      <c r="N83" s="1"/>
+      <c r="O83" s="1"/>
+      <c r="P83" s="1"/>
+      <c r="Q83" s="1"/>
+      <c r="R83" s="1"/>
+      <c r="S83" s="1"/>
+      <c r="T83" s="1"/>
+      <c r="U83" s="1"/>
+      <c r="V83" s="1"/>
+      <c r="W83" s="1"/>
+      <c r="X83" s="1"/>
+      <c r="Y83" s="1"/>
+      <c r="Z83" s="1"/>
+      <c r="AA83" s="1"/>
+      <c r="AB83" s="1"/>
+      <c r="AC83" s="1"/>
+      <c r="AD83" s="1"/>
+      <c r="AE83" s="1"/>
+      <c r="AF83" s="1"/>
+      <c r="AG83" s="1"/>
+      <c r="AH83" s="1"/>
+      <c r="AI83" s="1"/>
+      <c r="AJ83" s="1"/>
+      <c r="AK83" s="1"/>
+      <c r="AL83" s="1"/>
+      <c r="AM83" s="1"/>
+      <c r="AN83" s="1"/>
+      <c r="AO83" s="1"/>
+      <c r="AP83" s="1"/>
+      <c r="AQ83" s="1"/>
+      <c r="AR83" s="1"/>
+      <c r="AS83" s="1"/>
+      <c r="AT83" s="1"/>
+      <c r="AU83" s="1"/>
+      <c r="AV83" s="1"/>
+      <c r="AW83" s="1"/>
+      <c r="AX83" s="1"/>
+      <c r="AY83" s="1"/>
+      <c r="AZ83" s="1"/>
+      <c r="BA83" s="1"/>
+      <c r="BB83" s="1"/>
+      <c r="BC83" s="1"/>
+      <c r="BD83" s="1"/>
+      <c r="BE83" s="1"/>
+      <c r="BF83" s="1"/>
+      <c r="BG83" s="1"/>
+      <c r="BH83" s="1"/>
+      <c r="BI83" s="1"/>
+      <c r="BJ83" s="1"/>
+      <c r="BK83" s="1"/>
+      <c r="BL83" s="1"/>
+      <c r="BM83" s="1"/>
+      <c r="BN83" s="1"/>
+    </row>
+    <row r="84" spans="1:66">
+      <c r="B84" s="22"/>
+      <c r="C84" s="38" t="s">
+        <v>110</v>
+      </c>
+      <c r="D84" s="22"/>
+      <c r="E84" s="22"/>
+      <c r="F84" s="22"/>
+      <c r="G84" s="22"/>
+      <c r="H84" s="23"/>
+      <c r="I84" s="23"/>
+      <c r="J84" s="23" t="s">
+        <v>95</v>
+      </c>
+      <c r="K84" s="22"/>
+      <c r="L84" s="1"/>
+      <c r="M84" s="1"/>
+      <c r="N84" s="1"/>
+      <c r="O84" s="1"/>
+      <c r="P84" s="1"/>
+      <c r="Q84" s="1"/>
+      <c r="R84" s="1"/>
+      <c r="S84" s="1"/>
+      <c r="T84" s="1"/>
+      <c r="U84" s="1"/>
+      <c r="V84" s="1"/>
+      <c r="W84" s="1"/>
+      <c r="X84" s="1"/>
+      <c r="Y84" s="1"/>
+      <c r="Z84" s="1"/>
+      <c r="AA84" s="1"/>
+      <c r="AB84" s="1"/>
+      <c r="AC84" s="1"/>
+      <c r="AD84" s="1"/>
+      <c r="AE84" s="1"/>
+      <c r="AF84" s="1"/>
+      <c r="AG84" s="1"/>
+      <c r="AH84" s="1"/>
+      <c r="AI84" s="1"/>
+      <c r="AJ84" s="1"/>
+      <c r="AK84" s="1"/>
+      <c r="AL84" s="1"/>
+      <c r="AM84" s="1"/>
+      <c r="AN84" s="1"/>
+      <c r="AO84" s="1"/>
+      <c r="AP84" s="1"/>
+      <c r="AQ84" s="1"/>
+      <c r="AR84" s="1"/>
+      <c r="AS84" s="1"/>
+      <c r="AT84" s="1"/>
+      <c r="AU84" s="1"/>
+      <c r="AV84" s="1"/>
+      <c r="AW84" s="1"/>
+      <c r="AX84" s="1"/>
+      <c r="AY84" s="1"/>
+      <c r="AZ84" s="1"/>
+      <c r="BA84" s="1"/>
+      <c r="BB84" s="1"/>
+      <c r="BC84" s="1"/>
+      <c r="BD84" s="1"/>
+      <c r="BE84" s="1"/>
+      <c r="BF84" s="1"/>
+      <c r="BG84" s="1"/>
+      <c r="BH84" s="1"/>
+      <c r="BI84" s="1"/>
+      <c r="BJ84" s="1"/>
+      <c r="BK84" s="1"/>
+      <c r="BL84" s="1"/>
+      <c r="BM84" s="1"/>
+      <c r="BN84" s="1"/>
+    </row>
+    <row r="85" spans="1:66">
+      <c r="B85" s="22"/>
+      <c r="C85" s="38" t="s">
+        <v>116</v>
+      </c>
+      <c r="D85" s="22"/>
+      <c r="E85" s="22"/>
+      <c r="F85" s="22"/>
+      <c r="G85" s="22"/>
+      <c r="H85" s="23"/>
+      <c r="I85" s="23"/>
+      <c r="J85" s="23" t="s">
+        <v>95</v>
+      </c>
+      <c r="K85" s="22"/>
+      <c r="L85" s="1"/>
+      <c r="M85" s="1"/>
+      <c r="N85" s="1"/>
+      <c r="O85" s="1"/>
+      <c r="P85" s="1"/>
+      <c r="Q85" s="1"/>
+      <c r="R85" s="1"/>
+      <c r="S85" s="1"/>
+      <c r="T85" s="1"/>
+      <c r="U85" s="1"/>
+      <c r="V85" s="1"/>
+      <c r="W85" s="1"/>
+      <c r="X85" s="1"/>
+      <c r="Y85" s="1"/>
+      <c r="Z85" s="1"/>
+      <c r="AA85" s="1"/>
+      <c r="AB85" s="1"/>
+      <c r="AC85" s="1"/>
+      <c r="AD85" s="1"/>
+      <c r="AE85" s="1"/>
+      <c r="AF85" s="1"/>
+      <c r="AG85" s="1"/>
+      <c r="AH85" s="1"/>
+      <c r="AI85" s="1"/>
+      <c r="AJ85" s="1"/>
+      <c r="AK85" s="1"/>
+      <c r="AL85" s="1"/>
+      <c r="AM85" s="1"/>
+      <c r="AN85" s="1"/>
+      <c r="AO85" s="1"/>
+      <c r="AP85" s="1"/>
+      <c r="AQ85" s="1"/>
+      <c r="AR85" s="1"/>
+      <c r="AS85" s="1"/>
+      <c r="AT85" s="1"/>
+      <c r="AU85" s="1"/>
+      <c r="AV85" s="1"/>
+      <c r="AW85" s="1"/>
+      <c r="AX85" s="1"/>
+      <c r="AY85" s="1"/>
+      <c r="AZ85" s="1"/>
+      <c r="BA85" s="1"/>
+      <c r="BB85" s="1"/>
+      <c r="BC85" s="1"/>
+      <c r="BD85" s="1"/>
+      <c r="BE85" s="1"/>
+      <c r="BF85" s="1"/>
+      <c r="BG85" s="1"/>
+      <c r="BH85" s="1"/>
+      <c r="BI85" s="1"/>
+      <c r="BJ85" s="1"/>
+      <c r="BK85" s="1"/>
+      <c r="BL85" s="1"/>
+      <c r="BM85" s="1"/>
+      <c r="BN85" s="1"/>
+    </row>
+    <row r="86" spans="1:66">
+      <c r="B86" s="22"/>
+      <c r="C86" s="38" t="s">
+        <v>111</v>
+      </c>
+      <c r="D86" s="22"/>
+      <c r="E86" s="22"/>
+      <c r="F86" s="22"/>
+      <c r="G86" s="22"/>
+      <c r="H86" s="23"/>
+      <c r="I86" s="23"/>
+      <c r="J86" s="23" t="s">
+        <v>95</v>
+      </c>
+      <c r="K86" s="22"/>
+      <c r="L86" s="1"/>
+      <c r="M86" s="1"/>
+      <c r="N86" s="1"/>
+      <c r="O86" s="1"/>
+      <c r="P86" s="1"/>
+      <c r="Q86" s="1"/>
+      <c r="R86" s="1"/>
+      <c r="S86" s="1"/>
+      <c r="T86" s="1"/>
+      <c r="U86" s="1"/>
+      <c r="V86" s="1"/>
+      <c r="W86" s="1"/>
+      <c r="X86" s="1"/>
+      <c r="Y86" s="1"/>
+      <c r="Z86" s="1"/>
+      <c r="AA86" s="1"/>
+      <c r="AB86" s="1"/>
+      <c r="AC86" s="1"/>
+      <c r="AD86" s="1"/>
+      <c r="AE86" s="1"/>
+      <c r="AF86" s="1"/>
+      <c r="AG86" s="1"/>
+      <c r="AH86" s="1"/>
+      <c r="AI86" s="1"/>
+      <c r="AJ86" s="1"/>
+      <c r="AK86" s="1"/>
+      <c r="AL86" s="1"/>
+      <c r="AM86" s="1"/>
+      <c r="AN86" s="1"/>
+      <c r="AO86" s="1"/>
+      <c r="AP86" s="1"/>
+      <c r="AQ86" s="1"/>
+      <c r="AR86" s="1"/>
+      <c r="AS86" s="1"/>
+      <c r="AT86" s="1"/>
+      <c r="AU86" s="1"/>
+      <c r="AV86" s="1"/>
+      <c r="AW86" s="1"/>
+      <c r="AX86" s="1"/>
+      <c r="AY86" s="1"/>
+      <c r="AZ86" s="1"/>
+      <c r="BA86" s="1"/>
+      <c r="BB86" s="1"/>
+      <c r="BC86" s="1"/>
+      <c r="BD86" s="1"/>
+      <c r="BE86" s="1"/>
+      <c r="BF86" s="1"/>
+      <c r="BG86" s="1"/>
+      <c r="BH86" s="1"/>
+      <c r="BI86" s="1"/>
+      <c r="BJ86" s="1"/>
+      <c r="BK86" s="1"/>
+      <c r="BL86" s="1"/>
+      <c r="BM86" s="1"/>
+      <c r="BN86" s="1"/>
+    </row>
+    <row r="87" spans="1:66">
+      <c r="B87" s="22"/>
+      <c r="C87" s="29"/>
+      <c r="D87" s="22"/>
+      <c r="E87" s="22"/>
+      <c r="F87" s="22"/>
+      <c r="G87" s="22"/>
+      <c r="H87" s="23"/>
+      <c r="I87" s="23"/>
+      <c r="J87" s="23"/>
+      <c r="K87" s="22"/>
+      <c r="L87" s="1"/>
+      <c r="M87" s="1"/>
+      <c r="N87" s="1"/>
+      <c r="O87" s="1"/>
+      <c r="P87" s="1"/>
+      <c r="Q87" s="1"/>
+      <c r="R87" s="1"/>
+      <c r="S87" s="1"/>
+      <c r="T87" s="1"/>
+      <c r="U87" s="1"/>
+      <c r="V87" s="1"/>
+      <c r="W87" s="1"/>
+      <c r="X87" s="1"/>
+      <c r="Y87" s="1"/>
+      <c r="Z87" s="1"/>
+      <c r="AA87" s="1"/>
+      <c r="AB87" s="1"/>
+      <c r="AC87" s="1"/>
+      <c r="AD87" s="1"/>
+      <c r="AE87" s="1"/>
+      <c r="AF87" s="1"/>
+      <c r="AG87" s="1"/>
+      <c r="AH87" s="1"/>
+      <c r="AI87" s="1"/>
+      <c r="AJ87" s="1"/>
+      <c r="AK87" s="1"/>
+      <c r="AL87" s="1"/>
+      <c r="AM87" s="1"/>
+      <c r="AN87" s="1"/>
+      <c r="AO87" s="1"/>
+      <c r="AP87" s="1"/>
+      <c r="AQ87" s="1"/>
+      <c r="AR87" s="1"/>
+      <c r="AS87" s="1"/>
+      <c r="AT87" s="1"/>
+      <c r="AU87" s="1"/>
+      <c r="AV87" s="1"/>
+      <c r="AW87" s="1"/>
+      <c r="AX87" s="1"/>
+      <c r="AY87" s="1"/>
+      <c r="AZ87" s="1"/>
+      <c r="BA87" s="1"/>
+      <c r="BB87" s="1"/>
+      <c r="BC87" s="1"/>
+      <c r="BD87" s="1"/>
+      <c r="BE87" s="1"/>
+      <c r="BF87" s="1"/>
+      <c r="BG87" s="1"/>
+      <c r="BH87" s="1"/>
+      <c r="BI87" s="1"/>
+      <c r="BJ87" s="1"/>
+      <c r="BK87" s="1"/>
+      <c r="BL87" s="1"/>
+      <c r="BM87" s="1"/>
+      <c r="BN87" s="1"/>
+    </row>
+    <row r="88" spans="1:66" s="20" customFormat="1">
+      <c r="A88"/>
+      <c r="B88" s="21"/>
+      <c r="C88" s="30" t="s">
+        <v>117</v>
+      </c>
+      <c r="D88" s="21"/>
+      <c r="E88" s="21"/>
+      <c r="F88" s="21"/>
+      <c r="G88" s="21"/>
+      <c r="H88" s="21"/>
+      <c r="I88" s="21"/>
+      <c r="J88" s="21"/>
+      <c r="K88" s="21"/>
+      <c r="L88" s="21"/>
+      <c r="M88" s="21"/>
+      <c r="N88" s="21"/>
+      <c r="O88" s="21"/>
+      <c r="P88" s="21"/>
+      <c r="Q88" s="21"/>
+      <c r="R88" s="21"/>
+      <c r="S88" s="21"/>
+      <c r="T88" s="21"/>
+      <c r="U88" s="21"/>
+      <c r="V88" s="21"/>
+      <c r="W88" s="21"/>
+      <c r="X88" s="21"/>
+      <c r="Y88" s="21"/>
+      <c r="Z88" s="21"/>
+      <c r="AA88" s="21"/>
+      <c r="AB88" s="21"/>
+      <c r="AC88" s="21"/>
+      <c r="AD88" s="21"/>
+      <c r="AE88" s="21"/>
+      <c r="AF88" s="21"/>
+      <c r="AG88" s="21"/>
+      <c r="AH88" s="21"/>
+      <c r="AI88" s="21"/>
+      <c r="AJ88" s="21"/>
+      <c r="AK88" s="21"/>
+      <c r="AL88" s="21"/>
+      <c r="AM88" s="21"/>
+      <c r="AN88" s="21"/>
+      <c r="AO88" s="21"/>
+      <c r="AP88" s="21"/>
+      <c r="AQ88" s="21"/>
+      <c r="AR88" s="21"/>
+      <c r="AS88" s="21"/>
+      <c r="AT88" s="21"/>
+      <c r="AU88" s="21"/>
+      <c r="AV88" s="21"/>
+      <c r="AW88" s="21"/>
+      <c r="AX88" s="21"/>
+      <c r="AY88" s="21"/>
+      <c r="AZ88" s="21"/>
+      <c r="BA88" s="21"/>
+      <c r="BB88" s="21"/>
+      <c r="BC88" s="21"/>
+      <c r="BD88" s="21"/>
+      <c r="BE88" s="21"/>
+      <c r="BF88" s="21"/>
+      <c r="BG88" s="21"/>
+      <c r="BH88" s="21"/>
+      <c r="BI88" s="21"/>
+      <c r="BJ88" s="21"/>
+      <c r="BK88" s="21"/>
+      <c r="BL88" s="21"/>
+      <c r="BM88" s="21"/>
+      <c r="BN88" s="21"/>
+    </row>
+    <row r="89" spans="1:66">
+      <c r="B89" s="22"/>
+      <c r="C89" s="37" t="s">
+        <v>118</v>
+      </c>
+      <c r="D89" s="22"/>
+      <c r="E89" s="22"/>
+      <c r="F89" s="22"/>
+      <c r="G89" s="22"/>
+      <c r="H89" s="23"/>
+      <c r="I89" s="23"/>
+      <c r="J89" s="23"/>
+      <c r="K89" s="22"/>
+      <c r="L89" s="1"/>
+      <c r="M89" s="1"/>
+      <c r="N89" s="1"/>
+      <c r="O89" s="1"/>
+      <c r="P89" s="1"/>
+      <c r="Q89" s="1"/>
+      <c r="R89" s="1"/>
+      <c r="S89" s="1"/>
+      <c r="T89" s="1"/>
+      <c r="U89" s="1"/>
+      <c r="V89" s="1"/>
+      <c r="W89" s="1"/>
+      <c r="X89" s="1"/>
+      <c r="Y89" s="1"/>
+      <c r="Z89" s="1"/>
+      <c r="AA89" s="1"/>
+      <c r="AB89" s="1"/>
+      <c r="AC89" s="1"/>
+      <c r="AD89" s="1"/>
+      <c r="AE89" s="1"/>
+      <c r="AF89" s="1"/>
+      <c r="AG89" s="1"/>
+      <c r="AH89" s="1"/>
+      <c r="AI89" s="1"/>
+      <c r="AJ89" s="1"/>
+      <c r="AK89" s="1"/>
+      <c r="AL89" s="1"/>
+      <c r="AM89" s="1"/>
+      <c r="AN89" s="1"/>
+      <c r="AO89" s="1"/>
+      <c r="AP89" s="1"/>
+      <c r="AQ89" s="1"/>
+      <c r="AR89" s="1"/>
+      <c r="AS89" s="1"/>
+      <c r="AT89" s="1"/>
+      <c r="AU89" s="1"/>
+      <c r="AV89" s="1"/>
+      <c r="AW89" s="1"/>
+      <c r="AX89" s="1"/>
+      <c r="AY89" s="1"/>
+      <c r="AZ89" s="1"/>
+      <c r="BA89" s="1"/>
+      <c r="BB89" s="1"/>
+      <c r="BC89" s="1"/>
+      <c r="BD89" s="1"/>
+      <c r="BE89" s="1"/>
+      <c r="BF89" s="1"/>
+      <c r="BG89" s="1"/>
+      <c r="BH89" s="1"/>
+      <c r="BI89" s="1"/>
+      <c r="BJ89" s="1"/>
+      <c r="BK89" s="1"/>
+      <c r="BL89" s="1"/>
+      <c r="BM89" s="1"/>
+      <c r="BN89" s="1"/>
+    </row>
+    <row r="90" spans="1:66">
+      <c r="B90" s="22"/>
+      <c r="C90" s="37" t="s">
+        <v>119</v>
+      </c>
+      <c r="D90" s="22"/>
+      <c r="E90" s="22"/>
+      <c r="F90" s="22"/>
+      <c r="G90" s="22"/>
+      <c r="H90" s="23"/>
+      <c r="I90" s="23"/>
+      <c r="J90" s="23"/>
+      <c r="K90" s="22"/>
+      <c r="L90" s="1"/>
+      <c r="M90" s="1"/>
+      <c r="N90" s="1"/>
+      <c r="O90" s="1"/>
+      <c r="P90" s="1"/>
+      <c r="Q90" s="1"/>
+      <c r="R90" s="1"/>
+      <c r="S90" s="1"/>
+      <c r="T90" s="1"/>
+      <c r="U90" s="1"/>
+      <c r="V90" s="1"/>
+      <c r="W90" s="1"/>
+      <c r="X90" s="1"/>
+      <c r="Y90" s="1"/>
+      <c r="Z90" s="1"/>
+      <c r="AA90" s="1"/>
+      <c r="AB90" s="1"/>
+      <c r="AC90" s="1"/>
+      <c r="AD90" s="1"/>
+      <c r="AE90" s="1"/>
+      <c r="AF90" s="1"/>
+      <c r="AG90" s="1"/>
+      <c r="AH90" s="1"/>
+      <c r="AI90" s="1"/>
+      <c r="AJ90" s="1"/>
+      <c r="AK90" s="1"/>
+      <c r="AL90" s="1"/>
+      <c r="AM90" s="1"/>
+      <c r="AN90" s="1"/>
+      <c r="AO90" s="1"/>
+      <c r="AP90" s="1"/>
+      <c r="AQ90" s="1"/>
+      <c r="AR90" s="1"/>
+      <c r="AS90" s="1"/>
+      <c r="AT90" s="1"/>
+      <c r="AU90" s="1"/>
+      <c r="AV90" s="1"/>
+      <c r="AW90" s="1"/>
+      <c r="AX90" s="1"/>
+      <c r="AY90" s="1"/>
+      <c r="AZ90" s="1"/>
+      <c r="BA90" s="1"/>
+      <c r="BB90" s="1"/>
+      <c r="BC90" s="1"/>
+      <c r="BD90" s="1"/>
+      <c r="BE90" s="1"/>
+      <c r="BF90" s="1"/>
+      <c r="BG90" s="1"/>
+      <c r="BH90" s="1"/>
+      <c r="BI90" s="1"/>
+      <c r="BJ90" s="1"/>
+      <c r="BK90" s="1"/>
+      <c r="BL90" s="1"/>
+      <c r="BM90" s="1"/>
+      <c r="BN90" s="1"/>
+    </row>
+    <row r="91" spans="1:66">
+      <c r="B91" s="22"/>
+      <c r="C91" s="29"/>
+      <c r="D91" s="22"/>
+      <c r="E91" s="22"/>
+      <c r="F91" s="22"/>
+      <c r="G91" s="22"/>
+      <c r="H91" s="23"/>
+      <c r="I91" s="23"/>
+      <c r="J91" s="23"/>
+      <c r="K91" s="22"/>
+      <c r="L91" s="1"/>
+      <c r="M91" s="1"/>
+      <c r="N91" s="1"/>
+      <c r="O91" s="1"/>
+      <c r="P91" s="1"/>
+      <c r="Q91" s="1"/>
+      <c r="R91" s="1"/>
+      <c r="S91" s="1"/>
+      <c r="T91" s="1"/>
+      <c r="U91" s="1"/>
+      <c r="V91" s="1"/>
+      <c r="W91" s="1"/>
+      <c r="X91" s="1"/>
+      <c r="Y91" s="1"/>
+      <c r="Z91" s="1"/>
+      <c r="AA91" s="1"/>
+      <c r="AB91" s="1"/>
+      <c r="AC91" s="1"/>
+      <c r="AD91" s="1"/>
+      <c r="AE91" s="1"/>
+      <c r="AF91" s="1"/>
+      <c r="AG91" s="1"/>
+      <c r="AH91" s="1"/>
+      <c r="AI91" s="1"/>
+      <c r="AJ91" s="1"/>
+      <c r="AK91" s="1"/>
+      <c r="AL91" s="1"/>
+      <c r="AM91" s="1"/>
+      <c r="AN91" s="1"/>
+      <c r="AO91" s="1"/>
+      <c r="AP91" s="1"/>
+      <c r="AQ91" s="1"/>
+      <c r="AR91" s="1"/>
+      <c r="AS91" s="1"/>
+      <c r="AT91" s="1"/>
+      <c r="AU91" s="1"/>
+      <c r="AV91" s="1"/>
+      <c r="AW91" s="1"/>
+      <c r="AX91" s="1"/>
+      <c r="AY91" s="1"/>
+      <c r="AZ91" s="1"/>
+      <c r="BA91" s="1"/>
+      <c r="BB91" s="1"/>
+      <c r="BC91" s="1"/>
+      <c r="BD91" s="1"/>
+      <c r="BE91" s="1"/>
+      <c r="BF91" s="1"/>
+      <c r="BG91" s="1"/>
+      <c r="BH91" s="1"/>
+      <c r="BI91" s="1"/>
+      <c r="BJ91" s="1"/>
+      <c r="BK91" s="1"/>
+      <c r="BL91" s="1"/>
+      <c r="BM91" s="1"/>
+      <c r="BN91" s="1"/>
+    </row>
+    <row r="92" spans="1:66" s="20" customFormat="1">
+      <c r="A92">
+        <v>5</v>
+      </c>
+      <c r="B92" s="21"/>
+      <c r="C92" s="30" t="s">
+        <v>54</v>
+      </c>
+      <c r="D92" s="21"/>
+      <c r="E92" s="21"/>
+      <c r="F92" s="21"/>
+      <c r="G92" s="21"/>
+      <c r="H92" s="21"/>
+      <c r="I92" s="21"/>
+      <c r="J92" s="21"/>
+      <c r="K92" s="21"/>
+      <c r="L92" s="21"/>
+      <c r="M92" s="21"/>
+      <c r="N92" s="21"/>
+      <c r="O92" s="21"/>
+      <c r="P92" s="21"/>
+      <c r="Q92" s="21"/>
+      <c r="R92" s="21"/>
+      <c r="S92" s="21"/>
+      <c r="T92" s="21"/>
+      <c r="U92" s="21"/>
+      <c r="V92" s="21"/>
+      <c r="W92" s="21"/>
+      <c r="X92" s="21"/>
+      <c r="Y92" s="21"/>
+      <c r="Z92" s="21"/>
+      <c r="AA92" s="21"/>
+      <c r="AB92" s="21"/>
+      <c r="AC92" s="21"/>
+      <c r="AD92" s="21"/>
+      <c r="AE92" s="21"/>
+      <c r="AF92" s="21"/>
+      <c r="AG92" s="21"/>
+      <c r="AH92" s="21"/>
+      <c r="AI92" s="21"/>
+      <c r="AJ92" s="21"/>
+      <c r="AK92" s="21"/>
+      <c r="AL92" s="21"/>
+      <c r="AM92" s="21"/>
+      <c r="AN92" s="21"/>
+      <c r="AO92" s="21"/>
+      <c r="AP92" s="21"/>
+      <c r="AQ92" s="21"/>
+      <c r="AR92" s="21"/>
+      <c r="AS92" s="21"/>
+      <c r="AT92" s="21"/>
+      <c r="AU92" s="21"/>
+      <c r="AV92" s="21"/>
+      <c r="AW92" s="21"/>
+      <c r="AX92" s="21"/>
+      <c r="AY92" s="21"/>
+      <c r="AZ92" s="21"/>
+      <c r="BA92" s="21"/>
+      <c r="BB92" s="21"/>
+      <c r="BC92" s="21"/>
+      <c r="BD92" s="21"/>
+      <c r="BE92" s="21"/>
+      <c r="BF92" s="21"/>
+      <c r="BG92" s="21"/>
+      <c r="BH92" s="21"/>
+      <c r="BI92" s="21"/>
+      <c r="BJ92" s="21"/>
+      <c r="BK92" s="21"/>
+      <c r="BL92" s="21"/>
+      <c r="BM92" s="21"/>
+      <c r="BN92" s="21"/>
+    </row>
+    <row r="93" spans="1:66">
+      <c r="A93">
+        <v>6</v>
+      </c>
+      <c r="B93" s="22">
+        <v>5</v>
+      </c>
+      <c r="C93" s="29" t="s">
+        <v>87</v>
+      </c>
+      <c r="D93" s="22" t="s">
+        <v>64</v>
+      </c>
+      <c r="E93" s="22" t="s">
+        <v>70</v>
+      </c>
+      <c r="F93" s="22"/>
+      <c r="G93" s="22"/>
+      <c r="H93" s="23"/>
+      <c r="I93" s="23"/>
+      <c r="J93" s="23" t="s">
+        <v>40</v>
+      </c>
+      <c r="K93" s="22"/>
+      <c r="L93" s="1"/>
+      <c r="M93" s="1"/>
+      <c r="N93" s="1"/>
+      <c r="O93" s="1"/>
+      <c r="P93" s="1"/>
+      <c r="Q93" s="1"/>
+      <c r="R93" s="1"/>
+      <c r="S93" s="1"/>
+      <c r="T93" s="1"/>
+      <c r="U93" s="1"/>
+      <c r="V93" s="1"/>
+      <c r="W93" s="1"/>
+      <c r="X93" s="1"/>
+      <c r="Y93" s="1"/>
+      <c r="Z93" s="1"/>
+      <c r="AA93" s="1"/>
+      <c r="AB93" s="1"/>
+      <c r="AC93" s="1"/>
+      <c r="AD93" s="1"/>
+      <c r="AE93" s="1"/>
+      <c r="AF93" s="1"/>
+      <c r="AG93" s="1"/>
+      <c r="AH93" s="1"/>
+      <c r="AI93" s="1"/>
+      <c r="AJ93" s="1"/>
+      <c r="AK93" s="1"/>
+      <c r="AL93" s="1"/>
+      <c r="AM93" s="1"/>
+      <c r="AN93" s="1"/>
+      <c r="AO93" s="1"/>
+      <c r="AP93" s="1"/>
+      <c r="AQ93" s="1"/>
+      <c r="AR93" s="1"/>
+      <c r="AS93" s="1"/>
+      <c r="AT93" s="1"/>
+      <c r="AU93" s="1"/>
+      <c r="AV93" s="1"/>
+      <c r="AW93" s="1"/>
+      <c r="AX93" s="1"/>
+      <c r="AY93" s="1"/>
+      <c r="AZ93" s="1"/>
+      <c r="BA93" s="1"/>
+      <c r="BB93" s="1"/>
+      <c r="BC93" s="1"/>
+      <c r="BD93" s="1"/>
+      <c r="BE93" s="1"/>
+      <c r="BF93" s="1"/>
+      <c r="BG93" s="1"/>
+      <c r="BH93" s="1"/>
+      <c r="BI93" s="1"/>
+      <c r="BJ93" s="1"/>
+      <c r="BK93" s="1"/>
+      <c r="BL93" s="1"/>
+      <c r="BM93" s="1"/>
+      <c r="BN93" s="1"/>
+    </row>
+    <row r="94" spans="1:66">
+      <c r="B94" s="22"/>
+      <c r="C94" s="29"/>
+      <c r="D94" s="22"/>
+      <c r="E94" s="22"/>
+      <c r="F94" s="22"/>
+      <c r="G94" s="22"/>
+      <c r="H94" s="23"/>
+      <c r="I94" s="23"/>
+      <c r="J94" s="23"/>
+      <c r="K94" s="22"/>
+      <c r="L94" s="1"/>
+      <c r="M94" s="1"/>
+      <c r="N94" s="1"/>
+      <c r="O94" s="1"/>
+      <c r="P94" s="1"/>
+      <c r="Q94" s="1"/>
+      <c r="R94" s="1"/>
+      <c r="S94" s="1"/>
+      <c r="T94" s="1"/>
+      <c r="U94" s="1"/>
+      <c r="V94" s="1"/>
+      <c r="W94" s="1"/>
+      <c r="X94" s="1"/>
+      <c r="Y94" s="1"/>
+      <c r="Z94" s="1"/>
+      <c r="AA94" s="1"/>
+      <c r="AB94" s="1"/>
+      <c r="AC94" s="1"/>
+      <c r="AD94" s="1"/>
+      <c r="AE94" s="1"/>
+      <c r="AF94" s="1"/>
+      <c r="AG94" s="1"/>
+      <c r="AH94" s="1"/>
+      <c r="AI94" s="1"/>
+      <c r="AJ94" s="1"/>
+      <c r="AK94" s="1"/>
+      <c r="AL94" s="1"/>
+      <c r="AM94" s="1"/>
+      <c r="AN94" s="1"/>
+      <c r="AO94" s="1"/>
+      <c r="AP94" s="1"/>
+      <c r="AQ94" s="1"/>
+      <c r="AR94" s="1"/>
+      <c r="AS94" s="1"/>
+      <c r="AT94" s="1"/>
+      <c r="AU94" s="1"/>
+      <c r="AV94" s="1"/>
+      <c r="AW94" s="1"/>
+      <c r="AX94" s="1"/>
+      <c r="AY94" s="1"/>
+      <c r="AZ94" s="1"/>
+      <c r="BA94" s="1"/>
+      <c r="BB94" s="1"/>
+      <c r="BC94" s="1"/>
+      <c r="BD94" s="1"/>
+      <c r="BE94" s="1"/>
+      <c r="BF94" s="1"/>
+      <c r="BG94" s="1"/>
+      <c r="BH94" s="1"/>
+      <c r="BI94" s="1"/>
+      <c r="BJ94" s="1"/>
+      <c r="BK94" s="1"/>
+      <c r="BL94" s="1"/>
+      <c r="BM94" s="1"/>
+      <c r="BN94" s="1"/>
+    </row>
+    <row r="95" spans="1:66" s="20" customFormat="1">
+      <c r="A95">
+        <v>57</v>
+      </c>
+      <c r="B95" s="21"/>
+      <c r="C95" s="28" t="s">
+        <v>62</v>
+      </c>
+      <c r="D95" s="21"/>
+      <c r="E95" s="21"/>
+      <c r="F95" s="21"/>
+      <c r="G95" s="21"/>
+      <c r="H95" s="21"/>
+      <c r="I95" s="21"/>
+      <c r="J95" s="21"/>
+      <c r="K95" s="21"/>
+      <c r="L95" s="21"/>
+      <c r="M95" s="21"/>
+      <c r="N95" s="21"/>
+      <c r="O95" s="21"/>
+      <c r="P95" s="21"/>
+      <c r="Q95" s="21"/>
+      <c r="R95" s="21"/>
+      <c r="S95" s="21"/>
+      <c r="T95" s="21"/>
+      <c r="U95" s="21"/>
+      <c r="V95" s="21"/>
+      <c r="W95" s="21"/>
+      <c r="X95" s="21"/>
+      <c r="Y95" s="21"/>
+      <c r="Z95" s="21"/>
+      <c r="AA95" s="21"/>
+      <c r="AB95" s="21"/>
+      <c r="AC95" s="21"/>
+      <c r="AD95" s="21"/>
+      <c r="AE95" s="21"/>
+      <c r="AF95" s="21"/>
+      <c r="AG95" s="21"/>
+      <c r="AH95" s="21"/>
+      <c r="AI95" s="21"/>
+      <c r="AJ95" s="21"/>
+      <c r="AK95" s="21"/>
+      <c r="AL95" s="21"/>
+      <c r="AM95" s="21"/>
+      <c r="AN95" s="21"/>
+      <c r="AO95" s="21"/>
+      <c r="AP95" s="21"/>
+      <c r="AQ95" s="21"/>
+      <c r="AR95" s="21"/>
+      <c r="AS95" s="21"/>
+      <c r="AT95" s="21"/>
+      <c r="AU95" s="21"/>
+      <c r="AV95" s="21"/>
+      <c r="AW95" s="21"/>
+      <c r="AX95" s="21"/>
+      <c r="AY95" s="21"/>
+      <c r="AZ95" s="21"/>
+      <c r="BA95" s="21"/>
+      <c r="BB95" s="21"/>
+      <c r="BC95" s="21"/>
+      <c r="BD95" s="21"/>
+      <c r="BE95" s="21"/>
+      <c r="BF95" s="21"/>
+      <c r="BG95" s="21"/>
+      <c r="BH95" s="21"/>
+      <c r="BI95" s="21"/>
+      <c r="BJ95" s="21"/>
+      <c r="BK95" s="21"/>
+      <c r="BL95" s="21"/>
+      <c r="BM95" s="21"/>
+      <c r="BN95" s="21"/>
+    </row>
+    <row r="96" spans="1:66">
+      <c r="A96">
+        <v>58</v>
+      </c>
+      <c r="B96" s="22">
+        <v>44</v>
+      </c>
+      <c r="C96" s="29" t="s">
+        <v>62</v>
+      </c>
+      <c r="D96" s="22" t="s">
+        <v>59</v>
+      </c>
+      <c r="E96" s="22" t="s">
+        <v>64</v>
+      </c>
+      <c r="F96" s="22"/>
+      <c r="G96" s="22"/>
+      <c r="H96" s="23"/>
+      <c r="I96" s="23"/>
+      <c r="J96" s="23" t="s">
+        <v>39</v>
+      </c>
+      <c r="K96" s="22"/>
+      <c r="L96" s="1"/>
+      <c r="M96" s="1"/>
+      <c r="N96" s="1"/>
+      <c r="O96" s="1"/>
+      <c r="P96" s="1"/>
+      <c r="Q96" s="1"/>
+      <c r="R96" s="1"/>
+      <c r="S96" s="1"/>
+      <c r="T96" s="1"/>
+      <c r="U96" s="1"/>
+      <c r="V96" s="1"/>
+      <c r="W96" s="1"/>
+      <c r="X96" s="1"/>
+      <c r="Y96" s="1"/>
+      <c r="Z96" s="1"/>
+      <c r="AA96" s="1"/>
+      <c r="AB96" s="1"/>
+      <c r="AC96" s="1"/>
+      <c r="AD96" s="1"/>
+      <c r="AE96" s="1"/>
+      <c r="AF96" s="1"/>
+      <c r="AG96" s="1"/>
+      <c r="AH96" s="1"/>
+      <c r="AI96" s="1"/>
+      <c r="AJ96" s="1"/>
+      <c r="AK96" s="1"/>
+      <c r="AL96" s="1"/>
+      <c r="AM96" s="1"/>
+      <c r="AN96" s="1"/>
+      <c r="AO96" s="1"/>
+      <c r="AP96" s="1"/>
+      <c r="AQ96" s="1"/>
+      <c r="AR96" s="1"/>
+      <c r="AS96" s="1"/>
+      <c r="AT96" s="1"/>
+      <c r="AU96" s="1"/>
+      <c r="AV96" s="1"/>
+      <c r="AW96" s="1"/>
+      <c r="AX96" s="1"/>
+      <c r="AY96" s="1"/>
+      <c r="AZ96" s="1"/>
+      <c r="BA96" s="1"/>
+      <c r="BB96" s="1"/>
+      <c r="BC96" s="1"/>
+      <c r="BD96" s="1"/>
+      <c r="BE96" s="1"/>
+      <c r="BF96" s="1"/>
+      <c r="BG96" s="1"/>
+      <c r="BH96" s="1"/>
+      <c r="BI96" s="1"/>
+      <c r="BJ96" s="1"/>
+      <c r="BK96" s="1"/>
+      <c r="BL96" s="1"/>
+      <c r="BM96" s="1"/>
+      <c r="BN96" s="1"/>
+    </row>
+    <row r="97" spans="1:66">
+      <c r="A97">
+        <v>59</v>
+      </c>
+      <c r="B97" s="22"/>
+      <c r="C97" s="29"/>
+      <c r="D97" s="22"/>
+      <c r="E97" s="22"/>
+      <c r="F97" s="22"/>
+      <c r="G97" s="22"/>
+      <c r="H97" s="23"/>
+      <c r="I97" s="23"/>
+      <c r="J97" s="22"/>
+      <c r="K97" s="22"/>
+      <c r="L97" s="1"/>
+      <c r="M97" s="1"/>
+      <c r="N97" s="1"/>
+      <c r="O97" s="1"/>
+      <c r="P97" s="1"/>
+      <c r="Q97" s="1"/>
+      <c r="R97" s="1"/>
+      <c r="S97" s="1"/>
+      <c r="T97" s="1"/>
+      <c r="U97" s="1"/>
+      <c r="V97" s="1"/>
+      <c r="W97" s="1"/>
+      <c r="X97" s="1"/>
+      <c r="Y97" s="1"/>
+      <c r="Z97" s="1"/>
+      <c r="AA97" s="1"/>
+      <c r="AB97" s="1"/>
+      <c r="AC97" s="1"/>
+      <c r="AD97" s="1"/>
+      <c r="AE97" s="1"/>
+      <c r="AF97" s="1"/>
+      <c r="AG97" s="1"/>
+      <c r="AH97" s="1"/>
+      <c r="AI97" s="1"/>
+      <c r="AJ97" s="1"/>
+      <c r="AK97" s="1"/>
+      <c r="AL97" s="1"/>
+      <c r="AM97" s="1"/>
+      <c r="AN97" s="1"/>
+      <c r="AO97" s="1"/>
+      <c r="AP97" s="1"/>
+      <c r="AQ97" s="1"/>
+      <c r="AR97" s="1"/>
+      <c r="AS97" s="1"/>
+      <c r="AT97" s="1"/>
+      <c r="AU97" s="1"/>
+      <c r="AV97" s="1"/>
+      <c r="AW97" s="1"/>
+      <c r="AX97" s="1"/>
+      <c r="AY97" s="1"/>
+      <c r="AZ97" s="1"/>
+      <c r="BA97" s="1"/>
+      <c r="BB97" s="1"/>
+      <c r="BC97" s="1"/>
+      <c r="BD97" s="1"/>
+      <c r="BE97" s="1"/>
+      <c r="BF97" s="1"/>
+      <c r="BG97" s="1"/>
+      <c r="BH97" s="1"/>
+      <c r="BI97" s="1"/>
+      <c r="BJ97" s="1"/>
+      <c r="BK97" s="1"/>
+      <c r="BL97" s="1"/>
+      <c r="BM97" s="1"/>
+      <c r="BN97" s="1"/>
+    </row>
+    <row r="98" spans="1:66" s="28" customFormat="1">
+      <c r="A98">
+        <v>60</v>
+      </c>
+      <c r="C98" s="28" t="s">
+        <v>63</v>
+      </c>
+      <c r="J98" s="28" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="99" spans="1:66">
+      <c r="A99">
+        <v>61</v>
+      </c>
+      <c r="B99" s="22">
+        <v>45</v>
+      </c>
+      <c r="C99" s="29" t="s">
+        <v>63</v>
+      </c>
+      <c r="D99" s="22" t="s">
+        <v>71</v>
+      </c>
+      <c r="E99" s="22"/>
+      <c r="F99" s="22"/>
+      <c r="G99" s="22"/>
+      <c r="H99" s="23"/>
+      <c r="I99" s="23"/>
+      <c r="J99" s="23" t="s">
+        <v>95</v>
+      </c>
+      <c r="K99" s="22"/>
+      <c r="L99" s="1"/>
+      <c r="M99" s="1"/>
+      <c r="N99" s="1"/>
+      <c r="O99" s="1"/>
+      <c r="P99" s="1"/>
+      <c r="Q99" s="1"/>
+      <c r="R99" s="1"/>
+      <c r="S99" s="1"/>
+      <c r="T99" s="1"/>
+      <c r="U99" s="1"/>
+      <c r="V99" s="1"/>
+      <c r="W99" s="1"/>
+      <c r="X99" s="1"/>
+      <c r="Y99" s="1"/>
+      <c r="Z99" s="1"/>
+      <c r="AA99" s="1"/>
+      <c r="AB99" s="1"/>
+      <c r="AC99" s="1"/>
+      <c r="AD99" s="1"/>
+      <c r="AE99" s="1"/>
+      <c r="AF99" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="AG99" s="1"/>
+      <c r="AH99" s="1"/>
+      <c r="AI99" s="1"/>
+      <c r="AJ99" s="1"/>
+      <c r="AK99" s="1"/>
+      <c r="AL99" s="1"/>
+      <c r="AM99" s="1"/>
+      <c r="AN99" s="1"/>
+      <c r="AO99" s="1"/>
+      <c r="AP99" s="1"/>
+      <c r="AQ99" s="1"/>
+      <c r="AR99" s="1"/>
+      <c r="AS99" s="1"/>
+      <c r="AT99" s="1"/>
+      <c r="AU99" s="1"/>
+      <c r="AV99" s="1"/>
+      <c r="AW99" s="1"/>
+      <c r="AX99" s="1"/>
+      <c r="AY99" s="1"/>
+      <c r="AZ99" s="1"/>
+      <c r="BA99" s="1"/>
+      <c r="BB99" s="1"/>
+      <c r="BC99" s="1"/>
+      <c r="BD99" s="1"/>
+      <c r="BE99" s="1"/>
+      <c r="BF99" s="1"/>
+      <c r="BG99" s="1"/>
+      <c r="BH99" s="1"/>
+      <c r="BI99" s="1"/>
+      <c r="BJ99" s="1"/>
+      <c r="BK99" s="1"/>
+      <c r="BL99" s="1"/>
+      <c r="BM99" s="1"/>
+      <c r="BN99" s="1"/>
+    </row>
+    <row r="100" spans="1:66" s="20" customFormat="1">
+      <c r="A100"/>
+      <c r="B100" s="21"/>
+      <c r="C100" s="28" t="s">
         <v>55</v>
       </c>
-      <c r="D77" s="21"/>
-      <c r="E77" s="21"/>
-      <c r="F77" s="21"/>
-      <c r="G77" s="21"/>
-      <c r="H77" s="21"/>
-      <c r="I77" s="21"/>
-      <c r="J77" s="21"/>
-      <c r="K77" s="21"/>
-      <c r="L77" s="21"/>
-      <c r="M77" s="21"/>
-      <c r="N77" s="21"/>
-      <c r="O77" s="21"/>
-      <c r="P77" s="21"/>
-      <c r="Q77" s="21"/>
-      <c r="R77" s="21"/>
-      <c r="S77" s="21"/>
-      <c r="T77" s="21"/>
-      <c r="U77" s="21"/>
-      <c r="V77" s="21"/>
-      <c r="W77" s="21"/>
-      <c r="X77" s="21"/>
-      <c r="Y77" s="21"/>
-      <c r="Z77" s="21"/>
-      <c r="AA77" s="21"/>
-      <c r="AB77" s="21"/>
-      <c r="AC77" s="21"/>
-      <c r="AD77" s="21"/>
-      <c r="AE77" s="21"/>
-      <c r="AF77" s="21"/>
-      <c r="AG77" s="21"/>
-      <c r="AH77" s="21"/>
-      <c r="AI77" s="21"/>
-      <c r="AJ77" s="21"/>
-      <c r="AK77" s="21"/>
-      <c r="AL77" s="21"/>
-      <c r="AM77" s="21"/>
-      <c r="AN77" s="21"/>
-      <c r="AO77" s="21"/>
-      <c r="AP77" s="21"/>
-      <c r="AQ77" s="21"/>
-      <c r="AR77" s="21"/>
-      <c r="AS77" s="21"/>
-      <c r="AT77" s="21"/>
-      <c r="AU77" s="21"/>
-      <c r="AV77" s="21"/>
-      <c r="AW77" s="21"/>
-      <c r="AX77" s="21"/>
-      <c r="AY77" s="21"/>
-      <c r="AZ77" s="21"/>
-      <c r="BA77" s="21"/>
-      <c r="BB77" s="21"/>
-      <c r="BC77" s="21"/>
-      <c r="BD77" s="21"/>
-      <c r="BE77" s="21"/>
-      <c r="BF77" s="21"/>
-      <c r="BG77" s="21"/>
-      <c r="BH77" s="21"/>
-      <c r="BI77" s="21"/>
-      <c r="BJ77" s="21"/>
-      <c r="BK77" s="21"/>
-      <c r="BL77" s="21"/>
-      <c r="BM77" s="21"/>
-      <c r="BN77" s="21"/>
-    </row>
-    <row r="81" spans="1:66" s="24" customFormat="1">
-      <c r="A81"/>
-      <c r="C81" s="32" t="s">
+      <c r="D100" s="21"/>
+      <c r="E100" s="21"/>
+      <c r="F100" s="21"/>
+      <c r="G100" s="21"/>
+      <c r="H100" s="21"/>
+      <c r="I100" s="21"/>
+      <c r="J100" s="21"/>
+      <c r="K100" s="21"/>
+      <c r="L100" s="21"/>
+      <c r="M100" s="21"/>
+      <c r="N100" s="21"/>
+      <c r="O100" s="21"/>
+      <c r="P100" s="21"/>
+      <c r="Q100" s="21"/>
+      <c r="R100" s="21"/>
+      <c r="S100" s="21"/>
+      <c r="T100" s="21"/>
+      <c r="U100" s="21"/>
+      <c r="V100" s="21"/>
+      <c r="W100" s="21"/>
+      <c r="X100" s="21"/>
+      <c r="Y100" s="21"/>
+      <c r="Z100" s="21"/>
+      <c r="AA100" s="21"/>
+      <c r="AB100" s="21"/>
+      <c r="AC100" s="21"/>
+      <c r="AD100" s="21"/>
+      <c r="AE100" s="21"/>
+      <c r="AF100" s="21"/>
+      <c r="AG100" s="21"/>
+      <c r="AH100" s="21"/>
+      <c r="AI100" s="21"/>
+      <c r="AJ100" s="21"/>
+      <c r="AK100" s="21"/>
+      <c r="AL100" s="21"/>
+      <c r="AM100" s="21"/>
+      <c r="AN100" s="21"/>
+      <c r="AO100" s="21"/>
+      <c r="AP100" s="21"/>
+      <c r="AQ100" s="21"/>
+      <c r="AR100" s="21"/>
+      <c r="AS100" s="21"/>
+      <c r="AT100" s="21"/>
+      <c r="AU100" s="21"/>
+      <c r="AV100" s="21"/>
+      <c r="AW100" s="21"/>
+      <c r="AX100" s="21"/>
+      <c r="AY100" s="21"/>
+      <c r="AZ100" s="21"/>
+      <c r="BA100" s="21"/>
+      <c r="BB100" s="21"/>
+      <c r="BC100" s="21"/>
+      <c r="BD100" s="21"/>
+      <c r="BE100" s="21"/>
+      <c r="BF100" s="21"/>
+      <c r="BG100" s="21"/>
+      <c r="BH100" s="21"/>
+      <c r="BI100" s="21"/>
+      <c r="BJ100" s="21"/>
+      <c r="BK100" s="21"/>
+      <c r="BL100" s="21"/>
+      <c r="BM100" s="21"/>
+      <c r="BN100" s="21"/>
+    </row>
+    <row r="104" spans="1:66" s="24" customFormat="1">
+      <c r="A104"/>
+      <c r="C104" s="32" t="s">
         <v>53</v>
       </c>
-      <c r="H81" s="25"/>
-      <c r="I81" s="25"/>
-      <c r="J81" s="25"/>
-      <c r="L81" s="25">
+      <c r="H104" s="25"/>
+      <c r="I104" s="25"/>
+      <c r="J104" s="25"/>
+      <c r="L104" s="25">
         <f>L18</f>
         <v>41133</v>
       </c>
-      <c r="M81" s="25">
-        <f t="shared" ref="M81:BF81" si="10">M18</f>
+      <c r="M104" s="25">
+        <f t="shared" ref="M104:BF104" si="10">M18</f>
         <v>41134</v>
       </c>
-      <c r="N81" s="25">
+      <c r="N104" s="25">
         <f t="shared" si="10"/>
         <v>41135</v>
       </c>
-      <c r="O81" s="25">
+      <c r="O104" s="25">
         <f t="shared" si="10"/>
         <v>41136</v>
       </c>
-      <c r="P81" s="25">
+      <c r="P104" s="25">
         <f t="shared" si="10"/>
         <v>41137</v>
       </c>
-      <c r="Q81" s="25">
+      <c r="Q104" s="25">
         <f t="shared" si="10"/>
         <v>41138</v>
       </c>
-      <c r="R81" s="25">
+      <c r="R104" s="25">
         <f t="shared" si="10"/>
         <v>41139</v>
       </c>
-      <c r="S81" s="25">
+      <c r="S104" s="25">
         <f t="shared" si="10"/>
         <v>41140</v>
       </c>
-      <c r="T81" s="25">
+      <c r="T104" s="25">
         <f t="shared" si="10"/>
         <v>41141</v>
       </c>
-      <c r="U81" s="25">
+      <c r="U104" s="25">
         <f t="shared" si="10"/>
         <v>41142</v>
       </c>
-      <c r="V81" s="25">
+      <c r="V104" s="25">
         <f t="shared" si="10"/>
         <v>41143</v>
       </c>
-      <c r="W81" s="25">
+      <c r="W104" s="25">
         <f t="shared" si="10"/>
         <v>41144</v>
       </c>
-      <c r="X81" s="25">
+      <c r="X104" s="25">
         <f t="shared" si="10"/>
         <v>41145</v>
       </c>
-      <c r="Y81" s="25">
+      <c r="Y104" s="25">
         <f t="shared" si="10"/>
         <v>41146</v>
       </c>
-      <c r="Z81" s="25">
+      <c r="Z104" s="25">
         <f t="shared" si="10"/>
         <v>41147</v>
       </c>
-      <c r="AA81" s="25">
+      <c r="AA104" s="25">
         <f t="shared" si="10"/>
         <v>41148</v>
       </c>
-      <c r="AB81" s="25">
+      <c r="AB104" s="25">
         <f t="shared" si="10"/>
         <v>41149</v>
       </c>
-      <c r="AC81" s="25">
+      <c r="AC104" s="25">
         <f t="shared" si="10"/>
         <v>41150</v>
       </c>
-      <c r="AD81" s="25">
+      <c r="AD104" s="25">
         <f t="shared" si="10"/>
         <v>41151</v>
       </c>
-      <c r="AE81" s="25">
+      <c r="AE104" s="25">
         <f t="shared" si="10"/>
         <v>41152</v>
       </c>
-      <c r="AF81" s="25">
+      <c r="AF104" s="25">
         <f t="shared" si="10"/>
         <v>41153</v>
       </c>
-      <c r="AG81" s="25">
+      <c r="AG104" s="25">
         <f t="shared" si="10"/>
         <v>41154</v>
       </c>
-      <c r="AH81" s="25">
+      <c r="AH104" s="25">
         <f t="shared" si="10"/>
         <v>41155</v>
       </c>
-      <c r="AI81" s="25">
+      <c r="AI104" s="25">
         <f t="shared" si="10"/>
         <v>41156</v>
       </c>
-      <c r="AJ81" s="25">
+      <c r="AJ104" s="25">
         <f t="shared" si="10"/>
         <v>41157</v>
       </c>
-      <c r="AK81" s="25">
+      <c r="AK104" s="25">
         <f t="shared" si="10"/>
         <v>41158</v>
       </c>
-      <c r="AL81" s="25">
+      <c r="AL104" s="25">
         <f t="shared" si="10"/>
         <v>41159</v>
       </c>
-      <c r="AM81" s="25">
+      <c r="AM104" s="25">
         <f t="shared" si="10"/>
         <v>41160</v>
       </c>
-      <c r="AN81" s="25">
+      <c r="AN104" s="25">
         <f t="shared" si="10"/>
         <v>41161</v>
       </c>
-      <c r="AO81" s="25">
+      <c r="AO104" s="25">
         <f t="shared" si="10"/>
         <v>41162</v>
       </c>
-      <c r="AP81" s="25">
+      <c r="AP104" s="25">
         <f t="shared" si="10"/>
         <v>41163</v>
       </c>
-      <c r="AQ81" s="25">
+      <c r="AQ104" s="25">
         <f t="shared" si="10"/>
         <v>41164</v>
       </c>
-      <c r="AR81" s="25">
+      <c r="AR104" s="25">
         <f t="shared" si="10"/>
         <v>41165</v>
       </c>
-      <c r="AS81" s="25">
+      <c r="AS104" s="25">
         <f t="shared" si="10"/>
         <v>41166</v>
       </c>
-      <c r="AT81" s="25">
+      <c r="AT104" s="25">
         <f t="shared" si="10"/>
         <v>41167</v>
       </c>
-      <c r="AU81" s="25">
+      <c r="AU104" s="25">
         <f t="shared" si="10"/>
         <v>41168</v>
       </c>
-      <c r="AV81" s="25">
+      <c r="AV104" s="25">
         <f t="shared" si="10"/>
         <v>41169</v>
       </c>
-      <c r="AW81" s="25">
+      <c r="AW104" s="25">
         <f t="shared" si="10"/>
         <v>41170</v>
       </c>
-      <c r="AX81" s="25">
+      <c r="AX104" s="25">
         <f t="shared" si="10"/>
         <v>41171</v>
       </c>
-      <c r="AY81" s="25">
+      <c r="AY104" s="25">
         <f t="shared" si="10"/>
         <v>41172</v>
       </c>
-      <c r="AZ81" s="25">
+      <c r="AZ104" s="25">
         <f t="shared" si="10"/>
         <v>41173</v>
       </c>
-      <c r="BA81" s="25">
+      <c r="BA104" s="25">
         <f t="shared" si="10"/>
         <v>41174</v>
       </c>
-      <c r="BB81" s="25">
+      <c r="BB104" s="25">
         <f t="shared" si="10"/>
         <v>41175</v>
       </c>
-      <c r="BC81" s="25">
+      <c r="BC104" s="25">
         <f t="shared" si="10"/>
         <v>41176</v>
       </c>
-      <c r="BD81" s="25">
+      <c r="BD104" s="25">
         <f t="shared" si="10"/>
         <v>41177</v>
       </c>
-      <c r="BE81" s="25">
+      <c r="BE104" s="25">
         <f t="shared" si="10"/>
         <v>41178</v>
       </c>
-      <c r="BF81" s="25">
+      <c r="BF104" s="25">
         <f t="shared" si="10"/>
         <v>41179</v>
       </c>
-      <c r="BG81" s="25"/>
-      <c r="BH81" s="25"/>
-      <c r="BI81" s="25"/>
-      <c r="BJ81" s="25"/>
-      <c r="BK81" s="25"/>
-      <c r="BL81" s="25"/>
-      <c r="BM81" s="25"/>
-      <c r="BN81" s="25"/>
+      <c r="BG104" s="25"/>
+      <c r="BH104" s="25"/>
+      <c r="BI104" s="25"/>
+      <c r="BJ104" s="25"/>
+      <c r="BK104" s="25"/>
+      <c r="BL104" s="25"/>
+      <c r="BM104" s="25"/>
+      <c r="BN104" s="25"/>
     </row>
   </sheetData>
-  <autoFilter ref="A18:BF77">
+  <autoFilter ref="A18:BF100">
     <filterColumn colId="4"/>
     <filterColumn colId="5"/>
     <filterColumn colId="9"/>
@@ -7192,193 +9451,260 @@
   <sortState ref="C2:D16">
     <sortCondition ref="C2"/>
   </sortState>
-  <conditionalFormatting sqref="L78:AY78 L73:BF74 L76:BF76 L70:BF71 L20:BF23 L25:BF32 L34:BF37 L39:BF44 L46:BF50 L52:BF64 L66:BF68">
-    <cfRule type="cellIs" dxfId="87" priority="91" operator="equal">
+  <conditionalFormatting sqref="L101:AY101 L96:BN97 L99:BN99 L93:BN94 L20:BN23 L25:BN32 L34:BN37 L89:BN91 L64:BN73 L39:BN44 L46:BN59 L75:BN87">
+    <cfRule type="cellIs" dxfId="122" priority="151" operator="equal">
       <formula>"-"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="86" priority="92" operator="equal">
+    <cfRule type="cellIs" dxfId="121" priority="152" operator="equal">
       <formula>"E"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="85" priority="93" operator="equal">
+    <cfRule type="cellIs" dxfId="120" priority="153" operator="equal">
       <formula>"B"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L73:BF74 L76:BF76 L70:BF71 L20:BF23 L25:BF32 L34:BF37 L39:BF44 L46:BF50 L52:BF64 L66:BF68">
-    <cfRule type="cellIs" dxfId="84" priority="90" operator="equal">
+  <conditionalFormatting sqref="L96:BN97 L99:BN99 L93:BN94 L20:BN23 L25:BN32 L34:BN37 L89:BN91 L64:BN73 L39:BN44 L46:BN59 L75:BN87">
+    <cfRule type="cellIs" dxfId="119" priority="150" operator="equal">
       <formula>"BE"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J73 J34:J36 J76 J20:J23 J70 J39:J43 J25:J31">
-    <cfRule type="cellIs" dxfId="29" priority="164" operator="equal">
+  <conditionalFormatting sqref="J96 J34:J36 J99 J20:J23 J93 J39:J43 J25:J31 J64:J72 J46:J59 J76:J77 J79:J86">
+    <cfRule type="cellIs" dxfId="118" priority="224" operator="equal">
       <formula>$I$4</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J34:J36 J73 J76 J20:J23 J70 J39:J43 J25:J31">
-    <cfRule type="expression" dxfId="28" priority="171">
+  <conditionalFormatting sqref="J34:J36 J20:J23 J39:J43 J25:J31 J96 J99 J93 J64:J72 J57:J59 J76:J77 J79:J86">
+    <cfRule type="expression" dxfId="117" priority="231">
       <formula>AND(J20&lt;&gt;$I$4,$I20&lt;TODAY())</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BG73:BN74 BG76:BN76 BG70:BN71 BG20:BN23 BG25:BN32 BG34:BN37 BG39:BN44 BG46:BN50 BG52:BN64 BG66:BN68">
-    <cfRule type="cellIs" dxfId="83" priority="30" operator="equal">
+  <conditionalFormatting sqref="J46">
+    <cfRule type="expression" dxfId="116" priority="59">
+      <formula>AND(J46&lt;&gt;$I$4,$I46&lt;TODAY())</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J47">
+    <cfRule type="expression" dxfId="115" priority="57">
+      <formula>AND(J47&lt;&gt;$I$4,$I47&lt;TODAY())</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J48:J56">
+    <cfRule type="expression" dxfId="114" priority="55">
+      <formula>AND(J48&lt;&gt;$I$4,$I48&lt;TODAY())</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L60:BN62">
+    <cfRule type="cellIs" dxfId="113" priority="46" operator="equal">
       <formula>"-"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="82" priority="31" operator="equal">
+    <cfRule type="cellIs" dxfId="112" priority="47" operator="equal">
       <formula>"E"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="81" priority="32" operator="equal">
+    <cfRule type="cellIs" dxfId="111" priority="48" operator="equal">
       <formula>"B"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BG73:BN74 BG76:BN76 BG70:BN71 BG20:BN23 BG25:BN32 BG34:BN37 BG39:BN44 BG46:BN50 BG52:BN64 BG66:BN68">
-    <cfRule type="cellIs" dxfId="80" priority="29" operator="equal">
+  <conditionalFormatting sqref="L60:BN62">
+    <cfRule type="cellIs" dxfId="107" priority="45" operator="equal">
       <formula>"BE"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J54">
-    <cfRule type="cellIs" dxfId="61" priority="28" operator="equal">
+  <conditionalFormatting sqref="J60:J62">
+    <cfRule type="cellIs" dxfId="105" priority="44" operator="equal">
       <formula>$I$4</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J54">
-    <cfRule type="expression" dxfId="59" priority="27">
-      <formula>AND(J54&lt;&gt;$I$4,$I54&lt;TODAY())</formula>
+  <conditionalFormatting sqref="J60:J62">
+    <cfRule type="expression" dxfId="103" priority="43">
+      <formula>AND(J60&lt;&gt;$I$4,$I60&lt;TODAY())</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J56">
-    <cfRule type="cellIs" dxfId="57" priority="26" operator="equal">
+  <conditionalFormatting sqref="L60:BN62">
+    <cfRule type="cellIs" dxfId="95" priority="40" operator="equal">
+      <formula>"-"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="94" priority="41" operator="equal">
+      <formula>"E"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="93" priority="42" operator="equal">
+      <formula>"B"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L60:BN62">
+    <cfRule type="cellIs" dxfId="89" priority="39" operator="equal">
+      <formula>"BE"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J60:J62">
+    <cfRule type="cellIs" dxfId="87" priority="38" operator="equal">
       <formula>$I$4</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J56">
-    <cfRule type="expression" dxfId="55" priority="25">
-      <formula>AND(J56&lt;&gt;$I$4,$I56&lt;TODAY())</formula>
+  <conditionalFormatting sqref="J60:J62">
+    <cfRule type="expression" dxfId="85" priority="37">
+      <formula>AND(J60&lt;&gt;$I$4,$I60&lt;TODAY())</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J57">
-    <cfRule type="cellIs" dxfId="53" priority="24" operator="equal">
+  <conditionalFormatting sqref="L64:BN73">
+    <cfRule type="cellIs" dxfId="83" priority="34" operator="equal">
+      <formula>"-"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="82" priority="35" operator="equal">
+      <formula>"E"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="81" priority="36" operator="equal">
+      <formula>"B"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L64:BN73">
+    <cfRule type="cellIs" dxfId="77" priority="33" operator="equal">
+      <formula>"BE"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J64:J73">
+    <cfRule type="cellIs" dxfId="75" priority="32" operator="equal">
       <formula>$I$4</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J57">
-    <cfRule type="expression" dxfId="51" priority="23">
-      <formula>AND(J57&lt;&gt;$I$4,$I57&lt;TODAY())</formula>
+  <conditionalFormatting sqref="J64:J73">
+    <cfRule type="expression" dxfId="73" priority="31">
+      <formula>AND(J64&lt;&gt;$I$4,$I64&lt;TODAY())</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J58">
-    <cfRule type="cellIs" dxfId="49" priority="22" operator="equal">
+  <conditionalFormatting sqref="L64:BN73">
+    <cfRule type="cellIs" dxfId="71" priority="28" operator="equal">
+      <formula>"-"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="70" priority="29" operator="equal">
+      <formula>"E"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="69" priority="30" operator="equal">
+      <formula>"B"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L64:BN73">
+    <cfRule type="cellIs" dxfId="65" priority="27" operator="equal">
+      <formula>"BE"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J64:J73">
+    <cfRule type="cellIs" dxfId="63" priority="26" operator="equal">
       <formula>$I$4</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J58">
-    <cfRule type="expression" dxfId="47" priority="21">
-      <formula>AND(J58&lt;&gt;$I$4,$I58&lt;TODAY())</formula>
+  <conditionalFormatting sqref="J64:J73">
+    <cfRule type="expression" dxfId="61" priority="25">
+      <formula>AND(J64&lt;&gt;$I$4,$I64&lt;TODAY())</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J59">
+  <conditionalFormatting sqref="L76:BN77">
+    <cfRule type="cellIs" dxfId="53" priority="22" operator="equal">
+      <formula>"-"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="52" priority="23" operator="equal">
+      <formula>"E"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="51" priority="24" operator="equal">
+      <formula>"B"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L76:BN77">
+    <cfRule type="cellIs" dxfId="47" priority="21" operator="equal">
+      <formula>"BE"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J76:J77">
     <cfRule type="cellIs" dxfId="45" priority="20" operator="equal">
       <formula>$I$4</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J59">
+  <conditionalFormatting sqref="J76:J77">
     <cfRule type="expression" dxfId="43" priority="19">
-      <formula>AND(J59&lt;&gt;$I$4,$I59&lt;TODAY())</formula>
+      <formula>AND(J76&lt;&gt;$I$4,$I76&lt;TODAY())</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J60">
-    <cfRule type="cellIs" dxfId="41" priority="18" operator="equal">
-      <formula>$I$4</formula>
+  <conditionalFormatting sqref="L76:BN77">
+    <cfRule type="cellIs" dxfId="41" priority="16" operator="equal">
+      <formula>"-"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="40" priority="17" operator="equal">
+      <formula>"E"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="39" priority="18" operator="equal">
+      <formula>"B"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J60">
-    <cfRule type="expression" dxfId="39" priority="17">
-      <formula>AND(J60&lt;&gt;$I$4,$I60&lt;TODAY())</formula>
+  <conditionalFormatting sqref="L76:BN77">
+    <cfRule type="cellIs" dxfId="35" priority="15" operator="equal">
+      <formula>"BE"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J61">
-    <cfRule type="cellIs" dxfId="37" priority="16" operator="equal">
-      <formula>$I$4</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J61">
-    <cfRule type="expression" dxfId="35" priority="15">
-      <formula>AND(J61&lt;&gt;$I$4,$I61&lt;TODAY())</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J62">
+  <conditionalFormatting sqref="J76:J77">
     <cfRule type="cellIs" dxfId="33" priority="14" operator="equal">
       <formula>$I$4</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J62">
+  <conditionalFormatting sqref="J76:J77">
     <cfRule type="expression" dxfId="31" priority="13">
-      <formula>AND(J62&lt;&gt;$I$4,$I62&lt;TODAY())</formula>
+      <formula>AND(J76&lt;&gt;$I$4,$I76&lt;TODAY())</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J63">
-    <cfRule type="cellIs" dxfId="27" priority="12" operator="equal">
+  <conditionalFormatting sqref="L79:BN82">
+    <cfRule type="cellIs" dxfId="23" priority="10" operator="equal">
+      <formula>"-"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="22" priority="11" operator="equal">
+      <formula>"E"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="21" priority="12" operator="equal">
+      <formula>"B"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L79:BN82">
+    <cfRule type="cellIs" dxfId="17" priority="9" operator="equal">
+      <formula>"BE"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J79:J82">
+    <cfRule type="cellIs" dxfId="15" priority="8" operator="equal">
       <formula>$I$4</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J63">
-    <cfRule type="expression" dxfId="25" priority="11">
-      <formula>AND(J63&lt;&gt;$I$4,$I63&lt;TODAY())</formula>
+  <conditionalFormatting sqref="J79:J82">
+    <cfRule type="expression" dxfId="13" priority="7">
+      <formula>AND(J79&lt;&gt;$I$4,$I79&lt;TODAY())</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J53">
-    <cfRule type="cellIs" dxfId="23" priority="10" operator="equal">
+  <conditionalFormatting sqref="L79:BN82">
+    <cfRule type="cellIs" dxfId="11" priority="4" operator="equal">
+      <formula>"-"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="10" priority="5" operator="equal">
+      <formula>"E"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="9" priority="6" operator="equal">
+      <formula>"B"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L79:BN82">
+    <cfRule type="cellIs" dxfId="5" priority="3" operator="equal">
+      <formula>"BE"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J79:J82">
+    <cfRule type="cellIs" dxfId="3" priority="2" operator="equal">
       <formula>$I$4</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J53">
-    <cfRule type="expression" dxfId="21" priority="9">
-      <formula>AND(J53&lt;&gt;$I$4,$I53&lt;TODAY())</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J46">
-    <cfRule type="cellIs" dxfId="17" priority="8" operator="equal">
-      <formula>$I$4</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J46">
-    <cfRule type="expression" dxfId="15" priority="7">
-      <formula>AND(J46&lt;&gt;$I$4,$I46&lt;TODAY())</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J47">
-    <cfRule type="cellIs" dxfId="13" priority="6" operator="equal">
-      <formula>$I$4</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J47">
-    <cfRule type="expression" dxfId="11" priority="5">
-      <formula>AND(J47&lt;&gt;$I$4,$I47&lt;TODAY())</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J48">
-    <cfRule type="cellIs" dxfId="9" priority="4" operator="equal">
-      <formula>$I$4</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J48">
-    <cfRule type="expression" dxfId="7" priority="3">
-      <formula>AND(J48&lt;&gt;$I$4,$I48&lt;TODAY())</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J49">
-    <cfRule type="cellIs" dxfId="5" priority="2" operator="equal">
-      <formula>$I$4</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J49">
-    <cfRule type="expression" dxfId="3" priority="1">
-      <formula>AND(J49&lt;&gt;$I$4,$I49&lt;TODAY())</formula>
+  <conditionalFormatting sqref="J79:J82">
+    <cfRule type="expression" dxfId="1" priority="1">
+      <formula>AND(J79&lt;&gt;$I$4,$I79&lt;TODAY())</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J34:J36 J73:J76 J68:J71 J39:J43 J20:J23 J25:J31 J53:J54 J56:J63 J46:J49">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J46:J59 J91:J94 J39:J43 J20:J23 J25:J31 J76:J77 J79:J86 J64:J72 J96:J99 J34:J36">
       <formula1>$I$3:$I$13</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F37:F68 D25:F32 D34:F36 D37:E37 D69:F77 E39:E68 D39 D41:D68">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D63 F37:F56 D41:D56 E39:E56 D34:F36 D37:E37 D92:F100 D25:F32 D39 D65:D91 E63:F91 D57:F59">
       <formula1>$C$2:$C$16</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D19:E23">

--- a/trunk/Document/VietinBankSC Project Plan v2012.009.20.xlsx
+++ b/trunk/Document/VietinBankSC Project Plan v2012.009.20.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="165" windowWidth="14805" windowHeight="7950" firstSheet="2" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="165" windowWidth="14805" windowHeight="6840" firstSheet="2" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Yêu cầu" sheetId="2" state="hidden" r:id="rId1"/>
@@ -16,7 +16,7 @@
     <externalReference r:id="rId5"/>
   </externalReferences>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Plan!$A$18:$BF$100</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Plan!$A$18:$BF$97</definedName>
     <definedName name="members">'[1]Thành viên - Vị trí'!$C$3:$C$13</definedName>
   </definedNames>
   <calcPr calcId="124519"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="317" uniqueCount="148">
   <si>
     <t>GVCM</t>
   </si>
@@ -272,15 +272,9 @@
     <t>Lịch thanh toán lãi gốc</t>
   </si>
   <si>
-    <t>Giao dịch phong tỏa giải tỏa</t>
-  </si>
-  <si>
     <t>Chi tiết giao dịch chốt lãi</t>
   </si>
   <si>
-    <t>Lịch nhắc việc</t>
-  </si>
-  <si>
     <t>Coder</t>
   </si>
   <si>
@@ -320,9 +314,6 @@
     <t>MaiPT</t>
   </si>
   <si>
-    <t>Thiết kế giao diện và code chức năng</t>
-  </si>
-  <si>
     <t>Chưa phân</t>
   </si>
   <si>
@@ -338,9 +329,6 @@
     <t>Danh mục trái chủ - giấy chứng nhận</t>
   </si>
   <si>
-    <t>Gen winform các trang danh mục không cần demo</t>
-  </si>
-  <si>
     <t>Định nghĩa và insert dữ liệu loại từ điển</t>
   </si>
   <si>
@@ -431,9 +419,6 @@
     <t>Quản lý danh sách đợt phát hành</t>
   </si>
   <si>
-    <t>Quản lý lịch trả coupon trái phiếu</t>
-  </si>
-  <si>
     <t>Cập nhật lãi suất thả nổi</t>
   </si>
   <si>
@@ -443,9 +428,6 @@
     <t>Quản lý tham số nhắc việc</t>
   </si>
   <si>
-    <t>Quản lý chuyển nhượng</t>
-  </si>
-  <si>
     <t>Quản lý phong tỏa</t>
   </si>
   <si>
@@ -458,7 +440,46 @@
     <t>Quản lý trả gốc</t>
   </si>
   <si>
-    <t>Nhắc việc (Cho phép thêm ghi chú vào công việc)</t>
+    <t>Nghiệp vụ</t>
+  </si>
+  <si>
+    <t>Lịch nhắc việc(Cho phép thêm ghi chú vào công việc)</t>
+  </si>
+  <si>
+    <t>GenForm</t>
+  </si>
+  <si>
+    <t>CodeDetail</t>
+  </si>
+  <si>
+    <t>s</t>
+  </si>
+  <si>
+    <t>t</t>
+  </si>
+  <si>
+    <t>8-12h</t>
+  </si>
+  <si>
+    <t>c</t>
+  </si>
+  <si>
+    <t>14-18h</t>
+  </si>
+  <si>
+    <t>21-1h</t>
+  </si>
+  <si>
+    <t>s,c,t</t>
+  </si>
+  <si>
+    <t>c,t</t>
+  </si>
+  <si>
+    <t>s,t</t>
+  </si>
+  <si>
+    <t>s,c</t>
   </si>
 </sst>
 </file>
@@ -697,14 +718,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="143">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="6">
     <dxf>
       <fill>
         <patternFill>
@@ -719,1327 +733,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FF0000CC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF0000CC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <gradientFill>
-          <stop position="0">
-            <color rgb="FF0000CC"/>
-          </stop>
-          <stop position="1">
-            <color rgb="FFFF0000"/>
-          </stop>
-        </gradientFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <gradientFill>
-          <stop position="0">
-            <color rgb="FF0000CC"/>
-          </stop>
-          <stop position="1">
-            <color rgb="FFFF0000"/>
-          </stop>
-        </gradientFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF0000CC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.14996795556505021"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF0000CC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.14996795556505021"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF0000CC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF0000CC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <gradientFill>
-          <stop position="0">
-            <color rgb="FF0000CC"/>
-          </stop>
-          <stop position="1">
-            <color rgb="FFFF0000"/>
-          </stop>
-        </gradientFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <gradientFill>
-          <stop position="0">
-            <color rgb="FF0000CC"/>
-          </stop>
-          <stop position="1">
-            <color rgb="FFFF0000"/>
-          </stop>
-        </gradientFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF0000CC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.14996795556505021"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF0000CC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.14996795556505021"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF0000CC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <gradientFill>
-          <stop position="0">
-            <color rgb="FF0000CC"/>
-          </stop>
-          <stop position="1">
-            <color rgb="FFFF0000"/>
-          </stop>
-        </gradientFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF0000CC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.14996795556505021"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF0000CC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF0000CC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <gradientFill>
-          <stop position="0">
-            <color rgb="FF0000CC"/>
-          </stop>
-          <stop position="1">
-            <color rgb="FFFF0000"/>
-          </stop>
-        </gradientFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <gradientFill>
-          <stop position="0">
-            <color rgb="FF0000CC"/>
-          </stop>
-          <stop position="1">
-            <color rgb="FFFF0000"/>
-          </stop>
-        </gradientFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF0000CC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.14996795556505021"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF0000CC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.14996795556505021"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF0000CC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF0000CC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <gradientFill>
-          <stop position="0">
-            <color rgb="FF0000CC"/>
-          </stop>
-          <stop position="1">
-            <color rgb="FFFF0000"/>
-          </stop>
-        </gradientFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <gradientFill>
-          <stop position="0">
-            <color rgb="FF0000CC"/>
-          </stop>
-          <stop position="1">
-            <color rgb="FFFF0000"/>
-          </stop>
-        </gradientFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF0000CC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.14996795556505021"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF0000CC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.14996795556505021"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF0000CC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <gradientFill>
-          <stop position="0">
-            <color rgb="FF0000CC"/>
-          </stop>
-          <stop position="1">
-            <color rgb="FFFF0000"/>
-          </stop>
-        </gradientFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF0000CC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.14996795556505021"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF0000CC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF0000CC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <gradientFill>
-          <stop position="0">
-            <color rgb="FF0000CC"/>
-          </stop>
-          <stop position="1">
-            <color rgb="FFFF0000"/>
-          </stop>
-        </gradientFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <gradientFill>
-          <stop position="0">
-            <color rgb="FF0000CC"/>
-          </stop>
-          <stop position="1">
-            <color rgb="FFFF0000"/>
-          </stop>
-        </gradientFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF0000CC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.14996795556505021"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF0000CC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.14996795556505021"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF0000CC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF0000CC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <gradientFill>
-          <stop position="0">
-            <color rgb="FF0000CC"/>
-          </stop>
-          <stop position="1">
-            <color rgb="FFFF0000"/>
-          </stop>
-        </gradientFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <gradientFill>
-          <stop position="0">
-            <color rgb="FF0000CC"/>
-          </stop>
-          <stop position="1">
-            <color rgb="FFFF0000"/>
-          </stop>
-        </gradientFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF0000CC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.14996795556505021"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF0000CC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.14996795556505021"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF0000CC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF0000CC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <gradientFill>
-          <stop position="0">
-            <color rgb="FF0000CC"/>
-          </stop>
-          <stop position="1">
-            <color rgb="FFFF0000"/>
-          </stop>
-        </gradientFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <gradientFill>
-          <stop position="0">
-            <color rgb="FF0000CC"/>
-          </stop>
-          <stop position="1">
-            <color rgb="FFFF0000"/>
-          </stop>
-        </gradientFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF0000CC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.14996795556505021"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF0000CC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.14996795556505021"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF0000CC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <gradientFill>
-          <stop position="0">
-            <color rgb="FF0000CC"/>
-          </stop>
-          <stop position="1">
-            <color rgb="FFFF0000"/>
-          </stop>
-        </gradientFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF0000CC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.14996795556505021"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF0000CC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF0000CC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <gradientFill>
-          <stop position="0">
-            <color rgb="FF0000CC"/>
-          </stop>
-          <stop position="1">
-            <color rgb="FFFF0000"/>
-          </stop>
-        </gradientFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <gradientFill>
-          <stop position="0">
-            <color rgb="FF0000CC"/>
-          </stop>
-          <stop position="1">
-            <color rgb="FFFF0000"/>
-          </stop>
-        </gradientFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF0000CC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.14996795556505021"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF0000CC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.14996795556505021"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF0000CC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <gradientFill>
-          <stop position="0">
-            <color rgb="FF0000CC"/>
-          </stop>
-          <stop position="1">
-            <color rgb="FFFF0000"/>
-          </stop>
-        </gradientFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF0000CC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.14996795556505021"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF0000CC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF0000CC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF0000CC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF0000CC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF0000CC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF0000CC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <gradientFill>
-          <stop position="0">
-            <color rgb="FF0000CC"/>
-          </stop>
-          <stop position="1">
-            <color rgb="FFFF0000"/>
-          </stop>
-        </gradientFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF0000CC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.14996795556505021"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
         </patternFill>
       </fill>
     </dxf>
@@ -2712,10 +1405,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:CT104"/>
+  <dimension ref="A1:CT101"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F81" sqref="F81"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2733,23 +1426,39 @@
     <col min="51" max="66" width="5.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="3:66">
+    <row r="1" spans="2:66">
       <c r="C1" s="26" t="s">
         <v>36</v>
       </c>
       <c r="D1" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="E1" s="33"/>
-      <c r="F1" s="33"/>
-      <c r="G1" s="33"/>
-      <c r="H1" s="33"/>
+      <c r="E1" s="33">
+        <v>22</v>
+      </c>
+      <c r="F1" s="33">
+        <v>23</v>
+      </c>
+      <c r="G1" s="33">
+        <v>24</v>
+      </c>
+      <c r="H1" s="33">
+        <v>25</v>
+      </c>
       <c r="I1" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="K1" s="15"/>
-    </row>
-    <row r="2" spans="3:66">
+      <c r="J1" s="15" t="s">
+        <v>138</v>
+      </c>
+      <c r="K1" s="15" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="2" spans="2:66">
+      <c r="B2" t="s">
+        <v>10</v>
+      </c>
       <c r="C2" s="27" t="s">
         <v>64</v>
       </c>
@@ -2758,11 +1467,19 @@
       <c r="F2" s="33"/>
       <c r="G2" s="33"/>
       <c r="H2" s="33"/>
-      <c r="K2" s="15"/>
-    </row>
-    <row r="3" spans="3:66">
+      <c r="J2" s="15" t="s">
+        <v>141</v>
+      </c>
+      <c r="K2" s="15" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="3" spans="2:66">
+      <c r="B3" t="s">
+        <v>10</v>
+      </c>
       <c r="C3" s="27" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D3" s="16"/>
       <c r="E3" s="33"/>
@@ -2772,36 +1489,55 @@
       <c r="I3" s="17" t="s">
         <v>39</v>
       </c>
-      <c r="K3" s="15"/>
-    </row>
-    <row r="4" spans="3:66">
+      <c r="J3" s="15" t="s">
+        <v>139</v>
+      </c>
+      <c r="K3" s="15" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="4" spans="2:66">
       <c r="C4" s="27" t="s">
         <v>60</v>
       </c>
       <c r="D4" s="16"/>
-      <c r="E4" s="33"/>
+      <c r="E4" s="33" t="s">
+        <v>138</v>
+      </c>
       <c r="F4" s="33"/>
-      <c r="G4" s="33"/>
-      <c r="H4" s="33"/>
+      <c r="G4" s="33" t="s">
+        <v>139</v>
+      </c>
+      <c r="H4" s="33" t="s">
+        <v>141</v>
+      </c>
       <c r="I4" s="17" t="s">
         <v>40</v>
       </c>
       <c r="K4" s="15"/>
     </row>
-    <row r="5" spans="3:66">
+    <row r="5" spans="2:66">
       <c r="C5" s="27" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D5" s="16"/>
       <c r="E5" s="33"/>
-      <c r="F5" s="33"/>
+      <c r="F5" s="33" t="s">
+        <v>147</v>
+      </c>
       <c r="G5" s="15"/>
+      <c r="H5" s="15" t="s">
+        <v>141</v>
+      </c>
       <c r="I5" s="17" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="K5" s="15"/>
     </row>
-    <row r="6" spans="3:66">
+    <row r="6" spans="2:66">
+      <c r="B6" t="s">
+        <v>10</v>
+      </c>
       <c r="C6" s="27" t="s">
         <v>75</v>
       </c>
@@ -2812,18 +1548,29 @@
       <c r="H6" s="33"/>
       <c r="K6" s="15"/>
     </row>
-    <row r="7" spans="3:66">
+    <row r="7" spans="2:66">
       <c r="C7" s="27" t="s">
         <v>71</v>
       </c>
       <c r="D7" s="16"/>
-      <c r="E7" s="33"/>
-      <c r="F7" s="33"/>
-      <c r="G7" s="33"/>
-      <c r="H7" s="33"/>
+      <c r="E7" s="33" t="s">
+        <v>144</v>
+      </c>
+      <c r="F7" s="33" t="s">
+        <v>145</v>
+      </c>
+      <c r="G7" s="33" t="s">
+        <v>145</v>
+      </c>
+      <c r="H7" s="33" t="s">
+        <v>145</v>
+      </c>
       <c r="K7" s="15"/>
     </row>
-    <row r="8" spans="3:66">
+    <row r="8" spans="2:66">
+      <c r="B8" t="s">
+        <v>10</v>
+      </c>
       <c r="C8" s="27" t="s">
         <v>70</v>
       </c>
@@ -2834,85 +1581,122 @@
       <c r="H8" s="33"/>
       <c r="K8" s="15"/>
     </row>
-    <row r="9" spans="3:66">
+    <row r="9" spans="2:66">
       <c r="C9" s="27" t="s">
         <v>58</v>
       </c>
       <c r="D9" s="16">
-        <f>SUMIF($D$19:$D$100,C9,$G$19:$G$100)</f>
+        <f>SUMIF($D$19:$D$97,C9,$G$19:$G$97)</f>
         <v>0</v>
       </c>
       <c r="E9" s="33"/>
-      <c r="F9" s="33"/>
-      <c r="G9" s="33"/>
-      <c r="H9" s="33"/>
+      <c r="F9" s="33" t="s">
+        <v>146</v>
+      </c>
+      <c r="G9" s="33" t="s">
+        <v>139</v>
+      </c>
+      <c r="H9" s="33" t="s">
+        <v>139</v>
+      </c>
       <c r="K9" s="15"/>
     </row>
-    <row r="10" spans="3:66">
+    <row r="10" spans="2:66">
       <c r="C10" s="27" t="s">
         <v>61</v>
       </c>
       <c r="D10" s="16">
-        <f>SUMIF($D$19:$D$100,C10,$G$19:$G$100)</f>
+        <f>SUMIF($D$19:$D$97,C10,$G$19:$G$97)</f>
         <v>0</v>
       </c>
       <c r="E10" s="33"/>
-      <c r="F10" s="33"/>
-      <c r="G10" s="33"/>
-      <c r="H10" s="33"/>
+      <c r="F10" s="33" t="s">
+        <v>138</v>
+      </c>
+      <c r="H10" s="33" t="s">
+        <v>147</v>
+      </c>
       <c r="K10" s="15"/>
     </row>
-    <row r="11" spans="3:66">
+    <row r="11" spans="2:66">
       <c r="C11" s="27" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D11" s="16"/>
-      <c r="E11" s="33"/>
-      <c r="F11" s="33"/>
-      <c r="G11" s="33"/>
+      <c r="E11" s="33" t="s">
+        <v>147</v>
+      </c>
+      <c r="F11" s="33" t="s">
+        <v>147</v>
+      </c>
+      <c r="G11" s="33" t="s">
+        <v>141</v>
+      </c>
       <c r="H11" s="33"/>
       <c r="K11" s="15"/>
     </row>
-    <row r="12" spans="3:66">
+    <row r="12" spans="2:66">
       <c r="C12" s="27" t="s">
         <v>59</v>
       </c>
       <c r="D12" s="16">
-        <f>SUMIF($D$19:$D$100,C12,$G$19:$G$100)</f>
+        <f>SUMIF($D$19:$D$97,C12,$G$19:$G$97)</f>
         <v>0</v>
       </c>
-      <c r="E12" s="33"/>
-      <c r="F12" s="33"/>
-      <c r="G12" s="33"/>
-      <c r="H12" s="33"/>
+      <c r="E12" s="33" t="s">
+        <v>144</v>
+      </c>
+      <c r="F12" s="33" t="s">
+        <v>145</v>
+      </c>
+      <c r="G12" s="33" t="s">
+        <v>145</v>
+      </c>
+      <c r="H12" s="33" t="s">
+        <v>145</v>
+      </c>
       <c r="K12" s="15"/>
     </row>
-    <row r="13" spans="3:66">
+    <row r="13" spans="2:66">
       <c r="C13" s="27" t="s">
         <v>74</v>
       </c>
       <c r="D13" s="16"/>
-      <c r="E13" s="33"/>
-      <c r="F13" s="33"/>
-      <c r="G13" s="33"/>
-      <c r="H13" s="33"/>
+      <c r="E13" s="33" t="s">
+        <v>147</v>
+      </c>
+      <c r="F13" s="33" t="s">
+        <v>141</v>
+      </c>
+      <c r="G13" s="33" t="s">
+        <v>141</v>
+      </c>
+      <c r="H13" s="33" t="s">
+        <v>138</v>
+      </c>
       <c r="K13" s="15"/>
     </row>
-    <row r="14" spans="3:66" ht="17.25" customHeight="1">
+    <row r="14" spans="2:66" ht="17.25" customHeight="1">
       <c r="C14" s="27" t="s">
         <v>57</v>
       </c>
       <c r="D14" s="16">
-        <f>SUMIF($D$19:$D$100,C14,$G$19:$G$100)</f>
+        <f>SUMIF($D$19:$D$97,C14,$G$19:$G$97)</f>
         <v>0</v>
       </c>
       <c r="E14" s="33"/>
-      <c r="F14" s="33"/>
-      <c r="G14" s="33"/>
-      <c r="H14" s="33"/>
+      <c r="F14" s="33" t="s">
+        <v>144</v>
+      </c>
+      <c r="G14" s="33" t="s">
+        <v>138</v>
+      </c>
+      <c r="H14" s="33" t="s">
+        <v>141</v>
+      </c>
       <c r="K14" s="15"/>
     </row>
-    <row r="15" spans="3:66" s="33" customFormat="1">
+    <row r="15" spans="2:66" s="33" customFormat="1">
       <c r="C15" s="27" t="s">
         <v>67</v>
       </c>
@@ -3138,18 +1922,22 @@
         <v>41187</v>
       </c>
     </row>
-    <row r="16" spans="3:66">
+    <row r="16" spans="2:66">
       <c r="C16" s="27" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="D16" s="16">
-        <f>SUMIF($D$19:$D$100,C16,$G$19:$G$100)</f>
+        <f>SUMIF($D$19:$D$97,C16,$G$19:$G$97)</f>
         <v>0</v>
       </c>
       <c r="E16" s="33"/>
-      <c r="F16" s="33"/>
+      <c r="F16" s="33" t="s">
+        <v>138</v>
+      </c>
       <c r="G16" s="33"/>
-      <c r="H16" s="33"/>
+      <c r="H16" s="33" t="s">
+        <v>141</v>
+      </c>
       <c r="K16" s="15"/>
     </row>
     <row r="18" spans="2:98" s="18" customFormat="1" ht="30">
@@ -3403,7 +2191,7 @@
     <row r="19" spans="2:98" s="20" customFormat="1">
       <c r="B19" s="21"/>
       <c r="C19" s="30" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D19" s="36"/>
       <c r="E19" s="36"/>
@@ -3504,7 +2292,7 @@
     <row r="20" spans="2:98">
       <c r="B20" s="22"/>
       <c r="C20" s="29" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D20" s="22" t="s">
         <v>57</v>
@@ -3579,10 +2367,10 @@
     <row r="21" spans="2:98">
       <c r="B21" s="22"/>
       <c r="C21" s="29" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D21" s="22" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="E21" s="22" t="s">
         <v>71</v>
@@ -3656,7 +2444,7 @@
     <row r="22" spans="2:98">
       <c r="B22" s="22"/>
       <c r="C22" s="29" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D22" s="22" t="s">
         <v>67</v>
@@ -3733,7 +2521,7 @@
     <row r="23" spans="2:98">
       <c r="B23" s="22"/>
       <c r="C23" s="29" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D23" s="22" t="s">
         <v>67</v>
@@ -4179,7 +2967,7 @@
     <row r="29" spans="2:98">
       <c r="B29" s="22"/>
       <c r="C29" s="29" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="D29" s="22" t="s">
         <v>58</v>
@@ -4252,7 +3040,7 @@
     <row r="30" spans="2:98">
       <c r="B30" s="22"/>
       <c r="C30" s="29" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="D30" s="22" t="s">
         <v>59</v>
@@ -4464,7 +3252,7 @@
       <c r="BM32" s="1"/>
       <c r="BN32" s="1"/>
     </row>
-    <row r="33" spans="2:66" s="20" customFormat="1">
+    <row r="33" spans="1:66" s="20" customFormat="1">
       <c r="B33" s="21"/>
       <c r="C33" s="30" t="s">
         <v>49</v>
@@ -4533,7 +3321,7 @@
       <c r="BM33" s="21"/>
       <c r="BN33" s="21"/>
     </row>
-    <row r="34" spans="2:66">
+    <row r="34" spans="1:66">
       <c r="B34" s="22"/>
       <c r="C34" s="29" t="s">
         <v>56</v>
@@ -4608,7 +3396,7 @@
       <c r="BM34" s="1"/>
       <c r="BN34" s="1"/>
     </row>
-    <row r="35" spans="2:66">
+    <row r="35" spans="1:66">
       <c r="B35" s="22"/>
       <c r="C35" s="29" t="s">
         <v>50</v>
@@ -4681,7 +3469,7 @@
       <c r="BM35" s="1"/>
       <c r="BN35" s="1"/>
     </row>
-    <row r="36" spans="2:66">
+    <row r="36" spans="1:66">
       <c r="B36" s="22"/>
       <c r="C36" s="29" t="s">
         <v>51</v>
@@ -4754,10 +3542,10 @@
       <c r="BM36" s="1"/>
       <c r="BN36" s="1"/>
     </row>
-    <row r="37" spans="2:66">
+    <row r="37" spans="1:66">
       <c r="B37" s="22"/>
       <c r="C37" s="29" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="D37" s="29" t="s">
         <v>58</v>
@@ -4825,171 +3613,164 @@
       <c r="BM37" s="1"/>
       <c r="BN37" s="1"/>
     </row>
-    <row r="38" spans="2:66" s="20" customFormat="1">
-      <c r="B38" s="21"/>
-      <c r="C38" s="30" t="s">
-        <v>94</v>
-      </c>
-      <c r="D38" s="21" t="s">
-        <v>82</v>
-      </c>
-      <c r="E38" s="21" t="s">
-        <v>81</v>
-      </c>
-      <c r="F38" s="21"/>
-      <c r="G38" s="21"/>
-      <c r="H38" s="21"/>
-      <c r="I38" s="21"/>
-      <c r="J38" s="21"/>
-      <c r="K38" s="21"/>
-      <c r="L38" s="21"/>
-      <c r="M38" s="21"/>
-      <c r="N38" s="21"/>
-      <c r="O38" s="21"/>
-      <c r="P38" s="21"/>
-      <c r="Q38" s="21"/>
-      <c r="R38" s="21"/>
-      <c r="S38" s="21"/>
-      <c r="T38" s="21"/>
-      <c r="U38" s="21"/>
-      <c r="V38" s="21"/>
-      <c r="W38" s="21"/>
-      <c r="X38" s="21"/>
-      <c r="Y38" s="21"/>
-      <c r="Z38" s="21"/>
-      <c r="AA38" s="21"/>
-      <c r="AB38" s="21"/>
-      <c r="AC38" s="21"/>
-      <c r="AD38" s="21"/>
-      <c r="AE38" s="21"/>
-      <c r="AF38" s="21"/>
-      <c r="AG38" s="21"/>
-      <c r="AH38" s="21"/>
-      <c r="AI38" s="21"/>
-      <c r="AJ38" s="21"/>
-      <c r="AK38" s="21"/>
-      <c r="AL38" s="21"/>
-      <c r="AM38" s="21"/>
-      <c r="AN38" s="21"/>
-      <c r="AO38" s="21"/>
-      <c r="AP38" s="21"/>
-      <c r="AQ38" s="21"/>
-      <c r="AR38" s="21"/>
-      <c r="AS38" s="21"/>
-      <c r="AT38" s="21"/>
-      <c r="AU38" s="21"/>
-      <c r="AV38" s="21"/>
-      <c r="AW38" s="21"/>
-      <c r="AX38" s="21"/>
-      <c r="AY38" s="21"/>
-      <c r="AZ38" s="21"/>
-      <c r="BA38" s="21"/>
-      <c r="BB38" s="21"/>
-      <c r="BC38" s="21"/>
-      <c r="BD38" s="21"/>
-      <c r="BE38" s="21"/>
-      <c r="BF38" s="21"/>
-      <c r="BG38" s="21"/>
-      <c r="BH38" s="21"/>
-      <c r="BI38" s="21"/>
-      <c r="BJ38" s="21"/>
-      <c r="BK38" s="21"/>
-      <c r="BL38" s="21"/>
-      <c r="BM38" s="21"/>
-      <c r="BN38" s="21"/>
-    </row>
-    <row r="39" spans="2:66">
-      <c r="B39" s="22"/>
-      <c r="C39" s="29" t="s">
-        <v>76</v>
-      </c>
-      <c r="D39" s="22" t="s">
-        <v>71</v>
-      </c>
-      <c r="E39" s="22" t="s">
-        <v>58</v>
-      </c>
-      <c r="F39" s="22"/>
-      <c r="G39" s="22"/>
-      <c r="H39" s="23"/>
-      <c r="I39" s="23"/>
-      <c r="J39" s="23" t="s">
-        <v>95</v>
-      </c>
-      <c r="K39" s="22"/>
-      <c r="L39" s="1"/>
-      <c r="M39" s="1"/>
-      <c r="N39" s="1"/>
-      <c r="O39" s="1"/>
-      <c r="P39" s="1"/>
-      <c r="Q39" s="1"/>
-      <c r="R39" s="1"/>
-      <c r="S39" s="1"/>
-      <c r="T39" s="1"/>
-      <c r="U39" s="1"/>
-      <c r="V39" s="1"/>
-      <c r="W39" s="1"/>
-      <c r="X39" s="1"/>
-      <c r="Y39" s="1"/>
-      <c r="Z39" s="1"/>
-      <c r="AA39" s="1"/>
-      <c r="AB39" s="1"/>
-      <c r="AC39" s="1"/>
-      <c r="AD39" s="1"/>
-      <c r="AE39" s="1"/>
-      <c r="AF39" s="1"/>
-      <c r="AG39" s="1"/>
-      <c r="AH39" s="1"/>
-      <c r="AI39" s="1"/>
-      <c r="AJ39" s="1"/>
-      <c r="AK39" s="1"/>
-      <c r="AL39" s="1"/>
-      <c r="AM39" s="1"/>
-      <c r="AN39" s="1"/>
-      <c r="AO39" s="1"/>
-      <c r="AP39" s="1"/>
-      <c r="AQ39" s="1"/>
-      <c r="AR39" s="1"/>
-      <c r="AS39" s="1"/>
-      <c r="AT39" s="1"/>
-      <c r="AU39" s="1"/>
-      <c r="AV39" s="1"/>
-      <c r="AW39" s="1"/>
-      <c r="AX39" s="1"/>
-      <c r="AY39" s="1"/>
-      <c r="AZ39" s="1"/>
-      <c r="BA39" s="1"/>
-      <c r="BB39" s="1"/>
-      <c r="BC39" s="1"/>
-      <c r="BD39" s="1"/>
-      <c r="BE39" s="1"/>
-      <c r="BF39" s="1"/>
-      <c r="BG39" s="1"/>
-      <c r="BH39" s="1"/>
-      <c r="BI39" s="1"/>
-      <c r="BJ39" s="1"/>
-      <c r="BK39" s="1"/>
-      <c r="BL39" s="1"/>
-      <c r="BM39" s="1"/>
-      <c r="BN39" s="1"/>
-    </row>
-    <row r="40" spans="2:66">
+    <row r="38" spans="1:66">
+      <c r="B38" s="22"/>
+      <c r="C38" s="29"/>
+      <c r="D38" s="22"/>
+      <c r="E38" s="22"/>
+      <c r="F38" s="22"/>
+      <c r="G38" s="22"/>
+      <c r="H38" s="23"/>
+      <c r="I38" s="23"/>
+      <c r="J38" s="23"/>
+      <c r="K38" s="22"/>
+      <c r="L38" s="1"/>
+      <c r="M38" s="1"/>
+      <c r="N38" s="1"/>
+      <c r="O38" s="1"/>
+      <c r="P38" s="1"/>
+      <c r="Q38" s="1"/>
+      <c r="R38" s="1"/>
+      <c r="S38" s="1"/>
+      <c r="T38" s="1"/>
+      <c r="U38" s="1"/>
+      <c r="V38" s="1"/>
+      <c r="W38" s="1"/>
+      <c r="X38" s="1"/>
+      <c r="Y38" s="1"/>
+      <c r="Z38" s="1"/>
+      <c r="AA38" s="1"/>
+      <c r="AB38" s="1"/>
+      <c r="AC38" s="1"/>
+      <c r="AD38" s="1"/>
+      <c r="AE38" s="1"/>
+      <c r="AF38" s="1"/>
+      <c r="AG38" s="1"/>
+      <c r="AH38" s="1"/>
+      <c r="AI38" s="1"/>
+      <c r="AJ38" s="1"/>
+      <c r="AK38" s="1"/>
+      <c r="AL38" s="1"/>
+      <c r="AM38" s="1"/>
+      <c r="AN38" s="1"/>
+      <c r="AO38" s="1"/>
+      <c r="AP38" s="1"/>
+      <c r="AQ38" s="1"/>
+      <c r="AR38" s="1"/>
+      <c r="AS38" s="1"/>
+      <c r="AT38" s="1"/>
+      <c r="AU38" s="1"/>
+      <c r="AV38" s="1"/>
+      <c r="AW38" s="1"/>
+      <c r="AX38" s="1"/>
+      <c r="AY38" s="1"/>
+      <c r="AZ38" s="1"/>
+      <c r="BA38" s="1"/>
+      <c r="BB38" s="1"/>
+      <c r="BC38" s="1"/>
+      <c r="BD38" s="1"/>
+      <c r="BE38" s="1"/>
+      <c r="BF38" s="1"/>
+      <c r="BG38" s="1"/>
+      <c r="BH38" s="1"/>
+      <c r="BI38" s="1"/>
+      <c r="BJ38" s="1"/>
+      <c r="BK38" s="1"/>
+      <c r="BL38" s="1"/>
+      <c r="BM38" s="1"/>
+      <c r="BN38" s="1"/>
+    </row>
+    <row r="39" spans="1:66" s="20" customFormat="1">
+      <c r="B39" s="21"/>
+      <c r="C39" s="30" t="s">
+        <v>116</v>
+      </c>
+      <c r="D39" s="21" t="s">
+        <v>136</v>
+      </c>
+      <c r="E39" s="21" t="s">
+        <v>137</v>
+      </c>
+      <c r="F39" s="21" t="s">
+        <v>57</v>
+      </c>
+      <c r="G39" s="21"/>
+      <c r="H39" s="21"/>
+      <c r="I39" s="21"/>
+      <c r="J39" s="21"/>
+      <c r="K39" s="21"/>
+      <c r="L39" s="21"/>
+      <c r="M39" s="21"/>
+      <c r="N39" s="21"/>
+      <c r="O39" s="21"/>
+      <c r="P39" s="21"/>
+      <c r="Q39" s="21"/>
+      <c r="R39" s="21"/>
+      <c r="S39" s="21"/>
+      <c r="T39" s="21"/>
+      <c r="U39" s="21"/>
+      <c r="V39" s="21"/>
+      <c r="W39" s="21"/>
+      <c r="X39" s="21"/>
+      <c r="Y39" s="21"/>
+      <c r="Z39" s="21"/>
+      <c r="AA39" s="21"/>
+      <c r="AB39" s="21"/>
+      <c r="AC39" s="21"/>
+      <c r="AD39" s="21"/>
+      <c r="AE39" s="21"/>
+      <c r="AF39" s="21"/>
+      <c r="AG39" s="21"/>
+      <c r="AH39" s="21"/>
+      <c r="AI39" s="21"/>
+      <c r="AJ39" s="21"/>
+      <c r="AK39" s="21"/>
+      <c r="AL39" s="21"/>
+      <c r="AM39" s="21"/>
+      <c r="AN39" s="21"/>
+      <c r="AO39" s="21"/>
+      <c r="AP39" s="21"/>
+      <c r="AQ39" s="21"/>
+      <c r="AR39" s="21"/>
+      <c r="AS39" s="21"/>
+      <c r="AT39" s="21"/>
+      <c r="AU39" s="21"/>
+      <c r="AV39" s="21"/>
+      <c r="AW39" s="21"/>
+      <c r="AX39" s="21"/>
+      <c r="AY39" s="21"/>
+      <c r="AZ39" s="21"/>
+      <c r="BA39" s="21"/>
+      <c r="BB39" s="21"/>
+      <c r="BC39" s="21"/>
+      <c r="BD39" s="21"/>
+      <c r="BE39" s="21"/>
+      <c r="BF39" s="21"/>
+      <c r="BG39" s="21"/>
+      <c r="BH39" s="21"/>
+      <c r="BI39" s="21"/>
+      <c r="BJ39" s="21"/>
+      <c r="BK39" s="21"/>
+      <c r="BL39" s="21"/>
+      <c r="BM39" s="21"/>
+      <c r="BN39" s="21"/>
+    </row>
+    <row r="40" spans="1:66">
+      <c r="A40" t="s">
+        <v>10</v>
+      </c>
       <c r="B40" s="22"/>
       <c r="C40" s="29" t="s">
-        <v>77</v>
-      </c>
-      <c r="D40" s="22" t="s">
-        <v>84</v>
-      </c>
-      <c r="E40" s="22" t="s">
-        <v>71</v>
-      </c>
+        <v>117</v>
+      </c>
+      <c r="D40" s="22"/>
+      <c r="E40" s="22"/>
       <c r="F40" s="22"/>
       <c r="G40" s="22"/>
       <c r="H40" s="23"/>
       <c r="I40" s="23"/>
       <c r="J40" s="23" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="K40" s="22"/>
       <c r="L40" s="1"/>
@@ -5048,23 +3829,22 @@
       <c r="BM40" s="1"/>
       <c r="BN40" s="1"/>
     </row>
-    <row r="41" spans="2:66">
+    <row r="41" spans="1:66">
+      <c r="A41" t="s">
+        <v>10</v>
+      </c>
       <c r="B41" s="22"/>
       <c r="C41" s="29" t="s">
-        <v>78</v>
-      </c>
-      <c r="D41" s="22" t="s">
-        <v>60</v>
-      </c>
-      <c r="E41" s="22" t="s">
-        <v>58</v>
-      </c>
+        <v>118</v>
+      </c>
+      <c r="D41" s="22"/>
+      <c r="E41" s="22"/>
       <c r="F41" s="22"/>
       <c r="G41" s="22"/>
       <c r="H41" s="23"/>
       <c r="I41" s="23"/>
       <c r="J41" s="23" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="K41" s="22"/>
       <c r="L41" s="1"/>
@@ -5123,23 +3903,22 @@
       <c r="BM41" s="1"/>
       <c r="BN41" s="1"/>
     </row>
-    <row r="42" spans="2:66">
+    <row r="42" spans="1:66">
+      <c r="A42" t="s">
+        <v>10</v>
+      </c>
       <c r="B42" s="22"/>
       <c r="C42" s="29" t="s">
-        <v>79</v>
-      </c>
-      <c r="D42" s="22" t="s">
-        <v>85</v>
-      </c>
-      <c r="E42" s="22" t="s">
-        <v>71</v>
-      </c>
+        <v>119</v>
+      </c>
+      <c r="D42" s="22"/>
+      <c r="E42" s="22"/>
       <c r="F42" s="22"/>
       <c r="G42" s="22"/>
       <c r="H42" s="23"/>
       <c r="I42" s="23"/>
       <c r="J42" s="23" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="K42" s="22"/>
       <c r="L42" s="1"/>
@@ -5198,24 +3977,22 @@
       <c r="BM42" s="1"/>
       <c r="BN42" s="1"/>
     </row>
-    <row r="43" spans="2:66">
+    <row r="43" spans="1:66">
       <c r="B43" s="22"/>
       <c r="C43" s="29" t="s">
-        <v>80</v>
+        <v>123</v>
       </c>
       <c r="D43" s="22" t="s">
-        <v>86</v>
+        <v>57</v>
       </c>
       <c r="E43" s="22" t="s">
-        <v>67</v>
+        <v>57</v>
       </c>
       <c r="F43" s="22"/>
       <c r="G43" s="22"/>
       <c r="H43" s="23"/>
       <c r="I43" s="23"/>
-      <c r="J43" s="23" t="s">
-        <v>95</v>
-      </c>
+      <c r="J43" s="23"/>
       <c r="K43" s="22"/>
       <c r="L43" s="1"/>
       <c r="M43" s="1"/>
@@ -5273,11 +4050,17 @@
       <c r="BM43" s="1"/>
       <c r="BN43" s="1"/>
     </row>
-    <row r="44" spans="2:66">
+    <row r="44" spans="1:66">
       <c r="B44" s="22"/>
-      <c r="C44" s="29"/>
-      <c r="D44" s="22"/>
-      <c r="E44" s="22"/>
+      <c r="C44" s="29" t="s">
+        <v>124</v>
+      </c>
+      <c r="D44" s="22" t="s">
+        <v>82</v>
+      </c>
+      <c r="E44" s="22" t="s">
+        <v>82</v>
+      </c>
       <c r="F44" s="22"/>
       <c r="G44" s="22"/>
       <c r="H44" s="23"/>
@@ -5340,89 +4123,95 @@
       <c r="BM44" s="1"/>
       <c r="BN44" s="1"/>
     </row>
-    <row r="45" spans="2:66" s="20" customFormat="1">
-      <c r="B45" s="21"/>
-      <c r="C45" s="30" t="s">
-        <v>120</v>
-      </c>
-      <c r="D45" s="21"/>
-      <c r="E45" s="21"/>
-      <c r="F45" s="21"/>
-      <c r="G45" s="21"/>
-      <c r="H45" s="21"/>
-      <c r="I45" s="21"/>
-      <c r="J45" s="21"/>
-      <c r="K45" s="21"/>
-      <c r="L45" s="21"/>
-      <c r="M45" s="21"/>
-      <c r="N45" s="21"/>
-      <c r="O45" s="21"/>
-      <c r="P45" s="21"/>
-      <c r="Q45" s="21"/>
-      <c r="R45" s="21"/>
-      <c r="S45" s="21"/>
-      <c r="T45" s="21"/>
-      <c r="U45" s="21"/>
-      <c r="V45" s="21"/>
-      <c r="W45" s="21"/>
-      <c r="X45" s="21"/>
-      <c r="Y45" s="21"/>
-      <c r="Z45" s="21"/>
-      <c r="AA45" s="21"/>
-      <c r="AB45" s="21"/>
-      <c r="AC45" s="21"/>
-      <c r="AD45" s="21"/>
-      <c r="AE45" s="21"/>
-      <c r="AF45" s="21"/>
-      <c r="AG45" s="21"/>
-      <c r="AH45" s="21"/>
-      <c r="AI45" s="21"/>
-      <c r="AJ45" s="21"/>
-      <c r="AK45" s="21"/>
-      <c r="AL45" s="21"/>
-      <c r="AM45" s="21"/>
-      <c r="AN45" s="21"/>
-      <c r="AO45" s="21"/>
-      <c r="AP45" s="21"/>
-      <c r="AQ45" s="21"/>
-      <c r="AR45" s="21"/>
-      <c r="AS45" s="21"/>
-      <c r="AT45" s="21"/>
-      <c r="AU45" s="21"/>
-      <c r="AV45" s="21"/>
-      <c r="AW45" s="21"/>
-      <c r="AX45" s="21"/>
-      <c r="AY45" s="21"/>
-      <c r="AZ45" s="21"/>
-      <c r="BA45" s="21"/>
-      <c r="BB45" s="21"/>
-      <c r="BC45" s="21"/>
-      <c r="BD45" s="21"/>
-      <c r="BE45" s="21"/>
-      <c r="BF45" s="21"/>
-      <c r="BG45" s="21"/>
-      <c r="BH45" s="21"/>
-      <c r="BI45" s="21"/>
-      <c r="BJ45" s="21"/>
-      <c r="BK45" s="21"/>
-      <c r="BL45" s="21"/>
-      <c r="BM45" s="21"/>
-      <c r="BN45" s="21"/>
-    </row>
-    <row r="46" spans="2:66">
+    <row r="45" spans="1:66">
+      <c r="B45" s="22"/>
+      <c r="C45" s="29" t="s">
+        <v>125</v>
+      </c>
+      <c r="D45" s="22" t="s">
+        <v>59</v>
+      </c>
+      <c r="E45" s="22" t="s">
+        <v>59</v>
+      </c>
+      <c r="F45" s="22"/>
+      <c r="G45" s="22"/>
+      <c r="H45" s="23"/>
+      <c r="I45" s="23"/>
+      <c r="J45" s="23"/>
+      <c r="K45" s="22"/>
+      <c r="L45" s="1"/>
+      <c r="M45" s="1"/>
+      <c r="N45" s="1"/>
+      <c r="O45" s="1"/>
+      <c r="P45" s="1"/>
+      <c r="Q45" s="1"/>
+      <c r="R45" s="1"/>
+      <c r="S45" s="1"/>
+      <c r="T45" s="1"/>
+      <c r="U45" s="1"/>
+      <c r="V45" s="1"/>
+      <c r="W45" s="1"/>
+      <c r="X45" s="1"/>
+      <c r="Y45" s="1"/>
+      <c r="Z45" s="1"/>
+      <c r="AA45" s="1"/>
+      <c r="AB45" s="1"/>
+      <c r="AC45" s="1"/>
+      <c r="AD45" s="1"/>
+      <c r="AE45" s="1"/>
+      <c r="AF45" s="1"/>
+      <c r="AG45" s="1"/>
+      <c r="AH45" s="1"/>
+      <c r="AI45" s="1"/>
+      <c r="AJ45" s="1"/>
+      <c r="AK45" s="1"/>
+      <c r="AL45" s="1"/>
+      <c r="AM45" s="1"/>
+      <c r="AN45" s="1"/>
+      <c r="AO45" s="1"/>
+      <c r="AP45" s="1"/>
+      <c r="AQ45" s="1"/>
+      <c r="AR45" s="1"/>
+      <c r="AS45" s="1"/>
+      <c r="AT45" s="1"/>
+      <c r="AU45" s="1"/>
+      <c r="AV45" s="1"/>
+      <c r="AW45" s="1"/>
+      <c r="AX45" s="1"/>
+      <c r="AY45" s="1"/>
+      <c r="AZ45" s="1"/>
+      <c r="BA45" s="1"/>
+      <c r="BB45" s="1"/>
+      <c r="BC45" s="1"/>
+      <c r="BD45" s="1"/>
+      <c r="BE45" s="1"/>
+      <c r="BF45" s="1"/>
+      <c r="BG45" s="1"/>
+      <c r="BH45" s="1"/>
+      <c r="BI45" s="1"/>
+      <c r="BJ45" s="1"/>
+      <c r="BK45" s="1"/>
+      <c r="BL45" s="1"/>
+      <c r="BM45" s="1"/>
+      <c r="BN45" s="1"/>
+    </row>
+    <row r="46" spans="1:66">
       <c r="B46" s="22"/>
       <c r="C46" s="29" t="s">
-        <v>121</v>
-      </c>
-      <c r="D46" s="22"/>
-      <c r="E46" s="22"/>
+        <v>126</v>
+      </c>
+      <c r="D46" s="22" t="s">
+        <v>84</v>
+      </c>
+      <c r="E46" s="22" t="s">
+        <v>84</v>
+      </c>
       <c r="F46" s="22"/>
       <c r="G46" s="22"/>
       <c r="H46" s="23"/>
       <c r="I46" s="23"/>
-      <c r="J46" s="23" t="s">
-        <v>95</v>
-      </c>
+      <c r="J46" s="23"/>
       <c r="K46" s="22"/>
       <c r="L46" s="1"/>
       <c r="M46" s="1"/>
@@ -5480,20 +4269,22 @@
       <c r="BM46" s="1"/>
       <c r="BN46" s="1"/>
     </row>
-    <row r="47" spans="2:66">
+    <row r="47" spans="1:66">
       <c r="B47" s="22"/>
       <c r="C47" s="29" t="s">
-        <v>122</v>
-      </c>
-      <c r="D47" s="22"/>
-      <c r="E47" s="22"/>
+        <v>93</v>
+      </c>
+      <c r="D47" s="22" t="s">
+        <v>81</v>
+      </c>
+      <c r="E47" s="22" t="s">
+        <v>82</v>
+      </c>
       <c r="F47" s="22"/>
       <c r="G47" s="22"/>
       <c r="H47" s="23"/>
       <c r="I47" s="23"/>
-      <c r="J47" s="23" t="s">
-        <v>95</v>
-      </c>
+      <c r="J47" s="23"/>
       <c r="K47" s="22"/>
       <c r="L47" s="1"/>
       <c r="M47" s="1"/>
@@ -5551,20 +4342,22 @@
       <c r="BM47" s="1"/>
       <c r="BN47" s="1"/>
     </row>
-    <row r="48" spans="2:66">
+    <row r="48" spans="1:66">
       <c r="B48" s="22"/>
       <c r="C48" s="29" t="s">
-        <v>123</v>
-      </c>
-      <c r="D48" s="22"/>
-      <c r="E48" s="22"/>
+        <v>94</v>
+      </c>
+      <c r="D48" s="22" t="s">
+        <v>81</v>
+      </c>
+      <c r="E48" s="22" t="s">
+        <v>84</v>
+      </c>
       <c r="F48" s="22"/>
       <c r="G48" s="22"/>
       <c r="H48" s="23"/>
       <c r="I48" s="23"/>
-      <c r="J48" s="23" t="s">
-        <v>95</v>
-      </c>
+      <c r="J48" s="23"/>
       <c r="K48" s="22"/>
       <c r="L48" s="1"/>
       <c r="M48" s="1"/>
@@ -5622,13 +4415,17 @@
       <c r="BM48" s="1"/>
       <c r="BN48" s="1"/>
     </row>
-    <row r="49" spans="2:66">
+    <row r="49" spans="1:66">
       <c r="B49" s="22"/>
       <c r="C49" s="29" t="s">
-        <v>127</v>
-      </c>
-      <c r="D49" s="22"/>
-      <c r="E49" s="22"/>
+        <v>95</v>
+      </c>
+      <c r="D49" s="22" t="s">
+        <v>60</v>
+      </c>
+      <c r="E49" s="22" t="s">
+        <v>60</v>
+      </c>
       <c r="F49" s="22"/>
       <c r="G49" s="22"/>
       <c r="H49" s="23"/>
@@ -5691,13 +4488,17 @@
       <c r="BM49" s="1"/>
       <c r="BN49" s="1"/>
     </row>
-    <row r="50" spans="2:66">
+    <row r="50" spans="1:66">
       <c r="B50" s="22"/>
       <c r="C50" s="29" t="s">
-        <v>128</v>
-      </c>
-      <c r="D50" s="22"/>
-      <c r="E50" s="22"/>
+        <v>96</v>
+      </c>
+      <c r="D50" s="22" t="s">
+        <v>61</v>
+      </c>
+      <c r="E50" s="22" t="s">
+        <v>61</v>
+      </c>
       <c r="F50" s="22"/>
       <c r="G50" s="22"/>
       <c r="H50" s="23"/>
@@ -5760,18 +4561,22 @@
       <c r="BM50" s="1"/>
       <c r="BN50" s="1"/>
     </row>
-    <row r="51" spans="2:66">
+    <row r="51" spans="1:66">
+      <c r="A51" t="s">
+        <v>10</v>
+      </c>
       <c r="B51" s="22"/>
       <c r="C51" s="29" t="s">
-        <v>129</v>
-      </c>
-      <c r="D51" s="22"/>
+        <v>120</v>
+      </c>
       <c r="E51" s="22"/>
       <c r="F51" s="22"/>
       <c r="G51" s="22"/>
       <c r="H51" s="23"/>
       <c r="I51" s="23"/>
-      <c r="J51" s="23"/>
+      <c r="J51" s="23" t="s">
+        <v>92</v>
+      </c>
       <c r="K51" s="22"/>
       <c r="L51" s="1"/>
       <c r="M51" s="1"/>
@@ -5829,10 +4634,13 @@
       <c r="BM51" s="1"/>
       <c r="BN51" s="1"/>
     </row>
-    <row r="52" spans="2:66">
+    <row r="52" spans="1:66">
+      <c r="A52" t="s">
+        <v>10</v>
+      </c>
       <c r="B52" s="22"/>
       <c r="C52" s="29" t="s">
-        <v>130</v>
+        <v>121</v>
       </c>
       <c r="D52" s="22"/>
       <c r="E52" s="22"/>
@@ -5840,7 +4648,9 @@
       <c r="G52" s="22"/>
       <c r="H52" s="23"/>
       <c r="I52" s="23"/>
-      <c r="J52" s="23"/>
+      <c r="J52" s="23" t="s">
+        <v>92</v>
+      </c>
       <c r="K52" s="22"/>
       <c r="L52" s="1"/>
       <c r="M52" s="1"/>
@@ -5898,20 +4708,23 @@
       <c r="BM52" s="1"/>
       <c r="BN52" s="1"/>
     </row>
-    <row r="53" spans="2:66">
+    <row r="53" spans="1:66">
+      <c r="A53" t="s">
+        <v>10</v>
+      </c>
       <c r="B53" s="22"/>
       <c r="C53" s="29" t="s">
-        <v>96</v>
-      </c>
-      <c r="D53" s="22" t="s">
-        <v>83</v>
-      </c>
+        <v>122</v>
+      </c>
+      <c r="D53" s="22"/>
       <c r="E53" s="22"/>
       <c r="F53" s="22"/>
       <c r="G53" s="22"/>
       <c r="H53" s="23"/>
       <c r="I53" s="23"/>
-      <c r="J53" s="23"/>
+      <c r="J53" s="23" t="s">
+        <v>92</v>
+      </c>
       <c r="K53" s="22"/>
       <c r="L53" s="1"/>
       <c r="M53" s="1"/>
@@ -5969,14 +4782,10 @@
       <c r="BM53" s="1"/>
       <c r="BN53" s="1"/>
     </row>
-    <row r="54" spans="2:66">
+    <row r="54" spans="1:66">
       <c r="B54" s="22"/>
-      <c r="C54" s="29" t="s">
-        <v>97</v>
-      </c>
-      <c r="D54" s="22" t="s">
-        <v>83</v>
-      </c>
+      <c r="C54" s="29"/>
+      <c r="D54" s="22"/>
       <c r="E54" s="22"/>
       <c r="F54" s="22"/>
       <c r="G54" s="22"/>
@@ -6040,14 +4849,10 @@
       <c r="BM54" s="1"/>
       <c r="BN54" s="1"/>
     </row>
-    <row r="55" spans="2:66">
+    <row r="55" spans="1:66">
       <c r="B55" s="22"/>
-      <c r="C55" s="29" t="s">
-        <v>98</v>
-      </c>
-      <c r="D55" s="22" t="s">
-        <v>60</v>
-      </c>
+      <c r="C55" s="29"/>
+      <c r="D55" s="22"/>
       <c r="E55" s="22"/>
       <c r="F55" s="22"/>
       <c r="G55" s="22"/>
@@ -6111,14 +4916,10 @@
       <c r="BM55" s="1"/>
       <c r="BN55" s="1"/>
     </row>
-    <row r="56" spans="2:66">
+    <row r="56" spans="1:66">
       <c r="B56" s="22"/>
-      <c r="C56" s="29" t="s">
-        <v>99</v>
-      </c>
-      <c r="D56" s="22" t="s">
-        <v>61</v>
-      </c>
+      <c r="C56" s="29"/>
+      <c r="D56" s="22"/>
       <c r="E56" s="22"/>
       <c r="F56" s="22"/>
       <c r="G56" s="22"/>
@@ -6182,91 +4983,95 @@
       <c r="BM56" s="1"/>
       <c r="BN56" s="1"/>
     </row>
-    <row r="57" spans="2:66">
-      <c r="B57" s="22"/>
-      <c r="C57" s="29" t="s">
-        <v>124</v>
-      </c>
-      <c r="D57" s="22"/>
-      <c r="E57" s="22"/>
-      <c r="F57" s="22"/>
-      <c r="G57" s="22"/>
-      <c r="H57" s="23"/>
-      <c r="I57" s="23"/>
-      <c r="J57" s="23" t="s">
-        <v>95</v>
-      </c>
-      <c r="K57" s="22"/>
-      <c r="L57" s="1"/>
-      <c r="M57" s="1"/>
-      <c r="N57" s="1"/>
-      <c r="O57" s="1"/>
-      <c r="P57" s="1"/>
-      <c r="Q57" s="1"/>
-      <c r="R57" s="1"/>
-      <c r="S57" s="1"/>
-      <c r="T57" s="1"/>
-      <c r="U57" s="1"/>
-      <c r="V57" s="1"/>
-      <c r="W57" s="1"/>
-      <c r="X57" s="1"/>
-      <c r="Y57" s="1"/>
-      <c r="Z57" s="1"/>
-      <c r="AA57" s="1"/>
-      <c r="AB57" s="1"/>
-      <c r="AC57" s="1"/>
-      <c r="AD57" s="1"/>
-      <c r="AE57" s="1"/>
-      <c r="AF57" s="1"/>
-      <c r="AG57" s="1"/>
-      <c r="AH57" s="1"/>
-      <c r="AI57" s="1"/>
-      <c r="AJ57" s="1"/>
-      <c r="AK57" s="1"/>
-      <c r="AL57" s="1"/>
-      <c r="AM57" s="1"/>
-      <c r="AN57" s="1"/>
-      <c r="AO57" s="1"/>
-      <c r="AP57" s="1"/>
-      <c r="AQ57" s="1"/>
-      <c r="AR57" s="1"/>
-      <c r="AS57" s="1"/>
-      <c r="AT57" s="1"/>
-      <c r="AU57" s="1"/>
-      <c r="AV57" s="1"/>
-      <c r="AW57" s="1"/>
-      <c r="AX57" s="1"/>
-      <c r="AY57" s="1"/>
-      <c r="AZ57" s="1"/>
-      <c r="BA57" s="1"/>
-      <c r="BB57" s="1"/>
-      <c r="BC57" s="1"/>
-      <c r="BD57" s="1"/>
-      <c r="BE57" s="1"/>
-      <c r="BF57" s="1"/>
-      <c r="BG57" s="1"/>
-      <c r="BH57" s="1"/>
-      <c r="BI57" s="1"/>
-      <c r="BJ57" s="1"/>
-      <c r="BK57" s="1"/>
-      <c r="BL57" s="1"/>
-      <c r="BM57" s="1"/>
-      <c r="BN57" s="1"/>
-    </row>
-    <row r="58" spans="2:66">
+    <row r="57" spans="1:66" s="20" customFormat="1">
+      <c r="B57" s="21"/>
+      <c r="C57" s="30" t="s">
+        <v>134</v>
+      </c>
+      <c r="D57" s="21" t="s">
+        <v>80</v>
+      </c>
+      <c r="E57" s="21" t="s">
+        <v>79</v>
+      </c>
+      <c r="F57" s="21"/>
+      <c r="G57" s="21"/>
+      <c r="H57" s="21"/>
+      <c r="I57" s="21"/>
+      <c r="J57" s="21"/>
+      <c r="K57" s="21"/>
+      <c r="L57" s="21"/>
+      <c r="M57" s="21"/>
+      <c r="N57" s="21"/>
+      <c r="O57" s="21"/>
+      <c r="P57" s="21"/>
+      <c r="Q57" s="21"/>
+      <c r="R57" s="21"/>
+      <c r="S57" s="21"/>
+      <c r="T57" s="21"/>
+      <c r="U57" s="21"/>
+      <c r="V57" s="21"/>
+      <c r="W57" s="21"/>
+      <c r="X57" s="21"/>
+      <c r="Y57" s="21"/>
+      <c r="Z57" s="21"/>
+      <c r="AA57" s="21"/>
+      <c r="AB57" s="21"/>
+      <c r="AC57" s="21"/>
+      <c r="AD57" s="21"/>
+      <c r="AE57" s="21"/>
+      <c r="AF57" s="21"/>
+      <c r="AG57" s="21"/>
+      <c r="AH57" s="21"/>
+      <c r="AI57" s="21"/>
+      <c r="AJ57" s="21"/>
+      <c r="AK57" s="21"/>
+      <c r="AL57" s="21"/>
+      <c r="AM57" s="21"/>
+      <c r="AN57" s="21"/>
+      <c r="AO57" s="21"/>
+      <c r="AP57" s="21"/>
+      <c r="AQ57" s="21"/>
+      <c r="AR57" s="21"/>
+      <c r="AS57" s="21"/>
+      <c r="AT57" s="21"/>
+      <c r="AU57" s="21"/>
+      <c r="AV57" s="21"/>
+      <c r="AW57" s="21"/>
+      <c r="AX57" s="21"/>
+      <c r="AY57" s="21"/>
+      <c r="AZ57" s="21"/>
+      <c r="BA57" s="21"/>
+      <c r="BB57" s="21"/>
+      <c r="BC57" s="21"/>
+      <c r="BD57" s="21"/>
+      <c r="BE57" s="21"/>
+      <c r="BF57" s="21"/>
+      <c r="BG57" s="21"/>
+      <c r="BH57" s="21"/>
+      <c r="BI57" s="21"/>
+      <c r="BJ57" s="21"/>
+      <c r="BK57" s="21"/>
+      <c r="BL57" s="21"/>
+      <c r="BM57" s="21"/>
+      <c r="BN57" s="21"/>
+    </row>
+    <row r="58" spans="1:66">
       <c r="B58" s="22"/>
       <c r="C58" s="29" t="s">
-        <v>125</v>
-      </c>
-      <c r="D58" s="22"/>
-      <c r="E58" s="22"/>
+        <v>130</v>
+      </c>
+      <c r="D58" s="22" t="s">
+        <v>60</v>
+      </c>
+      <c r="E58" s="22" t="s">
+        <v>58</v>
+      </c>
       <c r="F58" s="22"/>
       <c r="G58" s="22"/>
       <c r="H58" s="23"/>
       <c r="I58" s="23"/>
-      <c r="J58" s="23" t="s">
-        <v>95</v>
-      </c>
+      <c r="J58" s="23"/>
       <c r="K58" s="22"/>
       <c r="L58" s="1"/>
       <c r="M58" s="1"/>
@@ -6324,20 +5129,22 @@
       <c r="BM58" s="1"/>
       <c r="BN58" s="1"/>
     </row>
-    <row r="59" spans="2:66">
+    <row r="59" spans="1:66">
       <c r="B59" s="22"/>
       <c r="C59" s="29" t="s">
-        <v>126</v>
-      </c>
-      <c r="D59" s="22"/>
-      <c r="E59" s="22"/>
+        <v>131</v>
+      </c>
+      <c r="D59" s="22" t="s">
+        <v>60</v>
+      </c>
+      <c r="E59" s="22" t="s">
+        <v>58</v>
+      </c>
       <c r="F59" s="22"/>
       <c r="G59" s="22"/>
       <c r="H59" s="23"/>
       <c r="I59" s="23"/>
-      <c r="J59" s="23" t="s">
-        <v>95</v>
-      </c>
+      <c r="J59" s="23"/>
       <c r="K59" s="22"/>
       <c r="L59" s="1"/>
       <c r="M59" s="1"/>
@@ -6395,11 +5202,17 @@
       <c r="BM59" s="1"/>
       <c r="BN59" s="1"/>
     </row>
-    <row r="60" spans="2:66">
+    <row r="60" spans="1:66">
       <c r="B60" s="22"/>
-      <c r="C60" s="29"/>
-      <c r="D60" s="22"/>
-      <c r="E60" s="22"/>
+      <c r="C60" s="29" t="s">
+        <v>132</v>
+      </c>
+      <c r="D60" s="22" t="s">
+        <v>61</v>
+      </c>
+      <c r="E60" s="22" t="s">
+        <v>61</v>
+      </c>
       <c r="F60" s="22"/>
       <c r="G60" s="22"/>
       <c r="H60" s="23"/>
@@ -6462,11 +5275,17 @@
       <c r="BM60" s="1"/>
       <c r="BN60" s="1"/>
     </row>
-    <row r="61" spans="2:66">
+    <row r="61" spans="1:66">
       <c r="B61" s="22"/>
-      <c r="C61" s="29"/>
-      <c r="D61" s="22"/>
-      <c r="E61" s="22"/>
+      <c r="C61" s="29" t="s">
+        <v>133</v>
+      </c>
+      <c r="D61" s="22" t="s">
+        <v>61</v>
+      </c>
+      <c r="E61" s="22" t="s">
+        <v>61</v>
+      </c>
       <c r="F61" s="22"/>
       <c r="G61" s="22"/>
       <c r="H61" s="23"/>
@@ -6529,16 +5348,24 @@
       <c r="BM61" s="1"/>
       <c r="BN61" s="1"/>
     </row>
-    <row r="62" spans="2:66">
+    <row r="62" spans="1:66">
       <c r="B62" s="22"/>
-      <c r="C62" s="29"/>
-      <c r="D62" s="22"/>
-      <c r="E62" s="22"/>
+      <c r="C62" s="29" t="s">
+        <v>127</v>
+      </c>
+      <c r="D62" s="22" t="s">
+        <v>58</v>
+      </c>
+      <c r="E62" s="22" t="s">
+        <v>58</v>
+      </c>
       <c r="F62" s="22"/>
       <c r="G62" s="22"/>
       <c r="H62" s="23"/>
       <c r="I62" s="23"/>
-      <c r="J62" s="23"/>
+      <c r="J62" s="23" t="s">
+        <v>40</v>
+      </c>
       <c r="K62" s="22"/>
       <c r="L62" s="1"/>
       <c r="M62" s="1"/>
@@ -6596,89 +5423,97 @@
       <c r="BM62" s="1"/>
       <c r="BN62" s="1"/>
     </row>
-    <row r="63" spans="2:66" s="20" customFormat="1">
-      <c r="B63" s="21"/>
-      <c r="C63" s="30" t="s">
-        <v>100</v>
-      </c>
-      <c r="D63" s="21"/>
-      <c r="E63" s="21"/>
-      <c r="F63" s="21"/>
-      <c r="G63" s="21"/>
-      <c r="H63" s="21"/>
-      <c r="I63" s="21"/>
-      <c r="J63" s="21"/>
-      <c r="K63" s="21"/>
-      <c r="L63" s="21"/>
-      <c r="M63" s="21"/>
-      <c r="N63" s="21"/>
-      <c r="O63" s="21"/>
-      <c r="P63" s="21"/>
-      <c r="Q63" s="21"/>
-      <c r="R63" s="21"/>
-      <c r="S63" s="21"/>
-      <c r="T63" s="21"/>
-      <c r="U63" s="21"/>
-      <c r="V63" s="21"/>
-      <c r="W63" s="21"/>
-      <c r="X63" s="21"/>
-      <c r="Y63" s="21"/>
-      <c r="Z63" s="21"/>
-      <c r="AA63" s="21"/>
-      <c r="AB63" s="21"/>
-      <c r="AC63" s="21"/>
-      <c r="AD63" s="21"/>
-      <c r="AE63" s="21"/>
-      <c r="AF63" s="21"/>
-      <c r="AG63" s="21"/>
-      <c r="AH63" s="21"/>
-      <c r="AI63" s="21"/>
-      <c r="AJ63" s="21"/>
-      <c r="AK63" s="21"/>
-      <c r="AL63" s="21"/>
-      <c r="AM63" s="21"/>
-      <c r="AN63" s="21"/>
-      <c r="AO63" s="21"/>
-      <c r="AP63" s="21"/>
-      <c r="AQ63" s="21"/>
-      <c r="AR63" s="21"/>
-      <c r="AS63" s="21"/>
-      <c r="AT63" s="21"/>
-      <c r="AU63" s="21"/>
-      <c r="AV63" s="21"/>
-      <c r="AW63" s="21"/>
-      <c r="AX63" s="21"/>
-      <c r="AY63" s="21"/>
-      <c r="AZ63" s="21"/>
-      <c r="BA63" s="21"/>
-      <c r="BB63" s="21"/>
-      <c r="BC63" s="21"/>
-      <c r="BD63" s="21"/>
-      <c r="BE63" s="21"/>
-      <c r="BF63" s="21"/>
-      <c r="BG63" s="21"/>
-      <c r="BH63" s="21"/>
-      <c r="BI63" s="21"/>
-      <c r="BJ63" s="21"/>
-      <c r="BK63" s="21"/>
-      <c r="BL63" s="21"/>
-      <c r="BM63" s="21"/>
-      <c r="BN63" s="21"/>
-    </row>
-    <row r="64" spans="2:66">
+    <row r="63" spans="1:66">
+      <c r="B63" s="22"/>
+      <c r="C63" s="29" t="s">
+        <v>128</v>
+      </c>
+      <c r="D63" s="22" t="s">
+        <v>71</v>
+      </c>
+      <c r="E63" s="22" t="s">
+        <v>71</v>
+      </c>
+      <c r="F63" s="22"/>
+      <c r="G63" s="22"/>
+      <c r="H63" s="23"/>
+      <c r="I63" s="23"/>
+      <c r="J63" s="23" t="s">
+        <v>40</v>
+      </c>
+      <c r="K63" s="22"/>
+      <c r="L63" s="1"/>
+      <c r="M63" s="1"/>
+      <c r="N63" s="1"/>
+      <c r="O63" s="1"/>
+      <c r="P63" s="1"/>
+      <c r="Q63" s="1"/>
+      <c r="R63" s="1"/>
+      <c r="S63" s="1"/>
+      <c r="T63" s="1"/>
+      <c r="U63" s="1"/>
+      <c r="V63" s="1"/>
+      <c r="W63" s="1"/>
+      <c r="X63" s="1"/>
+      <c r="Y63" s="1"/>
+      <c r="Z63" s="1"/>
+      <c r="AA63" s="1"/>
+      <c r="AB63" s="1"/>
+      <c r="AC63" s="1"/>
+      <c r="AD63" s="1"/>
+      <c r="AE63" s="1"/>
+      <c r="AF63" s="1"/>
+      <c r="AG63" s="1"/>
+      <c r="AH63" s="1"/>
+      <c r="AI63" s="1"/>
+      <c r="AJ63" s="1"/>
+      <c r="AK63" s="1"/>
+      <c r="AL63" s="1"/>
+      <c r="AM63" s="1"/>
+      <c r="AN63" s="1"/>
+      <c r="AO63" s="1"/>
+      <c r="AP63" s="1"/>
+      <c r="AQ63" s="1"/>
+      <c r="AR63" s="1"/>
+      <c r="AS63" s="1"/>
+      <c r="AT63" s="1"/>
+      <c r="AU63" s="1"/>
+      <c r="AV63" s="1"/>
+      <c r="AW63" s="1"/>
+      <c r="AX63" s="1"/>
+      <c r="AY63" s="1"/>
+      <c r="AZ63" s="1"/>
+      <c r="BA63" s="1"/>
+      <c r="BB63" s="1"/>
+      <c r="BC63" s="1"/>
+      <c r="BD63" s="1"/>
+      <c r="BE63" s="1"/>
+      <c r="BF63" s="1"/>
+      <c r="BG63" s="1"/>
+      <c r="BH63" s="1"/>
+      <c r="BI63" s="1"/>
+      <c r="BJ63" s="1"/>
+      <c r="BK63" s="1"/>
+      <c r="BL63" s="1"/>
+      <c r="BM63" s="1"/>
+      <c r="BN63" s="1"/>
+    </row>
+    <row r="64" spans="1:66">
       <c r="B64" s="22"/>
       <c r="C64" s="29" t="s">
-        <v>131</v>
-      </c>
-      <c r="D64" s="22"/>
-      <c r="E64" s="22"/>
+        <v>76</v>
+      </c>
+      <c r="D64" s="22" t="s">
+        <v>58</v>
+      </c>
+      <c r="E64" s="22" t="s">
+        <v>58</v>
+      </c>
       <c r="F64" s="22"/>
       <c r="G64" s="22"/>
       <c r="H64" s="23"/>
       <c r="I64" s="23"/>
-      <c r="J64" s="23" t="s">
-        <v>40</v>
-      </c>
+      <c r="J64" s="23"/>
       <c r="K64" s="22"/>
       <c r="L64" s="1"/>
       <c r="M64" s="1"/>
@@ -6739,12 +5574,14 @@
     <row r="65" spans="1:66">
       <c r="B65" s="22"/>
       <c r="C65" s="29" t="s">
-        <v>136</v>
+        <v>77</v>
       </c>
       <c r="D65" s="22" t="s">
-        <v>58</v>
-      </c>
-      <c r="E65" s="22"/>
+        <v>82</v>
+      </c>
+      <c r="E65" s="22" t="s">
+        <v>71</v>
+      </c>
       <c r="F65" s="22"/>
       <c r="G65" s="22"/>
       <c r="H65" s="23"/>
@@ -6810,12 +5647,14 @@
     <row r="66" spans="1:66">
       <c r="B66" s="22"/>
       <c r="C66" s="29" t="s">
-        <v>137</v>
+        <v>78</v>
       </c>
       <c r="D66" s="22" t="s">
-        <v>58</v>
-      </c>
-      <c r="E66" s="22"/>
+        <v>60</v>
+      </c>
+      <c r="E66" s="22" t="s">
+        <v>60</v>
+      </c>
       <c r="F66" s="22"/>
       <c r="G66" s="22"/>
       <c r="H66" s="23"/>
@@ -6881,13 +5720,17 @@
     <row r="67" spans="1:66">
       <c r="B67" s="22"/>
       <c r="C67" s="29" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="D67" s="22" t="s">
+        <v>84</v>
+      </c>
+      <c r="E67" s="22" t="s">
+        <v>67</v>
+      </c>
+      <c r="F67" s="22" t="s">
         <v>71</v>
       </c>
-      <c r="E67" s="22"/>
-      <c r="F67" s="22"/>
       <c r="G67" s="22"/>
       <c r="H67" s="23"/>
       <c r="I67" s="23"/>
@@ -6952,17 +5795,21 @@
     <row r="68" spans="1:66">
       <c r="B68" s="22"/>
       <c r="C68" s="29" t="s">
-        <v>139</v>
+        <v>129</v>
       </c>
       <c r="D68" s="22" t="s">
         <v>71</v>
       </c>
-      <c r="E68" s="22"/>
+      <c r="E68" s="22" t="s">
+        <v>71</v>
+      </c>
       <c r="F68" s="22"/>
       <c r="G68" s="22"/>
       <c r="H68" s="23"/>
       <c r="I68" s="23"/>
-      <c r="J68" s="23"/>
+      <c r="J68" s="23" t="s">
+        <v>40</v>
+      </c>
       <c r="K68" s="22"/>
       <c r="L68" s="1"/>
       <c r="M68" s="1"/>
@@ -7022,18 +5869,14 @@
     </row>
     <row r="69" spans="1:66">
       <c r="B69" s="22"/>
-      <c r="C69" s="29" t="s">
-        <v>132</v>
-      </c>
+      <c r="C69" s="29"/>
       <c r="D69" s="22"/>
       <c r="E69" s="22"/>
       <c r="F69" s="22"/>
       <c r="G69" s="22"/>
       <c r="H69" s="23"/>
       <c r="I69" s="23"/>
-      <c r="J69" s="23" t="s">
-        <v>40</v>
-      </c>
+      <c r="J69" s="23"/>
       <c r="K69" s="22"/>
       <c r="L69" s="1"/>
       <c r="M69" s="1"/>
@@ -7093,18 +5936,14 @@
     </row>
     <row r="70" spans="1:66">
       <c r="B70" s="22"/>
-      <c r="C70" s="29" t="s">
-        <v>133</v>
-      </c>
+      <c r="C70" s="29"/>
       <c r="D70" s="22"/>
       <c r="E70" s="22"/>
       <c r="F70" s="22"/>
       <c r="G70" s="22"/>
       <c r="H70" s="23"/>
       <c r="I70" s="23"/>
-      <c r="J70" s="23" t="s">
-        <v>40</v>
-      </c>
+      <c r="J70" s="23"/>
       <c r="K70" s="22"/>
       <c r="L70" s="1"/>
       <c r="M70" s="1"/>
@@ -7162,81 +6001,82 @@
       <c r="BM70" s="1"/>
       <c r="BN70" s="1"/>
     </row>
-    <row r="71" spans="1:66">
-      <c r="B71" s="22"/>
-      <c r="C71" s="29" t="s">
-        <v>134</v>
-      </c>
-      <c r="D71" s="22"/>
-      <c r="E71" s="22"/>
-      <c r="F71" s="22"/>
-      <c r="G71" s="22"/>
-      <c r="H71" s="23"/>
-      <c r="I71" s="23"/>
-      <c r="J71" s="23" t="s">
-        <v>40</v>
-      </c>
-      <c r="K71" s="22"/>
-      <c r="L71" s="1"/>
-      <c r="M71" s="1"/>
-      <c r="N71" s="1"/>
-      <c r="O71" s="1"/>
-      <c r="P71" s="1"/>
-      <c r="Q71" s="1"/>
-      <c r="R71" s="1"/>
-      <c r="S71" s="1"/>
-      <c r="T71" s="1"/>
-      <c r="U71" s="1"/>
-      <c r="V71" s="1"/>
-      <c r="W71" s="1"/>
-      <c r="X71" s="1"/>
-      <c r="Y71" s="1"/>
-      <c r="Z71" s="1"/>
-      <c r="AA71" s="1"/>
-      <c r="AB71" s="1"/>
-      <c r="AC71" s="1"/>
-      <c r="AD71" s="1"/>
-      <c r="AE71" s="1"/>
-      <c r="AF71" s="1"/>
-      <c r="AG71" s="1"/>
-      <c r="AH71" s="1"/>
-      <c r="AI71" s="1"/>
-      <c r="AJ71" s="1"/>
-      <c r="AK71" s="1"/>
-      <c r="AL71" s="1"/>
-      <c r="AM71" s="1"/>
-      <c r="AN71" s="1"/>
-      <c r="AO71" s="1"/>
-      <c r="AP71" s="1"/>
-      <c r="AQ71" s="1"/>
-      <c r="AR71" s="1"/>
-      <c r="AS71" s="1"/>
-      <c r="AT71" s="1"/>
-      <c r="AU71" s="1"/>
-      <c r="AV71" s="1"/>
-      <c r="AW71" s="1"/>
-      <c r="AX71" s="1"/>
-      <c r="AY71" s="1"/>
-      <c r="AZ71" s="1"/>
-      <c r="BA71" s="1"/>
-      <c r="BB71" s="1"/>
-      <c r="BC71" s="1"/>
-      <c r="BD71" s="1"/>
-      <c r="BE71" s="1"/>
-      <c r="BF71" s="1"/>
-      <c r="BG71" s="1"/>
-      <c r="BH71" s="1"/>
-      <c r="BI71" s="1"/>
-      <c r="BJ71" s="1"/>
-      <c r="BK71" s="1"/>
-      <c r="BL71" s="1"/>
-      <c r="BM71" s="1"/>
-      <c r="BN71" s="1"/>
+    <row r="71" spans="1:66" s="20" customFormat="1">
+      <c r="A71"/>
+      <c r="B71" s="21"/>
+      <c r="C71" s="30" t="s">
+        <v>108</v>
+      </c>
+      <c r="D71" s="21"/>
+      <c r="E71" s="21"/>
+      <c r="F71" s="21" t="s">
+        <v>59</v>
+      </c>
+      <c r="G71" s="21"/>
+      <c r="H71" s="21"/>
+      <c r="I71" s="21"/>
+      <c r="J71" s="21"/>
+      <c r="K71" s="21"/>
+      <c r="L71" s="21"/>
+      <c r="M71" s="21"/>
+      <c r="N71" s="21"/>
+      <c r="O71" s="21"/>
+      <c r="P71" s="21"/>
+      <c r="Q71" s="21"/>
+      <c r="R71" s="21"/>
+      <c r="S71" s="21"/>
+      <c r="T71" s="21"/>
+      <c r="U71" s="21"/>
+      <c r="V71" s="21"/>
+      <c r="W71" s="21"/>
+      <c r="X71" s="21"/>
+      <c r="Y71" s="21"/>
+      <c r="Z71" s="21"/>
+      <c r="AA71" s="21"/>
+      <c r="AB71" s="21"/>
+      <c r="AC71" s="21"/>
+      <c r="AD71" s="21"/>
+      <c r="AE71" s="21"/>
+      <c r="AF71" s="21"/>
+      <c r="AG71" s="21"/>
+      <c r="AH71" s="21"/>
+      <c r="AI71" s="21"/>
+      <c r="AJ71" s="21"/>
+      <c r="AK71" s="21"/>
+      <c r="AL71" s="21"/>
+      <c r="AM71" s="21"/>
+      <c r="AN71" s="21"/>
+      <c r="AO71" s="21"/>
+      <c r="AP71" s="21"/>
+      <c r="AQ71" s="21"/>
+      <c r="AR71" s="21"/>
+      <c r="AS71" s="21"/>
+      <c r="AT71" s="21"/>
+      <c r="AU71" s="21"/>
+      <c r="AV71" s="21"/>
+      <c r="AW71" s="21"/>
+      <c r="AX71" s="21"/>
+      <c r="AY71" s="21"/>
+      <c r="AZ71" s="21"/>
+      <c r="BA71" s="21"/>
+      <c r="BB71" s="21"/>
+      <c r="BC71" s="21"/>
+      <c r="BD71" s="21"/>
+      <c r="BE71" s="21"/>
+      <c r="BF71" s="21"/>
+      <c r="BG71" s="21"/>
+      <c r="BH71" s="21"/>
+      <c r="BI71" s="21"/>
+      <c r="BJ71" s="21"/>
+      <c r="BK71" s="21"/>
+      <c r="BL71" s="21"/>
+      <c r="BM71" s="21"/>
+      <c r="BN71" s="21"/>
     </row>
     <row r="72" spans="1:66">
       <c r="B72" s="22"/>
-      <c r="C72" s="29" t="s">
-        <v>140</v>
+      <c r="C72" s="38" t="s">
+        <v>109</v>
       </c>
       <c r="D72" s="22"/>
       <c r="E72" s="22"/>
@@ -7305,17 +6145,19 @@
     <row r="73" spans="1:66">
       <c r="B73" s="22"/>
       <c r="C73" s="29" t="s">
-        <v>135</v>
+        <v>110</v>
       </c>
       <c r="D73" s="22" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E73" s="22"/>
       <c r="F73" s="22"/>
       <c r="G73" s="22"/>
       <c r="H73" s="23"/>
       <c r="I73" s="23"/>
-      <c r="J73" s="23"/>
+      <c r="J73" s="23" t="s">
+        <v>40</v>
+      </c>
       <c r="K73" s="22"/>
       <c r="L73" s="1"/>
       <c r="M73" s="1"/>
@@ -7373,80 +6215,83 @@
       <c r="BM73" s="1"/>
       <c r="BN73" s="1"/>
     </row>
-    <row r="74" spans="1:66" s="20" customFormat="1">
-      <c r="A74"/>
-      <c r="B74" s="21"/>
-      <c r="C74" s="30" t="s">
-        <v>112</v>
-      </c>
-      <c r="D74" s="21"/>
-      <c r="E74" s="21"/>
-      <c r="F74" s="21"/>
-      <c r="G74" s="21"/>
-      <c r="H74" s="21"/>
-      <c r="I74" s="21"/>
-      <c r="J74" s="21"/>
-      <c r="K74" s="21"/>
-      <c r="L74" s="21"/>
-      <c r="M74" s="21"/>
-      <c r="N74" s="21"/>
-      <c r="O74" s="21"/>
-      <c r="P74" s="21"/>
-      <c r="Q74" s="21"/>
-      <c r="R74" s="21"/>
-      <c r="S74" s="21"/>
-      <c r="T74" s="21"/>
-      <c r="U74" s="21"/>
-      <c r="V74" s="21"/>
-      <c r="W74" s="21"/>
-      <c r="X74" s="21"/>
-      <c r="Y74" s="21"/>
-      <c r="Z74" s="21"/>
-      <c r="AA74" s="21"/>
-      <c r="AB74" s="21"/>
-      <c r="AC74" s="21"/>
-      <c r="AD74" s="21"/>
-      <c r="AE74" s="21"/>
-      <c r="AF74" s="21"/>
-      <c r="AG74" s="21"/>
-      <c r="AH74" s="21"/>
-      <c r="AI74" s="21"/>
-      <c r="AJ74" s="21"/>
-      <c r="AK74" s="21"/>
-      <c r="AL74" s="21"/>
-      <c r="AM74" s="21"/>
-      <c r="AN74" s="21"/>
-      <c r="AO74" s="21"/>
-      <c r="AP74" s="21"/>
-      <c r="AQ74" s="21"/>
-      <c r="AR74" s="21"/>
-      <c r="AS74" s="21"/>
-      <c r="AT74" s="21"/>
-      <c r="AU74" s="21"/>
-      <c r="AV74" s="21"/>
-      <c r="AW74" s="21"/>
-      <c r="AX74" s="21"/>
-      <c r="AY74" s="21"/>
-      <c r="AZ74" s="21"/>
-      <c r="BA74" s="21"/>
-      <c r="BB74" s="21"/>
-      <c r="BC74" s="21"/>
-      <c r="BD74" s="21"/>
-      <c r="BE74" s="21"/>
-      <c r="BF74" s="21"/>
-      <c r="BG74" s="21"/>
-      <c r="BH74" s="21"/>
-      <c r="BI74" s="21"/>
-      <c r="BJ74" s="21"/>
-      <c r="BK74" s="21"/>
-      <c r="BL74" s="21"/>
-      <c r="BM74" s="21"/>
-      <c r="BN74" s="21"/>
+    <row r="74" spans="1:66">
+      <c r="B74" s="22"/>
+      <c r="C74" s="29" t="s">
+        <v>100</v>
+      </c>
+      <c r="D74" s="22" t="s">
+        <v>57</v>
+      </c>
+      <c r="E74" s="22"/>
+      <c r="F74" s="22"/>
+      <c r="G74" s="22"/>
+      <c r="H74" s="23"/>
+      <c r="I74" s="23"/>
+      <c r="J74" s="23" t="s">
+        <v>92</v>
+      </c>
+      <c r="K74" s="22"/>
+      <c r="L74" s="1"/>
+      <c r="M74" s="1"/>
+      <c r="N74" s="1"/>
+      <c r="O74" s="1"/>
+      <c r="P74" s="1"/>
+      <c r="Q74" s="1"/>
+      <c r="R74" s="1"/>
+      <c r="S74" s="1"/>
+      <c r="T74" s="1"/>
+      <c r="U74" s="1"/>
+      <c r="V74" s="1"/>
+      <c r="W74" s="1"/>
+      <c r="X74" s="1"/>
+      <c r="Y74" s="1"/>
+      <c r="Z74" s="1"/>
+      <c r="AA74" s="1"/>
+      <c r="AB74" s="1"/>
+      <c r="AC74" s="1"/>
+      <c r="AD74" s="1"/>
+      <c r="AE74" s="1"/>
+      <c r="AF74" s="1"/>
+      <c r="AG74" s="1"/>
+      <c r="AH74" s="1"/>
+      <c r="AI74" s="1"/>
+      <c r="AJ74" s="1"/>
+      <c r="AK74" s="1"/>
+      <c r="AL74" s="1"/>
+      <c r="AM74" s="1"/>
+      <c r="AN74" s="1"/>
+      <c r="AO74" s="1"/>
+      <c r="AP74" s="1"/>
+      <c r="AQ74" s="1"/>
+      <c r="AR74" s="1"/>
+      <c r="AS74" s="1"/>
+      <c r="AT74" s="1"/>
+      <c r="AU74" s="1"/>
+      <c r="AV74" s="1"/>
+      <c r="AW74" s="1"/>
+      <c r="AX74" s="1"/>
+      <c r="AY74" s="1"/>
+      <c r="AZ74" s="1"/>
+      <c r="BA74" s="1"/>
+      <c r="BB74" s="1"/>
+      <c r="BC74" s="1"/>
+      <c r="BD74" s="1"/>
+      <c r="BE74" s="1"/>
+      <c r="BF74" s="1"/>
+      <c r="BG74" s="1"/>
+      <c r="BH74" s="1"/>
+      <c r="BI74" s="1"/>
+      <c r="BJ74" s="1"/>
+      <c r="BK74" s="1"/>
+      <c r="BL74" s="1"/>
+      <c r="BM74" s="1"/>
+      <c r="BN74" s="1"/>
     </row>
     <row r="75" spans="1:66">
       <c r="B75" s="22"/>
       <c r="C75" s="38" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D75" s="22"/>
       <c r="E75" s="22"/>
@@ -7515,10 +6360,10 @@
     <row r="76" spans="1:66">
       <c r="B76" s="22"/>
       <c r="C76" s="29" t="s">
-        <v>114</v>
+        <v>101</v>
       </c>
       <c r="D76" s="22" t="s">
-        <v>59</v>
+        <v>84</v>
       </c>
       <c r="E76" s="22"/>
       <c r="F76" s="22"/>
@@ -7526,7 +6371,7 @@
       <c r="H76" s="23"/>
       <c r="I76" s="23"/>
       <c r="J76" s="23" t="s">
-        <v>40</v>
+        <v>92</v>
       </c>
       <c r="K76" s="22"/>
       <c r="L76" s="1"/>
@@ -7588,16 +6433,18 @@
     <row r="77" spans="1:66">
       <c r="B77" s="22"/>
       <c r="C77" s="29" t="s">
-        <v>104</v>
-      </c>
-      <c r="D77" s="22"/>
+        <v>102</v>
+      </c>
+      <c r="D77" s="22" t="s">
+        <v>82</v>
+      </c>
       <c r="E77" s="22"/>
       <c r="F77" s="22"/>
       <c r="G77" s="22"/>
       <c r="H77" s="23"/>
       <c r="I77" s="23"/>
       <c r="J77" s="23" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="K77" s="22"/>
       <c r="L77" s="1"/>
@@ -7658,16 +6505,20 @@
     </row>
     <row r="78" spans="1:66">
       <c r="B78" s="22"/>
-      <c r="C78" s="38" t="s">
-        <v>115</v>
-      </c>
-      <c r="D78" s="22"/>
+      <c r="C78" s="29" t="s">
+        <v>103</v>
+      </c>
+      <c r="D78" s="22" t="s">
+        <v>59</v>
+      </c>
       <c r="E78" s="22"/>
       <c r="F78" s="22"/>
       <c r="G78" s="22"/>
       <c r="H78" s="23"/>
       <c r="I78" s="23"/>
-      <c r="J78" s="23"/>
+      <c r="J78" s="23" t="s">
+        <v>92</v>
+      </c>
       <c r="K78" s="22"/>
       <c r="L78" s="1"/>
       <c r="M78" s="1"/>
@@ -7728,16 +6579,18 @@
     <row r="79" spans="1:66">
       <c r="B79" s="22"/>
       <c r="C79" s="29" t="s">
-        <v>105</v>
-      </c>
-      <c r="D79" s="22"/>
+        <v>104</v>
+      </c>
+      <c r="D79" s="22" t="s">
+        <v>57</v>
+      </c>
       <c r="E79" s="22"/>
       <c r="F79" s="22"/>
       <c r="G79" s="22"/>
       <c r="H79" s="23"/>
       <c r="I79" s="23"/>
       <c r="J79" s="23" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="K79" s="22"/>
       <c r="L79" s="1"/>
@@ -7798,17 +6651,19 @@
     </row>
     <row r="80" spans="1:66">
       <c r="B80" s="22"/>
-      <c r="C80" s="29" t="s">
-        <v>106</v>
-      </c>
-      <c r="D80" s="22"/>
+      <c r="C80" s="38" t="s">
+        <v>105</v>
+      </c>
+      <c r="D80" s="22" t="s">
+        <v>84</v>
+      </c>
       <c r="E80" s="22"/>
       <c r="F80" s="22"/>
       <c r="G80" s="22"/>
       <c r="H80" s="23"/>
       <c r="I80" s="23"/>
       <c r="J80" s="23" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="K80" s="22"/>
       <c r="L80" s="1"/>
@@ -7869,17 +6724,19 @@
     </row>
     <row r="81" spans="1:66">
       <c r="B81" s="22"/>
-      <c r="C81" s="29" t="s">
-        <v>107</v>
-      </c>
-      <c r="D81" s="22"/>
+      <c r="C81" s="38" t="s">
+        <v>106</v>
+      </c>
+      <c r="D81" s="22" t="s">
+        <v>82</v>
+      </c>
       <c r="E81" s="22"/>
       <c r="F81" s="22"/>
       <c r="G81" s="22"/>
       <c r="H81" s="23"/>
       <c r="I81" s="23"/>
       <c r="J81" s="23" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="K81" s="22"/>
       <c r="L81" s="1"/>
@@ -7940,17 +6797,19 @@
     </row>
     <row r="82" spans="1:66">
       <c r="B82" s="22"/>
-      <c r="C82" s="29" t="s">
-        <v>108</v>
-      </c>
-      <c r="D82" s="22"/>
+      <c r="C82" s="38" t="s">
+        <v>112</v>
+      </c>
+      <c r="D82" s="22" t="s">
+        <v>81</v>
+      </c>
       <c r="E82" s="22"/>
       <c r="F82" s="22"/>
       <c r="G82" s="22"/>
       <c r="H82" s="23"/>
       <c r="I82" s="23"/>
       <c r="J82" s="23" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="K82" s="22"/>
       <c r="L82" s="1"/>
@@ -8012,16 +6871,18 @@
     <row r="83" spans="1:66">
       <c r="B83" s="22"/>
       <c r="C83" s="38" t="s">
-        <v>109</v>
-      </c>
-      <c r="D83" s="22"/>
+        <v>107</v>
+      </c>
+      <c r="D83" s="22" t="s">
+        <v>81</v>
+      </c>
       <c r="E83" s="22"/>
       <c r="F83" s="22"/>
       <c r="G83" s="22"/>
       <c r="H83" s="23"/>
       <c r="I83" s="23"/>
       <c r="J83" s="23" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="K83" s="22"/>
       <c r="L83" s="1"/>
@@ -8082,18 +6943,14 @@
     </row>
     <row r="84" spans="1:66">
       <c r="B84" s="22"/>
-      <c r="C84" s="38" t="s">
-        <v>110</v>
-      </c>
+      <c r="C84" s="29"/>
       <c r="D84" s="22"/>
       <c r="E84" s="22"/>
       <c r="F84" s="22"/>
       <c r="G84" s="22"/>
       <c r="H84" s="23"/>
       <c r="I84" s="23"/>
-      <c r="J84" s="23" t="s">
-        <v>95</v>
-      </c>
+      <c r="J84" s="23"/>
       <c r="K84" s="22"/>
       <c r="L84" s="1"/>
       <c r="M84" s="1"/>
@@ -8151,81 +7008,80 @@
       <c r="BM84" s="1"/>
       <c r="BN84" s="1"/>
     </row>
-    <row r="85" spans="1:66">
-      <c r="B85" s="22"/>
-      <c r="C85" s="38" t="s">
-        <v>116</v>
-      </c>
-      <c r="D85" s="22"/>
-      <c r="E85" s="22"/>
-      <c r="F85" s="22"/>
-      <c r="G85" s="22"/>
-      <c r="H85" s="23"/>
-      <c r="I85" s="23"/>
-      <c r="J85" s="23" t="s">
-        <v>95</v>
-      </c>
-      <c r="K85" s="22"/>
-      <c r="L85" s="1"/>
-      <c r="M85" s="1"/>
-      <c r="N85" s="1"/>
-      <c r="O85" s="1"/>
-      <c r="P85" s="1"/>
-      <c r="Q85" s="1"/>
-      <c r="R85" s="1"/>
-      <c r="S85" s="1"/>
-      <c r="T85" s="1"/>
-      <c r="U85" s="1"/>
-      <c r="V85" s="1"/>
-      <c r="W85" s="1"/>
-      <c r="X85" s="1"/>
-      <c r="Y85" s="1"/>
-      <c r="Z85" s="1"/>
-      <c r="AA85" s="1"/>
-      <c r="AB85" s="1"/>
-      <c r="AC85" s="1"/>
-      <c r="AD85" s="1"/>
-      <c r="AE85" s="1"/>
-      <c r="AF85" s="1"/>
-      <c r="AG85" s="1"/>
-      <c r="AH85" s="1"/>
-      <c r="AI85" s="1"/>
-      <c r="AJ85" s="1"/>
-      <c r="AK85" s="1"/>
-      <c r="AL85" s="1"/>
-      <c r="AM85" s="1"/>
-      <c r="AN85" s="1"/>
-      <c r="AO85" s="1"/>
-      <c r="AP85" s="1"/>
-      <c r="AQ85" s="1"/>
-      <c r="AR85" s="1"/>
-      <c r="AS85" s="1"/>
-      <c r="AT85" s="1"/>
-      <c r="AU85" s="1"/>
-      <c r="AV85" s="1"/>
-      <c r="AW85" s="1"/>
-      <c r="AX85" s="1"/>
-      <c r="AY85" s="1"/>
-      <c r="AZ85" s="1"/>
-      <c r="BA85" s="1"/>
-      <c r="BB85" s="1"/>
-      <c r="BC85" s="1"/>
-      <c r="BD85" s="1"/>
-      <c r="BE85" s="1"/>
-      <c r="BF85" s="1"/>
-      <c r="BG85" s="1"/>
-      <c r="BH85" s="1"/>
-      <c r="BI85" s="1"/>
-      <c r="BJ85" s="1"/>
-      <c r="BK85" s="1"/>
-      <c r="BL85" s="1"/>
-      <c r="BM85" s="1"/>
-      <c r="BN85" s="1"/>
+    <row r="85" spans="1:66" s="20" customFormat="1">
+      <c r="A85"/>
+      <c r="B85" s="21"/>
+      <c r="C85" s="30" t="s">
+        <v>113</v>
+      </c>
+      <c r="D85" s="21"/>
+      <c r="E85" s="21"/>
+      <c r="F85" s="21"/>
+      <c r="G85" s="21"/>
+      <c r="H85" s="21"/>
+      <c r="I85" s="21"/>
+      <c r="J85" s="21"/>
+      <c r="K85" s="21"/>
+      <c r="L85" s="21"/>
+      <c r="M85" s="21"/>
+      <c r="N85" s="21"/>
+      <c r="O85" s="21"/>
+      <c r="P85" s="21"/>
+      <c r="Q85" s="21"/>
+      <c r="R85" s="21"/>
+      <c r="S85" s="21"/>
+      <c r="T85" s="21"/>
+      <c r="U85" s="21"/>
+      <c r="V85" s="21"/>
+      <c r="W85" s="21"/>
+      <c r="X85" s="21"/>
+      <c r="Y85" s="21"/>
+      <c r="Z85" s="21"/>
+      <c r="AA85" s="21"/>
+      <c r="AB85" s="21"/>
+      <c r="AC85" s="21"/>
+      <c r="AD85" s="21"/>
+      <c r="AE85" s="21"/>
+      <c r="AF85" s="21"/>
+      <c r="AG85" s="21"/>
+      <c r="AH85" s="21"/>
+      <c r="AI85" s="21"/>
+      <c r="AJ85" s="21"/>
+      <c r="AK85" s="21"/>
+      <c r="AL85" s="21"/>
+      <c r="AM85" s="21"/>
+      <c r="AN85" s="21"/>
+      <c r="AO85" s="21"/>
+      <c r="AP85" s="21"/>
+      <c r="AQ85" s="21"/>
+      <c r="AR85" s="21"/>
+      <c r="AS85" s="21"/>
+      <c r="AT85" s="21"/>
+      <c r="AU85" s="21"/>
+      <c r="AV85" s="21"/>
+      <c r="AW85" s="21"/>
+      <c r="AX85" s="21"/>
+      <c r="AY85" s="21"/>
+      <c r="AZ85" s="21"/>
+      <c r="BA85" s="21"/>
+      <c r="BB85" s="21"/>
+      <c r="BC85" s="21"/>
+      <c r="BD85" s="21"/>
+      <c r="BE85" s="21"/>
+      <c r="BF85" s="21"/>
+      <c r="BG85" s="21"/>
+      <c r="BH85" s="21"/>
+      <c r="BI85" s="21"/>
+      <c r="BJ85" s="21"/>
+      <c r="BK85" s="21"/>
+      <c r="BL85" s="21"/>
+      <c r="BM85" s="21"/>
+      <c r="BN85" s="21"/>
     </row>
     <row r="86" spans="1:66">
       <c r="B86" s="22"/>
-      <c r="C86" s="38" t="s">
-        <v>111</v>
+      <c r="C86" s="37" t="s">
+        <v>114</v>
       </c>
       <c r="D86" s="22"/>
       <c r="E86" s="22"/>
@@ -8233,9 +7089,7 @@
       <c r="G86" s="22"/>
       <c r="H86" s="23"/>
       <c r="I86" s="23"/>
-      <c r="J86" s="23" t="s">
-        <v>95</v>
-      </c>
+      <c r="J86" s="23"/>
       <c r="K86" s="22"/>
       <c r="L86" s="1"/>
       <c r="M86" s="1"/>
@@ -8295,7 +7149,9 @@
     </row>
     <row r="87" spans="1:66">
       <c r="B87" s="22"/>
-      <c r="C87" s="29"/>
+      <c r="C87" s="37" t="s">
+        <v>115</v>
+      </c>
       <c r="D87" s="22"/>
       <c r="E87" s="22"/>
       <c r="F87" s="22"/>
@@ -8360,157 +7216,168 @@
       <c r="BM87" s="1"/>
       <c r="BN87" s="1"/>
     </row>
-    <row r="88" spans="1:66" s="20" customFormat="1">
-      <c r="A88"/>
-      <c r="B88" s="21"/>
-      <c r="C88" s="30" t="s">
-        <v>117</v>
-      </c>
-      <c r="D88" s="21"/>
-      <c r="E88" s="21"/>
-      <c r="F88" s="21"/>
-      <c r="G88" s="21"/>
-      <c r="H88" s="21"/>
-      <c r="I88" s="21"/>
-      <c r="J88" s="21"/>
-      <c r="K88" s="21"/>
-      <c r="L88" s="21"/>
-      <c r="M88" s="21"/>
-      <c r="N88" s="21"/>
-      <c r="O88" s="21"/>
-      <c r="P88" s="21"/>
-      <c r="Q88" s="21"/>
-      <c r="R88" s="21"/>
-      <c r="S88" s="21"/>
-      <c r="T88" s="21"/>
-      <c r="U88" s="21"/>
-      <c r="V88" s="21"/>
-      <c r="W88" s="21"/>
-      <c r="X88" s="21"/>
-      <c r="Y88" s="21"/>
-      <c r="Z88" s="21"/>
-      <c r="AA88" s="21"/>
-      <c r="AB88" s="21"/>
-      <c r="AC88" s="21"/>
-      <c r="AD88" s="21"/>
-      <c r="AE88" s="21"/>
-      <c r="AF88" s="21"/>
-      <c r="AG88" s="21"/>
-      <c r="AH88" s="21"/>
-      <c r="AI88" s="21"/>
-      <c r="AJ88" s="21"/>
-      <c r="AK88" s="21"/>
-      <c r="AL88" s="21"/>
-      <c r="AM88" s="21"/>
-      <c r="AN88" s="21"/>
-      <c r="AO88" s="21"/>
-      <c r="AP88" s="21"/>
-      <c r="AQ88" s="21"/>
-      <c r="AR88" s="21"/>
-      <c r="AS88" s="21"/>
-      <c r="AT88" s="21"/>
-      <c r="AU88" s="21"/>
-      <c r="AV88" s="21"/>
-      <c r="AW88" s="21"/>
-      <c r="AX88" s="21"/>
-      <c r="AY88" s="21"/>
-      <c r="AZ88" s="21"/>
-      <c r="BA88" s="21"/>
-      <c r="BB88" s="21"/>
-      <c r="BC88" s="21"/>
-      <c r="BD88" s="21"/>
-      <c r="BE88" s="21"/>
-      <c r="BF88" s="21"/>
-      <c r="BG88" s="21"/>
-      <c r="BH88" s="21"/>
-      <c r="BI88" s="21"/>
-      <c r="BJ88" s="21"/>
-      <c r="BK88" s="21"/>
-      <c r="BL88" s="21"/>
-      <c r="BM88" s="21"/>
-      <c r="BN88" s="21"/>
-    </row>
-    <row r="89" spans="1:66">
-      <c r="B89" s="22"/>
-      <c r="C89" s="37" t="s">
-        <v>118</v>
-      </c>
-      <c r="D89" s="22"/>
-      <c r="E89" s="22"/>
-      <c r="F89" s="22"/>
-      <c r="G89" s="22"/>
-      <c r="H89" s="23"/>
-      <c r="I89" s="23"/>
-      <c r="J89" s="23"/>
-      <c r="K89" s="22"/>
-      <c r="L89" s="1"/>
-      <c r="M89" s="1"/>
-      <c r="N89" s="1"/>
-      <c r="O89" s="1"/>
-      <c r="P89" s="1"/>
-      <c r="Q89" s="1"/>
-      <c r="R89" s="1"/>
-      <c r="S89" s="1"/>
-      <c r="T89" s="1"/>
-      <c r="U89" s="1"/>
-      <c r="V89" s="1"/>
-      <c r="W89" s="1"/>
-      <c r="X89" s="1"/>
-      <c r="Y89" s="1"/>
-      <c r="Z89" s="1"/>
-      <c r="AA89" s="1"/>
-      <c r="AB89" s="1"/>
-      <c r="AC89" s="1"/>
-      <c r="AD89" s="1"/>
-      <c r="AE89" s="1"/>
-      <c r="AF89" s="1"/>
-      <c r="AG89" s="1"/>
-      <c r="AH89" s="1"/>
-      <c r="AI89" s="1"/>
-      <c r="AJ89" s="1"/>
-      <c r="AK89" s="1"/>
-      <c r="AL89" s="1"/>
-      <c r="AM89" s="1"/>
-      <c r="AN89" s="1"/>
-      <c r="AO89" s="1"/>
-      <c r="AP89" s="1"/>
-      <c r="AQ89" s="1"/>
-      <c r="AR89" s="1"/>
-      <c r="AS89" s="1"/>
-      <c r="AT89" s="1"/>
-      <c r="AU89" s="1"/>
-      <c r="AV89" s="1"/>
-      <c r="AW89" s="1"/>
-      <c r="AX89" s="1"/>
-      <c r="AY89" s="1"/>
-      <c r="AZ89" s="1"/>
-      <c r="BA89" s="1"/>
-      <c r="BB89" s="1"/>
-      <c r="BC89" s="1"/>
-      <c r="BD89" s="1"/>
-      <c r="BE89" s="1"/>
-      <c r="BF89" s="1"/>
-      <c r="BG89" s="1"/>
-      <c r="BH89" s="1"/>
-      <c r="BI89" s="1"/>
-      <c r="BJ89" s="1"/>
-      <c r="BK89" s="1"/>
-      <c r="BL89" s="1"/>
-      <c r="BM89" s="1"/>
-      <c r="BN89" s="1"/>
+    <row r="88" spans="1:66">
+      <c r="B88" s="22"/>
+      <c r="C88" s="29"/>
+      <c r="D88" s="22"/>
+      <c r="E88" s="22"/>
+      <c r="F88" s="22"/>
+      <c r="G88" s="22"/>
+      <c r="H88" s="23"/>
+      <c r="I88" s="23"/>
+      <c r="J88" s="23"/>
+      <c r="K88" s="22"/>
+      <c r="L88" s="1"/>
+      <c r="M88" s="1"/>
+      <c r="N88" s="1"/>
+      <c r="O88" s="1"/>
+      <c r="P88" s="1"/>
+      <c r="Q88" s="1"/>
+      <c r="R88" s="1"/>
+      <c r="S88" s="1"/>
+      <c r="T88" s="1"/>
+      <c r="U88" s="1"/>
+      <c r="V88" s="1"/>
+      <c r="W88" s="1"/>
+      <c r="X88" s="1"/>
+      <c r="Y88" s="1"/>
+      <c r="Z88" s="1"/>
+      <c r="AA88" s="1"/>
+      <c r="AB88" s="1"/>
+      <c r="AC88" s="1"/>
+      <c r="AD88" s="1"/>
+      <c r="AE88" s="1"/>
+      <c r="AF88" s="1"/>
+      <c r="AG88" s="1"/>
+      <c r="AH88" s="1"/>
+      <c r="AI88" s="1"/>
+      <c r="AJ88" s="1"/>
+      <c r="AK88" s="1"/>
+      <c r="AL88" s="1"/>
+      <c r="AM88" s="1"/>
+      <c r="AN88" s="1"/>
+      <c r="AO88" s="1"/>
+      <c r="AP88" s="1"/>
+      <c r="AQ88" s="1"/>
+      <c r="AR88" s="1"/>
+      <c r="AS88" s="1"/>
+      <c r="AT88" s="1"/>
+      <c r="AU88" s="1"/>
+      <c r="AV88" s="1"/>
+      <c r="AW88" s="1"/>
+      <c r="AX88" s="1"/>
+      <c r="AY88" s="1"/>
+      <c r="AZ88" s="1"/>
+      <c r="BA88" s="1"/>
+      <c r="BB88" s="1"/>
+      <c r="BC88" s="1"/>
+      <c r="BD88" s="1"/>
+      <c r="BE88" s="1"/>
+      <c r="BF88" s="1"/>
+      <c r="BG88" s="1"/>
+      <c r="BH88" s="1"/>
+      <c r="BI88" s="1"/>
+      <c r="BJ88" s="1"/>
+      <c r="BK88" s="1"/>
+      <c r="BL88" s="1"/>
+      <c r="BM88" s="1"/>
+      <c r="BN88" s="1"/>
+    </row>
+    <row r="89" spans="1:66" s="20" customFormat="1">
+      <c r="A89">
+        <v>5</v>
+      </c>
+      <c r="B89" s="21"/>
+      <c r="C89" s="30" t="s">
+        <v>54</v>
+      </c>
+      <c r="D89" s="21"/>
+      <c r="E89" s="21"/>
+      <c r="F89" s="21"/>
+      <c r="G89" s="21"/>
+      <c r="H89" s="21"/>
+      <c r="I89" s="21"/>
+      <c r="J89" s="21"/>
+      <c r="K89" s="21"/>
+      <c r="L89" s="21"/>
+      <c r="M89" s="21"/>
+      <c r="N89" s="21"/>
+      <c r="O89" s="21"/>
+      <c r="P89" s="21"/>
+      <c r="Q89" s="21"/>
+      <c r="R89" s="21"/>
+      <c r="S89" s="21"/>
+      <c r="T89" s="21"/>
+      <c r="U89" s="21"/>
+      <c r="V89" s="21"/>
+      <c r="W89" s="21"/>
+      <c r="X89" s="21"/>
+      <c r="Y89" s="21"/>
+      <c r="Z89" s="21"/>
+      <c r="AA89" s="21"/>
+      <c r="AB89" s="21"/>
+      <c r="AC89" s="21"/>
+      <c r="AD89" s="21"/>
+      <c r="AE89" s="21"/>
+      <c r="AF89" s="21"/>
+      <c r="AG89" s="21"/>
+      <c r="AH89" s="21"/>
+      <c r="AI89" s="21"/>
+      <c r="AJ89" s="21"/>
+      <c r="AK89" s="21"/>
+      <c r="AL89" s="21"/>
+      <c r="AM89" s="21"/>
+      <c r="AN89" s="21"/>
+      <c r="AO89" s="21"/>
+      <c r="AP89" s="21"/>
+      <c r="AQ89" s="21"/>
+      <c r="AR89" s="21"/>
+      <c r="AS89" s="21"/>
+      <c r="AT89" s="21"/>
+      <c r="AU89" s="21"/>
+      <c r="AV89" s="21"/>
+      <c r="AW89" s="21"/>
+      <c r="AX89" s="21"/>
+      <c r="AY89" s="21"/>
+      <c r="AZ89" s="21"/>
+      <c r="BA89" s="21"/>
+      <c r="BB89" s="21"/>
+      <c r="BC89" s="21"/>
+      <c r="BD89" s="21"/>
+      <c r="BE89" s="21"/>
+      <c r="BF89" s="21"/>
+      <c r="BG89" s="21"/>
+      <c r="BH89" s="21"/>
+      <c r="BI89" s="21"/>
+      <c r="BJ89" s="21"/>
+      <c r="BK89" s="21"/>
+      <c r="BL89" s="21"/>
+      <c r="BM89" s="21"/>
+      <c r="BN89" s="21"/>
     </row>
     <row r="90" spans="1:66">
-      <c r="B90" s="22"/>
-      <c r="C90" s="37" t="s">
-        <v>119</v>
-      </c>
-      <c r="D90" s="22"/>
-      <c r="E90" s="22"/>
+      <c r="A90">
+        <v>6</v>
+      </c>
+      <c r="B90" s="22">
+        <v>5</v>
+      </c>
+      <c r="C90" s="29" t="s">
+        <v>85</v>
+      </c>
+      <c r="D90" s="22" t="s">
+        <v>64</v>
+      </c>
+      <c r="E90" s="22" t="s">
+        <v>70</v>
+      </c>
       <c r="F90" s="22"/>
       <c r="G90" s="22"/>
       <c r="H90" s="23"/>
       <c r="I90" s="23"/>
-      <c r="J90" s="23"/>
+      <c r="J90" s="23" t="s">
+        <v>40</v>
+      </c>
       <c r="K90" s="22"/>
       <c r="L90" s="1"/>
       <c r="M90" s="1"/>
@@ -8637,11 +7504,11 @@
     </row>
     <row r="92" spans="1:66" s="20" customFormat="1">
       <c r="A92">
-        <v>5</v>
+        <v>57</v>
       </c>
       <c r="B92" s="21"/>
-      <c r="C92" s="30" t="s">
-        <v>54</v>
+      <c r="C92" s="28" t="s">
+        <v>62</v>
       </c>
       <c r="D92" s="21"/>
       <c r="E92" s="21"/>
@@ -8709,26 +7576,26 @@
     </row>
     <row r="93" spans="1:66">
       <c r="A93">
-        <v>6</v>
+        <v>58</v>
       </c>
       <c r="B93" s="22">
-        <v>5</v>
+        <v>44</v>
       </c>
       <c r="C93" s="29" t="s">
-        <v>87</v>
+        <v>62</v>
       </c>
       <c r="D93" s="22" t="s">
+        <v>59</v>
+      </c>
+      <c r="E93" s="22" t="s">
         <v>64</v>
-      </c>
-      <c r="E93" s="22" t="s">
-        <v>70</v>
       </c>
       <c r="F93" s="22"/>
       <c r="G93" s="22"/>
       <c r="H93" s="23"/>
       <c r="I93" s="23"/>
       <c r="J93" s="23" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K93" s="22"/>
       <c r="L93" s="1"/>
@@ -8788,6 +7655,9 @@
       <c r="BN93" s="1"/>
     </row>
     <row r="94" spans="1:66">
+      <c r="A94">
+        <v>59</v>
+      </c>
       <c r="B94" s="22"/>
       <c r="C94" s="29"/>
       <c r="D94" s="22"/>
@@ -8796,7 +7666,7 @@
       <c r="G94" s="22"/>
       <c r="H94" s="23"/>
       <c r="I94" s="23"/>
-      <c r="J94" s="23"/>
+      <c r="J94" s="22"/>
       <c r="K94" s="22"/>
       <c r="L94" s="1"/>
       <c r="M94" s="1"/>
@@ -8854,100 +7724,37 @@
       <c r="BM94" s="1"/>
       <c r="BN94" s="1"/>
     </row>
-    <row r="95" spans="1:66" s="20" customFormat="1">
+    <row r="95" spans="1:66" s="28" customFormat="1">
       <c r="A95">
-        <v>57</v>
-      </c>
-      <c r="B95" s="21"/>
+        <v>60</v>
+      </c>
       <c r="C95" s="28" t="s">
-        <v>62</v>
-      </c>
-      <c r="D95" s="21"/>
-      <c r="E95" s="21"/>
-      <c r="F95" s="21"/>
-      <c r="G95" s="21"/>
-      <c r="H95" s="21"/>
-      <c r="I95" s="21"/>
-      <c r="J95" s="21"/>
-      <c r="K95" s="21"/>
-      <c r="L95" s="21"/>
-      <c r="M95" s="21"/>
-      <c r="N95" s="21"/>
-      <c r="O95" s="21"/>
-      <c r="P95" s="21"/>
-      <c r="Q95" s="21"/>
-      <c r="R95" s="21"/>
-      <c r="S95" s="21"/>
-      <c r="T95" s="21"/>
-      <c r="U95" s="21"/>
-      <c r="V95" s="21"/>
-      <c r="W95" s="21"/>
-      <c r="X95" s="21"/>
-      <c r="Y95" s="21"/>
-      <c r="Z95" s="21"/>
-      <c r="AA95" s="21"/>
-      <c r="AB95" s="21"/>
-      <c r="AC95" s="21"/>
-      <c r="AD95" s="21"/>
-      <c r="AE95" s="21"/>
-      <c r="AF95" s="21"/>
-      <c r="AG95" s="21"/>
-      <c r="AH95" s="21"/>
-      <c r="AI95" s="21"/>
-      <c r="AJ95" s="21"/>
-      <c r="AK95" s="21"/>
-      <c r="AL95" s="21"/>
-      <c r="AM95" s="21"/>
-      <c r="AN95" s="21"/>
-      <c r="AO95" s="21"/>
-      <c r="AP95" s="21"/>
-      <c r="AQ95" s="21"/>
-      <c r="AR95" s="21"/>
-      <c r="AS95" s="21"/>
-      <c r="AT95" s="21"/>
-      <c r="AU95" s="21"/>
-      <c r="AV95" s="21"/>
-      <c r="AW95" s="21"/>
-      <c r="AX95" s="21"/>
-      <c r="AY95" s="21"/>
-      <c r="AZ95" s="21"/>
-      <c r="BA95" s="21"/>
-      <c r="BB95" s="21"/>
-      <c r="BC95" s="21"/>
-      <c r="BD95" s="21"/>
-      <c r="BE95" s="21"/>
-      <c r="BF95" s="21"/>
-      <c r="BG95" s="21"/>
-      <c r="BH95" s="21"/>
-      <c r="BI95" s="21"/>
-      <c r="BJ95" s="21"/>
-      <c r="BK95" s="21"/>
-      <c r="BL95" s="21"/>
-      <c r="BM95" s="21"/>
-      <c r="BN95" s="21"/>
+        <v>63</v>
+      </c>
+      <c r="J95" s="28" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="96" spans="1:66">
       <c r="A96">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B96" s="22">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C96" s="29" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D96" s="22" t="s">
-        <v>59</v>
-      </c>
-      <c r="E96" s="22" t="s">
-        <v>64</v>
-      </c>
+        <v>71</v>
+      </c>
+      <c r="E96" s="22"/>
       <c r="F96" s="22"/>
       <c r="G96" s="22"/>
       <c r="H96" s="23"/>
       <c r="I96" s="23"/>
       <c r="J96" s="23" t="s">
-        <v>39</v>
+        <v>92</v>
       </c>
       <c r="K96" s="22"/>
       <c r="L96" s="1"/>
@@ -8970,7 +7777,9 @@
       <c r="AC96" s="1"/>
       <c r="AD96" s="1"/>
       <c r="AE96" s="1"/>
-      <c r="AF96" s="1"/>
+      <c r="AF96" s="1" t="s">
+        <v>52</v>
+      </c>
       <c r="AG96" s="1"/>
       <c r="AH96" s="1"/>
       <c r="AI96" s="1"/>
@@ -9006,444 +7815,283 @@
       <c r="BM96" s="1"/>
       <c r="BN96" s="1"/>
     </row>
-    <row r="97" spans="1:66">
-      <c r="A97">
-        <v>59</v>
-      </c>
-      <c r="B97" s="22"/>
-      <c r="C97" s="29"/>
-      <c r="D97" s="22"/>
-      <c r="E97" s="22"/>
-      <c r="F97" s="22"/>
-      <c r="G97" s="22"/>
-      <c r="H97" s="23"/>
-      <c r="I97" s="23"/>
-      <c r="J97" s="22"/>
-      <c r="K97" s="22"/>
-      <c r="L97" s="1"/>
-      <c r="M97" s="1"/>
-      <c r="N97" s="1"/>
-      <c r="O97" s="1"/>
-      <c r="P97" s="1"/>
-      <c r="Q97" s="1"/>
-      <c r="R97" s="1"/>
-      <c r="S97" s="1"/>
-      <c r="T97" s="1"/>
-      <c r="U97" s="1"/>
-      <c r="V97" s="1"/>
-      <c r="W97" s="1"/>
-      <c r="X97" s="1"/>
-      <c r="Y97" s="1"/>
-      <c r="Z97" s="1"/>
-      <c r="AA97" s="1"/>
-      <c r="AB97" s="1"/>
-      <c r="AC97" s="1"/>
-      <c r="AD97" s="1"/>
-      <c r="AE97" s="1"/>
-      <c r="AF97" s="1"/>
-      <c r="AG97" s="1"/>
-      <c r="AH97" s="1"/>
-      <c r="AI97" s="1"/>
-      <c r="AJ97" s="1"/>
-      <c r="AK97" s="1"/>
-      <c r="AL97" s="1"/>
-      <c r="AM97" s="1"/>
-      <c r="AN97" s="1"/>
-      <c r="AO97" s="1"/>
-      <c r="AP97" s="1"/>
-      <c r="AQ97" s="1"/>
-      <c r="AR97" s="1"/>
-      <c r="AS97" s="1"/>
-      <c r="AT97" s="1"/>
-      <c r="AU97" s="1"/>
-      <c r="AV97" s="1"/>
-      <c r="AW97" s="1"/>
-      <c r="AX97" s="1"/>
-      <c r="AY97" s="1"/>
-      <c r="AZ97" s="1"/>
-      <c r="BA97" s="1"/>
-      <c r="BB97" s="1"/>
-      <c r="BC97" s="1"/>
-      <c r="BD97" s="1"/>
-      <c r="BE97" s="1"/>
-      <c r="BF97" s="1"/>
-      <c r="BG97" s="1"/>
-      <c r="BH97" s="1"/>
-      <c r="BI97" s="1"/>
-      <c r="BJ97" s="1"/>
-      <c r="BK97" s="1"/>
-      <c r="BL97" s="1"/>
-      <c r="BM97" s="1"/>
-      <c r="BN97" s="1"/>
-    </row>
-    <row r="98" spans="1:66" s="28" customFormat="1">
-      <c r="A98">
-        <v>60</v>
-      </c>
-      <c r="C98" s="28" t="s">
-        <v>63</v>
-      </c>
-      <c r="J98" s="28" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="99" spans="1:66">
-      <c r="A99">
-        <v>61</v>
-      </c>
-      <c r="B99" s="22">
-        <v>45</v>
-      </c>
-      <c r="C99" s="29" t="s">
-        <v>63</v>
-      </c>
-      <c r="D99" s="22" t="s">
-        <v>71</v>
-      </c>
-      <c r="E99" s="22"/>
-      <c r="F99" s="22"/>
-      <c r="G99" s="22"/>
-      <c r="H99" s="23"/>
-      <c r="I99" s="23"/>
-      <c r="J99" s="23" t="s">
-        <v>95</v>
-      </c>
-      <c r="K99" s="22"/>
-      <c r="L99" s="1"/>
-      <c r="M99" s="1"/>
-      <c r="N99" s="1"/>
-      <c r="O99" s="1"/>
-      <c r="P99" s="1"/>
-      <c r="Q99" s="1"/>
-      <c r="R99" s="1"/>
-      <c r="S99" s="1"/>
-      <c r="T99" s="1"/>
-      <c r="U99" s="1"/>
-      <c r="V99" s="1"/>
-      <c r="W99" s="1"/>
-      <c r="X99" s="1"/>
-      <c r="Y99" s="1"/>
-      <c r="Z99" s="1"/>
-      <c r="AA99" s="1"/>
-      <c r="AB99" s="1"/>
-      <c r="AC99" s="1"/>
-      <c r="AD99" s="1"/>
-      <c r="AE99" s="1"/>
-      <c r="AF99" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="AG99" s="1"/>
-      <c r="AH99" s="1"/>
-      <c r="AI99" s="1"/>
-      <c r="AJ99" s="1"/>
-      <c r="AK99" s="1"/>
-      <c r="AL99" s="1"/>
-      <c r="AM99" s="1"/>
-      <c r="AN99" s="1"/>
-      <c r="AO99" s="1"/>
-      <c r="AP99" s="1"/>
-      <c r="AQ99" s="1"/>
-      <c r="AR99" s="1"/>
-      <c r="AS99" s="1"/>
-      <c r="AT99" s="1"/>
-      <c r="AU99" s="1"/>
-      <c r="AV99" s="1"/>
-      <c r="AW99" s="1"/>
-      <c r="AX99" s="1"/>
-      <c r="AY99" s="1"/>
-      <c r="AZ99" s="1"/>
-      <c r="BA99" s="1"/>
-      <c r="BB99" s="1"/>
-      <c r="BC99" s="1"/>
-      <c r="BD99" s="1"/>
-      <c r="BE99" s="1"/>
-      <c r="BF99" s="1"/>
-      <c r="BG99" s="1"/>
-      <c r="BH99" s="1"/>
-      <c r="BI99" s="1"/>
-      <c r="BJ99" s="1"/>
-      <c r="BK99" s="1"/>
-      <c r="BL99" s="1"/>
-      <c r="BM99" s="1"/>
-      <c r="BN99" s="1"/>
-    </row>
-    <row r="100" spans="1:66" s="20" customFormat="1">
-      <c r="A100"/>
-      <c r="B100" s="21"/>
-      <c r="C100" s="28" t="s">
+    <row r="97" spans="1:66" s="20" customFormat="1">
+      <c r="A97"/>
+      <c r="B97" s="21"/>
+      <c r="C97" s="28" t="s">
         <v>55</v>
       </c>
-      <c r="D100" s="21"/>
-      <c r="E100" s="21"/>
-      <c r="F100" s="21"/>
-      <c r="G100" s="21"/>
-      <c r="H100" s="21"/>
-      <c r="I100" s="21"/>
-      <c r="J100" s="21"/>
-      <c r="K100" s="21"/>
-      <c r="L100" s="21"/>
-      <c r="M100" s="21"/>
-      <c r="N100" s="21"/>
-      <c r="O100" s="21"/>
-      <c r="P100" s="21"/>
-      <c r="Q100" s="21"/>
-      <c r="R100" s="21"/>
-      <c r="S100" s="21"/>
-      <c r="T100" s="21"/>
-      <c r="U100" s="21"/>
-      <c r="V100" s="21"/>
-      <c r="W100" s="21"/>
-      <c r="X100" s="21"/>
-      <c r="Y100" s="21"/>
-      <c r="Z100" s="21"/>
-      <c r="AA100" s="21"/>
-      <c r="AB100" s="21"/>
-      <c r="AC100" s="21"/>
-      <c r="AD100" s="21"/>
-      <c r="AE100" s="21"/>
-      <c r="AF100" s="21"/>
-      <c r="AG100" s="21"/>
-      <c r="AH100" s="21"/>
-      <c r="AI100" s="21"/>
-      <c r="AJ100" s="21"/>
-      <c r="AK100" s="21"/>
-      <c r="AL100" s="21"/>
-      <c r="AM100" s="21"/>
-      <c r="AN100" s="21"/>
-      <c r="AO100" s="21"/>
-      <c r="AP100" s="21"/>
-      <c r="AQ100" s="21"/>
-      <c r="AR100" s="21"/>
-      <c r="AS100" s="21"/>
-      <c r="AT100" s="21"/>
-      <c r="AU100" s="21"/>
-      <c r="AV100" s="21"/>
-      <c r="AW100" s="21"/>
-      <c r="AX100" s="21"/>
-      <c r="AY100" s="21"/>
-      <c r="AZ100" s="21"/>
-      <c r="BA100" s="21"/>
-      <c r="BB100" s="21"/>
-      <c r="BC100" s="21"/>
-      <c r="BD100" s="21"/>
-      <c r="BE100" s="21"/>
-      <c r="BF100" s="21"/>
-      <c r="BG100" s="21"/>
-      <c r="BH100" s="21"/>
-      <c r="BI100" s="21"/>
-      <c r="BJ100" s="21"/>
-      <c r="BK100" s="21"/>
-      <c r="BL100" s="21"/>
-      <c r="BM100" s="21"/>
-      <c r="BN100" s="21"/>
-    </row>
-    <row r="104" spans="1:66" s="24" customFormat="1">
-      <c r="A104"/>
-      <c r="C104" s="32" t="s">
+      <c r="D97" s="21"/>
+      <c r="E97" s="21"/>
+      <c r="F97" s="21"/>
+      <c r="G97" s="21"/>
+      <c r="H97" s="21"/>
+      <c r="I97" s="21"/>
+      <c r="J97" s="21"/>
+      <c r="K97" s="21"/>
+      <c r="L97" s="21"/>
+      <c r="M97" s="21"/>
+      <c r="N97" s="21"/>
+      <c r="O97" s="21"/>
+      <c r="P97" s="21"/>
+      <c r="Q97" s="21"/>
+      <c r="R97" s="21"/>
+      <c r="S97" s="21"/>
+      <c r="T97" s="21"/>
+      <c r="U97" s="21"/>
+      <c r="V97" s="21"/>
+      <c r="W97" s="21"/>
+      <c r="X97" s="21"/>
+      <c r="Y97" s="21"/>
+      <c r="Z97" s="21"/>
+      <c r="AA97" s="21"/>
+      <c r="AB97" s="21"/>
+      <c r="AC97" s="21"/>
+      <c r="AD97" s="21"/>
+      <c r="AE97" s="21"/>
+      <c r="AF97" s="21"/>
+      <c r="AG97" s="21"/>
+      <c r="AH97" s="21"/>
+      <c r="AI97" s="21"/>
+      <c r="AJ97" s="21"/>
+      <c r="AK97" s="21"/>
+      <c r="AL97" s="21"/>
+      <c r="AM97" s="21"/>
+      <c r="AN97" s="21"/>
+      <c r="AO97" s="21"/>
+      <c r="AP97" s="21"/>
+      <c r="AQ97" s="21"/>
+      <c r="AR97" s="21"/>
+      <c r="AS97" s="21"/>
+      <c r="AT97" s="21"/>
+      <c r="AU97" s="21"/>
+      <c r="AV97" s="21"/>
+      <c r="AW97" s="21"/>
+      <c r="AX97" s="21"/>
+      <c r="AY97" s="21"/>
+      <c r="AZ97" s="21"/>
+      <c r="BA97" s="21"/>
+      <c r="BB97" s="21"/>
+      <c r="BC97" s="21"/>
+      <c r="BD97" s="21"/>
+      <c r="BE97" s="21"/>
+      <c r="BF97" s="21"/>
+      <c r="BG97" s="21"/>
+      <c r="BH97" s="21"/>
+      <c r="BI97" s="21"/>
+      <c r="BJ97" s="21"/>
+      <c r="BK97" s="21"/>
+      <c r="BL97" s="21"/>
+      <c r="BM97" s="21"/>
+      <c r="BN97" s="21"/>
+    </row>
+    <row r="101" spans="1:66" s="24" customFormat="1">
+      <c r="A101"/>
+      <c r="C101" s="32" t="s">
         <v>53</v>
       </c>
-      <c r="H104" s="25"/>
-      <c r="I104" s="25"/>
-      <c r="J104" s="25"/>
-      <c r="L104" s="25">
+      <c r="H101" s="25"/>
+      <c r="I101" s="25"/>
+      <c r="J101" s="25"/>
+      <c r="L101" s="25">
         <f>L18</f>
         <v>41133</v>
       </c>
-      <c r="M104" s="25">
-        <f t="shared" ref="M104:BF104" si="10">M18</f>
+      <c r="M101" s="25">
+        <f t="shared" ref="M101:BF101" si="10">M18</f>
         <v>41134</v>
       </c>
-      <c r="N104" s="25">
+      <c r="N101" s="25">
         <f t="shared" si="10"/>
         <v>41135</v>
       </c>
-      <c r="O104" s="25">
+      <c r="O101" s="25">
         <f t="shared" si="10"/>
         <v>41136</v>
       </c>
-      <c r="P104" s="25">
+      <c r="P101" s="25">
         <f t="shared" si="10"/>
         <v>41137</v>
       </c>
-      <c r="Q104" s="25">
+      <c r="Q101" s="25">
         <f t="shared" si="10"/>
         <v>41138</v>
       </c>
-      <c r="R104" s="25">
+      <c r="R101" s="25">
         <f t="shared" si="10"/>
         <v>41139</v>
       </c>
-      <c r="S104" s="25">
+      <c r="S101" s="25">
         <f t="shared" si="10"/>
         <v>41140</v>
       </c>
-      <c r="T104" s="25">
+      <c r="T101" s="25">
         <f t="shared" si="10"/>
         <v>41141</v>
       </c>
-      <c r="U104" s="25">
+      <c r="U101" s="25">
         <f t="shared" si="10"/>
         <v>41142</v>
       </c>
-      <c r="V104" s="25">
+      <c r="V101" s="25">
         <f t="shared" si="10"/>
         <v>41143</v>
       </c>
-      <c r="W104" s="25">
+      <c r="W101" s="25">
         <f t="shared" si="10"/>
         <v>41144</v>
       </c>
-      <c r="X104" s="25">
+      <c r="X101" s="25">
         <f t="shared" si="10"/>
         <v>41145</v>
       </c>
-      <c r="Y104" s="25">
+      <c r="Y101" s="25">
         <f t="shared" si="10"/>
         <v>41146</v>
       </c>
-      <c r="Z104" s="25">
+      <c r="Z101" s="25">
         <f t="shared" si="10"/>
         <v>41147</v>
       </c>
-      <c r="AA104" s="25">
+      <c r="AA101" s="25">
         <f t="shared" si="10"/>
         <v>41148</v>
       </c>
-      <c r="AB104" s="25">
+      <c r="AB101" s="25">
         <f t="shared" si="10"/>
         <v>41149</v>
       </c>
-      <c r="AC104" s="25">
+      <c r="AC101" s="25">
         <f t="shared" si="10"/>
         <v>41150</v>
       </c>
-      <c r="AD104" s="25">
+      <c r="AD101" s="25">
         <f t="shared" si="10"/>
         <v>41151</v>
       </c>
-      <c r="AE104" s="25">
+      <c r="AE101" s="25">
         <f t="shared" si="10"/>
         <v>41152</v>
       </c>
-      <c r="AF104" s="25">
+      <c r="AF101" s="25">
         <f t="shared" si="10"/>
         <v>41153</v>
       </c>
-      <c r="AG104" s="25">
+      <c r="AG101" s="25">
         <f t="shared" si="10"/>
         <v>41154</v>
       </c>
-      <c r="AH104" s="25">
+      <c r="AH101" s="25">
         <f t="shared" si="10"/>
         <v>41155</v>
       </c>
-      <c r="AI104" s="25">
+      <c r="AI101" s="25">
         <f t="shared" si="10"/>
         <v>41156</v>
       </c>
-      <c r="AJ104" s="25">
+      <c r="AJ101" s="25">
         <f t="shared" si="10"/>
         <v>41157</v>
       </c>
-      <c r="AK104" s="25">
+      <c r="AK101" s="25">
         <f t="shared" si="10"/>
         <v>41158</v>
       </c>
-      <c r="AL104" s="25">
+      <c r="AL101" s="25">
         <f t="shared" si="10"/>
         <v>41159</v>
       </c>
-      <c r="AM104" s="25">
+      <c r="AM101" s="25">
         <f t="shared" si="10"/>
         <v>41160</v>
       </c>
-      <c r="AN104" s="25">
+      <c r="AN101" s="25">
         <f t="shared" si="10"/>
         <v>41161</v>
       </c>
-      <c r="AO104" s="25">
+      <c r="AO101" s="25">
         <f t="shared" si="10"/>
         <v>41162</v>
       </c>
-      <c r="AP104" s="25">
+      <c r="AP101" s="25">
         <f t="shared" si="10"/>
         <v>41163</v>
       </c>
-      <c r="AQ104" s="25">
+      <c r="AQ101" s="25">
         <f t="shared" si="10"/>
         <v>41164</v>
       </c>
-      <c r="AR104" s="25">
+      <c r="AR101" s="25">
         <f t="shared" si="10"/>
         <v>41165</v>
       </c>
-      <c r="AS104" s="25">
+      <c r="AS101" s="25">
         <f t="shared" si="10"/>
         <v>41166</v>
       </c>
-      <c r="AT104" s="25">
+      <c r="AT101" s="25">
         <f t="shared" si="10"/>
         <v>41167</v>
       </c>
-      <c r="AU104" s="25">
+      <c r="AU101" s="25">
         <f t="shared" si="10"/>
         <v>41168</v>
       </c>
-      <c r="AV104" s="25">
+      <c r="AV101" s="25">
         <f t="shared" si="10"/>
         <v>41169</v>
       </c>
-      <c r="AW104" s="25">
+      <c r="AW101" s="25">
         <f t="shared" si="10"/>
         <v>41170</v>
       </c>
-      <c r="AX104" s="25">
+      <c r="AX101" s="25">
         <f t="shared" si="10"/>
         <v>41171</v>
       </c>
-      <c r="AY104" s="25">
+      <c r="AY101" s="25">
         <f t="shared" si="10"/>
         <v>41172</v>
       </c>
-      <c r="AZ104" s="25">
+      <c r="AZ101" s="25">
         <f t="shared" si="10"/>
         <v>41173</v>
       </c>
-      <c r="BA104" s="25">
+      <c r="BA101" s="25">
         <f t="shared" si="10"/>
         <v>41174</v>
       </c>
-      <c r="BB104" s="25">
+      <c r="BB101" s="25">
         <f t="shared" si="10"/>
         <v>41175</v>
       </c>
-      <c r="BC104" s="25">
+      <c r="BC101" s="25">
         <f t="shared" si="10"/>
         <v>41176</v>
       </c>
-      <c r="BD104" s="25">
+      <c r="BD101" s="25">
         <f t="shared" si="10"/>
         <v>41177</v>
       </c>
-      <c r="BE104" s="25">
+      <c r="BE101" s="25">
         <f t="shared" si="10"/>
         <v>41178</v>
       </c>
-      <c r="BF104" s="25">
+      <c r="BF101" s="25">
         <f t="shared" si="10"/>
         <v>41179</v>
       </c>
-      <c r="BG104" s="25"/>
-      <c r="BH104" s="25"/>
-      <c r="BI104" s="25"/>
-      <c r="BJ104" s="25"/>
-      <c r="BK104" s="25"/>
-      <c r="BL104" s="25"/>
-      <c r="BM104" s="25"/>
-      <c r="BN104" s="25"/>
+      <c r="BG101" s="25"/>
+      <c r="BH101" s="25"/>
+      <c r="BI101" s="25"/>
+      <c r="BJ101" s="25"/>
+      <c r="BK101" s="25"/>
+      <c r="BL101" s="25"/>
+      <c r="BM101" s="25"/>
+      <c r="BN101" s="25"/>
     </row>
   </sheetData>
-  <autoFilter ref="A18:BF100">
+  <autoFilter ref="A18:BF97">
     <filterColumn colId="4"/>
     <filterColumn colId="5"/>
     <filterColumn colId="9"/>
@@ -9451,261 +8099,38 @@
   <sortState ref="C2:D16">
     <sortCondition ref="C2"/>
   </sortState>
-  <conditionalFormatting sqref="L101:AY101 L96:BN97 L99:BN99 L93:BN94 L20:BN23 L25:BN32 L34:BN37 L89:BN91 L64:BN73 L39:BN44 L46:BN59 L75:BN87">
-    <cfRule type="cellIs" dxfId="122" priority="151" operator="equal">
+  <conditionalFormatting sqref="L98:AY98 L93:BN94 L96:BN96 L90:BN91 L86:BN88 L72:BN84 L40:BN56 L58:BN70 L20:BN23 L25:BN32 L34:BN38">
+    <cfRule type="cellIs" dxfId="5" priority="151" operator="equal">
       <formula>"-"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="121" priority="152" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="152" operator="equal">
       <formula>"E"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="120" priority="153" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="153" operator="equal">
       <formula>"B"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L96:BN97 L99:BN99 L93:BN94 L20:BN23 L25:BN32 L34:BN37 L89:BN91 L64:BN73 L39:BN44 L46:BN59 L75:BN87">
-    <cfRule type="cellIs" dxfId="119" priority="150" operator="equal">
+  <conditionalFormatting sqref="L93:BN94 L96:BN96 L90:BN91 L86:BN88 L72:BN84 L40:BN56 L58:BN70 L20:BN23 L25:BN32 L34:BN38">
+    <cfRule type="cellIs" dxfId="2" priority="150" operator="equal">
       <formula>"BE"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J96 J34:J36 J99 J20:J23 J93 J39:J43 J25:J31 J64:J72 J46:J59 J76:J77 J79:J86">
-    <cfRule type="cellIs" dxfId="118" priority="224" operator="equal">
+  <conditionalFormatting sqref="J93 J96 J90 J73:J74 J76:J83 J40:J56 J58:J70 J34:J36 J20:J23 J25:J31">
+    <cfRule type="cellIs" dxfId="1" priority="224" operator="equal">
       <formula>$I$4</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J34:J36 J20:J23 J39:J43 J25:J31 J96 J99 J93 J64:J72 J57:J59 J76:J77 J79:J86">
-    <cfRule type="expression" dxfId="117" priority="231">
+  <conditionalFormatting sqref="J34:J36 J20:J23 J25:J31 J40:J56 J93 J96 J90 J58:J70 J73:J74 J76:J83">
+    <cfRule type="expression" dxfId="0" priority="231">
       <formula>AND(J20&lt;&gt;$I$4,$I20&lt;TODAY())</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J46">
-    <cfRule type="expression" dxfId="116" priority="59">
-      <formula>AND(J46&lt;&gt;$I$4,$I46&lt;TODAY())</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J47">
-    <cfRule type="expression" dxfId="115" priority="57">
-      <formula>AND(J47&lt;&gt;$I$4,$I47&lt;TODAY())</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J48:J56">
-    <cfRule type="expression" dxfId="114" priority="55">
-      <formula>AND(J48&lt;&gt;$I$4,$I48&lt;TODAY())</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L60:BN62">
-    <cfRule type="cellIs" dxfId="113" priority="46" operator="equal">
-      <formula>"-"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="112" priority="47" operator="equal">
-      <formula>"E"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="111" priority="48" operator="equal">
-      <formula>"B"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L60:BN62">
-    <cfRule type="cellIs" dxfId="107" priority="45" operator="equal">
-      <formula>"BE"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J60:J62">
-    <cfRule type="cellIs" dxfId="105" priority="44" operator="equal">
-      <formula>$I$4</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J60:J62">
-    <cfRule type="expression" dxfId="103" priority="43">
-      <formula>AND(J60&lt;&gt;$I$4,$I60&lt;TODAY())</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L60:BN62">
-    <cfRule type="cellIs" dxfId="95" priority="40" operator="equal">
-      <formula>"-"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="94" priority="41" operator="equal">
-      <formula>"E"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="93" priority="42" operator="equal">
-      <formula>"B"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L60:BN62">
-    <cfRule type="cellIs" dxfId="89" priority="39" operator="equal">
-      <formula>"BE"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J60:J62">
-    <cfRule type="cellIs" dxfId="87" priority="38" operator="equal">
-      <formula>$I$4</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J60:J62">
-    <cfRule type="expression" dxfId="85" priority="37">
-      <formula>AND(J60&lt;&gt;$I$4,$I60&lt;TODAY())</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L64:BN73">
-    <cfRule type="cellIs" dxfId="83" priority="34" operator="equal">
-      <formula>"-"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="82" priority="35" operator="equal">
-      <formula>"E"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="81" priority="36" operator="equal">
-      <formula>"B"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L64:BN73">
-    <cfRule type="cellIs" dxfId="77" priority="33" operator="equal">
-      <formula>"BE"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J64:J73">
-    <cfRule type="cellIs" dxfId="75" priority="32" operator="equal">
-      <formula>$I$4</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J64:J73">
-    <cfRule type="expression" dxfId="73" priority="31">
-      <formula>AND(J64&lt;&gt;$I$4,$I64&lt;TODAY())</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L64:BN73">
-    <cfRule type="cellIs" dxfId="71" priority="28" operator="equal">
-      <formula>"-"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="70" priority="29" operator="equal">
-      <formula>"E"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="69" priority="30" operator="equal">
-      <formula>"B"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L64:BN73">
-    <cfRule type="cellIs" dxfId="65" priority="27" operator="equal">
-      <formula>"BE"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J64:J73">
-    <cfRule type="cellIs" dxfId="63" priority="26" operator="equal">
-      <formula>$I$4</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J64:J73">
-    <cfRule type="expression" dxfId="61" priority="25">
-      <formula>AND(J64&lt;&gt;$I$4,$I64&lt;TODAY())</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L76:BN77">
-    <cfRule type="cellIs" dxfId="53" priority="22" operator="equal">
-      <formula>"-"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="52" priority="23" operator="equal">
-      <formula>"E"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="51" priority="24" operator="equal">
-      <formula>"B"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L76:BN77">
-    <cfRule type="cellIs" dxfId="47" priority="21" operator="equal">
-      <formula>"BE"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J76:J77">
-    <cfRule type="cellIs" dxfId="45" priority="20" operator="equal">
-      <formula>$I$4</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J76:J77">
-    <cfRule type="expression" dxfId="43" priority="19">
-      <formula>AND(J76&lt;&gt;$I$4,$I76&lt;TODAY())</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L76:BN77">
-    <cfRule type="cellIs" dxfId="41" priority="16" operator="equal">
-      <formula>"-"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="40" priority="17" operator="equal">
-      <formula>"E"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="39" priority="18" operator="equal">
-      <formula>"B"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L76:BN77">
-    <cfRule type="cellIs" dxfId="35" priority="15" operator="equal">
-      <formula>"BE"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J76:J77">
-    <cfRule type="cellIs" dxfId="33" priority="14" operator="equal">
-      <formula>$I$4</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J76:J77">
-    <cfRule type="expression" dxfId="31" priority="13">
-      <formula>AND(J76&lt;&gt;$I$4,$I76&lt;TODAY())</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L79:BN82">
-    <cfRule type="cellIs" dxfId="23" priority="10" operator="equal">
-      <formula>"-"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="22" priority="11" operator="equal">
-      <formula>"E"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="21" priority="12" operator="equal">
-      <formula>"B"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L79:BN82">
-    <cfRule type="cellIs" dxfId="17" priority="9" operator="equal">
-      <formula>"BE"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J79:J82">
-    <cfRule type="cellIs" dxfId="15" priority="8" operator="equal">
-      <formula>$I$4</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J79:J82">
-    <cfRule type="expression" dxfId="13" priority="7">
-      <formula>AND(J79&lt;&gt;$I$4,$I79&lt;TODAY())</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L79:BN82">
-    <cfRule type="cellIs" dxfId="11" priority="4" operator="equal">
-      <formula>"-"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="10" priority="5" operator="equal">
-      <formula>"E"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="9" priority="6" operator="equal">
-      <formula>"B"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L79:BN82">
-    <cfRule type="cellIs" dxfId="5" priority="3" operator="equal">
-      <formula>"BE"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J79:J82">
-    <cfRule type="cellIs" dxfId="3" priority="2" operator="equal">
-      <formula>$I$4</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J79:J82">
-    <cfRule type="expression" dxfId="1" priority="1">
-      <formula>AND(J79&lt;&gt;$I$4,$I79&lt;TODAY())</formula>
-    </cfRule>
-  </conditionalFormatting>
   <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J46:J59 J91:J94 J39:J43 J20:J23 J25:J31 J76:J77 J79:J86 J64:J72 J96:J99 J34:J36">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D89:F97 D66:D88 E58:E88 D25:F32 D58:D64 E40:F53 D34:F38 F57:F88 D40:D50 D52:D53">
+      <formula1>$C$2:$C$16</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J93:J96 J76:J83 J73:J74 J88:J91 J20:J23 J25:J31 J34:J36 J40:J53 J58:J69">
       <formula1>$I$3:$I$13</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D63 F37:F56 D41:D56 E39:E56 D34:F36 D37:E37 D92:F100 D25:F32 D39 D65:D91 E63:F91 D57:F59">
-      <formula1>$C$2:$C$16</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D19:E23">
       <formula1>members</formula1>

--- a/trunk/Document/VietinBankSC Project Plan v2012.009.20.xlsx
+++ b/trunk/Document/VietinBankSC Project Plan v2012.009.20.xlsx
@@ -1407,8 +1407,8 @@
   </sheetPr>
   <dimension ref="A1:CT101"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView tabSelected="1" topLeftCell="A40" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="E47" sqref="E47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4278,7 +4278,7 @@
         <v>81</v>
       </c>
       <c r="E47" s="22" t="s">
-        <v>82</v>
+        <v>59</v>
       </c>
       <c r="F47" s="22"/>
       <c r="G47" s="22"/>

--- a/trunk/Document/VietinBankSC Project Plan v2012.009.20.xlsx
+++ b/trunk/Document/VietinBankSC Project Plan v2012.009.20.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="317" uniqueCount="148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="321" uniqueCount="150">
   <si>
     <t>GVCM</t>
   </si>
@@ -480,6 +480,12 @@
   </si>
   <si>
     <t>s,c</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>B</t>
   </si>
 </sst>
 </file>
@@ -1407,8 +1413,8 @@
   </sheetPr>
   <dimension ref="A1:CT101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E47" sqref="E47"/>
+    <sheetView tabSelected="1" topLeftCell="A38" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="D43" sqref="D43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3978,6 +3984,9 @@
       <c r="BN42" s="1"/>
     </row>
     <row r="43" spans="1:66">
+      <c r="A43" t="s">
+        <v>148</v>
+      </c>
       <c r="B43" s="22"/>
       <c r="C43" s="29" t="s">
         <v>123</v>
@@ -4051,6 +4060,9 @@
       <c r="BN43" s="1"/>
     </row>
     <row r="44" spans="1:66">
+      <c r="A44" t="s">
+        <v>149</v>
+      </c>
       <c r="B44" s="22"/>
       <c r="C44" s="29" t="s">
         <v>124</v>
@@ -4416,6 +4428,9 @@
       <c r="BN48" s="1"/>
     </row>
     <row r="49" spans="1:66">
+      <c r="A49" t="s">
+        <v>148</v>
+      </c>
       <c r="B49" s="22"/>
       <c r="C49" s="29" t="s">
         <v>95</v>
@@ -4489,6 +4504,9 @@
       <c r="BN49" s="1"/>
     </row>
     <row r="50" spans="1:66">
+      <c r="A50" t="s">
+        <v>149</v>
+      </c>
       <c r="B50" s="22"/>
       <c r="C50" s="29" t="s">
         <v>96</v>

--- a/trunk/Document/VietinBankSC Project Plan v2012.009.20.xlsx
+++ b/trunk/Document/VietinBankSC Project Plan v2012.009.20.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="321" uniqueCount="150">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="322" uniqueCount="151">
   <si>
     <t>GVCM</t>
   </si>
@@ -486,6 +486,9 @@
   </si>
   <si>
     <t>B</t>
+  </si>
+  <si>
+    <t>Đừng làm vội</t>
   </si>
 </sst>
 </file>
@@ -1414,7 +1417,7 @@
   <dimension ref="A1:CT101"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A38" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D43" sqref="D43"/>
+      <selection activeCell="G45" sqref="G45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3992,10 +3995,10 @@
         <v>123</v>
       </c>
       <c r="D43" s="22" t="s">
-        <v>57</v>
+        <v>81</v>
       </c>
       <c r="E43" s="22" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="F43" s="22"/>
       <c r="G43" s="22"/>
@@ -4074,7 +4077,9 @@
         <v>82</v>
       </c>
       <c r="F44" s="22"/>
-      <c r="G44" s="22"/>
+      <c r="G44" s="22" t="s">
+        <v>150</v>
+      </c>
       <c r="H44" s="23"/>
       <c r="I44" s="23"/>
       <c r="J44" s="23"/>

--- a/trunk/Document/VietinBankSC Project Plan v2012.009.20.xlsx
+++ b/trunk/Document/VietinBankSC Project Plan v2012.009.20.xlsx
@@ -16,7 +16,7 @@
     <externalReference r:id="rId5"/>
   </externalReferences>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Plan!$A$18:$BF$97</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Plan!$A$18:$BF$95</definedName>
     <definedName name="members">'[1]Thành viên - Vị trí'!$C$3:$C$13</definedName>
   </definedNames>
   <calcPr calcId="124519"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="322" uniqueCount="151">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="311" uniqueCount="146">
   <si>
     <t>GVCM</t>
   </si>
@@ -326,9 +326,6 @@
     <t>Danh mục trái phiếu</t>
   </si>
   <si>
-    <t>Danh mục trái chủ - giấy chứng nhận</t>
-  </si>
-  <si>
     <t>Định nghĩa và insert dữ liệu loại từ điển</t>
   </si>
   <si>
@@ -386,9 +383,6 @@
     <t>Phân quyền người sử dụng</t>
   </si>
   <si>
-    <t>Danh mục loại trái phiếu</t>
-  </si>
-  <si>
     <t>Danh mục phân nhóm trái chủ</t>
   </si>
   <si>
@@ -407,12 +401,6 @@
     <t>Danh mục ngày làm việc</t>
   </si>
   <si>
-    <t>Quản lý danh sách trái phiếu</t>
-  </si>
-  <si>
-    <t>Quản lý danh sách trái chủ</t>
-  </si>
-  <si>
     <t>Quản lý tổ chức phát hành</t>
   </si>
   <si>
@@ -482,13 +470,10 @@
     <t>s,c</t>
   </si>
   <si>
-    <t>A</t>
-  </si>
-  <si>
-    <t>B</t>
-  </si>
-  <si>
-    <t>Đừng làm vội</t>
+    <t>Quản lý danh sách trái chủ - giấy chứng nhận</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Danh mục </t>
   </si>
 </sst>
 </file>
@@ -1414,7 +1399,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:CT101"/>
+  <dimension ref="A1:CT99"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A38" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="G45" sqref="G45"/>
@@ -1458,10 +1443,10 @@
         <v>38</v>
       </c>
       <c r="J1" s="15" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="K1" s="15" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
     </row>
     <row r="2" spans="2:66">
@@ -1477,10 +1462,10 @@
       <c r="G2" s="33"/>
       <c r="H2" s="33"/>
       <c r="J2" s="15" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="K2" s="15" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
     </row>
     <row r="3" spans="2:66">
@@ -1499,10 +1484,10 @@
         <v>39</v>
       </c>
       <c r="J3" s="15" t="s">
+        <v>135</v>
+      </c>
+      <c r="K3" s="15" t="s">
         <v>139</v>
-      </c>
-      <c r="K3" s="15" t="s">
-        <v>143</v>
       </c>
     </row>
     <row r="4" spans="2:66">
@@ -1511,14 +1496,14 @@
       </c>
       <c r="D4" s="16"/>
       <c r="E4" s="33" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="F4" s="33"/>
       <c r="G4" s="33" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="H4" s="33" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="I4" s="17" t="s">
         <v>40</v>
@@ -1532,11 +1517,11 @@
       <c r="D5" s="16"/>
       <c r="E5" s="33"/>
       <c r="F5" s="33" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="G5" s="15"/>
       <c r="H5" s="15" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="I5" s="17" t="s">
         <v>92</v>
@@ -1563,16 +1548,16 @@
       </c>
       <c r="D7" s="16"/>
       <c r="E7" s="33" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="F7" s="33" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="G7" s="33" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="H7" s="33" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="K7" s="15"/>
     </row>
@@ -1595,18 +1580,18 @@
         <v>58</v>
       </c>
       <c r="D9" s="16">
-        <f>SUMIF($D$19:$D$97,C9,$G$19:$G$97)</f>
+        <f>SUMIF($D$19:$D$95,C9,$G$19:$G$95)</f>
         <v>0</v>
       </c>
       <c r="E9" s="33"/>
       <c r="F9" s="33" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="G9" s="33" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="H9" s="33" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="K9" s="15"/>
     </row>
@@ -1615,15 +1600,15 @@
         <v>61</v>
       </c>
       <c r="D10" s="16">
-        <f>SUMIF($D$19:$D$97,C10,$G$19:$G$97)</f>
+        <f>SUMIF($D$19:$D$95,C10,$G$19:$G$95)</f>
         <v>0</v>
       </c>
       <c r="E10" s="33"/>
       <c r="F10" s="33" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="H10" s="33" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="K10" s="15"/>
     </row>
@@ -1633,13 +1618,13 @@
       </c>
       <c r="D11" s="16"/>
       <c r="E11" s="33" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="F11" s="33" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="G11" s="33" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="H11" s="33"/>
       <c r="K11" s="15"/>
@@ -1649,20 +1634,20 @@
         <v>59</v>
       </c>
       <c r="D12" s="16">
-        <f>SUMIF($D$19:$D$97,C12,$G$19:$G$97)</f>
+        <f>SUMIF($D$19:$D$95,C12,$G$19:$G$95)</f>
         <v>0</v>
       </c>
       <c r="E12" s="33" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="F12" s="33" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="G12" s="33" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="H12" s="33" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="K12" s="15"/>
     </row>
@@ -1672,16 +1657,16 @@
       </c>
       <c r="D13" s="16"/>
       <c r="E13" s="33" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="F13" s="33" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="G13" s="33" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="H13" s="33" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="K13" s="15"/>
     </row>
@@ -1690,18 +1675,18 @@
         <v>57</v>
       </c>
       <c r="D14" s="16">
-        <f>SUMIF($D$19:$D$97,C14,$G$19:$G$97)</f>
+        <f>SUMIF($D$19:$D$95,C14,$G$19:$G$95)</f>
         <v>0</v>
       </c>
       <c r="E14" s="33"/>
       <c r="F14" s="33" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="G14" s="33" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="H14" s="33" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="K14" s="15"/>
     </row>
@@ -1936,16 +1921,16 @@
         <v>81</v>
       </c>
       <c r="D16" s="16">
-        <f>SUMIF($D$19:$D$97,C16,$G$19:$G$97)</f>
+        <f>SUMIF($D$19:$D$95,C16,$G$19:$G$95)</f>
         <v>0</v>
       </c>
       <c r="E16" s="33"/>
       <c r="F16" s="33" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="G16" s="33"/>
       <c r="H16" s="33" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="K16" s="15"/>
     </row>
@@ -2976,7 +2961,7 @@
     <row r="29" spans="2:98">
       <c r="B29" s="22"/>
       <c r="C29" s="29" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D29" s="22" t="s">
         <v>58</v>
@@ -3049,7 +3034,7 @@
     <row r="30" spans="2:98">
       <c r="B30" s="22"/>
       <c r="C30" s="29" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D30" s="22" t="s">
         <v>59</v>
@@ -3554,7 +3539,7 @@
     <row r="37" spans="1:66">
       <c r="B37" s="22"/>
       <c r="C37" s="29" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D37" s="29" t="s">
         <v>58</v>
@@ -3692,13 +3677,13 @@
     <row r="39" spans="1:66" s="20" customFormat="1">
       <c r="B39" s="21"/>
       <c r="C39" s="30" t="s">
-        <v>116</v>
+        <v>145</v>
       </c>
       <c r="D39" s="21" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="E39" s="21" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="F39" s="21" t="s">
         <v>57</v>
@@ -3770,7 +3755,7 @@
       </c>
       <c r="B40" s="22"/>
       <c r="C40" s="29" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D40" s="22"/>
       <c r="E40" s="22"/>
@@ -3844,7 +3829,7 @@
       </c>
       <c r="B41" s="22"/>
       <c r="C41" s="29" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D41" s="22"/>
       <c r="E41" s="22"/>
@@ -3918,7 +3903,7 @@
       </c>
       <c r="B42" s="22"/>
       <c r="C42" s="29" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="D42" s="22"/>
       <c r="E42" s="22"/>
@@ -3987,12 +3972,9 @@
       <c r="BN42" s="1"/>
     </row>
     <row r="43" spans="1:66">
-      <c r="A43" t="s">
-        <v>148</v>
-      </c>
       <c r="B43" s="22"/>
       <c r="C43" s="29" t="s">
-        <v>123</v>
+        <v>95</v>
       </c>
       <c r="D43" s="22" t="s">
         <v>81</v>
@@ -4063,23 +4045,18 @@
       <c r="BN43" s="1"/>
     </row>
     <row r="44" spans="1:66">
-      <c r="A44" t="s">
-        <v>149</v>
-      </c>
       <c r="B44" s="22"/>
       <c r="C44" s="29" t="s">
-        <v>124</v>
+        <v>144</v>
       </c>
       <c r="D44" s="22" t="s">
-        <v>82</v>
+        <v>61</v>
       </c>
       <c r="E44" s="22" t="s">
-        <v>82</v>
+        <v>61</v>
       </c>
       <c r="F44" s="22"/>
-      <c r="G44" s="22" t="s">
-        <v>150</v>
-      </c>
+      <c r="G44" s="22"/>
       <c r="H44" s="23"/>
       <c r="I44" s="23"/>
       <c r="J44" s="23"/>
@@ -4143,7 +4120,7 @@
     <row r="45" spans="1:66">
       <c r="B45" s="22"/>
       <c r="C45" s="29" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="D45" s="22" t="s">
         <v>59</v>
@@ -4216,7 +4193,7 @@
     <row r="46" spans="1:66">
       <c r="B46" s="22"/>
       <c r="C46" s="29" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="D46" s="22" t="s">
         <v>84</v>
@@ -4434,23 +4411,21 @@
     </row>
     <row r="49" spans="1:66">
       <c r="A49" t="s">
-        <v>148</v>
+        <v>10</v>
       </c>
       <c r="B49" s="22"/>
       <c r="C49" s="29" t="s">
-        <v>95</v>
-      </c>
-      <c r="D49" s="22" t="s">
-        <v>60</v>
-      </c>
-      <c r="E49" s="22" t="s">
-        <v>60</v>
-      </c>
+        <v>118</v>
+      </c>
+      <c r="D49" s="22"/>
+      <c r="E49" s="22"/>
       <c r="F49" s="22"/>
       <c r="G49" s="22"/>
       <c r="H49" s="23"/>
       <c r="I49" s="23"/>
-      <c r="J49" s="23"/>
+      <c r="J49" s="23" t="s">
+        <v>92</v>
+      </c>
       <c r="K49" s="22"/>
       <c r="L49" s="1"/>
       <c r="M49" s="1"/>
@@ -4510,23 +4485,21 @@
     </row>
     <row r="50" spans="1:66">
       <c r="A50" t="s">
-        <v>149</v>
+        <v>10</v>
       </c>
       <c r="B50" s="22"/>
       <c r="C50" s="29" t="s">
-        <v>96</v>
-      </c>
-      <c r="D50" s="22" t="s">
-        <v>61</v>
-      </c>
-      <c r="E50" s="22" t="s">
-        <v>61</v>
-      </c>
+        <v>119</v>
+      </c>
+      <c r="D50" s="22"/>
+      <c r="E50" s="22"/>
       <c r="F50" s="22"/>
       <c r="G50" s="22"/>
       <c r="H50" s="23"/>
       <c r="I50" s="23"/>
-      <c r="J50" s="23"/>
+      <c r="J50" s="23" t="s">
+        <v>92</v>
+      </c>
       <c r="K50" s="22"/>
       <c r="L50" s="1"/>
       <c r="M50" s="1"/>
@@ -4592,6 +4565,7 @@
       <c r="C51" s="29" t="s">
         <v>120</v>
       </c>
+      <c r="D51" s="22"/>
       <c r="E51" s="22"/>
       <c r="F51" s="22"/>
       <c r="G51" s="22"/>
@@ -4658,22 +4632,15 @@
       <c r="BN51" s="1"/>
     </row>
     <row r="52" spans="1:66">
-      <c r="A52" t="s">
-        <v>10</v>
-      </c>
       <c r="B52" s="22"/>
-      <c r="C52" s="29" t="s">
-        <v>121</v>
-      </c>
+      <c r="C52" s="29"/>
       <c r="D52" s="22"/>
       <c r="E52" s="22"/>
       <c r="F52" s="22"/>
       <c r="G52" s="22"/>
       <c r="H52" s="23"/>
       <c r="I52" s="23"/>
-      <c r="J52" s="23" t="s">
-        <v>92</v>
-      </c>
+      <c r="J52" s="23"/>
       <c r="K52" s="22"/>
       <c r="L52" s="1"/>
       <c r="M52" s="1"/>
@@ -4732,22 +4699,15 @@
       <c r="BN52" s="1"/>
     </row>
     <row r="53" spans="1:66">
-      <c r="A53" t="s">
-        <v>10</v>
-      </c>
       <c r="B53" s="22"/>
-      <c r="C53" s="29" t="s">
-        <v>122</v>
-      </c>
+      <c r="C53" s="29"/>
       <c r="D53" s="22"/>
       <c r="E53" s="22"/>
       <c r="F53" s="22"/>
       <c r="G53" s="22"/>
       <c r="H53" s="23"/>
       <c r="I53" s="23"/>
-      <c r="J53" s="23" t="s">
-        <v>92</v>
-      </c>
+      <c r="J53" s="23"/>
       <c r="K53" s="22"/>
       <c r="L53" s="1"/>
       <c r="M53" s="1"/>
@@ -4872,78 +4832,90 @@
       <c r="BM54" s="1"/>
       <c r="BN54" s="1"/>
     </row>
-    <row r="55" spans="1:66">
-      <c r="B55" s="22"/>
-      <c r="C55" s="29"/>
-      <c r="D55" s="22"/>
-      <c r="E55" s="22"/>
-      <c r="F55" s="22"/>
-      <c r="G55" s="22"/>
-      <c r="H55" s="23"/>
-      <c r="I55" s="23"/>
-      <c r="J55" s="23"/>
-      <c r="K55" s="22"/>
-      <c r="L55" s="1"/>
-      <c r="M55" s="1"/>
-      <c r="N55" s="1"/>
-      <c r="O55" s="1"/>
-      <c r="P55" s="1"/>
-      <c r="Q55" s="1"/>
-      <c r="R55" s="1"/>
-      <c r="S55" s="1"/>
-      <c r="T55" s="1"/>
-      <c r="U55" s="1"/>
-      <c r="V55" s="1"/>
-      <c r="W55" s="1"/>
-      <c r="X55" s="1"/>
-      <c r="Y55" s="1"/>
-      <c r="Z55" s="1"/>
-      <c r="AA55" s="1"/>
-      <c r="AB55" s="1"/>
-      <c r="AC55" s="1"/>
-      <c r="AD55" s="1"/>
-      <c r="AE55" s="1"/>
-      <c r="AF55" s="1"/>
-      <c r="AG55" s="1"/>
-      <c r="AH55" s="1"/>
-      <c r="AI55" s="1"/>
-      <c r="AJ55" s="1"/>
-      <c r="AK55" s="1"/>
-      <c r="AL55" s="1"/>
-      <c r="AM55" s="1"/>
-      <c r="AN55" s="1"/>
-      <c r="AO55" s="1"/>
-      <c r="AP55" s="1"/>
-      <c r="AQ55" s="1"/>
-      <c r="AR55" s="1"/>
-      <c r="AS55" s="1"/>
-      <c r="AT55" s="1"/>
-      <c r="AU55" s="1"/>
-      <c r="AV55" s="1"/>
-      <c r="AW55" s="1"/>
-      <c r="AX55" s="1"/>
-      <c r="AY55" s="1"/>
-      <c r="AZ55" s="1"/>
-      <c r="BA55" s="1"/>
-      <c r="BB55" s="1"/>
-      <c r="BC55" s="1"/>
-      <c r="BD55" s="1"/>
-      <c r="BE55" s="1"/>
-      <c r="BF55" s="1"/>
-      <c r="BG55" s="1"/>
-      <c r="BH55" s="1"/>
-      <c r="BI55" s="1"/>
-      <c r="BJ55" s="1"/>
-      <c r="BK55" s="1"/>
-      <c r="BL55" s="1"/>
-      <c r="BM55" s="1"/>
-      <c r="BN55" s="1"/>
+    <row r="55" spans="1:66" s="20" customFormat="1">
+      <c r="B55" s="21"/>
+      <c r="C55" s="30" t="s">
+        <v>130</v>
+      </c>
+      <c r="D55" s="21" t="s">
+        <v>80</v>
+      </c>
+      <c r="E55" s="21" t="s">
+        <v>79</v>
+      </c>
+      <c r="F55" s="21"/>
+      <c r="G55" s="21"/>
+      <c r="H55" s="21"/>
+      <c r="I55" s="21"/>
+      <c r="J55" s="21"/>
+      <c r="K55" s="21"/>
+      <c r="L55" s="21"/>
+      <c r="M55" s="21"/>
+      <c r="N55" s="21"/>
+      <c r="O55" s="21"/>
+      <c r="P55" s="21"/>
+      <c r="Q55" s="21"/>
+      <c r="R55" s="21"/>
+      <c r="S55" s="21"/>
+      <c r="T55" s="21"/>
+      <c r="U55" s="21"/>
+      <c r="V55" s="21"/>
+      <c r="W55" s="21"/>
+      <c r="X55" s="21"/>
+      <c r="Y55" s="21"/>
+      <c r="Z55" s="21"/>
+      <c r="AA55" s="21"/>
+      <c r="AB55" s="21"/>
+      <c r="AC55" s="21"/>
+      <c r="AD55" s="21"/>
+      <c r="AE55" s="21"/>
+      <c r="AF55" s="21"/>
+      <c r="AG55" s="21"/>
+      <c r="AH55" s="21"/>
+      <c r="AI55" s="21"/>
+      <c r="AJ55" s="21"/>
+      <c r="AK55" s="21"/>
+      <c r="AL55" s="21"/>
+      <c r="AM55" s="21"/>
+      <c r="AN55" s="21"/>
+      <c r="AO55" s="21"/>
+      <c r="AP55" s="21"/>
+      <c r="AQ55" s="21"/>
+      <c r="AR55" s="21"/>
+      <c r="AS55" s="21"/>
+      <c r="AT55" s="21"/>
+      <c r="AU55" s="21"/>
+      <c r="AV55" s="21"/>
+      <c r="AW55" s="21"/>
+      <c r="AX55" s="21"/>
+      <c r="AY55" s="21"/>
+      <c r="AZ55" s="21"/>
+      <c r="BA55" s="21"/>
+      <c r="BB55" s="21"/>
+      <c r="BC55" s="21"/>
+      <c r="BD55" s="21"/>
+      <c r="BE55" s="21"/>
+      <c r="BF55" s="21"/>
+      <c r="BG55" s="21"/>
+      <c r="BH55" s="21"/>
+      <c r="BI55" s="21"/>
+      <c r="BJ55" s="21"/>
+      <c r="BK55" s="21"/>
+      <c r="BL55" s="21"/>
+      <c r="BM55" s="21"/>
+      <c r="BN55" s="21"/>
     </row>
     <row r="56" spans="1:66">
       <c r="B56" s="22"/>
-      <c r="C56" s="29"/>
-      <c r="D56" s="22"/>
-      <c r="E56" s="22"/>
+      <c r="C56" s="29" t="s">
+        <v>126</v>
+      </c>
+      <c r="D56" s="22" t="s">
+        <v>60</v>
+      </c>
+      <c r="E56" s="22" t="s">
+        <v>58</v>
+      </c>
       <c r="F56" s="22"/>
       <c r="G56" s="22"/>
       <c r="H56" s="23"/>
@@ -5006,89 +4978,89 @@
       <c r="BM56" s="1"/>
       <c r="BN56" s="1"/>
     </row>
-    <row r="57" spans="1:66" s="20" customFormat="1">
-      <c r="B57" s="21"/>
-      <c r="C57" s="30" t="s">
-        <v>134</v>
-      </c>
-      <c r="D57" s="21" t="s">
-        <v>80</v>
-      </c>
-      <c r="E57" s="21" t="s">
-        <v>79</v>
-      </c>
-      <c r="F57" s="21"/>
-      <c r="G57" s="21"/>
-      <c r="H57" s="21"/>
-      <c r="I57" s="21"/>
-      <c r="J57" s="21"/>
-      <c r="K57" s="21"/>
-      <c r="L57" s="21"/>
-      <c r="M57" s="21"/>
-      <c r="N57" s="21"/>
-      <c r="O57" s="21"/>
-      <c r="P57" s="21"/>
-      <c r="Q57" s="21"/>
-      <c r="R57" s="21"/>
-      <c r="S57" s="21"/>
-      <c r="T57" s="21"/>
-      <c r="U57" s="21"/>
-      <c r="V57" s="21"/>
-      <c r="W57" s="21"/>
-      <c r="X57" s="21"/>
-      <c r="Y57" s="21"/>
-      <c r="Z57" s="21"/>
-      <c r="AA57" s="21"/>
-      <c r="AB57" s="21"/>
-      <c r="AC57" s="21"/>
-      <c r="AD57" s="21"/>
-      <c r="AE57" s="21"/>
-      <c r="AF57" s="21"/>
-      <c r="AG57" s="21"/>
-      <c r="AH57" s="21"/>
-      <c r="AI57" s="21"/>
-      <c r="AJ57" s="21"/>
-      <c r="AK57" s="21"/>
-      <c r="AL57" s="21"/>
-      <c r="AM57" s="21"/>
-      <c r="AN57" s="21"/>
-      <c r="AO57" s="21"/>
-      <c r="AP57" s="21"/>
-      <c r="AQ57" s="21"/>
-      <c r="AR57" s="21"/>
-      <c r="AS57" s="21"/>
-      <c r="AT57" s="21"/>
-      <c r="AU57" s="21"/>
-      <c r="AV57" s="21"/>
-      <c r="AW57" s="21"/>
-      <c r="AX57" s="21"/>
-      <c r="AY57" s="21"/>
-      <c r="AZ57" s="21"/>
-      <c r="BA57" s="21"/>
-      <c r="BB57" s="21"/>
-      <c r="BC57" s="21"/>
-      <c r="BD57" s="21"/>
-      <c r="BE57" s="21"/>
-      <c r="BF57" s="21"/>
-      <c r="BG57" s="21"/>
-      <c r="BH57" s="21"/>
-      <c r="BI57" s="21"/>
-      <c r="BJ57" s="21"/>
-      <c r="BK57" s="21"/>
-      <c r="BL57" s="21"/>
-      <c r="BM57" s="21"/>
-      <c r="BN57" s="21"/>
+    <row r="57" spans="1:66">
+      <c r="B57" s="22"/>
+      <c r="C57" s="29" t="s">
+        <v>127</v>
+      </c>
+      <c r="D57" s="22" t="s">
+        <v>60</v>
+      </c>
+      <c r="E57" s="22" t="s">
+        <v>58</v>
+      </c>
+      <c r="F57" s="22"/>
+      <c r="G57" s="22"/>
+      <c r="H57" s="23"/>
+      <c r="I57" s="23"/>
+      <c r="J57" s="23"/>
+      <c r="K57" s="22"/>
+      <c r="L57" s="1"/>
+      <c r="M57" s="1"/>
+      <c r="N57" s="1"/>
+      <c r="O57" s="1"/>
+      <c r="P57" s="1"/>
+      <c r="Q57" s="1"/>
+      <c r="R57" s="1"/>
+      <c r="S57" s="1"/>
+      <c r="T57" s="1"/>
+      <c r="U57" s="1"/>
+      <c r="V57" s="1"/>
+      <c r="W57" s="1"/>
+      <c r="X57" s="1"/>
+      <c r="Y57" s="1"/>
+      <c r="Z57" s="1"/>
+      <c r="AA57" s="1"/>
+      <c r="AB57" s="1"/>
+      <c r="AC57" s="1"/>
+      <c r="AD57" s="1"/>
+      <c r="AE57" s="1"/>
+      <c r="AF57" s="1"/>
+      <c r="AG57" s="1"/>
+      <c r="AH57" s="1"/>
+      <c r="AI57" s="1"/>
+      <c r="AJ57" s="1"/>
+      <c r="AK57" s="1"/>
+      <c r="AL57" s="1"/>
+      <c r="AM57" s="1"/>
+      <c r="AN57" s="1"/>
+      <c r="AO57" s="1"/>
+      <c r="AP57" s="1"/>
+      <c r="AQ57" s="1"/>
+      <c r="AR57" s="1"/>
+      <c r="AS57" s="1"/>
+      <c r="AT57" s="1"/>
+      <c r="AU57" s="1"/>
+      <c r="AV57" s="1"/>
+      <c r="AW57" s="1"/>
+      <c r="AX57" s="1"/>
+      <c r="AY57" s="1"/>
+      <c r="AZ57" s="1"/>
+      <c r="BA57" s="1"/>
+      <c r="BB57" s="1"/>
+      <c r="BC57" s="1"/>
+      <c r="BD57" s="1"/>
+      <c r="BE57" s="1"/>
+      <c r="BF57" s="1"/>
+      <c r="BG57" s="1"/>
+      <c r="BH57" s="1"/>
+      <c r="BI57" s="1"/>
+      <c r="BJ57" s="1"/>
+      <c r="BK57" s="1"/>
+      <c r="BL57" s="1"/>
+      <c r="BM57" s="1"/>
+      <c r="BN57" s="1"/>
     </row>
     <row r="58" spans="1:66">
       <c r="B58" s="22"/>
       <c r="C58" s="29" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D58" s="22" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E58" s="22" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="F58" s="22"/>
       <c r="G58" s="22"/>
@@ -5155,13 +5127,13 @@
     <row r="59" spans="1:66">
       <c r="B59" s="22"/>
       <c r="C59" s="29" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D59" s="22" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E59" s="22" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="F59" s="22"/>
       <c r="G59" s="22"/>
@@ -5228,19 +5200,21 @@
     <row r="60" spans="1:66">
       <c r="B60" s="22"/>
       <c r="C60" s="29" t="s">
-        <v>132</v>
+        <v>123</v>
       </c>
       <c r="D60" s="22" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="E60" s="22" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="F60" s="22"/>
       <c r="G60" s="22"/>
       <c r="H60" s="23"/>
       <c r="I60" s="23"/>
-      <c r="J60" s="23"/>
+      <c r="J60" s="23" t="s">
+        <v>40</v>
+      </c>
       <c r="K60" s="22"/>
       <c r="L60" s="1"/>
       <c r="M60" s="1"/>
@@ -5301,19 +5275,21 @@
     <row r="61" spans="1:66">
       <c r="B61" s="22"/>
       <c r="C61" s="29" t="s">
-        <v>133</v>
+        <v>124</v>
       </c>
       <c r="D61" s="22" t="s">
-        <v>61</v>
+        <v>71</v>
       </c>
       <c r="E61" s="22" t="s">
-        <v>61</v>
+        <v>71</v>
       </c>
       <c r="F61" s="22"/>
       <c r="G61" s="22"/>
       <c r="H61" s="23"/>
       <c r="I61" s="23"/>
-      <c r="J61" s="23"/>
+      <c r="J61" s="23" t="s">
+        <v>40</v>
+      </c>
       <c r="K61" s="22"/>
       <c r="L61" s="1"/>
       <c r="M61" s="1"/>
@@ -5374,7 +5350,7 @@
     <row r="62" spans="1:66">
       <c r="B62" s="22"/>
       <c r="C62" s="29" t="s">
-        <v>127</v>
+        <v>76</v>
       </c>
       <c r="D62" s="22" t="s">
         <v>58</v>
@@ -5386,9 +5362,7 @@
       <c r="G62" s="22"/>
       <c r="H62" s="23"/>
       <c r="I62" s="23"/>
-      <c r="J62" s="23" t="s">
-        <v>40</v>
-      </c>
+      <c r="J62" s="23"/>
       <c r="K62" s="22"/>
       <c r="L62" s="1"/>
       <c r="M62" s="1"/>
@@ -5449,10 +5423,10 @@
     <row r="63" spans="1:66">
       <c r="B63" s="22"/>
       <c r="C63" s="29" t="s">
-        <v>128</v>
+        <v>77</v>
       </c>
       <c r="D63" s="22" t="s">
-        <v>71</v>
+        <v>82</v>
       </c>
       <c r="E63" s="22" t="s">
         <v>71</v>
@@ -5461,9 +5435,7 @@
       <c r="G63" s="22"/>
       <c r="H63" s="23"/>
       <c r="I63" s="23"/>
-      <c r="J63" s="23" t="s">
-        <v>40</v>
-      </c>
+      <c r="J63" s="23"/>
       <c r="K63" s="22"/>
       <c r="L63" s="1"/>
       <c r="M63" s="1"/>
@@ -5524,13 +5496,13 @@
     <row r="64" spans="1:66">
       <c r="B64" s="22"/>
       <c r="C64" s="29" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="D64" s="22" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="E64" s="22" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="F64" s="22"/>
       <c r="G64" s="22"/>
@@ -5597,15 +5569,17 @@
     <row r="65" spans="1:66">
       <c r="B65" s="22"/>
       <c r="C65" s="29" t="s">
-        <v>77</v>
+        <v>131</v>
       </c>
       <c r="D65" s="22" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="E65" s="22" t="s">
+        <v>67</v>
+      </c>
+      <c r="F65" s="22" t="s">
         <v>71</v>
       </c>
-      <c r="F65" s="22"/>
       <c r="G65" s="22"/>
       <c r="H65" s="23"/>
       <c r="I65" s="23"/>
@@ -5670,19 +5644,21 @@
     <row r="66" spans="1:66">
       <c r="B66" s="22"/>
       <c r="C66" s="29" t="s">
-        <v>78</v>
+        <v>125</v>
       </c>
       <c r="D66" s="22" t="s">
-        <v>60</v>
+        <v>71</v>
       </c>
       <c r="E66" s="22" t="s">
-        <v>60</v>
+        <v>71</v>
       </c>
       <c r="F66" s="22"/>
       <c r="G66" s="22"/>
       <c r="H66" s="23"/>
       <c r="I66" s="23"/>
-      <c r="J66" s="23"/>
+      <c r="J66" s="23" t="s">
+        <v>40</v>
+      </c>
       <c r="K66" s="22"/>
       <c r="L66" s="1"/>
       <c r="M66" s="1"/>
@@ -5742,18 +5718,10 @@
     </row>
     <row r="67" spans="1:66">
       <c r="B67" s="22"/>
-      <c r="C67" s="29" t="s">
-        <v>135</v>
-      </c>
-      <c r="D67" s="22" t="s">
-        <v>84</v>
-      </c>
-      <c r="E67" s="22" t="s">
-        <v>67</v>
-      </c>
-      <c r="F67" s="22" t="s">
-        <v>71</v>
-      </c>
+      <c r="C67" s="29"/>
+      <c r="D67" s="22"/>
+      <c r="E67" s="22"/>
+      <c r="F67" s="22"/>
       <c r="G67" s="22"/>
       <c r="H67" s="23"/>
       <c r="I67" s="23"/>
@@ -5817,22 +5785,14 @@
     </row>
     <row r="68" spans="1:66">
       <c r="B68" s="22"/>
-      <c r="C68" s="29" t="s">
-        <v>129</v>
-      </c>
-      <c r="D68" s="22" t="s">
-        <v>71</v>
-      </c>
-      <c r="E68" s="22" t="s">
-        <v>71</v>
-      </c>
+      <c r="C68" s="29"/>
+      <c r="D68" s="22"/>
+      <c r="E68" s="22"/>
       <c r="F68" s="22"/>
       <c r="G68" s="22"/>
       <c r="H68" s="23"/>
       <c r="I68" s="23"/>
-      <c r="J68" s="23" t="s">
-        <v>40</v>
-      </c>
+      <c r="J68" s="23"/>
       <c r="K68" s="22"/>
       <c r="L68" s="1"/>
       <c r="M68" s="1"/>
@@ -5890,76 +5850,83 @@
       <c r="BM68" s="1"/>
       <c r="BN68" s="1"/>
     </row>
-    <row r="69" spans="1:66">
-      <c r="B69" s="22"/>
-      <c r="C69" s="29"/>
-      <c r="D69" s="22"/>
-      <c r="E69" s="22"/>
-      <c r="F69" s="22"/>
-      <c r="G69" s="22"/>
-      <c r="H69" s="23"/>
-      <c r="I69" s="23"/>
-      <c r="J69" s="23"/>
-      <c r="K69" s="22"/>
-      <c r="L69" s="1"/>
-      <c r="M69" s="1"/>
-      <c r="N69" s="1"/>
-      <c r="O69" s="1"/>
-      <c r="P69" s="1"/>
-      <c r="Q69" s="1"/>
-      <c r="R69" s="1"/>
-      <c r="S69" s="1"/>
-      <c r="T69" s="1"/>
-      <c r="U69" s="1"/>
-      <c r="V69" s="1"/>
-      <c r="W69" s="1"/>
-      <c r="X69" s="1"/>
-      <c r="Y69" s="1"/>
-      <c r="Z69" s="1"/>
-      <c r="AA69" s="1"/>
-      <c r="AB69" s="1"/>
-      <c r="AC69" s="1"/>
-      <c r="AD69" s="1"/>
-      <c r="AE69" s="1"/>
-      <c r="AF69" s="1"/>
-      <c r="AG69" s="1"/>
-      <c r="AH69" s="1"/>
-      <c r="AI69" s="1"/>
-      <c r="AJ69" s="1"/>
-      <c r="AK69" s="1"/>
-      <c r="AL69" s="1"/>
-      <c r="AM69" s="1"/>
-      <c r="AN69" s="1"/>
-      <c r="AO69" s="1"/>
-      <c r="AP69" s="1"/>
-      <c r="AQ69" s="1"/>
-      <c r="AR69" s="1"/>
-      <c r="AS69" s="1"/>
-      <c r="AT69" s="1"/>
-      <c r="AU69" s="1"/>
-      <c r="AV69" s="1"/>
-      <c r="AW69" s="1"/>
-      <c r="AX69" s="1"/>
-      <c r="AY69" s="1"/>
-      <c r="AZ69" s="1"/>
-      <c r="BA69" s="1"/>
-      <c r="BB69" s="1"/>
-      <c r="BC69" s="1"/>
-      <c r="BD69" s="1"/>
-      <c r="BE69" s="1"/>
-      <c r="BF69" s="1"/>
-      <c r="BG69" s="1"/>
-      <c r="BH69" s="1"/>
-      <c r="BI69" s="1"/>
-      <c r="BJ69" s="1"/>
-      <c r="BK69" s="1"/>
-      <c r="BL69" s="1"/>
-      <c r="BM69" s="1"/>
-      <c r="BN69" s="1"/>
+    <row r="69" spans="1:66" s="20" customFormat="1">
+      <c r="A69"/>
+      <c r="B69" s="21"/>
+      <c r="C69" s="30" t="s">
+        <v>107</v>
+      </c>
+      <c r="D69" s="21"/>
+      <c r="E69" s="21"/>
+      <c r="F69" s="21" t="s">
+        <v>59</v>
+      </c>
+      <c r="G69" s="21"/>
+      <c r="H69" s="21"/>
+      <c r="I69" s="21"/>
+      <c r="J69" s="21"/>
+      <c r="K69" s="21"/>
+      <c r="L69" s="21"/>
+      <c r="M69" s="21"/>
+      <c r="N69" s="21"/>
+      <c r="O69" s="21"/>
+      <c r="P69" s="21"/>
+      <c r="Q69" s="21"/>
+      <c r="R69" s="21"/>
+      <c r="S69" s="21"/>
+      <c r="T69" s="21"/>
+      <c r="U69" s="21"/>
+      <c r="V69" s="21"/>
+      <c r="W69" s="21"/>
+      <c r="X69" s="21"/>
+      <c r="Y69" s="21"/>
+      <c r="Z69" s="21"/>
+      <c r="AA69" s="21"/>
+      <c r="AB69" s="21"/>
+      <c r="AC69" s="21"/>
+      <c r="AD69" s="21"/>
+      <c r="AE69" s="21"/>
+      <c r="AF69" s="21"/>
+      <c r="AG69" s="21"/>
+      <c r="AH69" s="21"/>
+      <c r="AI69" s="21"/>
+      <c r="AJ69" s="21"/>
+      <c r="AK69" s="21"/>
+      <c r="AL69" s="21"/>
+      <c r="AM69" s="21"/>
+      <c r="AN69" s="21"/>
+      <c r="AO69" s="21"/>
+      <c r="AP69" s="21"/>
+      <c r="AQ69" s="21"/>
+      <c r="AR69" s="21"/>
+      <c r="AS69" s="21"/>
+      <c r="AT69" s="21"/>
+      <c r="AU69" s="21"/>
+      <c r="AV69" s="21"/>
+      <c r="AW69" s="21"/>
+      <c r="AX69" s="21"/>
+      <c r="AY69" s="21"/>
+      <c r="AZ69" s="21"/>
+      <c r="BA69" s="21"/>
+      <c r="BB69" s="21"/>
+      <c r="BC69" s="21"/>
+      <c r="BD69" s="21"/>
+      <c r="BE69" s="21"/>
+      <c r="BF69" s="21"/>
+      <c r="BG69" s="21"/>
+      <c r="BH69" s="21"/>
+      <c r="BI69" s="21"/>
+      <c r="BJ69" s="21"/>
+      <c r="BK69" s="21"/>
+      <c r="BL69" s="21"/>
+      <c r="BM69" s="21"/>
+      <c r="BN69" s="21"/>
     </row>
     <row r="70" spans="1:66">
       <c r="B70" s="22"/>
-      <c r="C70" s="29"/>
+      <c r="C70" s="38" t="s">
+        <v>108</v>
+      </c>
       <c r="D70" s="22"/>
       <c r="E70" s="22"/>
       <c r="F70" s="22"/>
@@ -6024,90 +5991,95 @@
       <c r="BM70" s="1"/>
       <c r="BN70" s="1"/>
     </row>
-    <row r="71" spans="1:66" s="20" customFormat="1">
-      <c r="A71"/>
-      <c r="B71" s="21"/>
-      <c r="C71" s="30" t="s">
-        <v>108</v>
-      </c>
-      <c r="D71" s="21"/>
-      <c r="E71" s="21"/>
-      <c r="F71" s="21" t="s">
+    <row r="71" spans="1:66">
+      <c r="B71" s="22"/>
+      <c r="C71" s="29" t="s">
+        <v>109</v>
+      </c>
+      <c r="D71" s="22" t="s">
         <v>59</v>
       </c>
-      <c r="G71" s="21"/>
-      <c r="H71" s="21"/>
-      <c r="I71" s="21"/>
-      <c r="J71" s="21"/>
-      <c r="K71" s="21"/>
-      <c r="L71" s="21"/>
-      <c r="M71" s="21"/>
-      <c r="N71" s="21"/>
-      <c r="O71" s="21"/>
-      <c r="P71" s="21"/>
-      <c r="Q71" s="21"/>
-      <c r="R71" s="21"/>
-      <c r="S71" s="21"/>
-      <c r="T71" s="21"/>
-      <c r="U71" s="21"/>
-      <c r="V71" s="21"/>
-      <c r="W71" s="21"/>
-      <c r="X71" s="21"/>
-      <c r="Y71" s="21"/>
-      <c r="Z71" s="21"/>
-      <c r="AA71" s="21"/>
-      <c r="AB71" s="21"/>
-      <c r="AC71" s="21"/>
-      <c r="AD71" s="21"/>
-      <c r="AE71" s="21"/>
-      <c r="AF71" s="21"/>
-      <c r="AG71" s="21"/>
-      <c r="AH71" s="21"/>
-      <c r="AI71" s="21"/>
-      <c r="AJ71" s="21"/>
-      <c r="AK71" s="21"/>
-      <c r="AL71" s="21"/>
-      <c r="AM71" s="21"/>
-      <c r="AN71" s="21"/>
-      <c r="AO71" s="21"/>
-      <c r="AP71" s="21"/>
-      <c r="AQ71" s="21"/>
-      <c r="AR71" s="21"/>
-      <c r="AS71" s="21"/>
-      <c r="AT71" s="21"/>
-      <c r="AU71" s="21"/>
-      <c r="AV71" s="21"/>
-      <c r="AW71" s="21"/>
-      <c r="AX71" s="21"/>
-      <c r="AY71" s="21"/>
-      <c r="AZ71" s="21"/>
-      <c r="BA71" s="21"/>
-      <c r="BB71" s="21"/>
-      <c r="BC71" s="21"/>
-      <c r="BD71" s="21"/>
-      <c r="BE71" s="21"/>
-      <c r="BF71" s="21"/>
-      <c r="BG71" s="21"/>
-      <c r="BH71" s="21"/>
-      <c r="BI71" s="21"/>
-      <c r="BJ71" s="21"/>
-      <c r="BK71" s="21"/>
-      <c r="BL71" s="21"/>
-      <c r="BM71" s="21"/>
-      <c r="BN71" s="21"/>
+      <c r="E71" s="22"/>
+      <c r="F71" s="22"/>
+      <c r="G71" s="22"/>
+      <c r="H71" s="23"/>
+      <c r="I71" s="23"/>
+      <c r="J71" s="23" t="s">
+        <v>40</v>
+      </c>
+      <c r="K71" s="22"/>
+      <c r="L71" s="1"/>
+      <c r="M71" s="1"/>
+      <c r="N71" s="1"/>
+      <c r="O71" s="1"/>
+      <c r="P71" s="1"/>
+      <c r="Q71" s="1"/>
+      <c r="R71" s="1"/>
+      <c r="S71" s="1"/>
+      <c r="T71" s="1"/>
+      <c r="U71" s="1"/>
+      <c r="V71" s="1"/>
+      <c r="W71" s="1"/>
+      <c r="X71" s="1"/>
+      <c r="Y71" s="1"/>
+      <c r="Z71" s="1"/>
+      <c r="AA71" s="1"/>
+      <c r="AB71" s="1"/>
+      <c r="AC71" s="1"/>
+      <c r="AD71" s="1"/>
+      <c r="AE71" s="1"/>
+      <c r="AF71" s="1"/>
+      <c r="AG71" s="1"/>
+      <c r="AH71" s="1"/>
+      <c r="AI71" s="1"/>
+      <c r="AJ71" s="1"/>
+      <c r="AK71" s="1"/>
+      <c r="AL71" s="1"/>
+      <c r="AM71" s="1"/>
+      <c r="AN71" s="1"/>
+      <c r="AO71" s="1"/>
+      <c r="AP71" s="1"/>
+      <c r="AQ71" s="1"/>
+      <c r="AR71" s="1"/>
+      <c r="AS71" s="1"/>
+      <c r="AT71" s="1"/>
+      <c r="AU71" s="1"/>
+      <c r="AV71" s="1"/>
+      <c r="AW71" s="1"/>
+      <c r="AX71" s="1"/>
+      <c r="AY71" s="1"/>
+      <c r="AZ71" s="1"/>
+      <c r="BA71" s="1"/>
+      <c r="BB71" s="1"/>
+      <c r="BC71" s="1"/>
+      <c r="BD71" s="1"/>
+      <c r="BE71" s="1"/>
+      <c r="BF71" s="1"/>
+      <c r="BG71" s="1"/>
+      <c r="BH71" s="1"/>
+      <c r="BI71" s="1"/>
+      <c r="BJ71" s="1"/>
+      <c r="BK71" s="1"/>
+      <c r="BL71" s="1"/>
+      <c r="BM71" s="1"/>
+      <c r="BN71" s="1"/>
     </row>
     <row r="72" spans="1:66">
       <c r="B72" s="22"/>
-      <c r="C72" s="38" t="s">
-        <v>109</v>
-      </c>
-      <c r="D72" s="22"/>
+      <c r="C72" s="29" t="s">
+        <v>99</v>
+      </c>
+      <c r="D72" s="22" t="s">
+        <v>57</v>
+      </c>
       <c r="E72" s="22"/>
       <c r="F72" s="22"/>
       <c r="G72" s="22"/>
       <c r="H72" s="23"/>
       <c r="I72" s="23"/>
-      <c r="J72" s="23"/>
+      <c r="J72" s="23" t="s">
+        <v>92</v>
+      </c>
       <c r="K72" s="22"/>
       <c r="L72" s="1"/>
       <c r="M72" s="1"/>
@@ -6167,20 +6139,16 @@
     </row>
     <row r="73" spans="1:66">
       <c r="B73" s="22"/>
-      <c r="C73" s="29" t="s">
+      <c r="C73" s="38" t="s">
         <v>110</v>
       </c>
-      <c r="D73" s="22" t="s">
-        <v>59</v>
-      </c>
+      <c r="D73" s="22"/>
       <c r="E73" s="22"/>
       <c r="F73" s="22"/>
       <c r="G73" s="22"/>
       <c r="H73" s="23"/>
       <c r="I73" s="23"/>
-      <c r="J73" s="23" t="s">
-        <v>40</v>
-      </c>
+      <c r="J73" s="23"/>
       <c r="K73" s="22"/>
       <c r="L73" s="1"/>
       <c r="M73" s="1"/>
@@ -6244,7 +6212,7 @@
         <v>100</v>
       </c>
       <c r="D74" s="22" t="s">
-        <v>57</v>
+        <v>84</v>
       </c>
       <c r="E74" s="22"/>
       <c r="F74" s="22"/>
@@ -6313,16 +6281,20 @@
     </row>
     <row r="75" spans="1:66">
       <c r="B75" s="22"/>
-      <c r="C75" s="38" t="s">
-        <v>111</v>
-      </c>
-      <c r="D75" s="22"/>
+      <c r="C75" s="29" t="s">
+        <v>101</v>
+      </c>
+      <c r="D75" s="22" t="s">
+        <v>82</v>
+      </c>
       <c r="E75" s="22"/>
       <c r="F75" s="22"/>
       <c r="G75" s="22"/>
       <c r="H75" s="23"/>
       <c r="I75" s="23"/>
-      <c r="J75" s="23"/>
+      <c r="J75" s="23" t="s">
+        <v>92</v>
+      </c>
       <c r="K75" s="22"/>
       <c r="L75" s="1"/>
       <c r="M75" s="1"/>
@@ -6383,10 +6355,10 @@
     <row r="76" spans="1:66">
       <c r="B76" s="22"/>
       <c r="C76" s="29" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D76" s="22" t="s">
-        <v>84</v>
+        <v>59</v>
       </c>
       <c r="E76" s="22"/>
       <c r="F76" s="22"/>
@@ -6456,10 +6428,10 @@
     <row r="77" spans="1:66">
       <c r="B77" s="22"/>
       <c r="C77" s="29" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D77" s="22" t="s">
-        <v>82</v>
+        <v>57</v>
       </c>
       <c r="E77" s="22"/>
       <c r="F77" s="22"/>
@@ -6528,11 +6500,11 @@
     </row>
     <row r="78" spans="1:66">
       <c r="B78" s="22"/>
-      <c r="C78" s="29" t="s">
-        <v>103</v>
+      <c r="C78" s="38" t="s">
+        <v>104</v>
       </c>
       <c r="D78" s="22" t="s">
-        <v>59</v>
+        <v>84</v>
       </c>
       <c r="E78" s="22"/>
       <c r="F78" s="22"/>
@@ -6601,11 +6573,11 @@
     </row>
     <row r="79" spans="1:66">
       <c r="B79" s="22"/>
-      <c r="C79" s="29" t="s">
-        <v>104</v>
+      <c r="C79" s="38" t="s">
+        <v>105</v>
       </c>
       <c r="D79" s="22" t="s">
-        <v>57</v>
+        <v>82</v>
       </c>
       <c r="E79" s="22"/>
       <c r="F79" s="22"/>
@@ -6675,10 +6647,10 @@
     <row r="80" spans="1:66">
       <c r="B80" s="22"/>
       <c r="C80" s="38" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="D80" s="22" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="E80" s="22"/>
       <c r="F80" s="22"/>
@@ -6751,7 +6723,7 @@
         <v>106</v>
       </c>
       <c r="D81" s="22" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E81" s="22"/>
       <c r="F81" s="22"/>
@@ -6820,20 +6792,14 @@
     </row>
     <row r="82" spans="1:66">
       <c r="B82" s="22"/>
-      <c r="C82" s="38" t="s">
-        <v>112</v>
-      </c>
-      <c r="D82" s="22" t="s">
-        <v>81</v>
-      </c>
+      <c r="C82" s="29"/>
+      <c r="D82" s="22"/>
       <c r="E82" s="22"/>
       <c r="F82" s="22"/>
       <c r="G82" s="22"/>
       <c r="H82" s="23"/>
       <c r="I82" s="23"/>
-      <c r="J82" s="23" t="s">
-        <v>92</v>
-      </c>
+      <c r="J82" s="23"/>
       <c r="K82" s="22"/>
       <c r="L82" s="1"/>
       <c r="M82" s="1"/>
@@ -6891,82 +6857,81 @@
       <c r="BM82" s="1"/>
       <c r="BN82" s="1"/>
     </row>
-    <row r="83" spans="1:66">
-      <c r="B83" s="22"/>
-      <c r="C83" s="38" t="s">
-        <v>107</v>
-      </c>
-      <c r="D83" s="22" t="s">
-        <v>81</v>
-      </c>
-      <c r="E83" s="22"/>
-      <c r="F83" s="22"/>
-      <c r="G83" s="22"/>
-      <c r="H83" s="23"/>
-      <c r="I83" s="23"/>
-      <c r="J83" s="23" t="s">
-        <v>92</v>
-      </c>
-      <c r="K83" s="22"/>
-      <c r="L83" s="1"/>
-      <c r="M83" s="1"/>
-      <c r="N83" s="1"/>
-      <c r="O83" s="1"/>
-      <c r="P83" s="1"/>
-      <c r="Q83" s="1"/>
-      <c r="R83" s="1"/>
-      <c r="S83" s="1"/>
-      <c r="T83" s="1"/>
-      <c r="U83" s="1"/>
-      <c r="V83" s="1"/>
-      <c r="W83" s="1"/>
-      <c r="X83" s="1"/>
-      <c r="Y83" s="1"/>
-      <c r="Z83" s="1"/>
-      <c r="AA83" s="1"/>
-      <c r="AB83" s="1"/>
-      <c r="AC83" s="1"/>
-      <c r="AD83" s="1"/>
-      <c r="AE83" s="1"/>
-      <c r="AF83" s="1"/>
-      <c r="AG83" s="1"/>
-      <c r="AH83" s="1"/>
-      <c r="AI83" s="1"/>
-      <c r="AJ83" s="1"/>
-      <c r="AK83" s="1"/>
-      <c r="AL83" s="1"/>
-      <c r="AM83" s="1"/>
-      <c r="AN83" s="1"/>
-      <c r="AO83" s="1"/>
-      <c r="AP83" s="1"/>
-      <c r="AQ83" s="1"/>
-      <c r="AR83" s="1"/>
-      <c r="AS83" s="1"/>
-      <c r="AT83" s="1"/>
-      <c r="AU83" s="1"/>
-      <c r="AV83" s="1"/>
-      <c r="AW83" s="1"/>
-      <c r="AX83" s="1"/>
-      <c r="AY83" s="1"/>
-      <c r="AZ83" s="1"/>
-      <c r="BA83" s="1"/>
-      <c r="BB83" s="1"/>
-      <c r="BC83" s="1"/>
-      <c r="BD83" s="1"/>
-      <c r="BE83" s="1"/>
-      <c r="BF83" s="1"/>
-      <c r="BG83" s="1"/>
-      <c r="BH83" s="1"/>
-      <c r="BI83" s="1"/>
-      <c r="BJ83" s="1"/>
-      <c r="BK83" s="1"/>
-      <c r="BL83" s="1"/>
-      <c r="BM83" s="1"/>
-      <c r="BN83" s="1"/>
+    <row r="83" spans="1:66" s="20" customFormat="1">
+      <c r="A83"/>
+      <c r="B83" s="21"/>
+      <c r="C83" s="30" t="s">
+        <v>112</v>
+      </c>
+      <c r="D83" s="21"/>
+      <c r="E83" s="21"/>
+      <c r="F83" s="21"/>
+      <c r="G83" s="21"/>
+      <c r="H83" s="21"/>
+      <c r="I83" s="21"/>
+      <c r="J83" s="21"/>
+      <c r="K83" s="21"/>
+      <c r="L83" s="21"/>
+      <c r="M83" s="21"/>
+      <c r="N83" s="21"/>
+      <c r="O83" s="21"/>
+      <c r="P83" s="21"/>
+      <c r="Q83" s="21"/>
+      <c r="R83" s="21"/>
+      <c r="S83" s="21"/>
+      <c r="T83" s="21"/>
+      <c r="U83" s="21"/>
+      <c r="V83" s="21"/>
+      <c r="W83" s="21"/>
+      <c r="X83" s="21"/>
+      <c r="Y83" s="21"/>
+      <c r="Z83" s="21"/>
+      <c r="AA83" s="21"/>
+      <c r="AB83" s="21"/>
+      <c r="AC83" s="21"/>
+      <c r="AD83" s="21"/>
+      <c r="AE83" s="21"/>
+      <c r="AF83" s="21"/>
+      <c r="AG83" s="21"/>
+      <c r="AH83" s="21"/>
+      <c r="AI83" s="21"/>
+      <c r="AJ83" s="21"/>
+      <c r="AK83" s="21"/>
+      <c r="AL83" s="21"/>
+      <c r="AM83" s="21"/>
+      <c r="AN83" s="21"/>
+      <c r="AO83" s="21"/>
+      <c r="AP83" s="21"/>
+      <c r="AQ83" s="21"/>
+      <c r="AR83" s="21"/>
+      <c r="AS83" s="21"/>
+      <c r="AT83" s="21"/>
+      <c r="AU83" s="21"/>
+      <c r="AV83" s="21"/>
+      <c r="AW83" s="21"/>
+      <c r="AX83" s="21"/>
+      <c r="AY83" s="21"/>
+      <c r="AZ83" s="21"/>
+      <c r="BA83" s="21"/>
+      <c r="BB83" s="21"/>
+      <c r="BC83" s="21"/>
+      <c r="BD83" s="21"/>
+      <c r="BE83" s="21"/>
+      <c r="BF83" s="21"/>
+      <c r="BG83" s="21"/>
+      <c r="BH83" s="21"/>
+      <c r="BI83" s="21"/>
+      <c r="BJ83" s="21"/>
+      <c r="BK83" s="21"/>
+      <c r="BL83" s="21"/>
+      <c r="BM83" s="21"/>
+      <c r="BN83" s="21"/>
     </row>
     <row r="84" spans="1:66">
       <c r="B84" s="22"/>
-      <c r="C84" s="29"/>
+      <c r="C84" s="37" t="s">
+        <v>113</v>
+      </c>
       <c r="D84" s="22"/>
       <c r="E84" s="22"/>
       <c r="F84" s="22"/>
@@ -7031,81 +6996,78 @@
       <c r="BM84" s="1"/>
       <c r="BN84" s="1"/>
     </row>
-    <row r="85" spans="1:66" s="20" customFormat="1">
-      <c r="A85"/>
-      <c r="B85" s="21"/>
-      <c r="C85" s="30" t="s">
-        <v>113</v>
-      </c>
-      <c r="D85" s="21"/>
-      <c r="E85" s="21"/>
-      <c r="F85" s="21"/>
-      <c r="G85" s="21"/>
-      <c r="H85" s="21"/>
-      <c r="I85" s="21"/>
-      <c r="J85" s="21"/>
-      <c r="K85" s="21"/>
-      <c r="L85" s="21"/>
-      <c r="M85" s="21"/>
-      <c r="N85" s="21"/>
-      <c r="O85" s="21"/>
-      <c r="P85" s="21"/>
-      <c r="Q85" s="21"/>
-      <c r="R85" s="21"/>
-      <c r="S85" s="21"/>
-      <c r="T85" s="21"/>
-      <c r="U85" s="21"/>
-      <c r="V85" s="21"/>
-      <c r="W85" s="21"/>
-      <c r="X85" s="21"/>
-      <c r="Y85" s="21"/>
-      <c r="Z85" s="21"/>
-      <c r="AA85" s="21"/>
-      <c r="AB85" s="21"/>
-      <c r="AC85" s="21"/>
-      <c r="AD85" s="21"/>
-      <c r="AE85" s="21"/>
-      <c r="AF85" s="21"/>
-      <c r="AG85" s="21"/>
-      <c r="AH85" s="21"/>
-      <c r="AI85" s="21"/>
-      <c r="AJ85" s="21"/>
-      <c r="AK85" s="21"/>
-      <c r="AL85" s="21"/>
-      <c r="AM85" s="21"/>
-      <c r="AN85" s="21"/>
-      <c r="AO85" s="21"/>
-      <c r="AP85" s="21"/>
-      <c r="AQ85" s="21"/>
-      <c r="AR85" s="21"/>
-      <c r="AS85" s="21"/>
-      <c r="AT85" s="21"/>
-      <c r="AU85" s="21"/>
-      <c r="AV85" s="21"/>
-      <c r="AW85" s="21"/>
-      <c r="AX85" s="21"/>
-      <c r="AY85" s="21"/>
-      <c r="AZ85" s="21"/>
-      <c r="BA85" s="21"/>
-      <c r="BB85" s="21"/>
-      <c r="BC85" s="21"/>
-      <c r="BD85" s="21"/>
-      <c r="BE85" s="21"/>
-      <c r="BF85" s="21"/>
-      <c r="BG85" s="21"/>
-      <c r="BH85" s="21"/>
-      <c r="BI85" s="21"/>
-      <c r="BJ85" s="21"/>
-      <c r="BK85" s="21"/>
-      <c r="BL85" s="21"/>
-      <c r="BM85" s="21"/>
-      <c r="BN85" s="21"/>
+    <row r="85" spans="1:66">
+      <c r="B85" s="22"/>
+      <c r="C85" s="37" t="s">
+        <v>114</v>
+      </c>
+      <c r="D85" s="22"/>
+      <c r="E85" s="22"/>
+      <c r="F85" s="22"/>
+      <c r="G85" s="22"/>
+      <c r="H85" s="23"/>
+      <c r="I85" s="23"/>
+      <c r="J85" s="23"/>
+      <c r="K85" s="22"/>
+      <c r="L85" s="1"/>
+      <c r="M85" s="1"/>
+      <c r="N85" s="1"/>
+      <c r="O85" s="1"/>
+      <c r="P85" s="1"/>
+      <c r="Q85" s="1"/>
+      <c r="R85" s="1"/>
+      <c r="S85" s="1"/>
+      <c r="T85" s="1"/>
+      <c r="U85" s="1"/>
+      <c r="V85" s="1"/>
+      <c r="W85" s="1"/>
+      <c r="X85" s="1"/>
+      <c r="Y85" s="1"/>
+      <c r="Z85" s="1"/>
+      <c r="AA85" s="1"/>
+      <c r="AB85" s="1"/>
+      <c r="AC85" s="1"/>
+      <c r="AD85" s="1"/>
+      <c r="AE85" s="1"/>
+      <c r="AF85" s="1"/>
+      <c r="AG85" s="1"/>
+      <c r="AH85" s="1"/>
+      <c r="AI85" s="1"/>
+      <c r="AJ85" s="1"/>
+      <c r="AK85" s="1"/>
+      <c r="AL85" s="1"/>
+      <c r="AM85" s="1"/>
+      <c r="AN85" s="1"/>
+      <c r="AO85" s="1"/>
+      <c r="AP85" s="1"/>
+      <c r="AQ85" s="1"/>
+      <c r="AR85" s="1"/>
+      <c r="AS85" s="1"/>
+      <c r="AT85" s="1"/>
+      <c r="AU85" s="1"/>
+      <c r="AV85" s="1"/>
+      <c r="AW85" s="1"/>
+      <c r="AX85" s="1"/>
+      <c r="AY85" s="1"/>
+      <c r="AZ85" s="1"/>
+      <c r="BA85" s="1"/>
+      <c r="BB85" s="1"/>
+      <c r="BC85" s="1"/>
+      <c r="BD85" s="1"/>
+      <c r="BE85" s="1"/>
+      <c r="BF85" s="1"/>
+      <c r="BG85" s="1"/>
+      <c r="BH85" s="1"/>
+      <c r="BI85" s="1"/>
+      <c r="BJ85" s="1"/>
+      <c r="BK85" s="1"/>
+      <c r="BL85" s="1"/>
+      <c r="BM85" s="1"/>
+      <c r="BN85" s="1"/>
     </row>
     <row r="86" spans="1:66">
       <c r="B86" s="22"/>
-      <c r="C86" s="37" t="s">
-        <v>114</v>
-      </c>
+      <c r="C86" s="29"/>
       <c r="D86" s="22"/>
       <c r="E86" s="22"/>
       <c r="F86" s="22"/>
@@ -7170,85 +7132,101 @@
       <c r="BM86" s="1"/>
       <c r="BN86" s="1"/>
     </row>
-    <row r="87" spans="1:66">
-      <c r="B87" s="22"/>
-      <c r="C87" s="37" t="s">
-        <v>115</v>
-      </c>
-      <c r="D87" s="22"/>
-      <c r="E87" s="22"/>
-      <c r="F87" s="22"/>
-      <c r="G87" s="22"/>
-      <c r="H87" s="23"/>
-      <c r="I87" s="23"/>
-      <c r="J87" s="23"/>
-      <c r="K87" s="22"/>
-      <c r="L87" s="1"/>
-      <c r="M87" s="1"/>
-      <c r="N87" s="1"/>
-      <c r="O87" s="1"/>
-      <c r="P87" s="1"/>
-      <c r="Q87" s="1"/>
-      <c r="R87" s="1"/>
-      <c r="S87" s="1"/>
-      <c r="T87" s="1"/>
-      <c r="U87" s="1"/>
-      <c r="V87" s="1"/>
-      <c r="W87" s="1"/>
-      <c r="X87" s="1"/>
-      <c r="Y87" s="1"/>
-      <c r="Z87" s="1"/>
-      <c r="AA87" s="1"/>
-      <c r="AB87" s="1"/>
-      <c r="AC87" s="1"/>
-      <c r="AD87" s="1"/>
-      <c r="AE87" s="1"/>
-      <c r="AF87" s="1"/>
-      <c r="AG87" s="1"/>
-      <c r="AH87" s="1"/>
-      <c r="AI87" s="1"/>
-      <c r="AJ87" s="1"/>
-      <c r="AK87" s="1"/>
-      <c r="AL87" s="1"/>
-      <c r="AM87" s="1"/>
-      <c r="AN87" s="1"/>
-      <c r="AO87" s="1"/>
-      <c r="AP87" s="1"/>
-      <c r="AQ87" s="1"/>
-      <c r="AR87" s="1"/>
-      <c r="AS87" s="1"/>
-      <c r="AT87" s="1"/>
-      <c r="AU87" s="1"/>
-      <c r="AV87" s="1"/>
-      <c r="AW87" s="1"/>
-      <c r="AX87" s="1"/>
-      <c r="AY87" s="1"/>
-      <c r="AZ87" s="1"/>
-      <c r="BA87" s="1"/>
-      <c r="BB87" s="1"/>
-      <c r="BC87" s="1"/>
-      <c r="BD87" s="1"/>
-      <c r="BE87" s="1"/>
-      <c r="BF87" s="1"/>
-      <c r="BG87" s="1"/>
-      <c r="BH87" s="1"/>
-      <c r="BI87" s="1"/>
-      <c r="BJ87" s="1"/>
-      <c r="BK87" s="1"/>
-      <c r="BL87" s="1"/>
-      <c r="BM87" s="1"/>
-      <c r="BN87" s="1"/>
+    <row r="87" spans="1:66" s="20" customFormat="1">
+      <c r="A87">
+        <v>5</v>
+      </c>
+      <c r="B87" s="21"/>
+      <c r="C87" s="30" t="s">
+        <v>54</v>
+      </c>
+      <c r="D87" s="21"/>
+      <c r="E87" s="21"/>
+      <c r="F87" s="21"/>
+      <c r="G87" s="21"/>
+      <c r="H87" s="21"/>
+      <c r="I87" s="21"/>
+      <c r="J87" s="21"/>
+      <c r="K87" s="21"/>
+      <c r="L87" s="21"/>
+      <c r="M87" s="21"/>
+      <c r="N87" s="21"/>
+      <c r="O87" s="21"/>
+      <c r="P87" s="21"/>
+      <c r="Q87" s="21"/>
+      <c r="R87" s="21"/>
+      <c r="S87" s="21"/>
+      <c r="T87" s="21"/>
+      <c r="U87" s="21"/>
+      <c r="V87" s="21"/>
+      <c r="W87" s="21"/>
+      <c r="X87" s="21"/>
+      <c r="Y87" s="21"/>
+      <c r="Z87" s="21"/>
+      <c r="AA87" s="21"/>
+      <c r="AB87" s="21"/>
+      <c r="AC87" s="21"/>
+      <c r="AD87" s="21"/>
+      <c r="AE87" s="21"/>
+      <c r="AF87" s="21"/>
+      <c r="AG87" s="21"/>
+      <c r="AH87" s="21"/>
+      <c r="AI87" s="21"/>
+      <c r="AJ87" s="21"/>
+      <c r="AK87" s="21"/>
+      <c r="AL87" s="21"/>
+      <c r="AM87" s="21"/>
+      <c r="AN87" s="21"/>
+      <c r="AO87" s="21"/>
+      <c r="AP87" s="21"/>
+      <c r="AQ87" s="21"/>
+      <c r="AR87" s="21"/>
+      <c r="AS87" s="21"/>
+      <c r="AT87" s="21"/>
+      <c r="AU87" s="21"/>
+      <c r="AV87" s="21"/>
+      <c r="AW87" s="21"/>
+      <c r="AX87" s="21"/>
+      <c r="AY87" s="21"/>
+      <c r="AZ87" s="21"/>
+      <c r="BA87" s="21"/>
+      <c r="BB87" s="21"/>
+      <c r="BC87" s="21"/>
+      <c r="BD87" s="21"/>
+      <c r="BE87" s="21"/>
+      <c r="BF87" s="21"/>
+      <c r="BG87" s="21"/>
+      <c r="BH87" s="21"/>
+      <c r="BI87" s="21"/>
+      <c r="BJ87" s="21"/>
+      <c r="BK87" s="21"/>
+      <c r="BL87" s="21"/>
+      <c r="BM87" s="21"/>
+      <c r="BN87" s="21"/>
     </row>
     <row r="88" spans="1:66">
-      <c r="B88" s="22"/>
-      <c r="C88" s="29"/>
-      <c r="D88" s="22"/>
-      <c r="E88" s="22"/>
+      <c r="A88">
+        <v>6</v>
+      </c>
+      <c r="B88" s="22">
+        <v>5</v>
+      </c>
+      <c r="C88" s="29" t="s">
+        <v>85</v>
+      </c>
+      <c r="D88" s="22" t="s">
+        <v>64</v>
+      </c>
+      <c r="E88" s="22" t="s">
+        <v>70</v>
+      </c>
       <c r="F88" s="22"/>
       <c r="G88" s="22"/>
       <c r="H88" s="23"/>
       <c r="I88" s="23"/>
-      <c r="J88" s="23"/>
+      <c r="J88" s="23" t="s">
+        <v>40</v>
+      </c>
       <c r="K88" s="22"/>
       <c r="L88" s="1"/>
       <c r="M88" s="1"/>
@@ -7306,168 +7284,168 @@
       <c r="BM88" s="1"/>
       <c r="BN88" s="1"/>
     </row>
-    <row r="89" spans="1:66" s="20" customFormat="1">
-      <c r="A89">
-        <v>5</v>
-      </c>
-      <c r="B89" s="21"/>
-      <c r="C89" s="30" t="s">
-        <v>54</v>
-      </c>
-      <c r="D89" s="21"/>
-      <c r="E89" s="21"/>
-      <c r="F89" s="21"/>
-      <c r="G89" s="21"/>
-      <c r="H89" s="21"/>
-      <c r="I89" s="21"/>
-      <c r="J89" s="21"/>
-      <c r="K89" s="21"/>
-      <c r="L89" s="21"/>
-      <c r="M89" s="21"/>
-      <c r="N89" s="21"/>
-      <c r="O89" s="21"/>
-      <c r="P89" s="21"/>
-      <c r="Q89" s="21"/>
-      <c r="R89" s="21"/>
-      <c r="S89" s="21"/>
-      <c r="T89" s="21"/>
-      <c r="U89" s="21"/>
-      <c r="V89" s="21"/>
-      <c r="W89" s="21"/>
-      <c r="X89" s="21"/>
-      <c r="Y89" s="21"/>
-      <c r="Z89" s="21"/>
-      <c r="AA89" s="21"/>
-      <c r="AB89" s="21"/>
-      <c r="AC89" s="21"/>
-      <c r="AD89" s="21"/>
-      <c r="AE89" s="21"/>
-      <c r="AF89" s="21"/>
-      <c r="AG89" s="21"/>
-      <c r="AH89" s="21"/>
-      <c r="AI89" s="21"/>
-      <c r="AJ89" s="21"/>
-      <c r="AK89" s="21"/>
-      <c r="AL89" s="21"/>
-      <c r="AM89" s="21"/>
-      <c r="AN89" s="21"/>
-      <c r="AO89" s="21"/>
-      <c r="AP89" s="21"/>
-      <c r="AQ89" s="21"/>
-      <c r="AR89" s="21"/>
-      <c r="AS89" s="21"/>
-      <c r="AT89" s="21"/>
-      <c r="AU89" s="21"/>
-      <c r="AV89" s="21"/>
-      <c r="AW89" s="21"/>
-      <c r="AX89" s="21"/>
-      <c r="AY89" s="21"/>
-      <c r="AZ89" s="21"/>
-      <c r="BA89" s="21"/>
-      <c r="BB89" s="21"/>
-      <c r="BC89" s="21"/>
-      <c r="BD89" s="21"/>
-      <c r="BE89" s="21"/>
-      <c r="BF89" s="21"/>
-      <c r="BG89" s="21"/>
-      <c r="BH89" s="21"/>
-      <c r="BI89" s="21"/>
-      <c r="BJ89" s="21"/>
-      <c r="BK89" s="21"/>
-      <c r="BL89" s="21"/>
-      <c r="BM89" s="21"/>
-      <c r="BN89" s="21"/>
-    </row>
-    <row r="90" spans="1:66">
+    <row r="89" spans="1:66">
+      <c r="B89" s="22"/>
+      <c r="C89" s="29"/>
+      <c r="D89" s="22"/>
+      <c r="E89" s="22"/>
+      <c r="F89" s="22"/>
+      <c r="G89" s="22"/>
+      <c r="H89" s="23"/>
+      <c r="I89" s="23"/>
+      <c r="J89" s="23"/>
+      <c r="K89" s="22"/>
+      <c r="L89" s="1"/>
+      <c r="M89" s="1"/>
+      <c r="N89" s="1"/>
+      <c r="O89" s="1"/>
+      <c r="P89" s="1"/>
+      <c r="Q89" s="1"/>
+      <c r="R89" s="1"/>
+      <c r="S89" s="1"/>
+      <c r="T89" s="1"/>
+      <c r="U89" s="1"/>
+      <c r="V89" s="1"/>
+      <c r="W89" s="1"/>
+      <c r="X89" s="1"/>
+      <c r="Y89" s="1"/>
+      <c r="Z89" s="1"/>
+      <c r="AA89" s="1"/>
+      <c r="AB89" s="1"/>
+      <c r="AC89" s="1"/>
+      <c r="AD89" s="1"/>
+      <c r="AE89" s="1"/>
+      <c r="AF89" s="1"/>
+      <c r="AG89" s="1"/>
+      <c r="AH89" s="1"/>
+      <c r="AI89" s="1"/>
+      <c r="AJ89" s="1"/>
+      <c r="AK89" s="1"/>
+      <c r="AL89" s="1"/>
+      <c r="AM89" s="1"/>
+      <c r="AN89" s="1"/>
+      <c r="AO89" s="1"/>
+      <c r="AP89" s="1"/>
+      <c r="AQ89" s="1"/>
+      <c r="AR89" s="1"/>
+      <c r="AS89" s="1"/>
+      <c r="AT89" s="1"/>
+      <c r="AU89" s="1"/>
+      <c r="AV89" s="1"/>
+      <c r="AW89" s="1"/>
+      <c r="AX89" s="1"/>
+      <c r="AY89" s="1"/>
+      <c r="AZ89" s="1"/>
+      <c r="BA89" s="1"/>
+      <c r="BB89" s="1"/>
+      <c r="BC89" s="1"/>
+      <c r="BD89" s="1"/>
+      <c r="BE89" s="1"/>
+      <c r="BF89" s="1"/>
+      <c r="BG89" s="1"/>
+      <c r="BH89" s="1"/>
+      <c r="BI89" s="1"/>
+      <c r="BJ89" s="1"/>
+      <c r="BK89" s="1"/>
+      <c r="BL89" s="1"/>
+      <c r="BM89" s="1"/>
+      <c r="BN89" s="1"/>
+    </row>
+    <row r="90" spans="1:66" s="20" customFormat="1">
       <c r="A90">
-        <v>6</v>
-      </c>
-      <c r="B90" s="22">
-        <v>5</v>
-      </c>
-      <c r="C90" s="29" t="s">
-        <v>85</v>
-      </c>
-      <c r="D90" s="22" t="s">
+        <v>57</v>
+      </c>
+      <c r="B90" s="21"/>
+      <c r="C90" s="28" t="s">
+        <v>62</v>
+      </c>
+      <c r="D90" s="21"/>
+      <c r="E90" s="21"/>
+      <c r="F90" s="21"/>
+      <c r="G90" s="21"/>
+      <c r="H90" s="21"/>
+      <c r="I90" s="21"/>
+      <c r="J90" s="21"/>
+      <c r="K90" s="21"/>
+      <c r="L90" s="21"/>
+      <c r="M90" s="21"/>
+      <c r="N90" s="21"/>
+      <c r="O90" s="21"/>
+      <c r="P90" s="21"/>
+      <c r="Q90" s="21"/>
+      <c r="R90" s="21"/>
+      <c r="S90" s="21"/>
+      <c r="T90" s="21"/>
+      <c r="U90" s="21"/>
+      <c r="V90" s="21"/>
+      <c r="W90" s="21"/>
+      <c r="X90" s="21"/>
+      <c r="Y90" s="21"/>
+      <c r="Z90" s="21"/>
+      <c r="AA90" s="21"/>
+      <c r="AB90" s="21"/>
+      <c r="AC90" s="21"/>
+      <c r="AD90" s="21"/>
+      <c r="AE90" s="21"/>
+      <c r="AF90" s="21"/>
+      <c r="AG90" s="21"/>
+      <c r="AH90" s="21"/>
+      <c r="AI90" s="21"/>
+      <c r="AJ90" s="21"/>
+      <c r="AK90" s="21"/>
+      <c r="AL90" s="21"/>
+      <c r="AM90" s="21"/>
+      <c r="AN90" s="21"/>
+      <c r="AO90" s="21"/>
+      <c r="AP90" s="21"/>
+      <c r="AQ90" s="21"/>
+      <c r="AR90" s="21"/>
+      <c r="AS90" s="21"/>
+      <c r="AT90" s="21"/>
+      <c r="AU90" s="21"/>
+      <c r="AV90" s="21"/>
+      <c r="AW90" s="21"/>
+      <c r="AX90" s="21"/>
+      <c r="AY90" s="21"/>
+      <c r="AZ90" s="21"/>
+      <c r="BA90" s="21"/>
+      <c r="BB90" s="21"/>
+      <c r="BC90" s="21"/>
+      <c r="BD90" s="21"/>
+      <c r="BE90" s="21"/>
+      <c r="BF90" s="21"/>
+      <c r="BG90" s="21"/>
+      <c r="BH90" s="21"/>
+      <c r="BI90" s="21"/>
+      <c r="BJ90" s="21"/>
+      <c r="BK90" s="21"/>
+      <c r="BL90" s="21"/>
+      <c r="BM90" s="21"/>
+      <c r="BN90" s="21"/>
+    </row>
+    <row r="91" spans="1:66">
+      <c r="A91">
+        <v>58</v>
+      </c>
+      <c r="B91" s="22">
+        <v>44</v>
+      </c>
+      <c r="C91" s="29" t="s">
+        <v>62</v>
+      </c>
+      <c r="D91" s="22" t="s">
+        <v>59</v>
+      </c>
+      <c r="E91" s="22" t="s">
         <v>64</v>
       </c>
-      <c r="E90" s="22" t="s">
-        <v>70</v>
-      </c>
-      <c r="F90" s="22"/>
-      <c r="G90" s="22"/>
-      <c r="H90" s="23"/>
-      <c r="I90" s="23"/>
-      <c r="J90" s="23" t="s">
-        <v>40</v>
-      </c>
-      <c r="K90" s="22"/>
-      <c r="L90" s="1"/>
-      <c r="M90" s="1"/>
-      <c r="N90" s="1"/>
-      <c r="O90" s="1"/>
-      <c r="P90" s="1"/>
-      <c r="Q90" s="1"/>
-      <c r="R90" s="1"/>
-      <c r="S90" s="1"/>
-      <c r="T90" s="1"/>
-      <c r="U90" s="1"/>
-      <c r="V90" s="1"/>
-      <c r="W90" s="1"/>
-      <c r="X90" s="1"/>
-      <c r="Y90" s="1"/>
-      <c r="Z90" s="1"/>
-      <c r="AA90" s="1"/>
-      <c r="AB90" s="1"/>
-      <c r="AC90" s="1"/>
-      <c r="AD90" s="1"/>
-      <c r="AE90" s="1"/>
-      <c r="AF90" s="1"/>
-      <c r="AG90" s="1"/>
-      <c r="AH90" s="1"/>
-      <c r="AI90" s="1"/>
-      <c r="AJ90" s="1"/>
-      <c r="AK90" s="1"/>
-      <c r="AL90" s="1"/>
-      <c r="AM90" s="1"/>
-      <c r="AN90" s="1"/>
-      <c r="AO90" s="1"/>
-      <c r="AP90" s="1"/>
-      <c r="AQ90" s="1"/>
-      <c r="AR90" s="1"/>
-      <c r="AS90" s="1"/>
-      <c r="AT90" s="1"/>
-      <c r="AU90" s="1"/>
-      <c r="AV90" s="1"/>
-      <c r="AW90" s="1"/>
-      <c r="AX90" s="1"/>
-      <c r="AY90" s="1"/>
-      <c r="AZ90" s="1"/>
-      <c r="BA90" s="1"/>
-      <c r="BB90" s="1"/>
-      <c r="BC90" s="1"/>
-      <c r="BD90" s="1"/>
-      <c r="BE90" s="1"/>
-      <c r="BF90" s="1"/>
-      <c r="BG90" s="1"/>
-      <c r="BH90" s="1"/>
-      <c r="BI90" s="1"/>
-      <c r="BJ90" s="1"/>
-      <c r="BK90" s="1"/>
-      <c r="BL90" s="1"/>
-      <c r="BM90" s="1"/>
-      <c r="BN90" s="1"/>
-    </row>
-    <row r="91" spans="1:66">
-      <c r="B91" s="22"/>
-      <c r="C91" s="29"/>
-      <c r="D91" s="22"/>
-      <c r="E91" s="22"/>
       <c r="F91" s="22"/>
       <c r="G91" s="22"/>
       <c r="H91" s="23"/>
       <c r="I91" s="23"/>
-      <c r="J91" s="23"/>
+      <c r="J91" s="23" t="s">
+        <v>39</v>
+      </c>
       <c r="K91" s="22"/>
       <c r="L91" s="1"/>
       <c r="M91" s="1"/>
@@ -7525,171 +7503,108 @@
       <c r="BM91" s="1"/>
       <c r="BN91" s="1"/>
     </row>
-    <row r="92" spans="1:66" s="20" customFormat="1">
+    <row r="92" spans="1:66">
       <c r="A92">
-        <v>57</v>
-      </c>
-      <c r="B92" s="21"/>
-      <c r="C92" s="28" t="s">
-        <v>62</v>
-      </c>
-      <c r="D92" s="21"/>
-      <c r="E92" s="21"/>
-      <c r="F92" s="21"/>
-      <c r="G92" s="21"/>
-      <c r="H92" s="21"/>
-      <c r="I92" s="21"/>
-      <c r="J92" s="21"/>
-      <c r="K92" s="21"/>
-      <c r="L92" s="21"/>
-      <c r="M92" s="21"/>
-      <c r="N92" s="21"/>
-      <c r="O92" s="21"/>
-      <c r="P92" s="21"/>
-      <c r="Q92" s="21"/>
-      <c r="R92" s="21"/>
-      <c r="S92" s="21"/>
-      <c r="T92" s="21"/>
-      <c r="U92" s="21"/>
-      <c r="V92" s="21"/>
-      <c r="W92" s="21"/>
-      <c r="X92" s="21"/>
-      <c r="Y92" s="21"/>
-      <c r="Z92" s="21"/>
-      <c r="AA92" s="21"/>
-      <c r="AB92" s="21"/>
-      <c r="AC92" s="21"/>
-      <c r="AD92" s="21"/>
-      <c r="AE92" s="21"/>
-      <c r="AF92" s="21"/>
-      <c r="AG92" s="21"/>
-      <c r="AH92" s="21"/>
-      <c r="AI92" s="21"/>
-      <c r="AJ92" s="21"/>
-      <c r="AK92" s="21"/>
-      <c r="AL92" s="21"/>
-      <c r="AM92" s="21"/>
-      <c r="AN92" s="21"/>
-      <c r="AO92" s="21"/>
-      <c r="AP92" s="21"/>
-      <c r="AQ92" s="21"/>
-      <c r="AR92" s="21"/>
-      <c r="AS92" s="21"/>
-      <c r="AT92" s="21"/>
-      <c r="AU92" s="21"/>
-      <c r="AV92" s="21"/>
-      <c r="AW92" s="21"/>
-      <c r="AX92" s="21"/>
-      <c r="AY92" s="21"/>
-      <c r="AZ92" s="21"/>
-      <c r="BA92" s="21"/>
-      <c r="BB92" s="21"/>
-      <c r="BC92" s="21"/>
-      <c r="BD92" s="21"/>
-      <c r="BE92" s="21"/>
-      <c r="BF92" s="21"/>
-      <c r="BG92" s="21"/>
-      <c r="BH92" s="21"/>
-      <c r="BI92" s="21"/>
-      <c r="BJ92" s="21"/>
-      <c r="BK92" s="21"/>
-      <c r="BL92" s="21"/>
-      <c r="BM92" s="21"/>
-      <c r="BN92" s="21"/>
-    </row>
-    <row r="93" spans="1:66">
+        <v>59</v>
+      </c>
+      <c r="B92" s="22"/>
+      <c r="C92" s="29"/>
+      <c r="D92" s="22"/>
+      <c r="E92" s="22"/>
+      <c r="F92" s="22"/>
+      <c r="G92" s="22"/>
+      <c r="H92" s="23"/>
+      <c r="I92" s="23"/>
+      <c r="J92" s="22"/>
+      <c r="K92" s="22"/>
+      <c r="L92" s="1"/>
+      <c r="M92" s="1"/>
+      <c r="N92" s="1"/>
+      <c r="O92" s="1"/>
+      <c r="P92" s="1"/>
+      <c r="Q92" s="1"/>
+      <c r="R92" s="1"/>
+      <c r="S92" s="1"/>
+      <c r="T92" s="1"/>
+      <c r="U92" s="1"/>
+      <c r="V92" s="1"/>
+      <c r="W92" s="1"/>
+      <c r="X92" s="1"/>
+      <c r="Y92" s="1"/>
+      <c r="Z92" s="1"/>
+      <c r="AA92" s="1"/>
+      <c r="AB92" s="1"/>
+      <c r="AC92" s="1"/>
+      <c r="AD92" s="1"/>
+      <c r="AE92" s="1"/>
+      <c r="AF92" s="1"/>
+      <c r="AG92" s="1"/>
+      <c r="AH92" s="1"/>
+      <c r="AI92" s="1"/>
+      <c r="AJ92" s="1"/>
+      <c r="AK92" s="1"/>
+      <c r="AL92" s="1"/>
+      <c r="AM92" s="1"/>
+      <c r="AN92" s="1"/>
+      <c r="AO92" s="1"/>
+      <c r="AP92" s="1"/>
+      <c r="AQ92" s="1"/>
+      <c r="AR92" s="1"/>
+      <c r="AS92" s="1"/>
+      <c r="AT92" s="1"/>
+      <c r="AU92" s="1"/>
+      <c r="AV92" s="1"/>
+      <c r="AW92" s="1"/>
+      <c r="AX92" s="1"/>
+      <c r="AY92" s="1"/>
+      <c r="AZ92" s="1"/>
+      <c r="BA92" s="1"/>
+      <c r="BB92" s="1"/>
+      <c r="BC92" s="1"/>
+      <c r="BD92" s="1"/>
+      <c r="BE92" s="1"/>
+      <c r="BF92" s="1"/>
+      <c r="BG92" s="1"/>
+      <c r="BH92" s="1"/>
+      <c r="BI92" s="1"/>
+      <c r="BJ92" s="1"/>
+      <c r="BK92" s="1"/>
+      <c r="BL92" s="1"/>
+      <c r="BM92" s="1"/>
+      <c r="BN92" s="1"/>
+    </row>
+    <row r="93" spans="1:66" s="28" customFormat="1">
       <c r="A93">
-        <v>58</v>
-      </c>
-      <c r="B93" s="22">
-        <v>44</v>
-      </c>
-      <c r="C93" s="29" t="s">
-        <v>62</v>
-      </c>
-      <c r="D93" s="22" t="s">
-        <v>59</v>
-      </c>
-      <c r="E93" s="22" t="s">
-        <v>64</v>
-      </c>
-      <c r="F93" s="22"/>
-      <c r="G93" s="22"/>
-      <c r="H93" s="23"/>
-      <c r="I93" s="23"/>
-      <c r="J93" s="23" t="s">
-        <v>39</v>
-      </c>
-      <c r="K93" s="22"/>
-      <c r="L93" s="1"/>
-      <c r="M93" s="1"/>
-      <c r="N93" s="1"/>
-      <c r="O93" s="1"/>
-      <c r="P93" s="1"/>
-      <c r="Q93" s="1"/>
-      <c r="R93" s="1"/>
-      <c r="S93" s="1"/>
-      <c r="T93" s="1"/>
-      <c r="U93" s="1"/>
-      <c r="V93" s="1"/>
-      <c r="W93" s="1"/>
-      <c r="X93" s="1"/>
-      <c r="Y93" s="1"/>
-      <c r="Z93" s="1"/>
-      <c r="AA93" s="1"/>
-      <c r="AB93" s="1"/>
-      <c r="AC93" s="1"/>
-      <c r="AD93" s="1"/>
-      <c r="AE93" s="1"/>
-      <c r="AF93" s="1"/>
-      <c r="AG93" s="1"/>
-      <c r="AH93" s="1"/>
-      <c r="AI93" s="1"/>
-      <c r="AJ93" s="1"/>
-      <c r="AK93" s="1"/>
-      <c r="AL93" s="1"/>
-      <c r="AM93" s="1"/>
-      <c r="AN93" s="1"/>
-      <c r="AO93" s="1"/>
-      <c r="AP93" s="1"/>
-      <c r="AQ93" s="1"/>
-      <c r="AR93" s="1"/>
-      <c r="AS93" s="1"/>
-      <c r="AT93" s="1"/>
-      <c r="AU93" s="1"/>
-      <c r="AV93" s="1"/>
-      <c r="AW93" s="1"/>
-      <c r="AX93" s="1"/>
-      <c r="AY93" s="1"/>
-      <c r="AZ93" s="1"/>
-      <c r="BA93" s="1"/>
-      <c r="BB93" s="1"/>
-      <c r="BC93" s="1"/>
-      <c r="BD93" s="1"/>
-      <c r="BE93" s="1"/>
-      <c r="BF93" s="1"/>
-      <c r="BG93" s="1"/>
-      <c r="BH93" s="1"/>
-      <c r="BI93" s="1"/>
-      <c r="BJ93" s="1"/>
-      <c r="BK93" s="1"/>
-      <c r="BL93" s="1"/>
-      <c r="BM93" s="1"/>
-      <c r="BN93" s="1"/>
+        <v>60</v>
+      </c>
+      <c r="C93" s="28" t="s">
+        <v>63</v>
+      </c>
+      <c r="J93" s="28" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="94" spans="1:66">
       <c r="A94">
-        <v>59</v>
-      </c>
-      <c r="B94" s="22"/>
-      <c r="C94" s="29"/>
-      <c r="D94" s="22"/>
+        <v>61</v>
+      </c>
+      <c r="B94" s="22">
+        <v>45</v>
+      </c>
+      <c r="C94" s="29" t="s">
+        <v>63</v>
+      </c>
+      <c r="D94" s="22" t="s">
+        <v>71</v>
+      </c>
       <c r="E94" s="22"/>
       <c r="F94" s="22"/>
       <c r="G94" s="22"/>
       <c r="H94" s="23"/>
       <c r="I94" s="23"/>
-      <c r="J94" s="22"/>
+      <c r="J94" s="23" t="s">
+        <v>92</v>
+      </c>
       <c r="K94" s="22"/>
       <c r="L94" s="1"/>
       <c r="M94" s="1"/>
@@ -7711,7 +7626,9 @@
       <c r="AC94" s="1"/>
       <c r="AD94" s="1"/>
       <c r="AE94" s="1"/>
-      <c r="AF94" s="1"/>
+      <c r="AF94" s="1" t="s">
+        <v>52</v>
+      </c>
       <c r="AG94" s="1"/>
       <c r="AH94" s="1"/>
       <c r="AI94" s="1"/>
@@ -7747,374 +7664,283 @@
       <c r="BM94" s="1"/>
       <c r="BN94" s="1"/>
     </row>
-    <row r="95" spans="1:66" s="28" customFormat="1">
-      <c r="A95">
-        <v>60</v>
-      </c>
+    <row r="95" spans="1:66" s="20" customFormat="1">
+      <c r="A95"/>
+      <c r="B95" s="21"/>
       <c r="C95" s="28" t="s">
-        <v>63</v>
-      </c>
-      <c r="J95" s="28" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="96" spans="1:66">
-      <c r="A96">
-        <v>61</v>
-      </c>
-      <c r="B96" s="22">
-        <v>45</v>
-      </c>
-      <c r="C96" s="29" t="s">
-        <v>63</v>
-      </c>
-      <c r="D96" s="22" t="s">
-        <v>71</v>
-      </c>
-      <c r="E96" s="22"/>
-      <c r="F96" s="22"/>
-      <c r="G96" s="22"/>
-      <c r="H96" s="23"/>
-      <c r="I96" s="23"/>
-      <c r="J96" s="23" t="s">
-        <v>92</v>
-      </c>
-      <c r="K96" s="22"/>
-      <c r="L96" s="1"/>
-      <c r="M96" s="1"/>
-      <c r="N96" s="1"/>
-      <c r="O96" s="1"/>
-      <c r="P96" s="1"/>
-      <c r="Q96" s="1"/>
-      <c r="R96" s="1"/>
-      <c r="S96" s="1"/>
-      <c r="T96" s="1"/>
-      <c r="U96" s="1"/>
-      <c r="V96" s="1"/>
-      <c r="W96" s="1"/>
-      <c r="X96" s="1"/>
-      <c r="Y96" s="1"/>
-      <c r="Z96" s="1"/>
-      <c r="AA96" s="1"/>
-      <c r="AB96" s="1"/>
-      <c r="AC96" s="1"/>
-      <c r="AD96" s="1"/>
-      <c r="AE96" s="1"/>
-      <c r="AF96" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="AG96" s="1"/>
-      <c r="AH96" s="1"/>
-      <c r="AI96" s="1"/>
-      <c r="AJ96" s="1"/>
-      <c r="AK96" s="1"/>
-      <c r="AL96" s="1"/>
-      <c r="AM96" s="1"/>
-      <c r="AN96" s="1"/>
-      <c r="AO96" s="1"/>
-      <c r="AP96" s="1"/>
-      <c r="AQ96" s="1"/>
-      <c r="AR96" s="1"/>
-      <c r="AS96" s="1"/>
-      <c r="AT96" s="1"/>
-      <c r="AU96" s="1"/>
-      <c r="AV96" s="1"/>
-      <c r="AW96" s="1"/>
-      <c r="AX96" s="1"/>
-      <c r="AY96" s="1"/>
-      <c r="AZ96" s="1"/>
-      <c r="BA96" s="1"/>
-      <c r="BB96" s="1"/>
-      <c r="BC96" s="1"/>
-      <c r="BD96" s="1"/>
-      <c r="BE96" s="1"/>
-      <c r="BF96" s="1"/>
-      <c r="BG96" s="1"/>
-      <c r="BH96" s="1"/>
-      <c r="BI96" s="1"/>
-      <c r="BJ96" s="1"/>
-      <c r="BK96" s="1"/>
-      <c r="BL96" s="1"/>
-      <c r="BM96" s="1"/>
-      <c r="BN96" s="1"/>
-    </row>
-    <row r="97" spans="1:66" s="20" customFormat="1">
-      <c r="A97"/>
-      <c r="B97" s="21"/>
-      <c r="C97" s="28" t="s">
         <v>55</v>
       </c>
-      <c r="D97" s="21"/>
-      <c r="E97" s="21"/>
-      <c r="F97" s="21"/>
-      <c r="G97" s="21"/>
-      <c r="H97" s="21"/>
-      <c r="I97" s="21"/>
-      <c r="J97" s="21"/>
-      <c r="K97" s="21"/>
-      <c r="L97" s="21"/>
-      <c r="M97" s="21"/>
-      <c r="N97" s="21"/>
-      <c r="O97" s="21"/>
-      <c r="P97" s="21"/>
-      <c r="Q97" s="21"/>
-      <c r="R97" s="21"/>
-      <c r="S97" s="21"/>
-      <c r="T97" s="21"/>
-      <c r="U97" s="21"/>
-      <c r="V97" s="21"/>
-      <c r="W97" s="21"/>
-      <c r="X97" s="21"/>
-      <c r="Y97" s="21"/>
-      <c r="Z97" s="21"/>
-      <c r="AA97" s="21"/>
-      <c r="AB97" s="21"/>
-      <c r="AC97" s="21"/>
-      <c r="AD97" s="21"/>
-      <c r="AE97" s="21"/>
-      <c r="AF97" s="21"/>
-      <c r="AG97" s="21"/>
-      <c r="AH97" s="21"/>
-      <c r="AI97" s="21"/>
-      <c r="AJ97" s="21"/>
-      <c r="AK97" s="21"/>
-      <c r="AL97" s="21"/>
-      <c r="AM97" s="21"/>
-      <c r="AN97" s="21"/>
-      <c r="AO97" s="21"/>
-      <c r="AP97" s="21"/>
-      <c r="AQ97" s="21"/>
-      <c r="AR97" s="21"/>
-      <c r="AS97" s="21"/>
-      <c r="AT97" s="21"/>
-      <c r="AU97" s="21"/>
-      <c r="AV97" s="21"/>
-      <c r="AW97" s="21"/>
-      <c r="AX97" s="21"/>
-      <c r="AY97" s="21"/>
-      <c r="AZ97" s="21"/>
-      <c r="BA97" s="21"/>
-      <c r="BB97" s="21"/>
-      <c r="BC97" s="21"/>
-      <c r="BD97" s="21"/>
-      <c r="BE97" s="21"/>
-      <c r="BF97" s="21"/>
-      <c r="BG97" s="21"/>
-      <c r="BH97" s="21"/>
-      <c r="BI97" s="21"/>
-      <c r="BJ97" s="21"/>
-      <c r="BK97" s="21"/>
-      <c r="BL97" s="21"/>
-      <c r="BM97" s="21"/>
-      <c r="BN97" s="21"/>
-    </row>
-    <row r="101" spans="1:66" s="24" customFormat="1">
-      <c r="A101"/>
-      <c r="C101" s="32" t="s">
+      <c r="D95" s="21"/>
+      <c r="E95" s="21"/>
+      <c r="F95" s="21"/>
+      <c r="G95" s="21"/>
+      <c r="H95" s="21"/>
+      <c r="I95" s="21"/>
+      <c r="J95" s="21"/>
+      <c r="K95" s="21"/>
+      <c r="L95" s="21"/>
+      <c r="M95" s="21"/>
+      <c r="N95" s="21"/>
+      <c r="O95" s="21"/>
+      <c r="P95" s="21"/>
+      <c r="Q95" s="21"/>
+      <c r="R95" s="21"/>
+      <c r="S95" s="21"/>
+      <c r="T95" s="21"/>
+      <c r="U95" s="21"/>
+      <c r="V95" s="21"/>
+      <c r="W95" s="21"/>
+      <c r="X95" s="21"/>
+      <c r="Y95" s="21"/>
+      <c r="Z95" s="21"/>
+      <c r="AA95" s="21"/>
+      <c r="AB95" s="21"/>
+      <c r="AC95" s="21"/>
+      <c r="AD95" s="21"/>
+      <c r="AE95" s="21"/>
+      <c r="AF95" s="21"/>
+      <c r="AG95" s="21"/>
+      <c r="AH95" s="21"/>
+      <c r="AI95" s="21"/>
+      <c r="AJ95" s="21"/>
+      <c r="AK95" s="21"/>
+      <c r="AL95" s="21"/>
+      <c r="AM95" s="21"/>
+      <c r="AN95" s="21"/>
+      <c r="AO95" s="21"/>
+      <c r="AP95" s="21"/>
+      <c r="AQ95" s="21"/>
+      <c r="AR95" s="21"/>
+      <c r="AS95" s="21"/>
+      <c r="AT95" s="21"/>
+      <c r="AU95" s="21"/>
+      <c r="AV95" s="21"/>
+      <c r="AW95" s="21"/>
+      <c r="AX95" s="21"/>
+      <c r="AY95" s="21"/>
+      <c r="AZ95" s="21"/>
+      <c r="BA95" s="21"/>
+      <c r="BB95" s="21"/>
+      <c r="BC95" s="21"/>
+      <c r="BD95" s="21"/>
+      <c r="BE95" s="21"/>
+      <c r="BF95" s="21"/>
+      <c r="BG95" s="21"/>
+      <c r="BH95" s="21"/>
+      <c r="BI95" s="21"/>
+      <c r="BJ95" s="21"/>
+      <c r="BK95" s="21"/>
+      <c r="BL95" s="21"/>
+      <c r="BM95" s="21"/>
+      <c r="BN95" s="21"/>
+    </row>
+    <row r="99" spans="1:66" s="24" customFormat="1">
+      <c r="A99"/>
+      <c r="C99" s="32" t="s">
         <v>53</v>
       </c>
-      <c r="H101" s="25"/>
-      <c r="I101" s="25"/>
-      <c r="J101" s="25"/>
-      <c r="L101" s="25">
+      <c r="H99" s="25"/>
+      <c r="I99" s="25"/>
+      <c r="J99" s="25"/>
+      <c r="L99" s="25">
         <f>L18</f>
         <v>41133</v>
       </c>
-      <c r="M101" s="25">
-        <f t="shared" ref="M101:BF101" si="10">M18</f>
+      <c r="M99" s="25">
+        <f t="shared" ref="M99:BF99" si="10">M18</f>
         <v>41134</v>
       </c>
-      <c r="N101" s="25">
+      <c r="N99" s="25">
         <f t="shared" si="10"/>
         <v>41135</v>
       </c>
-      <c r="O101" s="25">
+      <c r="O99" s="25">
         <f t="shared" si="10"/>
         <v>41136</v>
       </c>
-      <c r="P101" s="25">
+      <c r="P99" s="25">
         <f t="shared" si="10"/>
         <v>41137</v>
       </c>
-      <c r="Q101" s="25">
+      <c r="Q99" s="25">
         <f t="shared" si="10"/>
         <v>41138</v>
       </c>
-      <c r="R101" s="25">
+      <c r="R99" s="25">
         <f t="shared" si="10"/>
         <v>41139</v>
       </c>
-      <c r="S101" s="25">
+      <c r="S99" s="25">
         <f t="shared" si="10"/>
         <v>41140</v>
       </c>
-      <c r="T101" s="25">
+      <c r="T99" s="25">
         <f t="shared" si="10"/>
         <v>41141</v>
       </c>
-      <c r="U101" s="25">
+      <c r="U99" s="25">
         <f t="shared" si="10"/>
         <v>41142</v>
       </c>
-      <c r="V101" s="25">
+      <c r="V99" s="25">
         <f t="shared" si="10"/>
         <v>41143</v>
       </c>
-      <c r="W101" s="25">
+      <c r="W99" s="25">
         <f t="shared" si="10"/>
         <v>41144</v>
       </c>
-      <c r="X101" s="25">
+      <c r="X99" s="25">
         <f t="shared" si="10"/>
         <v>41145</v>
       </c>
-      <c r="Y101" s="25">
+      <c r="Y99" s="25">
         <f t="shared" si="10"/>
         <v>41146</v>
       </c>
-      <c r="Z101" s="25">
+      <c r="Z99" s="25">
         <f t="shared" si="10"/>
         <v>41147</v>
       </c>
-      <c r="AA101" s="25">
+      <c r="AA99" s="25">
         <f t="shared" si="10"/>
         <v>41148</v>
       </c>
-      <c r="AB101" s="25">
+      <c r="AB99" s="25">
         <f t="shared" si="10"/>
         <v>41149</v>
       </c>
-      <c r="AC101" s="25">
+      <c r="AC99" s="25">
         <f t="shared" si="10"/>
         <v>41150</v>
       </c>
-      <c r="AD101" s="25">
+      <c r="AD99" s="25">
         <f t="shared" si="10"/>
         <v>41151</v>
       </c>
-      <c r="AE101" s="25">
+      <c r="AE99" s="25">
         <f t="shared" si="10"/>
         <v>41152</v>
       </c>
-      <c r="AF101" s="25">
+      <c r="AF99" s="25">
         <f t="shared" si="10"/>
         <v>41153</v>
       </c>
-      <c r="AG101" s="25">
+      <c r="AG99" s="25">
         <f t="shared" si="10"/>
         <v>41154</v>
       </c>
-      <c r="AH101" s="25">
+      <c r="AH99" s="25">
         <f t="shared" si="10"/>
         <v>41155</v>
       </c>
-      <c r="AI101" s="25">
+      <c r="AI99" s="25">
         <f t="shared" si="10"/>
         <v>41156</v>
       </c>
-      <c r="AJ101" s="25">
+      <c r="AJ99" s="25">
         <f t="shared" si="10"/>
         <v>41157</v>
       </c>
-      <c r="AK101" s="25">
+      <c r="AK99" s="25">
         <f t="shared" si="10"/>
         <v>41158</v>
       </c>
-      <c r="AL101" s="25">
+      <c r="AL99" s="25">
         <f t="shared" si="10"/>
         <v>41159</v>
       </c>
-      <c r="AM101" s="25">
+      <c r="AM99" s="25">
         <f t="shared" si="10"/>
         <v>41160</v>
       </c>
-      <c r="AN101" s="25">
+      <c r="AN99" s="25">
         <f t="shared" si="10"/>
         <v>41161</v>
       </c>
-      <c r="AO101" s="25">
+      <c r="AO99" s="25">
         <f t="shared" si="10"/>
         <v>41162</v>
       </c>
-      <c r="AP101" s="25">
+      <c r="AP99" s="25">
         <f t="shared" si="10"/>
         <v>41163</v>
       </c>
-      <c r="AQ101" s="25">
+      <c r="AQ99" s="25">
         <f t="shared" si="10"/>
         <v>41164</v>
       </c>
-      <c r="AR101" s="25">
+      <c r="AR99" s="25">
         <f t="shared" si="10"/>
         <v>41165</v>
       </c>
-      <c r="AS101" s="25">
+      <c r="AS99" s="25">
         <f t="shared" si="10"/>
         <v>41166</v>
       </c>
-      <c r="AT101" s="25">
+      <c r="AT99" s="25">
         <f t="shared" si="10"/>
         <v>41167</v>
       </c>
-      <c r="AU101" s="25">
+      <c r="AU99" s="25">
         <f t="shared" si="10"/>
         <v>41168</v>
       </c>
-      <c r="AV101" s="25">
+      <c r="AV99" s="25">
         <f t="shared" si="10"/>
         <v>41169</v>
       </c>
-      <c r="AW101" s="25">
+      <c r="AW99" s="25">
         <f t="shared" si="10"/>
         <v>41170</v>
       </c>
-      <c r="AX101" s="25">
+      <c r="AX99" s="25">
         <f t="shared" si="10"/>
         <v>41171</v>
       </c>
-      <c r="AY101" s="25">
+      <c r="AY99" s="25">
         <f t="shared" si="10"/>
         <v>41172</v>
       </c>
-      <c r="AZ101" s="25">
+      <c r="AZ99" s="25">
         <f t="shared" si="10"/>
         <v>41173</v>
       </c>
-      <c r="BA101" s="25">
+      <c r="BA99" s="25">
         <f t="shared" si="10"/>
         <v>41174</v>
       </c>
-      <c r="BB101" s="25">
+      <c r="BB99" s="25">
         <f t="shared" si="10"/>
         <v>41175</v>
       </c>
-      <c r="BC101" s="25">
+      <c r="BC99" s="25">
         <f t="shared" si="10"/>
         <v>41176</v>
       </c>
-      <c r="BD101" s="25">
+      <c r="BD99" s="25">
         <f t="shared" si="10"/>
         <v>41177</v>
       </c>
-      <c r="BE101" s="25">
+      <c r="BE99" s="25">
         <f t="shared" si="10"/>
         <v>41178</v>
       </c>
-      <c r="BF101" s="25">
+      <c r="BF99" s="25">
         <f t="shared" si="10"/>
         <v>41179</v>
       </c>
-      <c r="BG101" s="25"/>
-      <c r="BH101" s="25"/>
-      <c r="BI101" s="25"/>
-      <c r="BJ101" s="25"/>
-      <c r="BK101" s="25"/>
-      <c r="BL101" s="25"/>
-      <c r="BM101" s="25"/>
-      <c r="BN101" s="25"/>
+      <c r="BG99" s="25"/>
+      <c r="BH99" s="25"/>
+      <c r="BI99" s="25"/>
+      <c r="BJ99" s="25"/>
+      <c r="BK99" s="25"/>
+      <c r="BL99" s="25"/>
+      <c r="BM99" s="25"/>
+      <c r="BN99" s="25"/>
     </row>
   </sheetData>
-  <autoFilter ref="A18:BF97">
+  <autoFilter ref="A18:BF95">
     <filterColumn colId="4"/>
     <filterColumn colId="5"/>
     <filterColumn colId="9"/>
@@ -8122,7 +7948,7 @@
   <sortState ref="C2:D16">
     <sortCondition ref="C2"/>
   </sortState>
-  <conditionalFormatting sqref="L98:AY98 L93:BN94 L96:BN96 L90:BN91 L86:BN88 L72:BN84 L40:BN56 L58:BN70 L20:BN23 L25:BN32 L34:BN38">
+  <conditionalFormatting sqref="L96:AY96 L91:BN92 L94:BN94 L88:BN89 L84:BN86 L70:BN82 L56:BN68 L40:BN54 L20:BN23 L25:BN32 L34:BN38">
     <cfRule type="cellIs" dxfId="5" priority="151" operator="equal">
       <formula>"-"</formula>
     </cfRule>
@@ -8133,26 +7959,26 @@
       <formula>"B"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L93:BN94 L96:BN96 L90:BN91 L86:BN88 L72:BN84 L40:BN56 L58:BN70 L20:BN23 L25:BN32 L34:BN38">
+  <conditionalFormatting sqref="L91:BN92 L94:BN94 L88:BN89 L84:BN86 L70:BN82 L56:BN68 L40:BN54 L20:BN23 L25:BN32 L34:BN38">
     <cfRule type="cellIs" dxfId="2" priority="150" operator="equal">
       <formula>"BE"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J93 J96 J90 J73:J74 J76:J83 J40:J56 J58:J70 J34:J36 J20:J23 J25:J31">
+  <conditionalFormatting sqref="J91 J94 J88 J71:J72 J74:J81 J56:J68 J40:J54 J34:J36 J20:J23 J25:J31">
     <cfRule type="cellIs" dxfId="1" priority="224" operator="equal">
       <formula>$I$4</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J34:J36 J20:J23 J25:J31 J40:J56 J93 J96 J90 J58:J70 J73:J74 J76:J83">
+  <conditionalFormatting sqref="J34:J36 J20:J23 J25:J31 J40:J54 J91 J94 J88 J56:J68 J71:J72 J74:J81">
     <cfRule type="expression" dxfId="0" priority="231">
       <formula>AND(J20&lt;&gt;$I$4,$I20&lt;TODAY())</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D89:F97 D66:D88 E58:E88 D25:F32 D58:D64 E40:F53 D34:F38 F57:F88 D40:D50 D52:D53">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D87:F95 D64:D86 E56:E86 D56:D62 F55:F86 D50:D51 D25:F32 E49:F51 D34:F38 D40:F48">
       <formula1>$C$2:$C$16</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J93:J96 J76:J83 J73:J74 J88:J91 J20:J23 J25:J31 J34:J36 J40:J53 J58:J69">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J91:J94 J74:J81 J71:J72 J86:J89 J56:J67 J20:J23 J25:J31 J34:J36 J40:J51">
       <formula1>$I$3:$I$13</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D19:E23">

--- a/trunk/Document/VietinBankSC Project Plan v2012.009.20.xlsx
+++ b/trunk/Document/VietinBankSC Project Plan v2012.009.20.xlsx
@@ -16,7 +16,7 @@
     <externalReference r:id="rId5"/>
   </externalReferences>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Plan!$A$18:$BF$95</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Plan!$A$18:$BF$94</definedName>
     <definedName name="members">'[1]Thành viên - Vị trí'!$C$3:$C$13</definedName>
   </definedNames>
   <calcPr calcId="124519"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="311" uniqueCount="146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="308" uniqueCount="145">
   <si>
     <t>GVCM</t>
   </si>
@@ -399,9 +399,6 @@
   </si>
   <si>
     <t>Danh mục ngày làm việc</t>
-  </si>
-  <si>
-    <t>Quản lý tổ chức phát hành</t>
   </si>
   <si>
     <t>Quản lý danh sách đợt phát hành</t>
@@ -1399,10 +1396,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:CT99"/>
+  <dimension ref="A1:CT98"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A38" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="G45" sqref="G45"/>
+      <selection activeCell="E46" sqref="E46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1443,10 +1440,10 @@
         <v>38</v>
       </c>
       <c r="J1" s="15" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="K1" s="15" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="2" spans="2:66">
@@ -1462,10 +1459,10 @@
       <c r="G2" s="33"/>
       <c r="H2" s="33"/>
       <c r="J2" s="15" t="s">
+        <v>136</v>
+      </c>
+      <c r="K2" s="15" t="s">
         <v>137</v>
-      </c>
-      <c r="K2" s="15" t="s">
-        <v>138</v>
       </c>
     </row>
     <row r="3" spans="2:66">
@@ -1484,10 +1481,10 @@
         <v>39</v>
       </c>
       <c r="J3" s="15" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="K3" s="15" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="4" spans="2:66">
@@ -1496,14 +1493,14 @@
       </c>
       <c r="D4" s="16"/>
       <c r="E4" s="33" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F4" s="33"/>
       <c r="G4" s="33" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="H4" s="33" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="I4" s="17" t="s">
         <v>40</v>
@@ -1517,11 +1514,11 @@
       <c r="D5" s="16"/>
       <c r="E5" s="33"/>
       <c r="F5" s="33" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="G5" s="15"/>
       <c r="H5" s="15" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="I5" s="17" t="s">
         <v>92</v>
@@ -1548,16 +1545,16 @@
       </c>
       <c r="D7" s="16"/>
       <c r="E7" s="33" t="s">
+        <v>139</v>
+      </c>
+      <c r="F7" s="33" t="s">
         <v>140</v>
       </c>
-      <c r="F7" s="33" t="s">
-        <v>141</v>
-      </c>
       <c r="G7" s="33" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="H7" s="33" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="K7" s="15"/>
     </row>
@@ -1580,18 +1577,18 @@
         <v>58</v>
       </c>
       <c r="D9" s="16">
-        <f>SUMIF($D$19:$D$95,C9,$G$19:$G$95)</f>
+        <f>SUMIF($D$19:$D$94,C9,$G$19:$G$94)</f>
         <v>0</v>
       </c>
       <c r="E9" s="33"/>
       <c r="F9" s="33" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="G9" s="33" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="H9" s="33" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="K9" s="15"/>
     </row>
@@ -1600,15 +1597,15 @@
         <v>61</v>
       </c>
       <c r="D10" s="16">
-        <f>SUMIF($D$19:$D$95,C10,$G$19:$G$95)</f>
+        <f>SUMIF($D$19:$D$94,C10,$G$19:$G$94)</f>
         <v>0</v>
       </c>
       <c r="E10" s="33"/>
       <c r="F10" s="33" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="H10" s="33" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="K10" s="15"/>
     </row>
@@ -1618,13 +1615,13 @@
       </c>
       <c r="D11" s="16"/>
       <c r="E11" s="33" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F11" s="33" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="G11" s="33" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="H11" s="33"/>
       <c r="K11" s="15"/>
@@ -1634,20 +1631,20 @@
         <v>59</v>
       </c>
       <c r="D12" s="16">
-        <f>SUMIF($D$19:$D$95,C12,$G$19:$G$95)</f>
+        <f>SUMIF($D$19:$D$94,C12,$G$19:$G$94)</f>
         <v>0</v>
       </c>
       <c r="E12" s="33" t="s">
+        <v>139</v>
+      </c>
+      <c r="F12" s="33" t="s">
         <v>140</v>
       </c>
-      <c r="F12" s="33" t="s">
-        <v>141</v>
-      </c>
       <c r="G12" s="33" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="H12" s="33" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="K12" s="15"/>
     </row>
@@ -1657,16 +1654,16 @@
       </c>
       <c r="D13" s="16"/>
       <c r="E13" s="33" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F13" s="33" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="G13" s="33" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="H13" s="33" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="K13" s="15"/>
     </row>
@@ -1675,18 +1672,18 @@
         <v>57</v>
       </c>
       <c r="D14" s="16">
-        <f>SUMIF($D$19:$D$95,C14,$G$19:$G$95)</f>
+        <f>SUMIF($D$19:$D$94,C14,$G$19:$G$94)</f>
         <v>0</v>
       </c>
       <c r="E14" s="33"/>
       <c r="F14" s="33" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="G14" s="33" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="H14" s="33" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="K14" s="15"/>
     </row>
@@ -1921,16 +1918,16 @@
         <v>81</v>
       </c>
       <c r="D16" s="16">
-        <f>SUMIF($D$19:$D$95,C16,$G$19:$G$95)</f>
+        <f>SUMIF($D$19:$D$94,C16,$G$19:$G$94)</f>
         <v>0</v>
       </c>
       <c r="E16" s="33"/>
       <c r="F16" s="33" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="G16" s="33"/>
       <c r="H16" s="33" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="K16" s="15"/>
     </row>
@@ -3677,13 +3674,13 @@
     <row r="39" spans="1:66" s="20" customFormat="1">
       <c r="B39" s="21"/>
       <c r="C39" s="30" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D39" s="21" t="s">
+        <v>131</v>
+      </c>
+      <c r="E39" s="21" t="s">
         <v>132</v>
-      </c>
-      <c r="E39" s="21" t="s">
-        <v>133</v>
       </c>
       <c r="F39" s="21" t="s">
         <v>57</v>
@@ -4047,7 +4044,7 @@
     <row r="44" spans="1:66">
       <c r="B44" s="22"/>
       <c r="C44" s="29" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D44" s="22" t="s">
         <v>61</v>
@@ -4123,10 +4120,10 @@
         <v>121</v>
       </c>
       <c r="D45" s="22" t="s">
-        <v>59</v>
+        <v>84</v>
       </c>
       <c r="E45" s="22" t="s">
-        <v>59</v>
+        <v>84</v>
       </c>
       <c r="F45" s="22"/>
       <c r="G45" s="22"/>
@@ -4193,13 +4190,13 @@
     <row r="46" spans="1:66">
       <c r="B46" s="22"/>
       <c r="C46" s="29" t="s">
-        <v>122</v>
+        <v>93</v>
       </c>
       <c r="D46" s="22" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="E46" s="22" t="s">
-        <v>84</v>
+        <v>59</v>
       </c>
       <c r="F46" s="22"/>
       <c r="G46" s="22"/>
@@ -4266,13 +4263,13 @@
     <row r="47" spans="1:66">
       <c r="B47" s="22"/>
       <c r="C47" s="29" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D47" s="22" t="s">
         <v>81</v>
       </c>
       <c r="E47" s="22" t="s">
-        <v>59</v>
+        <v>84</v>
       </c>
       <c r="F47" s="22"/>
       <c r="G47" s="22"/>
@@ -4337,21 +4334,22 @@
       <c r="BN47" s="1"/>
     </row>
     <row r="48" spans="1:66">
+      <c r="A48" t="s">
+        <v>10</v>
+      </c>
       <c r="B48" s="22"/>
       <c r="C48" s="29" t="s">
-        <v>94</v>
-      </c>
-      <c r="D48" s="22" t="s">
-        <v>81</v>
-      </c>
-      <c r="E48" s="22" t="s">
-        <v>84</v>
-      </c>
+        <v>118</v>
+      </c>
+      <c r="D48" s="22"/>
+      <c r="E48" s="22"/>
       <c r="F48" s="22"/>
       <c r="G48" s="22"/>
       <c r="H48" s="23"/>
       <c r="I48" s="23"/>
-      <c r="J48" s="23"/>
+      <c r="J48" s="23" t="s">
+        <v>92</v>
+      </c>
       <c r="K48" s="22"/>
       <c r="L48" s="1"/>
       <c r="M48" s="1"/>
@@ -4415,7 +4413,7 @@
       </c>
       <c r="B49" s="22"/>
       <c r="C49" s="29" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D49" s="22"/>
       <c r="E49" s="22"/>
@@ -4489,7 +4487,7 @@
       </c>
       <c r="B50" s="22"/>
       <c r="C50" s="29" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D50" s="22"/>
       <c r="E50" s="22"/>
@@ -4558,22 +4556,15 @@
       <c r="BN50" s="1"/>
     </row>
     <row r="51" spans="1:66">
-      <c r="A51" t="s">
-        <v>10</v>
-      </c>
       <c r="B51" s="22"/>
-      <c r="C51" s="29" t="s">
-        <v>120</v>
-      </c>
+      <c r="C51" s="29"/>
       <c r="D51" s="22"/>
       <c r="E51" s="22"/>
       <c r="F51" s="22"/>
       <c r="G51" s="22"/>
       <c r="H51" s="23"/>
       <c r="I51" s="23"/>
-      <c r="J51" s="23" t="s">
-        <v>92</v>
-      </c>
+      <c r="J51" s="23"/>
       <c r="K51" s="22"/>
       <c r="L51" s="1"/>
       <c r="M51" s="1"/>
@@ -4765,145 +4756,151 @@
       <c r="BM53" s="1"/>
       <c r="BN53" s="1"/>
     </row>
-    <row r="54" spans="1:66">
-      <c r="B54" s="22"/>
-      <c r="C54" s="29"/>
-      <c r="D54" s="22"/>
-      <c r="E54" s="22"/>
-      <c r="F54" s="22"/>
-      <c r="G54" s="22"/>
-      <c r="H54" s="23"/>
-      <c r="I54" s="23"/>
-      <c r="J54" s="23"/>
-      <c r="K54" s="22"/>
-      <c r="L54" s="1"/>
-      <c r="M54" s="1"/>
-      <c r="N54" s="1"/>
-      <c r="O54" s="1"/>
-      <c r="P54" s="1"/>
-      <c r="Q54" s="1"/>
-      <c r="R54" s="1"/>
-      <c r="S54" s="1"/>
-      <c r="T54" s="1"/>
-      <c r="U54" s="1"/>
-      <c r="V54" s="1"/>
-      <c r="W54" s="1"/>
-      <c r="X54" s="1"/>
-      <c r="Y54" s="1"/>
-      <c r="Z54" s="1"/>
-      <c r="AA54" s="1"/>
-      <c r="AB54" s="1"/>
-      <c r="AC54" s="1"/>
-      <c r="AD54" s="1"/>
-      <c r="AE54" s="1"/>
-      <c r="AF54" s="1"/>
-      <c r="AG54" s="1"/>
-      <c r="AH54" s="1"/>
-      <c r="AI54" s="1"/>
-      <c r="AJ54" s="1"/>
-      <c r="AK54" s="1"/>
-      <c r="AL54" s="1"/>
-      <c r="AM54" s="1"/>
-      <c r="AN54" s="1"/>
-      <c r="AO54" s="1"/>
-      <c r="AP54" s="1"/>
-      <c r="AQ54" s="1"/>
-      <c r="AR54" s="1"/>
-      <c r="AS54" s="1"/>
-      <c r="AT54" s="1"/>
-      <c r="AU54" s="1"/>
-      <c r="AV54" s="1"/>
-      <c r="AW54" s="1"/>
-      <c r="AX54" s="1"/>
-      <c r="AY54" s="1"/>
-      <c r="AZ54" s="1"/>
-      <c r="BA54" s="1"/>
-      <c r="BB54" s="1"/>
-      <c r="BC54" s="1"/>
-      <c r="BD54" s="1"/>
-      <c r="BE54" s="1"/>
-      <c r="BF54" s="1"/>
-      <c r="BG54" s="1"/>
-      <c r="BH54" s="1"/>
-      <c r="BI54" s="1"/>
-      <c r="BJ54" s="1"/>
-      <c r="BK54" s="1"/>
-      <c r="BL54" s="1"/>
-      <c r="BM54" s="1"/>
-      <c r="BN54" s="1"/>
-    </row>
-    <row r="55" spans="1:66" s="20" customFormat="1">
-      <c r="B55" s="21"/>
-      <c r="C55" s="30" t="s">
-        <v>130</v>
-      </c>
-      <c r="D55" s="21" t="s">
+    <row r="54" spans="1:66" s="20" customFormat="1">
+      <c r="B54" s="21"/>
+      <c r="C54" s="30" t="s">
+        <v>129</v>
+      </c>
+      <c r="D54" s="21" t="s">
         <v>80</v>
       </c>
-      <c r="E55" s="21" t="s">
+      <c r="E54" s="21" t="s">
         <v>79</v>
       </c>
-      <c r="F55" s="21"/>
-      <c r="G55" s="21"/>
-      <c r="H55" s="21"/>
-      <c r="I55" s="21"/>
-      <c r="J55" s="21"/>
-      <c r="K55" s="21"/>
-      <c r="L55" s="21"/>
-      <c r="M55" s="21"/>
-      <c r="N55" s="21"/>
-      <c r="O55" s="21"/>
-      <c r="P55" s="21"/>
-      <c r="Q55" s="21"/>
-      <c r="R55" s="21"/>
-      <c r="S55" s="21"/>
-      <c r="T55" s="21"/>
-      <c r="U55" s="21"/>
-      <c r="V55" s="21"/>
-      <c r="W55" s="21"/>
-      <c r="X55" s="21"/>
-      <c r="Y55" s="21"/>
-      <c r="Z55" s="21"/>
-      <c r="AA55" s="21"/>
-      <c r="AB55" s="21"/>
-      <c r="AC55" s="21"/>
-      <c r="AD55" s="21"/>
-      <c r="AE55" s="21"/>
-      <c r="AF55" s="21"/>
-      <c r="AG55" s="21"/>
-      <c r="AH55" s="21"/>
-      <c r="AI55" s="21"/>
-      <c r="AJ55" s="21"/>
-      <c r="AK55" s="21"/>
-      <c r="AL55" s="21"/>
-      <c r="AM55" s="21"/>
-      <c r="AN55" s="21"/>
-      <c r="AO55" s="21"/>
-      <c r="AP55" s="21"/>
-      <c r="AQ55" s="21"/>
-      <c r="AR55" s="21"/>
-      <c r="AS55" s="21"/>
-      <c r="AT55" s="21"/>
-      <c r="AU55" s="21"/>
-      <c r="AV55" s="21"/>
-      <c r="AW55" s="21"/>
-      <c r="AX55" s="21"/>
-      <c r="AY55" s="21"/>
-      <c r="AZ55" s="21"/>
-      <c r="BA55" s="21"/>
-      <c r="BB55" s="21"/>
-      <c r="BC55" s="21"/>
-      <c r="BD55" s="21"/>
-      <c r="BE55" s="21"/>
-      <c r="BF55" s="21"/>
-      <c r="BG55" s="21"/>
-      <c r="BH55" s="21"/>
-      <c r="BI55" s="21"/>
-      <c r="BJ55" s="21"/>
-      <c r="BK55" s="21"/>
-      <c r="BL55" s="21"/>
-      <c r="BM55" s="21"/>
-      <c r="BN55" s="21"/>
+      <c r="F54" s="21"/>
+      <c r="G54" s="21"/>
+      <c r="H54" s="21"/>
+      <c r="I54" s="21"/>
+      <c r="J54" s="21"/>
+      <c r="K54" s="21"/>
+      <c r="L54" s="21"/>
+      <c r="M54" s="21"/>
+      <c r="N54" s="21"/>
+      <c r="O54" s="21"/>
+      <c r="P54" s="21"/>
+      <c r="Q54" s="21"/>
+      <c r="R54" s="21"/>
+      <c r="S54" s="21"/>
+      <c r="T54" s="21"/>
+      <c r="U54" s="21"/>
+      <c r="V54" s="21"/>
+      <c r="W54" s="21"/>
+      <c r="X54" s="21"/>
+      <c r="Y54" s="21"/>
+      <c r="Z54" s="21"/>
+      <c r="AA54" s="21"/>
+      <c r="AB54" s="21"/>
+      <c r="AC54" s="21"/>
+      <c r="AD54" s="21"/>
+      <c r="AE54" s="21"/>
+      <c r="AF54" s="21"/>
+      <c r="AG54" s="21"/>
+      <c r="AH54" s="21"/>
+      <c r="AI54" s="21"/>
+      <c r="AJ54" s="21"/>
+      <c r="AK54" s="21"/>
+      <c r="AL54" s="21"/>
+      <c r="AM54" s="21"/>
+      <c r="AN54" s="21"/>
+      <c r="AO54" s="21"/>
+      <c r="AP54" s="21"/>
+      <c r="AQ54" s="21"/>
+      <c r="AR54" s="21"/>
+      <c r="AS54" s="21"/>
+      <c r="AT54" s="21"/>
+      <c r="AU54" s="21"/>
+      <c r="AV54" s="21"/>
+      <c r="AW54" s="21"/>
+      <c r="AX54" s="21"/>
+      <c r="AY54" s="21"/>
+      <c r="AZ54" s="21"/>
+      <c r="BA54" s="21"/>
+      <c r="BB54" s="21"/>
+      <c r="BC54" s="21"/>
+      <c r="BD54" s="21"/>
+      <c r="BE54" s="21"/>
+      <c r="BF54" s="21"/>
+      <c r="BG54" s="21"/>
+      <c r="BH54" s="21"/>
+      <c r="BI54" s="21"/>
+      <c r="BJ54" s="21"/>
+      <c r="BK54" s="21"/>
+      <c r="BL54" s="21"/>
+      <c r="BM54" s="21"/>
+      <c r="BN54" s="21"/>
+    </row>
+    <row r="55" spans="1:66">
+      <c r="B55" s="22"/>
+      <c r="C55" s="29" t="s">
+        <v>125</v>
+      </c>
+      <c r="D55" s="22" t="s">
+        <v>60</v>
+      </c>
+      <c r="E55" s="22" t="s">
+        <v>58</v>
+      </c>
+      <c r="F55" s="22"/>
+      <c r="G55" s="22"/>
+      <c r="H55" s="23"/>
+      <c r="I55" s="23"/>
+      <c r="J55" s="23"/>
+      <c r="K55" s="22"/>
+      <c r="L55" s="1"/>
+      <c r="M55" s="1"/>
+      <c r="N55" s="1"/>
+      <c r="O55" s="1"/>
+      <c r="P55" s="1"/>
+      <c r="Q55" s="1"/>
+      <c r="R55" s="1"/>
+      <c r="S55" s="1"/>
+      <c r="T55" s="1"/>
+      <c r="U55" s="1"/>
+      <c r="V55" s="1"/>
+      <c r="W55" s="1"/>
+      <c r="X55" s="1"/>
+      <c r="Y55" s="1"/>
+      <c r="Z55" s="1"/>
+      <c r="AA55" s="1"/>
+      <c r="AB55" s="1"/>
+      <c r="AC55" s="1"/>
+      <c r="AD55" s="1"/>
+      <c r="AE55" s="1"/>
+      <c r="AF55" s="1"/>
+      <c r="AG55" s="1"/>
+      <c r="AH55" s="1"/>
+      <c r="AI55" s="1"/>
+      <c r="AJ55" s="1"/>
+      <c r="AK55" s="1"/>
+      <c r="AL55" s="1"/>
+      <c r="AM55" s="1"/>
+      <c r="AN55" s="1"/>
+      <c r="AO55" s="1"/>
+      <c r="AP55" s="1"/>
+      <c r="AQ55" s="1"/>
+      <c r="AR55" s="1"/>
+      <c r="AS55" s="1"/>
+      <c r="AT55" s="1"/>
+      <c r="AU55" s="1"/>
+      <c r="AV55" s="1"/>
+      <c r="AW55" s="1"/>
+      <c r="AX55" s="1"/>
+      <c r="AY55" s="1"/>
+      <c r="AZ55" s="1"/>
+      <c r="BA55" s="1"/>
+      <c r="BB55" s="1"/>
+      <c r="BC55" s="1"/>
+      <c r="BD55" s="1"/>
+      <c r="BE55" s="1"/>
+      <c r="BF55" s="1"/>
+      <c r="BG55" s="1"/>
+      <c r="BH55" s="1"/>
+      <c r="BI55" s="1"/>
+      <c r="BJ55" s="1"/>
+      <c r="BK55" s="1"/>
+      <c r="BL55" s="1"/>
+      <c r="BM55" s="1"/>
+      <c r="BN55" s="1"/>
     </row>
     <row r="56" spans="1:66">
       <c r="B56" s="22"/>
@@ -4984,10 +4981,10 @@
         <v>127</v>
       </c>
       <c r="D57" s="22" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E57" s="22" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="F57" s="22"/>
       <c r="G57" s="22"/>
@@ -5127,19 +5124,21 @@
     <row r="59" spans="1:66">
       <c r="B59" s="22"/>
       <c r="C59" s="29" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="D59" s="22" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="E59" s="22" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="F59" s="22"/>
       <c r="G59" s="22"/>
       <c r="H59" s="23"/>
       <c r="I59" s="23"/>
-      <c r="J59" s="23"/>
+      <c r="J59" s="23" t="s">
+        <v>40</v>
+      </c>
       <c r="K59" s="22"/>
       <c r="L59" s="1"/>
       <c r="M59" s="1"/>
@@ -5203,10 +5202,10 @@
         <v>123</v>
       </c>
       <c r="D60" s="22" t="s">
-        <v>58</v>
+        <v>71</v>
       </c>
       <c r="E60" s="22" t="s">
-        <v>58</v>
+        <v>71</v>
       </c>
       <c r="F60" s="22"/>
       <c r="G60" s="22"/>
@@ -5275,21 +5274,19 @@
     <row r="61" spans="1:66">
       <c r="B61" s="22"/>
       <c r="C61" s="29" t="s">
-        <v>124</v>
+        <v>76</v>
       </c>
       <c r="D61" s="22" t="s">
-        <v>71</v>
+        <v>58</v>
       </c>
       <c r="E61" s="22" t="s">
-        <v>71</v>
+        <v>58</v>
       </c>
       <c r="F61" s="22"/>
       <c r="G61" s="22"/>
       <c r="H61" s="23"/>
       <c r="I61" s="23"/>
-      <c r="J61" s="23" t="s">
-        <v>40</v>
-      </c>
+      <c r="J61" s="23"/>
       <c r="K61" s="22"/>
       <c r="L61" s="1"/>
       <c r="M61" s="1"/>
@@ -5350,13 +5347,13 @@
     <row r="62" spans="1:66">
       <c r="B62" s="22"/>
       <c r="C62" s="29" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D62" s="22" t="s">
-        <v>58</v>
+        <v>82</v>
       </c>
       <c r="E62" s="22" t="s">
-        <v>58</v>
+        <v>71</v>
       </c>
       <c r="F62" s="22"/>
       <c r="G62" s="22"/>
@@ -5423,13 +5420,13 @@
     <row r="63" spans="1:66">
       <c r="B63" s="22"/>
       <c r="C63" s="29" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D63" s="22" t="s">
-        <v>82</v>
+        <v>60</v>
       </c>
       <c r="E63" s="22" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="F63" s="22"/>
       <c r="G63" s="22"/>
@@ -5496,15 +5493,17 @@
     <row r="64" spans="1:66">
       <c r="B64" s="22"/>
       <c r="C64" s="29" t="s">
-        <v>78</v>
+        <v>130</v>
       </c>
       <c r="D64" s="22" t="s">
-        <v>60</v>
+        <v>84</v>
       </c>
       <c r="E64" s="22" t="s">
-        <v>60</v>
-      </c>
-      <c r="F64" s="22"/>
+        <v>67</v>
+      </c>
+      <c r="F64" s="22" t="s">
+        <v>71</v>
+      </c>
       <c r="G64" s="22"/>
       <c r="H64" s="23"/>
       <c r="I64" s="23"/>
@@ -5569,21 +5568,21 @@
     <row r="65" spans="1:66">
       <c r="B65" s="22"/>
       <c r="C65" s="29" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="D65" s="22" t="s">
-        <v>84</v>
+        <v>71</v>
       </c>
       <c r="E65" s="22" t="s">
-        <v>67</v>
-      </c>
-      <c r="F65" s="22" t="s">
         <v>71</v>
       </c>
+      <c r="F65" s="22"/>
       <c r="G65" s="22"/>
       <c r="H65" s="23"/>
       <c r="I65" s="23"/>
-      <c r="J65" s="23"/>
+      <c r="J65" s="23" t="s">
+        <v>40</v>
+      </c>
       <c r="K65" s="22"/>
       <c r="L65" s="1"/>
       <c r="M65" s="1"/>
@@ -5643,22 +5642,14 @@
     </row>
     <row r="66" spans="1:66">
       <c r="B66" s="22"/>
-      <c r="C66" s="29" t="s">
-        <v>125</v>
-      </c>
-      <c r="D66" s="22" t="s">
-        <v>71</v>
-      </c>
-      <c r="E66" s="22" t="s">
-        <v>71</v>
-      </c>
+      <c r="C66" s="29"/>
+      <c r="D66" s="22"/>
+      <c r="E66" s="22"/>
       <c r="F66" s="22"/>
       <c r="G66" s="22"/>
       <c r="H66" s="23"/>
       <c r="I66" s="23"/>
-      <c r="J66" s="23" t="s">
-        <v>40</v>
-      </c>
+      <c r="J66" s="23"/>
       <c r="K66" s="22"/>
       <c r="L66" s="1"/>
       <c r="M66" s="1"/>
@@ -5783,157 +5774,163 @@
       <c r="BM67" s="1"/>
       <c r="BN67" s="1"/>
     </row>
-    <row r="68" spans="1:66">
-      <c r="B68" s="22"/>
-      <c r="C68" s="29"/>
-      <c r="D68" s="22"/>
-      <c r="E68" s="22"/>
-      <c r="F68" s="22"/>
-      <c r="G68" s="22"/>
-      <c r="H68" s="23"/>
-      <c r="I68" s="23"/>
-      <c r="J68" s="23"/>
-      <c r="K68" s="22"/>
-      <c r="L68" s="1"/>
-      <c r="M68" s="1"/>
-      <c r="N68" s="1"/>
-      <c r="O68" s="1"/>
-      <c r="P68" s="1"/>
-      <c r="Q68" s="1"/>
-      <c r="R68" s="1"/>
-      <c r="S68" s="1"/>
-      <c r="T68" s="1"/>
-      <c r="U68" s="1"/>
-      <c r="V68" s="1"/>
-      <c r="W68" s="1"/>
-      <c r="X68" s="1"/>
-      <c r="Y68" s="1"/>
-      <c r="Z68" s="1"/>
-      <c r="AA68" s="1"/>
-      <c r="AB68" s="1"/>
-      <c r="AC68" s="1"/>
-      <c r="AD68" s="1"/>
-      <c r="AE68" s="1"/>
-      <c r="AF68" s="1"/>
-      <c r="AG68" s="1"/>
-      <c r="AH68" s="1"/>
-      <c r="AI68" s="1"/>
-      <c r="AJ68" s="1"/>
-      <c r="AK68" s="1"/>
-      <c r="AL68" s="1"/>
-      <c r="AM68" s="1"/>
-      <c r="AN68" s="1"/>
-      <c r="AO68" s="1"/>
-      <c r="AP68" s="1"/>
-      <c r="AQ68" s="1"/>
-      <c r="AR68" s="1"/>
-      <c r="AS68" s="1"/>
-      <c r="AT68" s="1"/>
-      <c r="AU68" s="1"/>
-      <c r="AV68" s="1"/>
-      <c r="AW68" s="1"/>
-      <c r="AX68" s="1"/>
-      <c r="AY68" s="1"/>
-      <c r="AZ68" s="1"/>
-      <c r="BA68" s="1"/>
-      <c r="BB68" s="1"/>
-      <c r="BC68" s="1"/>
-      <c r="BD68" s="1"/>
-      <c r="BE68" s="1"/>
-      <c r="BF68" s="1"/>
-      <c r="BG68" s="1"/>
-      <c r="BH68" s="1"/>
-      <c r="BI68" s="1"/>
-      <c r="BJ68" s="1"/>
-      <c r="BK68" s="1"/>
-      <c r="BL68" s="1"/>
-      <c r="BM68" s="1"/>
-      <c r="BN68" s="1"/>
-    </row>
-    <row r="69" spans="1:66" s="20" customFormat="1">
-      <c r="A69"/>
-      <c r="B69" s="21"/>
-      <c r="C69" s="30" t="s">
+    <row r="68" spans="1:66" s="20" customFormat="1">
+      <c r="A68"/>
+      <c r="B68" s="21"/>
+      <c r="C68" s="30" t="s">
         <v>107</v>
       </c>
-      <c r="D69" s="21"/>
-      <c r="E69" s="21"/>
-      <c r="F69" s="21" t="s">
+      <c r="D68" s="21"/>
+      <c r="E68" s="21"/>
+      <c r="F68" s="21" t="s">
         <v>59</v>
       </c>
-      <c r="G69" s="21"/>
-      <c r="H69" s="21"/>
-      <c r="I69" s="21"/>
-      <c r="J69" s="21"/>
-      <c r="K69" s="21"/>
-      <c r="L69" s="21"/>
-      <c r="M69" s="21"/>
-      <c r="N69" s="21"/>
-      <c r="O69" s="21"/>
-      <c r="P69" s="21"/>
-      <c r="Q69" s="21"/>
-      <c r="R69" s="21"/>
-      <c r="S69" s="21"/>
-      <c r="T69" s="21"/>
-      <c r="U69" s="21"/>
-      <c r="V69" s="21"/>
-      <c r="W69" s="21"/>
-      <c r="X69" s="21"/>
-      <c r="Y69" s="21"/>
-      <c r="Z69" s="21"/>
-      <c r="AA69" s="21"/>
-      <c r="AB69" s="21"/>
-      <c r="AC69" s="21"/>
-      <c r="AD69" s="21"/>
-      <c r="AE69" s="21"/>
-      <c r="AF69" s="21"/>
-      <c r="AG69" s="21"/>
-      <c r="AH69" s="21"/>
-      <c r="AI69" s="21"/>
-      <c r="AJ69" s="21"/>
-      <c r="AK69" s="21"/>
-      <c r="AL69" s="21"/>
-      <c r="AM69" s="21"/>
-      <c r="AN69" s="21"/>
-      <c r="AO69" s="21"/>
-      <c r="AP69" s="21"/>
-      <c r="AQ69" s="21"/>
-      <c r="AR69" s="21"/>
-      <c r="AS69" s="21"/>
-      <c r="AT69" s="21"/>
-      <c r="AU69" s="21"/>
-      <c r="AV69" s="21"/>
-      <c r="AW69" s="21"/>
-      <c r="AX69" s="21"/>
-      <c r="AY69" s="21"/>
-      <c r="AZ69" s="21"/>
-      <c r="BA69" s="21"/>
-      <c r="BB69" s="21"/>
-      <c r="BC69" s="21"/>
-      <c r="BD69" s="21"/>
-      <c r="BE69" s="21"/>
-      <c r="BF69" s="21"/>
-      <c r="BG69" s="21"/>
-      <c r="BH69" s="21"/>
-      <c r="BI69" s="21"/>
-      <c r="BJ69" s="21"/>
-      <c r="BK69" s="21"/>
-      <c r="BL69" s="21"/>
-      <c r="BM69" s="21"/>
-      <c r="BN69" s="21"/>
+      <c r="G68" s="21"/>
+      <c r="H68" s="21"/>
+      <c r="I68" s="21"/>
+      <c r="J68" s="21"/>
+      <c r="K68" s="21"/>
+      <c r="L68" s="21"/>
+      <c r="M68" s="21"/>
+      <c r="N68" s="21"/>
+      <c r="O68" s="21"/>
+      <c r="P68" s="21"/>
+      <c r="Q68" s="21"/>
+      <c r="R68" s="21"/>
+      <c r="S68" s="21"/>
+      <c r="T68" s="21"/>
+      <c r="U68" s="21"/>
+      <c r="V68" s="21"/>
+      <c r="W68" s="21"/>
+      <c r="X68" s="21"/>
+      <c r="Y68" s="21"/>
+      <c r="Z68" s="21"/>
+      <c r="AA68" s="21"/>
+      <c r="AB68" s="21"/>
+      <c r="AC68" s="21"/>
+      <c r="AD68" s="21"/>
+      <c r="AE68" s="21"/>
+      <c r="AF68" s="21"/>
+      <c r="AG68" s="21"/>
+      <c r="AH68" s="21"/>
+      <c r="AI68" s="21"/>
+      <c r="AJ68" s="21"/>
+      <c r="AK68" s="21"/>
+      <c r="AL68" s="21"/>
+      <c r="AM68" s="21"/>
+      <c r="AN68" s="21"/>
+      <c r="AO68" s="21"/>
+      <c r="AP68" s="21"/>
+      <c r="AQ68" s="21"/>
+      <c r="AR68" s="21"/>
+      <c r="AS68" s="21"/>
+      <c r="AT68" s="21"/>
+      <c r="AU68" s="21"/>
+      <c r="AV68" s="21"/>
+      <c r="AW68" s="21"/>
+      <c r="AX68" s="21"/>
+      <c r="AY68" s="21"/>
+      <c r="AZ68" s="21"/>
+      <c r="BA68" s="21"/>
+      <c r="BB68" s="21"/>
+      <c r="BC68" s="21"/>
+      <c r="BD68" s="21"/>
+      <c r="BE68" s="21"/>
+      <c r="BF68" s="21"/>
+      <c r="BG68" s="21"/>
+      <c r="BH68" s="21"/>
+      <c r="BI68" s="21"/>
+      <c r="BJ68" s="21"/>
+      <c r="BK68" s="21"/>
+      <c r="BL68" s="21"/>
+      <c r="BM68" s="21"/>
+      <c r="BN68" s="21"/>
+    </row>
+    <row r="69" spans="1:66">
+      <c r="B69" s="22"/>
+      <c r="C69" s="38" t="s">
+        <v>108</v>
+      </c>
+      <c r="D69" s="22"/>
+      <c r="E69" s="22"/>
+      <c r="F69" s="22"/>
+      <c r="G69" s="22"/>
+      <c r="H69" s="23"/>
+      <c r="I69" s="23"/>
+      <c r="J69" s="23"/>
+      <c r="K69" s="22"/>
+      <c r="L69" s="1"/>
+      <c r="M69" s="1"/>
+      <c r="N69" s="1"/>
+      <c r="O69" s="1"/>
+      <c r="P69" s="1"/>
+      <c r="Q69" s="1"/>
+      <c r="R69" s="1"/>
+      <c r="S69" s="1"/>
+      <c r="T69" s="1"/>
+      <c r="U69" s="1"/>
+      <c r="V69" s="1"/>
+      <c r="W69" s="1"/>
+      <c r="X69" s="1"/>
+      <c r="Y69" s="1"/>
+      <c r="Z69" s="1"/>
+      <c r="AA69" s="1"/>
+      <c r="AB69" s="1"/>
+      <c r="AC69" s="1"/>
+      <c r="AD69" s="1"/>
+      <c r="AE69" s="1"/>
+      <c r="AF69" s="1"/>
+      <c r="AG69" s="1"/>
+      <c r="AH69" s="1"/>
+      <c r="AI69" s="1"/>
+      <c r="AJ69" s="1"/>
+      <c r="AK69" s="1"/>
+      <c r="AL69" s="1"/>
+      <c r="AM69" s="1"/>
+      <c r="AN69" s="1"/>
+      <c r="AO69" s="1"/>
+      <c r="AP69" s="1"/>
+      <c r="AQ69" s="1"/>
+      <c r="AR69" s="1"/>
+      <c r="AS69" s="1"/>
+      <c r="AT69" s="1"/>
+      <c r="AU69" s="1"/>
+      <c r="AV69" s="1"/>
+      <c r="AW69" s="1"/>
+      <c r="AX69" s="1"/>
+      <c r="AY69" s="1"/>
+      <c r="AZ69" s="1"/>
+      <c r="BA69" s="1"/>
+      <c r="BB69" s="1"/>
+      <c r="BC69" s="1"/>
+      <c r="BD69" s="1"/>
+      <c r="BE69" s="1"/>
+      <c r="BF69" s="1"/>
+      <c r="BG69" s="1"/>
+      <c r="BH69" s="1"/>
+      <c r="BI69" s="1"/>
+      <c r="BJ69" s="1"/>
+      <c r="BK69" s="1"/>
+      <c r="BL69" s="1"/>
+      <c r="BM69" s="1"/>
+      <c r="BN69" s="1"/>
     </row>
     <row r="70" spans="1:66">
       <c r="B70" s="22"/>
-      <c r="C70" s="38" t="s">
-        <v>108</v>
-      </c>
-      <c r="D70" s="22"/>
+      <c r="C70" s="29" t="s">
+        <v>109</v>
+      </c>
+      <c r="D70" s="22" t="s">
+        <v>59</v>
+      </c>
       <c r="E70" s="22"/>
       <c r="F70" s="22"/>
       <c r="G70" s="22"/>
       <c r="H70" s="23"/>
       <c r="I70" s="23"/>
-      <c r="J70" s="23"/>
+      <c r="J70" s="23" t="s">
+        <v>40</v>
+      </c>
       <c r="K70" s="22"/>
       <c r="L70" s="1"/>
       <c r="M70" s="1"/>
@@ -5994,10 +5991,10 @@
     <row r="71" spans="1:66">
       <c r="B71" s="22"/>
       <c r="C71" s="29" t="s">
-        <v>109</v>
+        <v>99</v>
       </c>
       <c r="D71" s="22" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="E71" s="22"/>
       <c r="F71" s="22"/>
@@ -6005,7 +6002,7 @@
       <c r="H71" s="23"/>
       <c r="I71" s="23"/>
       <c r="J71" s="23" t="s">
-        <v>40</v>
+        <v>92</v>
       </c>
       <c r="K71" s="22"/>
       <c r="L71" s="1"/>
@@ -6066,20 +6063,16 @@
     </row>
     <row r="72" spans="1:66">
       <c r="B72" s="22"/>
-      <c r="C72" s="29" t="s">
-        <v>99</v>
-      </c>
-      <c r="D72" s="22" t="s">
-        <v>57</v>
-      </c>
+      <c r="C72" s="38" t="s">
+        <v>110</v>
+      </c>
+      <c r="D72" s="22"/>
       <c r="E72" s="22"/>
       <c r="F72" s="22"/>
       <c r="G72" s="22"/>
       <c r="H72" s="23"/>
       <c r="I72" s="23"/>
-      <c r="J72" s="23" t="s">
-        <v>92</v>
-      </c>
+      <c r="J72" s="23"/>
       <c r="K72" s="22"/>
       <c r="L72" s="1"/>
       <c r="M72" s="1"/>
@@ -6139,16 +6132,20 @@
     </row>
     <row r="73" spans="1:66">
       <c r="B73" s="22"/>
-      <c r="C73" s="38" t="s">
-        <v>110</v>
-      </c>
-      <c r="D73" s="22"/>
+      <c r="C73" s="29" t="s">
+        <v>100</v>
+      </c>
+      <c r="D73" s="22" t="s">
+        <v>84</v>
+      </c>
       <c r="E73" s="22"/>
       <c r="F73" s="22"/>
       <c r="G73" s="22"/>
       <c r="H73" s="23"/>
       <c r="I73" s="23"/>
-      <c r="J73" s="23"/>
+      <c r="J73" s="23" t="s">
+        <v>92</v>
+      </c>
       <c r="K73" s="22"/>
       <c r="L73" s="1"/>
       <c r="M73" s="1"/>
@@ -6209,10 +6206,10 @@
     <row r="74" spans="1:66">
       <c r="B74" s="22"/>
       <c r="C74" s="29" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D74" s="22" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="E74" s="22"/>
       <c r="F74" s="22"/>
@@ -6282,10 +6279,10 @@
     <row r="75" spans="1:66">
       <c r="B75" s="22"/>
       <c r="C75" s="29" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D75" s="22" t="s">
-        <v>82</v>
+        <v>59</v>
       </c>
       <c r="E75" s="22"/>
       <c r="F75" s="22"/>
@@ -6355,10 +6352,10 @@
     <row r="76" spans="1:66">
       <c r="B76" s="22"/>
       <c r="C76" s="29" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D76" s="22" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="E76" s="22"/>
       <c r="F76" s="22"/>
@@ -6427,11 +6424,11 @@
     </row>
     <row r="77" spans="1:66">
       <c r="B77" s="22"/>
-      <c r="C77" s="29" t="s">
-        <v>103</v>
+      <c r="C77" s="38" t="s">
+        <v>104</v>
       </c>
       <c r="D77" s="22" t="s">
-        <v>57</v>
+        <v>84</v>
       </c>
       <c r="E77" s="22"/>
       <c r="F77" s="22"/>
@@ -6501,10 +6498,10 @@
     <row r="78" spans="1:66">
       <c r="B78" s="22"/>
       <c r="C78" s="38" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D78" s="22" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="E78" s="22"/>
       <c r="F78" s="22"/>
@@ -6574,10 +6571,10 @@
     <row r="79" spans="1:66">
       <c r="B79" s="22"/>
       <c r="C79" s="38" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="D79" s="22" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E79" s="22"/>
       <c r="F79" s="22"/>
@@ -6647,7 +6644,7 @@
     <row r="80" spans="1:66">
       <c r="B80" s="22"/>
       <c r="C80" s="38" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="D80" s="22" t="s">
         <v>81</v>
@@ -6719,20 +6716,14 @@
     </row>
     <row r="81" spans="1:66">
       <c r="B81" s="22"/>
-      <c r="C81" s="38" t="s">
-        <v>106</v>
-      </c>
-      <c r="D81" s="22" t="s">
-        <v>81</v>
-      </c>
+      <c r="C81" s="29"/>
+      <c r="D81" s="22"/>
       <c r="E81" s="22"/>
       <c r="F81" s="22"/>
       <c r="G81" s="22"/>
       <c r="H81" s="23"/>
       <c r="I81" s="23"/>
-      <c r="J81" s="23" t="s">
-        <v>92</v>
-      </c>
+      <c r="J81" s="23"/>
       <c r="K81" s="22"/>
       <c r="L81" s="1"/>
       <c r="M81" s="1"/>
@@ -6790,147 +6781,149 @@
       <c r="BM81" s="1"/>
       <c r="BN81" s="1"/>
     </row>
-    <row r="82" spans="1:66">
-      <c r="B82" s="22"/>
-      <c r="C82" s="29"/>
-      <c r="D82" s="22"/>
-      <c r="E82" s="22"/>
-      <c r="F82" s="22"/>
-      <c r="G82" s="22"/>
-      <c r="H82" s="23"/>
-      <c r="I82" s="23"/>
-      <c r="J82" s="23"/>
-      <c r="K82" s="22"/>
-      <c r="L82" s="1"/>
-      <c r="M82" s="1"/>
-      <c r="N82" s="1"/>
-      <c r="O82" s="1"/>
-      <c r="P82" s="1"/>
-      <c r="Q82" s="1"/>
-      <c r="R82" s="1"/>
-      <c r="S82" s="1"/>
-      <c r="T82" s="1"/>
-      <c r="U82" s="1"/>
-      <c r="V82" s="1"/>
-      <c r="W82" s="1"/>
-      <c r="X82" s="1"/>
-      <c r="Y82" s="1"/>
-      <c r="Z82" s="1"/>
-      <c r="AA82" s="1"/>
-      <c r="AB82" s="1"/>
-      <c r="AC82" s="1"/>
-      <c r="AD82" s="1"/>
-      <c r="AE82" s="1"/>
-      <c r="AF82" s="1"/>
-      <c r="AG82" s="1"/>
-      <c r="AH82" s="1"/>
-      <c r="AI82" s="1"/>
-      <c r="AJ82" s="1"/>
-      <c r="AK82" s="1"/>
-      <c r="AL82" s="1"/>
-      <c r="AM82" s="1"/>
-      <c r="AN82" s="1"/>
-      <c r="AO82" s="1"/>
-      <c r="AP82" s="1"/>
-      <c r="AQ82" s="1"/>
-      <c r="AR82" s="1"/>
-      <c r="AS82" s="1"/>
-      <c r="AT82" s="1"/>
-      <c r="AU82" s="1"/>
-      <c r="AV82" s="1"/>
-      <c r="AW82" s="1"/>
-      <c r="AX82" s="1"/>
-      <c r="AY82" s="1"/>
-      <c r="AZ82" s="1"/>
-      <c r="BA82" s="1"/>
-      <c r="BB82" s="1"/>
-      <c r="BC82" s="1"/>
-      <c r="BD82" s="1"/>
-      <c r="BE82" s="1"/>
-      <c r="BF82" s="1"/>
-      <c r="BG82" s="1"/>
-      <c r="BH82" s="1"/>
-      <c r="BI82" s="1"/>
-      <c r="BJ82" s="1"/>
-      <c r="BK82" s="1"/>
-      <c r="BL82" s="1"/>
-      <c r="BM82" s="1"/>
-      <c r="BN82" s="1"/>
-    </row>
-    <row r="83" spans="1:66" s="20" customFormat="1">
-      <c r="A83"/>
-      <c r="B83" s="21"/>
-      <c r="C83" s="30" t="s">
+    <row r="82" spans="1:66" s="20" customFormat="1">
+      <c r="A82"/>
+      <c r="B82" s="21"/>
+      <c r="C82" s="30" t="s">
         <v>112</v>
       </c>
-      <c r="D83" s="21"/>
-      <c r="E83" s="21"/>
-      <c r="F83" s="21"/>
-      <c r="G83" s="21"/>
-      <c r="H83" s="21"/>
-      <c r="I83" s="21"/>
-      <c r="J83" s="21"/>
-      <c r="K83" s="21"/>
-      <c r="L83" s="21"/>
-      <c r="M83" s="21"/>
-      <c r="N83" s="21"/>
-      <c r="O83" s="21"/>
-      <c r="P83" s="21"/>
-      <c r="Q83" s="21"/>
-      <c r="R83" s="21"/>
-      <c r="S83" s="21"/>
-      <c r="T83" s="21"/>
-      <c r="U83" s="21"/>
-      <c r="V83" s="21"/>
-      <c r="W83" s="21"/>
-      <c r="X83" s="21"/>
-      <c r="Y83" s="21"/>
-      <c r="Z83" s="21"/>
-      <c r="AA83" s="21"/>
-      <c r="AB83" s="21"/>
-      <c r="AC83" s="21"/>
-      <c r="AD83" s="21"/>
-      <c r="AE83" s="21"/>
-      <c r="AF83" s="21"/>
-      <c r="AG83" s="21"/>
-      <c r="AH83" s="21"/>
-      <c r="AI83" s="21"/>
-      <c r="AJ83" s="21"/>
-      <c r="AK83" s="21"/>
-      <c r="AL83" s="21"/>
-      <c r="AM83" s="21"/>
-      <c r="AN83" s="21"/>
-      <c r="AO83" s="21"/>
-      <c r="AP83" s="21"/>
-      <c r="AQ83" s="21"/>
-      <c r="AR83" s="21"/>
-      <c r="AS83" s="21"/>
-      <c r="AT83" s="21"/>
-      <c r="AU83" s="21"/>
-      <c r="AV83" s="21"/>
-      <c r="AW83" s="21"/>
-      <c r="AX83" s="21"/>
-      <c r="AY83" s="21"/>
-      <c r="AZ83" s="21"/>
-      <c r="BA83" s="21"/>
-      <c r="BB83" s="21"/>
-      <c r="BC83" s="21"/>
-      <c r="BD83" s="21"/>
-      <c r="BE83" s="21"/>
-      <c r="BF83" s="21"/>
-      <c r="BG83" s="21"/>
-      <c r="BH83" s="21"/>
-      <c r="BI83" s="21"/>
-      <c r="BJ83" s="21"/>
-      <c r="BK83" s="21"/>
-      <c r="BL83" s="21"/>
-      <c r="BM83" s="21"/>
-      <c r="BN83" s="21"/>
+      <c r="D82" s="21"/>
+      <c r="E82" s="21"/>
+      <c r="F82" s="21"/>
+      <c r="G82" s="21"/>
+      <c r="H82" s="21"/>
+      <c r="I82" s="21"/>
+      <c r="J82" s="21"/>
+      <c r="K82" s="21"/>
+      <c r="L82" s="21"/>
+      <c r="M82" s="21"/>
+      <c r="N82" s="21"/>
+      <c r="O82" s="21"/>
+      <c r="P82" s="21"/>
+      <c r="Q82" s="21"/>
+      <c r="R82" s="21"/>
+      <c r="S82" s="21"/>
+      <c r="T82" s="21"/>
+      <c r="U82" s="21"/>
+      <c r="V82" s="21"/>
+      <c r="W82" s="21"/>
+      <c r="X82" s="21"/>
+      <c r="Y82" s="21"/>
+      <c r="Z82" s="21"/>
+      <c r="AA82" s="21"/>
+      <c r="AB82" s="21"/>
+      <c r="AC82" s="21"/>
+      <c r="AD82" s="21"/>
+      <c r="AE82" s="21"/>
+      <c r="AF82" s="21"/>
+      <c r="AG82" s="21"/>
+      <c r="AH82" s="21"/>
+      <c r="AI82" s="21"/>
+      <c r="AJ82" s="21"/>
+      <c r="AK82" s="21"/>
+      <c r="AL82" s="21"/>
+      <c r="AM82" s="21"/>
+      <c r="AN82" s="21"/>
+      <c r="AO82" s="21"/>
+      <c r="AP82" s="21"/>
+      <c r="AQ82" s="21"/>
+      <c r="AR82" s="21"/>
+      <c r="AS82" s="21"/>
+      <c r="AT82" s="21"/>
+      <c r="AU82" s="21"/>
+      <c r="AV82" s="21"/>
+      <c r="AW82" s="21"/>
+      <c r="AX82" s="21"/>
+      <c r="AY82" s="21"/>
+      <c r="AZ82" s="21"/>
+      <c r="BA82" s="21"/>
+      <c r="BB82" s="21"/>
+      <c r="BC82" s="21"/>
+      <c r="BD82" s="21"/>
+      <c r="BE82" s="21"/>
+      <c r="BF82" s="21"/>
+      <c r="BG82" s="21"/>
+      <c r="BH82" s="21"/>
+      <c r="BI82" s="21"/>
+      <c r="BJ82" s="21"/>
+      <c r="BK82" s="21"/>
+      <c r="BL82" s="21"/>
+      <c r="BM82" s="21"/>
+      <c r="BN82" s="21"/>
+    </row>
+    <row r="83" spans="1:66">
+      <c r="B83" s="22"/>
+      <c r="C83" s="37" t="s">
+        <v>113</v>
+      </c>
+      <c r="D83" s="22"/>
+      <c r="E83" s="22"/>
+      <c r="F83" s="22"/>
+      <c r="G83" s="22"/>
+      <c r="H83" s="23"/>
+      <c r="I83" s="23"/>
+      <c r="J83" s="23"/>
+      <c r="K83" s="22"/>
+      <c r="L83" s="1"/>
+      <c r="M83" s="1"/>
+      <c r="N83" s="1"/>
+      <c r="O83" s="1"/>
+      <c r="P83" s="1"/>
+      <c r="Q83" s="1"/>
+      <c r="R83" s="1"/>
+      <c r="S83" s="1"/>
+      <c r="T83" s="1"/>
+      <c r="U83" s="1"/>
+      <c r="V83" s="1"/>
+      <c r="W83" s="1"/>
+      <c r="X83" s="1"/>
+      <c r="Y83" s="1"/>
+      <c r="Z83" s="1"/>
+      <c r="AA83" s="1"/>
+      <c r="AB83" s="1"/>
+      <c r="AC83" s="1"/>
+      <c r="AD83" s="1"/>
+      <c r="AE83" s="1"/>
+      <c r="AF83" s="1"/>
+      <c r="AG83" s="1"/>
+      <c r="AH83" s="1"/>
+      <c r="AI83" s="1"/>
+      <c r="AJ83" s="1"/>
+      <c r="AK83" s="1"/>
+      <c r="AL83" s="1"/>
+      <c r="AM83" s="1"/>
+      <c r="AN83" s="1"/>
+      <c r="AO83" s="1"/>
+      <c r="AP83" s="1"/>
+      <c r="AQ83" s="1"/>
+      <c r="AR83" s="1"/>
+      <c r="AS83" s="1"/>
+      <c r="AT83" s="1"/>
+      <c r="AU83" s="1"/>
+      <c r="AV83" s="1"/>
+      <c r="AW83" s="1"/>
+      <c r="AX83" s="1"/>
+      <c r="AY83" s="1"/>
+      <c r="AZ83" s="1"/>
+      <c r="BA83" s="1"/>
+      <c r="BB83" s="1"/>
+      <c r="BC83" s="1"/>
+      <c r="BD83" s="1"/>
+      <c r="BE83" s="1"/>
+      <c r="BF83" s="1"/>
+      <c r="BG83" s="1"/>
+      <c r="BH83" s="1"/>
+      <c r="BI83" s="1"/>
+      <c r="BJ83" s="1"/>
+      <c r="BK83" s="1"/>
+      <c r="BL83" s="1"/>
+      <c r="BM83" s="1"/>
+      <c r="BN83" s="1"/>
     </row>
     <row r="84" spans="1:66">
       <c r="B84" s="22"/>
       <c r="C84" s="37" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="D84" s="22"/>
       <c r="E84" s="22"/>
@@ -6998,9 +6991,7 @@
     </row>
     <row r="85" spans="1:66">
       <c r="B85" s="22"/>
-      <c r="C85" s="37" t="s">
-        <v>114</v>
-      </c>
+      <c r="C85" s="29"/>
       <c r="D85" s="22"/>
       <c r="E85" s="22"/>
       <c r="F85" s="22"/>
@@ -7065,168 +7056,168 @@
       <c r="BM85" s="1"/>
       <c r="BN85" s="1"/>
     </row>
-    <row r="86" spans="1:66">
-      <c r="B86" s="22"/>
-      <c r="C86" s="29"/>
-      <c r="D86" s="22"/>
-      <c r="E86" s="22"/>
-      <c r="F86" s="22"/>
-      <c r="G86" s="22"/>
-      <c r="H86" s="23"/>
-      <c r="I86" s="23"/>
-      <c r="J86" s="23"/>
-      <c r="K86" s="22"/>
-      <c r="L86" s="1"/>
-      <c r="M86" s="1"/>
-      <c r="N86" s="1"/>
-      <c r="O86" s="1"/>
-      <c r="P86" s="1"/>
-      <c r="Q86" s="1"/>
-      <c r="R86" s="1"/>
-      <c r="S86" s="1"/>
-      <c r="T86" s="1"/>
-      <c r="U86" s="1"/>
-      <c r="V86" s="1"/>
-      <c r="W86" s="1"/>
-      <c r="X86" s="1"/>
-      <c r="Y86" s="1"/>
-      <c r="Z86" s="1"/>
-      <c r="AA86" s="1"/>
-      <c r="AB86" s="1"/>
-      <c r="AC86" s="1"/>
-      <c r="AD86" s="1"/>
-      <c r="AE86" s="1"/>
-      <c r="AF86" s="1"/>
-      <c r="AG86" s="1"/>
-      <c r="AH86" s="1"/>
-      <c r="AI86" s="1"/>
-      <c r="AJ86" s="1"/>
-      <c r="AK86" s="1"/>
-      <c r="AL86" s="1"/>
-      <c r="AM86" s="1"/>
-      <c r="AN86" s="1"/>
-      <c r="AO86" s="1"/>
-      <c r="AP86" s="1"/>
-      <c r="AQ86" s="1"/>
-      <c r="AR86" s="1"/>
-      <c r="AS86" s="1"/>
-      <c r="AT86" s="1"/>
-      <c r="AU86" s="1"/>
-      <c r="AV86" s="1"/>
-      <c r="AW86" s="1"/>
-      <c r="AX86" s="1"/>
-      <c r="AY86" s="1"/>
-      <c r="AZ86" s="1"/>
-      <c r="BA86" s="1"/>
-      <c r="BB86" s="1"/>
-      <c r="BC86" s="1"/>
-      <c r="BD86" s="1"/>
-      <c r="BE86" s="1"/>
-      <c r="BF86" s="1"/>
-      <c r="BG86" s="1"/>
-      <c r="BH86" s="1"/>
-      <c r="BI86" s="1"/>
-      <c r="BJ86" s="1"/>
-      <c r="BK86" s="1"/>
-      <c r="BL86" s="1"/>
-      <c r="BM86" s="1"/>
-      <c r="BN86" s="1"/>
-    </row>
-    <row r="87" spans="1:66" s="20" customFormat="1">
+    <row r="86" spans="1:66" s="20" customFormat="1">
+      <c r="A86">
+        <v>5</v>
+      </c>
+      <c r="B86" s="21"/>
+      <c r="C86" s="30" t="s">
+        <v>54</v>
+      </c>
+      <c r="D86" s="21"/>
+      <c r="E86" s="21"/>
+      <c r="F86" s="21"/>
+      <c r="G86" s="21"/>
+      <c r="H86" s="21"/>
+      <c r="I86" s="21"/>
+      <c r="J86" s="21"/>
+      <c r="K86" s="21"/>
+      <c r="L86" s="21"/>
+      <c r="M86" s="21"/>
+      <c r="N86" s="21"/>
+      <c r="O86" s="21"/>
+      <c r="P86" s="21"/>
+      <c r="Q86" s="21"/>
+      <c r="R86" s="21"/>
+      <c r="S86" s="21"/>
+      <c r="T86" s="21"/>
+      <c r="U86" s="21"/>
+      <c r="V86" s="21"/>
+      <c r="W86" s="21"/>
+      <c r="X86" s="21"/>
+      <c r="Y86" s="21"/>
+      <c r="Z86" s="21"/>
+      <c r="AA86" s="21"/>
+      <c r="AB86" s="21"/>
+      <c r="AC86" s="21"/>
+      <c r="AD86" s="21"/>
+      <c r="AE86" s="21"/>
+      <c r="AF86" s="21"/>
+      <c r="AG86" s="21"/>
+      <c r="AH86" s="21"/>
+      <c r="AI86" s="21"/>
+      <c r="AJ86" s="21"/>
+      <c r="AK86" s="21"/>
+      <c r="AL86" s="21"/>
+      <c r="AM86" s="21"/>
+      <c r="AN86" s="21"/>
+      <c r="AO86" s="21"/>
+      <c r="AP86" s="21"/>
+      <c r="AQ86" s="21"/>
+      <c r="AR86" s="21"/>
+      <c r="AS86" s="21"/>
+      <c r="AT86" s="21"/>
+      <c r="AU86" s="21"/>
+      <c r="AV86" s="21"/>
+      <c r="AW86" s="21"/>
+      <c r="AX86" s="21"/>
+      <c r="AY86" s="21"/>
+      <c r="AZ86" s="21"/>
+      <c r="BA86" s="21"/>
+      <c r="BB86" s="21"/>
+      <c r="BC86" s="21"/>
+      <c r="BD86" s="21"/>
+      <c r="BE86" s="21"/>
+      <c r="BF86" s="21"/>
+      <c r="BG86" s="21"/>
+      <c r="BH86" s="21"/>
+      <c r="BI86" s="21"/>
+      <c r="BJ86" s="21"/>
+      <c r="BK86" s="21"/>
+      <c r="BL86" s="21"/>
+      <c r="BM86" s="21"/>
+      <c r="BN86" s="21"/>
+    </row>
+    <row r="87" spans="1:66">
       <c r="A87">
+        <v>6</v>
+      </c>
+      <c r="B87" s="22">
         <v>5</v>
       </c>
-      <c r="B87" s="21"/>
-      <c r="C87" s="30" t="s">
-        <v>54</v>
-      </c>
-      <c r="D87" s="21"/>
-      <c r="E87" s="21"/>
-      <c r="F87" s="21"/>
-      <c r="G87" s="21"/>
-      <c r="H87" s="21"/>
-      <c r="I87" s="21"/>
-      <c r="J87" s="21"/>
-      <c r="K87" s="21"/>
-      <c r="L87" s="21"/>
-      <c r="M87" s="21"/>
-      <c r="N87" s="21"/>
-      <c r="O87" s="21"/>
-      <c r="P87" s="21"/>
-      <c r="Q87" s="21"/>
-      <c r="R87" s="21"/>
-      <c r="S87" s="21"/>
-      <c r="T87" s="21"/>
-      <c r="U87" s="21"/>
-      <c r="V87" s="21"/>
-      <c r="W87" s="21"/>
-      <c r="X87" s="21"/>
-      <c r="Y87" s="21"/>
-      <c r="Z87" s="21"/>
-      <c r="AA87" s="21"/>
-      <c r="AB87" s="21"/>
-      <c r="AC87" s="21"/>
-      <c r="AD87" s="21"/>
-      <c r="AE87" s="21"/>
-      <c r="AF87" s="21"/>
-      <c r="AG87" s="21"/>
-      <c r="AH87" s="21"/>
-      <c r="AI87" s="21"/>
-      <c r="AJ87" s="21"/>
-      <c r="AK87" s="21"/>
-      <c r="AL87" s="21"/>
-      <c r="AM87" s="21"/>
-      <c r="AN87" s="21"/>
-      <c r="AO87" s="21"/>
-      <c r="AP87" s="21"/>
-      <c r="AQ87" s="21"/>
-      <c r="AR87" s="21"/>
-      <c r="AS87" s="21"/>
-      <c r="AT87" s="21"/>
-      <c r="AU87" s="21"/>
-      <c r="AV87" s="21"/>
-      <c r="AW87" s="21"/>
-      <c r="AX87" s="21"/>
-      <c r="AY87" s="21"/>
-      <c r="AZ87" s="21"/>
-      <c r="BA87" s="21"/>
-      <c r="BB87" s="21"/>
-      <c r="BC87" s="21"/>
-      <c r="BD87" s="21"/>
-      <c r="BE87" s="21"/>
-      <c r="BF87" s="21"/>
-      <c r="BG87" s="21"/>
-      <c r="BH87" s="21"/>
-      <c r="BI87" s="21"/>
-      <c r="BJ87" s="21"/>
-      <c r="BK87" s="21"/>
-      <c r="BL87" s="21"/>
-      <c r="BM87" s="21"/>
-      <c r="BN87" s="21"/>
+      <c r="C87" s="29" t="s">
+        <v>85</v>
+      </c>
+      <c r="D87" s="22" t="s">
+        <v>64</v>
+      </c>
+      <c r="E87" s="22" t="s">
+        <v>70</v>
+      </c>
+      <c r="F87" s="22"/>
+      <c r="G87" s="22"/>
+      <c r="H87" s="23"/>
+      <c r="I87" s="23"/>
+      <c r="J87" s="23" t="s">
+        <v>40</v>
+      </c>
+      <c r="K87" s="22"/>
+      <c r="L87" s="1"/>
+      <c r="M87" s="1"/>
+      <c r="N87" s="1"/>
+      <c r="O87" s="1"/>
+      <c r="P87" s="1"/>
+      <c r="Q87" s="1"/>
+      <c r="R87" s="1"/>
+      <c r="S87" s="1"/>
+      <c r="T87" s="1"/>
+      <c r="U87" s="1"/>
+      <c r="V87" s="1"/>
+      <c r="W87" s="1"/>
+      <c r="X87" s="1"/>
+      <c r="Y87" s="1"/>
+      <c r="Z87" s="1"/>
+      <c r="AA87" s="1"/>
+      <c r="AB87" s="1"/>
+      <c r="AC87" s="1"/>
+      <c r="AD87" s="1"/>
+      <c r="AE87" s="1"/>
+      <c r="AF87" s="1"/>
+      <c r="AG87" s="1"/>
+      <c r="AH87" s="1"/>
+      <c r="AI87" s="1"/>
+      <c r="AJ87" s="1"/>
+      <c r="AK87" s="1"/>
+      <c r="AL87" s="1"/>
+      <c r="AM87" s="1"/>
+      <c r="AN87" s="1"/>
+      <c r="AO87" s="1"/>
+      <c r="AP87" s="1"/>
+      <c r="AQ87" s="1"/>
+      <c r="AR87" s="1"/>
+      <c r="AS87" s="1"/>
+      <c r="AT87" s="1"/>
+      <c r="AU87" s="1"/>
+      <c r="AV87" s="1"/>
+      <c r="AW87" s="1"/>
+      <c r="AX87" s="1"/>
+      <c r="AY87" s="1"/>
+      <c r="AZ87" s="1"/>
+      <c r="BA87" s="1"/>
+      <c r="BB87" s="1"/>
+      <c r="BC87" s="1"/>
+      <c r="BD87" s="1"/>
+      <c r="BE87" s="1"/>
+      <c r="BF87" s="1"/>
+      <c r="BG87" s="1"/>
+      <c r="BH87" s="1"/>
+      <c r="BI87" s="1"/>
+      <c r="BJ87" s="1"/>
+      <c r="BK87" s="1"/>
+      <c r="BL87" s="1"/>
+      <c r="BM87" s="1"/>
+      <c r="BN87" s="1"/>
     </row>
     <row r="88" spans="1:66">
-      <c r="A88">
-        <v>6</v>
-      </c>
-      <c r="B88" s="22">
-        <v>5</v>
-      </c>
-      <c r="C88" s="29" t="s">
-        <v>85</v>
-      </c>
-      <c r="D88" s="22" t="s">
-        <v>64</v>
-      </c>
-      <c r="E88" s="22" t="s">
-        <v>70</v>
-      </c>
+      <c r="B88" s="22"/>
+      <c r="C88" s="29"/>
+      <c r="D88" s="22"/>
+      <c r="E88" s="22"/>
       <c r="F88" s="22"/>
       <c r="G88" s="22"/>
       <c r="H88" s="23"/>
       <c r="I88" s="23"/>
-      <c r="J88" s="23" t="s">
-        <v>40</v>
-      </c>
+      <c r="J88" s="23"/>
       <c r="K88" s="22"/>
       <c r="L88" s="1"/>
       <c r="M88" s="1"/>
@@ -7284,168 +7275,171 @@
       <c r="BM88" s="1"/>
       <c r="BN88" s="1"/>
     </row>
-    <row r="89" spans="1:66">
-      <c r="B89" s="22"/>
-      <c r="C89" s="29"/>
-      <c r="D89" s="22"/>
-      <c r="E89" s="22"/>
-      <c r="F89" s="22"/>
-      <c r="G89" s="22"/>
-      <c r="H89" s="23"/>
-      <c r="I89" s="23"/>
-      <c r="J89" s="23"/>
-      <c r="K89" s="22"/>
-      <c r="L89" s="1"/>
-      <c r="M89" s="1"/>
-      <c r="N89" s="1"/>
-      <c r="O89" s="1"/>
-      <c r="P89" s="1"/>
-      <c r="Q89" s="1"/>
-      <c r="R89" s="1"/>
-      <c r="S89" s="1"/>
-      <c r="T89" s="1"/>
-      <c r="U89" s="1"/>
-      <c r="V89" s="1"/>
-      <c r="W89" s="1"/>
-      <c r="X89" s="1"/>
-      <c r="Y89" s="1"/>
-      <c r="Z89" s="1"/>
-      <c r="AA89" s="1"/>
-      <c r="AB89" s="1"/>
-      <c r="AC89" s="1"/>
-      <c r="AD89" s="1"/>
-      <c r="AE89" s="1"/>
-      <c r="AF89" s="1"/>
-      <c r="AG89" s="1"/>
-      <c r="AH89" s="1"/>
-      <c r="AI89" s="1"/>
-      <c r="AJ89" s="1"/>
-      <c r="AK89" s="1"/>
-      <c r="AL89" s="1"/>
-      <c r="AM89" s="1"/>
-      <c r="AN89" s="1"/>
-      <c r="AO89" s="1"/>
-      <c r="AP89" s="1"/>
-      <c r="AQ89" s="1"/>
-      <c r="AR89" s="1"/>
-      <c r="AS89" s="1"/>
-      <c r="AT89" s="1"/>
-      <c r="AU89" s="1"/>
-      <c r="AV89" s="1"/>
-      <c r="AW89" s="1"/>
-      <c r="AX89" s="1"/>
-      <c r="AY89" s="1"/>
-      <c r="AZ89" s="1"/>
-      <c r="BA89" s="1"/>
-      <c r="BB89" s="1"/>
-      <c r="BC89" s="1"/>
-      <c r="BD89" s="1"/>
-      <c r="BE89" s="1"/>
-      <c r="BF89" s="1"/>
-      <c r="BG89" s="1"/>
-      <c r="BH89" s="1"/>
-      <c r="BI89" s="1"/>
-      <c r="BJ89" s="1"/>
-      <c r="BK89" s="1"/>
-      <c r="BL89" s="1"/>
-      <c r="BM89" s="1"/>
-      <c r="BN89" s="1"/>
-    </row>
-    <row r="90" spans="1:66" s="20" customFormat="1">
+    <row r="89" spans="1:66" s="20" customFormat="1">
+      <c r="A89">
+        <v>57</v>
+      </c>
+      <c r="B89" s="21"/>
+      <c r="C89" s="28" t="s">
+        <v>62</v>
+      </c>
+      <c r="D89" s="21"/>
+      <c r="E89" s="21"/>
+      <c r="F89" s="21"/>
+      <c r="G89" s="21"/>
+      <c r="H89" s="21"/>
+      <c r="I89" s="21"/>
+      <c r="J89" s="21"/>
+      <c r="K89" s="21"/>
+      <c r="L89" s="21"/>
+      <c r="M89" s="21"/>
+      <c r="N89" s="21"/>
+      <c r="O89" s="21"/>
+      <c r="P89" s="21"/>
+      <c r="Q89" s="21"/>
+      <c r="R89" s="21"/>
+      <c r="S89" s="21"/>
+      <c r="T89" s="21"/>
+      <c r="U89" s="21"/>
+      <c r="V89" s="21"/>
+      <c r="W89" s="21"/>
+      <c r="X89" s="21"/>
+      <c r="Y89" s="21"/>
+      <c r="Z89" s="21"/>
+      <c r="AA89" s="21"/>
+      <c r="AB89" s="21"/>
+      <c r="AC89" s="21"/>
+      <c r="AD89" s="21"/>
+      <c r="AE89" s="21"/>
+      <c r="AF89" s="21"/>
+      <c r="AG89" s="21"/>
+      <c r="AH89" s="21"/>
+      <c r="AI89" s="21"/>
+      <c r="AJ89" s="21"/>
+      <c r="AK89" s="21"/>
+      <c r="AL89" s="21"/>
+      <c r="AM89" s="21"/>
+      <c r="AN89" s="21"/>
+      <c r="AO89" s="21"/>
+      <c r="AP89" s="21"/>
+      <c r="AQ89" s="21"/>
+      <c r="AR89" s="21"/>
+      <c r="AS89" s="21"/>
+      <c r="AT89" s="21"/>
+      <c r="AU89" s="21"/>
+      <c r="AV89" s="21"/>
+      <c r="AW89" s="21"/>
+      <c r="AX89" s="21"/>
+      <c r="AY89" s="21"/>
+      <c r="AZ89" s="21"/>
+      <c r="BA89" s="21"/>
+      <c r="BB89" s="21"/>
+      <c r="BC89" s="21"/>
+      <c r="BD89" s="21"/>
+      <c r="BE89" s="21"/>
+      <c r="BF89" s="21"/>
+      <c r="BG89" s="21"/>
+      <c r="BH89" s="21"/>
+      <c r="BI89" s="21"/>
+      <c r="BJ89" s="21"/>
+      <c r="BK89" s="21"/>
+      <c r="BL89" s="21"/>
+      <c r="BM89" s="21"/>
+      <c r="BN89" s="21"/>
+    </row>
+    <row r="90" spans="1:66">
       <c r="A90">
-        <v>57</v>
-      </c>
-      <c r="B90" s="21"/>
-      <c r="C90" s="28" t="s">
+        <v>58</v>
+      </c>
+      <c r="B90" s="22">
+        <v>44</v>
+      </c>
+      <c r="C90" s="29" t="s">
         <v>62</v>
       </c>
-      <c r="D90" s="21"/>
-      <c r="E90" s="21"/>
-      <c r="F90" s="21"/>
-      <c r="G90" s="21"/>
-      <c r="H90" s="21"/>
-      <c r="I90" s="21"/>
-      <c r="J90" s="21"/>
-      <c r="K90" s="21"/>
-      <c r="L90" s="21"/>
-      <c r="M90" s="21"/>
-      <c r="N90" s="21"/>
-      <c r="O90" s="21"/>
-      <c r="P90" s="21"/>
-      <c r="Q90" s="21"/>
-      <c r="R90" s="21"/>
-      <c r="S90" s="21"/>
-      <c r="T90" s="21"/>
-      <c r="U90" s="21"/>
-      <c r="V90" s="21"/>
-      <c r="W90" s="21"/>
-      <c r="X90" s="21"/>
-      <c r="Y90" s="21"/>
-      <c r="Z90" s="21"/>
-      <c r="AA90" s="21"/>
-      <c r="AB90" s="21"/>
-      <c r="AC90" s="21"/>
-      <c r="AD90" s="21"/>
-      <c r="AE90" s="21"/>
-      <c r="AF90" s="21"/>
-      <c r="AG90" s="21"/>
-      <c r="AH90" s="21"/>
-      <c r="AI90" s="21"/>
-      <c r="AJ90" s="21"/>
-      <c r="AK90" s="21"/>
-      <c r="AL90" s="21"/>
-      <c r="AM90" s="21"/>
-      <c r="AN90" s="21"/>
-      <c r="AO90" s="21"/>
-      <c r="AP90" s="21"/>
-      <c r="AQ90" s="21"/>
-      <c r="AR90" s="21"/>
-      <c r="AS90" s="21"/>
-      <c r="AT90" s="21"/>
-      <c r="AU90" s="21"/>
-      <c r="AV90" s="21"/>
-      <c r="AW90" s="21"/>
-      <c r="AX90" s="21"/>
-      <c r="AY90" s="21"/>
-      <c r="AZ90" s="21"/>
-      <c r="BA90" s="21"/>
-      <c r="BB90" s="21"/>
-      <c r="BC90" s="21"/>
-      <c r="BD90" s="21"/>
-      <c r="BE90" s="21"/>
-      <c r="BF90" s="21"/>
-      <c r="BG90" s="21"/>
-      <c r="BH90" s="21"/>
-      <c r="BI90" s="21"/>
-      <c r="BJ90" s="21"/>
-      <c r="BK90" s="21"/>
-      <c r="BL90" s="21"/>
-      <c r="BM90" s="21"/>
-      <c r="BN90" s="21"/>
+      <c r="D90" s="22" t="s">
+        <v>59</v>
+      </c>
+      <c r="E90" s="22" t="s">
+        <v>64</v>
+      </c>
+      <c r="F90" s="22"/>
+      <c r="G90" s="22"/>
+      <c r="H90" s="23"/>
+      <c r="I90" s="23"/>
+      <c r="J90" s="23" t="s">
+        <v>39</v>
+      </c>
+      <c r="K90" s="22"/>
+      <c r="L90" s="1"/>
+      <c r="M90" s="1"/>
+      <c r="N90" s="1"/>
+      <c r="O90" s="1"/>
+      <c r="P90" s="1"/>
+      <c r="Q90" s="1"/>
+      <c r="R90" s="1"/>
+      <c r="S90" s="1"/>
+      <c r="T90" s="1"/>
+      <c r="U90" s="1"/>
+      <c r="V90" s="1"/>
+      <c r="W90" s="1"/>
+      <c r="X90" s="1"/>
+      <c r="Y90" s="1"/>
+      <c r="Z90" s="1"/>
+      <c r="AA90" s="1"/>
+      <c r="AB90" s="1"/>
+      <c r="AC90" s="1"/>
+      <c r="AD90" s="1"/>
+      <c r="AE90" s="1"/>
+      <c r="AF90" s="1"/>
+      <c r="AG90" s="1"/>
+      <c r="AH90" s="1"/>
+      <c r="AI90" s="1"/>
+      <c r="AJ90" s="1"/>
+      <c r="AK90" s="1"/>
+      <c r="AL90" s="1"/>
+      <c r="AM90" s="1"/>
+      <c r="AN90" s="1"/>
+      <c r="AO90" s="1"/>
+      <c r="AP90" s="1"/>
+      <c r="AQ90" s="1"/>
+      <c r="AR90" s="1"/>
+      <c r="AS90" s="1"/>
+      <c r="AT90" s="1"/>
+      <c r="AU90" s="1"/>
+      <c r="AV90" s="1"/>
+      <c r="AW90" s="1"/>
+      <c r="AX90" s="1"/>
+      <c r="AY90" s="1"/>
+      <c r="AZ90" s="1"/>
+      <c r="BA90" s="1"/>
+      <c r="BB90" s="1"/>
+      <c r="BC90" s="1"/>
+      <c r="BD90" s="1"/>
+      <c r="BE90" s="1"/>
+      <c r="BF90" s="1"/>
+      <c r="BG90" s="1"/>
+      <c r="BH90" s="1"/>
+      <c r="BI90" s="1"/>
+      <c r="BJ90" s="1"/>
+      <c r="BK90" s="1"/>
+      <c r="BL90" s="1"/>
+      <c r="BM90" s="1"/>
+      <c r="BN90" s="1"/>
     </row>
     <row r="91" spans="1:66">
       <c r="A91">
-        <v>58</v>
-      </c>
-      <c r="B91" s="22">
-        <v>44</v>
-      </c>
-      <c r="C91" s="29" t="s">
-        <v>62</v>
-      </c>
-      <c r="D91" s="22" t="s">
         <v>59</v>
       </c>
-      <c r="E91" s="22" t="s">
-        <v>64</v>
-      </c>
+      <c r="B91" s="22"/>
+      <c r="C91" s="29"/>
+      <c r="D91" s="22"/>
+      <c r="E91" s="22"/>
       <c r="F91" s="22"/>
       <c r="G91" s="22"/>
       <c r="H91" s="23"/>
       <c r="I91" s="23"/>
-      <c r="J91" s="23" t="s">
-        <v>39</v>
-      </c>
+      <c r="J91" s="22"/>
       <c r="K91" s="22"/>
       <c r="L91" s="1"/>
       <c r="M91" s="1"/>
@@ -7503,444 +7497,374 @@
       <c r="BM91" s="1"/>
       <c r="BN91" s="1"/>
     </row>
-    <row r="92" spans="1:66">
+    <row r="92" spans="1:66" s="28" customFormat="1">
       <c r="A92">
-        <v>59</v>
-      </c>
-      <c r="B92" s="22"/>
-      <c r="C92" s="29"/>
-      <c r="D92" s="22"/>
-      <c r="E92" s="22"/>
-      <c r="F92" s="22"/>
-      <c r="G92" s="22"/>
-      <c r="H92" s="23"/>
-      <c r="I92" s="23"/>
-      <c r="J92" s="22"/>
-      <c r="K92" s="22"/>
-      <c r="L92" s="1"/>
-      <c r="M92" s="1"/>
-      <c r="N92" s="1"/>
-      <c r="O92" s="1"/>
-      <c r="P92" s="1"/>
-      <c r="Q92" s="1"/>
-      <c r="R92" s="1"/>
-      <c r="S92" s="1"/>
-      <c r="T92" s="1"/>
-      <c r="U92" s="1"/>
-      <c r="V92" s="1"/>
-      <c r="W92" s="1"/>
-      <c r="X92" s="1"/>
-      <c r="Y92" s="1"/>
-      <c r="Z92" s="1"/>
-      <c r="AA92" s="1"/>
-      <c r="AB92" s="1"/>
-      <c r="AC92" s="1"/>
-      <c r="AD92" s="1"/>
-      <c r="AE92" s="1"/>
-      <c r="AF92" s="1"/>
-      <c r="AG92" s="1"/>
-      <c r="AH92" s="1"/>
-      <c r="AI92" s="1"/>
-      <c r="AJ92" s="1"/>
-      <c r="AK92" s="1"/>
-      <c r="AL92" s="1"/>
-      <c r="AM92" s="1"/>
-      <c r="AN92" s="1"/>
-      <c r="AO92" s="1"/>
-      <c r="AP92" s="1"/>
-      <c r="AQ92" s="1"/>
-      <c r="AR92" s="1"/>
-      <c r="AS92" s="1"/>
-      <c r="AT92" s="1"/>
-      <c r="AU92" s="1"/>
-      <c r="AV92" s="1"/>
-      <c r="AW92" s="1"/>
-      <c r="AX92" s="1"/>
-      <c r="AY92" s="1"/>
-      <c r="AZ92" s="1"/>
-      <c r="BA92" s="1"/>
-      <c r="BB92" s="1"/>
-      <c r="BC92" s="1"/>
-      <c r="BD92" s="1"/>
-      <c r="BE92" s="1"/>
-      <c r="BF92" s="1"/>
-      <c r="BG92" s="1"/>
-      <c r="BH92" s="1"/>
-      <c r="BI92" s="1"/>
-      <c r="BJ92" s="1"/>
-      <c r="BK92" s="1"/>
-      <c r="BL92" s="1"/>
-      <c r="BM92" s="1"/>
-      <c r="BN92" s="1"/>
-    </row>
-    <row r="93" spans="1:66" s="28" customFormat="1">
+        <v>60</v>
+      </c>
+      <c r="C92" s="28" t="s">
+        <v>63</v>
+      </c>
+      <c r="J92" s="28" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="93" spans="1:66">
       <c r="A93">
-        <v>60</v>
-      </c>
-      <c r="C93" s="28" t="s">
+        <v>61</v>
+      </c>
+      <c r="B93" s="22">
+        <v>45</v>
+      </c>
+      <c r="C93" s="29" t="s">
         <v>63</v>
       </c>
-      <c r="J93" s="28" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="94" spans="1:66">
-      <c r="A94">
-        <v>61</v>
-      </c>
-      <c r="B94" s="22">
-        <v>45</v>
-      </c>
-      <c r="C94" s="29" t="s">
-        <v>63</v>
-      </c>
-      <c r="D94" s="22" t="s">
+      <c r="D93" s="22" t="s">
         <v>71</v>
       </c>
-      <c r="E94" s="22"/>
-      <c r="F94" s="22"/>
-      <c r="G94" s="22"/>
-      <c r="H94" s="23"/>
-      <c r="I94" s="23"/>
-      <c r="J94" s="23" t="s">
+      <c r="E93" s="22"/>
+      <c r="F93" s="22"/>
+      <c r="G93" s="22"/>
+      <c r="H93" s="23"/>
+      <c r="I93" s="23"/>
+      <c r="J93" s="23" t="s">
         <v>92</v>
       </c>
-      <c r="K94" s="22"/>
-      <c r="L94" s="1"/>
-      <c r="M94" s="1"/>
-      <c r="N94" s="1"/>
-      <c r="O94" s="1"/>
-      <c r="P94" s="1"/>
-      <c r="Q94" s="1"/>
-      <c r="R94" s="1"/>
-      <c r="S94" s="1"/>
-      <c r="T94" s="1"/>
-      <c r="U94" s="1"/>
-      <c r="V94" s="1"/>
-      <c r="W94" s="1"/>
-      <c r="X94" s="1"/>
-      <c r="Y94" s="1"/>
-      <c r="Z94" s="1"/>
-      <c r="AA94" s="1"/>
-      <c r="AB94" s="1"/>
-      <c r="AC94" s="1"/>
-      <c r="AD94" s="1"/>
-      <c r="AE94" s="1"/>
-      <c r="AF94" s="1" t="s">
+      <c r="K93" s="22"/>
+      <c r="L93" s="1"/>
+      <c r="M93" s="1"/>
+      <c r="N93" s="1"/>
+      <c r="O93" s="1"/>
+      <c r="P93" s="1"/>
+      <c r="Q93" s="1"/>
+      <c r="R93" s="1"/>
+      <c r="S93" s="1"/>
+      <c r="T93" s="1"/>
+      <c r="U93" s="1"/>
+      <c r="V93" s="1"/>
+      <c r="W93" s="1"/>
+      <c r="X93" s="1"/>
+      <c r="Y93" s="1"/>
+      <c r="Z93" s="1"/>
+      <c r="AA93" s="1"/>
+      <c r="AB93" s="1"/>
+      <c r="AC93" s="1"/>
+      <c r="AD93" s="1"/>
+      <c r="AE93" s="1"/>
+      <c r="AF93" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="AG94" s="1"/>
-      <c r="AH94" s="1"/>
-      <c r="AI94" s="1"/>
-      <c r="AJ94" s="1"/>
-      <c r="AK94" s="1"/>
-      <c r="AL94" s="1"/>
-      <c r="AM94" s="1"/>
-      <c r="AN94" s="1"/>
-      <c r="AO94" s="1"/>
-      <c r="AP94" s="1"/>
-      <c r="AQ94" s="1"/>
-      <c r="AR94" s="1"/>
-      <c r="AS94" s="1"/>
-      <c r="AT94" s="1"/>
-      <c r="AU94" s="1"/>
-      <c r="AV94" s="1"/>
-      <c r="AW94" s="1"/>
-      <c r="AX94" s="1"/>
-      <c r="AY94" s="1"/>
-      <c r="AZ94" s="1"/>
-      <c r="BA94" s="1"/>
-      <c r="BB94" s="1"/>
-      <c r="BC94" s="1"/>
-      <c r="BD94" s="1"/>
-      <c r="BE94" s="1"/>
-      <c r="BF94" s="1"/>
-      <c r="BG94" s="1"/>
-      <c r="BH94" s="1"/>
-      <c r="BI94" s="1"/>
-      <c r="BJ94" s="1"/>
-      <c r="BK94" s="1"/>
-      <c r="BL94" s="1"/>
-      <c r="BM94" s="1"/>
-      <c r="BN94" s="1"/>
-    </row>
-    <row r="95" spans="1:66" s="20" customFormat="1">
-      <c r="A95"/>
-      <c r="B95" s="21"/>
-      <c r="C95" s="28" t="s">
+      <c r="AG93" s="1"/>
+      <c r="AH93" s="1"/>
+      <c r="AI93" s="1"/>
+      <c r="AJ93" s="1"/>
+      <c r="AK93" s="1"/>
+      <c r="AL93" s="1"/>
+      <c r="AM93" s="1"/>
+      <c r="AN93" s="1"/>
+      <c r="AO93" s="1"/>
+      <c r="AP93" s="1"/>
+      <c r="AQ93" s="1"/>
+      <c r="AR93" s="1"/>
+      <c r="AS93" s="1"/>
+      <c r="AT93" s="1"/>
+      <c r="AU93" s="1"/>
+      <c r="AV93" s="1"/>
+      <c r="AW93" s="1"/>
+      <c r="AX93" s="1"/>
+      <c r="AY93" s="1"/>
+      <c r="AZ93" s="1"/>
+      <c r="BA93" s="1"/>
+      <c r="BB93" s="1"/>
+      <c r="BC93" s="1"/>
+      <c r="BD93" s="1"/>
+      <c r="BE93" s="1"/>
+      <c r="BF93" s="1"/>
+      <c r="BG93" s="1"/>
+      <c r="BH93" s="1"/>
+      <c r="BI93" s="1"/>
+      <c r="BJ93" s="1"/>
+      <c r="BK93" s="1"/>
+      <c r="BL93" s="1"/>
+      <c r="BM93" s="1"/>
+      <c r="BN93" s="1"/>
+    </row>
+    <row r="94" spans="1:66" s="20" customFormat="1">
+      <c r="A94"/>
+      <c r="B94" s="21"/>
+      <c r="C94" s="28" t="s">
         <v>55</v>
       </c>
-      <c r="D95" s="21"/>
-      <c r="E95" s="21"/>
-      <c r="F95" s="21"/>
-      <c r="G95" s="21"/>
-      <c r="H95" s="21"/>
-      <c r="I95" s="21"/>
-      <c r="J95" s="21"/>
-      <c r="K95" s="21"/>
-      <c r="L95" s="21"/>
-      <c r="M95" s="21"/>
-      <c r="N95" s="21"/>
-      <c r="O95" s="21"/>
-      <c r="P95" s="21"/>
-      <c r="Q95" s="21"/>
-      <c r="R95" s="21"/>
-      <c r="S95" s="21"/>
-      <c r="T95" s="21"/>
-      <c r="U95" s="21"/>
-      <c r="V95" s="21"/>
-      <c r="W95" s="21"/>
-      <c r="X95" s="21"/>
-      <c r="Y95" s="21"/>
-      <c r="Z95" s="21"/>
-      <c r="AA95" s="21"/>
-      <c r="AB95" s="21"/>
-      <c r="AC95" s="21"/>
-      <c r="AD95" s="21"/>
-      <c r="AE95" s="21"/>
-      <c r="AF95" s="21"/>
-      <c r="AG95" s="21"/>
-      <c r="AH95" s="21"/>
-      <c r="AI95" s="21"/>
-      <c r="AJ95" s="21"/>
-      <c r="AK95" s="21"/>
-      <c r="AL95" s="21"/>
-      <c r="AM95" s="21"/>
-      <c r="AN95" s="21"/>
-      <c r="AO95" s="21"/>
-      <c r="AP95" s="21"/>
-      <c r="AQ95" s="21"/>
-      <c r="AR95" s="21"/>
-      <c r="AS95" s="21"/>
-      <c r="AT95" s="21"/>
-      <c r="AU95" s="21"/>
-      <c r="AV95" s="21"/>
-      <c r="AW95" s="21"/>
-      <c r="AX95" s="21"/>
-      <c r="AY95" s="21"/>
-      <c r="AZ95" s="21"/>
-      <c r="BA95" s="21"/>
-      <c r="BB95" s="21"/>
-      <c r="BC95" s="21"/>
-      <c r="BD95" s="21"/>
-      <c r="BE95" s="21"/>
-      <c r="BF95" s="21"/>
-      <c r="BG95" s="21"/>
-      <c r="BH95" s="21"/>
-      <c r="BI95" s="21"/>
-      <c r="BJ95" s="21"/>
-      <c r="BK95" s="21"/>
-      <c r="BL95" s="21"/>
-      <c r="BM95" s="21"/>
-      <c r="BN95" s="21"/>
-    </row>
-    <row r="99" spans="1:66" s="24" customFormat="1">
-      <c r="A99"/>
-      <c r="C99" s="32" t="s">
+      <c r="D94" s="21"/>
+      <c r="E94" s="21"/>
+      <c r="F94" s="21"/>
+      <c r="G94" s="21"/>
+      <c r="H94" s="21"/>
+      <c r="I94" s="21"/>
+      <c r="J94" s="21"/>
+      <c r="K94" s="21"/>
+      <c r="L94" s="21"/>
+      <c r="M94" s="21"/>
+      <c r="N94" s="21"/>
+      <c r="O94" s="21"/>
+      <c r="P94" s="21"/>
+      <c r="Q94" s="21"/>
+      <c r="R94" s="21"/>
+      <c r="S94" s="21"/>
+      <c r="T94" s="21"/>
+      <c r="U94" s="21"/>
+      <c r="V94" s="21"/>
+      <c r="W94" s="21"/>
+      <c r="X94" s="21"/>
+      <c r="Y94" s="21"/>
+      <c r="Z94" s="21"/>
+      <c r="AA94" s="21"/>
+      <c r="AB94" s="21"/>
+      <c r="AC94" s="21"/>
+      <c r="AD94" s="21"/>
+      <c r="AE94" s="21"/>
+      <c r="AF94" s="21"/>
+      <c r="AG94" s="21"/>
+      <c r="AH94" s="21"/>
+      <c r="AI94" s="21"/>
+      <c r="AJ94" s="21"/>
+      <c r="AK94" s="21"/>
+      <c r="AL94" s="21"/>
+      <c r="AM94" s="21"/>
+      <c r="AN94" s="21"/>
+      <c r="AO94" s="21"/>
+      <c r="AP94" s="21"/>
+      <c r="AQ94" s="21"/>
+      <c r="AR94" s="21"/>
+      <c r="AS94" s="21"/>
+      <c r="AT94" s="21"/>
+      <c r="AU94" s="21"/>
+      <c r="AV94" s="21"/>
+      <c r="AW94" s="21"/>
+      <c r="AX94" s="21"/>
+      <c r="AY94" s="21"/>
+      <c r="AZ94" s="21"/>
+      <c r="BA94" s="21"/>
+      <c r="BB94" s="21"/>
+      <c r="BC94" s="21"/>
+      <c r="BD94" s="21"/>
+      <c r="BE94" s="21"/>
+      <c r="BF94" s="21"/>
+      <c r="BG94" s="21"/>
+      <c r="BH94" s="21"/>
+      <c r="BI94" s="21"/>
+      <c r="BJ94" s="21"/>
+      <c r="BK94" s="21"/>
+      <c r="BL94" s="21"/>
+      <c r="BM94" s="21"/>
+      <c r="BN94" s="21"/>
+    </row>
+    <row r="98" spans="1:66" s="24" customFormat="1">
+      <c r="A98"/>
+      <c r="C98" s="32" t="s">
         <v>53</v>
       </c>
-      <c r="H99" s="25"/>
-      <c r="I99" s="25"/>
-      <c r="J99" s="25"/>
-      <c r="L99" s="25">
+      <c r="H98" s="25"/>
+      <c r="I98" s="25"/>
+      <c r="J98" s="25"/>
+      <c r="L98" s="25">
         <f>L18</f>
         <v>41133</v>
       </c>
-      <c r="M99" s="25">
-        <f t="shared" ref="M99:BF99" si="10">M18</f>
+      <c r="M98" s="25">
+        <f t="shared" ref="M98:BF98" si="10">M18</f>
         <v>41134</v>
       </c>
-      <c r="N99" s="25">
+      <c r="N98" s="25">
         <f t="shared" si="10"/>
         <v>41135</v>
       </c>
-      <c r="O99" s="25">
+      <c r="O98" s="25">
         <f t="shared" si="10"/>
         <v>41136</v>
       </c>
-      <c r="P99" s="25">
+      <c r="P98" s="25">
         <f t="shared" si="10"/>
         <v>41137</v>
       </c>
-      <c r="Q99" s="25">
+      <c r="Q98" s="25">
         <f t="shared" si="10"/>
         <v>41138</v>
       </c>
-      <c r="R99" s="25">
+      <c r="R98" s="25">
         <f t="shared" si="10"/>
         <v>41139</v>
       </c>
-      <c r="S99" s="25">
+      <c r="S98" s="25">
         <f t="shared" si="10"/>
         <v>41140</v>
       </c>
-      <c r="T99" s="25">
+      <c r="T98" s="25">
         <f t="shared" si="10"/>
         <v>41141</v>
       </c>
-      <c r="U99" s="25">
+      <c r="U98" s="25">
         <f t="shared" si="10"/>
         <v>41142</v>
       </c>
-      <c r="V99" s="25">
+      <c r="V98" s="25">
         <f t="shared" si="10"/>
         <v>41143</v>
       </c>
-      <c r="W99" s="25">
+      <c r="W98" s="25">
         <f t="shared" si="10"/>
         <v>41144</v>
       </c>
-      <c r="X99" s="25">
+      <c r="X98" s="25">
         <f t="shared" si="10"/>
         <v>41145</v>
       </c>
-      <c r="Y99" s="25">
+      <c r="Y98" s="25">
         <f t="shared" si="10"/>
         <v>41146</v>
       </c>
-      <c r="Z99" s="25">
+      <c r="Z98" s="25">
         <f t="shared" si="10"/>
         <v>41147</v>
       </c>
-      <c r="AA99" s="25">
+      <c r="AA98" s="25">
         <f t="shared" si="10"/>
         <v>41148</v>
       </c>
-      <c r="AB99" s="25">
+      <c r="AB98" s="25">
         <f t="shared" si="10"/>
         <v>41149</v>
       </c>
-      <c r="AC99" s="25">
+      <c r="AC98" s="25">
         <f t="shared" si="10"/>
         <v>41150</v>
       </c>
-      <c r="AD99" s="25">
+      <c r="AD98" s="25">
         <f t="shared" si="10"/>
         <v>41151</v>
       </c>
-      <c r="AE99" s="25">
+      <c r="AE98" s="25">
         <f t="shared" si="10"/>
         <v>41152</v>
       </c>
-      <c r="AF99" s="25">
+      <c r="AF98" s="25">
         <f t="shared" si="10"/>
         <v>41153</v>
       </c>
-      <c r="AG99" s="25">
+      <c r="AG98" s="25">
         <f t="shared" si="10"/>
         <v>41154</v>
       </c>
-      <c r="AH99" s="25">
+      <c r="AH98" s="25">
         <f t="shared" si="10"/>
         <v>41155</v>
       </c>
-      <c r="AI99" s="25">
+      <c r="AI98" s="25">
         <f t="shared" si="10"/>
         <v>41156</v>
       </c>
-      <c r="AJ99" s="25">
+      <c r="AJ98" s="25">
         <f t="shared" si="10"/>
         <v>41157</v>
       </c>
-      <c r="AK99" s="25">
+      <c r="AK98" s="25">
         <f t="shared" si="10"/>
         <v>41158</v>
       </c>
-      <c r="AL99" s="25">
+      <c r="AL98" s="25">
         <f t="shared" si="10"/>
         <v>41159</v>
       </c>
-      <c r="AM99" s="25">
+      <c r="AM98" s="25">
         <f t="shared" si="10"/>
         <v>41160</v>
       </c>
-      <c r="AN99" s="25">
+      <c r="AN98" s="25">
         <f t="shared" si="10"/>
         <v>41161</v>
       </c>
-      <c r="AO99" s="25">
+      <c r="AO98" s="25">
         <f t="shared" si="10"/>
         <v>41162</v>
       </c>
-      <c r="AP99" s="25">
+      <c r="AP98" s="25">
         <f t="shared" si="10"/>
         <v>41163</v>
       </c>
-      <c r="AQ99" s="25">
+      <c r="AQ98" s="25">
         <f t="shared" si="10"/>
         <v>41164</v>
       </c>
-      <c r="AR99" s="25">
+      <c r="AR98" s="25">
         <f t="shared" si="10"/>
         <v>41165</v>
       </c>
-      <c r="AS99" s="25">
+      <c r="AS98" s="25">
         <f t="shared" si="10"/>
         <v>41166</v>
       </c>
-      <c r="AT99" s="25">
+      <c r="AT98" s="25">
         <f t="shared" si="10"/>
         <v>41167</v>
       </c>
-      <c r="AU99" s="25">
+      <c r="AU98" s="25">
         <f t="shared" si="10"/>
         <v>41168</v>
       </c>
-      <c r="AV99" s="25">
+      <c r="AV98" s="25">
         <f t="shared" si="10"/>
         <v>41169</v>
       </c>
-      <c r="AW99" s="25">
+      <c r="AW98" s="25">
         <f t="shared" si="10"/>
         <v>41170</v>
       </c>
-      <c r="AX99" s="25">
+      <c r="AX98" s="25">
         <f t="shared" si="10"/>
         <v>41171</v>
       </c>
-      <c r="AY99" s="25">
+      <c r="AY98" s="25">
         <f t="shared" si="10"/>
         <v>41172</v>
       </c>
-      <c r="AZ99" s="25">
+      <c r="AZ98" s="25">
         <f t="shared" si="10"/>
         <v>41173</v>
       </c>
-      <c r="BA99" s="25">
+      <c r="BA98" s="25">
         <f t="shared" si="10"/>
         <v>41174</v>
       </c>
-      <c r="BB99" s="25">
+      <c r="BB98" s="25">
         <f t="shared" si="10"/>
         <v>41175</v>
       </c>
-      <c r="BC99" s="25">
+      <c r="BC98" s="25">
         <f t="shared" si="10"/>
         <v>41176</v>
       </c>
-      <c r="BD99" s="25">
+      <c r="BD98" s="25">
         <f t="shared" si="10"/>
         <v>41177</v>
       </c>
-      <c r="BE99" s="25">
+      <c r="BE98" s="25">
         <f t="shared" si="10"/>
         <v>41178</v>
       </c>
-      <c r="BF99" s="25">
+      <c r="BF98" s="25">
         <f t="shared" si="10"/>
         <v>41179</v>
       </c>
-      <c r="BG99" s="25"/>
-      <c r="BH99" s="25"/>
-      <c r="BI99" s="25"/>
-      <c r="BJ99" s="25"/>
-      <c r="BK99" s="25"/>
-      <c r="BL99" s="25"/>
-      <c r="BM99" s="25"/>
-      <c r="BN99" s="25"/>
+      <c r="BG98" s="25"/>
+      <c r="BH98" s="25"/>
+      <c r="BI98" s="25"/>
+      <c r="BJ98" s="25"/>
+      <c r="BK98" s="25"/>
+      <c r="BL98" s="25"/>
+      <c r="BM98" s="25"/>
+      <c r="BN98" s="25"/>
     </row>
   </sheetData>
-  <autoFilter ref="A18:BF95">
+  <autoFilter ref="A18:BF94">
     <filterColumn colId="4"/>
     <filterColumn colId="5"/>
     <filterColumn colId="9"/>
@@ -7948,7 +7872,7 @@
   <sortState ref="C2:D16">
     <sortCondition ref="C2"/>
   </sortState>
-  <conditionalFormatting sqref="L96:AY96 L91:BN92 L94:BN94 L88:BN89 L84:BN86 L70:BN82 L56:BN68 L40:BN54 L20:BN23 L25:BN32 L34:BN38">
+  <conditionalFormatting sqref="L95:AY95 L90:BN91 L93:BN93 L87:BN88 L83:BN85 L69:BN81 L55:BN67 L40:BN53 L20:BN23 L25:BN32 L34:BN38">
     <cfRule type="cellIs" dxfId="5" priority="151" operator="equal">
       <formula>"-"</formula>
     </cfRule>
@@ -7959,26 +7883,26 @@
       <formula>"B"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L91:BN92 L94:BN94 L88:BN89 L84:BN86 L70:BN82 L56:BN68 L40:BN54 L20:BN23 L25:BN32 L34:BN38">
+  <conditionalFormatting sqref="L90:BN91 L93:BN93 L87:BN88 L83:BN85 L69:BN81 L55:BN67 L40:BN53 L20:BN23 L25:BN32 L34:BN38">
     <cfRule type="cellIs" dxfId="2" priority="150" operator="equal">
       <formula>"BE"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J91 J94 J88 J71:J72 J74:J81 J56:J68 J40:J54 J34:J36 J20:J23 J25:J31">
+  <conditionalFormatting sqref="J90 J93 J87 J70:J71 J73:J80 J55:J67 J40:J53 J34:J36 J20:J23 J25:J31">
     <cfRule type="cellIs" dxfId="1" priority="224" operator="equal">
       <formula>$I$4</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J34:J36 J20:J23 J25:J31 J40:J54 J91 J94 J88 J56:J68 J71:J72 J74:J81">
+  <conditionalFormatting sqref="J34:J36 J20:J23 J25:J31 J40:J53 J90 J93 J87 J55:J67 J70:J71 J73:J80">
     <cfRule type="expression" dxfId="0" priority="231">
       <formula>AND(J20&lt;&gt;$I$4,$I20&lt;TODAY())</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D87:F95 D64:D86 E56:E86 D56:D62 F55:F86 D50:D51 D25:F32 E49:F51 D34:F38 D40:F48">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D86:F94 D63:D85 E55:E85 D55:D61 F54:F85 D49:D50 E48:F50 D40:F47 D34:F38 D25:F32">
       <formula1>$C$2:$C$16</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J91:J94 J74:J81 J71:J72 J86:J89 J56:J67 J20:J23 J25:J31 J34:J36 J40:J51">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J90:J93 J73:J80 J70:J71 J85:J88 J55:J66 J40:J50 J34:J36 J25:J31 J20:J23">
       <formula1>$I$3:$I$13</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D19:E23">

--- a/trunk/Document/VietinBankSC Project Plan v2012.009.20.xlsx
+++ b/trunk/Document/VietinBankSC Project Plan v2012.009.20.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="308" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="303" uniqueCount="145">
   <si>
     <t>GVCM</t>
   </si>
@@ -709,7 +709,41 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="6">
+  <dxfs count="10">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0000CC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0000CC"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -1398,8 +1432,8 @@
   </sheetPr>
   <dimension ref="A1:CT98"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A38" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E46" sqref="E46"/>
+    <sheetView tabSelected="1" topLeftCell="A66" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="D77" sqref="D77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3546,7 +3580,9 @@
       <c r="G37" s="22"/>
       <c r="H37" s="23"/>
       <c r="I37" s="23"/>
-      <c r="J37" s="23"/>
+      <c r="J37" s="23" t="s">
+        <v>40</v>
+      </c>
       <c r="K37" s="22"/>
       <c r="L37" s="1"/>
       <c r="M37" s="1"/>
@@ -6135,9 +6171,7 @@
       <c r="C73" s="29" t="s">
         <v>100</v>
       </c>
-      <c r="D73" s="22" t="s">
-        <v>84</v>
-      </c>
+      <c r="D73" s="22"/>
       <c r="E73" s="22"/>
       <c r="F73" s="22"/>
       <c r="G73" s="22"/>
@@ -6208,9 +6242,7 @@
       <c r="C74" s="29" t="s">
         <v>101</v>
       </c>
-      <c r="D74" s="22" t="s">
-        <v>82</v>
-      </c>
+      <c r="D74" s="22"/>
       <c r="E74" s="22"/>
       <c r="F74" s="22"/>
       <c r="G74" s="22"/>
@@ -6427,9 +6459,7 @@
       <c r="C77" s="38" t="s">
         <v>104</v>
       </c>
-      <c r="D77" s="22" t="s">
-        <v>84</v>
-      </c>
+      <c r="D77" s="22"/>
       <c r="E77" s="22"/>
       <c r="F77" s="22"/>
       <c r="G77" s="22"/>
@@ -6500,9 +6530,7 @@
       <c r="C78" s="38" t="s">
         <v>105</v>
       </c>
-      <c r="D78" s="22" t="s">
-        <v>82</v>
-      </c>
+      <c r="D78" s="22"/>
       <c r="E78" s="22"/>
       <c r="F78" s="22"/>
       <c r="G78" s="22"/>
@@ -6573,9 +6601,7 @@
       <c r="C79" s="38" t="s">
         <v>111</v>
       </c>
-      <c r="D79" s="22" t="s">
-        <v>81</v>
-      </c>
+      <c r="D79" s="22"/>
       <c r="E79" s="22"/>
       <c r="F79" s="22"/>
       <c r="G79" s="22"/>
@@ -6646,9 +6672,7 @@
       <c r="C80" s="38" t="s">
         <v>106</v>
       </c>
-      <c r="D80" s="22" t="s">
-        <v>81</v>
-      </c>
+      <c r="D80" s="22"/>
       <c r="E80" s="22"/>
       <c r="F80" s="22"/>
       <c r="G80" s="22"/>
@@ -7873,36 +7897,46 @@
     <sortCondition ref="C2"/>
   </sortState>
   <conditionalFormatting sqref="L95:AY95 L90:BN91 L93:BN93 L87:BN88 L83:BN85 L69:BN81 L55:BN67 L40:BN53 L20:BN23 L25:BN32 L34:BN38">
-    <cfRule type="cellIs" dxfId="5" priority="151" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="153" operator="equal">
       <formula>"-"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="152" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="154" operator="equal">
       <formula>"E"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="153" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="155" operator="equal">
       <formula>"B"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L90:BN91 L93:BN93 L87:BN88 L83:BN85 L69:BN81 L55:BN67 L40:BN53 L20:BN23 L25:BN32 L34:BN38">
-    <cfRule type="cellIs" dxfId="2" priority="150" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="152" operator="equal">
       <formula>"BE"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J90 J93 J87 J70:J71 J73:J80 J55:J67 J40:J53 J34:J36 J20:J23 J25:J31">
-    <cfRule type="cellIs" dxfId="1" priority="224" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="226" operator="equal">
       <formula>$I$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J34:J36 J20:J23 J25:J31 J40:J53 J90 J93 J87 J55:J67 J70:J71 J73:J80">
-    <cfRule type="expression" dxfId="0" priority="231">
+    <cfRule type="expression" dxfId="4" priority="233">
       <formula>AND(J20&lt;&gt;$I$4,$I20&lt;TODAY())</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J37">
+    <cfRule type="cellIs" dxfId="3" priority="2" operator="equal">
+      <formula>$I$4</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J37">
+    <cfRule type="expression" dxfId="1" priority="1">
+      <formula>AND(J37&lt;&gt;$I$4,$I37&lt;TODAY())</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="4">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D86:F94 D63:D85 E55:E85 D55:D61 F54:F85 D49:D50 E48:F50 D40:F47 D34:F38 D25:F32">
       <formula1>$C$2:$C$16</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J90:J93 J73:J80 J70:J71 J85:J88 J55:J66 J40:J50 J34:J36 J25:J31 J20:J23">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J90:J93 J73:J80 J70:J71 J85:J88 J55:J66 J40:J50 J34:J37 J25:J31 J20:J23">
       <formula1>$I$3:$I$13</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D19:E23">

--- a/trunk/Document/VietinBankSC Project Plan v2012.009.20.xlsx
+++ b/trunk/Document/VietinBankSC Project Plan v2012.009.20.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="303" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="309" uniqueCount="145">
   <si>
     <t>GVCM</t>
   </si>
@@ -1433,7 +1433,7 @@
   <dimension ref="A1:CT98"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A66" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D77" sqref="D77"/>
+      <selection activeCell="D73" sqref="D73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -6030,7 +6030,7 @@
         <v>99</v>
       </c>
       <c r="D71" s="22" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="E71" s="22"/>
       <c r="F71" s="22"/>
@@ -6171,7 +6171,9 @@
       <c r="C73" s="29" t="s">
         <v>100</v>
       </c>
-      <c r="D73" s="22"/>
+      <c r="D73" s="22" t="s">
+        <v>59</v>
+      </c>
       <c r="E73" s="22"/>
       <c r="F73" s="22"/>
       <c r="G73" s="22"/>
@@ -6242,7 +6244,9 @@
       <c r="C74" s="29" t="s">
         <v>101</v>
       </c>
-      <c r="D74" s="22"/>
+      <c r="D74" s="22" t="s">
+        <v>59</v>
+      </c>
       <c r="E74" s="22"/>
       <c r="F74" s="22"/>
       <c r="G74" s="22"/>
@@ -6459,7 +6463,9 @@
       <c r="C77" s="38" t="s">
         <v>104</v>
       </c>
-      <c r="D77" s="22"/>
+      <c r="D77" s="22" t="s">
+        <v>57</v>
+      </c>
       <c r="E77" s="22"/>
       <c r="F77" s="22"/>
       <c r="G77" s="22"/>
@@ -6530,7 +6536,9 @@
       <c r="C78" s="38" t="s">
         <v>105</v>
       </c>
-      <c r="D78" s="22"/>
+      <c r="D78" s="22" t="s">
+        <v>57</v>
+      </c>
       <c r="E78" s="22"/>
       <c r="F78" s="22"/>
       <c r="G78" s="22"/>
@@ -6601,7 +6609,9 @@
       <c r="C79" s="38" t="s">
         <v>111</v>
       </c>
-      <c r="D79" s="22"/>
+      <c r="D79" s="22" t="s">
+        <v>57</v>
+      </c>
       <c r="E79" s="22"/>
       <c r="F79" s="22"/>
       <c r="G79" s="22"/>
@@ -6672,7 +6682,9 @@
       <c r="C80" s="38" t="s">
         <v>106</v>
       </c>
-      <c r="D80" s="22"/>
+      <c r="D80" s="22" t="s">
+        <v>57</v>
+      </c>
       <c r="E80" s="22"/>
       <c r="F80" s="22"/>
       <c r="G80" s="22"/>
@@ -7933,7 +7945,7 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D86:F94 D63:D85 E55:E85 D55:D61 F54:F85 D49:D50 E48:F50 D40:F47 D34:F38 D25:F32">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D86:F94 D25:F32 E55:E85 D55:D61 F54:F85 D49:D50 E48:F50 D40:F47 D34:F38 D63:D85">
       <formula1>$C$2:$C$16</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J90:J93 J73:J80 J70:J71 J85:J88 J55:J66 J40:J50 J34:J37 J25:J31 J20:J23">

--- a/trunk/Document/VietinBankSC Project Plan v2012.009.20.xlsx
+++ b/trunk/Document/VietinBankSC Project Plan v2012.009.20.xlsx
@@ -709,28 +709,11 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="10">
+  <dxfs count="8">
     <dxf>
       <fill>
         <patternFill>
           <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF0000CC"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1433,7 +1416,7 @@
   <dimension ref="A1:CT98"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A66" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D73" sqref="D73"/>
+      <selection activeCell="D70" sqref="D70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -7909,38 +7892,38 @@
     <sortCondition ref="C2"/>
   </sortState>
   <conditionalFormatting sqref="L95:AY95 L90:BN91 L93:BN93 L87:BN88 L83:BN85 L69:BN81 L55:BN67 L40:BN53 L20:BN23 L25:BN32 L34:BN38">
-    <cfRule type="cellIs" dxfId="9" priority="153" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="153" operator="equal">
       <formula>"-"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="8" priority="154" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="154" operator="equal">
       <formula>"E"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="155" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="155" operator="equal">
       <formula>"B"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L90:BN91 L93:BN93 L87:BN88 L83:BN85 L69:BN81 L55:BN67 L40:BN53 L20:BN23 L25:BN32 L34:BN38">
-    <cfRule type="cellIs" dxfId="6" priority="152" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="152" operator="equal">
       <formula>"BE"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J90 J93 J87 J70:J71 J73:J80 J55:J67 J40:J53 J34:J36 J20:J23 J25:J31">
-    <cfRule type="cellIs" dxfId="5" priority="226" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="226" operator="equal">
       <formula>$I$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J34:J36 J20:J23 J25:J31 J40:J53 J90 J93 J87 J55:J67 J70:J71 J73:J80">
-    <cfRule type="expression" dxfId="4" priority="233">
+    <cfRule type="expression" dxfId="2" priority="233">
       <formula>AND(J20&lt;&gt;$I$4,$I20&lt;TODAY())</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J37">
-    <cfRule type="cellIs" dxfId="3" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
       <formula>$I$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J37">
-    <cfRule type="expression" dxfId="1" priority="1">
+    <cfRule type="expression" dxfId="0" priority="1">
       <formula>AND(J37&lt;&gt;$I$4,$I37&lt;TODAY())</formula>
     </cfRule>
   </conditionalFormatting>

--- a/trunk/Document/VietinBankSC Project Plan v2012.009.20.xlsx
+++ b/trunk/Document/VietinBankSC Project Plan v2012.009.20.xlsx
@@ -1415,8 +1415,8 @@
   </sheetPr>
   <dimension ref="A1:CT98"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A66" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D70" sqref="D70"/>
+    <sheetView tabSelected="1" topLeftCell="A53" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="G59" sqref="G59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4857,7 +4857,7 @@
         <v>60</v>
       </c>
       <c r="E55" s="22" t="s">
-        <v>58</v>
+        <v>81</v>
       </c>
       <c r="F55" s="22"/>
       <c r="G55" s="22"/>
@@ -4930,7 +4930,7 @@
         <v>60</v>
       </c>
       <c r="E56" s="22" t="s">
-        <v>58</v>
+        <v>81</v>
       </c>
       <c r="F56" s="22"/>
       <c r="G56" s="22"/>
@@ -7928,7 +7928,7 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D86:F94 D25:F32 E55:E85 D55:D61 F54:F85 D49:D50 E48:F50 D40:F47 D34:F38 D63:D85">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D86:F94 D25:F32 D63:D85 D55:D61 F54:F85 D49:D50 E48:F50 D40:F47 D34:F38 E55:E85">
       <formula1>$C$2:$C$16</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J90:J93 J73:J80 J70:J71 J85:J88 J55:J66 J40:J50 J34:J37 J25:J31 J20:J23">

--- a/trunk/Document/VietinBankSC Project Plan v2012.009.20.xlsx
+++ b/trunk/Document/VietinBankSC Project Plan v2012.009.20.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="165" windowWidth="14805" windowHeight="6840" firstSheet="2" activeTab="2"/>
@@ -19,12 +19,12 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Plan!$A$18:$BF$94</definedName>
     <definedName name="members">'[1]Thành viên - Vị trí'!$C$3:$C$13</definedName>
   </definedNames>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="309" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="310" uniqueCount="145">
   <si>
     <t>GVCM</t>
   </si>
@@ -476,12 +476,12 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="dd\-mm"/>
     <numFmt numFmtId="165" formatCode="ddd"/>
   </numFmts>
-  <fonts count="9">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -797,7 +797,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Yêu cầu"/>
@@ -943,6 +943,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -977,6 +978,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1152,60 +1154,60 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="16384" width="9.140625" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" s="8" customFormat="1" ht="14.25">
+    <row r="1" spans="1:1" s="8" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A1" s="8" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="3" spans="1:1" s="9" customFormat="1" ht="14.25">
+    <row r="3" spans="1:1" s="9" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A3" s="9" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="6" spans="1:1" s="8" customFormat="1" ht="14.25">
+    <row r="6" spans="1:1" s="8" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A6" s="8" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="10" spans="1:1">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="11" spans="1:1">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="12" spans="1:1">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="13" spans="1:1">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" s="6" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="15" spans="1:1">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15" s="7"/>
     </row>
-    <row r="16" spans="1:1">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A16" s="7"/>
     </row>
-    <row r="17" spans="1:1">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" s="7"/>
     </row>
   </sheetData>
@@ -1215,14 +1217,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:J21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.140625" style="5"/>
     <col min="2" max="2" width="20.42578125" bestFit="1" customWidth="1"/>
@@ -1230,7 +1232,7 @@
     <col min="4" max="5" width="10.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:10" s="12" customFormat="1">
+    <row r="2" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="10"/>
       <c r="B2" s="11"/>
       <c r="C2" s="11"/>
@@ -1256,7 +1258,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="39" t="s">
         <v>22</v>
       </c>
@@ -1273,7 +1275,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="39"/>
       <c r="B4" s="1" t="s">
         <v>1</v>
@@ -1288,7 +1290,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:10">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="39" t="s">
         <v>21</v>
       </c>
@@ -1303,7 +1305,7 @@
       </c>
       <c r="E5" s="2"/>
     </row>
-    <row r="6" spans="1:10">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="39"/>
       <c r="B6" s="1" t="s">
         <v>3</v>
@@ -1316,7 +1318,7 @@
       </c>
       <c r="E6" s="2"/>
     </row>
-    <row r="7" spans="1:10">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="39"/>
       <c r="B7" s="1" t="s">
         <v>4</v>
@@ -1329,7 +1331,7 @@
       </c>
       <c r="E7" s="2"/>
     </row>
-    <row r="8" spans="1:10">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B8" s="1" t="s">
         <v>5</v>
       </c>
@@ -1341,7 +1343,7 @@
       </c>
       <c r="E8" s="2"/>
     </row>
-    <row r="9" spans="1:10">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B9" s="1" t="s">
         <v>6</v>
       </c>
@@ -1349,52 +1351,52 @@
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
     </row>
-    <row r="12" spans="1:10">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="13" spans="1:10">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B13" s="4" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="14" spans="1:10">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B14" s="4" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="15" spans="1:10">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B15" s="4" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="16" spans="1:10">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="17" spans="2:2">
+    <row r="17" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B17" s="4" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="18" spans="2:2">
+    <row r="18" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B18" s="4" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="19" spans="2:2">
+    <row r="19" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B19" s="4" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="20" spans="2:2">
+    <row r="20" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B20" s="4" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="21" spans="2:2">
+    <row r="21" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B21" s="4" t="s">
         <v>28</v>
       </c>
@@ -1409,17 +1411,17 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:CT98"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A53" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="G59" sqref="G59"/>
+    <sheetView tabSelected="1" topLeftCell="F41" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="J44" sqref="J44"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="4" customWidth="1"/>
     <col min="2" max="2" width="4.42578125" customWidth="1"/>
@@ -1434,7 +1436,7 @@
     <col min="51" max="66" width="5.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:66">
+    <row r="1" spans="2:66" x14ac:dyDescent="0.25">
       <c r="C1" s="26" t="s">
         <v>36</v>
       </c>
@@ -1463,7 +1465,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="2" spans="2:66">
+    <row r="2" spans="2:66" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>10</v>
       </c>
@@ -1482,7 +1484,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="3" spans="2:66">
+    <row r="3" spans="2:66" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>10</v>
       </c>
@@ -1504,7 +1506,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="4" spans="2:66">
+    <row r="4" spans="2:66" x14ac:dyDescent="0.25">
       <c r="C4" s="27" t="s">
         <v>60</v>
       </c>
@@ -1524,7 +1526,7 @@
       </c>
       <c r="K4" s="15"/>
     </row>
-    <row r="5" spans="2:66">
+    <row r="5" spans="2:66" x14ac:dyDescent="0.25">
       <c r="C5" s="27" t="s">
         <v>82</v>
       </c>
@@ -1542,7 +1544,7 @@
       </c>
       <c r="K5" s="15"/>
     </row>
-    <row r="6" spans="2:66">
+    <row r="6" spans="2:66" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>10</v>
       </c>
@@ -1556,7 +1558,7 @@
       <c r="H6" s="33"/>
       <c r="K6" s="15"/>
     </row>
-    <row r="7" spans="2:66">
+    <row r="7" spans="2:66" x14ac:dyDescent="0.25">
       <c r="C7" s="27" t="s">
         <v>71</v>
       </c>
@@ -1575,7 +1577,7 @@
       </c>
       <c r="K7" s="15"/>
     </row>
-    <row r="8" spans="2:66">
+    <row r="8" spans="2:66" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>10</v>
       </c>
@@ -1589,7 +1591,7 @@
       <c r="H8" s="33"/>
       <c r="K8" s="15"/>
     </row>
-    <row r="9" spans="2:66">
+    <row r="9" spans="2:66" x14ac:dyDescent="0.25">
       <c r="C9" s="27" t="s">
         <v>58</v>
       </c>
@@ -1609,7 +1611,7 @@
       </c>
       <c r="K9" s="15"/>
     </row>
-    <row r="10" spans="2:66">
+    <row r="10" spans="2:66" x14ac:dyDescent="0.25">
       <c r="C10" s="27" t="s">
         <v>61</v>
       </c>
@@ -1626,7 +1628,7 @@
       </c>
       <c r="K10" s="15"/>
     </row>
-    <row r="11" spans="2:66">
+    <row r="11" spans="2:66" x14ac:dyDescent="0.25">
       <c r="C11" s="27" t="s">
         <v>84</v>
       </c>
@@ -1643,7 +1645,7 @@
       <c r="H11" s="33"/>
       <c r="K11" s="15"/>
     </row>
-    <row r="12" spans="2:66">
+    <row r="12" spans="2:66" x14ac:dyDescent="0.25">
       <c r="C12" s="27" t="s">
         <v>59</v>
       </c>
@@ -1665,7 +1667,7 @@
       </c>
       <c r="K12" s="15"/>
     </row>
-    <row r="13" spans="2:66">
+    <row r="13" spans="2:66" x14ac:dyDescent="0.25">
       <c r="C13" s="27" t="s">
         <v>74</v>
       </c>
@@ -1684,7 +1686,7 @@
       </c>
       <c r="K13" s="15"/>
     </row>
-    <row r="14" spans="2:66" ht="17.25" customHeight="1">
+    <row r="14" spans="2:66" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C14" s="27" t="s">
         <v>57</v>
       </c>
@@ -1704,7 +1706,7 @@
       </c>
       <c r="K14" s="15"/>
     </row>
-    <row r="15" spans="2:66" s="33" customFormat="1">
+    <row r="15" spans="2:66" s="33" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C15" s="27" t="s">
         <v>67</v>
       </c>
@@ -1930,7 +1932,7 @@
         <v>41187</v>
       </c>
     </row>
-    <row r="16" spans="2:66">
+    <row r="16" spans="2:66" x14ac:dyDescent="0.25">
       <c r="C16" s="27" t="s">
         <v>81</v>
       </c>
@@ -1948,7 +1950,7 @@
       </c>
       <c r="K16" s="15"/>
     </row>
-    <row r="18" spans="2:98" s="18" customFormat="1" ht="30">
+    <row r="18" spans="2:98" s="18" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="B18" s="19" t="s">
         <v>41</v>
       </c>
@@ -2196,7 +2198,7 @@
       </c>
       <c r="BO18" s="19"/>
     </row>
-    <row r="19" spans="2:98" s="20" customFormat="1">
+    <row r="19" spans="2:98" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B19" s="21"/>
       <c r="C19" s="30" t="s">
         <v>86</v>
@@ -2297,7 +2299,7 @@
       <c r="CS19" s="21"/>
       <c r="CT19" s="21"/>
     </row>
-    <row r="20" spans="2:98">
+    <row r="20" spans="2:98" x14ac:dyDescent="0.25">
       <c r="B20" s="22"/>
       <c r="C20" s="29" t="s">
         <v>87</v>
@@ -2372,7 +2374,7 @@
       <c r="BM20" s="1"/>
       <c r="BN20" s="1"/>
     </row>
-    <row r="21" spans="2:98">
+    <row r="21" spans="2:98" x14ac:dyDescent="0.25">
       <c r="B21" s="22"/>
       <c r="C21" s="29" t="s">
         <v>88</v>
@@ -2449,7 +2451,7 @@
       <c r="BM21" s="1"/>
       <c r="BN21" s="1"/>
     </row>
-    <row r="22" spans="2:98">
+    <row r="22" spans="2:98" x14ac:dyDescent="0.25">
       <c r="B22" s="22"/>
       <c r="C22" s="29" t="s">
         <v>89</v>
@@ -2526,7 +2528,7 @@
       <c r="BM22" s="1"/>
       <c r="BN22" s="1"/>
     </row>
-    <row r="23" spans="2:98">
+    <row r="23" spans="2:98" x14ac:dyDescent="0.25">
       <c r="B23" s="22"/>
       <c r="C23" s="29" t="s">
         <v>90</v>
@@ -2603,7 +2605,7 @@
       <c r="BM23" s="1"/>
       <c r="BN23" s="1"/>
     </row>
-    <row r="24" spans="2:98" s="20" customFormat="1">
+    <row r="24" spans="2:98" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B24" s="21"/>
       <c r="C24" s="30" t="s">
         <v>65</v>
@@ -2672,7 +2674,7 @@
       <c r="BM24" s="21"/>
       <c r="BN24" s="21"/>
     </row>
-    <row r="25" spans="2:98">
+    <row r="25" spans="2:98" x14ac:dyDescent="0.25">
       <c r="B25" s="22"/>
       <c r="C25" s="29" t="s">
         <v>66</v>
@@ -2745,7 +2747,7 @@
       <c r="BM25" s="1"/>
       <c r="BN25" s="1"/>
     </row>
-    <row r="26" spans="2:98">
+    <row r="26" spans="2:98" x14ac:dyDescent="0.25">
       <c r="B26" s="22"/>
       <c r="C26" s="29" t="s">
         <v>68</v>
@@ -2820,7 +2822,7 @@
       <c r="BM26" s="1"/>
       <c r="BN26" s="1"/>
     </row>
-    <row r="27" spans="2:98">
+    <row r="27" spans="2:98" x14ac:dyDescent="0.25">
       <c r="B27" s="22"/>
       <c r="C27" s="29" t="s">
         <v>69</v>
@@ -2895,7 +2897,7 @@
       <c r="BM27" s="1"/>
       <c r="BN27" s="1"/>
     </row>
-    <row r="28" spans="2:98">
+    <row r="28" spans="2:98" x14ac:dyDescent="0.25">
       <c r="B28" s="22"/>
       <c r="C28" s="29" t="s">
         <v>72</v>
@@ -2972,7 +2974,7 @@
       <c r="BM28" s="1"/>
       <c r="BN28" s="1"/>
     </row>
-    <row r="29" spans="2:98">
+    <row r="29" spans="2:98" x14ac:dyDescent="0.25">
       <c r="B29" s="22"/>
       <c r="C29" s="29" t="s">
         <v>96</v>
@@ -3045,7 +3047,7 @@
       <c r="BM29" s="1"/>
       <c r="BN29" s="1"/>
     </row>
-    <row r="30" spans="2:98">
+    <row r="30" spans="2:98" x14ac:dyDescent="0.25">
       <c r="B30" s="22"/>
       <c r="C30" s="29" t="s">
         <v>97</v>
@@ -3118,7 +3120,7 @@
       <c r="BM30" s="1"/>
       <c r="BN30" s="1"/>
     </row>
-    <row r="31" spans="2:98">
+    <row r="31" spans="2:98" x14ac:dyDescent="0.25">
       <c r="B31" s="22"/>
       <c r="C31" s="29" t="s">
         <v>73</v>
@@ -3193,7 +3195,7 @@
       <c r="BM31" s="1"/>
       <c r="BN31" s="1"/>
     </row>
-    <row r="32" spans="2:98">
+    <row r="32" spans="2:98" x14ac:dyDescent="0.25">
       <c r="B32" s="22"/>
       <c r="C32" s="29"/>
       <c r="D32" s="29"/>
@@ -3260,7 +3262,7 @@
       <c r="BM32" s="1"/>
       <c r="BN32" s="1"/>
     </row>
-    <row r="33" spans="1:66" s="20" customFormat="1">
+    <row r="33" spans="1:66" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B33" s="21"/>
       <c r="C33" s="30" t="s">
         <v>49</v>
@@ -3329,7 +3331,7 @@
       <c r="BM33" s="21"/>
       <c r="BN33" s="21"/>
     </row>
-    <row r="34" spans="1:66">
+    <row r="34" spans="1:66" x14ac:dyDescent="0.25">
       <c r="B34" s="22"/>
       <c r="C34" s="29" t="s">
         <v>56</v>
@@ -3404,7 +3406,7 @@
       <c r="BM34" s="1"/>
       <c r="BN34" s="1"/>
     </row>
-    <row r="35" spans="1:66">
+    <row r="35" spans="1:66" x14ac:dyDescent="0.25">
       <c r="B35" s="22"/>
       <c r="C35" s="29" t="s">
         <v>50</v>
@@ -3477,7 +3479,7 @@
       <c r="BM35" s="1"/>
       <c r="BN35" s="1"/>
     </row>
-    <row r="36" spans="1:66">
+    <row r="36" spans="1:66" x14ac:dyDescent="0.25">
       <c r="B36" s="22"/>
       <c r="C36" s="29" t="s">
         <v>51</v>
@@ -3550,7 +3552,7 @@
       <c r="BM36" s="1"/>
       <c r="BN36" s="1"/>
     </row>
-    <row r="37" spans="1:66">
+    <row r="37" spans="1:66" x14ac:dyDescent="0.25">
       <c r="B37" s="22"/>
       <c r="C37" s="29" t="s">
         <v>98</v>
@@ -3623,7 +3625,7 @@
       <c r="BM37" s="1"/>
       <c r="BN37" s="1"/>
     </row>
-    <row r="38" spans="1:66">
+    <row r="38" spans="1:66" x14ac:dyDescent="0.25">
       <c r="B38" s="22"/>
       <c r="C38" s="29"/>
       <c r="D38" s="22"/>
@@ -3690,7 +3692,7 @@
       <c r="BM38" s="1"/>
       <c r="BN38" s="1"/>
     </row>
-    <row r="39" spans="1:66" s="20" customFormat="1">
+    <row r="39" spans="1:66" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B39" s="21"/>
       <c r="C39" s="30" t="s">
         <v>144</v>
@@ -3765,7 +3767,7 @@
       <c r="BM39" s="21"/>
       <c r="BN39" s="21"/>
     </row>
-    <row r="40" spans="1:66">
+    <row r="40" spans="1:66" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>10</v>
       </c>
@@ -3839,7 +3841,7 @@
       <c r="BM40" s="1"/>
       <c r="BN40" s="1"/>
     </row>
-    <row r="41" spans="1:66">
+    <row r="41" spans="1:66" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>10</v>
       </c>
@@ -3913,7 +3915,7 @@
       <c r="BM41" s="1"/>
       <c r="BN41" s="1"/>
     </row>
-    <row r="42" spans="1:66">
+    <row r="42" spans="1:66" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>10</v>
       </c>
@@ -3987,7 +3989,7 @@
       <c r="BM42" s="1"/>
       <c r="BN42" s="1"/>
     </row>
-    <row r="43" spans="1:66">
+    <row r="43" spans="1:66" x14ac:dyDescent="0.25">
       <c r="B43" s="22"/>
       <c r="C43" s="29" t="s">
         <v>95</v>
@@ -4060,7 +4062,7 @@
       <c r="BM43" s="1"/>
       <c r="BN43" s="1"/>
     </row>
-    <row r="44" spans="1:66">
+    <row r="44" spans="1:66" x14ac:dyDescent="0.25">
       <c r="B44" s="22"/>
       <c r="C44" s="29" t="s">
         <v>143</v>
@@ -4075,7 +4077,9 @@
       <c r="G44" s="22"/>
       <c r="H44" s="23"/>
       <c r="I44" s="23"/>
-      <c r="J44" s="23"/>
+      <c r="J44" s="23" t="s">
+        <v>40</v>
+      </c>
       <c r="K44" s="22"/>
       <c r="L44" s="1"/>
       <c r="M44" s="1"/>
@@ -4133,7 +4137,7 @@
       <c r="BM44" s="1"/>
       <c r="BN44" s="1"/>
     </row>
-    <row r="45" spans="1:66">
+    <row r="45" spans="1:66" x14ac:dyDescent="0.25">
       <c r="B45" s="22"/>
       <c r="C45" s="29" t="s">
         <v>121</v>
@@ -4206,7 +4210,7 @@
       <c r="BM45" s="1"/>
       <c r="BN45" s="1"/>
     </row>
-    <row r="46" spans="1:66">
+    <row r="46" spans="1:66" x14ac:dyDescent="0.25">
       <c r="B46" s="22"/>
       <c r="C46" s="29" t="s">
         <v>93</v>
@@ -4279,7 +4283,7 @@
       <c r="BM46" s="1"/>
       <c r="BN46" s="1"/>
     </row>
-    <row r="47" spans="1:66">
+    <row r="47" spans="1:66" x14ac:dyDescent="0.25">
       <c r="B47" s="22"/>
       <c r="C47" s="29" t="s">
         <v>94</v>
@@ -4352,7 +4356,7 @@
       <c r="BM47" s="1"/>
       <c r="BN47" s="1"/>
     </row>
-    <row r="48" spans="1:66">
+    <row r="48" spans="1:66" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>10</v>
       </c>
@@ -4426,7 +4430,7 @@
       <c r="BM48" s="1"/>
       <c r="BN48" s="1"/>
     </row>
-    <row r="49" spans="1:66">
+    <row r="49" spans="1:66" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>10</v>
       </c>
@@ -4500,7 +4504,7 @@
       <c r="BM49" s="1"/>
       <c r="BN49" s="1"/>
     </row>
-    <row r="50" spans="1:66">
+    <row r="50" spans="1:66" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>10</v>
       </c>
@@ -4574,7 +4578,7 @@
       <c r="BM50" s="1"/>
       <c r="BN50" s="1"/>
     </row>
-    <row r="51" spans="1:66">
+    <row r="51" spans="1:66" x14ac:dyDescent="0.25">
       <c r="B51" s="22"/>
       <c r="C51" s="29"/>
       <c r="D51" s="22"/>
@@ -4641,7 +4645,7 @@
       <c r="BM51" s="1"/>
       <c r="BN51" s="1"/>
     </row>
-    <row r="52" spans="1:66">
+    <row r="52" spans="1:66" x14ac:dyDescent="0.25">
       <c r="B52" s="22"/>
       <c r="C52" s="29"/>
       <c r="D52" s="22"/>
@@ -4708,7 +4712,7 @@
       <c r="BM52" s="1"/>
       <c r="BN52" s="1"/>
     </row>
-    <row r="53" spans="1:66">
+    <row r="53" spans="1:66" x14ac:dyDescent="0.25">
       <c r="B53" s="22"/>
       <c r="C53" s="29"/>
       <c r="D53" s="22"/>
@@ -4775,7 +4779,7 @@
       <c r="BM53" s="1"/>
       <c r="BN53" s="1"/>
     </row>
-    <row r="54" spans="1:66" s="20" customFormat="1">
+    <row r="54" spans="1:66" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B54" s="21"/>
       <c r="C54" s="30" t="s">
         <v>129</v>
@@ -4848,7 +4852,7 @@
       <c r="BM54" s="21"/>
       <c r="BN54" s="21"/>
     </row>
-    <row r="55" spans="1:66">
+    <row r="55" spans="1:66" x14ac:dyDescent="0.25">
       <c r="B55" s="22"/>
       <c r="C55" s="29" t="s">
         <v>125</v>
@@ -4921,7 +4925,7 @@
       <c r="BM55" s="1"/>
       <c r="BN55" s="1"/>
     </row>
-    <row r="56" spans="1:66">
+    <row r="56" spans="1:66" x14ac:dyDescent="0.25">
       <c r="B56" s="22"/>
       <c r="C56" s="29" t="s">
         <v>126</v>
@@ -4994,7 +4998,7 @@
       <c r="BM56" s="1"/>
       <c r="BN56" s="1"/>
     </row>
-    <row r="57" spans="1:66">
+    <row r="57" spans="1:66" x14ac:dyDescent="0.25">
       <c r="B57" s="22"/>
       <c r="C57" s="29" t="s">
         <v>127</v>
@@ -5067,7 +5071,7 @@
       <c r="BM57" s="1"/>
       <c r="BN57" s="1"/>
     </row>
-    <row r="58" spans="1:66">
+    <row r="58" spans="1:66" x14ac:dyDescent="0.25">
       <c r="B58" s="22"/>
       <c r="C58" s="29" t="s">
         <v>128</v>
@@ -5140,7 +5144,7 @@
       <c r="BM58" s="1"/>
       <c r="BN58" s="1"/>
     </row>
-    <row r="59" spans="1:66">
+    <row r="59" spans="1:66" x14ac:dyDescent="0.25">
       <c r="B59" s="22"/>
       <c r="C59" s="29" t="s">
         <v>122</v>
@@ -5215,7 +5219,7 @@
       <c r="BM59" s="1"/>
       <c r="BN59" s="1"/>
     </row>
-    <row r="60" spans="1:66">
+    <row r="60" spans="1:66" x14ac:dyDescent="0.25">
       <c r="B60" s="22"/>
       <c r="C60" s="29" t="s">
         <v>123</v>
@@ -5290,7 +5294,7 @@
       <c r="BM60" s="1"/>
       <c r="BN60" s="1"/>
     </row>
-    <row r="61" spans="1:66">
+    <row r="61" spans="1:66" x14ac:dyDescent="0.25">
       <c r="B61" s="22"/>
       <c r="C61" s="29" t="s">
         <v>76</v>
@@ -5363,7 +5367,7 @@
       <c r="BM61" s="1"/>
       <c r="BN61" s="1"/>
     </row>
-    <row r="62" spans="1:66">
+    <row r="62" spans="1:66" x14ac:dyDescent="0.25">
       <c r="B62" s="22"/>
       <c r="C62" s="29" t="s">
         <v>77</v>
@@ -5436,7 +5440,7 @@
       <c r="BM62" s="1"/>
       <c r="BN62" s="1"/>
     </row>
-    <row r="63" spans="1:66">
+    <row r="63" spans="1:66" x14ac:dyDescent="0.25">
       <c r="B63" s="22"/>
       <c r="C63" s="29" t="s">
         <v>78</v>
@@ -5509,7 +5513,7 @@
       <c r="BM63" s="1"/>
       <c r="BN63" s="1"/>
     </row>
-    <row r="64" spans="1:66">
+    <row r="64" spans="1:66" x14ac:dyDescent="0.25">
       <c r="B64" s="22"/>
       <c r="C64" s="29" t="s">
         <v>130</v>
@@ -5584,7 +5588,7 @@
       <c r="BM64" s="1"/>
       <c r="BN64" s="1"/>
     </row>
-    <row r="65" spans="1:66">
+    <row r="65" spans="1:66" x14ac:dyDescent="0.25">
       <c r="B65" s="22"/>
       <c r="C65" s="29" t="s">
         <v>124</v>
@@ -5659,7 +5663,7 @@
       <c r="BM65" s="1"/>
       <c r="BN65" s="1"/>
     </row>
-    <row r="66" spans="1:66">
+    <row r="66" spans="1:66" x14ac:dyDescent="0.25">
       <c r="B66" s="22"/>
       <c r="C66" s="29"/>
       <c r="D66" s="22"/>
@@ -5726,7 +5730,7 @@
       <c r="BM66" s="1"/>
       <c r="BN66" s="1"/>
     </row>
-    <row r="67" spans="1:66">
+    <row r="67" spans="1:66" x14ac:dyDescent="0.25">
       <c r="B67" s="22"/>
       <c r="C67" s="29"/>
       <c r="D67" s="22"/>
@@ -5793,7 +5797,7 @@
       <c r="BM67" s="1"/>
       <c r="BN67" s="1"/>
     </row>
-    <row r="68" spans="1:66" s="20" customFormat="1">
+    <row r="68" spans="1:66" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A68"/>
       <c r="B68" s="21"/>
       <c r="C68" s="30" t="s">
@@ -5865,7 +5869,7 @@
       <c r="BM68" s="21"/>
       <c r="BN68" s="21"/>
     </row>
-    <row r="69" spans="1:66">
+    <row r="69" spans="1:66" x14ac:dyDescent="0.25">
       <c r="B69" s="22"/>
       <c r="C69" s="38" t="s">
         <v>108</v>
@@ -5934,7 +5938,7 @@
       <c r="BM69" s="1"/>
       <c r="BN69" s="1"/>
     </row>
-    <row r="70" spans="1:66">
+    <row r="70" spans="1:66" x14ac:dyDescent="0.25">
       <c r="B70" s="22"/>
       <c r="C70" s="29" t="s">
         <v>109</v>
@@ -6007,7 +6011,7 @@
       <c r="BM70" s="1"/>
       <c r="BN70" s="1"/>
     </row>
-    <row r="71" spans="1:66">
+    <row r="71" spans="1:66" x14ac:dyDescent="0.25">
       <c r="B71" s="22"/>
       <c r="C71" s="29" t="s">
         <v>99</v>
@@ -6080,7 +6084,7 @@
       <c r="BM71" s="1"/>
       <c r="BN71" s="1"/>
     </row>
-    <row r="72" spans="1:66">
+    <row r="72" spans="1:66" x14ac:dyDescent="0.25">
       <c r="B72" s="22"/>
       <c r="C72" s="38" t="s">
         <v>110</v>
@@ -6149,7 +6153,7 @@
       <c r="BM72" s="1"/>
       <c r="BN72" s="1"/>
     </row>
-    <row r="73" spans="1:66">
+    <row r="73" spans="1:66" x14ac:dyDescent="0.25">
       <c r="B73" s="22"/>
       <c r="C73" s="29" t="s">
         <v>100</v>
@@ -6222,7 +6226,7 @@
       <c r="BM73" s="1"/>
       <c r="BN73" s="1"/>
     </row>
-    <row r="74" spans="1:66">
+    <row r="74" spans="1:66" x14ac:dyDescent="0.25">
       <c r="B74" s="22"/>
       <c r="C74" s="29" t="s">
         <v>101</v>
@@ -6295,7 +6299,7 @@
       <c r="BM74" s="1"/>
       <c r="BN74" s="1"/>
     </row>
-    <row r="75" spans="1:66">
+    <row r="75" spans="1:66" x14ac:dyDescent="0.25">
       <c r="B75" s="22"/>
       <c r="C75" s="29" t="s">
         <v>102</v>
@@ -6368,7 +6372,7 @@
       <c r="BM75" s="1"/>
       <c r="BN75" s="1"/>
     </row>
-    <row r="76" spans="1:66">
+    <row r="76" spans="1:66" x14ac:dyDescent="0.25">
       <c r="B76" s="22"/>
       <c r="C76" s="29" t="s">
         <v>103</v>
@@ -6441,7 +6445,7 @@
       <c r="BM76" s="1"/>
       <c r="BN76" s="1"/>
     </row>
-    <row r="77" spans="1:66">
+    <row r="77" spans="1:66" x14ac:dyDescent="0.25">
       <c r="B77" s="22"/>
       <c r="C77" s="38" t="s">
         <v>104</v>
@@ -6514,7 +6518,7 @@
       <c r="BM77" s="1"/>
       <c r="BN77" s="1"/>
     </row>
-    <row r="78" spans="1:66">
+    <row r="78" spans="1:66" x14ac:dyDescent="0.25">
       <c r="B78" s="22"/>
       <c r="C78" s="38" t="s">
         <v>105</v>
@@ -6587,7 +6591,7 @@
       <c r="BM78" s="1"/>
       <c r="BN78" s="1"/>
     </row>
-    <row r="79" spans="1:66">
+    <row r="79" spans="1:66" x14ac:dyDescent="0.25">
       <c r="B79" s="22"/>
       <c r="C79" s="38" t="s">
         <v>111</v>
@@ -6660,7 +6664,7 @@
       <c r="BM79" s="1"/>
       <c r="BN79" s="1"/>
     </row>
-    <row r="80" spans="1:66">
+    <row r="80" spans="1:66" x14ac:dyDescent="0.25">
       <c r="B80" s="22"/>
       <c r="C80" s="38" t="s">
         <v>106</v>
@@ -6733,7 +6737,7 @@
       <c r="BM80" s="1"/>
       <c r="BN80" s="1"/>
     </row>
-    <row r="81" spans="1:66">
+    <row r="81" spans="1:66" x14ac:dyDescent="0.25">
       <c r="B81" s="22"/>
       <c r="C81" s="29"/>
       <c r="D81" s="22"/>
@@ -6800,7 +6804,7 @@
       <c r="BM81" s="1"/>
       <c r="BN81" s="1"/>
     </row>
-    <row r="82" spans="1:66" s="20" customFormat="1">
+    <row r="82" spans="1:66" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A82"/>
       <c r="B82" s="21"/>
       <c r="C82" s="30" t="s">
@@ -6870,7 +6874,7 @@
       <c r="BM82" s="21"/>
       <c r="BN82" s="21"/>
     </row>
-    <row r="83" spans="1:66">
+    <row r="83" spans="1:66" x14ac:dyDescent="0.25">
       <c r="B83" s="22"/>
       <c r="C83" s="37" t="s">
         <v>113</v>
@@ -6939,7 +6943,7 @@
       <c r="BM83" s="1"/>
       <c r="BN83" s="1"/>
     </row>
-    <row r="84" spans="1:66">
+    <row r="84" spans="1:66" x14ac:dyDescent="0.25">
       <c r="B84" s="22"/>
       <c r="C84" s="37" t="s">
         <v>114</v>
@@ -7008,7 +7012,7 @@
       <c r="BM84" s="1"/>
       <c r="BN84" s="1"/>
     </row>
-    <row r="85" spans="1:66">
+    <row r="85" spans="1:66" x14ac:dyDescent="0.25">
       <c r="B85" s="22"/>
       <c r="C85" s="29"/>
       <c r="D85" s="22"/>
@@ -7075,7 +7079,7 @@
       <c r="BM85" s="1"/>
       <c r="BN85" s="1"/>
     </row>
-    <row r="86" spans="1:66" s="20" customFormat="1">
+    <row r="86" spans="1:66" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>5</v>
       </c>
@@ -7147,7 +7151,7 @@
       <c r="BM86" s="21"/>
       <c r="BN86" s="21"/>
     </row>
-    <row r="87" spans="1:66">
+    <row r="87" spans="1:66" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>6</v>
       </c>
@@ -7227,7 +7231,7 @@
       <c r="BM87" s="1"/>
       <c r="BN87" s="1"/>
     </row>
-    <row r="88" spans="1:66">
+    <row r="88" spans="1:66" x14ac:dyDescent="0.25">
       <c r="B88" s="22"/>
       <c r="C88" s="29"/>
       <c r="D88" s="22"/>
@@ -7294,7 +7298,7 @@
       <c r="BM88" s="1"/>
       <c r="BN88" s="1"/>
     </row>
-    <row r="89" spans="1:66" s="20" customFormat="1">
+    <row r="89" spans="1:66" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>57</v>
       </c>
@@ -7366,7 +7370,7 @@
       <c r="BM89" s="21"/>
       <c r="BN89" s="21"/>
     </row>
-    <row r="90" spans="1:66">
+    <row r="90" spans="1:66" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>58</v>
       </c>
@@ -7446,7 +7450,7 @@
       <c r="BM90" s="1"/>
       <c r="BN90" s="1"/>
     </row>
-    <row r="91" spans="1:66">
+    <row r="91" spans="1:66" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>59</v>
       </c>
@@ -7516,7 +7520,7 @@
       <c r="BM91" s="1"/>
       <c r="BN91" s="1"/>
     </row>
-    <row r="92" spans="1:66" s="28" customFormat="1">
+    <row r="92" spans="1:66" s="28" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>60</v>
       </c>
@@ -7527,7 +7531,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="93" spans="1:66">
+    <row r="93" spans="1:66" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>61</v>
       </c>
@@ -7607,7 +7611,7 @@
       <c r="BM93" s="1"/>
       <c r="BN93" s="1"/>
     </row>
-    <row r="94" spans="1:66" s="20" customFormat="1">
+    <row r="94" spans="1:66" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A94"/>
       <c r="B94" s="21"/>
       <c r="C94" s="28" t="s">
@@ -7677,7 +7681,7 @@
       <c r="BM94" s="21"/>
       <c r="BN94" s="21"/>
     </row>
-    <row r="98" spans="1:66" s="24" customFormat="1">
+    <row r="98" spans="1:66" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A98"/>
       <c r="C98" s="32" t="s">
         <v>53</v>
@@ -7883,11 +7887,7 @@
       <c r="BN98" s="25"/>
     </row>
   </sheetData>
-  <autoFilter ref="A18:BF94">
-    <filterColumn colId="4"/>
-    <filterColumn colId="5"/>
-    <filterColumn colId="9"/>
-  </autoFilter>
+  <autoFilter ref="A18:BF94"/>
   <sortState ref="C2:D16">
     <sortCondition ref="C2"/>
   </sortState>
@@ -7947,14 +7947,14 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/trunk/Document/VietinBankSC Project Plan v2012.009.20.xlsx
+++ b/trunk/Document/VietinBankSC Project Plan v2012.009.20.xlsx
@@ -4078,7 +4078,7 @@
       <c r="H44" s="23"/>
       <c r="I44" s="23"/>
       <c r="J44" s="23" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K44" s="22"/>
       <c r="L44" s="1"/>

--- a/trunk/Document/VietinBankSC Project Plan v2012.009.20.xlsx
+++ b/trunk/Document/VietinBankSC Project Plan v2012.009.20.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="165" windowWidth="14805" windowHeight="6840" firstSheet="2" activeTab="2"/>
@@ -16,15 +16,15 @@
     <externalReference r:id="rId5"/>
   </externalReferences>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Plan!$A$18:$BF$94</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Plan!$A$19:$BF$95</definedName>
     <definedName name="members">'[1]Thành viên - Vị trí'!$C$3:$C$13</definedName>
   </definedNames>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="310" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="324" uniqueCount="146">
   <si>
     <t>GVCM</t>
   </si>
@@ -472,16 +472,19 @@
   <si>
     <t xml:space="preserve">Danh mục </t>
   </si>
+  <si>
+    <t>BinhTV</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="dd\-mm"/>
     <numFmt numFmtId="165" formatCode="ddd"/>
   </numFmts>
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -709,7 +712,24 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="8">
+  <dxfs count="72">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0000CC"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -786,6 +806,533 @@
         </patternFill>
       </fill>
     </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0000CC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0000CC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0000CC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0000CC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0000CC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0000CC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0000CC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0000CC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0000CC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0000CC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0000CC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0000CC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0000CC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0000CC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0000CC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0000CC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0000CC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0000CC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0000CC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0000CC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0000CC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0000CC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0000CC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0000CC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0000CC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0000CC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0000CC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0000CC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0000CC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0000CC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0000CC"/>
+        </patternFill>
+      </fill>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -797,7 +1344,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Yêu cầu"/>
@@ -943,7 +1490,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -978,7 +1524,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1154,60 +1699,60 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:A17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="16384" width="9.140625" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" s="8" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:1" s="8" customFormat="1" ht="14.25">
       <c r="A1" s="8" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="3" spans="1:1" s="9" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:1" s="9" customFormat="1" ht="14.25">
       <c r="A3" s="9" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="6" spans="1:1" s="8" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:1" s="8" customFormat="1" ht="14.25">
       <c r="A6" s="8" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:1">
       <c r="A10" s="6" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:1">
       <c r="A11" s="6" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:1">
       <c r="A12" s="6" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:1">
       <c r="A13" s="6" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:1">
       <c r="A15" s="7"/>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:1">
       <c r="A16" s="7"/>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:1">
       <c r="A17" s="7"/>
     </row>
   </sheetData>
@@ -1217,14 +1762,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A2:J21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="9.140625" style="5"/>
     <col min="2" max="2" width="20.42578125" bestFit="1" customWidth="1"/>
@@ -1232,7 +1777,7 @@
     <col min="4" max="5" width="10.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" s="12" customFormat="1">
       <c r="A2" s="10"/>
       <c r="B2" s="11"/>
       <c r="C2" s="11"/>
@@ -1258,7 +1803,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10">
       <c r="A3" s="39" t="s">
         <v>22</v>
       </c>
@@ -1275,7 +1820,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10">
       <c r="A4" s="39"/>
       <c r="B4" s="1" t="s">
         <v>1</v>
@@ -1290,7 +1835,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10">
       <c r="A5" s="39" t="s">
         <v>21</v>
       </c>
@@ -1305,7 +1850,7 @@
       </c>
       <c r="E5" s="2"/>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10">
       <c r="A6" s="39"/>
       <c r="B6" s="1" t="s">
         <v>3</v>
@@ -1318,7 +1863,7 @@
       </c>
       <c r="E6" s="2"/>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10">
       <c r="A7" s="39"/>
       <c r="B7" s="1" t="s">
         <v>4</v>
@@ -1331,7 +1876,7 @@
       </c>
       <c r="E7" s="2"/>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10">
       <c r="B8" s="1" t="s">
         <v>5</v>
       </c>
@@ -1343,7 +1888,7 @@
       </c>
       <c r="E8" s="2"/>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10">
       <c r="B9" s="1" t="s">
         <v>6</v>
       </c>
@@ -1351,52 +1896,52 @@
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10">
       <c r="B12" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10">
       <c r="B13" s="4" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10">
       <c r="B14" s="4" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10">
       <c r="B15" s="4" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10">
       <c r="B16" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:2">
       <c r="B17" s="4" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:2">
       <c r="B18" s="4" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="19" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:2">
       <c r="B19" s="4" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="20" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:2">
       <c r="B20" s="4" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="21" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:2">
       <c r="B21" s="4" t="s">
         <v>28</v>
       </c>
@@ -1411,17 +1956,17 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:CT98"/>
+  <dimension ref="A1:CT99"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F41" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="J44" sqref="J44"/>
+    <sheetView tabSelected="1" topLeftCell="A79" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="A79" sqref="A79"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="4" customWidth="1"/>
     <col min="2" max="2" width="4.42578125" customWidth="1"/>
@@ -1436,7 +1981,7 @@
     <col min="51" max="66" width="5.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:66" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:66">
       <c r="C1" s="26" t="s">
         <v>36</v>
       </c>
@@ -1465,7 +2010,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="2" spans="2:66" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:66">
       <c r="B2" t="s">
         <v>10</v>
       </c>
@@ -1484,910 +2029,844 @@
         <v>137</v>
       </c>
     </row>
-    <row r="3" spans="2:66" x14ac:dyDescent="0.25">
-      <c r="B3" t="s">
-        <v>10</v>
-      </c>
+    <row r="3" spans="2:66">
       <c r="C3" s="27" t="s">
-        <v>83</v>
-      </c>
-      <c r="D3" s="16"/>
+        <v>145</v>
+      </c>
+      <c r="D3" s="35"/>
       <c r="E3" s="33"/>
       <c r="F3" s="33"/>
       <c r="G3" s="33"/>
       <c r="H3" s="33"/>
-      <c r="I3" s="17" t="s">
+      <c r="K3" s="15"/>
+    </row>
+    <row r="4" spans="2:66">
+      <c r="B4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="27" t="s">
+        <v>83</v>
+      </c>
+      <c r="D4" s="16"/>
+      <c r="E4" s="33"/>
+      <c r="F4" s="33"/>
+      <c r="G4" s="33"/>
+      <c r="H4" s="33"/>
+      <c r="I4" s="17" t="s">
         <v>39</v>
       </c>
-      <c r="J3" s="15" t="s">
+      <c r="J4" s="15" t="s">
         <v>134</v>
       </c>
-      <c r="K3" s="15" t="s">
+      <c r="K4" s="15" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="4" spans="2:66" x14ac:dyDescent="0.25">
-      <c r="C4" s="27" t="s">
+    <row r="5" spans="2:66">
+      <c r="C5" s="27" t="s">
         <v>60</v>
       </c>
-      <c r="D4" s="16"/>
-      <c r="E4" s="33" t="s">
+      <c r="D5" s="16"/>
+      <c r="E5" s="33" t="s">
         <v>133</v>
       </c>
-      <c r="F4" s="33"/>
-      <c r="G4" s="33" t="s">
+      <c r="F5" s="33"/>
+      <c r="G5" s="33" t="s">
         <v>134</v>
       </c>
-      <c r="H4" s="33" t="s">
+      <c r="H5" s="33" t="s">
         <v>136</v>
       </c>
-      <c r="I4" s="17" t="s">
+      <c r="I5" s="17" t="s">
         <v>40</v>
       </c>
-      <c r="K4" s="15"/>
-    </row>
-    <row r="5" spans="2:66" x14ac:dyDescent="0.25">
-      <c r="C5" s="27" t="s">
+      <c r="K5" s="15"/>
+    </row>
+    <row r="6" spans="2:66">
+      <c r="C6" s="27" t="s">
         <v>82</v>
-      </c>
-      <c r="D5" s="16"/>
-      <c r="E5" s="33"/>
-      <c r="F5" s="33" t="s">
-        <v>142</v>
-      </c>
-      <c r="G5" s="15"/>
-      <c r="H5" s="15" t="s">
-        <v>136</v>
-      </c>
-      <c r="I5" s="17" t="s">
-        <v>92</v>
-      </c>
-      <c r="K5" s="15"/>
-    </row>
-    <row r="6" spans="2:66" x14ac:dyDescent="0.25">
-      <c r="B6" t="s">
-        <v>10</v>
-      </c>
-      <c r="C6" s="27" t="s">
-        <v>75</v>
       </c>
       <c r="D6" s="16"/>
       <c r="E6" s="33"/>
-      <c r="F6" s="33"/>
-      <c r="G6" s="33"/>
-      <c r="H6" s="33"/>
+      <c r="F6" s="33" t="s">
+        <v>142</v>
+      </c>
+      <c r="G6" s="15"/>
+      <c r="H6" s="15" t="s">
+        <v>136</v>
+      </c>
+      <c r="I6" s="17" t="s">
+        <v>92</v>
+      </c>
       <c r="K6" s="15"/>
     </row>
-    <row r="7" spans="2:66" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:66">
+      <c r="B7" t="s">
+        <v>10</v>
+      </c>
       <c r="C7" s="27" t="s">
+        <v>75</v>
+      </c>
+      <c r="D7" s="16"/>
+      <c r="E7" s="33"/>
+      <c r="F7" s="33"/>
+      <c r="G7" s="33"/>
+      <c r="H7" s="33"/>
+      <c r="K7" s="15"/>
+    </row>
+    <row r="8" spans="2:66">
+      <c r="C8" s="27" t="s">
         <v>71</v>
       </c>
-      <c r="D7" s="16"/>
-      <c r="E7" s="33" t="s">
+      <c r="D8" s="16"/>
+      <c r="E8" s="33" t="s">
         <v>139</v>
       </c>
-      <c r="F7" s="33" t="s">
+      <c r="F8" s="33" t="s">
         <v>140</v>
       </c>
-      <c r="G7" s="33" t="s">
+      <c r="G8" s="33" t="s">
         <v>140</v>
       </c>
-      <c r="H7" s="33" t="s">
+      <c r="H8" s="33" t="s">
         <v>140</v>
       </c>
-      <c r="K7" s="15"/>
-    </row>
-    <row r="8" spans="2:66" x14ac:dyDescent="0.25">
-      <c r="B8" t="s">
+      <c r="K8" s="15"/>
+    </row>
+    <row r="9" spans="2:66">
+      <c r="B9" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="27" t="s">
+      <c r="C9" s="27" t="s">
         <v>70</v>
       </c>
-      <c r="D8" s="16"/>
-      <c r="E8" s="33"/>
-      <c r="F8" s="33"/>
-      <c r="G8" s="33"/>
-      <c r="H8" s="33"/>
-      <c r="K8" s="15"/>
-    </row>
-    <row r="9" spans="2:66" x14ac:dyDescent="0.25">
-      <c r="C9" s="27" t="s">
+      <c r="D9" s="16"/>
+      <c r="E9" s="33"/>
+      <c r="F9" s="33"/>
+      <c r="G9" s="33"/>
+      <c r="H9" s="33"/>
+      <c r="K9" s="15"/>
+    </row>
+    <row r="10" spans="2:66">
+      <c r="C10" s="27" t="s">
         <v>58</v>
       </c>
-      <c r="D9" s="16">
-        <f>SUMIF($D$19:$D$94,C9,$G$19:$G$94)</f>
-        <v>0</v>
-      </c>
-      <c r="E9" s="33"/>
-      <c r="F9" s="33" t="s">
-        <v>141</v>
-      </c>
-      <c r="G9" s="33" t="s">
-        <v>134</v>
-      </c>
-      <c r="H9" s="33" t="s">
-        <v>134</v>
-      </c>
-      <c r="K9" s="15"/>
-    </row>
-    <row r="10" spans="2:66" x14ac:dyDescent="0.25">
-      <c r="C10" s="27" t="s">
-        <v>61</v>
-      </c>
       <c r="D10" s="16">
-        <f>SUMIF($D$19:$D$94,C10,$G$19:$G$94)</f>
+        <f>SUMIF($D$20:$D$95,C10,$G$20:$G$95)</f>
         <v>0</v>
       </c>
       <c r="E10" s="33"/>
       <c r="F10" s="33" t="s">
+        <v>141</v>
+      </c>
+      <c r="G10" s="33" t="s">
+        <v>134</v>
+      </c>
+      <c r="H10" s="33" t="s">
+        <v>134</v>
+      </c>
+      <c r="K10" s="15"/>
+    </row>
+    <row r="11" spans="2:66">
+      <c r="C11" s="27" t="s">
+        <v>61</v>
+      </c>
+      <c r="D11" s="16">
+        <f>SUMIF($D$20:$D$95,C11,$G$20:$G$95)</f>
+        <v>0</v>
+      </c>
+      <c r="E11" s="33"/>
+      <c r="F11" s="33" t="s">
         <v>133</v>
       </c>
-      <c r="H10" s="33" t="s">
+      <c r="H11" s="33" t="s">
         <v>142</v>
       </c>
-      <c r="K10" s="15"/>
-    </row>
-    <row r="11" spans="2:66" x14ac:dyDescent="0.25">
-      <c r="C11" s="27" t="s">
+      <c r="K11" s="15"/>
+    </row>
+    <row r="12" spans="2:66">
+      <c r="C12" s="27" t="s">
         <v>84</v>
       </c>
-      <c r="D11" s="16"/>
-      <c r="E11" s="33" t="s">
+      <c r="D12" s="16"/>
+      <c r="E12" s="33" t="s">
         <v>142</v>
       </c>
-      <c r="F11" s="33" t="s">
+      <c r="F12" s="33" t="s">
         <v>142</v>
       </c>
-      <c r="G11" s="33" t="s">
+      <c r="G12" s="33" t="s">
         <v>136</v>
       </c>
-      <c r="H11" s="33"/>
-      <c r="K11" s="15"/>
-    </row>
-    <row r="12" spans="2:66" x14ac:dyDescent="0.25">
-      <c r="C12" s="27" t="s">
+      <c r="H12" s="33"/>
+      <c r="K12" s="15"/>
+    </row>
+    <row r="13" spans="2:66">
+      <c r="C13" s="27" t="s">
         <v>59</v>
       </c>
-      <c r="D12" s="16">
-        <f>SUMIF($D$19:$D$94,C12,$G$19:$G$94)</f>
+      <c r="D13" s="16">
+        <f>SUMIF($D$20:$D$95,C13,$G$20:$G$95)</f>
         <v>0</v>
       </c>
-      <c r="E12" s="33" t="s">
+      <c r="E13" s="33" t="s">
         <v>139</v>
       </c>
-      <c r="F12" s="33" t="s">
+      <c r="F13" s="33" t="s">
         <v>140</v>
       </c>
-      <c r="G12" s="33" t="s">
+      <c r="G13" s="33" t="s">
         <v>140</v>
       </c>
-      <c r="H12" s="33" t="s">
+      <c r="H13" s="33" t="s">
         <v>140</v>
       </c>
-      <c r="K12" s="15"/>
-    </row>
-    <row r="13" spans="2:66" x14ac:dyDescent="0.25">
-      <c r="C13" s="27" t="s">
+      <c r="K13" s="15"/>
+    </row>
+    <row r="14" spans="2:66">
+      <c r="C14" s="27" t="s">
         <v>74</v>
       </c>
-      <c r="D13" s="16"/>
-      <c r="E13" s="33" t="s">
+      <c r="D14" s="16"/>
+      <c r="E14" s="33" t="s">
         <v>142</v>
       </c>
-      <c r="F13" s="33" t="s">
+      <c r="F14" s="33" t="s">
         <v>136</v>
       </c>
-      <c r="G13" s="33" t="s">
+      <c r="G14" s="33" t="s">
         <v>136</v>
       </c>
-      <c r="H13" s="33" t="s">
+      <c r="H14" s="33" t="s">
         <v>133</v>
       </c>
-      <c r="K13" s="15"/>
-    </row>
-    <row r="14" spans="2:66" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C14" s="27" t="s">
+      <c r="K14" s="15"/>
+    </row>
+    <row r="15" spans="2:66" ht="17.25" customHeight="1">
+      <c r="C15" s="27" t="s">
         <v>57</v>
       </c>
-      <c r="D14" s="16">
-        <f>SUMIF($D$19:$D$94,C14,$G$19:$G$94)</f>
+      <c r="D15" s="16">
+        <f>SUMIF($D$20:$D$95,C15,$G$20:$G$95)</f>
         <v>0</v>
       </c>
-      <c r="E14" s="33"/>
-      <c r="F14" s="33" t="s">
+      <c r="E15" s="33"/>
+      <c r="F15" s="33" t="s">
         <v>139</v>
       </c>
-      <c r="G14" s="33" t="s">
+      <c r="G15" s="33" t="s">
         <v>133</v>
       </c>
-      <c r="H14" s="33" t="s">
+      <c r="H15" s="33" t="s">
         <v>136</v>
       </c>
-      <c r="K14" s="15"/>
-    </row>
-    <row r="15" spans="2:66" s="33" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C15" s="27" t="s">
+      <c r="K15" s="15"/>
+    </row>
+    <row r="16" spans="2:66" s="33" customFormat="1">
+      <c r="C16" s="27" t="s">
         <v>67</v>
       </c>
-      <c r="D15" s="34"/>
-      <c r="L15" s="33">
-        <f t="shared" ref="L15:BF15" si="0">L18</f>
+      <c r="D16" s="34"/>
+      <c r="L16" s="33">
+        <f t="shared" ref="L16:BF16" si="0">L19</f>
         <v>41133</v>
       </c>
-      <c r="M15" s="33">
+      <c r="M16" s="33">
         <f t="shared" si="0"/>
         <v>41134</v>
       </c>
-      <c r="N15" s="33">
+      <c r="N16" s="33">
         <f t="shared" si="0"/>
         <v>41135</v>
       </c>
-      <c r="O15" s="33">
+      <c r="O16" s="33">
         <f t="shared" si="0"/>
         <v>41136</v>
       </c>
-      <c r="P15" s="33">
+      <c r="P16" s="33">
         <f t="shared" si="0"/>
         <v>41137</v>
       </c>
-      <c r="Q15" s="33">
+      <c r="Q16" s="33">
         <f t="shared" si="0"/>
         <v>41138</v>
       </c>
-      <c r="R15" s="33">
+      <c r="R16" s="33">
         <f t="shared" si="0"/>
         <v>41139</v>
       </c>
-      <c r="S15" s="33">
+      <c r="S16" s="33">
         <f t="shared" si="0"/>
         <v>41140</v>
       </c>
-      <c r="T15" s="33">
+      <c r="T16" s="33">
         <f t="shared" si="0"/>
         <v>41141</v>
       </c>
-      <c r="U15" s="33">
+      <c r="U16" s="33">
         <f t="shared" si="0"/>
         <v>41142</v>
       </c>
-      <c r="V15" s="33">
+      <c r="V16" s="33">
         <f t="shared" si="0"/>
         <v>41143</v>
       </c>
-      <c r="W15" s="33">
+      <c r="W16" s="33">
         <f t="shared" si="0"/>
         <v>41144</v>
       </c>
-      <c r="X15" s="33">
+      <c r="X16" s="33">
         <f t="shared" si="0"/>
         <v>41145</v>
       </c>
-      <c r="Y15" s="33">
+      <c r="Y16" s="33">
         <f t="shared" si="0"/>
         <v>41146</v>
       </c>
-      <c r="Z15" s="33">
+      <c r="Z16" s="33">
         <f t="shared" si="0"/>
         <v>41147</v>
       </c>
-      <c r="AA15" s="33">
+      <c r="AA16" s="33">
         <f t="shared" si="0"/>
         <v>41148</v>
       </c>
-      <c r="AB15" s="33">
+      <c r="AB16" s="33">
         <f t="shared" si="0"/>
         <v>41149</v>
       </c>
-      <c r="AC15" s="33">
+      <c r="AC16" s="33">
         <f t="shared" si="0"/>
         <v>41150</v>
       </c>
-      <c r="AD15" s="33">
+      <c r="AD16" s="33">
         <f t="shared" si="0"/>
         <v>41151</v>
       </c>
-      <c r="AE15" s="33">
+      <c r="AE16" s="33">
         <f t="shared" si="0"/>
         <v>41152</v>
       </c>
-      <c r="AF15" s="33">
+      <c r="AF16" s="33">
         <f t="shared" si="0"/>
         <v>41153</v>
       </c>
-      <c r="AG15" s="33">
+      <c r="AG16" s="33">
         <f t="shared" si="0"/>
         <v>41154</v>
       </c>
-      <c r="AH15" s="33">
+      <c r="AH16" s="33">
         <f t="shared" si="0"/>
         <v>41155</v>
       </c>
-      <c r="AI15" s="33">
+      <c r="AI16" s="33">
         <f t="shared" si="0"/>
         <v>41156</v>
       </c>
-      <c r="AJ15" s="33">
+      <c r="AJ16" s="33">
         <f t="shared" si="0"/>
         <v>41157</v>
       </c>
-      <c r="AK15" s="33">
+      <c r="AK16" s="33">
         <f t="shared" si="0"/>
         <v>41158</v>
       </c>
-      <c r="AL15" s="33">
+      <c r="AL16" s="33">
         <f t="shared" si="0"/>
         <v>41159</v>
       </c>
-      <c r="AM15" s="33">
+      <c r="AM16" s="33">
         <f t="shared" si="0"/>
         <v>41160</v>
       </c>
-      <c r="AN15" s="33">
+      <c r="AN16" s="33">
         <f t="shared" si="0"/>
         <v>41161</v>
       </c>
-      <c r="AO15" s="33">
+      <c r="AO16" s="33">
         <f t="shared" si="0"/>
         <v>41162</v>
       </c>
-      <c r="AP15" s="33">
+      <c r="AP16" s="33">
         <f t="shared" si="0"/>
         <v>41163</v>
       </c>
-      <c r="AQ15" s="33">
+      <c r="AQ16" s="33">
         <f t="shared" si="0"/>
         <v>41164</v>
       </c>
-      <c r="AR15" s="33">
+      <c r="AR16" s="33">
         <f t="shared" si="0"/>
         <v>41165</v>
       </c>
-      <c r="AS15" s="33">
+      <c r="AS16" s="33">
         <f t="shared" si="0"/>
         <v>41166</v>
       </c>
-      <c r="AT15" s="33">
+      <c r="AT16" s="33">
         <f t="shared" si="0"/>
         <v>41167</v>
       </c>
-      <c r="AU15" s="33">
+      <c r="AU16" s="33">
         <f t="shared" si="0"/>
         <v>41168</v>
       </c>
-      <c r="AV15" s="33">
+      <c r="AV16" s="33">
         <f t="shared" si="0"/>
         <v>41169</v>
       </c>
-      <c r="AW15" s="33">
+      <c r="AW16" s="33">
         <f t="shared" si="0"/>
         <v>41170</v>
       </c>
-      <c r="AX15" s="33">
+      <c r="AX16" s="33">
         <f t="shared" si="0"/>
         <v>41171</v>
       </c>
-      <c r="AY15" s="33">
+      <c r="AY16" s="33">
         <f t="shared" si="0"/>
         <v>41172</v>
       </c>
-      <c r="AZ15" s="33">
+      <c r="AZ16" s="33">
         <f t="shared" si="0"/>
         <v>41173</v>
       </c>
-      <c r="BA15" s="33">
+      <c r="BA16" s="33">
         <f t="shared" si="0"/>
         <v>41174</v>
       </c>
-      <c r="BB15" s="33">
+      <c r="BB16" s="33">
         <f t="shared" si="0"/>
         <v>41175</v>
       </c>
-      <c r="BC15" s="33">
+      <c r="BC16" s="33">
         <f t="shared" si="0"/>
         <v>41176</v>
       </c>
-      <c r="BD15" s="33">
+      <c r="BD16" s="33">
         <f t="shared" si="0"/>
         <v>41177</v>
       </c>
-      <c r="BE15" s="33">
+      <c r="BE16" s="33">
         <f t="shared" si="0"/>
         <v>41178</v>
       </c>
-      <c r="BF15" s="33">
+      <c r="BF16" s="33">
         <f t="shared" si="0"/>
         <v>41179</v>
       </c>
-      <c r="BG15" s="33">
-        <f t="shared" ref="BG15:BN15" si="1">BG18</f>
+      <c r="BG16" s="33">
+        <f t="shared" ref="BG16:BN16" si="1">BG19</f>
         <v>41180</v>
       </c>
-      <c r="BH15" s="33">
+      <c r="BH16" s="33">
         <f t="shared" si="1"/>
         <v>41181</v>
       </c>
-      <c r="BI15" s="33">
+      <c r="BI16" s="33">
         <f t="shared" si="1"/>
         <v>41182</v>
       </c>
-      <c r="BJ15" s="33">
+      <c r="BJ16" s="33">
         <f t="shared" si="1"/>
         <v>41183</v>
       </c>
-      <c r="BK15" s="33">
+      <c r="BK16" s="33">
         <f t="shared" si="1"/>
         <v>41184</v>
       </c>
-      <c r="BL15" s="33">
+      <c r="BL16" s="33">
         <f t="shared" si="1"/>
         <v>41185</v>
       </c>
-      <c r="BM15" s="33">
+      <c r="BM16" s="33">
         <f t="shared" si="1"/>
         <v>41186</v>
       </c>
-      <c r="BN15" s="33">
+      <c r="BN16" s="33">
         <f t="shared" si="1"/>
         <v>41187</v>
       </c>
     </row>
-    <row r="16" spans="2:66" x14ac:dyDescent="0.25">
-      <c r="C16" s="27" t="s">
+    <row r="17" spans="2:98">
+      <c r="C17" s="27" t="s">
         <v>81</v>
       </c>
-      <c r="D16" s="16">
-        <f>SUMIF($D$19:$D$94,C16,$G$19:$G$94)</f>
+      <c r="D17" s="16">
+        <f>SUMIF($D$20:$D$95,C17,$G$20:$G$95)</f>
         <v>0</v>
       </c>
-      <c r="E16" s="33"/>
-      <c r="F16" s="33" t="s">
+      <c r="E17" s="33"/>
+      <c r="F17" s="33" t="s">
         <v>133</v>
       </c>
-      <c r="G16" s="33"/>
-      <c r="H16" s="33" t="s">
+      <c r="G17" s="33"/>
+      <c r="H17" s="33" t="s">
         <v>136</v>
       </c>
-      <c r="K16" s="15"/>
-    </row>
-    <row r="18" spans="2:98" s="18" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="B18" s="19" t="s">
+      <c r="K17" s="15"/>
+    </row>
+    <row r="19" spans="2:98" s="18" customFormat="1" ht="30">
+      <c r="B19" s="19" t="s">
         <v>41</v>
       </c>
-      <c r="C18" s="19" t="s">
+      <c r="C19" s="19" t="s">
         <v>42</v>
       </c>
-      <c r="D18" s="19" t="s">
+      <c r="D19" s="19" t="s">
         <v>43</v>
       </c>
-      <c r="E18" s="19"/>
-      <c r="F18" s="19"/>
-      <c r="G18" s="19" t="s">
+      <c r="E19" s="19"/>
+      <c r="F19" s="19"/>
+      <c r="G19" s="19" t="s">
         <v>44</v>
       </c>
-      <c r="H18" s="19" t="s">
+      <c r="H19" s="19" t="s">
         <v>45</v>
       </c>
-      <c r="I18" s="19" t="s">
+      <c r="I19" s="19" t="s">
         <v>46</v>
       </c>
-      <c r="J18" s="19" t="s">
+      <c r="J19" s="19" t="s">
         <v>47</v>
       </c>
-      <c r="K18" s="19" t="s">
+      <c r="K19" s="19" t="s">
         <v>48</v>
       </c>
-      <c r="L18" s="19">
+      <c r="L19" s="19">
         <v>41133</v>
       </c>
-      <c r="M18" s="19">
-        <f>L18+1</f>
+      <c r="M19" s="19">
+        <f>L19+1</f>
         <v>41134</v>
       </c>
-      <c r="N18" s="19">
-        <f t="shared" ref="N18:BA18" si="2">M18+1</f>
+      <c r="N19" s="19">
+        <f t="shared" ref="N19:BA19" si="2">M19+1</f>
         <v>41135</v>
       </c>
-      <c r="O18" s="19">
+      <c r="O19" s="19">
         <f t="shared" si="2"/>
         <v>41136</v>
       </c>
-      <c r="P18" s="19">
+      <c r="P19" s="19">
         <f t="shared" si="2"/>
         <v>41137</v>
       </c>
-      <c r="Q18" s="19">
+      <c r="Q19" s="19">
         <f t="shared" si="2"/>
         <v>41138</v>
       </c>
-      <c r="R18" s="19">
+      <c r="R19" s="19">
         <f t="shared" si="2"/>
         <v>41139</v>
       </c>
-      <c r="S18" s="19">
+      <c r="S19" s="19">
         <f t="shared" si="2"/>
         <v>41140</v>
       </c>
-      <c r="T18" s="19">
+      <c r="T19" s="19">
         <f t="shared" si="2"/>
         <v>41141</v>
       </c>
-      <c r="U18" s="19">
+      <c r="U19" s="19">
         <f t="shared" si="2"/>
         <v>41142</v>
       </c>
-      <c r="V18" s="19">
+      <c r="V19" s="19">
         <f t="shared" si="2"/>
         <v>41143</v>
       </c>
-      <c r="W18" s="19">
+      <c r="W19" s="19">
         <f t="shared" si="2"/>
         <v>41144</v>
       </c>
-      <c r="X18" s="19">
+      <c r="X19" s="19">
         <f t="shared" si="2"/>
         <v>41145</v>
       </c>
-      <c r="Y18" s="19">
+      <c r="Y19" s="19">
         <f t="shared" si="2"/>
         <v>41146</v>
       </c>
-      <c r="Z18" s="19">
+      <c r="Z19" s="19">
         <f t="shared" si="2"/>
         <v>41147</v>
       </c>
-      <c r="AA18" s="19">
+      <c r="AA19" s="19">
         <f t="shared" si="2"/>
         <v>41148</v>
       </c>
-      <c r="AB18" s="19">
+      <c r="AB19" s="19">
         <f t="shared" si="2"/>
         <v>41149</v>
       </c>
-      <c r="AC18" s="19">
+      <c r="AC19" s="19">
         <f t="shared" si="2"/>
         <v>41150</v>
       </c>
-      <c r="AD18" s="19">
+      <c r="AD19" s="19">
         <f t="shared" si="2"/>
         <v>41151</v>
       </c>
-      <c r="AE18" s="19">
+      <c r="AE19" s="19">
         <f t="shared" si="2"/>
         <v>41152</v>
       </c>
-      <c r="AF18" s="19">
+      <c r="AF19" s="19">
         <f t="shared" si="2"/>
         <v>41153</v>
       </c>
-      <c r="AG18" s="19">
+      <c r="AG19" s="19">
         <f t="shared" si="2"/>
         <v>41154</v>
       </c>
-      <c r="AH18" s="19">
+      <c r="AH19" s="19">
         <f t="shared" si="2"/>
         <v>41155</v>
       </c>
-      <c r="AI18" s="19">
+      <c r="AI19" s="19">
         <f t="shared" si="2"/>
         <v>41156</v>
       </c>
-      <c r="AJ18" s="19">
+      <c r="AJ19" s="19">
         <f t="shared" si="2"/>
         <v>41157</v>
       </c>
-      <c r="AK18" s="19">
+      <c r="AK19" s="19">
         <f t="shared" si="2"/>
         <v>41158</v>
       </c>
-      <c r="AL18" s="19">
+      <c r="AL19" s="19">
         <f t="shared" si="2"/>
         <v>41159</v>
       </c>
-      <c r="AM18" s="19">
+      <c r="AM19" s="19">
         <f t="shared" si="2"/>
         <v>41160</v>
       </c>
-      <c r="AN18" s="19">
+      <c r="AN19" s="19">
         <f t="shared" si="2"/>
         <v>41161</v>
       </c>
-      <c r="AO18" s="19">
+      <c r="AO19" s="19">
         <f t="shared" si="2"/>
         <v>41162</v>
       </c>
-      <c r="AP18" s="19">
+      <c r="AP19" s="19">
         <f t="shared" si="2"/>
         <v>41163</v>
       </c>
-      <c r="AQ18" s="19">
+      <c r="AQ19" s="19">
         <f t="shared" si="2"/>
         <v>41164</v>
       </c>
-      <c r="AR18" s="19">
+      <c r="AR19" s="19">
         <f t="shared" si="2"/>
         <v>41165</v>
       </c>
-      <c r="AS18" s="19">
+      <c r="AS19" s="19">
         <f t="shared" si="2"/>
         <v>41166</v>
       </c>
-      <c r="AT18" s="19">
+      <c r="AT19" s="19">
         <f t="shared" si="2"/>
         <v>41167</v>
       </c>
-      <c r="AU18" s="19">
+      <c r="AU19" s="19">
         <f t="shared" si="2"/>
         <v>41168</v>
       </c>
-      <c r="AV18" s="19">
+      <c r="AV19" s="19">
         <f t="shared" si="2"/>
         <v>41169</v>
       </c>
-      <c r="AW18" s="19">
+      <c r="AW19" s="19">
         <f t="shared" si="2"/>
         <v>41170</v>
       </c>
-      <c r="AX18" s="19">
+      <c r="AX19" s="19">
         <f t="shared" si="2"/>
         <v>41171</v>
       </c>
-      <c r="AY18" s="19">
-        <f>AX18+1</f>
+      <c r="AY19" s="19">
+        <f>AX19+1</f>
         <v>41172</v>
       </c>
-      <c r="AZ18" s="19">
+      <c r="AZ19" s="19">
         <f t="shared" si="2"/>
         <v>41173</v>
       </c>
-      <c r="BA18" s="19">
+      <c r="BA19" s="19">
         <f t="shared" si="2"/>
         <v>41174</v>
       </c>
-      <c r="BB18" s="19">
-        <f t="shared" ref="BB18:BC18" si="3">BA18+1</f>
+      <c r="BB19" s="19">
+        <f t="shared" ref="BB19:BC19" si="3">BA19+1</f>
         <v>41175</v>
       </c>
-      <c r="BC18" s="19">
+      <c r="BC19" s="19">
         <f t="shared" si="3"/>
         <v>41176</v>
       </c>
-      <c r="BD18" s="19">
-        <f t="shared" ref="BD18:BE18" si="4">BC18+1</f>
+      <c r="BD19" s="19">
+        <f t="shared" ref="BD19:BE19" si="4">BC19+1</f>
         <v>41177</v>
       </c>
-      <c r="BE18" s="19">
+      <c r="BE19" s="19">
         <f t="shared" si="4"/>
         <v>41178</v>
       </c>
-      <c r="BF18" s="19">
-        <f t="shared" ref="BF18:BG18" si="5">BE18+1</f>
+      <c r="BF19" s="19">
+        <f t="shared" ref="BF19:BG19" si="5">BE19+1</f>
         <v>41179</v>
       </c>
-      <c r="BG18" s="19">
+      <c r="BG19" s="19">
         <f t="shared" si="5"/>
         <v>41180</v>
       </c>
-      <c r="BH18" s="19">
-        <f t="shared" ref="BH18:BI18" si="6">BG18+1</f>
+      <c r="BH19" s="19">
+        <f t="shared" ref="BH19:BI19" si="6">BG19+1</f>
         <v>41181</v>
       </c>
-      <c r="BI18" s="19">
+      <c r="BI19" s="19">
         <f t="shared" si="6"/>
         <v>41182</v>
       </c>
-      <c r="BJ18" s="19">
-        <f t="shared" ref="BJ18:BK18" si="7">BI18+1</f>
+      <c r="BJ19" s="19">
+        <f t="shared" ref="BJ19:BK19" si="7">BI19+1</f>
         <v>41183</v>
       </c>
-      <c r="BK18" s="19">
+      <c r="BK19" s="19">
         <f t="shared" si="7"/>
         <v>41184</v>
       </c>
-      <c r="BL18" s="19">
-        <f t="shared" ref="BL18:BM18" si="8">BK18+1</f>
+      <c r="BL19" s="19">
+        <f t="shared" ref="BL19:BM19" si="8">BK19+1</f>
         <v>41185</v>
       </c>
-      <c r="BM18" s="19">
+      <c r="BM19" s="19">
         <f t="shared" si="8"/>
         <v>41186</v>
       </c>
-      <c r="BN18" s="19">
-        <f t="shared" ref="BN18" si="9">BM18+1</f>
+      <c r="BN19" s="19">
+        <f t="shared" ref="BN19" si="9">BM19+1</f>
         <v>41187</v>
       </c>
-      <c r="BO18" s="19"/>
-    </row>
-    <row r="19" spans="2:98" s="20" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="21"/>
-      <c r="C19" s="30" t="s">
+      <c r="BO19" s="19"/>
+    </row>
+    <row r="20" spans="2:98" s="20" customFormat="1">
+      <c r="B20" s="21"/>
+      <c r="C20" s="30" t="s">
         <v>86</v>
       </c>
-      <c r="D19" s="36"/>
-      <c r="E19" s="36"/>
-      <c r="F19" s="21"/>
-      <c r="G19" s="21"/>
-      <c r="H19" s="21"/>
-      <c r="I19" s="21"/>
-      <c r="J19" s="21"/>
-      <c r="K19" s="21"/>
-      <c r="L19" s="21"/>
-      <c r="M19" s="21"/>
-      <c r="N19" s="21"/>
-      <c r="O19" s="21"/>
-      <c r="P19" s="21"/>
-      <c r="Q19" s="21"/>
-      <c r="R19" s="21"/>
-      <c r="S19" s="21"/>
-      <c r="T19" s="21"/>
-      <c r="U19" s="21"/>
-      <c r="V19" s="21"/>
-      <c r="W19" s="21"/>
-      <c r="X19" s="21"/>
-      <c r="Y19" s="21"/>
-      <c r="Z19" s="21"/>
-      <c r="AA19" s="21"/>
-      <c r="AB19" s="21"/>
-      <c r="AC19" s="21"/>
-      <c r="AD19" s="21"/>
-      <c r="AE19" s="21"/>
-      <c r="AF19" s="21"/>
-      <c r="AG19" s="21"/>
-      <c r="AH19" s="21"/>
-      <c r="AI19" s="21"/>
-      <c r="AJ19" s="21"/>
-      <c r="AK19" s="21"/>
-      <c r="AL19" s="21"/>
-      <c r="AM19" s="21"/>
-      <c r="AN19" s="21"/>
-      <c r="AO19" s="21"/>
-      <c r="AP19" s="21"/>
-      <c r="AQ19" s="21"/>
-      <c r="AR19" s="21"/>
-      <c r="AS19" s="21"/>
-      <c r="AT19" s="21"/>
-      <c r="AU19" s="21"/>
-      <c r="AV19" s="21"/>
-      <c r="AW19" s="21"/>
-      <c r="AX19" s="21"/>
-      <c r="AY19" s="21"/>
-      <c r="AZ19" s="21"/>
-      <c r="BA19" s="21"/>
-      <c r="BB19" s="21"/>
-      <c r="BC19" s="21"/>
-      <c r="BD19" s="21"/>
-      <c r="BE19" s="21"/>
-      <c r="BF19" s="21"/>
-      <c r="BG19" s="21"/>
-      <c r="BH19" s="21"/>
-      <c r="BI19" s="21"/>
-      <c r="BJ19" s="21"/>
-      <c r="BK19" s="21"/>
-      <c r="BL19" s="21"/>
-      <c r="BM19" s="21"/>
-      <c r="BN19" s="21"/>
-      <c r="BO19" s="21"/>
-      <c r="BP19" s="21"/>
-      <c r="BQ19" s="21"/>
-      <c r="BR19" s="21"/>
-      <c r="BS19" s="21"/>
-      <c r="BT19" s="21"/>
-      <c r="BU19" s="21"/>
-      <c r="BV19" s="21"/>
-      <c r="BW19" s="21"/>
-      <c r="BX19" s="21"/>
-      <c r="BY19" s="21"/>
-      <c r="BZ19" s="21"/>
-      <c r="CA19" s="21"/>
-      <c r="CB19" s="21"/>
-      <c r="CC19" s="21"/>
-      <c r="CD19" s="21"/>
-      <c r="CE19" s="21"/>
-      <c r="CF19" s="21"/>
-      <c r="CG19" s="21"/>
-      <c r="CH19" s="21"/>
-      <c r="CI19" s="21"/>
-      <c r="CJ19" s="21"/>
-      <c r="CK19" s="21"/>
-      <c r="CL19" s="21"/>
-      <c r="CM19" s="21"/>
-      <c r="CN19" s="21"/>
-      <c r="CO19" s="21"/>
-      <c r="CP19" s="21"/>
-      <c r="CQ19" s="21"/>
-      <c r="CR19" s="21"/>
-      <c r="CS19" s="21"/>
-      <c r="CT19" s="21"/>
-    </row>
-    <row r="20" spans="2:98" x14ac:dyDescent="0.25">
-      <c r="B20" s="22"/>
-      <c r="C20" s="29" t="s">
-        <v>87</v>
-      </c>
-      <c r="D20" s="22" t="s">
-        <v>57</v>
-      </c>
-      <c r="E20" s="22" t="s">
-        <v>58</v>
-      </c>
-      <c r="F20" s="22"/>
-      <c r="G20" s="22"/>
-      <c r="H20" s="23"/>
-      <c r="I20" s="23"/>
-      <c r="J20" s="23" t="s">
-        <v>40</v>
-      </c>
-      <c r="K20" s="22"/>
-      <c r="L20" s="1"/>
-      <c r="M20" s="1"/>
-      <c r="N20" s="1"/>
-      <c r="O20" s="1"/>
-      <c r="P20" s="1"/>
-      <c r="Q20" s="1"/>
-      <c r="R20" s="1"/>
-      <c r="S20" s="1"/>
-      <c r="T20" s="1"/>
-      <c r="U20" s="1"/>
-      <c r="V20" s="1"/>
-      <c r="W20" s="1"/>
-      <c r="X20" s="1"/>
-      <c r="Y20" s="1"/>
-      <c r="Z20" s="1"/>
-      <c r="AA20" s="1"/>
-      <c r="AB20" s="1"/>
-      <c r="AC20" s="1"/>
-      <c r="AD20" s="1"/>
-      <c r="AE20" s="1"/>
-      <c r="AF20" s="1"/>
-      <c r="AG20" s="1"/>
-      <c r="AH20" s="1"/>
-      <c r="AI20" s="1"/>
-      <c r="AJ20" s="1"/>
-      <c r="AK20" s="1"/>
-      <c r="AL20" s="1"/>
-      <c r="AM20" s="1"/>
-      <c r="AN20" s="1"/>
-      <c r="AO20" s="1"/>
-      <c r="AP20" s="1"/>
-      <c r="AQ20" s="1"/>
-      <c r="AR20" s="1"/>
-      <c r="AS20" s="1"/>
-      <c r="AT20" s="1"/>
-      <c r="AU20" s="1"/>
-      <c r="AV20" s="1"/>
-      <c r="AW20" s="1"/>
-      <c r="AX20" s="1"/>
-      <c r="AY20" s="1"/>
-      <c r="AZ20" s="1"/>
-      <c r="BA20" s="1"/>
-      <c r="BB20" s="1"/>
-      <c r="BC20" s="1"/>
-      <c r="BD20" s="1"/>
-      <c r="BE20" s="1"/>
-      <c r="BF20" s="1"/>
-      <c r="BG20" s="1"/>
-      <c r="BH20" s="1"/>
-      <c r="BI20" s="1"/>
-      <c r="BJ20" s="1"/>
-      <c r="BK20" s="1"/>
-      <c r="BL20" s="1"/>
-      <c r="BM20" s="1"/>
-      <c r="BN20" s="1"/>
-    </row>
-    <row r="21" spans="2:98" x14ac:dyDescent="0.25">
+      <c r="D20" s="36"/>
+      <c r="E20" s="36"/>
+      <c r="F20" s="21"/>
+      <c r="G20" s="21"/>
+      <c r="H20" s="21"/>
+      <c r="I20" s="21"/>
+      <c r="J20" s="21"/>
+      <c r="K20" s="21"/>
+      <c r="L20" s="21"/>
+      <c r="M20" s="21"/>
+      <c r="N20" s="21"/>
+      <c r="O20" s="21"/>
+      <c r="P20" s="21"/>
+      <c r="Q20" s="21"/>
+      <c r="R20" s="21"/>
+      <c r="S20" s="21"/>
+      <c r="T20" s="21"/>
+      <c r="U20" s="21"/>
+      <c r="V20" s="21"/>
+      <c r="W20" s="21"/>
+      <c r="X20" s="21"/>
+      <c r="Y20" s="21"/>
+      <c r="Z20" s="21"/>
+      <c r="AA20" s="21"/>
+      <c r="AB20" s="21"/>
+      <c r="AC20" s="21"/>
+      <c r="AD20" s="21"/>
+      <c r="AE20" s="21"/>
+      <c r="AF20" s="21"/>
+      <c r="AG20" s="21"/>
+      <c r="AH20" s="21"/>
+      <c r="AI20" s="21"/>
+      <c r="AJ20" s="21"/>
+      <c r="AK20" s="21"/>
+      <c r="AL20" s="21"/>
+      <c r="AM20" s="21"/>
+      <c r="AN20" s="21"/>
+      <c r="AO20" s="21"/>
+      <c r="AP20" s="21"/>
+      <c r="AQ20" s="21"/>
+      <c r="AR20" s="21"/>
+      <c r="AS20" s="21"/>
+      <c r="AT20" s="21"/>
+      <c r="AU20" s="21"/>
+      <c r="AV20" s="21"/>
+      <c r="AW20" s="21"/>
+      <c r="AX20" s="21"/>
+      <c r="AY20" s="21"/>
+      <c r="AZ20" s="21"/>
+      <c r="BA20" s="21"/>
+      <c r="BB20" s="21"/>
+      <c r="BC20" s="21"/>
+      <c r="BD20" s="21"/>
+      <c r="BE20" s="21"/>
+      <c r="BF20" s="21"/>
+      <c r="BG20" s="21"/>
+      <c r="BH20" s="21"/>
+      <c r="BI20" s="21"/>
+      <c r="BJ20" s="21"/>
+      <c r="BK20" s="21"/>
+      <c r="BL20" s="21"/>
+      <c r="BM20" s="21"/>
+      <c r="BN20" s="21"/>
+      <c r="BO20" s="21"/>
+      <c r="BP20" s="21"/>
+      <c r="BQ20" s="21"/>
+      <c r="BR20" s="21"/>
+      <c r="BS20" s="21"/>
+      <c r="BT20" s="21"/>
+      <c r="BU20" s="21"/>
+      <c r="BV20" s="21"/>
+      <c r="BW20" s="21"/>
+      <c r="BX20" s="21"/>
+      <c r="BY20" s="21"/>
+      <c r="BZ20" s="21"/>
+      <c r="CA20" s="21"/>
+      <c r="CB20" s="21"/>
+      <c r="CC20" s="21"/>
+      <c r="CD20" s="21"/>
+      <c r="CE20" s="21"/>
+      <c r="CF20" s="21"/>
+      <c r="CG20" s="21"/>
+      <c r="CH20" s="21"/>
+      <c r="CI20" s="21"/>
+      <c r="CJ20" s="21"/>
+      <c r="CK20" s="21"/>
+      <c r="CL20" s="21"/>
+      <c r="CM20" s="21"/>
+      <c r="CN20" s="21"/>
+      <c r="CO20" s="21"/>
+      <c r="CP20" s="21"/>
+      <c r="CQ20" s="21"/>
+      <c r="CR20" s="21"/>
+      <c r="CS20" s="21"/>
+      <c r="CT20" s="21"/>
+    </row>
+    <row r="21" spans="2:98">
       <c r="B21" s="22"/>
       <c r="C21" s="29" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D21" s="22" t="s">
-        <v>91</v>
+        <v>57</v>
       </c>
       <c r="E21" s="22" t="s">
-        <v>71</v>
-      </c>
-      <c r="F21" s="22" t="s">
-        <v>57</v>
-      </c>
+        <v>58</v>
+      </c>
+      <c r="F21" s="22"/>
       <c r="G21" s="22"/>
       <c r="H21" s="23"/>
       <c r="I21" s="23"/>
@@ -2451,19 +2930,19 @@
       <c r="BM21" s="1"/>
       <c r="BN21" s="1"/>
     </row>
-    <row r="22" spans="2:98" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:98">
       <c r="B22" s="22"/>
       <c r="C22" s="29" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D22" s="22" t="s">
-        <v>67</v>
+        <v>91</v>
       </c>
       <c r="E22" s="22" t="s">
         <v>71</v>
       </c>
       <c r="F22" s="22" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="G22" s="22"/>
       <c r="H22" s="23"/>
@@ -2528,10 +3007,10 @@
       <c r="BM22" s="1"/>
       <c r="BN22" s="1"/>
     </row>
-    <row r="23" spans="2:98" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:98">
       <c r="B23" s="22"/>
       <c r="C23" s="29" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D23" s="22" t="s">
         <v>67</v>
@@ -2605,159 +3084,161 @@
       <c r="BM23" s="1"/>
       <c r="BN23" s="1"/>
     </row>
-    <row r="24" spans="2:98" s="20" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="21"/>
-      <c r="C24" s="30" t="s">
+    <row r="24" spans="2:98">
+      <c r="B24" s="22"/>
+      <c r="C24" s="29" t="s">
+        <v>90</v>
+      </c>
+      <c r="D24" s="22" t="s">
+        <v>67</v>
+      </c>
+      <c r="E24" s="22" t="s">
+        <v>71</v>
+      </c>
+      <c r="F24" s="22" t="s">
+        <v>59</v>
+      </c>
+      <c r="G24" s="22"/>
+      <c r="H24" s="23"/>
+      <c r="I24" s="23"/>
+      <c r="J24" s="23" t="s">
+        <v>40</v>
+      </c>
+      <c r="K24" s="22"/>
+      <c r="L24" s="1"/>
+      <c r="M24" s="1"/>
+      <c r="N24" s="1"/>
+      <c r="O24" s="1"/>
+      <c r="P24" s="1"/>
+      <c r="Q24" s="1"/>
+      <c r="R24" s="1"/>
+      <c r="S24" s="1"/>
+      <c r="T24" s="1"/>
+      <c r="U24" s="1"/>
+      <c r="V24" s="1"/>
+      <c r="W24" s="1"/>
+      <c r="X24" s="1"/>
+      <c r="Y24" s="1"/>
+      <c r="Z24" s="1"/>
+      <c r="AA24" s="1"/>
+      <c r="AB24" s="1"/>
+      <c r="AC24" s="1"/>
+      <c r="AD24" s="1"/>
+      <c r="AE24" s="1"/>
+      <c r="AF24" s="1"/>
+      <c r="AG24" s="1"/>
+      <c r="AH24" s="1"/>
+      <c r="AI24" s="1"/>
+      <c r="AJ24" s="1"/>
+      <c r="AK24" s="1"/>
+      <c r="AL24" s="1"/>
+      <c r="AM24" s="1"/>
+      <c r="AN24" s="1"/>
+      <c r="AO24" s="1"/>
+      <c r="AP24" s="1"/>
+      <c r="AQ24" s="1"/>
+      <c r="AR24" s="1"/>
+      <c r="AS24" s="1"/>
+      <c r="AT24" s="1"/>
+      <c r="AU24" s="1"/>
+      <c r="AV24" s="1"/>
+      <c r="AW24" s="1"/>
+      <c r="AX24" s="1"/>
+      <c r="AY24" s="1"/>
+      <c r="AZ24" s="1"/>
+      <c r="BA24" s="1"/>
+      <c r="BB24" s="1"/>
+      <c r="BC24" s="1"/>
+      <c r="BD24" s="1"/>
+      <c r="BE24" s="1"/>
+      <c r="BF24" s="1"/>
+      <c r="BG24" s="1"/>
+      <c r="BH24" s="1"/>
+      <c r="BI24" s="1"/>
+      <c r="BJ24" s="1"/>
+      <c r="BK24" s="1"/>
+      <c r="BL24" s="1"/>
+      <c r="BM24" s="1"/>
+      <c r="BN24" s="1"/>
+    </row>
+    <row r="25" spans="2:98" s="20" customFormat="1">
+      <c r="B25" s="21"/>
+      <c r="C25" s="30" t="s">
         <v>65</v>
       </c>
-      <c r="D24" s="21"/>
-      <c r="E24" s="21"/>
-      <c r="F24" s="21"/>
-      <c r="G24" s="21"/>
-      <c r="H24" s="21"/>
-      <c r="I24" s="21"/>
-      <c r="J24" s="21"/>
-      <c r="K24" s="21"/>
-      <c r="L24" s="21"/>
-      <c r="M24" s="21"/>
-      <c r="N24" s="21"/>
-      <c r="O24" s="21"/>
-      <c r="P24" s="21"/>
-      <c r="Q24" s="21"/>
-      <c r="R24" s="21"/>
-      <c r="S24" s="21"/>
-      <c r="T24" s="21"/>
-      <c r="U24" s="21"/>
-      <c r="V24" s="21"/>
-      <c r="W24" s="21"/>
-      <c r="X24" s="21"/>
-      <c r="Y24" s="21"/>
-      <c r="Z24" s="21"/>
-      <c r="AA24" s="21"/>
-      <c r="AB24" s="21"/>
-      <c r="AC24" s="21"/>
-      <c r="AD24" s="21"/>
-      <c r="AE24" s="21"/>
-      <c r="AF24" s="21"/>
-      <c r="AG24" s="21"/>
-      <c r="AH24" s="21"/>
-      <c r="AI24" s="21"/>
-      <c r="AJ24" s="21"/>
-      <c r="AK24" s="21"/>
-      <c r="AL24" s="21"/>
-      <c r="AM24" s="21"/>
-      <c r="AN24" s="21"/>
-      <c r="AO24" s="21"/>
-      <c r="AP24" s="21"/>
-      <c r="AQ24" s="21"/>
-      <c r="AR24" s="21"/>
-      <c r="AS24" s="21"/>
-      <c r="AT24" s="21"/>
-      <c r="AU24" s="21"/>
-      <c r="AV24" s="21"/>
-      <c r="AW24" s="21"/>
-      <c r="AX24" s="21"/>
-      <c r="AY24" s="21"/>
-      <c r="AZ24" s="21"/>
-      <c r="BA24" s="21"/>
-      <c r="BB24" s="21"/>
-      <c r="BC24" s="21"/>
-      <c r="BD24" s="21"/>
-      <c r="BE24" s="21"/>
-      <c r="BF24" s="21"/>
-      <c r="BG24" s="21"/>
-      <c r="BH24" s="21"/>
-      <c r="BI24" s="21"/>
-      <c r="BJ24" s="21"/>
-      <c r="BK24" s="21"/>
-      <c r="BL24" s="21"/>
-      <c r="BM24" s="21"/>
-      <c r="BN24" s="21"/>
-    </row>
-    <row r="25" spans="2:98" x14ac:dyDescent="0.25">
-      <c r="B25" s="22"/>
-      <c r="C25" s="29" t="s">
-        <v>66</v>
-      </c>
-      <c r="D25" s="22" t="s">
-        <v>67</v>
-      </c>
-      <c r="E25" s="22"/>
-      <c r="F25" s="22"/>
-      <c r="G25" s="22"/>
-      <c r="H25" s="23"/>
-      <c r="I25" s="23"/>
-      <c r="J25" s="23" t="s">
-        <v>40</v>
-      </c>
-      <c r="K25" s="22"/>
-      <c r="L25" s="1"/>
-      <c r="M25" s="1"/>
-      <c r="N25" s="1"/>
-      <c r="O25" s="1"/>
-      <c r="P25" s="1"/>
-      <c r="Q25" s="1"/>
-      <c r="R25" s="1"/>
-      <c r="S25" s="1"/>
-      <c r="T25" s="1"/>
-      <c r="U25" s="1"/>
-      <c r="V25" s="1"/>
-      <c r="W25" s="1"/>
-      <c r="X25" s="1"/>
-      <c r="Y25" s="1"/>
-      <c r="Z25" s="1"/>
-      <c r="AA25" s="1"/>
-      <c r="AB25" s="1"/>
-      <c r="AC25" s="1"/>
-      <c r="AD25" s="1"/>
-      <c r="AE25" s="1"/>
-      <c r="AF25" s="1"/>
-      <c r="AG25" s="1"/>
-      <c r="AH25" s="1"/>
-      <c r="AI25" s="1"/>
-      <c r="AJ25" s="1"/>
-      <c r="AK25" s="1"/>
-      <c r="AL25" s="1"/>
-      <c r="AM25" s="1"/>
-      <c r="AN25" s="1"/>
-      <c r="AO25" s="1"/>
-      <c r="AP25" s="1"/>
-      <c r="AQ25" s="1"/>
-      <c r="AR25" s="1"/>
-      <c r="AS25" s="1"/>
-      <c r="AT25" s="1"/>
-      <c r="AU25" s="1"/>
-      <c r="AV25" s="1"/>
-      <c r="AW25" s="1"/>
-      <c r="AX25" s="1"/>
-      <c r="AY25" s="1"/>
-      <c r="AZ25" s="1"/>
-      <c r="BA25" s="1"/>
-      <c r="BB25" s="1"/>
-      <c r="BC25" s="1"/>
-      <c r="BD25" s="1"/>
-      <c r="BE25" s="1"/>
-      <c r="BF25" s="1"/>
-      <c r="BG25" s="1"/>
-      <c r="BH25" s="1"/>
-      <c r="BI25" s="1"/>
-      <c r="BJ25" s="1"/>
-      <c r="BK25" s="1"/>
-      <c r="BL25" s="1"/>
-      <c r="BM25" s="1"/>
-      <c r="BN25" s="1"/>
-    </row>
-    <row r="26" spans="2:98" x14ac:dyDescent="0.25">
+      <c r="D25" s="21"/>
+      <c r="E25" s="21"/>
+      <c r="F25" s="21"/>
+      <c r="G25" s="21"/>
+      <c r="H25" s="21"/>
+      <c r="I25" s="21"/>
+      <c r="J25" s="21"/>
+      <c r="K25" s="21"/>
+      <c r="L25" s="21"/>
+      <c r="M25" s="21"/>
+      <c r="N25" s="21"/>
+      <c r="O25" s="21"/>
+      <c r="P25" s="21"/>
+      <c r="Q25" s="21"/>
+      <c r="R25" s="21"/>
+      <c r="S25" s="21"/>
+      <c r="T25" s="21"/>
+      <c r="U25" s="21"/>
+      <c r="V25" s="21"/>
+      <c r="W25" s="21"/>
+      <c r="X25" s="21"/>
+      <c r="Y25" s="21"/>
+      <c r="Z25" s="21"/>
+      <c r="AA25" s="21"/>
+      <c r="AB25" s="21"/>
+      <c r="AC25" s="21"/>
+      <c r="AD25" s="21"/>
+      <c r="AE25" s="21"/>
+      <c r="AF25" s="21"/>
+      <c r="AG25" s="21"/>
+      <c r="AH25" s="21"/>
+      <c r="AI25" s="21"/>
+      <c r="AJ25" s="21"/>
+      <c r="AK25" s="21"/>
+      <c r="AL25" s="21"/>
+      <c r="AM25" s="21"/>
+      <c r="AN25" s="21"/>
+      <c r="AO25" s="21"/>
+      <c r="AP25" s="21"/>
+      <c r="AQ25" s="21"/>
+      <c r="AR25" s="21"/>
+      <c r="AS25" s="21"/>
+      <c r="AT25" s="21"/>
+      <c r="AU25" s="21"/>
+      <c r="AV25" s="21"/>
+      <c r="AW25" s="21"/>
+      <c r="AX25" s="21"/>
+      <c r="AY25" s="21"/>
+      <c r="AZ25" s="21"/>
+      <c r="BA25" s="21"/>
+      <c r="BB25" s="21"/>
+      <c r="BC25" s="21"/>
+      <c r="BD25" s="21"/>
+      <c r="BE25" s="21"/>
+      <c r="BF25" s="21"/>
+      <c r="BG25" s="21"/>
+      <c r="BH25" s="21"/>
+      <c r="BI25" s="21"/>
+      <c r="BJ25" s="21"/>
+      <c r="BK25" s="21"/>
+      <c r="BL25" s="21"/>
+      <c r="BM25" s="21"/>
+      <c r="BN25" s="21"/>
+    </row>
+    <row r="26" spans="2:98">
       <c r="B26" s="22"/>
       <c r="C26" s="29" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D26" s="22" t="s">
-        <v>70</v>
-      </c>
-      <c r="E26" s="22" t="s">
-        <v>71</v>
-      </c>
+        <v>67</v>
+      </c>
+      <c r="E26" s="22"/>
       <c r="F26" s="22"/>
       <c r="G26" s="22"/>
       <c r="H26" s="23"/>
@@ -2822,16 +3303,16 @@
       <c r="BM26" s="1"/>
       <c r="BN26" s="1"/>
     </row>
-    <row r="27" spans="2:98" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:98">
       <c r="B27" s="22"/>
       <c r="C27" s="29" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D27" s="22" t="s">
-        <v>59</v>
+        <v>70</v>
       </c>
       <c r="E27" s="22" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="F27" s="22"/>
       <c r="G27" s="22"/>
@@ -2897,20 +3378,18 @@
       <c r="BM27" s="1"/>
       <c r="BN27" s="1"/>
     </row>
-    <row r="28" spans="2:98" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:98">
       <c r="B28" s="22"/>
       <c r="C28" s="29" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="D28" s="22" t="s">
+        <v>59</v>
+      </c>
+      <c r="E28" s="22" t="s">
         <v>67</v>
       </c>
-      <c r="E28" s="22" t="s">
-        <v>58</v>
-      </c>
-      <c r="F28" s="22" t="s">
-        <v>59</v>
-      </c>
+      <c r="F28" s="22"/>
       <c r="G28" s="22"/>
       <c r="H28" s="23"/>
       <c r="I28" s="23"/>
@@ -2974,16 +3453,20 @@
       <c r="BM28" s="1"/>
       <c r="BN28" s="1"/>
     </row>
-    <row r="29" spans="2:98" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:98">
       <c r="B29" s="22"/>
       <c r="C29" s="29" t="s">
-        <v>96</v>
+        <v>72</v>
       </c>
       <c r="D29" s="22" t="s">
+        <v>67</v>
+      </c>
+      <c r="E29" s="22" t="s">
         <v>58</v>
       </c>
-      <c r="E29" s="22"/>
-      <c r="F29" s="22"/>
+      <c r="F29" s="22" t="s">
+        <v>59</v>
+      </c>
       <c r="G29" s="22"/>
       <c r="H29" s="23"/>
       <c r="I29" s="23"/>
@@ -3047,13 +3530,13 @@
       <c r="BM29" s="1"/>
       <c r="BN29" s="1"/>
     </row>
-    <row r="30" spans="2:98" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:98">
       <c r="B30" s="22"/>
       <c r="C30" s="29" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D30" s="22" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E30" s="22"/>
       <c r="F30" s="22"/>
@@ -3120,17 +3603,15 @@
       <c r="BM30" s="1"/>
       <c r="BN30" s="1"/>
     </row>
-    <row r="31" spans="2:98" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:98">
       <c r="B31" s="22"/>
       <c r="C31" s="29" t="s">
-        <v>73</v>
+        <v>97</v>
       </c>
       <c r="D31" s="22" t="s">
-        <v>74</v>
-      </c>
-      <c r="E31" s="22" t="s">
-        <v>75</v>
-      </c>
+        <v>59</v>
+      </c>
+      <c r="E31" s="22"/>
       <c r="F31" s="22"/>
       <c r="G31" s="22"/>
       <c r="H31" s="23"/>
@@ -3195,16 +3676,24 @@
       <c r="BM31" s="1"/>
       <c r="BN31" s="1"/>
     </row>
-    <row r="32" spans="2:98" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:98">
       <c r="B32" s="22"/>
-      <c r="C32" s="29"/>
-      <c r="D32" s="29"/>
-      <c r="E32" s="22"/>
+      <c r="C32" s="29" t="s">
+        <v>73</v>
+      </c>
+      <c r="D32" s="22" t="s">
+        <v>74</v>
+      </c>
+      <c r="E32" s="22" t="s">
+        <v>75</v>
+      </c>
       <c r="F32" s="22"/>
       <c r="G32" s="22"/>
       <c r="H32" s="23"/>
       <c r="I32" s="23"/>
-      <c r="J32" s="23"/>
+      <c r="J32" s="23" t="s">
+        <v>40</v>
+      </c>
       <c r="K32" s="22"/>
       <c r="L32" s="1"/>
       <c r="M32" s="1"/>
@@ -3262,159 +3751,153 @@
       <c r="BM32" s="1"/>
       <c r="BN32" s="1"/>
     </row>
-    <row r="33" spans="1:66" s="20" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B33" s="21"/>
-      <c r="C33" s="30" t="s">
+    <row r="33" spans="1:66">
+      <c r="B33" s="22"/>
+      <c r="C33" s="29"/>
+      <c r="D33" s="29"/>
+      <c r="E33" s="22"/>
+      <c r="F33" s="22"/>
+      <c r="G33" s="22"/>
+      <c r="H33" s="23"/>
+      <c r="I33" s="23"/>
+      <c r="J33" s="23"/>
+      <c r="K33" s="22"/>
+      <c r="L33" s="1"/>
+      <c r="M33" s="1"/>
+      <c r="N33" s="1"/>
+      <c r="O33" s="1"/>
+      <c r="P33" s="1"/>
+      <c r="Q33" s="1"/>
+      <c r="R33" s="1"/>
+      <c r="S33" s="1"/>
+      <c r="T33" s="1"/>
+      <c r="U33" s="1"/>
+      <c r="V33" s="1"/>
+      <c r="W33" s="1"/>
+      <c r="X33" s="1"/>
+      <c r="Y33" s="1"/>
+      <c r="Z33" s="1"/>
+      <c r="AA33" s="1"/>
+      <c r="AB33" s="1"/>
+      <c r="AC33" s="1"/>
+      <c r="AD33" s="1"/>
+      <c r="AE33" s="1"/>
+      <c r="AF33" s="1"/>
+      <c r="AG33" s="1"/>
+      <c r="AH33" s="1"/>
+      <c r="AI33" s="1"/>
+      <c r="AJ33" s="1"/>
+      <c r="AK33" s="1"/>
+      <c r="AL33" s="1"/>
+      <c r="AM33" s="1"/>
+      <c r="AN33" s="1"/>
+      <c r="AO33" s="1"/>
+      <c r="AP33" s="1"/>
+      <c r="AQ33" s="1"/>
+      <c r="AR33" s="1"/>
+      <c r="AS33" s="1"/>
+      <c r="AT33" s="1"/>
+      <c r="AU33" s="1"/>
+      <c r="AV33" s="1"/>
+      <c r="AW33" s="1"/>
+      <c r="AX33" s="1"/>
+      <c r="AY33" s="1"/>
+      <c r="AZ33" s="1"/>
+      <c r="BA33" s="1"/>
+      <c r="BB33" s="1"/>
+      <c r="BC33" s="1"/>
+      <c r="BD33" s="1"/>
+      <c r="BE33" s="1"/>
+      <c r="BF33" s="1"/>
+      <c r="BG33" s="1"/>
+      <c r="BH33" s="1"/>
+      <c r="BI33" s="1"/>
+      <c r="BJ33" s="1"/>
+      <c r="BK33" s="1"/>
+      <c r="BL33" s="1"/>
+      <c r="BM33" s="1"/>
+      <c r="BN33" s="1"/>
+    </row>
+    <row r="34" spans="1:66" s="20" customFormat="1">
+      <c r="B34" s="21"/>
+      <c r="C34" s="30" t="s">
         <v>49</v>
       </c>
-      <c r="D33" s="21"/>
-      <c r="E33" s="21"/>
-      <c r="F33" s="21"/>
-      <c r="G33" s="21"/>
-      <c r="H33" s="21"/>
-      <c r="I33" s="21"/>
-      <c r="J33" s="21"/>
-      <c r="K33" s="21"/>
-      <c r="L33" s="21"/>
-      <c r="M33" s="21"/>
-      <c r="N33" s="21"/>
-      <c r="O33" s="21"/>
-      <c r="P33" s="21"/>
-      <c r="Q33" s="21"/>
-      <c r="R33" s="21"/>
-      <c r="S33" s="21"/>
-      <c r="T33" s="21"/>
-      <c r="U33" s="21"/>
-      <c r="V33" s="21"/>
-      <c r="W33" s="21"/>
-      <c r="X33" s="21"/>
-      <c r="Y33" s="21"/>
-      <c r="Z33" s="21"/>
-      <c r="AA33" s="21"/>
-      <c r="AB33" s="21"/>
-      <c r="AC33" s="21"/>
-      <c r="AD33" s="21"/>
-      <c r="AE33" s="21"/>
-      <c r="AF33" s="21"/>
-      <c r="AG33" s="21"/>
-      <c r="AH33" s="21"/>
-      <c r="AI33" s="21"/>
-      <c r="AJ33" s="21"/>
-      <c r="AK33" s="21"/>
-      <c r="AL33" s="21"/>
-      <c r="AM33" s="21"/>
-      <c r="AN33" s="21"/>
-      <c r="AO33" s="21"/>
-      <c r="AP33" s="21"/>
-      <c r="AQ33" s="21"/>
-      <c r="AR33" s="21"/>
-      <c r="AS33" s="21"/>
-      <c r="AT33" s="21"/>
-      <c r="AU33" s="21"/>
-      <c r="AV33" s="21"/>
-      <c r="AW33" s="21"/>
-      <c r="AX33" s="21"/>
-      <c r="AY33" s="21"/>
-      <c r="AZ33" s="21"/>
-      <c r="BA33" s="21"/>
-      <c r="BB33" s="21"/>
-      <c r="BC33" s="21"/>
-      <c r="BD33" s="21"/>
-      <c r="BE33" s="21"/>
-      <c r="BF33" s="21"/>
-      <c r="BG33" s="21"/>
-      <c r="BH33" s="21"/>
-      <c r="BI33" s="21"/>
-      <c r="BJ33" s="21"/>
-      <c r="BK33" s="21"/>
-      <c r="BL33" s="21"/>
-      <c r="BM33" s="21"/>
-      <c r="BN33" s="21"/>
-    </row>
-    <row r="34" spans="1:66" x14ac:dyDescent="0.25">
-      <c r="B34" s="22"/>
-      <c r="C34" s="29" t="s">
-        <v>56</v>
-      </c>
-      <c r="D34" s="22" t="s">
-        <v>58</v>
-      </c>
-      <c r="E34" s="22" t="s">
-        <v>59</v>
-      </c>
-      <c r="F34" s="22"/>
-      <c r="G34" s="22"/>
-      <c r="H34" s="23"/>
-      <c r="I34" s="23"/>
-      <c r="J34" s="23" t="s">
-        <v>40</v>
-      </c>
-      <c r="K34" s="22"/>
-      <c r="L34" s="1"/>
-      <c r="M34" s="1"/>
-      <c r="N34" s="1"/>
-      <c r="O34" s="1"/>
-      <c r="P34" s="1"/>
-      <c r="Q34" s="1"/>
-      <c r="R34" s="1"/>
-      <c r="S34" s="1"/>
-      <c r="T34" s="1"/>
-      <c r="U34" s="1"/>
-      <c r="V34" s="1"/>
-      <c r="W34" s="1"/>
-      <c r="X34" s="1"/>
-      <c r="Y34" s="1"/>
-      <c r="Z34" s="1"/>
-      <c r="AA34" s="1"/>
-      <c r="AB34" s="1"/>
-      <c r="AC34" s="1"/>
-      <c r="AD34" s="1"/>
-      <c r="AE34" s="1"/>
-      <c r="AF34" s="1"/>
-      <c r="AG34" s="1"/>
-      <c r="AH34" s="1"/>
-      <c r="AI34" s="1"/>
-      <c r="AJ34" s="1"/>
-      <c r="AK34" s="1"/>
-      <c r="AL34" s="1"/>
-      <c r="AM34" s="1"/>
-      <c r="AN34" s="1"/>
-      <c r="AO34" s="1"/>
-      <c r="AP34" s="1"/>
-      <c r="AQ34" s="1"/>
-      <c r="AR34" s="1"/>
-      <c r="AS34" s="1"/>
-      <c r="AT34" s="1"/>
-      <c r="AU34" s="1"/>
-      <c r="AV34" s="1"/>
-      <c r="AW34" s="1"/>
-      <c r="AX34" s="1"/>
-      <c r="AY34" s="1"/>
-      <c r="AZ34" s="1"/>
-      <c r="BA34" s="1"/>
-      <c r="BB34" s="1"/>
-      <c r="BC34" s="1"/>
-      <c r="BD34" s="1"/>
-      <c r="BE34" s="1"/>
-      <c r="BF34" s="1"/>
-      <c r="BG34" s="1"/>
-      <c r="BH34" s="1"/>
-      <c r="BI34" s="1"/>
-      <c r="BJ34" s="1"/>
-      <c r="BK34" s="1"/>
-      <c r="BL34" s="1"/>
-      <c r="BM34" s="1"/>
-      <c r="BN34" s="1"/>
-    </row>
-    <row r="35" spans="1:66" x14ac:dyDescent="0.25">
+      <c r="D34" s="21"/>
+      <c r="E34" s="21"/>
+      <c r="F34" s="21"/>
+      <c r="G34" s="21"/>
+      <c r="H34" s="21"/>
+      <c r="I34" s="21"/>
+      <c r="J34" s="21"/>
+      <c r="K34" s="21"/>
+      <c r="L34" s="21"/>
+      <c r="M34" s="21"/>
+      <c r="N34" s="21"/>
+      <c r="O34" s="21"/>
+      <c r="P34" s="21"/>
+      <c r="Q34" s="21"/>
+      <c r="R34" s="21"/>
+      <c r="S34" s="21"/>
+      <c r="T34" s="21"/>
+      <c r="U34" s="21"/>
+      <c r="V34" s="21"/>
+      <c r="W34" s="21"/>
+      <c r="X34" s="21"/>
+      <c r="Y34" s="21"/>
+      <c r="Z34" s="21"/>
+      <c r="AA34" s="21"/>
+      <c r="AB34" s="21"/>
+      <c r="AC34" s="21"/>
+      <c r="AD34" s="21"/>
+      <c r="AE34" s="21"/>
+      <c r="AF34" s="21"/>
+      <c r="AG34" s="21"/>
+      <c r="AH34" s="21"/>
+      <c r="AI34" s="21"/>
+      <c r="AJ34" s="21"/>
+      <c r="AK34" s="21"/>
+      <c r="AL34" s="21"/>
+      <c r="AM34" s="21"/>
+      <c r="AN34" s="21"/>
+      <c r="AO34" s="21"/>
+      <c r="AP34" s="21"/>
+      <c r="AQ34" s="21"/>
+      <c r="AR34" s="21"/>
+      <c r="AS34" s="21"/>
+      <c r="AT34" s="21"/>
+      <c r="AU34" s="21"/>
+      <c r="AV34" s="21"/>
+      <c r="AW34" s="21"/>
+      <c r="AX34" s="21"/>
+      <c r="AY34" s="21"/>
+      <c r="AZ34" s="21"/>
+      <c r="BA34" s="21"/>
+      <c r="BB34" s="21"/>
+      <c r="BC34" s="21"/>
+      <c r="BD34" s="21"/>
+      <c r="BE34" s="21"/>
+      <c r="BF34" s="21"/>
+      <c r="BG34" s="21"/>
+      <c r="BH34" s="21"/>
+      <c r="BI34" s="21"/>
+      <c r="BJ34" s="21"/>
+      <c r="BK34" s="21"/>
+      <c r="BL34" s="21"/>
+      <c r="BM34" s="21"/>
+      <c r="BN34" s="21"/>
+    </row>
+    <row r="35" spans="1:66">
       <c r="B35" s="22"/>
       <c r="C35" s="29" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="D35" s="22" t="s">
         <v>58</v>
       </c>
-      <c r="E35" s="22"/>
+      <c r="E35" s="22" t="s">
+        <v>59</v>
+      </c>
       <c r="F35" s="22"/>
       <c r="G35" s="22"/>
       <c r="H35" s="23"/>
@@ -3479,10 +3962,10 @@
       <c r="BM35" s="1"/>
       <c r="BN35" s="1"/>
     </row>
-    <row r="36" spans="1:66" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:66">
       <c r="B36" s="22"/>
       <c r="C36" s="29" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D36" s="22" t="s">
         <v>58</v>
@@ -3552,12 +4035,12 @@
       <c r="BM36" s="1"/>
       <c r="BN36" s="1"/>
     </row>
-    <row r="37" spans="1:66" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:66">
       <c r="B37" s="22"/>
       <c r="C37" s="29" t="s">
-        <v>98</v>
-      </c>
-      <c r="D37" s="29" t="s">
+        <v>51</v>
+      </c>
+      <c r="D37" s="22" t="s">
         <v>58</v>
       </c>
       <c r="E37" s="22"/>
@@ -3625,16 +4108,22 @@
       <c r="BM37" s="1"/>
       <c r="BN37" s="1"/>
     </row>
-    <row r="38" spans="1:66" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:66">
       <c r="B38" s="22"/>
-      <c r="C38" s="29"/>
-      <c r="D38" s="22"/>
+      <c r="C38" s="29" t="s">
+        <v>98</v>
+      </c>
+      <c r="D38" s="29" t="s">
+        <v>58</v>
+      </c>
       <c r="E38" s="22"/>
       <c r="F38" s="22"/>
       <c r="G38" s="22"/>
       <c r="H38" s="23"/>
       <c r="I38" s="23"/>
-      <c r="J38" s="23"/>
+      <c r="J38" s="23" t="s">
+        <v>40</v>
+      </c>
       <c r="K38" s="22"/>
       <c r="L38" s="1"/>
       <c r="M38" s="1"/>
@@ -3692,162 +4181,155 @@
       <c r="BM38" s="1"/>
       <c r="BN38" s="1"/>
     </row>
-    <row r="39" spans="1:66" s="20" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B39" s="21"/>
-      <c r="C39" s="30" t="s">
+    <row r="39" spans="1:66">
+      <c r="B39" s="22"/>
+      <c r="C39" s="29"/>
+      <c r="D39" s="22"/>
+      <c r="E39" s="22"/>
+      <c r="F39" s="22"/>
+      <c r="G39" s="22"/>
+      <c r="H39" s="23"/>
+      <c r="I39" s="23"/>
+      <c r="J39" s="23"/>
+      <c r="K39" s="22"/>
+      <c r="L39" s="1"/>
+      <c r="M39" s="1"/>
+      <c r="N39" s="1"/>
+      <c r="O39" s="1"/>
+      <c r="P39" s="1"/>
+      <c r="Q39" s="1"/>
+      <c r="R39" s="1"/>
+      <c r="S39" s="1"/>
+      <c r="T39" s="1"/>
+      <c r="U39" s="1"/>
+      <c r="V39" s="1"/>
+      <c r="W39" s="1"/>
+      <c r="X39" s="1"/>
+      <c r="Y39" s="1"/>
+      <c r="Z39" s="1"/>
+      <c r="AA39" s="1"/>
+      <c r="AB39" s="1"/>
+      <c r="AC39" s="1"/>
+      <c r="AD39" s="1"/>
+      <c r="AE39" s="1"/>
+      <c r="AF39" s="1"/>
+      <c r="AG39" s="1"/>
+      <c r="AH39" s="1"/>
+      <c r="AI39" s="1"/>
+      <c r="AJ39" s="1"/>
+      <c r="AK39" s="1"/>
+      <c r="AL39" s="1"/>
+      <c r="AM39" s="1"/>
+      <c r="AN39" s="1"/>
+      <c r="AO39" s="1"/>
+      <c r="AP39" s="1"/>
+      <c r="AQ39" s="1"/>
+      <c r="AR39" s="1"/>
+      <c r="AS39" s="1"/>
+      <c r="AT39" s="1"/>
+      <c r="AU39" s="1"/>
+      <c r="AV39" s="1"/>
+      <c r="AW39" s="1"/>
+      <c r="AX39" s="1"/>
+      <c r="AY39" s="1"/>
+      <c r="AZ39" s="1"/>
+      <c r="BA39" s="1"/>
+      <c r="BB39" s="1"/>
+      <c r="BC39" s="1"/>
+      <c r="BD39" s="1"/>
+      <c r="BE39" s="1"/>
+      <c r="BF39" s="1"/>
+      <c r="BG39" s="1"/>
+      <c r="BH39" s="1"/>
+      <c r="BI39" s="1"/>
+      <c r="BJ39" s="1"/>
+      <c r="BK39" s="1"/>
+      <c r="BL39" s="1"/>
+      <c r="BM39" s="1"/>
+      <c r="BN39" s="1"/>
+    </row>
+    <row r="40" spans="1:66" s="20" customFormat="1">
+      <c r="B40" s="21"/>
+      <c r="C40" s="30" t="s">
         <v>144</v>
       </c>
-      <c r="D39" s="21" t="s">
+      <c r="D40" s="21" t="s">
         <v>131</v>
       </c>
-      <c r="E39" s="21" t="s">
+      <c r="E40" s="21" t="s">
         <v>132</v>
       </c>
-      <c r="F39" s="21" t="s">
+      <c r="F40" s="21" t="s">
         <v>57</v>
       </c>
-      <c r="G39" s="21"/>
-      <c r="H39" s="21"/>
-      <c r="I39" s="21"/>
-      <c r="J39" s="21"/>
-      <c r="K39" s="21"/>
-      <c r="L39" s="21"/>
-      <c r="M39" s="21"/>
-      <c r="N39" s="21"/>
-      <c r="O39" s="21"/>
-      <c r="P39" s="21"/>
-      <c r="Q39" s="21"/>
-      <c r="R39" s="21"/>
-      <c r="S39" s="21"/>
-      <c r="T39" s="21"/>
-      <c r="U39" s="21"/>
-      <c r="V39" s="21"/>
-      <c r="W39" s="21"/>
-      <c r="X39" s="21"/>
-      <c r="Y39" s="21"/>
-      <c r="Z39" s="21"/>
-      <c r="AA39" s="21"/>
-      <c r="AB39" s="21"/>
-      <c r="AC39" s="21"/>
-      <c r="AD39" s="21"/>
-      <c r="AE39" s="21"/>
-      <c r="AF39" s="21"/>
-      <c r="AG39" s="21"/>
-      <c r="AH39" s="21"/>
-      <c r="AI39" s="21"/>
-      <c r="AJ39" s="21"/>
-      <c r="AK39" s="21"/>
-      <c r="AL39" s="21"/>
-      <c r="AM39" s="21"/>
-      <c r="AN39" s="21"/>
-      <c r="AO39" s="21"/>
-      <c r="AP39" s="21"/>
-      <c r="AQ39" s="21"/>
-      <c r="AR39" s="21"/>
-      <c r="AS39" s="21"/>
-      <c r="AT39" s="21"/>
-      <c r="AU39" s="21"/>
-      <c r="AV39" s="21"/>
-      <c r="AW39" s="21"/>
-      <c r="AX39" s="21"/>
-      <c r="AY39" s="21"/>
-      <c r="AZ39" s="21"/>
-      <c r="BA39" s="21"/>
-      <c r="BB39" s="21"/>
-      <c r="BC39" s="21"/>
-      <c r="BD39" s="21"/>
-      <c r="BE39" s="21"/>
-      <c r="BF39" s="21"/>
-      <c r="BG39" s="21"/>
-      <c r="BH39" s="21"/>
-      <c r="BI39" s="21"/>
-      <c r="BJ39" s="21"/>
-      <c r="BK39" s="21"/>
-      <c r="BL39" s="21"/>
-      <c r="BM39" s="21"/>
-      <c r="BN39" s="21"/>
-    </row>
-    <row r="40" spans="1:66" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
-        <v>10</v>
-      </c>
-      <c r="B40" s="22"/>
-      <c r="C40" s="29" t="s">
-        <v>115</v>
-      </c>
-      <c r="D40" s="22"/>
-      <c r="E40" s="22"/>
-      <c r="F40" s="22"/>
-      <c r="G40" s="22"/>
-      <c r="H40" s="23"/>
-      <c r="I40" s="23"/>
-      <c r="J40" s="23" t="s">
-        <v>92</v>
-      </c>
-      <c r="K40" s="22"/>
-      <c r="L40" s="1"/>
-      <c r="M40" s="1"/>
-      <c r="N40" s="1"/>
-      <c r="O40" s="1"/>
-      <c r="P40" s="1"/>
-      <c r="Q40" s="1"/>
-      <c r="R40" s="1"/>
-      <c r="S40" s="1"/>
-      <c r="T40" s="1"/>
-      <c r="U40" s="1"/>
-      <c r="V40" s="1"/>
-      <c r="W40" s="1"/>
-      <c r="X40" s="1"/>
-      <c r="Y40" s="1"/>
-      <c r="Z40" s="1"/>
-      <c r="AA40" s="1"/>
-      <c r="AB40" s="1"/>
-      <c r="AC40" s="1"/>
-      <c r="AD40" s="1"/>
-      <c r="AE40" s="1"/>
-      <c r="AF40" s="1"/>
-      <c r="AG40" s="1"/>
-      <c r="AH40" s="1"/>
-      <c r="AI40" s="1"/>
-      <c r="AJ40" s="1"/>
-      <c r="AK40" s="1"/>
-      <c r="AL40" s="1"/>
-      <c r="AM40" s="1"/>
-      <c r="AN40" s="1"/>
-      <c r="AO40" s="1"/>
-      <c r="AP40" s="1"/>
-      <c r="AQ40" s="1"/>
-      <c r="AR40" s="1"/>
-      <c r="AS40" s="1"/>
-      <c r="AT40" s="1"/>
-      <c r="AU40" s="1"/>
-      <c r="AV40" s="1"/>
-      <c r="AW40" s="1"/>
-      <c r="AX40" s="1"/>
-      <c r="AY40" s="1"/>
-      <c r="AZ40" s="1"/>
-      <c r="BA40" s="1"/>
-      <c r="BB40" s="1"/>
-      <c r="BC40" s="1"/>
-      <c r="BD40" s="1"/>
-      <c r="BE40" s="1"/>
-      <c r="BF40" s="1"/>
-      <c r="BG40" s="1"/>
-      <c r="BH40" s="1"/>
-      <c r="BI40" s="1"/>
-      <c r="BJ40" s="1"/>
-      <c r="BK40" s="1"/>
-      <c r="BL40" s="1"/>
-      <c r="BM40" s="1"/>
-      <c r="BN40" s="1"/>
-    </row>
-    <row r="41" spans="1:66" x14ac:dyDescent="0.25">
+      <c r="G40" s="21"/>
+      <c r="H40" s="21"/>
+      <c r="I40" s="21"/>
+      <c r="J40" s="21"/>
+      <c r="K40" s="21"/>
+      <c r="L40" s="21"/>
+      <c r="M40" s="21"/>
+      <c r="N40" s="21"/>
+      <c r="O40" s="21"/>
+      <c r="P40" s="21"/>
+      <c r="Q40" s="21"/>
+      <c r="R40" s="21"/>
+      <c r="S40" s="21"/>
+      <c r="T40" s="21"/>
+      <c r="U40" s="21"/>
+      <c r="V40" s="21"/>
+      <c r="W40" s="21"/>
+      <c r="X40" s="21"/>
+      <c r="Y40" s="21"/>
+      <c r="Z40" s="21"/>
+      <c r="AA40" s="21"/>
+      <c r="AB40" s="21"/>
+      <c r="AC40" s="21"/>
+      <c r="AD40" s="21"/>
+      <c r="AE40" s="21"/>
+      <c r="AF40" s="21"/>
+      <c r="AG40" s="21"/>
+      <c r="AH40" s="21"/>
+      <c r="AI40" s="21"/>
+      <c r="AJ40" s="21"/>
+      <c r="AK40" s="21"/>
+      <c r="AL40" s="21"/>
+      <c r="AM40" s="21"/>
+      <c r="AN40" s="21"/>
+      <c r="AO40" s="21"/>
+      <c r="AP40" s="21"/>
+      <c r="AQ40" s="21"/>
+      <c r="AR40" s="21"/>
+      <c r="AS40" s="21"/>
+      <c r="AT40" s="21"/>
+      <c r="AU40" s="21"/>
+      <c r="AV40" s="21"/>
+      <c r="AW40" s="21"/>
+      <c r="AX40" s="21"/>
+      <c r="AY40" s="21"/>
+      <c r="AZ40" s="21"/>
+      <c r="BA40" s="21"/>
+      <c r="BB40" s="21"/>
+      <c r="BC40" s="21"/>
+      <c r="BD40" s="21"/>
+      <c r="BE40" s="21"/>
+      <c r="BF40" s="21"/>
+      <c r="BG40" s="21"/>
+      <c r="BH40" s="21"/>
+      <c r="BI40" s="21"/>
+      <c r="BJ40" s="21"/>
+      <c r="BK40" s="21"/>
+      <c r="BL40" s="21"/>
+      <c r="BM40" s="21"/>
+      <c r="BN40" s="21"/>
+    </row>
+    <row r="41" spans="1:66">
       <c r="A41" t="s">
         <v>10</v>
       </c>
       <c r="B41" s="22"/>
       <c r="C41" s="29" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D41" s="22"/>
       <c r="E41" s="22"/>
@@ -3856,7 +4338,7 @@
       <c r="H41" s="23"/>
       <c r="I41" s="23"/>
       <c r="J41" s="23" t="s">
-        <v>92</v>
+        <v>40</v>
       </c>
       <c r="K41" s="22"/>
       <c r="L41" s="1"/>
@@ -3915,13 +4397,13 @@
       <c r="BM41" s="1"/>
       <c r="BN41" s="1"/>
     </row>
-    <row r="42" spans="1:66" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:66">
       <c r="A42" t="s">
         <v>10</v>
       </c>
       <c r="B42" s="22"/>
       <c r="C42" s="29" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D42" s="22"/>
       <c r="E42" s="22"/>
@@ -3930,7 +4412,7 @@
       <c r="H42" s="23"/>
       <c r="I42" s="23"/>
       <c r="J42" s="23" t="s">
-        <v>92</v>
+        <v>40</v>
       </c>
       <c r="K42" s="22"/>
       <c r="L42" s="1"/>
@@ -3989,22 +4471,23 @@
       <c r="BM42" s="1"/>
       <c r="BN42" s="1"/>
     </row>
-    <row r="43" spans="1:66" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:66">
+      <c r="A43" t="s">
+        <v>10</v>
+      </c>
       <c r="B43" s="22"/>
       <c r="C43" s="29" t="s">
-        <v>95</v>
-      </c>
-      <c r="D43" s="22" t="s">
-        <v>81</v>
-      </c>
-      <c r="E43" s="22" t="s">
-        <v>60</v>
-      </c>
+        <v>117</v>
+      </c>
+      <c r="D43" s="22"/>
+      <c r="E43" s="22"/>
       <c r="F43" s="22"/>
       <c r="G43" s="22"/>
       <c r="H43" s="23"/>
       <c r="I43" s="23"/>
-      <c r="J43" s="23"/>
+      <c r="J43" s="23" t="s">
+        <v>40</v>
+      </c>
       <c r="K43" s="22"/>
       <c r="L43" s="1"/>
       <c r="M43" s="1"/>
@@ -4062,16 +4545,16 @@
       <c r="BM43" s="1"/>
       <c r="BN43" s="1"/>
     </row>
-    <row r="44" spans="1:66" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:66">
       <c r="B44" s="22"/>
       <c r="C44" s="29" t="s">
-        <v>143</v>
+        <v>95</v>
       </c>
       <c r="D44" s="22" t="s">
-        <v>61</v>
+        <v>81</v>
       </c>
       <c r="E44" s="22" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F44" s="22"/>
       <c r="G44" s="22"/>
@@ -4137,22 +4620,24 @@
       <c r="BM44" s="1"/>
       <c r="BN44" s="1"/>
     </row>
-    <row r="45" spans="1:66" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:66">
       <c r="B45" s="22"/>
       <c r="C45" s="29" t="s">
-        <v>121</v>
+        <v>143</v>
       </c>
       <c r="D45" s="22" t="s">
-        <v>84</v>
+        <v>61</v>
       </c>
       <c r="E45" s="22" t="s">
-        <v>84</v>
+        <v>61</v>
       </c>
       <c r="F45" s="22"/>
       <c r="G45" s="22"/>
       <c r="H45" s="23"/>
       <c r="I45" s="23"/>
-      <c r="J45" s="23"/>
+      <c r="J45" s="23" t="s">
+        <v>39</v>
+      </c>
       <c r="K45" s="22"/>
       <c r="L45" s="1"/>
       <c r="M45" s="1"/>
@@ -4210,22 +4695,24 @@
       <c r="BM45" s="1"/>
       <c r="BN45" s="1"/>
     </row>
-    <row r="46" spans="1:66" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:66">
       <c r="B46" s="22"/>
       <c r="C46" s="29" t="s">
-        <v>93</v>
+        <v>121</v>
       </c>
       <c r="D46" s="22" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="E46" s="22" t="s">
-        <v>59</v>
+        <v>84</v>
       </c>
       <c r="F46" s="22"/>
       <c r="G46" s="22"/>
       <c r="H46" s="23"/>
       <c r="I46" s="23"/>
-      <c r="J46" s="23"/>
+      <c r="J46" s="23" t="s">
+        <v>39</v>
+      </c>
       <c r="K46" s="22"/>
       <c r="L46" s="1"/>
       <c r="M46" s="1"/>
@@ -4283,22 +4770,24 @@
       <c r="BM46" s="1"/>
       <c r="BN46" s="1"/>
     </row>
-    <row r="47" spans="1:66" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:66">
       <c r="B47" s="22"/>
       <c r="C47" s="29" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D47" s="22" t="s">
         <v>81</v>
       </c>
       <c r="E47" s="22" t="s">
-        <v>84</v>
+        <v>59</v>
       </c>
       <c r="F47" s="22"/>
       <c r="G47" s="22"/>
       <c r="H47" s="23"/>
       <c r="I47" s="23"/>
-      <c r="J47" s="23"/>
+      <c r="J47" s="23" t="s">
+        <v>40</v>
+      </c>
       <c r="K47" s="22"/>
       <c r="L47" s="1"/>
       <c r="M47" s="1"/>
@@ -4356,22 +4845,23 @@
       <c r="BM47" s="1"/>
       <c r="BN47" s="1"/>
     </row>
-    <row r="48" spans="1:66" x14ac:dyDescent="0.25">
-      <c r="A48" t="s">
-        <v>10</v>
-      </c>
+    <row r="48" spans="1:66">
       <c r="B48" s="22"/>
       <c r="C48" s="29" t="s">
-        <v>118</v>
-      </c>
-      <c r="D48" s="22"/>
-      <c r="E48" s="22"/>
+        <v>94</v>
+      </c>
+      <c r="D48" s="22" t="s">
+        <v>81</v>
+      </c>
+      <c r="E48" s="22" t="s">
+        <v>84</v>
+      </c>
       <c r="F48" s="22"/>
       <c r="G48" s="22"/>
       <c r="H48" s="23"/>
       <c r="I48" s="23"/>
       <c r="J48" s="23" t="s">
-        <v>92</v>
+        <v>39</v>
       </c>
       <c r="K48" s="22"/>
       <c r="L48" s="1"/>
@@ -4430,13 +4920,13 @@
       <c r="BM48" s="1"/>
       <c r="BN48" s="1"/>
     </row>
-    <row r="49" spans="1:66" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:66">
       <c r="A49" t="s">
         <v>10</v>
       </c>
       <c r="B49" s="22"/>
       <c r="C49" s="29" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D49" s="22"/>
       <c r="E49" s="22"/>
@@ -4445,7 +4935,7 @@
       <c r="H49" s="23"/>
       <c r="I49" s="23"/>
       <c r="J49" s="23" t="s">
-        <v>92</v>
+        <v>40</v>
       </c>
       <c r="K49" s="22"/>
       <c r="L49" s="1"/>
@@ -4504,13 +4994,13 @@
       <c r="BM49" s="1"/>
       <c r="BN49" s="1"/>
     </row>
-    <row r="50" spans="1:66" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:66">
       <c r="A50" t="s">
         <v>10</v>
       </c>
       <c r="B50" s="22"/>
       <c r="C50" s="29" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D50" s="22"/>
       <c r="E50" s="22"/>
@@ -4519,7 +5009,7 @@
       <c r="H50" s="23"/>
       <c r="I50" s="23"/>
       <c r="J50" s="23" t="s">
-        <v>92</v>
+        <v>40</v>
       </c>
       <c r="K50" s="22"/>
       <c r="L50" s="1"/>
@@ -4578,16 +5068,23 @@
       <c r="BM50" s="1"/>
       <c r="BN50" s="1"/>
     </row>
-    <row r="51" spans="1:66" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:66">
+      <c r="A51" t="s">
+        <v>10</v>
+      </c>
       <c r="B51" s="22"/>
-      <c r="C51" s="29"/>
+      <c r="C51" s="29" t="s">
+        <v>120</v>
+      </c>
       <c r="D51" s="22"/>
       <c r="E51" s="22"/>
       <c r="F51" s="22"/>
       <c r="G51" s="22"/>
       <c r="H51" s="23"/>
       <c r="I51" s="23"/>
-      <c r="J51" s="23"/>
+      <c r="J51" s="23" t="s">
+        <v>40</v>
+      </c>
       <c r="K51" s="22"/>
       <c r="L51" s="1"/>
       <c r="M51" s="1"/>
@@ -4645,7 +5142,7 @@
       <c r="BM51" s="1"/>
       <c r="BN51" s="1"/>
     </row>
-    <row r="52" spans="1:66" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:66">
       <c r="B52" s="22"/>
       <c r="C52" s="29"/>
       <c r="D52" s="22"/>
@@ -4712,7 +5209,7 @@
       <c r="BM52" s="1"/>
       <c r="BN52" s="1"/>
     </row>
-    <row r="53" spans="1:66" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:66">
       <c r="B53" s="22"/>
       <c r="C53" s="29"/>
       <c r="D53" s="22"/>
@@ -4779,156 +5276,150 @@
       <c r="BM53" s="1"/>
       <c r="BN53" s="1"/>
     </row>
-    <row r="54" spans="1:66" s="20" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B54" s="21"/>
-      <c r="C54" s="30" t="s">
+    <row r="54" spans="1:66">
+      <c r="B54" s="22"/>
+      <c r="C54" s="29"/>
+      <c r="D54" s="22"/>
+      <c r="E54" s="22"/>
+      <c r="F54" s="22"/>
+      <c r="G54" s="22"/>
+      <c r="H54" s="23"/>
+      <c r="I54" s="23"/>
+      <c r="J54" s="23"/>
+      <c r="K54" s="22"/>
+      <c r="L54" s="1"/>
+      <c r="M54" s="1"/>
+      <c r="N54" s="1"/>
+      <c r="O54" s="1"/>
+      <c r="P54" s="1"/>
+      <c r="Q54" s="1"/>
+      <c r="R54" s="1"/>
+      <c r="S54" s="1"/>
+      <c r="T54" s="1"/>
+      <c r="U54" s="1"/>
+      <c r="V54" s="1"/>
+      <c r="W54" s="1"/>
+      <c r="X54" s="1"/>
+      <c r="Y54" s="1"/>
+      <c r="Z54" s="1"/>
+      <c r="AA54" s="1"/>
+      <c r="AB54" s="1"/>
+      <c r="AC54" s="1"/>
+      <c r="AD54" s="1"/>
+      <c r="AE54" s="1"/>
+      <c r="AF54" s="1"/>
+      <c r="AG54" s="1"/>
+      <c r="AH54" s="1"/>
+      <c r="AI54" s="1"/>
+      <c r="AJ54" s="1"/>
+      <c r="AK54" s="1"/>
+      <c r="AL54" s="1"/>
+      <c r="AM54" s="1"/>
+      <c r="AN54" s="1"/>
+      <c r="AO54" s="1"/>
+      <c r="AP54" s="1"/>
+      <c r="AQ54" s="1"/>
+      <c r="AR54" s="1"/>
+      <c r="AS54" s="1"/>
+      <c r="AT54" s="1"/>
+      <c r="AU54" s="1"/>
+      <c r="AV54" s="1"/>
+      <c r="AW54" s="1"/>
+      <c r="AX54" s="1"/>
+      <c r="AY54" s="1"/>
+      <c r="AZ54" s="1"/>
+      <c r="BA54" s="1"/>
+      <c r="BB54" s="1"/>
+      <c r="BC54" s="1"/>
+      <c r="BD54" s="1"/>
+      <c r="BE54" s="1"/>
+      <c r="BF54" s="1"/>
+      <c r="BG54" s="1"/>
+      <c r="BH54" s="1"/>
+      <c r="BI54" s="1"/>
+      <c r="BJ54" s="1"/>
+      <c r="BK54" s="1"/>
+      <c r="BL54" s="1"/>
+      <c r="BM54" s="1"/>
+      <c r="BN54" s="1"/>
+    </row>
+    <row r="55" spans="1:66" s="20" customFormat="1">
+      <c r="B55" s="21"/>
+      <c r="C55" s="30" t="s">
         <v>129</v>
       </c>
-      <c r="D54" s="21" t="s">
+      <c r="D55" s="21" t="s">
         <v>80</v>
       </c>
-      <c r="E54" s="21" t="s">
+      <c r="E55" s="21" t="s">
         <v>79</v>
       </c>
-      <c r="F54" s="21"/>
-      <c r="G54" s="21"/>
-      <c r="H54" s="21"/>
-      <c r="I54" s="21"/>
-      <c r="J54" s="21"/>
-      <c r="K54" s="21"/>
-      <c r="L54" s="21"/>
-      <c r="M54" s="21"/>
-      <c r="N54" s="21"/>
-      <c r="O54" s="21"/>
-      <c r="P54" s="21"/>
-      <c r="Q54" s="21"/>
-      <c r="R54" s="21"/>
-      <c r="S54" s="21"/>
-      <c r="T54" s="21"/>
-      <c r="U54" s="21"/>
-      <c r="V54" s="21"/>
-      <c r="W54" s="21"/>
-      <c r="X54" s="21"/>
-      <c r="Y54" s="21"/>
-      <c r="Z54" s="21"/>
-      <c r="AA54" s="21"/>
-      <c r="AB54" s="21"/>
-      <c r="AC54" s="21"/>
-      <c r="AD54" s="21"/>
-      <c r="AE54" s="21"/>
-      <c r="AF54" s="21"/>
-      <c r="AG54" s="21"/>
-      <c r="AH54" s="21"/>
-      <c r="AI54" s="21"/>
-      <c r="AJ54" s="21"/>
-      <c r="AK54" s="21"/>
-      <c r="AL54" s="21"/>
-      <c r="AM54" s="21"/>
-      <c r="AN54" s="21"/>
-      <c r="AO54" s="21"/>
-      <c r="AP54" s="21"/>
-      <c r="AQ54" s="21"/>
-      <c r="AR54" s="21"/>
-      <c r="AS54" s="21"/>
-      <c r="AT54" s="21"/>
-      <c r="AU54" s="21"/>
-      <c r="AV54" s="21"/>
-      <c r="AW54" s="21"/>
-      <c r="AX54" s="21"/>
-      <c r="AY54" s="21"/>
-      <c r="AZ54" s="21"/>
-      <c r="BA54" s="21"/>
-      <c r="BB54" s="21"/>
-      <c r="BC54" s="21"/>
-      <c r="BD54" s="21"/>
-      <c r="BE54" s="21"/>
-      <c r="BF54" s="21"/>
-      <c r="BG54" s="21"/>
-      <c r="BH54" s="21"/>
-      <c r="BI54" s="21"/>
-      <c r="BJ54" s="21"/>
-      <c r="BK54" s="21"/>
-      <c r="BL54" s="21"/>
-      <c r="BM54" s="21"/>
-      <c r="BN54" s="21"/>
-    </row>
-    <row r="55" spans="1:66" x14ac:dyDescent="0.25">
-      <c r="B55" s="22"/>
-      <c r="C55" s="29" t="s">
-        <v>125</v>
-      </c>
-      <c r="D55" s="22" t="s">
-        <v>60</v>
-      </c>
-      <c r="E55" s="22" t="s">
-        <v>81</v>
-      </c>
-      <c r="F55" s="22"/>
-      <c r="G55" s="22"/>
-      <c r="H55" s="23"/>
-      <c r="I55" s="23"/>
-      <c r="J55" s="23"/>
-      <c r="K55" s="22"/>
-      <c r="L55" s="1"/>
-      <c r="M55" s="1"/>
-      <c r="N55" s="1"/>
-      <c r="O55" s="1"/>
-      <c r="P55" s="1"/>
-      <c r="Q55" s="1"/>
-      <c r="R55" s="1"/>
-      <c r="S55" s="1"/>
-      <c r="T55" s="1"/>
-      <c r="U55" s="1"/>
-      <c r="V55" s="1"/>
-      <c r="W55" s="1"/>
-      <c r="X55" s="1"/>
-      <c r="Y55" s="1"/>
-      <c r="Z55" s="1"/>
-      <c r="AA55" s="1"/>
-      <c r="AB55" s="1"/>
-      <c r="AC55" s="1"/>
-      <c r="AD55" s="1"/>
-      <c r="AE55" s="1"/>
-      <c r="AF55" s="1"/>
-      <c r="AG55" s="1"/>
-      <c r="AH55" s="1"/>
-      <c r="AI55" s="1"/>
-      <c r="AJ55" s="1"/>
-      <c r="AK55" s="1"/>
-      <c r="AL55" s="1"/>
-      <c r="AM55" s="1"/>
-      <c r="AN55" s="1"/>
-      <c r="AO55" s="1"/>
-      <c r="AP55" s="1"/>
-      <c r="AQ55" s="1"/>
-      <c r="AR55" s="1"/>
-      <c r="AS55" s="1"/>
-      <c r="AT55" s="1"/>
-      <c r="AU55" s="1"/>
-      <c r="AV55" s="1"/>
-      <c r="AW55" s="1"/>
-      <c r="AX55" s="1"/>
-      <c r="AY55" s="1"/>
-      <c r="AZ55" s="1"/>
-      <c r="BA55" s="1"/>
-      <c r="BB55" s="1"/>
-      <c r="BC55" s="1"/>
-      <c r="BD55" s="1"/>
-      <c r="BE55" s="1"/>
-      <c r="BF55" s="1"/>
-      <c r="BG55" s="1"/>
-      <c r="BH55" s="1"/>
-      <c r="BI55" s="1"/>
-      <c r="BJ55" s="1"/>
-      <c r="BK55" s="1"/>
-      <c r="BL55" s="1"/>
-      <c r="BM55" s="1"/>
-      <c r="BN55" s="1"/>
-    </row>
-    <row r="56" spans="1:66" x14ac:dyDescent="0.25">
+      <c r="F55" s="21"/>
+      <c r="G55" s="21"/>
+      <c r="H55" s="21"/>
+      <c r="I55" s="21"/>
+      <c r="J55" s="21"/>
+      <c r="K55" s="21"/>
+      <c r="L55" s="21"/>
+      <c r="M55" s="21"/>
+      <c r="N55" s="21"/>
+      <c r="O55" s="21"/>
+      <c r="P55" s="21"/>
+      <c r="Q55" s="21"/>
+      <c r="R55" s="21"/>
+      <c r="S55" s="21"/>
+      <c r="T55" s="21"/>
+      <c r="U55" s="21"/>
+      <c r="V55" s="21"/>
+      <c r="W55" s="21"/>
+      <c r="X55" s="21"/>
+      <c r="Y55" s="21"/>
+      <c r="Z55" s="21"/>
+      <c r="AA55" s="21"/>
+      <c r="AB55" s="21"/>
+      <c r="AC55" s="21"/>
+      <c r="AD55" s="21"/>
+      <c r="AE55" s="21"/>
+      <c r="AF55" s="21"/>
+      <c r="AG55" s="21"/>
+      <c r="AH55" s="21"/>
+      <c r="AI55" s="21"/>
+      <c r="AJ55" s="21"/>
+      <c r="AK55" s="21"/>
+      <c r="AL55" s="21"/>
+      <c r="AM55" s="21"/>
+      <c r="AN55" s="21"/>
+      <c r="AO55" s="21"/>
+      <c r="AP55" s="21"/>
+      <c r="AQ55" s="21"/>
+      <c r="AR55" s="21"/>
+      <c r="AS55" s="21"/>
+      <c r="AT55" s="21"/>
+      <c r="AU55" s="21"/>
+      <c r="AV55" s="21"/>
+      <c r="AW55" s="21"/>
+      <c r="AX55" s="21"/>
+      <c r="AY55" s="21"/>
+      <c r="AZ55" s="21"/>
+      <c r="BA55" s="21"/>
+      <c r="BB55" s="21"/>
+      <c r="BC55" s="21"/>
+      <c r="BD55" s="21"/>
+      <c r="BE55" s="21"/>
+      <c r="BF55" s="21"/>
+      <c r="BG55" s="21"/>
+      <c r="BH55" s="21"/>
+      <c r="BI55" s="21"/>
+      <c r="BJ55" s="21"/>
+      <c r="BK55" s="21"/>
+      <c r="BL55" s="21"/>
+      <c r="BM55" s="21"/>
+      <c r="BN55" s="21"/>
+    </row>
+    <row r="56" spans="1:66">
       <c r="B56" s="22"/>
       <c r="C56" s="29" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D56" s="22" t="s">
         <v>60</v>
@@ -4940,7 +5431,9 @@
       <c r="G56" s="22"/>
       <c r="H56" s="23"/>
       <c r="I56" s="23"/>
-      <c r="J56" s="23"/>
+      <c r="J56" s="23" t="s">
+        <v>39</v>
+      </c>
       <c r="K56" s="22"/>
       <c r="L56" s="1"/>
       <c r="M56" s="1"/>
@@ -4998,22 +5491,24 @@
       <c r="BM56" s="1"/>
       <c r="BN56" s="1"/>
     </row>
-    <row r="57" spans="1:66" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:66">
       <c r="B57" s="22"/>
       <c r="C57" s="29" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D57" s="22" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E57" s="22" t="s">
-        <v>61</v>
+        <v>81</v>
       </c>
       <c r="F57" s="22"/>
       <c r="G57" s="22"/>
       <c r="H57" s="23"/>
       <c r="I57" s="23"/>
-      <c r="J57" s="23"/>
+      <c r="J57" s="23" t="s">
+        <v>39</v>
+      </c>
       <c r="K57" s="22"/>
       <c r="L57" s="1"/>
       <c r="M57" s="1"/>
@@ -5071,10 +5566,10 @@
       <c r="BM57" s="1"/>
       <c r="BN57" s="1"/>
     </row>
-    <row r="58" spans="1:66" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:66">
       <c r="B58" s="22"/>
       <c r="C58" s="29" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D58" s="22" t="s">
         <v>61</v>
@@ -5086,7 +5581,9 @@
       <c r="G58" s="22"/>
       <c r="H58" s="23"/>
       <c r="I58" s="23"/>
-      <c r="J58" s="23"/>
+      <c r="J58" s="23" t="s">
+        <v>39</v>
+      </c>
       <c r="K58" s="22"/>
       <c r="L58" s="1"/>
       <c r="M58" s="1"/>
@@ -5144,23 +5641,23 @@
       <c r="BM58" s="1"/>
       <c r="BN58" s="1"/>
     </row>
-    <row r="59" spans="1:66" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:66">
       <c r="B59" s="22"/>
       <c r="C59" s="29" t="s">
-        <v>122</v>
+        <v>128</v>
       </c>
       <c r="D59" s="22" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="E59" s="22" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="F59" s="22"/>
       <c r="G59" s="22"/>
       <c r="H59" s="23"/>
       <c r="I59" s="23"/>
       <c r="J59" s="23" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K59" s="22"/>
       <c r="L59" s="1"/>
@@ -5219,23 +5716,23 @@
       <c r="BM59" s="1"/>
       <c r="BN59" s="1"/>
     </row>
-    <row r="60" spans="1:66" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:66">
       <c r="B60" s="22"/>
       <c r="C60" s="29" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D60" s="22" t="s">
-        <v>71</v>
+        <v>58</v>
       </c>
       <c r="E60" s="22" t="s">
-        <v>71</v>
+        <v>58</v>
       </c>
       <c r="F60" s="22"/>
       <c r="G60" s="22"/>
       <c r="H60" s="23"/>
       <c r="I60" s="23"/>
       <c r="J60" s="23" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K60" s="22"/>
       <c r="L60" s="1"/>
@@ -5294,22 +5791,24 @@
       <c r="BM60" s="1"/>
       <c r="BN60" s="1"/>
     </row>
-    <row r="61" spans="1:66" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:66">
       <c r="B61" s="22"/>
       <c r="C61" s="29" t="s">
-        <v>76</v>
+        <v>123</v>
       </c>
       <c r="D61" s="22" t="s">
-        <v>58</v>
+        <v>71</v>
       </c>
       <c r="E61" s="22" t="s">
-        <v>58</v>
+        <v>71</v>
       </c>
       <c r="F61" s="22"/>
       <c r="G61" s="22"/>
       <c r="H61" s="23"/>
       <c r="I61" s="23"/>
-      <c r="J61" s="23"/>
+      <c r="J61" s="23" t="s">
+        <v>39</v>
+      </c>
       <c r="K61" s="22"/>
       <c r="L61" s="1"/>
       <c r="M61" s="1"/>
@@ -5367,22 +5866,24 @@
       <c r="BM61" s="1"/>
       <c r="BN61" s="1"/>
     </row>
-    <row r="62" spans="1:66" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:66">
       <c r="B62" s="22"/>
       <c r="C62" s="29" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D62" s="22" t="s">
-        <v>82</v>
+        <v>58</v>
       </c>
       <c r="E62" s="22" t="s">
-        <v>71</v>
+        <v>58</v>
       </c>
       <c r="F62" s="22"/>
       <c r="G62" s="22"/>
       <c r="H62" s="23"/>
       <c r="I62" s="23"/>
-      <c r="J62" s="23"/>
+      <c r="J62" s="23" t="s">
+        <v>39</v>
+      </c>
       <c r="K62" s="22"/>
       <c r="L62" s="1"/>
       <c r="M62" s="1"/>
@@ -5440,22 +5941,24 @@
       <c r="BM62" s="1"/>
       <c r="BN62" s="1"/>
     </row>
-    <row r="63" spans="1:66" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:66">
       <c r="B63" s="22"/>
       <c r="C63" s="29" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D63" s="22" t="s">
-        <v>60</v>
+        <v>82</v>
       </c>
       <c r="E63" s="22" t="s">
-        <v>60</v>
+        <v>71</v>
       </c>
       <c r="F63" s="22"/>
       <c r="G63" s="22"/>
       <c r="H63" s="23"/>
       <c r="I63" s="23"/>
-      <c r="J63" s="23"/>
+      <c r="J63" s="23" t="s">
+        <v>39</v>
+      </c>
       <c r="K63" s="22"/>
       <c r="L63" s="1"/>
       <c r="M63" s="1"/>
@@ -5513,24 +6016,24 @@
       <c r="BM63" s="1"/>
       <c r="BN63" s="1"/>
     </row>
-    <row r="64" spans="1:66" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:66">
       <c r="B64" s="22"/>
       <c r="C64" s="29" t="s">
-        <v>130</v>
+        <v>78</v>
       </c>
       <c r="D64" s="22" t="s">
-        <v>84</v>
+        <v>60</v>
       </c>
       <c r="E64" s="22" t="s">
-        <v>67</v>
-      </c>
-      <c r="F64" s="22" t="s">
-        <v>71</v>
-      </c>
+        <v>60</v>
+      </c>
+      <c r="F64" s="22"/>
       <c r="G64" s="22"/>
       <c r="H64" s="23"/>
       <c r="I64" s="23"/>
-      <c r="J64" s="23"/>
+      <c r="J64" s="23" t="s">
+        <v>39</v>
+      </c>
       <c r="K64" s="22"/>
       <c r="L64" s="1"/>
       <c r="M64" s="1"/>
@@ -5588,23 +6091,25 @@
       <c r="BM64" s="1"/>
       <c r="BN64" s="1"/>
     </row>
-    <row r="65" spans="1:66" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:66">
       <c r="B65" s="22"/>
       <c r="C65" s="29" t="s">
-        <v>124</v>
+        <v>130</v>
       </c>
       <c r="D65" s="22" t="s">
+        <v>84</v>
+      </c>
+      <c r="E65" s="22" t="s">
+        <v>67</v>
+      </c>
+      <c r="F65" s="22" t="s">
         <v>71</v>
       </c>
-      <c r="E65" s="22" t="s">
-        <v>71</v>
-      </c>
-      <c r="F65" s="22"/>
       <c r="G65" s="22"/>
       <c r="H65" s="23"/>
       <c r="I65" s="23"/>
       <c r="J65" s="23" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K65" s="22"/>
       <c r="L65" s="1"/>
@@ -5663,16 +6168,24 @@
       <c r="BM65" s="1"/>
       <c r="BN65" s="1"/>
     </row>
-    <row r="66" spans="1:66" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:66">
       <c r="B66" s="22"/>
-      <c r="C66" s="29"/>
-      <c r="D66" s="22"/>
-      <c r="E66" s="22"/>
+      <c r="C66" s="29" t="s">
+        <v>124</v>
+      </c>
+      <c r="D66" s="22" t="s">
+        <v>71</v>
+      </c>
+      <c r="E66" s="22" t="s">
+        <v>71</v>
+      </c>
       <c r="F66" s="22"/>
       <c r="G66" s="22"/>
       <c r="H66" s="23"/>
       <c r="I66" s="23"/>
-      <c r="J66" s="23"/>
+      <c r="J66" s="23" t="s">
+        <v>39</v>
+      </c>
       <c r="K66" s="22"/>
       <c r="L66" s="1"/>
       <c r="M66" s="1"/>
@@ -5730,7 +6243,7 @@
       <c r="BM66" s="1"/>
       <c r="BN66" s="1"/>
     </row>
-    <row r="67" spans="1:66" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:66">
       <c r="B67" s="22"/>
       <c r="C67" s="29"/>
       <c r="D67" s="22"/>
@@ -5797,163 +6310,157 @@
       <c r="BM67" s="1"/>
       <c r="BN67" s="1"/>
     </row>
-    <row r="68" spans="1:66" s="20" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A68"/>
-      <c r="B68" s="21"/>
-      <c r="C68" s="30" t="s">
+    <row r="68" spans="1:66">
+      <c r="B68" s="22"/>
+      <c r="C68" s="29"/>
+      <c r="D68" s="22"/>
+      <c r="E68" s="22"/>
+      <c r="F68" s="22"/>
+      <c r="G68" s="22"/>
+      <c r="H68" s="23"/>
+      <c r="I68" s="23"/>
+      <c r="J68" s="23"/>
+      <c r="K68" s="22"/>
+      <c r="L68" s="1"/>
+      <c r="M68" s="1"/>
+      <c r="N68" s="1"/>
+      <c r="O68" s="1"/>
+      <c r="P68" s="1"/>
+      <c r="Q68" s="1"/>
+      <c r="R68" s="1"/>
+      <c r="S68" s="1"/>
+      <c r="T68" s="1"/>
+      <c r="U68" s="1"/>
+      <c r="V68" s="1"/>
+      <c r="W68" s="1"/>
+      <c r="X68" s="1"/>
+      <c r="Y68" s="1"/>
+      <c r="Z68" s="1"/>
+      <c r="AA68" s="1"/>
+      <c r="AB68" s="1"/>
+      <c r="AC68" s="1"/>
+      <c r="AD68" s="1"/>
+      <c r="AE68" s="1"/>
+      <c r="AF68" s="1"/>
+      <c r="AG68" s="1"/>
+      <c r="AH68" s="1"/>
+      <c r="AI68" s="1"/>
+      <c r="AJ68" s="1"/>
+      <c r="AK68" s="1"/>
+      <c r="AL68" s="1"/>
+      <c r="AM68" s="1"/>
+      <c r="AN68" s="1"/>
+      <c r="AO68" s="1"/>
+      <c r="AP68" s="1"/>
+      <c r="AQ68" s="1"/>
+      <c r="AR68" s="1"/>
+      <c r="AS68" s="1"/>
+      <c r="AT68" s="1"/>
+      <c r="AU68" s="1"/>
+      <c r="AV68" s="1"/>
+      <c r="AW68" s="1"/>
+      <c r="AX68" s="1"/>
+      <c r="AY68" s="1"/>
+      <c r="AZ68" s="1"/>
+      <c r="BA68" s="1"/>
+      <c r="BB68" s="1"/>
+      <c r="BC68" s="1"/>
+      <c r="BD68" s="1"/>
+      <c r="BE68" s="1"/>
+      <c r="BF68" s="1"/>
+      <c r="BG68" s="1"/>
+      <c r="BH68" s="1"/>
+      <c r="BI68" s="1"/>
+      <c r="BJ68" s="1"/>
+      <c r="BK68" s="1"/>
+      <c r="BL68" s="1"/>
+      <c r="BM68" s="1"/>
+      <c r="BN68" s="1"/>
+    </row>
+    <row r="69" spans="1:66" s="20" customFormat="1">
+      <c r="A69"/>
+      <c r="B69" s="21"/>
+      <c r="C69" s="30" t="s">
         <v>107</v>
       </c>
-      <c r="D68" s="21"/>
-      <c r="E68" s="21"/>
-      <c r="F68" s="21" t="s">
+      <c r="D69" s="21"/>
+      <c r="E69" s="21"/>
+      <c r="F69" s="21" t="s">
         <v>59</v>
       </c>
-      <c r="G68" s="21"/>
-      <c r="H68" s="21"/>
-      <c r="I68" s="21"/>
-      <c r="J68" s="21"/>
-      <c r="K68" s="21"/>
-      <c r="L68" s="21"/>
-      <c r="M68" s="21"/>
-      <c r="N68" s="21"/>
-      <c r="O68" s="21"/>
-      <c r="P68" s="21"/>
-      <c r="Q68" s="21"/>
-      <c r="R68" s="21"/>
-      <c r="S68" s="21"/>
-      <c r="T68" s="21"/>
-      <c r="U68" s="21"/>
-      <c r="V68" s="21"/>
-      <c r="W68" s="21"/>
-      <c r="X68" s="21"/>
-      <c r="Y68" s="21"/>
-      <c r="Z68" s="21"/>
-      <c r="AA68" s="21"/>
-      <c r="AB68" s="21"/>
-      <c r="AC68" s="21"/>
-      <c r="AD68" s="21"/>
-      <c r="AE68" s="21"/>
-      <c r="AF68" s="21"/>
-      <c r="AG68" s="21"/>
-      <c r="AH68" s="21"/>
-      <c r="AI68" s="21"/>
-      <c r="AJ68" s="21"/>
-      <c r="AK68" s="21"/>
-      <c r="AL68" s="21"/>
-      <c r="AM68" s="21"/>
-      <c r="AN68" s="21"/>
-      <c r="AO68" s="21"/>
-      <c r="AP68" s="21"/>
-      <c r="AQ68" s="21"/>
-      <c r="AR68" s="21"/>
-      <c r="AS68" s="21"/>
-      <c r="AT68" s="21"/>
-      <c r="AU68" s="21"/>
-      <c r="AV68" s="21"/>
-      <c r="AW68" s="21"/>
-      <c r="AX68" s="21"/>
-      <c r="AY68" s="21"/>
-      <c r="AZ68" s="21"/>
-      <c r="BA68" s="21"/>
-      <c r="BB68" s="21"/>
-      <c r="BC68" s="21"/>
-      <c r="BD68" s="21"/>
-      <c r="BE68" s="21"/>
-      <c r="BF68" s="21"/>
-      <c r="BG68" s="21"/>
-      <c r="BH68" s="21"/>
-      <c r="BI68" s="21"/>
-      <c r="BJ68" s="21"/>
-      <c r="BK68" s="21"/>
-      <c r="BL68" s="21"/>
-      <c r="BM68" s="21"/>
-      <c r="BN68" s="21"/>
-    </row>
-    <row r="69" spans="1:66" x14ac:dyDescent="0.25">
-      <c r="B69" s="22"/>
-      <c r="C69" s="38" t="s">
+      <c r="G69" s="21"/>
+      <c r="H69" s="21"/>
+      <c r="I69" s="21"/>
+      <c r="J69" s="21"/>
+      <c r="K69" s="21"/>
+      <c r="L69" s="21"/>
+      <c r="M69" s="21"/>
+      <c r="N69" s="21"/>
+      <c r="O69" s="21"/>
+      <c r="P69" s="21"/>
+      <c r="Q69" s="21"/>
+      <c r="R69" s="21"/>
+      <c r="S69" s="21"/>
+      <c r="T69" s="21"/>
+      <c r="U69" s="21"/>
+      <c r="V69" s="21"/>
+      <c r="W69" s="21"/>
+      <c r="X69" s="21"/>
+      <c r="Y69" s="21"/>
+      <c r="Z69" s="21"/>
+      <c r="AA69" s="21"/>
+      <c r="AB69" s="21"/>
+      <c r="AC69" s="21"/>
+      <c r="AD69" s="21"/>
+      <c r="AE69" s="21"/>
+      <c r="AF69" s="21"/>
+      <c r="AG69" s="21"/>
+      <c r="AH69" s="21"/>
+      <c r="AI69" s="21"/>
+      <c r="AJ69" s="21"/>
+      <c r="AK69" s="21"/>
+      <c r="AL69" s="21"/>
+      <c r="AM69" s="21"/>
+      <c r="AN69" s="21"/>
+      <c r="AO69" s="21"/>
+      <c r="AP69" s="21"/>
+      <c r="AQ69" s="21"/>
+      <c r="AR69" s="21"/>
+      <c r="AS69" s="21"/>
+      <c r="AT69" s="21"/>
+      <c r="AU69" s="21"/>
+      <c r="AV69" s="21"/>
+      <c r="AW69" s="21"/>
+      <c r="AX69" s="21"/>
+      <c r="AY69" s="21"/>
+      <c r="AZ69" s="21"/>
+      <c r="BA69" s="21"/>
+      <c r="BB69" s="21"/>
+      <c r="BC69" s="21"/>
+      <c r="BD69" s="21"/>
+      <c r="BE69" s="21"/>
+      <c r="BF69" s="21"/>
+      <c r="BG69" s="21"/>
+      <c r="BH69" s="21"/>
+      <c r="BI69" s="21"/>
+      <c r="BJ69" s="21"/>
+      <c r="BK69" s="21"/>
+      <c r="BL69" s="21"/>
+      <c r="BM69" s="21"/>
+      <c r="BN69" s="21"/>
+    </row>
+    <row r="70" spans="1:66">
+      <c r="B70" s="22"/>
+      <c r="C70" s="38" t="s">
         <v>108</v>
       </c>
-      <c r="D69" s="22"/>
-      <c r="E69" s="22"/>
-      <c r="F69" s="22"/>
-      <c r="G69" s="22"/>
-      <c r="H69" s="23"/>
-      <c r="I69" s="23"/>
-      <c r="J69" s="23"/>
-      <c r="K69" s="22"/>
-      <c r="L69" s="1"/>
-      <c r="M69" s="1"/>
-      <c r="N69" s="1"/>
-      <c r="O69" s="1"/>
-      <c r="P69" s="1"/>
-      <c r="Q69" s="1"/>
-      <c r="R69" s="1"/>
-      <c r="S69" s="1"/>
-      <c r="T69" s="1"/>
-      <c r="U69" s="1"/>
-      <c r="V69" s="1"/>
-      <c r="W69" s="1"/>
-      <c r="X69" s="1"/>
-      <c r="Y69" s="1"/>
-      <c r="Z69" s="1"/>
-      <c r="AA69" s="1"/>
-      <c r="AB69" s="1"/>
-      <c r="AC69" s="1"/>
-      <c r="AD69" s="1"/>
-      <c r="AE69" s="1"/>
-      <c r="AF69" s="1"/>
-      <c r="AG69" s="1"/>
-      <c r="AH69" s="1"/>
-      <c r="AI69" s="1"/>
-      <c r="AJ69" s="1"/>
-      <c r="AK69" s="1"/>
-      <c r="AL69" s="1"/>
-      <c r="AM69" s="1"/>
-      <c r="AN69" s="1"/>
-      <c r="AO69" s="1"/>
-      <c r="AP69" s="1"/>
-      <c r="AQ69" s="1"/>
-      <c r="AR69" s="1"/>
-      <c r="AS69" s="1"/>
-      <c r="AT69" s="1"/>
-      <c r="AU69" s="1"/>
-      <c r="AV69" s="1"/>
-      <c r="AW69" s="1"/>
-      <c r="AX69" s="1"/>
-      <c r="AY69" s="1"/>
-      <c r="AZ69" s="1"/>
-      <c r="BA69" s="1"/>
-      <c r="BB69" s="1"/>
-      <c r="BC69" s="1"/>
-      <c r="BD69" s="1"/>
-      <c r="BE69" s="1"/>
-      <c r="BF69" s="1"/>
-      <c r="BG69" s="1"/>
-      <c r="BH69" s="1"/>
-      <c r="BI69" s="1"/>
-      <c r="BJ69" s="1"/>
-      <c r="BK69" s="1"/>
-      <c r="BL69" s="1"/>
-      <c r="BM69" s="1"/>
-      <c r="BN69" s="1"/>
-    </row>
-    <row r="70" spans="1:66" x14ac:dyDescent="0.25">
-      <c r="B70" s="22"/>
-      <c r="C70" s="29" t="s">
-        <v>109</v>
-      </c>
-      <c r="D70" s="22" t="s">
-        <v>59</v>
-      </c>
+      <c r="D70" s="22"/>
       <c r="E70" s="22"/>
       <c r="F70" s="22"/>
       <c r="G70" s="22"/>
       <c r="H70" s="23"/>
       <c r="I70" s="23"/>
-      <c r="J70" s="23" t="s">
-        <v>40</v>
-      </c>
+      <c r="J70" s="23"/>
       <c r="K70" s="22"/>
       <c r="L70" s="1"/>
       <c r="M70" s="1"/>
@@ -6011,10 +6518,10 @@
       <c r="BM70" s="1"/>
       <c r="BN70" s="1"/>
     </row>
-    <row r="71" spans="1:66" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:66">
       <c r="B71" s="22"/>
       <c r="C71" s="29" t="s">
-        <v>99</v>
+        <v>109</v>
       </c>
       <c r="D71" s="22" t="s">
         <v>59</v>
@@ -6025,7 +6532,7 @@
       <c r="H71" s="23"/>
       <c r="I71" s="23"/>
       <c r="J71" s="23" t="s">
-        <v>92</v>
+        <v>40</v>
       </c>
       <c r="K71" s="22"/>
       <c r="L71" s="1"/>
@@ -6084,18 +6591,22 @@
       <c r="BM71" s="1"/>
       <c r="BN71" s="1"/>
     </row>
-    <row r="72" spans="1:66" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:66">
       <c r="B72" s="22"/>
-      <c r="C72" s="38" t="s">
-        <v>110</v>
-      </c>
-      <c r="D72" s="22"/>
+      <c r="C72" s="29" t="s">
+        <v>99</v>
+      </c>
+      <c r="D72" s="22" t="s">
+        <v>59</v>
+      </c>
       <c r="E72" s="22"/>
       <c r="F72" s="22"/>
       <c r="G72" s="22"/>
       <c r="H72" s="23"/>
       <c r="I72" s="23"/>
-      <c r="J72" s="23"/>
+      <c r="J72" s="23" t="s">
+        <v>39</v>
+      </c>
       <c r="K72" s="22"/>
       <c r="L72" s="1"/>
       <c r="M72" s="1"/>
@@ -6153,22 +6664,18 @@
       <c r="BM72" s="1"/>
       <c r="BN72" s="1"/>
     </row>
-    <row r="73" spans="1:66" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:66">
       <c r="B73" s="22"/>
-      <c r="C73" s="29" t="s">
-        <v>100</v>
-      </c>
-      <c r="D73" s="22" t="s">
-        <v>59</v>
-      </c>
+      <c r="C73" s="38" t="s">
+        <v>110</v>
+      </c>
+      <c r="D73" s="22"/>
       <c r="E73" s="22"/>
       <c r="F73" s="22"/>
       <c r="G73" s="22"/>
       <c r="H73" s="23"/>
       <c r="I73" s="23"/>
-      <c r="J73" s="23" t="s">
-        <v>92</v>
-      </c>
+      <c r="J73" s="23"/>
       <c r="K73" s="22"/>
       <c r="L73" s="1"/>
       <c r="M73" s="1"/>
@@ -6226,10 +6733,10 @@
       <c r="BM73" s="1"/>
       <c r="BN73" s="1"/>
     </row>
-    <row r="74" spans="1:66" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:66">
       <c r="B74" s="22"/>
       <c r="C74" s="29" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D74" s="22" t="s">
         <v>59</v>
@@ -6240,7 +6747,7 @@
       <c r="H74" s="23"/>
       <c r="I74" s="23"/>
       <c r="J74" s="23" t="s">
-        <v>92</v>
+        <v>39</v>
       </c>
       <c r="K74" s="22"/>
       <c r="L74" s="1"/>
@@ -6299,13 +6806,13 @@
       <c r="BM74" s="1"/>
       <c r="BN74" s="1"/>
     </row>
-    <row r="75" spans="1:66" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:66">
       <c r="B75" s="22"/>
       <c r="C75" s="29" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D75" s="22" t="s">
-        <v>59</v>
+        <v>145</v>
       </c>
       <c r="E75" s="22"/>
       <c r="F75" s="22"/>
@@ -6313,7 +6820,7 @@
       <c r="H75" s="23"/>
       <c r="I75" s="23"/>
       <c r="J75" s="23" t="s">
-        <v>92</v>
+        <v>39</v>
       </c>
       <c r="K75" s="22"/>
       <c r="L75" s="1"/>
@@ -6372,13 +6879,13 @@
       <c r="BM75" s="1"/>
       <c r="BN75" s="1"/>
     </row>
-    <row r="76" spans="1:66" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:66">
       <c r="B76" s="22"/>
       <c r="C76" s="29" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D76" s="22" t="s">
-        <v>57</v>
+        <v>145</v>
       </c>
       <c r="E76" s="22"/>
       <c r="F76" s="22"/>
@@ -6386,7 +6893,7 @@
       <c r="H76" s="23"/>
       <c r="I76" s="23"/>
       <c r="J76" s="23" t="s">
-        <v>92</v>
+        <v>39</v>
       </c>
       <c r="K76" s="22"/>
       <c r="L76" s="1"/>
@@ -6445,10 +6952,10 @@
       <c r="BM76" s="1"/>
       <c r="BN76" s="1"/>
     </row>
-    <row r="77" spans="1:66" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:66">
       <c r="B77" s="22"/>
-      <c r="C77" s="38" t="s">
-        <v>104</v>
+      <c r="C77" s="29" t="s">
+        <v>103</v>
       </c>
       <c r="D77" s="22" t="s">
         <v>57</v>
@@ -6459,7 +6966,7 @@
       <c r="H77" s="23"/>
       <c r="I77" s="23"/>
       <c r="J77" s="23" t="s">
-        <v>92</v>
+        <v>39</v>
       </c>
       <c r="K77" s="22"/>
       <c r="L77" s="1"/>
@@ -6518,10 +7025,10 @@
       <c r="BM77" s="1"/>
       <c r="BN77" s="1"/>
     </row>
-    <row r="78" spans="1:66" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:66">
       <c r="B78" s="22"/>
       <c r="C78" s="38" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D78" s="22" t="s">
         <v>57</v>
@@ -6532,7 +7039,7 @@
       <c r="H78" s="23"/>
       <c r="I78" s="23"/>
       <c r="J78" s="23" t="s">
-        <v>92</v>
+        <v>39</v>
       </c>
       <c r="K78" s="22"/>
       <c r="L78" s="1"/>
@@ -6591,10 +7098,10 @@
       <c r="BM78" s="1"/>
       <c r="BN78" s="1"/>
     </row>
-    <row r="79" spans="1:66" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:66">
       <c r="B79" s="22"/>
       <c r="C79" s="38" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="D79" s="22" t="s">
         <v>57</v>
@@ -6605,7 +7112,7 @@
       <c r="H79" s="23"/>
       <c r="I79" s="23"/>
       <c r="J79" s="23" t="s">
-        <v>92</v>
+        <v>39</v>
       </c>
       <c r="K79" s="22"/>
       <c r="L79" s="1"/>
@@ -6664,10 +7171,10 @@
       <c r="BM79" s="1"/>
       <c r="BN79" s="1"/>
     </row>
-    <row r="80" spans="1:66" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:66">
       <c r="B80" s="22"/>
       <c r="C80" s="38" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="D80" s="22" t="s">
         <v>57</v>
@@ -6678,7 +7185,7 @@
       <c r="H80" s="23"/>
       <c r="I80" s="23"/>
       <c r="J80" s="23" t="s">
-        <v>92</v>
+        <v>39</v>
       </c>
       <c r="K80" s="22"/>
       <c r="L80" s="1"/>
@@ -6737,16 +7244,22 @@
       <c r="BM80" s="1"/>
       <c r="BN80" s="1"/>
     </row>
-    <row r="81" spans="1:66" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:66">
       <c r="B81" s="22"/>
-      <c r="C81" s="29"/>
-      <c r="D81" s="22"/>
+      <c r="C81" s="38" t="s">
+        <v>106</v>
+      </c>
+      <c r="D81" s="22" t="s">
+        <v>57</v>
+      </c>
       <c r="E81" s="22"/>
       <c r="F81" s="22"/>
       <c r="G81" s="22"/>
       <c r="H81" s="23"/>
       <c r="I81" s="23"/>
-      <c r="J81" s="23"/>
+      <c r="J81" s="23" t="s">
+        <v>39</v>
+      </c>
       <c r="K81" s="22"/>
       <c r="L81" s="1"/>
       <c r="M81" s="1"/>
@@ -6804,149 +7317,147 @@
       <c r="BM81" s="1"/>
       <c r="BN81" s="1"/>
     </row>
-    <row r="82" spans="1:66" s="20" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A82"/>
-      <c r="B82" s="21"/>
-      <c r="C82" s="30" t="s">
+    <row r="82" spans="1:66">
+      <c r="B82" s="22"/>
+      <c r="C82" s="29"/>
+      <c r="D82" s="22"/>
+      <c r="E82" s="22"/>
+      <c r="F82" s="22"/>
+      <c r="G82" s="22"/>
+      <c r="H82" s="23"/>
+      <c r="I82" s="23"/>
+      <c r="J82" s="23"/>
+      <c r="K82" s="22"/>
+      <c r="L82" s="1"/>
+      <c r="M82" s="1"/>
+      <c r="N82" s="1"/>
+      <c r="O82" s="1"/>
+      <c r="P82" s="1"/>
+      <c r="Q82" s="1"/>
+      <c r="R82" s="1"/>
+      <c r="S82" s="1"/>
+      <c r="T82" s="1"/>
+      <c r="U82" s="1"/>
+      <c r="V82" s="1"/>
+      <c r="W82" s="1"/>
+      <c r="X82" s="1"/>
+      <c r="Y82" s="1"/>
+      <c r="Z82" s="1"/>
+      <c r="AA82" s="1"/>
+      <c r="AB82" s="1"/>
+      <c r="AC82" s="1"/>
+      <c r="AD82" s="1"/>
+      <c r="AE82" s="1"/>
+      <c r="AF82" s="1"/>
+      <c r="AG82" s="1"/>
+      <c r="AH82" s="1"/>
+      <c r="AI82" s="1"/>
+      <c r="AJ82" s="1"/>
+      <c r="AK82" s="1"/>
+      <c r="AL82" s="1"/>
+      <c r="AM82" s="1"/>
+      <c r="AN82" s="1"/>
+      <c r="AO82" s="1"/>
+      <c r="AP82" s="1"/>
+      <c r="AQ82" s="1"/>
+      <c r="AR82" s="1"/>
+      <c r="AS82" s="1"/>
+      <c r="AT82" s="1"/>
+      <c r="AU82" s="1"/>
+      <c r="AV82" s="1"/>
+      <c r="AW82" s="1"/>
+      <c r="AX82" s="1"/>
+      <c r="AY82" s="1"/>
+      <c r="AZ82" s="1"/>
+      <c r="BA82" s="1"/>
+      <c r="BB82" s="1"/>
+      <c r="BC82" s="1"/>
+      <c r="BD82" s="1"/>
+      <c r="BE82" s="1"/>
+      <c r="BF82" s="1"/>
+      <c r="BG82" s="1"/>
+      <c r="BH82" s="1"/>
+      <c r="BI82" s="1"/>
+      <c r="BJ82" s="1"/>
+      <c r="BK82" s="1"/>
+      <c r="BL82" s="1"/>
+      <c r="BM82" s="1"/>
+      <c r="BN82" s="1"/>
+    </row>
+    <row r="83" spans="1:66" s="20" customFormat="1">
+      <c r="A83"/>
+      <c r="B83" s="21"/>
+      <c r="C83" s="30" t="s">
         <v>112</v>
       </c>
-      <c r="D82" s="21"/>
-      <c r="E82" s="21"/>
-      <c r="F82" s="21"/>
-      <c r="G82" s="21"/>
-      <c r="H82" s="21"/>
-      <c r="I82" s="21"/>
-      <c r="J82" s="21"/>
-      <c r="K82" s="21"/>
-      <c r="L82" s="21"/>
-      <c r="M82" s="21"/>
-      <c r="N82" s="21"/>
-      <c r="O82" s="21"/>
-      <c r="P82" s="21"/>
-      <c r="Q82" s="21"/>
-      <c r="R82" s="21"/>
-      <c r="S82" s="21"/>
-      <c r="T82" s="21"/>
-      <c r="U82" s="21"/>
-      <c r="V82" s="21"/>
-      <c r="W82" s="21"/>
-      <c r="X82" s="21"/>
-      <c r="Y82" s="21"/>
-      <c r="Z82" s="21"/>
-      <c r="AA82" s="21"/>
-      <c r="AB82" s="21"/>
-      <c r="AC82" s="21"/>
-      <c r="AD82" s="21"/>
-      <c r="AE82" s="21"/>
-      <c r="AF82" s="21"/>
-      <c r="AG82" s="21"/>
-      <c r="AH82" s="21"/>
-      <c r="AI82" s="21"/>
-      <c r="AJ82" s="21"/>
-      <c r="AK82" s="21"/>
-      <c r="AL82" s="21"/>
-      <c r="AM82" s="21"/>
-      <c r="AN82" s="21"/>
-      <c r="AO82" s="21"/>
-      <c r="AP82" s="21"/>
-      <c r="AQ82" s="21"/>
-      <c r="AR82" s="21"/>
-      <c r="AS82" s="21"/>
-      <c r="AT82" s="21"/>
-      <c r="AU82" s="21"/>
-      <c r="AV82" s="21"/>
-      <c r="AW82" s="21"/>
-      <c r="AX82" s="21"/>
-      <c r="AY82" s="21"/>
-      <c r="AZ82" s="21"/>
-      <c r="BA82" s="21"/>
-      <c r="BB82" s="21"/>
-      <c r="BC82" s="21"/>
-      <c r="BD82" s="21"/>
-      <c r="BE82" s="21"/>
-      <c r="BF82" s="21"/>
-      <c r="BG82" s="21"/>
-      <c r="BH82" s="21"/>
-      <c r="BI82" s="21"/>
-      <c r="BJ82" s="21"/>
-      <c r="BK82" s="21"/>
-      <c r="BL82" s="21"/>
-      <c r="BM82" s="21"/>
-      <c r="BN82" s="21"/>
-    </row>
-    <row r="83" spans="1:66" x14ac:dyDescent="0.25">
-      <c r="B83" s="22"/>
-      <c r="C83" s="37" t="s">
-        <v>113</v>
-      </c>
-      <c r="D83" s="22"/>
-      <c r="E83" s="22"/>
-      <c r="F83" s="22"/>
-      <c r="G83" s="22"/>
-      <c r="H83" s="23"/>
-      <c r="I83" s="23"/>
-      <c r="J83" s="23"/>
-      <c r="K83" s="22"/>
-      <c r="L83" s="1"/>
-      <c r="M83" s="1"/>
-      <c r="N83" s="1"/>
-      <c r="O83" s="1"/>
-      <c r="P83" s="1"/>
-      <c r="Q83" s="1"/>
-      <c r="R83" s="1"/>
-      <c r="S83" s="1"/>
-      <c r="T83" s="1"/>
-      <c r="U83" s="1"/>
-      <c r="V83" s="1"/>
-      <c r="W83" s="1"/>
-      <c r="X83" s="1"/>
-      <c r="Y83" s="1"/>
-      <c r="Z83" s="1"/>
-      <c r="AA83" s="1"/>
-      <c r="AB83" s="1"/>
-      <c r="AC83" s="1"/>
-      <c r="AD83" s="1"/>
-      <c r="AE83" s="1"/>
-      <c r="AF83" s="1"/>
-      <c r="AG83" s="1"/>
-      <c r="AH83" s="1"/>
-      <c r="AI83" s="1"/>
-      <c r="AJ83" s="1"/>
-      <c r="AK83" s="1"/>
-      <c r="AL83" s="1"/>
-      <c r="AM83" s="1"/>
-      <c r="AN83" s="1"/>
-      <c r="AO83" s="1"/>
-      <c r="AP83" s="1"/>
-      <c r="AQ83" s="1"/>
-      <c r="AR83" s="1"/>
-      <c r="AS83" s="1"/>
-      <c r="AT83" s="1"/>
-      <c r="AU83" s="1"/>
-      <c r="AV83" s="1"/>
-      <c r="AW83" s="1"/>
-      <c r="AX83" s="1"/>
-      <c r="AY83" s="1"/>
-      <c r="AZ83" s="1"/>
-      <c r="BA83" s="1"/>
-      <c r="BB83" s="1"/>
-      <c r="BC83" s="1"/>
-      <c r="BD83" s="1"/>
-      <c r="BE83" s="1"/>
-      <c r="BF83" s="1"/>
-      <c r="BG83" s="1"/>
-      <c r="BH83" s="1"/>
-      <c r="BI83" s="1"/>
-      <c r="BJ83" s="1"/>
-      <c r="BK83" s="1"/>
-      <c r="BL83" s="1"/>
-      <c r="BM83" s="1"/>
-      <c r="BN83" s="1"/>
-    </row>
-    <row r="84" spans="1:66" x14ac:dyDescent="0.25">
+      <c r="D83" s="21"/>
+      <c r="E83" s="21"/>
+      <c r="F83" s="21"/>
+      <c r="G83" s="21"/>
+      <c r="H83" s="21"/>
+      <c r="I83" s="21"/>
+      <c r="J83" s="21"/>
+      <c r="K83" s="21"/>
+      <c r="L83" s="21"/>
+      <c r="M83" s="21"/>
+      <c r="N83" s="21"/>
+      <c r="O83" s="21"/>
+      <c r="P83" s="21"/>
+      <c r="Q83" s="21"/>
+      <c r="R83" s="21"/>
+      <c r="S83" s="21"/>
+      <c r="T83" s="21"/>
+      <c r="U83" s="21"/>
+      <c r="V83" s="21"/>
+      <c r="W83" s="21"/>
+      <c r="X83" s="21"/>
+      <c r="Y83" s="21"/>
+      <c r="Z83" s="21"/>
+      <c r="AA83" s="21"/>
+      <c r="AB83" s="21"/>
+      <c r="AC83" s="21"/>
+      <c r="AD83" s="21"/>
+      <c r="AE83" s="21"/>
+      <c r="AF83" s="21"/>
+      <c r="AG83" s="21"/>
+      <c r="AH83" s="21"/>
+      <c r="AI83" s="21"/>
+      <c r="AJ83" s="21"/>
+      <c r="AK83" s="21"/>
+      <c r="AL83" s="21"/>
+      <c r="AM83" s="21"/>
+      <c r="AN83" s="21"/>
+      <c r="AO83" s="21"/>
+      <c r="AP83" s="21"/>
+      <c r="AQ83" s="21"/>
+      <c r="AR83" s="21"/>
+      <c r="AS83" s="21"/>
+      <c r="AT83" s="21"/>
+      <c r="AU83" s="21"/>
+      <c r="AV83" s="21"/>
+      <c r="AW83" s="21"/>
+      <c r="AX83" s="21"/>
+      <c r="AY83" s="21"/>
+      <c r="AZ83" s="21"/>
+      <c r="BA83" s="21"/>
+      <c r="BB83" s="21"/>
+      <c r="BC83" s="21"/>
+      <c r="BD83" s="21"/>
+      <c r="BE83" s="21"/>
+      <c r="BF83" s="21"/>
+      <c r="BG83" s="21"/>
+      <c r="BH83" s="21"/>
+      <c r="BI83" s="21"/>
+      <c r="BJ83" s="21"/>
+      <c r="BK83" s="21"/>
+      <c r="BL83" s="21"/>
+      <c r="BM83" s="21"/>
+      <c r="BN83" s="21"/>
+    </row>
+    <row r="84" spans="1:66">
       <c r="B84" s="22"/>
       <c r="C84" s="37" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D84" s="22"/>
       <c r="E84" s="22"/>
@@ -7012,9 +7523,11 @@
       <c r="BM84" s="1"/>
       <c r="BN84" s="1"/>
     </row>
-    <row r="85" spans="1:66" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:66">
       <c r="B85" s="22"/>
-      <c r="C85" s="29"/>
+      <c r="C85" s="37" t="s">
+        <v>114</v>
+      </c>
       <c r="D85" s="22"/>
       <c r="E85" s="22"/>
       <c r="F85" s="22"/>
@@ -7079,168 +7592,168 @@
       <c r="BM85" s="1"/>
       <c r="BN85" s="1"/>
     </row>
-    <row r="86" spans="1:66" s="20" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A86">
+    <row r="86" spans="1:66">
+      <c r="B86" s="22"/>
+      <c r="C86" s="29"/>
+      <c r="D86" s="22"/>
+      <c r="E86" s="22"/>
+      <c r="F86" s="22"/>
+      <c r="G86" s="22"/>
+      <c r="H86" s="23"/>
+      <c r="I86" s="23"/>
+      <c r="J86" s="23"/>
+      <c r="K86" s="22"/>
+      <c r="L86" s="1"/>
+      <c r="M86" s="1"/>
+      <c r="N86" s="1"/>
+      <c r="O86" s="1"/>
+      <c r="P86" s="1"/>
+      <c r="Q86" s="1"/>
+      <c r="R86" s="1"/>
+      <c r="S86" s="1"/>
+      <c r="T86" s="1"/>
+      <c r="U86" s="1"/>
+      <c r="V86" s="1"/>
+      <c r="W86" s="1"/>
+      <c r="X86" s="1"/>
+      <c r="Y86" s="1"/>
+      <c r="Z86" s="1"/>
+      <c r="AA86" s="1"/>
+      <c r="AB86" s="1"/>
+      <c r="AC86" s="1"/>
+      <c r="AD86" s="1"/>
+      <c r="AE86" s="1"/>
+      <c r="AF86" s="1"/>
+      <c r="AG86" s="1"/>
+      <c r="AH86" s="1"/>
+      <c r="AI86" s="1"/>
+      <c r="AJ86" s="1"/>
+      <c r="AK86" s="1"/>
+      <c r="AL86" s="1"/>
+      <c r="AM86" s="1"/>
+      <c r="AN86" s="1"/>
+      <c r="AO86" s="1"/>
+      <c r="AP86" s="1"/>
+      <c r="AQ86" s="1"/>
+      <c r="AR86" s="1"/>
+      <c r="AS86" s="1"/>
+      <c r="AT86" s="1"/>
+      <c r="AU86" s="1"/>
+      <c r="AV86" s="1"/>
+      <c r="AW86" s="1"/>
+      <c r="AX86" s="1"/>
+      <c r="AY86" s="1"/>
+      <c r="AZ86" s="1"/>
+      <c r="BA86" s="1"/>
+      <c r="BB86" s="1"/>
+      <c r="BC86" s="1"/>
+      <c r="BD86" s="1"/>
+      <c r="BE86" s="1"/>
+      <c r="BF86" s="1"/>
+      <c r="BG86" s="1"/>
+      <c r="BH86" s="1"/>
+      <c r="BI86" s="1"/>
+      <c r="BJ86" s="1"/>
+      <c r="BK86" s="1"/>
+      <c r="BL86" s="1"/>
+      <c r="BM86" s="1"/>
+      <c r="BN86" s="1"/>
+    </row>
+    <row r="87" spans="1:66" s="20" customFormat="1">
+      <c r="A87">
         <v>5</v>
       </c>
-      <c r="B86" s="21"/>
-      <c r="C86" s="30" t="s">
+      <c r="B87" s="21"/>
+      <c r="C87" s="30" t="s">
         <v>54</v>
       </c>
-      <c r="D86" s="21"/>
-      <c r="E86" s="21"/>
-      <c r="F86" s="21"/>
-      <c r="G86" s="21"/>
-      <c r="H86" s="21"/>
-      <c r="I86" s="21"/>
-      <c r="J86" s="21"/>
-      <c r="K86" s="21"/>
-      <c r="L86" s="21"/>
-      <c r="M86" s="21"/>
-      <c r="N86" s="21"/>
-      <c r="O86" s="21"/>
-      <c r="P86" s="21"/>
-      <c r="Q86" s="21"/>
-      <c r="R86" s="21"/>
-      <c r="S86" s="21"/>
-      <c r="T86" s="21"/>
-      <c r="U86" s="21"/>
-      <c r="V86" s="21"/>
-      <c r="W86" s="21"/>
-      <c r="X86" s="21"/>
-      <c r="Y86" s="21"/>
-      <c r="Z86" s="21"/>
-      <c r="AA86" s="21"/>
-      <c r="AB86" s="21"/>
-      <c r="AC86" s="21"/>
-      <c r="AD86" s="21"/>
-      <c r="AE86" s="21"/>
-      <c r="AF86" s="21"/>
-      <c r="AG86" s="21"/>
-      <c r="AH86" s="21"/>
-      <c r="AI86" s="21"/>
-      <c r="AJ86" s="21"/>
-      <c r="AK86" s="21"/>
-      <c r="AL86" s="21"/>
-      <c r="AM86" s="21"/>
-      <c r="AN86" s="21"/>
-      <c r="AO86" s="21"/>
-      <c r="AP86" s="21"/>
-      <c r="AQ86" s="21"/>
-      <c r="AR86" s="21"/>
-      <c r="AS86" s="21"/>
-      <c r="AT86" s="21"/>
-      <c r="AU86" s="21"/>
-      <c r="AV86" s="21"/>
-      <c r="AW86" s="21"/>
-      <c r="AX86" s="21"/>
-      <c r="AY86" s="21"/>
-      <c r="AZ86" s="21"/>
-      <c r="BA86" s="21"/>
-      <c r="BB86" s="21"/>
-      <c r="BC86" s="21"/>
-      <c r="BD86" s="21"/>
-      <c r="BE86" s="21"/>
-      <c r="BF86" s="21"/>
-      <c r="BG86" s="21"/>
-      <c r="BH86" s="21"/>
-      <c r="BI86" s="21"/>
-      <c r="BJ86" s="21"/>
-      <c r="BK86" s="21"/>
-      <c r="BL86" s="21"/>
-      <c r="BM86" s="21"/>
-      <c r="BN86" s="21"/>
-    </row>
-    <row r="87" spans="1:66" x14ac:dyDescent="0.25">
-      <c r="A87">
+      <c r="D87" s="21"/>
+      <c r="E87" s="21"/>
+      <c r="F87" s="21"/>
+      <c r="G87" s="21"/>
+      <c r="H87" s="21"/>
+      <c r="I87" s="21"/>
+      <c r="J87" s="21"/>
+      <c r="K87" s="21"/>
+      <c r="L87" s="21"/>
+      <c r="M87" s="21"/>
+      <c r="N87" s="21"/>
+      <c r="O87" s="21"/>
+      <c r="P87" s="21"/>
+      <c r="Q87" s="21"/>
+      <c r="R87" s="21"/>
+      <c r="S87" s="21"/>
+      <c r="T87" s="21"/>
+      <c r="U87" s="21"/>
+      <c r="V87" s="21"/>
+      <c r="W87" s="21"/>
+      <c r="X87" s="21"/>
+      <c r="Y87" s="21"/>
+      <c r="Z87" s="21"/>
+      <c r="AA87" s="21"/>
+      <c r="AB87" s="21"/>
+      <c r="AC87" s="21"/>
+      <c r="AD87" s="21"/>
+      <c r="AE87" s="21"/>
+      <c r="AF87" s="21"/>
+      <c r="AG87" s="21"/>
+      <c r="AH87" s="21"/>
+      <c r="AI87" s="21"/>
+      <c r="AJ87" s="21"/>
+      <c r="AK87" s="21"/>
+      <c r="AL87" s="21"/>
+      <c r="AM87" s="21"/>
+      <c r="AN87" s="21"/>
+      <c r="AO87" s="21"/>
+      <c r="AP87" s="21"/>
+      <c r="AQ87" s="21"/>
+      <c r="AR87" s="21"/>
+      <c r="AS87" s="21"/>
+      <c r="AT87" s="21"/>
+      <c r="AU87" s="21"/>
+      <c r="AV87" s="21"/>
+      <c r="AW87" s="21"/>
+      <c r="AX87" s="21"/>
+      <c r="AY87" s="21"/>
+      <c r="AZ87" s="21"/>
+      <c r="BA87" s="21"/>
+      <c r="BB87" s="21"/>
+      <c r="BC87" s="21"/>
+      <c r="BD87" s="21"/>
+      <c r="BE87" s="21"/>
+      <c r="BF87" s="21"/>
+      <c r="BG87" s="21"/>
+      <c r="BH87" s="21"/>
+      <c r="BI87" s="21"/>
+      <c r="BJ87" s="21"/>
+      <c r="BK87" s="21"/>
+      <c r="BL87" s="21"/>
+      <c r="BM87" s="21"/>
+      <c r="BN87" s="21"/>
+    </row>
+    <row r="88" spans="1:66">
+      <c r="A88">
         <v>6</v>
       </c>
-      <c r="B87" s="22">
+      <c r="B88" s="22">
         <v>5</v>
       </c>
-      <c r="C87" s="29" t="s">
+      <c r="C88" s="29" t="s">
         <v>85</v>
       </c>
-      <c r="D87" s="22" t="s">
+      <c r="D88" s="22" t="s">
         <v>64</v>
       </c>
-      <c r="E87" s="22" t="s">
+      <c r="E88" s="22" t="s">
         <v>70</v>
       </c>
-      <c r="F87" s="22"/>
-      <c r="G87" s="22"/>
-      <c r="H87" s="23"/>
-      <c r="I87" s="23"/>
-      <c r="J87" s="23" t="s">
-        <v>40</v>
-      </c>
-      <c r="K87" s="22"/>
-      <c r="L87" s="1"/>
-      <c r="M87" s="1"/>
-      <c r="N87" s="1"/>
-      <c r="O87" s="1"/>
-      <c r="P87" s="1"/>
-      <c r="Q87" s="1"/>
-      <c r="R87" s="1"/>
-      <c r="S87" s="1"/>
-      <c r="T87" s="1"/>
-      <c r="U87" s="1"/>
-      <c r="V87" s="1"/>
-      <c r="W87" s="1"/>
-      <c r="X87" s="1"/>
-      <c r="Y87" s="1"/>
-      <c r="Z87" s="1"/>
-      <c r="AA87" s="1"/>
-      <c r="AB87" s="1"/>
-      <c r="AC87" s="1"/>
-      <c r="AD87" s="1"/>
-      <c r="AE87" s="1"/>
-      <c r="AF87" s="1"/>
-      <c r="AG87" s="1"/>
-      <c r="AH87" s="1"/>
-      <c r="AI87" s="1"/>
-      <c r="AJ87" s="1"/>
-      <c r="AK87" s="1"/>
-      <c r="AL87" s="1"/>
-      <c r="AM87" s="1"/>
-      <c r="AN87" s="1"/>
-      <c r="AO87" s="1"/>
-      <c r="AP87" s="1"/>
-      <c r="AQ87" s="1"/>
-      <c r="AR87" s="1"/>
-      <c r="AS87" s="1"/>
-      <c r="AT87" s="1"/>
-      <c r="AU87" s="1"/>
-      <c r="AV87" s="1"/>
-      <c r="AW87" s="1"/>
-      <c r="AX87" s="1"/>
-      <c r="AY87" s="1"/>
-      <c r="AZ87" s="1"/>
-      <c r="BA87" s="1"/>
-      <c r="BB87" s="1"/>
-      <c r="BC87" s="1"/>
-      <c r="BD87" s="1"/>
-      <c r="BE87" s="1"/>
-      <c r="BF87" s="1"/>
-      <c r="BG87" s="1"/>
-      <c r="BH87" s="1"/>
-      <c r="BI87" s="1"/>
-      <c r="BJ87" s="1"/>
-      <c r="BK87" s="1"/>
-      <c r="BL87" s="1"/>
-      <c r="BM87" s="1"/>
-      <c r="BN87" s="1"/>
-    </row>
-    <row r="88" spans="1:66" x14ac:dyDescent="0.25">
-      <c r="B88" s="22"/>
-      <c r="C88" s="29"/>
-      <c r="D88" s="22"/>
-      <c r="E88" s="22"/>
       <c r="F88" s="22"/>
       <c r="G88" s="22"/>
       <c r="H88" s="23"/>
       <c r="I88" s="23"/>
-      <c r="J88" s="23"/>
+      <c r="J88" s="23" t="s">
+        <v>40</v>
+      </c>
       <c r="K88" s="22"/>
       <c r="L88" s="1"/>
       <c r="M88" s="1"/>
@@ -7298,171 +7811,170 @@
       <c r="BM88" s="1"/>
       <c r="BN88" s="1"/>
     </row>
-    <row r="89" spans="1:66" s="20" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A89">
+    <row r="89" spans="1:66">
+      <c r="B89" s="22"/>
+      <c r="C89" s="29"/>
+      <c r="D89" s="22"/>
+      <c r="E89" s="22"/>
+      <c r="F89" s="22"/>
+      <c r="G89" s="22"/>
+      <c r="H89" s="23"/>
+      <c r="I89" s="23"/>
+      <c r="J89" s="23"/>
+      <c r="K89" s="22"/>
+      <c r="L89" s="1"/>
+      <c r="M89" s="1"/>
+      <c r="N89" s="1"/>
+      <c r="O89" s="1"/>
+      <c r="P89" s="1"/>
+      <c r="Q89" s="1"/>
+      <c r="R89" s="1"/>
+      <c r="S89" s="1"/>
+      <c r="T89" s="1"/>
+      <c r="U89" s="1"/>
+      <c r="V89" s="1"/>
+      <c r="W89" s="1"/>
+      <c r="X89" s="1"/>
+      <c r="Y89" s="1"/>
+      <c r="Z89" s="1"/>
+      <c r="AA89" s="1"/>
+      <c r="AB89" s="1"/>
+      <c r="AC89" s="1"/>
+      <c r="AD89" s="1"/>
+      <c r="AE89" s="1"/>
+      <c r="AF89" s="1"/>
+      <c r="AG89" s="1"/>
+      <c r="AH89" s="1"/>
+      <c r="AI89" s="1"/>
+      <c r="AJ89" s="1"/>
+      <c r="AK89" s="1"/>
+      <c r="AL89" s="1"/>
+      <c r="AM89" s="1"/>
+      <c r="AN89" s="1"/>
+      <c r="AO89" s="1"/>
+      <c r="AP89" s="1"/>
+      <c r="AQ89" s="1"/>
+      <c r="AR89" s="1"/>
+      <c r="AS89" s="1"/>
+      <c r="AT89" s="1"/>
+      <c r="AU89" s="1"/>
+      <c r="AV89" s="1"/>
+      <c r="AW89" s="1"/>
+      <c r="AX89" s="1"/>
+      <c r="AY89" s="1"/>
+      <c r="AZ89" s="1"/>
+      <c r="BA89" s="1"/>
+      <c r="BB89" s="1"/>
+      <c r="BC89" s="1"/>
+      <c r="BD89" s="1"/>
+      <c r="BE89" s="1"/>
+      <c r="BF89" s="1"/>
+      <c r="BG89" s="1"/>
+      <c r="BH89" s="1"/>
+      <c r="BI89" s="1"/>
+      <c r="BJ89" s="1"/>
+      <c r="BK89" s="1"/>
+      <c r="BL89" s="1"/>
+      <c r="BM89" s="1"/>
+      <c r="BN89" s="1"/>
+    </row>
+    <row r="90" spans="1:66" s="20" customFormat="1">
+      <c r="A90">
         <v>57</v>
       </c>
-      <c r="B89" s="21"/>
-      <c r="C89" s="28" t="s">
+      <c r="B90" s="21"/>
+      <c r="C90" s="28" t="s">
         <v>62</v>
       </c>
-      <c r="D89" s="21"/>
-      <c r="E89" s="21"/>
-      <c r="F89" s="21"/>
-      <c r="G89" s="21"/>
-      <c r="H89" s="21"/>
-      <c r="I89" s="21"/>
-      <c r="J89" s="21"/>
-      <c r="K89" s="21"/>
-      <c r="L89" s="21"/>
-      <c r="M89" s="21"/>
-      <c r="N89" s="21"/>
-      <c r="O89" s="21"/>
-      <c r="P89" s="21"/>
-      <c r="Q89" s="21"/>
-      <c r="R89" s="21"/>
-      <c r="S89" s="21"/>
-      <c r="T89" s="21"/>
-      <c r="U89" s="21"/>
-      <c r="V89" s="21"/>
-      <c r="W89" s="21"/>
-      <c r="X89" s="21"/>
-      <c r="Y89" s="21"/>
-      <c r="Z89" s="21"/>
-      <c r="AA89" s="21"/>
-      <c r="AB89" s="21"/>
-      <c r="AC89" s="21"/>
-      <c r="AD89" s="21"/>
-      <c r="AE89" s="21"/>
-      <c r="AF89" s="21"/>
-      <c r="AG89" s="21"/>
-      <c r="AH89" s="21"/>
-      <c r="AI89" s="21"/>
-      <c r="AJ89" s="21"/>
-      <c r="AK89" s="21"/>
-      <c r="AL89" s="21"/>
-      <c r="AM89" s="21"/>
-      <c r="AN89" s="21"/>
-      <c r="AO89" s="21"/>
-      <c r="AP89" s="21"/>
-      <c r="AQ89" s="21"/>
-      <c r="AR89" s="21"/>
-      <c r="AS89" s="21"/>
-      <c r="AT89" s="21"/>
-      <c r="AU89" s="21"/>
-      <c r="AV89" s="21"/>
-      <c r="AW89" s="21"/>
-      <c r="AX89" s="21"/>
-      <c r="AY89" s="21"/>
-      <c r="AZ89" s="21"/>
-      <c r="BA89" s="21"/>
-      <c r="BB89" s="21"/>
-      <c r="BC89" s="21"/>
-      <c r="BD89" s="21"/>
-      <c r="BE89" s="21"/>
-      <c r="BF89" s="21"/>
-      <c r="BG89" s="21"/>
-      <c r="BH89" s="21"/>
-      <c r="BI89" s="21"/>
-      <c r="BJ89" s="21"/>
-      <c r="BK89" s="21"/>
-      <c r="BL89" s="21"/>
-      <c r="BM89" s="21"/>
-      <c r="BN89" s="21"/>
-    </row>
-    <row r="90" spans="1:66" x14ac:dyDescent="0.25">
-      <c r="A90">
+      <c r="D90" s="21"/>
+      <c r="E90" s="21"/>
+      <c r="F90" s="21"/>
+      <c r="G90" s="21"/>
+      <c r="H90" s="21"/>
+      <c r="I90" s="21"/>
+      <c r="J90" s="21"/>
+      <c r="K90" s="21"/>
+      <c r="L90" s="21"/>
+      <c r="M90" s="21"/>
+      <c r="N90" s="21"/>
+      <c r="O90" s="21"/>
+      <c r="P90" s="21"/>
+      <c r="Q90" s="21"/>
+      <c r="R90" s="21"/>
+      <c r="S90" s="21"/>
+      <c r="T90" s="21"/>
+      <c r="U90" s="21"/>
+      <c r="V90" s="21"/>
+      <c r="W90" s="21"/>
+      <c r="X90" s="21"/>
+      <c r="Y90" s="21"/>
+      <c r="Z90" s="21"/>
+      <c r="AA90" s="21"/>
+      <c r="AB90" s="21"/>
+      <c r="AC90" s="21"/>
+      <c r="AD90" s="21"/>
+      <c r="AE90" s="21"/>
+      <c r="AF90" s="21"/>
+      <c r="AG90" s="21"/>
+      <c r="AH90" s="21"/>
+      <c r="AI90" s="21"/>
+      <c r="AJ90" s="21"/>
+      <c r="AK90" s="21"/>
+      <c r="AL90" s="21"/>
+      <c r="AM90" s="21"/>
+      <c r="AN90" s="21"/>
+      <c r="AO90" s="21"/>
+      <c r="AP90" s="21"/>
+      <c r="AQ90" s="21"/>
+      <c r="AR90" s="21"/>
+      <c r="AS90" s="21"/>
+      <c r="AT90" s="21"/>
+      <c r="AU90" s="21"/>
+      <c r="AV90" s="21"/>
+      <c r="AW90" s="21"/>
+      <c r="AX90" s="21"/>
+      <c r="AY90" s="21"/>
+      <c r="AZ90" s="21"/>
+      <c r="BA90" s="21"/>
+      <c r="BB90" s="21"/>
+      <c r="BC90" s="21"/>
+      <c r="BD90" s="21"/>
+      <c r="BE90" s="21"/>
+      <c r="BF90" s="21"/>
+      <c r="BG90" s="21"/>
+      <c r="BH90" s="21"/>
+      <c r="BI90" s="21"/>
+      <c r="BJ90" s="21"/>
+      <c r="BK90" s="21"/>
+      <c r="BL90" s="21"/>
+      <c r="BM90" s="21"/>
+      <c r="BN90" s="21"/>
+    </row>
+    <row r="91" spans="1:66">
+      <c r="A91">
         <v>58</v>
       </c>
-      <c r="B90" s="22">
+      <c r="B91" s="22">
         <v>44</v>
       </c>
-      <c r="C90" s="29" t="s">
+      <c r="C91" s="29" t="s">
         <v>62</v>
       </c>
-      <c r="D90" s="22" t="s">
+      <c r="D91" s="22" t="s">
         <v>59</v>
       </c>
-      <c r="E90" s="22" t="s">
+      <c r="E91" s="22" t="s">
         <v>64</v>
       </c>
-      <c r="F90" s="22"/>
-      <c r="G90" s="22"/>
-      <c r="H90" s="23"/>
-      <c r="I90" s="23"/>
-      <c r="J90" s="23" t="s">
-        <v>39</v>
-      </c>
-      <c r="K90" s="22"/>
-      <c r="L90" s="1"/>
-      <c r="M90" s="1"/>
-      <c r="N90" s="1"/>
-      <c r="O90" s="1"/>
-      <c r="P90" s="1"/>
-      <c r="Q90" s="1"/>
-      <c r="R90" s="1"/>
-      <c r="S90" s="1"/>
-      <c r="T90" s="1"/>
-      <c r="U90" s="1"/>
-      <c r="V90" s="1"/>
-      <c r="W90" s="1"/>
-      <c r="X90" s="1"/>
-      <c r="Y90" s="1"/>
-      <c r="Z90" s="1"/>
-      <c r="AA90" s="1"/>
-      <c r="AB90" s="1"/>
-      <c r="AC90" s="1"/>
-      <c r="AD90" s="1"/>
-      <c r="AE90" s="1"/>
-      <c r="AF90" s="1"/>
-      <c r="AG90" s="1"/>
-      <c r="AH90" s="1"/>
-      <c r="AI90" s="1"/>
-      <c r="AJ90" s="1"/>
-      <c r="AK90" s="1"/>
-      <c r="AL90" s="1"/>
-      <c r="AM90" s="1"/>
-      <c r="AN90" s="1"/>
-      <c r="AO90" s="1"/>
-      <c r="AP90" s="1"/>
-      <c r="AQ90" s="1"/>
-      <c r="AR90" s="1"/>
-      <c r="AS90" s="1"/>
-      <c r="AT90" s="1"/>
-      <c r="AU90" s="1"/>
-      <c r="AV90" s="1"/>
-      <c r="AW90" s="1"/>
-      <c r="AX90" s="1"/>
-      <c r="AY90" s="1"/>
-      <c r="AZ90" s="1"/>
-      <c r="BA90" s="1"/>
-      <c r="BB90" s="1"/>
-      <c r="BC90" s="1"/>
-      <c r="BD90" s="1"/>
-      <c r="BE90" s="1"/>
-      <c r="BF90" s="1"/>
-      <c r="BG90" s="1"/>
-      <c r="BH90" s="1"/>
-      <c r="BI90" s="1"/>
-      <c r="BJ90" s="1"/>
-      <c r="BK90" s="1"/>
-      <c r="BL90" s="1"/>
-      <c r="BM90" s="1"/>
-      <c r="BN90" s="1"/>
-    </row>
-    <row r="91" spans="1:66" x14ac:dyDescent="0.25">
-      <c r="A91">
-        <v>59</v>
-      </c>
-      <c r="B91" s="22"/>
-      <c r="C91" s="29"/>
-      <c r="D91" s="22"/>
-      <c r="E91" s="22"/>
-      <c r="F91" s="22"/>
+      <c r="F91" s="22" t="s">
+        <v>74</v>
+      </c>
       <c r="G91" s="22"/>
       <c r="H91" s="23"/>
       <c r="I91" s="23"/>
-      <c r="J91" s="22"/>
+      <c r="J91" s="23" t="s">
+        <v>39</v>
+      </c>
       <c r="K91" s="22"/>
       <c r="L91" s="1"/>
       <c r="M91" s="1"/>
@@ -7520,425 +8032,495 @@
       <c r="BM91" s="1"/>
       <c r="BN91" s="1"/>
     </row>
-    <row r="92" spans="1:66" s="28" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:66">
       <c r="A92">
+        <v>59</v>
+      </c>
+      <c r="B92" s="22"/>
+      <c r="C92" s="29"/>
+      <c r="D92" s="22"/>
+      <c r="E92" s="22"/>
+      <c r="F92" s="22"/>
+      <c r="G92" s="22"/>
+      <c r="H92" s="23"/>
+      <c r="I92" s="23"/>
+      <c r="J92" s="22"/>
+      <c r="K92" s="22"/>
+      <c r="L92" s="1"/>
+      <c r="M92" s="1"/>
+      <c r="N92" s="1"/>
+      <c r="O92" s="1"/>
+      <c r="P92" s="1"/>
+      <c r="Q92" s="1"/>
+      <c r="R92" s="1"/>
+      <c r="S92" s="1"/>
+      <c r="T92" s="1"/>
+      <c r="U92" s="1"/>
+      <c r="V92" s="1"/>
+      <c r="W92" s="1"/>
+      <c r="X92" s="1"/>
+      <c r="Y92" s="1"/>
+      <c r="Z92" s="1"/>
+      <c r="AA92" s="1"/>
+      <c r="AB92" s="1"/>
+      <c r="AC92" s="1"/>
+      <c r="AD92" s="1"/>
+      <c r="AE92" s="1"/>
+      <c r="AF92" s="1"/>
+      <c r="AG92" s="1"/>
+      <c r="AH92" s="1"/>
+      <c r="AI92" s="1"/>
+      <c r="AJ92" s="1"/>
+      <c r="AK92" s="1"/>
+      <c r="AL92" s="1"/>
+      <c r="AM92" s="1"/>
+      <c r="AN92" s="1"/>
+      <c r="AO92" s="1"/>
+      <c r="AP92" s="1"/>
+      <c r="AQ92" s="1"/>
+      <c r="AR92" s="1"/>
+      <c r="AS92" s="1"/>
+      <c r="AT92" s="1"/>
+      <c r="AU92" s="1"/>
+      <c r="AV92" s="1"/>
+      <c r="AW92" s="1"/>
+      <c r="AX92" s="1"/>
+      <c r="AY92" s="1"/>
+      <c r="AZ92" s="1"/>
+      <c r="BA92" s="1"/>
+      <c r="BB92" s="1"/>
+      <c r="BC92" s="1"/>
+      <c r="BD92" s="1"/>
+      <c r="BE92" s="1"/>
+      <c r="BF92" s="1"/>
+      <c r="BG92" s="1"/>
+      <c r="BH92" s="1"/>
+      <c r="BI92" s="1"/>
+      <c r="BJ92" s="1"/>
+      <c r="BK92" s="1"/>
+      <c r="BL92" s="1"/>
+      <c r="BM92" s="1"/>
+      <c r="BN92" s="1"/>
+    </row>
+    <row r="93" spans="1:66" s="28" customFormat="1">
+      <c r="A93">
         <v>60</v>
       </c>
-      <c r="C92" s="28" t="s">
+      <c r="C93" s="28" t="s">
         <v>63</v>
       </c>
-      <c r="J92" s="28" t="s">
+      <c r="J93" s="28" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="93" spans="1:66" x14ac:dyDescent="0.25">
-      <c r="A93">
+    <row r="94" spans="1:66">
+      <c r="A94">
         <v>61</v>
       </c>
-      <c r="B93" s="22">
+      <c r="B94" s="22">
         <v>45</v>
       </c>
-      <c r="C93" s="29" t="s">
+      <c r="C94" s="29" t="s">
         <v>63</v>
       </c>
-      <c r="D93" s="22" t="s">
+      <c r="D94" s="22" t="s">
         <v>71</v>
       </c>
-      <c r="E93" s="22"/>
-      <c r="F93" s="22"/>
-      <c r="G93" s="22"/>
-      <c r="H93" s="23"/>
-      <c r="I93" s="23"/>
-      <c r="J93" s="23" t="s">
-        <v>92</v>
-      </c>
-      <c r="K93" s="22"/>
-      <c r="L93" s="1"/>
-      <c r="M93" s="1"/>
-      <c r="N93" s="1"/>
-      <c r="O93" s="1"/>
-      <c r="P93" s="1"/>
-      <c r="Q93" s="1"/>
-      <c r="R93" s="1"/>
-      <c r="S93" s="1"/>
-      <c r="T93" s="1"/>
-      <c r="U93" s="1"/>
-      <c r="V93" s="1"/>
-      <c r="W93" s="1"/>
-      <c r="X93" s="1"/>
-      <c r="Y93" s="1"/>
-      <c r="Z93" s="1"/>
-      <c r="AA93" s="1"/>
-      <c r="AB93" s="1"/>
-      <c r="AC93" s="1"/>
-      <c r="AD93" s="1"/>
-      <c r="AE93" s="1"/>
-      <c r="AF93" s="1" t="s">
+      <c r="E94" s="22"/>
+      <c r="F94" s="22"/>
+      <c r="G94" s="22"/>
+      <c r="H94" s="23"/>
+      <c r="I94" s="23"/>
+      <c r="J94" s="23" t="s">
+        <v>39</v>
+      </c>
+      <c r="K94" s="22"/>
+      <c r="L94" s="1"/>
+      <c r="M94" s="1"/>
+      <c r="N94" s="1"/>
+      <c r="O94" s="1"/>
+      <c r="P94" s="1"/>
+      <c r="Q94" s="1"/>
+      <c r="R94" s="1"/>
+      <c r="S94" s="1"/>
+      <c r="T94" s="1"/>
+      <c r="U94" s="1"/>
+      <c r="V94" s="1"/>
+      <c r="W94" s="1"/>
+      <c r="X94" s="1"/>
+      <c r="Y94" s="1"/>
+      <c r="Z94" s="1"/>
+      <c r="AA94" s="1"/>
+      <c r="AB94" s="1"/>
+      <c r="AC94" s="1"/>
+      <c r="AD94" s="1"/>
+      <c r="AE94" s="1"/>
+      <c r="AF94" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="AG93" s="1"/>
-      <c r="AH93" s="1"/>
-      <c r="AI93" s="1"/>
-      <c r="AJ93" s="1"/>
-      <c r="AK93" s="1"/>
-      <c r="AL93" s="1"/>
-      <c r="AM93" s="1"/>
-      <c r="AN93" s="1"/>
-      <c r="AO93" s="1"/>
-      <c r="AP93" s="1"/>
-      <c r="AQ93" s="1"/>
-      <c r="AR93" s="1"/>
-      <c r="AS93" s="1"/>
-      <c r="AT93" s="1"/>
-      <c r="AU93" s="1"/>
-      <c r="AV93" s="1"/>
-      <c r="AW93" s="1"/>
-      <c r="AX93" s="1"/>
-      <c r="AY93" s="1"/>
-      <c r="AZ93" s="1"/>
-      <c r="BA93" s="1"/>
-      <c r="BB93" s="1"/>
-      <c r="BC93" s="1"/>
-      <c r="BD93" s="1"/>
-      <c r="BE93" s="1"/>
-      <c r="BF93" s="1"/>
-      <c r="BG93" s="1"/>
-      <c r="BH93" s="1"/>
-      <c r="BI93" s="1"/>
-      <c r="BJ93" s="1"/>
-      <c r="BK93" s="1"/>
-      <c r="BL93" s="1"/>
-      <c r="BM93" s="1"/>
-      <c r="BN93" s="1"/>
-    </row>
-    <row r="94" spans="1:66" s="20" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A94"/>
-      <c r="B94" s="21"/>
-      <c r="C94" s="28" t="s">
+      <c r="AG94" s="1"/>
+      <c r="AH94" s="1"/>
+      <c r="AI94" s="1"/>
+      <c r="AJ94" s="1"/>
+      <c r="AK94" s="1"/>
+      <c r="AL94" s="1"/>
+      <c r="AM94" s="1"/>
+      <c r="AN94" s="1"/>
+      <c r="AO94" s="1"/>
+      <c r="AP94" s="1"/>
+      <c r="AQ94" s="1"/>
+      <c r="AR94" s="1"/>
+      <c r="AS94" s="1"/>
+      <c r="AT94" s="1"/>
+      <c r="AU94" s="1"/>
+      <c r="AV94" s="1"/>
+      <c r="AW94" s="1"/>
+      <c r="AX94" s="1"/>
+      <c r="AY94" s="1"/>
+      <c r="AZ94" s="1"/>
+      <c r="BA94" s="1"/>
+      <c r="BB94" s="1"/>
+      <c r="BC94" s="1"/>
+      <c r="BD94" s="1"/>
+      <c r="BE94" s="1"/>
+      <c r="BF94" s="1"/>
+      <c r="BG94" s="1"/>
+      <c r="BH94" s="1"/>
+      <c r="BI94" s="1"/>
+      <c r="BJ94" s="1"/>
+      <c r="BK94" s="1"/>
+      <c r="BL94" s="1"/>
+      <c r="BM94" s="1"/>
+      <c r="BN94" s="1"/>
+    </row>
+    <row r="95" spans="1:66" s="20" customFormat="1">
+      <c r="A95"/>
+      <c r="B95" s="21"/>
+      <c r="C95" s="28" t="s">
         <v>55</v>
       </c>
-      <c r="D94" s="21"/>
-      <c r="E94" s="21"/>
-      <c r="F94" s="21"/>
-      <c r="G94" s="21"/>
-      <c r="H94" s="21"/>
-      <c r="I94" s="21"/>
-      <c r="J94" s="21"/>
-      <c r="K94" s="21"/>
-      <c r="L94" s="21"/>
-      <c r="M94" s="21"/>
-      <c r="N94" s="21"/>
-      <c r="O94" s="21"/>
-      <c r="P94" s="21"/>
-      <c r="Q94" s="21"/>
-      <c r="R94" s="21"/>
-      <c r="S94" s="21"/>
-      <c r="T94" s="21"/>
-      <c r="U94" s="21"/>
-      <c r="V94" s="21"/>
-      <c r="W94" s="21"/>
-      <c r="X94" s="21"/>
-      <c r="Y94" s="21"/>
-      <c r="Z94" s="21"/>
-      <c r="AA94" s="21"/>
-      <c r="AB94" s="21"/>
-      <c r="AC94" s="21"/>
-      <c r="AD94" s="21"/>
-      <c r="AE94" s="21"/>
-      <c r="AF94" s="21"/>
-      <c r="AG94" s="21"/>
-      <c r="AH94" s="21"/>
-      <c r="AI94" s="21"/>
-      <c r="AJ94" s="21"/>
-      <c r="AK94" s="21"/>
-      <c r="AL94" s="21"/>
-      <c r="AM94" s="21"/>
-      <c r="AN94" s="21"/>
-      <c r="AO94" s="21"/>
-      <c r="AP94" s="21"/>
-      <c r="AQ94" s="21"/>
-      <c r="AR94" s="21"/>
-      <c r="AS94" s="21"/>
-      <c r="AT94" s="21"/>
-      <c r="AU94" s="21"/>
-      <c r="AV94" s="21"/>
-      <c r="AW94" s="21"/>
-      <c r="AX94" s="21"/>
-      <c r="AY94" s="21"/>
-      <c r="AZ94" s="21"/>
-      <c r="BA94" s="21"/>
-      <c r="BB94" s="21"/>
-      <c r="BC94" s="21"/>
-      <c r="BD94" s="21"/>
-      <c r="BE94" s="21"/>
-      <c r="BF94" s="21"/>
-      <c r="BG94" s="21"/>
-      <c r="BH94" s="21"/>
-      <c r="BI94" s="21"/>
-      <c r="BJ94" s="21"/>
-      <c r="BK94" s="21"/>
-      <c r="BL94" s="21"/>
-      <c r="BM94" s="21"/>
-      <c r="BN94" s="21"/>
-    </row>
-    <row r="98" spans="1:66" s="24" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A98"/>
-      <c r="C98" s="32" t="s">
+      <c r="D95" s="21"/>
+      <c r="E95" s="21"/>
+      <c r="F95" s="21"/>
+      <c r="G95" s="21"/>
+      <c r="H95" s="21"/>
+      <c r="I95" s="21"/>
+      <c r="J95" s="21"/>
+      <c r="K95" s="21"/>
+      <c r="L95" s="21"/>
+      <c r="M95" s="21"/>
+      <c r="N95" s="21"/>
+      <c r="O95" s="21"/>
+      <c r="P95" s="21"/>
+      <c r="Q95" s="21"/>
+      <c r="R95" s="21"/>
+      <c r="S95" s="21"/>
+      <c r="T95" s="21"/>
+      <c r="U95" s="21"/>
+      <c r="V95" s="21"/>
+      <c r="W95" s="21"/>
+      <c r="X95" s="21"/>
+      <c r="Y95" s="21"/>
+      <c r="Z95" s="21"/>
+      <c r="AA95" s="21"/>
+      <c r="AB95" s="21"/>
+      <c r="AC95" s="21"/>
+      <c r="AD95" s="21"/>
+      <c r="AE95" s="21"/>
+      <c r="AF95" s="21"/>
+      <c r="AG95" s="21"/>
+      <c r="AH95" s="21"/>
+      <c r="AI95" s="21"/>
+      <c r="AJ95" s="21"/>
+      <c r="AK95" s="21"/>
+      <c r="AL95" s="21"/>
+      <c r="AM95" s="21"/>
+      <c r="AN95" s="21"/>
+      <c r="AO95" s="21"/>
+      <c r="AP95" s="21"/>
+      <c r="AQ95" s="21"/>
+      <c r="AR95" s="21"/>
+      <c r="AS95" s="21"/>
+      <c r="AT95" s="21"/>
+      <c r="AU95" s="21"/>
+      <c r="AV95" s="21"/>
+      <c r="AW95" s="21"/>
+      <c r="AX95" s="21"/>
+      <c r="AY95" s="21"/>
+      <c r="AZ95" s="21"/>
+      <c r="BA95" s="21"/>
+      <c r="BB95" s="21"/>
+      <c r="BC95" s="21"/>
+      <c r="BD95" s="21"/>
+      <c r="BE95" s="21"/>
+      <c r="BF95" s="21"/>
+      <c r="BG95" s="21"/>
+      <c r="BH95" s="21"/>
+      <c r="BI95" s="21"/>
+      <c r="BJ95" s="21"/>
+      <c r="BK95" s="21"/>
+      <c r="BL95" s="21"/>
+      <c r="BM95" s="21"/>
+      <c r="BN95" s="21"/>
+    </row>
+    <row r="99" spans="1:66" s="24" customFormat="1">
+      <c r="A99"/>
+      <c r="C99" s="32" t="s">
         <v>53</v>
       </c>
-      <c r="H98" s="25"/>
-      <c r="I98" s="25"/>
-      <c r="J98" s="25"/>
-      <c r="L98" s="25">
-        <f>L18</f>
+      <c r="H99" s="25"/>
+      <c r="I99" s="25"/>
+      <c r="J99" s="25"/>
+      <c r="L99" s="25">
+        <f>L19</f>
         <v>41133</v>
       </c>
-      <c r="M98" s="25">
-        <f t="shared" ref="M98:BF98" si="10">M18</f>
+      <c r="M99" s="25">
+        <f t="shared" ref="M99:BF99" si="10">M19</f>
         <v>41134</v>
       </c>
-      <c r="N98" s="25">
+      <c r="N99" s="25">
         <f t="shared" si="10"/>
         <v>41135</v>
       </c>
-      <c r="O98" s="25">
+      <c r="O99" s="25">
         <f t="shared" si="10"/>
         <v>41136</v>
       </c>
-      <c r="P98" s="25">
+      <c r="P99" s="25">
         <f t="shared" si="10"/>
         <v>41137</v>
       </c>
-      <c r="Q98" s="25">
+      <c r="Q99" s="25">
         <f t="shared" si="10"/>
         <v>41138</v>
       </c>
-      <c r="R98" s="25">
+      <c r="R99" s="25">
         <f t="shared" si="10"/>
         <v>41139</v>
       </c>
-      <c r="S98" s="25">
+      <c r="S99" s="25">
         <f t="shared" si="10"/>
         <v>41140</v>
       </c>
-      <c r="T98" s="25">
+      <c r="T99" s="25">
         <f t="shared" si="10"/>
         <v>41141</v>
       </c>
-      <c r="U98" s="25">
+      <c r="U99" s="25">
         <f t="shared" si="10"/>
         <v>41142</v>
       </c>
-      <c r="V98" s="25">
+      <c r="V99" s="25">
         <f t="shared" si="10"/>
         <v>41143</v>
       </c>
-      <c r="W98" s="25">
+      <c r="W99" s="25">
         <f t="shared" si="10"/>
         <v>41144</v>
       </c>
-      <c r="X98" s="25">
+      <c r="X99" s="25">
         <f t="shared" si="10"/>
         <v>41145</v>
       </c>
-      <c r="Y98" s="25">
+      <c r="Y99" s="25">
         <f t="shared" si="10"/>
         <v>41146</v>
       </c>
-      <c r="Z98" s="25">
+      <c r="Z99" s="25">
         <f t="shared" si="10"/>
         <v>41147</v>
       </c>
-      <c r="AA98" s="25">
+      <c r="AA99" s="25">
         <f t="shared" si="10"/>
         <v>41148</v>
       </c>
-      <c r="AB98" s="25">
+      <c r="AB99" s="25">
         <f t="shared" si="10"/>
         <v>41149</v>
       </c>
-      <c r="AC98" s="25">
+      <c r="AC99" s="25">
         <f t="shared" si="10"/>
         <v>41150</v>
       </c>
-      <c r="AD98" s="25">
+      <c r="AD99" s="25">
         <f t="shared" si="10"/>
         <v>41151</v>
       </c>
-      <c r="AE98" s="25">
+      <c r="AE99" s="25">
         <f t="shared" si="10"/>
         <v>41152</v>
       </c>
-      <c r="AF98" s="25">
+      <c r="AF99" s="25">
         <f t="shared" si="10"/>
         <v>41153</v>
       </c>
-      <c r="AG98" s="25">
+      <c r="AG99" s="25">
         <f t="shared" si="10"/>
         <v>41154</v>
       </c>
-      <c r="AH98" s="25">
+      <c r="AH99" s="25">
         <f t="shared" si="10"/>
         <v>41155</v>
       </c>
-      <c r="AI98" s="25">
+      <c r="AI99" s="25">
         <f t="shared" si="10"/>
         <v>41156</v>
       </c>
-      <c r="AJ98" s="25">
+      <c r="AJ99" s="25">
         <f t="shared" si="10"/>
         <v>41157</v>
       </c>
-      <c r="AK98" s="25">
+      <c r="AK99" s="25">
         <f t="shared" si="10"/>
         <v>41158</v>
       </c>
-      <c r="AL98" s="25">
+      <c r="AL99" s="25">
         <f t="shared" si="10"/>
         <v>41159</v>
       </c>
-      <c r="AM98" s="25">
+      <c r="AM99" s="25">
         <f t="shared" si="10"/>
         <v>41160</v>
       </c>
-      <c r="AN98" s="25">
+      <c r="AN99" s="25">
         <f t="shared" si="10"/>
         <v>41161</v>
       </c>
-      <c r="AO98" s="25">
+      <c r="AO99" s="25">
         <f t="shared" si="10"/>
         <v>41162</v>
       </c>
-      <c r="AP98" s="25">
+      <c r="AP99" s="25">
         <f t="shared" si="10"/>
         <v>41163</v>
       </c>
-      <c r="AQ98" s="25">
+      <c r="AQ99" s="25">
         <f t="shared" si="10"/>
         <v>41164</v>
       </c>
-      <c r="AR98" s="25">
+      <c r="AR99" s="25">
         <f t="shared" si="10"/>
         <v>41165</v>
       </c>
-      <c r="AS98" s="25">
+      <c r="AS99" s="25">
         <f t="shared" si="10"/>
         <v>41166</v>
       </c>
-      <c r="AT98" s="25">
+      <c r="AT99" s="25">
         <f t="shared" si="10"/>
         <v>41167</v>
       </c>
-      <c r="AU98" s="25">
+      <c r="AU99" s="25">
         <f t="shared" si="10"/>
         <v>41168</v>
       </c>
-      <c r="AV98" s="25">
+      <c r="AV99" s="25">
         <f t="shared" si="10"/>
         <v>41169</v>
       </c>
-      <c r="AW98" s="25">
+      <c r="AW99" s="25">
         <f t="shared" si="10"/>
         <v>41170</v>
       </c>
-      <c r="AX98" s="25">
+      <c r="AX99" s="25">
         <f t="shared" si="10"/>
         <v>41171</v>
       </c>
-      <c r="AY98" s="25">
+      <c r="AY99" s="25">
         <f t="shared" si="10"/>
         <v>41172</v>
       </c>
-      <c r="AZ98" s="25">
+      <c r="AZ99" s="25">
         <f t="shared" si="10"/>
         <v>41173</v>
       </c>
-      <c r="BA98" s="25">
+      <c r="BA99" s="25">
         <f t="shared" si="10"/>
         <v>41174</v>
       </c>
-      <c r="BB98" s="25">
+      <c r="BB99" s="25">
         <f t="shared" si="10"/>
         <v>41175</v>
       </c>
-      <c r="BC98" s="25">
+      <c r="BC99" s="25">
         <f t="shared" si="10"/>
         <v>41176</v>
       </c>
-      <c r="BD98" s="25">
+      <c r="BD99" s="25">
         <f t="shared" si="10"/>
         <v>41177</v>
       </c>
-      <c r="BE98" s="25">
+      <c r="BE99" s="25">
         <f t="shared" si="10"/>
         <v>41178</v>
       </c>
-      <c r="BF98" s="25">
+      <c r="BF99" s="25">
         <f t="shared" si="10"/>
         <v>41179</v>
       </c>
-      <c r="BG98" s="25"/>
-      <c r="BH98" s="25"/>
-      <c r="BI98" s="25"/>
-      <c r="BJ98" s="25"/>
-      <c r="BK98" s="25"/>
-      <c r="BL98" s="25"/>
-      <c r="BM98" s="25"/>
-      <c r="BN98" s="25"/>
+      <c r="BG99" s="25"/>
+      <c r="BH99" s="25"/>
+      <c r="BI99" s="25"/>
+      <c r="BJ99" s="25"/>
+      <c r="BK99" s="25"/>
+      <c r="BL99" s="25"/>
+      <c r="BM99" s="25"/>
+      <c r="BN99" s="25"/>
     </row>
   </sheetData>
-  <autoFilter ref="A18:BF94"/>
+  <autoFilter ref="A19:BF95"/>
   <sortState ref="C2:D16">
     <sortCondition ref="C2"/>
   </sortState>
-  <conditionalFormatting sqref="L95:AY95 L90:BN91 L93:BN93 L87:BN88 L83:BN85 L69:BN81 L55:BN67 L40:BN53 L20:BN23 L25:BN32 L34:BN38">
-    <cfRule type="cellIs" dxfId="7" priority="153" operator="equal">
+  <conditionalFormatting sqref="L96:AY96 L91:BN92 L94:BN94 L88:BN89 L84:BN86 L70:BN82 L56:BN68 L41:BN54 L21:BN24 L26:BN33 L35:BN39">
+    <cfRule type="cellIs" dxfId="9" priority="155" operator="equal">
       <formula>"-"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="154" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="156" operator="equal">
       <formula>"E"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="5" priority="155" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="157" operator="equal">
       <formula>"B"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L90:BN91 L93:BN93 L87:BN88 L83:BN85 L69:BN81 L55:BN67 L40:BN53 L20:BN23 L25:BN32 L34:BN38">
-    <cfRule type="cellIs" dxfId="4" priority="152" operator="equal">
+  <conditionalFormatting sqref="L91:BN92 L94:BN94 L88:BN89 L84:BN86 L70:BN82 L56:BN68 L41:BN54 L21:BN24 L26:BN33 L35:BN39">
+    <cfRule type="cellIs" dxfId="6" priority="154" operator="equal">
       <formula>"BE"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J90 J93 J87 J70:J71 J73:J80 J55:J67 J40:J53 J34:J36 J20:J23 J25:J31">
-    <cfRule type="cellIs" dxfId="3" priority="226" operator="equal">
-      <formula>$I$4</formula>
+  <conditionalFormatting sqref="J91 J88 J35:J37 J21:J24 J26:J32 J41:J51 J56:J66 J71:J72 J74:J81 J94">
+    <cfRule type="cellIs" dxfId="5" priority="228" operator="equal">
+      <formula>$I$5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J34:J36 J20:J23 J25:J31 J40:J53 J90 J93 J87 J55:J67 J70:J71 J73:J80">
-    <cfRule type="expression" dxfId="2" priority="233">
-      <formula>AND(J20&lt;&gt;$I$4,$I20&lt;TODAY())</formula>
+  <conditionalFormatting sqref="J35:J37 J21:J24 J26:J32 J91 J88 J41:J51 J56:J66 J71:J72 J74:J81 J94">
+    <cfRule type="expression" dxfId="4" priority="235">
+      <formula>AND(J21&lt;&gt;$I$5,$I21&lt;TODAY())</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J37">
-    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
-      <formula>$I$4</formula>
+  <conditionalFormatting sqref="J38">
+    <cfRule type="cellIs" dxfId="3" priority="4" operator="equal">
+      <formula>$I$5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J37">
-    <cfRule type="expression" dxfId="0" priority="1">
-      <formula>AND(J37&lt;&gt;$I$4,$I37&lt;TODAY())</formula>
+  <conditionalFormatting sqref="J38">
+    <cfRule type="expression" dxfId="2" priority="3">
+      <formula>AND(J38&lt;&gt;$I$5,$I38&lt;TODAY())</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D86:F94 D25:F32 D63:D85 D55:D61 F54:F85 D49:D50 E48:F50 D40:F47 D34:F38 E55:E85">
-      <formula1>$C$2:$C$16</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D87:F95 E56:E86 D35:F39 D41:F48 E49:F51 D50:D51 F55:F86 D56:D62 D26:F33 D64:D74 D77:D86">
+      <formula1>$C$2:$C$17</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J90:J93 J73:J80 J70:J71 J85:J88 J55:J66 J40:J50 J34:J37 J25:J31 J20:J23">
-      <formula1>$I$3:$I$13</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J71:J72 J74:J81 J26:J32 J35:J38 J21:J24 J41:J51 J86:J89 J56:J67 J91:J94">
+      <formula1>$I$4:$I$14</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D19:E23">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D20:E24">
       <formula1>members</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I19:I23">
-      <formula1>$F$2:$F$5</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I20:I24">
+      <formula1>$F$2:$F$6</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -7947,14 +8529,14 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/trunk/Document/VietinBankSC Project Plan v2012.009.20.xlsx
+++ b/trunk/Document/VietinBankSC Project Plan v2012.009.20.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="324" uniqueCount="146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="326" uniqueCount="147">
   <si>
     <t>GVCM</t>
   </si>
@@ -474,6 +474,9 @@
   </si>
   <si>
     <t>BinhTV</t>
+  </si>
+  <si>
+    <t>Import trái chủ từ file exel</t>
   </si>
 </sst>
 </file>
@@ -1962,8 +1965,8 @@
   </sheetPr>
   <dimension ref="A1:CT99"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A79" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A79" sqref="A79"/>
+    <sheetView tabSelected="1" topLeftCell="B56" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="C67" sqref="C67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -6245,14 +6248,18 @@
     </row>
     <row r="67" spans="1:66">
       <c r="B67" s="22"/>
-      <c r="C67" s="29"/>
+      <c r="C67" s="29" t="s">
+        <v>146</v>
+      </c>
       <c r="D67" s="22"/>
       <c r="E67" s="22"/>
       <c r="F67" s="22"/>
       <c r="G67" s="22"/>
       <c r="H67" s="23"/>
       <c r="I67" s="23"/>
-      <c r="J67" s="23"/>
+      <c r="J67" s="23" t="s">
+        <v>92</v>
+      </c>
       <c r="K67" s="22"/>
       <c r="L67" s="1"/>
       <c r="M67" s="1"/>

--- a/trunk/Document/VietinBankSC Project Plan v2012.009.20.xlsx
+++ b/trunk/Document/VietinBankSC Project Plan v2012.009.20.xlsx
@@ -1965,8 +1965,8 @@
   </sheetPr>
   <dimension ref="A1:CT99"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B56" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C67" sqref="C67"/>
+    <sheetView tabSelected="1" topLeftCell="B69" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="D79" sqref="D79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>

--- a/trunk/Document/VietinBankSC Project Plan v2012.009.20.xlsx
+++ b/trunk/Document/VietinBankSC Project Plan v2012.009.20.xlsx
@@ -16,7 +16,7 @@
     <externalReference r:id="rId5"/>
   </externalReferences>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Plan!$A$19:$BF$95</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Plan!$A$19:$BF$96</definedName>
     <definedName name="members">'[1]Thành viên - Vị trí'!$C$3:$C$13</definedName>
   </definedNames>
   <calcPr calcId="124519"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="326" uniqueCount="147">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="438" uniqueCount="143">
   <si>
     <t>GVCM</t>
   </si>
@@ -437,36 +437,6 @@
     <t>CodeDetail</t>
   </si>
   <si>
-    <t>s</t>
-  </si>
-  <si>
-    <t>t</t>
-  </si>
-  <si>
-    <t>8-12h</t>
-  </si>
-  <si>
-    <t>c</t>
-  </si>
-  <si>
-    <t>14-18h</t>
-  </si>
-  <si>
-    <t>21-1h</t>
-  </si>
-  <si>
-    <t>s,c,t</t>
-  </si>
-  <si>
-    <t>c,t</t>
-  </si>
-  <si>
-    <t>s,t</t>
-  </si>
-  <si>
-    <t>s,c</t>
-  </si>
-  <si>
     <t>Quản lý danh sách trái chủ - giấy chứng nhận</t>
   </si>
   <si>
@@ -477,6 +447,24 @@
   </si>
   <si>
     <t>Import trái chủ từ file exel</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>E</t>
+  </si>
+  <si>
+    <t>Test Nghiệp vụ</t>
+  </si>
+  <si>
+    <t>Test Danh mục</t>
+  </si>
+  <si>
+    <t>Test Báo cáo</t>
   </si>
 </sst>
 </file>
@@ -715,58 +703,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="72">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF0000CC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF0000CC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF0000CC"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="177">
     <dxf>
       <font>
         <color theme="0"/>
@@ -810,6 +747,31 @@
       </fill>
     </dxf>
     <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <gradientFill>
+          <stop position="0">
+            <color rgb="FF0000CC"/>
+          </stop>
+          <stop position="1">
+            <color rgb="FFFF0000"/>
+          </stop>
+        </gradientFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0000CC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <fill>
         <patternFill>
           <bgColor rgb="FFFF0000"/>
@@ -818,9 +780,34 @@
     </dxf>
     <dxf>
       <font>
+        <color theme="0" tint="-0.14996795556505021"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color theme="0"/>
       </font>
       <fill>
+        <gradientFill>
+          <stop position="0">
+            <color rgb="FF0000CC"/>
+          </stop>
+          <stop position="1">
+            <color rgb="FFFF0000"/>
+          </stop>
+        </gradientFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
         <patternFill>
           <bgColor rgb="FF0000CC"/>
         </patternFill>
@@ -835,9 +822,34 @@
     </dxf>
     <dxf>
       <font>
+        <color theme="0" tint="-0.14996795556505021"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color theme="0"/>
       </font>
       <fill>
+        <gradientFill>
+          <stop position="0">
+            <color rgb="FF0000CC"/>
+          </stop>
+          <stop position="1">
+            <color rgb="FFFF0000"/>
+          </stop>
+        </gradientFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
         <patternFill>
           <bgColor rgb="FF0000CC"/>
         </patternFill>
@@ -852,9 +864,34 @@
     </dxf>
     <dxf>
       <font>
+        <color theme="0" tint="-0.14996795556505021"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color theme="0"/>
       </font>
       <fill>
+        <gradientFill>
+          <stop position="0">
+            <color rgb="FF0000CC"/>
+          </stop>
+          <stop position="1">
+            <color rgb="FFFF0000"/>
+          </stop>
+        </gradientFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
         <patternFill>
           <bgColor rgb="FF0000CC"/>
         </patternFill>
@@ -869,6 +906,30 @@
     </dxf>
     <dxf>
       <font>
+        <color theme="0" tint="-0.14996795556505021"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color theme="0"/>
       </font>
       <fill>
@@ -878,6 +939,16 @@
       </fill>
     </dxf>
     <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0000CC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <fill>
         <patternFill>
           <bgColor rgb="FFFF0000"/>
@@ -912,6 +983,31 @@
       </fill>
     </dxf>
     <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <gradientFill>
+          <stop position="0">
+            <color rgb="FF0000CC"/>
+          </stop>
+          <stop position="1">
+            <color rgb="FFFF0000"/>
+          </stop>
+        </gradientFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0000CC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <fill>
         <patternFill>
           <bgColor rgb="FFFF0000"/>
@@ -920,9 +1016,34 @@
     </dxf>
     <dxf>
       <font>
+        <color theme="0" tint="-0.14996795556505021"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color theme="0"/>
       </font>
       <fill>
+        <gradientFill>
+          <stop position="0">
+            <color rgb="FF0000CC"/>
+          </stop>
+          <stop position="1">
+            <color rgb="FFFF0000"/>
+          </stop>
+        </gradientFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
         <patternFill>
           <bgColor rgb="FF0000CC"/>
         </patternFill>
@@ -937,6 +1058,30 @@
     </dxf>
     <dxf>
       <font>
+        <color theme="0" tint="-0.14996795556505021"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color theme="0"/>
       </font>
       <fill>
@@ -946,6 +1091,31 @@
       </fill>
     </dxf>
     <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <gradientFill>
+          <stop position="0">
+            <color rgb="FF0000CC"/>
+          </stop>
+          <stop position="1">
+            <color rgb="FFFF0000"/>
+          </stop>
+        </gradientFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0000CC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <fill>
         <patternFill>
           <bgColor rgb="FFFF0000"/>
@@ -954,9 +1124,34 @@
     </dxf>
     <dxf>
       <font>
+        <color theme="0" tint="-0.14996795556505021"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color theme="0"/>
       </font>
       <fill>
+        <gradientFill>
+          <stop position="0">
+            <color rgb="FF0000CC"/>
+          </stop>
+          <stop position="1">
+            <color rgb="FFFF0000"/>
+          </stop>
+        </gradientFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
         <patternFill>
           <bgColor rgb="FF0000CC"/>
         </patternFill>
@@ -971,9 +1166,34 @@
     </dxf>
     <dxf>
       <font>
+        <color theme="0" tint="-0.14996795556505021"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color theme="0"/>
       </font>
       <fill>
+        <gradientFill>
+          <stop position="0">
+            <color rgb="FF0000CC"/>
+          </stop>
+          <stop position="1">
+            <color rgb="FFFF0000"/>
+          </stop>
+        </gradientFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
         <patternFill>
           <bgColor rgb="FF0000CC"/>
         </patternFill>
@@ -988,9 +1208,34 @@
     </dxf>
     <dxf>
       <font>
+        <color theme="0" tint="-0.14996795556505021"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color theme="0"/>
       </font>
       <fill>
+        <gradientFill>
+          <stop position="0">
+            <color rgb="FF0000CC"/>
+          </stop>
+          <stop position="1">
+            <color rgb="FFFF0000"/>
+          </stop>
+        </gradientFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
         <patternFill>
           <bgColor rgb="FF0000CC"/>
         </patternFill>
@@ -1005,9 +1250,34 @@
     </dxf>
     <dxf>
       <font>
+        <color theme="0" tint="-0.14996795556505021"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color theme="0"/>
       </font>
       <fill>
+        <gradientFill>
+          <stop position="0">
+            <color rgb="FF0000CC"/>
+          </stop>
+          <stop position="1">
+            <color rgb="FFFF0000"/>
+          </stop>
+        </gradientFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
         <patternFill>
           <bgColor rgb="FF0000CC"/>
         </patternFill>
@@ -1022,9 +1292,34 @@
     </dxf>
     <dxf>
       <font>
+        <color theme="0" tint="-0.14996795556505021"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color theme="0"/>
       </font>
       <fill>
+        <gradientFill>
+          <stop position="0">
+            <color rgb="FF0000CC"/>
+          </stop>
+          <stop position="1">
+            <color rgb="FFFF0000"/>
+          </stop>
+        </gradientFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
         <patternFill>
           <bgColor rgb="FF0000CC"/>
         </patternFill>
@@ -1039,9 +1334,34 @@
     </dxf>
     <dxf>
       <font>
+        <color theme="0" tint="-0.14996795556505021"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color theme="0"/>
       </font>
       <fill>
+        <gradientFill>
+          <stop position="0">
+            <color rgb="FF0000CC"/>
+          </stop>
+          <stop position="1">
+            <color rgb="FFFF0000"/>
+          </stop>
+        </gradientFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
         <patternFill>
           <bgColor rgb="FF0000CC"/>
         </patternFill>
@@ -1056,9 +1376,34 @@
     </dxf>
     <dxf>
       <font>
+        <color theme="0" tint="-0.14996795556505021"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color theme="0"/>
       </font>
       <fill>
+        <gradientFill>
+          <stop position="0">
+            <color rgb="FF0000CC"/>
+          </stop>
+          <stop position="1">
+            <color rgb="FFFF0000"/>
+          </stop>
+        </gradientFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
         <patternFill>
           <bgColor rgb="FF0000CC"/>
         </patternFill>
@@ -1073,9 +1418,34 @@
     </dxf>
     <dxf>
       <font>
+        <color theme="0" tint="-0.14996795556505021"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color theme="0"/>
       </font>
       <fill>
+        <gradientFill>
+          <stop position="0">
+            <color rgb="FF0000CC"/>
+          </stop>
+          <stop position="1">
+            <color rgb="FFFF0000"/>
+          </stop>
+        </gradientFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
         <patternFill>
           <bgColor rgb="FF0000CC"/>
         </patternFill>
@@ -1090,9 +1460,34 @@
     </dxf>
     <dxf>
       <font>
+        <color theme="0" tint="-0.14996795556505021"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color theme="0"/>
       </font>
       <fill>
+        <gradientFill>
+          <stop position="0">
+            <color rgb="FF0000CC"/>
+          </stop>
+          <stop position="1">
+            <color rgb="FFFF0000"/>
+          </stop>
+        </gradientFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
         <patternFill>
           <bgColor rgb="FF0000CC"/>
         </patternFill>
@@ -1107,9 +1502,34 @@
     </dxf>
     <dxf>
       <font>
+        <color theme="0" tint="-0.14996795556505021"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color theme="0"/>
       </font>
       <fill>
+        <gradientFill>
+          <stop position="0">
+            <color rgb="FF0000CC"/>
+          </stop>
+          <stop position="1">
+            <color rgb="FFFF0000"/>
+          </stop>
+        </gradientFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
         <patternFill>
           <bgColor rgb="FF0000CC"/>
         </patternFill>
@@ -1124,9 +1544,34 @@
     </dxf>
     <dxf>
       <font>
+        <color theme="0" tint="-0.14996795556505021"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color theme="0"/>
       </font>
       <fill>
+        <gradientFill>
+          <stop position="0">
+            <color rgb="FF0000CC"/>
+          </stop>
+          <stop position="1">
+            <color rgb="FFFF0000"/>
+          </stop>
+        </gradientFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
         <patternFill>
           <bgColor rgb="FF0000CC"/>
         </patternFill>
@@ -1141,9 +1586,34 @@
     </dxf>
     <dxf>
       <font>
+        <color theme="0" tint="-0.14996795556505021"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color theme="0"/>
       </font>
       <fill>
+        <gradientFill>
+          <stop position="0">
+            <color rgb="FF0000CC"/>
+          </stop>
+          <stop position="1">
+            <color rgb="FFFF0000"/>
+          </stop>
+        </gradientFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
         <patternFill>
           <bgColor rgb="FF0000CC"/>
         </patternFill>
@@ -1158,9 +1628,34 @@
     </dxf>
     <dxf>
       <font>
+        <color theme="0" tint="-0.14996795556505021"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color theme="0"/>
       </font>
       <fill>
+        <gradientFill>
+          <stop position="0">
+            <color rgb="FF0000CC"/>
+          </stop>
+          <stop position="1">
+            <color rgb="FFFF0000"/>
+          </stop>
+        </gradientFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
         <patternFill>
           <bgColor rgb="FF0000CC"/>
         </patternFill>
@@ -1175,9 +1670,34 @@
     </dxf>
     <dxf>
       <font>
+        <color theme="0" tint="-0.14996795556505021"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color theme="0"/>
       </font>
       <fill>
+        <gradientFill>
+          <stop position="0">
+            <color rgb="FF0000CC"/>
+          </stop>
+          <stop position="1">
+            <color rgb="FFFF0000"/>
+          </stop>
+        </gradientFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
         <patternFill>
           <bgColor rgb="FF0000CC"/>
         </patternFill>
@@ -1192,9 +1712,34 @@
     </dxf>
     <dxf>
       <font>
+        <color theme="0" tint="-0.14996795556505021"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color theme="0"/>
       </font>
       <fill>
+        <gradientFill>
+          <stop position="0">
+            <color rgb="FF0000CC"/>
+          </stop>
+          <stop position="1">
+            <color rgb="FFFF0000"/>
+          </stop>
+        </gradientFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
         <patternFill>
           <bgColor rgb="FF0000CC"/>
         </patternFill>
@@ -1209,9 +1754,34 @@
     </dxf>
     <dxf>
       <font>
+        <color theme="0" tint="-0.14996795556505021"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color theme="0"/>
       </font>
       <fill>
+        <gradientFill>
+          <stop position="0">
+            <color rgb="FF0000CC"/>
+          </stop>
+          <stop position="1">
+            <color rgb="FFFF0000"/>
+          </stop>
+        </gradientFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
         <patternFill>
           <bgColor rgb="FF0000CC"/>
         </patternFill>
@@ -1226,9 +1796,34 @@
     </dxf>
     <dxf>
       <font>
+        <color theme="0" tint="-0.14996795556505021"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color theme="0"/>
       </font>
       <fill>
+        <gradientFill>
+          <stop position="0">
+            <color rgb="FF0000CC"/>
+          </stop>
+          <stop position="1">
+            <color rgb="FFFF0000"/>
+          </stop>
+        </gradientFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
         <patternFill>
           <bgColor rgb="FF0000CC"/>
         </patternFill>
@@ -1243,9 +1838,34 @@
     </dxf>
     <dxf>
       <font>
+        <color theme="0" tint="-0.14996795556505021"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color theme="0"/>
       </font>
       <fill>
+        <gradientFill>
+          <stop position="0">
+            <color rgb="FF0000CC"/>
+          </stop>
+          <stop position="1">
+            <color rgb="FFFF0000"/>
+          </stop>
+        </gradientFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
         <patternFill>
           <bgColor rgb="FF0000CC"/>
         </patternFill>
@@ -1260,9 +1880,34 @@
     </dxf>
     <dxf>
       <font>
+        <color theme="0" tint="-0.14996795556505021"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color theme="0"/>
       </font>
       <fill>
+        <gradientFill>
+          <stop position="0">
+            <color rgb="FF0000CC"/>
+          </stop>
+          <stop position="1">
+            <color rgb="FFFF0000"/>
+          </stop>
+        </gradientFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
         <patternFill>
           <bgColor rgb="FF0000CC"/>
         </patternFill>
@@ -1277,9 +1922,34 @@
     </dxf>
     <dxf>
       <font>
+        <color theme="0" tint="-0.14996795556505021"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color theme="0"/>
       </font>
       <fill>
+        <gradientFill>
+          <stop position="0">
+            <color rgb="FF0000CC"/>
+          </stop>
+          <stop position="1">
+            <color rgb="FFFF0000"/>
+          </stop>
+        </gradientFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
         <patternFill>
           <bgColor rgb="FF0000CC"/>
         </patternFill>
@@ -1294,9 +1964,34 @@
     </dxf>
     <dxf>
       <font>
+        <color theme="0" tint="-0.14996795556505021"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color theme="0"/>
       </font>
       <fill>
+        <gradientFill>
+          <stop position="0">
+            <color rgb="FF0000CC"/>
+          </stop>
+          <stop position="1">
+            <color rgb="FFFF0000"/>
+          </stop>
+        </gradientFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
         <patternFill>
           <bgColor rgb="FF0000CC"/>
         </patternFill>
@@ -1311,6 +2006,23 @@
     </dxf>
     <dxf>
       <font>
+        <color theme="0" tint="-0.14996795556505021"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color theme="0"/>
       </font>
       <fill>
@@ -1320,6 +2032,31 @@
       </fill>
     </dxf>
     <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <gradientFill>
+          <stop position="0">
+            <color rgb="FF0000CC"/>
+          </stop>
+          <stop position="1">
+            <color rgb="FFFF0000"/>
+          </stop>
+        </gradientFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0000CC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <fill>
         <patternFill>
           <bgColor rgb="FFFF0000"/>
@@ -1328,11 +2065,473 @@
     </dxf>
     <dxf>
       <font>
+        <color theme="0" tint="-0.14996795556505021"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color theme="0"/>
       </font>
       <fill>
+        <gradientFill>
+          <stop position="0">
+            <color rgb="FF0000CC"/>
+          </stop>
+          <stop position="1">
+            <color rgb="FFFF0000"/>
+          </stop>
+        </gradientFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
         <patternFill>
           <bgColor rgb="FF0000CC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.14996795556505021"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <gradientFill>
+          <stop position="0">
+            <color rgb="FF0000CC"/>
+          </stop>
+          <stop position="1">
+            <color rgb="FFFF0000"/>
+          </stop>
+        </gradientFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0000CC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.14996795556505021"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <gradientFill>
+          <stop position="0">
+            <color rgb="FF0000CC"/>
+          </stop>
+          <stop position="1">
+            <color rgb="FFFF0000"/>
+          </stop>
+        </gradientFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0000CC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.14996795556505021"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <gradientFill>
+          <stop position="0">
+            <color rgb="FF0000CC"/>
+          </stop>
+          <stop position="1">
+            <color rgb="FFFF0000"/>
+          </stop>
+        </gradientFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0000CC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.14996795556505021"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <gradientFill>
+          <stop position="0">
+            <color rgb="FF0000CC"/>
+          </stop>
+          <stop position="1">
+            <color rgb="FFFF0000"/>
+          </stop>
+        </gradientFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0000CC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.14996795556505021"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <gradientFill>
+          <stop position="0">
+            <color rgb="FF0000CC"/>
+          </stop>
+          <stop position="1">
+            <color rgb="FFFF0000"/>
+          </stop>
+        </gradientFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0000CC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.14996795556505021"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <gradientFill>
+          <stop position="0">
+            <color rgb="FF0000CC"/>
+          </stop>
+          <stop position="1">
+            <color rgb="FFFF0000"/>
+          </stop>
+        </gradientFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0000CC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.14996795556505021"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <gradientFill>
+          <stop position="0">
+            <color rgb="FF0000CC"/>
+          </stop>
+          <stop position="1">
+            <color rgb="FFFF0000"/>
+          </stop>
+        </gradientFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0000CC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.14996795556505021"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <gradientFill>
+          <stop position="0">
+            <color rgb="FF0000CC"/>
+          </stop>
+          <stop position="1">
+            <color rgb="FFFF0000"/>
+          </stop>
+        </gradientFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0000CC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.14996795556505021"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <gradientFill>
+          <stop position="0">
+            <color rgb="FF0000CC"/>
+          </stop>
+          <stop position="1">
+            <color rgb="FFFF0000"/>
+          </stop>
+        </gradientFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0000CC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.14996795556505021"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <gradientFill>
+          <stop position="0">
+            <color rgb="FF0000CC"/>
+          </stop>
+          <stop position="1">
+            <color rgb="FFFF0000"/>
+          </stop>
+        </gradientFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0000CC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.14996795556505021"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1963,10 +3162,12 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:CT99"/>
+  <dimension ref="A1:CU100"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B69" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D79" sqref="D79"/>
+    <sheetView tabSelected="1" topLeftCell="A79" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <pane xSplit="5" topLeftCell="BM1" activePane="topRight" state="frozen"/>
+      <selection activeCell="A19" sqref="A19"/>
+      <selection pane="topRight" activeCell="BO79" sqref="BO79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1981,42 +3182,28 @@
     <col min="9" max="9" width="13.140625" style="15" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="10" style="15" customWidth="1"/>
     <col min="12" max="50" width="5.7109375" hidden="1" customWidth="1"/>
-    <col min="51" max="66" width="5.7109375" bestFit="1" customWidth="1"/>
+    <col min="51" max="64" width="6.140625" hidden="1" customWidth="1"/>
+    <col min="65" max="65" width="6.140625" bestFit="1" customWidth="1"/>
+    <col min="66" max="99" width="6.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:66">
+    <row r="1" spans="3:66" hidden="1">
       <c r="C1" s="26" t="s">
         <v>36</v>
       </c>
       <c r="D1" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="E1" s="33">
-        <v>22</v>
-      </c>
-      <c r="F1" s="33">
-        <v>23</v>
-      </c>
-      <c r="G1" s="33">
-        <v>24</v>
-      </c>
-      <c r="H1" s="33">
-        <v>25</v>
-      </c>
+      <c r="E1" s="33"/>
+      <c r="F1" s="33"/>
+      <c r="G1" s="33"/>
+      <c r="H1" s="33"/>
       <c r="I1" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="J1" s="15" t="s">
-        <v>133</v>
-      </c>
-      <c r="K1" s="15" t="s">
-        <v>135</v>
-      </c>
+      <c r="K1" s="15"/>
     </row>
-    <row r="2" spans="2:66">
-      <c r="B2" t="s">
-        <v>10</v>
-      </c>
+    <row r="2" spans="3:66" hidden="1">
       <c r="C2" s="27" t="s">
         <v>64</v>
       </c>
@@ -2025,16 +3212,11 @@
       <c r="F2" s="33"/>
       <c r="G2" s="33"/>
       <c r="H2" s="33"/>
-      <c r="J2" s="15" t="s">
-        <v>136</v>
-      </c>
-      <c r="K2" s="15" t="s">
-        <v>137</v>
-      </c>
+      <c r="K2" s="15"/>
     </row>
-    <row r="3" spans="2:66">
+    <row r="3" spans="3:66" hidden="1">
       <c r="C3" s="27" t="s">
-        <v>145</v>
+        <v>135</v>
       </c>
       <c r="D3" s="35"/>
       <c r="E3" s="33"/>
@@ -2043,10 +3225,7 @@
       <c r="H3" s="33"/>
       <c r="K3" s="15"/>
     </row>
-    <row r="4" spans="2:66">
-      <c r="B4" t="s">
-        <v>10</v>
-      </c>
+    <row r="4" spans="3:66" hidden="1">
       <c r="C4" s="27" t="s">
         <v>83</v>
       </c>
@@ -2058,55 +3237,36 @@
       <c r="I4" s="17" t="s">
         <v>39</v>
       </c>
-      <c r="J4" s="15" t="s">
-        <v>134</v>
-      </c>
-      <c r="K4" s="15" t="s">
-        <v>138</v>
-      </c>
+      <c r="K4" s="15"/>
     </row>
-    <row r="5" spans="2:66">
+    <row r="5" spans="3:66" hidden="1">
       <c r="C5" s="27" t="s">
         <v>60</v>
       </c>
       <c r="D5" s="16"/>
-      <c r="E5" s="33" t="s">
-        <v>133</v>
-      </c>
+      <c r="E5" s="33"/>
       <c r="F5" s="33"/>
-      <c r="G5" s="33" t="s">
-        <v>134</v>
-      </c>
-      <c r="H5" s="33" t="s">
-        <v>136</v>
-      </c>
+      <c r="G5" s="33"/>
+      <c r="H5" s="33"/>
       <c r="I5" s="17" t="s">
         <v>40</v>
       </c>
       <c r="K5" s="15"/>
     </row>
-    <row r="6" spans="2:66">
+    <row r="6" spans="3:66" hidden="1">
       <c r="C6" s="27" t="s">
         <v>82</v>
       </c>
       <c r="D6" s="16"/>
       <c r="E6" s="33"/>
-      <c r="F6" s="33" t="s">
-        <v>142</v>
-      </c>
+      <c r="F6" s="33"/>
       <c r="G6" s="15"/>
-      <c r="H6" s="15" t="s">
-        <v>136</v>
-      </c>
       <c r="I6" s="17" t="s">
         <v>92</v>
       </c>
       <c r="K6" s="15"/>
     </row>
-    <row r="7" spans="2:66">
-      <c r="B7" t="s">
-        <v>10</v>
-      </c>
+    <row r="7" spans="3:66" hidden="1">
       <c r="C7" s="27" t="s">
         <v>75</v>
       </c>
@@ -2117,29 +3277,18 @@
       <c r="H7" s="33"/>
       <c r="K7" s="15"/>
     </row>
-    <row r="8" spans="2:66">
+    <row r="8" spans="3:66" hidden="1">
       <c r="C8" s="27" t="s">
         <v>71</v>
       </c>
       <c r="D8" s="16"/>
-      <c r="E8" s="33" t="s">
-        <v>139</v>
-      </c>
-      <c r="F8" s="33" t="s">
-        <v>140</v>
-      </c>
-      <c r="G8" s="33" t="s">
-        <v>140</v>
-      </c>
-      <c r="H8" s="33" t="s">
-        <v>140</v>
-      </c>
+      <c r="E8" s="33"/>
+      <c r="F8" s="33"/>
+      <c r="G8" s="33"/>
+      <c r="H8" s="33"/>
       <c r="K8" s="15"/>
     </row>
-    <row r="9" spans="2:66">
-      <c r="B9" t="s">
-        <v>10</v>
-      </c>
+    <row r="9" spans="3:66" hidden="1">
       <c r="C9" s="27" t="s">
         <v>70</v>
       </c>
@@ -2150,122 +3299,84 @@
       <c r="H9" s="33"/>
       <c r="K9" s="15"/>
     </row>
-    <row r="10" spans="2:66">
+    <row r="10" spans="3:66" hidden="1">
       <c r="C10" s="27" t="s">
         <v>58</v>
       </c>
       <c r="D10" s="16">
-        <f>SUMIF($D$20:$D$95,C10,$G$20:$G$95)</f>
+        <f>SUMIF($D$20:$D$96,C10,$G$20:$G$96)</f>
         <v>0</v>
       </c>
       <c r="E10" s="33"/>
-      <c r="F10" s="33" t="s">
-        <v>141</v>
-      </c>
-      <c r="G10" s="33" t="s">
-        <v>134</v>
-      </c>
-      <c r="H10" s="33" t="s">
-        <v>134</v>
-      </c>
+      <c r="F10" s="33"/>
+      <c r="G10" s="33"/>
+      <c r="H10" s="33"/>
       <c r="K10" s="15"/>
     </row>
-    <row r="11" spans="2:66">
+    <row r="11" spans="3:66" hidden="1">
       <c r="C11" s="27" t="s">
         <v>61</v>
       </c>
       <c r="D11" s="16">
-        <f>SUMIF($D$20:$D$95,C11,$G$20:$G$95)</f>
+        <f>SUMIF($D$20:$D$96,C11,$G$20:$G$96)</f>
         <v>0</v>
       </c>
       <c r="E11" s="33"/>
-      <c r="F11" s="33" t="s">
-        <v>133</v>
-      </c>
-      <c r="H11" s="33" t="s">
-        <v>142</v>
-      </c>
+      <c r="F11" s="33"/>
+      <c r="H11" s="33"/>
       <c r="K11" s="15"/>
     </row>
-    <row r="12" spans="2:66">
+    <row r="12" spans="3:66" hidden="1">
       <c r="C12" s="27" t="s">
         <v>84</v>
       </c>
       <c r="D12" s="16"/>
-      <c r="E12" s="33" t="s">
-        <v>142</v>
-      </c>
-      <c r="F12" s="33" t="s">
-        <v>142</v>
-      </c>
-      <c r="G12" s="33" t="s">
-        <v>136</v>
-      </c>
+      <c r="E12" s="33"/>
+      <c r="F12" s="33"/>
+      <c r="G12" s="33"/>
       <c r="H12" s="33"/>
       <c r="K12" s="15"/>
     </row>
-    <row r="13" spans="2:66">
+    <row r="13" spans="3:66" hidden="1">
       <c r="C13" s="27" t="s">
         <v>59</v>
       </c>
       <c r="D13" s="16">
-        <f>SUMIF($D$20:$D$95,C13,$G$20:$G$95)</f>
+        <f>SUMIF($D$20:$D$96,C13,$G$20:$G$96)</f>
         <v>0</v>
       </c>
-      <c r="E13" s="33" t="s">
-        <v>139</v>
-      </c>
-      <c r="F13" s="33" t="s">
-        <v>140</v>
-      </c>
-      <c r="G13" s="33" t="s">
-        <v>140</v>
-      </c>
-      <c r="H13" s="33" t="s">
-        <v>140</v>
-      </c>
+      <c r="E13" s="33"/>
+      <c r="F13" s="33"/>
+      <c r="G13" s="33"/>
+      <c r="H13" s="33"/>
       <c r="K13" s="15"/>
     </row>
-    <row r="14" spans="2:66">
+    <row r="14" spans="3:66" hidden="1">
       <c r="C14" s="27" t="s">
         <v>74</v>
       </c>
       <c r="D14" s="16"/>
-      <c r="E14" s="33" t="s">
-        <v>142</v>
-      </c>
-      <c r="F14" s="33" t="s">
-        <v>136</v>
-      </c>
-      <c r="G14" s="33" t="s">
-        <v>136</v>
-      </c>
-      <c r="H14" s="33" t="s">
-        <v>133</v>
-      </c>
+      <c r="E14" s="33"/>
+      <c r="F14" s="33"/>
+      <c r="G14" s="33"/>
+      <c r="H14" s="33"/>
       <c r="K14" s="15"/>
     </row>
-    <row r="15" spans="2:66" ht="17.25" customHeight="1">
+    <row r="15" spans="3:66" ht="17.25" hidden="1" customHeight="1">
       <c r="C15" s="27" t="s">
         <v>57</v>
       </c>
       <c r="D15" s="16">
-        <f>SUMIF($D$20:$D$95,C15,$G$20:$G$95)</f>
+        <f>SUMIF($D$20:$D$96,C15,$G$20:$G$96)</f>
         <v>0</v>
       </c>
       <c r="E15" s="33"/>
-      <c r="F15" s="33" t="s">
-        <v>139</v>
-      </c>
-      <c r="G15" s="33" t="s">
-        <v>133</v>
-      </c>
-      <c r="H15" s="33" t="s">
-        <v>136</v>
-      </c>
+      <c r="F15" s="33"/>
+      <c r="G15" s="33"/>
+      <c r="H15" s="33"/>
       <c r="K15" s="15"/>
     </row>
-    <row r="16" spans="2:66" s="33" customFormat="1">
+    <row r="16" spans="3:66" s="33" customFormat="1" hidden="1">
       <c r="C16" s="27" t="s">
         <v>67</v>
       </c>
@@ -2491,25 +3602,22 @@
         <v>41187</v>
       </c>
     </row>
-    <row r="17" spans="2:98">
+    <row r="17" spans="2:99" hidden="1">
       <c r="C17" s="27" t="s">
         <v>81</v>
       </c>
       <c r="D17" s="16">
-        <f>SUMIF($D$20:$D$95,C17,$G$20:$G$95)</f>
+        <f>SUMIF($D$20:$D$96,C17,$G$20:$G$96)</f>
         <v>0</v>
       </c>
       <c r="E17" s="33"/>
-      <c r="F17" s="33" t="s">
-        <v>133</v>
-      </c>
+      <c r="F17" s="33"/>
       <c r="G17" s="33"/>
-      <c r="H17" s="33" t="s">
-        <v>136</v>
-      </c>
+      <c r="H17" s="33"/>
       <c r="K17" s="15"/>
     </row>
-    <row r="19" spans="2:98" s="18" customFormat="1" ht="30">
+    <row r="18" spans="2:99" hidden="1"/>
+    <row r="19" spans="2:99" s="18" customFormat="1" ht="30">
       <c r="B19" s="19" t="s">
         <v>41</v>
       </c>
@@ -2544,7 +3652,7 @@
         <v>41134</v>
       </c>
       <c r="N19" s="19">
-        <f t="shared" ref="N19:BA19" si="2">M19+1</f>
+        <f t="shared" ref="N19:AX19" si="2">M19+1</f>
         <v>41135</v>
       </c>
       <c r="O19" s="19">
@@ -2696,68 +3804,199 @@
         <v>41172</v>
       </c>
       <c r="AZ19" s="19">
-        <f t="shared" si="2"/>
+        <f>AY19+1</f>
         <v>41173</v>
       </c>
       <c r="BA19" s="19">
-        <f t="shared" si="2"/>
+        <f t="shared" ref="BA19:BB19" si="3">AZ19+1</f>
         <v>41174</v>
       </c>
       <c r="BB19" s="19">
-        <f t="shared" ref="BB19:BC19" si="3">BA19+1</f>
+        <f t="shared" si="3"/>
         <v>41175</v>
       </c>
       <c r="BC19" s="19">
-        <f t="shared" si="3"/>
+        <f>BB19+1</f>
         <v>41176</v>
       </c>
       <c r="BD19" s="19">
-        <f t="shared" ref="BD19:BE19" si="4">BC19+1</f>
+        <f>BC19+1</f>
         <v>41177</v>
       </c>
       <c r="BE19" s="19">
+        <f>BD19+1</f>
+        <v>41178</v>
+      </c>
+      <c r="BF19" s="19">
+        <f>BE19+1</f>
+        <v>41179</v>
+      </c>
+      <c r="BG19" s="19">
+        <f>BF19+1</f>
+        <v>41180</v>
+      </c>
+      <c r="BH19" s="19">
+        <f>BG19+1</f>
+        <v>41181</v>
+      </c>
+      <c r="BI19" s="19">
+        <f>BH19+1</f>
+        <v>41182</v>
+      </c>
+      <c r="BJ19" s="19">
+        <f>BI19+1</f>
+        <v>41183</v>
+      </c>
+      <c r="BK19" s="19">
+        <f>BJ19+1</f>
+        <v>41184</v>
+      </c>
+      <c r="BL19" s="19">
+        <f>BK19+1</f>
+        <v>41185</v>
+      </c>
+      <c r="BM19" s="19">
+        <f>BL19+1</f>
+        <v>41186</v>
+      </c>
+      <c r="BN19" s="19">
+        <f t="shared" ref="BN19:CU19" si="4">BM19+1</f>
+        <v>41187</v>
+      </c>
+      <c r="BO19" s="19">
         <f t="shared" si="4"/>
-        <v>41178</v>
-      </c>
-      <c r="BF19" s="19">
-        <f t="shared" ref="BF19:BG19" si="5">BE19+1</f>
-        <v>41179</v>
-      </c>
-      <c r="BG19" s="19">
-        <f t="shared" si="5"/>
-        <v>41180</v>
-      </c>
-      <c r="BH19" s="19">
-        <f t="shared" ref="BH19:BI19" si="6">BG19+1</f>
-        <v>41181</v>
-      </c>
-      <c r="BI19" s="19">
-        <f t="shared" si="6"/>
-        <v>41182</v>
-      </c>
-      <c r="BJ19" s="19">
-        <f t="shared" ref="BJ19:BK19" si="7">BI19+1</f>
-        <v>41183</v>
-      </c>
-      <c r="BK19" s="19">
-        <f t="shared" si="7"/>
-        <v>41184</v>
-      </c>
-      <c r="BL19" s="19">
-        <f t="shared" ref="BL19:BM19" si="8">BK19+1</f>
-        <v>41185</v>
-      </c>
-      <c r="BM19" s="19">
-        <f t="shared" si="8"/>
-        <v>41186</v>
-      </c>
-      <c r="BN19" s="19">
-        <f t="shared" ref="BN19" si="9">BM19+1</f>
-        <v>41187</v>
-      </c>
-      <c r="BO19" s="19"/>
+        <v>41188</v>
+      </c>
+      <c r="BP19" s="19">
+        <f t="shared" si="4"/>
+        <v>41189</v>
+      </c>
+      <c r="BQ19" s="19">
+        <f t="shared" si="4"/>
+        <v>41190</v>
+      </c>
+      <c r="BR19" s="19">
+        <f t="shared" si="4"/>
+        <v>41191</v>
+      </c>
+      <c r="BS19" s="19">
+        <f t="shared" si="4"/>
+        <v>41192</v>
+      </c>
+      <c r="BT19" s="19">
+        <f t="shared" si="4"/>
+        <v>41193</v>
+      </c>
+      <c r="BU19" s="19">
+        <f t="shared" si="4"/>
+        <v>41194</v>
+      </c>
+      <c r="BV19" s="19">
+        <f t="shared" si="4"/>
+        <v>41195</v>
+      </c>
+      <c r="BW19" s="19">
+        <f t="shared" si="4"/>
+        <v>41196</v>
+      </c>
+      <c r="BX19" s="19">
+        <f t="shared" si="4"/>
+        <v>41197</v>
+      </c>
+      <c r="BY19" s="19">
+        <f t="shared" si="4"/>
+        <v>41198</v>
+      </c>
+      <c r="BZ19" s="19">
+        <f t="shared" si="4"/>
+        <v>41199</v>
+      </c>
+      <c r="CA19" s="19">
+        <f t="shared" si="4"/>
+        <v>41200</v>
+      </c>
+      <c r="CB19" s="19">
+        <f t="shared" si="4"/>
+        <v>41201</v>
+      </c>
+      <c r="CC19" s="19">
+        <f t="shared" si="4"/>
+        <v>41202</v>
+      </c>
+      <c r="CD19" s="19">
+        <f t="shared" si="4"/>
+        <v>41203</v>
+      </c>
+      <c r="CE19" s="19">
+        <f t="shared" si="4"/>
+        <v>41204</v>
+      </c>
+      <c r="CF19" s="19">
+        <f t="shared" si="4"/>
+        <v>41205</v>
+      </c>
+      <c r="CG19" s="19">
+        <f t="shared" si="4"/>
+        <v>41206</v>
+      </c>
+      <c r="CH19" s="19">
+        <f t="shared" si="4"/>
+        <v>41207</v>
+      </c>
+      <c r="CI19" s="19">
+        <f t="shared" si="4"/>
+        <v>41208</v>
+      </c>
+      <c r="CJ19" s="19">
+        <f t="shared" si="4"/>
+        <v>41209</v>
+      </c>
+      <c r="CK19" s="19">
+        <f t="shared" si="4"/>
+        <v>41210</v>
+      </c>
+      <c r="CL19" s="19">
+        <f t="shared" si="4"/>
+        <v>41211</v>
+      </c>
+      <c r="CM19" s="19">
+        <f t="shared" si="4"/>
+        <v>41212</v>
+      </c>
+      <c r="CN19" s="19">
+        <f t="shared" si="4"/>
+        <v>41213</v>
+      </c>
+      <c r="CO19" s="19">
+        <f t="shared" si="4"/>
+        <v>41214</v>
+      </c>
+      <c r="CP19" s="19">
+        <f t="shared" si="4"/>
+        <v>41215</v>
+      </c>
+      <c r="CQ19" s="19">
+        <f t="shared" si="4"/>
+        <v>41216</v>
+      </c>
+      <c r="CR19" s="19">
+        <f t="shared" si="4"/>
+        <v>41217</v>
+      </c>
+      <c r="CS19" s="19">
+        <f t="shared" si="4"/>
+        <v>41218</v>
+      </c>
+      <c r="CT19" s="19">
+        <f t="shared" si="4"/>
+        <v>41219</v>
+      </c>
+      <c r="CU19" s="19">
+        <f t="shared" si="4"/>
+        <v>41220</v>
+      </c>
     </row>
-    <row r="20" spans="2:98" s="20" customFormat="1">
+    <row r="20" spans="2:99" s="20" customFormat="1">
       <c r="B20" s="21"/>
       <c r="C20" s="30" t="s">
         <v>86</v>
@@ -2857,8 +4096,9 @@
       <c r="CR20" s="21"/>
       <c r="CS20" s="21"/>
       <c r="CT20" s="21"/>
+      <c r="CU20" s="21"/>
     </row>
-    <row r="21" spans="2:98">
+    <row r="21" spans="2:99">
       <c r="B21" s="22"/>
       <c r="C21" s="29" t="s">
         <v>87</v>
@@ -2932,8 +4172,41 @@
       <c r="BL21" s="1"/>
       <c r="BM21" s="1"/>
       <c r="BN21" s="1"/>
+      <c r="BO21" s="1"/>
+      <c r="BP21" s="1"/>
+      <c r="BQ21" s="1"/>
+      <c r="BR21" s="1"/>
+      <c r="BS21" s="1"/>
+      <c r="BT21" s="1"/>
+      <c r="BU21" s="1"/>
+      <c r="BV21" s="1"/>
+      <c r="BW21" s="1"/>
+      <c r="BX21" s="1"/>
+      <c r="BY21" s="1"/>
+      <c r="BZ21" s="1"/>
+      <c r="CA21" s="1"/>
+      <c r="CB21" s="1"/>
+      <c r="CC21" s="1"/>
+      <c r="CD21" s="1"/>
+      <c r="CE21" s="1"/>
+      <c r="CF21" s="1"/>
+      <c r="CG21" s="1"/>
+      <c r="CH21" s="1"/>
+      <c r="CI21" s="1"/>
+      <c r="CJ21" s="1"/>
+      <c r="CK21" s="1"/>
+      <c r="CL21" s="1"/>
+      <c r="CM21" s="1"/>
+      <c r="CN21" s="1"/>
+      <c r="CO21" s="1"/>
+      <c r="CP21" s="1"/>
+      <c r="CQ21" s="1"/>
+      <c r="CR21" s="1"/>
+      <c r="CS21" s="1"/>
+      <c r="CT21" s="1"/>
+      <c r="CU21" s="1"/>
     </row>
-    <row r="22" spans="2:98">
+    <row r="22" spans="2:99">
       <c r="B22" s="22"/>
       <c r="C22" s="29" t="s">
         <v>88</v>
@@ -3009,8 +4282,41 @@
       <c r="BL22" s="1"/>
       <c r="BM22" s="1"/>
       <c r="BN22" s="1"/>
+      <c r="BO22" s="1"/>
+      <c r="BP22" s="1"/>
+      <c r="BQ22" s="1"/>
+      <c r="BR22" s="1"/>
+      <c r="BS22" s="1"/>
+      <c r="BT22" s="1"/>
+      <c r="BU22" s="1"/>
+      <c r="BV22" s="1"/>
+      <c r="BW22" s="1"/>
+      <c r="BX22" s="1"/>
+      <c r="BY22" s="1"/>
+      <c r="BZ22" s="1"/>
+      <c r="CA22" s="1"/>
+      <c r="CB22" s="1"/>
+      <c r="CC22" s="1"/>
+      <c r="CD22" s="1"/>
+      <c r="CE22" s="1"/>
+      <c r="CF22" s="1"/>
+      <c r="CG22" s="1"/>
+      <c r="CH22" s="1"/>
+      <c r="CI22" s="1"/>
+      <c r="CJ22" s="1"/>
+      <c r="CK22" s="1"/>
+      <c r="CL22" s="1"/>
+      <c r="CM22" s="1"/>
+      <c r="CN22" s="1"/>
+      <c r="CO22" s="1"/>
+      <c r="CP22" s="1"/>
+      <c r="CQ22" s="1"/>
+      <c r="CR22" s="1"/>
+      <c r="CS22" s="1"/>
+      <c r="CT22" s="1"/>
+      <c r="CU22" s="1"/>
     </row>
-    <row r="23" spans="2:98">
+    <row r="23" spans="2:99">
       <c r="B23" s="22"/>
       <c r="C23" s="29" t="s">
         <v>89</v>
@@ -3086,8 +4392,41 @@
       <c r="BL23" s="1"/>
       <c r="BM23" s="1"/>
       <c r="BN23" s="1"/>
+      <c r="BO23" s="1"/>
+      <c r="BP23" s="1"/>
+      <c r="BQ23" s="1"/>
+      <c r="BR23" s="1"/>
+      <c r="BS23" s="1"/>
+      <c r="BT23" s="1"/>
+      <c r="BU23" s="1"/>
+      <c r="BV23" s="1"/>
+      <c r="BW23" s="1"/>
+      <c r="BX23" s="1"/>
+      <c r="BY23" s="1"/>
+      <c r="BZ23" s="1"/>
+      <c r="CA23" s="1"/>
+      <c r="CB23" s="1"/>
+      <c r="CC23" s="1"/>
+      <c r="CD23" s="1"/>
+      <c r="CE23" s="1"/>
+      <c r="CF23" s="1"/>
+      <c r="CG23" s="1"/>
+      <c r="CH23" s="1"/>
+      <c r="CI23" s="1"/>
+      <c r="CJ23" s="1"/>
+      <c r="CK23" s="1"/>
+      <c r="CL23" s="1"/>
+      <c r="CM23" s="1"/>
+      <c r="CN23" s="1"/>
+      <c r="CO23" s="1"/>
+      <c r="CP23" s="1"/>
+      <c r="CQ23" s="1"/>
+      <c r="CR23" s="1"/>
+      <c r="CS23" s="1"/>
+      <c r="CT23" s="1"/>
+      <c r="CU23" s="1"/>
     </row>
-    <row r="24" spans="2:98">
+    <row r="24" spans="2:99">
       <c r="B24" s="22"/>
       <c r="C24" s="29" t="s">
         <v>90</v>
@@ -3163,8 +4502,41 @@
       <c r="BL24" s="1"/>
       <c r="BM24" s="1"/>
       <c r="BN24" s="1"/>
+      <c r="BO24" s="1"/>
+      <c r="BP24" s="1"/>
+      <c r="BQ24" s="1"/>
+      <c r="BR24" s="1"/>
+      <c r="BS24" s="1"/>
+      <c r="BT24" s="1"/>
+      <c r="BU24" s="1"/>
+      <c r="BV24" s="1"/>
+      <c r="BW24" s="1"/>
+      <c r="BX24" s="1"/>
+      <c r="BY24" s="1"/>
+      <c r="BZ24" s="1"/>
+      <c r="CA24" s="1"/>
+      <c r="CB24" s="1"/>
+      <c r="CC24" s="1"/>
+      <c r="CD24" s="1"/>
+      <c r="CE24" s="1"/>
+      <c r="CF24" s="1"/>
+      <c r="CG24" s="1"/>
+      <c r="CH24" s="1"/>
+      <c r="CI24" s="1"/>
+      <c r="CJ24" s="1"/>
+      <c r="CK24" s="1"/>
+      <c r="CL24" s="1"/>
+      <c r="CM24" s="1"/>
+      <c r="CN24" s="1"/>
+      <c r="CO24" s="1"/>
+      <c r="CP24" s="1"/>
+      <c r="CQ24" s="1"/>
+      <c r="CR24" s="1"/>
+      <c r="CS24" s="1"/>
+      <c r="CT24" s="1"/>
+      <c r="CU24" s="1"/>
     </row>
-    <row r="25" spans="2:98" s="20" customFormat="1">
+    <row r="25" spans="2:99" s="20" customFormat="1">
       <c r="B25" s="21"/>
       <c r="C25" s="30" t="s">
         <v>65</v>
@@ -3232,8 +4604,41 @@
       <c r="BL25" s="21"/>
       <c r="BM25" s="21"/>
       <c r="BN25" s="21"/>
+      <c r="BO25" s="21"/>
+      <c r="BP25" s="21"/>
+      <c r="BQ25" s="21"/>
+      <c r="BR25" s="21"/>
+      <c r="BS25" s="21"/>
+      <c r="BT25" s="21"/>
+      <c r="BU25" s="21"/>
+      <c r="BV25" s="21"/>
+      <c r="BW25" s="21"/>
+      <c r="BX25" s="21"/>
+      <c r="BY25" s="21"/>
+      <c r="BZ25" s="21"/>
+      <c r="CA25" s="21"/>
+      <c r="CB25" s="21"/>
+      <c r="CC25" s="21"/>
+      <c r="CD25" s="21"/>
+      <c r="CE25" s="21"/>
+      <c r="CF25" s="21"/>
+      <c r="CG25" s="21"/>
+      <c r="CH25" s="21"/>
+      <c r="CI25" s="21"/>
+      <c r="CJ25" s="21"/>
+      <c r="CK25" s="21"/>
+      <c r="CL25" s="21"/>
+      <c r="CM25" s="21"/>
+      <c r="CN25" s="21"/>
+      <c r="CO25" s="21"/>
+      <c r="CP25" s="21"/>
+      <c r="CQ25" s="21"/>
+      <c r="CR25" s="21"/>
+      <c r="CS25" s="21"/>
+      <c r="CT25" s="21"/>
+      <c r="CU25" s="21"/>
     </row>
-    <row r="26" spans="2:98">
+    <row r="26" spans="2:99">
       <c r="B26" s="22"/>
       <c r="C26" s="29" t="s">
         <v>66</v>
@@ -3305,8 +4710,41 @@
       <c r="BL26" s="1"/>
       <c r="BM26" s="1"/>
       <c r="BN26" s="1"/>
+      <c r="BO26" s="1"/>
+      <c r="BP26" s="1"/>
+      <c r="BQ26" s="1"/>
+      <c r="BR26" s="1"/>
+      <c r="BS26" s="1"/>
+      <c r="BT26" s="1"/>
+      <c r="BU26" s="1"/>
+      <c r="BV26" s="1"/>
+      <c r="BW26" s="1"/>
+      <c r="BX26" s="1"/>
+      <c r="BY26" s="1"/>
+      <c r="BZ26" s="1"/>
+      <c r="CA26" s="1"/>
+      <c r="CB26" s="1"/>
+      <c r="CC26" s="1"/>
+      <c r="CD26" s="1"/>
+      <c r="CE26" s="1"/>
+      <c r="CF26" s="1"/>
+      <c r="CG26" s="1"/>
+      <c r="CH26" s="1"/>
+      <c r="CI26" s="1"/>
+      <c r="CJ26" s="1"/>
+      <c r="CK26" s="1"/>
+      <c r="CL26" s="1"/>
+      <c r="CM26" s="1"/>
+      <c r="CN26" s="1"/>
+      <c r="CO26" s="1"/>
+      <c r="CP26" s="1"/>
+      <c r="CQ26" s="1"/>
+      <c r="CR26" s="1"/>
+      <c r="CS26" s="1"/>
+      <c r="CT26" s="1"/>
+      <c r="CU26" s="1"/>
     </row>
-    <row r="27" spans="2:98">
+    <row r="27" spans="2:99">
       <c r="B27" s="22"/>
       <c r="C27" s="29" t="s">
         <v>68</v>
@@ -3380,8 +4818,41 @@
       <c r="BL27" s="1"/>
       <c r="BM27" s="1"/>
       <c r="BN27" s="1"/>
+      <c r="BO27" s="1"/>
+      <c r="BP27" s="1"/>
+      <c r="BQ27" s="1"/>
+      <c r="BR27" s="1"/>
+      <c r="BS27" s="1"/>
+      <c r="BT27" s="1"/>
+      <c r="BU27" s="1"/>
+      <c r="BV27" s="1"/>
+      <c r="BW27" s="1"/>
+      <c r="BX27" s="1"/>
+      <c r="BY27" s="1"/>
+      <c r="BZ27" s="1"/>
+      <c r="CA27" s="1"/>
+      <c r="CB27" s="1"/>
+      <c r="CC27" s="1"/>
+      <c r="CD27" s="1"/>
+      <c r="CE27" s="1"/>
+      <c r="CF27" s="1"/>
+      <c r="CG27" s="1"/>
+      <c r="CH27" s="1"/>
+      <c r="CI27" s="1"/>
+      <c r="CJ27" s="1"/>
+      <c r="CK27" s="1"/>
+      <c r="CL27" s="1"/>
+      <c r="CM27" s="1"/>
+      <c r="CN27" s="1"/>
+      <c r="CO27" s="1"/>
+      <c r="CP27" s="1"/>
+      <c r="CQ27" s="1"/>
+      <c r="CR27" s="1"/>
+      <c r="CS27" s="1"/>
+      <c r="CT27" s="1"/>
+      <c r="CU27" s="1"/>
     </row>
-    <row r="28" spans="2:98">
+    <row r="28" spans="2:99">
       <c r="B28" s="22"/>
       <c r="C28" s="29" t="s">
         <v>69</v>
@@ -3455,8 +4926,41 @@
       <c r="BL28" s="1"/>
       <c r="BM28" s="1"/>
       <c r="BN28" s="1"/>
+      <c r="BO28" s="1"/>
+      <c r="BP28" s="1"/>
+      <c r="BQ28" s="1"/>
+      <c r="BR28" s="1"/>
+      <c r="BS28" s="1"/>
+      <c r="BT28" s="1"/>
+      <c r="BU28" s="1"/>
+      <c r="BV28" s="1"/>
+      <c r="BW28" s="1"/>
+      <c r="BX28" s="1"/>
+      <c r="BY28" s="1"/>
+      <c r="BZ28" s="1"/>
+      <c r="CA28" s="1"/>
+      <c r="CB28" s="1"/>
+      <c r="CC28" s="1"/>
+      <c r="CD28" s="1"/>
+      <c r="CE28" s="1"/>
+      <c r="CF28" s="1"/>
+      <c r="CG28" s="1"/>
+      <c r="CH28" s="1"/>
+      <c r="CI28" s="1"/>
+      <c r="CJ28" s="1"/>
+      <c r="CK28" s="1"/>
+      <c r="CL28" s="1"/>
+      <c r="CM28" s="1"/>
+      <c r="CN28" s="1"/>
+      <c r="CO28" s="1"/>
+      <c r="CP28" s="1"/>
+      <c r="CQ28" s="1"/>
+      <c r="CR28" s="1"/>
+      <c r="CS28" s="1"/>
+      <c r="CT28" s="1"/>
+      <c r="CU28" s="1"/>
     </row>
-    <row r="29" spans="2:98">
+    <row r="29" spans="2:99">
       <c r="B29" s="22"/>
       <c r="C29" s="29" t="s">
         <v>72</v>
@@ -3532,8 +5036,41 @@
       <c r="BL29" s="1"/>
       <c r="BM29" s="1"/>
       <c r="BN29" s="1"/>
+      <c r="BO29" s="1"/>
+      <c r="BP29" s="1"/>
+      <c r="BQ29" s="1"/>
+      <c r="BR29" s="1"/>
+      <c r="BS29" s="1"/>
+      <c r="BT29" s="1"/>
+      <c r="BU29" s="1"/>
+      <c r="BV29" s="1"/>
+      <c r="BW29" s="1"/>
+      <c r="BX29" s="1"/>
+      <c r="BY29" s="1"/>
+      <c r="BZ29" s="1"/>
+      <c r="CA29" s="1"/>
+      <c r="CB29" s="1"/>
+      <c r="CC29" s="1"/>
+      <c r="CD29" s="1"/>
+      <c r="CE29" s="1"/>
+      <c r="CF29" s="1"/>
+      <c r="CG29" s="1"/>
+      <c r="CH29" s="1"/>
+      <c r="CI29" s="1"/>
+      <c r="CJ29" s="1"/>
+      <c r="CK29" s="1"/>
+      <c r="CL29" s="1"/>
+      <c r="CM29" s="1"/>
+      <c r="CN29" s="1"/>
+      <c r="CO29" s="1"/>
+      <c r="CP29" s="1"/>
+      <c r="CQ29" s="1"/>
+      <c r="CR29" s="1"/>
+      <c r="CS29" s="1"/>
+      <c r="CT29" s="1"/>
+      <c r="CU29" s="1"/>
     </row>
-    <row r="30" spans="2:98">
+    <row r="30" spans="2:99">
       <c r="B30" s="22"/>
       <c r="C30" s="29" t="s">
         <v>96</v>
@@ -3605,8 +5142,41 @@
       <c r="BL30" s="1"/>
       <c r="BM30" s="1"/>
       <c r="BN30" s="1"/>
+      <c r="BO30" s="1"/>
+      <c r="BP30" s="1"/>
+      <c r="BQ30" s="1"/>
+      <c r="BR30" s="1"/>
+      <c r="BS30" s="1"/>
+      <c r="BT30" s="1"/>
+      <c r="BU30" s="1"/>
+      <c r="BV30" s="1"/>
+      <c r="BW30" s="1"/>
+      <c r="BX30" s="1"/>
+      <c r="BY30" s="1"/>
+      <c r="BZ30" s="1"/>
+      <c r="CA30" s="1"/>
+      <c r="CB30" s="1"/>
+      <c r="CC30" s="1"/>
+      <c r="CD30" s="1"/>
+      <c r="CE30" s="1"/>
+      <c r="CF30" s="1"/>
+      <c r="CG30" s="1"/>
+      <c r="CH30" s="1"/>
+      <c r="CI30" s="1"/>
+      <c r="CJ30" s="1"/>
+      <c r="CK30" s="1"/>
+      <c r="CL30" s="1"/>
+      <c r="CM30" s="1"/>
+      <c r="CN30" s="1"/>
+      <c r="CO30" s="1"/>
+      <c r="CP30" s="1"/>
+      <c r="CQ30" s="1"/>
+      <c r="CR30" s="1"/>
+      <c r="CS30" s="1"/>
+      <c r="CT30" s="1"/>
+      <c r="CU30" s="1"/>
     </row>
-    <row r="31" spans="2:98">
+    <row r="31" spans="2:99">
       <c r="B31" s="22"/>
       <c r="C31" s="29" t="s">
         <v>97</v>
@@ -3678,8 +5248,41 @@
       <c r="BL31" s="1"/>
       <c r="BM31" s="1"/>
       <c r="BN31" s="1"/>
+      <c r="BO31" s="1"/>
+      <c r="BP31" s="1"/>
+      <c r="BQ31" s="1"/>
+      <c r="BR31" s="1"/>
+      <c r="BS31" s="1"/>
+      <c r="BT31" s="1"/>
+      <c r="BU31" s="1"/>
+      <c r="BV31" s="1"/>
+      <c r="BW31" s="1"/>
+      <c r="BX31" s="1"/>
+      <c r="BY31" s="1"/>
+      <c r="BZ31" s="1"/>
+      <c r="CA31" s="1"/>
+      <c r="CB31" s="1"/>
+      <c r="CC31" s="1"/>
+      <c r="CD31" s="1"/>
+      <c r="CE31" s="1"/>
+      <c r="CF31" s="1"/>
+      <c r="CG31" s="1"/>
+      <c r="CH31" s="1"/>
+      <c r="CI31" s="1"/>
+      <c r="CJ31" s="1"/>
+      <c r="CK31" s="1"/>
+      <c r="CL31" s="1"/>
+      <c r="CM31" s="1"/>
+      <c r="CN31" s="1"/>
+      <c r="CO31" s="1"/>
+      <c r="CP31" s="1"/>
+      <c r="CQ31" s="1"/>
+      <c r="CR31" s="1"/>
+      <c r="CS31" s="1"/>
+      <c r="CT31" s="1"/>
+      <c r="CU31" s="1"/>
     </row>
-    <row r="32" spans="2:98">
+    <row r="32" spans="2:99">
       <c r="B32" s="22"/>
       <c r="C32" s="29" t="s">
         <v>73</v>
@@ -3753,8 +5356,41 @@
       <c r="BL32" s="1"/>
       <c r="BM32" s="1"/>
       <c r="BN32" s="1"/>
+      <c r="BO32" s="1"/>
+      <c r="BP32" s="1"/>
+      <c r="BQ32" s="1"/>
+      <c r="BR32" s="1"/>
+      <c r="BS32" s="1"/>
+      <c r="BT32" s="1"/>
+      <c r="BU32" s="1"/>
+      <c r="BV32" s="1"/>
+      <c r="BW32" s="1"/>
+      <c r="BX32" s="1"/>
+      <c r="BY32" s="1"/>
+      <c r="BZ32" s="1"/>
+      <c r="CA32" s="1"/>
+      <c r="CB32" s="1"/>
+      <c r="CC32" s="1"/>
+      <c r="CD32" s="1"/>
+      <c r="CE32" s="1"/>
+      <c r="CF32" s="1"/>
+      <c r="CG32" s="1"/>
+      <c r="CH32" s="1"/>
+      <c r="CI32" s="1"/>
+      <c r="CJ32" s="1"/>
+      <c r="CK32" s="1"/>
+      <c r="CL32" s="1"/>
+      <c r="CM32" s="1"/>
+      <c r="CN32" s="1"/>
+      <c r="CO32" s="1"/>
+      <c r="CP32" s="1"/>
+      <c r="CQ32" s="1"/>
+      <c r="CR32" s="1"/>
+      <c r="CS32" s="1"/>
+      <c r="CT32" s="1"/>
+      <c r="CU32" s="1"/>
     </row>
-    <row r="33" spans="1:66">
+    <row r="33" spans="1:99">
       <c r="B33" s="22"/>
       <c r="C33" s="29"/>
       <c r="D33" s="29"/>
@@ -3820,8 +5456,41 @@
       <c r="BL33" s="1"/>
       <c r="BM33" s="1"/>
       <c r="BN33" s="1"/>
+      <c r="BO33" s="1"/>
+      <c r="BP33" s="1"/>
+      <c r="BQ33" s="1"/>
+      <c r="BR33" s="1"/>
+      <c r="BS33" s="1"/>
+      <c r="BT33" s="1"/>
+      <c r="BU33" s="1"/>
+      <c r="BV33" s="1"/>
+      <c r="BW33" s="1"/>
+      <c r="BX33" s="1"/>
+      <c r="BY33" s="1"/>
+      <c r="BZ33" s="1"/>
+      <c r="CA33" s="1"/>
+      <c r="CB33" s="1"/>
+      <c r="CC33" s="1"/>
+      <c r="CD33" s="1"/>
+      <c r="CE33" s="1"/>
+      <c r="CF33" s="1"/>
+      <c r="CG33" s="1"/>
+      <c r="CH33" s="1"/>
+      <c r="CI33" s="1"/>
+      <c r="CJ33" s="1"/>
+      <c r="CK33" s="1"/>
+      <c r="CL33" s="1"/>
+      <c r="CM33" s="1"/>
+      <c r="CN33" s="1"/>
+      <c r="CO33" s="1"/>
+      <c r="CP33" s="1"/>
+      <c r="CQ33" s="1"/>
+      <c r="CR33" s="1"/>
+      <c r="CS33" s="1"/>
+      <c r="CT33" s="1"/>
+      <c r="CU33" s="1"/>
     </row>
-    <row r="34" spans="1:66" s="20" customFormat="1">
+    <row r="34" spans="1:99" s="20" customFormat="1">
       <c r="B34" s="21"/>
       <c r="C34" s="30" t="s">
         <v>49</v>
@@ -3889,8 +5558,41 @@
       <c r="BL34" s="21"/>
       <c r="BM34" s="21"/>
       <c r="BN34" s="21"/>
+      <c r="BO34" s="21"/>
+      <c r="BP34" s="21"/>
+      <c r="BQ34" s="21"/>
+      <c r="BR34" s="21"/>
+      <c r="BS34" s="21"/>
+      <c r="BT34" s="21"/>
+      <c r="BU34" s="21"/>
+      <c r="BV34" s="21"/>
+      <c r="BW34" s="21"/>
+      <c r="BX34" s="21"/>
+      <c r="BY34" s="21"/>
+      <c r="BZ34" s="21"/>
+      <c r="CA34" s="21"/>
+      <c r="CB34" s="21"/>
+      <c r="CC34" s="21"/>
+      <c r="CD34" s="21"/>
+      <c r="CE34" s="21"/>
+      <c r="CF34" s="21"/>
+      <c r="CG34" s="21"/>
+      <c r="CH34" s="21"/>
+      <c r="CI34" s="21"/>
+      <c r="CJ34" s="21"/>
+      <c r="CK34" s="21"/>
+      <c r="CL34" s="21"/>
+      <c r="CM34" s="21"/>
+      <c r="CN34" s="21"/>
+      <c r="CO34" s="21"/>
+      <c r="CP34" s="21"/>
+      <c r="CQ34" s="21"/>
+      <c r="CR34" s="21"/>
+      <c r="CS34" s="21"/>
+      <c r="CT34" s="21"/>
+      <c r="CU34" s="21"/>
     </row>
-    <row r="35" spans="1:66">
+    <row r="35" spans="1:99">
       <c r="B35" s="22"/>
       <c r="C35" s="29" t="s">
         <v>56</v>
@@ -3964,8 +5666,41 @@
       <c r="BL35" s="1"/>
       <c r="BM35" s="1"/>
       <c r="BN35" s="1"/>
+      <c r="BO35" s="1"/>
+      <c r="BP35" s="1"/>
+      <c r="BQ35" s="1"/>
+      <c r="BR35" s="1"/>
+      <c r="BS35" s="1"/>
+      <c r="BT35" s="1"/>
+      <c r="BU35" s="1"/>
+      <c r="BV35" s="1"/>
+      <c r="BW35" s="1"/>
+      <c r="BX35" s="1"/>
+      <c r="BY35" s="1"/>
+      <c r="BZ35" s="1"/>
+      <c r="CA35" s="1"/>
+      <c r="CB35" s="1"/>
+      <c r="CC35" s="1"/>
+      <c r="CD35" s="1"/>
+      <c r="CE35" s="1"/>
+      <c r="CF35" s="1"/>
+      <c r="CG35" s="1"/>
+      <c r="CH35" s="1"/>
+      <c r="CI35" s="1"/>
+      <c r="CJ35" s="1"/>
+      <c r="CK35" s="1"/>
+      <c r="CL35" s="1"/>
+      <c r="CM35" s="1"/>
+      <c r="CN35" s="1"/>
+      <c r="CO35" s="1"/>
+      <c r="CP35" s="1"/>
+      <c r="CQ35" s="1"/>
+      <c r="CR35" s="1"/>
+      <c r="CS35" s="1"/>
+      <c r="CT35" s="1"/>
+      <c r="CU35" s="1"/>
     </row>
-    <row r="36" spans="1:66">
+    <row r="36" spans="1:99">
       <c r="B36" s="22"/>
       <c r="C36" s="29" t="s">
         <v>50</v>
@@ -4037,8 +5772,41 @@
       <c r="BL36" s="1"/>
       <c r="BM36" s="1"/>
       <c r="BN36" s="1"/>
+      <c r="BO36" s="1"/>
+      <c r="BP36" s="1"/>
+      <c r="BQ36" s="1"/>
+      <c r="BR36" s="1"/>
+      <c r="BS36" s="1"/>
+      <c r="BT36" s="1"/>
+      <c r="BU36" s="1"/>
+      <c r="BV36" s="1"/>
+      <c r="BW36" s="1"/>
+      <c r="BX36" s="1"/>
+      <c r="BY36" s="1"/>
+      <c r="BZ36" s="1"/>
+      <c r="CA36" s="1"/>
+      <c r="CB36" s="1"/>
+      <c r="CC36" s="1"/>
+      <c r="CD36" s="1"/>
+      <c r="CE36" s="1"/>
+      <c r="CF36" s="1"/>
+      <c r="CG36" s="1"/>
+      <c r="CH36" s="1"/>
+      <c r="CI36" s="1"/>
+      <c r="CJ36" s="1"/>
+      <c r="CK36" s="1"/>
+      <c r="CL36" s="1"/>
+      <c r="CM36" s="1"/>
+      <c r="CN36" s="1"/>
+      <c r="CO36" s="1"/>
+      <c r="CP36" s="1"/>
+      <c r="CQ36" s="1"/>
+      <c r="CR36" s="1"/>
+      <c r="CS36" s="1"/>
+      <c r="CT36" s="1"/>
+      <c r="CU36" s="1"/>
     </row>
-    <row r="37" spans="1:66">
+    <row r="37" spans="1:99">
       <c r="B37" s="22"/>
       <c r="C37" s="29" t="s">
         <v>51</v>
@@ -4110,8 +5878,41 @@
       <c r="BL37" s="1"/>
       <c r="BM37" s="1"/>
       <c r="BN37" s="1"/>
+      <c r="BO37" s="1"/>
+      <c r="BP37" s="1"/>
+      <c r="BQ37" s="1"/>
+      <c r="BR37" s="1"/>
+      <c r="BS37" s="1"/>
+      <c r="BT37" s="1"/>
+      <c r="BU37" s="1"/>
+      <c r="BV37" s="1"/>
+      <c r="BW37" s="1"/>
+      <c r="BX37" s="1"/>
+      <c r="BY37" s="1"/>
+      <c r="BZ37" s="1"/>
+      <c r="CA37" s="1"/>
+      <c r="CB37" s="1"/>
+      <c r="CC37" s="1"/>
+      <c r="CD37" s="1"/>
+      <c r="CE37" s="1"/>
+      <c r="CF37" s="1"/>
+      <c r="CG37" s="1"/>
+      <c r="CH37" s="1"/>
+      <c r="CI37" s="1"/>
+      <c r="CJ37" s="1"/>
+      <c r="CK37" s="1"/>
+      <c r="CL37" s="1"/>
+      <c r="CM37" s="1"/>
+      <c r="CN37" s="1"/>
+      <c r="CO37" s="1"/>
+      <c r="CP37" s="1"/>
+      <c r="CQ37" s="1"/>
+      <c r="CR37" s="1"/>
+      <c r="CS37" s="1"/>
+      <c r="CT37" s="1"/>
+      <c r="CU37" s="1"/>
     </row>
-    <row r="38" spans="1:66">
+    <row r="38" spans="1:99">
       <c r="B38" s="22"/>
       <c r="C38" s="29" t="s">
         <v>98</v>
@@ -4183,8 +5984,41 @@
       <c r="BL38" s="1"/>
       <c r="BM38" s="1"/>
       <c r="BN38" s="1"/>
+      <c r="BO38" s="1"/>
+      <c r="BP38" s="1"/>
+      <c r="BQ38" s="1"/>
+      <c r="BR38" s="1"/>
+      <c r="BS38" s="1"/>
+      <c r="BT38" s="1"/>
+      <c r="BU38" s="1"/>
+      <c r="BV38" s="1"/>
+      <c r="BW38" s="1"/>
+      <c r="BX38" s="1"/>
+      <c r="BY38" s="1"/>
+      <c r="BZ38" s="1"/>
+      <c r="CA38" s="1"/>
+      <c r="CB38" s="1"/>
+      <c r="CC38" s="1"/>
+      <c r="CD38" s="1"/>
+      <c r="CE38" s="1"/>
+      <c r="CF38" s="1"/>
+      <c r="CG38" s="1"/>
+      <c r="CH38" s="1"/>
+      <c r="CI38" s="1"/>
+      <c r="CJ38" s="1"/>
+      <c r="CK38" s="1"/>
+      <c r="CL38" s="1"/>
+      <c r="CM38" s="1"/>
+      <c r="CN38" s="1"/>
+      <c r="CO38" s="1"/>
+      <c r="CP38" s="1"/>
+      <c r="CQ38" s="1"/>
+      <c r="CR38" s="1"/>
+      <c r="CS38" s="1"/>
+      <c r="CT38" s="1"/>
+      <c r="CU38" s="1"/>
     </row>
-    <row r="39" spans="1:66">
+    <row r="39" spans="1:99">
       <c r="B39" s="22"/>
       <c r="C39" s="29"/>
       <c r="D39" s="22"/>
@@ -4250,11 +6084,44 @@
       <c r="BL39" s="1"/>
       <c r="BM39" s="1"/>
       <c r="BN39" s="1"/>
+      <c r="BO39" s="1"/>
+      <c r="BP39" s="1"/>
+      <c r="BQ39" s="1"/>
+      <c r="BR39" s="1"/>
+      <c r="BS39" s="1"/>
+      <c r="BT39" s="1"/>
+      <c r="BU39" s="1"/>
+      <c r="BV39" s="1"/>
+      <c r="BW39" s="1"/>
+      <c r="BX39" s="1"/>
+      <c r="BY39" s="1"/>
+      <c r="BZ39" s="1"/>
+      <c r="CA39" s="1"/>
+      <c r="CB39" s="1"/>
+      <c r="CC39" s="1"/>
+      <c r="CD39" s="1"/>
+      <c r="CE39" s="1"/>
+      <c r="CF39" s="1"/>
+      <c r="CG39" s="1"/>
+      <c r="CH39" s="1"/>
+      <c r="CI39" s="1"/>
+      <c r="CJ39" s="1"/>
+      <c r="CK39" s="1"/>
+      <c r="CL39" s="1"/>
+      <c r="CM39" s="1"/>
+      <c r="CN39" s="1"/>
+      <c r="CO39" s="1"/>
+      <c r="CP39" s="1"/>
+      <c r="CQ39" s="1"/>
+      <c r="CR39" s="1"/>
+      <c r="CS39" s="1"/>
+      <c r="CT39" s="1"/>
+      <c r="CU39" s="1"/>
     </row>
-    <row r="40" spans="1:66" s="20" customFormat="1">
+    <row r="40" spans="1:99" s="20" customFormat="1">
       <c r="B40" s="21"/>
       <c r="C40" s="30" t="s">
-        <v>144</v>
+        <v>134</v>
       </c>
       <c r="D40" s="21" t="s">
         <v>131</v>
@@ -4325,8 +6192,41 @@
       <c r="BL40" s="21"/>
       <c r="BM40" s="21"/>
       <c r="BN40" s="21"/>
+      <c r="BO40" s="21"/>
+      <c r="BP40" s="21"/>
+      <c r="BQ40" s="21"/>
+      <c r="BR40" s="21"/>
+      <c r="BS40" s="21"/>
+      <c r="BT40" s="21"/>
+      <c r="BU40" s="21"/>
+      <c r="BV40" s="21"/>
+      <c r="BW40" s="21"/>
+      <c r="BX40" s="21"/>
+      <c r="BY40" s="21"/>
+      <c r="BZ40" s="21"/>
+      <c r="CA40" s="21"/>
+      <c r="CB40" s="21"/>
+      <c r="CC40" s="21"/>
+      <c r="CD40" s="21"/>
+      <c r="CE40" s="21"/>
+      <c r="CF40" s="21"/>
+      <c r="CG40" s="21"/>
+      <c r="CH40" s="21"/>
+      <c r="CI40" s="21"/>
+      <c r="CJ40" s="21"/>
+      <c r="CK40" s="21"/>
+      <c r="CL40" s="21"/>
+      <c r="CM40" s="21"/>
+      <c r="CN40" s="21"/>
+      <c r="CO40" s="21"/>
+      <c r="CP40" s="21"/>
+      <c r="CQ40" s="21"/>
+      <c r="CR40" s="21"/>
+      <c r="CS40" s="21"/>
+      <c r="CT40" s="21"/>
+      <c r="CU40" s="21"/>
     </row>
-    <row r="41" spans="1:66">
+    <row r="41" spans="1:99">
       <c r="A41" t="s">
         <v>10</v>
       </c>
@@ -4399,8 +6299,41 @@
       <c r="BL41" s="1"/>
       <c r="BM41" s="1"/>
       <c r="BN41" s="1"/>
+      <c r="BO41" s="1"/>
+      <c r="BP41" s="1"/>
+      <c r="BQ41" s="1"/>
+      <c r="BR41" s="1"/>
+      <c r="BS41" s="1"/>
+      <c r="BT41" s="1"/>
+      <c r="BU41" s="1"/>
+      <c r="BV41" s="1"/>
+      <c r="BW41" s="1"/>
+      <c r="BX41" s="1"/>
+      <c r="BY41" s="1"/>
+      <c r="BZ41" s="1"/>
+      <c r="CA41" s="1"/>
+      <c r="CB41" s="1"/>
+      <c r="CC41" s="1"/>
+      <c r="CD41" s="1"/>
+      <c r="CE41" s="1"/>
+      <c r="CF41" s="1"/>
+      <c r="CG41" s="1"/>
+      <c r="CH41" s="1"/>
+      <c r="CI41" s="1"/>
+      <c r="CJ41" s="1"/>
+      <c r="CK41" s="1"/>
+      <c r="CL41" s="1"/>
+      <c r="CM41" s="1"/>
+      <c r="CN41" s="1"/>
+      <c r="CO41" s="1"/>
+      <c r="CP41" s="1"/>
+      <c r="CQ41" s="1"/>
+      <c r="CR41" s="1"/>
+      <c r="CS41" s="1"/>
+      <c r="CT41" s="1"/>
+      <c r="CU41" s="1"/>
     </row>
-    <row r="42" spans="1:66">
+    <row r="42" spans="1:99">
       <c r="A42" t="s">
         <v>10</v>
       </c>
@@ -4473,8 +6406,41 @@
       <c r="BL42" s="1"/>
       <c r="BM42" s="1"/>
       <c r="BN42" s="1"/>
+      <c r="BO42" s="1"/>
+      <c r="BP42" s="1"/>
+      <c r="BQ42" s="1"/>
+      <c r="BR42" s="1"/>
+      <c r="BS42" s="1"/>
+      <c r="BT42" s="1"/>
+      <c r="BU42" s="1"/>
+      <c r="BV42" s="1"/>
+      <c r="BW42" s="1"/>
+      <c r="BX42" s="1"/>
+      <c r="BY42" s="1"/>
+      <c r="BZ42" s="1"/>
+      <c r="CA42" s="1"/>
+      <c r="CB42" s="1"/>
+      <c r="CC42" s="1"/>
+      <c r="CD42" s="1"/>
+      <c r="CE42" s="1"/>
+      <c r="CF42" s="1"/>
+      <c r="CG42" s="1"/>
+      <c r="CH42" s="1"/>
+      <c r="CI42" s="1"/>
+      <c r="CJ42" s="1"/>
+      <c r="CK42" s="1"/>
+      <c r="CL42" s="1"/>
+      <c r="CM42" s="1"/>
+      <c r="CN42" s="1"/>
+      <c r="CO42" s="1"/>
+      <c r="CP42" s="1"/>
+      <c r="CQ42" s="1"/>
+      <c r="CR42" s="1"/>
+      <c r="CS42" s="1"/>
+      <c r="CT42" s="1"/>
+      <c r="CU42" s="1"/>
     </row>
-    <row r="43" spans="1:66">
+    <row r="43" spans="1:99">
       <c r="A43" t="s">
         <v>10</v>
       </c>
@@ -4547,8 +6513,41 @@
       <c r="BL43" s="1"/>
       <c r="BM43" s="1"/>
       <c r="BN43" s="1"/>
+      <c r="BO43" s="1"/>
+      <c r="BP43" s="1"/>
+      <c r="BQ43" s="1"/>
+      <c r="BR43" s="1"/>
+      <c r="BS43" s="1"/>
+      <c r="BT43" s="1"/>
+      <c r="BU43" s="1"/>
+      <c r="BV43" s="1"/>
+      <c r="BW43" s="1"/>
+      <c r="BX43" s="1"/>
+      <c r="BY43" s="1"/>
+      <c r="BZ43" s="1"/>
+      <c r="CA43" s="1"/>
+      <c r="CB43" s="1"/>
+      <c r="CC43" s="1"/>
+      <c r="CD43" s="1"/>
+      <c r="CE43" s="1"/>
+      <c r="CF43" s="1"/>
+      <c r="CG43" s="1"/>
+      <c r="CH43" s="1"/>
+      <c r="CI43" s="1"/>
+      <c r="CJ43" s="1"/>
+      <c r="CK43" s="1"/>
+      <c r="CL43" s="1"/>
+      <c r="CM43" s="1"/>
+      <c r="CN43" s="1"/>
+      <c r="CO43" s="1"/>
+      <c r="CP43" s="1"/>
+      <c r="CQ43" s="1"/>
+      <c r="CR43" s="1"/>
+      <c r="CS43" s="1"/>
+      <c r="CT43" s="1"/>
+      <c r="CU43" s="1"/>
     </row>
-    <row r="44" spans="1:66">
+    <row r="44" spans="1:99">
       <c r="B44" s="22"/>
       <c r="C44" s="29" t="s">
         <v>95</v>
@@ -4620,13 +6619,50 @@
       <c r="BJ44" s="1"/>
       <c r="BK44" s="1"/>
       <c r="BL44" s="1"/>
-      <c r="BM44" s="1"/>
-      <c r="BN44" s="1"/>
+      <c r="BM44" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="BN44" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="BO44" s="1"/>
+      <c r="BP44" s="1"/>
+      <c r="BQ44" s="1"/>
+      <c r="BR44" s="1"/>
+      <c r="BS44" s="1"/>
+      <c r="BT44" s="1"/>
+      <c r="BU44" s="1"/>
+      <c r="BV44" s="1"/>
+      <c r="BW44" s="1"/>
+      <c r="BX44" s="1"/>
+      <c r="BY44" s="1"/>
+      <c r="BZ44" s="1"/>
+      <c r="CA44" s="1"/>
+      <c r="CB44" s="1"/>
+      <c r="CC44" s="1"/>
+      <c r="CD44" s="1"/>
+      <c r="CE44" s="1"/>
+      <c r="CF44" s="1"/>
+      <c r="CG44" s="1"/>
+      <c r="CH44" s="1"/>
+      <c r="CI44" s="1"/>
+      <c r="CJ44" s="1"/>
+      <c r="CK44" s="1"/>
+      <c r="CL44" s="1"/>
+      <c r="CM44" s="1"/>
+      <c r="CN44" s="1"/>
+      <c r="CO44" s="1"/>
+      <c r="CP44" s="1"/>
+      <c r="CQ44" s="1"/>
+      <c r="CR44" s="1"/>
+      <c r="CS44" s="1"/>
+      <c r="CT44" s="1"/>
+      <c r="CU44" s="1"/>
     </row>
-    <row r="45" spans="1:66">
+    <row r="45" spans="1:99">
       <c r="B45" s="22"/>
       <c r="C45" s="29" t="s">
-        <v>143</v>
+        <v>133</v>
       </c>
       <c r="D45" s="22" t="s">
         <v>61</v>
@@ -4695,10 +6731,44 @@
       <c r="BJ45" s="1"/>
       <c r="BK45" s="1"/>
       <c r="BL45" s="1"/>
-      <c r="BM45" s="1"/>
-      <c r="BN45" s="1"/>
+      <c r="BM45" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="BN45" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="BR45" s="1"/>
+      <c r="BS45" s="1"/>
+      <c r="BT45" s="1"/>
+      <c r="BU45" s="1"/>
+      <c r="BV45" s="1"/>
+      <c r="BW45" s="1"/>
+      <c r="BX45" s="1"/>
+      <c r="BY45" s="1"/>
+      <c r="BZ45" s="1"/>
+      <c r="CA45" s="1"/>
+      <c r="CB45" s="1"/>
+      <c r="CC45" s="1"/>
+      <c r="CD45" s="1"/>
+      <c r="CE45" s="1"/>
+      <c r="CF45" s="1"/>
+      <c r="CG45" s="1"/>
+      <c r="CH45" s="1"/>
+      <c r="CI45" s="1"/>
+      <c r="CJ45" s="1"/>
+      <c r="CK45" s="1"/>
+      <c r="CL45" s="1"/>
+      <c r="CM45" s="1"/>
+      <c r="CN45" s="1"/>
+      <c r="CO45" s="1"/>
+      <c r="CP45" s="1"/>
+      <c r="CQ45" s="1"/>
+      <c r="CR45" s="1"/>
+      <c r="CS45" s="1"/>
+      <c r="CT45" s="1"/>
+      <c r="CU45" s="1"/>
     </row>
-    <row r="46" spans="1:66">
+    <row r="46" spans="1:99">
       <c r="B46" s="22"/>
       <c r="C46" s="29" t="s">
         <v>121</v>
@@ -4770,10 +6840,53 @@
       <c r="BJ46" s="1"/>
       <c r="BK46" s="1"/>
       <c r="BL46" s="1"/>
-      <c r="BM46" s="1"/>
-      <c r="BN46" s="1"/>
+      <c r="BM46" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="BN46" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="BO46" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="BP46" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="BQ46" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="BR46" s="1"/>
+      <c r="BS46" s="1"/>
+      <c r="BT46" s="1"/>
+      <c r="BU46" s="1"/>
+      <c r="BV46" s="1"/>
+      <c r="BW46" s="1"/>
+      <c r="BX46" s="1"/>
+      <c r="BY46" s="1"/>
+      <c r="BZ46" s="1"/>
+      <c r="CA46" s="1"/>
+      <c r="CB46" s="1"/>
+      <c r="CC46" s="1"/>
+      <c r="CD46" s="1"/>
+      <c r="CE46" s="1"/>
+      <c r="CF46" s="1"/>
+      <c r="CG46" s="1"/>
+      <c r="CH46" s="1"/>
+      <c r="CI46" s="1"/>
+      <c r="CJ46" s="1"/>
+      <c r="CK46" s="1"/>
+      <c r="CL46" s="1"/>
+      <c r="CM46" s="1"/>
+      <c r="CN46" s="1"/>
+      <c r="CO46" s="1"/>
+      <c r="CP46" s="1"/>
+      <c r="CQ46" s="1"/>
+      <c r="CR46" s="1"/>
+      <c r="CS46" s="1"/>
+      <c r="CT46" s="1"/>
+      <c r="CU46" s="1"/>
     </row>
-    <row r="47" spans="1:66">
+    <row r="47" spans="1:99">
       <c r="B47" s="22"/>
       <c r="C47" s="29" t="s">
         <v>93</v>
@@ -4847,8 +6960,41 @@
       <c r="BL47" s="1"/>
       <c r="BM47" s="1"/>
       <c r="BN47" s="1"/>
+      <c r="BO47" s="1"/>
+      <c r="BP47" s="1"/>
+      <c r="BQ47" s="1"/>
+      <c r="BR47" s="1"/>
+      <c r="BS47" s="1"/>
+      <c r="BT47" s="1"/>
+      <c r="BU47" s="1"/>
+      <c r="BV47" s="1"/>
+      <c r="BW47" s="1"/>
+      <c r="BX47" s="1"/>
+      <c r="BY47" s="1"/>
+      <c r="BZ47" s="1"/>
+      <c r="CA47" s="1"/>
+      <c r="CB47" s="1"/>
+      <c r="CC47" s="1"/>
+      <c r="CD47" s="1"/>
+      <c r="CE47" s="1"/>
+      <c r="CF47" s="1"/>
+      <c r="CG47" s="1"/>
+      <c r="CH47" s="1"/>
+      <c r="CI47" s="1"/>
+      <c r="CJ47" s="1"/>
+      <c r="CK47" s="1"/>
+      <c r="CL47" s="1"/>
+      <c r="CM47" s="1"/>
+      <c r="CN47" s="1"/>
+      <c r="CO47" s="1"/>
+      <c r="CP47" s="1"/>
+      <c r="CQ47" s="1"/>
+      <c r="CR47" s="1"/>
+      <c r="CS47" s="1"/>
+      <c r="CT47" s="1"/>
+      <c r="CU47" s="1"/>
     </row>
-    <row r="48" spans="1:66">
+    <row r="48" spans="1:99">
       <c r="B48" s="22"/>
       <c r="C48" s="29" t="s">
         <v>94</v>
@@ -4920,10 +7066,53 @@
       <c r="BJ48" s="1"/>
       <c r="BK48" s="1"/>
       <c r="BL48" s="1"/>
-      <c r="BM48" s="1"/>
-      <c r="BN48" s="1"/>
+      <c r="BM48" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="BN48" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="BO48" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="BP48" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="BQ48" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="BR48" s="1"/>
+      <c r="BS48" s="1"/>
+      <c r="BT48" s="1"/>
+      <c r="BU48" s="1"/>
+      <c r="BV48" s="1"/>
+      <c r="BW48" s="1"/>
+      <c r="BX48" s="1"/>
+      <c r="BY48" s="1"/>
+      <c r="BZ48" s="1"/>
+      <c r="CA48" s="1"/>
+      <c r="CB48" s="1"/>
+      <c r="CC48" s="1"/>
+      <c r="CD48" s="1"/>
+      <c r="CE48" s="1"/>
+      <c r="CF48" s="1"/>
+      <c r="CG48" s="1"/>
+      <c r="CH48" s="1"/>
+      <c r="CI48" s="1"/>
+      <c r="CJ48" s="1"/>
+      <c r="CK48" s="1"/>
+      <c r="CL48" s="1"/>
+      <c r="CM48" s="1"/>
+      <c r="CN48" s="1"/>
+      <c r="CO48" s="1"/>
+      <c r="CP48" s="1"/>
+      <c r="CQ48" s="1"/>
+      <c r="CR48" s="1"/>
+      <c r="CS48" s="1"/>
+      <c r="CT48" s="1"/>
+      <c r="CU48" s="1"/>
     </row>
-    <row r="49" spans="1:66">
+    <row r="49" spans="1:99">
       <c r="A49" t="s">
         <v>10</v>
       </c>
@@ -4996,8 +7185,41 @@
       <c r="BL49" s="1"/>
       <c r="BM49" s="1"/>
       <c r="BN49" s="1"/>
+      <c r="BO49" s="1"/>
+      <c r="BP49" s="1"/>
+      <c r="BQ49" s="1"/>
+      <c r="BR49" s="1"/>
+      <c r="BS49" s="1"/>
+      <c r="BT49" s="1"/>
+      <c r="BU49" s="1"/>
+      <c r="BV49" s="1"/>
+      <c r="BW49" s="1"/>
+      <c r="BX49" s="1"/>
+      <c r="BY49" s="1"/>
+      <c r="BZ49" s="1"/>
+      <c r="CA49" s="1"/>
+      <c r="CB49" s="1"/>
+      <c r="CC49" s="1"/>
+      <c r="CD49" s="1"/>
+      <c r="CE49" s="1"/>
+      <c r="CF49" s="1"/>
+      <c r="CG49" s="1"/>
+      <c r="CH49" s="1"/>
+      <c r="CI49" s="1"/>
+      <c r="CJ49" s="1"/>
+      <c r="CK49" s="1"/>
+      <c r="CL49" s="1"/>
+      <c r="CM49" s="1"/>
+      <c r="CN49" s="1"/>
+      <c r="CO49" s="1"/>
+      <c r="CP49" s="1"/>
+      <c r="CQ49" s="1"/>
+      <c r="CR49" s="1"/>
+      <c r="CS49" s="1"/>
+      <c r="CT49" s="1"/>
+      <c r="CU49" s="1"/>
     </row>
-    <row r="50" spans="1:66">
+    <row r="50" spans="1:99">
       <c r="A50" t="s">
         <v>10</v>
       </c>
@@ -5070,8 +7292,41 @@
       <c r="BL50" s="1"/>
       <c r="BM50" s="1"/>
       <c r="BN50" s="1"/>
+      <c r="BO50" s="1"/>
+      <c r="BP50" s="1"/>
+      <c r="BQ50" s="1"/>
+      <c r="BR50" s="1"/>
+      <c r="BS50" s="1"/>
+      <c r="BT50" s="1"/>
+      <c r="BU50" s="1"/>
+      <c r="BV50" s="1"/>
+      <c r="BW50" s="1"/>
+      <c r="BX50" s="1"/>
+      <c r="BY50" s="1"/>
+      <c r="BZ50" s="1"/>
+      <c r="CA50" s="1"/>
+      <c r="CB50" s="1"/>
+      <c r="CC50" s="1"/>
+      <c r="CD50" s="1"/>
+      <c r="CE50" s="1"/>
+      <c r="CF50" s="1"/>
+      <c r="CG50" s="1"/>
+      <c r="CH50" s="1"/>
+      <c r="CI50" s="1"/>
+      <c r="CJ50" s="1"/>
+      <c r="CK50" s="1"/>
+      <c r="CL50" s="1"/>
+      <c r="CM50" s="1"/>
+      <c r="CN50" s="1"/>
+      <c r="CO50" s="1"/>
+      <c r="CP50" s="1"/>
+      <c r="CQ50" s="1"/>
+      <c r="CR50" s="1"/>
+      <c r="CS50" s="1"/>
+      <c r="CT50" s="1"/>
+      <c r="CU50" s="1"/>
     </row>
-    <row r="51" spans="1:66">
+    <row r="51" spans="1:99">
       <c r="A51" t="s">
         <v>10</v>
       </c>
@@ -5144,8 +7399,41 @@
       <c r="BL51" s="1"/>
       <c r="BM51" s="1"/>
       <c r="BN51" s="1"/>
+      <c r="BO51" s="1"/>
+      <c r="BP51" s="1"/>
+      <c r="BQ51" s="1"/>
+      <c r="BR51" s="1"/>
+      <c r="BS51" s="1"/>
+      <c r="BT51" s="1"/>
+      <c r="BU51" s="1"/>
+      <c r="BV51" s="1"/>
+      <c r="BW51" s="1"/>
+      <c r="BX51" s="1"/>
+      <c r="BY51" s="1"/>
+      <c r="BZ51" s="1"/>
+      <c r="CA51" s="1"/>
+      <c r="CB51" s="1"/>
+      <c r="CC51" s="1"/>
+      <c r="CD51" s="1"/>
+      <c r="CE51" s="1"/>
+      <c r="CF51" s="1"/>
+      <c r="CG51" s="1"/>
+      <c r="CH51" s="1"/>
+      <c r="CI51" s="1"/>
+      <c r="CJ51" s="1"/>
+      <c r="CK51" s="1"/>
+      <c r="CL51" s="1"/>
+      <c r="CM51" s="1"/>
+      <c r="CN51" s="1"/>
+      <c r="CO51" s="1"/>
+      <c r="CP51" s="1"/>
+      <c r="CQ51" s="1"/>
+      <c r="CR51" s="1"/>
+      <c r="CS51" s="1"/>
+      <c r="CT51" s="1"/>
+      <c r="CU51" s="1"/>
     </row>
-    <row r="52" spans="1:66">
+    <row r="52" spans="1:99">
       <c r="B52" s="22"/>
       <c r="C52" s="29"/>
       <c r="D52" s="22"/>
@@ -5211,8 +7499,41 @@
       <c r="BL52" s="1"/>
       <c r="BM52" s="1"/>
       <c r="BN52" s="1"/>
+      <c r="BO52" s="1"/>
+      <c r="BP52" s="1"/>
+      <c r="BQ52" s="1"/>
+      <c r="BR52" s="1"/>
+      <c r="BS52" s="1"/>
+      <c r="BT52" s="1"/>
+      <c r="BU52" s="1"/>
+      <c r="BV52" s="1"/>
+      <c r="BW52" s="1"/>
+      <c r="BX52" s="1"/>
+      <c r="BY52" s="1"/>
+      <c r="BZ52" s="1"/>
+      <c r="CA52" s="1"/>
+      <c r="CB52" s="1"/>
+      <c r="CC52" s="1"/>
+      <c r="CD52" s="1"/>
+      <c r="CE52" s="1"/>
+      <c r="CF52" s="1"/>
+      <c r="CG52" s="1"/>
+      <c r="CH52" s="1"/>
+      <c r="CI52" s="1"/>
+      <c r="CJ52" s="1"/>
+      <c r="CK52" s="1"/>
+      <c r="CL52" s="1"/>
+      <c r="CM52" s="1"/>
+      <c r="CN52" s="1"/>
+      <c r="CO52" s="1"/>
+      <c r="CP52" s="1"/>
+      <c r="CQ52" s="1"/>
+      <c r="CR52" s="1"/>
+      <c r="CS52" s="1"/>
+      <c r="CT52" s="1"/>
+      <c r="CU52" s="1"/>
     </row>
-    <row r="53" spans="1:66">
+    <row r="53" spans="1:99">
       <c r="B53" s="22"/>
       <c r="C53" s="29"/>
       <c r="D53" s="22"/>
@@ -5278,8 +7599,41 @@
       <c r="BL53" s="1"/>
       <c r="BM53" s="1"/>
       <c r="BN53" s="1"/>
+      <c r="BO53" s="1"/>
+      <c r="BP53" s="1"/>
+      <c r="BQ53" s="1"/>
+      <c r="BR53" s="1"/>
+      <c r="BS53" s="1"/>
+      <c r="BT53" s="1"/>
+      <c r="BU53" s="1"/>
+      <c r="BV53" s="1"/>
+      <c r="BW53" s="1"/>
+      <c r="BX53" s="1"/>
+      <c r="BY53" s="1"/>
+      <c r="BZ53" s="1"/>
+      <c r="CA53" s="1"/>
+      <c r="CB53" s="1"/>
+      <c r="CC53" s="1"/>
+      <c r="CD53" s="1"/>
+      <c r="CE53" s="1"/>
+      <c r="CF53" s="1"/>
+      <c r="CG53" s="1"/>
+      <c r="CH53" s="1"/>
+      <c r="CI53" s="1"/>
+      <c r="CJ53" s="1"/>
+      <c r="CK53" s="1"/>
+      <c r="CL53" s="1"/>
+      <c r="CM53" s="1"/>
+      <c r="CN53" s="1"/>
+      <c r="CO53" s="1"/>
+      <c r="CP53" s="1"/>
+      <c r="CQ53" s="1"/>
+      <c r="CR53" s="1"/>
+      <c r="CS53" s="1"/>
+      <c r="CT53" s="1"/>
+      <c r="CU53" s="1"/>
     </row>
-    <row r="54" spans="1:66">
+    <row r="54" spans="1:99">
       <c r="B54" s="22"/>
       <c r="C54" s="29"/>
       <c r="D54" s="22"/>
@@ -5345,8 +7699,41 @@
       <c r="BL54" s="1"/>
       <c r="BM54" s="1"/>
       <c r="BN54" s="1"/>
+      <c r="BO54" s="1"/>
+      <c r="BP54" s="1"/>
+      <c r="BQ54" s="1"/>
+      <c r="BR54" s="1"/>
+      <c r="BS54" s="1"/>
+      <c r="BT54" s="1"/>
+      <c r="BU54" s="1"/>
+      <c r="BV54" s="1"/>
+      <c r="BW54" s="1"/>
+      <c r="BX54" s="1"/>
+      <c r="BY54" s="1"/>
+      <c r="BZ54" s="1"/>
+      <c r="CA54" s="1"/>
+      <c r="CB54" s="1"/>
+      <c r="CC54" s="1"/>
+      <c r="CD54" s="1"/>
+      <c r="CE54" s="1"/>
+      <c r="CF54" s="1"/>
+      <c r="CG54" s="1"/>
+      <c r="CH54" s="1"/>
+      <c r="CI54" s="1"/>
+      <c r="CJ54" s="1"/>
+      <c r="CK54" s="1"/>
+      <c r="CL54" s="1"/>
+      <c r="CM54" s="1"/>
+      <c r="CN54" s="1"/>
+      <c r="CO54" s="1"/>
+      <c r="CP54" s="1"/>
+      <c r="CQ54" s="1"/>
+      <c r="CR54" s="1"/>
+      <c r="CS54" s="1"/>
+      <c r="CT54" s="1"/>
+      <c r="CU54" s="1"/>
     </row>
-    <row r="55" spans="1:66" s="20" customFormat="1">
+    <row r="55" spans="1:99" s="20" customFormat="1">
       <c r="B55" s="21"/>
       <c r="C55" s="30" t="s">
         <v>129</v>
@@ -5418,8 +7805,41 @@
       <c r="BL55" s="21"/>
       <c r="BM55" s="21"/>
       <c r="BN55" s="21"/>
+      <c r="BO55" s="21"/>
+      <c r="BP55" s="21"/>
+      <c r="BQ55" s="21"/>
+      <c r="BR55" s="21"/>
+      <c r="BS55" s="21"/>
+      <c r="BT55" s="21"/>
+      <c r="BU55" s="21"/>
+      <c r="BV55" s="21"/>
+      <c r="BW55" s="21"/>
+      <c r="BX55" s="21"/>
+      <c r="BY55" s="21"/>
+      <c r="BZ55" s="21"/>
+      <c r="CA55" s="21"/>
+      <c r="CB55" s="21"/>
+      <c r="CC55" s="21"/>
+      <c r="CD55" s="21"/>
+      <c r="CE55" s="21"/>
+      <c r="CF55" s="21"/>
+      <c r="CG55" s="21"/>
+      <c r="CH55" s="21"/>
+      <c r="CI55" s="21"/>
+      <c r="CJ55" s="21"/>
+      <c r="CK55" s="21"/>
+      <c r="CL55" s="21"/>
+      <c r="CM55" s="21"/>
+      <c r="CN55" s="21"/>
+      <c r="CO55" s="21"/>
+      <c r="CP55" s="21"/>
+      <c r="CQ55" s="21"/>
+      <c r="CR55" s="21"/>
+      <c r="CS55" s="21"/>
+      <c r="CT55" s="21"/>
+      <c r="CU55" s="21"/>
     </row>
-    <row r="56" spans="1:66">
+    <row r="56" spans="1:99">
       <c r="B56" s="22"/>
       <c r="C56" s="29" t="s">
         <v>125</v>
@@ -5493,8 +7913,41 @@
       <c r="BL56" s="1"/>
       <c r="BM56" s="1"/>
       <c r="BN56" s="1"/>
+      <c r="BO56" s="1"/>
+      <c r="BP56" s="1"/>
+      <c r="BQ56" s="1"/>
+      <c r="BR56" s="1"/>
+      <c r="BS56" s="1"/>
+      <c r="BT56" s="1"/>
+      <c r="BU56" s="1"/>
+      <c r="BV56" s="1"/>
+      <c r="BW56" s="1"/>
+      <c r="BX56" s="1"/>
+      <c r="BY56" s="1"/>
+      <c r="BZ56" s="1"/>
+      <c r="CA56" s="1"/>
+      <c r="CB56" s="1"/>
+      <c r="CC56" s="1"/>
+      <c r="CD56" s="1"/>
+      <c r="CE56" s="1"/>
+      <c r="CF56" s="1"/>
+      <c r="CG56" s="1"/>
+      <c r="CH56" s="1"/>
+      <c r="CI56" s="1"/>
+      <c r="CJ56" s="1"/>
+      <c r="CK56" s="1"/>
+      <c r="CL56" s="1"/>
+      <c r="CM56" s="1"/>
+      <c r="CN56" s="1"/>
+      <c r="CO56" s="1"/>
+      <c r="CP56" s="1"/>
+      <c r="CQ56" s="1"/>
+      <c r="CR56" s="1"/>
+      <c r="CS56" s="1"/>
+      <c r="CT56" s="1"/>
+      <c r="CU56" s="1"/>
     </row>
-    <row r="57" spans="1:66">
+    <row r="57" spans="1:99">
       <c r="B57" s="22"/>
       <c r="C57" s="29" t="s">
         <v>126</v>
@@ -5568,8 +8021,41 @@
       <c r="BL57" s="1"/>
       <c r="BM57" s="1"/>
       <c r="BN57" s="1"/>
+      <c r="BO57" s="1"/>
+      <c r="BP57" s="1"/>
+      <c r="BQ57" s="1"/>
+      <c r="BR57" s="1"/>
+      <c r="BS57" s="1"/>
+      <c r="BT57" s="1"/>
+      <c r="BU57" s="1"/>
+      <c r="BV57" s="1"/>
+      <c r="BW57" s="1"/>
+      <c r="BX57" s="1"/>
+      <c r="BY57" s="1"/>
+      <c r="BZ57" s="1"/>
+      <c r="CA57" s="1"/>
+      <c r="CB57" s="1"/>
+      <c r="CC57" s="1"/>
+      <c r="CD57" s="1"/>
+      <c r="CE57" s="1"/>
+      <c r="CF57" s="1"/>
+      <c r="CG57" s="1"/>
+      <c r="CH57" s="1"/>
+      <c r="CI57" s="1"/>
+      <c r="CJ57" s="1"/>
+      <c r="CK57" s="1"/>
+      <c r="CL57" s="1"/>
+      <c r="CM57" s="1"/>
+      <c r="CN57" s="1"/>
+      <c r="CO57" s="1"/>
+      <c r="CP57" s="1"/>
+      <c r="CQ57" s="1"/>
+      <c r="CR57" s="1"/>
+      <c r="CS57" s="1"/>
+      <c r="CT57" s="1"/>
+      <c r="CU57" s="1"/>
     </row>
-    <row r="58" spans="1:66">
+    <row r="58" spans="1:99">
       <c r="B58" s="22"/>
       <c r="C58" s="29" t="s">
         <v>127</v>
@@ -5641,10 +8127,53 @@
       <c r="BJ58" s="1"/>
       <c r="BK58" s="1"/>
       <c r="BL58" s="1"/>
-      <c r="BM58" s="1"/>
-      <c r="BN58" s="1"/>
+      <c r="BM58" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="BN58" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="BO58" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="BP58" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="BQ58" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="BR58" s="1"/>
+      <c r="BS58" s="1"/>
+      <c r="BT58" s="1"/>
+      <c r="BU58" s="1"/>
+      <c r="BV58" s="1"/>
+      <c r="BW58" s="1"/>
+      <c r="BX58" s="1"/>
+      <c r="BY58" s="1"/>
+      <c r="BZ58" s="1"/>
+      <c r="CA58" s="1"/>
+      <c r="CB58" s="1"/>
+      <c r="CC58" s="1"/>
+      <c r="CD58" s="1"/>
+      <c r="CE58" s="1"/>
+      <c r="CF58" s="1"/>
+      <c r="CG58" s="1"/>
+      <c r="CH58" s="1"/>
+      <c r="CI58" s="1"/>
+      <c r="CJ58" s="1"/>
+      <c r="CK58" s="1"/>
+      <c r="CL58" s="1"/>
+      <c r="CM58" s="1"/>
+      <c r="CN58" s="1"/>
+      <c r="CO58" s="1"/>
+      <c r="CP58" s="1"/>
+      <c r="CQ58" s="1"/>
+      <c r="CR58" s="1"/>
+      <c r="CS58" s="1"/>
+      <c r="CT58" s="1"/>
+      <c r="CU58" s="1"/>
     </row>
-    <row r="59" spans="1:66">
+    <row r="59" spans="1:99">
       <c r="B59" s="22"/>
       <c r="C59" s="29" t="s">
         <v>128</v>
@@ -5716,10 +8245,53 @@
       <c r="BJ59" s="1"/>
       <c r="BK59" s="1"/>
       <c r="BL59" s="1"/>
-      <c r="BM59" s="1"/>
-      <c r="BN59" s="1"/>
+      <c r="BM59" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="BN59" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="BO59" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="BP59" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="BQ59" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="BR59" s="1"/>
+      <c r="BS59" s="1"/>
+      <c r="BT59" s="1"/>
+      <c r="BU59" s="1"/>
+      <c r="BV59" s="1"/>
+      <c r="BW59" s="1"/>
+      <c r="BX59" s="1"/>
+      <c r="BY59" s="1"/>
+      <c r="BZ59" s="1"/>
+      <c r="CA59" s="1"/>
+      <c r="CB59" s="1"/>
+      <c r="CC59" s="1"/>
+      <c r="CD59" s="1"/>
+      <c r="CE59" s="1"/>
+      <c r="CF59" s="1"/>
+      <c r="CG59" s="1"/>
+      <c r="CH59" s="1"/>
+      <c r="CI59" s="1"/>
+      <c r="CJ59" s="1"/>
+      <c r="CK59" s="1"/>
+      <c r="CL59" s="1"/>
+      <c r="CM59" s="1"/>
+      <c r="CN59" s="1"/>
+      <c r="CO59" s="1"/>
+      <c r="CP59" s="1"/>
+      <c r="CQ59" s="1"/>
+      <c r="CR59" s="1"/>
+      <c r="CS59" s="1"/>
+      <c r="CT59" s="1"/>
+      <c r="CU59" s="1"/>
     </row>
-    <row r="60" spans="1:66">
+    <row r="60" spans="1:99">
       <c r="B60" s="22"/>
       <c r="C60" s="29" t="s">
         <v>122</v>
@@ -5791,10 +8363,53 @@
       <c r="BJ60" s="1"/>
       <c r="BK60" s="1"/>
       <c r="BL60" s="1"/>
-      <c r="BM60" s="1"/>
-      <c r="BN60" s="1"/>
+      <c r="BM60" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="BN60" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="BO60" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="BP60" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="BQ60" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="BR60" s="1"/>
+      <c r="BS60" s="1"/>
+      <c r="BT60" s="1"/>
+      <c r="BU60" s="1"/>
+      <c r="BV60" s="1"/>
+      <c r="BW60" s="1"/>
+      <c r="BX60" s="1"/>
+      <c r="BY60" s="1"/>
+      <c r="BZ60" s="1"/>
+      <c r="CA60" s="1"/>
+      <c r="CB60" s="1"/>
+      <c r="CC60" s="1"/>
+      <c r="CD60" s="1"/>
+      <c r="CE60" s="1"/>
+      <c r="CF60" s="1"/>
+      <c r="CG60" s="1"/>
+      <c r="CH60" s="1"/>
+      <c r="CI60" s="1"/>
+      <c r="CJ60" s="1"/>
+      <c r="CK60" s="1"/>
+      <c r="CL60" s="1"/>
+      <c r="CM60" s="1"/>
+      <c r="CN60" s="1"/>
+      <c r="CO60" s="1"/>
+      <c r="CP60" s="1"/>
+      <c r="CQ60" s="1"/>
+      <c r="CR60" s="1"/>
+      <c r="CS60" s="1"/>
+      <c r="CT60" s="1"/>
+      <c r="CU60" s="1"/>
     </row>
-    <row r="61" spans="1:66">
+    <row r="61" spans="1:99">
       <c r="B61" s="22"/>
       <c r="C61" s="29" t="s">
         <v>123</v>
@@ -5866,10 +8481,53 @@
       <c r="BJ61" s="1"/>
       <c r="BK61" s="1"/>
       <c r="BL61" s="1"/>
-      <c r="BM61" s="1"/>
-      <c r="BN61" s="1"/>
+      <c r="BM61" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="BN61" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="BO61" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="BP61" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="BQ61" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="BR61" s="1"/>
+      <c r="BS61" s="1"/>
+      <c r="BT61" s="1"/>
+      <c r="BU61" s="1"/>
+      <c r="BV61" s="1"/>
+      <c r="BW61" s="1"/>
+      <c r="BX61" s="1"/>
+      <c r="BY61" s="1"/>
+      <c r="BZ61" s="1"/>
+      <c r="CA61" s="1"/>
+      <c r="CB61" s="1"/>
+      <c r="CC61" s="1"/>
+      <c r="CD61" s="1"/>
+      <c r="CE61" s="1"/>
+      <c r="CF61" s="1"/>
+      <c r="CG61" s="1"/>
+      <c r="CH61" s="1"/>
+      <c r="CI61" s="1"/>
+      <c r="CJ61" s="1"/>
+      <c r="CK61" s="1"/>
+      <c r="CL61" s="1"/>
+      <c r="CM61" s="1"/>
+      <c r="CN61" s="1"/>
+      <c r="CO61" s="1"/>
+      <c r="CP61" s="1"/>
+      <c r="CQ61" s="1"/>
+      <c r="CR61" s="1"/>
+      <c r="CS61" s="1"/>
+      <c r="CT61" s="1"/>
+      <c r="CU61" s="1"/>
     </row>
-    <row r="62" spans="1:66">
+    <row r="62" spans="1:99">
       <c r="B62" s="22"/>
       <c r="C62" s="29" t="s">
         <v>76</v>
@@ -5941,10 +8599,53 @@
       <c r="BJ62" s="1"/>
       <c r="BK62" s="1"/>
       <c r="BL62" s="1"/>
-      <c r="BM62" s="1"/>
-      <c r="BN62" s="1"/>
+      <c r="BM62" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="BN62" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="BO62" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="BP62" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="BQ62" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="BR62" s="1"/>
+      <c r="BS62" s="1"/>
+      <c r="BT62" s="1"/>
+      <c r="BU62" s="1"/>
+      <c r="BV62" s="1"/>
+      <c r="BW62" s="1"/>
+      <c r="BX62" s="1"/>
+      <c r="BY62" s="1"/>
+      <c r="BZ62" s="1"/>
+      <c r="CA62" s="1"/>
+      <c r="CB62" s="1"/>
+      <c r="CC62" s="1"/>
+      <c r="CD62" s="1"/>
+      <c r="CE62" s="1"/>
+      <c r="CF62" s="1"/>
+      <c r="CG62" s="1"/>
+      <c r="CH62" s="1"/>
+      <c r="CI62" s="1"/>
+      <c r="CJ62" s="1"/>
+      <c r="CK62" s="1"/>
+      <c r="CL62" s="1"/>
+      <c r="CM62" s="1"/>
+      <c r="CN62" s="1"/>
+      <c r="CO62" s="1"/>
+      <c r="CP62" s="1"/>
+      <c r="CQ62" s="1"/>
+      <c r="CR62" s="1"/>
+      <c r="CS62" s="1"/>
+      <c r="CT62" s="1"/>
+      <c r="CU62" s="1"/>
     </row>
-    <row r="63" spans="1:66">
+    <row r="63" spans="1:99">
       <c r="B63" s="22"/>
       <c r="C63" s="29" t="s">
         <v>77</v>
@@ -6016,10 +8717,53 @@
       <c r="BJ63" s="1"/>
       <c r="BK63" s="1"/>
       <c r="BL63" s="1"/>
-      <c r="BM63" s="1"/>
-      <c r="BN63" s="1"/>
+      <c r="BM63" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="BN63" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="BO63" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="BP63" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="BQ63" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="BR63" s="1"/>
+      <c r="BS63" s="1"/>
+      <c r="BT63" s="1"/>
+      <c r="BU63" s="1"/>
+      <c r="BV63" s="1"/>
+      <c r="BW63" s="1"/>
+      <c r="BX63" s="1"/>
+      <c r="BY63" s="1"/>
+      <c r="BZ63" s="1"/>
+      <c r="CA63" s="1"/>
+      <c r="CB63" s="1"/>
+      <c r="CC63" s="1"/>
+      <c r="CD63" s="1"/>
+      <c r="CE63" s="1"/>
+      <c r="CF63" s="1"/>
+      <c r="CG63" s="1"/>
+      <c r="CH63" s="1"/>
+      <c r="CI63" s="1"/>
+      <c r="CJ63" s="1"/>
+      <c r="CK63" s="1"/>
+      <c r="CL63" s="1"/>
+      <c r="CM63" s="1"/>
+      <c r="CN63" s="1"/>
+      <c r="CO63" s="1"/>
+      <c r="CP63" s="1"/>
+      <c r="CQ63" s="1"/>
+      <c r="CR63" s="1"/>
+      <c r="CS63" s="1"/>
+      <c r="CT63" s="1"/>
+      <c r="CU63" s="1"/>
     </row>
-    <row r="64" spans="1:66">
+    <row r="64" spans="1:99">
       <c r="B64" s="22"/>
       <c r="C64" s="29" t="s">
         <v>78</v>
@@ -6091,10 +8835,53 @@
       <c r="BJ64" s="1"/>
       <c r="BK64" s="1"/>
       <c r="BL64" s="1"/>
-      <c r="BM64" s="1"/>
-      <c r="BN64" s="1"/>
+      <c r="BM64" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="BN64" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="BO64" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="BP64" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="BQ64" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="BR64" s="1"/>
+      <c r="BS64" s="1"/>
+      <c r="BT64" s="1"/>
+      <c r="BU64" s="1"/>
+      <c r="BV64" s="1"/>
+      <c r="BW64" s="1"/>
+      <c r="BX64" s="1"/>
+      <c r="BY64" s="1"/>
+      <c r="BZ64" s="1"/>
+      <c r="CA64" s="1"/>
+      <c r="CB64" s="1"/>
+      <c r="CC64" s="1"/>
+      <c r="CD64" s="1"/>
+      <c r="CE64" s="1"/>
+      <c r="CF64" s="1"/>
+      <c r="CG64" s="1"/>
+      <c r="CH64" s="1"/>
+      <c r="CI64" s="1"/>
+      <c r="CJ64" s="1"/>
+      <c r="CK64" s="1"/>
+      <c r="CL64" s="1"/>
+      <c r="CM64" s="1"/>
+      <c r="CN64" s="1"/>
+      <c r="CO64" s="1"/>
+      <c r="CP64" s="1"/>
+      <c r="CQ64" s="1"/>
+      <c r="CR64" s="1"/>
+      <c r="CS64" s="1"/>
+      <c r="CT64" s="1"/>
+      <c r="CU64" s="1"/>
     </row>
-    <row r="65" spans="1:66">
+    <row r="65" spans="1:99">
       <c r="B65" s="22"/>
       <c r="C65" s="29" t="s">
         <v>130</v>
@@ -6168,10 +8955,53 @@
       <c r="BJ65" s="1"/>
       <c r="BK65" s="1"/>
       <c r="BL65" s="1"/>
-      <c r="BM65" s="1"/>
-      <c r="BN65" s="1"/>
+      <c r="BM65" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="BN65" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="BO65" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="BP65" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="BQ65" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="BR65" s="1"/>
+      <c r="BS65" s="1"/>
+      <c r="BT65" s="1"/>
+      <c r="BU65" s="1"/>
+      <c r="BV65" s="1"/>
+      <c r="BW65" s="1"/>
+      <c r="BX65" s="1"/>
+      <c r="BY65" s="1"/>
+      <c r="BZ65" s="1"/>
+      <c r="CA65" s="1"/>
+      <c r="CB65" s="1"/>
+      <c r="CC65" s="1"/>
+      <c r="CD65" s="1"/>
+      <c r="CE65" s="1"/>
+      <c r="CF65" s="1"/>
+      <c r="CG65" s="1"/>
+      <c r="CH65" s="1"/>
+      <c r="CI65" s="1"/>
+      <c r="CJ65" s="1"/>
+      <c r="CK65" s="1"/>
+      <c r="CL65" s="1"/>
+      <c r="CM65" s="1"/>
+      <c r="CN65" s="1"/>
+      <c r="CO65" s="1"/>
+      <c r="CP65" s="1"/>
+      <c r="CQ65" s="1"/>
+      <c r="CR65" s="1"/>
+      <c r="CS65" s="1"/>
+      <c r="CT65" s="1"/>
+      <c r="CU65" s="1"/>
     </row>
-    <row r="66" spans="1:66">
+    <row r="66" spans="1:99">
       <c r="B66" s="22"/>
       <c r="C66" s="29" t="s">
         <v>124</v>
@@ -6243,22 +9073,69 @@
       <c r="BJ66" s="1"/>
       <c r="BK66" s="1"/>
       <c r="BL66" s="1"/>
-      <c r="BM66" s="1"/>
-      <c r="BN66" s="1"/>
+      <c r="BM66" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="BN66" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="BO66" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="BP66" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="BQ66" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="BR66" s="1"/>
+      <c r="BS66" s="1"/>
+      <c r="BT66" s="1"/>
+      <c r="BU66" s="1"/>
+      <c r="BV66" s="1"/>
+      <c r="BW66" s="1"/>
+      <c r="BX66" s="1"/>
+      <c r="BY66" s="1"/>
+      <c r="BZ66" s="1"/>
+      <c r="CA66" s="1"/>
+      <c r="CB66" s="1"/>
+      <c r="CC66" s="1"/>
+      <c r="CD66" s="1"/>
+      <c r="CE66" s="1"/>
+      <c r="CF66" s="1"/>
+      <c r="CG66" s="1"/>
+      <c r="CH66" s="1"/>
+      <c r="CI66" s="1"/>
+      <c r="CJ66" s="1"/>
+      <c r="CK66" s="1"/>
+      <c r="CL66" s="1"/>
+      <c r="CM66" s="1"/>
+      <c r="CN66" s="1"/>
+      <c r="CO66" s="1"/>
+      <c r="CP66" s="1"/>
+      <c r="CQ66" s="1"/>
+      <c r="CR66" s="1"/>
+      <c r="CS66" s="1"/>
+      <c r="CT66" s="1"/>
+      <c r="CU66" s="1"/>
     </row>
-    <row r="67" spans="1:66">
+    <row r="67" spans="1:99">
       <c r="B67" s="22"/>
       <c r="C67" s="29" t="s">
-        <v>146</v>
-      </c>
-      <c r="D67" s="22"/>
-      <c r="E67" s="22"/>
+        <v>136</v>
+      </c>
+      <c r="D67" s="22" t="s">
+        <v>71</v>
+      </c>
+      <c r="E67" s="22" t="s">
+        <v>71</v>
+      </c>
       <c r="F67" s="22"/>
       <c r="G67" s="22"/>
       <c r="H67" s="23"/>
       <c r="I67" s="23"/>
       <c r="J67" s="23" t="s">
-        <v>92</v>
+        <v>39</v>
       </c>
       <c r="K67" s="22"/>
       <c r="L67" s="1"/>
@@ -6314,10 +9191,53 @@
       <c r="BJ67" s="1"/>
       <c r="BK67" s="1"/>
       <c r="BL67" s="1"/>
-      <c r="BM67" s="1"/>
-      <c r="BN67" s="1"/>
+      <c r="BM67" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="BN67" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="BO67" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="BP67" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="BQ67" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="BR67" s="1"/>
+      <c r="BS67" s="1"/>
+      <c r="BT67" s="1"/>
+      <c r="BU67" s="1"/>
+      <c r="BV67" s="1"/>
+      <c r="BW67" s="1"/>
+      <c r="BX67" s="1"/>
+      <c r="BY67" s="1"/>
+      <c r="BZ67" s="1"/>
+      <c r="CA67" s="1"/>
+      <c r="CB67" s="1"/>
+      <c r="CC67" s="1"/>
+      <c r="CD67" s="1"/>
+      <c r="CE67" s="1"/>
+      <c r="CF67" s="1"/>
+      <c r="CG67" s="1"/>
+      <c r="CH67" s="1"/>
+      <c r="CI67" s="1"/>
+      <c r="CJ67" s="1"/>
+      <c r="CK67" s="1"/>
+      <c r="CL67" s="1"/>
+      <c r="CM67" s="1"/>
+      <c r="CN67" s="1"/>
+      <c r="CO67" s="1"/>
+      <c r="CP67" s="1"/>
+      <c r="CQ67" s="1"/>
+      <c r="CR67" s="1"/>
+      <c r="CS67" s="1"/>
+      <c r="CT67" s="1"/>
+      <c r="CU67" s="1"/>
     </row>
-    <row r="68" spans="1:66">
+    <row r="68" spans="1:99">
       <c r="B68" s="22"/>
       <c r="C68" s="29"/>
       <c r="D68" s="22"/>
@@ -6383,8 +9303,41 @@
       <c r="BL68" s="1"/>
       <c r="BM68" s="1"/>
       <c r="BN68" s="1"/>
+      <c r="BO68" s="1"/>
+      <c r="BP68" s="1"/>
+      <c r="BQ68" s="1"/>
+      <c r="BR68" s="1"/>
+      <c r="BS68" s="1"/>
+      <c r="BT68" s="1"/>
+      <c r="BU68" s="1"/>
+      <c r="BV68" s="1"/>
+      <c r="BW68" s="1"/>
+      <c r="BX68" s="1"/>
+      <c r="BY68" s="1"/>
+      <c r="BZ68" s="1"/>
+      <c r="CA68" s="1"/>
+      <c r="CB68" s="1"/>
+      <c r="CC68" s="1"/>
+      <c r="CD68" s="1"/>
+      <c r="CE68" s="1"/>
+      <c r="CF68" s="1"/>
+      <c r="CG68" s="1"/>
+      <c r="CH68" s="1"/>
+      <c r="CI68" s="1"/>
+      <c r="CJ68" s="1"/>
+      <c r="CK68" s="1"/>
+      <c r="CL68" s="1"/>
+      <c r="CM68" s="1"/>
+      <c r="CN68" s="1"/>
+      <c r="CO68" s="1"/>
+      <c r="CP68" s="1"/>
+      <c r="CQ68" s="1"/>
+      <c r="CR68" s="1"/>
+      <c r="CS68" s="1"/>
+      <c r="CT68" s="1"/>
+      <c r="CU68" s="1"/>
     </row>
-    <row r="69" spans="1:66" s="20" customFormat="1">
+    <row r="69" spans="1:99" s="20" customFormat="1">
       <c r="A69"/>
       <c r="B69" s="21"/>
       <c r="C69" s="30" t="s">
@@ -6455,8 +9408,41 @@
       <c r="BL69" s="21"/>
       <c r="BM69" s="21"/>
       <c r="BN69" s="21"/>
+      <c r="BO69" s="21"/>
+      <c r="BP69" s="21"/>
+      <c r="BQ69" s="21"/>
+      <c r="BR69" s="21"/>
+      <c r="BS69" s="21"/>
+      <c r="BT69" s="21"/>
+      <c r="BU69" s="21"/>
+      <c r="BV69" s="21"/>
+      <c r="BW69" s="21"/>
+      <c r="BX69" s="21"/>
+      <c r="BY69" s="21"/>
+      <c r="BZ69" s="21"/>
+      <c r="CA69" s="21"/>
+      <c r="CB69" s="21"/>
+      <c r="CC69" s="21"/>
+      <c r="CD69" s="21"/>
+      <c r="CE69" s="21"/>
+      <c r="CF69" s="21"/>
+      <c r="CG69" s="21"/>
+      <c r="CH69" s="21"/>
+      <c r="CI69" s="21"/>
+      <c r="CJ69" s="21"/>
+      <c r="CK69" s="21"/>
+      <c r="CL69" s="21"/>
+      <c r="CM69" s="21"/>
+      <c r="CN69" s="21"/>
+      <c r="CO69" s="21"/>
+      <c r="CP69" s="21"/>
+      <c r="CQ69" s="21"/>
+      <c r="CR69" s="21"/>
+      <c r="CS69" s="21"/>
+      <c r="CT69" s="21"/>
+      <c r="CU69" s="21"/>
     </row>
-    <row r="70" spans="1:66">
+    <row r="70" spans="1:99">
       <c r="B70" s="22"/>
       <c r="C70" s="38" t="s">
         <v>108</v>
@@ -6524,8 +9510,41 @@
       <c r="BL70" s="1"/>
       <c r="BM70" s="1"/>
       <c r="BN70" s="1"/>
+      <c r="BO70" s="1"/>
+      <c r="BP70" s="1"/>
+      <c r="BQ70" s="1"/>
+      <c r="BR70" s="1"/>
+      <c r="BS70" s="1"/>
+      <c r="BT70" s="1"/>
+      <c r="BU70" s="1"/>
+      <c r="BV70" s="1"/>
+      <c r="BW70" s="1"/>
+      <c r="BX70" s="1"/>
+      <c r="BY70" s="1"/>
+      <c r="BZ70" s="1"/>
+      <c r="CA70" s="1"/>
+      <c r="CB70" s="1"/>
+      <c r="CC70" s="1"/>
+      <c r="CD70" s="1"/>
+      <c r="CE70" s="1"/>
+      <c r="CF70" s="1"/>
+      <c r="CG70" s="1"/>
+      <c r="CH70" s="1"/>
+      <c r="CI70" s="1"/>
+      <c r="CJ70" s="1"/>
+      <c r="CK70" s="1"/>
+      <c r="CL70" s="1"/>
+      <c r="CM70" s="1"/>
+      <c r="CN70" s="1"/>
+      <c r="CO70" s="1"/>
+      <c r="CP70" s="1"/>
+      <c r="CQ70" s="1"/>
+      <c r="CR70" s="1"/>
+      <c r="CS70" s="1"/>
+      <c r="CT70" s="1"/>
+      <c r="CU70" s="1"/>
     </row>
-    <row r="71" spans="1:66">
+    <row r="71" spans="1:99">
       <c r="B71" s="22"/>
       <c r="C71" s="29" t="s">
         <v>109</v>
@@ -6595,10 +9614,53 @@
       <c r="BJ71" s="1"/>
       <c r="BK71" s="1"/>
       <c r="BL71" s="1"/>
-      <c r="BM71" s="1"/>
-      <c r="BN71" s="1"/>
+      <c r="BM71" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="BN71" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="BO71" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="BP71" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="BQ71" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="BR71" s="1"/>
+      <c r="BS71" s="1"/>
+      <c r="BT71" s="1"/>
+      <c r="BU71" s="1"/>
+      <c r="BV71" s="1"/>
+      <c r="BW71" s="1"/>
+      <c r="BX71" s="1"/>
+      <c r="BY71" s="1"/>
+      <c r="BZ71" s="1"/>
+      <c r="CA71" s="1"/>
+      <c r="CB71" s="1"/>
+      <c r="CC71" s="1"/>
+      <c r="CD71" s="1"/>
+      <c r="CE71" s="1"/>
+      <c r="CF71" s="1"/>
+      <c r="CG71" s="1"/>
+      <c r="CH71" s="1"/>
+      <c r="CI71" s="1"/>
+      <c r="CJ71" s="1"/>
+      <c r="CK71" s="1"/>
+      <c r="CL71" s="1"/>
+      <c r="CM71" s="1"/>
+      <c r="CN71" s="1"/>
+      <c r="CO71" s="1"/>
+      <c r="CP71" s="1"/>
+      <c r="CQ71" s="1"/>
+      <c r="CR71" s="1"/>
+      <c r="CS71" s="1"/>
+      <c r="CT71" s="1"/>
+      <c r="CU71" s="1"/>
     </row>
-    <row r="72" spans="1:66">
+    <row r="72" spans="1:99">
       <c r="B72" s="22"/>
       <c r="C72" s="29" t="s">
         <v>99</v>
@@ -6668,10 +9730,53 @@
       <c r="BJ72" s="1"/>
       <c r="BK72" s="1"/>
       <c r="BL72" s="1"/>
-      <c r="BM72" s="1"/>
-      <c r="BN72" s="1"/>
+      <c r="BM72" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="BN72" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="BO72" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="BP72" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="BQ72" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="BR72" s="1"/>
+      <c r="BS72" s="1"/>
+      <c r="BT72" s="1"/>
+      <c r="BU72" s="1"/>
+      <c r="BV72" s="1"/>
+      <c r="BW72" s="1"/>
+      <c r="BX72" s="1"/>
+      <c r="BY72" s="1"/>
+      <c r="BZ72" s="1"/>
+      <c r="CA72" s="1"/>
+      <c r="CB72" s="1"/>
+      <c r="CC72" s="1"/>
+      <c r="CD72" s="1"/>
+      <c r="CE72" s="1"/>
+      <c r="CF72" s="1"/>
+      <c r="CG72" s="1"/>
+      <c r="CH72" s="1"/>
+      <c r="CI72" s="1"/>
+      <c r="CJ72" s="1"/>
+      <c r="CK72" s="1"/>
+      <c r="CL72" s="1"/>
+      <c r="CM72" s="1"/>
+      <c r="CN72" s="1"/>
+      <c r="CO72" s="1"/>
+      <c r="CP72" s="1"/>
+      <c r="CQ72" s="1"/>
+      <c r="CR72" s="1"/>
+      <c r="CS72" s="1"/>
+      <c r="CT72" s="1"/>
+      <c r="CU72" s="1"/>
     </row>
-    <row r="73" spans="1:66">
+    <row r="73" spans="1:99">
       <c r="B73" s="22"/>
       <c r="C73" s="38" t="s">
         <v>110</v>
@@ -6739,8 +9844,41 @@
       <c r="BL73" s="1"/>
       <c r="BM73" s="1"/>
       <c r="BN73" s="1"/>
+      <c r="BO73" s="1"/>
+      <c r="BP73" s="1"/>
+      <c r="BQ73" s="1"/>
+      <c r="BR73" s="1"/>
+      <c r="BS73" s="1"/>
+      <c r="BT73" s="1"/>
+      <c r="BU73" s="1"/>
+      <c r="BV73" s="1"/>
+      <c r="BW73" s="1"/>
+      <c r="BX73" s="1"/>
+      <c r="BY73" s="1"/>
+      <c r="BZ73" s="1"/>
+      <c r="CA73" s="1"/>
+      <c r="CB73" s="1"/>
+      <c r="CC73" s="1"/>
+      <c r="CD73" s="1"/>
+      <c r="CE73" s="1"/>
+      <c r="CF73" s="1"/>
+      <c r="CG73" s="1"/>
+      <c r="CH73" s="1"/>
+      <c r="CI73" s="1"/>
+      <c r="CJ73" s="1"/>
+      <c r="CK73" s="1"/>
+      <c r="CL73" s="1"/>
+      <c r="CM73" s="1"/>
+      <c r="CN73" s="1"/>
+      <c r="CO73" s="1"/>
+      <c r="CP73" s="1"/>
+      <c r="CQ73" s="1"/>
+      <c r="CR73" s="1"/>
+      <c r="CS73" s="1"/>
+      <c r="CT73" s="1"/>
+      <c r="CU73" s="1"/>
     </row>
-    <row r="74" spans="1:66">
+    <row r="74" spans="1:99">
       <c r="B74" s="22"/>
       <c r="C74" s="29" t="s">
         <v>100</v>
@@ -6810,16 +9948,59 @@
       <c r="BJ74" s="1"/>
       <c r="BK74" s="1"/>
       <c r="BL74" s="1"/>
-      <c r="BM74" s="1"/>
-      <c r="BN74" s="1"/>
+      <c r="BM74" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="BN74" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="BO74" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="BP74" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="BQ74" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="BR74" s="1"/>
+      <c r="BS74" s="1"/>
+      <c r="BT74" s="1"/>
+      <c r="BU74" s="1"/>
+      <c r="BV74" s="1"/>
+      <c r="BW74" s="1"/>
+      <c r="BX74" s="1"/>
+      <c r="BY74" s="1"/>
+      <c r="BZ74" s="1"/>
+      <c r="CA74" s="1"/>
+      <c r="CB74" s="1"/>
+      <c r="CC74" s="1"/>
+      <c r="CD74" s="1"/>
+      <c r="CE74" s="1"/>
+      <c r="CF74" s="1"/>
+      <c r="CG74" s="1"/>
+      <c r="CH74" s="1"/>
+      <c r="CI74" s="1"/>
+      <c r="CJ74" s="1"/>
+      <c r="CK74" s="1"/>
+      <c r="CL74" s="1"/>
+      <c r="CM74" s="1"/>
+      <c r="CN74" s="1"/>
+      <c r="CO74" s="1"/>
+      <c r="CP74" s="1"/>
+      <c r="CQ74" s="1"/>
+      <c r="CR74" s="1"/>
+      <c r="CS74" s="1"/>
+      <c r="CT74" s="1"/>
+      <c r="CU74" s="1"/>
     </row>
-    <row r="75" spans="1:66">
+    <row r="75" spans="1:99">
       <c r="B75" s="22"/>
       <c r="C75" s="29" t="s">
         <v>101</v>
       </c>
       <c r="D75" s="22" t="s">
-        <v>145</v>
+        <v>135</v>
       </c>
       <c r="E75" s="22"/>
       <c r="F75" s="22"/>
@@ -6883,16 +10064,59 @@
       <c r="BJ75" s="1"/>
       <c r="BK75" s="1"/>
       <c r="BL75" s="1"/>
-      <c r="BM75" s="1"/>
-      <c r="BN75" s="1"/>
+      <c r="BM75" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="BN75" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="BO75" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="BP75" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="BQ75" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="BR75" s="1"/>
+      <c r="BS75" s="1"/>
+      <c r="BT75" s="1"/>
+      <c r="BU75" s="1"/>
+      <c r="BV75" s="1"/>
+      <c r="BW75" s="1"/>
+      <c r="BX75" s="1"/>
+      <c r="BY75" s="1"/>
+      <c r="BZ75" s="1"/>
+      <c r="CA75" s="1"/>
+      <c r="CB75" s="1"/>
+      <c r="CC75" s="1"/>
+      <c r="CD75" s="1"/>
+      <c r="CE75" s="1"/>
+      <c r="CF75" s="1"/>
+      <c r="CG75" s="1"/>
+      <c r="CH75" s="1"/>
+      <c r="CI75" s="1"/>
+      <c r="CJ75" s="1"/>
+      <c r="CK75" s="1"/>
+      <c r="CL75" s="1"/>
+      <c r="CM75" s="1"/>
+      <c r="CN75" s="1"/>
+      <c r="CO75" s="1"/>
+      <c r="CP75" s="1"/>
+      <c r="CQ75" s="1"/>
+      <c r="CR75" s="1"/>
+      <c r="CS75" s="1"/>
+      <c r="CT75" s="1"/>
+      <c r="CU75" s="1"/>
     </row>
-    <row r="76" spans="1:66">
+    <row r="76" spans="1:99">
       <c r="B76" s="22"/>
       <c r="C76" s="29" t="s">
         <v>102</v>
       </c>
       <c r="D76" s="22" t="s">
-        <v>145</v>
+        <v>135</v>
       </c>
       <c r="E76" s="22"/>
       <c r="F76" s="22"/>
@@ -6956,10 +10180,53 @@
       <c r="BJ76" s="1"/>
       <c r="BK76" s="1"/>
       <c r="BL76" s="1"/>
-      <c r="BM76" s="1"/>
-      <c r="BN76" s="1"/>
+      <c r="BM76" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="BN76" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="BO76" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="BP76" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="BQ76" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="BR76" s="1"/>
+      <c r="BS76" s="1"/>
+      <c r="BT76" s="1"/>
+      <c r="BU76" s="1"/>
+      <c r="BV76" s="1"/>
+      <c r="BW76" s="1"/>
+      <c r="BX76" s="1"/>
+      <c r="BY76" s="1"/>
+      <c r="BZ76" s="1"/>
+      <c r="CA76" s="1"/>
+      <c r="CB76" s="1"/>
+      <c r="CC76" s="1"/>
+      <c r="CD76" s="1"/>
+      <c r="CE76" s="1"/>
+      <c r="CF76" s="1"/>
+      <c r="CG76" s="1"/>
+      <c r="CH76" s="1"/>
+      <c r="CI76" s="1"/>
+      <c r="CJ76" s="1"/>
+      <c r="CK76" s="1"/>
+      <c r="CL76" s="1"/>
+      <c r="CM76" s="1"/>
+      <c r="CN76" s="1"/>
+      <c r="CO76" s="1"/>
+      <c r="CP76" s="1"/>
+      <c r="CQ76" s="1"/>
+      <c r="CR76" s="1"/>
+      <c r="CS76" s="1"/>
+      <c r="CT76" s="1"/>
+      <c r="CU76" s="1"/>
     </row>
-    <row r="77" spans="1:66">
+    <row r="77" spans="1:99">
       <c r="B77" s="22"/>
       <c r="C77" s="29" t="s">
         <v>103</v>
@@ -7029,10 +10296,53 @@
       <c r="BJ77" s="1"/>
       <c r="BK77" s="1"/>
       <c r="BL77" s="1"/>
-      <c r="BM77" s="1"/>
-      <c r="BN77" s="1"/>
+      <c r="BM77" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="BN77" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="BO77" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="BP77" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="BQ77" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="BR77" s="1"/>
+      <c r="BS77" s="1"/>
+      <c r="BT77" s="1"/>
+      <c r="BU77" s="1"/>
+      <c r="BV77" s="1"/>
+      <c r="BW77" s="1"/>
+      <c r="BX77" s="1"/>
+      <c r="BY77" s="1"/>
+      <c r="BZ77" s="1"/>
+      <c r="CA77" s="1"/>
+      <c r="CB77" s="1"/>
+      <c r="CC77" s="1"/>
+      <c r="CD77" s="1"/>
+      <c r="CE77" s="1"/>
+      <c r="CF77" s="1"/>
+      <c r="CG77" s="1"/>
+      <c r="CH77" s="1"/>
+      <c r="CI77" s="1"/>
+      <c r="CJ77" s="1"/>
+      <c r="CK77" s="1"/>
+      <c r="CL77" s="1"/>
+      <c r="CM77" s="1"/>
+      <c r="CN77" s="1"/>
+      <c r="CO77" s="1"/>
+      <c r="CP77" s="1"/>
+      <c r="CQ77" s="1"/>
+      <c r="CR77" s="1"/>
+      <c r="CS77" s="1"/>
+      <c r="CT77" s="1"/>
+      <c r="CU77" s="1"/>
     </row>
-    <row r="78" spans="1:66">
+    <row r="78" spans="1:99">
       <c r="B78" s="22"/>
       <c r="C78" s="38" t="s">
         <v>104</v>
@@ -7102,10 +10412,53 @@
       <c r="BJ78" s="1"/>
       <c r="BK78" s="1"/>
       <c r="BL78" s="1"/>
-      <c r="BM78" s="1"/>
-      <c r="BN78" s="1"/>
+      <c r="BM78" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="BN78" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="BO78" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="BP78" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="BQ78" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="BR78" s="1"/>
+      <c r="BS78" s="1"/>
+      <c r="BT78" s="1"/>
+      <c r="BU78" s="1"/>
+      <c r="BV78" s="1"/>
+      <c r="BW78" s="1"/>
+      <c r="BX78" s="1"/>
+      <c r="BY78" s="1"/>
+      <c r="BZ78" s="1"/>
+      <c r="CA78" s="1"/>
+      <c r="CB78" s="1"/>
+      <c r="CC78" s="1"/>
+      <c r="CD78" s="1"/>
+      <c r="CE78" s="1"/>
+      <c r="CF78" s="1"/>
+      <c r="CG78" s="1"/>
+      <c r="CH78" s="1"/>
+      <c r="CI78" s="1"/>
+      <c r="CJ78" s="1"/>
+      <c r="CK78" s="1"/>
+      <c r="CL78" s="1"/>
+      <c r="CM78" s="1"/>
+      <c r="CN78" s="1"/>
+      <c r="CO78" s="1"/>
+      <c r="CP78" s="1"/>
+      <c r="CQ78" s="1"/>
+      <c r="CR78" s="1"/>
+      <c r="CS78" s="1"/>
+      <c r="CT78" s="1"/>
+      <c r="CU78" s="1"/>
     </row>
-    <row r="79" spans="1:66">
+    <row r="79" spans="1:99">
       <c r="B79" s="22"/>
       <c r="C79" s="38" t="s">
         <v>105</v>
@@ -7175,10 +10528,53 @@
       <c r="BJ79" s="1"/>
       <c r="BK79" s="1"/>
       <c r="BL79" s="1"/>
-      <c r="BM79" s="1"/>
-      <c r="BN79" s="1"/>
+      <c r="BM79" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="BN79" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="BO79" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="BP79" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="BQ79" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="BR79" s="1"/>
+      <c r="BS79" s="1"/>
+      <c r="BT79" s="1"/>
+      <c r="BU79" s="1"/>
+      <c r="BV79" s="1"/>
+      <c r="BW79" s="1"/>
+      <c r="BX79" s="1"/>
+      <c r="BY79" s="1"/>
+      <c r="BZ79" s="1"/>
+      <c r="CA79" s="1"/>
+      <c r="CB79" s="1"/>
+      <c r="CC79" s="1"/>
+      <c r="CD79" s="1"/>
+      <c r="CE79" s="1"/>
+      <c r="CF79" s="1"/>
+      <c r="CG79" s="1"/>
+      <c r="CH79" s="1"/>
+      <c r="CI79" s="1"/>
+      <c r="CJ79" s="1"/>
+      <c r="CK79" s="1"/>
+      <c r="CL79" s="1"/>
+      <c r="CM79" s="1"/>
+      <c r="CN79" s="1"/>
+      <c r="CO79" s="1"/>
+      <c r="CP79" s="1"/>
+      <c r="CQ79" s="1"/>
+      <c r="CR79" s="1"/>
+      <c r="CS79" s="1"/>
+      <c r="CT79" s="1"/>
+      <c r="CU79" s="1"/>
     </row>
-    <row r="80" spans="1:66">
+    <row r="80" spans="1:99">
       <c r="B80" s="22"/>
       <c r="C80" s="38" t="s">
         <v>111</v>
@@ -7248,10 +10644,53 @@
       <c r="BJ80" s="1"/>
       <c r="BK80" s="1"/>
       <c r="BL80" s="1"/>
-      <c r="BM80" s="1"/>
-      <c r="BN80" s="1"/>
+      <c r="BM80" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="BN80" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="BO80" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="BP80" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="BQ80" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="BR80" s="1"/>
+      <c r="BS80" s="1"/>
+      <c r="BT80" s="1"/>
+      <c r="BU80" s="1"/>
+      <c r="BV80" s="1"/>
+      <c r="BW80" s="1"/>
+      <c r="BX80" s="1"/>
+      <c r="BY80" s="1"/>
+      <c r="BZ80" s="1"/>
+      <c r="CA80" s="1"/>
+      <c r="CB80" s="1"/>
+      <c r="CC80" s="1"/>
+      <c r="CD80" s="1"/>
+      <c r="CE80" s="1"/>
+      <c r="CF80" s="1"/>
+      <c r="CG80" s="1"/>
+      <c r="CH80" s="1"/>
+      <c r="CI80" s="1"/>
+      <c r="CJ80" s="1"/>
+      <c r="CK80" s="1"/>
+      <c r="CL80" s="1"/>
+      <c r="CM80" s="1"/>
+      <c r="CN80" s="1"/>
+      <c r="CO80" s="1"/>
+      <c r="CP80" s="1"/>
+      <c r="CQ80" s="1"/>
+      <c r="CR80" s="1"/>
+      <c r="CS80" s="1"/>
+      <c r="CT80" s="1"/>
+      <c r="CU80" s="1"/>
     </row>
-    <row r="81" spans="1:66">
+    <row r="81" spans="1:99">
       <c r="B81" s="22"/>
       <c r="C81" s="38" t="s">
         <v>106</v>
@@ -7321,10 +10760,53 @@
       <c r="BJ81" s="1"/>
       <c r="BK81" s="1"/>
       <c r="BL81" s="1"/>
-      <c r="BM81" s="1"/>
-      <c r="BN81" s="1"/>
+      <c r="BM81" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="BN81" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="BO81" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="BP81" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="BQ81" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="BR81" s="1"/>
+      <c r="BS81" s="1"/>
+      <c r="BT81" s="1"/>
+      <c r="BU81" s="1"/>
+      <c r="BV81" s="1"/>
+      <c r="BW81" s="1"/>
+      <c r="BX81" s="1"/>
+      <c r="BY81" s="1"/>
+      <c r="BZ81" s="1"/>
+      <c r="CA81" s="1"/>
+      <c r="CB81" s="1"/>
+      <c r="CC81" s="1"/>
+      <c r="CD81" s="1"/>
+      <c r="CE81" s="1"/>
+      <c r="CF81" s="1"/>
+      <c r="CG81" s="1"/>
+      <c r="CH81" s="1"/>
+      <c r="CI81" s="1"/>
+      <c r="CJ81" s="1"/>
+      <c r="CK81" s="1"/>
+      <c r="CL81" s="1"/>
+      <c r="CM81" s="1"/>
+      <c r="CN81" s="1"/>
+      <c r="CO81" s="1"/>
+      <c r="CP81" s="1"/>
+      <c r="CQ81" s="1"/>
+      <c r="CR81" s="1"/>
+      <c r="CS81" s="1"/>
+      <c r="CT81" s="1"/>
+      <c r="CU81" s="1"/>
     </row>
-    <row r="82" spans="1:66">
+    <row r="82" spans="1:99">
       <c r="B82" s="22"/>
       <c r="C82" s="29"/>
       <c r="D82" s="22"/>
@@ -7390,8 +10872,41 @@
       <c r="BL82" s="1"/>
       <c r="BM82" s="1"/>
       <c r="BN82" s="1"/>
+      <c r="BO82" s="1"/>
+      <c r="BP82" s="1"/>
+      <c r="BQ82" s="1"/>
+      <c r="BR82" s="1"/>
+      <c r="BS82" s="1"/>
+      <c r="BT82" s="1"/>
+      <c r="BU82" s="1"/>
+      <c r="BV82" s="1"/>
+      <c r="BW82" s="1"/>
+      <c r="BX82" s="1"/>
+      <c r="BY82" s="1"/>
+      <c r="BZ82" s="1"/>
+      <c r="CA82" s="1"/>
+      <c r="CB82" s="1"/>
+      <c r="CC82" s="1"/>
+      <c r="CD82" s="1"/>
+      <c r="CE82" s="1"/>
+      <c r="CF82" s="1"/>
+      <c r="CG82" s="1"/>
+      <c r="CH82" s="1"/>
+      <c r="CI82" s="1"/>
+      <c r="CJ82" s="1"/>
+      <c r="CK82" s="1"/>
+      <c r="CL82" s="1"/>
+      <c r="CM82" s="1"/>
+      <c r="CN82" s="1"/>
+      <c r="CO82" s="1"/>
+      <c r="CP82" s="1"/>
+      <c r="CQ82" s="1"/>
+      <c r="CR82" s="1"/>
+      <c r="CS82" s="1"/>
+      <c r="CT82" s="1"/>
+      <c r="CU82" s="1"/>
     </row>
-    <row r="83" spans="1:66" s="20" customFormat="1">
+    <row r="83" spans="1:99" s="20" customFormat="1">
       <c r="A83"/>
       <c r="B83" s="21"/>
       <c r="C83" s="30" t="s">
@@ -7460,8 +10975,41 @@
       <c r="BL83" s="21"/>
       <c r="BM83" s="21"/>
       <c r="BN83" s="21"/>
+      <c r="BO83" s="21"/>
+      <c r="BP83" s="21"/>
+      <c r="BQ83" s="21"/>
+      <c r="BR83" s="21"/>
+      <c r="BS83" s="21"/>
+      <c r="BT83" s="21"/>
+      <c r="BU83" s="21"/>
+      <c r="BV83" s="21"/>
+      <c r="BW83" s="21"/>
+      <c r="BX83" s="21"/>
+      <c r="BY83" s="21"/>
+      <c r="BZ83" s="21"/>
+      <c r="CA83" s="21"/>
+      <c r="CB83" s="21"/>
+      <c r="CC83" s="21"/>
+      <c r="CD83" s="21"/>
+      <c r="CE83" s="21"/>
+      <c r="CF83" s="21"/>
+      <c r="CG83" s="21"/>
+      <c r="CH83" s="21"/>
+      <c r="CI83" s="21"/>
+      <c r="CJ83" s="21"/>
+      <c r="CK83" s="21"/>
+      <c r="CL83" s="21"/>
+      <c r="CM83" s="21"/>
+      <c r="CN83" s="21"/>
+      <c r="CO83" s="21"/>
+      <c r="CP83" s="21"/>
+      <c r="CQ83" s="21"/>
+      <c r="CR83" s="21"/>
+      <c r="CS83" s="21"/>
+      <c r="CT83" s="21"/>
+      <c r="CU83" s="21"/>
     </row>
-    <row r="84" spans="1:66">
+    <row r="84" spans="1:99">
       <c r="B84" s="22"/>
       <c r="C84" s="37" t="s">
         <v>113</v>
@@ -7529,8 +11077,41 @@
       <c r="BL84" s="1"/>
       <c r="BM84" s="1"/>
       <c r="BN84" s="1"/>
+      <c r="BO84" s="1"/>
+      <c r="BP84" s="1"/>
+      <c r="BQ84" s="1"/>
+      <c r="BR84" s="1"/>
+      <c r="BS84" s="1"/>
+      <c r="BT84" s="1"/>
+      <c r="BU84" s="1"/>
+      <c r="BV84" s="1"/>
+      <c r="BW84" s="1"/>
+      <c r="BX84" s="1"/>
+      <c r="BY84" s="1"/>
+      <c r="BZ84" s="1"/>
+      <c r="CA84" s="1"/>
+      <c r="CB84" s="1"/>
+      <c r="CC84" s="1"/>
+      <c r="CD84" s="1"/>
+      <c r="CE84" s="1"/>
+      <c r="CF84" s="1"/>
+      <c r="CG84" s="1"/>
+      <c r="CH84" s="1"/>
+      <c r="CI84" s="1"/>
+      <c r="CJ84" s="1"/>
+      <c r="CK84" s="1"/>
+      <c r="CL84" s="1"/>
+      <c r="CM84" s="1"/>
+      <c r="CN84" s="1"/>
+      <c r="CO84" s="1"/>
+      <c r="CP84" s="1"/>
+      <c r="CQ84" s="1"/>
+      <c r="CR84" s="1"/>
+      <c r="CS84" s="1"/>
+      <c r="CT84" s="1"/>
+      <c r="CU84" s="1"/>
     </row>
-    <row r="85" spans="1:66">
+    <row r="85" spans="1:99">
       <c r="B85" s="22"/>
       <c r="C85" s="37" t="s">
         <v>114</v>
@@ -7598,8 +11179,41 @@
       <c r="BL85" s="1"/>
       <c r="BM85" s="1"/>
       <c r="BN85" s="1"/>
+      <c r="BO85" s="1"/>
+      <c r="BP85" s="1"/>
+      <c r="BQ85" s="1"/>
+      <c r="BR85" s="1"/>
+      <c r="BS85" s="1"/>
+      <c r="BT85" s="1"/>
+      <c r="BU85" s="1"/>
+      <c r="BV85" s="1"/>
+      <c r="BW85" s="1"/>
+      <c r="BX85" s="1"/>
+      <c r="BY85" s="1"/>
+      <c r="BZ85" s="1"/>
+      <c r="CA85" s="1"/>
+      <c r="CB85" s="1"/>
+      <c r="CC85" s="1"/>
+      <c r="CD85" s="1"/>
+      <c r="CE85" s="1"/>
+      <c r="CF85" s="1"/>
+      <c r="CG85" s="1"/>
+      <c r="CH85" s="1"/>
+      <c r="CI85" s="1"/>
+      <c r="CJ85" s="1"/>
+      <c r="CK85" s="1"/>
+      <c r="CL85" s="1"/>
+      <c r="CM85" s="1"/>
+      <c r="CN85" s="1"/>
+      <c r="CO85" s="1"/>
+      <c r="CP85" s="1"/>
+      <c r="CQ85" s="1"/>
+      <c r="CR85" s="1"/>
+      <c r="CS85" s="1"/>
+      <c r="CT85" s="1"/>
+      <c r="CU85" s="1"/>
     </row>
-    <row r="86" spans="1:66">
+    <row r="86" spans="1:99">
       <c r="B86" s="22"/>
       <c r="C86" s="29"/>
       <c r="D86" s="22"/>
@@ -7665,11 +11279,42 @@
       <c r="BL86" s="1"/>
       <c r="BM86" s="1"/>
       <c r="BN86" s="1"/>
+      <c r="BO86" s="1"/>
+      <c r="BP86" s="1"/>
+      <c r="BQ86" s="1"/>
+      <c r="BR86" s="1"/>
+      <c r="BS86" s="1"/>
+      <c r="BT86" s="1"/>
+      <c r="BU86" s="1"/>
+      <c r="BV86" s="1"/>
+      <c r="BW86" s="1"/>
+      <c r="BX86" s="1"/>
+      <c r="BY86" s="1"/>
+      <c r="BZ86" s="1"/>
+      <c r="CA86" s="1"/>
+      <c r="CB86" s="1"/>
+      <c r="CC86" s="1"/>
+      <c r="CD86" s="1"/>
+      <c r="CE86" s="1"/>
+      <c r="CF86" s="1"/>
+      <c r="CG86" s="1"/>
+      <c r="CH86" s="1"/>
+      <c r="CI86" s="1"/>
+      <c r="CJ86" s="1"/>
+      <c r="CK86" s="1"/>
+      <c r="CL86" s="1"/>
+      <c r="CM86" s="1"/>
+      <c r="CN86" s="1"/>
+      <c r="CO86" s="1"/>
+      <c r="CP86" s="1"/>
+      <c r="CQ86" s="1"/>
+      <c r="CR86" s="1"/>
+      <c r="CS86" s="1"/>
+      <c r="CT86" s="1"/>
+      <c r="CU86" s="1"/>
     </row>
-    <row r="87" spans="1:66" s="20" customFormat="1">
-      <c r="A87">
-        <v>5</v>
-      </c>
+    <row r="87" spans="1:99" s="20" customFormat="1">
+      <c r="A87"/>
       <c r="B87" s="21"/>
       <c r="C87" s="30" t="s">
         <v>54</v>
@@ -7737,14 +11382,42 @@
       <c r="BL87" s="21"/>
       <c r="BM87" s="21"/>
       <c r="BN87" s="21"/>
+      <c r="BO87" s="21"/>
+      <c r="BP87" s="21"/>
+      <c r="BQ87" s="21"/>
+      <c r="BR87" s="21"/>
+      <c r="BS87" s="21"/>
+      <c r="BT87" s="21"/>
+      <c r="BU87" s="21"/>
+      <c r="BV87" s="21"/>
+      <c r="BW87" s="21"/>
+      <c r="BX87" s="21"/>
+      <c r="BY87" s="21"/>
+      <c r="BZ87" s="21"/>
+      <c r="CA87" s="21"/>
+      <c r="CB87" s="21"/>
+      <c r="CC87" s="21"/>
+      <c r="CD87" s="21"/>
+      <c r="CE87" s="21"/>
+      <c r="CF87" s="21"/>
+      <c r="CG87" s="21"/>
+      <c r="CH87" s="21"/>
+      <c r="CI87" s="21"/>
+      <c r="CJ87" s="21"/>
+      <c r="CK87" s="21"/>
+      <c r="CL87" s="21"/>
+      <c r="CM87" s="21"/>
+      <c r="CN87" s="21"/>
+      <c r="CO87" s="21"/>
+      <c r="CP87" s="21"/>
+      <c r="CQ87" s="21"/>
+      <c r="CR87" s="21"/>
+      <c r="CS87" s="21"/>
+      <c r="CT87" s="21"/>
+      <c r="CU87" s="21"/>
     </row>
-    <row r="88" spans="1:66">
-      <c r="A88">
-        <v>6</v>
-      </c>
-      <c r="B88" s="22">
-        <v>5</v>
-      </c>
+    <row r="88" spans="1:99">
+      <c r="B88" s="22"/>
       <c r="C88" s="29" t="s">
         <v>85</v>
       </c>
@@ -7817,8 +11490,41 @@
       <c r="BL88" s="1"/>
       <c r="BM88" s="1"/>
       <c r="BN88" s="1"/>
+      <c r="BO88" s="1"/>
+      <c r="BP88" s="1"/>
+      <c r="BQ88" s="1"/>
+      <c r="BR88" s="1"/>
+      <c r="BS88" s="1"/>
+      <c r="BT88" s="1"/>
+      <c r="BU88" s="1"/>
+      <c r="BV88" s="1"/>
+      <c r="BW88" s="1"/>
+      <c r="BX88" s="1"/>
+      <c r="BY88" s="1"/>
+      <c r="BZ88" s="1"/>
+      <c r="CA88" s="1"/>
+      <c r="CB88" s="1"/>
+      <c r="CC88" s="1"/>
+      <c r="CD88" s="1"/>
+      <c r="CE88" s="1"/>
+      <c r="CF88" s="1"/>
+      <c r="CG88" s="1"/>
+      <c r="CH88" s="1"/>
+      <c r="CI88" s="1"/>
+      <c r="CJ88" s="1"/>
+      <c r="CK88" s="1"/>
+      <c r="CL88" s="1"/>
+      <c r="CM88" s="1"/>
+      <c r="CN88" s="1"/>
+      <c r="CO88" s="1"/>
+      <c r="CP88" s="1"/>
+      <c r="CQ88" s="1"/>
+      <c r="CR88" s="1"/>
+      <c r="CS88" s="1"/>
+      <c r="CT88" s="1"/>
+      <c r="CU88" s="1"/>
     </row>
-    <row r="89" spans="1:66">
+    <row r="89" spans="1:99">
       <c r="B89" s="22"/>
       <c r="C89" s="29"/>
       <c r="D89" s="22"/>
@@ -7884,11 +11590,42 @@
       <c r="BL89" s="1"/>
       <c r="BM89" s="1"/>
       <c r="BN89" s="1"/>
+      <c r="BO89" s="1"/>
+      <c r="BP89" s="1"/>
+      <c r="BQ89" s="1"/>
+      <c r="BR89" s="1"/>
+      <c r="BS89" s="1"/>
+      <c r="BT89" s="1"/>
+      <c r="BU89" s="1"/>
+      <c r="BV89" s="1"/>
+      <c r="BW89" s="1"/>
+      <c r="BX89" s="1"/>
+      <c r="BY89" s="1"/>
+      <c r="BZ89" s="1"/>
+      <c r="CA89" s="1"/>
+      <c r="CB89" s="1"/>
+      <c r="CC89" s="1"/>
+      <c r="CD89" s="1"/>
+      <c r="CE89" s="1"/>
+      <c r="CF89" s="1"/>
+      <c r="CG89" s="1"/>
+      <c r="CH89" s="1"/>
+      <c r="CI89" s="1"/>
+      <c r="CJ89" s="1"/>
+      <c r="CK89" s="1"/>
+      <c r="CL89" s="1"/>
+      <c r="CM89" s="1"/>
+      <c r="CN89" s="1"/>
+      <c r="CO89" s="1"/>
+      <c r="CP89" s="1"/>
+      <c r="CQ89" s="1"/>
+      <c r="CR89" s="1"/>
+      <c r="CS89" s="1"/>
+      <c r="CT89" s="1"/>
+      <c r="CU89" s="1"/>
     </row>
-    <row r="90" spans="1:66" s="20" customFormat="1">
-      <c r="A90">
-        <v>57</v>
-      </c>
+    <row r="90" spans="1:99" s="20" customFormat="1">
+      <c r="A90"/>
       <c r="B90" s="21"/>
       <c r="C90" s="28" t="s">
         <v>62</v>
@@ -7956,16 +11693,44 @@
       <c r="BL90" s="21"/>
       <c r="BM90" s="21"/>
       <c r="BN90" s="21"/>
+      <c r="BO90" s="21"/>
+      <c r="BP90" s="21"/>
+      <c r="BQ90" s="21"/>
+      <c r="BR90" s="21"/>
+      <c r="BS90" s="21"/>
+      <c r="BT90" s="21"/>
+      <c r="BU90" s="21"/>
+      <c r="BV90" s="21"/>
+      <c r="BW90" s="21"/>
+      <c r="BX90" s="21"/>
+      <c r="BY90" s="21"/>
+      <c r="BZ90" s="21"/>
+      <c r="CA90" s="21"/>
+      <c r="CB90" s="21"/>
+      <c r="CC90" s="21"/>
+      <c r="CD90" s="21"/>
+      <c r="CE90" s="21"/>
+      <c r="CF90" s="21"/>
+      <c r="CG90" s="21"/>
+      <c r="CH90" s="21"/>
+      <c r="CI90" s="21"/>
+      <c r="CJ90" s="21"/>
+      <c r="CK90" s="21"/>
+      <c r="CL90" s="21"/>
+      <c r="CM90" s="21"/>
+      <c r="CN90" s="21"/>
+      <c r="CO90" s="21"/>
+      <c r="CP90" s="21"/>
+      <c r="CQ90" s="21"/>
+      <c r="CR90" s="21"/>
+      <c r="CS90" s="21"/>
+      <c r="CT90" s="21"/>
+      <c r="CU90" s="21"/>
     </row>
-    <row r="91" spans="1:66">
-      <c r="A91">
-        <v>58</v>
-      </c>
-      <c r="B91" s="22">
-        <v>44</v>
-      </c>
+    <row r="91" spans="1:99">
+      <c r="B91" s="22"/>
       <c r="C91" s="29" t="s">
-        <v>62</v>
+        <v>140</v>
       </c>
       <c r="D91" s="22" t="s">
         <v>59</v>
@@ -7973,9 +11738,7 @@
       <c r="E91" s="22" t="s">
         <v>64</v>
       </c>
-      <c r="F91" s="22" t="s">
-        <v>74</v>
-      </c>
+      <c r="F91" s="22"/>
       <c r="G91" s="22"/>
       <c r="H91" s="23"/>
       <c r="I91" s="23"/>
@@ -8036,22 +11799,70 @@
       <c r="BJ91" s="1"/>
       <c r="BK91" s="1"/>
       <c r="BL91" s="1"/>
-      <c r="BM91" s="1"/>
-      <c r="BN91" s="1"/>
+      <c r="BM91" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="BN91" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="BO91" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="BP91" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="BQ91" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="BR91" s="1"/>
+      <c r="BS91" s="1"/>
+      <c r="BT91" s="1"/>
+      <c r="BU91" s="1"/>
+      <c r="BV91" s="1"/>
+      <c r="BW91" s="1"/>
+      <c r="BX91" s="1"/>
+      <c r="BY91" s="1"/>
+      <c r="BZ91" s="1"/>
+      <c r="CA91" s="1"/>
+      <c r="CB91" s="1"/>
+      <c r="CC91" s="1"/>
+      <c r="CD91" s="1"/>
+      <c r="CE91" s="1"/>
+      <c r="CF91" s="1"/>
+      <c r="CG91" s="1"/>
+      <c r="CH91" s="1"/>
+      <c r="CI91" s="1"/>
+      <c r="CJ91" s="1"/>
+      <c r="CK91" s="1"/>
+      <c r="CL91" s="1"/>
+      <c r="CM91" s="1"/>
+      <c r="CN91" s="1"/>
+      <c r="CO91" s="1"/>
+      <c r="CP91" s="1"/>
+      <c r="CQ91" s="1"/>
+      <c r="CR91" s="1"/>
+      <c r="CS91" s="1"/>
+      <c r="CT91" s="1"/>
+      <c r="CU91" s="1"/>
     </row>
-    <row r="92" spans="1:66">
-      <c r="A92">
-        <v>59</v>
-      </c>
+    <row r="92" spans="1:99">
       <c r="B92" s="22"/>
-      <c r="C92" s="29"/>
-      <c r="D92" s="22"/>
-      <c r="E92" s="22"/>
+      <c r="C92" s="29" t="s">
+        <v>141</v>
+      </c>
+      <c r="D92" s="22" t="s">
+        <v>70</v>
+      </c>
+      <c r="E92" s="22" t="s">
+        <v>82</v>
+      </c>
       <c r="F92" s="22"/>
       <c r="G92" s="22"/>
       <c r="H92" s="23"/>
       <c r="I92" s="23"/>
-      <c r="J92" s="22"/>
+      <c r="J92" s="23" t="s">
+        <v>39</v>
+      </c>
       <c r="K92" s="22"/>
       <c r="L92" s="1"/>
       <c r="M92" s="1"/>
@@ -8106,421 +11917,749 @@
       <c r="BJ92" s="1"/>
       <c r="BK92" s="1"/>
       <c r="BL92" s="1"/>
-      <c r="BM92" s="1"/>
-      <c r="BN92" s="1"/>
+      <c r="BM92" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="BN92" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="BO92" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="BP92" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="BQ92" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="BR92" s="1"/>
+      <c r="BS92" s="1"/>
+      <c r="BT92" s="1"/>
+      <c r="BU92" s="1"/>
+      <c r="BV92" s="1"/>
+      <c r="BW92" s="1"/>
+      <c r="BX92" s="1"/>
+      <c r="BY92" s="1"/>
+      <c r="BZ92" s="1"/>
+      <c r="CA92" s="1"/>
+      <c r="CB92" s="1"/>
+      <c r="CC92" s="1"/>
+      <c r="CD92" s="1"/>
+      <c r="CE92" s="1"/>
+      <c r="CF92" s="1"/>
+      <c r="CG92" s="1"/>
+      <c r="CH92" s="1"/>
+      <c r="CI92" s="1"/>
+      <c r="CJ92" s="1"/>
+      <c r="CK92" s="1"/>
+      <c r="CL92" s="1"/>
+      <c r="CM92" s="1"/>
+      <c r="CN92" s="1"/>
+      <c r="CO92" s="1"/>
+      <c r="CP92" s="1"/>
+      <c r="CQ92" s="1"/>
+      <c r="CR92" s="1"/>
+      <c r="CS92" s="1"/>
+      <c r="CT92" s="1"/>
+      <c r="CU92" s="1"/>
     </row>
-    <row r="93" spans="1:66" s="28" customFormat="1">
-      <c r="A93">
-        <v>60</v>
-      </c>
-      <c r="C93" s="28" t="s">
+    <row r="93" spans="1:99">
+      <c r="B93" s="22"/>
+      <c r="C93" s="29" t="s">
+        <v>142</v>
+      </c>
+      <c r="D93" s="22" t="s">
+        <v>74</v>
+      </c>
+      <c r="E93" s="22" t="s">
+        <v>75</v>
+      </c>
+      <c r="F93" s="22"/>
+      <c r="G93" s="22"/>
+      <c r="H93" s="23"/>
+      <c r="I93" s="23"/>
+      <c r="J93" s="23" t="s">
+        <v>39</v>
+      </c>
+      <c r="K93" s="22"/>
+      <c r="L93" s="1"/>
+      <c r="M93" s="1"/>
+      <c r="N93" s="1"/>
+      <c r="O93" s="1"/>
+      <c r="P93" s="1"/>
+      <c r="Q93" s="1"/>
+      <c r="R93" s="1"/>
+      <c r="S93" s="1"/>
+      <c r="T93" s="1"/>
+      <c r="U93" s="1"/>
+      <c r="V93" s="1"/>
+      <c r="W93" s="1"/>
+      <c r="X93" s="1"/>
+      <c r="Y93" s="1"/>
+      <c r="Z93" s="1"/>
+      <c r="AA93" s="1"/>
+      <c r="AB93" s="1"/>
+      <c r="AC93" s="1"/>
+      <c r="AD93" s="1"/>
+      <c r="AE93" s="1"/>
+      <c r="AF93" s="1"/>
+      <c r="AG93" s="1"/>
+      <c r="AH93" s="1"/>
+      <c r="AI93" s="1"/>
+      <c r="AJ93" s="1"/>
+      <c r="AK93" s="1"/>
+      <c r="AL93" s="1"/>
+      <c r="AM93" s="1"/>
+      <c r="AN93" s="1"/>
+      <c r="AO93" s="1"/>
+      <c r="AP93" s="1"/>
+      <c r="AQ93" s="1"/>
+      <c r="AR93" s="1"/>
+      <c r="AS93" s="1"/>
+      <c r="AT93" s="1"/>
+      <c r="AU93" s="1"/>
+      <c r="AV93" s="1"/>
+      <c r="AW93" s="1"/>
+      <c r="AX93" s="1"/>
+      <c r="AY93" s="1"/>
+      <c r="AZ93" s="1"/>
+      <c r="BA93" s="1"/>
+      <c r="BB93" s="1"/>
+      <c r="BC93" s="1"/>
+      <c r="BD93" s="1"/>
+      <c r="BE93" s="1"/>
+      <c r="BF93" s="1"/>
+      <c r="BG93" s="1"/>
+      <c r="BH93" s="1"/>
+      <c r="BI93" s="1"/>
+      <c r="BJ93" s="1"/>
+      <c r="BK93" s="1"/>
+      <c r="BL93" s="1"/>
+      <c r="BM93" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="BN93" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="BO93" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="BP93" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="BQ93" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="BR93" s="1"/>
+      <c r="BS93" s="1"/>
+      <c r="BT93" s="1"/>
+      <c r="BU93" s="1"/>
+      <c r="BV93" s="1"/>
+      <c r="BW93" s="1"/>
+      <c r="BX93" s="1"/>
+      <c r="BY93" s="1"/>
+      <c r="BZ93" s="1"/>
+      <c r="CA93" s="1"/>
+      <c r="CB93" s="1"/>
+      <c r="CC93" s="1"/>
+      <c r="CD93" s="1"/>
+      <c r="CE93" s="1"/>
+      <c r="CF93" s="1"/>
+      <c r="CG93" s="1"/>
+      <c r="CH93" s="1"/>
+      <c r="CI93" s="1"/>
+      <c r="CJ93" s="1"/>
+      <c r="CK93" s="1"/>
+      <c r="CL93" s="1"/>
+      <c r="CM93" s="1"/>
+      <c r="CN93" s="1"/>
+      <c r="CO93" s="1"/>
+      <c r="CP93" s="1"/>
+      <c r="CQ93" s="1"/>
+      <c r="CR93" s="1"/>
+      <c r="CS93" s="1"/>
+      <c r="CT93" s="1"/>
+      <c r="CU93" s="1"/>
+    </row>
+    <row r="94" spans="1:99" s="28" customFormat="1">
+      <c r="A94"/>
+      <c r="C94" s="28" t="s">
         <v>63</v>
       </c>
-      <c r="J93" s="28" t="s">
+      <c r="J94" s="28" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="94" spans="1:66">
-      <c r="A94">
-        <v>61</v>
-      </c>
-      <c r="B94" s="22">
-        <v>45</v>
-      </c>
-      <c r="C94" s="29" t="s">
+    <row r="95" spans="1:99">
+      <c r="B95" s="22"/>
+      <c r="C95" s="29" t="s">
         <v>63</v>
       </c>
-      <c r="D94" s="22" t="s">
-        <v>71</v>
-      </c>
-      <c r="E94" s="22"/>
-      <c r="F94" s="22"/>
-      <c r="G94" s="22"/>
-      <c r="H94" s="23"/>
-      <c r="I94" s="23"/>
-      <c r="J94" s="23" t="s">
+      <c r="D95" s="22" t="s">
+        <v>59</v>
+      </c>
+      <c r="E95" s="22"/>
+      <c r="F95" s="22"/>
+      <c r="G95" s="22"/>
+      <c r="H95" s="23"/>
+      <c r="I95" s="23"/>
+      <c r="J95" s="23" t="s">
         <v>39</v>
       </c>
-      <c r="K94" s="22"/>
-      <c r="L94" s="1"/>
-      <c r="M94" s="1"/>
-      <c r="N94" s="1"/>
-      <c r="O94" s="1"/>
-      <c r="P94" s="1"/>
-      <c r="Q94" s="1"/>
-      <c r="R94" s="1"/>
-      <c r="S94" s="1"/>
-      <c r="T94" s="1"/>
-      <c r="U94" s="1"/>
-      <c r="V94" s="1"/>
-      <c r="W94" s="1"/>
-      <c r="X94" s="1"/>
-      <c r="Y94" s="1"/>
-      <c r="Z94" s="1"/>
-      <c r="AA94" s="1"/>
-      <c r="AB94" s="1"/>
-      <c r="AC94" s="1"/>
-      <c r="AD94" s="1"/>
-      <c r="AE94" s="1"/>
-      <c r="AF94" s="1" t="s">
+      <c r="K95" s="22"/>
+      <c r="L95" s="1"/>
+      <c r="M95" s="1"/>
+      <c r="N95" s="1"/>
+      <c r="O95" s="1"/>
+      <c r="P95" s="1"/>
+      <c r="Q95" s="1"/>
+      <c r="R95" s="1"/>
+      <c r="S95" s="1"/>
+      <c r="T95" s="1"/>
+      <c r="U95" s="1"/>
+      <c r="V95" s="1"/>
+      <c r="W95" s="1"/>
+      <c r="X95" s="1"/>
+      <c r="Y95" s="1"/>
+      <c r="Z95" s="1"/>
+      <c r="AA95" s="1"/>
+      <c r="AB95" s="1"/>
+      <c r="AC95" s="1"/>
+      <c r="AD95" s="1"/>
+      <c r="AE95" s="1"/>
+      <c r="AF95" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="AG94" s="1"/>
-      <c r="AH94" s="1"/>
-      <c r="AI94" s="1"/>
-      <c r="AJ94" s="1"/>
-      <c r="AK94" s="1"/>
-      <c r="AL94" s="1"/>
-      <c r="AM94" s="1"/>
-      <c r="AN94" s="1"/>
-      <c r="AO94" s="1"/>
-      <c r="AP94" s="1"/>
-      <c r="AQ94" s="1"/>
-      <c r="AR94" s="1"/>
-      <c r="AS94" s="1"/>
-      <c r="AT94" s="1"/>
-      <c r="AU94" s="1"/>
-      <c r="AV94" s="1"/>
-      <c r="AW94" s="1"/>
-      <c r="AX94" s="1"/>
-      <c r="AY94" s="1"/>
-      <c r="AZ94" s="1"/>
-      <c r="BA94" s="1"/>
-      <c r="BB94" s="1"/>
-      <c r="BC94" s="1"/>
-      <c r="BD94" s="1"/>
-      <c r="BE94" s="1"/>
-      <c r="BF94" s="1"/>
-      <c r="BG94" s="1"/>
-      <c r="BH94" s="1"/>
-      <c r="BI94" s="1"/>
-      <c r="BJ94" s="1"/>
-      <c r="BK94" s="1"/>
-      <c r="BL94" s="1"/>
-      <c r="BM94" s="1"/>
-      <c r="BN94" s="1"/>
+      <c r="AG95" s="1"/>
+      <c r="AH95" s="1"/>
+      <c r="AI95" s="1"/>
+      <c r="AJ95" s="1"/>
+      <c r="AK95" s="1"/>
+      <c r="AL95" s="1"/>
+      <c r="AM95" s="1"/>
+      <c r="AN95" s="1"/>
+      <c r="AO95" s="1"/>
+      <c r="AP95" s="1"/>
+      <c r="AQ95" s="1"/>
+      <c r="AR95" s="1"/>
+      <c r="AS95" s="1"/>
+      <c r="AT95" s="1"/>
+      <c r="AU95" s="1"/>
+      <c r="AV95" s="1"/>
+      <c r="AW95" s="1"/>
+      <c r="AX95" s="1"/>
+      <c r="AY95" s="1"/>
+      <c r="AZ95" s="1"/>
+      <c r="BA95" s="1"/>
+      <c r="BB95" s="1"/>
+      <c r="BC95" s="1"/>
+      <c r="BD95" s="1"/>
+      <c r="BE95" s="1"/>
+      <c r="BF95" s="1"/>
+      <c r="BG95" s="1"/>
+      <c r="BH95" s="1"/>
+      <c r="BI95" s="1"/>
+      <c r="BJ95" s="1"/>
+      <c r="BK95" s="1"/>
+      <c r="BL95" s="1"/>
+      <c r="BM95" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="BN95" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="BO95" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="BP95" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="BQ95" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="BR95" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="BS95" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="BT95" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="BU95" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="BV95" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="BW95" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="BX95" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="BY95" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="BZ95" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="CA95" s="1"/>
+      <c r="CB95" s="1"/>
+      <c r="CC95" s="1"/>
+      <c r="CD95" s="1"/>
+      <c r="CE95" s="1"/>
+      <c r="CF95" s="1"/>
+      <c r="CG95" s="1"/>
+      <c r="CH95" s="1"/>
+      <c r="CI95" s="1"/>
+      <c r="CJ95" s="1"/>
+      <c r="CK95" s="1"/>
+      <c r="CL95" s="1"/>
+      <c r="CM95" s="1"/>
+      <c r="CN95" s="1"/>
+      <c r="CO95" s="1"/>
+      <c r="CP95" s="1"/>
+      <c r="CQ95" s="1"/>
+      <c r="CR95" s="1"/>
+      <c r="CS95" s="1"/>
+      <c r="CT95" s="1"/>
+      <c r="CU95" s="1"/>
     </row>
-    <row r="95" spans="1:66" s="20" customFormat="1">
-      <c r="A95"/>
-      <c r="B95" s="21"/>
-      <c r="C95" s="28" t="s">
+    <row r="96" spans="1:99" s="20" customFormat="1">
+      <c r="A96"/>
+      <c r="B96" s="21"/>
+      <c r="C96" s="28" t="s">
         <v>55</v>
       </c>
-      <c r="D95" s="21"/>
-      <c r="E95" s="21"/>
-      <c r="F95" s="21"/>
-      <c r="G95" s="21"/>
-      <c r="H95" s="21"/>
-      <c r="I95" s="21"/>
-      <c r="J95" s="21"/>
-      <c r="K95" s="21"/>
-      <c r="L95" s="21"/>
-      <c r="M95" s="21"/>
-      <c r="N95" s="21"/>
-      <c r="O95" s="21"/>
-      <c r="P95" s="21"/>
-      <c r="Q95" s="21"/>
-      <c r="R95" s="21"/>
-      <c r="S95" s="21"/>
-      <c r="T95" s="21"/>
-      <c r="U95" s="21"/>
-      <c r="V95" s="21"/>
-      <c r="W95" s="21"/>
-      <c r="X95" s="21"/>
-      <c r="Y95" s="21"/>
-      <c r="Z95" s="21"/>
-      <c r="AA95" s="21"/>
-      <c r="AB95" s="21"/>
-      <c r="AC95" s="21"/>
-      <c r="AD95" s="21"/>
-      <c r="AE95" s="21"/>
-      <c r="AF95" s="21"/>
-      <c r="AG95" s="21"/>
-      <c r="AH95" s="21"/>
-      <c r="AI95" s="21"/>
-      <c r="AJ95" s="21"/>
-      <c r="AK95" s="21"/>
-      <c r="AL95" s="21"/>
-      <c r="AM95" s="21"/>
-      <c r="AN95" s="21"/>
-      <c r="AO95" s="21"/>
-      <c r="AP95" s="21"/>
-      <c r="AQ95" s="21"/>
-      <c r="AR95" s="21"/>
-      <c r="AS95" s="21"/>
-      <c r="AT95" s="21"/>
-      <c r="AU95" s="21"/>
-      <c r="AV95" s="21"/>
-      <c r="AW95" s="21"/>
-      <c r="AX95" s="21"/>
-      <c r="AY95" s="21"/>
-      <c r="AZ95" s="21"/>
-      <c r="BA95" s="21"/>
-      <c r="BB95" s="21"/>
-      <c r="BC95" s="21"/>
-      <c r="BD95" s="21"/>
-      <c r="BE95" s="21"/>
-      <c r="BF95" s="21"/>
-      <c r="BG95" s="21"/>
-      <c r="BH95" s="21"/>
-      <c r="BI95" s="21"/>
-      <c r="BJ95" s="21"/>
-      <c r="BK95" s="21"/>
-      <c r="BL95" s="21"/>
-      <c r="BM95" s="21"/>
-      <c r="BN95" s="21"/>
+      <c r="D96" s="21"/>
+      <c r="E96" s="21"/>
+      <c r="F96" s="21"/>
+      <c r="G96" s="21"/>
+      <c r="H96" s="21"/>
+      <c r="I96" s="21"/>
+      <c r="J96" s="21"/>
+      <c r="K96" s="21"/>
+      <c r="L96" s="21"/>
+      <c r="M96" s="21"/>
+      <c r="N96" s="21"/>
+      <c r="O96" s="21"/>
+      <c r="P96" s="21"/>
+      <c r="Q96" s="21"/>
+      <c r="R96" s="21"/>
+      <c r="S96" s="21"/>
+      <c r="T96" s="21"/>
+      <c r="U96" s="21"/>
+      <c r="V96" s="21"/>
+      <c r="W96" s="21"/>
+      <c r="X96" s="21"/>
+      <c r="Y96" s="21"/>
+      <c r="Z96" s="21"/>
+      <c r="AA96" s="21"/>
+      <c r="AB96" s="21"/>
+      <c r="AC96" s="21"/>
+      <c r="AD96" s="21"/>
+      <c r="AE96" s="21"/>
+      <c r="AF96" s="21"/>
+      <c r="AG96" s="21"/>
+      <c r="AH96" s="21"/>
+      <c r="AI96" s="21"/>
+      <c r="AJ96" s="21"/>
+      <c r="AK96" s="21"/>
+      <c r="AL96" s="21"/>
+      <c r="AM96" s="21"/>
+      <c r="AN96" s="21"/>
+      <c r="AO96" s="21"/>
+      <c r="AP96" s="21"/>
+      <c r="AQ96" s="21"/>
+      <c r="AR96" s="21"/>
+      <c r="AS96" s="21"/>
+      <c r="AT96" s="21"/>
+      <c r="AU96" s="21"/>
+      <c r="AV96" s="21"/>
+      <c r="AW96" s="21"/>
+      <c r="AX96" s="21"/>
+      <c r="AY96" s="21"/>
+      <c r="AZ96" s="21"/>
+      <c r="BA96" s="21"/>
+      <c r="BB96" s="21"/>
+      <c r="BC96" s="21"/>
+      <c r="BD96" s="21"/>
+      <c r="BE96" s="21"/>
+      <c r="BF96" s="21"/>
+      <c r="BG96" s="21"/>
+      <c r="BH96" s="21"/>
+      <c r="BI96" s="21"/>
+      <c r="BJ96" s="21"/>
+      <c r="BK96" s="21"/>
+      <c r="BL96" s="21"/>
+      <c r="BM96" s="21"/>
+      <c r="BN96" s="21"/>
+      <c r="BO96" s="21"/>
+      <c r="BP96" s="21"/>
+      <c r="BQ96" s="21"/>
+      <c r="BR96" s="21"/>
+      <c r="BS96" s="21"/>
+      <c r="BT96" s="21"/>
+      <c r="BU96" s="21"/>
+      <c r="BV96" s="21"/>
+      <c r="BW96" s="21"/>
+      <c r="BX96" s="21"/>
+      <c r="BY96" s="21"/>
+      <c r="BZ96" s="21"/>
+      <c r="CA96" s="21"/>
+      <c r="CB96" s="21"/>
+      <c r="CC96" s="21"/>
+      <c r="CD96" s="21"/>
+      <c r="CE96" s="21"/>
+      <c r="CF96" s="21"/>
+      <c r="CG96" s="21"/>
+      <c r="CH96" s="21"/>
+      <c r="CI96" s="21"/>
+      <c r="CJ96" s="21"/>
+      <c r="CK96" s="21"/>
+      <c r="CL96" s="21"/>
+      <c r="CM96" s="21"/>
+      <c r="CN96" s="21"/>
+      <c r="CO96" s="21"/>
+      <c r="CP96" s="21"/>
+      <c r="CQ96" s="21"/>
+      <c r="CR96" s="21"/>
+      <c r="CS96" s="21"/>
+      <c r="CT96" s="21"/>
+      <c r="CU96" s="21"/>
     </row>
-    <row r="99" spans="1:66" s="24" customFormat="1">
-      <c r="A99"/>
-      <c r="C99" s="32" t="s">
+    <row r="100" spans="1:99" s="24" customFormat="1">
+      <c r="A100"/>
+      <c r="C100" s="32" t="s">
         <v>53</v>
       </c>
-      <c r="H99" s="25"/>
-      <c r="I99" s="25"/>
-      <c r="J99" s="25"/>
-      <c r="L99" s="25">
+      <c r="H100" s="25"/>
+      <c r="I100" s="25"/>
+      <c r="J100" s="25"/>
+      <c r="L100" s="25">
         <f>L19</f>
         <v>41133</v>
       </c>
-      <c r="M99" s="25">
-        <f t="shared" ref="M99:BF99" si="10">M19</f>
+      <c r="M100" s="25">
+        <f t="shared" ref="M100:BF100" si="5">M19</f>
         <v>41134</v>
       </c>
-      <c r="N99" s="25">
-        <f t="shared" si="10"/>
+      <c r="N100" s="25">
+        <f t="shared" si="5"/>
         <v>41135</v>
       </c>
-      <c r="O99" s="25">
-        <f t="shared" si="10"/>
+      <c r="O100" s="25">
+        <f t="shared" si="5"/>
         <v>41136</v>
       </c>
-      <c r="P99" s="25">
-        <f t="shared" si="10"/>
+      <c r="P100" s="25">
+        <f t="shared" si="5"/>
         <v>41137</v>
       </c>
-      <c r="Q99" s="25">
-        <f t="shared" si="10"/>
+      <c r="Q100" s="25">
+        <f t="shared" si="5"/>
         <v>41138</v>
       </c>
-      <c r="R99" s="25">
-        <f t="shared" si="10"/>
+      <c r="R100" s="25">
+        <f t="shared" si="5"/>
         <v>41139</v>
       </c>
-      <c r="S99" s="25">
-        <f t="shared" si="10"/>
+      <c r="S100" s="25">
+        <f t="shared" si="5"/>
         <v>41140</v>
       </c>
-      <c r="T99" s="25">
-        <f t="shared" si="10"/>
+      <c r="T100" s="25">
+        <f t="shared" si="5"/>
         <v>41141</v>
       </c>
-      <c r="U99" s="25">
-        <f t="shared" si="10"/>
+      <c r="U100" s="25">
+        <f t="shared" si="5"/>
         <v>41142</v>
       </c>
-      <c r="V99" s="25">
-        <f t="shared" si="10"/>
+      <c r="V100" s="25">
+        <f t="shared" si="5"/>
         <v>41143</v>
       </c>
-      <c r="W99" s="25">
-        <f t="shared" si="10"/>
+      <c r="W100" s="25">
+        <f t="shared" si="5"/>
         <v>41144</v>
       </c>
-      <c r="X99" s="25">
-        <f t="shared" si="10"/>
+      <c r="X100" s="25">
+        <f t="shared" si="5"/>
         <v>41145</v>
       </c>
-      <c r="Y99" s="25">
-        <f t="shared" si="10"/>
+      <c r="Y100" s="25">
+        <f t="shared" si="5"/>
         <v>41146</v>
       </c>
-      <c r="Z99" s="25">
-        <f t="shared" si="10"/>
+      <c r="Z100" s="25">
+        <f t="shared" si="5"/>
         <v>41147</v>
       </c>
-      <c r="AA99" s="25">
-        <f t="shared" si="10"/>
+      <c r="AA100" s="25">
+        <f t="shared" si="5"/>
         <v>41148</v>
       </c>
-      <c r="AB99" s="25">
-        <f t="shared" si="10"/>
+      <c r="AB100" s="25">
+        <f t="shared" si="5"/>
         <v>41149</v>
       </c>
-      <c r="AC99" s="25">
-        <f t="shared" si="10"/>
+      <c r="AC100" s="25">
+        <f t="shared" si="5"/>
         <v>41150</v>
       </c>
-      <c r="AD99" s="25">
-        <f t="shared" si="10"/>
+      <c r="AD100" s="25">
+        <f t="shared" si="5"/>
         <v>41151</v>
       </c>
-      <c r="AE99" s="25">
-        <f t="shared" si="10"/>
+      <c r="AE100" s="25">
+        <f t="shared" si="5"/>
         <v>41152</v>
       </c>
-      <c r="AF99" s="25">
-        <f t="shared" si="10"/>
+      <c r="AF100" s="25">
+        <f t="shared" si="5"/>
         <v>41153</v>
       </c>
-      <c r="AG99" s="25">
-        <f t="shared" si="10"/>
+      <c r="AG100" s="25">
+        <f t="shared" si="5"/>
         <v>41154</v>
       </c>
-      <c r="AH99" s="25">
-        <f t="shared" si="10"/>
+      <c r="AH100" s="25">
+        <f t="shared" si="5"/>
         <v>41155</v>
       </c>
-      <c r="AI99" s="25">
-        <f t="shared" si="10"/>
+      <c r="AI100" s="25">
+        <f t="shared" si="5"/>
         <v>41156</v>
       </c>
-      <c r="AJ99" s="25">
-        <f t="shared" si="10"/>
+      <c r="AJ100" s="25">
+        <f t="shared" si="5"/>
         <v>41157</v>
       </c>
-      <c r="AK99" s="25">
-        <f t="shared" si="10"/>
+      <c r="AK100" s="25">
+        <f t="shared" si="5"/>
         <v>41158</v>
       </c>
-      <c r="AL99" s="25">
-        <f t="shared" si="10"/>
+      <c r="AL100" s="25">
+        <f t="shared" si="5"/>
         <v>41159</v>
       </c>
-      <c r="AM99" s="25">
-        <f t="shared" si="10"/>
+      <c r="AM100" s="25">
+        <f t="shared" si="5"/>
         <v>41160</v>
       </c>
-      <c r="AN99" s="25">
-        <f t="shared" si="10"/>
+      <c r="AN100" s="25">
+        <f t="shared" si="5"/>
         <v>41161</v>
       </c>
-      <c r="AO99" s="25">
-        <f t="shared" si="10"/>
+      <c r="AO100" s="25">
+        <f t="shared" si="5"/>
         <v>41162</v>
       </c>
-      <c r="AP99" s="25">
-        <f t="shared" si="10"/>
+      <c r="AP100" s="25">
+        <f t="shared" si="5"/>
         <v>41163</v>
       </c>
-      <c r="AQ99" s="25">
-        <f t="shared" si="10"/>
+      <c r="AQ100" s="25">
+        <f t="shared" si="5"/>
         <v>41164</v>
       </c>
-      <c r="AR99" s="25">
-        <f t="shared" si="10"/>
+      <c r="AR100" s="25">
+        <f t="shared" si="5"/>
         <v>41165</v>
       </c>
-      <c r="AS99" s="25">
-        <f t="shared" si="10"/>
+      <c r="AS100" s="25">
+        <f t="shared" si="5"/>
         <v>41166</v>
       </c>
-      <c r="AT99" s="25">
-        <f t="shared" si="10"/>
+      <c r="AT100" s="25">
+        <f t="shared" si="5"/>
         <v>41167</v>
       </c>
-      <c r="AU99" s="25">
-        <f t="shared" si="10"/>
+      <c r="AU100" s="25">
+        <f t="shared" si="5"/>
         <v>41168</v>
       </c>
-      <c r="AV99" s="25">
-        <f t="shared" si="10"/>
+      <c r="AV100" s="25">
+        <f t="shared" si="5"/>
         <v>41169</v>
       </c>
-      <c r="AW99" s="25">
-        <f t="shared" si="10"/>
+      <c r="AW100" s="25">
+        <f t="shared" si="5"/>
         <v>41170</v>
       </c>
-      <c r="AX99" s="25">
-        <f t="shared" si="10"/>
+      <c r="AX100" s="25">
+        <f t="shared" si="5"/>
         <v>41171</v>
       </c>
-      <c r="AY99" s="25">
-        <f t="shared" si="10"/>
+      <c r="AY100" s="25">
+        <f t="shared" si="5"/>
         <v>41172</v>
       </c>
-      <c r="AZ99" s="25">
-        <f t="shared" si="10"/>
+      <c r="AZ100" s="25">
+        <f t="shared" si="5"/>
         <v>41173</v>
       </c>
-      <c r="BA99" s="25">
-        <f t="shared" si="10"/>
+      <c r="BA100" s="25">
+        <f t="shared" si="5"/>
         <v>41174</v>
       </c>
-      <c r="BB99" s="25">
-        <f t="shared" si="10"/>
+      <c r="BB100" s="25">
+        <f t="shared" si="5"/>
         <v>41175</v>
       </c>
-      <c r="BC99" s="25">
-        <f t="shared" si="10"/>
+      <c r="BC100" s="25">
+        <f t="shared" si="5"/>
         <v>41176</v>
       </c>
-      <c r="BD99" s="25">
-        <f t="shared" si="10"/>
+      <c r="BD100" s="25">
+        <f t="shared" si="5"/>
         <v>41177</v>
       </c>
-      <c r="BE99" s="25">
-        <f t="shared" si="10"/>
+      <c r="BE100" s="25">
+        <f t="shared" si="5"/>
         <v>41178</v>
       </c>
-      <c r="BF99" s="25">
-        <f t="shared" si="10"/>
+      <c r="BF100" s="25">
+        <f t="shared" si="5"/>
         <v>41179</v>
       </c>
-      <c r="BG99" s="25"/>
-      <c r="BH99" s="25"/>
-      <c r="BI99" s="25"/>
-      <c r="BJ99" s="25"/>
-      <c r="BK99" s="25"/>
-      <c r="BL99" s="25"/>
-      <c r="BM99" s="25"/>
-      <c r="BN99" s="25"/>
+      <c r="BG100" s="25"/>
+      <c r="BH100" s="25"/>
+      <c r="BI100" s="25"/>
+      <c r="BJ100" s="25"/>
+      <c r="BK100" s="25"/>
+      <c r="BL100" s="25"/>
+      <c r="BM100" s="25"/>
+      <c r="BN100" s="25"/>
+      <c r="BO100" s="25"/>
+      <c r="BP100" s="25"/>
+      <c r="BQ100" s="25"/>
+      <c r="BR100" s="25"/>
+      <c r="BS100" s="25"/>
+      <c r="BT100" s="25"/>
+      <c r="BU100" s="25"/>
+      <c r="BV100" s="25"/>
+      <c r="BW100" s="25"/>
+      <c r="BX100" s="25"/>
+      <c r="BY100" s="25"/>
+      <c r="BZ100" s="25"/>
+      <c r="CA100" s="25"/>
+      <c r="CB100" s="25"/>
+      <c r="CC100" s="25"/>
+      <c r="CD100" s="25"/>
+      <c r="CE100" s="25"/>
+      <c r="CF100" s="25"/>
+      <c r="CG100" s="25"/>
+      <c r="CH100" s="25"/>
+      <c r="CI100" s="25"/>
+      <c r="CJ100" s="25"/>
+      <c r="CK100" s="25"/>
+      <c r="CL100" s="25"/>
+      <c r="CM100" s="25"/>
+      <c r="CN100" s="25"/>
+      <c r="CO100" s="25"/>
+      <c r="CP100" s="25"/>
+      <c r="CQ100" s="25"/>
+      <c r="CR100" s="25"/>
+      <c r="CS100" s="25"/>
+      <c r="CT100" s="25"/>
+      <c r="CU100" s="25"/>
     </row>
   </sheetData>
-  <autoFilter ref="A19:BF95"/>
+  <autoFilter ref="A19:BF96"/>
   <sortState ref="C2:D16">
     <sortCondition ref="C2"/>
   </sortState>
-  <conditionalFormatting sqref="L96:AY96 L91:BN92 L94:BN94 L88:BN89 L84:BN86 L70:BN82 L56:BN68 L41:BN54 L21:BN24 L26:BN33 L35:BN39">
-    <cfRule type="cellIs" dxfId="9" priority="155" operator="equal">
+  <conditionalFormatting sqref="L97:AY97 L88:CU89 L84:CU86 L21:CU24 L26:CU33 L35:CU39 L41:BL54 BR41:CU54 BP41:BQ44 BO41:BO43 BM41:BN44 BM46:BQ54 L56:CU68 L70:CU82 L91:CU93 L95:CU95">
+    <cfRule type="cellIs" dxfId="42" priority="183" operator="equal">
       <formula>"-"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="8" priority="156" operator="equal">
+    <cfRule type="cellIs" dxfId="41" priority="184" operator="equal">
       <formula>"E"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="157" operator="equal">
+    <cfRule type="cellIs" dxfId="40" priority="185" operator="equal">
       <formula>"B"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L91:BN92 L94:BN94 L88:BN89 L84:BN86 L70:BN82 L56:BN68 L41:BN54 L21:BN24 L26:BN33 L35:BN39">
-    <cfRule type="cellIs" dxfId="6" priority="154" operator="equal">
+  <conditionalFormatting sqref="L88:CU89 L84:CU86 L21:CU24 L26:CU33 L35:CU39 L41:BL54 BR41:CU54 BP41:BQ44 BO41:BO43 BM41:BN44 BM46:BQ54 L56:CU68 L70:CU82 L91:CU93 L95:CU95">
+    <cfRule type="cellIs" dxfId="39" priority="182" operator="equal">
       <formula>"BE"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J91 J88 J35:J37 J21:J24 J26:J32 J41:J51 J56:J66 J71:J72 J74:J81 J94">
-    <cfRule type="cellIs" dxfId="5" priority="228" operator="equal">
+  <conditionalFormatting sqref="J88 J21:J24 J26:J32 J41:J51 J56:J66 J71:J72 J74:J81 J95 J35:J38 J91:J92">
+    <cfRule type="cellIs" dxfId="38" priority="256" operator="equal">
       <formula>$I$5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J35:J37 J21:J24 J26:J32 J91 J88 J41:J51 J56:J66 J71:J72 J74:J81 J94">
-    <cfRule type="expression" dxfId="4" priority="235">
+  <conditionalFormatting sqref="J35:J37 J21:J24 J26:J32 J88 J41:J51 J56:J66 J71:J72 J74:J81 J95 J91:J92">
+    <cfRule type="expression" dxfId="37" priority="263">
       <formula>AND(J21&lt;&gt;$I$5,$I21&lt;TODAY())</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J38">
-    <cfRule type="cellIs" dxfId="3" priority="4" operator="equal">
+    <cfRule type="expression" dxfId="36" priority="31">
+      <formula>AND(J38&lt;&gt;$I$5,$I38&lt;TODAY())</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="BO44">
+    <cfRule type="cellIs" dxfId="35" priority="10" operator="equal">
+      <formula>"-"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="34" priority="11" operator="equal">
+      <formula>"E"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="33" priority="12" operator="equal">
+      <formula>"B"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="BO44">
+    <cfRule type="cellIs" dxfId="32" priority="9" operator="equal">
+      <formula>"BE"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="BM45:BN45">
+    <cfRule type="cellIs" dxfId="31" priority="6" operator="equal">
+      <formula>"-"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="30" priority="7" operator="equal">
+      <formula>"E"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="29" priority="8" operator="equal">
+      <formula>"B"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="BM45:BN45">
+    <cfRule type="cellIs" dxfId="28" priority="5" operator="equal">
+      <formula>"BE"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J67">
+    <cfRule type="cellIs" dxfId="27" priority="4" operator="equal">
       <formula>$I$5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J38">
-    <cfRule type="expression" dxfId="2" priority="3">
-      <formula>AND(J38&lt;&gt;$I$5,$I38&lt;TODAY())</formula>
+  <conditionalFormatting sqref="J67">
+    <cfRule type="expression" dxfId="26" priority="3">
+      <formula>AND(J67&lt;&gt;$I$5,$I67&lt;TODAY())</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J93">
+    <cfRule type="cellIs" dxfId="23" priority="2" operator="equal">
+      <formula>$I$5</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J93">
+    <cfRule type="expression" dxfId="21" priority="1">
+      <formula>AND(J93&lt;&gt;$I$5,$I93&lt;TODAY())</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D87:F95 E56:E86 D35:F39 D41:F48 E49:F51 D50:D51 F55:F86 D56:D62 D26:F33 D64:D74 D77:D86">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D35:F39 D41:F48 E49:F51 D50:D51 D56:D62 D26:F33 D64:D74 D77:D96 F55:F96 E56:E92 E94:E96">
       <formula1>$C$2:$C$17</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J71:J72 J74:J81 J26:J32 J35:J38 J21:J24 J41:J51 J86:J89 J56:J67 J91:J94">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J71:J72 J74:J81 J26:J32 J35:J38 J21:J24 J41:J51 J86:J89 J56:J67 J91:J95">
       <formula1>$I$4:$I$14</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D20:E24">

--- a/trunk/Document/VietinBankSC Project Plan v2012.009.20.xlsx
+++ b/trunk/Document/VietinBankSC Project Plan v2012.009.20.xlsx
@@ -703,7 +703,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="177">
+  <dxfs count="165">
     <dxf>
       <font>
         <color theme="0"/>
@@ -2028,132 +2028,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FF0000CC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <gradientFill>
-          <stop position="0">
-            <color rgb="FF0000CC"/>
-          </stop>
-          <stop position="1">
-            <color rgb="FFFF0000"/>
-          </stop>
-        </gradientFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF0000CC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.14996795556505021"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <gradientFill>
-          <stop position="0">
-            <color rgb="FF0000CC"/>
-          </stop>
-          <stop position="1">
-            <color rgb="FFFF0000"/>
-          </stop>
-        </gradientFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF0000CC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.14996795556505021"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <gradientFill>
-          <stop position="0">
-            <color rgb="FF0000CC"/>
-          </stop>
-          <stop position="1">
-            <color rgb="FFFF0000"/>
-          </stop>
-        </gradientFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF0000CC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.14996795556505021"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
         </patternFill>
       </fill>
     </dxf>
@@ -3165,9 +3039,9 @@
   <dimension ref="A1:CU100"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A79" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane xSplit="5" topLeftCell="BM1" activePane="topRight" state="frozen"/>
+      <pane xSplit="5" topLeftCell="H1" activePane="topRight" state="frozen"/>
       <selection activeCell="A19" sqref="A19"/>
-      <selection pane="topRight" activeCell="BO79" sqref="BO79"/>
+      <selection pane="topRight" activeCell="H90" sqref="H90"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>

--- a/trunk/Document/VietinBankSC Project Plan v2012.009.20.xlsx
+++ b/trunk/Document/VietinBankSC Project Plan v2012.009.20.xlsx
@@ -703,251 +703,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="165">
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <gradientFill>
-          <stop position="0">
-            <color rgb="FF0000CC"/>
-          </stop>
-          <stop position="1">
-            <color rgb="FFFF0000"/>
-          </stop>
-        </gradientFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF0000CC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.14996795556505021"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <gradientFill>
-          <stop position="0">
-            <color rgb="FF0000CC"/>
-          </stop>
-          <stop position="1">
-            <color rgb="FFFF0000"/>
-          </stop>
-        </gradientFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF0000CC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.14996795556505021"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <gradientFill>
-          <stop position="0">
-            <color rgb="FF0000CC"/>
-          </stop>
-          <stop position="1">
-            <color rgb="FFFF0000"/>
-          </stop>
-        </gradientFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF0000CC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.14996795556505021"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <gradientFill>
-          <stop position="0">
-            <color rgb="FF0000CC"/>
-          </stop>
-          <stop position="1">
-            <color rgb="FFFF0000"/>
-          </stop>
-        </gradientFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF0000CC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.14996795556505021"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <gradientFill>
-          <stop position="0">
-            <color rgb="FF0000CC"/>
-          </stop>
-          <stop position="1">
-            <color rgb="FFFF0000"/>
-          </stop>
-        </gradientFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF0000CC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.14996795556505021"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF0000CC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF0000CC"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="19">
     <dxf>
       <fill>
         <patternFill>
@@ -1087,1283 +843,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FF0000CC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <gradientFill>
-          <stop position="0">
-            <color rgb="FF0000CC"/>
-          </stop>
-          <stop position="1">
-            <color rgb="FFFF0000"/>
-          </stop>
-        </gradientFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF0000CC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.14996795556505021"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <gradientFill>
-          <stop position="0">
-            <color rgb="FF0000CC"/>
-          </stop>
-          <stop position="1">
-            <color rgb="FFFF0000"/>
-          </stop>
-        </gradientFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF0000CC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.14996795556505021"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <gradientFill>
-          <stop position="0">
-            <color rgb="FF0000CC"/>
-          </stop>
-          <stop position="1">
-            <color rgb="FFFF0000"/>
-          </stop>
-        </gradientFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF0000CC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.14996795556505021"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <gradientFill>
-          <stop position="0">
-            <color rgb="FF0000CC"/>
-          </stop>
-          <stop position="1">
-            <color rgb="FFFF0000"/>
-          </stop>
-        </gradientFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF0000CC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.14996795556505021"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <gradientFill>
-          <stop position="0">
-            <color rgb="FF0000CC"/>
-          </stop>
-          <stop position="1">
-            <color rgb="FFFF0000"/>
-          </stop>
-        </gradientFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF0000CC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.14996795556505021"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <gradientFill>
-          <stop position="0">
-            <color rgb="FF0000CC"/>
-          </stop>
-          <stop position="1">
-            <color rgb="FFFF0000"/>
-          </stop>
-        </gradientFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF0000CC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.14996795556505021"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <gradientFill>
-          <stop position="0">
-            <color rgb="FF0000CC"/>
-          </stop>
-          <stop position="1">
-            <color rgb="FFFF0000"/>
-          </stop>
-        </gradientFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF0000CC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.14996795556505021"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <gradientFill>
-          <stop position="0">
-            <color rgb="FF0000CC"/>
-          </stop>
-          <stop position="1">
-            <color rgb="FFFF0000"/>
-          </stop>
-        </gradientFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF0000CC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.14996795556505021"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <gradientFill>
-          <stop position="0">
-            <color rgb="FF0000CC"/>
-          </stop>
-          <stop position="1">
-            <color rgb="FFFF0000"/>
-          </stop>
-        </gradientFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF0000CC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.14996795556505021"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <gradientFill>
-          <stop position="0">
-            <color rgb="FF0000CC"/>
-          </stop>
-          <stop position="1">
-            <color rgb="FFFF0000"/>
-          </stop>
-        </gradientFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF0000CC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.14996795556505021"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <gradientFill>
-          <stop position="0">
-            <color rgb="FF0000CC"/>
-          </stop>
-          <stop position="1">
-            <color rgb="FFFF0000"/>
-          </stop>
-        </gradientFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF0000CC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.14996795556505021"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <gradientFill>
-          <stop position="0">
-            <color rgb="FF0000CC"/>
-          </stop>
-          <stop position="1">
-            <color rgb="FFFF0000"/>
-          </stop>
-        </gradientFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF0000CC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.14996795556505021"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <gradientFill>
-          <stop position="0">
-            <color rgb="FF0000CC"/>
-          </stop>
-          <stop position="1">
-            <color rgb="FFFF0000"/>
-          </stop>
-        </gradientFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF0000CC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.14996795556505021"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <gradientFill>
-          <stop position="0">
-            <color rgb="FF0000CC"/>
-          </stop>
-          <stop position="1">
-            <color rgb="FFFF0000"/>
-          </stop>
-        </gradientFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF0000CC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.14996795556505021"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <gradientFill>
-          <stop position="0">
-            <color rgb="FF0000CC"/>
-          </stop>
-          <stop position="1">
-            <color rgb="FFFF0000"/>
-          </stop>
-        </gradientFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF0000CC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.14996795556505021"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <gradientFill>
-          <stop position="0">
-            <color rgb="FF0000CC"/>
-          </stop>
-          <stop position="1">
-            <color rgb="FFFF0000"/>
-          </stop>
-        </gradientFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF0000CC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.14996795556505021"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <gradientFill>
-          <stop position="0">
-            <color rgb="FF0000CC"/>
-          </stop>
-          <stop position="1">
-            <color rgb="FFFF0000"/>
-          </stop>
-        </gradientFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF0000CC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.14996795556505021"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <gradientFill>
-          <stop position="0">
-            <color rgb="FF0000CC"/>
-          </stop>
-          <stop position="1">
-            <color rgb="FFFF0000"/>
-          </stop>
-        </gradientFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF0000CC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.14996795556505021"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <gradientFill>
-          <stop position="0">
-            <color rgb="FF0000CC"/>
-          </stop>
-          <stop position="1">
-            <color rgb="FFFF0000"/>
-          </stop>
-        </gradientFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF0000CC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.14996795556505021"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <gradientFill>
-          <stop position="0">
-            <color rgb="FF0000CC"/>
-          </stop>
-          <stop position="1">
-            <color rgb="FFFF0000"/>
-          </stop>
-        </gradientFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF0000CC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.14996795556505021"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <gradientFill>
-          <stop position="0">
-            <color rgb="FF0000CC"/>
-          </stop>
-          <stop position="1">
-            <color rgb="FFFF0000"/>
-          </stop>
-        </gradientFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF0000CC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.14996795556505021"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <gradientFill>
-          <stop position="0">
-            <color rgb="FF0000CC"/>
-          </stop>
-          <stop position="1">
-            <color rgb="FFFF0000"/>
-          </stop>
-        </gradientFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF0000CC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.14996795556505021"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF0000CC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <gradientFill>
-          <stop position="0">
-            <color rgb="FF0000CC"/>
-          </stop>
-          <stop position="1">
-            <color rgb="FFFF0000"/>
-          </stop>
-        </gradientFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF0000CC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.14996795556505021"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <gradientFill>
-          <stop position="0">
-            <color rgb="FF0000CC"/>
-          </stop>
-          <stop position="1">
-            <color rgb="FFFF0000"/>
-          </stop>
-        </gradientFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF0000CC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.14996795556505021"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <gradientFill>
-          <stop position="0">
-            <color rgb="FF0000CC"/>
-          </stop>
-          <stop position="1">
-            <color rgb="FFFF0000"/>
-          </stop>
-        </gradientFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF0000CC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.14996795556505021"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <gradientFill>
-          <stop position="0">
-            <color rgb="FF0000CC"/>
-          </stop>
-          <stop position="1">
-            <color rgb="FFFF0000"/>
-          </stop>
-        </gradientFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF0000CC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.14996795556505021"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <gradientFill>
-          <stop position="0">
-            <color rgb="FF0000CC"/>
-          </stop>
-          <stop position="1">
-            <color rgb="FFFF0000"/>
-          </stop>
-        </gradientFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF0000CC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.14996795556505021"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <gradientFill>
-          <stop position="0">
-            <color rgb="FF0000CC"/>
-          </stop>
-          <stop position="1">
-            <color rgb="FFFF0000"/>
-          </stop>
-        </gradientFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF0000CC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.14996795556505021"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <gradientFill>
-          <stop position="0">
-            <color rgb="FF0000CC"/>
-          </stop>
-          <stop position="1">
-            <color rgb="FFFF0000"/>
-          </stop>
-        </gradientFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF0000CC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.14996795556505021"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <gradientFill>
-          <stop position="0">
-            <color rgb="FF0000CC"/>
-          </stop>
-          <stop position="1">
-            <color rgb="FFFF0000"/>
-          </stop>
-        </gradientFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF0000CC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.14996795556505021"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
         </patternFill>
       </fill>
     </dxf>
@@ -3038,10 +1517,10 @@
   </sheetPr>
   <dimension ref="A1:CU100"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A79" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane xSplit="5" topLeftCell="H1" activePane="topRight" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="A68" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <pane xSplit="5" topLeftCell="F1" activePane="topRight" state="frozen"/>
       <selection activeCell="A19" sqref="A19"/>
-      <selection pane="topRight" activeCell="H90" sqref="H90"/>
+      <selection pane="topRight" activeCell="F74" sqref="F74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3690,183 +2169,183 @@
         <v>41175</v>
       </c>
       <c r="BC19" s="19">
-        <f>BB19+1</f>
+        <f t="shared" ref="BC19:BM19" si="4">BB19+1</f>
         <v>41176</v>
       </c>
       <c r="BD19" s="19">
-        <f>BC19+1</f>
+        <f t="shared" si="4"/>
         <v>41177</v>
       </c>
       <c r="BE19" s="19">
-        <f>BD19+1</f>
+        <f t="shared" si="4"/>
         <v>41178</v>
       </c>
       <c r="BF19" s="19">
-        <f>BE19+1</f>
+        <f t="shared" si="4"/>
         <v>41179</v>
       </c>
       <c r="BG19" s="19">
-        <f>BF19+1</f>
+        <f t="shared" si="4"/>
         <v>41180</v>
       </c>
       <c r="BH19" s="19">
-        <f>BG19+1</f>
+        <f t="shared" si="4"/>
         <v>41181</v>
       </c>
       <c r="BI19" s="19">
-        <f>BH19+1</f>
+        <f t="shared" si="4"/>
         <v>41182</v>
       </c>
       <c r="BJ19" s="19">
-        <f>BI19+1</f>
+        <f t="shared" si="4"/>
         <v>41183</v>
       </c>
       <c r="BK19" s="19">
-        <f>BJ19+1</f>
+        <f t="shared" si="4"/>
         <v>41184</v>
       </c>
       <c r="BL19" s="19">
-        <f>BK19+1</f>
+        <f t="shared" si="4"/>
         <v>41185</v>
       </c>
       <c r="BM19" s="19">
-        <f>BL19+1</f>
+        <f t="shared" si="4"/>
         <v>41186</v>
       </c>
       <c r="BN19" s="19">
-        <f t="shared" ref="BN19:CU19" si="4">BM19+1</f>
+        <f t="shared" ref="BN19:CU19" si="5">BM19+1</f>
         <v>41187</v>
       </c>
       <c r="BO19" s="19">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>41188</v>
       </c>
       <c r="BP19" s="19">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>41189</v>
       </c>
       <c r="BQ19" s="19">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>41190</v>
       </c>
       <c r="BR19" s="19">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>41191</v>
       </c>
       <c r="BS19" s="19">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>41192</v>
       </c>
       <c r="BT19" s="19">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>41193</v>
       </c>
       <c r="BU19" s="19">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>41194</v>
       </c>
       <c r="BV19" s="19">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>41195</v>
       </c>
       <c r="BW19" s="19">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>41196</v>
       </c>
       <c r="BX19" s="19">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>41197</v>
       </c>
       <c r="BY19" s="19">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>41198</v>
       </c>
       <c r="BZ19" s="19">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>41199</v>
       </c>
       <c r="CA19" s="19">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>41200</v>
       </c>
       <c r="CB19" s="19">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>41201</v>
       </c>
       <c r="CC19" s="19">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>41202</v>
       </c>
       <c r="CD19" s="19">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>41203</v>
       </c>
       <c r="CE19" s="19">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>41204</v>
       </c>
       <c r="CF19" s="19">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>41205</v>
       </c>
       <c r="CG19" s="19">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>41206</v>
       </c>
       <c r="CH19" s="19">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>41207</v>
       </c>
       <c r="CI19" s="19">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>41208</v>
       </c>
       <c r="CJ19" s="19">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>41209</v>
       </c>
       <c r="CK19" s="19">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>41210</v>
       </c>
       <c r="CL19" s="19">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>41211</v>
       </c>
       <c r="CM19" s="19">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>41212</v>
       </c>
       <c r="CN19" s="19">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>41213</v>
       </c>
       <c r="CO19" s="19">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>41214</v>
       </c>
       <c r="CP19" s="19">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>41215</v>
       </c>
       <c r="CQ19" s="19">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>41216</v>
       </c>
       <c r="CR19" s="19">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>41217</v>
       </c>
       <c r="CS19" s="19">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>41218</v>
       </c>
       <c r="CT19" s="19">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>41219</v>
       </c>
       <c r="CU19" s="19">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>41220</v>
       </c>
     </row>
@@ -9540,7 +8019,7 @@
         <v>99</v>
       </c>
       <c r="D72" s="22" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="E72" s="22"/>
       <c r="F72" s="22"/>
@@ -10454,7 +8933,7 @@
         <v>111</v>
       </c>
       <c r="D80" s="22" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="E80" s="22"/>
       <c r="F80" s="22"/>
@@ -12216,187 +10695,187 @@
         <v>41133</v>
       </c>
       <c r="M100" s="25">
-        <f t="shared" ref="M100:BF100" si="5">M19</f>
+        <f t="shared" ref="M100:BF100" si="6">M19</f>
         <v>41134</v>
       </c>
       <c r="N100" s="25">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>41135</v>
       </c>
       <c r="O100" s="25">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>41136</v>
       </c>
       <c r="P100" s="25">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>41137</v>
       </c>
       <c r="Q100" s="25">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>41138</v>
       </c>
       <c r="R100" s="25">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>41139</v>
       </c>
       <c r="S100" s="25">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>41140</v>
       </c>
       <c r="T100" s="25">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>41141</v>
       </c>
       <c r="U100" s="25">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>41142</v>
       </c>
       <c r="V100" s="25">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>41143</v>
       </c>
       <c r="W100" s="25">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>41144</v>
       </c>
       <c r="X100" s="25">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>41145</v>
       </c>
       <c r="Y100" s="25">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>41146</v>
       </c>
       <c r="Z100" s="25">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>41147</v>
       </c>
       <c r="AA100" s="25">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>41148</v>
       </c>
       <c r="AB100" s="25">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>41149</v>
       </c>
       <c r="AC100" s="25">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>41150</v>
       </c>
       <c r="AD100" s="25">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>41151</v>
       </c>
       <c r="AE100" s="25">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>41152</v>
       </c>
       <c r="AF100" s="25">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>41153</v>
       </c>
       <c r="AG100" s="25">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>41154</v>
       </c>
       <c r="AH100" s="25">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>41155</v>
       </c>
       <c r="AI100" s="25">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>41156</v>
       </c>
       <c r="AJ100" s="25">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>41157</v>
       </c>
       <c r="AK100" s="25">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>41158</v>
       </c>
       <c r="AL100" s="25">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>41159</v>
       </c>
       <c r="AM100" s="25">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>41160</v>
       </c>
       <c r="AN100" s="25">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>41161</v>
       </c>
       <c r="AO100" s="25">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>41162</v>
       </c>
       <c r="AP100" s="25">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>41163</v>
       </c>
       <c r="AQ100" s="25">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>41164</v>
       </c>
       <c r="AR100" s="25">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>41165</v>
       </c>
       <c r="AS100" s="25">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>41166</v>
       </c>
       <c r="AT100" s="25">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>41167</v>
       </c>
       <c r="AU100" s="25">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>41168</v>
       </c>
       <c r="AV100" s="25">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>41169</v>
       </c>
       <c r="AW100" s="25">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>41170</v>
       </c>
       <c r="AX100" s="25">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>41171</v>
       </c>
       <c r="AY100" s="25">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>41172</v>
       </c>
       <c r="AZ100" s="25">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>41173</v>
       </c>
       <c r="BA100" s="25">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>41174</v>
       </c>
       <c r="BB100" s="25">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>41175</v>
       </c>
       <c r="BC100" s="25">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>41176</v>
       </c>
       <c r="BD100" s="25">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>41177</v>
       </c>
       <c r="BE100" s="25">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>41178</v>
       </c>
       <c r="BF100" s="25">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>41179</v>
       </c>
       <c r="BG100" s="25"/>
@@ -12447,90 +10926,90 @@
     <sortCondition ref="C2"/>
   </sortState>
   <conditionalFormatting sqref="L97:AY97 L88:CU89 L84:CU86 L21:CU24 L26:CU33 L35:CU39 L41:BL54 BR41:CU54 BP41:BQ44 BO41:BO43 BM41:BN44 BM46:BQ54 L56:CU68 L70:CU82 L91:CU93 L95:CU95">
-    <cfRule type="cellIs" dxfId="42" priority="183" operator="equal">
+    <cfRule type="cellIs" dxfId="18" priority="183" operator="equal">
       <formula>"-"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="41" priority="184" operator="equal">
+    <cfRule type="cellIs" dxfId="17" priority="184" operator="equal">
       <formula>"E"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="40" priority="185" operator="equal">
+    <cfRule type="cellIs" dxfId="16" priority="185" operator="equal">
       <formula>"B"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L88:CU89 L84:CU86 L21:CU24 L26:CU33 L35:CU39 L41:BL54 BR41:CU54 BP41:BQ44 BO41:BO43 BM41:BN44 BM46:BQ54 L56:CU68 L70:CU82 L91:CU93 L95:CU95">
-    <cfRule type="cellIs" dxfId="39" priority="182" operator="equal">
+    <cfRule type="cellIs" dxfId="15" priority="182" operator="equal">
       <formula>"BE"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J88 J21:J24 J26:J32 J41:J51 J56:J66 J71:J72 J74:J81 J95 J35:J38 J91:J92">
-    <cfRule type="cellIs" dxfId="38" priority="256" operator="equal">
+    <cfRule type="cellIs" dxfId="14" priority="256" operator="equal">
       <formula>$I$5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J35:J37 J21:J24 J26:J32 J88 J41:J51 J56:J66 J71:J72 J74:J81 J95 J91:J92">
-    <cfRule type="expression" dxfId="37" priority="263">
+    <cfRule type="expression" dxfId="13" priority="263">
       <formula>AND(J21&lt;&gt;$I$5,$I21&lt;TODAY())</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J38">
-    <cfRule type="expression" dxfId="36" priority="31">
+    <cfRule type="expression" dxfId="12" priority="31">
       <formula>AND(J38&lt;&gt;$I$5,$I38&lt;TODAY())</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BO44">
-    <cfRule type="cellIs" dxfId="35" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="11" priority="10" operator="equal">
       <formula>"-"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="34" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="11" operator="equal">
       <formula>"E"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="33" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="12" operator="equal">
       <formula>"B"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BO44">
-    <cfRule type="cellIs" dxfId="32" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="9" operator="equal">
       <formula>"BE"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BM45:BN45">
-    <cfRule type="cellIs" dxfId="31" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="6" operator="equal">
       <formula>"-"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="30" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="7" operator="equal">
       <formula>"E"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="29" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="8" operator="equal">
       <formula>"B"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BM45:BN45">
-    <cfRule type="cellIs" dxfId="28" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="5" operator="equal">
       <formula>"BE"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J67">
-    <cfRule type="cellIs" dxfId="27" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="4" operator="equal">
       <formula>$I$5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J67">
-    <cfRule type="expression" dxfId="26" priority="3">
+    <cfRule type="expression" dxfId="2" priority="3">
       <formula>AND(J67&lt;&gt;$I$5,$I67&lt;TODAY())</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J93">
-    <cfRule type="cellIs" dxfId="23" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
       <formula>$I$5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J93">
-    <cfRule type="expression" dxfId="21" priority="1">
+    <cfRule type="expression" dxfId="0" priority="1">
       <formula>AND(J93&lt;&gt;$I$5,$I93&lt;TODAY())</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D35:F39 D41:F48 E49:F51 D50:D51 D56:D62 D26:F33 D64:D74 D77:D96 F55:F96 E56:E92 E94:E96">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D35:F39 D41:F48 E49:F51 D50:D51 D56:D62 D26:F33 E94:E96 D77:D96 F55:F96 E56:E92 D64:D74">
       <formula1>$C$2:$C$17</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J71:J72 J74:J81 J26:J32 J35:J38 J21:J24 J41:J51 J86:J89 J56:J67 J91:J95">

--- a/trunk/Document/VietinBankSC Project Plan v2012.009.20.xlsx
+++ b/trunk/Document/VietinBankSC Project Plan v2012.009.20.xlsx
@@ -1520,7 +1520,7 @@
     <sheetView tabSelected="1" topLeftCell="A68" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <pane xSplit="5" topLeftCell="F1" activePane="topRight" state="frozen"/>
       <selection activeCell="A19" sqref="A19"/>
-      <selection pane="topRight" activeCell="F74" sqref="F74"/>
+      <selection pane="topRight" activeCell="C82" sqref="C82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>

--- a/trunk/Document/VietinBankSC Project Plan v2012.009.20.xlsx
+++ b/trunk/Document/VietinBankSC Project Plan v2012.009.20.xlsx
@@ -1520,7 +1520,7 @@
     <sheetView tabSelected="1" topLeftCell="A68" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <pane xSplit="5" topLeftCell="F1" activePane="topRight" state="frozen"/>
       <selection activeCell="A19" sqref="A19"/>
-      <selection pane="topRight" activeCell="C82" sqref="C82"/>
+      <selection pane="topRight" activeCell="C79" sqref="C79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -7699,7 +7699,7 @@
       <c r="D69" s="21"/>
       <c r="E69" s="21"/>
       <c r="F69" s="21" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="G69" s="21"/>
       <c r="H69" s="21"/>
@@ -8237,7 +8237,7 @@
         <v>100</v>
       </c>
       <c r="D74" s="22" t="s">
-        <v>59</v>
+        <v>135</v>
       </c>
       <c r="E74" s="22"/>
       <c r="F74" s="22"/>
@@ -8933,7 +8933,7 @@
         <v>111</v>
       </c>
       <c r="D80" s="22" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="E80" s="22"/>
       <c r="F80" s="22"/>

--- a/trunk/Document/VietinBankSC Project Plan v2012.009.20.xlsx
+++ b/trunk/Document/VietinBankSC Project Plan v2012.009.20.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="438" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="437" uniqueCount="143">
   <si>
     <t>GVCM</t>
   </si>
@@ -1517,10 +1517,10 @@
   </sheetPr>
   <dimension ref="A1:CU100"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A68" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A83" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <pane xSplit="5" topLeftCell="F1" activePane="topRight" state="frozen"/>
       <selection activeCell="A19" sqref="A19"/>
-      <selection pane="topRight" activeCell="C79" sqref="C79"/>
+      <selection pane="topRight" activeCell="D91" sqref="D91"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -10206,9 +10206,7 @@
       <c r="D92" s="22" t="s">
         <v>70</v>
       </c>
-      <c r="E92" s="22" t="s">
-        <v>82</v>
-      </c>
+      <c r="E92" s="22"/>
       <c r="F92" s="22"/>
       <c r="G92" s="22"/>
       <c r="H92" s="23"/>

--- a/trunk/Document/VietinBankSC Project Plan v2012.009.20.xlsx
+++ b/trunk/Document/VietinBankSC Project Plan v2012.009.20.xlsx
@@ -16,7 +16,7 @@
     <externalReference r:id="rId5"/>
   </externalReferences>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Plan!$A$19:$BF$96</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Plan!$A$19:$BF$97</definedName>
     <definedName name="members">'[1]Thành viên - Vị trí'!$C$3:$C$13</definedName>
   </definedNames>
   <calcPr calcId="124519"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="437" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="452" uniqueCount="144">
   <si>
     <t>GVCM</t>
   </si>
@@ -371,9 +371,6 @@
     <t>Báo cáo tổ chức phát hành</t>
   </si>
   <si>
-    <t>Báo cáo tình hình phong tỏa, giải tỏa</t>
-  </si>
-  <si>
     <t>Quản trị hệ thống</t>
   </si>
   <si>
@@ -465,6 +462,12 @@
   </si>
   <si>
     <t>Test Báo cáo</t>
+  </si>
+  <si>
+    <t>Báo cáo tình hình phong tỏa</t>
+  </si>
+  <si>
+    <t>Báo cáo tình hình giải tỏa</t>
   </si>
 </sst>
 </file>
@@ -1515,12 +1518,12 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:CU100"/>
+  <dimension ref="A1:CU101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A83" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A38" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <pane xSplit="5" topLeftCell="F1" activePane="topRight" state="frozen"/>
       <selection activeCell="A19" sqref="A19"/>
-      <selection pane="topRight" activeCell="D91" sqref="D91"/>
+      <selection pane="topRight" activeCell="A44" sqref="A44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1569,7 +1572,7 @@
     </row>
     <row r="3" spans="3:66" hidden="1">
       <c r="C3" s="27" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D3" s="35"/>
       <c r="E3" s="33"/>
@@ -1657,7 +1660,7 @@
         <v>58</v>
       </c>
       <c r="D10" s="16">
-        <f>SUMIF($D$20:$D$96,C10,$G$20:$G$96)</f>
+        <f>SUMIF($D$20:$D$97,C10,$G$20:$G$97)</f>
         <v>0</v>
       </c>
       <c r="E10" s="33"/>
@@ -1671,7 +1674,7 @@
         <v>61</v>
       </c>
       <c r="D11" s="16">
-        <f>SUMIF($D$20:$D$96,C11,$G$20:$G$96)</f>
+        <f>SUMIF($D$20:$D$97,C11,$G$20:$G$97)</f>
         <v>0</v>
       </c>
       <c r="E11" s="33"/>
@@ -1695,7 +1698,7 @@
         <v>59</v>
       </c>
       <c r="D13" s="16">
-        <f>SUMIF($D$20:$D$96,C13,$G$20:$G$96)</f>
+        <f>SUMIF($D$20:$D$97,C13,$G$20:$G$97)</f>
         <v>0</v>
       </c>
       <c r="E13" s="33"/>
@@ -1720,7 +1723,7 @@
         <v>57</v>
       </c>
       <c r="D15" s="16">
-        <f>SUMIF($D$20:$D$96,C15,$G$20:$G$96)</f>
+        <f>SUMIF($D$20:$D$97,C15,$G$20:$G$97)</f>
         <v>0</v>
       </c>
       <c r="E15" s="33"/>
@@ -1960,7 +1963,7 @@
         <v>81</v>
       </c>
       <c r="D17" s="16">
-        <f>SUMIF($D$20:$D$96,C17,$G$20:$G$96)</f>
+        <f>SUMIF($D$20:$D$97,C17,$G$20:$G$97)</f>
         <v>0</v>
       </c>
       <c r="E17" s="33"/>
@@ -4474,13 +4477,13 @@
     <row r="40" spans="1:99" s="20" customFormat="1">
       <c r="B40" s="21"/>
       <c r="C40" s="30" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D40" s="21" t="s">
+        <v>130</v>
+      </c>
+      <c r="E40" s="21" t="s">
         <v>131</v>
-      </c>
-      <c r="E40" s="21" t="s">
-        <v>132</v>
       </c>
       <c r="F40" s="21" t="s">
         <v>57</v>
@@ -4585,7 +4588,7 @@
       </c>
       <c r="B41" s="22"/>
       <c r="C41" s="29" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D41" s="22"/>
       <c r="E41" s="22"/>
@@ -4692,7 +4695,7 @@
       </c>
       <c r="B42" s="22"/>
       <c r="C42" s="29" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D42" s="22"/>
       <c r="E42" s="22"/>
@@ -4799,7 +4802,7 @@
       </c>
       <c r="B43" s="22"/>
       <c r="C43" s="29" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D43" s="22"/>
       <c r="E43" s="22"/>
@@ -4973,10 +4976,10 @@
       <c r="BK44" s="1"/>
       <c r="BL44" s="1"/>
       <c r="BM44" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="BN44" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="BO44" s="1"/>
       <c r="BP44" s="1"/>
@@ -5015,7 +5018,7 @@
     <row r="45" spans="1:99">
       <c r="B45" s="22"/>
       <c r="C45" s="29" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D45" s="22" t="s">
         <v>61</v>
@@ -5085,10 +5088,10 @@
       <c r="BK45" s="1"/>
       <c r="BL45" s="1"/>
       <c r="BM45" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="BN45" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="BR45" s="1"/>
       <c r="BS45" s="1"/>
@@ -5124,7 +5127,7 @@
     <row r="46" spans="1:99">
       <c r="B46" s="22"/>
       <c r="C46" s="29" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D46" s="22" t="s">
         <v>84</v>
@@ -5194,19 +5197,19 @@
       <c r="BK46" s="1"/>
       <c r="BL46" s="1"/>
       <c r="BM46" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="BN46" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="BN46" s="1" t="s">
+      <c r="BO46" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="BP46" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="BQ46" s="1" t="s">
         <v>138</v>
-      </c>
-      <c r="BO46" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="BP46" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="BQ46" s="1" t="s">
-        <v>139</v>
       </c>
       <c r="BR46" s="1"/>
       <c r="BS46" s="1"/>
@@ -5420,19 +5423,19 @@
       <c r="BK48" s="1"/>
       <c r="BL48" s="1"/>
       <c r="BM48" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="BN48" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="BN48" s="1" t="s">
+      <c r="BO48" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="BP48" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="BQ48" s="1" t="s">
         <v>138</v>
-      </c>
-      <c r="BO48" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="BP48" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="BQ48" s="1" t="s">
-        <v>139</v>
       </c>
       <c r="BR48" s="1"/>
       <c r="BS48" s="1"/>
@@ -5471,7 +5474,7 @@
       </c>
       <c r="B49" s="22"/>
       <c r="C49" s="29" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D49" s="22"/>
       <c r="E49" s="22"/>
@@ -5578,7 +5581,7 @@
       </c>
       <c r="B50" s="22"/>
       <c r="C50" s="29" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D50" s="22"/>
       <c r="E50" s="22"/>
@@ -5685,7 +5688,7 @@
       </c>
       <c r="B51" s="22"/>
       <c r="C51" s="29" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D51" s="22"/>
       <c r="E51" s="22"/>
@@ -6089,7 +6092,7 @@
     <row r="55" spans="1:99" s="20" customFormat="1">
       <c r="B55" s="21"/>
       <c r="C55" s="30" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D55" s="21" t="s">
         <v>80</v>
@@ -6195,7 +6198,7 @@
     <row r="56" spans="1:99">
       <c r="B56" s="22"/>
       <c r="C56" s="29" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D56" s="22" t="s">
         <v>60</v>
@@ -6303,7 +6306,7 @@
     <row r="57" spans="1:99">
       <c r="B57" s="22"/>
       <c r="C57" s="29" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D57" s="22" t="s">
         <v>60</v>
@@ -6411,7 +6414,7 @@
     <row r="58" spans="1:99">
       <c r="B58" s="22"/>
       <c r="C58" s="29" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D58" s="22" t="s">
         <v>61</v>
@@ -6481,19 +6484,19 @@
       <c r="BK58" s="1"/>
       <c r="BL58" s="1"/>
       <c r="BM58" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="BN58" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="BN58" s="1" t="s">
+      <c r="BO58" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="BP58" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="BQ58" s="1" t="s">
         <v>138</v>
-      </c>
-      <c r="BO58" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="BP58" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="BQ58" s="1" t="s">
-        <v>139</v>
       </c>
       <c r="BR58" s="1"/>
       <c r="BS58" s="1"/>
@@ -6529,7 +6532,7 @@
     <row r="59" spans="1:99">
       <c r="B59" s="22"/>
       <c r="C59" s="29" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D59" s="22" t="s">
         <v>61</v>
@@ -6599,19 +6602,19 @@
       <c r="BK59" s="1"/>
       <c r="BL59" s="1"/>
       <c r="BM59" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="BN59" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="BN59" s="1" t="s">
+      <c r="BO59" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="BP59" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="BQ59" s="1" t="s">
         <v>138</v>
-      </c>
-      <c r="BO59" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="BP59" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="BQ59" s="1" t="s">
-        <v>139</v>
       </c>
       <c r="BR59" s="1"/>
       <c r="BS59" s="1"/>
@@ -6647,7 +6650,7 @@
     <row r="60" spans="1:99">
       <c r="B60" s="22"/>
       <c r="C60" s="29" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D60" s="22" t="s">
         <v>58</v>
@@ -6717,19 +6720,19 @@
       <c r="BK60" s="1"/>
       <c r="BL60" s="1"/>
       <c r="BM60" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="BN60" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="BN60" s="1" t="s">
+      <c r="BO60" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="BP60" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="BQ60" s="1" t="s">
         <v>138</v>
-      </c>
-      <c r="BO60" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="BP60" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="BQ60" s="1" t="s">
-        <v>139</v>
       </c>
       <c r="BR60" s="1"/>
       <c r="BS60" s="1"/>
@@ -6765,7 +6768,7 @@
     <row r="61" spans="1:99">
       <c r="B61" s="22"/>
       <c r="C61" s="29" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D61" s="22" t="s">
         <v>71</v>
@@ -6835,19 +6838,19 @@
       <c r="BK61" s="1"/>
       <c r="BL61" s="1"/>
       <c r="BM61" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="BN61" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="BN61" s="1" t="s">
+      <c r="BO61" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="BP61" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="BQ61" s="1" t="s">
         <v>138</v>
-      </c>
-      <c r="BO61" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="BP61" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="BQ61" s="1" t="s">
-        <v>139</v>
       </c>
       <c r="BR61" s="1"/>
       <c r="BS61" s="1"/>
@@ -6953,19 +6956,19 @@
       <c r="BK62" s="1"/>
       <c r="BL62" s="1"/>
       <c r="BM62" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="BN62" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="BN62" s="1" t="s">
+      <c r="BO62" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="BP62" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="BQ62" s="1" t="s">
         <v>138</v>
-      </c>
-      <c r="BO62" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="BP62" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="BQ62" s="1" t="s">
-        <v>139</v>
       </c>
       <c r="BR62" s="1"/>
       <c r="BS62" s="1"/>
@@ -6999,6 +7002,9 @@
       <c r="CU62" s="1"/>
     </row>
     <row r="63" spans="1:99">
+      <c r="A63" t="s">
+        <v>10</v>
+      </c>
       <c r="B63" s="22"/>
       <c r="C63" s="29" t="s">
         <v>77</v>
@@ -7071,19 +7077,19 @@
       <c r="BK63" s="1"/>
       <c r="BL63" s="1"/>
       <c r="BM63" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="BN63" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="BN63" s="1" t="s">
+      <c r="BO63" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="BP63" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="BQ63" s="1" t="s">
         <v>138</v>
-      </c>
-      <c r="BO63" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="BP63" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="BQ63" s="1" t="s">
-        <v>139</v>
       </c>
       <c r="BR63" s="1"/>
       <c r="BS63" s="1"/>
@@ -7189,19 +7195,19 @@
       <c r="BK64" s="1"/>
       <c r="BL64" s="1"/>
       <c r="BM64" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="BN64" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="BN64" s="1" t="s">
+      <c r="BO64" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="BP64" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="BQ64" s="1" t="s">
         <v>138</v>
-      </c>
-      <c r="BO64" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="BP64" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="BQ64" s="1" t="s">
-        <v>139</v>
       </c>
       <c r="BR64" s="1"/>
       <c r="BS64" s="1"/>
@@ -7235,9 +7241,12 @@
       <c r="CU64" s="1"/>
     </row>
     <row r="65" spans="1:99">
+      <c r="A65" t="s">
+        <v>10</v>
+      </c>
       <c r="B65" s="22"/>
       <c r="C65" s="29" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D65" s="22" t="s">
         <v>84</v>
@@ -7309,19 +7318,19 @@
       <c r="BK65" s="1"/>
       <c r="BL65" s="1"/>
       <c r="BM65" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="BN65" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="BN65" s="1" t="s">
+      <c r="BO65" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="BP65" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="BQ65" s="1" t="s">
         <v>138</v>
-      </c>
-      <c r="BO65" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="BP65" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="BQ65" s="1" t="s">
-        <v>139</v>
       </c>
       <c r="BR65" s="1"/>
       <c r="BS65" s="1"/>
@@ -7357,7 +7366,7 @@
     <row r="66" spans="1:99">
       <c r="B66" s="22"/>
       <c r="C66" s="29" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D66" s="22" t="s">
         <v>71</v>
@@ -7427,19 +7436,19 @@
       <c r="BK66" s="1"/>
       <c r="BL66" s="1"/>
       <c r="BM66" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="BN66" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="BN66" s="1" t="s">
+      <c r="BO66" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="BP66" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="BQ66" s="1" t="s">
         <v>138</v>
-      </c>
-      <c r="BO66" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="BP66" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="BQ66" s="1" t="s">
-        <v>139</v>
       </c>
       <c r="BR66" s="1"/>
       <c r="BS66" s="1"/>
@@ -7475,7 +7484,7 @@
     <row r="67" spans="1:99">
       <c r="B67" s="22"/>
       <c r="C67" s="29" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D67" s="22" t="s">
         <v>71</v>
@@ -7545,19 +7554,19 @@
       <c r="BK67" s="1"/>
       <c r="BL67" s="1"/>
       <c r="BM67" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="BN67" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="BN67" s="1" t="s">
+      <c r="BO67" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="BP67" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="BQ67" s="1" t="s">
         <v>138</v>
-      </c>
-      <c r="BO67" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="BP67" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="BQ67" s="1" t="s">
-        <v>139</v>
       </c>
       <c r="BR67" s="1"/>
       <c r="BS67" s="1"/>
@@ -7898,7 +7907,9 @@
       <c r="CU70" s="1"/>
     </row>
     <row r="71" spans="1:99">
-      <c r="B71" s="22"/>
+      <c r="B71" s="22">
+        <v>651</v>
+      </c>
       <c r="C71" s="29" t="s">
         <v>109</v>
       </c>
@@ -7968,19 +7979,19 @@
       <c r="BK71" s="1"/>
       <c r="BL71" s="1"/>
       <c r="BM71" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="BN71" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="BN71" s="1" t="s">
+      <c r="BO71" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="BP71" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="BQ71" s="1" t="s">
         <v>138</v>
-      </c>
-      <c r="BO71" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="BP71" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="BQ71" s="1" t="s">
-        <v>139</v>
       </c>
       <c r="BR71" s="1"/>
       <c r="BS71" s="1"/>
@@ -8014,7 +8025,9 @@
       <c r="CU71" s="1"/>
     </row>
     <row r="72" spans="1:99">
-      <c r="B72" s="22"/>
+      <c r="B72" s="22">
+        <v>652</v>
+      </c>
       <c r="C72" s="29" t="s">
         <v>99</v>
       </c>
@@ -8084,19 +8097,19 @@
       <c r="BK72" s="1"/>
       <c r="BL72" s="1"/>
       <c r="BM72" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="BN72" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="BN72" s="1" t="s">
+      <c r="BO72" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="BP72" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="BQ72" s="1" t="s">
         <v>138</v>
-      </c>
-      <c r="BO72" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="BP72" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="BQ72" s="1" t="s">
-        <v>139</v>
       </c>
       <c r="BR72" s="1"/>
       <c r="BS72" s="1"/>
@@ -8232,12 +8245,14 @@
       <c r="CU73" s="1"/>
     </row>
     <row r="74" spans="1:99">
-      <c r="B74" s="22"/>
+      <c r="B74" s="22">
+        <v>653</v>
+      </c>
       <c r="C74" s="29" t="s">
         <v>100</v>
       </c>
       <c r="D74" s="22" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E74" s="22"/>
       <c r="F74" s="22"/>
@@ -8302,19 +8317,19 @@
       <c r="BK74" s="1"/>
       <c r="BL74" s="1"/>
       <c r="BM74" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="BN74" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="BN74" s="1" t="s">
+      <c r="BO74" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="BP74" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="BQ74" s="1" t="s">
         <v>138</v>
-      </c>
-      <c r="BO74" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="BP74" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="BQ74" s="1" t="s">
-        <v>139</v>
       </c>
       <c r="BR74" s="1"/>
       <c r="BS74" s="1"/>
@@ -8348,12 +8363,14 @@
       <c r="CU74" s="1"/>
     </row>
     <row r="75" spans="1:99">
-      <c r="B75" s="22"/>
+      <c r="B75" s="22">
+        <v>654</v>
+      </c>
       <c r="C75" s="29" t="s">
         <v>101</v>
       </c>
       <c r="D75" s="22" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E75" s="22"/>
       <c r="F75" s="22"/>
@@ -8418,19 +8435,19 @@
       <c r="BK75" s="1"/>
       <c r="BL75" s="1"/>
       <c r="BM75" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="BN75" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="BN75" s="1" t="s">
+      <c r="BO75" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="BP75" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="BQ75" s="1" t="s">
         <v>138</v>
-      </c>
-      <c r="BO75" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="BP75" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="BQ75" s="1" t="s">
-        <v>139</v>
       </c>
       <c r="BR75" s="1"/>
       <c r="BS75" s="1"/>
@@ -8464,12 +8481,14 @@
       <c r="CU75" s="1"/>
     </row>
     <row r="76" spans="1:99">
-      <c r="B76" s="22"/>
+      <c r="B76" s="22">
+        <v>655</v>
+      </c>
       <c r="C76" s="29" t="s">
         <v>102</v>
       </c>
       <c r="D76" s="22" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E76" s="22"/>
       <c r="F76" s="22"/>
@@ -8534,19 +8553,19 @@
       <c r="BK76" s="1"/>
       <c r="BL76" s="1"/>
       <c r="BM76" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="BN76" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="BN76" s="1" t="s">
+      <c r="BO76" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="BP76" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="BQ76" s="1" t="s">
         <v>138</v>
-      </c>
-      <c r="BO76" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="BP76" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="BQ76" s="1" t="s">
-        <v>139</v>
       </c>
       <c r="BR76" s="1"/>
       <c r="BS76" s="1"/>
@@ -8580,7 +8599,9 @@
       <c r="CU76" s="1"/>
     </row>
     <row r="77" spans="1:99">
-      <c r="B77" s="22"/>
+      <c r="B77" s="22">
+        <v>656</v>
+      </c>
       <c r="C77" s="29" t="s">
         <v>103</v>
       </c>
@@ -8650,19 +8671,19 @@
       <c r="BK77" s="1"/>
       <c r="BL77" s="1"/>
       <c r="BM77" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="BN77" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="BN77" s="1" t="s">
+      <c r="BO77" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="BP77" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="BQ77" s="1" t="s">
         <v>138</v>
-      </c>
-      <c r="BO77" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="BP77" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="BQ77" s="1" t="s">
-        <v>139</v>
       </c>
       <c r="BR77" s="1"/>
       <c r="BS77" s="1"/>
@@ -8696,7 +8717,9 @@
       <c r="CU77" s="1"/>
     </row>
     <row r="78" spans="1:99">
-      <c r="B78" s="22"/>
+      <c r="B78" s="22">
+        <v>657</v>
+      </c>
       <c r="C78" s="38" t="s">
         <v>104</v>
       </c>
@@ -8766,19 +8789,19 @@
       <c r="BK78" s="1"/>
       <c r="BL78" s="1"/>
       <c r="BM78" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="BN78" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="BN78" s="1" t="s">
+      <c r="BO78" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="BP78" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="BQ78" s="1" t="s">
         <v>138</v>
-      </c>
-      <c r="BO78" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="BP78" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="BQ78" s="1" t="s">
-        <v>139</v>
       </c>
       <c r="BR78" s="1"/>
       <c r="BS78" s="1"/>
@@ -8812,7 +8835,9 @@
       <c r="CU78" s="1"/>
     </row>
     <row r="79" spans="1:99">
-      <c r="B79" s="22"/>
+      <c r="B79" s="22">
+        <v>658</v>
+      </c>
       <c r="C79" s="38" t="s">
         <v>105</v>
       </c>
@@ -8882,19 +8907,19 @@
       <c r="BK79" s="1"/>
       <c r="BL79" s="1"/>
       <c r="BM79" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="BN79" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="BN79" s="1" t="s">
+      <c r="BO79" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="BP79" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="BQ79" s="1" t="s">
         <v>138</v>
-      </c>
-      <c r="BO79" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="BP79" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="BQ79" s="1" t="s">
-        <v>139</v>
       </c>
       <c r="BR79" s="1"/>
       <c r="BS79" s="1"/>
@@ -8928,12 +8953,17 @@
       <c r="CU79" s="1"/>
     </row>
     <row r="80" spans="1:99">
-      <c r="B80" s="22"/>
+      <c r="A80" t="s">
+        <v>10</v>
+      </c>
+      <c r="B80" s="22">
+        <v>659</v>
+      </c>
       <c r="C80" s="38" t="s">
-        <v>111</v>
+        <v>142</v>
       </c>
       <c r="D80" s="22" t="s">
-        <v>57</v>
+        <v>71</v>
       </c>
       <c r="E80" s="22"/>
       <c r="F80" s="22"/>
@@ -8998,19 +9028,19 @@
       <c r="BK80" s="1"/>
       <c r="BL80" s="1"/>
       <c r="BM80" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="BN80" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="BN80" s="1" t="s">
+      <c r="BO80" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="BP80" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="BQ80" s="1" t="s">
         <v>138</v>
-      </c>
-      <c r="BO80" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="BP80" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="BQ80" s="1" t="s">
-        <v>139</v>
       </c>
       <c r="BR80" s="1"/>
       <c r="BS80" s="1"/>
@@ -9044,12 +9074,17 @@
       <c r="CU80" s="1"/>
     </row>
     <row r="81" spans="1:99">
-      <c r="B81" s="22"/>
+      <c r="A81" t="s">
+        <v>10</v>
+      </c>
+      <c r="B81" s="22">
+        <v>660</v>
+      </c>
       <c r="C81" s="38" t="s">
-        <v>106</v>
+        <v>143</v>
       </c>
       <c r="D81" s="22" t="s">
-        <v>57</v>
+        <v>71</v>
       </c>
       <c r="E81" s="22"/>
       <c r="F81" s="22"/>
@@ -9114,19 +9149,19 @@
       <c r="BK81" s="1"/>
       <c r="BL81" s="1"/>
       <c r="BM81" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="BN81" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="BN81" s="1" t="s">
+      <c r="BO81" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="BP81" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="BQ81" s="1" t="s">
         <v>138</v>
-      </c>
-      <c r="BO81" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="BP81" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="BQ81" s="1" t="s">
-        <v>139</v>
       </c>
       <c r="BR81" s="1"/>
       <c r="BS81" s="1"/>
@@ -9160,15 +9195,23 @@
       <c r="CU81" s="1"/>
     </row>
     <row r="82" spans="1:99">
-      <c r="B82" s="22"/>
-      <c r="C82" s="29"/>
-      <c r="D82" s="22"/>
+      <c r="B82" s="22">
+        <v>661</v>
+      </c>
+      <c r="C82" s="38" t="s">
+        <v>106</v>
+      </c>
+      <c r="D82" s="22" t="s">
+        <v>71</v>
+      </c>
       <c r="E82" s="22"/>
       <c r="F82" s="22"/>
       <c r="G82" s="22"/>
       <c r="H82" s="23"/>
       <c r="I82" s="23"/>
-      <c r="J82" s="23"/>
+      <c r="J82" s="23" t="s">
+        <v>39</v>
+      </c>
       <c r="K82" s="22"/>
       <c r="L82" s="1"/>
       <c r="M82" s="1"/>
@@ -9223,11 +9266,21 @@
       <c r="BJ82" s="1"/>
       <c r="BK82" s="1"/>
       <c r="BL82" s="1"/>
-      <c r="BM82" s="1"/>
-      <c r="BN82" s="1"/>
-      <c r="BO82" s="1"/>
-      <c r="BP82" s="1"/>
-      <c r="BQ82" s="1"/>
+      <c r="BM82" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="BN82" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="BO82" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="BP82" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="BQ82" s="1" t="s">
+        <v>138</v>
+      </c>
       <c r="BR82" s="1"/>
       <c r="BS82" s="1"/>
       <c r="BT82" s="1"/>
@@ -9259,215 +9312,216 @@
       <c r="CT82" s="1"/>
       <c r="CU82" s="1"/>
     </row>
-    <row r="83" spans="1:99" s="20" customFormat="1">
-      <c r="A83"/>
-      <c r="B83" s="21"/>
-      <c r="C83" s="30" t="s">
-        <v>112</v>
-      </c>
-      <c r="D83" s="21"/>
-      <c r="E83" s="21"/>
-      <c r="F83" s="21"/>
-      <c r="G83" s="21"/>
-      <c r="H83" s="21"/>
-      <c r="I83" s="21"/>
-      <c r="J83" s="21"/>
-      <c r="K83" s="21"/>
-      <c r="L83" s="21"/>
-      <c r="M83" s="21"/>
-      <c r="N83" s="21"/>
-      <c r="O83" s="21"/>
-      <c r="P83" s="21"/>
-      <c r="Q83" s="21"/>
-      <c r="R83" s="21"/>
-      <c r="S83" s="21"/>
-      <c r="T83" s="21"/>
-      <c r="U83" s="21"/>
-      <c r="V83" s="21"/>
-      <c r="W83" s="21"/>
-      <c r="X83" s="21"/>
-      <c r="Y83" s="21"/>
-      <c r="Z83" s="21"/>
-      <c r="AA83" s="21"/>
-      <c r="AB83" s="21"/>
-      <c r="AC83" s="21"/>
-      <c r="AD83" s="21"/>
-      <c r="AE83" s="21"/>
-      <c r="AF83" s="21"/>
-      <c r="AG83" s="21"/>
-      <c r="AH83" s="21"/>
-      <c r="AI83" s="21"/>
-      <c r="AJ83" s="21"/>
-      <c r="AK83" s="21"/>
-      <c r="AL83" s="21"/>
-      <c r="AM83" s="21"/>
-      <c r="AN83" s="21"/>
-      <c r="AO83" s="21"/>
-      <c r="AP83" s="21"/>
-      <c r="AQ83" s="21"/>
-      <c r="AR83" s="21"/>
-      <c r="AS83" s="21"/>
-      <c r="AT83" s="21"/>
-      <c r="AU83" s="21"/>
-      <c r="AV83" s="21"/>
-      <c r="AW83" s="21"/>
-      <c r="AX83" s="21"/>
-      <c r="AY83" s="21"/>
-      <c r="AZ83" s="21"/>
-      <c r="BA83" s="21"/>
-      <c r="BB83" s="21"/>
-      <c r="BC83" s="21"/>
-      <c r="BD83" s="21"/>
-      <c r="BE83" s="21"/>
-      <c r="BF83" s="21"/>
-      <c r="BG83" s="21"/>
-      <c r="BH83" s="21"/>
-      <c r="BI83" s="21"/>
-      <c r="BJ83" s="21"/>
-      <c r="BK83" s="21"/>
-      <c r="BL83" s="21"/>
-      <c r="BM83" s="21"/>
-      <c r="BN83" s="21"/>
-      <c r="BO83" s="21"/>
-      <c r="BP83" s="21"/>
-      <c r="BQ83" s="21"/>
-      <c r="BR83" s="21"/>
-      <c r="BS83" s="21"/>
-      <c r="BT83" s="21"/>
-      <c r="BU83" s="21"/>
-      <c r="BV83" s="21"/>
-      <c r="BW83" s="21"/>
-      <c r="BX83" s="21"/>
-      <c r="BY83" s="21"/>
-      <c r="BZ83" s="21"/>
-      <c r="CA83" s="21"/>
-      <c r="CB83" s="21"/>
-      <c r="CC83" s="21"/>
-      <c r="CD83" s="21"/>
-      <c r="CE83" s="21"/>
-      <c r="CF83" s="21"/>
-      <c r="CG83" s="21"/>
-      <c r="CH83" s="21"/>
-      <c r="CI83" s="21"/>
-      <c r="CJ83" s="21"/>
-      <c r="CK83" s="21"/>
-      <c r="CL83" s="21"/>
-      <c r="CM83" s="21"/>
-      <c r="CN83" s="21"/>
-      <c r="CO83" s="21"/>
-      <c r="CP83" s="21"/>
-      <c r="CQ83" s="21"/>
-      <c r="CR83" s="21"/>
-      <c r="CS83" s="21"/>
-      <c r="CT83" s="21"/>
-      <c r="CU83" s="21"/>
-    </row>
-    <row r="84" spans="1:99">
-      <c r="B84" s="22"/>
-      <c r="C84" s="37" t="s">
-        <v>113</v>
-      </c>
-      <c r="D84" s="22"/>
-      <c r="E84" s="22"/>
-      <c r="F84" s="22"/>
-      <c r="G84" s="22"/>
-      <c r="H84" s="23"/>
-      <c r="I84" s="23"/>
-      <c r="J84" s="23"/>
-      <c r="K84" s="22"/>
-      <c r="L84" s="1"/>
-      <c r="M84" s="1"/>
-      <c r="N84" s="1"/>
-      <c r="O84" s="1"/>
-      <c r="P84" s="1"/>
-      <c r="Q84" s="1"/>
-      <c r="R84" s="1"/>
-      <c r="S84" s="1"/>
-      <c r="T84" s="1"/>
-      <c r="U84" s="1"/>
-      <c r="V84" s="1"/>
-      <c r="W84" s="1"/>
-      <c r="X84" s="1"/>
-      <c r="Y84" s="1"/>
-      <c r="Z84" s="1"/>
-      <c r="AA84" s="1"/>
-      <c r="AB84" s="1"/>
-      <c r="AC84" s="1"/>
-      <c r="AD84" s="1"/>
-      <c r="AE84" s="1"/>
-      <c r="AF84" s="1"/>
-      <c r="AG84" s="1"/>
-      <c r="AH84" s="1"/>
-      <c r="AI84" s="1"/>
-      <c r="AJ84" s="1"/>
-      <c r="AK84" s="1"/>
-      <c r="AL84" s="1"/>
-      <c r="AM84" s="1"/>
-      <c r="AN84" s="1"/>
-      <c r="AO84" s="1"/>
-      <c r="AP84" s="1"/>
-      <c r="AQ84" s="1"/>
-      <c r="AR84" s="1"/>
-      <c r="AS84" s="1"/>
-      <c r="AT84" s="1"/>
-      <c r="AU84" s="1"/>
-      <c r="AV84" s="1"/>
-      <c r="AW84" s="1"/>
-      <c r="AX84" s="1"/>
-      <c r="AY84" s="1"/>
-      <c r="AZ84" s="1"/>
-      <c r="BA84" s="1"/>
-      <c r="BB84" s="1"/>
-      <c r="BC84" s="1"/>
-      <c r="BD84" s="1"/>
-      <c r="BE84" s="1"/>
-      <c r="BF84" s="1"/>
-      <c r="BG84" s="1"/>
-      <c r="BH84" s="1"/>
-      <c r="BI84" s="1"/>
-      <c r="BJ84" s="1"/>
-      <c r="BK84" s="1"/>
-      <c r="BL84" s="1"/>
-      <c r="BM84" s="1"/>
-      <c r="BN84" s="1"/>
-      <c r="BO84" s="1"/>
-      <c r="BP84" s="1"/>
-      <c r="BQ84" s="1"/>
-      <c r="BR84" s="1"/>
-      <c r="BS84" s="1"/>
-      <c r="BT84" s="1"/>
-      <c r="BU84" s="1"/>
-      <c r="BV84" s="1"/>
-      <c r="BW84" s="1"/>
-      <c r="BX84" s="1"/>
-      <c r="BY84" s="1"/>
-      <c r="BZ84" s="1"/>
-      <c r="CA84" s="1"/>
-      <c r="CB84" s="1"/>
-      <c r="CC84" s="1"/>
-      <c r="CD84" s="1"/>
-      <c r="CE84" s="1"/>
-      <c r="CF84" s="1"/>
-      <c r="CG84" s="1"/>
-      <c r="CH84" s="1"/>
-      <c r="CI84" s="1"/>
-      <c r="CJ84" s="1"/>
-      <c r="CK84" s="1"/>
-      <c r="CL84" s="1"/>
-      <c r="CM84" s="1"/>
-      <c r="CN84" s="1"/>
-      <c r="CO84" s="1"/>
-      <c r="CP84" s="1"/>
-      <c r="CQ84" s="1"/>
-      <c r="CR84" s="1"/>
-      <c r="CS84" s="1"/>
-      <c r="CT84" s="1"/>
-      <c r="CU84" s="1"/>
+    <row r="83" spans="1:99">
+      <c r="B83" s="22"/>
+      <c r="C83" s="29"/>
+      <c r="D83" s="22"/>
+      <c r="E83" s="22"/>
+      <c r="F83" s="22"/>
+      <c r="G83" s="22"/>
+      <c r="H83" s="23"/>
+      <c r="I83" s="23"/>
+      <c r="J83" s="23"/>
+      <c r="K83" s="22"/>
+      <c r="L83" s="1"/>
+      <c r="M83" s="1"/>
+      <c r="N83" s="1"/>
+      <c r="O83" s="1"/>
+      <c r="P83" s="1"/>
+      <c r="Q83" s="1"/>
+      <c r="R83" s="1"/>
+      <c r="S83" s="1"/>
+      <c r="T83" s="1"/>
+      <c r="U83" s="1"/>
+      <c r="V83" s="1"/>
+      <c r="W83" s="1"/>
+      <c r="X83" s="1"/>
+      <c r="Y83" s="1"/>
+      <c r="Z83" s="1"/>
+      <c r="AA83" s="1"/>
+      <c r="AB83" s="1"/>
+      <c r="AC83" s="1"/>
+      <c r="AD83" s="1"/>
+      <c r="AE83" s="1"/>
+      <c r="AF83" s="1"/>
+      <c r="AG83" s="1"/>
+      <c r="AH83" s="1"/>
+      <c r="AI83" s="1"/>
+      <c r="AJ83" s="1"/>
+      <c r="AK83" s="1"/>
+      <c r="AL83" s="1"/>
+      <c r="AM83" s="1"/>
+      <c r="AN83" s="1"/>
+      <c r="AO83" s="1"/>
+      <c r="AP83" s="1"/>
+      <c r="AQ83" s="1"/>
+      <c r="AR83" s="1"/>
+      <c r="AS83" s="1"/>
+      <c r="AT83" s="1"/>
+      <c r="AU83" s="1"/>
+      <c r="AV83" s="1"/>
+      <c r="AW83" s="1"/>
+      <c r="AX83" s="1"/>
+      <c r="AY83" s="1"/>
+      <c r="AZ83" s="1"/>
+      <c r="BA83" s="1"/>
+      <c r="BB83" s="1"/>
+      <c r="BC83" s="1"/>
+      <c r="BD83" s="1"/>
+      <c r="BE83" s="1"/>
+      <c r="BF83" s="1"/>
+      <c r="BG83" s="1"/>
+      <c r="BH83" s="1"/>
+      <c r="BI83" s="1"/>
+      <c r="BJ83" s="1"/>
+      <c r="BK83" s="1"/>
+      <c r="BL83" s="1"/>
+      <c r="BM83" s="1"/>
+      <c r="BN83" s="1"/>
+      <c r="BO83" s="1"/>
+      <c r="BP83" s="1"/>
+      <c r="BQ83" s="1"/>
+      <c r="BR83" s="1"/>
+      <c r="BS83" s="1"/>
+      <c r="BT83" s="1"/>
+      <c r="BU83" s="1"/>
+      <c r="BV83" s="1"/>
+      <c r="BW83" s="1"/>
+      <c r="BX83" s="1"/>
+      <c r="BY83" s="1"/>
+      <c r="BZ83" s="1"/>
+      <c r="CA83" s="1"/>
+      <c r="CB83" s="1"/>
+      <c r="CC83" s="1"/>
+      <c r="CD83" s="1"/>
+      <c r="CE83" s="1"/>
+      <c r="CF83" s="1"/>
+      <c r="CG83" s="1"/>
+      <c r="CH83" s="1"/>
+      <c r="CI83" s="1"/>
+      <c r="CJ83" s="1"/>
+      <c r="CK83" s="1"/>
+      <c r="CL83" s="1"/>
+      <c r="CM83" s="1"/>
+      <c r="CN83" s="1"/>
+      <c r="CO83" s="1"/>
+      <c r="CP83" s="1"/>
+      <c r="CQ83" s="1"/>
+      <c r="CR83" s="1"/>
+      <c r="CS83" s="1"/>
+      <c r="CT83" s="1"/>
+      <c r="CU83" s="1"/>
+    </row>
+    <row r="84" spans="1:99" s="20" customFormat="1">
+      <c r="A84"/>
+      <c r="B84" s="21"/>
+      <c r="C84" s="30" t="s">
+        <v>111</v>
+      </c>
+      <c r="D84" s="21"/>
+      <c r="E84" s="21"/>
+      <c r="F84" s="21"/>
+      <c r="G84" s="21"/>
+      <c r="H84" s="21"/>
+      <c r="I84" s="21"/>
+      <c r="J84" s="21"/>
+      <c r="K84" s="21"/>
+      <c r="L84" s="21"/>
+      <c r="M84" s="21"/>
+      <c r="N84" s="21"/>
+      <c r="O84" s="21"/>
+      <c r="P84" s="21"/>
+      <c r="Q84" s="21"/>
+      <c r="R84" s="21"/>
+      <c r="S84" s="21"/>
+      <c r="T84" s="21"/>
+      <c r="U84" s="21"/>
+      <c r="V84" s="21"/>
+      <c r="W84" s="21"/>
+      <c r="X84" s="21"/>
+      <c r="Y84" s="21"/>
+      <c r="Z84" s="21"/>
+      <c r="AA84" s="21"/>
+      <c r="AB84" s="21"/>
+      <c r="AC84" s="21"/>
+      <c r="AD84" s="21"/>
+      <c r="AE84" s="21"/>
+      <c r="AF84" s="21"/>
+      <c r="AG84" s="21"/>
+      <c r="AH84" s="21"/>
+      <c r="AI84" s="21"/>
+      <c r="AJ84" s="21"/>
+      <c r="AK84" s="21"/>
+      <c r="AL84" s="21"/>
+      <c r="AM84" s="21"/>
+      <c r="AN84" s="21"/>
+      <c r="AO84" s="21"/>
+      <c r="AP84" s="21"/>
+      <c r="AQ84" s="21"/>
+      <c r="AR84" s="21"/>
+      <c r="AS84" s="21"/>
+      <c r="AT84" s="21"/>
+      <c r="AU84" s="21"/>
+      <c r="AV84" s="21"/>
+      <c r="AW84" s="21"/>
+      <c r="AX84" s="21"/>
+      <c r="AY84" s="21"/>
+      <c r="AZ84" s="21"/>
+      <c r="BA84" s="21"/>
+      <c r="BB84" s="21"/>
+      <c r="BC84" s="21"/>
+      <c r="BD84" s="21"/>
+      <c r="BE84" s="21"/>
+      <c r="BF84" s="21"/>
+      <c r="BG84" s="21"/>
+      <c r="BH84" s="21"/>
+      <c r="BI84" s="21"/>
+      <c r="BJ84" s="21"/>
+      <c r="BK84" s="21"/>
+      <c r="BL84" s="21"/>
+      <c r="BM84" s="21"/>
+      <c r="BN84" s="21"/>
+      <c r="BO84" s="21"/>
+      <c r="BP84" s="21"/>
+      <c r="BQ84" s="21"/>
+      <c r="BR84" s="21"/>
+      <c r="BS84" s="21"/>
+      <c r="BT84" s="21"/>
+      <c r="BU84" s="21"/>
+      <c r="BV84" s="21"/>
+      <c r="BW84" s="21"/>
+      <c r="BX84" s="21"/>
+      <c r="BY84" s="21"/>
+      <c r="BZ84" s="21"/>
+      <c r="CA84" s="21"/>
+      <c r="CB84" s="21"/>
+      <c r="CC84" s="21"/>
+      <c r="CD84" s="21"/>
+      <c r="CE84" s="21"/>
+      <c r="CF84" s="21"/>
+      <c r="CG84" s="21"/>
+      <c r="CH84" s="21"/>
+      <c r="CI84" s="21"/>
+      <c r="CJ84" s="21"/>
+      <c r="CK84" s="21"/>
+      <c r="CL84" s="21"/>
+      <c r="CM84" s="21"/>
+      <c r="CN84" s="21"/>
+      <c r="CO84" s="21"/>
+      <c r="CP84" s="21"/>
+      <c r="CQ84" s="21"/>
+      <c r="CR84" s="21"/>
+      <c r="CS84" s="21"/>
+      <c r="CT84" s="21"/>
+      <c r="CU84" s="21"/>
     </row>
     <row r="85" spans="1:99">
+      <c r="A85" t="s">
+        <v>10</v>
+      </c>
       <c r="B85" s="22"/>
       <c r="C85" s="37" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D85" s="22"/>
       <c r="E85" s="22"/>
@@ -9567,8 +9621,13 @@
       <c r="CU85" s="1"/>
     </row>
     <row r="86" spans="1:99">
+      <c r="A86" t="s">
+        <v>10</v>
+      </c>
       <c r="B86" s="22"/>
-      <c r="C86" s="29"/>
+      <c r="C86" s="37" t="s">
+        <v>113</v>
+      </c>
       <c r="D86" s="22"/>
       <c r="E86" s="22"/>
       <c r="F86" s="22"/>
@@ -9666,227 +9725,230 @@
       <c r="CT86" s="1"/>
       <c r="CU86" s="1"/>
     </row>
-    <row r="87" spans="1:99" s="20" customFormat="1">
-      <c r="A87"/>
-      <c r="B87" s="21"/>
-      <c r="C87" s="30" t="s">
+    <row r="87" spans="1:99">
+      <c r="B87" s="22"/>
+      <c r="C87" s="29"/>
+      <c r="D87" s="22"/>
+      <c r="E87" s="22"/>
+      <c r="F87" s="22"/>
+      <c r="G87" s="22"/>
+      <c r="H87" s="23"/>
+      <c r="I87" s="23"/>
+      <c r="J87" s="23"/>
+      <c r="K87" s="22"/>
+      <c r="L87" s="1"/>
+      <c r="M87" s="1"/>
+      <c r="N87" s="1"/>
+      <c r="O87" s="1"/>
+      <c r="P87" s="1"/>
+      <c r="Q87" s="1"/>
+      <c r="R87" s="1"/>
+      <c r="S87" s="1"/>
+      <c r="T87" s="1"/>
+      <c r="U87" s="1"/>
+      <c r="V87" s="1"/>
+      <c r="W87" s="1"/>
+      <c r="X87" s="1"/>
+      <c r="Y87" s="1"/>
+      <c r="Z87" s="1"/>
+      <c r="AA87" s="1"/>
+      <c r="AB87" s="1"/>
+      <c r="AC87" s="1"/>
+      <c r="AD87" s="1"/>
+      <c r="AE87" s="1"/>
+      <c r="AF87" s="1"/>
+      <c r="AG87" s="1"/>
+      <c r="AH87" s="1"/>
+      <c r="AI87" s="1"/>
+      <c r="AJ87" s="1"/>
+      <c r="AK87" s="1"/>
+      <c r="AL87" s="1"/>
+      <c r="AM87" s="1"/>
+      <c r="AN87" s="1"/>
+      <c r="AO87" s="1"/>
+      <c r="AP87" s="1"/>
+      <c r="AQ87" s="1"/>
+      <c r="AR87" s="1"/>
+      <c r="AS87" s="1"/>
+      <c r="AT87" s="1"/>
+      <c r="AU87" s="1"/>
+      <c r="AV87" s="1"/>
+      <c r="AW87" s="1"/>
+      <c r="AX87" s="1"/>
+      <c r="AY87" s="1"/>
+      <c r="AZ87" s="1"/>
+      <c r="BA87" s="1"/>
+      <c r="BB87" s="1"/>
+      <c r="BC87" s="1"/>
+      <c r="BD87" s="1"/>
+      <c r="BE87" s="1"/>
+      <c r="BF87" s="1"/>
+      <c r="BG87" s="1"/>
+      <c r="BH87" s="1"/>
+      <c r="BI87" s="1"/>
+      <c r="BJ87" s="1"/>
+      <c r="BK87" s="1"/>
+      <c r="BL87" s="1"/>
+      <c r="BM87" s="1"/>
+      <c r="BN87" s="1"/>
+      <c r="BO87" s="1"/>
+      <c r="BP87" s="1"/>
+      <c r="BQ87" s="1"/>
+      <c r="BR87" s="1"/>
+      <c r="BS87" s="1"/>
+      <c r="BT87" s="1"/>
+      <c r="BU87" s="1"/>
+      <c r="BV87" s="1"/>
+      <c r="BW87" s="1"/>
+      <c r="BX87" s="1"/>
+      <c r="BY87" s="1"/>
+      <c r="BZ87" s="1"/>
+      <c r="CA87" s="1"/>
+      <c r="CB87" s="1"/>
+      <c r="CC87" s="1"/>
+      <c r="CD87" s="1"/>
+      <c r="CE87" s="1"/>
+      <c r="CF87" s="1"/>
+      <c r="CG87" s="1"/>
+      <c r="CH87" s="1"/>
+      <c r="CI87" s="1"/>
+      <c r="CJ87" s="1"/>
+      <c r="CK87" s="1"/>
+      <c r="CL87" s="1"/>
+      <c r="CM87" s="1"/>
+      <c r="CN87" s="1"/>
+      <c r="CO87" s="1"/>
+      <c r="CP87" s="1"/>
+      <c r="CQ87" s="1"/>
+      <c r="CR87" s="1"/>
+      <c r="CS87" s="1"/>
+      <c r="CT87" s="1"/>
+      <c r="CU87" s="1"/>
+    </row>
+    <row r="88" spans="1:99" s="20" customFormat="1">
+      <c r="A88"/>
+      <c r="B88" s="21"/>
+      <c r="C88" s="30" t="s">
         <v>54</v>
       </c>
-      <c r="D87" s="21"/>
-      <c r="E87" s="21"/>
-      <c r="F87" s="21"/>
-      <c r="G87" s="21"/>
-      <c r="H87" s="21"/>
-      <c r="I87" s="21"/>
-      <c r="J87" s="21"/>
-      <c r="K87" s="21"/>
-      <c r="L87" s="21"/>
-      <c r="M87" s="21"/>
-      <c r="N87" s="21"/>
-      <c r="O87" s="21"/>
-      <c r="P87" s="21"/>
-      <c r="Q87" s="21"/>
-      <c r="R87" s="21"/>
-      <c r="S87" s="21"/>
-      <c r="T87" s="21"/>
-      <c r="U87" s="21"/>
-      <c r="V87" s="21"/>
-      <c r="W87" s="21"/>
-      <c r="X87" s="21"/>
-      <c r="Y87" s="21"/>
-      <c r="Z87" s="21"/>
-      <c r="AA87" s="21"/>
-      <c r="AB87" s="21"/>
-      <c r="AC87" s="21"/>
-      <c r="AD87" s="21"/>
-      <c r="AE87" s="21"/>
-      <c r="AF87" s="21"/>
-      <c r="AG87" s="21"/>
-      <c r="AH87" s="21"/>
-      <c r="AI87" s="21"/>
-      <c r="AJ87" s="21"/>
-      <c r="AK87" s="21"/>
-      <c r="AL87" s="21"/>
-      <c r="AM87" s="21"/>
-      <c r="AN87" s="21"/>
-      <c r="AO87" s="21"/>
-      <c r="AP87" s="21"/>
-      <c r="AQ87" s="21"/>
-      <c r="AR87" s="21"/>
-      <c r="AS87" s="21"/>
-      <c r="AT87" s="21"/>
-      <c r="AU87" s="21"/>
-      <c r="AV87" s="21"/>
-      <c r="AW87" s="21"/>
-      <c r="AX87" s="21"/>
-      <c r="AY87" s="21"/>
-      <c r="AZ87" s="21"/>
-      <c r="BA87" s="21"/>
-      <c r="BB87" s="21"/>
-      <c r="BC87" s="21"/>
-      <c r="BD87" s="21"/>
-      <c r="BE87" s="21"/>
-      <c r="BF87" s="21"/>
-      <c r="BG87" s="21"/>
-      <c r="BH87" s="21"/>
-      <c r="BI87" s="21"/>
-      <c r="BJ87" s="21"/>
-      <c r="BK87" s="21"/>
-      <c r="BL87" s="21"/>
-      <c r="BM87" s="21"/>
-      <c r="BN87" s="21"/>
-      <c r="BO87" s="21"/>
-      <c r="BP87" s="21"/>
-      <c r="BQ87" s="21"/>
-      <c r="BR87" s="21"/>
-      <c r="BS87" s="21"/>
-      <c r="BT87" s="21"/>
-      <c r="BU87" s="21"/>
-      <c r="BV87" s="21"/>
-      <c r="BW87" s="21"/>
-      <c r="BX87" s="21"/>
-      <c r="BY87" s="21"/>
-      <c r="BZ87" s="21"/>
-      <c r="CA87" s="21"/>
-      <c r="CB87" s="21"/>
-      <c r="CC87" s="21"/>
-      <c r="CD87" s="21"/>
-      <c r="CE87" s="21"/>
-      <c r="CF87" s="21"/>
-      <c r="CG87" s="21"/>
-      <c r="CH87" s="21"/>
-      <c r="CI87" s="21"/>
-      <c r="CJ87" s="21"/>
-      <c r="CK87" s="21"/>
-      <c r="CL87" s="21"/>
-      <c r="CM87" s="21"/>
-      <c r="CN87" s="21"/>
-      <c r="CO87" s="21"/>
-      <c r="CP87" s="21"/>
-      <c r="CQ87" s="21"/>
-      <c r="CR87" s="21"/>
-      <c r="CS87" s="21"/>
-      <c r="CT87" s="21"/>
-      <c r="CU87" s="21"/>
-    </row>
-    <row r="88" spans="1:99">
-      <c r="B88" s="22"/>
-      <c r="C88" s="29" t="s">
+      <c r="D88" s="21"/>
+      <c r="E88" s="21"/>
+      <c r="F88" s="21"/>
+      <c r="G88" s="21"/>
+      <c r="H88" s="21"/>
+      <c r="I88" s="21"/>
+      <c r="J88" s="21"/>
+      <c r="K88" s="21"/>
+      <c r="L88" s="21"/>
+      <c r="M88" s="21"/>
+      <c r="N88" s="21"/>
+      <c r="O88" s="21"/>
+      <c r="P88" s="21"/>
+      <c r="Q88" s="21"/>
+      <c r="R88" s="21"/>
+      <c r="S88" s="21"/>
+      <c r="T88" s="21"/>
+      <c r="U88" s="21"/>
+      <c r="V88" s="21"/>
+      <c r="W88" s="21"/>
+      <c r="X88" s="21"/>
+      <c r="Y88" s="21"/>
+      <c r="Z88" s="21"/>
+      <c r="AA88" s="21"/>
+      <c r="AB88" s="21"/>
+      <c r="AC88" s="21"/>
+      <c r="AD88" s="21"/>
+      <c r="AE88" s="21"/>
+      <c r="AF88" s="21"/>
+      <c r="AG88" s="21"/>
+      <c r="AH88" s="21"/>
+      <c r="AI88" s="21"/>
+      <c r="AJ88" s="21"/>
+      <c r="AK88" s="21"/>
+      <c r="AL88" s="21"/>
+      <c r="AM88" s="21"/>
+      <c r="AN88" s="21"/>
+      <c r="AO88" s="21"/>
+      <c r="AP88" s="21"/>
+      <c r="AQ88" s="21"/>
+      <c r="AR88" s="21"/>
+      <c r="AS88" s="21"/>
+      <c r="AT88" s="21"/>
+      <c r="AU88" s="21"/>
+      <c r="AV88" s="21"/>
+      <c r="AW88" s="21"/>
+      <c r="AX88" s="21"/>
+      <c r="AY88" s="21"/>
+      <c r="AZ88" s="21"/>
+      <c r="BA88" s="21"/>
+      <c r="BB88" s="21"/>
+      <c r="BC88" s="21"/>
+      <c r="BD88" s="21"/>
+      <c r="BE88" s="21"/>
+      <c r="BF88" s="21"/>
+      <c r="BG88" s="21"/>
+      <c r="BH88" s="21"/>
+      <c r="BI88" s="21"/>
+      <c r="BJ88" s="21"/>
+      <c r="BK88" s="21"/>
+      <c r="BL88" s="21"/>
+      <c r="BM88" s="21"/>
+      <c r="BN88" s="21"/>
+      <c r="BO88" s="21"/>
+      <c r="BP88" s="21"/>
+      <c r="BQ88" s="21"/>
+      <c r="BR88" s="21"/>
+      <c r="BS88" s="21"/>
+      <c r="BT88" s="21"/>
+      <c r="BU88" s="21"/>
+      <c r="BV88" s="21"/>
+      <c r="BW88" s="21"/>
+      <c r="BX88" s="21"/>
+      <c r="BY88" s="21"/>
+      <c r="BZ88" s="21"/>
+      <c r="CA88" s="21"/>
+      <c r="CB88" s="21"/>
+      <c r="CC88" s="21"/>
+      <c r="CD88" s="21"/>
+      <c r="CE88" s="21"/>
+      <c r="CF88" s="21"/>
+      <c r="CG88" s="21"/>
+      <c r="CH88" s="21"/>
+      <c r="CI88" s="21"/>
+      <c r="CJ88" s="21"/>
+      <c r="CK88" s="21"/>
+      <c r="CL88" s="21"/>
+      <c r="CM88" s="21"/>
+      <c r="CN88" s="21"/>
+      <c r="CO88" s="21"/>
+      <c r="CP88" s="21"/>
+      <c r="CQ88" s="21"/>
+      <c r="CR88" s="21"/>
+      <c r="CS88" s="21"/>
+      <c r="CT88" s="21"/>
+      <c r="CU88" s="21"/>
+    </row>
+    <row r="89" spans="1:99">
+      <c r="A89" t="s">
+        <v>10</v>
+      </c>
+      <c r="B89" s="22"/>
+      <c r="C89" s="29" t="s">
         <v>85</v>
       </c>
-      <c r="D88" s="22" t="s">
+      <c r="D89" s="22" t="s">
         <v>64</v>
       </c>
-      <c r="E88" s="22" t="s">
+      <c r="E89" s="22" t="s">
         <v>70</v>
       </c>
-      <c r="F88" s="22"/>
-      <c r="G88" s="22"/>
-      <c r="H88" s="23"/>
-      <c r="I88" s="23"/>
-      <c r="J88" s="23" t="s">
-        <v>40</v>
-      </c>
-      <c r="K88" s="22"/>
-      <c r="L88" s="1"/>
-      <c r="M88" s="1"/>
-      <c r="N88" s="1"/>
-      <c r="O88" s="1"/>
-      <c r="P88" s="1"/>
-      <c r="Q88" s="1"/>
-      <c r="R88" s="1"/>
-      <c r="S88" s="1"/>
-      <c r="T88" s="1"/>
-      <c r="U88" s="1"/>
-      <c r="V88" s="1"/>
-      <c r="W88" s="1"/>
-      <c r="X88" s="1"/>
-      <c r="Y88" s="1"/>
-      <c r="Z88" s="1"/>
-      <c r="AA88" s="1"/>
-      <c r="AB88" s="1"/>
-      <c r="AC88" s="1"/>
-      <c r="AD88" s="1"/>
-      <c r="AE88" s="1"/>
-      <c r="AF88" s="1"/>
-      <c r="AG88" s="1"/>
-      <c r="AH88" s="1"/>
-      <c r="AI88" s="1"/>
-      <c r="AJ88" s="1"/>
-      <c r="AK88" s="1"/>
-      <c r="AL88" s="1"/>
-      <c r="AM88" s="1"/>
-      <c r="AN88" s="1"/>
-      <c r="AO88" s="1"/>
-      <c r="AP88" s="1"/>
-      <c r="AQ88" s="1"/>
-      <c r="AR88" s="1"/>
-      <c r="AS88" s="1"/>
-      <c r="AT88" s="1"/>
-      <c r="AU88" s="1"/>
-      <c r="AV88" s="1"/>
-      <c r="AW88" s="1"/>
-      <c r="AX88" s="1"/>
-      <c r="AY88" s="1"/>
-      <c r="AZ88" s="1"/>
-      <c r="BA88" s="1"/>
-      <c r="BB88" s="1"/>
-      <c r="BC88" s="1"/>
-      <c r="BD88" s="1"/>
-      <c r="BE88" s="1"/>
-      <c r="BF88" s="1"/>
-      <c r="BG88" s="1"/>
-      <c r="BH88" s="1"/>
-      <c r="BI88" s="1"/>
-      <c r="BJ88" s="1"/>
-      <c r="BK88" s="1"/>
-      <c r="BL88" s="1"/>
-      <c r="BM88" s="1"/>
-      <c r="BN88" s="1"/>
-      <c r="BO88" s="1"/>
-      <c r="BP88" s="1"/>
-      <c r="BQ88" s="1"/>
-      <c r="BR88" s="1"/>
-      <c r="BS88" s="1"/>
-      <c r="BT88" s="1"/>
-      <c r="BU88" s="1"/>
-      <c r="BV88" s="1"/>
-      <c r="BW88" s="1"/>
-      <c r="BX88" s="1"/>
-      <c r="BY88" s="1"/>
-      <c r="BZ88" s="1"/>
-      <c r="CA88" s="1"/>
-      <c r="CB88" s="1"/>
-      <c r="CC88" s="1"/>
-      <c r="CD88" s="1"/>
-      <c r="CE88" s="1"/>
-      <c r="CF88" s="1"/>
-      <c r="CG88" s="1"/>
-      <c r="CH88" s="1"/>
-      <c r="CI88" s="1"/>
-      <c r="CJ88" s="1"/>
-      <c r="CK88" s="1"/>
-      <c r="CL88" s="1"/>
-      <c r="CM88" s="1"/>
-      <c r="CN88" s="1"/>
-      <c r="CO88" s="1"/>
-      <c r="CP88" s="1"/>
-      <c r="CQ88" s="1"/>
-      <c r="CR88" s="1"/>
-      <c r="CS88" s="1"/>
-      <c r="CT88" s="1"/>
-      <c r="CU88" s="1"/>
-    </row>
-    <row r="89" spans="1:99">
-      <c r="B89" s="22"/>
-      <c r="C89" s="29"/>
-      <c r="D89" s="22"/>
-      <c r="E89" s="22"/>
       <c r="F89" s="22"/>
       <c r="G89" s="22"/>
       <c r="H89" s="23"/>
       <c r="I89" s="23"/>
-      <c r="J89" s="23"/>
+      <c r="J89" s="23" t="s">
+        <v>40</v>
+      </c>
       <c r="K89" s="22"/>
       <c r="L89" s="1"/>
       <c r="M89" s="1"/>
@@ -9977,236 +10039,220 @@
       <c r="CT89" s="1"/>
       <c r="CU89" s="1"/>
     </row>
-    <row r="90" spans="1:99" s="20" customFormat="1">
-      <c r="A90"/>
-      <c r="B90" s="21"/>
-      <c r="C90" s="28" t="s">
+    <row r="90" spans="1:99">
+      <c r="B90" s="22"/>
+      <c r="C90" s="29"/>
+      <c r="D90" s="22"/>
+      <c r="E90" s="22"/>
+      <c r="F90" s="22"/>
+      <c r="G90" s="22"/>
+      <c r="H90" s="23"/>
+      <c r="I90" s="23"/>
+      <c r="J90" s="23"/>
+      <c r="K90" s="22"/>
+      <c r="L90" s="1"/>
+      <c r="M90" s="1"/>
+      <c r="N90" s="1"/>
+      <c r="O90" s="1"/>
+      <c r="P90" s="1"/>
+      <c r="Q90" s="1"/>
+      <c r="R90" s="1"/>
+      <c r="S90" s="1"/>
+      <c r="T90" s="1"/>
+      <c r="U90" s="1"/>
+      <c r="V90" s="1"/>
+      <c r="W90" s="1"/>
+      <c r="X90" s="1"/>
+      <c r="Y90" s="1"/>
+      <c r="Z90" s="1"/>
+      <c r="AA90" s="1"/>
+      <c r="AB90" s="1"/>
+      <c r="AC90" s="1"/>
+      <c r="AD90" s="1"/>
+      <c r="AE90" s="1"/>
+      <c r="AF90" s="1"/>
+      <c r="AG90" s="1"/>
+      <c r="AH90" s="1"/>
+      <c r="AI90" s="1"/>
+      <c r="AJ90" s="1"/>
+      <c r="AK90" s="1"/>
+      <c r="AL90" s="1"/>
+      <c r="AM90" s="1"/>
+      <c r="AN90" s="1"/>
+      <c r="AO90" s="1"/>
+      <c r="AP90" s="1"/>
+      <c r="AQ90" s="1"/>
+      <c r="AR90" s="1"/>
+      <c r="AS90" s="1"/>
+      <c r="AT90" s="1"/>
+      <c r="AU90" s="1"/>
+      <c r="AV90" s="1"/>
+      <c r="AW90" s="1"/>
+      <c r="AX90" s="1"/>
+      <c r="AY90" s="1"/>
+      <c r="AZ90" s="1"/>
+      <c r="BA90" s="1"/>
+      <c r="BB90" s="1"/>
+      <c r="BC90" s="1"/>
+      <c r="BD90" s="1"/>
+      <c r="BE90" s="1"/>
+      <c r="BF90" s="1"/>
+      <c r="BG90" s="1"/>
+      <c r="BH90" s="1"/>
+      <c r="BI90" s="1"/>
+      <c r="BJ90" s="1"/>
+      <c r="BK90" s="1"/>
+      <c r="BL90" s="1"/>
+      <c r="BM90" s="1"/>
+      <c r="BN90" s="1"/>
+      <c r="BO90" s="1"/>
+      <c r="BP90" s="1"/>
+      <c r="BQ90" s="1"/>
+      <c r="BR90" s="1"/>
+      <c r="BS90" s="1"/>
+      <c r="BT90" s="1"/>
+      <c r="BU90" s="1"/>
+      <c r="BV90" s="1"/>
+      <c r="BW90" s="1"/>
+      <c r="BX90" s="1"/>
+      <c r="BY90" s="1"/>
+      <c r="BZ90" s="1"/>
+      <c r="CA90" s="1"/>
+      <c r="CB90" s="1"/>
+      <c r="CC90" s="1"/>
+      <c r="CD90" s="1"/>
+      <c r="CE90" s="1"/>
+      <c r="CF90" s="1"/>
+      <c r="CG90" s="1"/>
+      <c r="CH90" s="1"/>
+      <c r="CI90" s="1"/>
+      <c r="CJ90" s="1"/>
+      <c r="CK90" s="1"/>
+      <c r="CL90" s="1"/>
+      <c r="CM90" s="1"/>
+      <c r="CN90" s="1"/>
+      <c r="CO90" s="1"/>
+      <c r="CP90" s="1"/>
+      <c r="CQ90" s="1"/>
+      <c r="CR90" s="1"/>
+      <c r="CS90" s="1"/>
+      <c r="CT90" s="1"/>
+      <c r="CU90" s="1"/>
+    </row>
+    <row r="91" spans="1:99" s="20" customFormat="1">
+      <c r="A91"/>
+      <c r="B91" s="21"/>
+      <c r="C91" s="28" t="s">
         <v>62</v>
       </c>
-      <c r="D90" s="21"/>
-      <c r="E90" s="21"/>
-      <c r="F90" s="21"/>
-      <c r="G90" s="21"/>
-      <c r="H90" s="21"/>
-      <c r="I90" s="21"/>
-      <c r="J90" s="21"/>
-      <c r="K90" s="21"/>
-      <c r="L90" s="21"/>
-      <c r="M90" s="21"/>
-      <c r="N90" s="21"/>
-      <c r="O90" s="21"/>
-      <c r="P90" s="21"/>
-      <c r="Q90" s="21"/>
-      <c r="R90" s="21"/>
-      <c r="S90" s="21"/>
-      <c r="T90" s="21"/>
-      <c r="U90" s="21"/>
-      <c r="V90" s="21"/>
-      <c r="W90" s="21"/>
-      <c r="X90" s="21"/>
-      <c r="Y90" s="21"/>
-      <c r="Z90" s="21"/>
-      <c r="AA90" s="21"/>
-      <c r="AB90" s="21"/>
-      <c r="AC90" s="21"/>
-      <c r="AD90" s="21"/>
-      <c r="AE90" s="21"/>
-      <c r="AF90" s="21"/>
-      <c r="AG90" s="21"/>
-      <c r="AH90" s="21"/>
-      <c r="AI90" s="21"/>
-      <c r="AJ90" s="21"/>
-      <c r="AK90" s="21"/>
-      <c r="AL90" s="21"/>
-      <c r="AM90" s="21"/>
-      <c r="AN90" s="21"/>
-      <c r="AO90" s="21"/>
-      <c r="AP90" s="21"/>
-      <c r="AQ90" s="21"/>
-      <c r="AR90" s="21"/>
-      <c r="AS90" s="21"/>
-      <c r="AT90" s="21"/>
-      <c r="AU90" s="21"/>
-      <c r="AV90" s="21"/>
-      <c r="AW90" s="21"/>
-      <c r="AX90" s="21"/>
-      <c r="AY90" s="21"/>
-      <c r="AZ90" s="21"/>
-      <c r="BA90" s="21"/>
-      <c r="BB90" s="21"/>
-      <c r="BC90" s="21"/>
-      <c r="BD90" s="21"/>
-      <c r="BE90" s="21"/>
-      <c r="BF90" s="21"/>
-      <c r="BG90" s="21"/>
-      <c r="BH90" s="21"/>
-      <c r="BI90" s="21"/>
-      <c r="BJ90" s="21"/>
-      <c r="BK90" s="21"/>
-      <c r="BL90" s="21"/>
-      <c r="BM90" s="21"/>
-      <c r="BN90" s="21"/>
-      <c r="BO90" s="21"/>
-      <c r="BP90" s="21"/>
-      <c r="BQ90" s="21"/>
-      <c r="BR90" s="21"/>
-      <c r="BS90" s="21"/>
-      <c r="BT90" s="21"/>
-      <c r="BU90" s="21"/>
-      <c r="BV90" s="21"/>
-      <c r="BW90" s="21"/>
-      <c r="BX90" s="21"/>
-      <c r="BY90" s="21"/>
-      <c r="BZ90" s="21"/>
-      <c r="CA90" s="21"/>
-      <c r="CB90" s="21"/>
-      <c r="CC90" s="21"/>
-      <c r="CD90" s="21"/>
-      <c r="CE90" s="21"/>
-      <c r="CF90" s="21"/>
-      <c r="CG90" s="21"/>
-      <c r="CH90" s="21"/>
-      <c r="CI90" s="21"/>
-      <c r="CJ90" s="21"/>
-      <c r="CK90" s="21"/>
-      <c r="CL90" s="21"/>
-      <c r="CM90" s="21"/>
-      <c r="CN90" s="21"/>
-      <c r="CO90" s="21"/>
-      <c r="CP90" s="21"/>
-      <c r="CQ90" s="21"/>
-      <c r="CR90" s="21"/>
-      <c r="CS90" s="21"/>
-      <c r="CT90" s="21"/>
-      <c r="CU90" s="21"/>
-    </row>
-    <row r="91" spans="1:99">
-      <c r="B91" s="22"/>
-      <c r="C91" s="29" t="s">
-        <v>140</v>
-      </c>
-      <c r="D91" s="22" t="s">
-        <v>59</v>
-      </c>
-      <c r="E91" s="22" t="s">
-        <v>64</v>
-      </c>
-      <c r="F91" s="22"/>
-      <c r="G91" s="22"/>
-      <c r="H91" s="23"/>
-      <c r="I91" s="23"/>
-      <c r="J91" s="23" t="s">
-        <v>39</v>
-      </c>
-      <c r="K91" s="22"/>
-      <c r="L91" s="1"/>
-      <c r="M91" s="1"/>
-      <c r="N91" s="1"/>
-      <c r="O91" s="1"/>
-      <c r="P91" s="1"/>
-      <c r="Q91" s="1"/>
-      <c r="R91" s="1"/>
-      <c r="S91" s="1"/>
-      <c r="T91" s="1"/>
-      <c r="U91" s="1"/>
-      <c r="V91" s="1"/>
-      <c r="W91" s="1"/>
-      <c r="X91" s="1"/>
-      <c r="Y91" s="1"/>
-      <c r="Z91" s="1"/>
-      <c r="AA91" s="1"/>
-      <c r="AB91" s="1"/>
-      <c r="AC91" s="1"/>
-      <c r="AD91" s="1"/>
-      <c r="AE91" s="1"/>
-      <c r="AF91" s="1"/>
-      <c r="AG91" s="1"/>
-      <c r="AH91" s="1"/>
-      <c r="AI91" s="1"/>
-      <c r="AJ91" s="1"/>
-      <c r="AK91" s="1"/>
-      <c r="AL91" s="1"/>
-      <c r="AM91" s="1"/>
-      <c r="AN91" s="1"/>
-      <c r="AO91" s="1"/>
-      <c r="AP91" s="1"/>
-      <c r="AQ91" s="1"/>
-      <c r="AR91" s="1"/>
-      <c r="AS91" s="1"/>
-      <c r="AT91" s="1"/>
-      <c r="AU91" s="1"/>
-      <c r="AV91" s="1"/>
-      <c r="AW91" s="1"/>
-      <c r="AX91" s="1"/>
-      <c r="AY91" s="1"/>
-      <c r="AZ91" s="1"/>
-      <c r="BA91" s="1"/>
-      <c r="BB91" s="1"/>
-      <c r="BC91" s="1"/>
-      <c r="BD91" s="1"/>
-      <c r="BE91" s="1"/>
-      <c r="BF91" s="1"/>
-      <c r="BG91" s="1"/>
-      <c r="BH91" s="1"/>
-      <c r="BI91" s="1"/>
-      <c r="BJ91" s="1"/>
-      <c r="BK91" s="1"/>
-      <c r="BL91" s="1"/>
-      <c r="BM91" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="BN91" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="BO91" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="BP91" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="BQ91" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="BR91" s="1"/>
-      <c r="BS91" s="1"/>
-      <c r="BT91" s="1"/>
-      <c r="BU91" s="1"/>
-      <c r="BV91" s="1"/>
-      <c r="BW91" s="1"/>
-      <c r="BX91" s="1"/>
-      <c r="BY91" s="1"/>
-      <c r="BZ91" s="1"/>
-      <c r="CA91" s="1"/>
-      <c r="CB91" s="1"/>
-      <c r="CC91" s="1"/>
-      <c r="CD91" s="1"/>
-      <c r="CE91" s="1"/>
-      <c r="CF91" s="1"/>
-      <c r="CG91" s="1"/>
-      <c r="CH91" s="1"/>
-      <c r="CI91" s="1"/>
-      <c r="CJ91" s="1"/>
-      <c r="CK91" s="1"/>
-      <c r="CL91" s="1"/>
-      <c r="CM91" s="1"/>
-      <c r="CN91" s="1"/>
-      <c r="CO91" s="1"/>
-      <c r="CP91" s="1"/>
-      <c r="CQ91" s="1"/>
-      <c r="CR91" s="1"/>
-      <c r="CS91" s="1"/>
-      <c r="CT91" s="1"/>
-      <c r="CU91" s="1"/>
+      <c r="D91" s="21"/>
+      <c r="E91" s="21"/>
+      <c r="F91" s="21"/>
+      <c r="G91" s="21"/>
+      <c r="H91" s="21"/>
+      <c r="I91" s="21"/>
+      <c r="J91" s="21"/>
+      <c r="K91" s="21"/>
+      <c r="L91" s="21"/>
+      <c r="M91" s="21"/>
+      <c r="N91" s="21"/>
+      <c r="O91" s="21"/>
+      <c r="P91" s="21"/>
+      <c r="Q91" s="21"/>
+      <c r="R91" s="21"/>
+      <c r="S91" s="21"/>
+      <c r="T91" s="21"/>
+      <c r="U91" s="21"/>
+      <c r="V91" s="21"/>
+      <c r="W91" s="21"/>
+      <c r="X91" s="21"/>
+      <c r="Y91" s="21"/>
+      <c r="Z91" s="21"/>
+      <c r="AA91" s="21"/>
+      <c r="AB91" s="21"/>
+      <c r="AC91" s="21"/>
+      <c r="AD91" s="21"/>
+      <c r="AE91" s="21"/>
+      <c r="AF91" s="21"/>
+      <c r="AG91" s="21"/>
+      <c r="AH91" s="21"/>
+      <c r="AI91" s="21"/>
+      <c r="AJ91" s="21"/>
+      <c r="AK91" s="21"/>
+      <c r="AL91" s="21"/>
+      <c r="AM91" s="21"/>
+      <c r="AN91" s="21"/>
+      <c r="AO91" s="21"/>
+      <c r="AP91" s="21"/>
+      <c r="AQ91" s="21"/>
+      <c r="AR91" s="21"/>
+      <c r="AS91" s="21"/>
+      <c r="AT91" s="21"/>
+      <c r="AU91" s="21"/>
+      <c r="AV91" s="21"/>
+      <c r="AW91" s="21"/>
+      <c r="AX91" s="21"/>
+      <c r="AY91" s="21"/>
+      <c r="AZ91" s="21"/>
+      <c r="BA91" s="21"/>
+      <c r="BB91" s="21"/>
+      <c r="BC91" s="21"/>
+      <c r="BD91" s="21"/>
+      <c r="BE91" s="21"/>
+      <c r="BF91" s="21"/>
+      <c r="BG91" s="21"/>
+      <c r="BH91" s="21"/>
+      <c r="BI91" s="21"/>
+      <c r="BJ91" s="21"/>
+      <c r="BK91" s="21"/>
+      <c r="BL91" s="21"/>
+      <c r="BM91" s="21"/>
+      <c r="BN91" s="21"/>
+      <c r="BO91" s="21"/>
+      <c r="BP91" s="21"/>
+      <c r="BQ91" s="21"/>
+      <c r="BR91" s="21"/>
+      <c r="BS91" s="21"/>
+      <c r="BT91" s="21"/>
+      <c r="BU91" s="21"/>
+      <c r="BV91" s="21"/>
+      <c r="BW91" s="21"/>
+      <c r="BX91" s="21"/>
+      <c r="BY91" s="21"/>
+      <c r="BZ91" s="21"/>
+      <c r="CA91" s="21"/>
+      <c r="CB91" s="21"/>
+      <c r="CC91" s="21"/>
+      <c r="CD91" s="21"/>
+      <c r="CE91" s="21"/>
+      <c r="CF91" s="21"/>
+      <c r="CG91" s="21"/>
+      <c r="CH91" s="21"/>
+      <c r="CI91" s="21"/>
+      <c r="CJ91" s="21"/>
+      <c r="CK91" s="21"/>
+      <c r="CL91" s="21"/>
+      <c r="CM91" s="21"/>
+      <c r="CN91" s="21"/>
+      <c r="CO91" s="21"/>
+      <c r="CP91" s="21"/>
+      <c r="CQ91" s="21"/>
+      <c r="CR91" s="21"/>
+      <c r="CS91" s="21"/>
+      <c r="CT91" s="21"/>
+      <c r="CU91" s="21"/>
     </row>
     <row r="92" spans="1:99">
       <c r="B92" s="22"/>
       <c r="C92" s="29" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="D92" s="22" t="s">
-        <v>70</v>
-      </c>
-      <c r="E92" s="22"/>
+        <v>59</v>
+      </c>
+      <c r="E92" s="22" t="s">
+        <v>64</v>
+      </c>
       <c r="F92" s="22"/>
       <c r="G92" s="22"/>
       <c r="H92" s="23"/>
@@ -10269,19 +10315,19 @@
       <c r="BK92" s="1"/>
       <c r="BL92" s="1"/>
       <c r="BM92" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="BN92" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="BN92" s="1" t="s">
+      <c r="BO92" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="BP92" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="BQ92" s="1" t="s">
         <v>138</v>
-      </c>
-      <c r="BO92" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="BP92" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="BQ92" s="1" t="s">
-        <v>139</v>
       </c>
       <c r="BR92" s="1"/>
       <c r="BS92" s="1"/>
@@ -10317,14 +10363,12 @@
     <row r="93" spans="1:99">
       <c r="B93" s="22"/>
       <c r="C93" s="29" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="D93" s="22" t="s">
-        <v>74</v>
-      </c>
-      <c r="E93" s="22" t="s">
-        <v>75</v>
-      </c>
+        <v>70</v>
+      </c>
+      <c r="E93" s="22"/>
       <c r="F93" s="22"/>
       <c r="G93" s="22"/>
       <c r="H93" s="23"/>
@@ -10387,19 +10431,19 @@
       <c r="BK93" s="1"/>
       <c r="BL93" s="1"/>
       <c r="BM93" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="BN93" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="BN93" s="1" t="s">
+      <c r="BO93" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="BP93" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="BQ93" s="1" t="s">
         <v>138</v>
-      </c>
-      <c r="BO93" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="BP93" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="BQ93" s="1" t="s">
-        <v>139</v>
       </c>
       <c r="BR93" s="1"/>
       <c r="BS93" s="1"/>
@@ -10432,498 +10476,616 @@
       <c r="CT93" s="1"/>
       <c r="CU93" s="1"/>
     </row>
-    <row r="94" spans="1:99" s="28" customFormat="1">
-      <c r="A94"/>
-      <c r="C94" s="28" t="s">
+    <row r="94" spans="1:99">
+      <c r="B94" s="22"/>
+      <c r="C94" s="29" t="s">
+        <v>141</v>
+      </c>
+      <c r="D94" s="22" t="s">
+        <v>74</v>
+      </c>
+      <c r="E94" s="22" t="s">
+        <v>75</v>
+      </c>
+      <c r="F94" s="22"/>
+      <c r="G94" s="22"/>
+      <c r="H94" s="23"/>
+      <c r="I94" s="23"/>
+      <c r="J94" s="23" t="s">
+        <v>39</v>
+      </c>
+      <c r="K94" s="22"/>
+      <c r="L94" s="1"/>
+      <c r="M94" s="1"/>
+      <c r="N94" s="1"/>
+      <c r="O94" s="1"/>
+      <c r="P94" s="1"/>
+      <c r="Q94" s="1"/>
+      <c r="R94" s="1"/>
+      <c r="S94" s="1"/>
+      <c r="T94" s="1"/>
+      <c r="U94" s="1"/>
+      <c r="V94" s="1"/>
+      <c r="W94" s="1"/>
+      <c r="X94" s="1"/>
+      <c r="Y94" s="1"/>
+      <c r="Z94" s="1"/>
+      <c r="AA94" s="1"/>
+      <c r="AB94" s="1"/>
+      <c r="AC94" s="1"/>
+      <c r="AD94" s="1"/>
+      <c r="AE94" s="1"/>
+      <c r="AF94" s="1"/>
+      <c r="AG94" s="1"/>
+      <c r="AH94" s="1"/>
+      <c r="AI94" s="1"/>
+      <c r="AJ94" s="1"/>
+      <c r="AK94" s="1"/>
+      <c r="AL94" s="1"/>
+      <c r="AM94" s="1"/>
+      <c r="AN94" s="1"/>
+      <c r="AO94" s="1"/>
+      <c r="AP94" s="1"/>
+      <c r="AQ94" s="1"/>
+      <c r="AR94" s="1"/>
+      <c r="AS94" s="1"/>
+      <c r="AT94" s="1"/>
+      <c r="AU94" s="1"/>
+      <c r="AV94" s="1"/>
+      <c r="AW94" s="1"/>
+      <c r="AX94" s="1"/>
+      <c r="AY94" s="1"/>
+      <c r="AZ94" s="1"/>
+      <c r="BA94" s="1"/>
+      <c r="BB94" s="1"/>
+      <c r="BC94" s="1"/>
+      <c r="BD94" s="1"/>
+      <c r="BE94" s="1"/>
+      <c r="BF94" s="1"/>
+      <c r="BG94" s="1"/>
+      <c r="BH94" s="1"/>
+      <c r="BI94" s="1"/>
+      <c r="BJ94" s="1"/>
+      <c r="BK94" s="1"/>
+      <c r="BL94" s="1"/>
+      <c r="BM94" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="BN94" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="BO94" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="BP94" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="BQ94" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="BR94" s="1"/>
+      <c r="BS94" s="1"/>
+      <c r="BT94" s="1"/>
+      <c r="BU94" s="1"/>
+      <c r="BV94" s="1"/>
+      <c r="BW94" s="1"/>
+      <c r="BX94" s="1"/>
+      <c r="BY94" s="1"/>
+      <c r="BZ94" s="1"/>
+      <c r="CA94" s="1"/>
+      <c r="CB94" s="1"/>
+      <c r="CC94" s="1"/>
+      <c r="CD94" s="1"/>
+      <c r="CE94" s="1"/>
+      <c r="CF94" s="1"/>
+      <c r="CG94" s="1"/>
+      <c r="CH94" s="1"/>
+      <c r="CI94" s="1"/>
+      <c r="CJ94" s="1"/>
+      <c r="CK94" s="1"/>
+      <c r="CL94" s="1"/>
+      <c r="CM94" s="1"/>
+      <c r="CN94" s="1"/>
+      <c r="CO94" s="1"/>
+      <c r="CP94" s="1"/>
+      <c r="CQ94" s="1"/>
+      <c r="CR94" s="1"/>
+      <c r="CS94" s="1"/>
+      <c r="CT94" s="1"/>
+      <c r="CU94" s="1"/>
+    </row>
+    <row r="95" spans="1:99" s="28" customFormat="1">
+      <c r="A95"/>
+      <c r="C95" s="28" t="s">
         <v>63</v>
       </c>
-      <c r="J94" s="28" t="s">
+      <c r="J95" s="28" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="95" spans="1:99">
-      <c r="B95" s="22"/>
-      <c r="C95" s="29" t="s">
+    <row r="96" spans="1:99">
+      <c r="B96" s="22"/>
+      <c r="C96" s="29" t="s">
         <v>63</v>
       </c>
-      <c r="D95" s="22" t="s">
+      <c r="D96" s="22" t="s">
         <v>59</v>
       </c>
-      <c r="E95" s="22"/>
-      <c r="F95" s="22"/>
-      <c r="G95" s="22"/>
-      <c r="H95" s="23"/>
-      <c r="I95" s="23"/>
-      <c r="J95" s="23" t="s">
+      <c r="E96" s="22"/>
+      <c r="F96" s="22"/>
+      <c r="G96" s="22"/>
+      <c r="H96" s="23"/>
+      <c r="I96" s="23"/>
+      <c r="J96" s="23" t="s">
         <v>39</v>
       </c>
-      <c r="K95" s="22"/>
-      <c r="L95" s="1"/>
-      <c r="M95" s="1"/>
-      <c r="N95" s="1"/>
-      <c r="O95" s="1"/>
-      <c r="P95" s="1"/>
-      <c r="Q95" s="1"/>
-      <c r="R95" s="1"/>
-      <c r="S95" s="1"/>
-      <c r="T95" s="1"/>
-      <c r="U95" s="1"/>
-      <c r="V95" s="1"/>
-      <c r="W95" s="1"/>
-      <c r="X95" s="1"/>
-      <c r="Y95" s="1"/>
-      <c r="Z95" s="1"/>
-      <c r="AA95" s="1"/>
-      <c r="AB95" s="1"/>
-      <c r="AC95" s="1"/>
-      <c r="AD95" s="1"/>
-      <c r="AE95" s="1"/>
-      <c r="AF95" s="1" t="s">
+      <c r="K96" s="22"/>
+      <c r="L96" s="1"/>
+      <c r="M96" s="1"/>
+      <c r="N96" s="1"/>
+      <c r="O96" s="1"/>
+      <c r="P96" s="1"/>
+      <c r="Q96" s="1"/>
+      <c r="R96" s="1"/>
+      <c r="S96" s="1"/>
+      <c r="T96" s="1"/>
+      <c r="U96" s="1"/>
+      <c r="V96" s="1"/>
+      <c r="W96" s="1"/>
+      <c r="X96" s="1"/>
+      <c r="Y96" s="1"/>
+      <c r="Z96" s="1"/>
+      <c r="AA96" s="1"/>
+      <c r="AB96" s="1"/>
+      <c r="AC96" s="1"/>
+      <c r="AD96" s="1"/>
+      <c r="AE96" s="1"/>
+      <c r="AF96" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="AG95" s="1"/>
-      <c r="AH95" s="1"/>
-      <c r="AI95" s="1"/>
-      <c r="AJ95" s="1"/>
-      <c r="AK95" s="1"/>
-      <c r="AL95" s="1"/>
-      <c r="AM95" s="1"/>
-      <c r="AN95" s="1"/>
-      <c r="AO95" s="1"/>
-      <c r="AP95" s="1"/>
-      <c r="AQ95" s="1"/>
-      <c r="AR95" s="1"/>
-      <c r="AS95" s="1"/>
-      <c r="AT95" s="1"/>
-      <c r="AU95" s="1"/>
-      <c r="AV95" s="1"/>
-      <c r="AW95" s="1"/>
-      <c r="AX95" s="1"/>
-      <c r="AY95" s="1"/>
-      <c r="AZ95" s="1"/>
-      <c r="BA95" s="1"/>
-      <c r="BB95" s="1"/>
-      <c r="BC95" s="1"/>
-      <c r="BD95" s="1"/>
-      <c r="BE95" s="1"/>
-      <c r="BF95" s="1"/>
-      <c r="BG95" s="1"/>
-      <c r="BH95" s="1"/>
-      <c r="BI95" s="1"/>
-      <c r="BJ95" s="1"/>
-      <c r="BK95" s="1"/>
-      <c r="BL95" s="1"/>
-      <c r="BM95" s="1" t="s">
+      <c r="AG96" s="1"/>
+      <c r="AH96" s="1"/>
+      <c r="AI96" s="1"/>
+      <c r="AJ96" s="1"/>
+      <c r="AK96" s="1"/>
+      <c r="AL96" s="1"/>
+      <c r="AM96" s="1"/>
+      <c r="AN96" s="1"/>
+      <c r="AO96" s="1"/>
+      <c r="AP96" s="1"/>
+      <c r="AQ96" s="1"/>
+      <c r="AR96" s="1"/>
+      <c r="AS96" s="1"/>
+      <c r="AT96" s="1"/>
+      <c r="AU96" s="1"/>
+      <c r="AV96" s="1"/>
+      <c r="AW96" s="1"/>
+      <c r="AX96" s="1"/>
+      <c r="AY96" s="1"/>
+      <c r="AZ96" s="1"/>
+      <c r="BA96" s="1"/>
+      <c r="BB96" s="1"/>
+      <c r="BC96" s="1"/>
+      <c r="BD96" s="1"/>
+      <c r="BE96" s="1"/>
+      <c r="BF96" s="1"/>
+      <c r="BG96" s="1"/>
+      <c r="BH96" s="1"/>
+      <c r="BI96" s="1"/>
+      <c r="BJ96" s="1"/>
+      <c r="BK96" s="1"/>
+      <c r="BL96" s="1"/>
+      <c r="BM96" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="BN96" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="BN95" s="1" t="s">
+      <c r="BO96" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="BP96" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="BQ96" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="BR96" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="BS96" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="BT96" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="BU96" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="BV96" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="BW96" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="BX96" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="BY96" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="BZ96" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="BO95" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="BP95" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="BQ95" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="BR95" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="BS95" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="BT95" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="BU95" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="BV95" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="BW95" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="BX95" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="BY95" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="BZ95" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="CA95" s="1"/>
-      <c r="CB95" s="1"/>
-      <c r="CC95" s="1"/>
-      <c r="CD95" s="1"/>
-      <c r="CE95" s="1"/>
-      <c r="CF95" s="1"/>
-      <c r="CG95" s="1"/>
-      <c r="CH95" s="1"/>
-      <c r="CI95" s="1"/>
-      <c r="CJ95" s="1"/>
-      <c r="CK95" s="1"/>
-      <c r="CL95" s="1"/>
-      <c r="CM95" s="1"/>
-      <c r="CN95" s="1"/>
-      <c r="CO95" s="1"/>
-      <c r="CP95" s="1"/>
-      <c r="CQ95" s="1"/>
-      <c r="CR95" s="1"/>
-      <c r="CS95" s="1"/>
-      <c r="CT95" s="1"/>
-      <c r="CU95" s="1"/>
-    </row>
-    <row r="96" spans="1:99" s="20" customFormat="1">
-      <c r="A96"/>
-      <c r="B96" s="21"/>
-      <c r="C96" s="28" t="s">
+      <c r="CA96" s="1"/>
+      <c r="CB96" s="1"/>
+      <c r="CC96" s="1"/>
+      <c r="CD96" s="1"/>
+      <c r="CE96" s="1"/>
+      <c r="CF96" s="1"/>
+      <c r="CG96" s="1"/>
+      <c r="CH96" s="1"/>
+      <c r="CI96" s="1"/>
+      <c r="CJ96" s="1"/>
+      <c r="CK96" s="1"/>
+      <c r="CL96" s="1"/>
+      <c r="CM96" s="1"/>
+      <c r="CN96" s="1"/>
+      <c r="CO96" s="1"/>
+      <c r="CP96" s="1"/>
+      <c r="CQ96" s="1"/>
+      <c r="CR96" s="1"/>
+      <c r="CS96" s="1"/>
+      <c r="CT96" s="1"/>
+      <c r="CU96" s="1"/>
+    </row>
+    <row r="97" spans="1:99" s="20" customFormat="1">
+      <c r="A97"/>
+      <c r="B97" s="21"/>
+      <c r="C97" s="28" t="s">
         <v>55</v>
       </c>
-      <c r="D96" s="21"/>
-      <c r="E96" s="21"/>
-      <c r="F96" s="21"/>
-      <c r="G96" s="21"/>
-      <c r="H96" s="21"/>
-      <c r="I96" s="21"/>
-      <c r="J96" s="21"/>
-      <c r="K96" s="21"/>
-      <c r="L96" s="21"/>
-      <c r="M96" s="21"/>
-      <c r="N96" s="21"/>
-      <c r="O96" s="21"/>
-      <c r="P96" s="21"/>
-      <c r="Q96" s="21"/>
-      <c r="R96" s="21"/>
-      <c r="S96" s="21"/>
-      <c r="T96" s="21"/>
-      <c r="U96" s="21"/>
-      <c r="V96" s="21"/>
-      <c r="W96" s="21"/>
-      <c r="X96" s="21"/>
-      <c r="Y96" s="21"/>
-      <c r="Z96" s="21"/>
-      <c r="AA96" s="21"/>
-      <c r="AB96" s="21"/>
-      <c r="AC96" s="21"/>
-      <c r="AD96" s="21"/>
-      <c r="AE96" s="21"/>
-      <c r="AF96" s="21"/>
-      <c r="AG96" s="21"/>
-      <c r="AH96" s="21"/>
-      <c r="AI96" s="21"/>
-      <c r="AJ96" s="21"/>
-      <c r="AK96" s="21"/>
-      <c r="AL96" s="21"/>
-      <c r="AM96" s="21"/>
-      <c r="AN96" s="21"/>
-      <c r="AO96" s="21"/>
-      <c r="AP96" s="21"/>
-      <c r="AQ96" s="21"/>
-      <c r="AR96" s="21"/>
-      <c r="AS96" s="21"/>
-      <c r="AT96" s="21"/>
-      <c r="AU96" s="21"/>
-      <c r="AV96" s="21"/>
-      <c r="AW96" s="21"/>
-      <c r="AX96" s="21"/>
-      <c r="AY96" s="21"/>
-      <c r="AZ96" s="21"/>
-      <c r="BA96" s="21"/>
-      <c r="BB96" s="21"/>
-      <c r="BC96" s="21"/>
-      <c r="BD96" s="21"/>
-      <c r="BE96" s="21"/>
-      <c r="BF96" s="21"/>
-      <c r="BG96" s="21"/>
-      <c r="BH96" s="21"/>
-      <c r="BI96" s="21"/>
-      <c r="BJ96" s="21"/>
-      <c r="BK96" s="21"/>
-      <c r="BL96" s="21"/>
-      <c r="BM96" s="21"/>
-      <c r="BN96" s="21"/>
-      <c r="BO96" s="21"/>
-      <c r="BP96" s="21"/>
-      <c r="BQ96" s="21"/>
-      <c r="BR96" s="21"/>
-      <c r="BS96" s="21"/>
-      <c r="BT96" s="21"/>
-      <c r="BU96" s="21"/>
-      <c r="BV96" s="21"/>
-      <c r="BW96" s="21"/>
-      <c r="BX96" s="21"/>
-      <c r="BY96" s="21"/>
-      <c r="BZ96" s="21"/>
-      <c r="CA96" s="21"/>
-      <c r="CB96" s="21"/>
-      <c r="CC96" s="21"/>
-      <c r="CD96" s="21"/>
-      <c r="CE96" s="21"/>
-      <c r="CF96" s="21"/>
-      <c r="CG96" s="21"/>
-      <c r="CH96" s="21"/>
-      <c r="CI96" s="21"/>
-      <c r="CJ96" s="21"/>
-      <c r="CK96" s="21"/>
-      <c r="CL96" s="21"/>
-      <c r="CM96" s="21"/>
-      <c r="CN96" s="21"/>
-      <c r="CO96" s="21"/>
-      <c r="CP96" s="21"/>
-      <c r="CQ96" s="21"/>
-      <c r="CR96" s="21"/>
-      <c r="CS96" s="21"/>
-      <c r="CT96" s="21"/>
-      <c r="CU96" s="21"/>
-    </row>
-    <row r="100" spans="1:99" s="24" customFormat="1">
-      <c r="A100"/>
-      <c r="C100" s="32" t="s">
+      <c r="D97" s="21"/>
+      <c r="E97" s="21"/>
+      <c r="F97" s="21"/>
+      <c r="G97" s="21"/>
+      <c r="H97" s="21"/>
+      <c r="I97" s="21"/>
+      <c r="J97" s="21"/>
+      <c r="K97" s="21"/>
+      <c r="L97" s="21"/>
+      <c r="M97" s="21"/>
+      <c r="N97" s="21"/>
+      <c r="O97" s="21"/>
+      <c r="P97" s="21"/>
+      <c r="Q97" s="21"/>
+      <c r="R97" s="21"/>
+      <c r="S97" s="21"/>
+      <c r="T97" s="21"/>
+      <c r="U97" s="21"/>
+      <c r="V97" s="21"/>
+      <c r="W97" s="21"/>
+      <c r="X97" s="21"/>
+      <c r="Y97" s="21"/>
+      <c r="Z97" s="21"/>
+      <c r="AA97" s="21"/>
+      <c r="AB97" s="21"/>
+      <c r="AC97" s="21"/>
+      <c r="AD97" s="21"/>
+      <c r="AE97" s="21"/>
+      <c r="AF97" s="21"/>
+      <c r="AG97" s="21"/>
+      <c r="AH97" s="21"/>
+      <c r="AI97" s="21"/>
+      <c r="AJ97" s="21"/>
+      <c r="AK97" s="21"/>
+      <c r="AL97" s="21"/>
+      <c r="AM97" s="21"/>
+      <c r="AN97" s="21"/>
+      <c r="AO97" s="21"/>
+      <c r="AP97" s="21"/>
+      <c r="AQ97" s="21"/>
+      <c r="AR97" s="21"/>
+      <c r="AS97" s="21"/>
+      <c r="AT97" s="21"/>
+      <c r="AU97" s="21"/>
+      <c r="AV97" s="21"/>
+      <c r="AW97" s="21"/>
+      <c r="AX97" s="21"/>
+      <c r="AY97" s="21"/>
+      <c r="AZ97" s="21"/>
+      <c r="BA97" s="21"/>
+      <c r="BB97" s="21"/>
+      <c r="BC97" s="21"/>
+      <c r="BD97" s="21"/>
+      <c r="BE97" s="21"/>
+      <c r="BF97" s="21"/>
+      <c r="BG97" s="21"/>
+      <c r="BH97" s="21"/>
+      <c r="BI97" s="21"/>
+      <c r="BJ97" s="21"/>
+      <c r="BK97" s="21"/>
+      <c r="BL97" s="21"/>
+      <c r="BM97" s="21"/>
+      <c r="BN97" s="21"/>
+      <c r="BO97" s="21"/>
+      <c r="BP97" s="21"/>
+      <c r="BQ97" s="21"/>
+      <c r="BR97" s="21"/>
+      <c r="BS97" s="21"/>
+      <c r="BT97" s="21"/>
+      <c r="BU97" s="21"/>
+      <c r="BV97" s="21"/>
+      <c r="BW97" s="21"/>
+      <c r="BX97" s="21"/>
+      <c r="BY97" s="21"/>
+      <c r="BZ97" s="21"/>
+      <c r="CA97" s="21"/>
+      <c r="CB97" s="21"/>
+      <c r="CC97" s="21"/>
+      <c r="CD97" s="21"/>
+      <c r="CE97" s="21"/>
+      <c r="CF97" s="21"/>
+      <c r="CG97" s="21"/>
+      <c r="CH97" s="21"/>
+      <c r="CI97" s="21"/>
+      <c r="CJ97" s="21"/>
+      <c r="CK97" s="21"/>
+      <c r="CL97" s="21"/>
+      <c r="CM97" s="21"/>
+      <c r="CN97" s="21"/>
+      <c r="CO97" s="21"/>
+      <c r="CP97" s="21"/>
+      <c r="CQ97" s="21"/>
+      <c r="CR97" s="21"/>
+      <c r="CS97" s="21"/>
+      <c r="CT97" s="21"/>
+      <c r="CU97" s="21"/>
+    </row>
+    <row r="101" spans="1:99" s="24" customFormat="1">
+      <c r="A101"/>
+      <c r="C101" s="32" t="s">
         <v>53</v>
       </c>
-      <c r="H100" s="25"/>
-      <c r="I100" s="25"/>
-      <c r="J100" s="25"/>
-      <c r="L100" s="25">
+      <c r="H101" s="25"/>
+      <c r="I101" s="25"/>
+      <c r="J101" s="25"/>
+      <c r="L101" s="25">
         <f>L19</f>
         <v>41133</v>
       </c>
-      <c r="M100" s="25">
-        <f t="shared" ref="M100:BF100" si="6">M19</f>
+      <c r="M101" s="25">
+        <f t="shared" ref="M101:BF101" si="6">M19</f>
         <v>41134</v>
       </c>
-      <c r="N100" s="25">
+      <c r="N101" s="25">
         <f t="shared" si="6"/>
         <v>41135</v>
       </c>
-      <c r="O100" s="25">
+      <c r="O101" s="25">
         <f t="shared" si="6"/>
         <v>41136</v>
       </c>
-      <c r="P100" s="25">
+      <c r="P101" s="25">
         <f t="shared" si="6"/>
         <v>41137</v>
       </c>
-      <c r="Q100" s="25">
+      <c r="Q101" s="25">
         <f t="shared" si="6"/>
         <v>41138</v>
       </c>
-      <c r="R100" s="25">
+      <c r="R101" s="25">
         <f t="shared" si="6"/>
         <v>41139</v>
       </c>
-      <c r="S100" s="25">
+      <c r="S101" s="25">
         <f t="shared" si="6"/>
         <v>41140</v>
       </c>
-      <c r="T100" s="25">
+      <c r="T101" s="25">
         <f t="shared" si="6"/>
         <v>41141</v>
       </c>
-      <c r="U100" s="25">
+      <c r="U101" s="25">
         <f t="shared" si="6"/>
         <v>41142</v>
       </c>
-      <c r="V100" s="25">
+      <c r="V101" s="25">
         <f t="shared" si="6"/>
         <v>41143</v>
       </c>
-      <c r="W100" s="25">
+      <c r="W101" s="25">
         <f t="shared" si="6"/>
         <v>41144</v>
       </c>
-      <c r="X100" s="25">
+      <c r="X101" s="25">
         <f t="shared" si="6"/>
         <v>41145</v>
       </c>
-      <c r="Y100" s="25">
+      <c r="Y101" s="25">
         <f t="shared" si="6"/>
         <v>41146</v>
       </c>
-      <c r="Z100" s="25">
+      <c r="Z101" s="25">
         <f t="shared" si="6"/>
         <v>41147</v>
       </c>
-      <c r="AA100" s="25">
+      <c r="AA101" s="25">
         <f t="shared" si="6"/>
         <v>41148</v>
       </c>
-      <c r="AB100" s="25">
+      <c r="AB101" s="25">
         <f t="shared" si="6"/>
         <v>41149</v>
       </c>
-      <c r="AC100" s="25">
+      <c r="AC101" s="25">
         <f t="shared" si="6"/>
         <v>41150</v>
       </c>
-      <c r="AD100" s="25">
+      <c r="AD101" s="25">
         <f t="shared" si="6"/>
         <v>41151</v>
       </c>
-      <c r="AE100" s="25">
+      <c r="AE101" s="25">
         <f t="shared" si="6"/>
         <v>41152</v>
       </c>
-      <c r="AF100" s="25">
+      <c r="AF101" s="25">
         <f t="shared" si="6"/>
         <v>41153</v>
       </c>
-      <c r="AG100" s="25">
+      <c r="AG101" s="25">
         <f t="shared" si="6"/>
         <v>41154</v>
       </c>
-      <c r="AH100" s="25">
+      <c r="AH101" s="25">
         <f t="shared" si="6"/>
         <v>41155</v>
       </c>
-      <c r="AI100" s="25">
+      <c r="AI101" s="25">
         <f t="shared" si="6"/>
         <v>41156</v>
       </c>
-      <c r="AJ100" s="25">
+      <c r="AJ101" s="25">
         <f t="shared" si="6"/>
         <v>41157</v>
       </c>
-      <c r="AK100" s="25">
+      <c r="AK101" s="25">
         <f t="shared" si="6"/>
         <v>41158</v>
       </c>
-      <c r="AL100" s="25">
+      <c r="AL101" s="25">
         <f t="shared" si="6"/>
         <v>41159</v>
       </c>
-      <c r="AM100" s="25">
+      <c r="AM101" s="25">
         <f t="shared" si="6"/>
         <v>41160</v>
       </c>
-      <c r="AN100" s="25">
+      <c r="AN101" s="25">
         <f t="shared" si="6"/>
         <v>41161</v>
       </c>
-      <c r="AO100" s="25">
+      <c r="AO101" s="25">
         <f t="shared" si="6"/>
         <v>41162</v>
       </c>
-      <c r="AP100" s="25">
+      <c r="AP101" s="25">
         <f t="shared" si="6"/>
         <v>41163</v>
       </c>
-      <c r="AQ100" s="25">
+      <c r="AQ101" s="25">
         <f t="shared" si="6"/>
         <v>41164</v>
       </c>
-      <c r="AR100" s="25">
+      <c r="AR101" s="25">
         <f t="shared" si="6"/>
         <v>41165</v>
       </c>
-      <c r="AS100" s="25">
+      <c r="AS101" s="25">
         <f t="shared" si="6"/>
         <v>41166</v>
       </c>
-      <c r="AT100" s="25">
+      <c r="AT101" s="25">
         <f t="shared" si="6"/>
         <v>41167</v>
       </c>
-      <c r="AU100" s="25">
+      <c r="AU101" s="25">
         <f t="shared" si="6"/>
         <v>41168</v>
       </c>
-      <c r="AV100" s="25">
+      <c r="AV101" s="25">
         <f t="shared" si="6"/>
         <v>41169</v>
       </c>
-      <c r="AW100" s="25">
+      <c r="AW101" s="25">
         <f t="shared" si="6"/>
         <v>41170</v>
       </c>
-      <c r="AX100" s="25">
+      <c r="AX101" s="25">
         <f t="shared" si="6"/>
         <v>41171</v>
       </c>
-      <c r="AY100" s="25">
+      <c r="AY101" s="25">
         <f t="shared" si="6"/>
         <v>41172</v>
       </c>
-      <c r="AZ100" s="25">
+      <c r="AZ101" s="25">
         <f t="shared" si="6"/>
         <v>41173</v>
       </c>
-      <c r="BA100" s="25">
+      <c r="BA101" s="25">
         <f t="shared" si="6"/>
         <v>41174</v>
       </c>
-      <c r="BB100" s="25">
+      <c r="BB101" s="25">
         <f t="shared" si="6"/>
         <v>41175</v>
       </c>
-      <c r="BC100" s="25">
+      <c r="BC101" s="25">
         <f t="shared" si="6"/>
         <v>41176</v>
       </c>
-      <c r="BD100" s="25">
+      <c r="BD101" s="25">
         <f t="shared" si="6"/>
         <v>41177</v>
       </c>
-      <c r="BE100" s="25">
+      <c r="BE101" s="25">
         <f t="shared" si="6"/>
         <v>41178</v>
       </c>
-      <c r="BF100" s="25">
+      <c r="BF101" s="25">
         <f t="shared" si="6"/>
         <v>41179</v>
       </c>
-      <c r="BG100" s="25"/>
-      <c r="BH100" s="25"/>
-      <c r="BI100" s="25"/>
-      <c r="BJ100" s="25"/>
-      <c r="BK100" s="25"/>
-      <c r="BL100" s="25"/>
-      <c r="BM100" s="25"/>
-      <c r="BN100" s="25"/>
-      <c r="BO100" s="25"/>
-      <c r="BP100" s="25"/>
-      <c r="BQ100" s="25"/>
-      <c r="BR100" s="25"/>
-      <c r="BS100" s="25"/>
-      <c r="BT100" s="25"/>
-      <c r="BU100" s="25"/>
-      <c r="BV100" s="25"/>
-      <c r="BW100" s="25"/>
-      <c r="BX100" s="25"/>
-      <c r="BY100" s="25"/>
-      <c r="BZ100" s="25"/>
-      <c r="CA100" s="25"/>
-      <c r="CB100" s="25"/>
-      <c r="CC100" s="25"/>
-      <c r="CD100" s="25"/>
-      <c r="CE100" s="25"/>
-      <c r="CF100" s="25"/>
-      <c r="CG100" s="25"/>
-      <c r="CH100" s="25"/>
-      <c r="CI100" s="25"/>
-      <c r="CJ100" s="25"/>
-      <c r="CK100" s="25"/>
-      <c r="CL100" s="25"/>
-      <c r="CM100" s="25"/>
-      <c r="CN100" s="25"/>
-      <c r="CO100" s="25"/>
-      <c r="CP100" s="25"/>
-      <c r="CQ100" s="25"/>
-      <c r="CR100" s="25"/>
-      <c r="CS100" s="25"/>
-      <c r="CT100" s="25"/>
-      <c r="CU100" s="25"/>
+      <c r="BG101" s="25"/>
+      <c r="BH101" s="25"/>
+      <c r="BI101" s="25"/>
+      <c r="BJ101" s="25"/>
+      <c r="BK101" s="25"/>
+      <c r="BL101" s="25"/>
+      <c r="BM101" s="25"/>
+      <c r="BN101" s="25"/>
+      <c r="BO101" s="25"/>
+      <c r="BP101" s="25"/>
+      <c r="BQ101" s="25"/>
+      <c r="BR101" s="25"/>
+      <c r="BS101" s="25"/>
+      <c r="BT101" s="25"/>
+      <c r="BU101" s="25"/>
+      <c r="BV101" s="25"/>
+      <c r="BW101" s="25"/>
+      <c r="BX101" s="25"/>
+      <c r="BY101" s="25"/>
+      <c r="BZ101" s="25"/>
+      <c r="CA101" s="25"/>
+      <c r="CB101" s="25"/>
+      <c r="CC101" s="25"/>
+      <c r="CD101" s="25"/>
+      <c r="CE101" s="25"/>
+      <c r="CF101" s="25"/>
+      <c r="CG101" s="25"/>
+      <c r="CH101" s="25"/>
+      <c r="CI101" s="25"/>
+      <c r="CJ101" s="25"/>
+      <c r="CK101" s="25"/>
+      <c r="CL101" s="25"/>
+      <c r="CM101" s="25"/>
+      <c r="CN101" s="25"/>
+      <c r="CO101" s="25"/>
+      <c r="CP101" s="25"/>
+      <c r="CQ101" s="25"/>
+      <c r="CR101" s="25"/>
+      <c r="CS101" s="25"/>
+      <c r="CT101" s="25"/>
+      <c r="CU101" s="25"/>
     </row>
   </sheetData>
-  <autoFilter ref="A19:BF96"/>
+  <autoFilter ref="A19:BF97"/>
   <sortState ref="C2:D16">
     <sortCondition ref="C2"/>
   </sortState>
-  <conditionalFormatting sqref="L97:AY97 L88:CU89 L84:CU86 L21:CU24 L26:CU33 L35:CU39 L41:BL54 BR41:CU54 BP41:BQ44 BO41:BO43 BM41:BN44 BM46:BQ54 L56:CU68 L70:CU82 L91:CU93 L95:CU95">
+  <conditionalFormatting sqref="L98:AY98 L89:CU90 L85:CU87 L21:CU24 L26:CU33 L35:CU39 L41:BL54 BR41:CU54 BP41:BQ44 BO41:BO43 BM41:BN44 BM46:BQ54 L56:CU68 L92:CU94 L96:CU96 L70:CU83">
     <cfRule type="cellIs" dxfId="18" priority="183" operator="equal">
       <formula>"-"</formula>
     </cfRule>
@@ -10934,17 +11096,17 @@
       <formula>"B"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L88:CU89 L84:CU86 L21:CU24 L26:CU33 L35:CU39 L41:BL54 BR41:CU54 BP41:BQ44 BO41:BO43 BM41:BN44 BM46:BQ54 L56:CU68 L70:CU82 L91:CU93 L95:CU95">
+  <conditionalFormatting sqref="L89:CU90 L85:CU87 L21:CU24 L26:CU33 L35:CU39 L41:BL54 BR41:CU54 BP41:BQ44 BO41:BO43 BM41:BN44 BM46:BQ54 L56:CU68 L92:CU94 L96:CU96 L70:CU83">
     <cfRule type="cellIs" dxfId="15" priority="182" operator="equal">
       <formula>"BE"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J88 J21:J24 J26:J32 J41:J51 J56:J66 J71:J72 J74:J81 J95 J35:J38 J91:J92">
+  <conditionalFormatting sqref="J89 J21:J24 J26:J32 J41:J51 J56:J66 J71:J72 J96 J35:J38 J92:J93 J74:J82">
     <cfRule type="cellIs" dxfId="14" priority="256" operator="equal">
       <formula>$I$5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J35:J37 J21:J24 J26:J32 J88 J41:J51 J56:J66 J71:J72 J74:J81 J95 J91:J92">
+  <conditionalFormatting sqref="J35:J37 J21:J24 J26:J32 J89 J41:J51 J56:J66 J71:J72 J96 J92:J93 J74:J82">
     <cfRule type="expression" dxfId="13" priority="263">
       <formula>AND(J21&lt;&gt;$I$5,$I21&lt;TODAY())</formula>
     </cfRule>
@@ -10996,21 +11158,21 @@
       <formula>AND(J67&lt;&gt;$I$5,$I67&lt;TODAY())</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J93">
+  <conditionalFormatting sqref="J94">
     <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
       <formula>$I$5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J93">
+  <conditionalFormatting sqref="J94">
     <cfRule type="expression" dxfId="0" priority="1">
-      <formula>AND(J93&lt;&gt;$I$5,$I93&lt;TODAY())</formula>
+      <formula>AND(J94&lt;&gt;$I$5,$I94&lt;TODAY())</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D35:F39 D41:F48 E49:F51 D50:D51 D56:D62 D26:F33 E94:E96 D77:D96 F55:F96 E56:E92 D64:D74">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D35:F39 D41:F48 E49:F51 D50:D51 D56:D62 D26:F33 E95:E97 D64:D74 E56:E93 F55:F97 D77:D97">
       <formula1>$C$2:$C$17</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J71:J72 J74:J81 J26:J32 J35:J38 J21:J24 J41:J51 J86:J89 J56:J67 J91:J95">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J71:J72 J92:J96 J26:J32 J35:J38 J21:J24 J41:J51 J87:J90 J56:J67 J74:J82">
       <formula1>$I$4:$I$14</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D20:E24">

--- a/trunk/Document/VietinBankSC Project Plan v2012.009.20.xlsx
+++ b/trunk/Document/VietinBankSC Project Plan v2012.009.20.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="452" uniqueCount="144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="453" uniqueCount="144">
   <si>
     <t>GVCM</t>
   </si>
@@ -1523,7 +1523,7 @@
     <sheetView tabSelected="1" topLeftCell="A38" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <pane xSplit="5" topLeftCell="F1" activePane="topRight" state="frozen"/>
       <selection activeCell="A19" sqref="A19"/>
-      <selection pane="topRight" activeCell="A44" sqref="A44"/>
+      <selection pane="topRight" activeCell="E47" sqref="E47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -5130,10 +5130,10 @@
         <v>120</v>
       </c>
       <c r="D46" s="22" t="s">
-        <v>84</v>
+        <v>134</v>
       </c>
       <c r="E46" s="22" t="s">
-        <v>84</v>
+        <v>134</v>
       </c>
       <c r="F46" s="22"/>
       <c r="G46" s="22"/>
@@ -5361,7 +5361,9 @@
       <c r="E48" s="22" t="s">
         <v>84</v>
       </c>
-      <c r="F48" s="22"/>
+      <c r="F48" s="22" t="s">
+        <v>134</v>
+      </c>
       <c r="G48" s="22"/>
       <c r="H48" s="23"/>
       <c r="I48" s="23"/>
@@ -11169,7 +11171,7 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D35:F39 D41:F48 E49:F51 D50:D51 D56:D62 D26:F33 E95:E97 D64:D74 E56:E93 F55:F97 D77:D97">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D35:F39 D77:D97 E49:F51 D50:D51 D56:D62 D26:F33 E95:E97 D64:D74 E56:E93 F55:F97 D41:F48">
       <formula1>$C$2:$C$17</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J71:J72 J92:J96 J26:J32 J35:J38 J21:J24 J41:J51 J87:J90 J56:J67 J74:J82">

--- a/trunk/Document/VietinBankSC Project Plan v2012.009.20.xlsx
+++ b/trunk/Document/VietinBankSC Project Plan v2012.009.20.xlsx
@@ -1520,10 +1520,10 @@
   </sheetPr>
   <dimension ref="A1:CU101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A38" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A80" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <pane xSplit="5" topLeftCell="F1" activePane="topRight" state="frozen"/>
       <selection activeCell="A19" sqref="A19"/>
-      <selection pane="topRight" activeCell="E47" sqref="E47"/>
+      <selection pane="topRight" activeCell="E90" sqref="E90"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>

--- a/trunk/Document/VietinBankSC Project Plan v2012.009.20.xlsx
+++ b/trunk/Document/VietinBankSC Project Plan v2012.009.20.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="453" uniqueCount="144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="459" uniqueCount="146">
   <si>
     <t>GVCM</t>
   </si>
@@ -468,6 +468,12 @@
   </si>
   <si>
     <t>Báo cáo tình hình giải tỏa</t>
+  </si>
+  <si>
+    <t>Tùy chỉnh tham số nhắc việc</t>
+  </si>
+  <si>
+    <t>Hệ thống tham số hệ thống</t>
   </si>
 </sst>
 </file>
@@ -1520,10 +1526,10 @@
   </sheetPr>
   <dimension ref="A1:CU101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A80" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A65" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <pane xSplit="5" topLeftCell="F1" activePane="topRight" state="frozen"/>
       <selection activeCell="A19" sqref="A19"/>
-      <selection pane="topRight" activeCell="E90" sqref="E90"/>
+      <selection pane="topRight" activeCell="F65" sqref="F65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -5793,9 +5799,15 @@
     </row>
     <row r="52" spans="1:99">
       <c r="B52" s="22"/>
-      <c r="C52" s="29"/>
-      <c r="D52" s="22"/>
-      <c r="E52" s="22"/>
+      <c r="C52" s="29" t="s">
+        <v>144</v>
+      </c>
+      <c r="D52" s="22" t="s">
+        <v>71</v>
+      </c>
+      <c r="E52" s="22" t="s">
+        <v>71</v>
+      </c>
       <c r="F52" s="22"/>
       <c r="G52" s="22"/>
       <c r="H52" s="23"/>
@@ -5893,9 +5905,15 @@
     </row>
     <row r="53" spans="1:99">
       <c r="B53" s="22"/>
-      <c r="C53" s="29"/>
-      <c r="D53" s="22"/>
-      <c r="E53" s="22"/>
+      <c r="C53" s="29" t="s">
+        <v>145</v>
+      </c>
+      <c r="D53" s="22" t="s">
+        <v>59</v>
+      </c>
+      <c r="E53" s="22" t="s">
+        <v>59</v>
+      </c>
       <c r="F53" s="22"/>
       <c r="G53" s="22"/>
       <c r="H53" s="23"/>
@@ -11171,7 +11189,7 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D35:F39 D77:D97 E49:F51 D50:D51 D56:D62 D26:F33 E95:E97 D64:D74 E56:E93 F55:F97 D41:F48">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D35:F39 D77:D97 E49:F51 D50:D51 D56:D62 D26:F33 E95:E97 D64:D74 E56:E93 F55:F97 D41:F48 D53:E53">
       <formula1>$C$2:$C$17</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J71:J72 J92:J96 J26:J32 J35:J38 J21:J24 J41:J51 J87:J90 J56:J67 J74:J82">

--- a/trunk/Document/VietinBankSC Project Plan v2012.009.20.xlsx
+++ b/trunk/Document/VietinBankSC Project Plan v2012.009.20.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="459" uniqueCount="146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="476" uniqueCount="154">
   <si>
     <t>GVCM</t>
   </si>
@@ -470,10 +470,34 @@
     <t>Báo cáo tình hình giải tỏa</t>
   </si>
   <si>
-    <t>Tùy chỉnh tham số nhắc việc</t>
-  </si>
-  <si>
-    <t>Hệ thống tham số hệ thống</t>
+    <t>6.Mẫu 06_ TB lãi suất</t>
+  </si>
+  <si>
+    <t>f750_TB Trai Chu Ngay Chot.doc</t>
+  </si>
+  <si>
+    <t>f700_TB TCPH Dot Thanh Toan.doc</t>
+  </si>
+  <si>
+    <t>f800_Xin LS.doc</t>
+  </si>
+  <si>
+    <t>f300 _Danh Sach Chot.xls</t>
+  </si>
+  <si>
+    <t>f800_Yeu Cau Ngan Hang Thanh Toan.doc</t>
+  </si>
+  <si>
+    <t>f750_Bao cao lai suat trai phieu.xls</t>
+  </si>
+  <si>
+    <t>f600_Bao cao tong hop tinh hinh chuyen nhuong.xls</t>
+  </si>
+  <si>
+    <t>f700_Bao cao tong hop tinh hinh giai toa.xls</t>
+  </si>
+  <si>
+    <t>f700_Bao cao tong hop tinh hinh phong toa.xls</t>
   </si>
 </sst>
 </file>
@@ -1526,10 +1550,10 @@
   </sheetPr>
   <dimension ref="A1:CU101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A65" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A69" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <pane xSplit="5" topLeftCell="F1" activePane="topRight" state="frozen"/>
       <selection activeCell="A19" sqref="A19"/>
-      <selection pane="topRight" activeCell="F65" sqref="F65"/>
+      <selection pane="topRight" activeCell="E76" sqref="E76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4910,6 +4934,9 @@
       <c r="CU43" s="1"/>
     </row>
     <row r="44" spans="1:99">
+      <c r="A44" t="s">
+        <v>10</v>
+      </c>
       <c r="B44" s="22"/>
       <c r="C44" s="29" t="s">
         <v>95</v>
@@ -5022,6 +5049,9 @@
       <c r="CU44" s="1"/>
     </row>
     <row r="45" spans="1:99">
+      <c r="A45" t="s">
+        <v>10</v>
+      </c>
       <c r="B45" s="22"/>
       <c r="C45" s="29" t="s">
         <v>132</v>
@@ -5131,15 +5161,18 @@
       <c r="CU45" s="1"/>
     </row>
     <row r="46" spans="1:99">
+      <c r="A46" t="s">
+        <v>10</v>
+      </c>
       <c r="B46" s="22"/>
       <c r="C46" s="29" t="s">
         <v>120</v>
       </c>
       <c r="D46" s="22" t="s">
-        <v>134</v>
+        <v>84</v>
       </c>
       <c r="E46" s="22" t="s">
-        <v>134</v>
+        <v>84</v>
       </c>
       <c r="F46" s="22"/>
       <c r="G46" s="22"/>
@@ -5249,6 +5282,9 @@
       <c r="CU46" s="1"/>
     </row>
     <row r="47" spans="1:99">
+      <c r="A47" t="s">
+        <v>10</v>
+      </c>
       <c r="B47" s="22"/>
       <c r="C47" s="29" t="s">
         <v>93</v>
@@ -5357,6 +5393,9 @@
       <c r="CU47" s="1"/>
     </row>
     <row r="48" spans="1:99">
+      <c r="A48" t="s">
+        <v>10</v>
+      </c>
       <c r="B48" s="22"/>
       <c r="C48" s="29" t="s">
         <v>94</v>
@@ -5367,9 +5406,7 @@
       <c r="E48" s="22" t="s">
         <v>84</v>
       </c>
-      <c r="F48" s="22" t="s">
-        <v>134</v>
-      </c>
+      <c r="F48" s="22"/>
       <c r="G48" s="22"/>
       <c r="H48" s="23"/>
       <c r="I48" s="23"/>
@@ -5799,15 +5836,9 @@
     </row>
     <row r="52" spans="1:99">
       <c r="B52" s="22"/>
-      <c r="C52" s="29" t="s">
-        <v>144</v>
-      </c>
-      <c r="D52" s="22" t="s">
-        <v>71</v>
-      </c>
-      <c r="E52" s="22" t="s">
-        <v>71</v>
-      </c>
+      <c r="C52" s="29"/>
+      <c r="D52" s="22"/>
+      <c r="E52" s="22"/>
       <c r="F52" s="22"/>
       <c r="G52" s="22"/>
       <c r="H52" s="23"/>
@@ -5905,15 +5936,9 @@
     </row>
     <row r="53" spans="1:99">
       <c r="B53" s="22"/>
-      <c r="C53" s="29" t="s">
-        <v>145</v>
-      </c>
-      <c r="D53" s="22" t="s">
-        <v>59</v>
-      </c>
-      <c r="E53" s="22" t="s">
-        <v>59</v>
-      </c>
+      <c r="C53" s="29"/>
+      <c r="D53" s="22"/>
+      <c r="E53" s="22"/>
       <c r="F53" s="22"/>
       <c r="G53" s="22"/>
       <c r="H53" s="23"/>
@@ -6216,6 +6241,9 @@
       <c r="CU55" s="21"/>
     </row>
     <row r="56" spans="1:99">
+      <c r="A56" t="s">
+        <v>10</v>
+      </c>
       <c r="B56" s="22"/>
       <c r="C56" s="29" t="s">
         <v>124</v>
@@ -6324,6 +6352,9 @@
       <c r="CU56" s="1"/>
     </row>
     <row r="57" spans="1:99">
+      <c r="A57" t="s">
+        <v>10</v>
+      </c>
       <c r="B57" s="22"/>
       <c r="C57" s="29" t="s">
         <v>125</v>
@@ -6432,6 +6463,9 @@
       <c r="CU57" s="1"/>
     </row>
     <row r="58" spans="1:99">
+      <c r="A58" t="s">
+        <v>10</v>
+      </c>
       <c r="B58" s="22"/>
       <c r="C58" s="29" t="s">
         <v>126</v>
@@ -6550,6 +6584,9 @@
       <c r="CU58" s="1"/>
     </row>
     <row r="59" spans="1:99">
+      <c r="A59" t="s">
+        <v>10</v>
+      </c>
       <c r="B59" s="22"/>
       <c r="C59" s="29" t="s">
         <v>127</v>
@@ -6904,6 +6941,9 @@
       <c r="CU61" s="1"/>
     </row>
     <row r="62" spans="1:99">
+      <c r="A62" t="s">
+        <v>10</v>
+      </c>
       <c r="B62" s="22"/>
       <c r="C62" s="29" t="s">
         <v>76</v>
@@ -7143,6 +7183,9 @@
       <c r="CU63" s="1"/>
     </row>
     <row r="64" spans="1:99">
+      <c r="A64" t="s">
+        <v>10</v>
+      </c>
       <c r="B64" s="22"/>
       <c r="C64" s="29" t="s">
         <v>78</v>
@@ -7384,6 +7427,9 @@
       <c r="CU65" s="1"/>
     </row>
     <row r="66" spans="1:99">
+      <c r="A66" t="s">
+        <v>10</v>
+      </c>
       <c r="B66" s="22"/>
       <c r="C66" s="29" t="s">
         <v>123</v>
@@ -7502,7 +7548,12 @@
       <c r="CU66" s="1"/>
     </row>
     <row r="67" spans="1:99">
-      <c r="B67" s="22"/>
+      <c r="A67" t="s">
+        <v>10</v>
+      </c>
+      <c r="B67" s="22">
+        <v>260</v>
+      </c>
       <c r="C67" s="29" t="s">
         <v>135</v>
       </c>
@@ -7938,7 +7989,9 @@
       </c>
       <c r="E71" s="22"/>
       <c r="F71" s="22"/>
-      <c r="G71" s="22"/>
+      <c r="G71" s="37" t="s">
+        <v>144</v>
+      </c>
       <c r="H71" s="23"/>
       <c r="I71" s="23"/>
       <c r="J71" s="23" t="s">
@@ -8056,7 +8109,9 @@
       </c>
       <c r="E72" s="22"/>
       <c r="F72" s="22"/>
-      <c r="G72" s="22"/>
+      <c r="G72" s="37" t="s">
+        <v>145</v>
+      </c>
       <c r="H72" s="23"/>
       <c r="I72" s="23"/>
       <c r="J72" s="23" t="s">
@@ -8276,7 +8331,9 @@
       </c>
       <c r="E74" s="22"/>
       <c r="F74" s="22"/>
-      <c r="G74" s="22"/>
+      <c r="G74" s="22" t="s">
+        <v>146</v>
+      </c>
       <c r="H74" s="23"/>
       <c r="I74" s="23"/>
       <c r="J74" s="23" t="s">
@@ -8394,7 +8451,9 @@
       </c>
       <c r="E75" s="22"/>
       <c r="F75" s="22"/>
-      <c r="G75" s="22"/>
+      <c r="G75" s="22" t="s">
+        <v>147</v>
+      </c>
       <c r="H75" s="23"/>
       <c r="I75" s="23"/>
       <c r="J75" s="23" t="s">
@@ -8512,7 +8571,9 @@
       </c>
       <c r="E76" s="22"/>
       <c r="F76" s="22"/>
-      <c r="G76" s="22"/>
+      <c r="G76" s="22" t="s">
+        <v>148</v>
+      </c>
       <c r="H76" s="23"/>
       <c r="I76" s="23"/>
       <c r="J76" s="23" t="s">
@@ -8630,7 +8691,9 @@
       </c>
       <c r="E77" s="22"/>
       <c r="F77" s="22"/>
-      <c r="G77" s="22"/>
+      <c r="G77" s="22" t="s">
+        <v>149</v>
+      </c>
       <c r="H77" s="23"/>
       <c r="I77" s="23"/>
       <c r="J77" s="23" t="s">
@@ -8748,7 +8811,9 @@
       </c>
       <c r="E78" s="22"/>
       <c r="F78" s="22"/>
-      <c r="G78" s="22"/>
+      <c r="G78" s="22" t="s">
+        <v>150</v>
+      </c>
       <c r="H78" s="23"/>
       <c r="I78" s="23"/>
       <c r="J78" s="23" t="s">
@@ -8987,7 +9052,9 @@
       </c>
       <c r="E80" s="22"/>
       <c r="F80" s="22"/>
-      <c r="G80" s="22"/>
+      <c r="G80" s="22" t="s">
+        <v>153</v>
+      </c>
       <c r="H80" s="23"/>
       <c r="I80" s="23"/>
       <c r="J80" s="23" t="s">
@@ -9108,7 +9175,9 @@
       </c>
       <c r="E81" s="22"/>
       <c r="F81" s="22"/>
-      <c r="G81" s="22"/>
+      <c r="G81" s="22" t="s">
+        <v>152</v>
+      </c>
       <c r="H81" s="23"/>
       <c r="I81" s="23"/>
       <c r="J81" s="23" t="s">
@@ -9215,18 +9284,23 @@
       <c r="CU81" s="1"/>
     </row>
     <row r="82" spans="1:99">
+      <c r="A82" t="s">
+        <v>10</v>
+      </c>
       <c r="B82" s="22">
-        <v>661</v>
+        <v>601</v>
       </c>
       <c r="C82" s="38" t="s">
         <v>106</v>
       </c>
       <c r="D82" s="22" t="s">
-        <v>71</v>
+        <v>81</v>
       </c>
       <c r="E82" s="22"/>
       <c r="F82" s="22"/>
-      <c r="G82" s="22"/>
+      <c r="G82" s="22" t="s">
+        <v>151</v>
+      </c>
       <c r="H82" s="23"/>
       <c r="I82" s="23"/>
       <c r="J82" s="23" t="s">
@@ -11189,7 +11263,7 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D35:F39 D77:D97 E49:F51 D50:D51 D56:D62 D26:F33 E95:E97 D64:D74 E56:E93 F55:F97 D41:F48 D53:E53">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D35:F39 D41:F48 E49:F51 D50:D51 D56:D62 D26:F33 E95:E97 D64:D74 E56:E93 F55:F97 D77:D97">
       <formula1>$C$2:$C$17</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J71:J72 J92:J96 J26:J32 J35:J38 J21:J24 J41:J51 J87:J90 J56:J67 J74:J82">

--- a/trunk/Document/VietinBankSC Project Plan v2012.009.20.xlsx
+++ b/trunk/Document/VietinBankSC Project Plan v2012.009.20.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="476" uniqueCount="154">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="475" uniqueCount="154">
   <si>
     <t>GVCM</t>
   </si>
@@ -1553,7 +1553,7 @@
     <sheetView tabSelected="1" topLeftCell="A69" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <pane xSplit="5" topLeftCell="F1" activePane="topRight" state="frozen"/>
       <selection activeCell="A19" sqref="A19"/>
-      <selection pane="topRight" activeCell="E76" sqref="E76"/>
+      <selection pane="topRight" activeCell="D74" sqref="D74:D79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -8104,9 +8104,7 @@
       <c r="C72" s="29" t="s">
         <v>99</v>
       </c>
-      <c r="D72" s="22" t="s">
-        <v>57</v>
-      </c>
+      <c r="D72" s="22"/>
       <c r="E72" s="22"/>
       <c r="F72" s="22"/>
       <c r="G72" s="37" t="s">

--- a/trunk/Document/VietinBankSC Project Plan v2012.009.20.xlsx
+++ b/trunk/Document/VietinBankSC Project Plan v2012.009.20.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="475" uniqueCount="154">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="469" uniqueCount="154">
   <si>
     <t>GVCM</t>
   </si>
@@ -1553,7 +1553,7 @@
     <sheetView tabSelected="1" topLeftCell="A69" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <pane xSplit="5" topLeftCell="F1" activePane="topRight" state="frozen"/>
       <selection activeCell="A19" sqref="A19"/>
-      <selection pane="topRight" activeCell="D74" sqref="D74:D79"/>
+      <selection pane="topRight" activeCell="E78" sqref="E78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -8324,9 +8324,7 @@
       <c r="C74" s="29" t="s">
         <v>100</v>
       </c>
-      <c r="D74" s="22" t="s">
-        <v>134</v>
-      </c>
+      <c r="D74" s="22"/>
       <c r="E74" s="22"/>
       <c r="F74" s="22"/>
       <c r="G74" s="22" t="s">
@@ -8444,9 +8442,7 @@
       <c r="C75" s="29" t="s">
         <v>101</v>
       </c>
-      <c r="D75" s="22" t="s">
-        <v>134</v>
-      </c>
+      <c r="D75" s="22"/>
       <c r="E75" s="22"/>
       <c r="F75" s="22"/>
       <c r="G75" s="22" t="s">
@@ -8564,9 +8560,7 @@
       <c r="C76" s="29" t="s">
         <v>102</v>
       </c>
-      <c r="D76" s="22" t="s">
-        <v>134</v>
-      </c>
+      <c r="D76" s="22"/>
       <c r="E76" s="22"/>
       <c r="F76" s="22"/>
       <c r="G76" s="22" t="s">
@@ -8684,9 +8678,7 @@
       <c r="C77" s="29" t="s">
         <v>103</v>
       </c>
-      <c r="D77" s="22" t="s">
-        <v>57</v>
-      </c>
+      <c r="D77" s="22"/>
       <c r="E77" s="22"/>
       <c r="F77" s="22"/>
       <c r="G77" s="22" t="s">
@@ -8804,9 +8796,7 @@
       <c r="C78" s="38" t="s">
         <v>104</v>
       </c>
-      <c r="D78" s="22" t="s">
-        <v>57</v>
-      </c>
+      <c r="D78" s="22"/>
       <c r="E78" s="22"/>
       <c r="F78" s="22"/>
       <c r="G78" s="22" t="s">
@@ -8924,9 +8914,7 @@
       <c r="C79" s="38" t="s">
         <v>105</v>
       </c>
-      <c r="D79" s="22" t="s">
-        <v>57</v>
-      </c>
+      <c r="D79" s="22"/>
       <c r="E79" s="22"/>
       <c r="F79" s="22"/>
       <c r="G79" s="22"/>

--- a/trunk/Document/VietinBankSC Project Plan v2012.009.20.xlsx
+++ b/trunk/Document/VietinBankSC Project Plan v2012.009.20.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="469" uniqueCount="154">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="477" uniqueCount="154">
   <si>
     <t>GVCM</t>
   </si>
@@ -1550,10 +1550,10 @@
   </sheetPr>
   <dimension ref="A1:CU101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A69" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A53" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <pane xSplit="5" topLeftCell="F1" activePane="topRight" state="frozen"/>
       <selection activeCell="A19" sqref="A19"/>
-      <selection pane="topRight" activeCell="E78" sqref="E78"/>
+      <selection pane="topRight" activeCell="C59" sqref="C59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -7978,6 +7978,9 @@
       <c r="CU70" s="1"/>
     </row>
     <row r="71" spans="1:99">
+      <c r="A71" t="s">
+        <v>10</v>
+      </c>
       <c r="B71" s="22">
         <v>651</v>
       </c>
@@ -8104,7 +8107,9 @@
       <c r="C72" s="29" t="s">
         <v>99</v>
       </c>
-      <c r="D72" s="22"/>
+      <c r="D72" s="22" t="s">
+        <v>71</v>
+      </c>
       <c r="E72" s="22"/>
       <c r="F72" s="22"/>
       <c r="G72" s="37" t="s">
@@ -8324,7 +8329,9 @@
       <c r="C74" s="29" t="s">
         <v>100</v>
       </c>
-      <c r="D74" s="22"/>
+      <c r="D74" s="22" t="s">
+        <v>71</v>
+      </c>
       <c r="E74" s="22"/>
       <c r="F74" s="22"/>
       <c r="G74" s="22" t="s">
@@ -8442,7 +8449,9 @@
       <c r="C75" s="29" t="s">
         <v>101</v>
       </c>
-      <c r="D75" s="22"/>
+      <c r="D75" s="22" t="s">
+        <v>134</v>
+      </c>
       <c r="E75" s="22"/>
       <c r="F75" s="22"/>
       <c r="G75" s="22" t="s">
@@ -8560,7 +8569,9 @@
       <c r="C76" s="29" t="s">
         <v>102</v>
       </c>
-      <c r="D76" s="22"/>
+      <c r="D76" s="22" t="s">
+        <v>61</v>
+      </c>
       <c r="E76" s="22"/>
       <c r="F76" s="22"/>
       <c r="G76" s="22" t="s">
@@ -8678,7 +8689,9 @@
       <c r="C77" s="29" t="s">
         <v>103</v>
       </c>
-      <c r="D77" s="22"/>
+      <c r="D77" s="22" t="s">
+        <v>57</v>
+      </c>
       <c r="E77" s="22"/>
       <c r="F77" s="22"/>
       <c r="G77" s="22" t="s">
@@ -8796,7 +8809,9 @@
       <c r="C78" s="38" t="s">
         <v>104</v>
       </c>
-      <c r="D78" s="22"/>
+      <c r="D78" s="22" t="s">
+        <v>57</v>
+      </c>
       <c r="E78" s="22"/>
       <c r="F78" s="22"/>
       <c r="G78" s="22" t="s">
@@ -8914,7 +8929,9 @@
       <c r="C79" s="38" t="s">
         <v>105</v>
       </c>
-      <c r="D79" s="22"/>
+      <c r="D79" s="22" t="s">
+        <v>57</v>
+      </c>
       <c r="E79" s="22"/>
       <c r="F79" s="22"/>
       <c r="G79" s="22"/>

--- a/trunk/Document/VietinBankSC Project Plan v2012.009.20.xlsx
+++ b/trunk/Document/VietinBankSC Project Plan v2012.009.20.xlsx
@@ -1550,10 +1550,10 @@
   </sheetPr>
   <dimension ref="A1:CU101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A53" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A68" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <pane xSplit="5" topLeftCell="F1" activePane="topRight" state="frozen"/>
       <selection activeCell="A19" sqref="A19"/>
-      <selection pane="topRight" activeCell="C59" sqref="C59"/>
+      <selection pane="topRight" activeCell="D78" sqref="D78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -8108,7 +8108,7 @@
         <v>99</v>
       </c>
       <c r="D72" s="22" t="s">
-        <v>71</v>
+        <v>59</v>
       </c>
       <c r="E72" s="22"/>
       <c r="F72" s="22"/>
@@ -8330,7 +8330,7 @@
         <v>100</v>
       </c>
       <c r="D74" s="22" t="s">
-        <v>71</v>
+        <v>59</v>
       </c>
       <c r="E74" s="22"/>
       <c r="F74" s="22"/>
@@ -8450,7 +8450,7 @@
         <v>101</v>
       </c>
       <c r="D75" s="22" t="s">
-        <v>134</v>
+        <v>71</v>
       </c>
       <c r="E75" s="22"/>
       <c r="F75" s="22"/>
@@ -8690,7 +8690,7 @@
         <v>103</v>
       </c>
       <c r="D77" s="22" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="E77" s="22"/>
       <c r="F77" s="22"/>
@@ -8810,7 +8810,7 @@
         <v>104</v>
       </c>
       <c r="D78" s="22" t="s">
-        <v>57</v>
+        <v>71</v>
       </c>
       <c r="E78" s="22"/>
       <c r="F78" s="22"/>
@@ -8930,7 +8930,7 @@
         <v>105</v>
       </c>
       <c r="D79" s="22" t="s">
-        <v>57</v>
+        <v>71</v>
       </c>
       <c r="E79" s="22"/>
       <c r="F79" s="22"/>

--- a/trunk/Document/VietinBankSC Project Plan v2012.009.20.xlsx
+++ b/trunk/Document/VietinBankSC Project Plan v2012.009.20.xlsx
@@ -16,7 +16,7 @@
     <externalReference r:id="rId5"/>
   </externalReferences>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Plan!$A$19:$BF$97</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Plan!$A$19:$BF$103</definedName>
     <definedName name="members">'[1]Thành viên - Vị trí'!$C$3:$C$13</definedName>
   </definedNames>
   <calcPr calcId="124519"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="477" uniqueCount="154">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="502" uniqueCount="161">
   <si>
     <t>GVCM</t>
   </si>
@@ -498,6 +498,27 @@
   </si>
   <si>
     <t>f700_Bao cao tong hop tinh hinh phong toa.xls</t>
+  </si>
+  <si>
+    <t>Lần 4</t>
+  </si>
+  <si>
+    <t>Cài đặt</t>
+  </si>
+  <si>
+    <t>Lần 5</t>
+  </si>
+  <si>
+    <t>Lần 6</t>
+  </si>
+  <si>
+    <t>Lần 7</t>
+  </si>
+  <si>
+    <t>Lần 8</t>
+  </si>
+  <si>
+    <t>17/10</t>
   </si>
 </sst>
 </file>
@@ -736,7 +757,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="19">
+  <dxfs count="63">
     <dxf>
       <fill>
         <patternFill>
@@ -751,6 +772,48 @@
       <fill>
         <patternFill>
           <bgColor rgb="FF0000CC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <gradientFill>
+          <stop position="0">
+            <color rgb="FF0000CC"/>
+          </stop>
+          <stop position="1">
+            <color rgb="FFFF0000"/>
+          </stop>
+        </gradientFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0000CC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.14996795556505021"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
         </patternFill>
       </fill>
     </dxf>
@@ -814,6 +877,44 @@
       </fill>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0000CC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <font>
         <color theme="0"/>
       </font>
@@ -859,6 +960,353 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0000CC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <gradientFill>
+          <stop position="0">
+            <color rgb="FF0000CC"/>
+          </stop>
+          <stop position="1">
+            <color rgb="FFFF0000"/>
+          </stop>
+        </gradientFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0000CC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.14996795556505021"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0000CC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <gradientFill>
+          <stop position="0">
+            <color rgb="FF0000CC"/>
+          </stop>
+          <stop position="1">
+            <color rgb="FFFF0000"/>
+          </stop>
+        </gradientFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0000CC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.14996795556505021"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0000CC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <gradientFill>
+          <stop position="0">
+            <color rgb="FF0000CC"/>
+          </stop>
+          <stop position="1">
+            <color rgb="FFFF0000"/>
+          </stop>
+        </gradientFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0000CC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.14996795556505021"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0000CC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <gradientFill>
+          <stop position="0">
+            <color rgb="FF0000CC"/>
+          </stop>
+          <stop position="1">
+            <color rgb="FFFF0000"/>
+          </stop>
+        </gradientFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0000CC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.14996795556505021"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0000CC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <gradientFill>
+          <stop position="0">
+            <color rgb="FF0000CC"/>
+          </stop>
+          <stop position="1">
+            <color rgb="FFFF0000"/>
+          </stop>
+        </gradientFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0000CC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.14996795556505021"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0000CC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <gradientFill>
+          <stop position="0">
+            <color rgb="FF0000CC"/>
+          </stop>
+          <stop position="1">
+            <color rgb="FFFF0000"/>
+          </stop>
+        </gradientFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0000CC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.14996795556505021"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1548,12 +1996,12 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:CU101"/>
+  <dimension ref="A1:CU107"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A68" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <pane xSplit="5" topLeftCell="F1" activePane="topRight" state="frozen"/>
       <selection activeCell="A19" sqref="A19"/>
-      <selection pane="topRight" activeCell="D78" sqref="D78"/>
+      <selection pane="topRight" activeCell="F29" sqref="F29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1690,7 +2138,7 @@
         <v>58</v>
       </c>
       <c r="D10" s="16">
-        <f>SUMIF($D$20:$D$97,C10,$G$20:$G$97)</f>
+        <f>SUMIF($D$20:$D$103,C10,$G$20:$G$103)</f>
         <v>0</v>
       </c>
       <c r="E10" s="33"/>
@@ -1704,7 +2152,7 @@
         <v>61</v>
       </c>
       <c r="D11" s="16">
-        <f>SUMIF($D$20:$D$97,C11,$G$20:$G$97)</f>
+        <f>SUMIF($D$20:$D$103,C11,$G$20:$G$103)</f>
         <v>0</v>
       </c>
       <c r="E11" s="33"/>
@@ -1728,7 +2176,7 @@
         <v>59</v>
       </c>
       <c r="D13" s="16">
-        <f>SUMIF($D$20:$D$97,C13,$G$20:$G$97)</f>
+        <f>SUMIF($D$20:$D$103,C13,$G$20:$G$103)</f>
         <v>0</v>
       </c>
       <c r="E13" s="33"/>
@@ -1753,7 +2201,7 @@
         <v>57</v>
       </c>
       <c r="D15" s="16">
-        <f>SUMIF($D$20:$D$97,C15,$G$20:$G$97)</f>
+        <f>SUMIF($D$20:$D$103,C15,$G$20:$G$103)</f>
         <v>0</v>
       </c>
       <c r="E15" s="33"/>
@@ -1993,7 +2441,7 @@
         <v>81</v>
       </c>
       <c r="D17" s="16">
-        <f>SUMIF($D$20:$D$97,C17,$G$20:$G$97)</f>
+        <f>SUMIF($D$20:$D$103,C17,$G$20:$G$103)</f>
         <v>0</v>
       </c>
       <c r="E17" s="33"/>
@@ -2922,117 +3370,125 @@
       <c r="CT24" s="1"/>
       <c r="CU24" s="1"/>
     </row>
-    <row r="25" spans="2:99" s="20" customFormat="1">
-      <c r="B25" s="21"/>
-      <c r="C25" s="30" t="s">
-        <v>65</v>
-      </c>
-      <c r="D25" s="21"/>
-      <c r="E25" s="21"/>
-      <c r="F25" s="21"/>
-      <c r="G25" s="21"/>
-      <c r="H25" s="21"/>
-      <c r="I25" s="21"/>
-      <c r="J25" s="21"/>
-      <c r="K25" s="21"/>
-      <c r="L25" s="21"/>
-      <c r="M25" s="21"/>
-      <c r="N25" s="21"/>
-      <c r="O25" s="21"/>
-      <c r="P25" s="21"/>
-      <c r="Q25" s="21"/>
-      <c r="R25" s="21"/>
-      <c r="S25" s="21"/>
-      <c r="T25" s="21"/>
-      <c r="U25" s="21"/>
-      <c r="V25" s="21"/>
-      <c r="W25" s="21"/>
-      <c r="X25" s="21"/>
-      <c r="Y25" s="21"/>
-      <c r="Z25" s="21"/>
-      <c r="AA25" s="21"/>
-      <c r="AB25" s="21"/>
-      <c r="AC25" s="21"/>
-      <c r="AD25" s="21"/>
-      <c r="AE25" s="21"/>
-      <c r="AF25" s="21"/>
-      <c r="AG25" s="21"/>
-      <c r="AH25" s="21"/>
-      <c r="AI25" s="21"/>
-      <c r="AJ25" s="21"/>
-      <c r="AK25" s="21"/>
-      <c r="AL25" s="21"/>
-      <c r="AM25" s="21"/>
-      <c r="AN25" s="21"/>
-      <c r="AO25" s="21"/>
-      <c r="AP25" s="21"/>
-      <c r="AQ25" s="21"/>
-      <c r="AR25" s="21"/>
-      <c r="AS25" s="21"/>
-      <c r="AT25" s="21"/>
-      <c r="AU25" s="21"/>
-      <c r="AV25" s="21"/>
-      <c r="AW25" s="21"/>
-      <c r="AX25" s="21"/>
-      <c r="AY25" s="21"/>
-      <c r="AZ25" s="21"/>
-      <c r="BA25" s="21"/>
-      <c r="BB25" s="21"/>
-      <c r="BC25" s="21"/>
-      <c r="BD25" s="21"/>
-      <c r="BE25" s="21"/>
-      <c r="BF25" s="21"/>
-      <c r="BG25" s="21"/>
-      <c r="BH25" s="21"/>
-      <c r="BI25" s="21"/>
-      <c r="BJ25" s="21"/>
-      <c r="BK25" s="21"/>
-      <c r="BL25" s="21"/>
-      <c r="BM25" s="21"/>
-      <c r="BN25" s="21"/>
-      <c r="BO25" s="21"/>
-      <c r="BP25" s="21"/>
-      <c r="BQ25" s="21"/>
-      <c r="BR25" s="21"/>
-      <c r="BS25" s="21"/>
-      <c r="BT25" s="21"/>
-      <c r="BU25" s="21"/>
-      <c r="BV25" s="21"/>
-      <c r="BW25" s="21"/>
-      <c r="BX25" s="21"/>
-      <c r="BY25" s="21"/>
-      <c r="BZ25" s="21"/>
-      <c r="CA25" s="21"/>
-      <c r="CB25" s="21"/>
-      <c r="CC25" s="21"/>
-      <c r="CD25" s="21"/>
-      <c r="CE25" s="21"/>
-      <c r="CF25" s="21"/>
-      <c r="CG25" s="21"/>
-      <c r="CH25" s="21"/>
-      <c r="CI25" s="21"/>
-      <c r="CJ25" s="21"/>
-      <c r="CK25" s="21"/>
-      <c r="CL25" s="21"/>
-      <c r="CM25" s="21"/>
-      <c r="CN25" s="21"/>
-      <c r="CO25" s="21"/>
-      <c r="CP25" s="21"/>
-      <c r="CQ25" s="21"/>
-      <c r="CR25" s="21"/>
-      <c r="CS25" s="21"/>
-      <c r="CT25" s="21"/>
-      <c r="CU25" s="21"/>
+    <row r="25" spans="2:99">
+      <c r="B25" s="22"/>
+      <c r="C25" s="29" t="s">
+        <v>154</v>
+      </c>
+      <c r="D25" s="22" t="s">
+        <v>71</v>
+      </c>
+      <c r="E25" s="22" t="s">
+        <v>59</v>
+      </c>
+      <c r="F25" s="22"/>
+      <c r="G25" s="22"/>
+      <c r="H25" s="23"/>
+      <c r="I25" s="23"/>
+      <c r="J25" s="23" t="s">
+        <v>40</v>
+      </c>
+      <c r="K25" s="22"/>
+      <c r="L25" s="1"/>
+      <c r="M25" s="1"/>
+      <c r="N25" s="1"/>
+      <c r="O25" s="1"/>
+      <c r="P25" s="1"/>
+      <c r="Q25" s="1"/>
+      <c r="R25" s="1"/>
+      <c r="S25" s="1"/>
+      <c r="T25" s="1"/>
+      <c r="U25" s="1"/>
+      <c r="V25" s="1"/>
+      <c r="W25" s="1"/>
+      <c r="X25" s="1"/>
+      <c r="Y25" s="1"/>
+      <c r="Z25" s="1"/>
+      <c r="AA25" s="1"/>
+      <c r="AB25" s="1"/>
+      <c r="AC25" s="1"/>
+      <c r="AD25" s="1"/>
+      <c r="AE25" s="1"/>
+      <c r="AF25" s="1"/>
+      <c r="AG25" s="1"/>
+      <c r="AH25" s="1"/>
+      <c r="AI25" s="1"/>
+      <c r="AJ25" s="1"/>
+      <c r="AK25" s="1"/>
+      <c r="AL25" s="1"/>
+      <c r="AM25" s="1"/>
+      <c r="AN25" s="1"/>
+      <c r="AO25" s="1"/>
+      <c r="AP25" s="1"/>
+      <c r="AQ25" s="1"/>
+      <c r="AR25" s="1"/>
+      <c r="AS25" s="1"/>
+      <c r="AT25" s="1"/>
+      <c r="AU25" s="1"/>
+      <c r="AV25" s="1"/>
+      <c r="AW25" s="1"/>
+      <c r="AX25" s="1"/>
+      <c r="AY25" s="1"/>
+      <c r="AZ25" s="1"/>
+      <c r="BA25" s="1"/>
+      <c r="BB25" s="1"/>
+      <c r="BC25" s="1"/>
+      <c r="BD25" s="1"/>
+      <c r="BE25" s="1"/>
+      <c r="BF25" s="1"/>
+      <c r="BG25" s="1"/>
+      <c r="BH25" s="1"/>
+      <c r="BI25" s="1"/>
+      <c r="BJ25" s="1"/>
+      <c r="BK25" s="1"/>
+      <c r="BL25" s="1"/>
+      <c r="BM25" s="1"/>
+      <c r="BN25" s="1"/>
+      <c r="BO25" s="1"/>
+      <c r="BP25" s="1"/>
+      <c r="BQ25" s="1"/>
+      <c r="BR25" s="1"/>
+      <c r="BS25" s="1"/>
+      <c r="BT25" s="1"/>
+      <c r="BU25" s="1"/>
+      <c r="BV25" s="1"/>
+      <c r="BW25" s="1"/>
+      <c r="BX25" s="1"/>
+      <c r="BY25" s="1"/>
+      <c r="BZ25" s="1"/>
+      <c r="CA25" s="1"/>
+      <c r="CB25" s="1"/>
+      <c r="CC25" s="1"/>
+      <c r="CD25" s="1"/>
+      <c r="CE25" s="1"/>
+      <c r="CF25" s="1"/>
+      <c r="CG25" s="1"/>
+      <c r="CH25" s="1"/>
+      <c r="CI25" s="1"/>
+      <c r="CJ25" s="1"/>
+      <c r="CK25" s="1"/>
+      <c r="CL25" s="1"/>
+      <c r="CM25" s="1"/>
+      <c r="CN25" s="1"/>
+      <c r="CO25" s="1"/>
+      <c r="CP25" s="1"/>
+      <c r="CQ25" s="1"/>
+      <c r="CR25" s="1"/>
+      <c r="CS25" s="1"/>
+      <c r="CT25" s="1"/>
+      <c r="CU25" s="1"/>
     </row>
     <row r="26" spans="2:99">
       <c r="B26" s="22"/>
       <c r="C26" s="29" t="s">
-        <v>66</v>
+        <v>156</v>
       </c>
       <c r="D26" s="22" t="s">
-        <v>67</v>
-      </c>
-      <c r="E26" s="22"/>
+        <v>71</v>
+      </c>
+      <c r="E26" s="22" t="s">
+        <v>59</v>
+      </c>
       <c r="F26" s="22"/>
       <c r="G26" s="22"/>
       <c r="H26" s="23"/>
@@ -3133,13 +3589,13 @@
     <row r="27" spans="2:99">
       <c r="B27" s="22"/>
       <c r="C27" s="29" t="s">
-        <v>68</v>
+        <v>157</v>
       </c>
       <c r="D27" s="22" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E27" s="22" t="s">
-        <v>71</v>
+        <v>59</v>
       </c>
       <c r="F27" s="22"/>
       <c r="G27" s="22"/>
@@ -3241,13 +3697,13 @@
     <row r="28" spans="2:99">
       <c r="B28" s="22"/>
       <c r="C28" s="29" t="s">
-        <v>69</v>
+        <v>155</v>
       </c>
       <c r="D28" s="22" t="s">
+        <v>71</v>
+      </c>
+      <c r="E28" s="22" t="s">
         <v>59</v>
-      </c>
-      <c r="E28" s="22" t="s">
-        <v>67</v>
       </c>
       <c r="F28" s="22"/>
       <c r="G28" s="22"/>
@@ -3349,17 +3805,15 @@
     <row r="29" spans="2:99">
       <c r="B29" s="22"/>
       <c r="C29" s="29" t="s">
-        <v>72</v>
+        <v>158</v>
       </c>
       <c r="D29" s="22" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="E29" s="22" t="s">
-        <v>58</v>
-      </c>
-      <c r="F29" s="22" t="s">
         <v>59</v>
       </c>
+      <c r="F29" s="22"/>
       <c r="G29" s="22"/>
       <c r="H29" s="23"/>
       <c r="I29" s="23"/>
@@ -3459,13 +3913,17 @@
     <row r="30" spans="2:99">
       <c r="B30" s="22"/>
       <c r="C30" s="29" t="s">
-        <v>96</v>
+        <v>159</v>
       </c>
       <c r="D30" s="22" t="s">
-        <v>58</v>
-      </c>
-      <c r="E30" s="22"/>
-      <c r="F30" s="22"/>
+        <v>71</v>
+      </c>
+      <c r="E30" s="22" t="s">
+        <v>59</v>
+      </c>
+      <c r="F30" s="22" t="s">
+        <v>160</v>
+      </c>
       <c r="G30" s="22"/>
       <c r="H30" s="23"/>
       <c r="I30" s="23"/>
@@ -3562,123 +4020,117 @@
       <c r="CT30" s="1"/>
       <c r="CU30" s="1"/>
     </row>
-    <row r="31" spans="2:99">
-      <c r="B31" s="22"/>
-      <c r="C31" s="29" t="s">
-        <v>97</v>
-      </c>
-      <c r="D31" s="22" t="s">
-        <v>59</v>
-      </c>
-      <c r="E31" s="22"/>
-      <c r="F31" s="22"/>
-      <c r="G31" s="22"/>
-      <c r="H31" s="23"/>
-      <c r="I31" s="23"/>
-      <c r="J31" s="23" t="s">
-        <v>40</v>
-      </c>
-      <c r="K31" s="22"/>
-      <c r="L31" s="1"/>
-      <c r="M31" s="1"/>
-      <c r="N31" s="1"/>
-      <c r="O31" s="1"/>
-      <c r="P31" s="1"/>
-      <c r="Q31" s="1"/>
-      <c r="R31" s="1"/>
-      <c r="S31" s="1"/>
-      <c r="T31" s="1"/>
-      <c r="U31" s="1"/>
-      <c r="V31" s="1"/>
-      <c r="W31" s="1"/>
-      <c r="X31" s="1"/>
-      <c r="Y31" s="1"/>
-      <c r="Z31" s="1"/>
-      <c r="AA31" s="1"/>
-      <c r="AB31" s="1"/>
-      <c r="AC31" s="1"/>
-      <c r="AD31" s="1"/>
-      <c r="AE31" s="1"/>
-      <c r="AF31" s="1"/>
-      <c r="AG31" s="1"/>
-      <c r="AH31" s="1"/>
-      <c r="AI31" s="1"/>
-      <c r="AJ31" s="1"/>
-      <c r="AK31" s="1"/>
-      <c r="AL31" s="1"/>
-      <c r="AM31" s="1"/>
-      <c r="AN31" s="1"/>
-      <c r="AO31" s="1"/>
-      <c r="AP31" s="1"/>
-      <c r="AQ31" s="1"/>
-      <c r="AR31" s="1"/>
-      <c r="AS31" s="1"/>
-      <c r="AT31" s="1"/>
-      <c r="AU31" s="1"/>
-      <c r="AV31" s="1"/>
-      <c r="AW31" s="1"/>
-      <c r="AX31" s="1"/>
-      <c r="AY31" s="1"/>
-      <c r="AZ31" s="1"/>
-      <c r="BA31" s="1"/>
-      <c r="BB31" s="1"/>
-      <c r="BC31" s="1"/>
-      <c r="BD31" s="1"/>
-      <c r="BE31" s="1"/>
-      <c r="BF31" s="1"/>
-      <c r="BG31" s="1"/>
-      <c r="BH31" s="1"/>
-      <c r="BI31" s="1"/>
-      <c r="BJ31" s="1"/>
-      <c r="BK31" s="1"/>
-      <c r="BL31" s="1"/>
-      <c r="BM31" s="1"/>
-      <c r="BN31" s="1"/>
-      <c r="BO31" s="1"/>
-      <c r="BP31" s="1"/>
-      <c r="BQ31" s="1"/>
-      <c r="BR31" s="1"/>
-      <c r="BS31" s="1"/>
-      <c r="BT31" s="1"/>
-      <c r="BU31" s="1"/>
-      <c r="BV31" s="1"/>
-      <c r="BW31" s="1"/>
-      <c r="BX31" s="1"/>
-      <c r="BY31" s="1"/>
-      <c r="BZ31" s="1"/>
-      <c r="CA31" s="1"/>
-      <c r="CB31" s="1"/>
-      <c r="CC31" s="1"/>
-      <c r="CD31" s="1"/>
-      <c r="CE31" s="1"/>
-      <c r="CF31" s="1"/>
-      <c r="CG31" s="1"/>
-      <c r="CH31" s="1"/>
-      <c r="CI31" s="1"/>
-      <c r="CJ31" s="1"/>
-      <c r="CK31" s="1"/>
-      <c r="CL31" s="1"/>
-      <c r="CM31" s="1"/>
-      <c r="CN31" s="1"/>
-      <c r="CO31" s="1"/>
-      <c r="CP31" s="1"/>
-      <c r="CQ31" s="1"/>
-      <c r="CR31" s="1"/>
-      <c r="CS31" s="1"/>
-      <c r="CT31" s="1"/>
-      <c r="CU31" s="1"/>
+    <row r="31" spans="2:99" s="20" customFormat="1">
+      <c r="B31" s="21"/>
+      <c r="C31" s="30" t="s">
+        <v>65</v>
+      </c>
+      <c r="D31" s="21"/>
+      <c r="E31" s="21"/>
+      <c r="F31" s="21"/>
+      <c r="G31" s="21"/>
+      <c r="H31" s="21"/>
+      <c r="I31" s="21"/>
+      <c r="J31" s="21"/>
+      <c r="K31" s="21"/>
+      <c r="L31" s="21"/>
+      <c r="M31" s="21"/>
+      <c r="N31" s="21"/>
+      <c r="O31" s="21"/>
+      <c r="P31" s="21"/>
+      <c r="Q31" s="21"/>
+      <c r="R31" s="21"/>
+      <c r="S31" s="21"/>
+      <c r="T31" s="21"/>
+      <c r="U31" s="21"/>
+      <c r="V31" s="21"/>
+      <c r="W31" s="21"/>
+      <c r="X31" s="21"/>
+      <c r="Y31" s="21"/>
+      <c r="Z31" s="21"/>
+      <c r="AA31" s="21"/>
+      <c r="AB31" s="21"/>
+      <c r="AC31" s="21"/>
+      <c r="AD31" s="21"/>
+      <c r="AE31" s="21"/>
+      <c r="AF31" s="21"/>
+      <c r="AG31" s="21"/>
+      <c r="AH31" s="21"/>
+      <c r="AI31" s="21"/>
+      <c r="AJ31" s="21"/>
+      <c r="AK31" s="21"/>
+      <c r="AL31" s="21"/>
+      <c r="AM31" s="21"/>
+      <c r="AN31" s="21"/>
+      <c r="AO31" s="21"/>
+      <c r="AP31" s="21"/>
+      <c r="AQ31" s="21"/>
+      <c r="AR31" s="21"/>
+      <c r="AS31" s="21"/>
+      <c r="AT31" s="21"/>
+      <c r="AU31" s="21"/>
+      <c r="AV31" s="21"/>
+      <c r="AW31" s="21"/>
+      <c r="AX31" s="21"/>
+      <c r="AY31" s="21"/>
+      <c r="AZ31" s="21"/>
+      <c r="BA31" s="21"/>
+      <c r="BB31" s="21"/>
+      <c r="BC31" s="21"/>
+      <c r="BD31" s="21"/>
+      <c r="BE31" s="21"/>
+      <c r="BF31" s="21"/>
+      <c r="BG31" s="21"/>
+      <c r="BH31" s="21"/>
+      <c r="BI31" s="21"/>
+      <c r="BJ31" s="21"/>
+      <c r="BK31" s="21"/>
+      <c r="BL31" s="21"/>
+      <c r="BM31" s="21"/>
+      <c r="BN31" s="21"/>
+      <c r="BO31" s="21"/>
+      <c r="BP31" s="21"/>
+      <c r="BQ31" s="21"/>
+      <c r="BR31" s="21"/>
+      <c r="BS31" s="21"/>
+      <c r="BT31" s="21"/>
+      <c r="BU31" s="21"/>
+      <c r="BV31" s="21"/>
+      <c r="BW31" s="21"/>
+      <c r="BX31" s="21"/>
+      <c r="BY31" s="21"/>
+      <c r="BZ31" s="21"/>
+      <c r="CA31" s="21"/>
+      <c r="CB31" s="21"/>
+      <c r="CC31" s="21"/>
+      <c r="CD31" s="21"/>
+      <c r="CE31" s="21"/>
+      <c r="CF31" s="21"/>
+      <c r="CG31" s="21"/>
+      <c r="CH31" s="21"/>
+      <c r="CI31" s="21"/>
+      <c r="CJ31" s="21"/>
+      <c r="CK31" s="21"/>
+      <c r="CL31" s="21"/>
+      <c r="CM31" s="21"/>
+      <c r="CN31" s="21"/>
+      <c r="CO31" s="21"/>
+      <c r="CP31" s="21"/>
+      <c r="CQ31" s="21"/>
+      <c r="CR31" s="21"/>
+      <c r="CS31" s="21"/>
+      <c r="CT31" s="21"/>
+      <c r="CU31" s="21"/>
     </row>
     <row r="32" spans="2:99">
       <c r="B32" s="22"/>
       <c r="C32" s="29" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="D32" s="22" t="s">
-        <v>74</v>
-      </c>
-      <c r="E32" s="22" t="s">
-        <v>75</v>
-      </c>
+        <v>67</v>
+      </c>
+      <c r="E32" s="22"/>
       <c r="F32" s="22"/>
       <c r="G32" s="22"/>
       <c r="H32" s="23"/>
@@ -3778,14 +4230,22 @@
     </row>
     <row r="33" spans="1:99">
       <c r="B33" s="22"/>
-      <c r="C33" s="29"/>
-      <c r="D33" s="29"/>
-      <c r="E33" s="22"/>
+      <c r="C33" s="29" t="s">
+        <v>68</v>
+      </c>
+      <c r="D33" s="22" t="s">
+        <v>70</v>
+      </c>
+      <c r="E33" s="22" t="s">
+        <v>71</v>
+      </c>
       <c r="F33" s="22"/>
       <c r="G33" s="22"/>
       <c r="H33" s="23"/>
       <c r="I33" s="23"/>
-      <c r="J33" s="23"/>
+      <c r="J33" s="23" t="s">
+        <v>40</v>
+      </c>
       <c r="K33" s="22"/>
       <c r="L33" s="1"/>
       <c r="M33" s="1"/>
@@ -3876,120 +4336,128 @@
       <c r="CT33" s="1"/>
       <c r="CU33" s="1"/>
     </row>
-    <row r="34" spans="1:99" s="20" customFormat="1">
-      <c r="B34" s="21"/>
-      <c r="C34" s="30" t="s">
-        <v>49</v>
-      </c>
-      <c r="D34" s="21"/>
-      <c r="E34" s="21"/>
-      <c r="F34" s="21"/>
-      <c r="G34" s="21"/>
-      <c r="H34" s="21"/>
-      <c r="I34" s="21"/>
-      <c r="J34" s="21"/>
-      <c r="K34" s="21"/>
-      <c r="L34" s="21"/>
-      <c r="M34" s="21"/>
-      <c r="N34" s="21"/>
-      <c r="O34" s="21"/>
-      <c r="P34" s="21"/>
-      <c r="Q34" s="21"/>
-      <c r="R34" s="21"/>
-      <c r="S34" s="21"/>
-      <c r="T34" s="21"/>
-      <c r="U34" s="21"/>
-      <c r="V34" s="21"/>
-      <c r="W34" s="21"/>
-      <c r="X34" s="21"/>
-      <c r="Y34" s="21"/>
-      <c r="Z34" s="21"/>
-      <c r="AA34" s="21"/>
-      <c r="AB34" s="21"/>
-      <c r="AC34" s="21"/>
-      <c r="AD34" s="21"/>
-      <c r="AE34" s="21"/>
-      <c r="AF34" s="21"/>
-      <c r="AG34" s="21"/>
-      <c r="AH34" s="21"/>
-      <c r="AI34" s="21"/>
-      <c r="AJ34" s="21"/>
-      <c r="AK34" s="21"/>
-      <c r="AL34" s="21"/>
-      <c r="AM34" s="21"/>
-      <c r="AN34" s="21"/>
-      <c r="AO34" s="21"/>
-      <c r="AP34" s="21"/>
-      <c r="AQ34" s="21"/>
-      <c r="AR34" s="21"/>
-      <c r="AS34" s="21"/>
-      <c r="AT34" s="21"/>
-      <c r="AU34" s="21"/>
-      <c r="AV34" s="21"/>
-      <c r="AW34" s="21"/>
-      <c r="AX34" s="21"/>
-      <c r="AY34" s="21"/>
-      <c r="AZ34" s="21"/>
-      <c r="BA34" s="21"/>
-      <c r="BB34" s="21"/>
-      <c r="BC34" s="21"/>
-      <c r="BD34" s="21"/>
-      <c r="BE34" s="21"/>
-      <c r="BF34" s="21"/>
-      <c r="BG34" s="21"/>
-      <c r="BH34" s="21"/>
-      <c r="BI34" s="21"/>
-      <c r="BJ34" s="21"/>
-      <c r="BK34" s="21"/>
-      <c r="BL34" s="21"/>
-      <c r="BM34" s="21"/>
-      <c r="BN34" s="21"/>
-      <c r="BO34" s="21"/>
-      <c r="BP34" s="21"/>
-      <c r="BQ34" s="21"/>
-      <c r="BR34" s="21"/>
-      <c r="BS34" s="21"/>
-      <c r="BT34" s="21"/>
-      <c r="BU34" s="21"/>
-      <c r="BV34" s="21"/>
-      <c r="BW34" s="21"/>
-      <c r="BX34" s="21"/>
-      <c r="BY34" s="21"/>
-      <c r="BZ34" s="21"/>
-      <c r="CA34" s="21"/>
-      <c r="CB34" s="21"/>
-      <c r="CC34" s="21"/>
-      <c r="CD34" s="21"/>
-      <c r="CE34" s="21"/>
-      <c r="CF34" s="21"/>
-      <c r="CG34" s="21"/>
-      <c r="CH34" s="21"/>
-      <c r="CI34" s="21"/>
-      <c r="CJ34" s="21"/>
-      <c r="CK34" s="21"/>
-      <c r="CL34" s="21"/>
-      <c r="CM34" s="21"/>
-      <c r="CN34" s="21"/>
-      <c r="CO34" s="21"/>
-      <c r="CP34" s="21"/>
-      <c r="CQ34" s="21"/>
-      <c r="CR34" s="21"/>
-      <c r="CS34" s="21"/>
-      <c r="CT34" s="21"/>
-      <c r="CU34" s="21"/>
+    <row r="34" spans="1:99">
+      <c r="B34" s="22"/>
+      <c r="C34" s="29" t="s">
+        <v>69</v>
+      </c>
+      <c r="D34" s="22" t="s">
+        <v>59</v>
+      </c>
+      <c r="E34" s="22" t="s">
+        <v>67</v>
+      </c>
+      <c r="F34" s="22"/>
+      <c r="G34" s="22"/>
+      <c r="H34" s="23"/>
+      <c r="I34" s="23"/>
+      <c r="J34" s="23" t="s">
+        <v>40</v>
+      </c>
+      <c r="K34" s="22"/>
+      <c r="L34" s="1"/>
+      <c r="M34" s="1"/>
+      <c r="N34" s="1"/>
+      <c r="O34" s="1"/>
+      <c r="P34" s="1"/>
+      <c r="Q34" s="1"/>
+      <c r="R34" s="1"/>
+      <c r="S34" s="1"/>
+      <c r="T34" s="1"/>
+      <c r="U34" s="1"/>
+      <c r="V34" s="1"/>
+      <c r="W34" s="1"/>
+      <c r="X34" s="1"/>
+      <c r="Y34" s="1"/>
+      <c r="Z34" s="1"/>
+      <c r="AA34" s="1"/>
+      <c r="AB34" s="1"/>
+      <c r="AC34" s="1"/>
+      <c r="AD34" s="1"/>
+      <c r="AE34" s="1"/>
+      <c r="AF34" s="1"/>
+      <c r="AG34" s="1"/>
+      <c r="AH34" s="1"/>
+      <c r="AI34" s="1"/>
+      <c r="AJ34" s="1"/>
+      <c r="AK34" s="1"/>
+      <c r="AL34" s="1"/>
+      <c r="AM34" s="1"/>
+      <c r="AN34" s="1"/>
+      <c r="AO34" s="1"/>
+      <c r="AP34" s="1"/>
+      <c r="AQ34" s="1"/>
+      <c r="AR34" s="1"/>
+      <c r="AS34" s="1"/>
+      <c r="AT34" s="1"/>
+      <c r="AU34" s="1"/>
+      <c r="AV34" s="1"/>
+      <c r="AW34" s="1"/>
+      <c r="AX34" s="1"/>
+      <c r="AY34" s="1"/>
+      <c r="AZ34" s="1"/>
+      <c r="BA34" s="1"/>
+      <c r="BB34" s="1"/>
+      <c r="BC34" s="1"/>
+      <c r="BD34" s="1"/>
+      <c r="BE34" s="1"/>
+      <c r="BF34" s="1"/>
+      <c r="BG34" s="1"/>
+      <c r="BH34" s="1"/>
+      <c r="BI34" s="1"/>
+      <c r="BJ34" s="1"/>
+      <c r="BK34" s="1"/>
+      <c r="BL34" s="1"/>
+      <c r="BM34" s="1"/>
+      <c r="BN34" s="1"/>
+      <c r="BO34" s="1"/>
+      <c r="BP34" s="1"/>
+      <c r="BQ34" s="1"/>
+      <c r="BR34" s="1"/>
+      <c r="BS34" s="1"/>
+      <c r="BT34" s="1"/>
+      <c r="BU34" s="1"/>
+      <c r="BV34" s="1"/>
+      <c r="BW34" s="1"/>
+      <c r="BX34" s="1"/>
+      <c r="BY34" s="1"/>
+      <c r="BZ34" s="1"/>
+      <c r="CA34" s="1"/>
+      <c r="CB34" s="1"/>
+      <c r="CC34" s="1"/>
+      <c r="CD34" s="1"/>
+      <c r="CE34" s="1"/>
+      <c r="CF34" s="1"/>
+      <c r="CG34" s="1"/>
+      <c r="CH34" s="1"/>
+      <c r="CI34" s="1"/>
+      <c r="CJ34" s="1"/>
+      <c r="CK34" s="1"/>
+      <c r="CL34" s="1"/>
+      <c r="CM34" s="1"/>
+      <c r="CN34" s="1"/>
+      <c r="CO34" s="1"/>
+      <c r="CP34" s="1"/>
+      <c r="CQ34" s="1"/>
+      <c r="CR34" s="1"/>
+      <c r="CS34" s="1"/>
+      <c r="CT34" s="1"/>
+      <c r="CU34" s="1"/>
     </row>
     <row r="35" spans="1:99">
       <c r="B35" s="22"/>
       <c r="C35" s="29" t="s">
-        <v>56</v>
+        <v>72</v>
       </c>
       <c r="D35" s="22" t="s">
+        <v>67</v>
+      </c>
+      <c r="E35" s="22" t="s">
         <v>58</v>
       </c>
-      <c r="E35" s="22" t="s">
+      <c r="F35" s="22" t="s">
         <v>59</v>
       </c>
-      <c r="F35" s="22"/>
       <c r="G35" s="22"/>
       <c r="H35" s="23"/>
       <c r="I35" s="23"/>
@@ -4089,7 +4557,7 @@
     <row r="36" spans="1:99">
       <c r="B36" s="22"/>
       <c r="C36" s="29" t="s">
-        <v>50</v>
+        <v>96</v>
       </c>
       <c r="D36" s="22" t="s">
         <v>58</v>
@@ -4195,10 +4663,10 @@
     <row r="37" spans="1:99">
       <c r="B37" s="22"/>
       <c r="C37" s="29" t="s">
-        <v>51</v>
+        <v>97</v>
       </c>
       <c r="D37" s="22" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E37" s="22"/>
       <c r="F37" s="22"/>
@@ -4301,12 +4769,14 @@
     <row r="38" spans="1:99">
       <c r="B38" s="22"/>
       <c r="C38" s="29" t="s">
-        <v>98</v>
-      </c>
-      <c r="D38" s="29" t="s">
-        <v>58</v>
-      </c>
-      <c r="E38" s="22"/>
+        <v>73</v>
+      </c>
+      <c r="D38" s="22" t="s">
+        <v>74</v>
+      </c>
+      <c r="E38" s="22" t="s">
+        <v>75</v>
+      </c>
       <c r="F38" s="22"/>
       <c r="G38" s="22"/>
       <c r="H38" s="23"/>
@@ -4407,7 +4877,7 @@
     <row r="39" spans="1:99">
       <c r="B39" s="22"/>
       <c r="C39" s="29"/>
-      <c r="D39" s="22"/>
+      <c r="D39" s="29"/>
       <c r="E39" s="22"/>
       <c r="F39" s="22"/>
       <c r="G39" s="22"/>
@@ -4507,17 +4977,11 @@
     <row r="40" spans="1:99" s="20" customFormat="1">
       <c r="B40" s="21"/>
       <c r="C40" s="30" t="s">
-        <v>133</v>
-      </c>
-      <c r="D40" s="21" t="s">
-        <v>130</v>
-      </c>
-      <c r="E40" s="21" t="s">
-        <v>131</v>
-      </c>
-      <c r="F40" s="21" t="s">
-        <v>57</v>
-      </c>
+        <v>49</v>
+      </c>
+      <c r="D40" s="21"/>
+      <c r="E40" s="21"/>
+      <c r="F40" s="21"/>
       <c r="G40" s="21"/>
       <c r="H40" s="21"/>
       <c r="I40" s="21"/>
@@ -4613,15 +5077,16 @@
       <c r="CU40" s="21"/>
     </row>
     <row r="41" spans="1:99">
-      <c r="A41" t="s">
-        <v>10</v>
-      </c>
       <c r="B41" s="22"/>
       <c r="C41" s="29" t="s">
-        <v>114</v>
-      </c>
-      <c r="D41" s="22"/>
-      <c r="E41" s="22"/>
+        <v>56</v>
+      </c>
+      <c r="D41" s="22" t="s">
+        <v>58</v>
+      </c>
+      <c r="E41" s="22" t="s">
+        <v>59</v>
+      </c>
       <c r="F41" s="22"/>
       <c r="G41" s="22"/>
       <c r="H41" s="23"/>
@@ -4720,14 +5185,13 @@
       <c r="CU41" s="1"/>
     </row>
     <row r="42" spans="1:99">
-      <c r="A42" t="s">
-        <v>10</v>
-      </c>
       <c r="B42" s="22"/>
       <c r="C42" s="29" t="s">
-        <v>115</v>
-      </c>
-      <c r="D42" s="22"/>
+        <v>50</v>
+      </c>
+      <c r="D42" s="22" t="s">
+        <v>58</v>
+      </c>
       <c r="E42" s="22"/>
       <c r="F42" s="22"/>
       <c r="G42" s="22"/>
@@ -4827,14 +5291,13 @@
       <c r="CU42" s="1"/>
     </row>
     <row r="43" spans="1:99">
-      <c r="A43" t="s">
-        <v>10</v>
-      </c>
       <c r="B43" s="22"/>
       <c r="C43" s="29" t="s">
-        <v>116</v>
-      </c>
-      <c r="D43" s="22"/>
+        <v>51</v>
+      </c>
+      <c r="D43" s="22" t="s">
+        <v>58</v>
+      </c>
       <c r="E43" s="22"/>
       <c r="F43" s="22"/>
       <c r="G43" s="22"/>
@@ -4934,25 +5397,20 @@
       <c r="CU43" s="1"/>
     </row>
     <row r="44" spans="1:99">
-      <c r="A44" t="s">
-        <v>10</v>
-      </c>
       <c r="B44" s="22"/>
       <c r="C44" s="29" t="s">
-        <v>95</v>
-      </c>
-      <c r="D44" s="22" t="s">
-        <v>81</v>
-      </c>
-      <c r="E44" s="22" t="s">
-        <v>60</v>
-      </c>
+        <v>98</v>
+      </c>
+      <c r="D44" s="29" t="s">
+        <v>58</v>
+      </c>
+      <c r="E44" s="22"/>
       <c r="F44" s="22"/>
       <c r="G44" s="22"/>
       <c r="H44" s="23"/>
       <c r="I44" s="23"/>
       <c r="J44" s="23" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K44" s="22"/>
       <c r="L44" s="1"/>
@@ -5008,12 +5466,8 @@
       <c r="BJ44" s="1"/>
       <c r="BK44" s="1"/>
       <c r="BL44" s="1"/>
-      <c r="BM44" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="BN44" s="1" t="s">
-        <v>138</v>
-      </c>
+      <c r="BM44" s="1"/>
+      <c r="BN44" s="1"/>
       <c r="BO44" s="1"/>
       <c r="BP44" s="1"/>
       <c r="BQ44" s="1"/>
@@ -5049,26 +5503,15 @@
       <c r="CU44" s="1"/>
     </row>
     <row r="45" spans="1:99">
-      <c r="A45" t="s">
-        <v>10</v>
-      </c>
       <c r="B45" s="22"/>
-      <c r="C45" s="29" t="s">
-        <v>132</v>
-      </c>
-      <c r="D45" s="22" t="s">
-        <v>61</v>
-      </c>
-      <c r="E45" s="22" t="s">
-        <v>61</v>
-      </c>
+      <c r="C45" s="29"/>
+      <c r="D45" s="22"/>
+      <c r="E45" s="22"/>
       <c r="F45" s="22"/>
       <c r="G45" s="22"/>
       <c r="H45" s="23"/>
       <c r="I45" s="23"/>
-      <c r="J45" s="23" t="s">
-        <v>39</v>
-      </c>
+      <c r="J45" s="23"/>
       <c r="K45" s="22"/>
       <c r="L45" s="1"/>
       <c r="M45" s="1"/>
@@ -5123,12 +5566,11 @@
       <c r="BJ45" s="1"/>
       <c r="BK45" s="1"/>
       <c r="BL45" s="1"/>
-      <c r="BM45" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="BN45" s="1" t="s">
-        <v>138</v>
-      </c>
+      <c r="BM45" s="1"/>
+      <c r="BN45" s="1"/>
+      <c r="BO45" s="1"/>
+      <c r="BP45" s="1"/>
+      <c r="BQ45" s="1"/>
       <c r="BR45" s="1"/>
       <c r="BS45" s="1"/>
       <c r="BT45" s="1"/>
@@ -5160,126 +5602,113 @@
       <c r="CT45" s="1"/>
       <c r="CU45" s="1"/>
     </row>
-    <row r="46" spans="1:99">
-      <c r="A46" t="s">
-        <v>10</v>
-      </c>
-      <c r="B46" s="22"/>
-      <c r="C46" s="29" t="s">
-        <v>120</v>
-      </c>
-      <c r="D46" s="22" t="s">
-        <v>84</v>
-      </c>
-      <c r="E46" s="22" t="s">
-        <v>84</v>
-      </c>
-      <c r="F46" s="22"/>
-      <c r="G46" s="22"/>
-      <c r="H46" s="23"/>
-      <c r="I46" s="23"/>
-      <c r="J46" s="23" t="s">
-        <v>39</v>
-      </c>
-      <c r="K46" s="22"/>
-      <c r="L46" s="1"/>
-      <c r="M46" s="1"/>
-      <c r="N46" s="1"/>
-      <c r="O46" s="1"/>
-      <c r="P46" s="1"/>
-      <c r="Q46" s="1"/>
-      <c r="R46" s="1"/>
-      <c r="S46" s="1"/>
-      <c r="T46" s="1"/>
-      <c r="U46" s="1"/>
-      <c r="V46" s="1"/>
-      <c r="W46" s="1"/>
-      <c r="X46" s="1"/>
-      <c r="Y46" s="1"/>
-      <c r="Z46" s="1"/>
-      <c r="AA46" s="1"/>
-      <c r="AB46" s="1"/>
-      <c r="AC46" s="1"/>
-      <c r="AD46" s="1"/>
-      <c r="AE46" s="1"/>
-      <c r="AF46" s="1"/>
-      <c r="AG46" s="1"/>
-      <c r="AH46" s="1"/>
-      <c r="AI46" s="1"/>
-      <c r="AJ46" s="1"/>
-      <c r="AK46" s="1"/>
-      <c r="AL46" s="1"/>
-      <c r="AM46" s="1"/>
-      <c r="AN46" s="1"/>
-      <c r="AO46" s="1"/>
-      <c r="AP46" s="1"/>
-      <c r="AQ46" s="1"/>
-      <c r="AR46" s="1"/>
-      <c r="AS46" s="1"/>
-      <c r="AT46" s="1"/>
-      <c r="AU46" s="1"/>
-      <c r="AV46" s="1"/>
-      <c r="AW46" s="1"/>
-      <c r="AX46" s="1"/>
-      <c r="AY46" s="1"/>
-      <c r="AZ46" s="1"/>
-      <c r="BA46" s="1"/>
-      <c r="BB46" s="1"/>
-      <c r="BC46" s="1"/>
-      <c r="BD46" s="1"/>
-      <c r="BE46" s="1"/>
-      <c r="BF46" s="1"/>
-      <c r="BG46" s="1"/>
-      <c r="BH46" s="1"/>
-      <c r="BI46" s="1"/>
-      <c r="BJ46" s="1"/>
-      <c r="BK46" s="1"/>
-      <c r="BL46" s="1"/>
-      <c r="BM46" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="BN46" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="BO46" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="BP46" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="BQ46" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="BR46" s="1"/>
-      <c r="BS46" s="1"/>
-      <c r="BT46" s="1"/>
-      <c r="BU46" s="1"/>
-      <c r="BV46" s="1"/>
-      <c r="BW46" s="1"/>
-      <c r="BX46" s="1"/>
-      <c r="BY46" s="1"/>
-      <c r="BZ46" s="1"/>
-      <c r="CA46" s="1"/>
-      <c r="CB46" s="1"/>
-      <c r="CC46" s="1"/>
-      <c r="CD46" s="1"/>
-      <c r="CE46" s="1"/>
-      <c r="CF46" s="1"/>
-      <c r="CG46" s="1"/>
-      <c r="CH46" s="1"/>
-      <c r="CI46" s="1"/>
-      <c r="CJ46" s="1"/>
-      <c r="CK46" s="1"/>
-      <c r="CL46" s="1"/>
-      <c r="CM46" s="1"/>
-      <c r="CN46" s="1"/>
-      <c r="CO46" s="1"/>
-      <c r="CP46" s="1"/>
-      <c r="CQ46" s="1"/>
-      <c r="CR46" s="1"/>
-      <c r="CS46" s="1"/>
-      <c r="CT46" s="1"/>
-      <c r="CU46" s="1"/>
+    <row r="46" spans="1:99" s="20" customFormat="1">
+      <c r="B46" s="21"/>
+      <c r="C46" s="30" t="s">
+        <v>133</v>
+      </c>
+      <c r="D46" s="21" t="s">
+        <v>130</v>
+      </c>
+      <c r="E46" s="21" t="s">
+        <v>131</v>
+      </c>
+      <c r="F46" s="21" t="s">
+        <v>57</v>
+      </c>
+      <c r="G46" s="21"/>
+      <c r="H46" s="21"/>
+      <c r="I46" s="21"/>
+      <c r="J46" s="21"/>
+      <c r="K46" s="21"/>
+      <c r="L46" s="21"/>
+      <c r="M46" s="21"/>
+      <c r="N46" s="21"/>
+      <c r="O46" s="21"/>
+      <c r="P46" s="21"/>
+      <c r="Q46" s="21"/>
+      <c r="R46" s="21"/>
+      <c r="S46" s="21"/>
+      <c r="T46" s="21"/>
+      <c r="U46" s="21"/>
+      <c r="V46" s="21"/>
+      <c r="W46" s="21"/>
+      <c r="X46" s="21"/>
+      <c r="Y46" s="21"/>
+      <c r="Z46" s="21"/>
+      <c r="AA46" s="21"/>
+      <c r="AB46" s="21"/>
+      <c r="AC46" s="21"/>
+      <c r="AD46" s="21"/>
+      <c r="AE46" s="21"/>
+      <c r="AF46" s="21"/>
+      <c r="AG46" s="21"/>
+      <c r="AH46" s="21"/>
+      <c r="AI46" s="21"/>
+      <c r="AJ46" s="21"/>
+      <c r="AK46" s="21"/>
+      <c r="AL46" s="21"/>
+      <c r="AM46" s="21"/>
+      <c r="AN46" s="21"/>
+      <c r="AO46" s="21"/>
+      <c r="AP46" s="21"/>
+      <c r="AQ46" s="21"/>
+      <c r="AR46" s="21"/>
+      <c r="AS46" s="21"/>
+      <c r="AT46" s="21"/>
+      <c r="AU46" s="21"/>
+      <c r="AV46" s="21"/>
+      <c r="AW46" s="21"/>
+      <c r="AX46" s="21"/>
+      <c r="AY46" s="21"/>
+      <c r="AZ46" s="21"/>
+      <c r="BA46" s="21"/>
+      <c r="BB46" s="21"/>
+      <c r="BC46" s="21"/>
+      <c r="BD46" s="21"/>
+      <c r="BE46" s="21"/>
+      <c r="BF46" s="21"/>
+      <c r="BG46" s="21"/>
+      <c r="BH46" s="21"/>
+      <c r="BI46" s="21"/>
+      <c r="BJ46" s="21"/>
+      <c r="BK46" s="21"/>
+      <c r="BL46" s="21"/>
+      <c r="BM46" s="21"/>
+      <c r="BN46" s="21"/>
+      <c r="BO46" s="21"/>
+      <c r="BP46" s="21"/>
+      <c r="BQ46" s="21"/>
+      <c r="BR46" s="21"/>
+      <c r="BS46" s="21"/>
+      <c r="BT46" s="21"/>
+      <c r="BU46" s="21"/>
+      <c r="BV46" s="21"/>
+      <c r="BW46" s="21"/>
+      <c r="BX46" s="21"/>
+      <c r="BY46" s="21"/>
+      <c r="BZ46" s="21"/>
+      <c r="CA46" s="21"/>
+      <c r="CB46" s="21"/>
+      <c r="CC46" s="21"/>
+      <c r="CD46" s="21"/>
+      <c r="CE46" s="21"/>
+      <c r="CF46" s="21"/>
+      <c r="CG46" s="21"/>
+      <c r="CH46" s="21"/>
+      <c r="CI46" s="21"/>
+      <c r="CJ46" s="21"/>
+      <c r="CK46" s="21"/>
+      <c r="CL46" s="21"/>
+      <c r="CM46" s="21"/>
+      <c r="CN46" s="21"/>
+      <c r="CO46" s="21"/>
+      <c r="CP46" s="21"/>
+      <c r="CQ46" s="21"/>
+      <c r="CR46" s="21"/>
+      <c r="CS46" s="21"/>
+      <c r="CT46" s="21"/>
+      <c r="CU46" s="21"/>
     </row>
     <row r="47" spans="1:99">
       <c r="A47" t="s">
@@ -5287,14 +5716,10 @@
       </c>
       <c r="B47" s="22"/>
       <c r="C47" s="29" t="s">
-        <v>93</v>
-      </c>
-      <c r="D47" s="22" t="s">
-        <v>81</v>
-      </c>
-      <c r="E47" s="22" t="s">
-        <v>59</v>
-      </c>
+        <v>114</v>
+      </c>
+      <c r="D47" s="22"/>
+      <c r="E47" s="22"/>
       <c r="F47" s="22"/>
       <c r="G47" s="22"/>
       <c r="H47" s="23"/>
@@ -5398,20 +5823,16 @@
       </c>
       <c r="B48" s="22"/>
       <c r="C48" s="29" t="s">
-        <v>94</v>
-      </c>
-      <c r="D48" s="22" t="s">
-        <v>81</v>
-      </c>
-      <c r="E48" s="22" t="s">
-        <v>84</v>
-      </c>
+        <v>115</v>
+      </c>
+      <c r="D48" s="22"/>
+      <c r="E48" s="22"/>
       <c r="F48" s="22"/>
       <c r="G48" s="22"/>
       <c r="H48" s="23"/>
       <c r="I48" s="23"/>
       <c r="J48" s="23" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K48" s="22"/>
       <c r="L48" s="1"/>
@@ -5467,21 +5888,11 @@
       <c r="BJ48" s="1"/>
       <c r="BK48" s="1"/>
       <c r="BL48" s="1"/>
-      <c r="BM48" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="BN48" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="BO48" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="BP48" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="BQ48" s="1" t="s">
-        <v>138</v>
-      </c>
+      <c r="BM48" s="1"/>
+      <c r="BN48" s="1"/>
+      <c r="BO48" s="1"/>
+      <c r="BP48" s="1"/>
+      <c r="BQ48" s="1"/>
       <c r="BR48" s="1"/>
       <c r="BS48" s="1"/>
       <c r="BT48" s="1"/>
@@ -5519,7 +5930,7 @@
       </c>
       <c r="B49" s="22"/>
       <c r="C49" s="29" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D49" s="22"/>
       <c r="E49" s="22"/>
@@ -5626,16 +6037,20 @@
       </c>
       <c r="B50" s="22"/>
       <c r="C50" s="29" t="s">
-        <v>118</v>
-      </c>
-      <c r="D50" s="22"/>
-      <c r="E50" s="22"/>
+        <v>95</v>
+      </c>
+      <c r="D50" s="22" t="s">
+        <v>81</v>
+      </c>
+      <c r="E50" s="22" t="s">
+        <v>60</v>
+      </c>
       <c r="F50" s="22"/>
       <c r="G50" s="22"/>
       <c r="H50" s="23"/>
       <c r="I50" s="23"/>
       <c r="J50" s="23" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K50" s="22"/>
       <c r="L50" s="1"/>
@@ -5691,8 +6106,12 @@
       <c r="BJ50" s="1"/>
       <c r="BK50" s="1"/>
       <c r="BL50" s="1"/>
-      <c r="BM50" s="1"/>
-      <c r="BN50" s="1"/>
+      <c r="BM50" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="BN50" s="1" t="s">
+        <v>138</v>
+      </c>
       <c r="BO50" s="1"/>
       <c r="BP50" s="1"/>
       <c r="BQ50" s="1"/>
@@ -5733,16 +6152,20 @@
       </c>
       <c r="B51" s="22"/>
       <c r="C51" s="29" t="s">
-        <v>119</v>
-      </c>
-      <c r="D51" s="22"/>
-      <c r="E51" s="22"/>
+        <v>132</v>
+      </c>
+      <c r="D51" s="22" t="s">
+        <v>61</v>
+      </c>
+      <c r="E51" s="22" t="s">
+        <v>61</v>
+      </c>
       <c r="F51" s="22"/>
       <c r="G51" s="22"/>
       <c r="H51" s="23"/>
       <c r="I51" s="23"/>
       <c r="J51" s="23" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K51" s="22"/>
       <c r="L51" s="1"/>
@@ -5798,11 +6221,12 @@
       <c r="BJ51" s="1"/>
       <c r="BK51" s="1"/>
       <c r="BL51" s="1"/>
-      <c r="BM51" s="1"/>
-      <c r="BN51" s="1"/>
-      <c r="BO51" s="1"/>
-      <c r="BP51" s="1"/>
-      <c r="BQ51" s="1"/>
+      <c r="BM51" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="BN51" s="1" t="s">
+        <v>138</v>
+      </c>
       <c r="BR51" s="1"/>
       <c r="BS51" s="1"/>
       <c r="BT51" s="1"/>
@@ -5835,15 +6259,26 @@
       <c r="CU51" s="1"/>
     </row>
     <row r="52" spans="1:99">
+      <c r="A52" t="s">
+        <v>10</v>
+      </c>
       <c r="B52" s="22"/>
-      <c r="C52" s="29"/>
-      <c r="D52" s="22"/>
-      <c r="E52" s="22"/>
+      <c r="C52" s="29" t="s">
+        <v>120</v>
+      </c>
+      <c r="D52" s="22" t="s">
+        <v>84</v>
+      </c>
+      <c r="E52" s="22" t="s">
+        <v>84</v>
+      </c>
       <c r="F52" s="22"/>
       <c r="G52" s="22"/>
       <c r="H52" s="23"/>
       <c r="I52" s="23"/>
-      <c r="J52" s="23"/>
+      <c r="J52" s="23" t="s">
+        <v>39</v>
+      </c>
       <c r="K52" s="22"/>
       <c r="L52" s="1"/>
       <c r="M52" s="1"/>
@@ -5898,11 +6333,21 @@
       <c r="BJ52" s="1"/>
       <c r="BK52" s="1"/>
       <c r="BL52" s="1"/>
-      <c r="BM52" s="1"/>
-      <c r="BN52" s="1"/>
-      <c r="BO52" s="1"/>
-      <c r="BP52" s="1"/>
-      <c r="BQ52" s="1"/>
+      <c r="BM52" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="BN52" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="BO52" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="BP52" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="BQ52" s="1" t="s">
+        <v>138</v>
+      </c>
       <c r="BR52" s="1"/>
       <c r="BS52" s="1"/>
       <c r="BT52" s="1"/>
@@ -5935,15 +6380,26 @@
       <c r="CU52" s="1"/>
     </row>
     <row r="53" spans="1:99">
+      <c r="A53" t="s">
+        <v>10</v>
+      </c>
       <c r="B53" s="22"/>
-      <c r="C53" s="29"/>
-      <c r="D53" s="22"/>
-      <c r="E53" s="22"/>
+      <c r="C53" s="29" t="s">
+        <v>93</v>
+      </c>
+      <c r="D53" s="22" t="s">
+        <v>81</v>
+      </c>
+      <c r="E53" s="22" t="s">
+        <v>59</v>
+      </c>
       <c r="F53" s="22"/>
       <c r="G53" s="22"/>
       <c r="H53" s="23"/>
       <c r="I53" s="23"/>
-      <c r="J53" s="23"/>
+      <c r="J53" s="23" t="s">
+        <v>40</v>
+      </c>
       <c r="K53" s="22"/>
       <c r="L53" s="1"/>
       <c r="M53" s="1"/>
@@ -6035,15 +6491,26 @@
       <c r="CU53" s="1"/>
     </row>
     <row r="54" spans="1:99">
+      <c r="A54" t="s">
+        <v>10</v>
+      </c>
       <c r="B54" s="22"/>
-      <c r="C54" s="29"/>
-      <c r="D54" s="22"/>
-      <c r="E54" s="22"/>
+      <c r="C54" s="29" t="s">
+        <v>94</v>
+      </c>
+      <c r="D54" s="22" t="s">
+        <v>81</v>
+      </c>
+      <c r="E54" s="22" t="s">
+        <v>84</v>
+      </c>
       <c r="F54" s="22"/>
       <c r="G54" s="22"/>
       <c r="H54" s="23"/>
       <c r="I54" s="23"/>
-      <c r="J54" s="23"/>
+      <c r="J54" s="23" t="s">
+        <v>39</v>
+      </c>
       <c r="K54" s="22"/>
       <c r="L54" s="1"/>
       <c r="M54" s="1"/>
@@ -6098,11 +6565,21 @@
       <c r="BJ54" s="1"/>
       <c r="BK54" s="1"/>
       <c r="BL54" s="1"/>
-      <c r="BM54" s="1"/>
-      <c r="BN54" s="1"/>
-      <c r="BO54" s="1"/>
-      <c r="BP54" s="1"/>
-      <c r="BQ54" s="1"/>
+      <c r="BM54" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="BN54" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="BO54" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="BP54" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="BQ54" s="1" t="s">
+        <v>138</v>
+      </c>
       <c r="BR54" s="1"/>
       <c r="BS54" s="1"/>
       <c r="BT54" s="1"/>
@@ -6134,111 +6611,112 @@
       <c r="CT54" s="1"/>
       <c r="CU54" s="1"/>
     </row>
-    <row r="55" spans="1:99" s="20" customFormat="1">
-      <c r="B55" s="21"/>
-      <c r="C55" s="30" t="s">
-        <v>128</v>
-      </c>
-      <c r="D55" s="21" t="s">
-        <v>80</v>
-      </c>
-      <c r="E55" s="21" t="s">
-        <v>79</v>
-      </c>
-      <c r="F55" s="21"/>
-      <c r="G55" s="21"/>
-      <c r="H55" s="21"/>
-      <c r="I55" s="21"/>
-      <c r="J55" s="21"/>
-      <c r="K55" s="21"/>
-      <c r="L55" s="21"/>
-      <c r="M55" s="21"/>
-      <c r="N55" s="21"/>
-      <c r="O55" s="21"/>
-      <c r="P55" s="21"/>
-      <c r="Q55" s="21"/>
-      <c r="R55" s="21"/>
-      <c r="S55" s="21"/>
-      <c r="T55" s="21"/>
-      <c r="U55" s="21"/>
-      <c r="V55" s="21"/>
-      <c r="W55" s="21"/>
-      <c r="X55" s="21"/>
-      <c r="Y55" s="21"/>
-      <c r="Z55" s="21"/>
-      <c r="AA55" s="21"/>
-      <c r="AB55" s="21"/>
-      <c r="AC55" s="21"/>
-      <c r="AD55" s="21"/>
-      <c r="AE55" s="21"/>
-      <c r="AF55" s="21"/>
-      <c r="AG55" s="21"/>
-      <c r="AH55" s="21"/>
-      <c r="AI55" s="21"/>
-      <c r="AJ55" s="21"/>
-      <c r="AK55" s="21"/>
-      <c r="AL55" s="21"/>
-      <c r="AM55" s="21"/>
-      <c r="AN55" s="21"/>
-      <c r="AO55" s="21"/>
-      <c r="AP55" s="21"/>
-      <c r="AQ55" s="21"/>
-      <c r="AR55" s="21"/>
-      <c r="AS55" s="21"/>
-      <c r="AT55" s="21"/>
-      <c r="AU55" s="21"/>
-      <c r="AV55" s="21"/>
-      <c r="AW55" s="21"/>
-      <c r="AX55" s="21"/>
-      <c r="AY55" s="21"/>
-      <c r="AZ55" s="21"/>
-      <c r="BA55" s="21"/>
-      <c r="BB55" s="21"/>
-      <c r="BC55" s="21"/>
-      <c r="BD55" s="21"/>
-      <c r="BE55" s="21"/>
-      <c r="BF55" s="21"/>
-      <c r="BG55" s="21"/>
-      <c r="BH55" s="21"/>
-      <c r="BI55" s="21"/>
-      <c r="BJ55" s="21"/>
-      <c r="BK55" s="21"/>
-      <c r="BL55" s="21"/>
-      <c r="BM55" s="21"/>
-      <c r="BN55" s="21"/>
-      <c r="BO55" s="21"/>
-      <c r="BP55" s="21"/>
-      <c r="BQ55" s="21"/>
-      <c r="BR55" s="21"/>
-      <c r="BS55" s="21"/>
-      <c r="BT55" s="21"/>
-      <c r="BU55" s="21"/>
-      <c r="BV55" s="21"/>
-      <c r="BW55" s="21"/>
-      <c r="BX55" s="21"/>
-      <c r="BY55" s="21"/>
-      <c r="BZ55" s="21"/>
-      <c r="CA55" s="21"/>
-      <c r="CB55" s="21"/>
-      <c r="CC55" s="21"/>
-      <c r="CD55" s="21"/>
-      <c r="CE55" s="21"/>
-      <c r="CF55" s="21"/>
-      <c r="CG55" s="21"/>
-      <c r="CH55" s="21"/>
-      <c r="CI55" s="21"/>
-      <c r="CJ55" s="21"/>
-      <c r="CK55" s="21"/>
-      <c r="CL55" s="21"/>
-      <c r="CM55" s="21"/>
-      <c r="CN55" s="21"/>
-      <c r="CO55" s="21"/>
-      <c r="CP55" s="21"/>
-      <c r="CQ55" s="21"/>
-      <c r="CR55" s="21"/>
-      <c r="CS55" s="21"/>
-      <c r="CT55" s="21"/>
-      <c r="CU55" s="21"/>
+    <row r="55" spans="1:99">
+      <c r="A55" t="s">
+        <v>10</v>
+      </c>
+      <c r="B55" s="22"/>
+      <c r="C55" s="29" t="s">
+        <v>117</v>
+      </c>
+      <c r="D55" s="22"/>
+      <c r="E55" s="22"/>
+      <c r="F55" s="22"/>
+      <c r="G55" s="22"/>
+      <c r="H55" s="23"/>
+      <c r="I55" s="23"/>
+      <c r="J55" s="23" t="s">
+        <v>40</v>
+      </c>
+      <c r="K55" s="22"/>
+      <c r="L55" s="1"/>
+      <c r="M55" s="1"/>
+      <c r="N55" s="1"/>
+      <c r="O55" s="1"/>
+      <c r="P55" s="1"/>
+      <c r="Q55" s="1"/>
+      <c r="R55" s="1"/>
+      <c r="S55" s="1"/>
+      <c r="T55" s="1"/>
+      <c r="U55" s="1"/>
+      <c r="V55" s="1"/>
+      <c r="W55" s="1"/>
+      <c r="X55" s="1"/>
+      <c r="Y55" s="1"/>
+      <c r="Z55" s="1"/>
+      <c r="AA55" s="1"/>
+      <c r="AB55" s="1"/>
+      <c r="AC55" s="1"/>
+      <c r="AD55" s="1"/>
+      <c r="AE55" s="1"/>
+      <c r="AF55" s="1"/>
+      <c r="AG55" s="1"/>
+      <c r="AH55" s="1"/>
+      <c r="AI55" s="1"/>
+      <c r="AJ55" s="1"/>
+      <c r="AK55" s="1"/>
+      <c r="AL55" s="1"/>
+      <c r="AM55" s="1"/>
+      <c r="AN55" s="1"/>
+      <c r="AO55" s="1"/>
+      <c r="AP55" s="1"/>
+      <c r="AQ55" s="1"/>
+      <c r="AR55" s="1"/>
+      <c r="AS55" s="1"/>
+      <c r="AT55" s="1"/>
+      <c r="AU55" s="1"/>
+      <c r="AV55" s="1"/>
+      <c r="AW55" s="1"/>
+      <c r="AX55" s="1"/>
+      <c r="AY55" s="1"/>
+      <c r="AZ55" s="1"/>
+      <c r="BA55" s="1"/>
+      <c r="BB55" s="1"/>
+      <c r="BC55" s="1"/>
+      <c r="BD55" s="1"/>
+      <c r="BE55" s="1"/>
+      <c r="BF55" s="1"/>
+      <c r="BG55" s="1"/>
+      <c r="BH55" s="1"/>
+      <c r="BI55" s="1"/>
+      <c r="BJ55" s="1"/>
+      <c r="BK55" s="1"/>
+      <c r="BL55" s="1"/>
+      <c r="BM55" s="1"/>
+      <c r="BN55" s="1"/>
+      <c r="BO55" s="1"/>
+      <c r="BP55" s="1"/>
+      <c r="BQ55" s="1"/>
+      <c r="BR55" s="1"/>
+      <c r="BS55" s="1"/>
+      <c r="BT55" s="1"/>
+      <c r="BU55" s="1"/>
+      <c r="BV55" s="1"/>
+      <c r="BW55" s="1"/>
+      <c r="BX55" s="1"/>
+      <c r="BY55" s="1"/>
+      <c r="BZ55" s="1"/>
+      <c r="CA55" s="1"/>
+      <c r="CB55" s="1"/>
+      <c r="CC55" s="1"/>
+      <c r="CD55" s="1"/>
+      <c r="CE55" s="1"/>
+      <c r="CF55" s="1"/>
+      <c r="CG55" s="1"/>
+      <c r="CH55" s="1"/>
+      <c r="CI55" s="1"/>
+      <c r="CJ55" s="1"/>
+      <c r="CK55" s="1"/>
+      <c r="CL55" s="1"/>
+      <c r="CM55" s="1"/>
+      <c r="CN55" s="1"/>
+      <c r="CO55" s="1"/>
+      <c r="CP55" s="1"/>
+      <c r="CQ55" s="1"/>
+      <c r="CR55" s="1"/>
+      <c r="CS55" s="1"/>
+      <c r="CT55" s="1"/>
+      <c r="CU55" s="1"/>
     </row>
     <row r="56" spans="1:99">
       <c r="A56" t="s">
@@ -6246,20 +6724,16 @@
       </c>
       <c r="B56" s="22"/>
       <c r="C56" s="29" t="s">
-        <v>124</v>
-      </c>
-      <c r="D56" s="22" t="s">
-        <v>60</v>
-      </c>
-      <c r="E56" s="22" t="s">
-        <v>81</v>
-      </c>
+        <v>118</v>
+      </c>
+      <c r="D56" s="22"/>
+      <c r="E56" s="22"/>
       <c r="F56" s="22"/>
       <c r="G56" s="22"/>
       <c r="H56" s="23"/>
       <c r="I56" s="23"/>
       <c r="J56" s="23" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K56" s="22"/>
       <c r="L56" s="1"/>
@@ -6357,20 +6831,16 @@
       </c>
       <c r="B57" s="22"/>
       <c r="C57" s="29" t="s">
-        <v>125</v>
-      </c>
-      <c r="D57" s="22" t="s">
-        <v>60</v>
-      </c>
-      <c r="E57" s="22" t="s">
-        <v>81</v>
-      </c>
+        <v>119</v>
+      </c>
+      <c r="D57" s="22"/>
+      <c r="E57" s="22"/>
       <c r="F57" s="22"/>
       <c r="G57" s="22"/>
       <c r="H57" s="23"/>
       <c r="I57" s="23"/>
       <c r="J57" s="23" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K57" s="22"/>
       <c r="L57" s="1"/>
@@ -6463,26 +6933,15 @@
       <c r="CU57" s="1"/>
     </row>
     <row r="58" spans="1:99">
-      <c r="A58" t="s">
-        <v>10</v>
-      </c>
       <c r="B58" s="22"/>
-      <c r="C58" s="29" t="s">
-        <v>126</v>
-      </c>
-      <c r="D58" s="22" t="s">
-        <v>61</v>
-      </c>
-      <c r="E58" s="22" t="s">
-        <v>61</v>
-      </c>
+      <c r="C58" s="29"/>
+      <c r="D58" s="22"/>
+      <c r="E58" s="22"/>
       <c r="F58" s="22"/>
       <c r="G58" s="22"/>
       <c r="H58" s="23"/>
       <c r="I58" s="23"/>
-      <c r="J58" s="23" t="s">
-        <v>39</v>
-      </c>
+      <c r="J58" s="23"/>
       <c r="K58" s="22"/>
       <c r="L58" s="1"/>
       <c r="M58" s="1"/>
@@ -6537,21 +6996,11 @@
       <c r="BJ58" s="1"/>
       <c r="BK58" s="1"/>
       <c r="BL58" s="1"/>
-      <c r="BM58" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="BN58" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="BO58" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="BP58" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="BQ58" s="1" t="s">
-        <v>138</v>
-      </c>
+      <c r="BM58" s="1"/>
+      <c r="BN58" s="1"/>
+      <c r="BO58" s="1"/>
+      <c r="BP58" s="1"/>
+      <c r="BQ58" s="1"/>
       <c r="BR58" s="1"/>
       <c r="BS58" s="1"/>
       <c r="BT58" s="1"/>
@@ -6584,26 +7033,15 @@
       <c r="CU58" s="1"/>
     </row>
     <row r="59" spans="1:99">
-      <c r="A59" t="s">
-        <v>10</v>
-      </c>
       <c r="B59" s="22"/>
-      <c r="C59" s="29" t="s">
-        <v>127</v>
-      </c>
-      <c r="D59" s="22" t="s">
-        <v>61</v>
-      </c>
-      <c r="E59" s="22" t="s">
-        <v>61</v>
-      </c>
+      <c r="C59" s="29"/>
+      <c r="D59" s="22"/>
+      <c r="E59" s="22"/>
       <c r="F59" s="22"/>
       <c r="G59" s="22"/>
       <c r="H59" s="23"/>
       <c r="I59" s="23"/>
-      <c r="J59" s="23" t="s">
-        <v>39</v>
-      </c>
+      <c r="J59" s="23"/>
       <c r="K59" s="22"/>
       <c r="L59" s="1"/>
       <c r="M59" s="1"/>
@@ -6658,21 +7096,11 @@
       <c r="BJ59" s="1"/>
       <c r="BK59" s="1"/>
       <c r="BL59" s="1"/>
-      <c r="BM59" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="BN59" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="BO59" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="BP59" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="BQ59" s="1" t="s">
-        <v>138</v>
-      </c>
+      <c r="BM59" s="1"/>
+      <c r="BN59" s="1"/>
+      <c r="BO59" s="1"/>
+      <c r="BP59" s="1"/>
+      <c r="BQ59" s="1"/>
       <c r="BR59" s="1"/>
       <c r="BS59" s="1"/>
       <c r="BT59" s="1"/>
@@ -6706,22 +7134,14 @@
     </row>
     <row r="60" spans="1:99">
       <c r="B60" s="22"/>
-      <c r="C60" s="29" t="s">
-        <v>121</v>
-      </c>
-      <c r="D60" s="22" t="s">
-        <v>58</v>
-      </c>
-      <c r="E60" s="22" t="s">
-        <v>58</v>
-      </c>
+      <c r="C60" s="29"/>
+      <c r="D60" s="22"/>
+      <c r="E60" s="22"/>
       <c r="F60" s="22"/>
       <c r="G60" s="22"/>
       <c r="H60" s="23"/>
       <c r="I60" s="23"/>
-      <c r="J60" s="23" t="s">
-        <v>39</v>
-      </c>
+      <c r="J60" s="23"/>
       <c r="K60" s="22"/>
       <c r="L60" s="1"/>
       <c r="M60" s="1"/>
@@ -6776,21 +7196,11 @@
       <c r="BJ60" s="1"/>
       <c r="BK60" s="1"/>
       <c r="BL60" s="1"/>
-      <c r="BM60" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="BN60" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="BO60" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="BP60" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="BQ60" s="1" t="s">
-        <v>138</v>
-      </c>
+      <c r="BM60" s="1"/>
+      <c r="BN60" s="1"/>
+      <c r="BO60" s="1"/>
+      <c r="BP60" s="1"/>
+      <c r="BQ60" s="1"/>
       <c r="BR60" s="1"/>
       <c r="BS60" s="1"/>
       <c r="BT60" s="1"/>
@@ -6822,123 +7232,111 @@
       <c r="CT60" s="1"/>
       <c r="CU60" s="1"/>
     </row>
-    <row r="61" spans="1:99">
-      <c r="B61" s="22"/>
-      <c r="C61" s="29" t="s">
-        <v>122</v>
-      </c>
-      <c r="D61" s="22" t="s">
-        <v>71</v>
-      </c>
-      <c r="E61" s="22" t="s">
-        <v>71</v>
-      </c>
-      <c r="F61" s="22"/>
-      <c r="G61" s="22"/>
-      <c r="H61" s="23"/>
-      <c r="I61" s="23"/>
-      <c r="J61" s="23" t="s">
-        <v>39</v>
-      </c>
-      <c r="K61" s="22"/>
-      <c r="L61" s="1"/>
-      <c r="M61" s="1"/>
-      <c r="N61" s="1"/>
-      <c r="O61" s="1"/>
-      <c r="P61" s="1"/>
-      <c r="Q61" s="1"/>
-      <c r="R61" s="1"/>
-      <c r="S61" s="1"/>
-      <c r="T61" s="1"/>
-      <c r="U61" s="1"/>
-      <c r="V61" s="1"/>
-      <c r="W61" s="1"/>
-      <c r="X61" s="1"/>
-      <c r="Y61" s="1"/>
-      <c r="Z61" s="1"/>
-      <c r="AA61" s="1"/>
-      <c r="AB61" s="1"/>
-      <c r="AC61" s="1"/>
-      <c r="AD61" s="1"/>
-      <c r="AE61" s="1"/>
-      <c r="AF61" s="1"/>
-      <c r="AG61" s="1"/>
-      <c r="AH61" s="1"/>
-      <c r="AI61" s="1"/>
-      <c r="AJ61" s="1"/>
-      <c r="AK61" s="1"/>
-      <c r="AL61" s="1"/>
-      <c r="AM61" s="1"/>
-      <c r="AN61" s="1"/>
-      <c r="AO61" s="1"/>
-      <c r="AP61" s="1"/>
-      <c r="AQ61" s="1"/>
-      <c r="AR61" s="1"/>
-      <c r="AS61" s="1"/>
-      <c r="AT61" s="1"/>
-      <c r="AU61" s="1"/>
-      <c r="AV61" s="1"/>
-      <c r="AW61" s="1"/>
-      <c r="AX61" s="1"/>
-      <c r="AY61" s="1"/>
-      <c r="AZ61" s="1"/>
-      <c r="BA61" s="1"/>
-      <c r="BB61" s="1"/>
-      <c r="BC61" s="1"/>
-      <c r="BD61" s="1"/>
-      <c r="BE61" s="1"/>
-      <c r="BF61" s="1"/>
-      <c r="BG61" s="1"/>
-      <c r="BH61" s="1"/>
-      <c r="BI61" s="1"/>
-      <c r="BJ61" s="1"/>
-      <c r="BK61" s="1"/>
-      <c r="BL61" s="1"/>
-      <c r="BM61" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="BN61" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="BO61" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="BP61" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="BQ61" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="BR61" s="1"/>
-      <c r="BS61" s="1"/>
-      <c r="BT61" s="1"/>
-      <c r="BU61" s="1"/>
-      <c r="BV61" s="1"/>
-      <c r="BW61" s="1"/>
-      <c r="BX61" s="1"/>
-      <c r="BY61" s="1"/>
-      <c r="BZ61" s="1"/>
-      <c r="CA61" s="1"/>
-      <c r="CB61" s="1"/>
-      <c r="CC61" s="1"/>
-      <c r="CD61" s="1"/>
-      <c r="CE61" s="1"/>
-      <c r="CF61" s="1"/>
-      <c r="CG61" s="1"/>
-      <c r="CH61" s="1"/>
-      <c r="CI61" s="1"/>
-      <c r="CJ61" s="1"/>
-      <c r="CK61" s="1"/>
-      <c r="CL61" s="1"/>
-      <c r="CM61" s="1"/>
-      <c r="CN61" s="1"/>
-      <c r="CO61" s="1"/>
-      <c r="CP61" s="1"/>
-      <c r="CQ61" s="1"/>
-      <c r="CR61" s="1"/>
-      <c r="CS61" s="1"/>
-      <c r="CT61" s="1"/>
-      <c r="CU61" s="1"/>
+    <row r="61" spans="1:99" s="20" customFormat="1">
+      <c r="B61" s="21"/>
+      <c r="C61" s="30" t="s">
+        <v>128</v>
+      </c>
+      <c r="D61" s="21" t="s">
+        <v>80</v>
+      </c>
+      <c r="E61" s="21" t="s">
+        <v>79</v>
+      </c>
+      <c r="F61" s="21"/>
+      <c r="G61" s="21"/>
+      <c r="H61" s="21"/>
+      <c r="I61" s="21"/>
+      <c r="J61" s="21"/>
+      <c r="K61" s="21"/>
+      <c r="L61" s="21"/>
+      <c r="M61" s="21"/>
+      <c r="N61" s="21"/>
+      <c r="O61" s="21"/>
+      <c r="P61" s="21"/>
+      <c r="Q61" s="21"/>
+      <c r="R61" s="21"/>
+      <c r="S61" s="21"/>
+      <c r="T61" s="21"/>
+      <c r="U61" s="21"/>
+      <c r="V61" s="21"/>
+      <c r="W61" s="21"/>
+      <c r="X61" s="21"/>
+      <c r="Y61" s="21"/>
+      <c r="Z61" s="21"/>
+      <c r="AA61" s="21"/>
+      <c r="AB61" s="21"/>
+      <c r="AC61" s="21"/>
+      <c r="AD61" s="21"/>
+      <c r="AE61" s="21"/>
+      <c r="AF61" s="21"/>
+      <c r="AG61" s="21"/>
+      <c r="AH61" s="21"/>
+      <c r="AI61" s="21"/>
+      <c r="AJ61" s="21"/>
+      <c r="AK61" s="21"/>
+      <c r="AL61" s="21"/>
+      <c r="AM61" s="21"/>
+      <c r="AN61" s="21"/>
+      <c r="AO61" s="21"/>
+      <c r="AP61" s="21"/>
+      <c r="AQ61" s="21"/>
+      <c r="AR61" s="21"/>
+      <c r="AS61" s="21"/>
+      <c r="AT61" s="21"/>
+      <c r="AU61" s="21"/>
+      <c r="AV61" s="21"/>
+      <c r="AW61" s="21"/>
+      <c r="AX61" s="21"/>
+      <c r="AY61" s="21"/>
+      <c r="AZ61" s="21"/>
+      <c r="BA61" s="21"/>
+      <c r="BB61" s="21"/>
+      <c r="BC61" s="21"/>
+      <c r="BD61" s="21"/>
+      <c r="BE61" s="21"/>
+      <c r="BF61" s="21"/>
+      <c r="BG61" s="21"/>
+      <c r="BH61" s="21"/>
+      <c r="BI61" s="21"/>
+      <c r="BJ61" s="21"/>
+      <c r="BK61" s="21"/>
+      <c r="BL61" s="21"/>
+      <c r="BM61" s="21"/>
+      <c r="BN61" s="21"/>
+      <c r="BO61" s="21"/>
+      <c r="BP61" s="21"/>
+      <c r="BQ61" s="21"/>
+      <c r="BR61" s="21"/>
+      <c r="BS61" s="21"/>
+      <c r="BT61" s="21"/>
+      <c r="BU61" s="21"/>
+      <c r="BV61" s="21"/>
+      <c r="BW61" s="21"/>
+      <c r="BX61" s="21"/>
+      <c r="BY61" s="21"/>
+      <c r="BZ61" s="21"/>
+      <c r="CA61" s="21"/>
+      <c r="CB61" s="21"/>
+      <c r="CC61" s="21"/>
+      <c r="CD61" s="21"/>
+      <c r="CE61" s="21"/>
+      <c r="CF61" s="21"/>
+      <c r="CG61" s="21"/>
+      <c r="CH61" s="21"/>
+      <c r="CI61" s="21"/>
+      <c r="CJ61" s="21"/>
+      <c r="CK61" s="21"/>
+      <c r="CL61" s="21"/>
+      <c r="CM61" s="21"/>
+      <c r="CN61" s="21"/>
+      <c r="CO61" s="21"/>
+      <c r="CP61" s="21"/>
+      <c r="CQ61" s="21"/>
+      <c r="CR61" s="21"/>
+      <c r="CS61" s="21"/>
+      <c r="CT61" s="21"/>
+      <c r="CU61" s="21"/>
     </row>
     <row r="62" spans="1:99">
       <c r="A62" t="s">
@@ -6946,13 +7344,13 @@
       </c>
       <c r="B62" s="22"/>
       <c r="C62" s="29" t="s">
-        <v>76</v>
+        <v>124</v>
       </c>
       <c r="D62" s="22" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="E62" s="22" t="s">
-        <v>58</v>
+        <v>81</v>
       </c>
       <c r="F62" s="22"/>
       <c r="G62" s="22"/>
@@ -7015,21 +7413,11 @@
       <c r="BJ62" s="1"/>
       <c r="BK62" s="1"/>
       <c r="BL62" s="1"/>
-      <c r="BM62" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="BN62" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="BO62" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="BP62" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="BQ62" s="1" t="s">
-        <v>138</v>
-      </c>
+      <c r="BM62" s="1"/>
+      <c r="BN62" s="1"/>
+      <c r="BO62" s="1"/>
+      <c r="BP62" s="1"/>
+      <c r="BQ62" s="1"/>
       <c r="BR62" s="1"/>
       <c r="BS62" s="1"/>
       <c r="BT62" s="1"/>
@@ -7067,13 +7455,13 @@
       </c>
       <c r="B63" s="22"/>
       <c r="C63" s="29" t="s">
-        <v>77</v>
+        <v>125</v>
       </c>
       <c r="D63" s="22" t="s">
-        <v>82</v>
+        <v>60</v>
       </c>
       <c r="E63" s="22" t="s">
-        <v>71</v>
+        <v>81</v>
       </c>
       <c r="F63" s="22"/>
       <c r="G63" s="22"/>
@@ -7136,21 +7524,11 @@
       <c r="BJ63" s="1"/>
       <c r="BK63" s="1"/>
       <c r="BL63" s="1"/>
-      <c r="BM63" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="BN63" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="BO63" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="BP63" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="BQ63" s="1" t="s">
-        <v>138</v>
-      </c>
+      <c r="BM63" s="1"/>
+      <c r="BN63" s="1"/>
+      <c r="BO63" s="1"/>
+      <c r="BP63" s="1"/>
+      <c r="BQ63" s="1"/>
       <c r="BR63" s="1"/>
       <c r="BS63" s="1"/>
       <c r="BT63" s="1"/>
@@ -7188,13 +7566,13 @@
       </c>
       <c r="B64" s="22"/>
       <c r="C64" s="29" t="s">
-        <v>78</v>
+        <v>126</v>
       </c>
       <c r="D64" s="22" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E64" s="22" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F64" s="22"/>
       <c r="G64" s="22"/>
@@ -7309,17 +7687,15 @@
       </c>
       <c r="B65" s="22"/>
       <c r="C65" s="29" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="D65" s="22" t="s">
-        <v>84</v>
+        <v>61</v>
       </c>
       <c r="E65" s="22" t="s">
-        <v>67</v>
-      </c>
-      <c r="F65" s="22" t="s">
-        <v>71</v>
-      </c>
+        <v>61</v>
+      </c>
+      <c r="F65" s="22"/>
       <c r="G65" s="22"/>
       <c r="H65" s="23"/>
       <c r="I65" s="23"/>
@@ -7427,18 +7803,15 @@
       <c r="CU65" s="1"/>
     </row>
     <row r="66" spans="1:99">
-      <c r="A66" t="s">
-        <v>10</v>
-      </c>
       <c r="B66" s="22"/>
       <c r="C66" s="29" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="D66" s="22" t="s">
-        <v>71</v>
+        <v>58</v>
       </c>
       <c r="E66" s="22" t="s">
-        <v>71</v>
+        <v>58</v>
       </c>
       <c r="F66" s="22"/>
       <c r="G66" s="22"/>
@@ -7548,14 +7921,9 @@
       <c r="CU66" s="1"/>
     </row>
     <row r="67" spans="1:99">
-      <c r="A67" t="s">
-        <v>10</v>
-      </c>
-      <c r="B67" s="22">
-        <v>260</v>
-      </c>
+      <c r="B67" s="22"/>
       <c r="C67" s="29" t="s">
-        <v>135</v>
+        <v>122</v>
       </c>
       <c r="D67" s="22" t="s">
         <v>71</v>
@@ -7671,15 +8039,26 @@
       <c r="CU67" s="1"/>
     </row>
     <row r="68" spans="1:99">
+      <c r="A68" t="s">
+        <v>10</v>
+      </c>
       <c r="B68" s="22"/>
-      <c r="C68" s="29"/>
-      <c r="D68" s="22"/>
-      <c r="E68" s="22"/>
+      <c r="C68" s="29" t="s">
+        <v>76</v>
+      </c>
+      <c r="D68" s="22" t="s">
+        <v>58</v>
+      </c>
+      <c r="E68" s="22" t="s">
+        <v>58</v>
+      </c>
       <c r="F68" s="22"/>
       <c r="G68" s="22"/>
       <c r="H68" s="23"/>
       <c r="I68" s="23"/>
-      <c r="J68" s="23"/>
+      <c r="J68" s="23" t="s">
+        <v>39</v>
+      </c>
       <c r="K68" s="22"/>
       <c r="L68" s="1"/>
       <c r="M68" s="1"/>
@@ -7734,11 +8113,21 @@
       <c r="BJ68" s="1"/>
       <c r="BK68" s="1"/>
       <c r="BL68" s="1"/>
-      <c r="BM68" s="1"/>
-      <c r="BN68" s="1"/>
-      <c r="BO68" s="1"/>
-      <c r="BP68" s="1"/>
-      <c r="BQ68" s="1"/>
+      <c r="BM68" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="BN68" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="BO68" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="BP68" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="BQ68" s="1" t="s">
+        <v>138</v>
+      </c>
       <c r="BR68" s="1"/>
       <c r="BS68" s="1"/>
       <c r="BT68" s="1"/>
@@ -7770,123 +8159,148 @@
       <c r="CT68" s="1"/>
       <c r="CU68" s="1"/>
     </row>
-    <row r="69" spans="1:99" s="20" customFormat="1">
-      <c r="A69"/>
-      <c r="B69" s="21"/>
-      <c r="C69" s="30" t="s">
-        <v>107</v>
-      </c>
-      <c r="D69" s="21"/>
-      <c r="E69" s="21"/>
-      <c r="F69" s="21" t="s">
-        <v>57</v>
-      </c>
-      <c r="G69" s="21"/>
-      <c r="H69" s="21"/>
-      <c r="I69" s="21"/>
-      <c r="J69" s="21"/>
-      <c r="K69" s="21"/>
-      <c r="L69" s="21"/>
-      <c r="M69" s="21"/>
-      <c r="N69" s="21"/>
-      <c r="O69" s="21"/>
-      <c r="P69" s="21"/>
-      <c r="Q69" s="21"/>
-      <c r="R69" s="21"/>
-      <c r="S69" s="21"/>
-      <c r="T69" s="21"/>
-      <c r="U69" s="21"/>
-      <c r="V69" s="21"/>
-      <c r="W69" s="21"/>
-      <c r="X69" s="21"/>
-      <c r="Y69" s="21"/>
-      <c r="Z69" s="21"/>
-      <c r="AA69" s="21"/>
-      <c r="AB69" s="21"/>
-      <c r="AC69" s="21"/>
-      <c r="AD69" s="21"/>
-      <c r="AE69" s="21"/>
-      <c r="AF69" s="21"/>
-      <c r="AG69" s="21"/>
-      <c r="AH69" s="21"/>
-      <c r="AI69" s="21"/>
-      <c r="AJ69" s="21"/>
-      <c r="AK69" s="21"/>
-      <c r="AL69" s="21"/>
-      <c r="AM69" s="21"/>
-      <c r="AN69" s="21"/>
-      <c r="AO69" s="21"/>
-      <c r="AP69" s="21"/>
-      <c r="AQ69" s="21"/>
-      <c r="AR69" s="21"/>
-      <c r="AS69" s="21"/>
-      <c r="AT69" s="21"/>
-      <c r="AU69" s="21"/>
-      <c r="AV69" s="21"/>
-      <c r="AW69" s="21"/>
-      <c r="AX69" s="21"/>
-      <c r="AY69" s="21"/>
-      <c r="AZ69" s="21"/>
-      <c r="BA69" s="21"/>
-      <c r="BB69" s="21"/>
-      <c r="BC69" s="21"/>
-      <c r="BD69" s="21"/>
-      <c r="BE69" s="21"/>
-      <c r="BF69" s="21"/>
-      <c r="BG69" s="21"/>
-      <c r="BH69" s="21"/>
-      <c r="BI69" s="21"/>
-      <c r="BJ69" s="21"/>
-      <c r="BK69" s="21"/>
-      <c r="BL69" s="21"/>
-      <c r="BM69" s="21"/>
-      <c r="BN69" s="21"/>
-      <c r="BO69" s="21"/>
-      <c r="BP69" s="21"/>
-      <c r="BQ69" s="21"/>
-      <c r="BR69" s="21"/>
-      <c r="BS69" s="21"/>
-      <c r="BT69" s="21"/>
-      <c r="BU69" s="21"/>
-      <c r="BV69" s="21"/>
-      <c r="BW69" s="21"/>
-      <c r="BX69" s="21"/>
-      <c r="BY69" s="21"/>
-      <c r="BZ69" s="21"/>
-      <c r="CA69" s="21"/>
-      <c r="CB69" s="21"/>
-      <c r="CC69" s="21"/>
-      <c r="CD69" s="21"/>
-      <c r="CE69" s="21"/>
-      <c r="CF69" s="21"/>
-      <c r="CG69" s="21"/>
-      <c r="CH69" s="21"/>
-      <c r="CI69" s="21"/>
-      <c r="CJ69" s="21"/>
-      <c r="CK69" s="21"/>
-      <c r="CL69" s="21"/>
-      <c r="CM69" s="21"/>
-      <c r="CN69" s="21"/>
-      <c r="CO69" s="21"/>
-      <c r="CP69" s="21"/>
-      <c r="CQ69" s="21"/>
-      <c r="CR69" s="21"/>
-      <c r="CS69" s="21"/>
-      <c r="CT69" s="21"/>
-      <c r="CU69" s="21"/>
+    <row r="69" spans="1:99">
+      <c r="A69" t="s">
+        <v>10</v>
+      </c>
+      <c r="B69" s="22"/>
+      <c r="C69" s="29" t="s">
+        <v>77</v>
+      </c>
+      <c r="D69" s="22" t="s">
+        <v>82</v>
+      </c>
+      <c r="E69" s="22" t="s">
+        <v>71</v>
+      </c>
+      <c r="F69" s="22"/>
+      <c r="G69" s="22"/>
+      <c r="H69" s="23"/>
+      <c r="I69" s="23"/>
+      <c r="J69" s="23" t="s">
+        <v>39</v>
+      </c>
+      <c r="K69" s="22"/>
+      <c r="L69" s="1"/>
+      <c r="M69" s="1"/>
+      <c r="N69" s="1"/>
+      <c r="O69" s="1"/>
+      <c r="P69" s="1"/>
+      <c r="Q69" s="1"/>
+      <c r="R69" s="1"/>
+      <c r="S69" s="1"/>
+      <c r="T69" s="1"/>
+      <c r="U69" s="1"/>
+      <c r="V69" s="1"/>
+      <c r="W69" s="1"/>
+      <c r="X69" s="1"/>
+      <c r="Y69" s="1"/>
+      <c r="Z69" s="1"/>
+      <c r="AA69" s="1"/>
+      <c r="AB69" s="1"/>
+      <c r="AC69" s="1"/>
+      <c r="AD69" s="1"/>
+      <c r="AE69" s="1"/>
+      <c r="AF69" s="1"/>
+      <c r="AG69" s="1"/>
+      <c r="AH69" s="1"/>
+      <c r="AI69" s="1"/>
+      <c r="AJ69" s="1"/>
+      <c r="AK69" s="1"/>
+      <c r="AL69" s="1"/>
+      <c r="AM69" s="1"/>
+      <c r="AN69" s="1"/>
+      <c r="AO69" s="1"/>
+      <c r="AP69" s="1"/>
+      <c r="AQ69" s="1"/>
+      <c r="AR69" s="1"/>
+      <c r="AS69" s="1"/>
+      <c r="AT69" s="1"/>
+      <c r="AU69" s="1"/>
+      <c r="AV69" s="1"/>
+      <c r="AW69" s="1"/>
+      <c r="AX69" s="1"/>
+      <c r="AY69" s="1"/>
+      <c r="AZ69" s="1"/>
+      <c r="BA69" s="1"/>
+      <c r="BB69" s="1"/>
+      <c r="BC69" s="1"/>
+      <c r="BD69" s="1"/>
+      <c r="BE69" s="1"/>
+      <c r="BF69" s="1"/>
+      <c r="BG69" s="1"/>
+      <c r="BH69" s="1"/>
+      <c r="BI69" s="1"/>
+      <c r="BJ69" s="1"/>
+      <c r="BK69" s="1"/>
+      <c r="BL69" s="1"/>
+      <c r="BM69" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="BN69" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="BO69" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="BP69" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="BQ69" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="BR69" s="1"/>
+      <c r="BS69" s="1"/>
+      <c r="BT69" s="1"/>
+      <c r="BU69" s="1"/>
+      <c r="BV69" s="1"/>
+      <c r="BW69" s="1"/>
+      <c r="BX69" s="1"/>
+      <c r="BY69" s="1"/>
+      <c r="BZ69" s="1"/>
+      <c r="CA69" s="1"/>
+      <c r="CB69" s="1"/>
+      <c r="CC69" s="1"/>
+      <c r="CD69" s="1"/>
+      <c r="CE69" s="1"/>
+      <c r="CF69" s="1"/>
+      <c r="CG69" s="1"/>
+      <c r="CH69" s="1"/>
+      <c r="CI69" s="1"/>
+      <c r="CJ69" s="1"/>
+      <c r="CK69" s="1"/>
+      <c r="CL69" s="1"/>
+      <c r="CM69" s="1"/>
+      <c r="CN69" s="1"/>
+      <c r="CO69" s="1"/>
+      <c r="CP69" s="1"/>
+      <c r="CQ69" s="1"/>
+      <c r="CR69" s="1"/>
+      <c r="CS69" s="1"/>
+      <c r="CT69" s="1"/>
+      <c r="CU69" s="1"/>
     </row>
     <row r="70" spans="1:99">
+      <c r="A70" t="s">
+        <v>10</v>
+      </c>
       <c r="B70" s="22"/>
-      <c r="C70" s="38" t="s">
-        <v>108</v>
-      </c>
-      <c r="D70" s="22"/>
-      <c r="E70" s="22"/>
+      <c r="C70" s="29" t="s">
+        <v>78</v>
+      </c>
+      <c r="D70" s="22" t="s">
+        <v>60</v>
+      </c>
+      <c r="E70" s="22" t="s">
+        <v>60</v>
+      </c>
       <c r="F70" s="22"/>
       <c r="G70" s="22"/>
       <c r="H70" s="23"/>
       <c r="I70" s="23"/>
-      <c r="J70" s="23"/>
+      <c r="J70" s="23" t="s">
+        <v>39</v>
+      </c>
       <c r="K70" s="22"/>
       <c r="L70" s="1"/>
       <c r="M70" s="1"/>
@@ -7941,11 +8355,21 @@
       <c r="BJ70" s="1"/>
       <c r="BK70" s="1"/>
       <c r="BL70" s="1"/>
-      <c r="BM70" s="1"/>
-      <c r="BN70" s="1"/>
-      <c r="BO70" s="1"/>
-      <c r="BP70" s="1"/>
-      <c r="BQ70" s="1"/>
+      <c r="BM70" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="BN70" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="BO70" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="BP70" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="BQ70" s="1" t="s">
+        <v>138</v>
+      </c>
       <c r="BR70" s="1"/>
       <c r="BS70" s="1"/>
       <c r="BT70" s="1"/>
@@ -7981,24 +8405,24 @@
       <c r="A71" t="s">
         <v>10</v>
       </c>
-      <c r="B71" s="22">
-        <v>651</v>
-      </c>
+      <c r="B71" s="22"/>
       <c r="C71" s="29" t="s">
-        <v>109</v>
+        <v>129</v>
       </c>
       <c r="D71" s="22" t="s">
-        <v>59</v>
-      </c>
-      <c r="E71" s="22"/>
-      <c r="F71" s="22"/>
-      <c r="G71" s="37" t="s">
-        <v>144</v>
-      </c>
+        <v>84</v>
+      </c>
+      <c r="E71" s="22" t="s">
+        <v>67</v>
+      </c>
+      <c r="F71" s="22" t="s">
+        <v>71</v>
+      </c>
+      <c r="G71" s="22"/>
       <c r="H71" s="23"/>
       <c r="I71" s="23"/>
       <c r="J71" s="23" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K71" s="22"/>
       <c r="L71" s="1"/>
@@ -8101,20 +8525,21 @@
       <c r="CU71" s="1"/>
     </row>
     <row r="72" spans="1:99">
-      <c r="B72" s="22">
-        <v>652</v>
-      </c>
+      <c r="A72" t="s">
+        <v>10</v>
+      </c>
+      <c r="B72" s="22"/>
       <c r="C72" s="29" t="s">
-        <v>99</v>
+        <v>123</v>
       </c>
       <c r="D72" s="22" t="s">
-        <v>59</v>
-      </c>
-      <c r="E72" s="22"/>
+        <v>71</v>
+      </c>
+      <c r="E72" s="22" t="s">
+        <v>71</v>
+      </c>
       <c r="F72" s="22"/>
-      <c r="G72" s="37" t="s">
-        <v>145</v>
-      </c>
+      <c r="G72" s="22"/>
       <c r="H72" s="23"/>
       <c r="I72" s="23"/>
       <c r="J72" s="23" t="s">
@@ -8221,17 +8646,28 @@
       <c r="CU72" s="1"/>
     </row>
     <row r="73" spans="1:99">
-      <c r="B73" s="22"/>
-      <c r="C73" s="38" t="s">
-        <v>110</v>
-      </c>
-      <c r="D73" s="22"/>
-      <c r="E73" s="22"/>
+      <c r="A73" t="s">
+        <v>10</v>
+      </c>
+      <c r="B73" s="22">
+        <v>260</v>
+      </c>
+      <c r="C73" s="29" t="s">
+        <v>135</v>
+      </c>
+      <c r="D73" s="22" t="s">
+        <v>71</v>
+      </c>
+      <c r="E73" s="22" t="s">
+        <v>71</v>
+      </c>
       <c r="F73" s="22"/>
       <c r="G73" s="22"/>
       <c r="H73" s="23"/>
       <c r="I73" s="23"/>
-      <c r="J73" s="23"/>
+      <c r="J73" s="23" t="s">
+        <v>39</v>
+      </c>
       <c r="K73" s="22"/>
       <c r="L73" s="1"/>
       <c r="M73" s="1"/>
@@ -8286,11 +8722,21 @@
       <c r="BJ73" s="1"/>
       <c r="BK73" s="1"/>
       <c r="BL73" s="1"/>
-      <c r="BM73" s="1"/>
-      <c r="BN73" s="1"/>
-      <c r="BO73" s="1"/>
-      <c r="BP73" s="1"/>
-      <c r="BQ73" s="1"/>
+      <c r="BM73" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="BN73" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="BO73" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="BP73" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="BQ73" s="1" t="s">
+        <v>138</v>
+      </c>
       <c r="BR73" s="1"/>
       <c r="BS73" s="1"/>
       <c r="BT73" s="1"/>
@@ -8323,25 +8769,15 @@
       <c r="CU73" s="1"/>
     </row>
     <row r="74" spans="1:99">
-      <c r="B74" s="22">
-        <v>653</v>
-      </c>
-      <c r="C74" s="29" t="s">
-        <v>100</v>
-      </c>
-      <c r="D74" s="22" t="s">
-        <v>59</v>
-      </c>
+      <c r="B74" s="22"/>
+      <c r="C74" s="29"/>
+      <c r="D74" s="22"/>
       <c r="E74" s="22"/>
       <c r="F74" s="22"/>
-      <c r="G74" s="22" t="s">
-        <v>146</v>
-      </c>
+      <c r="G74" s="22"/>
       <c r="H74" s="23"/>
       <c r="I74" s="23"/>
-      <c r="J74" s="23" t="s">
-        <v>39</v>
-      </c>
+      <c r="J74" s="23"/>
       <c r="K74" s="22"/>
       <c r="L74" s="1"/>
       <c r="M74" s="1"/>
@@ -8396,21 +8832,11 @@
       <c r="BJ74" s="1"/>
       <c r="BK74" s="1"/>
       <c r="BL74" s="1"/>
-      <c r="BM74" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="BN74" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="BO74" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="BP74" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="BQ74" s="1" t="s">
-        <v>138</v>
-      </c>
+      <c r="BM74" s="1"/>
+      <c r="BN74" s="1"/>
+      <c r="BO74" s="1"/>
+      <c r="BP74" s="1"/>
+      <c r="BQ74" s="1"/>
       <c r="BR74" s="1"/>
       <c r="BS74" s="1"/>
       <c r="BT74" s="1"/>
@@ -8442,146 +8868,123 @@
       <c r="CT74" s="1"/>
       <c r="CU74" s="1"/>
     </row>
-    <row r="75" spans="1:99">
-      <c r="B75" s="22">
-        <v>654</v>
-      </c>
-      <c r="C75" s="29" t="s">
-        <v>101</v>
-      </c>
-      <c r="D75" s="22" t="s">
-        <v>71</v>
-      </c>
-      <c r="E75" s="22"/>
-      <c r="F75" s="22"/>
-      <c r="G75" s="22" t="s">
-        <v>147</v>
-      </c>
-      <c r="H75" s="23"/>
-      <c r="I75" s="23"/>
-      <c r="J75" s="23" t="s">
-        <v>39</v>
-      </c>
-      <c r="K75" s="22"/>
-      <c r="L75" s="1"/>
-      <c r="M75" s="1"/>
-      <c r="N75" s="1"/>
-      <c r="O75" s="1"/>
-      <c r="P75" s="1"/>
-      <c r="Q75" s="1"/>
-      <c r="R75" s="1"/>
-      <c r="S75" s="1"/>
-      <c r="T75" s="1"/>
-      <c r="U75" s="1"/>
-      <c r="V75" s="1"/>
-      <c r="W75" s="1"/>
-      <c r="X75" s="1"/>
-      <c r="Y75" s="1"/>
-      <c r="Z75" s="1"/>
-      <c r="AA75" s="1"/>
-      <c r="AB75" s="1"/>
-      <c r="AC75" s="1"/>
-      <c r="AD75" s="1"/>
-      <c r="AE75" s="1"/>
-      <c r="AF75" s="1"/>
-      <c r="AG75" s="1"/>
-      <c r="AH75" s="1"/>
-      <c r="AI75" s="1"/>
-      <c r="AJ75" s="1"/>
-      <c r="AK75" s="1"/>
-      <c r="AL75" s="1"/>
-      <c r="AM75" s="1"/>
-      <c r="AN75" s="1"/>
-      <c r="AO75" s="1"/>
-      <c r="AP75" s="1"/>
-      <c r="AQ75" s="1"/>
-      <c r="AR75" s="1"/>
-      <c r="AS75" s="1"/>
-      <c r="AT75" s="1"/>
-      <c r="AU75" s="1"/>
-      <c r="AV75" s="1"/>
-      <c r="AW75" s="1"/>
-      <c r="AX75" s="1"/>
-      <c r="AY75" s="1"/>
-      <c r="AZ75" s="1"/>
-      <c r="BA75" s="1"/>
-      <c r="BB75" s="1"/>
-      <c r="BC75" s="1"/>
-      <c r="BD75" s="1"/>
-      <c r="BE75" s="1"/>
-      <c r="BF75" s="1"/>
-      <c r="BG75" s="1"/>
-      <c r="BH75" s="1"/>
-      <c r="BI75" s="1"/>
-      <c r="BJ75" s="1"/>
-      <c r="BK75" s="1"/>
-      <c r="BL75" s="1"/>
-      <c r="BM75" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="BN75" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="BO75" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="BP75" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="BQ75" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="BR75" s="1"/>
-      <c r="BS75" s="1"/>
-      <c r="BT75" s="1"/>
-      <c r="BU75" s="1"/>
-      <c r="BV75" s="1"/>
-      <c r="BW75" s="1"/>
-      <c r="BX75" s="1"/>
-      <c r="BY75" s="1"/>
-      <c r="BZ75" s="1"/>
-      <c r="CA75" s="1"/>
-      <c r="CB75" s="1"/>
-      <c r="CC75" s="1"/>
-      <c r="CD75" s="1"/>
-      <c r="CE75" s="1"/>
-      <c r="CF75" s="1"/>
-      <c r="CG75" s="1"/>
-      <c r="CH75" s="1"/>
-      <c r="CI75" s="1"/>
-      <c r="CJ75" s="1"/>
-      <c r="CK75" s="1"/>
-      <c r="CL75" s="1"/>
-      <c r="CM75" s="1"/>
-      <c r="CN75" s="1"/>
-      <c r="CO75" s="1"/>
-      <c r="CP75" s="1"/>
-      <c r="CQ75" s="1"/>
-      <c r="CR75" s="1"/>
-      <c r="CS75" s="1"/>
-      <c r="CT75" s="1"/>
-      <c r="CU75" s="1"/>
+    <row r="75" spans="1:99" s="20" customFormat="1">
+      <c r="A75"/>
+      <c r="B75" s="21"/>
+      <c r="C75" s="30" t="s">
+        <v>107</v>
+      </c>
+      <c r="D75" s="21"/>
+      <c r="E75" s="21"/>
+      <c r="F75" s="21" t="s">
+        <v>57</v>
+      </c>
+      <c r="G75" s="21"/>
+      <c r="H75" s="21"/>
+      <c r="I75" s="21"/>
+      <c r="J75" s="21"/>
+      <c r="K75" s="21"/>
+      <c r="L75" s="21"/>
+      <c r="M75" s="21"/>
+      <c r="N75" s="21"/>
+      <c r="O75" s="21"/>
+      <c r="P75" s="21"/>
+      <c r="Q75" s="21"/>
+      <c r="R75" s="21"/>
+      <c r="S75" s="21"/>
+      <c r="T75" s="21"/>
+      <c r="U75" s="21"/>
+      <c r="V75" s="21"/>
+      <c r="W75" s="21"/>
+      <c r="X75" s="21"/>
+      <c r="Y75" s="21"/>
+      <c r="Z75" s="21"/>
+      <c r="AA75" s="21"/>
+      <c r="AB75" s="21"/>
+      <c r="AC75" s="21"/>
+      <c r="AD75" s="21"/>
+      <c r="AE75" s="21"/>
+      <c r="AF75" s="21"/>
+      <c r="AG75" s="21"/>
+      <c r="AH75" s="21"/>
+      <c r="AI75" s="21"/>
+      <c r="AJ75" s="21"/>
+      <c r="AK75" s="21"/>
+      <c r="AL75" s="21"/>
+      <c r="AM75" s="21"/>
+      <c r="AN75" s="21"/>
+      <c r="AO75" s="21"/>
+      <c r="AP75" s="21"/>
+      <c r="AQ75" s="21"/>
+      <c r="AR75" s="21"/>
+      <c r="AS75" s="21"/>
+      <c r="AT75" s="21"/>
+      <c r="AU75" s="21"/>
+      <c r="AV75" s="21"/>
+      <c r="AW75" s="21"/>
+      <c r="AX75" s="21"/>
+      <c r="AY75" s="21"/>
+      <c r="AZ75" s="21"/>
+      <c r="BA75" s="21"/>
+      <c r="BB75" s="21"/>
+      <c r="BC75" s="21"/>
+      <c r="BD75" s="21"/>
+      <c r="BE75" s="21"/>
+      <c r="BF75" s="21"/>
+      <c r="BG75" s="21"/>
+      <c r="BH75" s="21"/>
+      <c r="BI75" s="21"/>
+      <c r="BJ75" s="21"/>
+      <c r="BK75" s="21"/>
+      <c r="BL75" s="21"/>
+      <c r="BM75" s="21"/>
+      <c r="BN75" s="21"/>
+      <c r="BO75" s="21"/>
+      <c r="BP75" s="21"/>
+      <c r="BQ75" s="21"/>
+      <c r="BR75" s="21"/>
+      <c r="BS75" s="21"/>
+      <c r="BT75" s="21"/>
+      <c r="BU75" s="21"/>
+      <c r="BV75" s="21"/>
+      <c r="BW75" s="21"/>
+      <c r="BX75" s="21"/>
+      <c r="BY75" s="21"/>
+      <c r="BZ75" s="21"/>
+      <c r="CA75" s="21"/>
+      <c r="CB75" s="21"/>
+      <c r="CC75" s="21"/>
+      <c r="CD75" s="21"/>
+      <c r="CE75" s="21"/>
+      <c r="CF75" s="21"/>
+      <c r="CG75" s="21"/>
+      <c r="CH75" s="21"/>
+      <c r="CI75" s="21"/>
+      <c r="CJ75" s="21"/>
+      <c r="CK75" s="21"/>
+      <c r="CL75" s="21"/>
+      <c r="CM75" s="21"/>
+      <c r="CN75" s="21"/>
+      <c r="CO75" s="21"/>
+      <c r="CP75" s="21"/>
+      <c r="CQ75" s="21"/>
+      <c r="CR75" s="21"/>
+      <c r="CS75" s="21"/>
+      <c r="CT75" s="21"/>
+      <c r="CU75" s="21"/>
     </row>
     <row r="76" spans="1:99">
-      <c r="B76" s="22">
-        <v>655</v>
-      </c>
-      <c r="C76" s="29" t="s">
-        <v>102</v>
-      </c>
-      <c r="D76" s="22" t="s">
-        <v>61</v>
-      </c>
+      <c r="B76" s="22"/>
+      <c r="C76" s="38" t="s">
+        <v>108</v>
+      </c>
+      <c r="D76" s="22"/>
       <c r="E76" s="22"/>
       <c r="F76" s="22"/>
-      <c r="G76" s="22" t="s">
-        <v>148</v>
-      </c>
+      <c r="G76" s="22"/>
       <c r="H76" s="23"/>
       <c r="I76" s="23"/>
-      <c r="J76" s="23" t="s">
-        <v>39</v>
-      </c>
+      <c r="J76" s="23"/>
       <c r="K76" s="22"/>
       <c r="L76" s="1"/>
       <c r="M76" s="1"/>
@@ -8636,21 +9039,11 @@
       <c r="BJ76" s="1"/>
       <c r="BK76" s="1"/>
       <c r="BL76" s="1"/>
-      <c r="BM76" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="BN76" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="BO76" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="BP76" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="BQ76" s="1" t="s">
-        <v>138</v>
-      </c>
+      <c r="BM76" s="1"/>
+      <c r="BN76" s="1"/>
+      <c r="BO76" s="1"/>
+      <c r="BP76" s="1"/>
+      <c r="BQ76" s="1"/>
       <c r="BR76" s="1"/>
       <c r="BS76" s="1"/>
       <c r="BT76" s="1"/>
@@ -8683,24 +9076,27 @@
       <c r="CU76" s="1"/>
     </row>
     <row r="77" spans="1:99">
+      <c r="A77" t="s">
+        <v>10</v>
+      </c>
       <c r="B77" s="22">
-        <v>656</v>
+        <v>651</v>
       </c>
       <c r="C77" s="29" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="D77" s="22" t="s">
         <v>59</v>
       </c>
       <c r="E77" s="22"/>
       <c r="F77" s="22"/>
-      <c r="G77" s="22" t="s">
-        <v>149</v>
+      <c r="G77" s="37" t="s">
+        <v>144</v>
       </c>
       <c r="H77" s="23"/>
       <c r="I77" s="23"/>
       <c r="J77" s="23" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K77" s="22"/>
       <c r="L77" s="1"/>
@@ -8804,18 +9200,18 @@
     </row>
     <row r="78" spans="1:99">
       <c r="B78" s="22">
-        <v>657</v>
-      </c>
-      <c r="C78" s="38" t="s">
-        <v>104</v>
+        <v>652</v>
+      </c>
+      <c r="C78" s="29" t="s">
+        <v>99</v>
       </c>
       <c r="D78" s="22" t="s">
-        <v>71</v>
+        <v>59</v>
       </c>
       <c r="E78" s="22"/>
       <c r="F78" s="22"/>
-      <c r="G78" s="22" t="s">
-        <v>150</v>
+      <c r="G78" s="37" t="s">
+        <v>145</v>
       </c>
       <c r="H78" s="23"/>
       <c r="I78" s="23"/>
@@ -8923,23 +9319,17 @@
       <c r="CU78" s="1"/>
     </row>
     <row r="79" spans="1:99">
-      <c r="B79" s="22">
-        <v>658</v>
-      </c>
+      <c r="B79" s="22"/>
       <c r="C79" s="38" t="s">
-        <v>105</v>
-      </c>
-      <c r="D79" s="22" t="s">
-        <v>71</v>
-      </c>
+        <v>110</v>
+      </c>
+      <c r="D79" s="22"/>
       <c r="E79" s="22"/>
       <c r="F79" s="22"/>
       <c r="G79" s="22"/>
       <c r="H79" s="23"/>
       <c r="I79" s="23"/>
-      <c r="J79" s="23" t="s">
-        <v>39</v>
-      </c>
+      <c r="J79" s="23"/>
       <c r="K79" s="22"/>
       <c r="L79" s="1"/>
       <c r="M79" s="1"/>
@@ -8994,21 +9384,11 @@
       <c r="BJ79" s="1"/>
       <c r="BK79" s="1"/>
       <c r="BL79" s="1"/>
-      <c r="BM79" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="BN79" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="BO79" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="BP79" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="BQ79" s="1" t="s">
-        <v>138</v>
-      </c>
+      <c r="BM79" s="1"/>
+      <c r="BN79" s="1"/>
+      <c r="BO79" s="1"/>
+      <c r="BP79" s="1"/>
+      <c r="BQ79" s="1"/>
       <c r="BR79" s="1"/>
       <c r="BS79" s="1"/>
       <c r="BT79" s="1"/>
@@ -9041,22 +9421,19 @@
       <c r="CU79" s="1"/>
     </row>
     <row r="80" spans="1:99">
-      <c r="A80" t="s">
-        <v>10</v>
-      </c>
       <c r="B80" s="22">
-        <v>659</v>
-      </c>
-      <c r="C80" s="38" t="s">
-        <v>142</v>
+        <v>653</v>
+      </c>
+      <c r="C80" s="29" t="s">
+        <v>100</v>
       </c>
       <c r="D80" s="22" t="s">
-        <v>71</v>
+        <v>59</v>
       </c>
       <c r="E80" s="22"/>
       <c r="F80" s="22"/>
       <c r="G80" s="22" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="H80" s="23"/>
       <c r="I80" s="23"/>
@@ -9164,14 +9541,11 @@
       <c r="CU80" s="1"/>
     </row>
     <row r="81" spans="1:99">
-      <c r="A81" t="s">
-        <v>10</v>
-      </c>
       <c r="B81" s="22">
-        <v>660</v>
-      </c>
-      <c r="C81" s="38" t="s">
-        <v>143</v>
+        <v>654</v>
+      </c>
+      <c r="C81" s="29" t="s">
+        <v>101</v>
       </c>
       <c r="D81" s="22" t="s">
         <v>71</v>
@@ -9179,7 +9553,7 @@
       <c r="E81" s="22"/>
       <c r="F81" s="22"/>
       <c r="G81" s="22" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="H81" s="23"/>
       <c r="I81" s="23"/>
@@ -9287,22 +9661,19 @@
       <c r="CU81" s="1"/>
     </row>
     <row r="82" spans="1:99">
-      <c r="A82" t="s">
-        <v>10</v>
-      </c>
       <c r="B82" s="22">
-        <v>601</v>
-      </c>
-      <c r="C82" s="38" t="s">
-        <v>106</v>
+        <v>655</v>
+      </c>
+      <c r="C82" s="29" t="s">
+        <v>102</v>
       </c>
       <c r="D82" s="22" t="s">
-        <v>81</v>
+        <v>61</v>
       </c>
       <c r="E82" s="22"/>
       <c r="F82" s="22"/>
       <c r="G82" s="22" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="H82" s="23"/>
       <c r="I82" s="23"/>
@@ -9410,15 +9781,25 @@
       <c r="CU82" s="1"/>
     </row>
     <row r="83" spans="1:99">
-      <c r="B83" s="22"/>
-      <c r="C83" s="29"/>
-      <c r="D83" s="22"/>
+      <c r="B83" s="22">
+        <v>656</v>
+      </c>
+      <c r="C83" s="29" t="s">
+        <v>103</v>
+      </c>
+      <c r="D83" s="22" t="s">
+        <v>59</v>
+      </c>
       <c r="E83" s="22"/>
       <c r="F83" s="22"/>
-      <c r="G83" s="22"/>
+      <c r="G83" s="22" t="s">
+        <v>149</v>
+      </c>
       <c r="H83" s="23"/>
       <c r="I83" s="23"/>
-      <c r="J83" s="23"/>
+      <c r="J83" s="23" t="s">
+        <v>39</v>
+      </c>
       <c r="K83" s="22"/>
       <c r="L83" s="1"/>
       <c r="M83" s="1"/>
@@ -9473,11 +9854,21 @@
       <c r="BJ83" s="1"/>
       <c r="BK83" s="1"/>
       <c r="BL83" s="1"/>
-      <c r="BM83" s="1"/>
-      <c r="BN83" s="1"/>
-      <c r="BO83" s="1"/>
-      <c r="BP83" s="1"/>
-      <c r="BQ83" s="1"/>
+      <c r="BM83" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="BN83" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="BO83" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="BP83" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="BQ83" s="1" t="s">
+        <v>138</v>
+      </c>
       <c r="BR83" s="1"/>
       <c r="BS83" s="1"/>
       <c r="BT83" s="1"/>
@@ -9509,124 +9900,144 @@
       <c r="CT83" s="1"/>
       <c r="CU83" s="1"/>
     </row>
-    <row r="84" spans="1:99" s="20" customFormat="1">
-      <c r="A84"/>
-      <c r="B84" s="21"/>
-      <c r="C84" s="30" t="s">
-        <v>111</v>
-      </c>
-      <c r="D84" s="21"/>
-      <c r="E84" s="21"/>
-      <c r="F84" s="21"/>
-      <c r="G84" s="21"/>
-      <c r="H84" s="21"/>
-      <c r="I84" s="21"/>
-      <c r="J84" s="21"/>
-      <c r="K84" s="21"/>
-      <c r="L84" s="21"/>
-      <c r="M84" s="21"/>
-      <c r="N84" s="21"/>
-      <c r="O84" s="21"/>
-      <c r="P84" s="21"/>
-      <c r="Q84" s="21"/>
-      <c r="R84" s="21"/>
-      <c r="S84" s="21"/>
-      <c r="T84" s="21"/>
-      <c r="U84" s="21"/>
-      <c r="V84" s="21"/>
-      <c r="W84" s="21"/>
-      <c r="X84" s="21"/>
-      <c r="Y84" s="21"/>
-      <c r="Z84" s="21"/>
-      <c r="AA84" s="21"/>
-      <c r="AB84" s="21"/>
-      <c r="AC84" s="21"/>
-      <c r="AD84" s="21"/>
-      <c r="AE84" s="21"/>
-      <c r="AF84" s="21"/>
-      <c r="AG84" s="21"/>
-      <c r="AH84" s="21"/>
-      <c r="AI84" s="21"/>
-      <c r="AJ84" s="21"/>
-      <c r="AK84" s="21"/>
-      <c r="AL84" s="21"/>
-      <c r="AM84" s="21"/>
-      <c r="AN84" s="21"/>
-      <c r="AO84" s="21"/>
-      <c r="AP84" s="21"/>
-      <c r="AQ84" s="21"/>
-      <c r="AR84" s="21"/>
-      <c r="AS84" s="21"/>
-      <c r="AT84" s="21"/>
-      <c r="AU84" s="21"/>
-      <c r="AV84" s="21"/>
-      <c r="AW84" s="21"/>
-      <c r="AX84" s="21"/>
-      <c r="AY84" s="21"/>
-      <c r="AZ84" s="21"/>
-      <c r="BA84" s="21"/>
-      <c r="BB84" s="21"/>
-      <c r="BC84" s="21"/>
-      <c r="BD84" s="21"/>
-      <c r="BE84" s="21"/>
-      <c r="BF84" s="21"/>
-      <c r="BG84" s="21"/>
-      <c r="BH84" s="21"/>
-      <c r="BI84" s="21"/>
-      <c r="BJ84" s="21"/>
-      <c r="BK84" s="21"/>
-      <c r="BL84" s="21"/>
-      <c r="BM84" s="21"/>
-      <c r="BN84" s="21"/>
-      <c r="BO84" s="21"/>
-      <c r="BP84" s="21"/>
-      <c r="BQ84" s="21"/>
-      <c r="BR84" s="21"/>
-      <c r="BS84" s="21"/>
-      <c r="BT84" s="21"/>
-      <c r="BU84" s="21"/>
-      <c r="BV84" s="21"/>
-      <c r="BW84" s="21"/>
-      <c r="BX84" s="21"/>
-      <c r="BY84" s="21"/>
-      <c r="BZ84" s="21"/>
-      <c r="CA84" s="21"/>
-      <c r="CB84" s="21"/>
-      <c r="CC84" s="21"/>
-      <c r="CD84" s="21"/>
-      <c r="CE84" s="21"/>
-      <c r="CF84" s="21"/>
-      <c r="CG84" s="21"/>
-      <c r="CH84" s="21"/>
-      <c r="CI84" s="21"/>
-      <c r="CJ84" s="21"/>
-      <c r="CK84" s="21"/>
-      <c r="CL84" s="21"/>
-      <c r="CM84" s="21"/>
-      <c r="CN84" s="21"/>
-      <c r="CO84" s="21"/>
-      <c r="CP84" s="21"/>
-      <c r="CQ84" s="21"/>
-      <c r="CR84" s="21"/>
-      <c r="CS84" s="21"/>
-      <c r="CT84" s="21"/>
-      <c r="CU84" s="21"/>
+    <row r="84" spans="1:99">
+      <c r="B84" s="22">
+        <v>657</v>
+      </c>
+      <c r="C84" s="38" t="s">
+        <v>104</v>
+      </c>
+      <c r="D84" s="22" t="s">
+        <v>71</v>
+      </c>
+      <c r="E84" s="22"/>
+      <c r="F84" s="22"/>
+      <c r="G84" s="22" t="s">
+        <v>150</v>
+      </c>
+      <c r="H84" s="23"/>
+      <c r="I84" s="23"/>
+      <c r="J84" s="23" t="s">
+        <v>39</v>
+      </c>
+      <c r="K84" s="22"/>
+      <c r="L84" s="1"/>
+      <c r="M84" s="1"/>
+      <c r="N84" s="1"/>
+      <c r="O84" s="1"/>
+      <c r="P84" s="1"/>
+      <c r="Q84" s="1"/>
+      <c r="R84" s="1"/>
+      <c r="S84" s="1"/>
+      <c r="T84" s="1"/>
+      <c r="U84" s="1"/>
+      <c r="V84" s="1"/>
+      <c r="W84" s="1"/>
+      <c r="X84" s="1"/>
+      <c r="Y84" s="1"/>
+      <c r="Z84" s="1"/>
+      <c r="AA84" s="1"/>
+      <c r="AB84" s="1"/>
+      <c r="AC84" s="1"/>
+      <c r="AD84" s="1"/>
+      <c r="AE84" s="1"/>
+      <c r="AF84" s="1"/>
+      <c r="AG84" s="1"/>
+      <c r="AH84" s="1"/>
+      <c r="AI84" s="1"/>
+      <c r="AJ84" s="1"/>
+      <c r="AK84" s="1"/>
+      <c r="AL84" s="1"/>
+      <c r="AM84" s="1"/>
+      <c r="AN84" s="1"/>
+      <c r="AO84" s="1"/>
+      <c r="AP84" s="1"/>
+      <c r="AQ84" s="1"/>
+      <c r="AR84" s="1"/>
+      <c r="AS84" s="1"/>
+      <c r="AT84" s="1"/>
+      <c r="AU84" s="1"/>
+      <c r="AV84" s="1"/>
+      <c r="AW84" s="1"/>
+      <c r="AX84" s="1"/>
+      <c r="AY84" s="1"/>
+      <c r="AZ84" s="1"/>
+      <c r="BA84" s="1"/>
+      <c r="BB84" s="1"/>
+      <c r="BC84" s="1"/>
+      <c r="BD84" s="1"/>
+      <c r="BE84" s="1"/>
+      <c r="BF84" s="1"/>
+      <c r="BG84" s="1"/>
+      <c r="BH84" s="1"/>
+      <c r="BI84" s="1"/>
+      <c r="BJ84" s="1"/>
+      <c r="BK84" s="1"/>
+      <c r="BL84" s="1"/>
+      <c r="BM84" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="BN84" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="BO84" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="BP84" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="BQ84" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="BR84" s="1"/>
+      <c r="BS84" s="1"/>
+      <c r="BT84" s="1"/>
+      <c r="BU84" s="1"/>
+      <c r="BV84" s="1"/>
+      <c r="BW84" s="1"/>
+      <c r="BX84" s="1"/>
+      <c r="BY84" s="1"/>
+      <c r="BZ84" s="1"/>
+      <c r="CA84" s="1"/>
+      <c r="CB84" s="1"/>
+      <c r="CC84" s="1"/>
+      <c r="CD84" s="1"/>
+      <c r="CE84" s="1"/>
+      <c r="CF84" s="1"/>
+      <c r="CG84" s="1"/>
+      <c r="CH84" s="1"/>
+      <c r="CI84" s="1"/>
+      <c r="CJ84" s="1"/>
+      <c r="CK84" s="1"/>
+      <c r="CL84" s="1"/>
+      <c r="CM84" s="1"/>
+      <c r="CN84" s="1"/>
+      <c r="CO84" s="1"/>
+      <c r="CP84" s="1"/>
+      <c r="CQ84" s="1"/>
+      <c r="CR84" s="1"/>
+      <c r="CS84" s="1"/>
+      <c r="CT84" s="1"/>
+      <c r="CU84" s="1"/>
     </row>
     <row r="85" spans="1:99">
-      <c r="A85" t="s">
-        <v>10</v>
-      </c>
-      <c r="B85" s="22"/>
-      <c r="C85" s="37" t="s">
-        <v>112</v>
-      </c>
-      <c r="D85" s="22"/>
+      <c r="B85" s="22">
+        <v>658</v>
+      </c>
+      <c r="C85" s="38" t="s">
+        <v>105</v>
+      </c>
+      <c r="D85" s="22" t="s">
+        <v>71</v>
+      </c>
       <c r="E85" s="22"/>
       <c r="F85" s="22"/>
       <c r="G85" s="22"/>
       <c r="H85" s="23"/>
       <c r="I85" s="23"/>
-      <c r="J85" s="23"/>
+      <c r="J85" s="23" t="s">
+        <v>39</v>
+      </c>
       <c r="K85" s="22"/>
       <c r="L85" s="1"/>
       <c r="M85" s="1"/>
@@ -9681,11 +10092,21 @@
       <c r="BJ85" s="1"/>
       <c r="BK85" s="1"/>
       <c r="BL85" s="1"/>
-      <c r="BM85" s="1"/>
-      <c r="BN85" s="1"/>
-      <c r="BO85" s="1"/>
-      <c r="BP85" s="1"/>
-      <c r="BQ85" s="1"/>
+      <c r="BM85" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="BN85" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="BO85" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="BP85" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="BQ85" s="1" t="s">
+        <v>138</v>
+      </c>
       <c r="BR85" s="1"/>
       <c r="BS85" s="1"/>
       <c r="BT85" s="1"/>
@@ -9721,17 +10142,25 @@
       <c r="A86" t="s">
         <v>10</v>
       </c>
-      <c r="B86" s="22"/>
-      <c r="C86" s="37" t="s">
-        <v>113</v>
-      </c>
-      <c r="D86" s="22"/>
+      <c r="B86" s="22">
+        <v>659</v>
+      </c>
+      <c r="C86" s="38" t="s">
+        <v>142</v>
+      </c>
+      <c r="D86" s="22" t="s">
+        <v>71</v>
+      </c>
       <c r="E86" s="22"/>
       <c r="F86" s="22"/>
-      <c r="G86" s="22"/>
+      <c r="G86" s="22" t="s">
+        <v>153</v>
+      </c>
       <c r="H86" s="23"/>
       <c r="I86" s="23"/>
-      <c r="J86" s="23"/>
+      <c r="J86" s="23" t="s">
+        <v>39</v>
+      </c>
       <c r="K86" s="22"/>
       <c r="L86" s="1"/>
       <c r="M86" s="1"/>
@@ -9786,11 +10215,21 @@
       <c r="BJ86" s="1"/>
       <c r="BK86" s="1"/>
       <c r="BL86" s="1"/>
-      <c r="BM86" s="1"/>
-      <c r="BN86" s="1"/>
-      <c r="BO86" s="1"/>
-      <c r="BP86" s="1"/>
-      <c r="BQ86" s="1"/>
+      <c r="BM86" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="BN86" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="BO86" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="BP86" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="BQ86" s="1" t="s">
+        <v>138</v>
+      </c>
       <c r="BR86" s="1"/>
       <c r="BS86" s="1"/>
       <c r="BT86" s="1"/>
@@ -9823,15 +10262,28 @@
       <c r="CU86" s="1"/>
     </row>
     <row r="87" spans="1:99">
-      <c r="B87" s="22"/>
-      <c r="C87" s="29"/>
-      <c r="D87" s="22"/>
+      <c r="A87" t="s">
+        <v>10</v>
+      </c>
+      <c r="B87" s="22">
+        <v>660</v>
+      </c>
+      <c r="C87" s="38" t="s">
+        <v>143</v>
+      </c>
+      <c r="D87" s="22" t="s">
+        <v>71</v>
+      </c>
       <c r="E87" s="22"/>
       <c r="F87" s="22"/>
-      <c r="G87" s="22"/>
+      <c r="G87" s="22" t="s">
+        <v>152</v>
+      </c>
       <c r="H87" s="23"/>
       <c r="I87" s="23"/>
-      <c r="J87" s="23"/>
+      <c r="J87" s="23" t="s">
+        <v>39</v>
+      </c>
       <c r="K87" s="22"/>
       <c r="L87" s="1"/>
       <c r="M87" s="1"/>
@@ -9886,11 +10338,21 @@
       <c r="BJ87" s="1"/>
       <c r="BK87" s="1"/>
       <c r="BL87" s="1"/>
-      <c r="BM87" s="1"/>
-      <c r="BN87" s="1"/>
-      <c r="BO87" s="1"/>
-      <c r="BP87" s="1"/>
-      <c r="BQ87" s="1"/>
+      <c r="BM87" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="BN87" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="BO87" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="BP87" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="BQ87" s="1" t="s">
+        <v>138</v>
+      </c>
       <c r="BR87" s="1"/>
       <c r="BS87" s="1"/>
       <c r="BT87" s="1"/>
@@ -9922,130 +10384,139 @@
       <c r="CT87" s="1"/>
       <c r="CU87" s="1"/>
     </row>
-    <row r="88" spans="1:99" s="20" customFormat="1">
-      <c r="A88"/>
-      <c r="B88" s="21"/>
-      <c r="C88" s="30" t="s">
-        <v>54</v>
-      </c>
-      <c r="D88" s="21"/>
-      <c r="E88" s="21"/>
-      <c r="F88" s="21"/>
-      <c r="G88" s="21"/>
-      <c r="H88" s="21"/>
-      <c r="I88" s="21"/>
-      <c r="J88" s="21"/>
-      <c r="K88" s="21"/>
-      <c r="L88" s="21"/>
-      <c r="M88" s="21"/>
-      <c r="N88" s="21"/>
-      <c r="O88" s="21"/>
-      <c r="P88" s="21"/>
-      <c r="Q88" s="21"/>
-      <c r="R88" s="21"/>
-      <c r="S88" s="21"/>
-      <c r="T88" s="21"/>
-      <c r="U88" s="21"/>
-      <c r="V88" s="21"/>
-      <c r="W88" s="21"/>
-      <c r="X88" s="21"/>
-      <c r="Y88" s="21"/>
-      <c r="Z88" s="21"/>
-      <c r="AA88" s="21"/>
-      <c r="AB88" s="21"/>
-      <c r="AC88" s="21"/>
-      <c r="AD88" s="21"/>
-      <c r="AE88" s="21"/>
-      <c r="AF88" s="21"/>
-      <c r="AG88" s="21"/>
-      <c r="AH88" s="21"/>
-      <c r="AI88" s="21"/>
-      <c r="AJ88" s="21"/>
-      <c r="AK88" s="21"/>
-      <c r="AL88" s="21"/>
-      <c r="AM88" s="21"/>
-      <c r="AN88" s="21"/>
-      <c r="AO88" s="21"/>
-      <c r="AP88" s="21"/>
-      <c r="AQ88" s="21"/>
-      <c r="AR88" s="21"/>
-      <c r="AS88" s="21"/>
-      <c r="AT88" s="21"/>
-      <c r="AU88" s="21"/>
-      <c r="AV88" s="21"/>
-      <c r="AW88" s="21"/>
-      <c r="AX88" s="21"/>
-      <c r="AY88" s="21"/>
-      <c r="AZ88" s="21"/>
-      <c r="BA88" s="21"/>
-      <c r="BB88" s="21"/>
-      <c r="BC88" s="21"/>
-      <c r="BD88" s="21"/>
-      <c r="BE88" s="21"/>
-      <c r="BF88" s="21"/>
-      <c r="BG88" s="21"/>
-      <c r="BH88" s="21"/>
-      <c r="BI88" s="21"/>
-      <c r="BJ88" s="21"/>
-      <c r="BK88" s="21"/>
-      <c r="BL88" s="21"/>
-      <c r="BM88" s="21"/>
-      <c r="BN88" s="21"/>
-      <c r="BO88" s="21"/>
-      <c r="BP88" s="21"/>
-      <c r="BQ88" s="21"/>
-      <c r="BR88" s="21"/>
-      <c r="BS88" s="21"/>
-      <c r="BT88" s="21"/>
-      <c r="BU88" s="21"/>
-      <c r="BV88" s="21"/>
-      <c r="BW88" s="21"/>
-      <c r="BX88" s="21"/>
-      <c r="BY88" s="21"/>
-      <c r="BZ88" s="21"/>
-      <c r="CA88" s="21"/>
-      <c r="CB88" s="21"/>
-      <c r="CC88" s="21"/>
-      <c r="CD88" s="21"/>
-      <c r="CE88" s="21"/>
-      <c r="CF88" s="21"/>
-      <c r="CG88" s="21"/>
-      <c r="CH88" s="21"/>
-      <c r="CI88" s="21"/>
-      <c r="CJ88" s="21"/>
-      <c r="CK88" s="21"/>
-      <c r="CL88" s="21"/>
-      <c r="CM88" s="21"/>
-      <c r="CN88" s="21"/>
-      <c r="CO88" s="21"/>
-      <c r="CP88" s="21"/>
-      <c r="CQ88" s="21"/>
-      <c r="CR88" s="21"/>
-      <c r="CS88" s="21"/>
-      <c r="CT88" s="21"/>
-      <c r="CU88" s="21"/>
+    <row r="88" spans="1:99">
+      <c r="A88" t="s">
+        <v>10</v>
+      </c>
+      <c r="B88" s="22">
+        <v>601</v>
+      </c>
+      <c r="C88" s="38" t="s">
+        <v>106</v>
+      </c>
+      <c r="D88" s="22" t="s">
+        <v>81</v>
+      </c>
+      <c r="E88" s="22"/>
+      <c r="F88" s="22"/>
+      <c r="G88" s="22" t="s">
+        <v>151</v>
+      </c>
+      <c r="H88" s="23"/>
+      <c r="I88" s="23"/>
+      <c r="J88" s="23" t="s">
+        <v>39</v>
+      </c>
+      <c r="K88" s="22"/>
+      <c r="L88" s="1"/>
+      <c r="M88" s="1"/>
+      <c r="N88" s="1"/>
+      <c r="O88" s="1"/>
+      <c r="P88" s="1"/>
+      <c r="Q88" s="1"/>
+      <c r="R88" s="1"/>
+      <c r="S88" s="1"/>
+      <c r="T88" s="1"/>
+      <c r="U88" s="1"/>
+      <c r="V88" s="1"/>
+      <c r="W88" s="1"/>
+      <c r="X88" s="1"/>
+      <c r="Y88" s="1"/>
+      <c r="Z88" s="1"/>
+      <c r="AA88" s="1"/>
+      <c r="AB88" s="1"/>
+      <c r="AC88" s="1"/>
+      <c r="AD88" s="1"/>
+      <c r="AE88" s="1"/>
+      <c r="AF88" s="1"/>
+      <c r="AG88" s="1"/>
+      <c r="AH88" s="1"/>
+      <c r="AI88" s="1"/>
+      <c r="AJ88" s="1"/>
+      <c r="AK88" s="1"/>
+      <c r="AL88" s="1"/>
+      <c r="AM88" s="1"/>
+      <c r="AN88" s="1"/>
+      <c r="AO88" s="1"/>
+      <c r="AP88" s="1"/>
+      <c r="AQ88" s="1"/>
+      <c r="AR88" s="1"/>
+      <c r="AS88" s="1"/>
+      <c r="AT88" s="1"/>
+      <c r="AU88" s="1"/>
+      <c r="AV88" s="1"/>
+      <c r="AW88" s="1"/>
+      <c r="AX88" s="1"/>
+      <c r="AY88" s="1"/>
+      <c r="AZ88" s="1"/>
+      <c r="BA88" s="1"/>
+      <c r="BB88" s="1"/>
+      <c r="BC88" s="1"/>
+      <c r="BD88" s="1"/>
+      <c r="BE88" s="1"/>
+      <c r="BF88" s="1"/>
+      <c r="BG88" s="1"/>
+      <c r="BH88" s="1"/>
+      <c r="BI88" s="1"/>
+      <c r="BJ88" s="1"/>
+      <c r="BK88" s="1"/>
+      <c r="BL88" s="1"/>
+      <c r="BM88" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="BN88" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="BO88" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="BP88" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="BQ88" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="BR88" s="1"/>
+      <c r="BS88" s="1"/>
+      <c r="BT88" s="1"/>
+      <c r="BU88" s="1"/>
+      <c r="BV88" s="1"/>
+      <c r="BW88" s="1"/>
+      <c r="BX88" s="1"/>
+      <c r="BY88" s="1"/>
+      <c r="BZ88" s="1"/>
+      <c r="CA88" s="1"/>
+      <c r="CB88" s="1"/>
+      <c r="CC88" s="1"/>
+      <c r="CD88" s="1"/>
+      <c r="CE88" s="1"/>
+      <c r="CF88" s="1"/>
+      <c r="CG88" s="1"/>
+      <c r="CH88" s="1"/>
+      <c r="CI88" s="1"/>
+      <c r="CJ88" s="1"/>
+      <c r="CK88" s="1"/>
+      <c r="CL88" s="1"/>
+      <c r="CM88" s="1"/>
+      <c r="CN88" s="1"/>
+      <c r="CO88" s="1"/>
+      <c r="CP88" s="1"/>
+      <c r="CQ88" s="1"/>
+      <c r="CR88" s="1"/>
+      <c r="CS88" s="1"/>
+      <c r="CT88" s="1"/>
+      <c r="CU88" s="1"/>
     </row>
     <row r="89" spans="1:99">
-      <c r="A89" t="s">
-        <v>10</v>
-      </c>
       <c r="B89" s="22"/>
-      <c r="C89" s="29" t="s">
-        <v>85</v>
-      </c>
-      <c r="D89" s="22" t="s">
-        <v>64</v>
-      </c>
-      <c r="E89" s="22" t="s">
-        <v>70</v>
-      </c>
+      <c r="C89" s="29"/>
+      <c r="D89" s="22"/>
+      <c r="E89" s="22"/>
       <c r="F89" s="22"/>
       <c r="G89" s="22"/>
       <c r="H89" s="23"/>
       <c r="I89" s="23"/>
-      <c r="J89" s="23" t="s">
-        <v>40</v>
-      </c>
+      <c r="J89" s="23"/>
       <c r="K89" s="22"/>
       <c r="L89" s="1"/>
       <c r="M89" s="1"/>
@@ -10136,227 +10607,229 @@
       <c r="CT89" s="1"/>
       <c r="CU89" s="1"/>
     </row>
-    <row r="90" spans="1:99">
-      <c r="B90" s="22"/>
-      <c r="C90" s="29"/>
-      <c r="D90" s="22"/>
-      <c r="E90" s="22"/>
-      <c r="F90" s="22"/>
-      <c r="G90" s="22"/>
-      <c r="H90" s="23"/>
-      <c r="I90" s="23"/>
-      <c r="J90" s="23"/>
-      <c r="K90" s="22"/>
-      <c r="L90" s="1"/>
-      <c r="M90" s="1"/>
-      <c r="N90" s="1"/>
-      <c r="O90" s="1"/>
-      <c r="P90" s="1"/>
-      <c r="Q90" s="1"/>
-      <c r="R90" s="1"/>
-      <c r="S90" s="1"/>
-      <c r="T90" s="1"/>
-      <c r="U90" s="1"/>
-      <c r="V90" s="1"/>
-      <c r="W90" s="1"/>
-      <c r="X90" s="1"/>
-      <c r="Y90" s="1"/>
-      <c r="Z90" s="1"/>
-      <c r="AA90" s="1"/>
-      <c r="AB90" s="1"/>
-      <c r="AC90" s="1"/>
-      <c r="AD90" s="1"/>
-      <c r="AE90" s="1"/>
-      <c r="AF90" s="1"/>
-      <c r="AG90" s="1"/>
-      <c r="AH90" s="1"/>
-      <c r="AI90" s="1"/>
-      <c r="AJ90" s="1"/>
-      <c r="AK90" s="1"/>
-      <c r="AL90" s="1"/>
-      <c r="AM90" s="1"/>
-      <c r="AN90" s="1"/>
-      <c r="AO90" s="1"/>
-      <c r="AP90" s="1"/>
-      <c r="AQ90" s="1"/>
-      <c r="AR90" s="1"/>
-      <c r="AS90" s="1"/>
-      <c r="AT90" s="1"/>
-      <c r="AU90" s="1"/>
-      <c r="AV90" s="1"/>
-      <c r="AW90" s="1"/>
-      <c r="AX90" s="1"/>
-      <c r="AY90" s="1"/>
-      <c r="AZ90" s="1"/>
-      <c r="BA90" s="1"/>
-      <c r="BB90" s="1"/>
-      <c r="BC90" s="1"/>
-      <c r="BD90" s="1"/>
-      <c r="BE90" s="1"/>
-      <c r="BF90" s="1"/>
-      <c r="BG90" s="1"/>
-      <c r="BH90" s="1"/>
-      <c r="BI90" s="1"/>
-      <c r="BJ90" s="1"/>
-      <c r="BK90" s="1"/>
-      <c r="BL90" s="1"/>
-      <c r="BM90" s="1"/>
-      <c r="BN90" s="1"/>
-      <c r="BO90" s="1"/>
-      <c r="BP90" s="1"/>
-      <c r="BQ90" s="1"/>
-      <c r="BR90" s="1"/>
-      <c r="BS90" s="1"/>
-      <c r="BT90" s="1"/>
-      <c r="BU90" s="1"/>
-      <c r="BV90" s="1"/>
-      <c r="BW90" s="1"/>
-      <c r="BX90" s="1"/>
-      <c r="BY90" s="1"/>
-      <c r="BZ90" s="1"/>
-      <c r="CA90" s="1"/>
-      <c r="CB90" s="1"/>
-      <c r="CC90" s="1"/>
-      <c r="CD90" s="1"/>
-      <c r="CE90" s="1"/>
-      <c r="CF90" s="1"/>
-      <c r="CG90" s="1"/>
-      <c r="CH90" s="1"/>
-      <c r="CI90" s="1"/>
-      <c r="CJ90" s="1"/>
-      <c r="CK90" s="1"/>
-      <c r="CL90" s="1"/>
-      <c r="CM90" s="1"/>
-      <c r="CN90" s="1"/>
-      <c r="CO90" s="1"/>
-      <c r="CP90" s="1"/>
-      <c r="CQ90" s="1"/>
-      <c r="CR90" s="1"/>
-      <c r="CS90" s="1"/>
-      <c r="CT90" s="1"/>
-      <c r="CU90" s="1"/>
-    </row>
-    <row r="91" spans="1:99" s="20" customFormat="1">
-      <c r="A91"/>
-      <c r="B91" s="21"/>
-      <c r="C91" s="28" t="s">
-        <v>62</v>
-      </c>
-      <c r="D91" s="21"/>
-      <c r="E91" s="21"/>
-      <c r="F91" s="21"/>
-      <c r="G91" s="21"/>
-      <c r="H91" s="21"/>
-      <c r="I91" s="21"/>
-      <c r="J91" s="21"/>
-      <c r="K91" s="21"/>
-      <c r="L91" s="21"/>
-      <c r="M91" s="21"/>
-      <c r="N91" s="21"/>
-      <c r="O91" s="21"/>
-      <c r="P91" s="21"/>
-      <c r="Q91" s="21"/>
-      <c r="R91" s="21"/>
-      <c r="S91" s="21"/>
-      <c r="T91" s="21"/>
-      <c r="U91" s="21"/>
-      <c r="V91" s="21"/>
-      <c r="W91" s="21"/>
-      <c r="X91" s="21"/>
-      <c r="Y91" s="21"/>
-      <c r="Z91" s="21"/>
-      <c r="AA91" s="21"/>
-      <c r="AB91" s="21"/>
-      <c r="AC91" s="21"/>
-      <c r="AD91" s="21"/>
-      <c r="AE91" s="21"/>
-      <c r="AF91" s="21"/>
-      <c r="AG91" s="21"/>
-      <c r="AH91" s="21"/>
-      <c r="AI91" s="21"/>
-      <c r="AJ91" s="21"/>
-      <c r="AK91" s="21"/>
-      <c r="AL91" s="21"/>
-      <c r="AM91" s="21"/>
-      <c r="AN91" s="21"/>
-      <c r="AO91" s="21"/>
-      <c r="AP91" s="21"/>
-      <c r="AQ91" s="21"/>
-      <c r="AR91" s="21"/>
-      <c r="AS91" s="21"/>
-      <c r="AT91" s="21"/>
-      <c r="AU91" s="21"/>
-      <c r="AV91" s="21"/>
-      <c r="AW91" s="21"/>
-      <c r="AX91" s="21"/>
-      <c r="AY91" s="21"/>
-      <c r="AZ91" s="21"/>
-      <c r="BA91" s="21"/>
-      <c r="BB91" s="21"/>
-      <c r="BC91" s="21"/>
-      <c r="BD91" s="21"/>
-      <c r="BE91" s="21"/>
-      <c r="BF91" s="21"/>
-      <c r="BG91" s="21"/>
-      <c r="BH91" s="21"/>
-      <c r="BI91" s="21"/>
-      <c r="BJ91" s="21"/>
-      <c r="BK91" s="21"/>
-      <c r="BL91" s="21"/>
-      <c r="BM91" s="21"/>
-      <c r="BN91" s="21"/>
-      <c r="BO91" s="21"/>
-      <c r="BP91" s="21"/>
-      <c r="BQ91" s="21"/>
-      <c r="BR91" s="21"/>
-      <c r="BS91" s="21"/>
-      <c r="BT91" s="21"/>
-      <c r="BU91" s="21"/>
-      <c r="BV91" s="21"/>
-      <c r="BW91" s="21"/>
-      <c r="BX91" s="21"/>
-      <c r="BY91" s="21"/>
-      <c r="BZ91" s="21"/>
-      <c r="CA91" s="21"/>
-      <c r="CB91" s="21"/>
-      <c r="CC91" s="21"/>
-      <c r="CD91" s="21"/>
-      <c r="CE91" s="21"/>
-      <c r="CF91" s="21"/>
-      <c r="CG91" s="21"/>
-      <c r="CH91" s="21"/>
-      <c r="CI91" s="21"/>
-      <c r="CJ91" s="21"/>
-      <c r="CK91" s="21"/>
-      <c r="CL91" s="21"/>
-      <c r="CM91" s="21"/>
-      <c r="CN91" s="21"/>
-      <c r="CO91" s="21"/>
-      <c r="CP91" s="21"/>
-      <c r="CQ91" s="21"/>
-      <c r="CR91" s="21"/>
-      <c r="CS91" s="21"/>
-      <c r="CT91" s="21"/>
-      <c r="CU91" s="21"/>
+    <row r="90" spans="1:99" s="20" customFormat="1">
+      <c r="A90"/>
+      <c r="B90" s="21"/>
+      <c r="C90" s="30" t="s">
+        <v>111</v>
+      </c>
+      <c r="D90" s="21"/>
+      <c r="E90" s="21"/>
+      <c r="F90" s="21"/>
+      <c r="G90" s="21"/>
+      <c r="H90" s="21"/>
+      <c r="I90" s="21"/>
+      <c r="J90" s="21"/>
+      <c r="K90" s="21"/>
+      <c r="L90" s="21"/>
+      <c r="M90" s="21"/>
+      <c r="N90" s="21"/>
+      <c r="O90" s="21"/>
+      <c r="P90" s="21"/>
+      <c r="Q90" s="21"/>
+      <c r="R90" s="21"/>
+      <c r="S90" s="21"/>
+      <c r="T90" s="21"/>
+      <c r="U90" s="21"/>
+      <c r="V90" s="21"/>
+      <c r="W90" s="21"/>
+      <c r="X90" s="21"/>
+      <c r="Y90" s="21"/>
+      <c r="Z90" s="21"/>
+      <c r="AA90" s="21"/>
+      <c r="AB90" s="21"/>
+      <c r="AC90" s="21"/>
+      <c r="AD90" s="21"/>
+      <c r="AE90" s="21"/>
+      <c r="AF90" s="21"/>
+      <c r="AG90" s="21"/>
+      <c r="AH90" s="21"/>
+      <c r="AI90" s="21"/>
+      <c r="AJ90" s="21"/>
+      <c r="AK90" s="21"/>
+      <c r="AL90" s="21"/>
+      <c r="AM90" s="21"/>
+      <c r="AN90" s="21"/>
+      <c r="AO90" s="21"/>
+      <c r="AP90" s="21"/>
+      <c r="AQ90" s="21"/>
+      <c r="AR90" s="21"/>
+      <c r="AS90" s="21"/>
+      <c r="AT90" s="21"/>
+      <c r="AU90" s="21"/>
+      <c r="AV90" s="21"/>
+      <c r="AW90" s="21"/>
+      <c r="AX90" s="21"/>
+      <c r="AY90" s="21"/>
+      <c r="AZ90" s="21"/>
+      <c r="BA90" s="21"/>
+      <c r="BB90" s="21"/>
+      <c r="BC90" s="21"/>
+      <c r="BD90" s="21"/>
+      <c r="BE90" s="21"/>
+      <c r="BF90" s="21"/>
+      <c r="BG90" s="21"/>
+      <c r="BH90" s="21"/>
+      <c r="BI90" s="21"/>
+      <c r="BJ90" s="21"/>
+      <c r="BK90" s="21"/>
+      <c r="BL90" s="21"/>
+      <c r="BM90" s="21"/>
+      <c r="BN90" s="21"/>
+      <c r="BO90" s="21"/>
+      <c r="BP90" s="21"/>
+      <c r="BQ90" s="21"/>
+      <c r="BR90" s="21"/>
+      <c r="BS90" s="21"/>
+      <c r="BT90" s="21"/>
+      <c r="BU90" s="21"/>
+      <c r="BV90" s="21"/>
+      <c r="BW90" s="21"/>
+      <c r="BX90" s="21"/>
+      <c r="BY90" s="21"/>
+      <c r="BZ90" s="21"/>
+      <c r="CA90" s="21"/>
+      <c r="CB90" s="21"/>
+      <c r="CC90" s="21"/>
+      <c r="CD90" s="21"/>
+      <c r="CE90" s="21"/>
+      <c r="CF90" s="21"/>
+      <c r="CG90" s="21"/>
+      <c r="CH90" s="21"/>
+      <c r="CI90" s="21"/>
+      <c r="CJ90" s="21"/>
+      <c r="CK90" s="21"/>
+      <c r="CL90" s="21"/>
+      <c r="CM90" s="21"/>
+      <c r="CN90" s="21"/>
+      <c r="CO90" s="21"/>
+      <c r="CP90" s="21"/>
+      <c r="CQ90" s="21"/>
+      <c r="CR90" s="21"/>
+      <c r="CS90" s="21"/>
+      <c r="CT90" s="21"/>
+      <c r="CU90" s="21"/>
+    </row>
+    <row r="91" spans="1:99">
+      <c r="A91" t="s">
+        <v>10</v>
+      </c>
+      <c r="B91" s="22"/>
+      <c r="C91" s="37" t="s">
+        <v>112</v>
+      </c>
+      <c r="D91" s="22"/>
+      <c r="E91" s="22"/>
+      <c r="F91" s="22"/>
+      <c r="G91" s="22"/>
+      <c r="H91" s="23"/>
+      <c r="I91" s="23"/>
+      <c r="J91" s="23"/>
+      <c r="K91" s="22"/>
+      <c r="L91" s="1"/>
+      <c r="M91" s="1"/>
+      <c r="N91" s="1"/>
+      <c r="O91" s="1"/>
+      <c r="P91" s="1"/>
+      <c r="Q91" s="1"/>
+      <c r="R91" s="1"/>
+      <c r="S91" s="1"/>
+      <c r="T91" s="1"/>
+      <c r="U91" s="1"/>
+      <c r="V91" s="1"/>
+      <c r="W91" s="1"/>
+      <c r="X91" s="1"/>
+      <c r="Y91" s="1"/>
+      <c r="Z91" s="1"/>
+      <c r="AA91" s="1"/>
+      <c r="AB91" s="1"/>
+      <c r="AC91" s="1"/>
+      <c r="AD91" s="1"/>
+      <c r="AE91" s="1"/>
+      <c r="AF91" s="1"/>
+      <c r="AG91" s="1"/>
+      <c r="AH91" s="1"/>
+      <c r="AI91" s="1"/>
+      <c r="AJ91" s="1"/>
+      <c r="AK91" s="1"/>
+      <c r="AL91" s="1"/>
+      <c r="AM91" s="1"/>
+      <c r="AN91" s="1"/>
+      <c r="AO91" s="1"/>
+      <c r="AP91" s="1"/>
+      <c r="AQ91" s="1"/>
+      <c r="AR91" s="1"/>
+      <c r="AS91" s="1"/>
+      <c r="AT91" s="1"/>
+      <c r="AU91" s="1"/>
+      <c r="AV91" s="1"/>
+      <c r="AW91" s="1"/>
+      <c r="AX91" s="1"/>
+      <c r="AY91" s="1"/>
+      <c r="AZ91" s="1"/>
+      <c r="BA91" s="1"/>
+      <c r="BB91" s="1"/>
+      <c r="BC91" s="1"/>
+      <c r="BD91" s="1"/>
+      <c r="BE91" s="1"/>
+      <c r="BF91" s="1"/>
+      <c r="BG91" s="1"/>
+      <c r="BH91" s="1"/>
+      <c r="BI91" s="1"/>
+      <c r="BJ91" s="1"/>
+      <c r="BK91" s="1"/>
+      <c r="BL91" s="1"/>
+      <c r="BM91" s="1"/>
+      <c r="BN91" s="1"/>
+      <c r="BO91" s="1"/>
+      <c r="BP91" s="1"/>
+      <c r="BQ91" s="1"/>
+      <c r="BR91" s="1"/>
+      <c r="BS91" s="1"/>
+      <c r="BT91" s="1"/>
+      <c r="BU91" s="1"/>
+      <c r="BV91" s="1"/>
+      <c r="BW91" s="1"/>
+      <c r="BX91" s="1"/>
+      <c r="BY91" s="1"/>
+      <c r="BZ91" s="1"/>
+      <c r="CA91" s="1"/>
+      <c r="CB91" s="1"/>
+      <c r="CC91" s="1"/>
+      <c r="CD91" s="1"/>
+      <c r="CE91" s="1"/>
+      <c r="CF91" s="1"/>
+      <c r="CG91" s="1"/>
+      <c r="CH91" s="1"/>
+      <c r="CI91" s="1"/>
+      <c r="CJ91" s="1"/>
+      <c r="CK91" s="1"/>
+      <c r="CL91" s="1"/>
+      <c r="CM91" s="1"/>
+      <c r="CN91" s="1"/>
+      <c r="CO91" s="1"/>
+      <c r="CP91" s="1"/>
+      <c r="CQ91" s="1"/>
+      <c r="CR91" s="1"/>
+      <c r="CS91" s="1"/>
+      <c r="CT91" s="1"/>
+      <c r="CU91" s="1"/>
     </row>
     <row r="92" spans="1:99">
+      <c r="A92" t="s">
+        <v>10</v>
+      </c>
       <c r="B92" s="22"/>
-      <c r="C92" s="29" t="s">
-        <v>139</v>
-      </c>
-      <c r="D92" s="22" t="s">
-        <v>59</v>
-      </c>
-      <c r="E92" s="22" t="s">
-        <v>64</v>
-      </c>
+      <c r="C92" s="37" t="s">
+        <v>113</v>
+      </c>
+      <c r="D92" s="22"/>
+      <c r="E92" s="22"/>
       <c r="F92" s="22"/>
       <c r="G92" s="22"/>
       <c r="H92" s="23"/>
       <c r="I92" s="23"/>
-      <c r="J92" s="23" t="s">
-        <v>39</v>
-      </c>
+      <c r="J92" s="23"/>
       <c r="K92" s="22"/>
       <c r="L92" s="1"/>
       <c r="M92" s="1"/>
@@ -10411,21 +10884,11 @@
       <c r="BJ92" s="1"/>
       <c r="BK92" s="1"/>
       <c r="BL92" s="1"/>
-      <c r="BM92" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="BN92" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="BO92" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="BP92" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="BQ92" s="1" t="s">
-        <v>138</v>
-      </c>
+      <c r="BM92" s="1"/>
+      <c r="BN92" s="1"/>
+      <c r="BO92" s="1"/>
+      <c r="BP92" s="1"/>
+      <c r="BQ92" s="1"/>
       <c r="BR92" s="1"/>
       <c r="BS92" s="1"/>
       <c r="BT92" s="1"/>
@@ -10459,20 +10922,14 @@
     </row>
     <row r="93" spans="1:99">
       <c r="B93" s="22"/>
-      <c r="C93" s="29" t="s">
-        <v>140</v>
-      </c>
-      <c r="D93" s="22" t="s">
-        <v>70</v>
-      </c>
+      <c r="C93" s="29"/>
+      <c r="D93" s="22"/>
       <c r="E93" s="22"/>
       <c r="F93" s="22"/>
       <c r="G93" s="22"/>
       <c r="H93" s="23"/>
       <c r="I93" s="23"/>
-      <c r="J93" s="23" t="s">
-        <v>39</v>
-      </c>
+      <c r="J93" s="23"/>
       <c r="K93" s="22"/>
       <c r="L93" s="1"/>
       <c r="M93" s="1"/>
@@ -10527,21 +10984,11 @@
       <c r="BJ93" s="1"/>
       <c r="BK93" s="1"/>
       <c r="BL93" s="1"/>
-      <c r="BM93" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="BN93" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="BO93" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="BP93" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="BQ93" s="1" t="s">
-        <v>138</v>
-      </c>
+      <c r="BM93" s="1"/>
+      <c r="BN93" s="1"/>
+      <c r="BO93" s="1"/>
+      <c r="BP93" s="1"/>
+      <c r="BQ93" s="1"/>
       <c r="BR93" s="1"/>
       <c r="BS93" s="1"/>
       <c r="BT93" s="1"/>
@@ -10573,149 +11020,230 @@
       <c r="CT93" s="1"/>
       <c r="CU93" s="1"/>
     </row>
-    <row r="94" spans="1:99">
-      <c r="B94" s="22"/>
-      <c r="C94" s="29" t="s">
-        <v>141</v>
-      </c>
-      <c r="D94" s="22" t="s">
-        <v>74</v>
-      </c>
-      <c r="E94" s="22" t="s">
-        <v>75</v>
-      </c>
-      <c r="F94" s="22"/>
-      <c r="G94" s="22"/>
-      <c r="H94" s="23"/>
-      <c r="I94" s="23"/>
-      <c r="J94" s="23" t="s">
-        <v>39</v>
-      </c>
-      <c r="K94" s="22"/>
-      <c r="L94" s="1"/>
-      <c r="M94" s="1"/>
-      <c r="N94" s="1"/>
-      <c r="O94" s="1"/>
-      <c r="P94" s="1"/>
-      <c r="Q94" s="1"/>
-      <c r="R94" s="1"/>
-      <c r="S94" s="1"/>
-      <c r="T94" s="1"/>
-      <c r="U94" s="1"/>
-      <c r="V94" s="1"/>
-      <c r="W94" s="1"/>
-      <c r="X94" s="1"/>
-      <c r="Y94" s="1"/>
-      <c r="Z94" s="1"/>
-      <c r="AA94" s="1"/>
-      <c r="AB94" s="1"/>
-      <c r="AC94" s="1"/>
-      <c r="AD94" s="1"/>
-      <c r="AE94" s="1"/>
-      <c r="AF94" s="1"/>
-      <c r="AG94" s="1"/>
-      <c r="AH94" s="1"/>
-      <c r="AI94" s="1"/>
-      <c r="AJ94" s="1"/>
-      <c r="AK94" s="1"/>
-      <c r="AL94" s="1"/>
-      <c r="AM94" s="1"/>
-      <c r="AN94" s="1"/>
-      <c r="AO94" s="1"/>
-      <c r="AP94" s="1"/>
-      <c r="AQ94" s="1"/>
-      <c r="AR94" s="1"/>
-      <c r="AS94" s="1"/>
-      <c r="AT94" s="1"/>
-      <c r="AU94" s="1"/>
-      <c r="AV94" s="1"/>
-      <c r="AW94" s="1"/>
-      <c r="AX94" s="1"/>
-      <c r="AY94" s="1"/>
-      <c r="AZ94" s="1"/>
-      <c r="BA94" s="1"/>
-      <c r="BB94" s="1"/>
-      <c r="BC94" s="1"/>
-      <c r="BD94" s="1"/>
-      <c r="BE94" s="1"/>
-      <c r="BF94" s="1"/>
-      <c r="BG94" s="1"/>
-      <c r="BH94" s="1"/>
-      <c r="BI94" s="1"/>
-      <c r="BJ94" s="1"/>
-      <c r="BK94" s="1"/>
-      <c r="BL94" s="1"/>
-      <c r="BM94" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="BN94" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="BO94" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="BP94" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="BQ94" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="BR94" s="1"/>
-      <c r="BS94" s="1"/>
-      <c r="BT94" s="1"/>
-      <c r="BU94" s="1"/>
-      <c r="BV94" s="1"/>
-      <c r="BW94" s="1"/>
-      <c r="BX94" s="1"/>
-      <c r="BY94" s="1"/>
-      <c r="BZ94" s="1"/>
-      <c r="CA94" s="1"/>
-      <c r="CB94" s="1"/>
-      <c r="CC94" s="1"/>
-      <c r="CD94" s="1"/>
-      <c r="CE94" s="1"/>
-      <c r="CF94" s="1"/>
-      <c r="CG94" s="1"/>
-      <c r="CH94" s="1"/>
-      <c r="CI94" s="1"/>
-      <c r="CJ94" s="1"/>
-      <c r="CK94" s="1"/>
-      <c r="CL94" s="1"/>
-      <c r="CM94" s="1"/>
-      <c r="CN94" s="1"/>
-      <c r="CO94" s="1"/>
-      <c r="CP94" s="1"/>
-      <c r="CQ94" s="1"/>
-      <c r="CR94" s="1"/>
-      <c r="CS94" s="1"/>
-      <c r="CT94" s="1"/>
-      <c r="CU94" s="1"/>
-    </row>
-    <row r="95" spans="1:99" s="28" customFormat="1">
-      <c r="A95"/>
-      <c r="C95" s="28" t="s">
-        <v>63</v>
-      </c>
-      <c r="J95" s="28" t="s">
+    <row r="94" spans="1:99" s="20" customFormat="1">
+      <c r="A94"/>
+      <c r="B94" s="21"/>
+      <c r="C94" s="30" t="s">
+        <v>54</v>
+      </c>
+      <c r="D94" s="21"/>
+      <c r="E94" s="21"/>
+      <c r="F94" s="21"/>
+      <c r="G94" s="21"/>
+      <c r="H94" s="21"/>
+      <c r="I94" s="21"/>
+      <c r="J94" s="21"/>
+      <c r="K94" s="21"/>
+      <c r="L94" s="21"/>
+      <c r="M94" s="21"/>
+      <c r="N94" s="21"/>
+      <c r="O94" s="21"/>
+      <c r="P94" s="21"/>
+      <c r="Q94" s="21"/>
+      <c r="R94" s="21"/>
+      <c r="S94" s="21"/>
+      <c r="T94" s="21"/>
+      <c r="U94" s="21"/>
+      <c r="V94" s="21"/>
+      <c r="W94" s="21"/>
+      <c r="X94" s="21"/>
+      <c r="Y94" s="21"/>
+      <c r="Z94" s="21"/>
+      <c r="AA94" s="21"/>
+      <c r="AB94" s="21"/>
+      <c r="AC94" s="21"/>
+      <c r="AD94" s="21"/>
+      <c r="AE94" s="21"/>
+      <c r="AF94" s="21"/>
+      <c r="AG94" s="21"/>
+      <c r="AH94" s="21"/>
+      <c r="AI94" s="21"/>
+      <c r="AJ94" s="21"/>
+      <c r="AK94" s="21"/>
+      <c r="AL94" s="21"/>
+      <c r="AM94" s="21"/>
+      <c r="AN94" s="21"/>
+      <c r="AO94" s="21"/>
+      <c r="AP94" s="21"/>
+      <c r="AQ94" s="21"/>
+      <c r="AR94" s="21"/>
+      <c r="AS94" s="21"/>
+      <c r="AT94" s="21"/>
+      <c r="AU94" s="21"/>
+      <c r="AV94" s="21"/>
+      <c r="AW94" s="21"/>
+      <c r="AX94" s="21"/>
+      <c r="AY94" s="21"/>
+      <c r="AZ94" s="21"/>
+      <c r="BA94" s="21"/>
+      <c r="BB94" s="21"/>
+      <c r="BC94" s="21"/>
+      <c r="BD94" s="21"/>
+      <c r="BE94" s="21"/>
+      <c r="BF94" s="21"/>
+      <c r="BG94" s="21"/>
+      <c r="BH94" s="21"/>
+      <c r="BI94" s="21"/>
+      <c r="BJ94" s="21"/>
+      <c r="BK94" s="21"/>
+      <c r="BL94" s="21"/>
+      <c r="BM94" s="21"/>
+      <c r="BN94" s="21"/>
+      <c r="BO94" s="21"/>
+      <c r="BP94" s="21"/>
+      <c r="BQ94" s="21"/>
+      <c r="BR94" s="21"/>
+      <c r="BS94" s="21"/>
+      <c r="BT94" s="21"/>
+      <c r="BU94" s="21"/>
+      <c r="BV94" s="21"/>
+      <c r="BW94" s="21"/>
+      <c r="BX94" s="21"/>
+      <c r="BY94" s="21"/>
+      <c r="BZ94" s="21"/>
+      <c r="CA94" s="21"/>
+      <c r="CB94" s="21"/>
+      <c r="CC94" s="21"/>
+      <c r="CD94" s="21"/>
+      <c r="CE94" s="21"/>
+      <c r="CF94" s="21"/>
+      <c r="CG94" s="21"/>
+      <c r="CH94" s="21"/>
+      <c r="CI94" s="21"/>
+      <c r="CJ94" s="21"/>
+      <c r="CK94" s="21"/>
+      <c r="CL94" s="21"/>
+      <c r="CM94" s="21"/>
+      <c r="CN94" s="21"/>
+      <c r="CO94" s="21"/>
+      <c r="CP94" s="21"/>
+      <c r="CQ94" s="21"/>
+      <c r="CR94" s="21"/>
+      <c r="CS94" s="21"/>
+      <c r="CT94" s="21"/>
+      <c r="CU94" s="21"/>
+    </row>
+    <row r="95" spans="1:99">
+      <c r="A95" t="s">
+        <v>10</v>
+      </c>
+      <c r="B95" s="22"/>
+      <c r="C95" s="29" t="s">
+        <v>85</v>
+      </c>
+      <c r="D95" s="22" t="s">
+        <v>64</v>
+      </c>
+      <c r="E95" s="22" t="s">
+        <v>70</v>
+      </c>
+      <c r="F95" s="22"/>
+      <c r="G95" s="22"/>
+      <c r="H95" s="23"/>
+      <c r="I95" s="23"/>
+      <c r="J95" s="23" t="s">
         <v>40</v>
       </c>
+      <c r="K95" s="22"/>
+      <c r="L95" s="1"/>
+      <c r="M95" s="1"/>
+      <c r="N95" s="1"/>
+      <c r="O95" s="1"/>
+      <c r="P95" s="1"/>
+      <c r="Q95" s="1"/>
+      <c r="R95" s="1"/>
+      <c r="S95" s="1"/>
+      <c r="T95" s="1"/>
+      <c r="U95" s="1"/>
+      <c r="V95" s="1"/>
+      <c r="W95" s="1"/>
+      <c r="X95" s="1"/>
+      <c r="Y95" s="1"/>
+      <c r="Z95" s="1"/>
+      <c r="AA95" s="1"/>
+      <c r="AB95" s="1"/>
+      <c r="AC95" s="1"/>
+      <c r="AD95" s="1"/>
+      <c r="AE95" s="1"/>
+      <c r="AF95" s="1"/>
+      <c r="AG95" s="1"/>
+      <c r="AH95" s="1"/>
+      <c r="AI95" s="1"/>
+      <c r="AJ95" s="1"/>
+      <c r="AK95" s="1"/>
+      <c r="AL95" s="1"/>
+      <c r="AM95" s="1"/>
+      <c r="AN95" s="1"/>
+      <c r="AO95" s="1"/>
+      <c r="AP95" s="1"/>
+      <c r="AQ95" s="1"/>
+      <c r="AR95" s="1"/>
+      <c r="AS95" s="1"/>
+      <c r="AT95" s="1"/>
+      <c r="AU95" s="1"/>
+      <c r="AV95" s="1"/>
+      <c r="AW95" s="1"/>
+      <c r="AX95" s="1"/>
+      <c r="AY95" s="1"/>
+      <c r="AZ95" s="1"/>
+      <c r="BA95" s="1"/>
+      <c r="BB95" s="1"/>
+      <c r="BC95" s="1"/>
+      <c r="BD95" s="1"/>
+      <c r="BE95" s="1"/>
+      <c r="BF95" s="1"/>
+      <c r="BG95" s="1"/>
+      <c r="BH95" s="1"/>
+      <c r="BI95" s="1"/>
+      <c r="BJ95" s="1"/>
+      <c r="BK95" s="1"/>
+      <c r="BL95" s="1"/>
+      <c r="BM95" s="1"/>
+      <c r="BN95" s="1"/>
+      <c r="BO95" s="1"/>
+      <c r="BP95" s="1"/>
+      <c r="BQ95" s="1"/>
+      <c r="BR95" s="1"/>
+      <c r="BS95" s="1"/>
+      <c r="BT95" s="1"/>
+      <c r="BU95" s="1"/>
+      <c r="BV95" s="1"/>
+      <c r="BW95" s="1"/>
+      <c r="BX95" s="1"/>
+      <c r="BY95" s="1"/>
+      <c r="BZ95" s="1"/>
+      <c r="CA95" s="1"/>
+      <c r="CB95" s="1"/>
+      <c r="CC95" s="1"/>
+      <c r="CD95" s="1"/>
+      <c r="CE95" s="1"/>
+      <c r="CF95" s="1"/>
+      <c r="CG95" s="1"/>
+      <c r="CH95" s="1"/>
+      <c r="CI95" s="1"/>
+      <c r="CJ95" s="1"/>
+      <c r="CK95" s="1"/>
+      <c r="CL95" s="1"/>
+      <c r="CM95" s="1"/>
+      <c r="CN95" s="1"/>
+      <c r="CO95" s="1"/>
+      <c r="CP95" s="1"/>
+      <c r="CQ95" s="1"/>
+      <c r="CR95" s="1"/>
+      <c r="CS95" s="1"/>
+      <c r="CT95" s="1"/>
+      <c r="CU95" s="1"/>
     </row>
     <row r="96" spans="1:99">
       <c r="B96" s="22"/>
-      <c r="C96" s="29" t="s">
-        <v>63</v>
-      </c>
-      <c r="D96" s="22" t="s">
-        <v>59</v>
-      </c>
+      <c r="C96" s="29"/>
+      <c r="D96" s="22"/>
       <c r="E96" s="22"/>
       <c r="F96" s="22"/>
       <c r="G96" s="22"/>
       <c r="H96" s="23"/>
       <c r="I96" s="23"/>
-      <c r="J96" s="23" t="s">
-        <v>39</v>
-      </c>
+      <c r="J96" s="23"/>
       <c r="K96" s="22"/>
       <c r="L96" s="1"/>
       <c r="M96" s="1"/>
@@ -10737,9 +11265,7 @@
       <c r="AC96" s="1"/>
       <c r="AD96" s="1"/>
       <c r="AE96" s="1"/>
-      <c r="AF96" s="1" t="s">
-        <v>52</v>
-      </c>
+      <c r="AF96" s="1"/>
       <c r="AG96" s="1"/>
       <c r="AH96" s="1"/>
       <c r="AI96" s="1"/>
@@ -10772,48 +11298,20 @@
       <c r="BJ96" s="1"/>
       <c r="BK96" s="1"/>
       <c r="BL96" s="1"/>
-      <c r="BM96" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="BN96" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="BO96" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="BP96" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="BQ96" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="BR96" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="BS96" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="BT96" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="BU96" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="BV96" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="BW96" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="BX96" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="BY96" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="BZ96" s="1" t="s">
-        <v>138</v>
-      </c>
+      <c r="BM96" s="1"/>
+      <c r="BN96" s="1"/>
+      <c r="BO96" s="1"/>
+      <c r="BP96" s="1"/>
+      <c r="BQ96" s="1"/>
+      <c r="BR96" s="1"/>
+      <c r="BS96" s="1"/>
+      <c r="BT96" s="1"/>
+      <c r="BU96" s="1"/>
+      <c r="BV96" s="1"/>
+      <c r="BW96" s="1"/>
+      <c r="BX96" s="1"/>
+      <c r="BY96" s="1"/>
+      <c r="BZ96" s="1"/>
       <c r="CA96" s="1"/>
       <c r="CB96" s="1"/>
       <c r="CC96" s="1"/>
@@ -10840,7 +11338,7 @@
       <c r="A97"/>
       <c r="B97" s="21"/>
       <c r="C97" s="28" t="s">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="D97" s="21"/>
       <c r="E97" s="21"/>
@@ -10939,344 +11437,902 @@
       <c r="CT97" s="21"/>
       <c r="CU97" s="21"/>
     </row>
-    <row r="101" spans="1:99" s="24" customFormat="1">
+    <row r="98" spans="1:99">
+      <c r="B98" s="22"/>
+      <c r="C98" s="29" t="s">
+        <v>139</v>
+      </c>
+      <c r="D98" s="22" t="s">
+        <v>59</v>
+      </c>
+      <c r="E98" s="22" t="s">
+        <v>64</v>
+      </c>
+      <c r="F98" s="22"/>
+      <c r="G98" s="22"/>
+      <c r="H98" s="23"/>
+      <c r="I98" s="23"/>
+      <c r="J98" s="23" t="s">
+        <v>39</v>
+      </c>
+      <c r="K98" s="22"/>
+      <c r="L98" s="1"/>
+      <c r="M98" s="1"/>
+      <c r="N98" s="1"/>
+      <c r="O98" s="1"/>
+      <c r="P98" s="1"/>
+      <c r="Q98" s="1"/>
+      <c r="R98" s="1"/>
+      <c r="S98" s="1"/>
+      <c r="T98" s="1"/>
+      <c r="U98" s="1"/>
+      <c r="V98" s="1"/>
+      <c r="W98" s="1"/>
+      <c r="X98" s="1"/>
+      <c r="Y98" s="1"/>
+      <c r="Z98" s="1"/>
+      <c r="AA98" s="1"/>
+      <c r="AB98" s="1"/>
+      <c r="AC98" s="1"/>
+      <c r="AD98" s="1"/>
+      <c r="AE98" s="1"/>
+      <c r="AF98" s="1"/>
+      <c r="AG98" s="1"/>
+      <c r="AH98" s="1"/>
+      <c r="AI98" s="1"/>
+      <c r="AJ98" s="1"/>
+      <c r="AK98" s="1"/>
+      <c r="AL98" s="1"/>
+      <c r="AM98" s="1"/>
+      <c r="AN98" s="1"/>
+      <c r="AO98" s="1"/>
+      <c r="AP98" s="1"/>
+      <c r="AQ98" s="1"/>
+      <c r="AR98" s="1"/>
+      <c r="AS98" s="1"/>
+      <c r="AT98" s="1"/>
+      <c r="AU98" s="1"/>
+      <c r="AV98" s="1"/>
+      <c r="AW98" s="1"/>
+      <c r="AX98" s="1"/>
+      <c r="AY98" s="1"/>
+      <c r="AZ98" s="1"/>
+      <c r="BA98" s="1"/>
+      <c r="BB98" s="1"/>
+      <c r="BC98" s="1"/>
+      <c r="BD98" s="1"/>
+      <c r="BE98" s="1"/>
+      <c r="BF98" s="1"/>
+      <c r="BG98" s="1"/>
+      <c r="BH98" s="1"/>
+      <c r="BI98" s="1"/>
+      <c r="BJ98" s="1"/>
+      <c r="BK98" s="1"/>
+      <c r="BL98" s="1"/>
+      <c r="BM98" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="BN98" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="BO98" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="BP98" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="BQ98" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="BR98" s="1"/>
+      <c r="BS98" s="1"/>
+      <c r="BT98" s="1"/>
+      <c r="BU98" s="1"/>
+      <c r="BV98" s="1"/>
+      <c r="BW98" s="1"/>
+      <c r="BX98" s="1"/>
+      <c r="BY98" s="1"/>
+      <c r="BZ98" s="1"/>
+      <c r="CA98" s="1"/>
+      <c r="CB98" s="1"/>
+      <c r="CC98" s="1"/>
+      <c r="CD98" s="1"/>
+      <c r="CE98" s="1"/>
+      <c r="CF98" s="1"/>
+      <c r="CG98" s="1"/>
+      <c r="CH98" s="1"/>
+      <c r="CI98" s="1"/>
+      <c r="CJ98" s="1"/>
+      <c r="CK98" s="1"/>
+      <c r="CL98" s="1"/>
+      <c r="CM98" s="1"/>
+      <c r="CN98" s="1"/>
+      <c r="CO98" s="1"/>
+      <c r="CP98" s="1"/>
+      <c r="CQ98" s="1"/>
+      <c r="CR98" s="1"/>
+      <c r="CS98" s="1"/>
+      <c r="CT98" s="1"/>
+      <c r="CU98" s="1"/>
+    </row>
+    <row r="99" spans="1:99">
+      <c r="B99" s="22"/>
+      <c r="C99" s="29" t="s">
+        <v>140</v>
+      </c>
+      <c r="D99" s="22" t="s">
+        <v>70</v>
+      </c>
+      <c r="E99" s="22"/>
+      <c r="F99" s="22"/>
+      <c r="G99" s="22"/>
+      <c r="H99" s="23"/>
+      <c r="I99" s="23"/>
+      <c r="J99" s="23" t="s">
+        <v>39</v>
+      </c>
+      <c r="K99" s="22"/>
+      <c r="L99" s="1"/>
+      <c r="M99" s="1"/>
+      <c r="N99" s="1"/>
+      <c r="O99" s="1"/>
+      <c r="P99" s="1"/>
+      <c r="Q99" s="1"/>
+      <c r="R99" s="1"/>
+      <c r="S99" s="1"/>
+      <c r="T99" s="1"/>
+      <c r="U99" s="1"/>
+      <c r="V99" s="1"/>
+      <c r="W99" s="1"/>
+      <c r="X99" s="1"/>
+      <c r="Y99" s="1"/>
+      <c r="Z99" s="1"/>
+      <c r="AA99" s="1"/>
+      <c r="AB99" s="1"/>
+      <c r="AC99" s="1"/>
+      <c r="AD99" s="1"/>
+      <c r="AE99" s="1"/>
+      <c r="AF99" s="1"/>
+      <c r="AG99" s="1"/>
+      <c r="AH99" s="1"/>
+      <c r="AI99" s="1"/>
+      <c r="AJ99" s="1"/>
+      <c r="AK99" s="1"/>
+      <c r="AL99" s="1"/>
+      <c r="AM99" s="1"/>
+      <c r="AN99" s="1"/>
+      <c r="AO99" s="1"/>
+      <c r="AP99" s="1"/>
+      <c r="AQ99" s="1"/>
+      <c r="AR99" s="1"/>
+      <c r="AS99" s="1"/>
+      <c r="AT99" s="1"/>
+      <c r="AU99" s="1"/>
+      <c r="AV99" s="1"/>
+      <c r="AW99" s="1"/>
+      <c r="AX99" s="1"/>
+      <c r="AY99" s="1"/>
+      <c r="AZ99" s="1"/>
+      <c r="BA99" s="1"/>
+      <c r="BB99" s="1"/>
+      <c r="BC99" s="1"/>
+      <c r="BD99" s="1"/>
+      <c r="BE99" s="1"/>
+      <c r="BF99" s="1"/>
+      <c r="BG99" s="1"/>
+      <c r="BH99" s="1"/>
+      <c r="BI99" s="1"/>
+      <c r="BJ99" s="1"/>
+      <c r="BK99" s="1"/>
+      <c r="BL99" s="1"/>
+      <c r="BM99" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="BN99" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="BO99" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="BP99" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="BQ99" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="BR99" s="1"/>
+      <c r="BS99" s="1"/>
+      <c r="BT99" s="1"/>
+      <c r="BU99" s="1"/>
+      <c r="BV99" s="1"/>
+      <c r="BW99" s="1"/>
+      <c r="BX99" s="1"/>
+      <c r="BY99" s="1"/>
+      <c r="BZ99" s="1"/>
+      <c r="CA99" s="1"/>
+      <c r="CB99" s="1"/>
+      <c r="CC99" s="1"/>
+      <c r="CD99" s="1"/>
+      <c r="CE99" s="1"/>
+      <c r="CF99" s="1"/>
+      <c r="CG99" s="1"/>
+      <c r="CH99" s="1"/>
+      <c r="CI99" s="1"/>
+      <c r="CJ99" s="1"/>
+      <c r="CK99" s="1"/>
+      <c r="CL99" s="1"/>
+      <c r="CM99" s="1"/>
+      <c r="CN99" s="1"/>
+      <c r="CO99" s="1"/>
+      <c r="CP99" s="1"/>
+      <c r="CQ99" s="1"/>
+      <c r="CR99" s="1"/>
+      <c r="CS99" s="1"/>
+      <c r="CT99" s="1"/>
+      <c r="CU99" s="1"/>
+    </row>
+    <row r="100" spans="1:99">
+      <c r="B100" s="22"/>
+      <c r="C100" s="29" t="s">
+        <v>141</v>
+      </c>
+      <c r="D100" s="22" t="s">
+        <v>74</v>
+      </c>
+      <c r="E100" s="22" t="s">
+        <v>75</v>
+      </c>
+      <c r="F100" s="22"/>
+      <c r="G100" s="22"/>
+      <c r="H100" s="23"/>
+      <c r="I100" s="23"/>
+      <c r="J100" s="23" t="s">
+        <v>39</v>
+      </c>
+      <c r="K100" s="22"/>
+      <c r="L100" s="1"/>
+      <c r="M100" s="1"/>
+      <c r="N100" s="1"/>
+      <c r="O100" s="1"/>
+      <c r="P100" s="1"/>
+      <c r="Q100" s="1"/>
+      <c r="R100" s="1"/>
+      <c r="S100" s="1"/>
+      <c r="T100" s="1"/>
+      <c r="U100" s="1"/>
+      <c r="V100" s="1"/>
+      <c r="W100" s="1"/>
+      <c r="X100" s="1"/>
+      <c r="Y100" s="1"/>
+      <c r="Z100" s="1"/>
+      <c r="AA100" s="1"/>
+      <c r="AB100" s="1"/>
+      <c r="AC100" s="1"/>
+      <c r="AD100" s="1"/>
+      <c r="AE100" s="1"/>
+      <c r="AF100" s="1"/>
+      <c r="AG100" s="1"/>
+      <c r="AH100" s="1"/>
+      <c r="AI100" s="1"/>
+      <c r="AJ100" s="1"/>
+      <c r="AK100" s="1"/>
+      <c r="AL100" s="1"/>
+      <c r="AM100" s="1"/>
+      <c r="AN100" s="1"/>
+      <c r="AO100" s="1"/>
+      <c r="AP100" s="1"/>
+      <c r="AQ100" s="1"/>
+      <c r="AR100" s="1"/>
+      <c r="AS100" s="1"/>
+      <c r="AT100" s="1"/>
+      <c r="AU100" s="1"/>
+      <c r="AV100" s="1"/>
+      <c r="AW100" s="1"/>
+      <c r="AX100" s="1"/>
+      <c r="AY100" s="1"/>
+      <c r="AZ100" s="1"/>
+      <c r="BA100" s="1"/>
+      <c r="BB100" s="1"/>
+      <c r="BC100" s="1"/>
+      <c r="BD100" s="1"/>
+      <c r="BE100" s="1"/>
+      <c r="BF100" s="1"/>
+      <c r="BG100" s="1"/>
+      <c r="BH100" s="1"/>
+      <c r="BI100" s="1"/>
+      <c r="BJ100" s="1"/>
+      <c r="BK100" s="1"/>
+      <c r="BL100" s="1"/>
+      <c r="BM100" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="BN100" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="BO100" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="BP100" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="BQ100" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="BR100" s="1"/>
+      <c r="BS100" s="1"/>
+      <c r="BT100" s="1"/>
+      <c r="BU100" s="1"/>
+      <c r="BV100" s="1"/>
+      <c r="BW100" s="1"/>
+      <c r="BX100" s="1"/>
+      <c r="BY100" s="1"/>
+      <c r="BZ100" s="1"/>
+      <c r="CA100" s="1"/>
+      <c r="CB100" s="1"/>
+      <c r="CC100" s="1"/>
+      <c r="CD100" s="1"/>
+      <c r="CE100" s="1"/>
+      <c r="CF100" s="1"/>
+      <c r="CG100" s="1"/>
+      <c r="CH100" s="1"/>
+      <c r="CI100" s="1"/>
+      <c r="CJ100" s="1"/>
+      <c r="CK100" s="1"/>
+      <c r="CL100" s="1"/>
+      <c r="CM100" s="1"/>
+      <c r="CN100" s="1"/>
+      <c r="CO100" s="1"/>
+      <c r="CP100" s="1"/>
+      <c r="CQ100" s="1"/>
+      <c r="CR100" s="1"/>
+      <c r="CS100" s="1"/>
+      <c r="CT100" s="1"/>
+      <c r="CU100" s="1"/>
+    </row>
+    <row r="101" spans="1:99" s="28" customFormat="1">
       <c r="A101"/>
-      <c r="C101" s="32" t="s">
+      <c r="C101" s="28" t="s">
+        <v>63</v>
+      </c>
+      <c r="J101" s="28" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="102" spans="1:99">
+      <c r="B102" s="22"/>
+      <c r="C102" s="29" t="s">
+        <v>63</v>
+      </c>
+      <c r="D102" s="22" t="s">
+        <v>59</v>
+      </c>
+      <c r="E102" s="22"/>
+      <c r="F102" s="22"/>
+      <c r="G102" s="22"/>
+      <c r="H102" s="23"/>
+      <c r="I102" s="23"/>
+      <c r="J102" s="23" t="s">
+        <v>39</v>
+      </c>
+      <c r="K102" s="22"/>
+      <c r="L102" s="1"/>
+      <c r="M102" s="1"/>
+      <c r="N102" s="1"/>
+      <c r="O102" s="1"/>
+      <c r="P102" s="1"/>
+      <c r="Q102" s="1"/>
+      <c r="R102" s="1"/>
+      <c r="S102" s="1"/>
+      <c r="T102" s="1"/>
+      <c r="U102" s="1"/>
+      <c r="V102" s="1"/>
+      <c r="W102" s="1"/>
+      <c r="X102" s="1"/>
+      <c r="Y102" s="1"/>
+      <c r="Z102" s="1"/>
+      <c r="AA102" s="1"/>
+      <c r="AB102" s="1"/>
+      <c r="AC102" s="1"/>
+      <c r="AD102" s="1"/>
+      <c r="AE102" s="1"/>
+      <c r="AF102" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="AG102" s="1"/>
+      <c r="AH102" s="1"/>
+      <c r="AI102" s="1"/>
+      <c r="AJ102" s="1"/>
+      <c r="AK102" s="1"/>
+      <c r="AL102" s="1"/>
+      <c r="AM102" s="1"/>
+      <c r="AN102" s="1"/>
+      <c r="AO102" s="1"/>
+      <c r="AP102" s="1"/>
+      <c r="AQ102" s="1"/>
+      <c r="AR102" s="1"/>
+      <c r="AS102" s="1"/>
+      <c r="AT102" s="1"/>
+      <c r="AU102" s="1"/>
+      <c r="AV102" s="1"/>
+      <c r="AW102" s="1"/>
+      <c r="AX102" s="1"/>
+      <c r="AY102" s="1"/>
+      <c r="AZ102" s="1"/>
+      <c r="BA102" s="1"/>
+      <c r="BB102" s="1"/>
+      <c r="BC102" s="1"/>
+      <c r="BD102" s="1"/>
+      <c r="BE102" s="1"/>
+      <c r="BF102" s="1"/>
+      <c r="BG102" s="1"/>
+      <c r="BH102" s="1"/>
+      <c r="BI102" s="1"/>
+      <c r="BJ102" s="1"/>
+      <c r="BK102" s="1"/>
+      <c r="BL102" s="1"/>
+      <c r="BM102" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="BN102" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="BO102" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="BP102" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="BQ102" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="BR102" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="BS102" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="BT102" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="BU102" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="BV102" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="BW102" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="BX102" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="BY102" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="BZ102" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="CA102" s="1"/>
+      <c r="CB102" s="1"/>
+      <c r="CC102" s="1"/>
+      <c r="CD102" s="1"/>
+      <c r="CE102" s="1"/>
+      <c r="CF102" s="1"/>
+      <c r="CG102" s="1"/>
+      <c r="CH102" s="1"/>
+      <c r="CI102" s="1"/>
+      <c r="CJ102" s="1"/>
+      <c r="CK102" s="1"/>
+      <c r="CL102" s="1"/>
+      <c r="CM102" s="1"/>
+      <c r="CN102" s="1"/>
+      <c r="CO102" s="1"/>
+      <c r="CP102" s="1"/>
+      <c r="CQ102" s="1"/>
+      <c r="CR102" s="1"/>
+      <c r="CS102" s="1"/>
+      <c r="CT102" s="1"/>
+      <c r="CU102" s="1"/>
+    </row>
+    <row r="103" spans="1:99" s="20" customFormat="1">
+      <c r="A103"/>
+      <c r="B103" s="21"/>
+      <c r="C103" s="28" t="s">
+        <v>55</v>
+      </c>
+      <c r="D103" s="21"/>
+      <c r="E103" s="21"/>
+      <c r="F103" s="21"/>
+      <c r="G103" s="21"/>
+      <c r="H103" s="21"/>
+      <c r="I103" s="21"/>
+      <c r="J103" s="21"/>
+      <c r="K103" s="21"/>
+      <c r="L103" s="21"/>
+      <c r="M103" s="21"/>
+      <c r="N103" s="21"/>
+      <c r="O103" s="21"/>
+      <c r="P103" s="21"/>
+      <c r="Q103" s="21"/>
+      <c r="R103" s="21"/>
+      <c r="S103" s="21"/>
+      <c r="T103" s="21"/>
+      <c r="U103" s="21"/>
+      <c r="V103" s="21"/>
+      <c r="W103" s="21"/>
+      <c r="X103" s="21"/>
+      <c r="Y103" s="21"/>
+      <c r="Z103" s="21"/>
+      <c r="AA103" s="21"/>
+      <c r="AB103" s="21"/>
+      <c r="AC103" s="21"/>
+      <c r="AD103" s="21"/>
+      <c r="AE103" s="21"/>
+      <c r="AF103" s="21"/>
+      <c r="AG103" s="21"/>
+      <c r="AH103" s="21"/>
+      <c r="AI103" s="21"/>
+      <c r="AJ103" s="21"/>
+      <c r="AK103" s="21"/>
+      <c r="AL103" s="21"/>
+      <c r="AM103" s="21"/>
+      <c r="AN103" s="21"/>
+      <c r="AO103" s="21"/>
+      <c r="AP103" s="21"/>
+      <c r="AQ103" s="21"/>
+      <c r="AR103" s="21"/>
+      <c r="AS103" s="21"/>
+      <c r="AT103" s="21"/>
+      <c r="AU103" s="21"/>
+      <c r="AV103" s="21"/>
+      <c r="AW103" s="21"/>
+      <c r="AX103" s="21"/>
+      <c r="AY103" s="21"/>
+      <c r="AZ103" s="21"/>
+      <c r="BA103" s="21"/>
+      <c r="BB103" s="21"/>
+      <c r="BC103" s="21"/>
+      <c r="BD103" s="21"/>
+      <c r="BE103" s="21"/>
+      <c r="BF103" s="21"/>
+      <c r="BG103" s="21"/>
+      <c r="BH103" s="21"/>
+      <c r="BI103" s="21"/>
+      <c r="BJ103" s="21"/>
+      <c r="BK103" s="21"/>
+      <c r="BL103" s="21"/>
+      <c r="BM103" s="21"/>
+      <c r="BN103" s="21"/>
+      <c r="BO103" s="21"/>
+      <c r="BP103" s="21"/>
+      <c r="BQ103" s="21"/>
+      <c r="BR103" s="21"/>
+      <c r="BS103" s="21"/>
+      <c r="BT103" s="21"/>
+      <c r="BU103" s="21"/>
+      <c r="BV103" s="21"/>
+      <c r="BW103" s="21"/>
+      <c r="BX103" s="21"/>
+      <c r="BY103" s="21"/>
+      <c r="BZ103" s="21"/>
+      <c r="CA103" s="21"/>
+      <c r="CB103" s="21"/>
+      <c r="CC103" s="21"/>
+      <c r="CD103" s="21"/>
+      <c r="CE103" s="21"/>
+      <c r="CF103" s="21"/>
+      <c r="CG103" s="21"/>
+      <c r="CH103" s="21"/>
+      <c r="CI103" s="21"/>
+      <c r="CJ103" s="21"/>
+      <c r="CK103" s="21"/>
+      <c r="CL103" s="21"/>
+      <c r="CM103" s="21"/>
+      <c r="CN103" s="21"/>
+      <c r="CO103" s="21"/>
+      <c r="CP103" s="21"/>
+      <c r="CQ103" s="21"/>
+      <c r="CR103" s="21"/>
+      <c r="CS103" s="21"/>
+      <c r="CT103" s="21"/>
+      <c r="CU103" s="21"/>
+    </row>
+    <row r="107" spans="1:99" s="24" customFormat="1">
+      <c r="A107"/>
+      <c r="C107" s="32" t="s">
         <v>53</v>
       </c>
-      <c r="H101" s="25"/>
-      <c r="I101" s="25"/>
-      <c r="J101" s="25"/>
-      <c r="L101" s="25">
+      <c r="H107" s="25"/>
+      <c r="I107" s="25"/>
+      <c r="J107" s="25"/>
+      <c r="L107" s="25">
         <f>L19</f>
         <v>41133</v>
       </c>
-      <c r="M101" s="25">
-        <f t="shared" ref="M101:BF101" si="6">M19</f>
+      <c r="M107" s="25">
+        <f t="shared" ref="M107:BF107" si="6">M19</f>
         <v>41134</v>
       </c>
-      <c r="N101" s="25">
+      <c r="N107" s="25">
         <f t="shared" si="6"/>
         <v>41135</v>
       </c>
-      <c r="O101" s="25">
+      <c r="O107" s="25">
         <f t="shared" si="6"/>
         <v>41136</v>
       </c>
-      <c r="P101" s="25">
+      <c r="P107" s="25">
         <f t="shared" si="6"/>
         <v>41137</v>
       </c>
-      <c r="Q101" s="25">
+      <c r="Q107" s="25">
         <f t="shared" si="6"/>
         <v>41138</v>
       </c>
-      <c r="R101" s="25">
+      <c r="R107" s="25">
         <f t="shared" si="6"/>
         <v>41139</v>
       </c>
-      <c r="S101" s="25">
+      <c r="S107" s="25">
         <f t="shared" si="6"/>
         <v>41140</v>
       </c>
-      <c r="T101" s="25">
+      <c r="T107" s="25">
         <f t="shared" si="6"/>
         <v>41141</v>
       </c>
-      <c r="U101" s="25">
+      <c r="U107" s="25">
         <f t="shared" si="6"/>
         <v>41142</v>
       </c>
-      <c r="V101" s="25">
+      <c r="V107" s="25">
         <f t="shared" si="6"/>
         <v>41143</v>
       </c>
-      <c r="W101" s="25">
+      <c r="W107" s="25">
         <f t="shared" si="6"/>
         <v>41144</v>
       </c>
-      <c r="X101" s="25">
+      <c r="X107" s="25">
         <f t="shared" si="6"/>
         <v>41145</v>
       </c>
-      <c r="Y101" s="25">
+      <c r="Y107" s="25">
         <f t="shared" si="6"/>
         <v>41146</v>
       </c>
-      <c r="Z101" s="25">
+      <c r="Z107" s="25">
         <f t="shared" si="6"/>
         <v>41147</v>
       </c>
-      <c r="AA101" s="25">
+      <c r="AA107" s="25">
         <f t="shared" si="6"/>
         <v>41148</v>
       </c>
-      <c r="AB101" s="25">
+      <c r="AB107" s="25">
         <f t="shared" si="6"/>
         <v>41149</v>
       </c>
-      <c r="AC101" s="25">
+      <c r="AC107" s="25">
         <f t="shared" si="6"/>
         <v>41150</v>
       </c>
-      <c r="AD101" s="25">
+      <c r="AD107" s="25">
         <f t="shared" si="6"/>
         <v>41151</v>
       </c>
-      <c r="AE101" s="25">
+      <c r="AE107" s="25">
         <f t="shared" si="6"/>
         <v>41152</v>
       </c>
-      <c r="AF101" s="25">
+      <c r="AF107" s="25">
         <f t="shared" si="6"/>
         <v>41153</v>
       </c>
-      <c r="AG101" s="25">
+      <c r="AG107" s="25">
         <f t="shared" si="6"/>
         <v>41154</v>
       </c>
-      <c r="AH101" s="25">
+      <c r="AH107" s="25">
         <f t="shared" si="6"/>
         <v>41155</v>
       </c>
-      <c r="AI101" s="25">
+      <c r="AI107" s="25">
         <f t="shared" si="6"/>
         <v>41156</v>
       </c>
-      <c r="AJ101" s="25">
+      <c r="AJ107" s="25">
         <f t="shared" si="6"/>
         <v>41157</v>
       </c>
-      <c r="AK101" s="25">
+      <c r="AK107" s="25">
         <f t="shared" si="6"/>
         <v>41158</v>
       </c>
-      <c r="AL101" s="25">
+      <c r="AL107" s="25">
         <f t="shared" si="6"/>
         <v>41159</v>
       </c>
-      <c r="AM101" s="25">
+      <c r="AM107" s="25">
         <f t="shared" si="6"/>
         <v>41160</v>
       </c>
-      <c r="AN101" s="25">
+      <c r="AN107" s="25">
         <f t="shared" si="6"/>
         <v>41161</v>
       </c>
-      <c r="AO101" s="25">
+      <c r="AO107" s="25">
         <f t="shared" si="6"/>
         <v>41162</v>
       </c>
-      <c r="AP101" s="25">
+      <c r="AP107" s="25">
         <f t="shared" si="6"/>
         <v>41163</v>
       </c>
-      <c r="AQ101" s="25">
+      <c r="AQ107" s="25">
         <f t="shared" si="6"/>
         <v>41164</v>
       </c>
-      <c r="AR101" s="25">
+      <c r="AR107" s="25">
         <f t="shared" si="6"/>
         <v>41165</v>
       </c>
-      <c r="AS101" s="25">
+      <c r="AS107" s="25">
         <f t="shared" si="6"/>
         <v>41166</v>
       </c>
-      <c r="AT101" s="25">
+      <c r="AT107" s="25">
         <f t="shared" si="6"/>
         <v>41167</v>
       </c>
-      <c r="AU101" s="25">
+      <c r="AU107" s="25">
         <f t="shared" si="6"/>
         <v>41168</v>
       </c>
-      <c r="AV101" s="25">
+      <c r="AV107" s="25">
         <f t="shared" si="6"/>
         <v>41169</v>
       </c>
-      <c r="AW101" s="25">
+      <c r="AW107" s="25">
         <f t="shared" si="6"/>
         <v>41170</v>
       </c>
-      <c r="AX101" s="25">
+      <c r="AX107" s="25">
         <f t="shared" si="6"/>
         <v>41171</v>
       </c>
-      <c r="AY101" s="25">
+      <c r="AY107" s="25">
         <f t="shared" si="6"/>
         <v>41172</v>
       </c>
-      <c r="AZ101" s="25">
+      <c r="AZ107" s="25">
         <f t="shared" si="6"/>
         <v>41173</v>
       </c>
-      <c r="BA101" s="25">
+      <c r="BA107" s="25">
         <f t="shared" si="6"/>
         <v>41174</v>
       </c>
-      <c r="BB101" s="25">
+      <c r="BB107" s="25">
         <f t="shared" si="6"/>
         <v>41175</v>
       </c>
-      <c r="BC101" s="25">
+      <c r="BC107" s="25">
         <f t="shared" si="6"/>
         <v>41176</v>
       </c>
-      <c r="BD101" s="25">
+      <c r="BD107" s="25">
         <f t="shared" si="6"/>
         <v>41177</v>
       </c>
-      <c r="BE101" s="25">
+      <c r="BE107" s="25">
         <f t="shared" si="6"/>
         <v>41178</v>
       </c>
-      <c r="BF101" s="25">
+      <c r="BF107" s="25">
         <f t="shared" si="6"/>
         <v>41179</v>
       </c>
-      <c r="BG101" s="25"/>
-      <c r="BH101" s="25"/>
-      <c r="BI101" s="25"/>
-      <c r="BJ101" s="25"/>
-      <c r="BK101" s="25"/>
-      <c r="BL101" s="25"/>
-      <c r="BM101" s="25"/>
-      <c r="BN101" s="25"/>
-      <c r="BO101" s="25"/>
-      <c r="BP101" s="25"/>
-      <c r="BQ101" s="25"/>
-      <c r="BR101" s="25"/>
-      <c r="BS101" s="25"/>
-      <c r="BT101" s="25"/>
-      <c r="BU101" s="25"/>
-      <c r="BV101" s="25"/>
-      <c r="BW101" s="25"/>
-      <c r="BX101" s="25"/>
-      <c r="BY101" s="25"/>
-      <c r="BZ101" s="25"/>
-      <c r="CA101" s="25"/>
-      <c r="CB101" s="25"/>
-      <c r="CC101" s="25"/>
-      <c r="CD101" s="25"/>
-      <c r="CE101" s="25"/>
-      <c r="CF101" s="25"/>
-      <c r="CG101" s="25"/>
-      <c r="CH101" s="25"/>
-      <c r="CI101" s="25"/>
-      <c r="CJ101" s="25"/>
-      <c r="CK101" s="25"/>
-      <c r="CL101" s="25"/>
-      <c r="CM101" s="25"/>
-      <c r="CN101" s="25"/>
-      <c r="CO101" s="25"/>
-      <c r="CP101" s="25"/>
-      <c r="CQ101" s="25"/>
-      <c r="CR101" s="25"/>
-      <c r="CS101" s="25"/>
-      <c r="CT101" s="25"/>
-      <c r="CU101" s="25"/>
+      <c r="BG107" s="25"/>
+      <c r="BH107" s="25"/>
+      <c r="BI107" s="25"/>
+      <c r="BJ107" s="25"/>
+      <c r="BK107" s="25"/>
+      <c r="BL107" s="25"/>
+      <c r="BM107" s="25"/>
+      <c r="BN107" s="25"/>
+      <c r="BO107" s="25"/>
+      <c r="BP107" s="25"/>
+      <c r="BQ107" s="25"/>
+      <c r="BR107" s="25"/>
+      <c r="BS107" s="25"/>
+      <c r="BT107" s="25"/>
+      <c r="BU107" s="25"/>
+      <c r="BV107" s="25"/>
+      <c r="BW107" s="25"/>
+      <c r="BX107" s="25"/>
+      <c r="BY107" s="25"/>
+      <c r="BZ107" s="25"/>
+      <c r="CA107" s="25"/>
+      <c r="CB107" s="25"/>
+      <c r="CC107" s="25"/>
+      <c r="CD107" s="25"/>
+      <c r="CE107" s="25"/>
+      <c r="CF107" s="25"/>
+      <c r="CG107" s="25"/>
+      <c r="CH107" s="25"/>
+      <c r="CI107" s="25"/>
+      <c r="CJ107" s="25"/>
+      <c r="CK107" s="25"/>
+      <c r="CL107" s="25"/>
+      <c r="CM107" s="25"/>
+      <c r="CN107" s="25"/>
+      <c r="CO107" s="25"/>
+      <c r="CP107" s="25"/>
+      <c r="CQ107" s="25"/>
+      <c r="CR107" s="25"/>
+      <c r="CS107" s="25"/>
+      <c r="CT107" s="25"/>
+      <c r="CU107" s="25"/>
     </row>
   </sheetData>
-  <autoFilter ref="A19:BF97"/>
+  <autoFilter ref="A19:BF103"/>
   <sortState ref="C2:D16">
     <sortCondition ref="C2"/>
   </sortState>
-  <conditionalFormatting sqref="L98:AY98 L89:CU90 L85:CU87 L21:CU24 L26:CU33 L35:CU39 L41:BL54 BR41:CU54 BP41:BQ44 BO41:BO43 BM41:BN44 BM46:BQ54 L56:CU68 L92:CU94 L96:CU96 L70:CU83">
-    <cfRule type="cellIs" dxfId="18" priority="183" operator="equal">
+  <conditionalFormatting sqref="L104:AY104 L95:CU96 L91:CU93 L76:CU89 L32:CU39 L41:CU45 L47:BL60 BR47:CU60 BM52:BQ60 L62:CU74 L98:CU100 L102:CU102 BO47:BQ50 BM47:BN51 L21:CU30">
+    <cfRule type="cellIs" dxfId="20" priority="201" operator="equal">
       <formula>"-"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="17" priority="184" operator="equal">
+    <cfRule type="cellIs" dxfId="19" priority="202" operator="equal">
       <formula>"E"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="16" priority="185" operator="equal">
+    <cfRule type="cellIs" dxfId="18" priority="203" operator="equal">
       <formula>"B"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L89:CU90 L85:CU87 L21:CU24 L26:CU33 L35:CU39 L41:BL54 BR41:CU54 BP41:BQ44 BO41:BO43 BM41:BN44 BM46:BQ54 L56:CU68 L92:CU94 L96:CU96 L70:CU83">
-    <cfRule type="cellIs" dxfId="15" priority="182" operator="equal">
+  <conditionalFormatting sqref="L95:CU96 L91:CU93 L76:CU89 L32:CU39 L41:CU45 L47:BL60 BR47:CU60 BM52:BQ60 L62:CU74 L98:CU100 L102:CU102 BO47:BQ50 BM47:BN51 L21:CU30">
+    <cfRule type="cellIs" dxfId="17" priority="200" operator="equal">
       <formula>"BE"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J89 J21:J24 J26:J32 J41:J51 J56:J66 J71:J72 J96 J35:J38 J92:J93 J74:J82">
-    <cfRule type="cellIs" dxfId="14" priority="256" operator="equal">
+  <conditionalFormatting sqref="J95 J80:J88 J32:J38 J47:J57 J77:J78 J102 J41:J44 J62:J73 J98:J100 J21:J30">
+    <cfRule type="cellIs" dxfId="16" priority="274" operator="equal">
       <formula>$I$5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J35:J37 J21:J24 J26:J32 J89 J41:J51 J56:J66 J71:J72 J96 J92:J93 J74:J82">
-    <cfRule type="expression" dxfId="13" priority="263">
+  <conditionalFormatting sqref="J80:J88 J32:J38 J95 J47:J57 J77:J78 J102 J41:J44 J62:J73 J98:J100 J21:J28">
+    <cfRule type="expression" dxfId="15" priority="281">
       <formula>AND(J21&lt;&gt;$I$5,$I21&lt;TODAY())</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J38">
-    <cfRule type="expression" dxfId="12" priority="31">
-      <formula>AND(J38&lt;&gt;$I$5,$I38&lt;TODAY())</formula>
+  <conditionalFormatting sqref="J29:J30">
+    <cfRule type="expression" dxfId="14" priority="13">
+      <formula>AND(J29&lt;&gt;$I$5,$I29&lt;TODAY())</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BO44">
-    <cfRule type="cellIs" dxfId="11" priority="10" operator="equal">
-      <formula>"-"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="10" priority="11" operator="equal">
-      <formula>"E"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="9" priority="12" operator="equal">
-      <formula>"B"</formula>
+  <conditionalFormatting sqref="J30">
+    <cfRule type="expression" dxfId="13" priority="7">
+      <formula>AND(J30&lt;&gt;$I$5,$I30&lt;TODAY())</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BO44">
-    <cfRule type="cellIs" dxfId="8" priority="9" operator="equal">
-      <formula>"BE"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="BM45:BN45">
-    <cfRule type="cellIs" dxfId="7" priority="6" operator="equal">
-      <formula>"-"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="7" operator="equal">
-      <formula>"E"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="5" priority="8" operator="equal">
-      <formula>"B"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="BM45:BN45">
-    <cfRule type="cellIs" dxfId="4" priority="5" operator="equal">
-      <formula>"BE"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J67">
-    <cfRule type="cellIs" dxfId="3" priority="4" operator="equal">
-      <formula>$I$5</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J67">
-    <cfRule type="expression" dxfId="2" priority="3">
-      <formula>AND(J67&lt;&gt;$I$5,$I67&lt;TODAY())</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J94">
-    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
-      <formula>$I$5</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J94">
-    <cfRule type="expression" dxfId="0" priority="1">
-      <formula>AND(J94&lt;&gt;$I$5,$I94&lt;TODAY())</formula>
+  <conditionalFormatting sqref="J29">
+    <cfRule type="expression" dxfId="12" priority="1">
+      <formula>AND(J29&lt;&gt;$I$5,$I29&lt;TODAY())</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D35:F39 D41:F48 E49:F51 D50:D51 D56:D62 D26:F33 E95:E97 D64:D74 E56:E93 F55:F97 D77:D97">
-      <formula1>$C$2:$C$17</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J71:J72 J92:J96 J26:J32 J35:J38 J21:J24 J41:J51 J87:J90 J56:J67 J74:J82">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J77:J78 J62:J73 J98:J102 J32:J38 J41:J44 J80:J88 J47:J57 J93:J96 J21:J30">
       <formula1>$I$4:$I$14</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D20:E24">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E20:E24 D20:D30">
       <formula1>members</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I20:I24">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I20:I30">
       <formula1>$F$2:$F$6</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D41:F45 D47:F54 E55:F57 D56:D57 D62:D68 D32:F39 E101:E103 D70:D80 E62:E99 F61:F103 D83:D103">
+      <formula1>$C$2:$C$17</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>

--- a/trunk/Document/VietinBankSC Project Plan v2012.009.20.xlsx
+++ b/trunk/Document/VietinBankSC Project Plan v2012.009.20.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="502" uniqueCount="161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="504" uniqueCount="163">
   <si>
     <t>GVCM</t>
   </si>
@@ -353,9 +353,6 @@
     <t>Báo cáo lãi suất trái phiếu trong 1 khoảng thời gian</t>
   </si>
   <si>
-    <t>Báo cáo in sổ sở hữu</t>
-  </si>
-  <si>
     <t>Báo cáo chuyển nhượng</t>
   </si>
   <si>
@@ -519,6 +516,15 @@
   </si>
   <si>
     <t>17/10</t>
+  </si>
+  <si>
+    <t>Báo cáo danh sách người sở hữu trái phiếu theo yêu cầu</t>
+  </si>
+  <si>
+    <t>f658_Bao_Cao_Chot_Danh_Sach_Nguoi_So_Trai_Phieu_Theo_Yeu_Cau</t>
+  </si>
+  <si>
+    <t>Tên form</t>
   </si>
 </sst>
 </file>
@@ -680,7 +686,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -753,129 +759,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="63">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF0000CC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <gradientFill>
-          <stop position="0">
-            <color rgb="FF0000CC"/>
-          </stop>
-          <stop position="1">
-            <color rgb="FFFF0000"/>
-          </stop>
-        </gradientFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF0000CC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.14996795556505021"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF0000CC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <gradientFill>
-          <stop position="0">
-            <color rgb="FF0000CC"/>
-          </stop>
-          <stop position="1">
-            <color rgb="FFFF0000"/>
-          </stop>
-        </gradientFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF0000CC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.14996795556505021"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="9">
     <dxf>
       <fill>
         <patternFill>
@@ -894,419 +788,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF0000CC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <gradientFill>
-          <stop position="0">
-            <color rgb="FF0000CC"/>
-          </stop>
-          <stop position="1">
-            <color rgb="FFFF0000"/>
-          </stop>
-        </gradientFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF0000CC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.14996795556505021"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF0000CC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <gradientFill>
-          <stop position="0">
-            <color rgb="FF0000CC"/>
-          </stop>
-          <stop position="1">
-            <color rgb="FFFF0000"/>
-          </stop>
-        </gradientFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF0000CC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.14996795556505021"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF0000CC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <gradientFill>
-          <stop position="0">
-            <color rgb="FF0000CC"/>
-          </stop>
-          <stop position="1">
-            <color rgb="FFFF0000"/>
-          </stop>
-        </gradientFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF0000CC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.14996795556505021"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF0000CC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <gradientFill>
-          <stop position="0">
-            <color rgb="FF0000CC"/>
-          </stop>
-          <stop position="1">
-            <color rgb="FFFF0000"/>
-          </stop>
-        </gradientFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF0000CC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.14996795556505021"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF0000CC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <gradientFill>
-          <stop position="0">
-            <color rgb="FF0000CC"/>
-          </stop>
-          <stop position="1">
-            <color rgb="FFFF0000"/>
-          </stop>
-        </gradientFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF0000CC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.14996795556505021"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF0000CC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <gradientFill>
-          <stop position="0">
-            <color rgb="FF0000CC"/>
-          </stop>
-          <stop position="1">
-            <color rgb="FFFF0000"/>
-          </stop>
-        </gradientFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF0000CC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.14996795556505021"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF0000CC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <gradientFill>
-          <stop position="0">
-            <color rgb="FF0000CC"/>
-          </stop>
-          <stop position="1">
-            <color rgb="FFFF0000"/>
-          </stop>
-        </gradientFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF0000CC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.14996795556505021"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1998,10 +1479,10 @@
   </sheetPr>
   <dimension ref="A1:CU107"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A81" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <pane xSplit="5" topLeftCell="F1" activePane="topRight" state="frozen"/>
       <selection activeCell="A19" sqref="A19"/>
-      <selection pane="topRight" activeCell="F29" sqref="F29"/>
+      <selection pane="topRight" activeCell="B85" sqref="B85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2050,7 +1531,7 @@
     </row>
     <row r="3" spans="3:66" hidden="1">
       <c r="C3" s="27" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D3" s="35"/>
       <c r="E3" s="33"/>
@@ -3373,7 +2854,7 @@
     <row r="25" spans="2:99">
       <c r="B25" s="22"/>
       <c r="C25" s="29" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D25" s="22" t="s">
         <v>71</v>
@@ -3481,7 +2962,7 @@
     <row r="26" spans="2:99">
       <c r="B26" s="22"/>
       <c r="C26" s="29" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D26" s="22" t="s">
         <v>71</v>
@@ -3589,7 +3070,7 @@
     <row r="27" spans="2:99">
       <c r="B27" s="22"/>
       <c r="C27" s="29" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D27" s="22" t="s">
         <v>71</v>
@@ -3697,7 +3178,7 @@
     <row r="28" spans="2:99">
       <c r="B28" s="22"/>
       <c r="C28" s="29" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D28" s="22" t="s">
         <v>71</v>
@@ -3805,7 +3286,7 @@
     <row r="29" spans="2:99">
       <c r="B29" s="22"/>
       <c r="C29" s="29" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D29" s="22" t="s">
         <v>71</v>
@@ -3913,7 +3394,7 @@
     <row r="30" spans="2:99">
       <c r="B30" s="22"/>
       <c r="C30" s="29" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D30" s="22" t="s">
         <v>71</v>
@@ -3922,7 +3403,7 @@
         <v>59</v>
       </c>
       <c r="F30" s="22" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="G30" s="22"/>
       <c r="H30" s="23"/>
@@ -5605,13 +5086,13 @@
     <row r="46" spans="1:99" s="20" customFormat="1">
       <c r="B46" s="21"/>
       <c r="C46" s="30" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D46" s="21" t="s">
+        <v>129</v>
+      </c>
+      <c r="E46" s="21" t="s">
         <v>130</v>
-      </c>
-      <c r="E46" s="21" t="s">
-        <v>131</v>
       </c>
       <c r="F46" s="21" t="s">
         <v>57</v>
@@ -5716,7 +5197,7 @@
       </c>
       <c r="B47" s="22"/>
       <c r="C47" s="29" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D47" s="22"/>
       <c r="E47" s="22"/>
@@ -5823,7 +5304,7 @@
       </c>
       <c r="B48" s="22"/>
       <c r="C48" s="29" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D48" s="22"/>
       <c r="E48" s="22"/>
@@ -5930,7 +5411,7 @@
       </c>
       <c r="B49" s="22"/>
       <c r="C49" s="29" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D49" s="22"/>
       <c r="E49" s="22"/>
@@ -6107,10 +5588,10 @@
       <c r="BK50" s="1"/>
       <c r="BL50" s="1"/>
       <c r="BM50" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="BN50" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="BO50" s="1"/>
       <c r="BP50" s="1"/>
@@ -6152,7 +5633,7 @@
       </c>
       <c r="B51" s="22"/>
       <c r="C51" s="29" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D51" s="22" t="s">
         <v>61</v>
@@ -6222,10 +5703,10 @@
       <c r="BK51" s="1"/>
       <c r="BL51" s="1"/>
       <c r="BM51" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="BN51" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="BR51" s="1"/>
       <c r="BS51" s="1"/>
@@ -6264,7 +5745,7 @@
       </c>
       <c r="B52" s="22"/>
       <c r="C52" s="29" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D52" s="22" t="s">
         <v>84</v>
@@ -6334,19 +5815,19 @@
       <c r="BK52" s="1"/>
       <c r="BL52" s="1"/>
       <c r="BM52" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="BN52" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="BN52" s="1" t="s">
+      <c r="BO52" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="BP52" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="BQ52" s="1" t="s">
         <v>137</v>
-      </c>
-      <c r="BO52" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="BP52" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="BQ52" s="1" t="s">
-        <v>138</v>
       </c>
       <c r="BR52" s="1"/>
       <c r="BS52" s="1"/>
@@ -6566,19 +6047,19 @@
       <c r="BK54" s="1"/>
       <c r="BL54" s="1"/>
       <c r="BM54" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="BN54" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="BN54" s="1" t="s">
+      <c r="BO54" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="BP54" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="BQ54" s="1" t="s">
         <v>137</v>
-      </c>
-      <c r="BO54" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="BP54" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="BQ54" s="1" t="s">
-        <v>138</v>
       </c>
       <c r="BR54" s="1"/>
       <c r="BS54" s="1"/>
@@ -6617,7 +6098,7 @@
       </c>
       <c r="B55" s="22"/>
       <c r="C55" s="29" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D55" s="22"/>
       <c r="E55" s="22"/>
@@ -6724,7 +6205,7 @@
       </c>
       <c r="B56" s="22"/>
       <c r="C56" s="29" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D56" s="22"/>
       <c r="E56" s="22"/>
@@ -6831,7 +6312,7 @@
       </c>
       <c r="B57" s="22"/>
       <c r="C57" s="29" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D57" s="22"/>
       <c r="E57" s="22"/>
@@ -7235,7 +6716,7 @@
     <row r="61" spans="1:99" s="20" customFormat="1">
       <c r="B61" s="21"/>
       <c r="C61" s="30" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D61" s="21" t="s">
         <v>80</v>
@@ -7344,7 +6825,7 @@
       </c>
       <c r="B62" s="22"/>
       <c r="C62" s="29" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D62" s="22" t="s">
         <v>60</v>
@@ -7455,7 +6936,7 @@
       </c>
       <c r="B63" s="22"/>
       <c r="C63" s="29" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D63" s="22" t="s">
         <v>60</v>
@@ -7566,7 +7047,7 @@
       </c>
       <c r="B64" s="22"/>
       <c r="C64" s="29" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D64" s="22" t="s">
         <v>61</v>
@@ -7636,19 +7117,19 @@
       <c r="BK64" s="1"/>
       <c r="BL64" s="1"/>
       <c r="BM64" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="BN64" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="BN64" s="1" t="s">
+      <c r="BO64" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="BP64" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="BQ64" s="1" t="s">
         <v>137</v>
-      </c>
-      <c r="BO64" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="BP64" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="BQ64" s="1" t="s">
-        <v>138</v>
       </c>
       <c r="BR64" s="1"/>
       <c r="BS64" s="1"/>
@@ -7687,7 +7168,7 @@
       </c>
       <c r="B65" s="22"/>
       <c r="C65" s="29" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D65" s="22" t="s">
         <v>61</v>
@@ -7757,19 +7238,19 @@
       <c r="BK65" s="1"/>
       <c r="BL65" s="1"/>
       <c r="BM65" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="BN65" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="BN65" s="1" t="s">
+      <c r="BO65" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="BP65" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="BQ65" s="1" t="s">
         <v>137</v>
-      </c>
-      <c r="BO65" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="BP65" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="BQ65" s="1" t="s">
-        <v>138</v>
       </c>
       <c r="BR65" s="1"/>
       <c r="BS65" s="1"/>
@@ -7805,7 +7286,7 @@
     <row r="66" spans="1:99">
       <c r="B66" s="22"/>
       <c r="C66" s="29" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D66" s="22" t="s">
         <v>58</v>
@@ -7875,19 +7356,19 @@
       <c r="BK66" s="1"/>
       <c r="BL66" s="1"/>
       <c r="BM66" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="BN66" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="BN66" s="1" t="s">
+      <c r="BO66" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="BP66" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="BQ66" s="1" t="s">
         <v>137</v>
-      </c>
-      <c r="BO66" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="BP66" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="BQ66" s="1" t="s">
-        <v>138</v>
       </c>
       <c r="BR66" s="1"/>
       <c r="BS66" s="1"/>
@@ -7923,7 +7404,7 @@
     <row r="67" spans="1:99">
       <c r="B67" s="22"/>
       <c r="C67" s="29" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D67" s="22" t="s">
         <v>71</v>
@@ -7993,19 +7474,19 @@
       <c r="BK67" s="1"/>
       <c r="BL67" s="1"/>
       <c r="BM67" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="BN67" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="BN67" s="1" t="s">
+      <c r="BO67" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="BP67" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="BQ67" s="1" t="s">
         <v>137</v>
-      </c>
-      <c r="BO67" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="BP67" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="BQ67" s="1" t="s">
-        <v>138</v>
       </c>
       <c r="BR67" s="1"/>
       <c r="BS67" s="1"/>
@@ -8114,19 +7595,19 @@
       <c r="BK68" s="1"/>
       <c r="BL68" s="1"/>
       <c r="BM68" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="BN68" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="BN68" s="1" t="s">
+      <c r="BO68" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="BP68" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="BQ68" s="1" t="s">
         <v>137</v>
-      </c>
-      <c r="BO68" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="BP68" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="BQ68" s="1" t="s">
-        <v>138</v>
       </c>
       <c r="BR68" s="1"/>
       <c r="BS68" s="1"/>
@@ -8235,19 +7716,19 @@
       <c r="BK69" s="1"/>
       <c r="BL69" s="1"/>
       <c r="BM69" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="BN69" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="BN69" s="1" t="s">
+      <c r="BO69" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="BP69" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="BQ69" s="1" t="s">
         <v>137</v>
-      </c>
-      <c r="BO69" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="BP69" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="BQ69" s="1" t="s">
-        <v>138</v>
       </c>
       <c r="BR69" s="1"/>
       <c r="BS69" s="1"/>
@@ -8356,19 +7837,19 @@
       <c r="BK70" s="1"/>
       <c r="BL70" s="1"/>
       <c r="BM70" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="BN70" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="BN70" s="1" t="s">
+      <c r="BO70" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="BP70" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="BQ70" s="1" t="s">
         <v>137</v>
-      </c>
-      <c r="BO70" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="BP70" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="BQ70" s="1" t="s">
-        <v>138</v>
       </c>
       <c r="BR70" s="1"/>
       <c r="BS70" s="1"/>
@@ -8407,7 +7888,7 @@
       </c>
       <c r="B71" s="22"/>
       <c r="C71" s="29" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D71" s="22" t="s">
         <v>84</v>
@@ -8479,19 +7960,19 @@
       <c r="BK71" s="1"/>
       <c r="BL71" s="1"/>
       <c r="BM71" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="BN71" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="BN71" s="1" t="s">
+      <c r="BO71" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="BP71" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="BQ71" s="1" t="s">
         <v>137</v>
-      </c>
-      <c r="BO71" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="BP71" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="BQ71" s="1" t="s">
-        <v>138</v>
       </c>
       <c r="BR71" s="1"/>
       <c r="BS71" s="1"/>
@@ -8530,7 +8011,7 @@
       </c>
       <c r="B72" s="22"/>
       <c r="C72" s="29" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D72" s="22" t="s">
         <v>71</v>
@@ -8600,19 +8081,19 @@
       <c r="BK72" s="1"/>
       <c r="BL72" s="1"/>
       <c r="BM72" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="BN72" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="BN72" s="1" t="s">
+      <c r="BO72" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="BP72" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="BQ72" s="1" t="s">
         <v>137</v>
-      </c>
-      <c r="BO72" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="BP72" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="BQ72" s="1" t="s">
-        <v>138</v>
       </c>
       <c r="BR72" s="1"/>
       <c r="BS72" s="1"/>
@@ -8653,7 +8134,7 @@
         <v>260</v>
       </c>
       <c r="C73" s="29" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D73" s="22" t="s">
         <v>71</v>
@@ -8723,19 +8204,19 @@
       <c r="BK73" s="1"/>
       <c r="BL73" s="1"/>
       <c r="BM73" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="BN73" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="BN73" s="1" t="s">
+      <c r="BO73" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="BP73" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="BQ73" s="1" t="s">
         <v>137</v>
-      </c>
-      <c r="BO73" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="BP73" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="BQ73" s="1" t="s">
-        <v>138</v>
       </c>
       <c r="BR73" s="1"/>
       <c r="BS73" s="1"/>
@@ -8872,7 +8353,7 @@
       <c r="A75"/>
       <c r="B75" s="21"/>
       <c r="C75" s="30" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D75" s="21"/>
       <c r="E75" s="21"/>
@@ -8974,9 +8455,12 @@
       <c r="CU75" s="21"/>
     </row>
     <row r="76" spans="1:99">
-      <c r="B76" s="22"/>
+      <c r="A76" s="40" t="s">
+        <v>162</v>
+      </c>
+      <c r="B76" s="41"/>
       <c r="C76" s="38" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D76" s="22"/>
       <c r="E76" s="22"/>
@@ -9083,7 +8567,7 @@
         <v>651</v>
       </c>
       <c r="C77" s="29" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D77" s="22" t="s">
         <v>59</v>
@@ -9091,7 +8575,7 @@
       <c r="E77" s="22"/>
       <c r="F77" s="22"/>
       <c r="G77" s="37" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="H77" s="23"/>
       <c r="I77" s="23"/>
@@ -9153,19 +8637,19 @@
       <c r="BK77" s="1"/>
       <c r="BL77" s="1"/>
       <c r="BM77" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="BN77" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="BN77" s="1" t="s">
+      <c r="BO77" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="BP77" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="BQ77" s="1" t="s">
         <v>137</v>
-      </c>
-      <c r="BO77" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="BP77" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="BQ77" s="1" t="s">
-        <v>138</v>
       </c>
       <c r="BR77" s="1"/>
       <c r="BS77" s="1"/>
@@ -9211,7 +8695,7 @@
       <c r="E78" s="22"/>
       <c r="F78" s="22"/>
       <c r="G78" s="37" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="H78" s="23"/>
       <c r="I78" s="23"/>
@@ -9273,19 +8757,19 @@
       <c r="BK78" s="1"/>
       <c r="BL78" s="1"/>
       <c r="BM78" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="BN78" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="BN78" s="1" t="s">
+      <c r="BO78" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="BP78" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="BQ78" s="1" t="s">
         <v>137</v>
-      </c>
-      <c r="BO78" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="BP78" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="BQ78" s="1" t="s">
-        <v>138</v>
       </c>
       <c r="BR78" s="1"/>
       <c r="BS78" s="1"/>
@@ -9321,7 +8805,7 @@
     <row r="79" spans="1:99">
       <c r="B79" s="22"/>
       <c r="C79" s="38" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D79" s="22"/>
       <c r="E79" s="22"/>
@@ -9433,7 +8917,7 @@
       <c r="E80" s="22"/>
       <c r="F80" s="22"/>
       <c r="G80" s="22" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="H80" s="23"/>
       <c r="I80" s="23"/>
@@ -9495,19 +8979,19 @@
       <c r="BK80" s="1"/>
       <c r="BL80" s="1"/>
       <c r="BM80" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="BN80" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="BN80" s="1" t="s">
+      <c r="BO80" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="BP80" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="BQ80" s="1" t="s">
         <v>137</v>
-      </c>
-      <c r="BO80" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="BP80" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="BQ80" s="1" t="s">
-        <v>138</v>
       </c>
       <c r="BR80" s="1"/>
       <c r="BS80" s="1"/>
@@ -9553,7 +9037,7 @@
       <c r="E81" s="22"/>
       <c r="F81" s="22"/>
       <c r="G81" s="22" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="H81" s="23"/>
       <c r="I81" s="23"/>
@@ -9615,19 +9099,19 @@
       <c r="BK81" s="1"/>
       <c r="BL81" s="1"/>
       <c r="BM81" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="BN81" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="BN81" s="1" t="s">
+      <c r="BO81" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="BP81" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="BQ81" s="1" t="s">
         <v>137</v>
-      </c>
-      <c r="BO81" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="BP81" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="BQ81" s="1" t="s">
-        <v>138</v>
       </c>
       <c r="BR81" s="1"/>
       <c r="BS81" s="1"/>
@@ -9673,7 +9157,7 @@
       <c r="E82" s="22"/>
       <c r="F82" s="22"/>
       <c r="G82" s="22" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="H82" s="23"/>
       <c r="I82" s="23"/>
@@ -9735,19 +9219,19 @@
       <c r="BK82" s="1"/>
       <c r="BL82" s="1"/>
       <c r="BM82" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="BN82" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="BN82" s="1" t="s">
+      <c r="BO82" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="BP82" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="BQ82" s="1" t="s">
         <v>137</v>
-      </c>
-      <c r="BO82" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="BP82" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="BQ82" s="1" t="s">
-        <v>138</v>
       </c>
       <c r="BR82" s="1"/>
       <c r="BS82" s="1"/>
@@ -9793,7 +9277,7 @@
       <c r="E83" s="22"/>
       <c r="F83" s="22"/>
       <c r="G83" s="22" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="H83" s="23"/>
       <c r="I83" s="23"/>
@@ -9855,19 +9339,19 @@
       <c r="BK83" s="1"/>
       <c r="BL83" s="1"/>
       <c r="BM83" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="BN83" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="BN83" s="1" t="s">
+      <c r="BO83" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="BP83" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="BQ83" s="1" t="s">
         <v>137</v>
-      </c>
-      <c r="BO83" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="BP83" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="BQ83" s="1" t="s">
-        <v>138</v>
       </c>
       <c r="BR83" s="1"/>
       <c r="BS83" s="1"/>
@@ -9913,7 +9397,7 @@
       <c r="E84" s="22"/>
       <c r="F84" s="22"/>
       <c r="G84" s="22" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="H84" s="23"/>
       <c r="I84" s="23"/>
@@ -9975,19 +9459,19 @@
       <c r="BK84" s="1"/>
       <c r="BL84" s="1"/>
       <c r="BM84" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="BN84" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="BN84" s="1" t="s">
+      <c r="BO84" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="BP84" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="BQ84" s="1" t="s">
         <v>137</v>
-      </c>
-      <c r="BO84" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="BP84" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="BQ84" s="1" t="s">
-        <v>138</v>
       </c>
       <c r="BR84" s="1"/>
       <c r="BS84" s="1"/>
@@ -10025,14 +9509,16 @@
         <v>658</v>
       </c>
       <c r="C85" s="38" t="s">
-        <v>105</v>
+        <v>160</v>
       </c>
       <c r="D85" s="22" t="s">
         <v>71</v>
       </c>
       <c r="E85" s="22"/>
       <c r="F85" s="22"/>
-      <c r="G85" s="22"/>
+      <c r="G85" s="22" t="s">
+        <v>161</v>
+      </c>
       <c r="H85" s="23"/>
       <c r="I85" s="23"/>
       <c r="J85" s="23" t="s">
@@ -10093,19 +9579,19 @@
       <c r="BK85" s="1"/>
       <c r="BL85" s="1"/>
       <c r="BM85" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="BN85" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="BN85" s="1" t="s">
+      <c r="BO85" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="BP85" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="BQ85" s="1" t="s">
         <v>137</v>
-      </c>
-      <c r="BO85" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="BP85" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="BQ85" s="1" t="s">
-        <v>138</v>
       </c>
       <c r="BR85" s="1"/>
       <c r="BS85" s="1"/>
@@ -10146,7 +9632,7 @@
         <v>659</v>
       </c>
       <c r="C86" s="38" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D86" s="22" t="s">
         <v>71</v>
@@ -10154,7 +9640,7 @@
       <c r="E86" s="22"/>
       <c r="F86" s="22"/>
       <c r="G86" s="22" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="H86" s="23"/>
       <c r="I86" s="23"/>
@@ -10216,19 +9702,19 @@
       <c r="BK86" s="1"/>
       <c r="BL86" s="1"/>
       <c r="BM86" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="BN86" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="BN86" s="1" t="s">
+      <c r="BO86" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="BP86" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="BQ86" s="1" t="s">
         <v>137</v>
-      </c>
-      <c r="BO86" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="BP86" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="BQ86" s="1" t="s">
-        <v>138</v>
       </c>
       <c r="BR86" s="1"/>
       <c r="BS86" s="1"/>
@@ -10269,7 +9755,7 @@
         <v>660</v>
       </c>
       <c r="C87" s="38" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D87" s="22" t="s">
         <v>71</v>
@@ -10277,7 +9763,7 @@
       <c r="E87" s="22"/>
       <c r="F87" s="22"/>
       <c r="G87" s="22" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="H87" s="23"/>
       <c r="I87" s="23"/>
@@ -10339,19 +9825,19 @@
       <c r="BK87" s="1"/>
       <c r="BL87" s="1"/>
       <c r="BM87" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="BN87" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="BN87" s="1" t="s">
+      <c r="BO87" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="BP87" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="BQ87" s="1" t="s">
         <v>137</v>
-      </c>
-      <c r="BO87" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="BP87" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="BQ87" s="1" t="s">
-        <v>138</v>
       </c>
       <c r="BR87" s="1"/>
       <c r="BS87" s="1"/>
@@ -10392,7 +9878,7 @@
         <v>601</v>
       </c>
       <c r="C88" s="38" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D88" s="22" t="s">
         <v>81</v>
@@ -10400,7 +9886,7 @@
       <c r="E88" s="22"/>
       <c r="F88" s="22"/>
       <c r="G88" s="22" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="H88" s="23"/>
       <c r="I88" s="23"/>
@@ -10462,19 +9948,19 @@
       <c r="BK88" s="1"/>
       <c r="BL88" s="1"/>
       <c r="BM88" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="BN88" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="BN88" s="1" t="s">
+      <c r="BO88" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="BP88" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="BQ88" s="1" t="s">
         <v>137</v>
-      </c>
-      <c r="BO88" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="BP88" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="BQ88" s="1" t="s">
-        <v>138</v>
       </c>
       <c r="BR88" s="1"/>
       <c r="BS88" s="1"/>
@@ -10611,7 +10097,7 @@
       <c r="A90"/>
       <c r="B90" s="21"/>
       <c r="C90" s="30" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D90" s="21"/>
       <c r="E90" s="21"/>
@@ -10716,7 +10202,7 @@
       </c>
       <c r="B91" s="22"/>
       <c r="C91" s="37" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D91" s="22"/>
       <c r="E91" s="22"/>
@@ -10821,7 +10307,7 @@
       </c>
       <c r="B92" s="22"/>
       <c r="C92" s="37" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D92" s="22"/>
       <c r="E92" s="22"/>
@@ -11440,7 +10926,7 @@
     <row r="98" spans="1:99">
       <c r="B98" s="22"/>
       <c r="C98" s="29" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D98" s="22" t="s">
         <v>59</v>
@@ -11510,19 +10996,19 @@
       <c r="BK98" s="1"/>
       <c r="BL98" s="1"/>
       <c r="BM98" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="BN98" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="BN98" s="1" t="s">
+      <c r="BO98" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="BP98" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="BQ98" s="1" t="s">
         <v>137</v>
-      </c>
-      <c r="BO98" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="BP98" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="BQ98" s="1" t="s">
-        <v>138</v>
       </c>
       <c r="BR98" s="1"/>
       <c r="BS98" s="1"/>
@@ -11558,7 +11044,7 @@
     <row r="99" spans="1:99">
       <c r="B99" s="22"/>
       <c r="C99" s="29" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D99" s="22" t="s">
         <v>70</v>
@@ -11626,19 +11112,19 @@
       <c r="BK99" s="1"/>
       <c r="BL99" s="1"/>
       <c r="BM99" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="BN99" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="BN99" s="1" t="s">
+      <c r="BO99" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="BP99" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="BQ99" s="1" t="s">
         <v>137</v>
-      </c>
-      <c r="BO99" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="BP99" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="BQ99" s="1" t="s">
-        <v>138</v>
       </c>
       <c r="BR99" s="1"/>
       <c r="BS99" s="1"/>
@@ -11674,7 +11160,7 @@
     <row r="100" spans="1:99">
       <c r="B100" s="22"/>
       <c r="C100" s="29" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D100" s="22" t="s">
         <v>74</v>
@@ -11744,19 +11230,19 @@
       <c r="BK100" s="1"/>
       <c r="BL100" s="1"/>
       <c r="BM100" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="BN100" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="BN100" s="1" t="s">
+      <c r="BO100" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="BP100" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="BQ100" s="1" t="s">
         <v>137</v>
-      </c>
-      <c r="BO100" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="BP100" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="BQ100" s="1" t="s">
-        <v>138</v>
       </c>
       <c r="BR100" s="1"/>
       <c r="BS100" s="1"/>
@@ -11871,46 +11357,46 @@
       <c r="BK102" s="1"/>
       <c r="BL102" s="1"/>
       <c r="BM102" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="BN102" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="BN102" s="1" t="s">
+      <c r="BO102" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="BP102" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="BQ102" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="BR102" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="BS102" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="BT102" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="BU102" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="BV102" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="BW102" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="BX102" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="BY102" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="BZ102" s="1" t="s">
         <v>137</v>
-      </c>
-      <c r="BO102" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="BP102" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="BQ102" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="BR102" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="BS102" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="BT102" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="BU102" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="BV102" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="BW102" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="BX102" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="BY102" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="BZ102" s="1" t="s">
-        <v>138</v>
       </c>
       <c r="CA102" s="1"/>
       <c r="CB102" s="1"/>
@@ -12280,44 +11766,47 @@
   <sortState ref="C2:D16">
     <sortCondition ref="C2"/>
   </sortState>
+  <mergeCells count="1">
+    <mergeCell ref="A76:B76"/>
+  </mergeCells>
   <conditionalFormatting sqref="L104:AY104 L95:CU96 L91:CU93 L76:CU89 L32:CU39 L41:CU45 L47:BL60 BR47:CU60 BM52:BQ60 L62:CU74 L98:CU100 L102:CU102 BO47:BQ50 BM47:BN51 L21:CU30">
-    <cfRule type="cellIs" dxfId="20" priority="201" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="201" operator="equal">
       <formula>"-"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="19" priority="202" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="202" operator="equal">
       <formula>"E"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="18" priority="203" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="203" operator="equal">
       <formula>"B"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L95:CU96 L91:CU93 L76:CU89 L32:CU39 L41:CU45 L47:BL60 BR47:CU60 BM52:BQ60 L62:CU74 L98:CU100 L102:CU102 BO47:BQ50 BM47:BN51 L21:CU30">
-    <cfRule type="cellIs" dxfId="17" priority="200" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="200" operator="equal">
       <formula>"BE"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J95 J80:J88 J32:J38 J47:J57 J77:J78 J102 J41:J44 J62:J73 J98:J100 J21:J30">
-    <cfRule type="cellIs" dxfId="16" priority="274" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="274" operator="equal">
       <formula>$I$5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J80:J88 J32:J38 J95 J47:J57 J77:J78 J102 J41:J44 J62:J73 J98:J100 J21:J28">
-    <cfRule type="expression" dxfId="15" priority="281">
+    <cfRule type="expression" dxfId="3" priority="281">
       <formula>AND(J21&lt;&gt;$I$5,$I21&lt;TODAY())</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J29:J30">
-    <cfRule type="expression" dxfId="14" priority="13">
+    <cfRule type="expression" dxfId="2" priority="13">
       <formula>AND(J29&lt;&gt;$I$5,$I29&lt;TODAY())</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J30">
-    <cfRule type="expression" dxfId="13" priority="7">
+    <cfRule type="expression" dxfId="1" priority="7">
       <formula>AND(J30&lt;&gt;$I$5,$I30&lt;TODAY())</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J29">
-    <cfRule type="expression" dxfId="12" priority="1">
+    <cfRule type="expression" dxfId="0" priority="1">
       <formula>AND(J29&lt;&gt;$I$5,$I29&lt;TODAY())</formula>
     </cfRule>
   </conditionalFormatting>

--- a/trunk/Document/VietinBankSC Project Plan v2012.009.20.xlsx
+++ b/trunk/Document/VietinBankSC Project Plan v2012.009.20.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="504" uniqueCount="163">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="511" uniqueCount="164">
   <si>
     <t>GVCM</t>
   </si>
@@ -525,6 +525,9 @@
   </si>
   <si>
     <t>Tên form</t>
+  </si>
+  <si>
+    <t>?</t>
   </si>
 </sst>
 </file>
@@ -1479,10 +1482,10 @@
   </sheetPr>
   <dimension ref="A1:CU107"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A81" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A76" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <pane xSplit="5" topLeftCell="F1" activePane="topRight" state="frozen"/>
       <selection activeCell="A19" sqref="A19"/>
-      <selection pane="topRight" activeCell="B85" sqref="B85"/>
+      <selection pane="topRight" activeCell="D80" sqref="D80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -8683,6 +8686,9 @@
       <c r="CU77" s="1"/>
     </row>
     <row r="78" spans="1:99">
+      <c r="A78" t="s">
+        <v>10</v>
+      </c>
       <c r="B78" s="22">
         <v>652</v>
       </c>
@@ -8905,6 +8911,9 @@
       <c r="CU79" s="1"/>
     </row>
     <row r="80" spans="1:99">
+      <c r="A80" t="s">
+        <v>163</v>
+      </c>
       <c r="B80" s="22">
         <v>653</v>
       </c>
@@ -9025,6 +9034,9 @@
       <c r="CU80" s="1"/>
     </row>
     <row r="81" spans="1:99">
+      <c r="A81" t="s">
+        <v>163</v>
+      </c>
       <c r="B81" s="22">
         <v>654</v>
       </c>
@@ -9145,6 +9157,9 @@
       <c r="CU81" s="1"/>
     </row>
     <row r="82" spans="1:99">
+      <c r="A82" t="s">
+        <v>10</v>
+      </c>
       <c r="B82" s="22">
         <v>655</v>
       </c>
@@ -9265,6 +9280,9 @@
       <c r="CU82" s="1"/>
     </row>
     <row r="83" spans="1:99">
+      <c r="A83" t="s">
+        <v>163</v>
+      </c>
       <c r="B83" s="22">
         <v>656</v>
       </c>
@@ -9385,6 +9403,9 @@
       <c r="CU83" s="1"/>
     </row>
     <row r="84" spans="1:99">
+      <c r="A84" t="s">
+        <v>10</v>
+      </c>
       <c r="B84" s="22">
         <v>657</v>
       </c>
@@ -9505,6 +9526,9 @@
       <c r="CU84" s="1"/>
     </row>
     <row r="85" spans="1:99">
+      <c r="A85" t="s">
+        <v>163</v>
+      </c>
       <c r="B85" s="22">
         <v>658</v>
       </c>

--- a/trunk/Document/VietinBankSC Project Plan v2012.009.20.xlsx
+++ b/trunk/Document/VietinBankSC Project Plan v2012.009.20.xlsx
@@ -1485,7 +1485,7 @@
     <sheetView tabSelected="1" topLeftCell="A76" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <pane xSplit="5" topLeftCell="F1" activePane="topRight" state="frozen"/>
       <selection activeCell="A19" sqref="A19"/>
-      <selection pane="topRight" activeCell="D80" sqref="D80"/>
+      <selection pane="topRight" activeCell="A81" sqref="A81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -9044,7 +9044,7 @@
         <v>101</v>
       </c>
       <c r="D81" s="22" t="s">
-        <v>71</v>
+        <v>61</v>
       </c>
       <c r="E81" s="22"/>
       <c r="F81" s="22"/>
@@ -9290,7 +9290,7 @@
         <v>103</v>
       </c>
       <c r="D83" s="22" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="E83" s="22"/>
       <c r="F83" s="22"/>
@@ -9527,7 +9527,7 @@
     </row>
     <row r="85" spans="1:99">
       <c r="A85" t="s">
-        <v>163</v>
+        <v>10</v>
       </c>
       <c r="B85" s="22">
         <v>658</v>
@@ -9536,7 +9536,7 @@
         <v>160</v>
       </c>
       <c r="D85" s="22" t="s">
-        <v>71</v>
+        <v>61</v>
       </c>
       <c r="E85" s="22"/>
       <c r="F85" s="22"/>
@@ -11844,7 +11844,7 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I20:I30">
       <formula1>$F$2:$F$6</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D41:F45 D47:F54 E55:F57 D56:D57 D62:D68 D32:F39 E101:E103 D70:D80 E62:E99 F61:F103 D83:D103">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D41:F45 D47:F54 E55:F57 D56:D57 D62:D68 D32:F39 E101:E103 D83:D103 E62:E99 F61:F103 D70:D81">
       <formula1>$C$2:$C$17</formula1>
     </dataValidation>
   </dataValidations>

--- a/trunk/Document/VietinBankSC Project Plan v2012.009.20.xlsx
+++ b/trunk/Document/VietinBankSC Project Plan v2012.009.20.xlsx
@@ -1482,10 +1482,10 @@
   </sheetPr>
   <dimension ref="A1:CU107"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A76" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A75" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <pane xSplit="5" topLeftCell="F1" activePane="topRight" state="frozen"/>
       <selection activeCell="A19" sqref="A19"/>
-      <selection pane="topRight" activeCell="A81" sqref="A81"/>
+      <selection pane="topRight" activeCell="D83" sqref="D83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -5751,10 +5751,10 @@
         <v>119</v>
       </c>
       <c r="D52" s="22" t="s">
-        <v>84</v>
+        <v>59</v>
       </c>
       <c r="E52" s="22" t="s">
-        <v>84</v>
+        <v>59</v>
       </c>
       <c r="F52" s="22"/>
       <c r="G52" s="22"/>
@@ -5986,7 +5986,7 @@
         <v>81</v>
       </c>
       <c r="E54" s="22" t="s">
-        <v>84</v>
+        <v>60</v>
       </c>
       <c r="F54" s="22"/>
       <c r="G54" s="22"/>
@@ -11844,7 +11844,7 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I20:I30">
       <formula1>$F$2:$F$6</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D41:F45 D47:F54 E55:F57 D56:D57 D62:D68 D32:F39 E101:E103 D83:D103 E62:E99 F61:F103 D70:D81">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D41:F45 D70:D81 E55:F57 D56:D57 D62:D68 D32:F39 E101:E103 D83:D103 E62:E99 F61:F103 D47:F54">
       <formula1>$C$2:$C$17</formula1>
     </dataValidation>
   </dataValidations>

--- a/trunk/Document/VietinBankSC Project Plan v2012.009.20.xlsx
+++ b/trunk/Document/VietinBankSC Project Plan v2012.009.20.xlsx
@@ -1485,7 +1485,7 @@
     <sheetView tabSelected="1" topLeftCell="A75" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <pane xSplit="5" topLeftCell="F1" activePane="topRight" state="frozen"/>
       <selection activeCell="A19" sqref="A19"/>
-      <selection pane="topRight" activeCell="D83" sqref="D83"/>
+      <selection pane="topRight" activeCell="D81" sqref="D81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -9404,7 +9404,7 @@
     </row>
     <row r="84" spans="1:99">
       <c r="A84" t="s">
-        <v>10</v>
+        <v>163</v>
       </c>
       <c r="B84" s="22">
         <v>657</v>
@@ -9413,7 +9413,7 @@
         <v>104</v>
       </c>
       <c r="D84" s="22" t="s">
-        <v>71</v>
+        <v>58</v>
       </c>
       <c r="E84" s="22"/>
       <c r="F84" s="22"/>

--- a/trunk/Document/VietinBankSC Project Plan v2012.009.20.xlsx
+++ b/trunk/Document/VietinBankSC Project Plan v2012.009.20.xlsx
@@ -1482,10 +1482,10 @@
   </sheetPr>
   <dimension ref="A1:CU107"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A75" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A44" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <pane xSplit="5" topLeftCell="F1" activePane="topRight" state="frozen"/>
       <selection activeCell="A19" sqref="A19"/>
-      <selection pane="topRight" activeCell="D81" sqref="D81"/>
+      <selection pane="topRight" activeCell="E53" sqref="E53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -5754,7 +5754,7 @@
         <v>59</v>
       </c>
       <c r="E52" s="22" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F52" s="22"/>
       <c r="G52" s="22"/>

--- a/trunk/Document/VietinBankSC Project Plan v2012.009.20.xlsx
+++ b/trunk/Document/VietinBankSC Project Plan v2012.009.20.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="511" uniqueCount="164">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="511" uniqueCount="163">
   <si>
     <t>GVCM</t>
   </si>
@@ -525,9 +525,6 @@
   </si>
   <si>
     <t>Tên form</t>
-  </si>
-  <si>
-    <t>?</t>
   </si>
 </sst>
 </file>
@@ -1482,10 +1479,10 @@
   </sheetPr>
   <dimension ref="A1:CU107"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A44" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A76" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <pane xSplit="5" topLeftCell="F1" activePane="topRight" state="frozen"/>
       <selection activeCell="A19" sqref="A19"/>
-      <selection pane="topRight" activeCell="E53" sqref="E53"/>
+      <selection pane="topRight" activeCell="A77" sqref="A77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -8912,7 +8909,7 @@
     </row>
     <row r="80" spans="1:99">
       <c r="A80" t="s">
-        <v>163</v>
+        <v>10</v>
       </c>
       <c r="B80" s="22">
         <v>653</v>
@@ -9035,7 +9032,7 @@
     </row>
     <row r="81" spans="1:99">
       <c r="A81" t="s">
-        <v>163</v>
+        <v>10</v>
       </c>
       <c r="B81" s="22">
         <v>654</v>
@@ -9281,7 +9278,7 @@
     </row>
     <row r="83" spans="1:99">
       <c r="A83" t="s">
-        <v>163</v>
+        <v>10</v>
       </c>
       <c r="B83" s="22">
         <v>656</v>
@@ -9404,7 +9401,7 @@
     </row>
     <row r="84" spans="1:99">
       <c r="A84" t="s">
-        <v>163</v>
+        <v>10</v>
       </c>
       <c r="B84" s="22">
         <v>657</v>

--- a/trunk/Document/VietinBankSC Project Plan v2012.009.20.xlsx
+++ b/trunk/Document/VietinBankSC Project Plan v2012.009.20.xlsx
@@ -16,7 +16,7 @@
     <externalReference r:id="rId5"/>
   </externalReferences>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Plan!$A$19:$BF$103</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Plan!$A$19:$BF$106</definedName>
     <definedName name="members">'[1]Thành viên - Vị trí'!$C$3:$C$13</definedName>
   </definedNames>
   <calcPr calcId="124519"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="511" uniqueCount="163">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="518" uniqueCount="165">
   <si>
     <t>GVCM</t>
   </si>
@@ -525,6 +525,12 @@
   </si>
   <si>
     <t>Tên form</t>
+  </si>
+  <si>
+    <t>29/10</t>
+  </si>
+  <si>
+    <t>Lần 9</t>
   </si>
 </sst>
 </file>
@@ -686,7 +692,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -765,6 +771,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="16" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1477,12 +1484,12 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:CU107"/>
+  <dimension ref="A1:CU110"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A76" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <pane xSplit="5" topLeftCell="F1" activePane="topRight" state="frozen"/>
       <selection activeCell="A19" sqref="A19"/>
-      <selection pane="topRight" activeCell="A77" sqref="A77"/>
+      <selection pane="topRight" activeCell="B33" sqref="B33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1619,7 +1626,7 @@
         <v>58</v>
       </c>
       <c r="D10" s="16">
-        <f>SUMIF($D$20:$D$103,C10,$G$20:$G$103)</f>
+        <f>SUMIF($D$20:$D$106,C10,$G$20:$G$106)</f>
         <v>0</v>
       </c>
       <c r="E10" s="33"/>
@@ -1633,7 +1640,7 @@
         <v>61</v>
       </c>
       <c r="D11" s="16">
-        <f>SUMIF($D$20:$D$103,C11,$G$20:$G$103)</f>
+        <f>SUMIF($D$20:$D$106,C11,$G$20:$G$106)</f>
         <v>0</v>
       </c>
       <c r="E11" s="33"/>
@@ -1657,7 +1664,7 @@
         <v>59</v>
       </c>
       <c r="D13" s="16">
-        <f>SUMIF($D$20:$D$103,C13,$G$20:$G$103)</f>
+        <f>SUMIF($D$20:$D$106,C13,$G$20:$G$106)</f>
         <v>0</v>
       </c>
       <c r="E13" s="33"/>
@@ -1682,7 +1689,7 @@
         <v>57</v>
       </c>
       <c r="D15" s="16">
-        <f>SUMIF($D$20:$D$103,C15,$G$20:$G$103)</f>
+        <f>SUMIF($D$20:$D$106,C15,$G$20:$G$106)</f>
         <v>0</v>
       </c>
       <c r="E15" s="33"/>
@@ -1922,7 +1929,7 @@
         <v>81</v>
       </c>
       <c r="D17" s="16">
-        <f>SUMIF($D$20:$D$103,C17,$G$20:$G$103)</f>
+        <f>SUMIF($D$20:$D$106,C17,$G$20:$G$106)</f>
         <v>0</v>
       </c>
       <c r="E17" s="33"/>
@@ -3190,9 +3197,7 @@
       <c r="G28" s="22"/>
       <c r="H28" s="23"/>
       <c r="I28" s="23"/>
-      <c r="J28" s="23" t="s">
-        <v>40</v>
-      </c>
+      <c r="J28" s="23"/>
       <c r="K28" s="22"/>
       <c r="L28" s="1"/>
       <c r="M28" s="1"/>
@@ -3298,9 +3303,7 @@
       <c r="G29" s="22"/>
       <c r="H29" s="23"/>
       <c r="I29" s="23"/>
-      <c r="J29" s="23" t="s">
-        <v>40</v>
-      </c>
+      <c r="J29" s="23"/>
       <c r="K29" s="22"/>
       <c r="L29" s="1"/>
       <c r="M29" s="1"/>
@@ -3408,9 +3411,7 @@
       <c r="G30" s="22"/>
       <c r="H30" s="23"/>
       <c r="I30" s="23"/>
-      <c r="J30" s="23" t="s">
-        <v>40</v>
-      </c>
+      <c r="J30" s="23"/>
       <c r="K30" s="22"/>
       <c r="L30" s="1"/>
       <c r="M30" s="1"/>
@@ -3501,118 +3502,130 @@
       <c r="CT30" s="1"/>
       <c r="CU30" s="1"/>
     </row>
-    <row r="31" spans="2:99" s="20" customFormat="1">
-      <c r="B31" s="21"/>
-      <c r="C31" s="30" t="s">
-        <v>65</v>
-      </c>
-      <c r="D31" s="21"/>
-      <c r="E31" s="21"/>
-      <c r="F31" s="21"/>
-      <c r="G31" s="21"/>
-      <c r="H31" s="21"/>
-      <c r="I31" s="21"/>
-      <c r="J31" s="21"/>
-      <c r="K31" s="21"/>
-      <c r="L31" s="21"/>
-      <c r="M31" s="21"/>
-      <c r="N31" s="21"/>
-      <c r="O31" s="21"/>
-      <c r="P31" s="21"/>
-      <c r="Q31" s="21"/>
-      <c r="R31" s="21"/>
-      <c r="S31" s="21"/>
-      <c r="T31" s="21"/>
-      <c r="U31" s="21"/>
-      <c r="V31" s="21"/>
-      <c r="W31" s="21"/>
-      <c r="X31" s="21"/>
-      <c r="Y31" s="21"/>
-      <c r="Z31" s="21"/>
-      <c r="AA31" s="21"/>
-      <c r="AB31" s="21"/>
-      <c r="AC31" s="21"/>
-      <c r="AD31" s="21"/>
-      <c r="AE31" s="21"/>
-      <c r="AF31" s="21"/>
-      <c r="AG31" s="21"/>
-      <c r="AH31" s="21"/>
-      <c r="AI31" s="21"/>
-      <c r="AJ31" s="21"/>
-      <c r="AK31" s="21"/>
-      <c r="AL31" s="21"/>
-      <c r="AM31" s="21"/>
-      <c r="AN31" s="21"/>
-      <c r="AO31" s="21"/>
-      <c r="AP31" s="21"/>
-      <c r="AQ31" s="21"/>
-      <c r="AR31" s="21"/>
-      <c r="AS31" s="21"/>
-      <c r="AT31" s="21"/>
-      <c r="AU31" s="21"/>
-      <c r="AV31" s="21"/>
-      <c r="AW31" s="21"/>
-      <c r="AX31" s="21"/>
-      <c r="AY31" s="21"/>
-      <c r="AZ31" s="21"/>
-      <c r="BA31" s="21"/>
-      <c r="BB31" s="21"/>
-      <c r="BC31" s="21"/>
-      <c r="BD31" s="21"/>
-      <c r="BE31" s="21"/>
-      <c r="BF31" s="21"/>
-      <c r="BG31" s="21"/>
-      <c r="BH31" s="21"/>
-      <c r="BI31" s="21"/>
-      <c r="BJ31" s="21"/>
-      <c r="BK31" s="21"/>
-      <c r="BL31" s="21"/>
-      <c r="BM31" s="21"/>
-      <c r="BN31" s="21"/>
-      <c r="BO31" s="21"/>
-      <c r="BP31" s="21"/>
-      <c r="BQ31" s="21"/>
-      <c r="BR31" s="21"/>
-      <c r="BS31" s="21"/>
-      <c r="BT31" s="21"/>
-      <c r="BU31" s="21"/>
-      <c r="BV31" s="21"/>
-      <c r="BW31" s="21"/>
-      <c r="BX31" s="21"/>
-      <c r="BY31" s="21"/>
-      <c r="BZ31" s="21"/>
-      <c r="CA31" s="21"/>
-      <c r="CB31" s="21"/>
-      <c r="CC31" s="21"/>
-      <c r="CD31" s="21"/>
-      <c r="CE31" s="21"/>
-      <c r="CF31" s="21"/>
-      <c r="CG31" s="21"/>
-      <c r="CH31" s="21"/>
-      <c r="CI31" s="21"/>
-      <c r="CJ31" s="21"/>
-      <c r="CK31" s="21"/>
-      <c r="CL31" s="21"/>
-      <c r="CM31" s="21"/>
-      <c r="CN31" s="21"/>
-      <c r="CO31" s="21"/>
-      <c r="CP31" s="21"/>
-      <c r="CQ31" s="21"/>
-      <c r="CR31" s="21"/>
-      <c r="CS31" s="21"/>
-      <c r="CT31" s="21"/>
-      <c r="CU31" s="21"/>
+    <row r="31" spans="2:99">
+      <c r="B31" s="22"/>
+      <c r="C31" s="29" t="s">
+        <v>154</v>
+      </c>
+      <c r="D31" s="22" t="s">
+        <v>71</v>
+      </c>
+      <c r="E31" s="22" t="s">
+        <v>59</v>
+      </c>
+      <c r="F31" s="22" t="s">
+        <v>163</v>
+      </c>
+      <c r="G31" s="22"/>
+      <c r="H31" s="23"/>
+      <c r="I31" s="23"/>
+      <c r="J31" s="23" t="s">
+        <v>40</v>
+      </c>
+      <c r="K31" s="22"/>
+      <c r="L31" s="1"/>
+      <c r="M31" s="1"/>
+      <c r="N31" s="1"/>
+      <c r="O31" s="1"/>
+      <c r="P31" s="1"/>
+      <c r="Q31" s="1"/>
+      <c r="R31" s="1"/>
+      <c r="S31" s="1"/>
+      <c r="T31" s="1"/>
+      <c r="U31" s="1"/>
+      <c r="V31" s="1"/>
+      <c r="W31" s="1"/>
+      <c r="X31" s="1"/>
+      <c r="Y31" s="1"/>
+      <c r="Z31" s="1"/>
+      <c r="AA31" s="1"/>
+      <c r="AB31" s="1"/>
+      <c r="AC31" s="1"/>
+      <c r="AD31" s="1"/>
+      <c r="AE31" s="1"/>
+      <c r="AF31" s="1"/>
+      <c r="AG31" s="1"/>
+      <c r="AH31" s="1"/>
+      <c r="AI31" s="1"/>
+      <c r="AJ31" s="1"/>
+      <c r="AK31" s="1"/>
+      <c r="AL31" s="1"/>
+      <c r="AM31" s="1"/>
+      <c r="AN31" s="1"/>
+      <c r="AO31" s="1"/>
+      <c r="AP31" s="1"/>
+      <c r="AQ31" s="1"/>
+      <c r="AR31" s="1"/>
+      <c r="AS31" s="1"/>
+      <c r="AT31" s="1"/>
+      <c r="AU31" s="1"/>
+      <c r="AV31" s="1"/>
+      <c r="AW31" s="1"/>
+      <c r="AX31" s="1"/>
+      <c r="AY31" s="1"/>
+      <c r="AZ31" s="1"/>
+      <c r="BA31" s="1"/>
+      <c r="BB31" s="1"/>
+      <c r="BC31" s="1"/>
+      <c r="BD31" s="1"/>
+      <c r="BE31" s="1"/>
+      <c r="BF31" s="1"/>
+      <c r="BG31" s="1"/>
+      <c r="BH31" s="1"/>
+      <c r="BI31" s="1"/>
+      <c r="BJ31" s="1"/>
+      <c r="BK31" s="1"/>
+      <c r="BL31" s="1"/>
+      <c r="BM31" s="1"/>
+      <c r="BN31" s="1"/>
+      <c r="BO31" s="1"/>
+      <c r="BP31" s="1"/>
+      <c r="BQ31" s="1"/>
+      <c r="BR31" s="1"/>
+      <c r="BS31" s="1"/>
+      <c r="BT31" s="1"/>
+      <c r="BU31" s="1"/>
+      <c r="BV31" s="1"/>
+      <c r="BW31" s="1"/>
+      <c r="BX31" s="1"/>
+      <c r="BY31" s="1"/>
+      <c r="BZ31" s="1"/>
+      <c r="CA31" s="1"/>
+      <c r="CB31" s="1"/>
+      <c r="CC31" s="1"/>
+      <c r="CD31" s="1"/>
+      <c r="CE31" s="1"/>
+      <c r="CF31" s="1"/>
+      <c r="CG31" s="1"/>
+      <c r="CH31" s="1"/>
+      <c r="CI31" s="1"/>
+      <c r="CJ31" s="1"/>
+      <c r="CK31" s="1"/>
+      <c r="CL31" s="1"/>
+      <c r="CM31" s="1"/>
+      <c r="CN31" s="1"/>
+      <c r="CO31" s="1"/>
+      <c r="CP31" s="1"/>
+      <c r="CQ31" s="1"/>
+      <c r="CR31" s="1"/>
+      <c r="CS31" s="1"/>
+      <c r="CT31" s="1"/>
+      <c r="CU31" s="1"/>
     </row>
     <row r="32" spans="2:99">
       <c r="B32" s="22"/>
       <c r="C32" s="29" t="s">
-        <v>66</v>
+        <v>164</v>
       </c>
       <c r="D32" s="22" t="s">
-        <v>67</v>
-      </c>
-      <c r="E32" s="22"/>
-      <c r="F32" s="22"/>
+        <v>71</v>
+      </c>
+      <c r="E32" s="22" t="s">
+        <v>59</v>
+      </c>
+      <c r="F32" s="42">
+        <v>41218</v>
+      </c>
       <c r="G32" s="22"/>
       <c r="H32" s="23"/>
       <c r="I32" s="23"/>
@@ -3709,17 +3722,11 @@
       <c r="CT32" s="1"/>
       <c r="CU32" s="1"/>
     </row>
-    <row r="33" spans="1:99">
+    <row r="33" spans="2:99">
       <c r="B33" s="22"/>
-      <c r="C33" s="29" t="s">
-        <v>68</v>
-      </c>
-      <c r="D33" s="22" t="s">
-        <v>70</v>
-      </c>
-      <c r="E33" s="22" t="s">
-        <v>71</v>
-      </c>
+      <c r="C33" s="29"/>
+      <c r="D33" s="22"/>
+      <c r="E33" s="22"/>
       <c r="F33" s="22"/>
       <c r="G33" s="22"/>
       <c r="H33" s="23"/>
@@ -3817,128 +3824,118 @@
       <c r="CT33" s="1"/>
       <c r="CU33" s="1"/>
     </row>
-    <row r="34" spans="1:99">
-      <c r="B34" s="22"/>
-      <c r="C34" s="29" t="s">
-        <v>69</v>
-      </c>
-      <c r="D34" s="22" t="s">
-        <v>59</v>
-      </c>
-      <c r="E34" s="22" t="s">
-        <v>67</v>
-      </c>
-      <c r="F34" s="22"/>
-      <c r="G34" s="22"/>
-      <c r="H34" s="23"/>
-      <c r="I34" s="23"/>
-      <c r="J34" s="23" t="s">
-        <v>40</v>
-      </c>
-      <c r="K34" s="22"/>
-      <c r="L34" s="1"/>
-      <c r="M34" s="1"/>
-      <c r="N34" s="1"/>
-      <c r="O34" s="1"/>
-      <c r="P34" s="1"/>
-      <c r="Q34" s="1"/>
-      <c r="R34" s="1"/>
-      <c r="S34" s="1"/>
-      <c r="T34" s="1"/>
-      <c r="U34" s="1"/>
-      <c r="V34" s="1"/>
-      <c r="W34" s="1"/>
-      <c r="X34" s="1"/>
-      <c r="Y34" s="1"/>
-      <c r="Z34" s="1"/>
-      <c r="AA34" s="1"/>
-      <c r="AB34" s="1"/>
-      <c r="AC34" s="1"/>
-      <c r="AD34" s="1"/>
-      <c r="AE34" s="1"/>
-      <c r="AF34" s="1"/>
-      <c r="AG34" s="1"/>
-      <c r="AH34" s="1"/>
-      <c r="AI34" s="1"/>
-      <c r="AJ34" s="1"/>
-      <c r="AK34" s="1"/>
-      <c r="AL34" s="1"/>
-      <c r="AM34" s="1"/>
-      <c r="AN34" s="1"/>
-      <c r="AO34" s="1"/>
-      <c r="AP34" s="1"/>
-      <c r="AQ34" s="1"/>
-      <c r="AR34" s="1"/>
-      <c r="AS34" s="1"/>
-      <c r="AT34" s="1"/>
-      <c r="AU34" s="1"/>
-      <c r="AV34" s="1"/>
-      <c r="AW34" s="1"/>
-      <c r="AX34" s="1"/>
-      <c r="AY34" s="1"/>
-      <c r="AZ34" s="1"/>
-      <c r="BA34" s="1"/>
-      <c r="BB34" s="1"/>
-      <c r="BC34" s="1"/>
-      <c r="BD34" s="1"/>
-      <c r="BE34" s="1"/>
-      <c r="BF34" s="1"/>
-      <c r="BG34" s="1"/>
-      <c r="BH34" s="1"/>
-      <c r="BI34" s="1"/>
-      <c r="BJ34" s="1"/>
-      <c r="BK34" s="1"/>
-      <c r="BL34" s="1"/>
-      <c r="BM34" s="1"/>
-      <c r="BN34" s="1"/>
-      <c r="BO34" s="1"/>
-      <c r="BP34" s="1"/>
-      <c r="BQ34" s="1"/>
-      <c r="BR34" s="1"/>
-      <c r="BS34" s="1"/>
-      <c r="BT34" s="1"/>
-      <c r="BU34" s="1"/>
-      <c r="BV34" s="1"/>
-      <c r="BW34" s="1"/>
-      <c r="BX34" s="1"/>
-      <c r="BY34" s="1"/>
-      <c r="BZ34" s="1"/>
-      <c r="CA34" s="1"/>
-      <c r="CB34" s="1"/>
-      <c r="CC34" s="1"/>
-      <c r="CD34" s="1"/>
-      <c r="CE34" s="1"/>
-      <c r="CF34" s="1"/>
-      <c r="CG34" s="1"/>
-      <c r="CH34" s="1"/>
-      <c r="CI34" s="1"/>
-      <c r="CJ34" s="1"/>
-      <c r="CK34" s="1"/>
-      <c r="CL34" s="1"/>
-      <c r="CM34" s="1"/>
-      <c r="CN34" s="1"/>
-      <c r="CO34" s="1"/>
-      <c r="CP34" s="1"/>
-      <c r="CQ34" s="1"/>
-      <c r="CR34" s="1"/>
-      <c r="CS34" s="1"/>
-      <c r="CT34" s="1"/>
-      <c r="CU34" s="1"/>
-    </row>
-    <row r="35" spans="1:99">
+    <row r="34" spans="2:99" s="20" customFormat="1">
+      <c r="B34" s="21"/>
+      <c r="C34" s="30" t="s">
+        <v>65</v>
+      </c>
+      <c r="D34" s="21"/>
+      <c r="E34" s="21"/>
+      <c r="F34" s="21"/>
+      <c r="G34" s="21"/>
+      <c r="H34" s="21"/>
+      <c r="I34" s="21"/>
+      <c r="J34" s="21"/>
+      <c r="K34" s="21"/>
+      <c r="L34" s="21"/>
+      <c r="M34" s="21"/>
+      <c r="N34" s="21"/>
+      <c r="O34" s="21"/>
+      <c r="P34" s="21"/>
+      <c r="Q34" s="21"/>
+      <c r="R34" s="21"/>
+      <c r="S34" s="21"/>
+      <c r="T34" s="21"/>
+      <c r="U34" s="21"/>
+      <c r="V34" s="21"/>
+      <c r="W34" s="21"/>
+      <c r="X34" s="21"/>
+      <c r="Y34" s="21"/>
+      <c r="Z34" s="21"/>
+      <c r="AA34" s="21"/>
+      <c r="AB34" s="21"/>
+      <c r="AC34" s="21"/>
+      <c r="AD34" s="21"/>
+      <c r="AE34" s="21"/>
+      <c r="AF34" s="21"/>
+      <c r="AG34" s="21"/>
+      <c r="AH34" s="21"/>
+      <c r="AI34" s="21"/>
+      <c r="AJ34" s="21"/>
+      <c r="AK34" s="21"/>
+      <c r="AL34" s="21"/>
+      <c r="AM34" s="21"/>
+      <c r="AN34" s="21"/>
+      <c r="AO34" s="21"/>
+      <c r="AP34" s="21"/>
+      <c r="AQ34" s="21"/>
+      <c r="AR34" s="21"/>
+      <c r="AS34" s="21"/>
+      <c r="AT34" s="21"/>
+      <c r="AU34" s="21"/>
+      <c r="AV34" s="21"/>
+      <c r="AW34" s="21"/>
+      <c r="AX34" s="21"/>
+      <c r="AY34" s="21"/>
+      <c r="AZ34" s="21"/>
+      <c r="BA34" s="21"/>
+      <c r="BB34" s="21"/>
+      <c r="BC34" s="21"/>
+      <c r="BD34" s="21"/>
+      <c r="BE34" s="21"/>
+      <c r="BF34" s="21"/>
+      <c r="BG34" s="21"/>
+      <c r="BH34" s="21"/>
+      <c r="BI34" s="21"/>
+      <c r="BJ34" s="21"/>
+      <c r="BK34" s="21"/>
+      <c r="BL34" s="21"/>
+      <c r="BM34" s="21"/>
+      <c r="BN34" s="21"/>
+      <c r="BO34" s="21"/>
+      <c r="BP34" s="21"/>
+      <c r="BQ34" s="21"/>
+      <c r="BR34" s="21"/>
+      <c r="BS34" s="21"/>
+      <c r="BT34" s="21"/>
+      <c r="BU34" s="21"/>
+      <c r="BV34" s="21"/>
+      <c r="BW34" s="21"/>
+      <c r="BX34" s="21"/>
+      <c r="BY34" s="21"/>
+      <c r="BZ34" s="21"/>
+      <c r="CA34" s="21"/>
+      <c r="CB34" s="21"/>
+      <c r="CC34" s="21"/>
+      <c r="CD34" s="21"/>
+      <c r="CE34" s="21"/>
+      <c r="CF34" s="21"/>
+      <c r="CG34" s="21"/>
+      <c r="CH34" s="21"/>
+      <c r="CI34" s="21"/>
+      <c r="CJ34" s="21"/>
+      <c r="CK34" s="21"/>
+      <c r="CL34" s="21"/>
+      <c r="CM34" s="21"/>
+      <c r="CN34" s="21"/>
+      <c r="CO34" s="21"/>
+      <c r="CP34" s="21"/>
+      <c r="CQ34" s="21"/>
+      <c r="CR34" s="21"/>
+      <c r="CS34" s="21"/>
+      <c r="CT34" s="21"/>
+      <c r="CU34" s="21"/>
+    </row>
+    <row r="35" spans="2:99">
       <c r="B35" s="22"/>
       <c r="C35" s="29" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="D35" s="22" t="s">
         <v>67</v>
       </c>
-      <c r="E35" s="22" t="s">
-        <v>58</v>
-      </c>
-      <c r="F35" s="22" t="s">
-        <v>59</v>
-      </c>
+      <c r="E35" s="22"/>
+      <c r="F35" s="22"/>
       <c r="G35" s="22"/>
       <c r="H35" s="23"/>
       <c r="I35" s="23"/>
@@ -4035,15 +4032,17 @@
       <c r="CT35" s="1"/>
       <c r="CU35" s="1"/>
     </row>
-    <row r="36" spans="1:99">
+    <row r="36" spans="2:99">
       <c r="B36" s="22"/>
       <c r="C36" s="29" t="s">
-        <v>96</v>
+        <v>68</v>
       </c>
       <c r="D36" s="22" t="s">
-        <v>58</v>
-      </c>
-      <c r="E36" s="22"/>
+        <v>70</v>
+      </c>
+      <c r="E36" s="22" t="s">
+        <v>71</v>
+      </c>
       <c r="F36" s="22"/>
       <c r="G36" s="22"/>
       <c r="H36" s="23"/>
@@ -4141,15 +4140,17 @@
       <c r="CT36" s="1"/>
       <c r="CU36" s="1"/>
     </row>
-    <row r="37" spans="1:99">
+    <row r="37" spans="2:99">
       <c r="B37" s="22"/>
       <c r="C37" s="29" t="s">
-        <v>97</v>
+        <v>69</v>
       </c>
       <c r="D37" s="22" t="s">
         <v>59</v>
       </c>
-      <c r="E37" s="22"/>
+      <c r="E37" s="22" t="s">
+        <v>67</v>
+      </c>
       <c r="F37" s="22"/>
       <c r="G37" s="22"/>
       <c r="H37" s="23"/>
@@ -4247,18 +4248,20 @@
       <c r="CT37" s="1"/>
       <c r="CU37" s="1"/>
     </row>
-    <row r="38" spans="1:99">
+    <row r="38" spans="2:99">
       <c r="B38" s="22"/>
       <c r="C38" s="29" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D38" s="22" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="E38" s="22" t="s">
-        <v>75</v>
-      </c>
-      <c r="F38" s="22"/>
+        <v>58</v>
+      </c>
+      <c r="F38" s="22" t="s">
+        <v>59</v>
+      </c>
       <c r="G38" s="22"/>
       <c r="H38" s="23"/>
       <c r="I38" s="23"/>
@@ -4355,16 +4358,22 @@
       <c r="CT38" s="1"/>
       <c r="CU38" s="1"/>
     </row>
-    <row r="39" spans="1:99">
+    <row r="39" spans="2:99">
       <c r="B39" s="22"/>
-      <c r="C39" s="29"/>
-      <c r="D39" s="29"/>
+      <c r="C39" s="29" t="s">
+        <v>96</v>
+      </c>
+      <c r="D39" s="22" t="s">
+        <v>58</v>
+      </c>
       <c r="E39" s="22"/>
       <c r="F39" s="22"/>
       <c r="G39" s="22"/>
       <c r="H39" s="23"/>
       <c r="I39" s="23"/>
-      <c r="J39" s="23"/>
+      <c r="J39" s="23" t="s">
+        <v>40</v>
+      </c>
       <c r="K39" s="22"/>
       <c r="L39" s="1"/>
       <c r="M39" s="1"/>
@@ -4455,118 +4464,122 @@
       <c r="CT39" s="1"/>
       <c r="CU39" s="1"/>
     </row>
-    <row r="40" spans="1:99" s="20" customFormat="1">
-      <c r="B40" s="21"/>
-      <c r="C40" s="30" t="s">
-        <v>49</v>
-      </c>
-      <c r="D40" s="21"/>
-      <c r="E40" s="21"/>
-      <c r="F40" s="21"/>
-      <c r="G40" s="21"/>
-      <c r="H40" s="21"/>
-      <c r="I40" s="21"/>
-      <c r="J40" s="21"/>
-      <c r="K40" s="21"/>
-      <c r="L40" s="21"/>
-      <c r="M40" s="21"/>
-      <c r="N40" s="21"/>
-      <c r="O40" s="21"/>
-      <c r="P40" s="21"/>
-      <c r="Q40" s="21"/>
-      <c r="R40" s="21"/>
-      <c r="S40" s="21"/>
-      <c r="T40" s="21"/>
-      <c r="U40" s="21"/>
-      <c r="V40" s="21"/>
-      <c r="W40" s="21"/>
-      <c r="X40" s="21"/>
-      <c r="Y40" s="21"/>
-      <c r="Z40" s="21"/>
-      <c r="AA40" s="21"/>
-      <c r="AB40" s="21"/>
-      <c r="AC40" s="21"/>
-      <c r="AD40" s="21"/>
-      <c r="AE40" s="21"/>
-      <c r="AF40" s="21"/>
-      <c r="AG40" s="21"/>
-      <c r="AH40" s="21"/>
-      <c r="AI40" s="21"/>
-      <c r="AJ40" s="21"/>
-      <c r="AK40" s="21"/>
-      <c r="AL40" s="21"/>
-      <c r="AM40" s="21"/>
-      <c r="AN40" s="21"/>
-      <c r="AO40" s="21"/>
-      <c r="AP40" s="21"/>
-      <c r="AQ40" s="21"/>
-      <c r="AR40" s="21"/>
-      <c r="AS40" s="21"/>
-      <c r="AT40" s="21"/>
-      <c r="AU40" s="21"/>
-      <c r="AV40" s="21"/>
-      <c r="AW40" s="21"/>
-      <c r="AX40" s="21"/>
-      <c r="AY40" s="21"/>
-      <c r="AZ40" s="21"/>
-      <c r="BA40" s="21"/>
-      <c r="BB40" s="21"/>
-      <c r="BC40" s="21"/>
-      <c r="BD40" s="21"/>
-      <c r="BE40" s="21"/>
-      <c r="BF40" s="21"/>
-      <c r="BG40" s="21"/>
-      <c r="BH40" s="21"/>
-      <c r="BI40" s="21"/>
-      <c r="BJ40" s="21"/>
-      <c r="BK40" s="21"/>
-      <c r="BL40" s="21"/>
-      <c r="BM40" s="21"/>
-      <c r="BN40" s="21"/>
-      <c r="BO40" s="21"/>
-      <c r="BP40" s="21"/>
-      <c r="BQ40" s="21"/>
-      <c r="BR40" s="21"/>
-      <c r="BS40" s="21"/>
-      <c r="BT40" s="21"/>
-      <c r="BU40" s="21"/>
-      <c r="BV40" s="21"/>
-      <c r="BW40" s="21"/>
-      <c r="BX40" s="21"/>
-      <c r="BY40" s="21"/>
-      <c r="BZ40" s="21"/>
-      <c r="CA40" s="21"/>
-      <c r="CB40" s="21"/>
-      <c r="CC40" s="21"/>
-      <c r="CD40" s="21"/>
-      <c r="CE40" s="21"/>
-      <c r="CF40" s="21"/>
-      <c r="CG40" s="21"/>
-      <c r="CH40" s="21"/>
-      <c r="CI40" s="21"/>
-      <c r="CJ40" s="21"/>
-      <c r="CK40" s="21"/>
-      <c r="CL40" s="21"/>
-      <c r="CM40" s="21"/>
-      <c r="CN40" s="21"/>
-      <c r="CO40" s="21"/>
-      <c r="CP40" s="21"/>
-      <c r="CQ40" s="21"/>
-      <c r="CR40" s="21"/>
-      <c r="CS40" s="21"/>
-      <c r="CT40" s="21"/>
-      <c r="CU40" s="21"/>
-    </row>
-    <row r="41" spans="1:99">
+    <row r="40" spans="2:99">
+      <c r="B40" s="22"/>
+      <c r="C40" s="29" t="s">
+        <v>97</v>
+      </c>
+      <c r="D40" s="22" t="s">
+        <v>59</v>
+      </c>
+      <c r="E40" s="22"/>
+      <c r="F40" s="22"/>
+      <c r="G40" s="22"/>
+      <c r="H40" s="23"/>
+      <c r="I40" s="23"/>
+      <c r="J40" s="23" t="s">
+        <v>40</v>
+      </c>
+      <c r="K40" s="22"/>
+      <c r="L40" s="1"/>
+      <c r="M40" s="1"/>
+      <c r="N40" s="1"/>
+      <c r="O40" s="1"/>
+      <c r="P40" s="1"/>
+      <c r="Q40" s="1"/>
+      <c r="R40" s="1"/>
+      <c r="S40" s="1"/>
+      <c r="T40" s="1"/>
+      <c r="U40" s="1"/>
+      <c r="V40" s="1"/>
+      <c r="W40" s="1"/>
+      <c r="X40" s="1"/>
+      <c r="Y40" s="1"/>
+      <c r="Z40" s="1"/>
+      <c r="AA40" s="1"/>
+      <c r="AB40" s="1"/>
+      <c r="AC40" s="1"/>
+      <c r="AD40" s="1"/>
+      <c r="AE40" s="1"/>
+      <c r="AF40" s="1"/>
+      <c r="AG40" s="1"/>
+      <c r="AH40" s="1"/>
+      <c r="AI40" s="1"/>
+      <c r="AJ40" s="1"/>
+      <c r="AK40" s="1"/>
+      <c r="AL40" s="1"/>
+      <c r="AM40" s="1"/>
+      <c r="AN40" s="1"/>
+      <c r="AO40" s="1"/>
+      <c r="AP40" s="1"/>
+      <c r="AQ40" s="1"/>
+      <c r="AR40" s="1"/>
+      <c r="AS40" s="1"/>
+      <c r="AT40" s="1"/>
+      <c r="AU40" s="1"/>
+      <c r="AV40" s="1"/>
+      <c r="AW40" s="1"/>
+      <c r="AX40" s="1"/>
+      <c r="AY40" s="1"/>
+      <c r="AZ40" s="1"/>
+      <c r="BA40" s="1"/>
+      <c r="BB40" s="1"/>
+      <c r="BC40" s="1"/>
+      <c r="BD40" s="1"/>
+      <c r="BE40" s="1"/>
+      <c r="BF40" s="1"/>
+      <c r="BG40" s="1"/>
+      <c r="BH40" s="1"/>
+      <c r="BI40" s="1"/>
+      <c r="BJ40" s="1"/>
+      <c r="BK40" s="1"/>
+      <c r="BL40" s="1"/>
+      <c r="BM40" s="1"/>
+      <c r="BN40" s="1"/>
+      <c r="BO40" s="1"/>
+      <c r="BP40" s="1"/>
+      <c r="BQ40" s="1"/>
+      <c r="BR40" s="1"/>
+      <c r="BS40" s="1"/>
+      <c r="BT40" s="1"/>
+      <c r="BU40" s="1"/>
+      <c r="BV40" s="1"/>
+      <c r="BW40" s="1"/>
+      <c r="BX40" s="1"/>
+      <c r="BY40" s="1"/>
+      <c r="BZ40" s="1"/>
+      <c r="CA40" s="1"/>
+      <c r="CB40" s="1"/>
+      <c r="CC40" s="1"/>
+      <c r="CD40" s="1"/>
+      <c r="CE40" s="1"/>
+      <c r="CF40" s="1"/>
+      <c r="CG40" s="1"/>
+      <c r="CH40" s="1"/>
+      <c r="CI40" s="1"/>
+      <c r="CJ40" s="1"/>
+      <c r="CK40" s="1"/>
+      <c r="CL40" s="1"/>
+      <c r="CM40" s="1"/>
+      <c r="CN40" s="1"/>
+      <c r="CO40" s="1"/>
+      <c r="CP40" s="1"/>
+      <c r="CQ40" s="1"/>
+      <c r="CR40" s="1"/>
+      <c r="CS40" s="1"/>
+      <c r="CT40" s="1"/>
+      <c r="CU40" s="1"/>
+    </row>
+    <row r="41" spans="2:99">
       <c r="B41" s="22"/>
       <c r="C41" s="29" t="s">
-        <v>56</v>
+        <v>73</v>
       </c>
       <c r="D41" s="22" t="s">
-        <v>58</v>
+        <v>74</v>
       </c>
       <c r="E41" s="22" t="s">
-        <v>59</v>
+        <v>75</v>
       </c>
       <c r="F41" s="22"/>
       <c r="G41" s="22"/>
@@ -4665,22 +4678,16 @@
       <c r="CT41" s="1"/>
       <c r="CU41" s="1"/>
     </row>
-    <row r="42" spans="1:99">
+    <row r="42" spans="2:99">
       <c r="B42" s="22"/>
-      <c r="C42" s="29" t="s">
-        <v>50</v>
-      </c>
-      <c r="D42" s="22" t="s">
-        <v>58</v>
-      </c>
+      <c r="C42" s="29"/>
+      <c r="D42" s="29"/>
       <c r="E42" s="22"/>
       <c r="F42" s="22"/>
       <c r="G42" s="22"/>
       <c r="H42" s="23"/>
       <c r="I42" s="23"/>
-      <c r="J42" s="23" t="s">
-        <v>40</v>
-      </c>
+      <c r="J42" s="23"/>
       <c r="K42" s="22"/>
       <c r="L42" s="1"/>
       <c r="M42" s="1"/>
@@ -4771,121 +4778,119 @@
       <c r="CT42" s="1"/>
       <c r="CU42" s="1"/>
     </row>
-    <row r="43" spans="1:99">
-      <c r="B43" s="22"/>
-      <c r="C43" s="29" t="s">
-        <v>51</v>
-      </c>
-      <c r="D43" s="22" t="s">
-        <v>58</v>
-      </c>
-      <c r="E43" s="22"/>
-      <c r="F43" s="22"/>
-      <c r="G43" s="22"/>
-      <c r="H43" s="23"/>
-      <c r="I43" s="23"/>
-      <c r="J43" s="23" t="s">
-        <v>40</v>
-      </c>
-      <c r="K43" s="22"/>
-      <c r="L43" s="1"/>
-      <c r="M43" s="1"/>
-      <c r="N43" s="1"/>
-      <c r="O43" s="1"/>
-      <c r="P43" s="1"/>
-      <c r="Q43" s="1"/>
-      <c r="R43" s="1"/>
-      <c r="S43" s="1"/>
-      <c r="T43" s="1"/>
-      <c r="U43" s="1"/>
-      <c r="V43" s="1"/>
-      <c r="W43" s="1"/>
-      <c r="X43" s="1"/>
-      <c r="Y43" s="1"/>
-      <c r="Z43" s="1"/>
-      <c r="AA43" s="1"/>
-      <c r="AB43" s="1"/>
-      <c r="AC43" s="1"/>
-      <c r="AD43" s="1"/>
-      <c r="AE43" s="1"/>
-      <c r="AF43" s="1"/>
-      <c r="AG43" s="1"/>
-      <c r="AH43" s="1"/>
-      <c r="AI43" s="1"/>
-      <c r="AJ43" s="1"/>
-      <c r="AK43" s="1"/>
-      <c r="AL43" s="1"/>
-      <c r="AM43" s="1"/>
-      <c r="AN43" s="1"/>
-      <c r="AO43" s="1"/>
-      <c r="AP43" s="1"/>
-      <c r="AQ43" s="1"/>
-      <c r="AR43" s="1"/>
-      <c r="AS43" s="1"/>
-      <c r="AT43" s="1"/>
-      <c r="AU43" s="1"/>
-      <c r="AV43" s="1"/>
-      <c r="AW43" s="1"/>
-      <c r="AX43" s="1"/>
-      <c r="AY43" s="1"/>
-      <c r="AZ43" s="1"/>
-      <c r="BA43" s="1"/>
-      <c r="BB43" s="1"/>
-      <c r="BC43" s="1"/>
-      <c r="BD43" s="1"/>
-      <c r="BE43" s="1"/>
-      <c r="BF43" s="1"/>
-      <c r="BG43" s="1"/>
-      <c r="BH43" s="1"/>
-      <c r="BI43" s="1"/>
-      <c r="BJ43" s="1"/>
-      <c r="BK43" s="1"/>
-      <c r="BL43" s="1"/>
-      <c r="BM43" s="1"/>
-      <c r="BN43" s="1"/>
-      <c r="BO43" s="1"/>
-      <c r="BP43" s="1"/>
-      <c r="BQ43" s="1"/>
-      <c r="BR43" s="1"/>
-      <c r="BS43" s="1"/>
-      <c r="BT43" s="1"/>
-      <c r="BU43" s="1"/>
-      <c r="BV43" s="1"/>
-      <c r="BW43" s="1"/>
-      <c r="BX43" s="1"/>
-      <c r="BY43" s="1"/>
-      <c r="BZ43" s="1"/>
-      <c r="CA43" s="1"/>
-      <c r="CB43" s="1"/>
-      <c r="CC43" s="1"/>
-      <c r="CD43" s="1"/>
-      <c r="CE43" s="1"/>
-      <c r="CF43" s="1"/>
-      <c r="CG43" s="1"/>
-      <c r="CH43" s="1"/>
-      <c r="CI43" s="1"/>
-      <c r="CJ43" s="1"/>
-      <c r="CK43" s="1"/>
-      <c r="CL43" s="1"/>
-      <c r="CM43" s="1"/>
-      <c r="CN43" s="1"/>
-      <c r="CO43" s="1"/>
-      <c r="CP43" s="1"/>
-      <c r="CQ43" s="1"/>
-      <c r="CR43" s="1"/>
-      <c r="CS43" s="1"/>
-      <c r="CT43" s="1"/>
-      <c r="CU43" s="1"/>
-    </row>
-    <row r="44" spans="1:99">
+    <row r="43" spans="2:99" s="20" customFormat="1">
+      <c r="B43" s="21"/>
+      <c r="C43" s="30" t="s">
+        <v>49</v>
+      </c>
+      <c r="D43" s="21"/>
+      <c r="E43" s="21"/>
+      <c r="F43" s="21"/>
+      <c r="G43" s="21"/>
+      <c r="H43" s="21"/>
+      <c r="I43" s="21"/>
+      <c r="J43" s="21"/>
+      <c r="K43" s="21"/>
+      <c r="L43" s="21"/>
+      <c r="M43" s="21"/>
+      <c r="N43" s="21"/>
+      <c r="O43" s="21"/>
+      <c r="P43" s="21"/>
+      <c r="Q43" s="21"/>
+      <c r="R43" s="21"/>
+      <c r="S43" s="21"/>
+      <c r="T43" s="21"/>
+      <c r="U43" s="21"/>
+      <c r="V43" s="21"/>
+      <c r="W43" s="21"/>
+      <c r="X43" s="21"/>
+      <c r="Y43" s="21"/>
+      <c r="Z43" s="21"/>
+      <c r="AA43" s="21"/>
+      <c r="AB43" s="21"/>
+      <c r="AC43" s="21"/>
+      <c r="AD43" s="21"/>
+      <c r="AE43" s="21"/>
+      <c r="AF43" s="21"/>
+      <c r="AG43" s="21"/>
+      <c r="AH43" s="21"/>
+      <c r="AI43" s="21"/>
+      <c r="AJ43" s="21"/>
+      <c r="AK43" s="21"/>
+      <c r="AL43" s="21"/>
+      <c r="AM43" s="21"/>
+      <c r="AN43" s="21"/>
+      <c r="AO43" s="21"/>
+      <c r="AP43" s="21"/>
+      <c r="AQ43" s="21"/>
+      <c r="AR43" s="21"/>
+      <c r="AS43" s="21"/>
+      <c r="AT43" s="21"/>
+      <c r="AU43" s="21"/>
+      <c r="AV43" s="21"/>
+      <c r="AW43" s="21"/>
+      <c r="AX43" s="21"/>
+      <c r="AY43" s="21"/>
+      <c r="AZ43" s="21"/>
+      <c r="BA43" s="21"/>
+      <c r="BB43" s="21"/>
+      <c r="BC43" s="21"/>
+      <c r="BD43" s="21"/>
+      <c r="BE43" s="21"/>
+      <c r="BF43" s="21"/>
+      <c r="BG43" s="21"/>
+      <c r="BH43" s="21"/>
+      <c r="BI43" s="21"/>
+      <c r="BJ43" s="21"/>
+      <c r="BK43" s="21"/>
+      <c r="BL43" s="21"/>
+      <c r="BM43" s="21"/>
+      <c r="BN43" s="21"/>
+      <c r="BO43" s="21"/>
+      <c r="BP43" s="21"/>
+      <c r="BQ43" s="21"/>
+      <c r="BR43" s="21"/>
+      <c r="BS43" s="21"/>
+      <c r="BT43" s="21"/>
+      <c r="BU43" s="21"/>
+      <c r="BV43" s="21"/>
+      <c r="BW43" s="21"/>
+      <c r="BX43" s="21"/>
+      <c r="BY43" s="21"/>
+      <c r="BZ43" s="21"/>
+      <c r="CA43" s="21"/>
+      <c r="CB43" s="21"/>
+      <c r="CC43" s="21"/>
+      <c r="CD43" s="21"/>
+      <c r="CE43" s="21"/>
+      <c r="CF43" s="21"/>
+      <c r="CG43" s="21"/>
+      <c r="CH43" s="21"/>
+      <c r="CI43" s="21"/>
+      <c r="CJ43" s="21"/>
+      <c r="CK43" s="21"/>
+      <c r="CL43" s="21"/>
+      <c r="CM43" s="21"/>
+      <c r="CN43" s="21"/>
+      <c r="CO43" s="21"/>
+      <c r="CP43" s="21"/>
+      <c r="CQ43" s="21"/>
+      <c r="CR43" s="21"/>
+      <c r="CS43" s="21"/>
+      <c r="CT43" s="21"/>
+      <c r="CU43" s="21"/>
+    </row>
+    <row r="44" spans="2:99">
       <c r="B44" s="22"/>
       <c r="C44" s="29" t="s">
-        <v>98</v>
-      </c>
-      <c r="D44" s="29" t="s">
+        <v>56</v>
+      </c>
+      <c r="D44" s="22" t="s">
         <v>58</v>
       </c>
-      <c r="E44" s="22"/>
+      <c r="E44" s="22" t="s">
+        <v>59</v>
+      </c>
       <c r="F44" s="22"/>
       <c r="G44" s="22"/>
       <c r="H44" s="23"/>
@@ -4983,16 +4988,22 @@
       <c r="CT44" s="1"/>
       <c r="CU44" s="1"/>
     </row>
-    <row r="45" spans="1:99">
+    <row r="45" spans="2:99">
       <c r="B45" s="22"/>
-      <c r="C45" s="29"/>
-      <c r="D45" s="22"/>
+      <c r="C45" s="29" t="s">
+        <v>50</v>
+      </c>
+      <c r="D45" s="22" t="s">
+        <v>58</v>
+      </c>
       <c r="E45" s="22"/>
       <c r="F45" s="22"/>
       <c r="G45" s="22"/>
       <c r="H45" s="23"/>
       <c r="I45" s="23"/>
-      <c r="J45" s="23"/>
+      <c r="J45" s="23" t="s">
+        <v>40</v>
+      </c>
       <c r="K45" s="22"/>
       <c r="L45" s="1"/>
       <c r="M45" s="1"/>
@@ -5083,123 +5094,120 @@
       <c r="CT45" s="1"/>
       <c r="CU45" s="1"/>
     </row>
-    <row r="46" spans="1:99" s="20" customFormat="1">
-      <c r="B46" s="21"/>
-      <c r="C46" s="30" t="s">
-        <v>132</v>
-      </c>
-      <c r="D46" s="21" t="s">
-        <v>129</v>
-      </c>
-      <c r="E46" s="21" t="s">
-        <v>130</v>
-      </c>
-      <c r="F46" s="21" t="s">
-        <v>57</v>
-      </c>
-      <c r="G46" s="21"/>
-      <c r="H46" s="21"/>
-      <c r="I46" s="21"/>
-      <c r="J46" s="21"/>
-      <c r="K46" s="21"/>
-      <c r="L46" s="21"/>
-      <c r="M46" s="21"/>
-      <c r="N46" s="21"/>
-      <c r="O46" s="21"/>
-      <c r="P46" s="21"/>
-      <c r="Q46" s="21"/>
-      <c r="R46" s="21"/>
-      <c r="S46" s="21"/>
-      <c r="T46" s="21"/>
-      <c r="U46" s="21"/>
-      <c r="V46" s="21"/>
-      <c r="W46" s="21"/>
-      <c r="X46" s="21"/>
-      <c r="Y46" s="21"/>
-      <c r="Z46" s="21"/>
-      <c r="AA46" s="21"/>
-      <c r="AB46" s="21"/>
-      <c r="AC46" s="21"/>
-      <c r="AD46" s="21"/>
-      <c r="AE46" s="21"/>
-      <c r="AF46" s="21"/>
-      <c r="AG46" s="21"/>
-      <c r="AH46" s="21"/>
-      <c r="AI46" s="21"/>
-      <c r="AJ46" s="21"/>
-      <c r="AK46" s="21"/>
-      <c r="AL46" s="21"/>
-      <c r="AM46" s="21"/>
-      <c r="AN46" s="21"/>
-      <c r="AO46" s="21"/>
-      <c r="AP46" s="21"/>
-      <c r="AQ46" s="21"/>
-      <c r="AR46" s="21"/>
-      <c r="AS46" s="21"/>
-      <c r="AT46" s="21"/>
-      <c r="AU46" s="21"/>
-      <c r="AV46" s="21"/>
-      <c r="AW46" s="21"/>
-      <c r="AX46" s="21"/>
-      <c r="AY46" s="21"/>
-      <c r="AZ46" s="21"/>
-      <c r="BA46" s="21"/>
-      <c r="BB46" s="21"/>
-      <c r="BC46" s="21"/>
-      <c r="BD46" s="21"/>
-      <c r="BE46" s="21"/>
-      <c r="BF46" s="21"/>
-      <c r="BG46" s="21"/>
-      <c r="BH46" s="21"/>
-      <c r="BI46" s="21"/>
-      <c r="BJ46" s="21"/>
-      <c r="BK46" s="21"/>
-      <c r="BL46" s="21"/>
-      <c r="BM46" s="21"/>
-      <c r="BN46" s="21"/>
-      <c r="BO46" s="21"/>
-      <c r="BP46" s="21"/>
-      <c r="BQ46" s="21"/>
-      <c r="BR46" s="21"/>
-      <c r="BS46" s="21"/>
-      <c r="BT46" s="21"/>
-      <c r="BU46" s="21"/>
-      <c r="BV46" s="21"/>
-      <c r="BW46" s="21"/>
-      <c r="BX46" s="21"/>
-      <c r="BY46" s="21"/>
-      <c r="BZ46" s="21"/>
-      <c r="CA46" s="21"/>
-      <c r="CB46" s="21"/>
-      <c r="CC46" s="21"/>
-      <c r="CD46" s="21"/>
-      <c r="CE46" s="21"/>
-      <c r="CF46" s="21"/>
-      <c r="CG46" s="21"/>
-      <c r="CH46" s="21"/>
-      <c r="CI46" s="21"/>
-      <c r="CJ46" s="21"/>
-      <c r="CK46" s="21"/>
-      <c r="CL46" s="21"/>
-      <c r="CM46" s="21"/>
-      <c r="CN46" s="21"/>
-      <c r="CO46" s="21"/>
-      <c r="CP46" s="21"/>
-      <c r="CQ46" s="21"/>
-      <c r="CR46" s="21"/>
-      <c r="CS46" s="21"/>
-      <c r="CT46" s="21"/>
-      <c r="CU46" s="21"/>
-    </row>
-    <row r="47" spans="1:99">
-      <c r="A47" t="s">
-        <v>10</v>
-      </c>
+    <row r="46" spans="2:99">
+      <c r="B46" s="22"/>
+      <c r="C46" s="29" t="s">
+        <v>51</v>
+      </c>
+      <c r="D46" s="22" t="s">
+        <v>58</v>
+      </c>
+      <c r="E46" s="22"/>
+      <c r="F46" s="22"/>
+      <c r="G46" s="22"/>
+      <c r="H46" s="23"/>
+      <c r="I46" s="23"/>
+      <c r="J46" s="23" t="s">
+        <v>40</v>
+      </c>
+      <c r="K46" s="22"/>
+      <c r="L46" s="1"/>
+      <c r="M46" s="1"/>
+      <c r="N46" s="1"/>
+      <c r="O46" s="1"/>
+      <c r="P46" s="1"/>
+      <c r="Q46" s="1"/>
+      <c r="R46" s="1"/>
+      <c r="S46" s="1"/>
+      <c r="T46" s="1"/>
+      <c r="U46" s="1"/>
+      <c r="V46" s="1"/>
+      <c r="W46" s="1"/>
+      <c r="X46" s="1"/>
+      <c r="Y46" s="1"/>
+      <c r="Z46" s="1"/>
+      <c r="AA46" s="1"/>
+      <c r="AB46" s="1"/>
+      <c r="AC46" s="1"/>
+      <c r="AD46" s="1"/>
+      <c r="AE46" s="1"/>
+      <c r="AF46" s="1"/>
+      <c r="AG46" s="1"/>
+      <c r="AH46" s="1"/>
+      <c r="AI46" s="1"/>
+      <c r="AJ46" s="1"/>
+      <c r="AK46" s="1"/>
+      <c r="AL46" s="1"/>
+      <c r="AM46" s="1"/>
+      <c r="AN46" s="1"/>
+      <c r="AO46" s="1"/>
+      <c r="AP46" s="1"/>
+      <c r="AQ46" s="1"/>
+      <c r="AR46" s="1"/>
+      <c r="AS46" s="1"/>
+      <c r="AT46" s="1"/>
+      <c r="AU46" s="1"/>
+      <c r="AV46" s="1"/>
+      <c r="AW46" s="1"/>
+      <c r="AX46" s="1"/>
+      <c r="AY46" s="1"/>
+      <c r="AZ46" s="1"/>
+      <c r="BA46" s="1"/>
+      <c r="BB46" s="1"/>
+      <c r="BC46" s="1"/>
+      <c r="BD46" s="1"/>
+      <c r="BE46" s="1"/>
+      <c r="BF46" s="1"/>
+      <c r="BG46" s="1"/>
+      <c r="BH46" s="1"/>
+      <c r="BI46" s="1"/>
+      <c r="BJ46" s="1"/>
+      <c r="BK46" s="1"/>
+      <c r="BL46" s="1"/>
+      <c r="BM46" s="1"/>
+      <c r="BN46" s="1"/>
+      <c r="BO46" s="1"/>
+      <c r="BP46" s="1"/>
+      <c r="BQ46" s="1"/>
+      <c r="BR46" s="1"/>
+      <c r="BS46" s="1"/>
+      <c r="BT46" s="1"/>
+      <c r="BU46" s="1"/>
+      <c r="BV46" s="1"/>
+      <c r="BW46" s="1"/>
+      <c r="BX46" s="1"/>
+      <c r="BY46" s="1"/>
+      <c r="BZ46" s="1"/>
+      <c r="CA46" s="1"/>
+      <c r="CB46" s="1"/>
+      <c r="CC46" s="1"/>
+      <c r="CD46" s="1"/>
+      <c r="CE46" s="1"/>
+      <c r="CF46" s="1"/>
+      <c r="CG46" s="1"/>
+      <c r="CH46" s="1"/>
+      <c r="CI46" s="1"/>
+      <c r="CJ46" s="1"/>
+      <c r="CK46" s="1"/>
+      <c r="CL46" s="1"/>
+      <c r="CM46" s="1"/>
+      <c r="CN46" s="1"/>
+      <c r="CO46" s="1"/>
+      <c r="CP46" s="1"/>
+      <c r="CQ46" s="1"/>
+      <c r="CR46" s="1"/>
+      <c r="CS46" s="1"/>
+      <c r="CT46" s="1"/>
+      <c r="CU46" s="1"/>
+    </row>
+    <row r="47" spans="2:99">
       <c r="B47" s="22"/>
       <c r="C47" s="29" t="s">
-        <v>113</v>
-      </c>
-      <c r="D47" s="22"/>
+        <v>98</v>
+      </c>
+      <c r="D47" s="29" t="s">
+        <v>58</v>
+      </c>
       <c r="E47" s="22"/>
       <c r="F47" s="22"/>
       <c r="G47" s="22"/>
@@ -5298,23 +5306,16 @@
       <c r="CT47" s="1"/>
       <c r="CU47" s="1"/>
     </row>
-    <row r="48" spans="1:99">
-      <c r="A48" t="s">
-        <v>10</v>
-      </c>
+    <row r="48" spans="2:99">
       <c r="B48" s="22"/>
-      <c r="C48" s="29" t="s">
-        <v>114</v>
-      </c>
+      <c r="C48" s="29"/>
       <c r="D48" s="22"/>
       <c r="E48" s="22"/>
       <c r="F48" s="22"/>
       <c r="G48" s="22"/>
       <c r="H48" s="23"/>
       <c r="I48" s="23"/>
-      <c r="J48" s="23" t="s">
-        <v>40</v>
-      </c>
+      <c r="J48" s="23"/>
       <c r="K48" s="22"/>
       <c r="L48" s="1"/>
       <c r="M48" s="1"/>
@@ -5405,112 +5406,113 @@
       <c r="CT48" s="1"/>
       <c r="CU48" s="1"/>
     </row>
-    <row r="49" spans="1:99">
-      <c r="A49" t="s">
-        <v>10</v>
-      </c>
-      <c r="B49" s="22"/>
-      <c r="C49" s="29" t="s">
-        <v>115</v>
-      </c>
-      <c r="D49" s="22"/>
-      <c r="E49" s="22"/>
-      <c r="F49" s="22"/>
-      <c r="G49" s="22"/>
-      <c r="H49" s="23"/>
-      <c r="I49" s="23"/>
-      <c r="J49" s="23" t="s">
-        <v>40</v>
-      </c>
-      <c r="K49" s="22"/>
-      <c r="L49" s="1"/>
-      <c r="M49" s="1"/>
-      <c r="N49" s="1"/>
-      <c r="O49" s="1"/>
-      <c r="P49" s="1"/>
-      <c r="Q49" s="1"/>
-      <c r="R49" s="1"/>
-      <c r="S49" s="1"/>
-      <c r="T49" s="1"/>
-      <c r="U49" s="1"/>
-      <c r="V49" s="1"/>
-      <c r="W49" s="1"/>
-      <c r="X49" s="1"/>
-      <c r="Y49" s="1"/>
-      <c r="Z49" s="1"/>
-      <c r="AA49" s="1"/>
-      <c r="AB49" s="1"/>
-      <c r="AC49" s="1"/>
-      <c r="AD49" s="1"/>
-      <c r="AE49" s="1"/>
-      <c r="AF49" s="1"/>
-      <c r="AG49" s="1"/>
-      <c r="AH49" s="1"/>
-      <c r="AI49" s="1"/>
-      <c r="AJ49" s="1"/>
-      <c r="AK49" s="1"/>
-      <c r="AL49" s="1"/>
-      <c r="AM49" s="1"/>
-      <c r="AN49" s="1"/>
-      <c r="AO49" s="1"/>
-      <c r="AP49" s="1"/>
-      <c r="AQ49" s="1"/>
-      <c r="AR49" s="1"/>
-      <c r="AS49" s="1"/>
-      <c r="AT49" s="1"/>
-      <c r="AU49" s="1"/>
-      <c r="AV49" s="1"/>
-      <c r="AW49" s="1"/>
-      <c r="AX49" s="1"/>
-      <c r="AY49" s="1"/>
-      <c r="AZ49" s="1"/>
-      <c r="BA49" s="1"/>
-      <c r="BB49" s="1"/>
-      <c r="BC49" s="1"/>
-      <c r="BD49" s="1"/>
-      <c r="BE49" s="1"/>
-      <c r="BF49" s="1"/>
-      <c r="BG49" s="1"/>
-      <c r="BH49" s="1"/>
-      <c r="BI49" s="1"/>
-      <c r="BJ49" s="1"/>
-      <c r="BK49" s="1"/>
-      <c r="BL49" s="1"/>
-      <c r="BM49" s="1"/>
-      <c r="BN49" s="1"/>
-      <c r="BO49" s="1"/>
-      <c r="BP49" s="1"/>
-      <c r="BQ49" s="1"/>
-      <c r="BR49" s="1"/>
-      <c r="BS49" s="1"/>
-      <c r="BT49" s="1"/>
-      <c r="BU49" s="1"/>
-      <c r="BV49" s="1"/>
-      <c r="BW49" s="1"/>
-      <c r="BX49" s="1"/>
-      <c r="BY49" s="1"/>
-      <c r="BZ49" s="1"/>
-      <c r="CA49" s="1"/>
-      <c r="CB49" s="1"/>
-      <c r="CC49" s="1"/>
-      <c r="CD49" s="1"/>
-      <c r="CE49" s="1"/>
-      <c r="CF49" s="1"/>
-      <c r="CG49" s="1"/>
-      <c r="CH49" s="1"/>
-      <c r="CI49" s="1"/>
-      <c r="CJ49" s="1"/>
-      <c r="CK49" s="1"/>
-      <c r="CL49" s="1"/>
-      <c r="CM49" s="1"/>
-      <c r="CN49" s="1"/>
-      <c r="CO49" s="1"/>
-      <c r="CP49" s="1"/>
-      <c r="CQ49" s="1"/>
-      <c r="CR49" s="1"/>
-      <c r="CS49" s="1"/>
-      <c r="CT49" s="1"/>
-      <c r="CU49" s="1"/>
+    <row r="49" spans="1:99" s="20" customFormat="1">
+      <c r="B49" s="21"/>
+      <c r="C49" s="30" t="s">
+        <v>132</v>
+      </c>
+      <c r="D49" s="21" t="s">
+        <v>129</v>
+      </c>
+      <c r="E49" s="21" t="s">
+        <v>130</v>
+      </c>
+      <c r="F49" s="21" t="s">
+        <v>57</v>
+      </c>
+      <c r="G49" s="21"/>
+      <c r="H49" s="21"/>
+      <c r="I49" s="21"/>
+      <c r="J49" s="21"/>
+      <c r="K49" s="21"/>
+      <c r="L49" s="21"/>
+      <c r="M49" s="21"/>
+      <c r="N49" s="21"/>
+      <c r="O49" s="21"/>
+      <c r="P49" s="21"/>
+      <c r="Q49" s="21"/>
+      <c r="R49" s="21"/>
+      <c r="S49" s="21"/>
+      <c r="T49" s="21"/>
+      <c r="U49" s="21"/>
+      <c r="V49" s="21"/>
+      <c r="W49" s="21"/>
+      <c r="X49" s="21"/>
+      <c r="Y49" s="21"/>
+      <c r="Z49" s="21"/>
+      <c r="AA49" s="21"/>
+      <c r="AB49" s="21"/>
+      <c r="AC49" s="21"/>
+      <c r="AD49" s="21"/>
+      <c r="AE49" s="21"/>
+      <c r="AF49" s="21"/>
+      <c r="AG49" s="21"/>
+      <c r="AH49" s="21"/>
+      <c r="AI49" s="21"/>
+      <c r="AJ49" s="21"/>
+      <c r="AK49" s="21"/>
+      <c r="AL49" s="21"/>
+      <c r="AM49" s="21"/>
+      <c r="AN49" s="21"/>
+      <c r="AO49" s="21"/>
+      <c r="AP49" s="21"/>
+      <c r="AQ49" s="21"/>
+      <c r="AR49" s="21"/>
+      <c r="AS49" s="21"/>
+      <c r="AT49" s="21"/>
+      <c r="AU49" s="21"/>
+      <c r="AV49" s="21"/>
+      <c r="AW49" s="21"/>
+      <c r="AX49" s="21"/>
+      <c r="AY49" s="21"/>
+      <c r="AZ49" s="21"/>
+      <c r="BA49" s="21"/>
+      <c r="BB49" s="21"/>
+      <c r="BC49" s="21"/>
+      <c r="BD49" s="21"/>
+      <c r="BE49" s="21"/>
+      <c r="BF49" s="21"/>
+      <c r="BG49" s="21"/>
+      <c r="BH49" s="21"/>
+      <c r="BI49" s="21"/>
+      <c r="BJ49" s="21"/>
+      <c r="BK49" s="21"/>
+      <c r="BL49" s="21"/>
+      <c r="BM49" s="21"/>
+      <c r="BN49" s="21"/>
+      <c r="BO49" s="21"/>
+      <c r="BP49" s="21"/>
+      <c r="BQ49" s="21"/>
+      <c r="BR49" s="21"/>
+      <c r="BS49" s="21"/>
+      <c r="BT49" s="21"/>
+      <c r="BU49" s="21"/>
+      <c r="BV49" s="21"/>
+      <c r="BW49" s="21"/>
+      <c r="BX49" s="21"/>
+      <c r="BY49" s="21"/>
+      <c r="BZ49" s="21"/>
+      <c r="CA49" s="21"/>
+      <c r="CB49" s="21"/>
+      <c r="CC49" s="21"/>
+      <c r="CD49" s="21"/>
+      <c r="CE49" s="21"/>
+      <c r="CF49" s="21"/>
+      <c r="CG49" s="21"/>
+      <c r="CH49" s="21"/>
+      <c r="CI49" s="21"/>
+      <c r="CJ49" s="21"/>
+      <c r="CK49" s="21"/>
+      <c r="CL49" s="21"/>
+      <c r="CM49" s="21"/>
+      <c r="CN49" s="21"/>
+      <c r="CO49" s="21"/>
+      <c r="CP49" s="21"/>
+      <c r="CQ49" s="21"/>
+      <c r="CR49" s="21"/>
+      <c r="CS49" s="21"/>
+      <c r="CT49" s="21"/>
+      <c r="CU49" s="21"/>
     </row>
     <row r="50" spans="1:99">
       <c r="A50" t="s">
@@ -5518,20 +5520,16 @@
       </c>
       <c r="B50" s="22"/>
       <c r="C50" s="29" t="s">
-        <v>95</v>
-      </c>
-      <c r="D50" s="22" t="s">
-        <v>81</v>
-      </c>
-      <c r="E50" s="22" t="s">
-        <v>60</v>
-      </c>
+        <v>113</v>
+      </c>
+      <c r="D50" s="22"/>
+      <c r="E50" s="22"/>
       <c r="F50" s="22"/>
       <c r="G50" s="22"/>
       <c r="H50" s="23"/>
       <c r="I50" s="23"/>
       <c r="J50" s="23" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K50" s="22"/>
       <c r="L50" s="1"/>
@@ -5587,12 +5585,8 @@
       <c r="BJ50" s="1"/>
       <c r="BK50" s="1"/>
       <c r="BL50" s="1"/>
-      <c r="BM50" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="BN50" s="1" t="s">
-        <v>137</v>
-      </c>
+      <c r="BM50" s="1"/>
+      <c r="BN50" s="1"/>
       <c r="BO50" s="1"/>
       <c r="BP50" s="1"/>
       <c r="BQ50" s="1"/>
@@ -5633,20 +5627,16 @@
       </c>
       <c r="B51" s="22"/>
       <c r="C51" s="29" t="s">
-        <v>131</v>
-      </c>
-      <c r="D51" s="22" t="s">
-        <v>61</v>
-      </c>
-      <c r="E51" s="22" t="s">
-        <v>61</v>
-      </c>
+        <v>114</v>
+      </c>
+      <c r="D51" s="22"/>
+      <c r="E51" s="22"/>
       <c r="F51" s="22"/>
       <c r="G51" s="22"/>
       <c r="H51" s="23"/>
       <c r="I51" s="23"/>
       <c r="J51" s="23" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K51" s="22"/>
       <c r="L51" s="1"/>
@@ -5702,12 +5692,11 @@
       <c r="BJ51" s="1"/>
       <c r="BK51" s="1"/>
       <c r="BL51" s="1"/>
-      <c r="BM51" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="BN51" s="1" t="s">
-        <v>137</v>
-      </c>
+      <c r="BM51" s="1"/>
+      <c r="BN51" s="1"/>
+      <c r="BO51" s="1"/>
+      <c r="BP51" s="1"/>
+      <c r="BQ51" s="1"/>
       <c r="BR51" s="1"/>
       <c r="BS51" s="1"/>
       <c r="BT51" s="1"/>
@@ -5745,20 +5734,16 @@
       </c>
       <c r="B52" s="22"/>
       <c r="C52" s="29" t="s">
-        <v>119</v>
-      </c>
-      <c r="D52" s="22" t="s">
-        <v>59</v>
-      </c>
-      <c r="E52" s="22" t="s">
-        <v>60</v>
-      </c>
+        <v>115</v>
+      </c>
+      <c r="D52" s="22"/>
+      <c r="E52" s="22"/>
       <c r="F52" s="22"/>
       <c r="G52" s="22"/>
       <c r="H52" s="23"/>
       <c r="I52" s="23"/>
       <c r="J52" s="23" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K52" s="22"/>
       <c r="L52" s="1"/>
@@ -5814,21 +5799,11 @@
       <c r="BJ52" s="1"/>
       <c r="BK52" s="1"/>
       <c r="BL52" s="1"/>
-      <c r="BM52" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="BN52" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="BO52" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="BP52" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="BQ52" s="1" t="s">
-        <v>137</v>
-      </c>
+      <c r="BM52" s="1"/>
+      <c r="BN52" s="1"/>
+      <c r="BO52" s="1"/>
+      <c r="BP52" s="1"/>
+      <c r="BQ52" s="1"/>
       <c r="BR52" s="1"/>
       <c r="BS52" s="1"/>
       <c r="BT52" s="1"/>
@@ -5866,20 +5841,20 @@
       </c>
       <c r="B53" s="22"/>
       <c r="C53" s="29" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="D53" s="22" t="s">
         <v>81</v>
       </c>
       <c r="E53" s="22" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F53" s="22"/>
       <c r="G53" s="22"/>
       <c r="H53" s="23"/>
       <c r="I53" s="23"/>
       <c r="J53" s="23" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K53" s="22"/>
       <c r="L53" s="1"/>
@@ -5935,8 +5910,12 @@
       <c r="BJ53" s="1"/>
       <c r="BK53" s="1"/>
       <c r="BL53" s="1"/>
-      <c r="BM53" s="1"/>
-      <c r="BN53" s="1"/>
+      <c r="BM53" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="BN53" s="1" t="s">
+        <v>137</v>
+      </c>
       <c r="BO53" s="1"/>
       <c r="BP53" s="1"/>
       <c r="BQ53" s="1"/>
@@ -5977,13 +5956,13 @@
       </c>
       <c r="B54" s="22"/>
       <c r="C54" s="29" t="s">
-        <v>94</v>
+        <v>131</v>
       </c>
       <c r="D54" s="22" t="s">
-        <v>81</v>
+        <v>61</v>
       </c>
       <c r="E54" s="22" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F54" s="22"/>
       <c r="G54" s="22"/>
@@ -6050,15 +6029,6 @@
         <v>135</v>
       </c>
       <c r="BN54" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="BO54" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="BP54" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="BQ54" s="1" t="s">
         <v>137</v>
       </c>
       <c r="BR54" s="1"/>
@@ -6098,16 +6068,20 @@
       </c>
       <c r="B55" s="22"/>
       <c r="C55" s="29" t="s">
-        <v>116</v>
-      </c>
-      <c r="D55" s="22"/>
-      <c r="E55" s="22"/>
+        <v>119</v>
+      </c>
+      <c r="D55" s="22" t="s">
+        <v>59</v>
+      </c>
+      <c r="E55" s="22" t="s">
+        <v>60</v>
+      </c>
       <c r="F55" s="22"/>
       <c r="G55" s="22"/>
       <c r="H55" s="23"/>
       <c r="I55" s="23"/>
       <c r="J55" s="23" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K55" s="22"/>
       <c r="L55" s="1"/>
@@ -6163,11 +6137,21 @@
       <c r="BJ55" s="1"/>
       <c r="BK55" s="1"/>
       <c r="BL55" s="1"/>
-      <c r="BM55" s="1"/>
-      <c r="BN55" s="1"/>
-      <c r="BO55" s="1"/>
-      <c r="BP55" s="1"/>
-      <c r="BQ55" s="1"/>
+      <c r="BM55" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="BN55" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="BO55" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="BP55" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="BQ55" s="1" t="s">
+        <v>137</v>
+      </c>
       <c r="BR55" s="1"/>
       <c r="BS55" s="1"/>
       <c r="BT55" s="1"/>
@@ -6205,10 +6189,14 @@
       </c>
       <c r="B56" s="22"/>
       <c r="C56" s="29" t="s">
-        <v>117</v>
-      </c>
-      <c r="D56" s="22"/>
-      <c r="E56" s="22"/>
+        <v>93</v>
+      </c>
+      <c r="D56" s="22" t="s">
+        <v>81</v>
+      </c>
+      <c r="E56" s="22" t="s">
+        <v>59</v>
+      </c>
       <c r="F56" s="22"/>
       <c r="G56" s="22"/>
       <c r="H56" s="23"/>
@@ -6312,16 +6300,20 @@
       </c>
       <c r="B57" s="22"/>
       <c r="C57" s="29" t="s">
-        <v>118</v>
-      </c>
-      <c r="D57" s="22"/>
-      <c r="E57" s="22"/>
+        <v>94</v>
+      </c>
+      <c r="D57" s="22" t="s">
+        <v>81</v>
+      </c>
+      <c r="E57" s="22" t="s">
+        <v>60</v>
+      </c>
       <c r="F57" s="22"/>
       <c r="G57" s="22"/>
       <c r="H57" s="23"/>
       <c r="I57" s="23"/>
       <c r="J57" s="23" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K57" s="22"/>
       <c r="L57" s="1"/>
@@ -6377,11 +6369,21 @@
       <c r="BJ57" s="1"/>
       <c r="BK57" s="1"/>
       <c r="BL57" s="1"/>
-      <c r="BM57" s="1"/>
-      <c r="BN57" s="1"/>
-      <c r="BO57" s="1"/>
-      <c r="BP57" s="1"/>
-      <c r="BQ57" s="1"/>
+      <c r="BM57" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="BN57" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="BO57" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="BP57" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="BQ57" s="1" t="s">
+        <v>137</v>
+      </c>
       <c r="BR57" s="1"/>
       <c r="BS57" s="1"/>
       <c r="BT57" s="1"/>
@@ -6414,15 +6416,22 @@
       <c r="CU57" s="1"/>
     </row>
     <row r="58" spans="1:99">
+      <c r="A58" t="s">
+        <v>10</v>
+      </c>
       <c r="B58" s="22"/>
-      <c r="C58" s="29"/>
+      <c r="C58" s="29" t="s">
+        <v>116</v>
+      </c>
       <c r="D58" s="22"/>
       <c r="E58" s="22"/>
       <c r="F58" s="22"/>
       <c r="G58" s="22"/>
       <c r="H58" s="23"/>
       <c r="I58" s="23"/>
-      <c r="J58" s="23"/>
+      <c r="J58" s="23" t="s">
+        <v>40</v>
+      </c>
       <c r="K58" s="22"/>
       <c r="L58" s="1"/>
       <c r="M58" s="1"/>
@@ -6514,15 +6523,22 @@
       <c r="CU58" s="1"/>
     </row>
     <row r="59" spans="1:99">
+      <c r="A59" t="s">
+        <v>10</v>
+      </c>
       <c r="B59" s="22"/>
-      <c r="C59" s="29"/>
+      <c r="C59" s="29" t="s">
+        <v>117</v>
+      </c>
       <c r="D59" s="22"/>
       <c r="E59" s="22"/>
       <c r="F59" s="22"/>
       <c r="G59" s="22"/>
       <c r="H59" s="23"/>
       <c r="I59" s="23"/>
-      <c r="J59" s="23"/>
+      <c r="J59" s="23" t="s">
+        <v>40</v>
+      </c>
       <c r="K59" s="22"/>
       <c r="L59" s="1"/>
       <c r="M59" s="1"/>
@@ -6614,15 +6630,22 @@
       <c r="CU59" s="1"/>
     </row>
     <row r="60" spans="1:99">
+      <c r="A60" t="s">
+        <v>10</v>
+      </c>
       <c r="B60" s="22"/>
-      <c r="C60" s="29"/>
+      <c r="C60" s="29" t="s">
+        <v>118</v>
+      </c>
       <c r="D60" s="22"/>
       <c r="E60" s="22"/>
       <c r="F60" s="22"/>
       <c r="G60" s="22"/>
       <c r="H60" s="23"/>
       <c r="I60" s="23"/>
-      <c r="J60" s="23"/>
+      <c r="J60" s="23" t="s">
+        <v>40</v>
+      </c>
       <c r="K60" s="22"/>
       <c r="L60" s="1"/>
       <c r="M60" s="1"/>
@@ -6713,133 +6736,116 @@
       <c r="CT60" s="1"/>
       <c r="CU60" s="1"/>
     </row>
-    <row r="61" spans="1:99" s="20" customFormat="1">
-      <c r="B61" s="21"/>
-      <c r="C61" s="30" t="s">
-        <v>127</v>
-      </c>
-      <c r="D61" s="21" t="s">
-        <v>80</v>
-      </c>
-      <c r="E61" s="21" t="s">
-        <v>79</v>
-      </c>
-      <c r="F61" s="21"/>
-      <c r="G61" s="21"/>
-      <c r="H61" s="21"/>
-      <c r="I61" s="21"/>
-      <c r="J61" s="21"/>
-      <c r="K61" s="21"/>
-      <c r="L61" s="21"/>
-      <c r="M61" s="21"/>
-      <c r="N61" s="21"/>
-      <c r="O61" s="21"/>
-      <c r="P61" s="21"/>
-      <c r="Q61" s="21"/>
-      <c r="R61" s="21"/>
-      <c r="S61" s="21"/>
-      <c r="T61" s="21"/>
-      <c r="U61" s="21"/>
-      <c r="V61" s="21"/>
-      <c r="W61" s="21"/>
-      <c r="X61" s="21"/>
-      <c r="Y61" s="21"/>
-      <c r="Z61" s="21"/>
-      <c r="AA61" s="21"/>
-      <c r="AB61" s="21"/>
-      <c r="AC61" s="21"/>
-      <c r="AD61" s="21"/>
-      <c r="AE61" s="21"/>
-      <c r="AF61" s="21"/>
-      <c r="AG61" s="21"/>
-      <c r="AH61" s="21"/>
-      <c r="AI61" s="21"/>
-      <c r="AJ61" s="21"/>
-      <c r="AK61" s="21"/>
-      <c r="AL61" s="21"/>
-      <c r="AM61" s="21"/>
-      <c r="AN61" s="21"/>
-      <c r="AO61" s="21"/>
-      <c r="AP61" s="21"/>
-      <c r="AQ61" s="21"/>
-      <c r="AR61" s="21"/>
-      <c r="AS61" s="21"/>
-      <c r="AT61" s="21"/>
-      <c r="AU61" s="21"/>
-      <c r="AV61" s="21"/>
-      <c r="AW61" s="21"/>
-      <c r="AX61" s="21"/>
-      <c r="AY61" s="21"/>
-      <c r="AZ61" s="21"/>
-      <c r="BA61" s="21"/>
-      <c r="BB61" s="21"/>
-      <c r="BC61" s="21"/>
-      <c r="BD61" s="21"/>
-      <c r="BE61" s="21"/>
-      <c r="BF61" s="21"/>
-      <c r="BG61" s="21"/>
-      <c r="BH61" s="21"/>
-      <c r="BI61" s="21"/>
-      <c r="BJ61" s="21"/>
-      <c r="BK61" s="21"/>
-      <c r="BL61" s="21"/>
-      <c r="BM61" s="21"/>
-      <c r="BN61" s="21"/>
-      <c r="BO61" s="21"/>
-      <c r="BP61" s="21"/>
-      <c r="BQ61" s="21"/>
-      <c r="BR61" s="21"/>
-      <c r="BS61" s="21"/>
-      <c r="BT61" s="21"/>
-      <c r="BU61" s="21"/>
-      <c r="BV61" s="21"/>
-      <c r="BW61" s="21"/>
-      <c r="BX61" s="21"/>
-      <c r="BY61" s="21"/>
-      <c r="BZ61" s="21"/>
-      <c r="CA61" s="21"/>
-      <c r="CB61" s="21"/>
-      <c r="CC61" s="21"/>
-      <c r="CD61" s="21"/>
-      <c r="CE61" s="21"/>
-      <c r="CF61" s="21"/>
-      <c r="CG61" s="21"/>
-      <c r="CH61" s="21"/>
-      <c r="CI61" s="21"/>
-      <c r="CJ61" s="21"/>
-      <c r="CK61" s="21"/>
-      <c r="CL61" s="21"/>
-      <c r="CM61" s="21"/>
-      <c r="CN61" s="21"/>
-      <c r="CO61" s="21"/>
-      <c r="CP61" s="21"/>
-      <c r="CQ61" s="21"/>
-      <c r="CR61" s="21"/>
-      <c r="CS61" s="21"/>
-      <c r="CT61" s="21"/>
-      <c r="CU61" s="21"/>
+    <row r="61" spans="1:99">
+      <c r="B61" s="22"/>
+      <c r="C61" s="29"/>
+      <c r="D61" s="22"/>
+      <c r="E61" s="22"/>
+      <c r="F61" s="22"/>
+      <c r="G61" s="22"/>
+      <c r="H61" s="23"/>
+      <c r="I61" s="23"/>
+      <c r="J61" s="23"/>
+      <c r="K61" s="22"/>
+      <c r="L61" s="1"/>
+      <c r="M61" s="1"/>
+      <c r="N61" s="1"/>
+      <c r="O61" s="1"/>
+      <c r="P61" s="1"/>
+      <c r="Q61" s="1"/>
+      <c r="R61" s="1"/>
+      <c r="S61" s="1"/>
+      <c r="T61" s="1"/>
+      <c r="U61" s="1"/>
+      <c r="V61" s="1"/>
+      <c r="W61" s="1"/>
+      <c r="X61" s="1"/>
+      <c r="Y61" s="1"/>
+      <c r="Z61" s="1"/>
+      <c r="AA61" s="1"/>
+      <c r="AB61" s="1"/>
+      <c r="AC61" s="1"/>
+      <c r="AD61" s="1"/>
+      <c r="AE61" s="1"/>
+      <c r="AF61" s="1"/>
+      <c r="AG61" s="1"/>
+      <c r="AH61" s="1"/>
+      <c r="AI61" s="1"/>
+      <c r="AJ61" s="1"/>
+      <c r="AK61" s="1"/>
+      <c r="AL61" s="1"/>
+      <c r="AM61" s="1"/>
+      <c r="AN61" s="1"/>
+      <c r="AO61" s="1"/>
+      <c r="AP61" s="1"/>
+      <c r="AQ61" s="1"/>
+      <c r="AR61" s="1"/>
+      <c r="AS61" s="1"/>
+      <c r="AT61" s="1"/>
+      <c r="AU61" s="1"/>
+      <c r="AV61" s="1"/>
+      <c r="AW61" s="1"/>
+      <c r="AX61" s="1"/>
+      <c r="AY61" s="1"/>
+      <c r="AZ61" s="1"/>
+      <c r="BA61" s="1"/>
+      <c r="BB61" s="1"/>
+      <c r="BC61" s="1"/>
+      <c r="BD61" s="1"/>
+      <c r="BE61" s="1"/>
+      <c r="BF61" s="1"/>
+      <c r="BG61" s="1"/>
+      <c r="BH61" s="1"/>
+      <c r="BI61" s="1"/>
+      <c r="BJ61" s="1"/>
+      <c r="BK61" s="1"/>
+      <c r="BL61" s="1"/>
+      <c r="BM61" s="1"/>
+      <c r="BN61" s="1"/>
+      <c r="BO61" s="1"/>
+      <c r="BP61" s="1"/>
+      <c r="BQ61" s="1"/>
+      <c r="BR61" s="1"/>
+      <c r="BS61" s="1"/>
+      <c r="BT61" s="1"/>
+      <c r="BU61" s="1"/>
+      <c r="BV61" s="1"/>
+      <c r="BW61" s="1"/>
+      <c r="BX61" s="1"/>
+      <c r="BY61" s="1"/>
+      <c r="BZ61" s="1"/>
+      <c r="CA61" s="1"/>
+      <c r="CB61" s="1"/>
+      <c r="CC61" s="1"/>
+      <c r="CD61" s="1"/>
+      <c r="CE61" s="1"/>
+      <c r="CF61" s="1"/>
+      <c r="CG61" s="1"/>
+      <c r="CH61" s="1"/>
+      <c r="CI61" s="1"/>
+      <c r="CJ61" s="1"/>
+      <c r="CK61" s="1"/>
+      <c r="CL61" s="1"/>
+      <c r="CM61" s="1"/>
+      <c r="CN61" s="1"/>
+      <c r="CO61" s="1"/>
+      <c r="CP61" s="1"/>
+      <c r="CQ61" s="1"/>
+      <c r="CR61" s="1"/>
+      <c r="CS61" s="1"/>
+      <c r="CT61" s="1"/>
+      <c r="CU61" s="1"/>
     </row>
     <row r="62" spans="1:99">
-      <c r="A62" t="s">
-        <v>10</v>
-      </c>
       <c r="B62" s="22"/>
-      <c r="C62" s="29" t="s">
-        <v>123</v>
-      </c>
-      <c r="D62" s="22" t="s">
-        <v>60</v>
-      </c>
-      <c r="E62" s="22" t="s">
-        <v>81</v>
-      </c>
+      <c r="C62" s="29"/>
+      <c r="D62" s="22"/>
+      <c r="E62" s="22"/>
       <c r="F62" s="22"/>
       <c r="G62" s="22"/>
       <c r="H62" s="23"/>
       <c r="I62" s="23"/>
-      <c r="J62" s="23" t="s">
-        <v>39</v>
-      </c>
+      <c r="J62" s="23"/>
       <c r="K62" s="22"/>
       <c r="L62" s="1"/>
       <c r="M62" s="1"/>
@@ -6931,26 +6937,15 @@
       <c r="CU62" s="1"/>
     </row>
     <row r="63" spans="1:99">
-      <c r="A63" t="s">
-        <v>10</v>
-      </c>
       <c r="B63" s="22"/>
-      <c r="C63" s="29" t="s">
-        <v>124</v>
-      </c>
-      <c r="D63" s="22" t="s">
-        <v>60</v>
-      </c>
-      <c r="E63" s="22" t="s">
-        <v>81</v>
-      </c>
+      <c r="C63" s="29"/>
+      <c r="D63" s="22"/>
+      <c r="E63" s="22"/>
       <c r="F63" s="22"/>
       <c r="G63" s="22"/>
       <c r="H63" s="23"/>
       <c r="I63" s="23"/>
-      <c r="J63" s="23" t="s">
-        <v>39</v>
-      </c>
+      <c r="J63" s="23"/>
       <c r="K63" s="22"/>
       <c r="L63" s="1"/>
       <c r="M63" s="1"/>
@@ -7041,126 +7036,111 @@
       <c r="CT63" s="1"/>
       <c r="CU63" s="1"/>
     </row>
-    <row r="64" spans="1:99">
-      <c r="A64" t="s">
-        <v>10</v>
-      </c>
-      <c r="B64" s="22"/>
-      <c r="C64" s="29" t="s">
-        <v>125</v>
-      </c>
-      <c r="D64" s="22" t="s">
-        <v>61</v>
-      </c>
-      <c r="E64" s="22" t="s">
-        <v>61</v>
-      </c>
-      <c r="F64" s="22"/>
-      <c r="G64" s="22"/>
-      <c r="H64" s="23"/>
-      <c r="I64" s="23"/>
-      <c r="J64" s="23" t="s">
-        <v>39</v>
-      </c>
-      <c r="K64" s="22"/>
-      <c r="L64" s="1"/>
-      <c r="M64" s="1"/>
-      <c r="N64" s="1"/>
-      <c r="O64" s="1"/>
-      <c r="P64" s="1"/>
-      <c r="Q64" s="1"/>
-      <c r="R64" s="1"/>
-      <c r="S64" s="1"/>
-      <c r="T64" s="1"/>
-      <c r="U64" s="1"/>
-      <c r="V64" s="1"/>
-      <c r="W64" s="1"/>
-      <c r="X64" s="1"/>
-      <c r="Y64" s="1"/>
-      <c r="Z64" s="1"/>
-      <c r="AA64" s="1"/>
-      <c r="AB64" s="1"/>
-      <c r="AC64" s="1"/>
-      <c r="AD64" s="1"/>
-      <c r="AE64" s="1"/>
-      <c r="AF64" s="1"/>
-      <c r="AG64" s="1"/>
-      <c r="AH64" s="1"/>
-      <c r="AI64" s="1"/>
-      <c r="AJ64" s="1"/>
-      <c r="AK64" s="1"/>
-      <c r="AL64" s="1"/>
-      <c r="AM64" s="1"/>
-      <c r="AN64" s="1"/>
-      <c r="AO64" s="1"/>
-      <c r="AP64" s="1"/>
-      <c r="AQ64" s="1"/>
-      <c r="AR64" s="1"/>
-      <c r="AS64" s="1"/>
-      <c r="AT64" s="1"/>
-      <c r="AU64" s="1"/>
-      <c r="AV64" s="1"/>
-      <c r="AW64" s="1"/>
-      <c r="AX64" s="1"/>
-      <c r="AY64" s="1"/>
-      <c r="AZ64" s="1"/>
-      <c r="BA64" s="1"/>
-      <c r="BB64" s="1"/>
-      <c r="BC64" s="1"/>
-      <c r="BD64" s="1"/>
-      <c r="BE64" s="1"/>
-      <c r="BF64" s="1"/>
-      <c r="BG64" s="1"/>
-      <c r="BH64" s="1"/>
-      <c r="BI64" s="1"/>
-      <c r="BJ64" s="1"/>
-      <c r="BK64" s="1"/>
-      <c r="BL64" s="1"/>
-      <c r="BM64" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="BN64" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="BO64" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="BP64" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="BQ64" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="BR64" s="1"/>
-      <c r="BS64" s="1"/>
-      <c r="BT64" s="1"/>
-      <c r="BU64" s="1"/>
-      <c r="BV64" s="1"/>
-      <c r="BW64" s="1"/>
-      <c r="BX64" s="1"/>
-      <c r="BY64" s="1"/>
-      <c r="BZ64" s="1"/>
-      <c r="CA64" s="1"/>
-      <c r="CB64" s="1"/>
-      <c r="CC64" s="1"/>
-      <c r="CD64" s="1"/>
-      <c r="CE64" s="1"/>
-      <c r="CF64" s="1"/>
-      <c r="CG64" s="1"/>
-      <c r="CH64" s="1"/>
-      <c r="CI64" s="1"/>
-      <c r="CJ64" s="1"/>
-      <c r="CK64" s="1"/>
-      <c r="CL64" s="1"/>
-      <c r="CM64" s="1"/>
-      <c r="CN64" s="1"/>
-      <c r="CO64" s="1"/>
-      <c r="CP64" s="1"/>
-      <c r="CQ64" s="1"/>
-      <c r="CR64" s="1"/>
-      <c r="CS64" s="1"/>
-      <c r="CT64" s="1"/>
-      <c r="CU64" s="1"/>
+    <row r="64" spans="1:99" s="20" customFormat="1">
+      <c r="B64" s="21"/>
+      <c r="C64" s="30" t="s">
+        <v>127</v>
+      </c>
+      <c r="D64" s="21" t="s">
+        <v>80</v>
+      </c>
+      <c r="E64" s="21" t="s">
+        <v>79</v>
+      </c>
+      <c r="F64" s="21"/>
+      <c r="G64" s="21"/>
+      <c r="H64" s="21"/>
+      <c r="I64" s="21"/>
+      <c r="J64" s="21"/>
+      <c r="K64" s="21"/>
+      <c r="L64" s="21"/>
+      <c r="M64" s="21"/>
+      <c r="N64" s="21"/>
+      <c r="O64" s="21"/>
+      <c r="P64" s="21"/>
+      <c r="Q64" s="21"/>
+      <c r="R64" s="21"/>
+      <c r="S64" s="21"/>
+      <c r="T64" s="21"/>
+      <c r="U64" s="21"/>
+      <c r="V64" s="21"/>
+      <c r="W64" s="21"/>
+      <c r="X64" s="21"/>
+      <c r="Y64" s="21"/>
+      <c r="Z64" s="21"/>
+      <c r="AA64" s="21"/>
+      <c r="AB64" s="21"/>
+      <c r="AC64" s="21"/>
+      <c r="AD64" s="21"/>
+      <c r="AE64" s="21"/>
+      <c r="AF64" s="21"/>
+      <c r="AG64" s="21"/>
+      <c r="AH64" s="21"/>
+      <c r="AI64" s="21"/>
+      <c r="AJ64" s="21"/>
+      <c r="AK64" s="21"/>
+      <c r="AL64" s="21"/>
+      <c r="AM64" s="21"/>
+      <c r="AN64" s="21"/>
+      <c r="AO64" s="21"/>
+      <c r="AP64" s="21"/>
+      <c r="AQ64" s="21"/>
+      <c r="AR64" s="21"/>
+      <c r="AS64" s="21"/>
+      <c r="AT64" s="21"/>
+      <c r="AU64" s="21"/>
+      <c r="AV64" s="21"/>
+      <c r="AW64" s="21"/>
+      <c r="AX64" s="21"/>
+      <c r="AY64" s="21"/>
+      <c r="AZ64" s="21"/>
+      <c r="BA64" s="21"/>
+      <c r="BB64" s="21"/>
+      <c r="BC64" s="21"/>
+      <c r="BD64" s="21"/>
+      <c r="BE64" s="21"/>
+      <c r="BF64" s="21"/>
+      <c r="BG64" s="21"/>
+      <c r="BH64" s="21"/>
+      <c r="BI64" s="21"/>
+      <c r="BJ64" s="21"/>
+      <c r="BK64" s="21"/>
+      <c r="BL64" s="21"/>
+      <c r="BM64" s="21"/>
+      <c r="BN64" s="21"/>
+      <c r="BO64" s="21"/>
+      <c r="BP64" s="21"/>
+      <c r="BQ64" s="21"/>
+      <c r="BR64" s="21"/>
+      <c r="BS64" s="21"/>
+      <c r="BT64" s="21"/>
+      <c r="BU64" s="21"/>
+      <c r="BV64" s="21"/>
+      <c r="BW64" s="21"/>
+      <c r="BX64" s="21"/>
+      <c r="BY64" s="21"/>
+      <c r="BZ64" s="21"/>
+      <c r="CA64" s="21"/>
+      <c r="CB64" s="21"/>
+      <c r="CC64" s="21"/>
+      <c r="CD64" s="21"/>
+      <c r="CE64" s="21"/>
+      <c r="CF64" s="21"/>
+      <c r="CG64" s="21"/>
+      <c r="CH64" s="21"/>
+      <c r="CI64" s="21"/>
+      <c r="CJ64" s="21"/>
+      <c r="CK64" s="21"/>
+      <c r="CL64" s="21"/>
+      <c r="CM64" s="21"/>
+      <c r="CN64" s="21"/>
+      <c r="CO64" s="21"/>
+      <c r="CP64" s="21"/>
+      <c r="CQ64" s="21"/>
+      <c r="CR64" s="21"/>
+      <c r="CS64" s="21"/>
+      <c r="CT64" s="21"/>
+      <c r="CU64" s="21"/>
     </row>
     <row r="65" spans="1:99">
       <c r="A65" t="s">
@@ -7168,13 +7148,13 @@
       </c>
       <c r="B65" s="22"/>
       <c r="C65" s="29" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="D65" s="22" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E65" s="22" t="s">
-        <v>61</v>
+        <v>81</v>
       </c>
       <c r="F65" s="22"/>
       <c r="G65" s="22"/>
@@ -7237,21 +7217,11 @@
       <c r="BJ65" s="1"/>
       <c r="BK65" s="1"/>
       <c r="BL65" s="1"/>
-      <c r="BM65" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="BN65" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="BO65" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="BP65" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="BQ65" s="1" t="s">
-        <v>137</v>
-      </c>
+      <c r="BM65" s="1"/>
+      <c r="BN65" s="1"/>
+      <c r="BO65" s="1"/>
+      <c r="BP65" s="1"/>
+      <c r="BQ65" s="1"/>
       <c r="BR65" s="1"/>
       <c r="BS65" s="1"/>
       <c r="BT65" s="1"/>
@@ -7284,15 +7254,18 @@
       <c r="CU65" s="1"/>
     </row>
     <row r="66" spans="1:99">
+      <c r="A66" t="s">
+        <v>10</v>
+      </c>
       <c r="B66" s="22"/>
       <c r="C66" s="29" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="D66" s="22" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="E66" s="22" t="s">
-        <v>58</v>
+        <v>81</v>
       </c>
       <c r="F66" s="22"/>
       <c r="G66" s="22"/>
@@ -7355,21 +7328,11 @@
       <c r="BJ66" s="1"/>
       <c r="BK66" s="1"/>
       <c r="BL66" s="1"/>
-      <c r="BM66" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="BN66" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="BO66" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="BP66" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="BQ66" s="1" t="s">
-        <v>137</v>
-      </c>
+      <c r="BM66" s="1"/>
+      <c r="BN66" s="1"/>
+      <c r="BO66" s="1"/>
+      <c r="BP66" s="1"/>
+      <c r="BQ66" s="1"/>
       <c r="BR66" s="1"/>
       <c r="BS66" s="1"/>
       <c r="BT66" s="1"/>
@@ -7402,15 +7365,18 @@
       <c r="CU66" s="1"/>
     </row>
     <row r="67" spans="1:99">
+      <c r="A67" t="s">
+        <v>10</v>
+      </c>
       <c r="B67" s="22"/>
       <c r="C67" s="29" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="D67" s="22" t="s">
-        <v>71</v>
+        <v>61</v>
       </c>
       <c r="E67" s="22" t="s">
-        <v>71</v>
+        <v>61</v>
       </c>
       <c r="F67" s="22"/>
       <c r="G67" s="22"/>
@@ -7525,13 +7491,13 @@
       </c>
       <c r="B68" s="22"/>
       <c r="C68" s="29" t="s">
-        <v>76</v>
+        <v>126</v>
       </c>
       <c r="D68" s="22" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="E68" s="22" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="F68" s="22"/>
       <c r="G68" s="22"/>
@@ -7641,18 +7607,15 @@
       <c r="CU68" s="1"/>
     </row>
     <row r="69" spans="1:99">
-      <c r="A69" t="s">
-        <v>10</v>
-      </c>
       <c r="B69" s="22"/>
       <c r="C69" s="29" t="s">
-        <v>77</v>
+        <v>120</v>
       </c>
       <c r="D69" s="22" t="s">
-        <v>82</v>
+        <v>58</v>
       </c>
       <c r="E69" s="22" t="s">
-        <v>71</v>
+        <v>58</v>
       </c>
       <c r="F69" s="22"/>
       <c r="G69" s="22"/>
@@ -7762,18 +7725,15 @@
       <c r="CU69" s="1"/>
     </row>
     <row r="70" spans="1:99">
-      <c r="A70" t="s">
-        <v>10</v>
-      </c>
       <c r="B70" s="22"/>
       <c r="C70" s="29" t="s">
-        <v>78</v>
+        <v>121</v>
       </c>
       <c r="D70" s="22" t="s">
-        <v>60</v>
+        <v>71</v>
       </c>
       <c r="E70" s="22" t="s">
-        <v>60</v>
+        <v>71</v>
       </c>
       <c r="F70" s="22"/>
       <c r="G70" s="22"/>
@@ -7888,17 +7848,15 @@
       </c>
       <c r="B71" s="22"/>
       <c r="C71" s="29" t="s">
-        <v>128</v>
+        <v>76</v>
       </c>
       <c r="D71" s="22" t="s">
-        <v>84</v>
+        <v>58</v>
       </c>
       <c r="E71" s="22" t="s">
-        <v>67</v>
-      </c>
-      <c r="F71" s="22" t="s">
-        <v>71</v>
-      </c>
+        <v>58</v>
+      </c>
+      <c r="F71" s="22"/>
       <c r="G71" s="22"/>
       <c r="H71" s="23"/>
       <c r="I71" s="23"/>
@@ -8011,10 +7969,10 @@
       </c>
       <c r="B72" s="22"/>
       <c r="C72" s="29" t="s">
-        <v>122</v>
+        <v>77</v>
       </c>
       <c r="D72" s="22" t="s">
-        <v>71</v>
+        <v>82</v>
       </c>
       <c r="E72" s="22" t="s">
         <v>71</v>
@@ -8130,17 +8088,15 @@
       <c r="A73" t="s">
         <v>10</v>
       </c>
-      <c r="B73" s="22">
-        <v>260</v>
-      </c>
+      <c r="B73" s="22"/>
       <c r="C73" s="29" t="s">
-        <v>134</v>
+        <v>78</v>
       </c>
       <c r="D73" s="22" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="E73" s="22" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="F73" s="22"/>
       <c r="G73" s="22"/>
@@ -8250,15 +8206,28 @@
       <c r="CU73" s="1"/>
     </row>
     <row r="74" spans="1:99">
+      <c r="A74" t="s">
+        <v>10</v>
+      </c>
       <c r="B74" s="22"/>
-      <c r="C74" s="29"/>
-      <c r="D74" s="22"/>
-      <c r="E74" s="22"/>
-      <c r="F74" s="22"/>
+      <c r="C74" s="29" t="s">
+        <v>128</v>
+      </c>
+      <c r="D74" s="22" t="s">
+        <v>84</v>
+      </c>
+      <c r="E74" s="22" t="s">
+        <v>67</v>
+      </c>
+      <c r="F74" s="22" t="s">
+        <v>71</v>
+      </c>
       <c r="G74" s="22"/>
       <c r="H74" s="23"/>
       <c r="I74" s="23"/>
-      <c r="J74" s="23"/>
+      <c r="J74" s="23" t="s">
+        <v>39</v>
+      </c>
       <c r="K74" s="22"/>
       <c r="L74" s="1"/>
       <c r="M74" s="1"/>
@@ -8313,11 +8282,21 @@
       <c r="BJ74" s="1"/>
       <c r="BK74" s="1"/>
       <c r="BL74" s="1"/>
-      <c r="BM74" s="1"/>
-      <c r="BN74" s="1"/>
-      <c r="BO74" s="1"/>
-      <c r="BP74" s="1"/>
-      <c r="BQ74" s="1"/>
+      <c r="BM74" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="BN74" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="BO74" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="BP74" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="BQ74" s="1" t="s">
+        <v>137</v>
+      </c>
       <c r="BR74" s="1"/>
       <c r="BS74" s="1"/>
       <c r="BT74" s="1"/>
@@ -8349,126 +8328,150 @@
       <c r="CT74" s="1"/>
       <c r="CU74" s="1"/>
     </row>
-    <row r="75" spans="1:99" s="20" customFormat="1">
-      <c r="A75"/>
-      <c r="B75" s="21"/>
-      <c r="C75" s="30" t="s">
-        <v>106</v>
-      </c>
-      <c r="D75" s="21"/>
-      <c r="E75" s="21"/>
-      <c r="F75" s="21" t="s">
-        <v>57</v>
-      </c>
-      <c r="G75" s="21"/>
-      <c r="H75" s="21"/>
-      <c r="I75" s="21"/>
-      <c r="J75" s="21"/>
-      <c r="K75" s="21"/>
-      <c r="L75" s="21"/>
-      <c r="M75" s="21"/>
-      <c r="N75" s="21"/>
-      <c r="O75" s="21"/>
-      <c r="P75" s="21"/>
-      <c r="Q75" s="21"/>
-      <c r="R75" s="21"/>
-      <c r="S75" s="21"/>
-      <c r="T75" s="21"/>
-      <c r="U75" s="21"/>
-      <c r="V75" s="21"/>
-      <c r="W75" s="21"/>
-      <c r="X75" s="21"/>
-      <c r="Y75" s="21"/>
-      <c r="Z75" s="21"/>
-      <c r="AA75" s="21"/>
-      <c r="AB75" s="21"/>
-      <c r="AC75" s="21"/>
-      <c r="AD75" s="21"/>
-      <c r="AE75" s="21"/>
-      <c r="AF75" s="21"/>
-      <c r="AG75" s="21"/>
-      <c r="AH75" s="21"/>
-      <c r="AI75" s="21"/>
-      <c r="AJ75" s="21"/>
-      <c r="AK75" s="21"/>
-      <c r="AL75" s="21"/>
-      <c r="AM75" s="21"/>
-      <c r="AN75" s="21"/>
-      <c r="AO75" s="21"/>
-      <c r="AP75" s="21"/>
-      <c r="AQ75" s="21"/>
-      <c r="AR75" s="21"/>
-      <c r="AS75" s="21"/>
-      <c r="AT75" s="21"/>
-      <c r="AU75" s="21"/>
-      <c r="AV75" s="21"/>
-      <c r="AW75" s="21"/>
-      <c r="AX75" s="21"/>
-      <c r="AY75" s="21"/>
-      <c r="AZ75" s="21"/>
-      <c r="BA75" s="21"/>
-      <c r="BB75" s="21"/>
-      <c r="BC75" s="21"/>
-      <c r="BD75" s="21"/>
-      <c r="BE75" s="21"/>
-      <c r="BF75" s="21"/>
-      <c r="BG75" s="21"/>
-      <c r="BH75" s="21"/>
-      <c r="BI75" s="21"/>
-      <c r="BJ75" s="21"/>
-      <c r="BK75" s="21"/>
-      <c r="BL75" s="21"/>
-      <c r="BM75" s="21"/>
-      <c r="BN75" s="21"/>
-      <c r="BO75" s="21"/>
-      <c r="BP75" s="21"/>
-      <c r="BQ75" s="21"/>
-      <c r="BR75" s="21"/>
-      <c r="BS75" s="21"/>
-      <c r="BT75" s="21"/>
-      <c r="BU75" s="21"/>
-      <c r="BV75" s="21"/>
-      <c r="BW75" s="21"/>
-      <c r="BX75" s="21"/>
-      <c r="BY75" s="21"/>
-      <c r="BZ75" s="21"/>
-      <c r="CA75" s="21"/>
-      <c r="CB75" s="21"/>
-      <c r="CC75" s="21"/>
-      <c r="CD75" s="21"/>
-      <c r="CE75" s="21"/>
-      <c r="CF75" s="21"/>
-      <c r="CG75" s="21"/>
-      <c r="CH75" s="21"/>
-      <c r="CI75" s="21"/>
-      <c r="CJ75" s="21"/>
-      <c r="CK75" s="21"/>
-      <c r="CL75" s="21"/>
-      <c r="CM75" s="21"/>
-      <c r="CN75" s="21"/>
-      <c r="CO75" s="21"/>
-      <c r="CP75" s="21"/>
-      <c r="CQ75" s="21"/>
-      <c r="CR75" s="21"/>
-      <c r="CS75" s="21"/>
-      <c r="CT75" s="21"/>
-      <c r="CU75" s="21"/>
+    <row r="75" spans="1:99">
+      <c r="A75" t="s">
+        <v>10</v>
+      </c>
+      <c r="B75" s="22"/>
+      <c r="C75" s="29" t="s">
+        <v>122</v>
+      </c>
+      <c r="D75" s="22" t="s">
+        <v>71</v>
+      </c>
+      <c r="E75" s="22" t="s">
+        <v>71</v>
+      </c>
+      <c r="F75" s="22"/>
+      <c r="G75" s="22"/>
+      <c r="H75" s="23"/>
+      <c r="I75" s="23"/>
+      <c r="J75" s="23" t="s">
+        <v>39</v>
+      </c>
+      <c r="K75" s="22"/>
+      <c r="L75" s="1"/>
+      <c r="M75" s="1"/>
+      <c r="N75" s="1"/>
+      <c r="O75" s="1"/>
+      <c r="P75" s="1"/>
+      <c r="Q75" s="1"/>
+      <c r="R75" s="1"/>
+      <c r="S75" s="1"/>
+      <c r="T75" s="1"/>
+      <c r="U75" s="1"/>
+      <c r="V75" s="1"/>
+      <c r="W75" s="1"/>
+      <c r="X75" s="1"/>
+      <c r="Y75" s="1"/>
+      <c r="Z75" s="1"/>
+      <c r="AA75" s="1"/>
+      <c r="AB75" s="1"/>
+      <c r="AC75" s="1"/>
+      <c r="AD75" s="1"/>
+      <c r="AE75" s="1"/>
+      <c r="AF75" s="1"/>
+      <c r="AG75" s="1"/>
+      <c r="AH75" s="1"/>
+      <c r="AI75" s="1"/>
+      <c r="AJ75" s="1"/>
+      <c r="AK75" s="1"/>
+      <c r="AL75" s="1"/>
+      <c r="AM75" s="1"/>
+      <c r="AN75" s="1"/>
+      <c r="AO75" s="1"/>
+      <c r="AP75" s="1"/>
+      <c r="AQ75" s="1"/>
+      <c r="AR75" s="1"/>
+      <c r="AS75" s="1"/>
+      <c r="AT75" s="1"/>
+      <c r="AU75" s="1"/>
+      <c r="AV75" s="1"/>
+      <c r="AW75" s="1"/>
+      <c r="AX75" s="1"/>
+      <c r="AY75" s="1"/>
+      <c r="AZ75" s="1"/>
+      <c r="BA75" s="1"/>
+      <c r="BB75" s="1"/>
+      <c r="BC75" s="1"/>
+      <c r="BD75" s="1"/>
+      <c r="BE75" s="1"/>
+      <c r="BF75" s="1"/>
+      <c r="BG75" s="1"/>
+      <c r="BH75" s="1"/>
+      <c r="BI75" s="1"/>
+      <c r="BJ75" s="1"/>
+      <c r="BK75" s="1"/>
+      <c r="BL75" s="1"/>
+      <c r="BM75" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="BN75" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="BO75" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="BP75" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="BQ75" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="BR75" s="1"/>
+      <c r="BS75" s="1"/>
+      <c r="BT75" s="1"/>
+      <c r="BU75" s="1"/>
+      <c r="BV75" s="1"/>
+      <c r="BW75" s="1"/>
+      <c r="BX75" s="1"/>
+      <c r="BY75" s="1"/>
+      <c r="BZ75" s="1"/>
+      <c r="CA75" s="1"/>
+      <c r="CB75" s="1"/>
+      <c r="CC75" s="1"/>
+      <c r="CD75" s="1"/>
+      <c r="CE75" s="1"/>
+      <c r="CF75" s="1"/>
+      <c r="CG75" s="1"/>
+      <c r="CH75" s="1"/>
+      <c r="CI75" s="1"/>
+      <c r="CJ75" s="1"/>
+      <c r="CK75" s="1"/>
+      <c r="CL75" s="1"/>
+      <c r="CM75" s="1"/>
+      <c r="CN75" s="1"/>
+      <c r="CO75" s="1"/>
+      <c r="CP75" s="1"/>
+      <c r="CQ75" s="1"/>
+      <c r="CR75" s="1"/>
+      <c r="CS75" s="1"/>
+      <c r="CT75" s="1"/>
+      <c r="CU75" s="1"/>
     </row>
     <row r="76" spans="1:99">
-      <c r="A76" s="40" t="s">
-        <v>162</v>
-      </c>
-      <c r="B76" s="41"/>
-      <c r="C76" s="38" t="s">
-        <v>107</v>
-      </c>
-      <c r="D76" s="22"/>
-      <c r="E76" s="22"/>
+      <c r="A76" t="s">
+        <v>10</v>
+      </c>
+      <c r="B76" s="22">
+        <v>260</v>
+      </c>
+      <c r="C76" s="29" t="s">
+        <v>134</v>
+      </c>
+      <c r="D76" s="22" t="s">
+        <v>71</v>
+      </c>
+      <c r="E76" s="22" t="s">
+        <v>71</v>
+      </c>
       <c r="F76" s="22"/>
       <c r="G76" s="22"/>
       <c r="H76" s="23"/>
       <c r="I76" s="23"/>
-      <c r="J76" s="23"/>
+      <c r="J76" s="23" t="s">
+        <v>39</v>
+      </c>
       <c r="K76" s="22"/>
       <c r="L76" s="1"/>
       <c r="M76" s="1"/>
@@ -8523,11 +8526,21 @@
       <c r="BJ76" s="1"/>
       <c r="BK76" s="1"/>
       <c r="BL76" s="1"/>
-      <c r="BM76" s="1"/>
-      <c r="BN76" s="1"/>
-      <c r="BO76" s="1"/>
-      <c r="BP76" s="1"/>
-      <c r="BQ76" s="1"/>
+      <c r="BM76" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="BN76" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="BO76" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="BP76" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="BQ76" s="1" t="s">
+        <v>137</v>
+      </c>
       <c r="BR76" s="1"/>
       <c r="BS76" s="1"/>
       <c r="BT76" s="1"/>
@@ -8560,28 +8573,15 @@
       <c r="CU76" s="1"/>
     </row>
     <row r="77" spans="1:99">
-      <c r="A77" t="s">
-        <v>10</v>
-      </c>
-      <c r="B77" s="22">
-        <v>651</v>
-      </c>
-      <c r="C77" s="29" t="s">
-        <v>108</v>
-      </c>
-      <c r="D77" s="22" t="s">
-        <v>59</v>
-      </c>
+      <c r="B77" s="22"/>
+      <c r="C77" s="29"/>
+      <c r="D77" s="22"/>
       <c r="E77" s="22"/>
       <c r="F77" s="22"/>
-      <c r="G77" s="37" t="s">
-        <v>143</v>
-      </c>
+      <c r="G77" s="22"/>
       <c r="H77" s="23"/>
       <c r="I77" s="23"/>
-      <c r="J77" s="23" t="s">
-        <v>40</v>
-      </c>
+      <c r="J77" s="23"/>
       <c r="K77" s="22"/>
       <c r="L77" s="1"/>
       <c r="M77" s="1"/>
@@ -8636,21 +8636,11 @@
       <c r="BJ77" s="1"/>
       <c r="BK77" s="1"/>
       <c r="BL77" s="1"/>
-      <c r="BM77" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="BN77" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="BO77" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="BP77" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="BQ77" s="1" t="s">
-        <v>137</v>
-      </c>
+      <c r="BM77" s="1"/>
+      <c r="BN77" s="1"/>
+      <c r="BO77" s="1"/>
+      <c r="BP77" s="1"/>
+      <c r="BQ77" s="1"/>
       <c r="BR77" s="1"/>
       <c r="BS77" s="1"/>
       <c r="BT77" s="1"/>
@@ -8682,133 +8672,118 @@
       <c r="CT77" s="1"/>
       <c r="CU77" s="1"/>
     </row>
-    <row r="78" spans="1:99">
-      <c r="A78" t="s">
-        <v>10</v>
-      </c>
-      <c r="B78" s="22">
-        <v>652</v>
-      </c>
-      <c r="C78" s="29" t="s">
-        <v>99</v>
-      </c>
-      <c r="D78" s="22" t="s">
-        <v>59</v>
-      </c>
-      <c r="E78" s="22"/>
-      <c r="F78" s="22"/>
-      <c r="G78" s="37" t="s">
-        <v>144</v>
-      </c>
-      <c r="H78" s="23"/>
-      <c r="I78" s="23"/>
-      <c r="J78" s="23" t="s">
-        <v>39</v>
-      </c>
-      <c r="K78" s="22"/>
-      <c r="L78" s="1"/>
-      <c r="M78" s="1"/>
-      <c r="N78" s="1"/>
-      <c r="O78" s="1"/>
-      <c r="P78" s="1"/>
-      <c r="Q78" s="1"/>
-      <c r="R78" s="1"/>
-      <c r="S78" s="1"/>
-      <c r="T78" s="1"/>
-      <c r="U78" s="1"/>
-      <c r="V78" s="1"/>
-      <c r="W78" s="1"/>
-      <c r="X78" s="1"/>
-      <c r="Y78" s="1"/>
-      <c r="Z78" s="1"/>
-      <c r="AA78" s="1"/>
-      <c r="AB78" s="1"/>
-      <c r="AC78" s="1"/>
-      <c r="AD78" s="1"/>
-      <c r="AE78" s="1"/>
-      <c r="AF78" s="1"/>
-      <c r="AG78" s="1"/>
-      <c r="AH78" s="1"/>
-      <c r="AI78" s="1"/>
-      <c r="AJ78" s="1"/>
-      <c r="AK78" s="1"/>
-      <c r="AL78" s="1"/>
-      <c r="AM78" s="1"/>
-      <c r="AN78" s="1"/>
-      <c r="AO78" s="1"/>
-      <c r="AP78" s="1"/>
-      <c r="AQ78" s="1"/>
-      <c r="AR78" s="1"/>
-      <c r="AS78" s="1"/>
-      <c r="AT78" s="1"/>
-      <c r="AU78" s="1"/>
-      <c r="AV78" s="1"/>
-      <c r="AW78" s="1"/>
-      <c r="AX78" s="1"/>
-      <c r="AY78" s="1"/>
-      <c r="AZ78" s="1"/>
-      <c r="BA78" s="1"/>
-      <c r="BB78" s="1"/>
-      <c r="BC78" s="1"/>
-      <c r="BD78" s="1"/>
-      <c r="BE78" s="1"/>
-      <c r="BF78" s="1"/>
-      <c r="BG78" s="1"/>
-      <c r="BH78" s="1"/>
-      <c r="BI78" s="1"/>
-      <c r="BJ78" s="1"/>
-      <c r="BK78" s="1"/>
-      <c r="BL78" s="1"/>
-      <c r="BM78" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="BN78" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="BO78" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="BP78" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="BQ78" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="BR78" s="1"/>
-      <c r="BS78" s="1"/>
-      <c r="BT78" s="1"/>
-      <c r="BU78" s="1"/>
-      <c r="BV78" s="1"/>
-      <c r="BW78" s="1"/>
-      <c r="BX78" s="1"/>
-      <c r="BY78" s="1"/>
-      <c r="BZ78" s="1"/>
-      <c r="CA78" s="1"/>
-      <c r="CB78" s="1"/>
-      <c r="CC78" s="1"/>
-      <c r="CD78" s="1"/>
-      <c r="CE78" s="1"/>
-      <c r="CF78" s="1"/>
-      <c r="CG78" s="1"/>
-      <c r="CH78" s="1"/>
-      <c r="CI78" s="1"/>
-      <c r="CJ78" s="1"/>
-      <c r="CK78" s="1"/>
-      <c r="CL78" s="1"/>
-      <c r="CM78" s="1"/>
-      <c r="CN78" s="1"/>
-      <c r="CO78" s="1"/>
-      <c r="CP78" s="1"/>
-      <c r="CQ78" s="1"/>
-      <c r="CR78" s="1"/>
-      <c r="CS78" s="1"/>
-      <c r="CT78" s="1"/>
-      <c r="CU78" s="1"/>
+    <row r="78" spans="1:99" s="20" customFormat="1">
+      <c r="A78"/>
+      <c r="B78" s="21"/>
+      <c r="C78" s="30" t="s">
+        <v>106</v>
+      </c>
+      <c r="D78" s="21"/>
+      <c r="E78" s="21"/>
+      <c r="F78" s="21" t="s">
+        <v>57</v>
+      </c>
+      <c r="G78" s="21"/>
+      <c r="H78" s="21"/>
+      <c r="I78" s="21"/>
+      <c r="J78" s="21"/>
+      <c r="K78" s="21"/>
+      <c r="L78" s="21"/>
+      <c r="M78" s="21"/>
+      <c r="N78" s="21"/>
+      <c r="O78" s="21"/>
+      <c r="P78" s="21"/>
+      <c r="Q78" s="21"/>
+      <c r="R78" s="21"/>
+      <c r="S78" s="21"/>
+      <c r="T78" s="21"/>
+      <c r="U78" s="21"/>
+      <c r="V78" s="21"/>
+      <c r="W78" s="21"/>
+      <c r="X78" s="21"/>
+      <c r="Y78" s="21"/>
+      <c r="Z78" s="21"/>
+      <c r="AA78" s="21"/>
+      <c r="AB78" s="21"/>
+      <c r="AC78" s="21"/>
+      <c r="AD78" s="21"/>
+      <c r="AE78" s="21"/>
+      <c r="AF78" s="21"/>
+      <c r="AG78" s="21"/>
+      <c r="AH78" s="21"/>
+      <c r="AI78" s="21"/>
+      <c r="AJ78" s="21"/>
+      <c r="AK78" s="21"/>
+      <c r="AL78" s="21"/>
+      <c r="AM78" s="21"/>
+      <c r="AN78" s="21"/>
+      <c r="AO78" s="21"/>
+      <c r="AP78" s="21"/>
+      <c r="AQ78" s="21"/>
+      <c r="AR78" s="21"/>
+      <c r="AS78" s="21"/>
+      <c r="AT78" s="21"/>
+      <c r="AU78" s="21"/>
+      <c r="AV78" s="21"/>
+      <c r="AW78" s="21"/>
+      <c r="AX78" s="21"/>
+      <c r="AY78" s="21"/>
+      <c r="AZ78" s="21"/>
+      <c r="BA78" s="21"/>
+      <c r="BB78" s="21"/>
+      <c r="BC78" s="21"/>
+      <c r="BD78" s="21"/>
+      <c r="BE78" s="21"/>
+      <c r="BF78" s="21"/>
+      <c r="BG78" s="21"/>
+      <c r="BH78" s="21"/>
+      <c r="BI78" s="21"/>
+      <c r="BJ78" s="21"/>
+      <c r="BK78" s="21"/>
+      <c r="BL78" s="21"/>
+      <c r="BM78" s="21"/>
+      <c r="BN78" s="21"/>
+      <c r="BO78" s="21"/>
+      <c r="BP78" s="21"/>
+      <c r="BQ78" s="21"/>
+      <c r="BR78" s="21"/>
+      <c r="BS78" s="21"/>
+      <c r="BT78" s="21"/>
+      <c r="BU78" s="21"/>
+      <c r="BV78" s="21"/>
+      <c r="BW78" s="21"/>
+      <c r="BX78" s="21"/>
+      <c r="BY78" s="21"/>
+      <c r="BZ78" s="21"/>
+      <c r="CA78" s="21"/>
+      <c r="CB78" s="21"/>
+      <c r="CC78" s="21"/>
+      <c r="CD78" s="21"/>
+      <c r="CE78" s="21"/>
+      <c r="CF78" s="21"/>
+      <c r="CG78" s="21"/>
+      <c r="CH78" s="21"/>
+      <c r="CI78" s="21"/>
+      <c r="CJ78" s="21"/>
+      <c r="CK78" s="21"/>
+      <c r="CL78" s="21"/>
+      <c r="CM78" s="21"/>
+      <c r="CN78" s="21"/>
+      <c r="CO78" s="21"/>
+      <c r="CP78" s="21"/>
+      <c r="CQ78" s="21"/>
+      <c r="CR78" s="21"/>
+      <c r="CS78" s="21"/>
+      <c r="CT78" s="21"/>
+      <c r="CU78" s="21"/>
     </row>
     <row r="79" spans="1:99">
-      <c r="B79" s="22"/>
+      <c r="A79" s="40" t="s">
+        <v>162</v>
+      </c>
+      <c r="B79" s="41"/>
       <c r="C79" s="38" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D79" s="22"/>
       <c r="E79" s="22"/>
@@ -8912,23 +8887,23 @@
         <v>10</v>
       </c>
       <c r="B80" s="22">
-        <v>653</v>
+        <v>651</v>
       </c>
       <c r="C80" s="29" t="s">
-        <v>100</v>
+        <v>108</v>
       </c>
       <c r="D80" s="22" t="s">
         <v>59</v>
       </c>
       <c r="E80" s="22"/>
       <c r="F80" s="22"/>
-      <c r="G80" s="22" t="s">
-        <v>145</v>
+      <c r="G80" s="37" t="s">
+        <v>143</v>
       </c>
       <c r="H80" s="23"/>
       <c r="I80" s="23"/>
       <c r="J80" s="23" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K80" s="22"/>
       <c r="L80" s="1"/>
@@ -9035,18 +9010,18 @@
         <v>10</v>
       </c>
       <c r="B81" s="22">
-        <v>654</v>
+        <v>652</v>
       </c>
       <c r="C81" s="29" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D81" s="22" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E81" s="22"/>
       <c r="F81" s="22"/>
-      <c r="G81" s="22" t="s">
-        <v>146</v>
+      <c r="G81" s="37" t="s">
+        <v>144</v>
       </c>
       <c r="H81" s="23"/>
       <c r="I81" s="23"/>
@@ -9154,28 +9129,17 @@
       <c r="CU81" s="1"/>
     </row>
     <row r="82" spans="1:99">
-      <c r="A82" t="s">
-        <v>10</v>
-      </c>
-      <c r="B82" s="22">
-        <v>655</v>
-      </c>
-      <c r="C82" s="29" t="s">
-        <v>102</v>
-      </c>
-      <c r="D82" s="22" t="s">
-        <v>61</v>
-      </c>
+      <c r="B82" s="22"/>
+      <c r="C82" s="38" t="s">
+        <v>109</v>
+      </c>
+      <c r="D82" s="22"/>
       <c r="E82" s="22"/>
       <c r="F82" s="22"/>
-      <c r="G82" s="22" t="s">
-        <v>147</v>
-      </c>
+      <c r="G82" s="22"/>
       <c r="H82" s="23"/>
       <c r="I82" s="23"/>
-      <c r="J82" s="23" t="s">
-        <v>39</v>
-      </c>
+      <c r="J82" s="23"/>
       <c r="K82" s="22"/>
       <c r="L82" s="1"/>
       <c r="M82" s="1"/>
@@ -9230,21 +9194,11 @@
       <c r="BJ82" s="1"/>
       <c r="BK82" s="1"/>
       <c r="BL82" s="1"/>
-      <c r="BM82" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="BN82" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="BO82" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="BP82" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="BQ82" s="1" t="s">
-        <v>137</v>
-      </c>
+      <c r="BM82" s="1"/>
+      <c r="BN82" s="1"/>
+      <c r="BO82" s="1"/>
+      <c r="BP82" s="1"/>
+      <c r="BQ82" s="1"/>
       <c r="BR82" s="1"/>
       <c r="BS82" s="1"/>
       <c r="BT82" s="1"/>
@@ -9281,18 +9235,18 @@
         <v>10</v>
       </c>
       <c r="B83" s="22">
-        <v>656</v>
+        <v>653</v>
       </c>
       <c r="C83" s="29" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="D83" s="22" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E83" s="22"/>
       <c r="F83" s="22"/>
       <c r="G83" s="22" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="H83" s="23"/>
       <c r="I83" s="23"/>
@@ -9404,18 +9358,18 @@
         <v>10</v>
       </c>
       <c r="B84" s="22">
-        <v>657</v>
-      </c>
-      <c r="C84" s="38" t="s">
-        <v>104</v>
+        <v>654</v>
+      </c>
+      <c r="C84" s="29" t="s">
+        <v>101</v>
       </c>
       <c r="D84" s="22" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="E84" s="22"/>
       <c r="F84" s="22"/>
       <c r="G84" s="22" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="H84" s="23"/>
       <c r="I84" s="23"/>
@@ -9527,10 +9481,10 @@
         <v>10</v>
       </c>
       <c r="B85" s="22">
-        <v>658</v>
-      </c>
-      <c r="C85" s="38" t="s">
-        <v>160</v>
+        <v>655</v>
+      </c>
+      <c r="C85" s="29" t="s">
+        <v>102</v>
       </c>
       <c r="D85" s="22" t="s">
         <v>61</v>
@@ -9538,7 +9492,7 @@
       <c r="E85" s="22"/>
       <c r="F85" s="22"/>
       <c r="G85" s="22" t="s">
-        <v>161</v>
+        <v>147</v>
       </c>
       <c r="H85" s="23"/>
       <c r="I85" s="23"/>
@@ -9650,18 +9604,18 @@
         <v>10</v>
       </c>
       <c r="B86" s="22">
-        <v>659</v>
-      </c>
-      <c r="C86" s="38" t="s">
-        <v>141</v>
+        <v>656</v>
+      </c>
+      <c r="C86" s="29" t="s">
+        <v>103</v>
       </c>
       <c r="D86" s="22" t="s">
-        <v>71</v>
+        <v>61</v>
       </c>
       <c r="E86" s="22"/>
       <c r="F86" s="22"/>
       <c r="G86" s="22" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="H86" s="23"/>
       <c r="I86" s="23"/>
@@ -9773,18 +9727,18 @@
         <v>10</v>
       </c>
       <c r="B87" s="22">
-        <v>660</v>
+        <v>657</v>
       </c>
       <c r="C87" s="38" t="s">
-        <v>142</v>
+        <v>104</v>
       </c>
       <c r="D87" s="22" t="s">
-        <v>71</v>
+        <v>58</v>
       </c>
       <c r="E87" s="22"/>
       <c r="F87" s="22"/>
       <c r="G87" s="22" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="H87" s="23"/>
       <c r="I87" s="23"/>
@@ -9896,18 +9850,18 @@
         <v>10</v>
       </c>
       <c r="B88" s="22">
-        <v>601</v>
+        <v>658</v>
       </c>
       <c r="C88" s="38" t="s">
-        <v>105</v>
+        <v>160</v>
       </c>
       <c r="D88" s="22" t="s">
-        <v>81</v>
+        <v>61</v>
       </c>
       <c r="E88" s="22"/>
       <c r="F88" s="22"/>
       <c r="G88" s="22" t="s">
-        <v>150</v>
+        <v>161</v>
       </c>
       <c r="H88" s="23"/>
       <c r="I88" s="23"/>
@@ -10015,15 +9969,28 @@
       <c r="CU88" s="1"/>
     </row>
     <row r="89" spans="1:99">
-      <c r="B89" s="22"/>
-      <c r="C89" s="29"/>
-      <c r="D89" s="22"/>
+      <c r="A89" t="s">
+        <v>10</v>
+      </c>
+      <c r="B89" s="22">
+        <v>659</v>
+      </c>
+      <c r="C89" s="38" t="s">
+        <v>141</v>
+      </c>
+      <c r="D89" s="22" t="s">
+        <v>71</v>
+      </c>
       <c r="E89" s="22"/>
       <c r="F89" s="22"/>
-      <c r="G89" s="22"/>
+      <c r="G89" s="22" t="s">
+        <v>152</v>
+      </c>
       <c r="H89" s="23"/>
       <c r="I89" s="23"/>
-      <c r="J89" s="23"/>
+      <c r="J89" s="23" t="s">
+        <v>39</v>
+      </c>
       <c r="K89" s="22"/>
       <c r="L89" s="1"/>
       <c r="M89" s="1"/>
@@ -10078,11 +10045,21 @@
       <c r="BJ89" s="1"/>
       <c r="BK89" s="1"/>
       <c r="BL89" s="1"/>
-      <c r="BM89" s="1"/>
-      <c r="BN89" s="1"/>
-      <c r="BO89" s="1"/>
-      <c r="BP89" s="1"/>
-      <c r="BQ89" s="1"/>
+      <c r="BM89" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="BN89" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="BO89" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="BP89" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="BQ89" s="1" t="s">
+        <v>137</v>
+      </c>
       <c r="BR89" s="1"/>
       <c r="BS89" s="1"/>
       <c r="BT89" s="1"/>
@@ -10114,124 +10091,152 @@
       <c r="CT89" s="1"/>
       <c r="CU89" s="1"/>
     </row>
-    <row r="90" spans="1:99" s="20" customFormat="1">
-      <c r="A90"/>
-      <c r="B90" s="21"/>
-      <c r="C90" s="30" t="s">
-        <v>110</v>
-      </c>
-      <c r="D90" s="21"/>
-      <c r="E90" s="21"/>
-      <c r="F90" s="21"/>
-      <c r="G90" s="21"/>
-      <c r="H90" s="21"/>
-      <c r="I90" s="21"/>
-      <c r="J90" s="21"/>
-      <c r="K90" s="21"/>
-      <c r="L90" s="21"/>
-      <c r="M90" s="21"/>
-      <c r="N90" s="21"/>
-      <c r="O90" s="21"/>
-      <c r="P90" s="21"/>
-      <c r="Q90" s="21"/>
-      <c r="R90" s="21"/>
-      <c r="S90" s="21"/>
-      <c r="T90" s="21"/>
-      <c r="U90" s="21"/>
-      <c r="V90" s="21"/>
-      <c r="W90" s="21"/>
-      <c r="X90" s="21"/>
-      <c r="Y90" s="21"/>
-      <c r="Z90" s="21"/>
-      <c r="AA90" s="21"/>
-      <c r="AB90" s="21"/>
-      <c r="AC90" s="21"/>
-      <c r="AD90" s="21"/>
-      <c r="AE90" s="21"/>
-      <c r="AF90" s="21"/>
-      <c r="AG90" s="21"/>
-      <c r="AH90" s="21"/>
-      <c r="AI90" s="21"/>
-      <c r="AJ90" s="21"/>
-      <c r="AK90" s="21"/>
-      <c r="AL90" s="21"/>
-      <c r="AM90" s="21"/>
-      <c r="AN90" s="21"/>
-      <c r="AO90" s="21"/>
-      <c r="AP90" s="21"/>
-      <c r="AQ90" s="21"/>
-      <c r="AR90" s="21"/>
-      <c r="AS90" s="21"/>
-      <c r="AT90" s="21"/>
-      <c r="AU90" s="21"/>
-      <c r="AV90" s="21"/>
-      <c r="AW90" s="21"/>
-      <c r="AX90" s="21"/>
-      <c r="AY90" s="21"/>
-      <c r="AZ90" s="21"/>
-      <c r="BA90" s="21"/>
-      <c r="BB90" s="21"/>
-      <c r="BC90" s="21"/>
-      <c r="BD90" s="21"/>
-      <c r="BE90" s="21"/>
-      <c r="BF90" s="21"/>
-      <c r="BG90" s="21"/>
-      <c r="BH90" s="21"/>
-      <c r="BI90" s="21"/>
-      <c r="BJ90" s="21"/>
-      <c r="BK90" s="21"/>
-      <c r="BL90" s="21"/>
-      <c r="BM90" s="21"/>
-      <c r="BN90" s="21"/>
-      <c r="BO90" s="21"/>
-      <c r="BP90" s="21"/>
-      <c r="BQ90" s="21"/>
-      <c r="BR90" s="21"/>
-      <c r="BS90" s="21"/>
-      <c r="BT90" s="21"/>
-      <c r="BU90" s="21"/>
-      <c r="BV90" s="21"/>
-      <c r="BW90" s="21"/>
-      <c r="BX90" s="21"/>
-      <c r="BY90" s="21"/>
-      <c r="BZ90" s="21"/>
-      <c r="CA90" s="21"/>
-      <c r="CB90" s="21"/>
-      <c r="CC90" s="21"/>
-      <c r="CD90" s="21"/>
-      <c r="CE90" s="21"/>
-      <c r="CF90" s="21"/>
-      <c r="CG90" s="21"/>
-      <c r="CH90" s="21"/>
-      <c r="CI90" s="21"/>
-      <c r="CJ90" s="21"/>
-      <c r="CK90" s="21"/>
-      <c r="CL90" s="21"/>
-      <c r="CM90" s="21"/>
-      <c r="CN90" s="21"/>
-      <c r="CO90" s="21"/>
-      <c r="CP90" s="21"/>
-      <c r="CQ90" s="21"/>
-      <c r="CR90" s="21"/>
-      <c r="CS90" s="21"/>
-      <c r="CT90" s="21"/>
-      <c r="CU90" s="21"/>
+    <row r="90" spans="1:99">
+      <c r="A90" t="s">
+        <v>10</v>
+      </c>
+      <c r="B90" s="22">
+        <v>660</v>
+      </c>
+      <c r="C90" s="38" t="s">
+        <v>142</v>
+      </c>
+      <c r="D90" s="22" t="s">
+        <v>71</v>
+      </c>
+      <c r="E90" s="22"/>
+      <c r="F90" s="22"/>
+      <c r="G90" s="22" t="s">
+        <v>151</v>
+      </c>
+      <c r="H90" s="23"/>
+      <c r="I90" s="23"/>
+      <c r="J90" s="23" t="s">
+        <v>39</v>
+      </c>
+      <c r="K90" s="22"/>
+      <c r="L90" s="1"/>
+      <c r="M90" s="1"/>
+      <c r="N90" s="1"/>
+      <c r="O90" s="1"/>
+      <c r="P90" s="1"/>
+      <c r="Q90" s="1"/>
+      <c r="R90" s="1"/>
+      <c r="S90" s="1"/>
+      <c r="T90" s="1"/>
+      <c r="U90" s="1"/>
+      <c r="V90" s="1"/>
+      <c r="W90" s="1"/>
+      <c r="X90" s="1"/>
+      <c r="Y90" s="1"/>
+      <c r="Z90" s="1"/>
+      <c r="AA90" s="1"/>
+      <c r="AB90" s="1"/>
+      <c r="AC90" s="1"/>
+      <c r="AD90" s="1"/>
+      <c r="AE90" s="1"/>
+      <c r="AF90" s="1"/>
+      <c r="AG90" s="1"/>
+      <c r="AH90" s="1"/>
+      <c r="AI90" s="1"/>
+      <c r="AJ90" s="1"/>
+      <c r="AK90" s="1"/>
+      <c r="AL90" s="1"/>
+      <c r="AM90" s="1"/>
+      <c r="AN90" s="1"/>
+      <c r="AO90" s="1"/>
+      <c r="AP90" s="1"/>
+      <c r="AQ90" s="1"/>
+      <c r="AR90" s="1"/>
+      <c r="AS90" s="1"/>
+      <c r="AT90" s="1"/>
+      <c r="AU90" s="1"/>
+      <c r="AV90" s="1"/>
+      <c r="AW90" s="1"/>
+      <c r="AX90" s="1"/>
+      <c r="AY90" s="1"/>
+      <c r="AZ90" s="1"/>
+      <c r="BA90" s="1"/>
+      <c r="BB90" s="1"/>
+      <c r="BC90" s="1"/>
+      <c r="BD90" s="1"/>
+      <c r="BE90" s="1"/>
+      <c r="BF90" s="1"/>
+      <c r="BG90" s="1"/>
+      <c r="BH90" s="1"/>
+      <c r="BI90" s="1"/>
+      <c r="BJ90" s="1"/>
+      <c r="BK90" s="1"/>
+      <c r="BL90" s="1"/>
+      <c r="BM90" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="BN90" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="BO90" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="BP90" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="BQ90" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="BR90" s="1"/>
+      <c r="BS90" s="1"/>
+      <c r="BT90" s="1"/>
+      <c r="BU90" s="1"/>
+      <c r="BV90" s="1"/>
+      <c r="BW90" s="1"/>
+      <c r="BX90" s="1"/>
+      <c r="BY90" s="1"/>
+      <c r="BZ90" s="1"/>
+      <c r="CA90" s="1"/>
+      <c r="CB90" s="1"/>
+      <c r="CC90" s="1"/>
+      <c r="CD90" s="1"/>
+      <c r="CE90" s="1"/>
+      <c r="CF90" s="1"/>
+      <c r="CG90" s="1"/>
+      <c r="CH90" s="1"/>
+      <c r="CI90" s="1"/>
+      <c r="CJ90" s="1"/>
+      <c r="CK90" s="1"/>
+      <c r="CL90" s="1"/>
+      <c r="CM90" s="1"/>
+      <c r="CN90" s="1"/>
+      <c r="CO90" s="1"/>
+      <c r="CP90" s="1"/>
+      <c r="CQ90" s="1"/>
+      <c r="CR90" s="1"/>
+      <c r="CS90" s="1"/>
+      <c r="CT90" s="1"/>
+      <c r="CU90" s="1"/>
     </row>
     <row r="91" spans="1:99">
       <c r="A91" t="s">
         <v>10</v>
       </c>
-      <c r="B91" s="22"/>
-      <c r="C91" s="37" t="s">
-        <v>111</v>
-      </c>
-      <c r="D91" s="22"/>
+      <c r="B91" s="22">
+        <v>601</v>
+      </c>
+      <c r="C91" s="38" t="s">
+        <v>105</v>
+      </c>
+      <c r="D91" s="22" t="s">
+        <v>81</v>
+      </c>
       <c r="E91" s="22"/>
       <c r="F91" s="22"/>
-      <c r="G91" s="22"/>
+      <c r="G91" s="22" t="s">
+        <v>150</v>
+      </c>
       <c r="H91" s="23"/>
       <c r="I91" s="23"/>
-      <c r="J91" s="23"/>
+      <c r="J91" s="23" t="s">
+        <v>39</v>
+      </c>
       <c r="K91" s="22"/>
       <c r="L91" s="1"/>
       <c r="M91" s="1"/>
@@ -10286,11 +10291,21 @@
       <c r="BJ91" s="1"/>
       <c r="BK91" s="1"/>
       <c r="BL91" s="1"/>
-      <c r="BM91" s="1"/>
-      <c r="BN91" s="1"/>
-      <c r="BO91" s="1"/>
-      <c r="BP91" s="1"/>
-      <c r="BQ91" s="1"/>
+      <c r="BM91" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="BN91" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="BO91" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="BP91" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="BQ91" s="1" t="s">
+        <v>137</v>
+      </c>
       <c r="BR91" s="1"/>
       <c r="BS91" s="1"/>
       <c r="BT91" s="1"/>
@@ -10323,13 +10338,8 @@
       <c r="CU91" s="1"/>
     </row>
     <row r="92" spans="1:99">
-      <c r="A92" t="s">
-        <v>10</v>
-      </c>
       <c r="B92" s="22"/>
-      <c r="C92" s="37" t="s">
-        <v>112</v>
-      </c>
+      <c r="C92" s="29"/>
       <c r="D92" s="22"/>
       <c r="E92" s="22"/>
       <c r="F92" s="22"/>
@@ -10427,230 +10437,229 @@
       <c r="CT92" s="1"/>
       <c r="CU92" s="1"/>
     </row>
-    <row r="93" spans="1:99">
-      <c r="B93" s="22"/>
-      <c r="C93" s="29"/>
-      <c r="D93" s="22"/>
-      <c r="E93" s="22"/>
-      <c r="F93" s="22"/>
-      <c r="G93" s="22"/>
-      <c r="H93" s="23"/>
-      <c r="I93" s="23"/>
-      <c r="J93" s="23"/>
-      <c r="K93" s="22"/>
-      <c r="L93" s="1"/>
-      <c r="M93" s="1"/>
-      <c r="N93" s="1"/>
-      <c r="O93" s="1"/>
-      <c r="P93" s="1"/>
-      <c r="Q93" s="1"/>
-      <c r="R93" s="1"/>
-      <c r="S93" s="1"/>
-      <c r="T93" s="1"/>
-      <c r="U93" s="1"/>
-      <c r="V93" s="1"/>
-      <c r="W93" s="1"/>
-      <c r="X93" s="1"/>
-      <c r="Y93" s="1"/>
-      <c r="Z93" s="1"/>
-      <c r="AA93" s="1"/>
-      <c r="AB93" s="1"/>
-      <c r="AC93" s="1"/>
-      <c r="AD93" s="1"/>
-      <c r="AE93" s="1"/>
-      <c r="AF93" s="1"/>
-      <c r="AG93" s="1"/>
-      <c r="AH93" s="1"/>
-      <c r="AI93" s="1"/>
-      <c r="AJ93" s="1"/>
-      <c r="AK93" s="1"/>
-      <c r="AL93" s="1"/>
-      <c r="AM93" s="1"/>
-      <c r="AN93" s="1"/>
-      <c r="AO93" s="1"/>
-      <c r="AP93" s="1"/>
-      <c r="AQ93" s="1"/>
-      <c r="AR93" s="1"/>
-      <c r="AS93" s="1"/>
-      <c r="AT93" s="1"/>
-      <c r="AU93" s="1"/>
-      <c r="AV93" s="1"/>
-      <c r="AW93" s="1"/>
-      <c r="AX93" s="1"/>
-      <c r="AY93" s="1"/>
-      <c r="AZ93" s="1"/>
-      <c r="BA93" s="1"/>
-      <c r="BB93" s="1"/>
-      <c r="BC93" s="1"/>
-      <c r="BD93" s="1"/>
-      <c r="BE93" s="1"/>
-      <c r="BF93" s="1"/>
-      <c r="BG93" s="1"/>
-      <c r="BH93" s="1"/>
-      <c r="BI93" s="1"/>
-      <c r="BJ93" s="1"/>
-      <c r="BK93" s="1"/>
-      <c r="BL93" s="1"/>
-      <c r="BM93" s="1"/>
-      <c r="BN93" s="1"/>
-      <c r="BO93" s="1"/>
-      <c r="BP93" s="1"/>
-      <c r="BQ93" s="1"/>
-      <c r="BR93" s="1"/>
-      <c r="BS93" s="1"/>
-      <c r="BT93" s="1"/>
-      <c r="BU93" s="1"/>
-      <c r="BV93" s="1"/>
-      <c r="BW93" s="1"/>
-      <c r="BX93" s="1"/>
-      <c r="BY93" s="1"/>
-      <c r="BZ93" s="1"/>
-      <c r="CA93" s="1"/>
-      <c r="CB93" s="1"/>
-      <c r="CC93" s="1"/>
-      <c r="CD93" s="1"/>
-      <c r="CE93" s="1"/>
-      <c r="CF93" s="1"/>
-      <c r="CG93" s="1"/>
-      <c r="CH93" s="1"/>
-      <c r="CI93" s="1"/>
-      <c r="CJ93" s="1"/>
-      <c r="CK93" s="1"/>
-      <c r="CL93" s="1"/>
-      <c r="CM93" s="1"/>
-      <c r="CN93" s="1"/>
-      <c r="CO93" s="1"/>
-      <c r="CP93" s="1"/>
-      <c r="CQ93" s="1"/>
-      <c r="CR93" s="1"/>
-      <c r="CS93" s="1"/>
-      <c r="CT93" s="1"/>
-      <c r="CU93" s="1"/>
-    </row>
-    <row r="94" spans="1:99" s="20" customFormat="1">
-      <c r="A94"/>
-      <c r="B94" s="21"/>
-      <c r="C94" s="30" t="s">
-        <v>54</v>
-      </c>
-      <c r="D94" s="21"/>
-      <c r="E94" s="21"/>
-      <c r="F94" s="21"/>
-      <c r="G94" s="21"/>
-      <c r="H94" s="21"/>
-      <c r="I94" s="21"/>
-      <c r="J94" s="21"/>
-      <c r="K94" s="21"/>
-      <c r="L94" s="21"/>
-      <c r="M94" s="21"/>
-      <c r="N94" s="21"/>
-      <c r="O94" s="21"/>
-      <c r="P94" s="21"/>
-      <c r="Q94" s="21"/>
-      <c r="R94" s="21"/>
-      <c r="S94" s="21"/>
-      <c r="T94" s="21"/>
-      <c r="U94" s="21"/>
-      <c r="V94" s="21"/>
-      <c r="W94" s="21"/>
-      <c r="X94" s="21"/>
-      <c r="Y94" s="21"/>
-      <c r="Z94" s="21"/>
-      <c r="AA94" s="21"/>
-      <c r="AB94" s="21"/>
-      <c r="AC94" s="21"/>
-      <c r="AD94" s="21"/>
-      <c r="AE94" s="21"/>
-      <c r="AF94" s="21"/>
-      <c r="AG94" s="21"/>
-      <c r="AH94" s="21"/>
-      <c r="AI94" s="21"/>
-      <c r="AJ94" s="21"/>
-      <c r="AK94" s="21"/>
-      <c r="AL94" s="21"/>
-      <c r="AM94" s="21"/>
-      <c r="AN94" s="21"/>
-      <c r="AO94" s="21"/>
-      <c r="AP94" s="21"/>
-      <c r="AQ94" s="21"/>
-      <c r="AR94" s="21"/>
-      <c r="AS94" s="21"/>
-      <c r="AT94" s="21"/>
-      <c r="AU94" s="21"/>
-      <c r="AV94" s="21"/>
-      <c r="AW94" s="21"/>
-      <c r="AX94" s="21"/>
-      <c r="AY94" s="21"/>
-      <c r="AZ94" s="21"/>
-      <c r="BA94" s="21"/>
-      <c r="BB94" s="21"/>
-      <c r="BC94" s="21"/>
-      <c r="BD94" s="21"/>
-      <c r="BE94" s="21"/>
-      <c r="BF94" s="21"/>
-      <c r="BG94" s="21"/>
-      <c r="BH94" s="21"/>
-      <c r="BI94" s="21"/>
-      <c r="BJ94" s="21"/>
-      <c r="BK94" s="21"/>
-      <c r="BL94" s="21"/>
-      <c r="BM94" s="21"/>
-      <c r="BN94" s="21"/>
-      <c r="BO94" s="21"/>
-      <c r="BP94" s="21"/>
-      <c r="BQ94" s="21"/>
-      <c r="BR94" s="21"/>
-      <c r="BS94" s="21"/>
-      <c r="BT94" s="21"/>
-      <c r="BU94" s="21"/>
-      <c r="BV94" s="21"/>
-      <c r="BW94" s="21"/>
-      <c r="BX94" s="21"/>
-      <c r="BY94" s="21"/>
-      <c r="BZ94" s="21"/>
-      <c r="CA94" s="21"/>
-      <c r="CB94" s="21"/>
-      <c r="CC94" s="21"/>
-      <c r="CD94" s="21"/>
-      <c r="CE94" s="21"/>
-      <c r="CF94" s="21"/>
-      <c r="CG94" s="21"/>
-      <c r="CH94" s="21"/>
-      <c r="CI94" s="21"/>
-      <c r="CJ94" s="21"/>
-      <c r="CK94" s="21"/>
-      <c r="CL94" s="21"/>
-      <c r="CM94" s="21"/>
-      <c r="CN94" s="21"/>
-      <c r="CO94" s="21"/>
-      <c r="CP94" s="21"/>
-      <c r="CQ94" s="21"/>
-      <c r="CR94" s="21"/>
-      <c r="CS94" s="21"/>
-      <c r="CT94" s="21"/>
-      <c r="CU94" s="21"/>
+    <row r="93" spans="1:99" s="20" customFormat="1">
+      <c r="A93"/>
+      <c r="B93" s="21"/>
+      <c r="C93" s="30" t="s">
+        <v>110</v>
+      </c>
+      <c r="D93" s="21"/>
+      <c r="E93" s="21"/>
+      <c r="F93" s="21"/>
+      <c r="G93" s="21"/>
+      <c r="H93" s="21"/>
+      <c r="I93" s="21"/>
+      <c r="J93" s="21"/>
+      <c r="K93" s="21"/>
+      <c r="L93" s="21"/>
+      <c r="M93" s="21"/>
+      <c r="N93" s="21"/>
+      <c r="O93" s="21"/>
+      <c r="P93" s="21"/>
+      <c r="Q93" s="21"/>
+      <c r="R93" s="21"/>
+      <c r="S93" s="21"/>
+      <c r="T93" s="21"/>
+      <c r="U93" s="21"/>
+      <c r="V93" s="21"/>
+      <c r="W93" s="21"/>
+      <c r="X93" s="21"/>
+      <c r="Y93" s="21"/>
+      <c r="Z93" s="21"/>
+      <c r="AA93" s="21"/>
+      <c r="AB93" s="21"/>
+      <c r="AC93" s="21"/>
+      <c r="AD93" s="21"/>
+      <c r="AE93" s="21"/>
+      <c r="AF93" s="21"/>
+      <c r="AG93" s="21"/>
+      <c r="AH93" s="21"/>
+      <c r="AI93" s="21"/>
+      <c r="AJ93" s="21"/>
+      <c r="AK93" s="21"/>
+      <c r="AL93" s="21"/>
+      <c r="AM93" s="21"/>
+      <c r="AN93" s="21"/>
+      <c r="AO93" s="21"/>
+      <c r="AP93" s="21"/>
+      <c r="AQ93" s="21"/>
+      <c r="AR93" s="21"/>
+      <c r="AS93" s="21"/>
+      <c r="AT93" s="21"/>
+      <c r="AU93" s="21"/>
+      <c r="AV93" s="21"/>
+      <c r="AW93" s="21"/>
+      <c r="AX93" s="21"/>
+      <c r="AY93" s="21"/>
+      <c r="AZ93" s="21"/>
+      <c r="BA93" s="21"/>
+      <c r="BB93" s="21"/>
+      <c r="BC93" s="21"/>
+      <c r="BD93" s="21"/>
+      <c r="BE93" s="21"/>
+      <c r="BF93" s="21"/>
+      <c r="BG93" s="21"/>
+      <c r="BH93" s="21"/>
+      <c r="BI93" s="21"/>
+      <c r="BJ93" s="21"/>
+      <c r="BK93" s="21"/>
+      <c r="BL93" s="21"/>
+      <c r="BM93" s="21"/>
+      <c r="BN93" s="21"/>
+      <c r="BO93" s="21"/>
+      <c r="BP93" s="21"/>
+      <c r="BQ93" s="21"/>
+      <c r="BR93" s="21"/>
+      <c r="BS93" s="21"/>
+      <c r="BT93" s="21"/>
+      <c r="BU93" s="21"/>
+      <c r="BV93" s="21"/>
+      <c r="BW93" s="21"/>
+      <c r="BX93" s="21"/>
+      <c r="BY93" s="21"/>
+      <c r="BZ93" s="21"/>
+      <c r="CA93" s="21"/>
+      <c r="CB93" s="21"/>
+      <c r="CC93" s="21"/>
+      <c r="CD93" s="21"/>
+      <c r="CE93" s="21"/>
+      <c r="CF93" s="21"/>
+      <c r="CG93" s="21"/>
+      <c r="CH93" s="21"/>
+      <c r="CI93" s="21"/>
+      <c r="CJ93" s="21"/>
+      <c r="CK93" s="21"/>
+      <c r="CL93" s="21"/>
+      <c r="CM93" s="21"/>
+      <c r="CN93" s="21"/>
+      <c r="CO93" s="21"/>
+      <c r="CP93" s="21"/>
+      <c r="CQ93" s="21"/>
+      <c r="CR93" s="21"/>
+      <c r="CS93" s="21"/>
+      <c r="CT93" s="21"/>
+      <c r="CU93" s="21"/>
+    </row>
+    <row r="94" spans="1:99">
+      <c r="A94" t="s">
+        <v>10</v>
+      </c>
+      <c r="B94" s="22"/>
+      <c r="C94" s="37" t="s">
+        <v>111</v>
+      </c>
+      <c r="D94" s="22"/>
+      <c r="E94" s="22"/>
+      <c r="F94" s="22"/>
+      <c r="G94" s="22"/>
+      <c r="H94" s="23"/>
+      <c r="I94" s="23"/>
+      <c r="J94" s="23"/>
+      <c r="K94" s="22"/>
+      <c r="L94" s="1"/>
+      <c r="M94" s="1"/>
+      <c r="N94" s="1"/>
+      <c r="O94" s="1"/>
+      <c r="P94" s="1"/>
+      <c r="Q94" s="1"/>
+      <c r="R94" s="1"/>
+      <c r="S94" s="1"/>
+      <c r="T94" s="1"/>
+      <c r="U94" s="1"/>
+      <c r="V94" s="1"/>
+      <c r="W94" s="1"/>
+      <c r="X94" s="1"/>
+      <c r="Y94" s="1"/>
+      <c r="Z94" s="1"/>
+      <c r="AA94" s="1"/>
+      <c r="AB94" s="1"/>
+      <c r="AC94" s="1"/>
+      <c r="AD94" s="1"/>
+      <c r="AE94" s="1"/>
+      <c r="AF94" s="1"/>
+      <c r="AG94" s="1"/>
+      <c r="AH94" s="1"/>
+      <c r="AI94" s="1"/>
+      <c r="AJ94" s="1"/>
+      <c r="AK94" s="1"/>
+      <c r="AL94" s="1"/>
+      <c r="AM94" s="1"/>
+      <c r="AN94" s="1"/>
+      <c r="AO94" s="1"/>
+      <c r="AP94" s="1"/>
+      <c r="AQ94" s="1"/>
+      <c r="AR94" s="1"/>
+      <c r="AS94" s="1"/>
+      <c r="AT94" s="1"/>
+      <c r="AU94" s="1"/>
+      <c r="AV94" s="1"/>
+      <c r="AW94" s="1"/>
+      <c r="AX94" s="1"/>
+      <c r="AY94" s="1"/>
+      <c r="AZ94" s="1"/>
+      <c r="BA94" s="1"/>
+      <c r="BB94" s="1"/>
+      <c r="BC94" s="1"/>
+      <c r="BD94" s="1"/>
+      <c r="BE94" s="1"/>
+      <c r="BF94" s="1"/>
+      <c r="BG94" s="1"/>
+      <c r="BH94" s="1"/>
+      <c r="BI94" s="1"/>
+      <c r="BJ94" s="1"/>
+      <c r="BK94" s="1"/>
+      <c r="BL94" s="1"/>
+      <c r="BM94" s="1"/>
+      <c r="BN94" s="1"/>
+      <c r="BO94" s="1"/>
+      <c r="BP94" s="1"/>
+      <c r="BQ94" s="1"/>
+      <c r="BR94" s="1"/>
+      <c r="BS94" s="1"/>
+      <c r="BT94" s="1"/>
+      <c r="BU94" s="1"/>
+      <c r="BV94" s="1"/>
+      <c r="BW94" s="1"/>
+      <c r="BX94" s="1"/>
+      <c r="BY94" s="1"/>
+      <c r="BZ94" s="1"/>
+      <c r="CA94" s="1"/>
+      <c r="CB94" s="1"/>
+      <c r="CC94" s="1"/>
+      <c r="CD94" s="1"/>
+      <c r="CE94" s="1"/>
+      <c r="CF94" s="1"/>
+      <c r="CG94" s="1"/>
+      <c r="CH94" s="1"/>
+      <c r="CI94" s="1"/>
+      <c r="CJ94" s="1"/>
+      <c r="CK94" s="1"/>
+      <c r="CL94" s="1"/>
+      <c r="CM94" s="1"/>
+      <c r="CN94" s="1"/>
+      <c r="CO94" s="1"/>
+      <c r="CP94" s="1"/>
+      <c r="CQ94" s="1"/>
+      <c r="CR94" s="1"/>
+      <c r="CS94" s="1"/>
+      <c r="CT94" s="1"/>
+      <c r="CU94" s="1"/>
     </row>
     <row r="95" spans="1:99">
       <c r="A95" t="s">
         <v>10</v>
       </c>
       <c r="B95" s="22"/>
-      <c r="C95" s="29" t="s">
-        <v>85</v>
-      </c>
-      <c r="D95" s="22" t="s">
-        <v>64</v>
-      </c>
-      <c r="E95" s="22" t="s">
-        <v>70</v>
-      </c>
+      <c r="C95" s="37" t="s">
+        <v>112</v>
+      </c>
+      <c r="D95" s="22"/>
+      <c r="E95" s="22"/>
       <c r="F95" s="22"/>
       <c r="G95" s="22"/>
       <c r="H95" s="23"/>
       <c r="I95" s="23"/>
-      <c r="J95" s="23" t="s">
-        <v>40</v>
-      </c>
+      <c r="J95" s="23"/>
       <c r="K95" s="22"/>
       <c r="L95" s="1"/>
       <c r="M95" s="1"/>
@@ -10844,8 +10853,8 @@
     <row r="97" spans="1:99" s="20" customFormat="1">
       <c r="A97"/>
       <c r="B97" s="21"/>
-      <c r="C97" s="28" t="s">
-        <v>62</v>
+      <c r="C97" s="30" t="s">
+        <v>54</v>
       </c>
       <c r="D97" s="21"/>
       <c r="E97" s="21"/>
@@ -10945,22 +10954,25 @@
       <c r="CU97" s="21"/>
     </row>
     <row r="98" spans="1:99">
+      <c r="A98" t="s">
+        <v>10</v>
+      </c>
       <c r="B98" s="22"/>
       <c r="C98" s="29" t="s">
-        <v>138</v>
+        <v>85</v>
       </c>
       <c r="D98" s="22" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="E98" s="22" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="F98" s="22"/>
       <c r="G98" s="22"/>
       <c r="H98" s="23"/>
       <c r="I98" s="23"/>
       <c r="J98" s="23" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K98" s="22"/>
       <c r="L98" s="1"/>
@@ -11016,21 +11028,11 @@
       <c r="BJ98" s="1"/>
       <c r="BK98" s="1"/>
       <c r="BL98" s="1"/>
-      <c r="BM98" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="BN98" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="BO98" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="BP98" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="BQ98" s="1" t="s">
-        <v>137</v>
-      </c>
+      <c r="BM98" s="1"/>
+      <c r="BN98" s="1"/>
+      <c r="BO98" s="1"/>
+      <c r="BP98" s="1"/>
+      <c r="BQ98" s="1"/>
       <c r="BR98" s="1"/>
       <c r="BS98" s="1"/>
       <c r="BT98" s="1"/>
@@ -11064,20 +11066,14 @@
     </row>
     <row r="99" spans="1:99">
       <c r="B99" s="22"/>
-      <c r="C99" s="29" t="s">
-        <v>139</v>
-      </c>
-      <c r="D99" s="22" t="s">
-        <v>70</v>
-      </c>
+      <c r="C99" s="29"/>
+      <c r="D99" s="22"/>
       <c r="E99" s="22"/>
       <c r="F99" s="22"/>
       <c r="G99" s="22"/>
       <c r="H99" s="23"/>
       <c r="I99" s="23"/>
-      <c r="J99" s="23" t="s">
-        <v>39</v>
-      </c>
+      <c r="J99" s="23"/>
       <c r="K99" s="22"/>
       <c r="L99" s="1"/>
       <c r="M99" s="1"/>
@@ -11132,21 +11128,11 @@
       <c r="BJ99" s="1"/>
       <c r="BK99" s="1"/>
       <c r="BL99" s="1"/>
-      <c r="BM99" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="BN99" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="BO99" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="BP99" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="BQ99" s="1" t="s">
-        <v>137</v>
-      </c>
+      <c r="BM99" s="1"/>
+      <c r="BN99" s="1"/>
+      <c r="BO99" s="1"/>
+      <c r="BP99" s="1"/>
+      <c r="BQ99" s="1"/>
       <c r="BR99" s="1"/>
       <c r="BS99" s="1"/>
       <c r="BT99" s="1"/>
@@ -11178,140 +11164,234 @@
       <c r="CT99" s="1"/>
       <c r="CU99" s="1"/>
     </row>
-    <row r="100" spans="1:99">
-      <c r="B100" s="22"/>
-      <c r="C100" s="29" t="s">
-        <v>140</v>
-      </c>
-      <c r="D100" s="22" t="s">
-        <v>74</v>
-      </c>
-      <c r="E100" s="22" t="s">
-        <v>75</v>
-      </c>
-      <c r="F100" s="22"/>
-      <c r="G100" s="22"/>
-      <c r="H100" s="23"/>
-      <c r="I100" s="23"/>
-      <c r="J100" s="23" t="s">
+    <row r="100" spans="1:99" s="20" customFormat="1">
+      <c r="A100"/>
+      <c r="B100" s="21"/>
+      <c r="C100" s="28" t="s">
+        <v>62</v>
+      </c>
+      <c r="D100" s="21"/>
+      <c r="E100" s="21"/>
+      <c r="F100" s="21"/>
+      <c r="G100" s="21"/>
+      <c r="H100" s="21"/>
+      <c r="I100" s="21"/>
+      <c r="J100" s="21"/>
+      <c r="K100" s="21"/>
+      <c r="L100" s="21"/>
+      <c r="M100" s="21"/>
+      <c r="N100" s="21"/>
+      <c r="O100" s="21"/>
+      <c r="P100" s="21"/>
+      <c r="Q100" s="21"/>
+      <c r="R100" s="21"/>
+      <c r="S100" s="21"/>
+      <c r="T100" s="21"/>
+      <c r="U100" s="21"/>
+      <c r="V100" s="21"/>
+      <c r="W100" s="21"/>
+      <c r="X100" s="21"/>
+      <c r="Y100" s="21"/>
+      <c r="Z100" s="21"/>
+      <c r="AA100" s="21"/>
+      <c r="AB100" s="21"/>
+      <c r="AC100" s="21"/>
+      <c r="AD100" s="21"/>
+      <c r="AE100" s="21"/>
+      <c r="AF100" s="21"/>
+      <c r="AG100" s="21"/>
+      <c r="AH100" s="21"/>
+      <c r="AI100" s="21"/>
+      <c r="AJ100" s="21"/>
+      <c r="AK100" s="21"/>
+      <c r="AL100" s="21"/>
+      <c r="AM100" s="21"/>
+      <c r="AN100" s="21"/>
+      <c r="AO100" s="21"/>
+      <c r="AP100" s="21"/>
+      <c r="AQ100" s="21"/>
+      <c r="AR100" s="21"/>
+      <c r="AS100" s="21"/>
+      <c r="AT100" s="21"/>
+      <c r="AU100" s="21"/>
+      <c r="AV100" s="21"/>
+      <c r="AW100" s="21"/>
+      <c r="AX100" s="21"/>
+      <c r="AY100" s="21"/>
+      <c r="AZ100" s="21"/>
+      <c r="BA100" s="21"/>
+      <c r="BB100" s="21"/>
+      <c r="BC100" s="21"/>
+      <c r="BD100" s="21"/>
+      <c r="BE100" s="21"/>
+      <c r="BF100" s="21"/>
+      <c r="BG100" s="21"/>
+      <c r="BH100" s="21"/>
+      <c r="BI100" s="21"/>
+      <c r="BJ100" s="21"/>
+      <c r="BK100" s="21"/>
+      <c r="BL100" s="21"/>
+      <c r="BM100" s="21"/>
+      <c r="BN100" s="21"/>
+      <c r="BO100" s="21"/>
+      <c r="BP100" s="21"/>
+      <c r="BQ100" s="21"/>
+      <c r="BR100" s="21"/>
+      <c r="BS100" s="21"/>
+      <c r="BT100" s="21"/>
+      <c r="BU100" s="21"/>
+      <c r="BV100" s="21"/>
+      <c r="BW100" s="21"/>
+      <c r="BX100" s="21"/>
+      <c r="BY100" s="21"/>
+      <c r="BZ100" s="21"/>
+      <c r="CA100" s="21"/>
+      <c r="CB100" s="21"/>
+      <c r="CC100" s="21"/>
+      <c r="CD100" s="21"/>
+      <c r="CE100" s="21"/>
+      <c r="CF100" s="21"/>
+      <c r="CG100" s="21"/>
+      <c r="CH100" s="21"/>
+      <c r="CI100" s="21"/>
+      <c r="CJ100" s="21"/>
+      <c r="CK100" s="21"/>
+      <c r="CL100" s="21"/>
+      <c r="CM100" s="21"/>
+      <c r="CN100" s="21"/>
+      <c r="CO100" s="21"/>
+      <c r="CP100" s="21"/>
+      <c r="CQ100" s="21"/>
+      <c r="CR100" s="21"/>
+      <c r="CS100" s="21"/>
+      <c r="CT100" s="21"/>
+      <c r="CU100" s="21"/>
+    </row>
+    <row r="101" spans="1:99">
+      <c r="B101" s="22"/>
+      <c r="C101" s="29" t="s">
+        <v>138</v>
+      </c>
+      <c r="D101" s="22" t="s">
+        <v>59</v>
+      </c>
+      <c r="E101" s="22" t="s">
+        <v>64</v>
+      </c>
+      <c r="F101" s="22"/>
+      <c r="G101" s="22"/>
+      <c r="H101" s="23"/>
+      <c r="I101" s="23"/>
+      <c r="J101" s="23" t="s">
         <v>39</v>
       </c>
-      <c r="K100" s="22"/>
-      <c r="L100" s="1"/>
-      <c r="M100" s="1"/>
-      <c r="N100" s="1"/>
-      <c r="O100" s="1"/>
-      <c r="P100" s="1"/>
-      <c r="Q100" s="1"/>
-      <c r="R100" s="1"/>
-      <c r="S100" s="1"/>
-      <c r="T100" s="1"/>
-      <c r="U100" s="1"/>
-      <c r="V100" s="1"/>
-      <c r="W100" s="1"/>
-      <c r="X100" s="1"/>
-      <c r="Y100" s="1"/>
-      <c r="Z100" s="1"/>
-      <c r="AA100" s="1"/>
-      <c r="AB100" s="1"/>
-      <c r="AC100" s="1"/>
-      <c r="AD100" s="1"/>
-      <c r="AE100" s="1"/>
-      <c r="AF100" s="1"/>
-      <c r="AG100" s="1"/>
-      <c r="AH100" s="1"/>
-      <c r="AI100" s="1"/>
-      <c r="AJ100" s="1"/>
-      <c r="AK100" s="1"/>
-      <c r="AL100" s="1"/>
-      <c r="AM100" s="1"/>
-      <c r="AN100" s="1"/>
-      <c r="AO100" s="1"/>
-      <c r="AP100" s="1"/>
-      <c r="AQ100" s="1"/>
-      <c r="AR100" s="1"/>
-      <c r="AS100" s="1"/>
-      <c r="AT100" s="1"/>
-      <c r="AU100" s="1"/>
-      <c r="AV100" s="1"/>
-      <c r="AW100" s="1"/>
-      <c r="AX100" s="1"/>
-      <c r="AY100" s="1"/>
-      <c r="AZ100" s="1"/>
-      <c r="BA100" s="1"/>
-      <c r="BB100" s="1"/>
-      <c r="BC100" s="1"/>
-      <c r="BD100" s="1"/>
-      <c r="BE100" s="1"/>
-      <c r="BF100" s="1"/>
-      <c r="BG100" s="1"/>
-      <c r="BH100" s="1"/>
-      <c r="BI100" s="1"/>
-      <c r="BJ100" s="1"/>
-      <c r="BK100" s="1"/>
-      <c r="BL100" s="1"/>
-      <c r="BM100" s="1" t="s">
+      <c r="K101" s="22"/>
+      <c r="L101" s="1"/>
+      <c r="M101" s="1"/>
+      <c r="N101" s="1"/>
+      <c r="O101" s="1"/>
+      <c r="P101" s="1"/>
+      <c r="Q101" s="1"/>
+      <c r="R101" s="1"/>
+      <c r="S101" s="1"/>
+      <c r="T101" s="1"/>
+      <c r="U101" s="1"/>
+      <c r="V101" s="1"/>
+      <c r="W101" s="1"/>
+      <c r="X101" s="1"/>
+      <c r="Y101" s="1"/>
+      <c r="Z101" s="1"/>
+      <c r="AA101" s="1"/>
+      <c r="AB101" s="1"/>
+      <c r="AC101" s="1"/>
+      <c r="AD101" s="1"/>
+      <c r="AE101" s="1"/>
+      <c r="AF101" s="1"/>
+      <c r="AG101" s="1"/>
+      <c r="AH101" s="1"/>
+      <c r="AI101" s="1"/>
+      <c r="AJ101" s="1"/>
+      <c r="AK101" s="1"/>
+      <c r="AL101" s="1"/>
+      <c r="AM101" s="1"/>
+      <c r="AN101" s="1"/>
+      <c r="AO101" s="1"/>
+      <c r="AP101" s="1"/>
+      <c r="AQ101" s="1"/>
+      <c r="AR101" s="1"/>
+      <c r="AS101" s="1"/>
+      <c r="AT101" s="1"/>
+      <c r="AU101" s="1"/>
+      <c r="AV101" s="1"/>
+      <c r="AW101" s="1"/>
+      <c r="AX101" s="1"/>
+      <c r="AY101" s="1"/>
+      <c r="AZ101" s="1"/>
+      <c r="BA101" s="1"/>
+      <c r="BB101" s="1"/>
+      <c r="BC101" s="1"/>
+      <c r="BD101" s="1"/>
+      <c r="BE101" s="1"/>
+      <c r="BF101" s="1"/>
+      <c r="BG101" s="1"/>
+      <c r="BH101" s="1"/>
+      <c r="BI101" s="1"/>
+      <c r="BJ101" s="1"/>
+      <c r="BK101" s="1"/>
+      <c r="BL101" s="1"/>
+      <c r="BM101" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="BN100" s="1" t="s">
+      <c r="BN101" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="BO100" s="1" t="s">
+      <c r="BO101" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="BP100" s="1" t="s">
+      <c r="BP101" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="BQ100" s="1" t="s">
+      <c r="BQ101" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="BR100" s="1"/>
-      <c r="BS100" s="1"/>
-      <c r="BT100" s="1"/>
-      <c r="BU100" s="1"/>
-      <c r="BV100" s="1"/>
-      <c r="BW100" s="1"/>
-      <c r="BX100" s="1"/>
-      <c r="BY100" s="1"/>
-      <c r="BZ100" s="1"/>
-      <c r="CA100" s="1"/>
-      <c r="CB100" s="1"/>
-      <c r="CC100" s="1"/>
-      <c r="CD100" s="1"/>
-      <c r="CE100" s="1"/>
-      <c r="CF100" s="1"/>
-      <c r="CG100" s="1"/>
-      <c r="CH100" s="1"/>
-      <c r="CI100" s="1"/>
-      <c r="CJ100" s="1"/>
-      <c r="CK100" s="1"/>
-      <c r="CL100" s="1"/>
-      <c r="CM100" s="1"/>
-      <c r="CN100" s="1"/>
-      <c r="CO100" s="1"/>
-      <c r="CP100" s="1"/>
-      <c r="CQ100" s="1"/>
-      <c r="CR100" s="1"/>
-      <c r="CS100" s="1"/>
-      <c r="CT100" s="1"/>
-      <c r="CU100" s="1"/>
-    </row>
-    <row r="101" spans="1:99" s="28" customFormat="1">
-      <c r="A101"/>
-      <c r="C101" s="28" t="s">
-        <v>63</v>
-      </c>
-      <c r="J101" s="28" t="s">
-        <v>40</v>
-      </c>
+      <c r="BR101" s="1"/>
+      <c r="BS101" s="1"/>
+      <c r="BT101" s="1"/>
+      <c r="BU101" s="1"/>
+      <c r="BV101" s="1"/>
+      <c r="BW101" s="1"/>
+      <c r="BX101" s="1"/>
+      <c r="BY101" s="1"/>
+      <c r="BZ101" s="1"/>
+      <c r="CA101" s="1"/>
+      <c r="CB101" s="1"/>
+      <c r="CC101" s="1"/>
+      <c r="CD101" s="1"/>
+      <c r="CE101" s="1"/>
+      <c r="CF101" s="1"/>
+      <c r="CG101" s="1"/>
+      <c r="CH101" s="1"/>
+      <c r="CI101" s="1"/>
+      <c r="CJ101" s="1"/>
+      <c r="CK101" s="1"/>
+      <c r="CL101" s="1"/>
+      <c r="CM101" s="1"/>
+      <c r="CN101" s="1"/>
+      <c r="CO101" s="1"/>
+      <c r="CP101" s="1"/>
+      <c r="CQ101" s="1"/>
+      <c r="CR101" s="1"/>
+      <c r="CS101" s="1"/>
+      <c r="CT101" s="1"/>
+      <c r="CU101" s="1"/>
     </row>
     <row r="102" spans="1:99">
       <c r="B102" s="22"/>
       <c r="C102" s="29" t="s">
-        <v>63</v>
+        <v>139</v>
       </c>
       <c r="D102" s="22" t="s">
-        <v>59</v>
+        <v>70</v>
       </c>
       <c r="E102" s="22"/>
       <c r="F102" s="22"/>
@@ -11342,9 +11422,7 @@
       <c r="AC102" s="1"/>
       <c r="AD102" s="1"/>
       <c r="AE102" s="1"/>
-      <c r="AF102" s="1" t="s">
-        <v>52</v>
-      </c>
+      <c r="AF102" s="1"/>
       <c r="AG102" s="1"/>
       <c r="AH102" s="1"/>
       <c r="AI102" s="1"/>
@@ -11390,35 +11468,17 @@
         <v>136</v>
       </c>
       <c r="BQ102" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="BR102" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="BS102" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="BT102" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="BU102" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="BV102" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="BW102" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="BX102" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="BY102" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="BZ102" s="1" t="s">
         <v>137</v>
       </c>
+      <c r="BR102" s="1"/>
+      <c r="BS102" s="1"/>
+      <c r="BT102" s="1"/>
+      <c r="BU102" s="1"/>
+      <c r="BV102" s="1"/>
+      <c r="BW102" s="1"/>
+      <c r="BX102" s="1"/>
+      <c r="BY102" s="1"/>
+      <c r="BZ102" s="1"/>
       <c r="CA102" s="1"/>
       <c r="CB102" s="1"/>
       <c r="CC102" s="1"/>
@@ -11441,356 +11501,619 @@
       <c r="CT102" s="1"/>
       <c r="CU102" s="1"/>
     </row>
-    <row r="103" spans="1:99" s="20" customFormat="1">
-      <c r="A103"/>
-      <c r="B103" s="21"/>
-      <c r="C103" s="28" t="s">
+    <row r="103" spans="1:99">
+      <c r="B103" s="22"/>
+      <c r="C103" s="29" t="s">
+        <v>140</v>
+      </c>
+      <c r="D103" s="22" t="s">
+        <v>74</v>
+      </c>
+      <c r="E103" s="22" t="s">
+        <v>75</v>
+      </c>
+      <c r="F103" s="22"/>
+      <c r="G103" s="22"/>
+      <c r="H103" s="23"/>
+      <c r="I103" s="23"/>
+      <c r="J103" s="23" t="s">
+        <v>39</v>
+      </c>
+      <c r="K103" s="22"/>
+      <c r="L103" s="1"/>
+      <c r="M103" s="1"/>
+      <c r="N103" s="1"/>
+      <c r="O103" s="1"/>
+      <c r="P103" s="1"/>
+      <c r="Q103" s="1"/>
+      <c r="R103" s="1"/>
+      <c r="S103" s="1"/>
+      <c r="T103" s="1"/>
+      <c r="U103" s="1"/>
+      <c r="V103" s="1"/>
+      <c r="W103" s="1"/>
+      <c r="X103" s="1"/>
+      <c r="Y103" s="1"/>
+      <c r="Z103" s="1"/>
+      <c r="AA103" s="1"/>
+      <c r="AB103" s="1"/>
+      <c r="AC103" s="1"/>
+      <c r="AD103" s="1"/>
+      <c r="AE103" s="1"/>
+      <c r="AF103" s="1"/>
+      <c r="AG103" s="1"/>
+      <c r="AH103" s="1"/>
+      <c r="AI103" s="1"/>
+      <c r="AJ103" s="1"/>
+      <c r="AK103" s="1"/>
+      <c r="AL103" s="1"/>
+      <c r="AM103" s="1"/>
+      <c r="AN103" s="1"/>
+      <c r="AO103" s="1"/>
+      <c r="AP103" s="1"/>
+      <c r="AQ103" s="1"/>
+      <c r="AR103" s="1"/>
+      <c r="AS103" s="1"/>
+      <c r="AT103" s="1"/>
+      <c r="AU103" s="1"/>
+      <c r="AV103" s="1"/>
+      <c r="AW103" s="1"/>
+      <c r="AX103" s="1"/>
+      <c r="AY103" s="1"/>
+      <c r="AZ103" s="1"/>
+      <c r="BA103" s="1"/>
+      <c r="BB103" s="1"/>
+      <c r="BC103" s="1"/>
+      <c r="BD103" s="1"/>
+      <c r="BE103" s="1"/>
+      <c r="BF103" s="1"/>
+      <c r="BG103" s="1"/>
+      <c r="BH103" s="1"/>
+      <c r="BI103" s="1"/>
+      <c r="BJ103" s="1"/>
+      <c r="BK103" s="1"/>
+      <c r="BL103" s="1"/>
+      <c r="BM103" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="BN103" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="BO103" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="BP103" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="BQ103" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="BR103" s="1"/>
+      <c r="BS103" s="1"/>
+      <c r="BT103" s="1"/>
+      <c r="BU103" s="1"/>
+      <c r="BV103" s="1"/>
+      <c r="BW103" s="1"/>
+      <c r="BX103" s="1"/>
+      <c r="BY103" s="1"/>
+      <c r="BZ103" s="1"/>
+      <c r="CA103" s="1"/>
+      <c r="CB103" s="1"/>
+      <c r="CC103" s="1"/>
+      <c r="CD103" s="1"/>
+      <c r="CE103" s="1"/>
+      <c r="CF103" s="1"/>
+      <c r="CG103" s="1"/>
+      <c r="CH103" s="1"/>
+      <c r="CI103" s="1"/>
+      <c r="CJ103" s="1"/>
+      <c r="CK103" s="1"/>
+      <c r="CL103" s="1"/>
+      <c r="CM103" s="1"/>
+      <c r="CN103" s="1"/>
+      <c r="CO103" s="1"/>
+      <c r="CP103" s="1"/>
+      <c r="CQ103" s="1"/>
+      <c r="CR103" s="1"/>
+      <c r="CS103" s="1"/>
+      <c r="CT103" s="1"/>
+      <c r="CU103" s="1"/>
+    </row>
+    <row r="104" spans="1:99" s="28" customFormat="1">
+      <c r="A104"/>
+      <c r="C104" s="28" t="s">
+        <v>63</v>
+      </c>
+      <c r="J104" s="28" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="105" spans="1:99">
+      <c r="B105" s="22"/>
+      <c r="C105" s="29" t="s">
+        <v>63</v>
+      </c>
+      <c r="D105" s="22" t="s">
+        <v>59</v>
+      </c>
+      <c r="E105" s="22"/>
+      <c r="F105" s="22"/>
+      <c r="G105" s="22"/>
+      <c r="H105" s="23"/>
+      <c r="I105" s="23"/>
+      <c r="J105" s="23" t="s">
+        <v>39</v>
+      </c>
+      <c r="K105" s="22"/>
+      <c r="L105" s="1"/>
+      <c r="M105" s="1"/>
+      <c r="N105" s="1"/>
+      <c r="O105" s="1"/>
+      <c r="P105" s="1"/>
+      <c r="Q105" s="1"/>
+      <c r="R105" s="1"/>
+      <c r="S105" s="1"/>
+      <c r="T105" s="1"/>
+      <c r="U105" s="1"/>
+      <c r="V105" s="1"/>
+      <c r="W105" s="1"/>
+      <c r="X105" s="1"/>
+      <c r="Y105" s="1"/>
+      <c r="Z105" s="1"/>
+      <c r="AA105" s="1"/>
+      <c r="AB105" s="1"/>
+      <c r="AC105" s="1"/>
+      <c r="AD105" s="1"/>
+      <c r="AE105" s="1"/>
+      <c r="AF105" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="AG105" s="1"/>
+      <c r="AH105" s="1"/>
+      <c r="AI105" s="1"/>
+      <c r="AJ105" s="1"/>
+      <c r="AK105" s="1"/>
+      <c r="AL105" s="1"/>
+      <c r="AM105" s="1"/>
+      <c r="AN105" s="1"/>
+      <c r="AO105" s="1"/>
+      <c r="AP105" s="1"/>
+      <c r="AQ105" s="1"/>
+      <c r="AR105" s="1"/>
+      <c r="AS105" s="1"/>
+      <c r="AT105" s="1"/>
+      <c r="AU105" s="1"/>
+      <c r="AV105" s="1"/>
+      <c r="AW105" s="1"/>
+      <c r="AX105" s="1"/>
+      <c r="AY105" s="1"/>
+      <c r="AZ105" s="1"/>
+      <c r="BA105" s="1"/>
+      <c r="BB105" s="1"/>
+      <c r="BC105" s="1"/>
+      <c r="BD105" s="1"/>
+      <c r="BE105" s="1"/>
+      <c r="BF105" s="1"/>
+      <c r="BG105" s="1"/>
+      <c r="BH105" s="1"/>
+      <c r="BI105" s="1"/>
+      <c r="BJ105" s="1"/>
+      <c r="BK105" s="1"/>
+      <c r="BL105" s="1"/>
+      <c r="BM105" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="BN105" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="BO105" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="BP105" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="BQ105" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="BR105" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="BS105" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="BT105" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="BU105" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="BV105" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="BW105" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="BX105" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="BY105" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="BZ105" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="CA105" s="1"/>
+      <c r="CB105" s="1"/>
+      <c r="CC105" s="1"/>
+      <c r="CD105" s="1"/>
+      <c r="CE105" s="1"/>
+      <c r="CF105" s="1"/>
+      <c r="CG105" s="1"/>
+      <c r="CH105" s="1"/>
+      <c r="CI105" s="1"/>
+      <c r="CJ105" s="1"/>
+      <c r="CK105" s="1"/>
+      <c r="CL105" s="1"/>
+      <c r="CM105" s="1"/>
+      <c r="CN105" s="1"/>
+      <c r="CO105" s="1"/>
+      <c r="CP105" s="1"/>
+      <c r="CQ105" s="1"/>
+      <c r="CR105" s="1"/>
+      <c r="CS105" s="1"/>
+      <c r="CT105" s="1"/>
+      <c r="CU105" s="1"/>
+    </row>
+    <row r="106" spans="1:99" s="20" customFormat="1">
+      <c r="A106"/>
+      <c r="B106" s="21"/>
+      <c r="C106" s="28" t="s">
         <v>55</v>
       </c>
-      <c r="D103" s="21"/>
-      <c r="E103" s="21"/>
-      <c r="F103" s="21"/>
-      <c r="G103" s="21"/>
-      <c r="H103" s="21"/>
-      <c r="I103" s="21"/>
-      <c r="J103" s="21"/>
-      <c r="K103" s="21"/>
-      <c r="L103" s="21"/>
-      <c r="M103" s="21"/>
-      <c r="N103" s="21"/>
-      <c r="O103" s="21"/>
-      <c r="P103" s="21"/>
-      <c r="Q103" s="21"/>
-      <c r="R103" s="21"/>
-      <c r="S103" s="21"/>
-      <c r="T103" s="21"/>
-      <c r="U103" s="21"/>
-      <c r="V103" s="21"/>
-      <c r="W103" s="21"/>
-      <c r="X103" s="21"/>
-      <c r="Y103" s="21"/>
-      <c r="Z103" s="21"/>
-      <c r="AA103" s="21"/>
-      <c r="AB103" s="21"/>
-      <c r="AC103" s="21"/>
-      <c r="AD103" s="21"/>
-      <c r="AE103" s="21"/>
-      <c r="AF103" s="21"/>
-      <c r="AG103" s="21"/>
-      <c r="AH103" s="21"/>
-      <c r="AI103" s="21"/>
-      <c r="AJ103" s="21"/>
-      <c r="AK103" s="21"/>
-      <c r="AL103" s="21"/>
-      <c r="AM103" s="21"/>
-      <c r="AN103" s="21"/>
-      <c r="AO103" s="21"/>
-      <c r="AP103" s="21"/>
-      <c r="AQ103" s="21"/>
-      <c r="AR103" s="21"/>
-      <c r="AS103" s="21"/>
-      <c r="AT103" s="21"/>
-      <c r="AU103" s="21"/>
-      <c r="AV103" s="21"/>
-      <c r="AW103" s="21"/>
-      <c r="AX103" s="21"/>
-      <c r="AY103" s="21"/>
-      <c r="AZ103" s="21"/>
-      <c r="BA103" s="21"/>
-      <c r="BB103" s="21"/>
-      <c r="BC103" s="21"/>
-      <c r="BD103" s="21"/>
-      <c r="BE103" s="21"/>
-      <c r="BF103" s="21"/>
-      <c r="BG103" s="21"/>
-      <c r="BH103" s="21"/>
-      <c r="BI103" s="21"/>
-      <c r="BJ103" s="21"/>
-      <c r="BK103" s="21"/>
-      <c r="BL103" s="21"/>
-      <c r="BM103" s="21"/>
-      <c r="BN103" s="21"/>
-      <c r="BO103" s="21"/>
-      <c r="BP103" s="21"/>
-      <c r="BQ103" s="21"/>
-      <c r="BR103" s="21"/>
-      <c r="BS103" s="21"/>
-      <c r="BT103" s="21"/>
-      <c r="BU103" s="21"/>
-      <c r="BV103" s="21"/>
-      <c r="BW103" s="21"/>
-      <c r="BX103" s="21"/>
-      <c r="BY103" s="21"/>
-      <c r="BZ103" s="21"/>
-      <c r="CA103" s="21"/>
-      <c r="CB103" s="21"/>
-      <c r="CC103" s="21"/>
-      <c r="CD103" s="21"/>
-      <c r="CE103" s="21"/>
-      <c r="CF103" s="21"/>
-      <c r="CG103" s="21"/>
-      <c r="CH103" s="21"/>
-      <c r="CI103" s="21"/>
-      <c r="CJ103" s="21"/>
-      <c r="CK103" s="21"/>
-      <c r="CL103" s="21"/>
-      <c r="CM103" s="21"/>
-      <c r="CN103" s="21"/>
-      <c r="CO103" s="21"/>
-      <c r="CP103" s="21"/>
-      <c r="CQ103" s="21"/>
-      <c r="CR103" s="21"/>
-      <c r="CS103" s="21"/>
-      <c r="CT103" s="21"/>
-      <c r="CU103" s="21"/>
-    </row>
-    <row r="107" spans="1:99" s="24" customFormat="1">
-      <c r="A107"/>
-      <c r="C107" s="32" t="s">
+      <c r="D106" s="21"/>
+      <c r="E106" s="21"/>
+      <c r="F106" s="21"/>
+      <c r="G106" s="21"/>
+      <c r="H106" s="21"/>
+      <c r="I106" s="21"/>
+      <c r="J106" s="21"/>
+      <c r="K106" s="21"/>
+      <c r="L106" s="21"/>
+      <c r="M106" s="21"/>
+      <c r="N106" s="21"/>
+      <c r="O106" s="21"/>
+      <c r="P106" s="21"/>
+      <c r="Q106" s="21"/>
+      <c r="R106" s="21"/>
+      <c r="S106" s="21"/>
+      <c r="T106" s="21"/>
+      <c r="U106" s="21"/>
+      <c r="V106" s="21"/>
+      <c r="W106" s="21"/>
+      <c r="X106" s="21"/>
+      <c r="Y106" s="21"/>
+      <c r="Z106" s="21"/>
+      <c r="AA106" s="21"/>
+      <c r="AB106" s="21"/>
+      <c r="AC106" s="21"/>
+      <c r="AD106" s="21"/>
+      <c r="AE106" s="21"/>
+      <c r="AF106" s="21"/>
+      <c r="AG106" s="21"/>
+      <c r="AH106" s="21"/>
+      <c r="AI106" s="21"/>
+      <c r="AJ106" s="21"/>
+      <c r="AK106" s="21"/>
+      <c r="AL106" s="21"/>
+      <c r="AM106" s="21"/>
+      <c r="AN106" s="21"/>
+      <c r="AO106" s="21"/>
+      <c r="AP106" s="21"/>
+      <c r="AQ106" s="21"/>
+      <c r="AR106" s="21"/>
+      <c r="AS106" s="21"/>
+      <c r="AT106" s="21"/>
+      <c r="AU106" s="21"/>
+      <c r="AV106" s="21"/>
+      <c r="AW106" s="21"/>
+      <c r="AX106" s="21"/>
+      <c r="AY106" s="21"/>
+      <c r="AZ106" s="21"/>
+      <c r="BA106" s="21"/>
+      <c r="BB106" s="21"/>
+      <c r="BC106" s="21"/>
+      <c r="BD106" s="21"/>
+      <c r="BE106" s="21"/>
+      <c r="BF106" s="21"/>
+      <c r="BG106" s="21"/>
+      <c r="BH106" s="21"/>
+      <c r="BI106" s="21"/>
+      <c r="BJ106" s="21"/>
+      <c r="BK106" s="21"/>
+      <c r="BL106" s="21"/>
+      <c r="BM106" s="21"/>
+      <c r="BN106" s="21"/>
+      <c r="BO106" s="21"/>
+      <c r="BP106" s="21"/>
+      <c r="BQ106" s="21"/>
+      <c r="BR106" s="21"/>
+      <c r="BS106" s="21"/>
+      <c r="BT106" s="21"/>
+      <c r="BU106" s="21"/>
+      <c r="BV106" s="21"/>
+      <c r="BW106" s="21"/>
+      <c r="BX106" s="21"/>
+      <c r="BY106" s="21"/>
+      <c r="BZ106" s="21"/>
+      <c r="CA106" s="21"/>
+      <c r="CB106" s="21"/>
+      <c r="CC106" s="21"/>
+      <c r="CD106" s="21"/>
+      <c r="CE106" s="21"/>
+      <c r="CF106" s="21"/>
+      <c r="CG106" s="21"/>
+      <c r="CH106" s="21"/>
+      <c r="CI106" s="21"/>
+      <c r="CJ106" s="21"/>
+      <c r="CK106" s="21"/>
+      <c r="CL106" s="21"/>
+      <c r="CM106" s="21"/>
+      <c r="CN106" s="21"/>
+      <c r="CO106" s="21"/>
+      <c r="CP106" s="21"/>
+      <c r="CQ106" s="21"/>
+      <c r="CR106" s="21"/>
+      <c r="CS106" s="21"/>
+      <c r="CT106" s="21"/>
+      <c r="CU106" s="21"/>
+    </row>
+    <row r="110" spans="1:99" s="24" customFormat="1">
+      <c r="A110"/>
+      <c r="C110" s="32" t="s">
         <v>53</v>
       </c>
-      <c r="H107" s="25"/>
-      <c r="I107" s="25"/>
-      <c r="J107" s="25"/>
-      <c r="L107" s="25">
+      <c r="H110" s="25"/>
+      <c r="I110" s="25"/>
+      <c r="J110" s="25"/>
+      <c r="L110" s="25">
         <f>L19</f>
         <v>41133</v>
       </c>
-      <c r="M107" s="25">
-        <f t="shared" ref="M107:BF107" si="6">M19</f>
+      <c r="M110" s="25">
+        <f t="shared" ref="M110:BF110" si="6">M19</f>
         <v>41134</v>
       </c>
-      <c r="N107" s="25">
+      <c r="N110" s="25">
         <f t="shared" si="6"/>
         <v>41135</v>
       </c>
-      <c r="O107" s="25">
+      <c r="O110" s="25">
         <f t="shared" si="6"/>
         <v>41136</v>
       </c>
-      <c r="P107" s="25">
+      <c r="P110" s="25">
         <f t="shared" si="6"/>
         <v>41137</v>
       </c>
-      <c r="Q107" s="25">
+      <c r="Q110" s="25">
         <f t="shared" si="6"/>
         <v>41138</v>
       </c>
-      <c r="R107" s="25">
+      <c r="R110" s="25">
         <f t="shared" si="6"/>
         <v>41139</v>
       </c>
-      <c r="S107" s="25">
+      <c r="S110" s="25">
         <f t="shared" si="6"/>
         <v>41140</v>
       </c>
-      <c r="T107" s="25">
+      <c r="T110" s="25">
         <f t="shared" si="6"/>
         <v>41141</v>
       </c>
-      <c r="U107" s="25">
+      <c r="U110" s="25">
         <f t="shared" si="6"/>
         <v>41142</v>
       </c>
-      <c r="V107" s="25">
+      <c r="V110" s="25">
         <f t="shared" si="6"/>
         <v>41143</v>
       </c>
-      <c r="W107" s="25">
+      <c r="W110" s="25">
         <f t="shared" si="6"/>
         <v>41144</v>
       </c>
-      <c r="X107" s="25">
+      <c r="X110" s="25">
         <f t="shared" si="6"/>
         <v>41145</v>
       </c>
-      <c r="Y107" s="25">
+      <c r="Y110" s="25">
         <f t="shared" si="6"/>
         <v>41146</v>
       </c>
-      <c r="Z107" s="25">
+      <c r="Z110" s="25">
         <f t="shared" si="6"/>
         <v>41147</v>
       </c>
-      <c r="AA107" s="25">
+      <c r="AA110" s="25">
         <f t="shared" si="6"/>
         <v>41148</v>
       </c>
-      <c r="AB107" s="25">
+      <c r="AB110" s="25">
         <f t="shared" si="6"/>
         <v>41149</v>
       </c>
-      <c r="AC107" s="25">
+      <c r="AC110" s="25">
         <f t="shared" si="6"/>
         <v>41150</v>
       </c>
-      <c r="AD107" s="25">
+      <c r="AD110" s="25">
         <f t="shared" si="6"/>
         <v>41151</v>
       </c>
-      <c r="AE107" s="25">
+      <c r="AE110" s="25">
         <f t="shared" si="6"/>
         <v>41152</v>
       </c>
-      <c r="AF107" s="25">
+      <c r="AF110" s="25">
         <f t="shared" si="6"/>
         <v>41153</v>
       </c>
-      <c r="AG107" s="25">
+      <c r="AG110" s="25">
         <f t="shared" si="6"/>
         <v>41154</v>
       </c>
-      <c r="AH107" s="25">
+      <c r="AH110" s="25">
         <f t="shared" si="6"/>
         <v>41155</v>
       </c>
-      <c r="AI107" s="25">
+      <c r="AI110" s="25">
         <f t="shared" si="6"/>
         <v>41156</v>
       </c>
-      <c r="AJ107" s="25">
+      <c r="AJ110" s="25">
         <f t="shared" si="6"/>
         <v>41157</v>
       </c>
-      <c r="AK107" s="25">
+      <c r="AK110" s="25">
         <f t="shared" si="6"/>
         <v>41158</v>
       </c>
-      <c r="AL107" s="25">
+      <c r="AL110" s="25">
         <f t="shared" si="6"/>
         <v>41159</v>
       </c>
-      <c r="AM107" s="25">
+      <c r="AM110" s="25">
         <f t="shared" si="6"/>
         <v>41160</v>
       </c>
-      <c r="AN107" s="25">
+      <c r="AN110" s="25">
         <f t="shared" si="6"/>
         <v>41161</v>
       </c>
-      <c r="AO107" s="25">
+      <c r="AO110" s="25">
         <f t="shared" si="6"/>
         <v>41162</v>
       </c>
-      <c r="AP107" s="25">
+      <c r="AP110" s="25">
         <f t="shared" si="6"/>
         <v>41163</v>
       </c>
-      <c r="AQ107" s="25">
+      <c r="AQ110" s="25">
         <f t="shared" si="6"/>
         <v>41164</v>
       </c>
-      <c r="AR107" s="25">
+      <c r="AR110" s="25">
         <f t="shared" si="6"/>
         <v>41165</v>
       </c>
-      <c r="AS107" s="25">
+      <c r="AS110" s="25">
         <f t="shared" si="6"/>
         <v>41166</v>
       </c>
-      <c r="AT107" s="25">
+      <c r="AT110" s="25">
         <f t="shared" si="6"/>
         <v>41167</v>
       </c>
-      <c r="AU107" s="25">
+      <c r="AU110" s="25">
         <f t="shared" si="6"/>
         <v>41168</v>
       </c>
-      <c r="AV107" s="25">
+      <c r="AV110" s="25">
         <f t="shared" si="6"/>
         <v>41169</v>
       </c>
-      <c r="AW107" s="25">
+      <c r="AW110" s="25">
         <f t="shared" si="6"/>
         <v>41170</v>
       </c>
-      <c r="AX107" s="25">
+      <c r="AX110" s="25">
         <f t="shared" si="6"/>
         <v>41171</v>
       </c>
-      <c r="AY107" s="25">
+      <c r="AY110" s="25">
         <f t="shared" si="6"/>
         <v>41172</v>
       </c>
-      <c r="AZ107" s="25">
+      <c r="AZ110" s="25">
         <f t="shared" si="6"/>
         <v>41173</v>
       </c>
-      <c r="BA107" s="25">
+      <c r="BA110" s="25">
         <f t="shared" si="6"/>
         <v>41174</v>
       </c>
-      <c r="BB107" s="25">
+      <c r="BB110" s="25">
         <f t="shared" si="6"/>
         <v>41175</v>
       </c>
-      <c r="BC107" s="25">
+      <c r="BC110" s="25">
         <f t="shared" si="6"/>
         <v>41176</v>
       </c>
-      <c r="BD107" s="25">
+      <c r="BD110" s="25">
         <f t="shared" si="6"/>
         <v>41177</v>
       </c>
-      <c r="BE107" s="25">
+      <c r="BE110" s="25">
         <f t="shared" si="6"/>
         <v>41178</v>
       </c>
-      <c r="BF107" s="25">
+      <c r="BF110" s="25">
         <f t="shared" si="6"/>
         <v>41179</v>
       </c>
-      <c r="BG107" s="25"/>
-      <c r="BH107" s="25"/>
-      <c r="BI107" s="25"/>
-      <c r="BJ107" s="25"/>
-      <c r="BK107" s="25"/>
-      <c r="BL107" s="25"/>
-      <c r="BM107" s="25"/>
-      <c r="BN107" s="25"/>
-      <c r="BO107" s="25"/>
-      <c r="BP107" s="25"/>
-      <c r="BQ107" s="25"/>
-      <c r="BR107" s="25"/>
-      <c r="BS107" s="25"/>
-      <c r="BT107" s="25"/>
-      <c r="BU107" s="25"/>
-      <c r="BV107" s="25"/>
-      <c r="BW107" s="25"/>
-      <c r="BX107" s="25"/>
-      <c r="BY107" s="25"/>
-      <c r="BZ107" s="25"/>
-      <c r="CA107" s="25"/>
-      <c r="CB107" s="25"/>
-      <c r="CC107" s="25"/>
-      <c r="CD107" s="25"/>
-      <c r="CE107" s="25"/>
-      <c r="CF107" s="25"/>
-      <c r="CG107" s="25"/>
-      <c r="CH107" s="25"/>
-      <c r="CI107" s="25"/>
-      <c r="CJ107" s="25"/>
-      <c r="CK107" s="25"/>
-      <c r="CL107" s="25"/>
-      <c r="CM107" s="25"/>
-      <c r="CN107" s="25"/>
-      <c r="CO107" s="25"/>
-      <c r="CP107" s="25"/>
-      <c r="CQ107" s="25"/>
-      <c r="CR107" s="25"/>
-      <c r="CS107" s="25"/>
-      <c r="CT107" s="25"/>
-      <c r="CU107" s="25"/>
+      <c r="BG110" s="25"/>
+      <c r="BH110" s="25"/>
+      <c r="BI110" s="25"/>
+      <c r="BJ110" s="25"/>
+      <c r="BK110" s="25"/>
+      <c r="BL110" s="25"/>
+      <c r="BM110" s="25"/>
+      <c r="BN110" s="25"/>
+      <c r="BO110" s="25"/>
+      <c r="BP110" s="25"/>
+      <c r="BQ110" s="25"/>
+      <c r="BR110" s="25"/>
+      <c r="BS110" s="25"/>
+      <c r="BT110" s="25"/>
+      <c r="BU110" s="25"/>
+      <c r="BV110" s="25"/>
+      <c r="BW110" s="25"/>
+      <c r="BX110" s="25"/>
+      <c r="BY110" s="25"/>
+      <c r="BZ110" s="25"/>
+      <c r="CA110" s="25"/>
+      <c r="CB110" s="25"/>
+      <c r="CC110" s="25"/>
+      <c r="CD110" s="25"/>
+      <c r="CE110" s="25"/>
+      <c r="CF110" s="25"/>
+      <c r="CG110" s="25"/>
+      <c r="CH110" s="25"/>
+      <c r="CI110" s="25"/>
+      <c r="CJ110" s="25"/>
+      <c r="CK110" s="25"/>
+      <c r="CL110" s="25"/>
+      <c r="CM110" s="25"/>
+      <c r="CN110" s="25"/>
+      <c r="CO110" s="25"/>
+      <c r="CP110" s="25"/>
+      <c r="CQ110" s="25"/>
+      <c r="CR110" s="25"/>
+      <c r="CS110" s="25"/>
+      <c r="CT110" s="25"/>
+      <c r="CU110" s="25"/>
     </row>
   </sheetData>
-  <autoFilter ref="A19:BF103"/>
+  <autoFilter ref="A19:BF106"/>
   <sortState ref="C2:D16">
     <sortCondition ref="C2"/>
   </sortState>
   <mergeCells count="1">
-    <mergeCell ref="A76:B76"/>
+    <mergeCell ref="A79:B79"/>
   </mergeCells>
-  <conditionalFormatting sqref="L104:AY104 L95:CU96 L91:CU93 L76:CU89 L32:CU39 L41:CU45 L47:BL60 BR47:CU60 BM52:BQ60 L62:CU74 L98:CU100 L102:CU102 BO47:BQ50 BM47:BN51 L21:CU30">
+  <conditionalFormatting sqref="L107:AY107 L98:CU99 L94:CU96 L79:CU92 L35:CU42 L44:CU48 L50:BL63 BR50:CU63 BM55:BQ63 L65:CU77 L101:CU103 L105:CU105 BO50:BQ53 BM50:BN54 L21:CU33">
     <cfRule type="cellIs" dxfId="8" priority="201" operator="equal">
       <formula>"-"</formula>
     </cfRule>
@@ -11801,47 +12124,47 @@
       <formula>"B"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L95:CU96 L91:CU93 L76:CU89 L32:CU39 L41:CU45 L47:BL60 BR47:CU60 BM52:BQ60 L62:CU74 L98:CU100 L102:CU102 BO47:BQ50 BM47:BN51 L21:CU30">
+  <conditionalFormatting sqref="L98:CU99 L94:CU96 L79:CU92 L35:CU42 L44:CU48 L50:BL63 BR50:CU63 BM55:BQ63 L65:CU77 L101:CU103 L105:CU105 BO50:BQ53 BM50:BN54 L21:CU33">
     <cfRule type="cellIs" dxfId="5" priority="200" operator="equal">
       <formula>"BE"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J95 J80:J88 J32:J38 J47:J57 J77:J78 J102 J41:J44 J62:J73 J98:J100 J21:J30">
+  <conditionalFormatting sqref="J98 J83:J91 J35:J41 J50:J60 J80:J81 J105 J44:J47 J65:J76 J101:J103 J21:J33">
     <cfRule type="cellIs" dxfId="4" priority="274" operator="equal">
       <formula>$I$5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J80:J88 J32:J38 J95 J47:J57 J77:J78 J102 J41:J44 J62:J73 J98:J100 J21:J28">
+  <conditionalFormatting sqref="J83:J91 J35:J41 J98 J50:J60 J80:J81 J105 J44:J47 J65:J76 J101:J103 J21:J31">
     <cfRule type="expression" dxfId="3" priority="281">
       <formula>AND(J21&lt;&gt;$I$5,$I21&lt;TODAY())</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J29:J30">
+  <conditionalFormatting sqref="J32:J33">
     <cfRule type="expression" dxfId="2" priority="13">
-      <formula>AND(J29&lt;&gt;$I$5,$I29&lt;TODAY())</formula>
+      <formula>AND(J32&lt;&gt;$I$5,$I32&lt;TODAY())</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J30">
+  <conditionalFormatting sqref="J33">
     <cfRule type="expression" dxfId="1" priority="7">
-      <formula>AND(J30&lt;&gt;$I$5,$I30&lt;TODAY())</formula>
+      <formula>AND(J33&lt;&gt;$I$5,$I33&lt;TODAY())</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J29">
+  <conditionalFormatting sqref="J32">
     <cfRule type="expression" dxfId="0" priority="1">
-      <formula>AND(J29&lt;&gt;$I$5,$I29&lt;TODAY())</formula>
+      <formula>AND(J32&lt;&gt;$I$5,$I32&lt;TODAY())</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J77:J78 J62:J73 J98:J102 J32:J38 J41:J44 J80:J88 J47:J57 J93:J96 J21:J30">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J80:J81 J65:J76 J101:J105 J35:J41 J44:J47 J83:J91 J50:J60 J96:J99 J21:J33">
       <formula1>$I$4:$I$14</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E20:E24 D20:D30">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E20:E24 D20:D33">
       <formula1>members</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I20:I30">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I20:I33">
       <formula1>$F$2:$F$6</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D41:F45 D70:D81 E55:F57 D56:D57 D62:D68 D32:F39 E101:E103 D83:D103 E62:E99 F61:F103 D47:F54">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D44:F48 D73:D84 E58:F60 D59:D60 D65:D71 D35:F42 E104:E106 D86:D106 E65:E102 F64:F106 D50:F57">
       <formula1>$C$2:$C$17</formula1>
     </dataValidation>
   </dataValidations>

--- a/trunk/Document/VietinBankSC Project Plan v2012.009.20.xlsx
+++ b/trunk/Document/VietinBankSC Project Plan v2012.009.20.xlsx
@@ -16,7 +16,7 @@
     <externalReference r:id="rId5"/>
   </externalReferences>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Plan!$A$19:$BF$106</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Plan!$A$19:$BF$113</definedName>
     <definedName name="members">'[1]Thành viên - Vị trí'!$C$3:$C$13</definedName>
   </definedNames>
   <calcPr calcId="124519"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="518" uniqueCount="165">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="521" uniqueCount="165">
   <si>
     <t>GVCM</t>
   </si>
@@ -762,6 +762,7 @@
     <xf numFmtId="164" fontId="7" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="16" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -771,7 +772,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="16" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1328,7 +1328,7 @@
       </c>
     </row>
     <row r="3" spans="1:10">
-      <c r="A3" s="39" t="s">
+      <c r="A3" s="40" t="s">
         <v>22</v>
       </c>
       <c r="B3" s="1" t="s">
@@ -1345,7 +1345,7 @@
       </c>
     </row>
     <row r="4" spans="1:10">
-      <c r="A4" s="39"/>
+      <c r="A4" s="40"/>
       <c r="B4" s="1" t="s">
         <v>1</v>
       </c>
@@ -1360,7 +1360,7 @@
       </c>
     </row>
     <row r="5" spans="1:10">
-      <c r="A5" s="39" t="s">
+      <c r="A5" s="40" t="s">
         <v>21</v>
       </c>
       <c r="B5" s="1" t="s">
@@ -1375,7 +1375,7 @@
       <c r="E5" s="2"/>
     </row>
     <row r="6" spans="1:10">
-      <c r="A6" s="39"/>
+      <c r="A6" s="40"/>
       <c r="B6" s="1" t="s">
         <v>3</v>
       </c>
@@ -1388,7 +1388,7 @@
       <c r="E6" s="2"/>
     </row>
     <row r="7" spans="1:10">
-      <c r="A7" s="39"/>
+      <c r="A7" s="40"/>
       <c r="B7" s="1" t="s">
         <v>4</v>
       </c>
@@ -1484,12 +1484,12 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:CU110"/>
+  <dimension ref="A1:CU117"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <pane xSplit="5" topLeftCell="F1" activePane="topRight" state="frozen"/>
       <selection activeCell="A19" sqref="A19"/>
-      <selection pane="topRight" activeCell="B33" sqref="B33"/>
+      <selection pane="topRight" activeCell="F34" sqref="F34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1626,7 +1626,7 @@
         <v>58</v>
       </c>
       <c r="D10" s="16">
-        <f>SUMIF($D$20:$D$106,C10,$G$20:$G$106)</f>
+        <f>SUMIF($D$20:$D$113,C10,$G$20:$G$113)</f>
         <v>0</v>
       </c>
       <c r="E10" s="33"/>
@@ -1640,7 +1640,7 @@
         <v>61</v>
       </c>
       <c r="D11" s="16">
-        <f>SUMIF($D$20:$D$106,C11,$G$20:$G$106)</f>
+        <f>SUMIF($D$20:$D$113,C11,$G$20:$G$113)</f>
         <v>0</v>
       </c>
       <c r="E11" s="33"/>
@@ -1664,7 +1664,7 @@
         <v>59</v>
       </c>
       <c r="D13" s="16">
-        <f>SUMIF($D$20:$D$106,C13,$G$20:$G$106)</f>
+        <f>SUMIF($D$20:$D$113,C13,$G$20:$G$113)</f>
         <v>0</v>
       </c>
       <c r="E13" s="33"/>
@@ -1689,7 +1689,7 @@
         <v>57</v>
       </c>
       <c r="D15" s="16">
-        <f>SUMIF($D$20:$D$106,C15,$G$20:$G$106)</f>
+        <f>SUMIF($D$20:$D$113,C15,$G$20:$G$113)</f>
         <v>0</v>
       </c>
       <c r="E15" s="33"/>
@@ -1929,7 +1929,7 @@
         <v>81</v>
       </c>
       <c r="D17" s="16">
-        <f>SUMIF($D$20:$D$106,C17,$G$20:$G$106)</f>
+        <f>SUMIF($D$20:$D$113,C17,$G$20:$G$113)</f>
         <v>0</v>
       </c>
       <c r="E17" s="33"/>
@@ -3623,7 +3623,7 @@
       <c r="E32" s="22" t="s">
         <v>59</v>
       </c>
-      <c r="F32" s="42">
+      <c r="F32" s="39">
         <v>41218</v>
       </c>
       <c r="G32" s="22"/>
@@ -3724,16 +3724,22 @@
     </row>
     <row r="33" spans="2:99">
       <c r="B33" s="22"/>
-      <c r="C33" s="29"/>
-      <c r="D33" s="22"/>
-      <c r="E33" s="22"/>
-      <c r="F33" s="22"/>
+      <c r="C33" s="29" t="s">
+        <v>154</v>
+      </c>
+      <c r="D33" s="22" t="s">
+        <v>58</v>
+      </c>
+      <c r="E33" s="22" t="s">
+        <v>59</v>
+      </c>
+      <c r="F33" s="39">
+        <v>41101</v>
+      </c>
       <c r="G33" s="22"/>
       <c r="H33" s="23"/>
       <c r="I33" s="23"/>
-      <c r="J33" s="23" t="s">
-        <v>40</v>
-      </c>
+      <c r="J33" s="23"/>
       <c r="K33" s="22"/>
       <c r="L33" s="1"/>
       <c r="M33" s="1"/>
@@ -3824,124 +3830,116 @@
       <c r="CT33" s="1"/>
       <c r="CU33" s="1"/>
     </row>
-    <row r="34" spans="2:99" s="20" customFormat="1">
-      <c r="B34" s="21"/>
-      <c r="C34" s="30" t="s">
-        <v>65</v>
-      </c>
-      <c r="D34" s="21"/>
-      <c r="E34" s="21"/>
-      <c r="F34" s="21"/>
-      <c r="G34" s="21"/>
-      <c r="H34" s="21"/>
-      <c r="I34" s="21"/>
-      <c r="J34" s="21"/>
-      <c r="K34" s="21"/>
-      <c r="L34" s="21"/>
-      <c r="M34" s="21"/>
-      <c r="N34" s="21"/>
-      <c r="O34" s="21"/>
-      <c r="P34" s="21"/>
-      <c r="Q34" s="21"/>
-      <c r="R34" s="21"/>
-      <c r="S34" s="21"/>
-      <c r="T34" s="21"/>
-      <c r="U34" s="21"/>
-      <c r="V34" s="21"/>
-      <c r="W34" s="21"/>
-      <c r="X34" s="21"/>
-      <c r="Y34" s="21"/>
-      <c r="Z34" s="21"/>
-      <c r="AA34" s="21"/>
-      <c r="AB34" s="21"/>
-      <c r="AC34" s="21"/>
-      <c r="AD34" s="21"/>
-      <c r="AE34" s="21"/>
-      <c r="AF34" s="21"/>
-      <c r="AG34" s="21"/>
-      <c r="AH34" s="21"/>
-      <c r="AI34" s="21"/>
-      <c r="AJ34" s="21"/>
-      <c r="AK34" s="21"/>
-      <c r="AL34" s="21"/>
-      <c r="AM34" s="21"/>
-      <c r="AN34" s="21"/>
-      <c r="AO34" s="21"/>
-      <c r="AP34" s="21"/>
-      <c r="AQ34" s="21"/>
-      <c r="AR34" s="21"/>
-      <c r="AS34" s="21"/>
-      <c r="AT34" s="21"/>
-      <c r="AU34" s="21"/>
-      <c r="AV34" s="21"/>
-      <c r="AW34" s="21"/>
-      <c r="AX34" s="21"/>
-      <c r="AY34" s="21"/>
-      <c r="AZ34" s="21"/>
-      <c r="BA34" s="21"/>
-      <c r="BB34" s="21"/>
-      <c r="BC34" s="21"/>
-      <c r="BD34" s="21"/>
-      <c r="BE34" s="21"/>
-      <c r="BF34" s="21"/>
-      <c r="BG34" s="21"/>
-      <c r="BH34" s="21"/>
-      <c r="BI34" s="21"/>
-      <c r="BJ34" s="21"/>
-      <c r="BK34" s="21"/>
-      <c r="BL34" s="21"/>
-      <c r="BM34" s="21"/>
-      <c r="BN34" s="21"/>
-      <c r="BO34" s="21"/>
-      <c r="BP34" s="21"/>
-      <c r="BQ34" s="21"/>
-      <c r="BR34" s="21"/>
-      <c r="BS34" s="21"/>
-      <c r="BT34" s="21"/>
-      <c r="BU34" s="21"/>
-      <c r="BV34" s="21"/>
-      <c r="BW34" s="21"/>
-      <c r="BX34" s="21"/>
-      <c r="BY34" s="21"/>
-      <c r="BZ34" s="21"/>
-      <c r="CA34" s="21"/>
-      <c r="CB34" s="21"/>
-      <c r="CC34" s="21"/>
-      <c r="CD34" s="21"/>
-      <c r="CE34" s="21"/>
-      <c r="CF34" s="21"/>
-      <c r="CG34" s="21"/>
-      <c r="CH34" s="21"/>
-      <c r="CI34" s="21"/>
-      <c r="CJ34" s="21"/>
-      <c r="CK34" s="21"/>
-      <c r="CL34" s="21"/>
-      <c r="CM34" s="21"/>
-      <c r="CN34" s="21"/>
-      <c r="CO34" s="21"/>
-      <c r="CP34" s="21"/>
-      <c r="CQ34" s="21"/>
-      <c r="CR34" s="21"/>
-      <c r="CS34" s="21"/>
-      <c r="CT34" s="21"/>
-      <c r="CU34" s="21"/>
+    <row r="34" spans="2:99">
+      <c r="B34" s="22"/>
+      <c r="C34" s="29"/>
+      <c r="D34" s="22"/>
+      <c r="E34" s="22"/>
+      <c r="F34" s="39"/>
+      <c r="G34" s="22"/>
+      <c r="H34" s="23"/>
+      <c r="I34" s="23"/>
+      <c r="J34" s="23"/>
+      <c r="K34" s="22"/>
+      <c r="L34" s="1"/>
+      <c r="M34" s="1"/>
+      <c r="N34" s="1"/>
+      <c r="O34" s="1"/>
+      <c r="P34" s="1"/>
+      <c r="Q34" s="1"/>
+      <c r="R34" s="1"/>
+      <c r="S34" s="1"/>
+      <c r="T34" s="1"/>
+      <c r="U34" s="1"/>
+      <c r="V34" s="1"/>
+      <c r="W34" s="1"/>
+      <c r="X34" s="1"/>
+      <c r="Y34" s="1"/>
+      <c r="Z34" s="1"/>
+      <c r="AA34" s="1"/>
+      <c r="AB34" s="1"/>
+      <c r="AC34" s="1"/>
+      <c r="AD34" s="1"/>
+      <c r="AE34" s="1"/>
+      <c r="AF34" s="1"/>
+      <c r="AG34" s="1"/>
+      <c r="AH34" s="1"/>
+      <c r="AI34" s="1"/>
+      <c r="AJ34" s="1"/>
+      <c r="AK34" s="1"/>
+      <c r="AL34" s="1"/>
+      <c r="AM34" s="1"/>
+      <c r="AN34" s="1"/>
+      <c r="AO34" s="1"/>
+      <c r="AP34" s="1"/>
+      <c r="AQ34" s="1"/>
+      <c r="AR34" s="1"/>
+      <c r="AS34" s="1"/>
+      <c r="AT34" s="1"/>
+      <c r="AU34" s="1"/>
+      <c r="AV34" s="1"/>
+      <c r="AW34" s="1"/>
+      <c r="AX34" s="1"/>
+      <c r="AY34" s="1"/>
+      <c r="AZ34" s="1"/>
+      <c r="BA34" s="1"/>
+      <c r="BB34" s="1"/>
+      <c r="BC34" s="1"/>
+      <c r="BD34" s="1"/>
+      <c r="BE34" s="1"/>
+      <c r="BF34" s="1"/>
+      <c r="BG34" s="1"/>
+      <c r="BH34" s="1"/>
+      <c r="BI34" s="1"/>
+      <c r="BJ34" s="1"/>
+      <c r="BK34" s="1"/>
+      <c r="BL34" s="1"/>
+      <c r="BM34" s="1"/>
+      <c r="BN34" s="1"/>
+      <c r="BO34" s="1"/>
+      <c r="BP34" s="1"/>
+      <c r="BQ34" s="1"/>
+      <c r="BR34" s="1"/>
+      <c r="BS34" s="1"/>
+      <c r="BT34" s="1"/>
+      <c r="BU34" s="1"/>
+      <c r="BV34" s="1"/>
+      <c r="BW34" s="1"/>
+      <c r="BX34" s="1"/>
+      <c r="BY34" s="1"/>
+      <c r="BZ34" s="1"/>
+      <c r="CA34" s="1"/>
+      <c r="CB34" s="1"/>
+      <c r="CC34" s="1"/>
+      <c r="CD34" s="1"/>
+      <c r="CE34" s="1"/>
+      <c r="CF34" s="1"/>
+      <c r="CG34" s="1"/>
+      <c r="CH34" s="1"/>
+      <c r="CI34" s="1"/>
+      <c r="CJ34" s="1"/>
+      <c r="CK34" s="1"/>
+      <c r="CL34" s="1"/>
+      <c r="CM34" s="1"/>
+      <c r="CN34" s="1"/>
+      <c r="CO34" s="1"/>
+      <c r="CP34" s="1"/>
+      <c r="CQ34" s="1"/>
+      <c r="CR34" s="1"/>
+      <c r="CS34" s="1"/>
+      <c r="CT34" s="1"/>
+      <c r="CU34" s="1"/>
     </row>
     <row r="35" spans="2:99">
       <c r="B35" s="22"/>
-      <c r="C35" s="29" t="s">
-        <v>66</v>
-      </c>
-      <c r="D35" s="22" t="s">
-        <v>67</v>
-      </c>
+      <c r="C35" s="29"/>
+      <c r="D35" s="22"/>
       <c r="E35" s="22"/>
-      <c r="F35" s="22"/>
+      <c r="F35" s="39"/>
       <c r="G35" s="22"/>
       <c r="H35" s="23"/>
       <c r="I35" s="23"/>
-      <c r="J35" s="23" t="s">
-        <v>40</v>
-      </c>
+      <c r="J35" s="23"/>
       <c r="K35" s="22"/>
       <c r="L35" s="1"/>
       <c r="M35" s="1"/>
@@ -4034,22 +4032,14 @@
     </row>
     <row r="36" spans="2:99">
       <c r="B36" s="22"/>
-      <c r="C36" s="29" t="s">
-        <v>68</v>
-      </c>
-      <c r="D36" s="22" t="s">
-        <v>70</v>
-      </c>
-      <c r="E36" s="22" t="s">
-        <v>71</v>
-      </c>
-      <c r="F36" s="22"/>
+      <c r="C36" s="29"/>
+      <c r="D36" s="22"/>
+      <c r="E36" s="22"/>
+      <c r="F36" s="39"/>
       <c r="G36" s="22"/>
       <c r="H36" s="23"/>
       <c r="I36" s="23"/>
-      <c r="J36" s="23" t="s">
-        <v>40</v>
-      </c>
+      <c r="J36" s="23"/>
       <c r="K36" s="22"/>
       <c r="L36" s="1"/>
       <c r="M36" s="1"/>
@@ -4142,22 +4132,14 @@
     </row>
     <row r="37" spans="2:99">
       <c r="B37" s="22"/>
-      <c r="C37" s="29" t="s">
-        <v>69</v>
-      </c>
-      <c r="D37" s="22" t="s">
-        <v>59</v>
-      </c>
-      <c r="E37" s="22" t="s">
-        <v>67</v>
-      </c>
-      <c r="F37" s="22"/>
+      <c r="C37" s="29"/>
+      <c r="D37" s="22"/>
+      <c r="E37" s="22"/>
+      <c r="F37" s="39"/>
       <c r="G37" s="22"/>
       <c r="H37" s="23"/>
       <c r="I37" s="23"/>
-      <c r="J37" s="23" t="s">
-        <v>40</v>
-      </c>
+      <c r="J37" s="23"/>
       <c r="K37" s="22"/>
       <c r="L37" s="1"/>
       <c r="M37" s="1"/>
@@ -4250,24 +4232,14 @@
     </row>
     <row r="38" spans="2:99">
       <c r="B38" s="22"/>
-      <c r="C38" s="29" t="s">
-        <v>72</v>
-      </c>
-      <c r="D38" s="22" t="s">
-        <v>67</v>
-      </c>
-      <c r="E38" s="22" t="s">
-        <v>58</v>
-      </c>
-      <c r="F38" s="22" t="s">
-        <v>59</v>
-      </c>
+      <c r="C38" s="29"/>
+      <c r="D38" s="22"/>
+      <c r="E38" s="22"/>
+      <c r="F38" s="39"/>
       <c r="G38" s="22"/>
       <c r="H38" s="23"/>
       <c r="I38" s="23"/>
-      <c r="J38" s="23" t="s">
-        <v>40</v>
-      </c>
+      <c r="J38" s="23"/>
       <c r="K38" s="22"/>
       <c r="L38" s="1"/>
       <c r="M38" s="1"/>
@@ -4360,20 +4332,14 @@
     </row>
     <row r="39" spans="2:99">
       <c r="B39" s="22"/>
-      <c r="C39" s="29" t="s">
-        <v>96</v>
-      </c>
-      <c r="D39" s="22" t="s">
-        <v>58</v>
-      </c>
+      <c r="C39" s="29"/>
+      <c r="D39" s="22"/>
       <c r="E39" s="22"/>
-      <c r="F39" s="22"/>
+      <c r="F39" s="39"/>
       <c r="G39" s="22"/>
       <c r="H39" s="23"/>
       <c r="I39" s="23"/>
-      <c r="J39" s="23" t="s">
-        <v>40</v>
-      </c>
+      <c r="J39" s="23"/>
       <c r="K39" s="22"/>
       <c r="L39" s="1"/>
       <c r="M39" s="1"/>
@@ -4466,12 +4432,8 @@
     </row>
     <row r="40" spans="2:99">
       <c r="B40" s="22"/>
-      <c r="C40" s="29" t="s">
-        <v>97</v>
-      </c>
-      <c r="D40" s="22" t="s">
-        <v>59</v>
-      </c>
+      <c r="C40" s="29"/>
+      <c r="D40" s="22"/>
       <c r="E40" s="22"/>
       <c r="F40" s="22"/>
       <c r="G40" s="22"/>
@@ -4570,124 +4532,124 @@
       <c r="CT40" s="1"/>
       <c r="CU40" s="1"/>
     </row>
-    <row r="41" spans="2:99">
-      <c r="B41" s="22"/>
-      <c r="C41" s="29" t="s">
-        <v>73</v>
-      </c>
-      <c r="D41" s="22" t="s">
-        <v>74</v>
-      </c>
-      <c r="E41" s="22" t="s">
-        <v>75</v>
-      </c>
-      <c r="F41" s="22"/>
-      <c r="G41" s="22"/>
-      <c r="H41" s="23"/>
-      <c r="I41" s="23"/>
-      <c r="J41" s="23" t="s">
-        <v>40</v>
-      </c>
-      <c r="K41" s="22"/>
-      <c r="L41" s="1"/>
-      <c r="M41" s="1"/>
-      <c r="N41" s="1"/>
-      <c r="O41" s="1"/>
-      <c r="P41" s="1"/>
-      <c r="Q41" s="1"/>
-      <c r="R41" s="1"/>
-      <c r="S41" s="1"/>
-      <c r="T41" s="1"/>
-      <c r="U41" s="1"/>
-      <c r="V41" s="1"/>
-      <c r="W41" s="1"/>
-      <c r="X41" s="1"/>
-      <c r="Y41" s="1"/>
-      <c r="Z41" s="1"/>
-      <c r="AA41" s="1"/>
-      <c r="AB41" s="1"/>
-      <c r="AC41" s="1"/>
-      <c r="AD41" s="1"/>
-      <c r="AE41" s="1"/>
-      <c r="AF41" s="1"/>
-      <c r="AG41" s="1"/>
-      <c r="AH41" s="1"/>
-      <c r="AI41" s="1"/>
-      <c r="AJ41" s="1"/>
-      <c r="AK41" s="1"/>
-      <c r="AL41" s="1"/>
-      <c r="AM41" s="1"/>
-      <c r="AN41" s="1"/>
-      <c r="AO41" s="1"/>
-      <c r="AP41" s="1"/>
-      <c r="AQ41" s="1"/>
-      <c r="AR41" s="1"/>
-      <c r="AS41" s="1"/>
-      <c r="AT41" s="1"/>
-      <c r="AU41" s="1"/>
-      <c r="AV41" s="1"/>
-      <c r="AW41" s="1"/>
-      <c r="AX41" s="1"/>
-      <c r="AY41" s="1"/>
-      <c r="AZ41" s="1"/>
-      <c r="BA41" s="1"/>
-      <c r="BB41" s="1"/>
-      <c r="BC41" s="1"/>
-      <c r="BD41" s="1"/>
-      <c r="BE41" s="1"/>
-      <c r="BF41" s="1"/>
-      <c r="BG41" s="1"/>
-      <c r="BH41" s="1"/>
-      <c r="BI41" s="1"/>
-      <c r="BJ41" s="1"/>
-      <c r="BK41" s="1"/>
-      <c r="BL41" s="1"/>
-      <c r="BM41" s="1"/>
-      <c r="BN41" s="1"/>
-      <c r="BO41" s="1"/>
-      <c r="BP41" s="1"/>
-      <c r="BQ41" s="1"/>
-      <c r="BR41" s="1"/>
-      <c r="BS41" s="1"/>
-      <c r="BT41" s="1"/>
-      <c r="BU41" s="1"/>
-      <c r="BV41" s="1"/>
-      <c r="BW41" s="1"/>
-      <c r="BX41" s="1"/>
-      <c r="BY41" s="1"/>
-      <c r="BZ41" s="1"/>
-      <c r="CA41" s="1"/>
-      <c r="CB41" s="1"/>
-      <c r="CC41" s="1"/>
-      <c r="CD41" s="1"/>
-      <c r="CE41" s="1"/>
-      <c r="CF41" s="1"/>
-      <c r="CG41" s="1"/>
-      <c r="CH41" s="1"/>
-      <c r="CI41" s="1"/>
-      <c r="CJ41" s="1"/>
-      <c r="CK41" s="1"/>
-      <c r="CL41" s="1"/>
-      <c r="CM41" s="1"/>
-      <c r="CN41" s="1"/>
-      <c r="CO41" s="1"/>
-      <c r="CP41" s="1"/>
-      <c r="CQ41" s="1"/>
-      <c r="CR41" s="1"/>
-      <c r="CS41" s="1"/>
-      <c r="CT41" s="1"/>
-      <c r="CU41" s="1"/>
+    <row r="41" spans="2:99" s="20" customFormat="1">
+      <c r="B41" s="21"/>
+      <c r="C41" s="30" t="s">
+        <v>65</v>
+      </c>
+      <c r="D41" s="21"/>
+      <c r="E41" s="21"/>
+      <c r="F41" s="21"/>
+      <c r="G41" s="21"/>
+      <c r="H41" s="21"/>
+      <c r="I41" s="21"/>
+      <c r="J41" s="21"/>
+      <c r="K41" s="21"/>
+      <c r="L41" s="21"/>
+      <c r="M41" s="21"/>
+      <c r="N41" s="21"/>
+      <c r="O41" s="21"/>
+      <c r="P41" s="21"/>
+      <c r="Q41" s="21"/>
+      <c r="R41" s="21"/>
+      <c r="S41" s="21"/>
+      <c r="T41" s="21"/>
+      <c r="U41" s="21"/>
+      <c r="V41" s="21"/>
+      <c r="W41" s="21"/>
+      <c r="X41" s="21"/>
+      <c r="Y41" s="21"/>
+      <c r="Z41" s="21"/>
+      <c r="AA41" s="21"/>
+      <c r="AB41" s="21"/>
+      <c r="AC41" s="21"/>
+      <c r="AD41" s="21"/>
+      <c r="AE41" s="21"/>
+      <c r="AF41" s="21"/>
+      <c r="AG41" s="21"/>
+      <c r="AH41" s="21"/>
+      <c r="AI41" s="21"/>
+      <c r="AJ41" s="21"/>
+      <c r="AK41" s="21"/>
+      <c r="AL41" s="21"/>
+      <c r="AM41" s="21"/>
+      <c r="AN41" s="21"/>
+      <c r="AO41" s="21"/>
+      <c r="AP41" s="21"/>
+      <c r="AQ41" s="21"/>
+      <c r="AR41" s="21"/>
+      <c r="AS41" s="21"/>
+      <c r="AT41" s="21"/>
+      <c r="AU41" s="21"/>
+      <c r="AV41" s="21"/>
+      <c r="AW41" s="21"/>
+      <c r="AX41" s="21"/>
+      <c r="AY41" s="21"/>
+      <c r="AZ41" s="21"/>
+      <c r="BA41" s="21"/>
+      <c r="BB41" s="21"/>
+      <c r="BC41" s="21"/>
+      <c r="BD41" s="21"/>
+      <c r="BE41" s="21"/>
+      <c r="BF41" s="21"/>
+      <c r="BG41" s="21"/>
+      <c r="BH41" s="21"/>
+      <c r="BI41" s="21"/>
+      <c r="BJ41" s="21"/>
+      <c r="BK41" s="21"/>
+      <c r="BL41" s="21"/>
+      <c r="BM41" s="21"/>
+      <c r="BN41" s="21"/>
+      <c r="BO41" s="21"/>
+      <c r="BP41" s="21"/>
+      <c r="BQ41" s="21"/>
+      <c r="BR41" s="21"/>
+      <c r="BS41" s="21"/>
+      <c r="BT41" s="21"/>
+      <c r="BU41" s="21"/>
+      <c r="BV41" s="21"/>
+      <c r="BW41" s="21"/>
+      <c r="BX41" s="21"/>
+      <c r="BY41" s="21"/>
+      <c r="BZ41" s="21"/>
+      <c r="CA41" s="21"/>
+      <c r="CB41" s="21"/>
+      <c r="CC41" s="21"/>
+      <c r="CD41" s="21"/>
+      <c r="CE41" s="21"/>
+      <c r="CF41" s="21"/>
+      <c r="CG41" s="21"/>
+      <c r="CH41" s="21"/>
+      <c r="CI41" s="21"/>
+      <c r="CJ41" s="21"/>
+      <c r="CK41" s="21"/>
+      <c r="CL41" s="21"/>
+      <c r="CM41" s="21"/>
+      <c r="CN41" s="21"/>
+      <c r="CO41" s="21"/>
+      <c r="CP41" s="21"/>
+      <c r="CQ41" s="21"/>
+      <c r="CR41" s="21"/>
+      <c r="CS41" s="21"/>
+      <c r="CT41" s="21"/>
+      <c r="CU41" s="21"/>
     </row>
     <row r="42" spans="2:99">
       <c r="B42" s="22"/>
-      <c r="C42" s="29"/>
-      <c r="D42" s="29"/>
+      <c r="C42" s="29" t="s">
+        <v>66</v>
+      </c>
+      <c r="D42" s="22" t="s">
+        <v>67</v>
+      </c>
       <c r="E42" s="22"/>
       <c r="F42" s="22"/>
       <c r="G42" s="22"/>
       <c r="H42" s="23"/>
       <c r="I42" s="23"/>
-      <c r="J42" s="23"/>
+      <c r="J42" s="23" t="s">
+        <v>40</v>
+      </c>
       <c r="K42" s="22"/>
       <c r="L42" s="1"/>
       <c r="M42" s="1"/>
@@ -4778,118 +4740,124 @@
       <c r="CT42" s="1"/>
       <c r="CU42" s="1"/>
     </row>
-    <row r="43" spans="2:99" s="20" customFormat="1">
-      <c r="B43" s="21"/>
-      <c r="C43" s="30" t="s">
-        <v>49</v>
-      </c>
-      <c r="D43" s="21"/>
-      <c r="E43" s="21"/>
-      <c r="F43" s="21"/>
-      <c r="G43" s="21"/>
-      <c r="H43" s="21"/>
-      <c r="I43" s="21"/>
-      <c r="J43" s="21"/>
-      <c r="K43" s="21"/>
-      <c r="L43" s="21"/>
-      <c r="M43" s="21"/>
-      <c r="N43" s="21"/>
-      <c r="O43" s="21"/>
-      <c r="P43" s="21"/>
-      <c r="Q43" s="21"/>
-      <c r="R43" s="21"/>
-      <c r="S43" s="21"/>
-      <c r="T43" s="21"/>
-      <c r="U43" s="21"/>
-      <c r="V43" s="21"/>
-      <c r="W43" s="21"/>
-      <c r="X43" s="21"/>
-      <c r="Y43" s="21"/>
-      <c r="Z43" s="21"/>
-      <c r="AA43" s="21"/>
-      <c r="AB43" s="21"/>
-      <c r="AC43" s="21"/>
-      <c r="AD43" s="21"/>
-      <c r="AE43" s="21"/>
-      <c r="AF43" s="21"/>
-      <c r="AG43" s="21"/>
-      <c r="AH43" s="21"/>
-      <c r="AI43" s="21"/>
-      <c r="AJ43" s="21"/>
-      <c r="AK43" s="21"/>
-      <c r="AL43" s="21"/>
-      <c r="AM43" s="21"/>
-      <c r="AN43" s="21"/>
-      <c r="AO43" s="21"/>
-      <c r="AP43" s="21"/>
-      <c r="AQ43" s="21"/>
-      <c r="AR43" s="21"/>
-      <c r="AS43" s="21"/>
-      <c r="AT43" s="21"/>
-      <c r="AU43" s="21"/>
-      <c r="AV43" s="21"/>
-      <c r="AW43" s="21"/>
-      <c r="AX43" s="21"/>
-      <c r="AY43" s="21"/>
-      <c r="AZ43" s="21"/>
-      <c r="BA43" s="21"/>
-      <c r="BB43" s="21"/>
-      <c r="BC43" s="21"/>
-      <c r="BD43" s="21"/>
-      <c r="BE43" s="21"/>
-      <c r="BF43" s="21"/>
-      <c r="BG43" s="21"/>
-      <c r="BH43" s="21"/>
-      <c r="BI43" s="21"/>
-      <c r="BJ43" s="21"/>
-      <c r="BK43" s="21"/>
-      <c r="BL43" s="21"/>
-      <c r="BM43" s="21"/>
-      <c r="BN43" s="21"/>
-      <c r="BO43" s="21"/>
-      <c r="BP43" s="21"/>
-      <c r="BQ43" s="21"/>
-      <c r="BR43" s="21"/>
-      <c r="BS43" s="21"/>
-      <c r="BT43" s="21"/>
-      <c r="BU43" s="21"/>
-      <c r="BV43" s="21"/>
-      <c r="BW43" s="21"/>
-      <c r="BX43" s="21"/>
-      <c r="BY43" s="21"/>
-      <c r="BZ43" s="21"/>
-      <c r="CA43" s="21"/>
-      <c r="CB43" s="21"/>
-      <c r="CC43" s="21"/>
-      <c r="CD43" s="21"/>
-      <c r="CE43" s="21"/>
-      <c r="CF43" s="21"/>
-      <c r="CG43" s="21"/>
-      <c r="CH43" s="21"/>
-      <c r="CI43" s="21"/>
-      <c r="CJ43" s="21"/>
-      <c r="CK43" s="21"/>
-      <c r="CL43" s="21"/>
-      <c r="CM43" s="21"/>
-      <c r="CN43" s="21"/>
-      <c r="CO43" s="21"/>
-      <c r="CP43" s="21"/>
-      <c r="CQ43" s="21"/>
-      <c r="CR43" s="21"/>
-      <c r="CS43" s="21"/>
-      <c r="CT43" s="21"/>
-      <c r="CU43" s="21"/>
+    <row r="43" spans="2:99">
+      <c r="B43" s="22"/>
+      <c r="C43" s="29" t="s">
+        <v>68</v>
+      </c>
+      <c r="D43" s="22" t="s">
+        <v>70</v>
+      </c>
+      <c r="E43" s="22" t="s">
+        <v>71</v>
+      </c>
+      <c r="F43" s="22"/>
+      <c r="G43" s="22"/>
+      <c r="H43" s="23"/>
+      <c r="I43" s="23"/>
+      <c r="J43" s="23" t="s">
+        <v>40</v>
+      </c>
+      <c r="K43" s="22"/>
+      <c r="L43" s="1"/>
+      <c r="M43" s="1"/>
+      <c r="N43" s="1"/>
+      <c r="O43" s="1"/>
+      <c r="P43" s="1"/>
+      <c r="Q43" s="1"/>
+      <c r="R43" s="1"/>
+      <c r="S43" s="1"/>
+      <c r="T43" s="1"/>
+      <c r="U43" s="1"/>
+      <c r="V43" s="1"/>
+      <c r="W43" s="1"/>
+      <c r="X43" s="1"/>
+      <c r="Y43" s="1"/>
+      <c r="Z43" s="1"/>
+      <c r="AA43" s="1"/>
+      <c r="AB43" s="1"/>
+      <c r="AC43" s="1"/>
+      <c r="AD43" s="1"/>
+      <c r="AE43" s="1"/>
+      <c r="AF43" s="1"/>
+      <c r="AG43" s="1"/>
+      <c r="AH43" s="1"/>
+      <c r="AI43" s="1"/>
+      <c r="AJ43" s="1"/>
+      <c r="AK43" s="1"/>
+      <c r="AL43" s="1"/>
+      <c r="AM43" s="1"/>
+      <c r="AN43" s="1"/>
+      <c r="AO43" s="1"/>
+      <c r="AP43" s="1"/>
+      <c r="AQ43" s="1"/>
+      <c r="AR43" s="1"/>
+      <c r="AS43" s="1"/>
+      <c r="AT43" s="1"/>
+      <c r="AU43" s="1"/>
+      <c r="AV43" s="1"/>
+      <c r="AW43" s="1"/>
+      <c r="AX43" s="1"/>
+      <c r="AY43" s="1"/>
+      <c r="AZ43" s="1"/>
+      <c r="BA43" s="1"/>
+      <c r="BB43" s="1"/>
+      <c r="BC43" s="1"/>
+      <c r="BD43" s="1"/>
+      <c r="BE43" s="1"/>
+      <c r="BF43" s="1"/>
+      <c r="BG43" s="1"/>
+      <c r="BH43" s="1"/>
+      <c r="BI43" s="1"/>
+      <c r="BJ43" s="1"/>
+      <c r="BK43" s="1"/>
+      <c r="BL43" s="1"/>
+      <c r="BM43" s="1"/>
+      <c r="BN43" s="1"/>
+      <c r="BO43" s="1"/>
+      <c r="BP43" s="1"/>
+      <c r="BQ43" s="1"/>
+      <c r="BR43" s="1"/>
+      <c r="BS43" s="1"/>
+      <c r="BT43" s="1"/>
+      <c r="BU43" s="1"/>
+      <c r="BV43" s="1"/>
+      <c r="BW43" s="1"/>
+      <c r="BX43" s="1"/>
+      <c r="BY43" s="1"/>
+      <c r="BZ43" s="1"/>
+      <c r="CA43" s="1"/>
+      <c r="CB43" s="1"/>
+      <c r="CC43" s="1"/>
+      <c r="CD43" s="1"/>
+      <c r="CE43" s="1"/>
+      <c r="CF43" s="1"/>
+      <c r="CG43" s="1"/>
+      <c r="CH43" s="1"/>
+      <c r="CI43" s="1"/>
+      <c r="CJ43" s="1"/>
+      <c r="CK43" s="1"/>
+      <c r="CL43" s="1"/>
+      <c r="CM43" s="1"/>
+      <c r="CN43" s="1"/>
+      <c r="CO43" s="1"/>
+      <c r="CP43" s="1"/>
+      <c r="CQ43" s="1"/>
+      <c r="CR43" s="1"/>
+      <c r="CS43" s="1"/>
+      <c r="CT43" s="1"/>
+      <c r="CU43" s="1"/>
     </row>
     <row r="44" spans="2:99">
       <c r="B44" s="22"/>
       <c r="C44" s="29" t="s">
-        <v>56</v>
+        <v>69</v>
       </c>
       <c r="D44" s="22" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E44" s="22" t="s">
-        <v>59</v>
+        <v>67</v>
       </c>
       <c r="F44" s="22"/>
       <c r="G44" s="22"/>
@@ -4991,13 +4959,17 @@
     <row r="45" spans="2:99">
       <c r="B45" s="22"/>
       <c r="C45" s="29" t="s">
-        <v>50</v>
+        <v>72</v>
       </c>
       <c r="D45" s="22" t="s">
+        <v>67</v>
+      </c>
+      <c r="E45" s="22" t="s">
         <v>58</v>
       </c>
-      <c r="E45" s="22"/>
-      <c r="F45" s="22"/>
+      <c r="F45" s="22" t="s">
+        <v>59</v>
+      </c>
       <c r="G45" s="22"/>
       <c r="H45" s="23"/>
       <c r="I45" s="23"/>
@@ -5097,7 +5069,7 @@
     <row r="46" spans="2:99">
       <c r="B46" s="22"/>
       <c r="C46" s="29" t="s">
-        <v>51</v>
+        <v>96</v>
       </c>
       <c r="D46" s="22" t="s">
         <v>58</v>
@@ -5203,10 +5175,10 @@
     <row r="47" spans="2:99">
       <c r="B47" s="22"/>
       <c r="C47" s="29" t="s">
-        <v>98</v>
-      </c>
-      <c r="D47" s="29" t="s">
-        <v>58</v>
+        <v>97</v>
+      </c>
+      <c r="D47" s="22" t="s">
+        <v>59</v>
       </c>
       <c r="E47" s="22"/>
       <c r="F47" s="22"/>
@@ -5308,14 +5280,22 @@
     </row>
     <row r="48" spans="2:99">
       <c r="B48" s="22"/>
-      <c r="C48" s="29"/>
-      <c r="D48" s="22"/>
-      <c r="E48" s="22"/>
+      <c r="C48" s="29" t="s">
+        <v>73</v>
+      </c>
+      <c r="D48" s="22" t="s">
+        <v>74</v>
+      </c>
+      <c r="E48" s="22" t="s">
+        <v>75</v>
+      </c>
       <c r="F48" s="22"/>
       <c r="G48" s="22"/>
       <c r="H48" s="23"/>
       <c r="I48" s="23"/>
-      <c r="J48" s="23"/>
+      <c r="J48" s="23" t="s">
+        <v>40</v>
+      </c>
       <c r="K48" s="22"/>
       <c r="L48" s="1"/>
       <c r="M48" s="1"/>
@@ -5406,231 +5386,219 @@
       <c r="CT48" s="1"/>
       <c r="CU48" s="1"/>
     </row>
-    <row r="49" spans="1:99" s="20" customFormat="1">
-      <c r="B49" s="21"/>
-      <c r="C49" s="30" t="s">
-        <v>132</v>
-      </c>
-      <c r="D49" s="21" t="s">
-        <v>129</v>
-      </c>
-      <c r="E49" s="21" t="s">
-        <v>130</v>
-      </c>
-      <c r="F49" s="21" t="s">
-        <v>57</v>
-      </c>
-      <c r="G49" s="21"/>
-      <c r="H49" s="21"/>
-      <c r="I49" s="21"/>
-      <c r="J49" s="21"/>
-      <c r="K49" s="21"/>
-      <c r="L49" s="21"/>
-      <c r="M49" s="21"/>
-      <c r="N49" s="21"/>
-      <c r="O49" s="21"/>
-      <c r="P49" s="21"/>
-      <c r="Q49" s="21"/>
-      <c r="R49" s="21"/>
-      <c r="S49" s="21"/>
-      <c r="T49" s="21"/>
-      <c r="U49" s="21"/>
-      <c r="V49" s="21"/>
-      <c r="W49" s="21"/>
-      <c r="X49" s="21"/>
-      <c r="Y49" s="21"/>
-      <c r="Z49" s="21"/>
-      <c r="AA49" s="21"/>
-      <c r="AB49" s="21"/>
-      <c r="AC49" s="21"/>
-      <c r="AD49" s="21"/>
-      <c r="AE49" s="21"/>
-      <c r="AF49" s="21"/>
-      <c r="AG49" s="21"/>
-      <c r="AH49" s="21"/>
-      <c r="AI49" s="21"/>
-      <c r="AJ49" s="21"/>
-      <c r="AK49" s="21"/>
-      <c r="AL49" s="21"/>
-      <c r="AM49" s="21"/>
-      <c r="AN49" s="21"/>
-      <c r="AO49" s="21"/>
-      <c r="AP49" s="21"/>
-      <c r="AQ49" s="21"/>
-      <c r="AR49" s="21"/>
-      <c r="AS49" s="21"/>
-      <c r="AT49" s="21"/>
-      <c r="AU49" s="21"/>
-      <c r="AV49" s="21"/>
-      <c r="AW49" s="21"/>
-      <c r="AX49" s="21"/>
-      <c r="AY49" s="21"/>
-      <c r="AZ49" s="21"/>
-      <c r="BA49" s="21"/>
-      <c r="BB49" s="21"/>
-      <c r="BC49" s="21"/>
-      <c r="BD49" s="21"/>
-      <c r="BE49" s="21"/>
-      <c r="BF49" s="21"/>
-      <c r="BG49" s="21"/>
-      <c r="BH49" s="21"/>
-      <c r="BI49" s="21"/>
-      <c r="BJ49" s="21"/>
-      <c r="BK49" s="21"/>
-      <c r="BL49" s="21"/>
-      <c r="BM49" s="21"/>
-      <c r="BN49" s="21"/>
-      <c r="BO49" s="21"/>
-      <c r="BP49" s="21"/>
-      <c r="BQ49" s="21"/>
-      <c r="BR49" s="21"/>
-      <c r="BS49" s="21"/>
-      <c r="BT49" s="21"/>
-      <c r="BU49" s="21"/>
-      <c r="BV49" s="21"/>
-      <c r="BW49" s="21"/>
-      <c r="BX49" s="21"/>
-      <c r="BY49" s="21"/>
-      <c r="BZ49" s="21"/>
-      <c r="CA49" s="21"/>
-      <c r="CB49" s="21"/>
-      <c r="CC49" s="21"/>
-      <c r="CD49" s="21"/>
-      <c r="CE49" s="21"/>
-      <c r="CF49" s="21"/>
-      <c r="CG49" s="21"/>
-      <c r="CH49" s="21"/>
-      <c r="CI49" s="21"/>
-      <c r="CJ49" s="21"/>
-      <c r="CK49" s="21"/>
-      <c r="CL49" s="21"/>
-      <c r="CM49" s="21"/>
-      <c r="CN49" s="21"/>
-      <c r="CO49" s="21"/>
-      <c r="CP49" s="21"/>
-      <c r="CQ49" s="21"/>
-      <c r="CR49" s="21"/>
-      <c r="CS49" s="21"/>
-      <c r="CT49" s="21"/>
-      <c r="CU49" s="21"/>
-    </row>
-    <row r="50" spans="1:99">
-      <c r="A50" t="s">
-        <v>10</v>
-      </c>
-      <c r="B50" s="22"/>
-      <c r="C50" s="29" t="s">
-        <v>113</v>
-      </c>
-      <c r="D50" s="22"/>
-      <c r="E50" s="22"/>
-      <c r="F50" s="22"/>
-      <c r="G50" s="22"/>
-      <c r="H50" s="23"/>
-      <c r="I50" s="23"/>
-      <c r="J50" s="23" t="s">
-        <v>40</v>
-      </c>
-      <c r="K50" s="22"/>
-      <c r="L50" s="1"/>
-      <c r="M50" s="1"/>
-      <c r="N50" s="1"/>
-      <c r="O50" s="1"/>
-      <c r="P50" s="1"/>
-      <c r="Q50" s="1"/>
-      <c r="R50" s="1"/>
-      <c r="S50" s="1"/>
-      <c r="T50" s="1"/>
-      <c r="U50" s="1"/>
-      <c r="V50" s="1"/>
-      <c r="W50" s="1"/>
-      <c r="X50" s="1"/>
-      <c r="Y50" s="1"/>
-      <c r="Z50" s="1"/>
-      <c r="AA50" s="1"/>
-      <c r="AB50" s="1"/>
-      <c r="AC50" s="1"/>
-      <c r="AD50" s="1"/>
-      <c r="AE50" s="1"/>
-      <c r="AF50" s="1"/>
-      <c r="AG50" s="1"/>
-      <c r="AH50" s="1"/>
-      <c r="AI50" s="1"/>
-      <c r="AJ50" s="1"/>
-      <c r="AK50" s="1"/>
-      <c r="AL50" s="1"/>
-      <c r="AM50" s="1"/>
-      <c r="AN50" s="1"/>
-      <c r="AO50" s="1"/>
-      <c r="AP50" s="1"/>
-      <c r="AQ50" s="1"/>
-      <c r="AR50" s="1"/>
-      <c r="AS50" s="1"/>
-      <c r="AT50" s="1"/>
-      <c r="AU50" s="1"/>
-      <c r="AV50" s="1"/>
-      <c r="AW50" s="1"/>
-      <c r="AX50" s="1"/>
-      <c r="AY50" s="1"/>
-      <c r="AZ50" s="1"/>
-      <c r="BA50" s="1"/>
-      <c r="BB50" s="1"/>
-      <c r="BC50" s="1"/>
-      <c r="BD50" s="1"/>
-      <c r="BE50" s="1"/>
-      <c r="BF50" s="1"/>
-      <c r="BG50" s="1"/>
-      <c r="BH50" s="1"/>
-      <c r="BI50" s="1"/>
-      <c r="BJ50" s="1"/>
-      <c r="BK50" s="1"/>
-      <c r="BL50" s="1"/>
-      <c r="BM50" s="1"/>
-      <c r="BN50" s="1"/>
-      <c r="BO50" s="1"/>
-      <c r="BP50" s="1"/>
-      <c r="BQ50" s="1"/>
-      <c r="BR50" s="1"/>
-      <c r="BS50" s="1"/>
-      <c r="BT50" s="1"/>
-      <c r="BU50" s="1"/>
-      <c r="BV50" s="1"/>
-      <c r="BW50" s="1"/>
-      <c r="BX50" s="1"/>
-      <c r="BY50" s="1"/>
-      <c r="BZ50" s="1"/>
-      <c r="CA50" s="1"/>
-      <c r="CB50" s="1"/>
-      <c r="CC50" s="1"/>
-      <c r="CD50" s="1"/>
-      <c r="CE50" s="1"/>
-      <c r="CF50" s="1"/>
-      <c r="CG50" s="1"/>
-      <c r="CH50" s="1"/>
-      <c r="CI50" s="1"/>
-      <c r="CJ50" s="1"/>
-      <c r="CK50" s="1"/>
-      <c r="CL50" s="1"/>
-      <c r="CM50" s="1"/>
-      <c r="CN50" s="1"/>
-      <c r="CO50" s="1"/>
-      <c r="CP50" s="1"/>
-      <c r="CQ50" s="1"/>
-      <c r="CR50" s="1"/>
-      <c r="CS50" s="1"/>
-      <c r="CT50" s="1"/>
-      <c r="CU50" s="1"/>
+    <row r="49" spans="1:99">
+      <c r="B49" s="22"/>
+      <c r="C49" s="29"/>
+      <c r="D49" s="29"/>
+      <c r="E49" s="22"/>
+      <c r="F49" s="22"/>
+      <c r="G49" s="22"/>
+      <c r="H49" s="23"/>
+      <c r="I49" s="23"/>
+      <c r="J49" s="23"/>
+      <c r="K49" s="22"/>
+      <c r="L49" s="1"/>
+      <c r="M49" s="1"/>
+      <c r="N49" s="1"/>
+      <c r="O49" s="1"/>
+      <c r="P49" s="1"/>
+      <c r="Q49" s="1"/>
+      <c r="R49" s="1"/>
+      <c r="S49" s="1"/>
+      <c r="T49" s="1"/>
+      <c r="U49" s="1"/>
+      <c r="V49" s="1"/>
+      <c r="W49" s="1"/>
+      <c r="X49" s="1"/>
+      <c r="Y49" s="1"/>
+      <c r="Z49" s="1"/>
+      <c r="AA49" s="1"/>
+      <c r="AB49" s="1"/>
+      <c r="AC49" s="1"/>
+      <c r="AD49" s="1"/>
+      <c r="AE49" s="1"/>
+      <c r="AF49" s="1"/>
+      <c r="AG49" s="1"/>
+      <c r="AH49" s="1"/>
+      <c r="AI49" s="1"/>
+      <c r="AJ49" s="1"/>
+      <c r="AK49" s="1"/>
+      <c r="AL49" s="1"/>
+      <c r="AM49" s="1"/>
+      <c r="AN49" s="1"/>
+      <c r="AO49" s="1"/>
+      <c r="AP49" s="1"/>
+      <c r="AQ49" s="1"/>
+      <c r="AR49" s="1"/>
+      <c r="AS49" s="1"/>
+      <c r="AT49" s="1"/>
+      <c r="AU49" s="1"/>
+      <c r="AV49" s="1"/>
+      <c r="AW49" s="1"/>
+      <c r="AX49" s="1"/>
+      <c r="AY49" s="1"/>
+      <c r="AZ49" s="1"/>
+      <c r="BA49" s="1"/>
+      <c r="BB49" s="1"/>
+      <c r="BC49" s="1"/>
+      <c r="BD49" s="1"/>
+      <c r="BE49" s="1"/>
+      <c r="BF49" s="1"/>
+      <c r="BG49" s="1"/>
+      <c r="BH49" s="1"/>
+      <c r="BI49" s="1"/>
+      <c r="BJ49" s="1"/>
+      <c r="BK49" s="1"/>
+      <c r="BL49" s="1"/>
+      <c r="BM49" s="1"/>
+      <c r="BN49" s="1"/>
+      <c r="BO49" s="1"/>
+      <c r="BP49" s="1"/>
+      <c r="BQ49" s="1"/>
+      <c r="BR49" s="1"/>
+      <c r="BS49" s="1"/>
+      <c r="BT49" s="1"/>
+      <c r="BU49" s="1"/>
+      <c r="BV49" s="1"/>
+      <c r="BW49" s="1"/>
+      <c r="BX49" s="1"/>
+      <c r="BY49" s="1"/>
+      <c r="BZ49" s="1"/>
+      <c r="CA49" s="1"/>
+      <c r="CB49" s="1"/>
+      <c r="CC49" s="1"/>
+      <c r="CD49" s="1"/>
+      <c r="CE49" s="1"/>
+      <c r="CF49" s="1"/>
+      <c r="CG49" s="1"/>
+      <c r="CH49" s="1"/>
+      <c r="CI49" s="1"/>
+      <c r="CJ49" s="1"/>
+      <c r="CK49" s="1"/>
+      <c r="CL49" s="1"/>
+      <c r="CM49" s="1"/>
+      <c r="CN49" s="1"/>
+      <c r="CO49" s="1"/>
+      <c r="CP49" s="1"/>
+      <c r="CQ49" s="1"/>
+      <c r="CR49" s="1"/>
+      <c r="CS49" s="1"/>
+      <c r="CT49" s="1"/>
+      <c r="CU49" s="1"/>
+    </row>
+    <row r="50" spans="1:99" s="20" customFormat="1">
+      <c r="B50" s="21"/>
+      <c r="C50" s="30" t="s">
+        <v>49</v>
+      </c>
+      <c r="D50" s="21"/>
+      <c r="E50" s="21"/>
+      <c r="F50" s="21"/>
+      <c r="G50" s="21"/>
+      <c r="H50" s="21"/>
+      <c r="I50" s="21"/>
+      <c r="J50" s="21"/>
+      <c r="K50" s="21"/>
+      <c r="L50" s="21"/>
+      <c r="M50" s="21"/>
+      <c r="N50" s="21"/>
+      <c r="O50" s="21"/>
+      <c r="P50" s="21"/>
+      <c r="Q50" s="21"/>
+      <c r="R50" s="21"/>
+      <c r="S50" s="21"/>
+      <c r="T50" s="21"/>
+      <c r="U50" s="21"/>
+      <c r="V50" s="21"/>
+      <c r="W50" s="21"/>
+      <c r="X50" s="21"/>
+      <c r="Y50" s="21"/>
+      <c r="Z50" s="21"/>
+      <c r="AA50" s="21"/>
+      <c r="AB50" s="21"/>
+      <c r="AC50" s="21"/>
+      <c r="AD50" s="21"/>
+      <c r="AE50" s="21"/>
+      <c r="AF50" s="21"/>
+      <c r="AG50" s="21"/>
+      <c r="AH50" s="21"/>
+      <c r="AI50" s="21"/>
+      <c r="AJ50" s="21"/>
+      <c r="AK50" s="21"/>
+      <c r="AL50" s="21"/>
+      <c r="AM50" s="21"/>
+      <c r="AN50" s="21"/>
+      <c r="AO50" s="21"/>
+      <c r="AP50" s="21"/>
+      <c r="AQ50" s="21"/>
+      <c r="AR50" s="21"/>
+      <c r="AS50" s="21"/>
+      <c r="AT50" s="21"/>
+      <c r="AU50" s="21"/>
+      <c r="AV50" s="21"/>
+      <c r="AW50" s="21"/>
+      <c r="AX50" s="21"/>
+      <c r="AY50" s="21"/>
+      <c r="AZ50" s="21"/>
+      <c r="BA50" s="21"/>
+      <c r="BB50" s="21"/>
+      <c r="BC50" s="21"/>
+      <c r="BD50" s="21"/>
+      <c r="BE50" s="21"/>
+      <c r="BF50" s="21"/>
+      <c r="BG50" s="21"/>
+      <c r="BH50" s="21"/>
+      <c r="BI50" s="21"/>
+      <c r="BJ50" s="21"/>
+      <c r="BK50" s="21"/>
+      <c r="BL50" s="21"/>
+      <c r="BM50" s="21"/>
+      <c r="BN50" s="21"/>
+      <c r="BO50" s="21"/>
+      <c r="BP50" s="21"/>
+      <c r="BQ50" s="21"/>
+      <c r="BR50" s="21"/>
+      <c r="BS50" s="21"/>
+      <c r="BT50" s="21"/>
+      <c r="BU50" s="21"/>
+      <c r="BV50" s="21"/>
+      <c r="BW50" s="21"/>
+      <c r="BX50" s="21"/>
+      <c r="BY50" s="21"/>
+      <c r="BZ50" s="21"/>
+      <c r="CA50" s="21"/>
+      <c r="CB50" s="21"/>
+      <c r="CC50" s="21"/>
+      <c r="CD50" s="21"/>
+      <c r="CE50" s="21"/>
+      <c r="CF50" s="21"/>
+      <c r="CG50" s="21"/>
+      <c r="CH50" s="21"/>
+      <c r="CI50" s="21"/>
+      <c r="CJ50" s="21"/>
+      <c r="CK50" s="21"/>
+      <c r="CL50" s="21"/>
+      <c r="CM50" s="21"/>
+      <c r="CN50" s="21"/>
+      <c r="CO50" s="21"/>
+      <c r="CP50" s="21"/>
+      <c r="CQ50" s="21"/>
+      <c r="CR50" s="21"/>
+      <c r="CS50" s="21"/>
+      <c r="CT50" s="21"/>
+      <c r="CU50" s="21"/>
     </row>
     <row r="51" spans="1:99">
-      <c r="A51" t="s">
-        <v>10</v>
-      </c>
       <c r="B51" s="22"/>
       <c r="C51" s="29" t="s">
-        <v>114</v>
-      </c>
-      <c r="D51" s="22"/>
-      <c r="E51" s="22"/>
+        <v>56</v>
+      </c>
+      <c r="D51" s="22" t="s">
+        <v>58</v>
+      </c>
+      <c r="E51" s="22" t="s">
+        <v>59</v>
+      </c>
       <c r="F51" s="22"/>
       <c r="G51" s="22"/>
       <c r="H51" s="23"/>
@@ -5729,14 +5697,13 @@
       <c r="CU51" s="1"/>
     </row>
     <row r="52" spans="1:99">
-      <c r="A52" t="s">
-        <v>10</v>
-      </c>
       <c r="B52" s="22"/>
       <c r="C52" s="29" t="s">
-        <v>115</v>
-      </c>
-      <c r="D52" s="22"/>
+        <v>50</v>
+      </c>
+      <c r="D52" s="22" t="s">
+        <v>58</v>
+      </c>
       <c r="E52" s="22"/>
       <c r="F52" s="22"/>
       <c r="G52" s="22"/>
@@ -5836,25 +5803,20 @@
       <c r="CU52" s="1"/>
     </row>
     <row r="53" spans="1:99">
-      <c r="A53" t="s">
-        <v>10</v>
-      </c>
       <c r="B53" s="22"/>
       <c r="C53" s="29" t="s">
-        <v>95</v>
+        <v>51</v>
       </c>
       <c r="D53" s="22" t="s">
-        <v>81</v>
-      </c>
-      <c r="E53" s="22" t="s">
-        <v>60</v>
-      </c>
+        <v>58</v>
+      </c>
+      <c r="E53" s="22"/>
       <c r="F53" s="22"/>
       <c r="G53" s="22"/>
       <c r="H53" s="23"/>
       <c r="I53" s="23"/>
       <c r="J53" s="23" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K53" s="22"/>
       <c r="L53" s="1"/>
@@ -5910,12 +5872,8 @@
       <c r="BJ53" s="1"/>
       <c r="BK53" s="1"/>
       <c r="BL53" s="1"/>
-      <c r="BM53" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="BN53" s="1" t="s">
-        <v>137</v>
-      </c>
+      <c r="BM53" s="1"/>
+      <c r="BN53" s="1"/>
       <c r="BO53" s="1"/>
       <c r="BP53" s="1"/>
       <c r="BQ53" s="1"/>
@@ -5951,25 +5909,20 @@
       <c r="CU53" s="1"/>
     </row>
     <row r="54" spans="1:99">
-      <c r="A54" t="s">
-        <v>10</v>
-      </c>
       <c r="B54" s="22"/>
       <c r="C54" s="29" t="s">
-        <v>131</v>
-      </c>
-      <c r="D54" s="22" t="s">
-        <v>61</v>
-      </c>
-      <c r="E54" s="22" t="s">
-        <v>61</v>
-      </c>
+        <v>98</v>
+      </c>
+      <c r="D54" s="29" t="s">
+        <v>58</v>
+      </c>
+      <c r="E54" s="22"/>
       <c r="F54" s="22"/>
       <c r="G54" s="22"/>
       <c r="H54" s="23"/>
       <c r="I54" s="23"/>
       <c r="J54" s="23" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K54" s="22"/>
       <c r="L54" s="1"/>
@@ -6025,12 +5978,11 @@
       <c r="BJ54" s="1"/>
       <c r="BK54" s="1"/>
       <c r="BL54" s="1"/>
-      <c r="BM54" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="BN54" s="1" t="s">
-        <v>137</v>
-      </c>
+      <c r="BM54" s="1"/>
+      <c r="BN54" s="1"/>
+      <c r="BO54" s="1"/>
+      <c r="BP54" s="1"/>
+      <c r="BQ54" s="1"/>
       <c r="BR54" s="1"/>
       <c r="BS54" s="1"/>
       <c r="BT54" s="1"/>
@@ -6063,26 +6015,15 @@
       <c r="CU54" s="1"/>
     </row>
     <row r="55" spans="1:99">
-      <c r="A55" t="s">
-        <v>10</v>
-      </c>
       <c r="B55" s="22"/>
-      <c r="C55" s="29" t="s">
-        <v>119</v>
-      </c>
-      <c r="D55" s="22" t="s">
-        <v>59</v>
-      </c>
-      <c r="E55" s="22" t="s">
-        <v>60</v>
-      </c>
+      <c r="C55" s="29"/>
+      <c r="D55" s="22"/>
+      <c r="E55" s="22"/>
       <c r="F55" s="22"/>
       <c r="G55" s="22"/>
       <c r="H55" s="23"/>
       <c r="I55" s="23"/>
-      <c r="J55" s="23" t="s">
-        <v>39</v>
-      </c>
+      <c r="J55" s="23"/>
       <c r="K55" s="22"/>
       <c r="L55" s="1"/>
       <c r="M55" s="1"/>
@@ -6137,21 +6078,11 @@
       <c r="BJ55" s="1"/>
       <c r="BK55" s="1"/>
       <c r="BL55" s="1"/>
-      <c r="BM55" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="BN55" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="BO55" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="BP55" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="BQ55" s="1" t="s">
-        <v>137</v>
-      </c>
+      <c r="BM55" s="1"/>
+      <c r="BN55" s="1"/>
+      <c r="BO55" s="1"/>
+      <c r="BP55" s="1"/>
+      <c r="BQ55" s="1"/>
       <c r="BR55" s="1"/>
       <c r="BS55" s="1"/>
       <c r="BT55" s="1"/>
@@ -6183,116 +6114,113 @@
       <c r="CT55" s="1"/>
       <c r="CU55" s="1"/>
     </row>
-    <row r="56" spans="1:99">
-      <c r="A56" t="s">
-        <v>10</v>
-      </c>
-      <c r="B56" s="22"/>
-      <c r="C56" s="29" t="s">
-        <v>93</v>
-      </c>
-      <c r="D56" s="22" t="s">
-        <v>81</v>
-      </c>
-      <c r="E56" s="22" t="s">
-        <v>59</v>
-      </c>
-      <c r="F56" s="22"/>
-      <c r="G56" s="22"/>
-      <c r="H56" s="23"/>
-      <c r="I56" s="23"/>
-      <c r="J56" s="23" t="s">
-        <v>40</v>
-      </c>
-      <c r="K56" s="22"/>
-      <c r="L56" s="1"/>
-      <c r="M56" s="1"/>
-      <c r="N56" s="1"/>
-      <c r="O56" s="1"/>
-      <c r="P56" s="1"/>
-      <c r="Q56" s="1"/>
-      <c r="R56" s="1"/>
-      <c r="S56" s="1"/>
-      <c r="T56" s="1"/>
-      <c r="U56" s="1"/>
-      <c r="V56" s="1"/>
-      <c r="W56" s="1"/>
-      <c r="X56" s="1"/>
-      <c r="Y56" s="1"/>
-      <c r="Z56" s="1"/>
-      <c r="AA56" s="1"/>
-      <c r="AB56" s="1"/>
-      <c r="AC56" s="1"/>
-      <c r="AD56" s="1"/>
-      <c r="AE56" s="1"/>
-      <c r="AF56" s="1"/>
-      <c r="AG56" s="1"/>
-      <c r="AH56" s="1"/>
-      <c r="AI56" s="1"/>
-      <c r="AJ56" s="1"/>
-      <c r="AK56" s="1"/>
-      <c r="AL56" s="1"/>
-      <c r="AM56" s="1"/>
-      <c r="AN56" s="1"/>
-      <c r="AO56" s="1"/>
-      <c r="AP56" s="1"/>
-      <c r="AQ56" s="1"/>
-      <c r="AR56" s="1"/>
-      <c r="AS56" s="1"/>
-      <c r="AT56" s="1"/>
-      <c r="AU56" s="1"/>
-      <c r="AV56" s="1"/>
-      <c r="AW56" s="1"/>
-      <c r="AX56" s="1"/>
-      <c r="AY56" s="1"/>
-      <c r="AZ56" s="1"/>
-      <c r="BA56" s="1"/>
-      <c r="BB56" s="1"/>
-      <c r="BC56" s="1"/>
-      <c r="BD56" s="1"/>
-      <c r="BE56" s="1"/>
-      <c r="BF56" s="1"/>
-      <c r="BG56" s="1"/>
-      <c r="BH56" s="1"/>
-      <c r="BI56" s="1"/>
-      <c r="BJ56" s="1"/>
-      <c r="BK56" s="1"/>
-      <c r="BL56" s="1"/>
-      <c r="BM56" s="1"/>
-      <c r="BN56" s="1"/>
-      <c r="BO56" s="1"/>
-      <c r="BP56" s="1"/>
-      <c r="BQ56" s="1"/>
-      <c r="BR56" s="1"/>
-      <c r="BS56" s="1"/>
-      <c r="BT56" s="1"/>
-      <c r="BU56" s="1"/>
-      <c r="BV56" s="1"/>
-      <c r="BW56" s="1"/>
-      <c r="BX56" s="1"/>
-      <c r="BY56" s="1"/>
-      <c r="BZ56" s="1"/>
-      <c r="CA56" s="1"/>
-      <c r="CB56" s="1"/>
-      <c r="CC56" s="1"/>
-      <c r="CD56" s="1"/>
-      <c r="CE56" s="1"/>
-      <c r="CF56" s="1"/>
-      <c r="CG56" s="1"/>
-      <c r="CH56" s="1"/>
-      <c r="CI56" s="1"/>
-      <c r="CJ56" s="1"/>
-      <c r="CK56" s="1"/>
-      <c r="CL56" s="1"/>
-      <c r="CM56" s="1"/>
-      <c r="CN56" s="1"/>
-      <c r="CO56" s="1"/>
-      <c r="CP56" s="1"/>
-      <c r="CQ56" s="1"/>
-      <c r="CR56" s="1"/>
-      <c r="CS56" s="1"/>
-      <c r="CT56" s="1"/>
-      <c r="CU56" s="1"/>
+    <row r="56" spans="1:99" s="20" customFormat="1">
+      <c r="B56" s="21"/>
+      <c r="C56" s="30" t="s">
+        <v>132</v>
+      </c>
+      <c r="D56" s="21" t="s">
+        <v>129</v>
+      </c>
+      <c r="E56" s="21" t="s">
+        <v>130</v>
+      </c>
+      <c r="F56" s="21" t="s">
+        <v>57</v>
+      </c>
+      <c r="G56" s="21"/>
+      <c r="H56" s="21"/>
+      <c r="I56" s="21"/>
+      <c r="J56" s="21"/>
+      <c r="K56" s="21"/>
+      <c r="L56" s="21"/>
+      <c r="M56" s="21"/>
+      <c r="N56" s="21"/>
+      <c r="O56" s="21"/>
+      <c r="P56" s="21"/>
+      <c r="Q56" s="21"/>
+      <c r="R56" s="21"/>
+      <c r="S56" s="21"/>
+      <c r="T56" s="21"/>
+      <c r="U56" s="21"/>
+      <c r="V56" s="21"/>
+      <c r="W56" s="21"/>
+      <c r="X56" s="21"/>
+      <c r="Y56" s="21"/>
+      <c r="Z56" s="21"/>
+      <c r="AA56" s="21"/>
+      <c r="AB56" s="21"/>
+      <c r="AC56" s="21"/>
+      <c r="AD56" s="21"/>
+      <c r="AE56" s="21"/>
+      <c r="AF56" s="21"/>
+      <c r="AG56" s="21"/>
+      <c r="AH56" s="21"/>
+      <c r="AI56" s="21"/>
+      <c r="AJ56" s="21"/>
+      <c r="AK56" s="21"/>
+      <c r="AL56" s="21"/>
+      <c r="AM56" s="21"/>
+      <c r="AN56" s="21"/>
+      <c r="AO56" s="21"/>
+      <c r="AP56" s="21"/>
+      <c r="AQ56" s="21"/>
+      <c r="AR56" s="21"/>
+      <c r="AS56" s="21"/>
+      <c r="AT56" s="21"/>
+      <c r="AU56" s="21"/>
+      <c r="AV56" s="21"/>
+      <c r="AW56" s="21"/>
+      <c r="AX56" s="21"/>
+      <c r="AY56" s="21"/>
+      <c r="AZ56" s="21"/>
+      <c r="BA56" s="21"/>
+      <c r="BB56" s="21"/>
+      <c r="BC56" s="21"/>
+      <c r="BD56" s="21"/>
+      <c r="BE56" s="21"/>
+      <c r="BF56" s="21"/>
+      <c r="BG56" s="21"/>
+      <c r="BH56" s="21"/>
+      <c r="BI56" s="21"/>
+      <c r="BJ56" s="21"/>
+      <c r="BK56" s="21"/>
+      <c r="BL56" s="21"/>
+      <c r="BM56" s="21"/>
+      <c r="BN56" s="21"/>
+      <c r="BO56" s="21"/>
+      <c r="BP56" s="21"/>
+      <c r="BQ56" s="21"/>
+      <c r="BR56" s="21"/>
+      <c r="BS56" s="21"/>
+      <c r="BT56" s="21"/>
+      <c r="BU56" s="21"/>
+      <c r="BV56" s="21"/>
+      <c r="BW56" s="21"/>
+      <c r="BX56" s="21"/>
+      <c r="BY56" s="21"/>
+      <c r="BZ56" s="21"/>
+      <c r="CA56" s="21"/>
+      <c r="CB56" s="21"/>
+      <c r="CC56" s="21"/>
+      <c r="CD56" s="21"/>
+      <c r="CE56" s="21"/>
+      <c r="CF56" s="21"/>
+      <c r="CG56" s="21"/>
+      <c r="CH56" s="21"/>
+      <c r="CI56" s="21"/>
+      <c r="CJ56" s="21"/>
+      <c r="CK56" s="21"/>
+      <c r="CL56" s="21"/>
+      <c r="CM56" s="21"/>
+      <c r="CN56" s="21"/>
+      <c r="CO56" s="21"/>
+      <c r="CP56" s="21"/>
+      <c r="CQ56" s="21"/>
+      <c r="CR56" s="21"/>
+      <c r="CS56" s="21"/>
+      <c r="CT56" s="21"/>
+      <c r="CU56" s="21"/>
     </row>
     <row r="57" spans="1:99">
       <c r="A57" t="s">
@@ -6300,20 +6228,16 @@
       </c>
       <c r="B57" s="22"/>
       <c r="C57" s="29" t="s">
-        <v>94</v>
-      </c>
-      <c r="D57" s="22" t="s">
-        <v>81</v>
-      </c>
-      <c r="E57" s="22" t="s">
-        <v>60</v>
-      </c>
+        <v>113</v>
+      </c>
+      <c r="D57" s="22"/>
+      <c r="E57" s="22"/>
       <c r="F57" s="22"/>
       <c r="G57" s="22"/>
       <c r="H57" s="23"/>
       <c r="I57" s="23"/>
       <c r="J57" s="23" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K57" s="22"/>
       <c r="L57" s="1"/>
@@ -6369,21 +6293,11 @@
       <c r="BJ57" s="1"/>
       <c r="BK57" s="1"/>
       <c r="BL57" s="1"/>
-      <c r="BM57" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="BN57" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="BO57" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="BP57" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="BQ57" s="1" t="s">
-        <v>137</v>
-      </c>
+      <c r="BM57" s="1"/>
+      <c r="BN57" s="1"/>
+      <c r="BO57" s="1"/>
+      <c r="BP57" s="1"/>
+      <c r="BQ57" s="1"/>
       <c r="BR57" s="1"/>
       <c r="BS57" s="1"/>
       <c r="BT57" s="1"/>
@@ -6421,7 +6335,7 @@
       </c>
       <c r="B58" s="22"/>
       <c r="C58" s="29" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D58" s="22"/>
       <c r="E58" s="22"/>
@@ -6528,7 +6442,7 @@
       </c>
       <c r="B59" s="22"/>
       <c r="C59" s="29" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D59" s="22"/>
       <c r="E59" s="22"/>
@@ -6635,16 +6549,20 @@
       </c>
       <c r="B60" s="22"/>
       <c r="C60" s="29" t="s">
-        <v>118</v>
-      </c>
-      <c r="D60" s="22"/>
-      <c r="E60" s="22"/>
+        <v>95</v>
+      </c>
+      <c r="D60" s="22" t="s">
+        <v>81</v>
+      </c>
+      <c r="E60" s="22" t="s">
+        <v>60</v>
+      </c>
       <c r="F60" s="22"/>
       <c r="G60" s="22"/>
       <c r="H60" s="23"/>
       <c r="I60" s="23"/>
       <c r="J60" s="23" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K60" s="22"/>
       <c r="L60" s="1"/>
@@ -6700,8 +6618,12 @@
       <c r="BJ60" s="1"/>
       <c r="BK60" s="1"/>
       <c r="BL60" s="1"/>
-      <c r="BM60" s="1"/>
-      <c r="BN60" s="1"/>
+      <c r="BM60" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="BN60" s="1" t="s">
+        <v>137</v>
+      </c>
       <c r="BO60" s="1"/>
       <c r="BP60" s="1"/>
       <c r="BQ60" s="1"/>
@@ -6737,15 +6659,26 @@
       <c r="CU60" s="1"/>
     </row>
     <row r="61" spans="1:99">
+      <c r="A61" t="s">
+        <v>10</v>
+      </c>
       <c r="B61" s="22"/>
-      <c r="C61" s="29"/>
-      <c r="D61" s="22"/>
-      <c r="E61" s="22"/>
+      <c r="C61" s="29" t="s">
+        <v>131</v>
+      </c>
+      <c r="D61" s="22" t="s">
+        <v>61</v>
+      </c>
+      <c r="E61" s="22" t="s">
+        <v>61</v>
+      </c>
       <c r="F61" s="22"/>
       <c r="G61" s="22"/>
       <c r="H61" s="23"/>
       <c r="I61" s="23"/>
-      <c r="J61" s="23"/>
+      <c r="J61" s="23" t="s">
+        <v>39</v>
+      </c>
       <c r="K61" s="22"/>
       <c r="L61" s="1"/>
       <c r="M61" s="1"/>
@@ -6800,11 +6733,12 @@
       <c r="BJ61" s="1"/>
       <c r="BK61" s="1"/>
       <c r="BL61" s="1"/>
-      <c r="BM61" s="1"/>
-      <c r="BN61" s="1"/>
-      <c r="BO61" s="1"/>
-      <c r="BP61" s="1"/>
-      <c r="BQ61" s="1"/>
+      <c r="BM61" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="BN61" s="1" t="s">
+        <v>137</v>
+      </c>
       <c r="BR61" s="1"/>
       <c r="BS61" s="1"/>
       <c r="BT61" s="1"/>
@@ -6837,15 +6771,26 @@
       <c r="CU61" s="1"/>
     </row>
     <row r="62" spans="1:99">
+      <c r="A62" t="s">
+        <v>10</v>
+      </c>
       <c r="B62" s="22"/>
-      <c r="C62" s="29"/>
-      <c r="D62" s="22"/>
-      <c r="E62" s="22"/>
+      <c r="C62" s="29" t="s">
+        <v>119</v>
+      </c>
+      <c r="D62" s="22" t="s">
+        <v>59</v>
+      </c>
+      <c r="E62" s="22" t="s">
+        <v>60</v>
+      </c>
       <c r="F62" s="22"/>
       <c r="G62" s="22"/>
       <c r="H62" s="23"/>
       <c r="I62" s="23"/>
-      <c r="J62" s="23"/>
+      <c r="J62" s="23" t="s">
+        <v>39</v>
+      </c>
       <c r="K62" s="22"/>
       <c r="L62" s="1"/>
       <c r="M62" s="1"/>
@@ -6900,11 +6845,21 @@
       <c r="BJ62" s="1"/>
       <c r="BK62" s="1"/>
       <c r="BL62" s="1"/>
-      <c r="BM62" s="1"/>
-      <c r="BN62" s="1"/>
-      <c r="BO62" s="1"/>
-      <c r="BP62" s="1"/>
-      <c r="BQ62" s="1"/>
+      <c r="BM62" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="BN62" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="BO62" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="BP62" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="BQ62" s="1" t="s">
+        <v>137</v>
+      </c>
       <c r="BR62" s="1"/>
       <c r="BS62" s="1"/>
       <c r="BT62" s="1"/>
@@ -6937,15 +6892,26 @@
       <c r="CU62" s="1"/>
     </row>
     <row r="63" spans="1:99">
+      <c r="A63" t="s">
+        <v>10</v>
+      </c>
       <c r="B63" s="22"/>
-      <c r="C63" s="29"/>
-      <c r="D63" s="22"/>
-      <c r="E63" s="22"/>
+      <c r="C63" s="29" t="s">
+        <v>93</v>
+      </c>
+      <c r="D63" s="22" t="s">
+        <v>81</v>
+      </c>
+      <c r="E63" s="22" t="s">
+        <v>59</v>
+      </c>
       <c r="F63" s="22"/>
       <c r="G63" s="22"/>
       <c r="H63" s="23"/>
       <c r="I63" s="23"/>
-      <c r="J63" s="23"/>
+      <c r="J63" s="23" t="s">
+        <v>40</v>
+      </c>
       <c r="K63" s="22"/>
       <c r="L63" s="1"/>
       <c r="M63" s="1"/>
@@ -7036,111 +7002,126 @@
       <c r="CT63" s="1"/>
       <c r="CU63" s="1"/>
     </row>
-    <row r="64" spans="1:99" s="20" customFormat="1">
-      <c r="B64" s="21"/>
-      <c r="C64" s="30" t="s">
-        <v>127</v>
-      </c>
-      <c r="D64" s="21" t="s">
-        <v>80</v>
-      </c>
-      <c r="E64" s="21" t="s">
-        <v>79</v>
-      </c>
-      <c r="F64" s="21"/>
-      <c r="G64" s="21"/>
-      <c r="H64" s="21"/>
-      <c r="I64" s="21"/>
-      <c r="J64" s="21"/>
-      <c r="K64" s="21"/>
-      <c r="L64" s="21"/>
-      <c r="M64" s="21"/>
-      <c r="N64" s="21"/>
-      <c r="O64" s="21"/>
-      <c r="P64" s="21"/>
-      <c r="Q64" s="21"/>
-      <c r="R64" s="21"/>
-      <c r="S64" s="21"/>
-      <c r="T64" s="21"/>
-      <c r="U64" s="21"/>
-      <c r="V64" s="21"/>
-      <c r="W64" s="21"/>
-      <c r="X64" s="21"/>
-      <c r="Y64" s="21"/>
-      <c r="Z64" s="21"/>
-      <c r="AA64" s="21"/>
-      <c r="AB64" s="21"/>
-      <c r="AC64" s="21"/>
-      <c r="AD64" s="21"/>
-      <c r="AE64" s="21"/>
-      <c r="AF64" s="21"/>
-      <c r="AG64" s="21"/>
-      <c r="AH64" s="21"/>
-      <c r="AI64" s="21"/>
-      <c r="AJ64" s="21"/>
-      <c r="AK64" s="21"/>
-      <c r="AL64" s="21"/>
-      <c r="AM64" s="21"/>
-      <c r="AN64" s="21"/>
-      <c r="AO64" s="21"/>
-      <c r="AP64" s="21"/>
-      <c r="AQ64" s="21"/>
-      <c r="AR64" s="21"/>
-      <c r="AS64" s="21"/>
-      <c r="AT64" s="21"/>
-      <c r="AU64" s="21"/>
-      <c r="AV64" s="21"/>
-      <c r="AW64" s="21"/>
-      <c r="AX64" s="21"/>
-      <c r="AY64" s="21"/>
-      <c r="AZ64" s="21"/>
-      <c r="BA64" s="21"/>
-      <c r="BB64" s="21"/>
-      <c r="BC64" s="21"/>
-      <c r="BD64" s="21"/>
-      <c r="BE64" s="21"/>
-      <c r="BF64" s="21"/>
-      <c r="BG64" s="21"/>
-      <c r="BH64" s="21"/>
-      <c r="BI64" s="21"/>
-      <c r="BJ64" s="21"/>
-      <c r="BK64" s="21"/>
-      <c r="BL64" s="21"/>
-      <c r="BM64" s="21"/>
-      <c r="BN64" s="21"/>
-      <c r="BO64" s="21"/>
-      <c r="BP64" s="21"/>
-      <c r="BQ64" s="21"/>
-      <c r="BR64" s="21"/>
-      <c r="BS64" s="21"/>
-      <c r="BT64" s="21"/>
-      <c r="BU64" s="21"/>
-      <c r="BV64" s="21"/>
-      <c r="BW64" s="21"/>
-      <c r="BX64" s="21"/>
-      <c r="BY64" s="21"/>
-      <c r="BZ64" s="21"/>
-      <c r="CA64" s="21"/>
-      <c r="CB64" s="21"/>
-      <c r="CC64" s="21"/>
-      <c r="CD64" s="21"/>
-      <c r="CE64" s="21"/>
-      <c r="CF64" s="21"/>
-      <c r="CG64" s="21"/>
-      <c r="CH64" s="21"/>
-      <c r="CI64" s="21"/>
-      <c r="CJ64" s="21"/>
-      <c r="CK64" s="21"/>
-      <c r="CL64" s="21"/>
-      <c r="CM64" s="21"/>
-      <c r="CN64" s="21"/>
-      <c r="CO64" s="21"/>
-      <c r="CP64" s="21"/>
-      <c r="CQ64" s="21"/>
-      <c r="CR64" s="21"/>
-      <c r="CS64" s="21"/>
-      <c r="CT64" s="21"/>
-      <c r="CU64" s="21"/>
+    <row r="64" spans="1:99">
+      <c r="A64" t="s">
+        <v>10</v>
+      </c>
+      <c r="B64" s="22"/>
+      <c r="C64" s="29" t="s">
+        <v>94</v>
+      </c>
+      <c r="D64" s="22" t="s">
+        <v>81</v>
+      </c>
+      <c r="E64" s="22" t="s">
+        <v>60</v>
+      </c>
+      <c r="F64" s="22"/>
+      <c r="G64" s="22"/>
+      <c r="H64" s="23"/>
+      <c r="I64" s="23"/>
+      <c r="J64" s="23" t="s">
+        <v>39</v>
+      </c>
+      <c r="K64" s="22"/>
+      <c r="L64" s="1"/>
+      <c r="M64" s="1"/>
+      <c r="N64" s="1"/>
+      <c r="O64" s="1"/>
+      <c r="P64" s="1"/>
+      <c r="Q64" s="1"/>
+      <c r="R64" s="1"/>
+      <c r="S64" s="1"/>
+      <c r="T64" s="1"/>
+      <c r="U64" s="1"/>
+      <c r="V64" s="1"/>
+      <c r="W64" s="1"/>
+      <c r="X64" s="1"/>
+      <c r="Y64" s="1"/>
+      <c r="Z64" s="1"/>
+      <c r="AA64" s="1"/>
+      <c r="AB64" s="1"/>
+      <c r="AC64" s="1"/>
+      <c r="AD64" s="1"/>
+      <c r="AE64" s="1"/>
+      <c r="AF64" s="1"/>
+      <c r="AG64" s="1"/>
+      <c r="AH64" s="1"/>
+      <c r="AI64" s="1"/>
+      <c r="AJ64" s="1"/>
+      <c r="AK64" s="1"/>
+      <c r="AL64" s="1"/>
+      <c r="AM64" s="1"/>
+      <c r="AN64" s="1"/>
+      <c r="AO64" s="1"/>
+      <c r="AP64" s="1"/>
+      <c r="AQ64" s="1"/>
+      <c r="AR64" s="1"/>
+      <c r="AS64" s="1"/>
+      <c r="AT64" s="1"/>
+      <c r="AU64" s="1"/>
+      <c r="AV64" s="1"/>
+      <c r="AW64" s="1"/>
+      <c r="AX64" s="1"/>
+      <c r="AY64" s="1"/>
+      <c r="AZ64" s="1"/>
+      <c r="BA64" s="1"/>
+      <c r="BB64" s="1"/>
+      <c r="BC64" s="1"/>
+      <c r="BD64" s="1"/>
+      <c r="BE64" s="1"/>
+      <c r="BF64" s="1"/>
+      <c r="BG64" s="1"/>
+      <c r="BH64" s="1"/>
+      <c r="BI64" s="1"/>
+      <c r="BJ64" s="1"/>
+      <c r="BK64" s="1"/>
+      <c r="BL64" s="1"/>
+      <c r="BM64" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="BN64" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="BO64" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="BP64" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="BQ64" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="BR64" s="1"/>
+      <c r="BS64" s="1"/>
+      <c r="BT64" s="1"/>
+      <c r="BU64" s="1"/>
+      <c r="BV64" s="1"/>
+      <c r="BW64" s="1"/>
+      <c r="BX64" s="1"/>
+      <c r="BY64" s="1"/>
+      <c r="BZ64" s="1"/>
+      <c r="CA64" s="1"/>
+      <c r="CB64" s="1"/>
+      <c r="CC64" s="1"/>
+      <c r="CD64" s="1"/>
+      <c r="CE64" s="1"/>
+      <c r="CF64" s="1"/>
+      <c r="CG64" s="1"/>
+      <c r="CH64" s="1"/>
+      <c r="CI64" s="1"/>
+      <c r="CJ64" s="1"/>
+      <c r="CK64" s="1"/>
+      <c r="CL64" s="1"/>
+      <c r="CM64" s="1"/>
+      <c r="CN64" s="1"/>
+      <c r="CO64" s="1"/>
+      <c r="CP64" s="1"/>
+      <c r="CQ64" s="1"/>
+      <c r="CR64" s="1"/>
+      <c r="CS64" s="1"/>
+      <c r="CT64" s="1"/>
+      <c r="CU64" s="1"/>
     </row>
     <row r="65" spans="1:99">
       <c r="A65" t="s">
@@ -7148,20 +7129,16 @@
       </c>
       <c r="B65" s="22"/>
       <c r="C65" s="29" t="s">
-        <v>123</v>
-      </c>
-      <c r="D65" s="22" t="s">
-        <v>60</v>
-      </c>
-      <c r="E65" s="22" t="s">
-        <v>81</v>
-      </c>
+        <v>116</v>
+      </c>
+      <c r="D65" s="22"/>
+      <c r="E65" s="22"/>
       <c r="F65" s="22"/>
       <c r="G65" s="22"/>
       <c r="H65" s="23"/>
       <c r="I65" s="23"/>
       <c r="J65" s="23" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K65" s="22"/>
       <c r="L65" s="1"/>
@@ -7259,20 +7236,16 @@
       </c>
       <c r="B66" s="22"/>
       <c r="C66" s="29" t="s">
-        <v>124</v>
-      </c>
-      <c r="D66" s="22" t="s">
-        <v>60</v>
-      </c>
-      <c r="E66" s="22" t="s">
-        <v>81</v>
-      </c>
+        <v>117</v>
+      </c>
+      <c r="D66" s="22"/>
+      <c r="E66" s="22"/>
       <c r="F66" s="22"/>
       <c r="G66" s="22"/>
       <c r="H66" s="23"/>
       <c r="I66" s="23"/>
       <c r="J66" s="23" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K66" s="22"/>
       <c r="L66" s="1"/>
@@ -7370,20 +7343,16 @@
       </c>
       <c r="B67" s="22"/>
       <c r="C67" s="29" t="s">
-        <v>125</v>
-      </c>
-      <c r="D67" s="22" t="s">
-        <v>61</v>
-      </c>
-      <c r="E67" s="22" t="s">
-        <v>61</v>
-      </c>
+        <v>118</v>
+      </c>
+      <c r="D67" s="22"/>
+      <c r="E67" s="22"/>
       <c r="F67" s="22"/>
       <c r="G67" s="22"/>
       <c r="H67" s="23"/>
       <c r="I67" s="23"/>
       <c r="J67" s="23" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K67" s="22"/>
       <c r="L67" s="1"/>
@@ -7439,21 +7408,11 @@
       <c r="BJ67" s="1"/>
       <c r="BK67" s="1"/>
       <c r="BL67" s="1"/>
-      <c r="BM67" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="BN67" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="BO67" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="BP67" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="BQ67" s="1" t="s">
-        <v>137</v>
-      </c>
+      <c r="BM67" s="1"/>
+      <c r="BN67" s="1"/>
+      <c r="BO67" s="1"/>
+      <c r="BP67" s="1"/>
+      <c r="BQ67" s="1"/>
       <c r="BR67" s="1"/>
       <c r="BS67" s="1"/>
       <c r="BT67" s="1"/>
@@ -7486,26 +7445,15 @@
       <c r="CU67" s="1"/>
     </row>
     <row r="68" spans="1:99">
-      <c r="A68" t="s">
-        <v>10</v>
-      </c>
       <c r="B68" s="22"/>
-      <c r="C68" s="29" t="s">
-        <v>126</v>
-      </c>
-      <c r="D68" s="22" t="s">
-        <v>61</v>
-      </c>
-      <c r="E68" s="22" t="s">
-        <v>61</v>
-      </c>
+      <c r="C68" s="29"/>
+      <c r="D68" s="22"/>
+      <c r="E68" s="22"/>
       <c r="F68" s="22"/>
       <c r="G68" s="22"/>
       <c r="H68" s="23"/>
       <c r="I68" s="23"/>
-      <c r="J68" s="23" t="s">
-        <v>39</v>
-      </c>
+      <c r="J68" s="23"/>
       <c r="K68" s="22"/>
       <c r="L68" s="1"/>
       <c r="M68" s="1"/>
@@ -7560,21 +7508,11 @@
       <c r="BJ68" s="1"/>
       <c r="BK68" s="1"/>
       <c r="BL68" s="1"/>
-      <c r="BM68" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="BN68" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="BO68" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="BP68" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="BQ68" s="1" t="s">
-        <v>137</v>
-      </c>
+      <c r="BM68" s="1"/>
+      <c r="BN68" s="1"/>
+      <c r="BO68" s="1"/>
+      <c r="BP68" s="1"/>
+      <c r="BQ68" s="1"/>
       <c r="BR68" s="1"/>
       <c r="BS68" s="1"/>
       <c r="BT68" s="1"/>
@@ -7608,22 +7546,14 @@
     </row>
     <row r="69" spans="1:99">
       <c r="B69" s="22"/>
-      <c r="C69" s="29" t="s">
-        <v>120</v>
-      </c>
-      <c r="D69" s="22" t="s">
-        <v>58</v>
-      </c>
-      <c r="E69" s="22" t="s">
-        <v>58</v>
-      </c>
+      <c r="C69" s="29"/>
+      <c r="D69" s="22"/>
+      <c r="E69" s="22"/>
       <c r="F69" s="22"/>
       <c r="G69" s="22"/>
       <c r="H69" s="23"/>
       <c r="I69" s="23"/>
-      <c r="J69" s="23" t="s">
-        <v>39</v>
-      </c>
+      <c r="J69" s="23"/>
       <c r="K69" s="22"/>
       <c r="L69" s="1"/>
       <c r="M69" s="1"/>
@@ -7678,21 +7608,11 @@
       <c r="BJ69" s="1"/>
       <c r="BK69" s="1"/>
       <c r="BL69" s="1"/>
-      <c r="BM69" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="BN69" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="BO69" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="BP69" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="BQ69" s="1" t="s">
-        <v>137</v>
-      </c>
+      <c r="BM69" s="1"/>
+      <c r="BN69" s="1"/>
+      <c r="BO69" s="1"/>
+      <c r="BP69" s="1"/>
+      <c r="BQ69" s="1"/>
       <c r="BR69" s="1"/>
       <c r="BS69" s="1"/>
       <c r="BT69" s="1"/>
@@ -7726,22 +7646,14 @@
     </row>
     <row r="70" spans="1:99">
       <c r="B70" s="22"/>
-      <c r="C70" s="29" t="s">
-        <v>121</v>
-      </c>
-      <c r="D70" s="22" t="s">
-        <v>71</v>
-      </c>
-      <c r="E70" s="22" t="s">
-        <v>71</v>
-      </c>
+      <c r="C70" s="29"/>
+      <c r="D70" s="22"/>
+      <c r="E70" s="22"/>
       <c r="F70" s="22"/>
       <c r="G70" s="22"/>
       <c r="H70" s="23"/>
       <c r="I70" s="23"/>
-      <c r="J70" s="23" t="s">
-        <v>39</v>
-      </c>
+      <c r="J70" s="23"/>
       <c r="K70" s="22"/>
       <c r="L70" s="1"/>
       <c r="M70" s="1"/>
@@ -7796,21 +7708,11 @@
       <c r="BJ70" s="1"/>
       <c r="BK70" s="1"/>
       <c r="BL70" s="1"/>
-      <c r="BM70" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="BN70" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="BO70" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="BP70" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="BQ70" s="1" t="s">
-        <v>137</v>
-      </c>
+      <c r="BM70" s="1"/>
+      <c r="BN70" s="1"/>
+      <c r="BO70" s="1"/>
+      <c r="BP70" s="1"/>
+      <c r="BQ70" s="1"/>
       <c r="BR70" s="1"/>
       <c r="BS70" s="1"/>
       <c r="BT70" s="1"/>
@@ -7842,126 +7744,111 @@
       <c r="CT70" s="1"/>
       <c r="CU70" s="1"/>
     </row>
-    <row r="71" spans="1:99">
-      <c r="A71" t="s">
-        <v>10</v>
-      </c>
-      <c r="B71" s="22"/>
-      <c r="C71" s="29" t="s">
-        <v>76</v>
-      </c>
-      <c r="D71" s="22" t="s">
-        <v>58</v>
-      </c>
-      <c r="E71" s="22" t="s">
-        <v>58</v>
-      </c>
-      <c r="F71" s="22"/>
-      <c r="G71" s="22"/>
-      <c r="H71" s="23"/>
-      <c r="I71" s="23"/>
-      <c r="J71" s="23" t="s">
-        <v>39</v>
-      </c>
-      <c r="K71" s="22"/>
-      <c r="L71" s="1"/>
-      <c r="M71" s="1"/>
-      <c r="N71" s="1"/>
-      <c r="O71" s="1"/>
-      <c r="P71" s="1"/>
-      <c r="Q71" s="1"/>
-      <c r="R71" s="1"/>
-      <c r="S71" s="1"/>
-      <c r="T71" s="1"/>
-      <c r="U71" s="1"/>
-      <c r="V71" s="1"/>
-      <c r="W71" s="1"/>
-      <c r="X71" s="1"/>
-      <c r="Y71" s="1"/>
-      <c r="Z71" s="1"/>
-      <c r="AA71" s="1"/>
-      <c r="AB71" s="1"/>
-      <c r="AC71" s="1"/>
-      <c r="AD71" s="1"/>
-      <c r="AE71" s="1"/>
-      <c r="AF71" s="1"/>
-      <c r="AG71" s="1"/>
-      <c r="AH71" s="1"/>
-      <c r="AI71" s="1"/>
-      <c r="AJ71" s="1"/>
-      <c r="AK71" s="1"/>
-      <c r="AL71" s="1"/>
-      <c r="AM71" s="1"/>
-      <c r="AN71" s="1"/>
-      <c r="AO71" s="1"/>
-      <c r="AP71" s="1"/>
-      <c r="AQ71" s="1"/>
-      <c r="AR71" s="1"/>
-      <c r="AS71" s="1"/>
-      <c r="AT71" s="1"/>
-      <c r="AU71" s="1"/>
-      <c r="AV71" s="1"/>
-      <c r="AW71" s="1"/>
-      <c r="AX71" s="1"/>
-      <c r="AY71" s="1"/>
-      <c r="AZ71" s="1"/>
-      <c r="BA71" s="1"/>
-      <c r="BB71" s="1"/>
-      <c r="BC71" s="1"/>
-      <c r="BD71" s="1"/>
-      <c r="BE71" s="1"/>
-      <c r="BF71" s="1"/>
-      <c r="BG71" s="1"/>
-      <c r="BH71" s="1"/>
-      <c r="BI71" s="1"/>
-      <c r="BJ71" s="1"/>
-      <c r="BK71" s="1"/>
-      <c r="BL71" s="1"/>
-      <c r="BM71" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="BN71" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="BO71" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="BP71" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="BQ71" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="BR71" s="1"/>
-      <c r="BS71" s="1"/>
-      <c r="BT71" s="1"/>
-      <c r="BU71" s="1"/>
-      <c r="BV71" s="1"/>
-      <c r="BW71" s="1"/>
-      <c r="BX71" s="1"/>
-      <c r="BY71" s="1"/>
-      <c r="BZ71" s="1"/>
-      <c r="CA71" s="1"/>
-      <c r="CB71" s="1"/>
-      <c r="CC71" s="1"/>
-      <c r="CD71" s="1"/>
-      <c r="CE71" s="1"/>
-      <c r="CF71" s="1"/>
-      <c r="CG71" s="1"/>
-      <c r="CH71" s="1"/>
-      <c r="CI71" s="1"/>
-      <c r="CJ71" s="1"/>
-      <c r="CK71" s="1"/>
-      <c r="CL71" s="1"/>
-      <c r="CM71" s="1"/>
-      <c r="CN71" s="1"/>
-      <c r="CO71" s="1"/>
-      <c r="CP71" s="1"/>
-      <c r="CQ71" s="1"/>
-      <c r="CR71" s="1"/>
-      <c r="CS71" s="1"/>
-      <c r="CT71" s="1"/>
-      <c r="CU71" s="1"/>
+    <row r="71" spans="1:99" s="20" customFormat="1">
+      <c r="B71" s="21"/>
+      <c r="C71" s="30" t="s">
+        <v>127</v>
+      </c>
+      <c r="D71" s="21" t="s">
+        <v>80</v>
+      </c>
+      <c r="E71" s="21" t="s">
+        <v>79</v>
+      </c>
+      <c r="F71" s="21"/>
+      <c r="G71" s="21"/>
+      <c r="H71" s="21"/>
+      <c r="I71" s="21"/>
+      <c r="J71" s="21"/>
+      <c r="K71" s="21"/>
+      <c r="L71" s="21"/>
+      <c r="M71" s="21"/>
+      <c r="N71" s="21"/>
+      <c r="O71" s="21"/>
+      <c r="P71" s="21"/>
+      <c r="Q71" s="21"/>
+      <c r="R71" s="21"/>
+      <c r="S71" s="21"/>
+      <c r="T71" s="21"/>
+      <c r="U71" s="21"/>
+      <c r="V71" s="21"/>
+      <c r="W71" s="21"/>
+      <c r="X71" s="21"/>
+      <c r="Y71" s="21"/>
+      <c r="Z71" s="21"/>
+      <c r="AA71" s="21"/>
+      <c r="AB71" s="21"/>
+      <c r="AC71" s="21"/>
+      <c r="AD71" s="21"/>
+      <c r="AE71" s="21"/>
+      <c r="AF71" s="21"/>
+      <c r="AG71" s="21"/>
+      <c r="AH71" s="21"/>
+      <c r="AI71" s="21"/>
+      <c r="AJ71" s="21"/>
+      <c r="AK71" s="21"/>
+      <c r="AL71" s="21"/>
+      <c r="AM71" s="21"/>
+      <c r="AN71" s="21"/>
+      <c r="AO71" s="21"/>
+      <c r="AP71" s="21"/>
+      <c r="AQ71" s="21"/>
+      <c r="AR71" s="21"/>
+      <c r="AS71" s="21"/>
+      <c r="AT71" s="21"/>
+      <c r="AU71" s="21"/>
+      <c r="AV71" s="21"/>
+      <c r="AW71" s="21"/>
+      <c r="AX71" s="21"/>
+      <c r="AY71" s="21"/>
+      <c r="AZ71" s="21"/>
+      <c r="BA71" s="21"/>
+      <c r="BB71" s="21"/>
+      <c r="BC71" s="21"/>
+      <c r="BD71" s="21"/>
+      <c r="BE71" s="21"/>
+      <c r="BF71" s="21"/>
+      <c r="BG71" s="21"/>
+      <c r="BH71" s="21"/>
+      <c r="BI71" s="21"/>
+      <c r="BJ71" s="21"/>
+      <c r="BK71" s="21"/>
+      <c r="BL71" s="21"/>
+      <c r="BM71" s="21"/>
+      <c r="BN71" s="21"/>
+      <c r="BO71" s="21"/>
+      <c r="BP71" s="21"/>
+      <c r="BQ71" s="21"/>
+      <c r="BR71" s="21"/>
+      <c r="BS71" s="21"/>
+      <c r="BT71" s="21"/>
+      <c r="BU71" s="21"/>
+      <c r="BV71" s="21"/>
+      <c r="BW71" s="21"/>
+      <c r="BX71" s="21"/>
+      <c r="BY71" s="21"/>
+      <c r="BZ71" s="21"/>
+      <c r="CA71" s="21"/>
+      <c r="CB71" s="21"/>
+      <c r="CC71" s="21"/>
+      <c r="CD71" s="21"/>
+      <c r="CE71" s="21"/>
+      <c r="CF71" s="21"/>
+      <c r="CG71" s="21"/>
+      <c r="CH71" s="21"/>
+      <c r="CI71" s="21"/>
+      <c r="CJ71" s="21"/>
+      <c r="CK71" s="21"/>
+      <c r="CL71" s="21"/>
+      <c r="CM71" s="21"/>
+      <c r="CN71" s="21"/>
+      <c r="CO71" s="21"/>
+      <c r="CP71" s="21"/>
+      <c r="CQ71" s="21"/>
+      <c r="CR71" s="21"/>
+      <c r="CS71" s="21"/>
+      <c r="CT71" s="21"/>
+      <c r="CU71" s="21"/>
     </row>
     <row r="72" spans="1:99">
       <c r="A72" t="s">
@@ -7969,13 +7856,13 @@
       </c>
       <c r="B72" s="22"/>
       <c r="C72" s="29" t="s">
-        <v>77</v>
+        <v>123</v>
       </c>
       <c r="D72" s="22" t="s">
-        <v>82</v>
+        <v>60</v>
       </c>
       <c r="E72" s="22" t="s">
-        <v>71</v>
+        <v>81</v>
       </c>
       <c r="F72" s="22"/>
       <c r="G72" s="22"/>
@@ -8038,21 +7925,11 @@
       <c r="BJ72" s="1"/>
       <c r="BK72" s="1"/>
       <c r="BL72" s="1"/>
-      <c r="BM72" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="BN72" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="BO72" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="BP72" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="BQ72" s="1" t="s">
-        <v>137</v>
-      </c>
+      <c r="BM72" s="1"/>
+      <c r="BN72" s="1"/>
+      <c r="BO72" s="1"/>
+      <c r="BP72" s="1"/>
+      <c r="BQ72" s="1"/>
       <c r="BR72" s="1"/>
       <c r="BS72" s="1"/>
       <c r="BT72" s="1"/>
@@ -8090,13 +7967,13 @@
       </c>
       <c r="B73" s="22"/>
       <c r="C73" s="29" t="s">
-        <v>78</v>
+        <v>124</v>
       </c>
       <c r="D73" s="22" t="s">
         <v>60</v>
       </c>
       <c r="E73" s="22" t="s">
-        <v>60</v>
+        <v>81</v>
       </c>
       <c r="F73" s="22"/>
       <c r="G73" s="22"/>
@@ -8159,21 +8036,11 @@
       <c r="BJ73" s="1"/>
       <c r="BK73" s="1"/>
       <c r="BL73" s="1"/>
-      <c r="BM73" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="BN73" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="BO73" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="BP73" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="BQ73" s="1" t="s">
-        <v>137</v>
-      </c>
+      <c r="BM73" s="1"/>
+      <c r="BN73" s="1"/>
+      <c r="BO73" s="1"/>
+      <c r="BP73" s="1"/>
+      <c r="BQ73" s="1"/>
       <c r="BR73" s="1"/>
       <c r="BS73" s="1"/>
       <c r="BT73" s="1"/>
@@ -8211,17 +8078,15 @@
       </c>
       <c r="B74" s="22"/>
       <c r="C74" s="29" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="D74" s="22" t="s">
-        <v>84</v>
+        <v>61</v>
       </c>
       <c r="E74" s="22" t="s">
-        <v>67</v>
-      </c>
-      <c r="F74" s="22" t="s">
-        <v>71</v>
-      </c>
+        <v>61</v>
+      </c>
+      <c r="F74" s="22"/>
       <c r="G74" s="22"/>
       <c r="H74" s="23"/>
       <c r="I74" s="23"/>
@@ -8334,13 +8199,13 @@
       </c>
       <c r="B75" s="22"/>
       <c r="C75" s="29" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="D75" s="22" t="s">
-        <v>71</v>
+        <v>61</v>
       </c>
       <c r="E75" s="22" t="s">
-        <v>71</v>
+        <v>61</v>
       </c>
       <c r="F75" s="22"/>
       <c r="G75" s="22"/>
@@ -8450,20 +8315,15 @@
       <c r="CU75" s="1"/>
     </row>
     <row r="76" spans="1:99">
-      <c r="A76" t="s">
-        <v>10</v>
-      </c>
-      <c r="B76" s="22">
-        <v>260</v>
-      </c>
+      <c r="B76" s="22"/>
       <c r="C76" s="29" t="s">
-        <v>134</v>
+        <v>120</v>
       </c>
       <c r="D76" s="22" t="s">
-        <v>71</v>
+        <v>58</v>
       </c>
       <c r="E76" s="22" t="s">
-        <v>71</v>
+        <v>58</v>
       </c>
       <c r="F76" s="22"/>
       <c r="G76" s="22"/>
@@ -8574,14 +8434,22 @@
     </row>
     <row r="77" spans="1:99">
       <c r="B77" s="22"/>
-      <c r="C77" s="29"/>
-      <c r="D77" s="22"/>
-      <c r="E77" s="22"/>
+      <c r="C77" s="29" t="s">
+        <v>121</v>
+      </c>
+      <c r="D77" s="22" t="s">
+        <v>71</v>
+      </c>
+      <c r="E77" s="22" t="s">
+        <v>71</v>
+      </c>
       <c r="F77" s="22"/>
       <c r="G77" s="22"/>
       <c r="H77" s="23"/>
       <c r="I77" s="23"/>
-      <c r="J77" s="23"/>
+      <c r="J77" s="23" t="s">
+        <v>39</v>
+      </c>
       <c r="K77" s="22"/>
       <c r="L77" s="1"/>
       <c r="M77" s="1"/>
@@ -8636,11 +8504,21 @@
       <c r="BJ77" s="1"/>
       <c r="BK77" s="1"/>
       <c r="BL77" s="1"/>
-      <c r="BM77" s="1"/>
-      <c r="BN77" s="1"/>
-      <c r="BO77" s="1"/>
-      <c r="BP77" s="1"/>
-      <c r="BQ77" s="1"/>
+      <c r="BM77" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="BN77" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="BO77" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="BP77" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="BQ77" s="1" t="s">
+        <v>137</v>
+      </c>
       <c r="BR77" s="1"/>
       <c r="BS77" s="1"/>
       <c r="BT77" s="1"/>
@@ -8672,126 +8550,148 @@
       <c r="CT77" s="1"/>
       <c r="CU77" s="1"/>
     </row>
-    <row r="78" spans="1:99" s="20" customFormat="1">
-      <c r="A78"/>
-      <c r="B78" s="21"/>
-      <c r="C78" s="30" t="s">
-        <v>106</v>
-      </c>
-      <c r="D78" s="21"/>
-      <c r="E78" s="21"/>
-      <c r="F78" s="21" t="s">
-        <v>57</v>
-      </c>
-      <c r="G78" s="21"/>
-      <c r="H78" s="21"/>
-      <c r="I78" s="21"/>
-      <c r="J78" s="21"/>
-      <c r="K78" s="21"/>
-      <c r="L78" s="21"/>
-      <c r="M78" s="21"/>
-      <c r="N78" s="21"/>
-      <c r="O78" s="21"/>
-      <c r="P78" s="21"/>
-      <c r="Q78" s="21"/>
-      <c r="R78" s="21"/>
-      <c r="S78" s="21"/>
-      <c r="T78" s="21"/>
-      <c r="U78" s="21"/>
-      <c r="V78" s="21"/>
-      <c r="W78" s="21"/>
-      <c r="X78" s="21"/>
-      <c r="Y78" s="21"/>
-      <c r="Z78" s="21"/>
-      <c r="AA78" s="21"/>
-      <c r="AB78" s="21"/>
-      <c r="AC78" s="21"/>
-      <c r="AD78" s="21"/>
-      <c r="AE78" s="21"/>
-      <c r="AF78" s="21"/>
-      <c r="AG78" s="21"/>
-      <c r="AH78" s="21"/>
-      <c r="AI78" s="21"/>
-      <c r="AJ78" s="21"/>
-      <c r="AK78" s="21"/>
-      <c r="AL78" s="21"/>
-      <c r="AM78" s="21"/>
-      <c r="AN78" s="21"/>
-      <c r="AO78" s="21"/>
-      <c r="AP78" s="21"/>
-      <c r="AQ78" s="21"/>
-      <c r="AR78" s="21"/>
-      <c r="AS78" s="21"/>
-      <c r="AT78" s="21"/>
-      <c r="AU78" s="21"/>
-      <c r="AV78" s="21"/>
-      <c r="AW78" s="21"/>
-      <c r="AX78" s="21"/>
-      <c r="AY78" s="21"/>
-      <c r="AZ78" s="21"/>
-      <c r="BA78" s="21"/>
-      <c r="BB78" s="21"/>
-      <c r="BC78" s="21"/>
-      <c r="BD78" s="21"/>
-      <c r="BE78" s="21"/>
-      <c r="BF78" s="21"/>
-      <c r="BG78" s="21"/>
-      <c r="BH78" s="21"/>
-      <c r="BI78" s="21"/>
-      <c r="BJ78" s="21"/>
-      <c r="BK78" s="21"/>
-      <c r="BL78" s="21"/>
-      <c r="BM78" s="21"/>
-      <c r="BN78" s="21"/>
-      <c r="BO78" s="21"/>
-      <c r="BP78" s="21"/>
-      <c r="BQ78" s="21"/>
-      <c r="BR78" s="21"/>
-      <c r="BS78" s="21"/>
-      <c r="BT78" s="21"/>
-      <c r="BU78" s="21"/>
-      <c r="BV78" s="21"/>
-      <c r="BW78" s="21"/>
-      <c r="BX78" s="21"/>
-      <c r="BY78" s="21"/>
-      <c r="BZ78" s="21"/>
-      <c r="CA78" s="21"/>
-      <c r="CB78" s="21"/>
-      <c r="CC78" s="21"/>
-      <c r="CD78" s="21"/>
-      <c r="CE78" s="21"/>
-      <c r="CF78" s="21"/>
-      <c r="CG78" s="21"/>
-      <c r="CH78" s="21"/>
-      <c r="CI78" s="21"/>
-      <c r="CJ78" s="21"/>
-      <c r="CK78" s="21"/>
-      <c r="CL78" s="21"/>
-      <c r="CM78" s="21"/>
-      <c r="CN78" s="21"/>
-      <c r="CO78" s="21"/>
-      <c r="CP78" s="21"/>
-      <c r="CQ78" s="21"/>
-      <c r="CR78" s="21"/>
-      <c r="CS78" s="21"/>
-      <c r="CT78" s="21"/>
-      <c r="CU78" s="21"/>
+    <row r="78" spans="1:99">
+      <c r="A78" t="s">
+        <v>10</v>
+      </c>
+      <c r="B78" s="22"/>
+      <c r="C78" s="29" t="s">
+        <v>76</v>
+      </c>
+      <c r="D78" s="22" t="s">
+        <v>58</v>
+      </c>
+      <c r="E78" s="22" t="s">
+        <v>58</v>
+      </c>
+      <c r="F78" s="22"/>
+      <c r="G78" s="22"/>
+      <c r="H78" s="23"/>
+      <c r="I78" s="23"/>
+      <c r="J78" s="23" t="s">
+        <v>39</v>
+      </c>
+      <c r="K78" s="22"/>
+      <c r="L78" s="1"/>
+      <c r="M78" s="1"/>
+      <c r="N78" s="1"/>
+      <c r="O78" s="1"/>
+      <c r="P78" s="1"/>
+      <c r="Q78" s="1"/>
+      <c r="R78" s="1"/>
+      <c r="S78" s="1"/>
+      <c r="T78" s="1"/>
+      <c r="U78" s="1"/>
+      <c r="V78" s="1"/>
+      <c r="W78" s="1"/>
+      <c r="X78" s="1"/>
+      <c r="Y78" s="1"/>
+      <c r="Z78" s="1"/>
+      <c r="AA78" s="1"/>
+      <c r="AB78" s="1"/>
+      <c r="AC78" s="1"/>
+      <c r="AD78" s="1"/>
+      <c r="AE78" s="1"/>
+      <c r="AF78" s="1"/>
+      <c r="AG78" s="1"/>
+      <c r="AH78" s="1"/>
+      <c r="AI78" s="1"/>
+      <c r="AJ78" s="1"/>
+      <c r="AK78" s="1"/>
+      <c r="AL78" s="1"/>
+      <c r="AM78" s="1"/>
+      <c r="AN78" s="1"/>
+      <c r="AO78" s="1"/>
+      <c r="AP78" s="1"/>
+      <c r="AQ78" s="1"/>
+      <c r="AR78" s="1"/>
+      <c r="AS78" s="1"/>
+      <c r="AT78" s="1"/>
+      <c r="AU78" s="1"/>
+      <c r="AV78" s="1"/>
+      <c r="AW78" s="1"/>
+      <c r="AX78" s="1"/>
+      <c r="AY78" s="1"/>
+      <c r="AZ78" s="1"/>
+      <c r="BA78" s="1"/>
+      <c r="BB78" s="1"/>
+      <c r="BC78" s="1"/>
+      <c r="BD78" s="1"/>
+      <c r="BE78" s="1"/>
+      <c r="BF78" s="1"/>
+      <c r="BG78" s="1"/>
+      <c r="BH78" s="1"/>
+      <c r="BI78" s="1"/>
+      <c r="BJ78" s="1"/>
+      <c r="BK78" s="1"/>
+      <c r="BL78" s="1"/>
+      <c r="BM78" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="BN78" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="BO78" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="BP78" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="BQ78" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="BR78" s="1"/>
+      <c r="BS78" s="1"/>
+      <c r="BT78" s="1"/>
+      <c r="BU78" s="1"/>
+      <c r="BV78" s="1"/>
+      <c r="BW78" s="1"/>
+      <c r="BX78" s="1"/>
+      <c r="BY78" s="1"/>
+      <c r="BZ78" s="1"/>
+      <c r="CA78" s="1"/>
+      <c r="CB78" s="1"/>
+      <c r="CC78" s="1"/>
+      <c r="CD78" s="1"/>
+      <c r="CE78" s="1"/>
+      <c r="CF78" s="1"/>
+      <c r="CG78" s="1"/>
+      <c r="CH78" s="1"/>
+      <c r="CI78" s="1"/>
+      <c r="CJ78" s="1"/>
+      <c r="CK78" s="1"/>
+      <c r="CL78" s="1"/>
+      <c r="CM78" s="1"/>
+      <c r="CN78" s="1"/>
+      <c r="CO78" s="1"/>
+      <c r="CP78" s="1"/>
+      <c r="CQ78" s="1"/>
+      <c r="CR78" s="1"/>
+      <c r="CS78" s="1"/>
+      <c r="CT78" s="1"/>
+      <c r="CU78" s="1"/>
     </row>
     <row r="79" spans="1:99">
-      <c r="A79" s="40" t="s">
-        <v>162</v>
-      </c>
-      <c r="B79" s="41"/>
-      <c r="C79" s="38" t="s">
-        <v>107</v>
-      </c>
-      <c r="D79" s="22"/>
-      <c r="E79" s="22"/>
+      <c r="A79" t="s">
+        <v>10</v>
+      </c>
+      <c r="B79" s="22"/>
+      <c r="C79" s="29" t="s">
+        <v>77</v>
+      </c>
+      <c r="D79" s="22" t="s">
+        <v>82</v>
+      </c>
+      <c r="E79" s="22" t="s">
+        <v>71</v>
+      </c>
       <c r="F79" s="22"/>
       <c r="G79" s="22"/>
       <c r="H79" s="23"/>
       <c r="I79" s="23"/>
-      <c r="J79" s="23"/>
+      <c r="J79" s="23" t="s">
+        <v>39</v>
+      </c>
       <c r="K79" s="22"/>
       <c r="L79" s="1"/>
       <c r="M79" s="1"/>
@@ -8846,11 +8746,21 @@
       <c r="BJ79" s="1"/>
       <c r="BK79" s="1"/>
       <c r="BL79" s="1"/>
-      <c r="BM79" s="1"/>
-      <c r="BN79" s="1"/>
-      <c r="BO79" s="1"/>
-      <c r="BP79" s="1"/>
-      <c r="BQ79" s="1"/>
+      <c r="BM79" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="BN79" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="BO79" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="BP79" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="BQ79" s="1" t="s">
+        <v>137</v>
+      </c>
       <c r="BR79" s="1"/>
       <c r="BS79" s="1"/>
       <c r="BT79" s="1"/>
@@ -8886,24 +8796,22 @@
       <c r="A80" t="s">
         <v>10</v>
       </c>
-      <c r="B80" s="22">
-        <v>651</v>
-      </c>
+      <c r="B80" s="22"/>
       <c r="C80" s="29" t="s">
-        <v>108</v>
+        <v>78</v>
       </c>
       <c r="D80" s="22" t="s">
-        <v>59</v>
-      </c>
-      <c r="E80" s="22"/>
+        <v>60</v>
+      </c>
+      <c r="E80" s="22" t="s">
+        <v>60</v>
+      </c>
       <c r="F80" s="22"/>
-      <c r="G80" s="37" t="s">
-        <v>143</v>
-      </c>
+      <c r="G80" s="22"/>
       <c r="H80" s="23"/>
       <c r="I80" s="23"/>
       <c r="J80" s="23" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K80" s="22"/>
       <c r="L80" s="1"/>
@@ -9009,20 +8917,20 @@
       <c r="A81" t="s">
         <v>10</v>
       </c>
-      <c r="B81" s="22">
-        <v>652</v>
-      </c>
+      <c r="B81" s="22"/>
       <c r="C81" s="29" t="s">
-        <v>99</v>
+        <v>128</v>
       </c>
       <c r="D81" s="22" t="s">
-        <v>59</v>
-      </c>
-      <c r="E81" s="22"/>
-      <c r="F81" s="22"/>
-      <c r="G81" s="37" t="s">
-        <v>144</v>
-      </c>
+        <v>84</v>
+      </c>
+      <c r="E81" s="22" t="s">
+        <v>67</v>
+      </c>
+      <c r="F81" s="22" t="s">
+        <v>71</v>
+      </c>
+      <c r="G81" s="22"/>
       <c r="H81" s="23"/>
       <c r="I81" s="23"/>
       <c r="J81" s="23" t="s">
@@ -9129,17 +9037,26 @@
       <c r="CU81" s="1"/>
     </row>
     <row r="82" spans="1:99">
+      <c r="A82" t="s">
+        <v>10</v>
+      </c>
       <c r="B82" s="22"/>
-      <c r="C82" s="38" t="s">
-        <v>109</v>
-      </c>
-      <c r="D82" s="22"/>
-      <c r="E82" s="22"/>
+      <c r="C82" s="29" t="s">
+        <v>122</v>
+      </c>
+      <c r="D82" s="22" t="s">
+        <v>71</v>
+      </c>
+      <c r="E82" s="22" t="s">
+        <v>71</v>
+      </c>
       <c r="F82" s="22"/>
       <c r="G82" s="22"/>
       <c r="H82" s="23"/>
       <c r="I82" s="23"/>
-      <c r="J82" s="23"/>
+      <c r="J82" s="23" t="s">
+        <v>39</v>
+      </c>
       <c r="K82" s="22"/>
       <c r="L82" s="1"/>
       <c r="M82" s="1"/>
@@ -9194,11 +9111,21 @@
       <c r="BJ82" s="1"/>
       <c r="BK82" s="1"/>
       <c r="BL82" s="1"/>
-      <c r="BM82" s="1"/>
-      <c r="BN82" s="1"/>
-      <c r="BO82" s="1"/>
-      <c r="BP82" s="1"/>
-      <c r="BQ82" s="1"/>
+      <c r="BM82" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="BN82" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="BO82" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="BP82" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="BQ82" s="1" t="s">
+        <v>137</v>
+      </c>
       <c r="BR82" s="1"/>
       <c r="BS82" s="1"/>
       <c r="BT82" s="1"/>
@@ -9235,19 +9162,19 @@
         <v>10</v>
       </c>
       <c r="B83" s="22">
-        <v>653</v>
+        <v>260</v>
       </c>
       <c r="C83" s="29" t="s">
-        <v>100</v>
+        <v>134</v>
       </c>
       <c r="D83" s="22" t="s">
-        <v>59</v>
-      </c>
-      <c r="E83" s="22"/>
+        <v>71</v>
+      </c>
+      <c r="E83" s="22" t="s">
+        <v>71</v>
+      </c>
       <c r="F83" s="22"/>
-      <c r="G83" s="22" t="s">
-        <v>145</v>
-      </c>
+      <c r="G83" s="22"/>
       <c r="H83" s="23"/>
       <c r="I83" s="23"/>
       <c r="J83" s="23" t="s">
@@ -9354,28 +9281,15 @@
       <c r="CU83" s="1"/>
     </row>
     <row r="84" spans="1:99">
-      <c r="A84" t="s">
-        <v>10</v>
-      </c>
-      <c r="B84" s="22">
-        <v>654</v>
-      </c>
-      <c r="C84" s="29" t="s">
-        <v>101</v>
-      </c>
-      <c r="D84" s="22" t="s">
-        <v>61</v>
-      </c>
+      <c r="B84" s="22"/>
+      <c r="C84" s="29"/>
+      <c r="D84" s="22"/>
       <c r="E84" s="22"/>
       <c r="F84" s="22"/>
-      <c r="G84" s="22" t="s">
-        <v>146</v>
-      </c>
+      <c r="G84" s="22"/>
       <c r="H84" s="23"/>
       <c r="I84" s="23"/>
-      <c r="J84" s="23" t="s">
-        <v>39</v>
-      </c>
+      <c r="J84" s="23"/>
       <c r="K84" s="22"/>
       <c r="L84" s="1"/>
       <c r="M84" s="1"/>
@@ -9430,21 +9344,11 @@
       <c r="BJ84" s="1"/>
       <c r="BK84" s="1"/>
       <c r="BL84" s="1"/>
-      <c r="BM84" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="BN84" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="BO84" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="BP84" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="BQ84" s="1" t="s">
-        <v>137</v>
-      </c>
+      <c r="BM84" s="1"/>
+      <c r="BN84" s="1"/>
+      <c r="BO84" s="1"/>
+      <c r="BP84" s="1"/>
+      <c r="BQ84" s="1"/>
       <c r="BR84" s="1"/>
       <c r="BS84" s="1"/>
       <c r="BT84" s="1"/>
@@ -9476,152 +9380,126 @@
       <c r="CT84" s="1"/>
       <c r="CU84" s="1"/>
     </row>
-    <row r="85" spans="1:99">
-      <c r="A85" t="s">
-        <v>10</v>
-      </c>
-      <c r="B85" s="22">
-        <v>655</v>
-      </c>
-      <c r="C85" s="29" t="s">
-        <v>102</v>
-      </c>
-      <c r="D85" s="22" t="s">
-        <v>61</v>
-      </c>
-      <c r="E85" s="22"/>
-      <c r="F85" s="22"/>
-      <c r="G85" s="22" t="s">
-        <v>147</v>
-      </c>
-      <c r="H85" s="23"/>
-      <c r="I85" s="23"/>
-      <c r="J85" s="23" t="s">
-        <v>39</v>
-      </c>
-      <c r="K85" s="22"/>
-      <c r="L85" s="1"/>
-      <c r="M85" s="1"/>
-      <c r="N85" s="1"/>
-      <c r="O85" s="1"/>
-      <c r="P85" s="1"/>
-      <c r="Q85" s="1"/>
-      <c r="R85" s="1"/>
-      <c r="S85" s="1"/>
-      <c r="T85" s="1"/>
-      <c r="U85" s="1"/>
-      <c r="V85" s="1"/>
-      <c r="W85" s="1"/>
-      <c r="X85" s="1"/>
-      <c r="Y85" s="1"/>
-      <c r="Z85" s="1"/>
-      <c r="AA85" s="1"/>
-      <c r="AB85" s="1"/>
-      <c r="AC85" s="1"/>
-      <c r="AD85" s="1"/>
-      <c r="AE85" s="1"/>
-      <c r="AF85" s="1"/>
-      <c r="AG85" s="1"/>
-      <c r="AH85" s="1"/>
-      <c r="AI85" s="1"/>
-      <c r="AJ85" s="1"/>
-      <c r="AK85" s="1"/>
-      <c r="AL85" s="1"/>
-      <c r="AM85" s="1"/>
-      <c r="AN85" s="1"/>
-      <c r="AO85" s="1"/>
-      <c r="AP85" s="1"/>
-      <c r="AQ85" s="1"/>
-      <c r="AR85" s="1"/>
-      <c r="AS85" s="1"/>
-      <c r="AT85" s="1"/>
-      <c r="AU85" s="1"/>
-      <c r="AV85" s="1"/>
-      <c r="AW85" s="1"/>
-      <c r="AX85" s="1"/>
-      <c r="AY85" s="1"/>
-      <c r="AZ85" s="1"/>
-      <c r="BA85" s="1"/>
-      <c r="BB85" s="1"/>
-      <c r="BC85" s="1"/>
-      <c r="BD85" s="1"/>
-      <c r="BE85" s="1"/>
-      <c r="BF85" s="1"/>
-      <c r="BG85" s="1"/>
-      <c r="BH85" s="1"/>
-      <c r="BI85" s="1"/>
-      <c r="BJ85" s="1"/>
-      <c r="BK85" s="1"/>
-      <c r="BL85" s="1"/>
-      <c r="BM85" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="BN85" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="BO85" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="BP85" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="BQ85" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="BR85" s="1"/>
-      <c r="BS85" s="1"/>
-      <c r="BT85" s="1"/>
-      <c r="BU85" s="1"/>
-      <c r="BV85" s="1"/>
-      <c r="BW85" s="1"/>
-      <c r="BX85" s="1"/>
-      <c r="BY85" s="1"/>
-      <c r="BZ85" s="1"/>
-      <c r="CA85" s="1"/>
-      <c r="CB85" s="1"/>
-      <c r="CC85" s="1"/>
-      <c r="CD85" s="1"/>
-      <c r="CE85" s="1"/>
-      <c r="CF85" s="1"/>
-      <c r="CG85" s="1"/>
-      <c r="CH85" s="1"/>
-      <c r="CI85" s="1"/>
-      <c r="CJ85" s="1"/>
-      <c r="CK85" s="1"/>
-      <c r="CL85" s="1"/>
-      <c r="CM85" s="1"/>
-      <c r="CN85" s="1"/>
-      <c r="CO85" s="1"/>
-      <c r="CP85" s="1"/>
-      <c r="CQ85" s="1"/>
-      <c r="CR85" s="1"/>
-      <c r="CS85" s="1"/>
-      <c r="CT85" s="1"/>
-      <c r="CU85" s="1"/>
+    <row r="85" spans="1:99" s="20" customFormat="1">
+      <c r="A85"/>
+      <c r="B85" s="21"/>
+      <c r="C85" s="30" t="s">
+        <v>106</v>
+      </c>
+      <c r="D85" s="21"/>
+      <c r="E85" s="21"/>
+      <c r="F85" s="21" t="s">
+        <v>57</v>
+      </c>
+      <c r="G85" s="21"/>
+      <c r="H85" s="21"/>
+      <c r="I85" s="21"/>
+      <c r="J85" s="21"/>
+      <c r="K85" s="21"/>
+      <c r="L85" s="21"/>
+      <c r="M85" s="21"/>
+      <c r="N85" s="21"/>
+      <c r="O85" s="21"/>
+      <c r="P85" s="21"/>
+      <c r="Q85" s="21"/>
+      <c r="R85" s="21"/>
+      <c r="S85" s="21"/>
+      <c r="T85" s="21"/>
+      <c r="U85" s="21"/>
+      <c r="V85" s="21"/>
+      <c r="W85" s="21"/>
+      <c r="X85" s="21"/>
+      <c r="Y85" s="21"/>
+      <c r="Z85" s="21"/>
+      <c r="AA85" s="21"/>
+      <c r="AB85" s="21"/>
+      <c r="AC85" s="21"/>
+      <c r="AD85" s="21"/>
+      <c r="AE85" s="21"/>
+      <c r="AF85" s="21"/>
+      <c r="AG85" s="21"/>
+      <c r="AH85" s="21"/>
+      <c r="AI85" s="21"/>
+      <c r="AJ85" s="21"/>
+      <c r="AK85" s="21"/>
+      <c r="AL85" s="21"/>
+      <c r="AM85" s="21"/>
+      <c r="AN85" s="21"/>
+      <c r="AO85" s="21"/>
+      <c r="AP85" s="21"/>
+      <c r="AQ85" s="21"/>
+      <c r="AR85" s="21"/>
+      <c r="AS85" s="21"/>
+      <c r="AT85" s="21"/>
+      <c r="AU85" s="21"/>
+      <c r="AV85" s="21"/>
+      <c r="AW85" s="21"/>
+      <c r="AX85" s="21"/>
+      <c r="AY85" s="21"/>
+      <c r="AZ85" s="21"/>
+      <c r="BA85" s="21"/>
+      <c r="BB85" s="21"/>
+      <c r="BC85" s="21"/>
+      <c r="BD85" s="21"/>
+      <c r="BE85" s="21"/>
+      <c r="BF85" s="21"/>
+      <c r="BG85" s="21"/>
+      <c r="BH85" s="21"/>
+      <c r="BI85" s="21"/>
+      <c r="BJ85" s="21"/>
+      <c r="BK85" s="21"/>
+      <c r="BL85" s="21"/>
+      <c r="BM85" s="21"/>
+      <c r="BN85" s="21"/>
+      <c r="BO85" s="21"/>
+      <c r="BP85" s="21"/>
+      <c r="BQ85" s="21"/>
+      <c r="BR85" s="21"/>
+      <c r="BS85" s="21"/>
+      <c r="BT85" s="21"/>
+      <c r="BU85" s="21"/>
+      <c r="BV85" s="21"/>
+      <c r="BW85" s="21"/>
+      <c r="BX85" s="21"/>
+      <c r="BY85" s="21"/>
+      <c r="BZ85" s="21"/>
+      <c r="CA85" s="21"/>
+      <c r="CB85" s="21"/>
+      <c r="CC85" s="21"/>
+      <c r="CD85" s="21"/>
+      <c r="CE85" s="21"/>
+      <c r="CF85" s="21"/>
+      <c r="CG85" s="21"/>
+      <c r="CH85" s="21"/>
+      <c r="CI85" s="21"/>
+      <c r="CJ85" s="21"/>
+      <c r="CK85" s="21"/>
+      <c r="CL85" s="21"/>
+      <c r="CM85" s="21"/>
+      <c r="CN85" s="21"/>
+      <c r="CO85" s="21"/>
+      <c r="CP85" s="21"/>
+      <c r="CQ85" s="21"/>
+      <c r="CR85" s="21"/>
+      <c r="CS85" s="21"/>
+      <c r="CT85" s="21"/>
+      <c r="CU85" s="21"/>
     </row>
     <row r="86" spans="1:99">
-      <c r="A86" t="s">
-        <v>10</v>
-      </c>
-      <c r="B86" s="22">
-        <v>656</v>
-      </c>
-      <c r="C86" s="29" t="s">
-        <v>103</v>
-      </c>
-      <c r="D86" s="22" t="s">
-        <v>61</v>
-      </c>
+      <c r="A86" s="41" t="s">
+        <v>162</v>
+      </c>
+      <c r="B86" s="42"/>
+      <c r="C86" s="38" t="s">
+        <v>107</v>
+      </c>
+      <c r="D86" s="22"/>
       <c r="E86" s="22"/>
       <c r="F86" s="22"/>
-      <c r="G86" s="22" t="s">
-        <v>148</v>
-      </c>
+      <c r="G86" s="22"/>
       <c r="H86" s="23"/>
       <c r="I86" s="23"/>
-      <c r="J86" s="23" t="s">
-        <v>39</v>
-      </c>
+      <c r="J86" s="23"/>
       <c r="K86" s="22"/>
       <c r="L86" s="1"/>
       <c r="M86" s="1"/>
@@ -9676,21 +9554,11 @@
       <c r="BJ86" s="1"/>
       <c r="BK86" s="1"/>
       <c r="BL86" s="1"/>
-      <c r="BM86" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="BN86" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="BO86" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="BP86" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="BQ86" s="1" t="s">
-        <v>137</v>
-      </c>
+      <c r="BM86" s="1"/>
+      <c r="BN86" s="1"/>
+      <c r="BO86" s="1"/>
+      <c r="BP86" s="1"/>
+      <c r="BQ86" s="1"/>
       <c r="BR86" s="1"/>
       <c r="BS86" s="1"/>
       <c r="BT86" s="1"/>
@@ -9727,23 +9595,23 @@
         <v>10</v>
       </c>
       <c r="B87" s="22">
-        <v>657</v>
-      </c>
-      <c r="C87" s="38" t="s">
-        <v>104</v>
+        <v>651</v>
+      </c>
+      <c r="C87" s="29" t="s">
+        <v>108</v>
       </c>
       <c r="D87" s="22" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E87" s="22"/>
       <c r="F87" s="22"/>
-      <c r="G87" s="22" t="s">
-        <v>149</v>
+      <c r="G87" s="37" t="s">
+        <v>143</v>
       </c>
       <c r="H87" s="23"/>
       <c r="I87" s="23"/>
       <c r="J87" s="23" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K87" s="22"/>
       <c r="L87" s="1"/>
@@ -9850,18 +9718,18 @@
         <v>10</v>
       </c>
       <c r="B88" s="22">
-        <v>658</v>
-      </c>
-      <c r="C88" s="38" t="s">
-        <v>160</v>
+        <v>652</v>
+      </c>
+      <c r="C88" s="29" t="s">
+        <v>99</v>
       </c>
       <c r="D88" s="22" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E88" s="22"/>
       <c r="F88" s="22"/>
-      <c r="G88" s="22" t="s">
-        <v>161</v>
+      <c r="G88" s="37" t="s">
+        <v>144</v>
       </c>
       <c r="H88" s="23"/>
       <c r="I88" s="23"/>
@@ -9969,28 +9837,17 @@
       <c r="CU88" s="1"/>
     </row>
     <row r="89" spans="1:99">
-      <c r="A89" t="s">
-        <v>10</v>
-      </c>
-      <c r="B89" s="22">
-        <v>659</v>
-      </c>
+      <c r="B89" s="22"/>
       <c r="C89" s="38" t="s">
-        <v>141</v>
-      </c>
-      <c r="D89" s="22" t="s">
-        <v>71</v>
-      </c>
+        <v>109</v>
+      </c>
+      <c r="D89" s="22"/>
       <c r="E89" s="22"/>
       <c r="F89" s="22"/>
-      <c r="G89" s="22" t="s">
-        <v>152</v>
-      </c>
+      <c r="G89" s="22"/>
       <c r="H89" s="23"/>
       <c r="I89" s="23"/>
-      <c r="J89" s="23" t="s">
-        <v>39</v>
-      </c>
+      <c r="J89" s="23"/>
       <c r="K89" s="22"/>
       <c r="L89" s="1"/>
       <c r="M89" s="1"/>
@@ -10045,21 +9902,11 @@
       <c r="BJ89" s="1"/>
       <c r="BK89" s="1"/>
       <c r="BL89" s="1"/>
-      <c r="BM89" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="BN89" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="BO89" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="BP89" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="BQ89" s="1" t="s">
-        <v>137</v>
-      </c>
+      <c r="BM89" s="1"/>
+      <c r="BN89" s="1"/>
+      <c r="BO89" s="1"/>
+      <c r="BP89" s="1"/>
+      <c r="BQ89" s="1"/>
       <c r="BR89" s="1"/>
       <c r="BS89" s="1"/>
       <c r="BT89" s="1"/>
@@ -10096,18 +9943,18 @@
         <v>10</v>
       </c>
       <c r="B90" s="22">
-        <v>660</v>
-      </c>
-      <c r="C90" s="38" t="s">
-        <v>142</v>
+        <v>653</v>
+      </c>
+      <c r="C90" s="29" t="s">
+        <v>100</v>
       </c>
       <c r="D90" s="22" t="s">
-        <v>71</v>
+        <v>59</v>
       </c>
       <c r="E90" s="22"/>
       <c r="F90" s="22"/>
       <c r="G90" s="22" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="H90" s="23"/>
       <c r="I90" s="23"/>
@@ -10219,18 +10066,18 @@
         <v>10</v>
       </c>
       <c r="B91" s="22">
-        <v>601</v>
-      </c>
-      <c r="C91" s="38" t="s">
-        <v>105</v>
+        <v>654</v>
+      </c>
+      <c r="C91" s="29" t="s">
+        <v>101</v>
       </c>
       <c r="D91" s="22" t="s">
-        <v>81</v>
+        <v>61</v>
       </c>
       <c r="E91" s="22"/>
       <c r="F91" s="22"/>
       <c r="G91" s="22" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="H91" s="23"/>
       <c r="I91" s="23"/>
@@ -10338,15 +10185,28 @@
       <c r="CU91" s="1"/>
     </row>
     <row r="92" spans="1:99">
-      <c r="B92" s="22"/>
-      <c r="C92" s="29"/>
-      <c r="D92" s="22"/>
+      <c r="A92" t="s">
+        <v>10</v>
+      </c>
+      <c r="B92" s="22">
+        <v>655</v>
+      </c>
+      <c r="C92" s="29" t="s">
+        <v>102</v>
+      </c>
+      <c r="D92" s="22" t="s">
+        <v>61</v>
+      </c>
       <c r="E92" s="22"/>
       <c r="F92" s="22"/>
-      <c r="G92" s="22"/>
+      <c r="G92" s="22" t="s">
+        <v>147</v>
+      </c>
       <c r="H92" s="23"/>
       <c r="I92" s="23"/>
-      <c r="J92" s="23"/>
+      <c r="J92" s="23" t="s">
+        <v>39</v>
+      </c>
       <c r="K92" s="22"/>
       <c r="L92" s="1"/>
       <c r="M92" s="1"/>
@@ -10401,11 +10261,21 @@
       <c r="BJ92" s="1"/>
       <c r="BK92" s="1"/>
       <c r="BL92" s="1"/>
-      <c r="BM92" s="1"/>
-      <c r="BN92" s="1"/>
-      <c r="BO92" s="1"/>
-      <c r="BP92" s="1"/>
-      <c r="BQ92" s="1"/>
+      <c r="BM92" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="BN92" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="BO92" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="BP92" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="BQ92" s="1" t="s">
+        <v>137</v>
+      </c>
       <c r="BR92" s="1"/>
       <c r="BS92" s="1"/>
       <c r="BT92" s="1"/>
@@ -10437,124 +10307,152 @@
       <c r="CT92" s="1"/>
       <c r="CU92" s="1"/>
     </row>
-    <row r="93" spans="1:99" s="20" customFormat="1">
-      <c r="A93"/>
-      <c r="B93" s="21"/>
-      <c r="C93" s="30" t="s">
-        <v>110</v>
-      </c>
-      <c r="D93" s="21"/>
-      <c r="E93" s="21"/>
-      <c r="F93" s="21"/>
-      <c r="G93" s="21"/>
-      <c r="H93" s="21"/>
-      <c r="I93" s="21"/>
-      <c r="J93" s="21"/>
-      <c r="K93" s="21"/>
-      <c r="L93" s="21"/>
-      <c r="M93" s="21"/>
-      <c r="N93" s="21"/>
-      <c r="O93" s="21"/>
-      <c r="P93" s="21"/>
-      <c r="Q93" s="21"/>
-      <c r="R93" s="21"/>
-      <c r="S93" s="21"/>
-      <c r="T93" s="21"/>
-      <c r="U93" s="21"/>
-      <c r="V93" s="21"/>
-      <c r="W93" s="21"/>
-      <c r="X93" s="21"/>
-      <c r="Y93" s="21"/>
-      <c r="Z93" s="21"/>
-      <c r="AA93" s="21"/>
-      <c r="AB93" s="21"/>
-      <c r="AC93" s="21"/>
-      <c r="AD93" s="21"/>
-      <c r="AE93" s="21"/>
-      <c r="AF93" s="21"/>
-      <c r="AG93" s="21"/>
-      <c r="AH93" s="21"/>
-      <c r="AI93" s="21"/>
-      <c r="AJ93" s="21"/>
-      <c r="AK93" s="21"/>
-      <c r="AL93" s="21"/>
-      <c r="AM93" s="21"/>
-      <c r="AN93" s="21"/>
-      <c r="AO93" s="21"/>
-      <c r="AP93" s="21"/>
-      <c r="AQ93" s="21"/>
-      <c r="AR93" s="21"/>
-      <c r="AS93" s="21"/>
-      <c r="AT93" s="21"/>
-      <c r="AU93" s="21"/>
-      <c r="AV93" s="21"/>
-      <c r="AW93" s="21"/>
-      <c r="AX93" s="21"/>
-      <c r="AY93" s="21"/>
-      <c r="AZ93" s="21"/>
-      <c r="BA93" s="21"/>
-      <c r="BB93" s="21"/>
-      <c r="BC93" s="21"/>
-      <c r="BD93" s="21"/>
-      <c r="BE93" s="21"/>
-      <c r="BF93" s="21"/>
-      <c r="BG93" s="21"/>
-      <c r="BH93" s="21"/>
-      <c r="BI93" s="21"/>
-      <c r="BJ93" s="21"/>
-      <c r="BK93" s="21"/>
-      <c r="BL93" s="21"/>
-      <c r="BM93" s="21"/>
-      <c r="BN93" s="21"/>
-      <c r="BO93" s="21"/>
-      <c r="BP93" s="21"/>
-      <c r="BQ93" s="21"/>
-      <c r="BR93" s="21"/>
-      <c r="BS93" s="21"/>
-      <c r="BT93" s="21"/>
-      <c r="BU93" s="21"/>
-      <c r="BV93" s="21"/>
-      <c r="BW93" s="21"/>
-      <c r="BX93" s="21"/>
-      <c r="BY93" s="21"/>
-      <c r="BZ93" s="21"/>
-      <c r="CA93" s="21"/>
-      <c r="CB93" s="21"/>
-      <c r="CC93" s="21"/>
-      <c r="CD93" s="21"/>
-      <c r="CE93" s="21"/>
-      <c r="CF93" s="21"/>
-      <c r="CG93" s="21"/>
-      <c r="CH93" s="21"/>
-      <c r="CI93" s="21"/>
-      <c r="CJ93" s="21"/>
-      <c r="CK93" s="21"/>
-      <c r="CL93" s="21"/>
-      <c r="CM93" s="21"/>
-      <c r="CN93" s="21"/>
-      <c r="CO93" s="21"/>
-      <c r="CP93" s="21"/>
-      <c r="CQ93" s="21"/>
-      <c r="CR93" s="21"/>
-      <c r="CS93" s="21"/>
-      <c r="CT93" s="21"/>
-      <c r="CU93" s="21"/>
+    <row r="93" spans="1:99">
+      <c r="A93" t="s">
+        <v>10</v>
+      </c>
+      <c r="B93" s="22">
+        <v>656</v>
+      </c>
+      <c r="C93" s="29" t="s">
+        <v>103</v>
+      </c>
+      <c r="D93" s="22" t="s">
+        <v>61</v>
+      </c>
+      <c r="E93" s="22"/>
+      <c r="F93" s="22"/>
+      <c r="G93" s="22" t="s">
+        <v>148</v>
+      </c>
+      <c r="H93" s="23"/>
+      <c r="I93" s="23"/>
+      <c r="J93" s="23" t="s">
+        <v>39</v>
+      </c>
+      <c r="K93" s="22"/>
+      <c r="L93" s="1"/>
+      <c r="M93" s="1"/>
+      <c r="N93" s="1"/>
+      <c r="O93" s="1"/>
+      <c r="P93" s="1"/>
+      <c r="Q93" s="1"/>
+      <c r="R93" s="1"/>
+      <c r="S93" s="1"/>
+      <c r="T93" s="1"/>
+      <c r="U93" s="1"/>
+      <c r="V93" s="1"/>
+      <c r="W93" s="1"/>
+      <c r="X93" s="1"/>
+      <c r="Y93" s="1"/>
+      <c r="Z93" s="1"/>
+      <c r="AA93" s="1"/>
+      <c r="AB93" s="1"/>
+      <c r="AC93" s="1"/>
+      <c r="AD93" s="1"/>
+      <c r="AE93" s="1"/>
+      <c r="AF93" s="1"/>
+      <c r="AG93" s="1"/>
+      <c r="AH93" s="1"/>
+      <c r="AI93" s="1"/>
+      <c r="AJ93" s="1"/>
+      <c r="AK93" s="1"/>
+      <c r="AL93" s="1"/>
+      <c r="AM93" s="1"/>
+      <c r="AN93" s="1"/>
+      <c r="AO93" s="1"/>
+      <c r="AP93" s="1"/>
+      <c r="AQ93" s="1"/>
+      <c r="AR93" s="1"/>
+      <c r="AS93" s="1"/>
+      <c r="AT93" s="1"/>
+      <c r="AU93" s="1"/>
+      <c r="AV93" s="1"/>
+      <c r="AW93" s="1"/>
+      <c r="AX93" s="1"/>
+      <c r="AY93" s="1"/>
+      <c r="AZ93" s="1"/>
+      <c r="BA93" s="1"/>
+      <c r="BB93" s="1"/>
+      <c r="BC93" s="1"/>
+      <c r="BD93" s="1"/>
+      <c r="BE93" s="1"/>
+      <c r="BF93" s="1"/>
+      <c r="BG93" s="1"/>
+      <c r="BH93" s="1"/>
+      <c r="BI93" s="1"/>
+      <c r="BJ93" s="1"/>
+      <c r="BK93" s="1"/>
+      <c r="BL93" s="1"/>
+      <c r="BM93" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="BN93" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="BO93" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="BP93" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="BQ93" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="BR93" s="1"/>
+      <c r="BS93" s="1"/>
+      <c r="BT93" s="1"/>
+      <c r="BU93" s="1"/>
+      <c r="BV93" s="1"/>
+      <c r="BW93" s="1"/>
+      <c r="BX93" s="1"/>
+      <c r="BY93" s="1"/>
+      <c r="BZ93" s="1"/>
+      <c r="CA93" s="1"/>
+      <c r="CB93" s="1"/>
+      <c r="CC93" s="1"/>
+      <c r="CD93" s="1"/>
+      <c r="CE93" s="1"/>
+      <c r="CF93" s="1"/>
+      <c r="CG93" s="1"/>
+      <c r="CH93" s="1"/>
+      <c r="CI93" s="1"/>
+      <c r="CJ93" s="1"/>
+      <c r="CK93" s="1"/>
+      <c r="CL93" s="1"/>
+      <c r="CM93" s="1"/>
+      <c r="CN93" s="1"/>
+      <c r="CO93" s="1"/>
+      <c r="CP93" s="1"/>
+      <c r="CQ93" s="1"/>
+      <c r="CR93" s="1"/>
+      <c r="CS93" s="1"/>
+      <c r="CT93" s="1"/>
+      <c r="CU93" s="1"/>
     </row>
     <row r="94" spans="1:99">
       <c r="A94" t="s">
         <v>10</v>
       </c>
-      <c r="B94" s="22"/>
-      <c r="C94" s="37" t="s">
-        <v>111</v>
-      </c>
-      <c r="D94" s="22"/>
+      <c r="B94" s="22">
+        <v>657</v>
+      </c>
+      <c r="C94" s="38" t="s">
+        <v>104</v>
+      </c>
+      <c r="D94" s="22" t="s">
+        <v>58</v>
+      </c>
       <c r="E94" s="22"/>
       <c r="F94" s="22"/>
-      <c r="G94" s="22"/>
+      <c r="G94" s="22" t="s">
+        <v>149</v>
+      </c>
       <c r="H94" s="23"/>
       <c r="I94" s="23"/>
-      <c r="J94" s="23"/>
+      <c r="J94" s="23" t="s">
+        <v>39</v>
+      </c>
       <c r="K94" s="22"/>
       <c r="L94" s="1"/>
       <c r="M94" s="1"/>
@@ -10609,11 +10507,21 @@
       <c r="BJ94" s="1"/>
       <c r="BK94" s="1"/>
       <c r="BL94" s="1"/>
-      <c r="BM94" s="1"/>
-      <c r="BN94" s="1"/>
-      <c r="BO94" s="1"/>
-      <c r="BP94" s="1"/>
-      <c r="BQ94" s="1"/>
+      <c r="BM94" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="BN94" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="BO94" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="BP94" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="BQ94" s="1" t="s">
+        <v>137</v>
+      </c>
       <c r="BR94" s="1"/>
       <c r="BS94" s="1"/>
       <c r="BT94" s="1"/>
@@ -10649,17 +10557,25 @@
       <c r="A95" t="s">
         <v>10</v>
       </c>
-      <c r="B95" s="22"/>
-      <c r="C95" s="37" t="s">
-        <v>112</v>
-      </c>
-      <c r="D95" s="22"/>
+      <c r="B95" s="22">
+        <v>658</v>
+      </c>
+      <c r="C95" s="38" t="s">
+        <v>160</v>
+      </c>
+      <c r="D95" s="22" t="s">
+        <v>61</v>
+      </c>
       <c r="E95" s="22"/>
       <c r="F95" s="22"/>
-      <c r="G95" s="22"/>
+      <c r="G95" s="22" t="s">
+        <v>161</v>
+      </c>
       <c r="H95" s="23"/>
       <c r="I95" s="23"/>
-      <c r="J95" s="23"/>
+      <c r="J95" s="23" t="s">
+        <v>39</v>
+      </c>
       <c r="K95" s="22"/>
       <c r="L95" s="1"/>
       <c r="M95" s="1"/>
@@ -10714,11 +10630,21 @@
       <c r="BJ95" s="1"/>
       <c r="BK95" s="1"/>
       <c r="BL95" s="1"/>
-      <c r="BM95" s="1"/>
-      <c r="BN95" s="1"/>
-      <c r="BO95" s="1"/>
-      <c r="BP95" s="1"/>
-      <c r="BQ95" s="1"/>
+      <c r="BM95" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="BN95" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="BO95" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="BP95" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="BQ95" s="1" t="s">
+        <v>137</v>
+      </c>
       <c r="BR95" s="1"/>
       <c r="BS95" s="1"/>
       <c r="BT95" s="1"/>
@@ -10751,15 +10677,28 @@
       <c r="CU95" s="1"/>
     </row>
     <row r="96" spans="1:99">
-      <c r="B96" s="22"/>
-      <c r="C96" s="29"/>
-      <c r="D96" s="22"/>
+      <c r="A96" t="s">
+        <v>10</v>
+      </c>
+      <c r="B96" s="22">
+        <v>659</v>
+      </c>
+      <c r="C96" s="38" t="s">
+        <v>141</v>
+      </c>
+      <c r="D96" s="22" t="s">
+        <v>71</v>
+      </c>
       <c r="E96" s="22"/>
       <c r="F96" s="22"/>
-      <c r="G96" s="22"/>
+      <c r="G96" s="22" t="s">
+        <v>152</v>
+      </c>
       <c r="H96" s="23"/>
       <c r="I96" s="23"/>
-      <c r="J96" s="23"/>
+      <c r="J96" s="23" t="s">
+        <v>39</v>
+      </c>
       <c r="K96" s="22"/>
       <c r="L96" s="1"/>
       <c r="M96" s="1"/>
@@ -10814,11 +10753,21 @@
       <c r="BJ96" s="1"/>
       <c r="BK96" s="1"/>
       <c r="BL96" s="1"/>
-      <c r="BM96" s="1"/>
-      <c r="BN96" s="1"/>
-      <c r="BO96" s="1"/>
-      <c r="BP96" s="1"/>
-      <c r="BQ96" s="1"/>
+      <c r="BM96" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="BN96" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="BO96" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="BP96" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="BQ96" s="1" t="s">
+        <v>137</v>
+      </c>
       <c r="BR96" s="1"/>
       <c r="BS96" s="1"/>
       <c r="BT96" s="1"/>
@@ -10850,129 +10799,151 @@
       <c r="CT96" s="1"/>
       <c r="CU96" s="1"/>
     </row>
-    <row r="97" spans="1:99" s="20" customFormat="1">
-      <c r="A97"/>
-      <c r="B97" s="21"/>
-      <c r="C97" s="30" t="s">
-        <v>54</v>
-      </c>
-      <c r="D97" s="21"/>
-      <c r="E97" s="21"/>
-      <c r="F97" s="21"/>
-      <c r="G97" s="21"/>
-      <c r="H97" s="21"/>
-      <c r="I97" s="21"/>
-      <c r="J97" s="21"/>
-      <c r="K97" s="21"/>
-      <c r="L97" s="21"/>
-      <c r="M97" s="21"/>
-      <c r="N97" s="21"/>
-      <c r="O97" s="21"/>
-      <c r="P97" s="21"/>
-      <c r="Q97" s="21"/>
-      <c r="R97" s="21"/>
-      <c r="S97" s="21"/>
-      <c r="T97" s="21"/>
-      <c r="U97" s="21"/>
-      <c r="V97" s="21"/>
-      <c r="W97" s="21"/>
-      <c r="X97" s="21"/>
-      <c r="Y97" s="21"/>
-      <c r="Z97" s="21"/>
-      <c r="AA97" s="21"/>
-      <c r="AB97" s="21"/>
-      <c r="AC97" s="21"/>
-      <c r="AD97" s="21"/>
-      <c r="AE97" s="21"/>
-      <c r="AF97" s="21"/>
-      <c r="AG97" s="21"/>
-      <c r="AH97" s="21"/>
-      <c r="AI97" s="21"/>
-      <c r="AJ97" s="21"/>
-      <c r="AK97" s="21"/>
-      <c r="AL97" s="21"/>
-      <c r="AM97" s="21"/>
-      <c r="AN97" s="21"/>
-      <c r="AO97" s="21"/>
-      <c r="AP97" s="21"/>
-      <c r="AQ97" s="21"/>
-      <c r="AR97" s="21"/>
-      <c r="AS97" s="21"/>
-      <c r="AT97" s="21"/>
-      <c r="AU97" s="21"/>
-      <c r="AV97" s="21"/>
-      <c r="AW97" s="21"/>
-      <c r="AX97" s="21"/>
-      <c r="AY97" s="21"/>
-      <c r="AZ97" s="21"/>
-      <c r="BA97" s="21"/>
-      <c r="BB97" s="21"/>
-      <c r="BC97" s="21"/>
-      <c r="BD97" s="21"/>
-      <c r="BE97" s="21"/>
-      <c r="BF97" s="21"/>
-      <c r="BG97" s="21"/>
-      <c r="BH97" s="21"/>
-      <c r="BI97" s="21"/>
-      <c r="BJ97" s="21"/>
-      <c r="BK97" s="21"/>
-      <c r="BL97" s="21"/>
-      <c r="BM97" s="21"/>
-      <c r="BN97" s="21"/>
-      <c r="BO97" s="21"/>
-      <c r="BP97" s="21"/>
-      <c r="BQ97" s="21"/>
-      <c r="BR97" s="21"/>
-      <c r="BS97" s="21"/>
-      <c r="BT97" s="21"/>
-      <c r="BU97" s="21"/>
-      <c r="BV97" s="21"/>
-      <c r="BW97" s="21"/>
-      <c r="BX97" s="21"/>
-      <c r="BY97" s="21"/>
-      <c r="BZ97" s="21"/>
-      <c r="CA97" s="21"/>
-      <c r="CB97" s="21"/>
-      <c r="CC97" s="21"/>
-      <c r="CD97" s="21"/>
-      <c r="CE97" s="21"/>
-      <c r="CF97" s="21"/>
-      <c r="CG97" s="21"/>
-      <c r="CH97" s="21"/>
-      <c r="CI97" s="21"/>
-      <c r="CJ97" s="21"/>
-      <c r="CK97" s="21"/>
-      <c r="CL97" s="21"/>
-      <c r="CM97" s="21"/>
-      <c r="CN97" s="21"/>
-      <c r="CO97" s="21"/>
-      <c r="CP97" s="21"/>
-      <c r="CQ97" s="21"/>
-      <c r="CR97" s="21"/>
-      <c r="CS97" s="21"/>
-      <c r="CT97" s="21"/>
-      <c r="CU97" s="21"/>
+    <row r="97" spans="1:99">
+      <c r="A97" t="s">
+        <v>10</v>
+      </c>
+      <c r="B97" s="22">
+        <v>660</v>
+      </c>
+      <c r="C97" s="38" t="s">
+        <v>142</v>
+      </c>
+      <c r="D97" s="22" t="s">
+        <v>71</v>
+      </c>
+      <c r="E97" s="22"/>
+      <c r="F97" s="22"/>
+      <c r="G97" s="22" t="s">
+        <v>151</v>
+      </c>
+      <c r="H97" s="23"/>
+      <c r="I97" s="23"/>
+      <c r="J97" s="23" t="s">
+        <v>39</v>
+      </c>
+      <c r="K97" s="22"/>
+      <c r="L97" s="1"/>
+      <c r="M97" s="1"/>
+      <c r="N97" s="1"/>
+      <c r="O97" s="1"/>
+      <c r="P97" s="1"/>
+      <c r="Q97" s="1"/>
+      <c r="R97" s="1"/>
+      <c r="S97" s="1"/>
+      <c r="T97" s="1"/>
+      <c r="U97" s="1"/>
+      <c r="V97" s="1"/>
+      <c r="W97" s="1"/>
+      <c r="X97" s="1"/>
+      <c r="Y97" s="1"/>
+      <c r="Z97" s="1"/>
+      <c r="AA97" s="1"/>
+      <c r="AB97" s="1"/>
+      <c r="AC97" s="1"/>
+      <c r="AD97" s="1"/>
+      <c r="AE97" s="1"/>
+      <c r="AF97" s="1"/>
+      <c r="AG97" s="1"/>
+      <c r="AH97" s="1"/>
+      <c r="AI97" s="1"/>
+      <c r="AJ97" s="1"/>
+      <c r="AK97" s="1"/>
+      <c r="AL97" s="1"/>
+      <c r="AM97" s="1"/>
+      <c r="AN97" s="1"/>
+      <c r="AO97" s="1"/>
+      <c r="AP97" s="1"/>
+      <c r="AQ97" s="1"/>
+      <c r="AR97" s="1"/>
+      <c r="AS97" s="1"/>
+      <c r="AT97" s="1"/>
+      <c r="AU97" s="1"/>
+      <c r="AV97" s="1"/>
+      <c r="AW97" s="1"/>
+      <c r="AX97" s="1"/>
+      <c r="AY97" s="1"/>
+      <c r="AZ97" s="1"/>
+      <c r="BA97" s="1"/>
+      <c r="BB97" s="1"/>
+      <c r="BC97" s="1"/>
+      <c r="BD97" s="1"/>
+      <c r="BE97" s="1"/>
+      <c r="BF97" s="1"/>
+      <c r="BG97" s="1"/>
+      <c r="BH97" s="1"/>
+      <c r="BI97" s="1"/>
+      <c r="BJ97" s="1"/>
+      <c r="BK97" s="1"/>
+      <c r="BL97" s="1"/>
+      <c r="BM97" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="BN97" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="BO97" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="BP97" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="BQ97" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="BR97" s="1"/>
+      <c r="BS97" s="1"/>
+      <c r="BT97" s="1"/>
+      <c r="BU97" s="1"/>
+      <c r="BV97" s="1"/>
+      <c r="BW97" s="1"/>
+      <c r="BX97" s="1"/>
+      <c r="BY97" s="1"/>
+      <c r="BZ97" s="1"/>
+      <c r="CA97" s="1"/>
+      <c r="CB97" s="1"/>
+      <c r="CC97" s="1"/>
+      <c r="CD97" s="1"/>
+      <c r="CE97" s="1"/>
+      <c r="CF97" s="1"/>
+      <c r="CG97" s="1"/>
+      <c r="CH97" s="1"/>
+      <c r="CI97" s="1"/>
+      <c r="CJ97" s="1"/>
+      <c r="CK97" s="1"/>
+      <c r="CL97" s="1"/>
+      <c r="CM97" s="1"/>
+      <c r="CN97" s="1"/>
+      <c r="CO97" s="1"/>
+      <c r="CP97" s="1"/>
+      <c r="CQ97" s="1"/>
+      <c r="CR97" s="1"/>
+      <c r="CS97" s="1"/>
+      <c r="CT97" s="1"/>
+      <c r="CU97" s="1"/>
     </row>
     <row r="98" spans="1:99">
       <c r="A98" t="s">
         <v>10</v>
       </c>
-      <c r="B98" s="22"/>
-      <c r="C98" s="29" t="s">
-        <v>85</v>
+      <c r="B98" s="22">
+        <v>601</v>
+      </c>
+      <c r="C98" s="38" t="s">
+        <v>105</v>
       </c>
       <c r="D98" s="22" t="s">
-        <v>64</v>
-      </c>
-      <c r="E98" s="22" t="s">
-        <v>70</v>
-      </c>
+        <v>81</v>
+      </c>
+      <c r="E98" s="22"/>
       <c r="F98" s="22"/>
-      <c r="G98" s="22"/>
+      <c r="G98" s="22" t="s">
+        <v>150</v>
+      </c>
       <c r="H98" s="23"/>
       <c r="I98" s="23"/>
       <c r="J98" s="23" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K98" s="22"/>
       <c r="L98" s="1"/>
@@ -11028,11 +10999,21 @@
       <c r="BJ98" s="1"/>
       <c r="BK98" s="1"/>
       <c r="BL98" s="1"/>
-      <c r="BM98" s="1"/>
-      <c r="BN98" s="1"/>
-      <c r="BO98" s="1"/>
-      <c r="BP98" s="1"/>
-      <c r="BQ98" s="1"/>
+      <c r="BM98" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="BN98" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="BO98" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="BP98" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="BQ98" s="1" t="s">
+        <v>137</v>
+      </c>
       <c r="BR98" s="1"/>
       <c r="BS98" s="1"/>
       <c r="BT98" s="1"/>
@@ -11167,8 +11148,8 @@
     <row r="100" spans="1:99" s="20" customFormat="1">
       <c r="A100"/>
       <c r="B100" s="21"/>
-      <c r="C100" s="28" t="s">
-        <v>62</v>
+      <c r="C100" s="30" t="s">
+        <v>110</v>
       </c>
       <c r="D100" s="21"/>
       <c r="E100" s="21"/>
@@ -11268,23 +11249,20 @@
       <c r="CU100" s="21"/>
     </row>
     <row r="101" spans="1:99">
+      <c r="A101" t="s">
+        <v>10</v>
+      </c>
       <c r="B101" s="22"/>
-      <c r="C101" s="29" t="s">
-        <v>138</v>
-      </c>
-      <c r="D101" s="22" t="s">
-        <v>59</v>
-      </c>
-      <c r="E101" s="22" t="s">
-        <v>64</v>
-      </c>
+      <c r="C101" s="37" t="s">
+        <v>111</v>
+      </c>
+      <c r="D101" s="22"/>
+      <c r="E101" s="22"/>
       <c r="F101" s="22"/>
       <c r="G101" s="22"/>
       <c r="H101" s="23"/>
       <c r="I101" s="23"/>
-      <c r="J101" s="23" t="s">
-        <v>39</v>
-      </c>
+      <c r="J101" s="23"/>
       <c r="K101" s="22"/>
       <c r="L101" s="1"/>
       <c r="M101" s="1"/>
@@ -11339,21 +11317,11 @@
       <c r="BJ101" s="1"/>
       <c r="BK101" s="1"/>
       <c r="BL101" s="1"/>
-      <c r="BM101" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="BN101" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="BO101" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="BP101" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="BQ101" s="1" t="s">
-        <v>137</v>
-      </c>
+      <c r="BM101" s="1"/>
+      <c r="BN101" s="1"/>
+      <c r="BO101" s="1"/>
+      <c r="BP101" s="1"/>
+      <c r="BQ101" s="1"/>
       <c r="BR101" s="1"/>
       <c r="BS101" s="1"/>
       <c r="BT101" s="1"/>
@@ -11386,21 +11354,20 @@
       <c r="CU101" s="1"/>
     </row>
     <row r="102" spans="1:99">
+      <c r="A102" t="s">
+        <v>10</v>
+      </c>
       <c r="B102" s="22"/>
-      <c r="C102" s="29" t="s">
-        <v>139</v>
-      </c>
-      <c r="D102" s="22" t="s">
-        <v>70</v>
-      </c>
+      <c r="C102" s="37" t="s">
+        <v>112</v>
+      </c>
+      <c r="D102" s="22"/>
       <c r="E102" s="22"/>
       <c r="F102" s="22"/>
       <c r="G102" s="22"/>
       <c r="H102" s="23"/>
       <c r="I102" s="23"/>
-      <c r="J102" s="23" t="s">
-        <v>39</v>
-      </c>
+      <c r="J102" s="23"/>
       <c r="K102" s="22"/>
       <c r="L102" s="1"/>
       <c r="M102" s="1"/>
@@ -11455,21 +11422,11 @@
       <c r="BJ102" s="1"/>
       <c r="BK102" s="1"/>
       <c r="BL102" s="1"/>
-      <c r="BM102" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="BN102" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="BO102" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="BP102" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="BQ102" s="1" t="s">
-        <v>137</v>
-      </c>
+      <c r="BM102" s="1"/>
+      <c r="BN102" s="1"/>
+      <c r="BO102" s="1"/>
+      <c r="BP102" s="1"/>
+      <c r="BQ102" s="1"/>
       <c r="BR102" s="1"/>
       <c r="BS102" s="1"/>
       <c r="BT102" s="1"/>
@@ -11503,22 +11460,14 @@
     </row>
     <row r="103" spans="1:99">
       <c r="B103" s="22"/>
-      <c r="C103" s="29" t="s">
-        <v>140</v>
-      </c>
-      <c r="D103" s="22" t="s">
-        <v>74</v>
-      </c>
-      <c r="E103" s="22" t="s">
-        <v>75</v>
-      </c>
+      <c r="C103" s="29"/>
+      <c r="D103" s="22"/>
+      <c r="E103" s="22"/>
       <c r="F103" s="22"/>
       <c r="G103" s="22"/>
       <c r="H103" s="23"/>
       <c r="I103" s="23"/>
-      <c r="J103" s="23" t="s">
-        <v>39</v>
-      </c>
+      <c r="J103" s="23"/>
       <c r="K103" s="22"/>
       <c r="L103" s="1"/>
       <c r="M103" s="1"/>
@@ -11573,21 +11522,11 @@
       <c r="BJ103" s="1"/>
       <c r="BK103" s="1"/>
       <c r="BL103" s="1"/>
-      <c r="BM103" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="BN103" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="BO103" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="BP103" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="BQ103" s="1" t="s">
-        <v>137</v>
-      </c>
+      <c r="BM103" s="1"/>
+      <c r="BN103" s="1"/>
+      <c r="BO103" s="1"/>
+      <c r="BP103" s="1"/>
+      <c r="BQ103" s="1"/>
       <c r="BR103" s="1"/>
       <c r="BS103" s="1"/>
       <c r="BT103" s="1"/>
@@ -11619,30 +11558,129 @@
       <c r="CT103" s="1"/>
       <c r="CU103" s="1"/>
     </row>
-    <row r="104" spans="1:99" s="28" customFormat="1">
+    <row r="104" spans="1:99" s="20" customFormat="1">
       <c r="A104"/>
-      <c r="C104" s="28" t="s">
-        <v>63</v>
-      </c>
-      <c r="J104" s="28" t="s">
-        <v>40</v>
-      </c>
+      <c r="B104" s="21"/>
+      <c r="C104" s="30" t="s">
+        <v>54</v>
+      </c>
+      <c r="D104" s="21"/>
+      <c r="E104" s="21"/>
+      <c r="F104" s="21"/>
+      <c r="G104" s="21"/>
+      <c r="H104" s="21"/>
+      <c r="I104" s="21"/>
+      <c r="J104" s="21"/>
+      <c r="K104" s="21"/>
+      <c r="L104" s="21"/>
+      <c r="M104" s="21"/>
+      <c r="N104" s="21"/>
+      <c r="O104" s="21"/>
+      <c r="P104" s="21"/>
+      <c r="Q104" s="21"/>
+      <c r="R104" s="21"/>
+      <c r="S104" s="21"/>
+      <c r="T104" s="21"/>
+      <c r="U104" s="21"/>
+      <c r="V104" s="21"/>
+      <c r="W104" s="21"/>
+      <c r="X104" s="21"/>
+      <c r="Y104" s="21"/>
+      <c r="Z104" s="21"/>
+      <c r="AA104" s="21"/>
+      <c r="AB104" s="21"/>
+      <c r="AC104" s="21"/>
+      <c r="AD104" s="21"/>
+      <c r="AE104" s="21"/>
+      <c r="AF104" s="21"/>
+      <c r="AG104" s="21"/>
+      <c r="AH104" s="21"/>
+      <c r="AI104" s="21"/>
+      <c r="AJ104" s="21"/>
+      <c r="AK104" s="21"/>
+      <c r="AL104" s="21"/>
+      <c r="AM104" s="21"/>
+      <c r="AN104" s="21"/>
+      <c r="AO104" s="21"/>
+      <c r="AP104" s="21"/>
+      <c r="AQ104" s="21"/>
+      <c r="AR104" s="21"/>
+      <c r="AS104" s="21"/>
+      <c r="AT104" s="21"/>
+      <c r="AU104" s="21"/>
+      <c r="AV104" s="21"/>
+      <c r="AW104" s="21"/>
+      <c r="AX104" s="21"/>
+      <c r="AY104" s="21"/>
+      <c r="AZ104" s="21"/>
+      <c r="BA104" s="21"/>
+      <c r="BB104" s="21"/>
+      <c r="BC104" s="21"/>
+      <c r="BD104" s="21"/>
+      <c r="BE104" s="21"/>
+      <c r="BF104" s="21"/>
+      <c r="BG104" s="21"/>
+      <c r="BH104" s="21"/>
+      <c r="BI104" s="21"/>
+      <c r="BJ104" s="21"/>
+      <c r="BK104" s="21"/>
+      <c r="BL104" s="21"/>
+      <c r="BM104" s="21"/>
+      <c r="BN104" s="21"/>
+      <c r="BO104" s="21"/>
+      <c r="BP104" s="21"/>
+      <c r="BQ104" s="21"/>
+      <c r="BR104" s="21"/>
+      <c r="BS104" s="21"/>
+      <c r="BT104" s="21"/>
+      <c r="BU104" s="21"/>
+      <c r="BV104" s="21"/>
+      <c r="BW104" s="21"/>
+      <c r="BX104" s="21"/>
+      <c r="BY104" s="21"/>
+      <c r="BZ104" s="21"/>
+      <c r="CA104" s="21"/>
+      <c r="CB104" s="21"/>
+      <c r="CC104" s="21"/>
+      <c r="CD104" s="21"/>
+      <c r="CE104" s="21"/>
+      <c r="CF104" s="21"/>
+      <c r="CG104" s="21"/>
+      <c r="CH104" s="21"/>
+      <c r="CI104" s="21"/>
+      <c r="CJ104" s="21"/>
+      <c r="CK104" s="21"/>
+      <c r="CL104" s="21"/>
+      <c r="CM104" s="21"/>
+      <c r="CN104" s="21"/>
+      <c r="CO104" s="21"/>
+      <c r="CP104" s="21"/>
+      <c r="CQ104" s="21"/>
+      <c r="CR104" s="21"/>
+      <c r="CS104" s="21"/>
+      <c r="CT104" s="21"/>
+      <c r="CU104" s="21"/>
     </row>
     <row r="105" spans="1:99">
+      <c r="A105" t="s">
+        <v>10</v>
+      </c>
       <c r="B105" s="22"/>
       <c r="C105" s="29" t="s">
-        <v>63</v>
+        <v>85</v>
       </c>
       <c r="D105" s="22" t="s">
-        <v>59</v>
-      </c>
-      <c r="E105" s="22"/>
+        <v>64</v>
+      </c>
+      <c r="E105" s="22" t="s">
+        <v>70</v>
+      </c>
       <c r="F105" s="22"/>
       <c r="G105" s="22"/>
       <c r="H105" s="23"/>
       <c r="I105" s="23"/>
       <c r="J105" s="23" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K105" s="22"/>
       <c r="L105" s="1"/>
@@ -11665,9 +11703,7 @@
       <c r="AC105" s="1"/>
       <c r="AD105" s="1"/>
       <c r="AE105" s="1"/>
-      <c r="AF105" s="1" t="s">
-        <v>52</v>
-      </c>
+      <c r="AF105" s="1"/>
       <c r="AG105" s="1"/>
       <c r="AH105" s="1"/>
       <c r="AI105" s="1"/>
@@ -11700,48 +11736,20 @@
       <c r="BJ105" s="1"/>
       <c r="BK105" s="1"/>
       <c r="BL105" s="1"/>
-      <c r="BM105" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="BN105" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="BO105" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="BP105" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="BQ105" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="BR105" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="BS105" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="BT105" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="BU105" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="BV105" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="BW105" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="BX105" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="BY105" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="BZ105" s="1" t="s">
-        <v>137</v>
-      </c>
+      <c r="BM105" s="1"/>
+      <c r="BN105" s="1"/>
+      <c r="BO105" s="1"/>
+      <c r="BP105" s="1"/>
+      <c r="BQ105" s="1"/>
+      <c r="BR105" s="1"/>
+      <c r="BS105" s="1"/>
+      <c r="BT105" s="1"/>
+      <c r="BU105" s="1"/>
+      <c r="BV105" s="1"/>
+      <c r="BW105" s="1"/>
+      <c r="BX105" s="1"/>
+      <c r="BY105" s="1"/>
+      <c r="BZ105" s="1"/>
       <c r="CA105" s="1"/>
       <c r="CB105" s="1"/>
       <c r="CC105" s="1"/>
@@ -11764,356 +11772,1056 @@
       <c r="CT105" s="1"/>
       <c r="CU105" s="1"/>
     </row>
-    <row r="106" spans="1:99" s="20" customFormat="1">
-      <c r="A106"/>
-      <c r="B106" s="21"/>
-      <c r="C106" s="28" t="s">
+    <row r="106" spans="1:99">
+      <c r="B106" s="22"/>
+      <c r="C106" s="29"/>
+      <c r="D106" s="22"/>
+      <c r="E106" s="22"/>
+      <c r="F106" s="22"/>
+      <c r="G106" s="22"/>
+      <c r="H106" s="23"/>
+      <c r="I106" s="23"/>
+      <c r="J106" s="23"/>
+      <c r="K106" s="22"/>
+      <c r="L106" s="1"/>
+      <c r="M106" s="1"/>
+      <c r="N106" s="1"/>
+      <c r="O106" s="1"/>
+      <c r="P106" s="1"/>
+      <c r="Q106" s="1"/>
+      <c r="R106" s="1"/>
+      <c r="S106" s="1"/>
+      <c r="T106" s="1"/>
+      <c r="U106" s="1"/>
+      <c r="V106" s="1"/>
+      <c r="W106" s="1"/>
+      <c r="X106" s="1"/>
+      <c r="Y106" s="1"/>
+      <c r="Z106" s="1"/>
+      <c r="AA106" s="1"/>
+      <c r="AB106" s="1"/>
+      <c r="AC106" s="1"/>
+      <c r="AD106" s="1"/>
+      <c r="AE106" s="1"/>
+      <c r="AF106" s="1"/>
+      <c r="AG106" s="1"/>
+      <c r="AH106" s="1"/>
+      <c r="AI106" s="1"/>
+      <c r="AJ106" s="1"/>
+      <c r="AK106" s="1"/>
+      <c r="AL106" s="1"/>
+      <c r="AM106" s="1"/>
+      <c r="AN106" s="1"/>
+      <c r="AO106" s="1"/>
+      <c r="AP106" s="1"/>
+      <c r="AQ106" s="1"/>
+      <c r="AR106" s="1"/>
+      <c r="AS106" s="1"/>
+      <c r="AT106" s="1"/>
+      <c r="AU106" s="1"/>
+      <c r="AV106" s="1"/>
+      <c r="AW106" s="1"/>
+      <c r="AX106" s="1"/>
+      <c r="AY106" s="1"/>
+      <c r="AZ106" s="1"/>
+      <c r="BA106" s="1"/>
+      <c r="BB106" s="1"/>
+      <c r="BC106" s="1"/>
+      <c r="BD106" s="1"/>
+      <c r="BE106" s="1"/>
+      <c r="BF106" s="1"/>
+      <c r="BG106" s="1"/>
+      <c r="BH106" s="1"/>
+      <c r="BI106" s="1"/>
+      <c r="BJ106" s="1"/>
+      <c r="BK106" s="1"/>
+      <c r="BL106" s="1"/>
+      <c r="BM106" s="1"/>
+      <c r="BN106" s="1"/>
+      <c r="BO106" s="1"/>
+      <c r="BP106" s="1"/>
+      <c r="BQ106" s="1"/>
+      <c r="BR106" s="1"/>
+      <c r="BS106" s="1"/>
+      <c r="BT106" s="1"/>
+      <c r="BU106" s="1"/>
+      <c r="BV106" s="1"/>
+      <c r="BW106" s="1"/>
+      <c r="BX106" s="1"/>
+      <c r="BY106" s="1"/>
+      <c r="BZ106" s="1"/>
+      <c r="CA106" s="1"/>
+      <c r="CB106" s="1"/>
+      <c r="CC106" s="1"/>
+      <c r="CD106" s="1"/>
+      <c r="CE106" s="1"/>
+      <c r="CF106" s="1"/>
+      <c r="CG106" s="1"/>
+      <c r="CH106" s="1"/>
+      <c r="CI106" s="1"/>
+      <c r="CJ106" s="1"/>
+      <c r="CK106" s="1"/>
+      <c r="CL106" s="1"/>
+      <c r="CM106" s="1"/>
+      <c r="CN106" s="1"/>
+      <c r="CO106" s="1"/>
+      <c r="CP106" s="1"/>
+      <c r="CQ106" s="1"/>
+      <c r="CR106" s="1"/>
+      <c r="CS106" s="1"/>
+      <c r="CT106" s="1"/>
+      <c r="CU106" s="1"/>
+    </row>
+    <row r="107" spans="1:99" s="20" customFormat="1">
+      <c r="A107"/>
+      <c r="B107" s="21"/>
+      <c r="C107" s="28" t="s">
+        <v>62</v>
+      </c>
+      <c r="D107" s="21"/>
+      <c r="E107" s="21"/>
+      <c r="F107" s="21"/>
+      <c r="G107" s="21"/>
+      <c r="H107" s="21"/>
+      <c r="I107" s="21"/>
+      <c r="J107" s="21"/>
+      <c r="K107" s="21"/>
+      <c r="L107" s="21"/>
+      <c r="M107" s="21"/>
+      <c r="N107" s="21"/>
+      <c r="O107" s="21"/>
+      <c r="P107" s="21"/>
+      <c r="Q107" s="21"/>
+      <c r="R107" s="21"/>
+      <c r="S107" s="21"/>
+      <c r="T107" s="21"/>
+      <c r="U107" s="21"/>
+      <c r="V107" s="21"/>
+      <c r="W107" s="21"/>
+      <c r="X107" s="21"/>
+      <c r="Y107" s="21"/>
+      <c r="Z107" s="21"/>
+      <c r="AA107" s="21"/>
+      <c r="AB107" s="21"/>
+      <c r="AC107" s="21"/>
+      <c r="AD107" s="21"/>
+      <c r="AE107" s="21"/>
+      <c r="AF107" s="21"/>
+      <c r="AG107" s="21"/>
+      <c r="AH107" s="21"/>
+      <c r="AI107" s="21"/>
+      <c r="AJ107" s="21"/>
+      <c r="AK107" s="21"/>
+      <c r="AL107" s="21"/>
+      <c r="AM107" s="21"/>
+      <c r="AN107" s="21"/>
+      <c r="AO107" s="21"/>
+      <c r="AP107" s="21"/>
+      <c r="AQ107" s="21"/>
+      <c r="AR107" s="21"/>
+      <c r="AS107" s="21"/>
+      <c r="AT107" s="21"/>
+      <c r="AU107" s="21"/>
+      <c r="AV107" s="21"/>
+      <c r="AW107" s="21"/>
+      <c r="AX107" s="21"/>
+      <c r="AY107" s="21"/>
+      <c r="AZ107" s="21"/>
+      <c r="BA107" s="21"/>
+      <c r="BB107" s="21"/>
+      <c r="BC107" s="21"/>
+      <c r="BD107" s="21"/>
+      <c r="BE107" s="21"/>
+      <c r="BF107" s="21"/>
+      <c r="BG107" s="21"/>
+      <c r="BH107" s="21"/>
+      <c r="BI107" s="21"/>
+      <c r="BJ107" s="21"/>
+      <c r="BK107" s="21"/>
+      <c r="BL107" s="21"/>
+      <c r="BM107" s="21"/>
+      <c r="BN107" s="21"/>
+      <c r="BO107" s="21"/>
+      <c r="BP107" s="21"/>
+      <c r="BQ107" s="21"/>
+      <c r="BR107" s="21"/>
+      <c r="BS107" s="21"/>
+      <c r="BT107" s="21"/>
+      <c r="BU107" s="21"/>
+      <c r="BV107" s="21"/>
+      <c r="BW107" s="21"/>
+      <c r="BX107" s="21"/>
+      <c r="BY107" s="21"/>
+      <c r="BZ107" s="21"/>
+      <c r="CA107" s="21"/>
+      <c r="CB107" s="21"/>
+      <c r="CC107" s="21"/>
+      <c r="CD107" s="21"/>
+      <c r="CE107" s="21"/>
+      <c r="CF107" s="21"/>
+      <c r="CG107" s="21"/>
+      <c r="CH107" s="21"/>
+      <c r="CI107" s="21"/>
+      <c r="CJ107" s="21"/>
+      <c r="CK107" s="21"/>
+      <c r="CL107" s="21"/>
+      <c r="CM107" s="21"/>
+      <c r="CN107" s="21"/>
+      <c r="CO107" s="21"/>
+      <c r="CP107" s="21"/>
+      <c r="CQ107" s="21"/>
+      <c r="CR107" s="21"/>
+      <c r="CS107" s="21"/>
+      <c r="CT107" s="21"/>
+      <c r="CU107" s="21"/>
+    </row>
+    <row r="108" spans="1:99">
+      <c r="B108" s="22"/>
+      <c r="C108" s="29" t="s">
+        <v>138</v>
+      </c>
+      <c r="D108" s="22" t="s">
+        <v>59</v>
+      </c>
+      <c r="E108" s="22" t="s">
+        <v>64</v>
+      </c>
+      <c r="F108" s="22"/>
+      <c r="G108" s="22"/>
+      <c r="H108" s="23"/>
+      <c r="I108" s="23"/>
+      <c r="J108" s="23" t="s">
+        <v>39</v>
+      </c>
+      <c r="K108" s="22"/>
+      <c r="L108" s="1"/>
+      <c r="M108" s="1"/>
+      <c r="N108" s="1"/>
+      <c r="O108" s="1"/>
+      <c r="P108" s="1"/>
+      <c r="Q108" s="1"/>
+      <c r="R108" s="1"/>
+      <c r="S108" s="1"/>
+      <c r="T108" s="1"/>
+      <c r="U108" s="1"/>
+      <c r="V108" s="1"/>
+      <c r="W108" s="1"/>
+      <c r="X108" s="1"/>
+      <c r="Y108" s="1"/>
+      <c r="Z108" s="1"/>
+      <c r="AA108" s="1"/>
+      <c r="AB108" s="1"/>
+      <c r="AC108" s="1"/>
+      <c r="AD108" s="1"/>
+      <c r="AE108" s="1"/>
+      <c r="AF108" s="1"/>
+      <c r="AG108" s="1"/>
+      <c r="AH108" s="1"/>
+      <c r="AI108" s="1"/>
+      <c r="AJ108" s="1"/>
+      <c r="AK108" s="1"/>
+      <c r="AL108" s="1"/>
+      <c r="AM108" s="1"/>
+      <c r="AN108" s="1"/>
+      <c r="AO108" s="1"/>
+      <c r="AP108" s="1"/>
+      <c r="AQ108" s="1"/>
+      <c r="AR108" s="1"/>
+      <c r="AS108" s="1"/>
+      <c r="AT108" s="1"/>
+      <c r="AU108" s="1"/>
+      <c r="AV108" s="1"/>
+      <c r="AW108" s="1"/>
+      <c r="AX108" s="1"/>
+      <c r="AY108" s="1"/>
+      <c r="AZ108" s="1"/>
+      <c r="BA108" s="1"/>
+      <c r="BB108" s="1"/>
+      <c r="BC108" s="1"/>
+      <c r="BD108" s="1"/>
+      <c r="BE108" s="1"/>
+      <c r="BF108" s="1"/>
+      <c r="BG108" s="1"/>
+      <c r="BH108" s="1"/>
+      <c r="BI108" s="1"/>
+      <c r="BJ108" s="1"/>
+      <c r="BK108" s="1"/>
+      <c r="BL108" s="1"/>
+      <c r="BM108" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="BN108" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="BO108" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="BP108" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="BQ108" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="BR108" s="1"/>
+      <c r="BS108" s="1"/>
+      <c r="BT108" s="1"/>
+      <c r="BU108" s="1"/>
+      <c r="BV108" s="1"/>
+      <c r="BW108" s="1"/>
+      <c r="BX108" s="1"/>
+      <c r="BY108" s="1"/>
+      <c r="BZ108" s="1"/>
+      <c r="CA108" s="1"/>
+      <c r="CB108" s="1"/>
+      <c r="CC108" s="1"/>
+      <c r="CD108" s="1"/>
+      <c r="CE108" s="1"/>
+      <c r="CF108" s="1"/>
+      <c r="CG108" s="1"/>
+      <c r="CH108" s="1"/>
+      <c r="CI108" s="1"/>
+      <c r="CJ108" s="1"/>
+      <c r="CK108" s="1"/>
+      <c r="CL108" s="1"/>
+      <c r="CM108" s="1"/>
+      <c r="CN108" s="1"/>
+      <c r="CO108" s="1"/>
+      <c r="CP108" s="1"/>
+      <c r="CQ108" s="1"/>
+      <c r="CR108" s="1"/>
+      <c r="CS108" s="1"/>
+      <c r="CT108" s="1"/>
+      <c r="CU108" s="1"/>
+    </row>
+    <row r="109" spans="1:99">
+      <c r="B109" s="22"/>
+      <c r="C109" s="29" t="s">
+        <v>139</v>
+      </c>
+      <c r="D109" s="22" t="s">
+        <v>70</v>
+      </c>
+      <c r="E109" s="22"/>
+      <c r="F109" s="22"/>
+      <c r="G109" s="22"/>
+      <c r="H109" s="23"/>
+      <c r="I109" s="23"/>
+      <c r="J109" s="23" t="s">
+        <v>39</v>
+      </c>
+      <c r="K109" s="22"/>
+      <c r="L109" s="1"/>
+      <c r="M109" s="1"/>
+      <c r="N109" s="1"/>
+      <c r="O109" s="1"/>
+      <c r="P109" s="1"/>
+      <c r="Q109" s="1"/>
+      <c r="R109" s="1"/>
+      <c r="S109" s="1"/>
+      <c r="T109" s="1"/>
+      <c r="U109" s="1"/>
+      <c r="V109" s="1"/>
+      <c r="W109" s="1"/>
+      <c r="X109" s="1"/>
+      <c r="Y109" s="1"/>
+      <c r="Z109" s="1"/>
+      <c r="AA109" s="1"/>
+      <c r="AB109" s="1"/>
+      <c r="AC109" s="1"/>
+      <c r="AD109" s="1"/>
+      <c r="AE109" s="1"/>
+      <c r="AF109" s="1"/>
+      <c r="AG109" s="1"/>
+      <c r="AH109" s="1"/>
+      <c r="AI109" s="1"/>
+      <c r="AJ109" s="1"/>
+      <c r="AK109" s="1"/>
+      <c r="AL109" s="1"/>
+      <c r="AM109" s="1"/>
+      <c r="AN109" s="1"/>
+      <c r="AO109" s="1"/>
+      <c r="AP109" s="1"/>
+      <c r="AQ109" s="1"/>
+      <c r="AR109" s="1"/>
+      <c r="AS109" s="1"/>
+      <c r="AT109" s="1"/>
+      <c r="AU109" s="1"/>
+      <c r="AV109" s="1"/>
+      <c r="AW109" s="1"/>
+      <c r="AX109" s="1"/>
+      <c r="AY109" s="1"/>
+      <c r="AZ109" s="1"/>
+      <c r="BA109" s="1"/>
+      <c r="BB109" s="1"/>
+      <c r="BC109" s="1"/>
+      <c r="BD109" s="1"/>
+      <c r="BE109" s="1"/>
+      <c r="BF109" s="1"/>
+      <c r="BG109" s="1"/>
+      <c r="BH109" s="1"/>
+      <c r="BI109" s="1"/>
+      <c r="BJ109" s="1"/>
+      <c r="BK109" s="1"/>
+      <c r="BL109" s="1"/>
+      <c r="BM109" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="BN109" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="BO109" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="BP109" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="BQ109" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="BR109" s="1"/>
+      <c r="BS109" s="1"/>
+      <c r="BT109" s="1"/>
+      <c r="BU109" s="1"/>
+      <c r="BV109" s="1"/>
+      <c r="BW109" s="1"/>
+      <c r="BX109" s="1"/>
+      <c r="BY109" s="1"/>
+      <c r="BZ109" s="1"/>
+      <c r="CA109" s="1"/>
+      <c r="CB109" s="1"/>
+      <c r="CC109" s="1"/>
+      <c r="CD109" s="1"/>
+      <c r="CE109" s="1"/>
+      <c r="CF109" s="1"/>
+      <c r="CG109" s="1"/>
+      <c r="CH109" s="1"/>
+      <c r="CI109" s="1"/>
+      <c r="CJ109" s="1"/>
+      <c r="CK109" s="1"/>
+      <c r="CL109" s="1"/>
+      <c r="CM109" s="1"/>
+      <c r="CN109" s="1"/>
+      <c r="CO109" s="1"/>
+      <c r="CP109" s="1"/>
+      <c r="CQ109" s="1"/>
+      <c r="CR109" s="1"/>
+      <c r="CS109" s="1"/>
+      <c r="CT109" s="1"/>
+      <c r="CU109" s="1"/>
+    </row>
+    <row r="110" spans="1:99">
+      <c r="B110" s="22"/>
+      <c r="C110" s="29" t="s">
+        <v>140</v>
+      </c>
+      <c r="D110" s="22" t="s">
+        <v>74</v>
+      </c>
+      <c r="E110" s="22" t="s">
+        <v>75</v>
+      </c>
+      <c r="F110" s="22"/>
+      <c r="G110" s="22"/>
+      <c r="H110" s="23"/>
+      <c r="I110" s="23"/>
+      <c r="J110" s="23" t="s">
+        <v>39</v>
+      </c>
+      <c r="K110" s="22"/>
+      <c r="L110" s="1"/>
+      <c r="M110" s="1"/>
+      <c r="N110" s="1"/>
+      <c r="O110" s="1"/>
+      <c r="P110" s="1"/>
+      <c r="Q110" s="1"/>
+      <c r="R110" s="1"/>
+      <c r="S110" s="1"/>
+      <c r="T110" s="1"/>
+      <c r="U110" s="1"/>
+      <c r="V110" s="1"/>
+      <c r="W110" s="1"/>
+      <c r="X110" s="1"/>
+      <c r="Y110" s="1"/>
+      <c r="Z110" s="1"/>
+      <c r="AA110" s="1"/>
+      <c r="AB110" s="1"/>
+      <c r="AC110" s="1"/>
+      <c r="AD110" s="1"/>
+      <c r="AE110" s="1"/>
+      <c r="AF110" s="1"/>
+      <c r="AG110" s="1"/>
+      <c r="AH110" s="1"/>
+      <c r="AI110" s="1"/>
+      <c r="AJ110" s="1"/>
+      <c r="AK110" s="1"/>
+      <c r="AL110" s="1"/>
+      <c r="AM110" s="1"/>
+      <c r="AN110" s="1"/>
+      <c r="AO110" s="1"/>
+      <c r="AP110" s="1"/>
+      <c r="AQ110" s="1"/>
+      <c r="AR110" s="1"/>
+      <c r="AS110" s="1"/>
+      <c r="AT110" s="1"/>
+      <c r="AU110" s="1"/>
+      <c r="AV110" s="1"/>
+      <c r="AW110" s="1"/>
+      <c r="AX110" s="1"/>
+      <c r="AY110" s="1"/>
+      <c r="AZ110" s="1"/>
+      <c r="BA110" s="1"/>
+      <c r="BB110" s="1"/>
+      <c r="BC110" s="1"/>
+      <c r="BD110" s="1"/>
+      <c r="BE110" s="1"/>
+      <c r="BF110" s="1"/>
+      <c r="BG110" s="1"/>
+      <c r="BH110" s="1"/>
+      <c r="BI110" s="1"/>
+      <c r="BJ110" s="1"/>
+      <c r="BK110" s="1"/>
+      <c r="BL110" s="1"/>
+      <c r="BM110" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="BN110" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="BO110" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="BP110" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="BQ110" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="BR110" s="1"/>
+      <c r="BS110" s="1"/>
+      <c r="BT110" s="1"/>
+      <c r="BU110" s="1"/>
+      <c r="BV110" s="1"/>
+      <c r="BW110" s="1"/>
+      <c r="BX110" s="1"/>
+      <c r="BY110" s="1"/>
+      <c r="BZ110" s="1"/>
+      <c r="CA110" s="1"/>
+      <c r="CB110" s="1"/>
+      <c r="CC110" s="1"/>
+      <c r="CD110" s="1"/>
+      <c r="CE110" s="1"/>
+      <c r="CF110" s="1"/>
+      <c r="CG110" s="1"/>
+      <c r="CH110" s="1"/>
+      <c r="CI110" s="1"/>
+      <c r="CJ110" s="1"/>
+      <c r="CK110" s="1"/>
+      <c r="CL110" s="1"/>
+      <c r="CM110" s="1"/>
+      <c r="CN110" s="1"/>
+      <c r="CO110" s="1"/>
+      <c r="CP110" s="1"/>
+      <c r="CQ110" s="1"/>
+      <c r="CR110" s="1"/>
+      <c r="CS110" s="1"/>
+      <c r="CT110" s="1"/>
+      <c r="CU110" s="1"/>
+    </row>
+    <row r="111" spans="1:99" s="28" customFormat="1">
+      <c r="A111"/>
+      <c r="C111" s="28" t="s">
+        <v>63</v>
+      </c>
+      <c r="J111" s="28" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="112" spans="1:99">
+      <c r="B112" s="22"/>
+      <c r="C112" s="29" t="s">
+        <v>63</v>
+      </c>
+      <c r="D112" s="22" t="s">
+        <v>59</v>
+      </c>
+      <c r="E112" s="22"/>
+      <c r="F112" s="22"/>
+      <c r="G112" s="22"/>
+      <c r="H112" s="23"/>
+      <c r="I112" s="23"/>
+      <c r="J112" s="23" t="s">
+        <v>39</v>
+      </c>
+      <c r="K112" s="22"/>
+      <c r="L112" s="1"/>
+      <c r="M112" s="1"/>
+      <c r="N112" s="1"/>
+      <c r="O112" s="1"/>
+      <c r="P112" s="1"/>
+      <c r="Q112" s="1"/>
+      <c r="R112" s="1"/>
+      <c r="S112" s="1"/>
+      <c r="T112" s="1"/>
+      <c r="U112" s="1"/>
+      <c r="V112" s="1"/>
+      <c r="W112" s="1"/>
+      <c r="X112" s="1"/>
+      <c r="Y112" s="1"/>
+      <c r="Z112" s="1"/>
+      <c r="AA112" s="1"/>
+      <c r="AB112" s="1"/>
+      <c r="AC112" s="1"/>
+      <c r="AD112" s="1"/>
+      <c r="AE112" s="1"/>
+      <c r="AF112" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="AG112" s="1"/>
+      <c r="AH112" s="1"/>
+      <c r="AI112" s="1"/>
+      <c r="AJ112" s="1"/>
+      <c r="AK112" s="1"/>
+      <c r="AL112" s="1"/>
+      <c r="AM112" s="1"/>
+      <c r="AN112" s="1"/>
+      <c r="AO112" s="1"/>
+      <c r="AP112" s="1"/>
+      <c r="AQ112" s="1"/>
+      <c r="AR112" s="1"/>
+      <c r="AS112" s="1"/>
+      <c r="AT112" s="1"/>
+      <c r="AU112" s="1"/>
+      <c r="AV112" s="1"/>
+      <c r="AW112" s="1"/>
+      <c r="AX112" s="1"/>
+      <c r="AY112" s="1"/>
+      <c r="AZ112" s="1"/>
+      <c r="BA112" s="1"/>
+      <c r="BB112" s="1"/>
+      <c r="BC112" s="1"/>
+      <c r="BD112" s="1"/>
+      <c r="BE112" s="1"/>
+      <c r="BF112" s="1"/>
+      <c r="BG112" s="1"/>
+      <c r="BH112" s="1"/>
+      <c r="BI112" s="1"/>
+      <c r="BJ112" s="1"/>
+      <c r="BK112" s="1"/>
+      <c r="BL112" s="1"/>
+      <c r="BM112" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="BN112" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="BO112" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="BP112" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="BQ112" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="BR112" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="BS112" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="BT112" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="BU112" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="BV112" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="BW112" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="BX112" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="BY112" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="BZ112" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="CA112" s="1"/>
+      <c r="CB112" s="1"/>
+      <c r="CC112" s="1"/>
+      <c r="CD112" s="1"/>
+      <c r="CE112" s="1"/>
+      <c r="CF112" s="1"/>
+      <c r="CG112" s="1"/>
+      <c r="CH112" s="1"/>
+      <c r="CI112" s="1"/>
+      <c r="CJ112" s="1"/>
+      <c r="CK112" s="1"/>
+      <c r="CL112" s="1"/>
+      <c r="CM112" s="1"/>
+      <c r="CN112" s="1"/>
+      <c r="CO112" s="1"/>
+      <c r="CP112" s="1"/>
+      <c r="CQ112" s="1"/>
+      <c r="CR112" s="1"/>
+      <c r="CS112" s="1"/>
+      <c r="CT112" s="1"/>
+      <c r="CU112" s="1"/>
+    </row>
+    <row r="113" spans="1:99" s="20" customFormat="1">
+      <c r="A113"/>
+      <c r="B113" s="21"/>
+      <c r="C113" s="28" t="s">
         <v>55</v>
       </c>
-      <c r="D106" s="21"/>
-      <c r="E106" s="21"/>
-      <c r="F106" s="21"/>
-      <c r="G106" s="21"/>
-      <c r="H106" s="21"/>
-      <c r="I106" s="21"/>
-      <c r="J106" s="21"/>
-      <c r="K106" s="21"/>
-      <c r="L106" s="21"/>
-      <c r="M106" s="21"/>
-      <c r="N106" s="21"/>
-      <c r="O106" s="21"/>
-      <c r="P106" s="21"/>
-      <c r="Q106" s="21"/>
-      <c r="R106" s="21"/>
-      <c r="S106" s="21"/>
-      <c r="T106" s="21"/>
-      <c r="U106" s="21"/>
-      <c r="V106" s="21"/>
-      <c r="W106" s="21"/>
-      <c r="X106" s="21"/>
-      <c r="Y106" s="21"/>
-      <c r="Z106" s="21"/>
-      <c r="AA106" s="21"/>
-      <c r="AB106" s="21"/>
-      <c r="AC106" s="21"/>
-      <c r="AD106" s="21"/>
-      <c r="AE106" s="21"/>
-      <c r="AF106" s="21"/>
-      <c r="AG106" s="21"/>
-      <c r="AH106" s="21"/>
-      <c r="AI106" s="21"/>
-      <c r="AJ106" s="21"/>
-      <c r="AK106" s="21"/>
-      <c r="AL106" s="21"/>
-      <c r="AM106" s="21"/>
-      <c r="AN106" s="21"/>
-      <c r="AO106" s="21"/>
-      <c r="AP106" s="21"/>
-      <c r="AQ106" s="21"/>
-      <c r="AR106" s="21"/>
-      <c r="AS106" s="21"/>
-      <c r="AT106" s="21"/>
-      <c r="AU106" s="21"/>
-      <c r="AV106" s="21"/>
-      <c r="AW106" s="21"/>
-      <c r="AX106" s="21"/>
-      <c r="AY106" s="21"/>
-      <c r="AZ106" s="21"/>
-      <c r="BA106" s="21"/>
-      <c r="BB106" s="21"/>
-      <c r="BC106" s="21"/>
-      <c r="BD106" s="21"/>
-      <c r="BE106" s="21"/>
-      <c r="BF106" s="21"/>
-      <c r="BG106" s="21"/>
-      <c r="BH106" s="21"/>
-      <c r="BI106" s="21"/>
-      <c r="BJ106" s="21"/>
-      <c r="BK106" s="21"/>
-      <c r="BL106" s="21"/>
-      <c r="BM106" s="21"/>
-      <c r="BN106" s="21"/>
-      <c r="BO106" s="21"/>
-      <c r="BP106" s="21"/>
-      <c r="BQ106" s="21"/>
-      <c r="BR106" s="21"/>
-      <c r="BS106" s="21"/>
-      <c r="BT106" s="21"/>
-      <c r="BU106" s="21"/>
-      <c r="BV106" s="21"/>
-      <c r="BW106" s="21"/>
-      <c r="BX106" s="21"/>
-      <c r="BY106" s="21"/>
-      <c r="BZ106" s="21"/>
-      <c r="CA106" s="21"/>
-      <c r="CB106" s="21"/>
-      <c r="CC106" s="21"/>
-      <c r="CD106" s="21"/>
-      <c r="CE106" s="21"/>
-      <c r="CF106" s="21"/>
-      <c r="CG106" s="21"/>
-      <c r="CH106" s="21"/>
-      <c r="CI106" s="21"/>
-      <c r="CJ106" s="21"/>
-      <c r="CK106" s="21"/>
-      <c r="CL106" s="21"/>
-      <c r="CM106" s="21"/>
-      <c r="CN106" s="21"/>
-      <c r="CO106" s="21"/>
-      <c r="CP106" s="21"/>
-      <c r="CQ106" s="21"/>
-      <c r="CR106" s="21"/>
-      <c r="CS106" s="21"/>
-      <c r="CT106" s="21"/>
-      <c r="CU106" s="21"/>
-    </row>
-    <row r="110" spans="1:99" s="24" customFormat="1">
-      <c r="A110"/>
-      <c r="C110" s="32" t="s">
+      <c r="D113" s="21"/>
+      <c r="E113" s="21"/>
+      <c r="F113" s="21"/>
+      <c r="G113" s="21"/>
+      <c r="H113" s="21"/>
+      <c r="I113" s="21"/>
+      <c r="J113" s="21"/>
+      <c r="K113" s="21"/>
+      <c r="L113" s="21"/>
+      <c r="M113" s="21"/>
+      <c r="N113" s="21"/>
+      <c r="O113" s="21"/>
+      <c r="P113" s="21"/>
+      <c r="Q113" s="21"/>
+      <c r="R113" s="21"/>
+      <c r="S113" s="21"/>
+      <c r="T113" s="21"/>
+      <c r="U113" s="21"/>
+      <c r="V113" s="21"/>
+      <c r="W113" s="21"/>
+      <c r="X113" s="21"/>
+      <c r="Y113" s="21"/>
+      <c r="Z113" s="21"/>
+      <c r="AA113" s="21"/>
+      <c r="AB113" s="21"/>
+      <c r="AC113" s="21"/>
+      <c r="AD113" s="21"/>
+      <c r="AE113" s="21"/>
+      <c r="AF113" s="21"/>
+      <c r="AG113" s="21"/>
+      <c r="AH113" s="21"/>
+      <c r="AI113" s="21"/>
+      <c r="AJ113" s="21"/>
+      <c r="AK113" s="21"/>
+      <c r="AL113" s="21"/>
+      <c r="AM113" s="21"/>
+      <c r="AN113" s="21"/>
+      <c r="AO113" s="21"/>
+      <c r="AP113" s="21"/>
+      <c r="AQ113" s="21"/>
+      <c r="AR113" s="21"/>
+      <c r="AS113" s="21"/>
+      <c r="AT113" s="21"/>
+      <c r="AU113" s="21"/>
+      <c r="AV113" s="21"/>
+      <c r="AW113" s="21"/>
+      <c r="AX113" s="21"/>
+      <c r="AY113" s="21"/>
+      <c r="AZ113" s="21"/>
+      <c r="BA113" s="21"/>
+      <c r="BB113" s="21"/>
+      <c r="BC113" s="21"/>
+      <c r="BD113" s="21"/>
+      <c r="BE113" s="21"/>
+      <c r="BF113" s="21"/>
+      <c r="BG113" s="21"/>
+      <c r="BH113" s="21"/>
+      <c r="BI113" s="21"/>
+      <c r="BJ113" s="21"/>
+      <c r="BK113" s="21"/>
+      <c r="BL113" s="21"/>
+      <c r="BM113" s="21"/>
+      <c r="BN113" s="21"/>
+      <c r="BO113" s="21"/>
+      <c r="BP113" s="21"/>
+      <c r="BQ113" s="21"/>
+      <c r="BR113" s="21"/>
+      <c r="BS113" s="21"/>
+      <c r="BT113" s="21"/>
+      <c r="BU113" s="21"/>
+      <c r="BV113" s="21"/>
+      <c r="BW113" s="21"/>
+      <c r="BX113" s="21"/>
+      <c r="BY113" s="21"/>
+      <c r="BZ113" s="21"/>
+      <c r="CA113" s="21"/>
+      <c r="CB113" s="21"/>
+      <c r="CC113" s="21"/>
+      <c r="CD113" s="21"/>
+      <c r="CE113" s="21"/>
+      <c r="CF113" s="21"/>
+      <c r="CG113" s="21"/>
+      <c r="CH113" s="21"/>
+      <c r="CI113" s="21"/>
+      <c r="CJ113" s="21"/>
+      <c r="CK113" s="21"/>
+      <c r="CL113" s="21"/>
+      <c r="CM113" s="21"/>
+      <c r="CN113" s="21"/>
+      <c r="CO113" s="21"/>
+      <c r="CP113" s="21"/>
+      <c r="CQ113" s="21"/>
+      <c r="CR113" s="21"/>
+      <c r="CS113" s="21"/>
+      <c r="CT113" s="21"/>
+      <c r="CU113" s="21"/>
+    </row>
+    <row r="117" spans="1:99" s="24" customFormat="1">
+      <c r="A117"/>
+      <c r="C117" s="32" t="s">
         <v>53</v>
       </c>
-      <c r="H110" s="25"/>
-      <c r="I110" s="25"/>
-      <c r="J110" s="25"/>
-      <c r="L110" s="25">
+      <c r="H117" s="25"/>
+      <c r="I117" s="25"/>
+      <c r="J117" s="25"/>
+      <c r="L117" s="25">
         <f>L19</f>
         <v>41133</v>
       </c>
-      <c r="M110" s="25">
-        <f t="shared" ref="M110:BF110" si="6">M19</f>
+      <c r="M117" s="25">
+        <f t="shared" ref="M117:BF117" si="6">M19</f>
         <v>41134</v>
       </c>
-      <c r="N110" s="25">
+      <c r="N117" s="25">
         <f t="shared" si="6"/>
         <v>41135</v>
       </c>
-      <c r="O110" s="25">
+      <c r="O117" s="25">
         <f t="shared" si="6"/>
         <v>41136</v>
       </c>
-      <c r="P110" s="25">
+      <c r="P117" s="25">
         <f t="shared" si="6"/>
         <v>41137</v>
       </c>
-      <c r="Q110" s="25">
+      <c r="Q117" s="25">
         <f t="shared" si="6"/>
         <v>41138</v>
       </c>
-      <c r="R110" s="25">
+      <c r="R117" s="25">
         <f t="shared" si="6"/>
         <v>41139</v>
       </c>
-      <c r="S110" s="25">
+      <c r="S117" s="25">
         <f t="shared" si="6"/>
         <v>41140</v>
       </c>
-      <c r="T110" s="25">
+      <c r="T117" s="25">
         <f t="shared" si="6"/>
         <v>41141</v>
       </c>
-      <c r="U110" s="25">
+      <c r="U117" s="25">
         <f t="shared" si="6"/>
         <v>41142</v>
       </c>
-      <c r="V110" s="25">
+      <c r="V117" s="25">
         <f t="shared" si="6"/>
         <v>41143</v>
       </c>
-      <c r="W110" s="25">
+      <c r="W117" s="25">
         <f t="shared" si="6"/>
         <v>41144</v>
       </c>
-      <c r="X110" s="25">
+      <c r="X117" s="25">
         <f t="shared" si="6"/>
         <v>41145</v>
       </c>
-      <c r="Y110" s="25">
+      <c r="Y117" s="25">
         <f t="shared" si="6"/>
         <v>41146</v>
       </c>
-      <c r="Z110" s="25">
+      <c r="Z117" s="25">
         <f t="shared" si="6"/>
         <v>41147</v>
       </c>
-      <c r="AA110" s="25">
+      <c r="AA117" s="25">
         <f t="shared" si="6"/>
         <v>41148</v>
       </c>
-      <c r="AB110" s="25">
+      <c r="AB117" s="25">
         <f t="shared" si="6"/>
         <v>41149</v>
       </c>
-      <c r="AC110" s="25">
+      <c r="AC117" s="25">
         <f t="shared" si="6"/>
         <v>41150</v>
       </c>
-      <c r="AD110" s="25">
+      <c r="AD117" s="25">
         <f t="shared" si="6"/>
         <v>41151</v>
       </c>
-      <c r="AE110" s="25">
+      <c r="AE117" s="25">
         <f t="shared" si="6"/>
         <v>41152</v>
       </c>
-      <c r="AF110" s="25">
+      <c r="AF117" s="25">
         <f t="shared" si="6"/>
         <v>41153</v>
       </c>
-      <c r="AG110" s="25">
+      <c r="AG117" s="25">
         <f t="shared" si="6"/>
         <v>41154</v>
       </c>
-      <c r="AH110" s="25">
+      <c r="AH117" s="25">
         <f t="shared" si="6"/>
         <v>41155</v>
       </c>
-      <c r="AI110" s="25">
+      <c r="AI117" s="25">
         <f t="shared" si="6"/>
         <v>41156</v>
       </c>
-      <c r="AJ110" s="25">
+      <c r="AJ117" s="25">
         <f t="shared" si="6"/>
         <v>41157</v>
       </c>
-      <c r="AK110" s="25">
+      <c r="AK117" s="25">
         <f t="shared" si="6"/>
         <v>41158</v>
       </c>
-      <c r="AL110" s="25">
+      <c r="AL117" s="25">
         <f t="shared" si="6"/>
         <v>41159</v>
       </c>
-      <c r="AM110" s="25">
+      <c r="AM117" s="25">
         <f t="shared" si="6"/>
         <v>41160</v>
       </c>
-      <c r="AN110" s="25">
+      <c r="AN117" s="25">
         <f t="shared" si="6"/>
         <v>41161</v>
       </c>
-      <c r="AO110" s="25">
+      <c r="AO117" s="25">
         <f t="shared" si="6"/>
         <v>41162</v>
       </c>
-      <c r="AP110" s="25">
+      <c r="AP117" s="25">
         <f t="shared" si="6"/>
         <v>41163</v>
       </c>
-      <c r="AQ110" s="25">
+      <c r="AQ117" s="25">
         <f t="shared" si="6"/>
         <v>41164</v>
       </c>
-      <c r="AR110" s="25">
+      <c r="AR117" s="25">
         <f t="shared" si="6"/>
         <v>41165</v>
       </c>
-      <c r="AS110" s="25">
+      <c r="AS117" s="25">
         <f t="shared" si="6"/>
         <v>41166</v>
       </c>
-      <c r="AT110" s="25">
+      <c r="AT117" s="25">
         <f t="shared" si="6"/>
         <v>41167</v>
       </c>
-      <c r="AU110" s="25">
+      <c r="AU117" s="25">
         <f t="shared" si="6"/>
         <v>41168</v>
       </c>
-      <c r="AV110" s="25">
+      <c r="AV117" s="25">
         <f t="shared" si="6"/>
         <v>41169</v>
       </c>
-      <c r="AW110" s="25">
+      <c r="AW117" s="25">
         <f t="shared" si="6"/>
         <v>41170</v>
       </c>
-      <c r="AX110" s="25">
+      <c r="AX117" s="25">
         <f t="shared" si="6"/>
         <v>41171</v>
       </c>
-      <c r="AY110" s="25">
+      <c r="AY117" s="25">
         <f t="shared" si="6"/>
         <v>41172</v>
       </c>
-      <c r="AZ110" s="25">
+      <c r="AZ117" s="25">
         <f t="shared" si="6"/>
         <v>41173</v>
       </c>
-      <c r="BA110" s="25">
+      <c r="BA117" s="25">
         <f t="shared" si="6"/>
         <v>41174</v>
       </c>
-      <c r="BB110" s="25">
+      <c r="BB117" s="25">
         <f t="shared" si="6"/>
         <v>41175</v>
       </c>
-      <c r="BC110" s="25">
+      <c r="BC117" s="25">
         <f t="shared" si="6"/>
         <v>41176</v>
       </c>
-      <c r="BD110" s="25">
+      <c r="BD117" s="25">
         <f t="shared" si="6"/>
         <v>41177</v>
       </c>
-      <c r="BE110" s="25">
+      <c r="BE117" s="25">
         <f t="shared" si="6"/>
         <v>41178</v>
       </c>
-      <c r="BF110" s="25">
+      <c r="BF117" s="25">
         <f t="shared" si="6"/>
         <v>41179</v>
       </c>
-      <c r="BG110" s="25"/>
-      <c r="BH110" s="25"/>
-      <c r="BI110" s="25"/>
-      <c r="BJ110" s="25"/>
-      <c r="BK110" s="25"/>
-      <c r="BL110" s="25"/>
-      <c r="BM110" s="25"/>
-      <c r="BN110" s="25"/>
-      <c r="BO110" s="25"/>
-      <c r="BP110" s="25"/>
-      <c r="BQ110" s="25"/>
-      <c r="BR110" s="25"/>
-      <c r="BS110" s="25"/>
-      <c r="BT110" s="25"/>
-      <c r="BU110" s="25"/>
-      <c r="BV110" s="25"/>
-      <c r="BW110" s="25"/>
-      <c r="BX110" s="25"/>
-      <c r="BY110" s="25"/>
-      <c r="BZ110" s="25"/>
-      <c r="CA110" s="25"/>
-      <c r="CB110" s="25"/>
-      <c r="CC110" s="25"/>
-      <c r="CD110" s="25"/>
-      <c r="CE110" s="25"/>
-      <c r="CF110" s="25"/>
-      <c r="CG110" s="25"/>
-      <c r="CH110" s="25"/>
-      <c r="CI110" s="25"/>
-      <c r="CJ110" s="25"/>
-      <c r="CK110" s="25"/>
-      <c r="CL110" s="25"/>
-      <c r="CM110" s="25"/>
-      <c r="CN110" s="25"/>
-      <c r="CO110" s="25"/>
-      <c r="CP110" s="25"/>
-      <c r="CQ110" s="25"/>
-      <c r="CR110" s="25"/>
-      <c r="CS110" s="25"/>
-      <c r="CT110" s="25"/>
-      <c r="CU110" s="25"/>
+      <c r="BG117" s="25"/>
+      <c r="BH117" s="25"/>
+      <c r="BI117" s="25"/>
+      <c r="BJ117" s="25"/>
+      <c r="BK117" s="25"/>
+      <c r="BL117" s="25"/>
+      <c r="BM117" s="25"/>
+      <c r="BN117" s="25"/>
+      <c r="BO117" s="25"/>
+      <c r="BP117" s="25"/>
+      <c r="BQ117" s="25"/>
+      <c r="BR117" s="25"/>
+      <c r="BS117" s="25"/>
+      <c r="BT117" s="25"/>
+      <c r="BU117" s="25"/>
+      <c r="BV117" s="25"/>
+      <c r="BW117" s="25"/>
+      <c r="BX117" s="25"/>
+      <c r="BY117" s="25"/>
+      <c r="BZ117" s="25"/>
+      <c r="CA117" s="25"/>
+      <c r="CB117" s="25"/>
+      <c r="CC117" s="25"/>
+      <c r="CD117" s="25"/>
+      <c r="CE117" s="25"/>
+      <c r="CF117" s="25"/>
+      <c r="CG117" s="25"/>
+      <c r="CH117" s="25"/>
+      <c r="CI117" s="25"/>
+      <c r="CJ117" s="25"/>
+      <c r="CK117" s="25"/>
+      <c r="CL117" s="25"/>
+      <c r="CM117" s="25"/>
+      <c r="CN117" s="25"/>
+      <c r="CO117" s="25"/>
+      <c r="CP117" s="25"/>
+      <c r="CQ117" s="25"/>
+      <c r="CR117" s="25"/>
+      <c r="CS117" s="25"/>
+      <c r="CT117" s="25"/>
+      <c r="CU117" s="25"/>
     </row>
   </sheetData>
-  <autoFilter ref="A19:BF106"/>
+  <autoFilter ref="A19:BF113"/>
   <sortState ref="C2:D16">
     <sortCondition ref="C2"/>
   </sortState>
   <mergeCells count="1">
-    <mergeCell ref="A79:B79"/>
+    <mergeCell ref="A86:B86"/>
   </mergeCells>
-  <conditionalFormatting sqref="L107:AY107 L98:CU99 L94:CU96 L79:CU92 L35:CU42 L44:CU48 L50:BL63 BR50:CU63 BM55:BQ63 L65:CU77 L101:CU103 L105:CU105 BO50:BQ53 BM50:BN54 L21:CU33">
+  <conditionalFormatting sqref="L114:AY114 L105:CU106 L101:CU103 L86:CU99 L42:CU49 L51:CU55 L57:BL70 BR57:CU70 BM62:BQ70 L72:CU84 L108:CU110 L112:CU112 BO57:BQ60 BM57:BN61 L21:CU40">
     <cfRule type="cellIs" dxfId="8" priority="201" operator="equal">
       <formula>"-"</formula>
     </cfRule>
@@ -12124,47 +12832,47 @@
       <formula>"B"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L98:CU99 L94:CU96 L79:CU92 L35:CU42 L44:CU48 L50:BL63 BR50:CU63 BM55:BQ63 L65:CU77 L101:CU103 L105:CU105 BO50:BQ53 BM50:BN54 L21:CU33">
+  <conditionalFormatting sqref="L105:CU106 L101:CU103 L86:CU99 L42:CU49 L51:CU55 L57:BL70 BR57:CU70 BM62:BQ70 L72:CU84 L108:CU110 L112:CU112 BO57:BQ60 BM57:BN61 L21:CU40">
     <cfRule type="cellIs" dxfId="5" priority="200" operator="equal">
       <formula>"BE"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J98 J83:J91 J35:J41 J50:J60 J80:J81 J105 J44:J47 J65:J76 J101:J103 J21:J33">
+  <conditionalFormatting sqref="J105 J90:J98 J42:J48 J57:J67 J87:J88 J112 J51:J54 J72:J83 J108:J110 J21:J40">
     <cfRule type="cellIs" dxfId="4" priority="274" operator="equal">
       <formula>$I$5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J83:J91 J35:J41 J98 J50:J60 J80:J81 J105 J44:J47 J65:J76 J101:J103 J21:J31">
+  <conditionalFormatting sqref="J90:J98 J42:J48 J105 J57:J67 J87:J88 J112 J51:J54 J72:J83 J108:J110 J21:J31">
     <cfRule type="expression" dxfId="3" priority="281">
       <formula>AND(J21&lt;&gt;$I$5,$I21&lt;TODAY())</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J32:J33">
+  <conditionalFormatting sqref="J32:J40">
     <cfRule type="expression" dxfId="2" priority="13">
       <formula>AND(J32&lt;&gt;$I$5,$I32&lt;TODAY())</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J33">
+  <conditionalFormatting sqref="J40">
     <cfRule type="expression" dxfId="1" priority="7">
-      <formula>AND(J33&lt;&gt;$I$5,$I33&lt;TODAY())</formula>
+      <formula>AND(J40&lt;&gt;$I$5,$I40&lt;TODAY())</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J32">
+  <conditionalFormatting sqref="J32:J39">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>AND(J32&lt;&gt;$I$5,$I32&lt;TODAY())</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J80:J81 J65:J76 J101:J105 J35:J41 J44:J47 J83:J91 J50:J60 J96:J99 J21:J33">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J87:J88 J72:J83 J108:J112 J42:J48 J51:J54 J90:J98 J57:J67 J103:J106 J21:J40">
       <formula1>$I$4:$I$14</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E20:E24 D20:D33">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E20:E24 D20:D40">
       <formula1>members</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I20:I33">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I20:I40">
       <formula1>$F$2:$F$6</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D44:F48 D73:D84 E58:F60 D59:D60 D65:D71 D35:F42 E104:E106 D86:D106 E65:E102 F64:F106 D50:F57">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D51:F55 D80:D91 E65:F67 D66:D67 D72:D78 D42:F49 E111:E113 D93:D113 E72:E109 F71:F113 D57:F64">
       <formula1>$C$2:$C$17</formula1>
     </dataValidation>
   </dataValidations>

--- a/trunk/Document/VietinBankSC Project Plan v2012.009.20.xlsx
+++ b/trunk/Document/VietinBankSC Project Plan v2012.009.20.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="536" uniqueCount="169">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="541" uniqueCount="169">
   <si>
     <t>GVCM</t>
   </si>
@@ -774,6 +774,9 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="16" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -783,9 +786,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1342,7 +1342,7 @@
       </c>
     </row>
     <row r="3" spans="1:10">
-      <c r="A3" s="39" t="s">
+      <c r="A3" s="42" t="s">
         <v>22</v>
       </c>
       <c r="B3" s="1" t="s">
@@ -1359,7 +1359,7 @@
       </c>
     </row>
     <row r="4" spans="1:10">
-      <c r="A4" s="39"/>
+      <c r="A4" s="42"/>
       <c r="B4" s="1" t="s">
         <v>1</v>
       </c>
@@ -1374,7 +1374,7 @@
       </c>
     </row>
     <row r="5" spans="1:10">
-      <c r="A5" s="39" t="s">
+      <c r="A5" s="42" t="s">
         <v>21</v>
       </c>
       <c r="B5" s="1" t="s">
@@ -1389,7 +1389,7 @@
       <c r="E5" s="2"/>
     </row>
     <row r="6" spans="1:10">
-      <c r="A6" s="39"/>
+      <c r="A6" s="42"/>
       <c r="B6" s="1" t="s">
         <v>3</v>
       </c>
@@ -1402,7 +1402,7 @@
       <c r="E6" s="2"/>
     </row>
     <row r="7" spans="1:10">
-      <c r="A7" s="39"/>
+      <c r="A7" s="42"/>
       <c r="B7" s="1" t="s">
         <v>4</v>
       </c>
@@ -1500,10 +1500,10 @@
   </sheetPr>
   <dimension ref="A1:CW118"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <pane xSplit="6" topLeftCell="G1" activePane="topRight" state="frozen"/>
       <selection activeCell="A19" sqref="A19"/>
-      <selection pane="topRight" activeCell="E20" sqref="E20"/>
+      <selection pane="topRight" activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1523,14 +1523,14 @@
     <col min="68" max="101" width="6.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="3:68">
+    <row r="1" spans="2:68">
       <c r="C1" s="26" t="s">
         <v>36</v>
       </c>
       <c r="D1" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="E1" s="42"/>
+      <c r="E1" s="39"/>
       <c r="F1" s="33"/>
       <c r="G1" s="33"/>
       <c r="H1" s="33"/>
@@ -1541,7 +1541,7 @@
       </c>
       <c r="M1" s="15"/>
     </row>
-    <row r="2" spans="3:68">
+    <row r="2" spans="2:68">
       <c r="C2" s="27" t="s">
         <v>63</v>
       </c>
@@ -1549,7 +1549,7 @@
         <f>SUMIF($D$22:$D$150,C2,$E$22:$E$150)+SUMIF($F$22:$F$150,C2,$G$22:$G$150)+ SUMIF($H$22:$H$150,C2,$I$22:$I$150)</f>
         <v>0</v>
       </c>
-      <c r="E2" s="43"/>
+      <c r="E2" s="40"/>
       <c r="F2" s="33"/>
       <c r="G2" s="33"/>
       <c r="H2" s="33"/>
@@ -1557,7 +1557,7 @@
       <c r="J2" s="33"/>
       <c r="M2" s="15"/>
     </row>
-    <row r="3" spans="3:68">
+    <row r="3" spans="2:68">
       <c r="C3" s="27" t="s">
         <v>132</v>
       </c>
@@ -1565,7 +1565,7 @@
         <f t="shared" ref="D3:D17" si="0">SUMIF($D$22:$D$150,C3,$E$22:$E$150)+SUMIF($F$22:$F$150,C3,$G$22:$G$150)+ SUMIF($H$22:$H$150,C3,$I$22:$I$150)</f>
         <v>0</v>
       </c>
-      <c r="E3" s="44"/>
+      <c r="E3" s="41"/>
       <c r="F3" s="33"/>
       <c r="G3" s="33"/>
       <c r="H3" s="33"/>
@@ -1573,7 +1573,7 @@
       <c r="J3" s="33"/>
       <c r="M3" s="15"/>
     </row>
-    <row r="4" spans="3:68">
+    <row r="4" spans="2:68">
       <c r="C4" s="27" t="s">
         <v>82</v>
       </c>
@@ -1581,7 +1581,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E4" s="43"/>
+      <c r="E4" s="40"/>
       <c r="F4" s="33"/>
       <c r="G4" s="33"/>
       <c r="H4" s="33"/>
@@ -1592,7 +1592,10 @@
       </c>
       <c r="M4" s="15"/>
     </row>
-    <row r="5" spans="3:68">
+    <row r="5" spans="2:68">
+      <c r="B5" t="s">
+        <v>10</v>
+      </c>
       <c r="C5" s="27" t="s">
         <v>59</v>
       </c>
@@ -1600,7 +1603,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E5" s="43"/>
+      <c r="E5" s="40"/>
       <c r="F5" s="33"/>
       <c r="G5" s="33"/>
       <c r="H5" s="33"/>
@@ -1611,7 +1614,7 @@
       </c>
       <c r="M5" s="15"/>
     </row>
-    <row r="6" spans="3:68">
+    <row r="6" spans="2:68">
       <c r="C6" s="27" t="s">
         <v>81</v>
       </c>
@@ -1619,7 +1622,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E6" s="43"/>
+      <c r="E6" s="40"/>
       <c r="F6" s="33"/>
       <c r="G6" s="33"/>
       <c r="H6" s="33"/>
@@ -1629,15 +1632,15 @@
       </c>
       <c r="M6" s="15"/>
     </row>
-    <row r="7" spans="3:68">
+    <row r="7" spans="2:68">
       <c r="C7" s="27" t="s">
         <v>74</v>
       </c>
       <c r="D7" s="16">
-        <f t="shared" si="0"/>
+        <f>SUMIF($D$22:$D$150,C7,$E$22:$E$150)+SUMIF($F$22:$F$150,C7,$G$22:$G$150)+ SUMIF($H$22:$H$150,C7,$I$22:$I$150)</f>
         <v>25</v>
       </c>
-      <c r="E7" s="43"/>
+      <c r="E7" s="40"/>
       <c r="F7" s="33"/>
       <c r="G7" s="33"/>
       <c r="H7" s="33"/>
@@ -1645,7 +1648,10 @@
       <c r="J7" s="33"/>
       <c r="M7" s="15"/>
     </row>
-    <row r="8" spans="3:68">
+    <row r="8" spans="2:68">
+      <c r="B8" t="s">
+        <v>10</v>
+      </c>
       <c r="C8" s="27" t="s">
         <v>70</v>
       </c>
@@ -1653,7 +1659,7 @@
         <f t="shared" si="0"/>
         <v>44</v>
       </c>
-      <c r="E8" s="43"/>
+      <c r="E8" s="40"/>
       <c r="F8" s="33"/>
       <c r="G8" s="33"/>
       <c r="H8" s="33"/>
@@ -1661,7 +1667,7 @@
       <c r="J8" s="33"/>
       <c r="M8" s="15"/>
     </row>
-    <row r="9" spans="3:68">
+    <row r="9" spans="2:68">
       <c r="C9" s="27" t="s">
         <v>69</v>
       </c>
@@ -1669,7 +1675,7 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="E9" s="43"/>
+      <c r="E9" s="40"/>
       <c r="F9" s="33"/>
       <c r="G9" s="33"/>
       <c r="H9" s="33"/>
@@ -1677,7 +1683,10 @@
       <c r="J9" s="33"/>
       <c r="M9" s="15"/>
     </row>
-    <row r="10" spans="3:68">
+    <row r="10" spans="2:68">
+      <c r="B10" t="s">
+        <v>10</v>
+      </c>
       <c r="C10" s="27" t="s">
         <v>57</v>
       </c>
@@ -1685,7 +1694,7 @@
         <f t="shared" si="0"/>
         <v>22</v>
       </c>
-      <c r="E10" s="43"/>
+      <c r="E10" s="40"/>
       <c r="F10" s="33"/>
       <c r="G10" s="33"/>
       <c r="H10" s="33"/>
@@ -1693,7 +1702,10 @@
       <c r="J10" s="33"/>
       <c r="M10" s="15"/>
     </row>
-    <row r="11" spans="3:68">
+    <row r="11" spans="2:68">
+      <c r="B11" t="s">
+        <v>10</v>
+      </c>
       <c r="C11" s="27" t="s">
         <v>60</v>
       </c>
@@ -1701,14 +1713,14 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E11" s="43"/>
+      <c r="E11" s="40"/>
       <c r="F11" s="33"/>
       <c r="G11" s="33"/>
       <c r="H11" s="33"/>
       <c r="J11" s="33"/>
       <c r="M11" s="15"/>
     </row>
-    <row r="12" spans="3:68">
+    <row r="12" spans="2:68">
       <c r="C12" s="27" t="s">
         <v>83</v>
       </c>
@@ -1716,7 +1728,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E12" s="43"/>
+      <c r="E12" s="40"/>
       <c r="F12" s="33"/>
       <c r="G12" s="33"/>
       <c r="H12" s="33"/>
@@ -1724,7 +1736,7 @@
       <c r="J12" s="33"/>
       <c r="M12" s="15"/>
     </row>
-    <row r="13" spans="3:68">
+    <row r="13" spans="2:68">
       <c r="C13" s="27" t="s">
         <v>58</v>
       </c>
@@ -1732,7 +1744,7 @@
         <f t="shared" si="0"/>
         <v>54</v>
       </c>
-      <c r="E13" s="43"/>
+      <c r="E13" s="40"/>
       <c r="F13" s="33"/>
       <c r="G13" s="33"/>
       <c r="H13" s="33"/>
@@ -1740,7 +1752,7 @@
       <c r="J13" s="33"/>
       <c r="M13" s="15"/>
     </row>
-    <row r="14" spans="3:68">
+    <row r="14" spans="2:68">
       <c r="C14" s="27" t="s">
         <v>73</v>
       </c>
@@ -1748,7 +1760,7 @@
         <f t="shared" si="0"/>
         <v>25</v>
       </c>
-      <c r="E14" s="43"/>
+      <c r="E14" s="40"/>
       <c r="F14" s="33"/>
       <c r="G14" s="33"/>
       <c r="H14" s="33"/>
@@ -1756,7 +1768,7 @@
       <c r="J14" s="33"/>
       <c r="M14" s="15"/>
     </row>
-    <row r="15" spans="3:68" ht="17.25" customHeight="1">
+    <row r="15" spans="2:68" ht="17.25" customHeight="1">
       <c r="C15" s="27" t="s">
         <v>56</v>
       </c>
@@ -1764,7 +1776,7 @@
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="E15" s="43"/>
+      <c r="E15" s="40"/>
       <c r="F15" s="33"/>
       <c r="G15" s="33"/>
       <c r="H15" s="33"/>
@@ -1772,7 +1784,7 @@
       <c r="J15" s="33"/>
       <c r="M15" s="15"/>
     </row>
-    <row r="16" spans="3:68" s="33" customFormat="1">
+    <row r="16" spans="2:68" s="33" customFormat="1">
       <c r="C16" s="27" t="s">
         <v>66</v>
       </c>
@@ -2003,6 +2015,9 @@
       </c>
     </row>
     <row r="17" spans="2:101">
+      <c r="B17" t="s">
+        <v>10</v>
+      </c>
       <c r="C17" s="27" t="s">
         <v>80</v>
       </c>
@@ -2010,7 +2025,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E17" s="43"/>
+      <c r="E17" s="40"/>
       <c r="F17" s="33"/>
       <c r="G17" s="33"/>
       <c r="H17" s="33"/>
@@ -10013,10 +10028,10 @@
       <c r="CW86" s="21"/>
     </row>
     <row r="87" spans="1:101">
-      <c r="A87" s="40" t="s">
+      <c r="A87" s="43" t="s">
         <v>161</v>
       </c>
-      <c r="B87" s="41"/>
+      <c r="B87" s="44"/>
       <c r="C87" s="37" t="s">
         <v>106</v>
       </c>

--- a/trunk/Document/VietinBankSC Project Plan v2012.009.20.xlsx
+++ b/trunk/Document/VietinBankSC Project Plan v2012.009.20.xlsx
@@ -17,7 +17,7 @@
     <externalReference r:id="rId6"/>
   </externalReferences>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Plan!$A$17:$BH$111</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Plan!$A$17:$BH$112</definedName>
     <definedName name="members">'[1]Thành viên - Vị trí'!$C$3:$C$13</definedName>
   </definedNames>
   <calcPr calcId="124519"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="533" uniqueCount="188">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="537" uniqueCount="190">
   <si>
     <t>GVCM</t>
   </si>
@@ -220,9 +220,6 @@
   </si>
   <si>
     <t>Test</t>
-  </si>
-  <si>
-    <t>Báo cáo nghiệm thu</t>
   </si>
   <si>
     <t>GiangDTT</t>
@@ -601,6 +598,15 @@
   </si>
   <si>
     <t>AAAAAHfvv3Y=</t>
+  </si>
+  <si>
+    <t>Báo cáo + nghiệm thu</t>
+  </si>
+  <si>
+    <t>Xuất phần mềm</t>
+  </si>
+  <si>
+    <t>Ủng hộ</t>
   </si>
 </sst>
 </file>
@@ -1561,16 +1567,16 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:CW115"/>
+  <dimension ref="A1:CW116"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A103" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="DN52" sqref="DN52"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="4" customWidth="1"/>
-    <col min="2" max="2" width="4.42578125" customWidth="1"/>
+    <col min="2" max="2" width="15" customWidth="1"/>
     <col min="3" max="3" width="50" style="29" customWidth="1"/>
     <col min="4" max="4" width="14.5703125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="15.140625" bestFit="1" customWidth="1"/>
@@ -1595,15 +1601,17 @@
         <v>37</v>
       </c>
       <c r="E1" s="36" t="s">
-        <v>185</v>
-      </c>
-      <c r="F1" s="31"/>
+        <v>184</v>
+      </c>
+      <c r="F1" s="31" t="s">
+        <v>189</v>
+      </c>
       <c r="G1" s="40"/>
       <c r="H1" s="41">
         <v>34500000</v>
       </c>
       <c r="I1" s="41">
-        <f>SUM(I2:I11)</f>
+        <f>SUM(I2:I10)</f>
         <v>25875000</v>
       </c>
       <c r="J1" s="41"/>
@@ -1611,19 +1619,19 @@
     </row>
     <row r="2" spans="3:68" ht="14.25" customHeight="1">
       <c r="C2" s="25" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D2" s="15">
-        <f>SUMIF($D$20:$D$147,C2,$E$20:$E$147)+SUMIF($F$20:$F$147,C2,$G$20:$G$147)+ SUMIF($H$20:$H$147,C2,$I$20:$I$147)</f>
+        <f>SUMIF($D$20:$D$148,C2,$E$20:$E$148)+SUMIF($F$20:$F$148,C2,$G$20:$G$148)+ SUMIF($H$20:$H$148,C2,$I$20:$I$148)</f>
         <v>17</v>
       </c>
       <c r="E2" s="46">
         <f>D2*17271</f>
         <v>293607</v>
       </c>
-      <c r="F2" s="31"/>
+      <c r="F2" s="45"/>
       <c r="G2" s="42" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="H2" s="47">
         <v>0.15</v>
@@ -1639,16 +1647,18 @@
         <v>58</v>
       </c>
       <c r="D3" s="15">
-        <f>SUMIF($D$20:$D$147,C3,$E$20:$E$147)+SUMIF($F$20:$F$147,C3,$G$20:$G$147)+ SUMIF($H$20:$H$147,C3,$I$20:$I$147)</f>
-        <v>42</v>
+        <f>SUMIF($D$20:$D$148,C3,$E$20:$E$148)+SUMIF($F$20:$F$148,C3,$G$20:$G$148)+ SUMIF($H$20:$H$148,C3,$I$20:$I$148)</f>
+        <v>27</v>
       </c>
       <c r="E3" s="46">
         <f t="shared" ref="E3:E16" si="0">D3*17271</f>
-        <v>725382</v>
-      </c>
-      <c r="F3" s="31"/>
+        <v>466317</v>
+      </c>
+      <c r="F3" s="45">
+        <v>10000</v>
+      </c>
       <c r="G3" s="42" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="H3" s="47">
         <v>0.02</v>
@@ -1661,19 +1671,21 @@
     </row>
     <row r="4" spans="3:68" ht="14.25" customHeight="1">
       <c r="C4" s="25" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D4" s="15">
-        <f>SUMIF($D$20:$D$147,C4,$E$20:$E$147)+SUMIF($F$20:$F$147,C4,$G$20:$G$147)+ SUMIF($H$20:$H$147,C4,$I$20:$I$147)</f>
+        <f>SUMIF($D$20:$D$148,C4,$E$20:$E$148)+SUMIF($F$20:$F$148,C4,$G$20:$G$148)+ SUMIF($H$20:$H$148,C4,$I$20:$I$148)</f>
         <v>5</v>
       </c>
       <c r="E4" s="46">
         <f t="shared" si="0"/>
         <v>86355</v>
       </c>
-      <c r="F4" s="31"/>
+      <c r="F4" s="45">
+        <v>10000</v>
+      </c>
       <c r="G4" s="42" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="H4" s="47">
         <v>0.05</v>
@@ -1686,19 +1698,19 @@
     </row>
     <row r="5" spans="3:68" ht="14.25" customHeight="1">
       <c r="C5" s="25" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D5" s="15">
-        <f>SUMIF($D$20:$D$147,C5,$E$20:$E$147)+SUMIF($F$20:$F$147,C5,$G$20:$G$147)+ SUMIF($H$20:$H$147,C5,$I$20:$I$147)</f>
-        <v>3</v>
+        <f>SUMIF($D$20:$D$148,C5,$E$20:$E$148)+SUMIF($F$20:$F$148,C5,$G$20:$G$148)+ SUMIF($H$20:$H$148,C5,$I$20:$I$148)</f>
+        <v>5</v>
       </c>
       <c r="E5" s="46">
         <f t="shared" si="0"/>
-        <v>51813</v>
-      </c>
-      <c r="F5" s="31"/>
+        <v>86355</v>
+      </c>
+      <c r="F5" s="45"/>
       <c r="G5" s="42" t="s">
-        <v>77</v>
+        <v>175</v>
       </c>
       <c r="H5" s="47">
         <v>0.05</v>
@@ -1711,17 +1723,19 @@
     </row>
     <row r="6" spans="3:68" ht="14.25" customHeight="1">
       <c r="C6" s="25" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D6" s="15">
-        <f>SUMIF($D$20:$D$147,C6,$E$20:$E$147)+SUMIF($F$20:$F$147,C6,$G$20:$G$147)+ SUMIF($H$20:$H$147,C6,$I$20:$I$147)</f>
-        <v>198</v>
+        <f>SUMIF($D$20:$D$148,C6,$E$20:$E$148)+SUMIF($F$20:$F$148,C6,$G$20:$G$148)+ SUMIF($H$20:$H$148,C6,$I$20:$I$148)</f>
+        <v>203</v>
       </c>
       <c r="E6" s="46">
         <f t="shared" si="0"/>
-        <v>3419658</v>
-      </c>
-      <c r="F6" s="31"/>
+        <v>3506013</v>
+      </c>
+      <c r="F6" s="45">
+        <v>95000</v>
+      </c>
       <c r="G6" s="42" t="s">
         <v>176</v>
       </c>
@@ -1736,26 +1750,26 @@
     </row>
     <row r="7" spans="3:68" ht="14.25" customHeight="1">
       <c r="C7" s="25" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D7" s="15">
-        <f>SUMIF($D$20:$D$147,C7,$E$20:$E$147)+SUMIF($F$20:$F$147,C7,$G$20:$G$147)+ SUMIF($H$20:$H$147,C7,$I$20:$I$147)</f>
+        <f>SUMIF($D$20:$D$148,C7,$E$20:$E$148)+SUMIF($F$20:$F$148,C7,$G$20:$G$148)+ SUMIF($H$20:$H$148,C7,$I$20:$I$148)</f>
         <v>8</v>
       </c>
       <c r="E7" s="46">
         <f t="shared" si="0"/>
         <v>138168</v>
       </c>
-      <c r="F7" s="31"/>
+      <c r="F7" s="45"/>
       <c r="G7" s="42" t="s">
         <v>177</v>
       </c>
       <c r="H7" s="47">
-        <v>0.05</v>
+        <v>0.02</v>
       </c>
       <c r="I7" s="43">
         <f>25875000*H7</f>
-        <v>1293750</v>
+        <v>517500</v>
       </c>
       <c r="M7" s="14"/>
     </row>
@@ -1764,23 +1778,25 @@
         <v>56</v>
       </c>
       <c r="D8" s="15">
-        <f>SUMIF($D$20:$D$147,C8,$E$20:$E$147)+SUMIF($F$20:$F$147,C8,$G$20:$G$147)+ SUMIF($H$20:$H$147,C8,$I$20:$I$147)</f>
-        <v>137</v>
+        <f>SUMIF($D$20:$D$148,C8,$E$20:$E$148)+SUMIF($F$20:$F$148,C8,$G$20:$G$148)+ SUMIF($H$20:$H$148,C8,$I$20:$I$148)</f>
+        <v>149</v>
       </c>
       <c r="E8" s="46">
         <f t="shared" si="0"/>
-        <v>2366127</v>
-      </c>
-      <c r="F8" s="31"/>
+        <v>2573379</v>
+      </c>
+      <c r="F8" s="45">
+        <v>100000</v>
+      </c>
       <c r="G8" s="42" t="s">
         <v>178</v>
       </c>
       <c r="H8" s="47">
-        <v>0.02</v>
+        <v>0.05</v>
       </c>
       <c r="I8" s="43">
         <f>25875000*H8</f>
-        <v>517500</v>
+        <v>1293750</v>
       </c>
       <c r="M8" s="14"/>
     </row>
@@ -1789,48 +1805,52 @@
         <v>59</v>
       </c>
       <c r="D9" s="15">
-        <f>SUMIF($D$20:$D$147,C9,$E$20:$E$147)+SUMIF($F$20:$F$147,C9,$G$20:$G$147)+ SUMIF($H$20:$H$147,C9,$I$20:$I$147)</f>
+        <f>SUMIF($D$20:$D$148,C9,$E$20:$E$148)+SUMIF($F$20:$F$148,C9,$G$20:$G$148)+ SUMIF($H$20:$H$148,C9,$I$20:$I$148)</f>
         <v>46</v>
       </c>
       <c r="E9" s="46">
         <f t="shared" si="0"/>
         <v>794466</v>
       </c>
-      <c r="F9" s="31"/>
+      <c r="F9" s="45">
+        <v>10000</v>
+      </c>
       <c r="G9" s="42" t="s">
         <v>179</v>
       </c>
       <c r="H9" s="47">
-        <v>0.05</v>
+        <v>0.02</v>
       </c>
       <c r="I9" s="43">
         <f>25875000*H9</f>
-        <v>1293750</v>
+        <v>517500</v>
       </c>
       <c r="M9" s="14"/>
     </row>
     <row r="10" spans="3:68" ht="14.25" customHeight="1">
       <c r="C10" s="25" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D10" s="15">
-        <f>SUMIF($D$20:$D$147,C10,$E$20:$E$147)+SUMIF($F$20:$F$147,C10,$G$20:$G$147)+ SUMIF($H$20:$H$147,C10,$I$20:$I$147)</f>
+        <f>SUMIF($D$20:$D$148,C10,$E$20:$E$148)+SUMIF($F$20:$F$148,C10,$G$20:$G$148)+ SUMIF($H$20:$H$148,C10,$I$20:$I$148)</f>
         <v>5</v>
       </c>
       <c r="E10" s="46">
         <f t="shared" si="0"/>
         <v>86355</v>
       </c>
-      <c r="F10" s="31"/>
+      <c r="F10" s="45">
+        <v>10000</v>
+      </c>
       <c r="G10" s="42" t="s">
         <v>180</v>
       </c>
       <c r="H10" s="47">
-        <v>0.02</v>
+        <v>0.59</v>
       </c>
       <c r="I10" s="43">
         <f>25875000*H10</f>
-        <v>517500</v>
+        <v>15266250</v>
       </c>
       <c r="M10" s="14"/>
     </row>
@@ -1839,39 +1859,33 @@
         <v>57</v>
       </c>
       <c r="D11" s="15">
-        <f>SUMIF($D$20:$D$147,C11,$E$20:$E$147)+SUMIF($F$20:$F$147,C11,$G$20:$G$147)+ SUMIF($H$20:$H$147,C11,$I$20:$I$147)</f>
-        <v>177</v>
+        <f>SUMIF($D$20:$D$148,C11,$E$20:$E$148)+SUMIF($F$20:$F$148,C11,$G$20:$G$148)+ SUMIF($H$20:$H$148,C11,$I$20:$I$148)</f>
+        <v>180</v>
       </c>
       <c r="E11" s="46">
         <f t="shared" si="0"/>
-        <v>3056967</v>
-      </c>
-      <c r="F11" s="31"/>
-      <c r="G11" s="42" t="s">
-        <v>181</v>
-      </c>
-      <c r="H11" s="47">
-        <v>0.54</v>
-      </c>
-      <c r="I11" s="43">
-        <f>25875000*H11</f>
-        <v>13972500</v>
+        <v>3108780</v>
+      </c>
+      <c r="F11" s="45">
+        <v>10000</v>
       </c>
       <c r="M11" s="14"/>
     </row>
     <row r="12" spans="3:68" ht="14.25" customHeight="1">
       <c r="C12" s="25" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D12" s="15">
-        <f>SUMIF($D$20:$D$147,C12,$E$20:$E$147)+SUMIF($F$20:$F$147,C12,$G$20:$G$147)+ SUMIF($H$20:$H$147,C12,$I$20:$I$147)</f>
-        <v>3</v>
+        <f>SUMIF($D$20:$D$148,C12,$E$20:$E$148)+SUMIF($F$20:$F$148,C12,$G$20:$G$148)+ SUMIF($H$20:$H$148,C12,$I$20:$I$148)</f>
+        <v>5</v>
       </c>
       <c r="E12" s="46">
         <f t="shared" si="0"/>
-        <v>51813</v>
-      </c>
-      <c r="F12" s="31"/>
+        <v>86355</v>
+      </c>
+      <c r="F12" s="45">
+        <v>10000</v>
+      </c>
       <c r="M12" s="14"/>
     </row>
     <row r="13" spans="3:68" ht="14.25" customHeight="1">
@@ -1879,49 +1893,52 @@
         <v>55</v>
       </c>
       <c r="D13" s="15">
-        <f>SUMIF($D$20:$D$147,C13,$E$20:$E$147)+SUMIF($F$20:$F$147,C13,$G$20:$G$147)+ SUMIF($H$20:$H$147,C13,$I$20:$I$147)</f>
+        <f>SUMIF($D$20:$D$148,C13,$E$20:$E$148)+SUMIF($F$20:$F$148,C13,$G$20:$G$148)+ SUMIF($H$20:$H$148,C13,$I$20:$I$148)</f>
         <v>6</v>
       </c>
       <c r="E13" s="46">
         <f t="shared" si="0"/>
         <v>103626</v>
       </c>
-      <c r="F13" s="31"/>
+      <c r="F13" s="45">
+        <v>10000</v>
+      </c>
       <c r="G13" s="31" t="s">
+        <v>181</v>
+      </c>
+      <c r="H13" s="31" t="s">
         <v>182</v>
       </c>
-      <c r="H13" s="31" t="s">
+      <c r="I13" s="31" t="s">
         <v>183</v>
-      </c>
-      <c r="I13" s="31" t="s">
-        <v>184</v>
       </c>
       <c r="J13" s="31"/>
       <c r="M13" s="14"/>
     </row>
     <row r="14" spans="3:68" s="31" customFormat="1" ht="14.25" customHeight="1">
       <c r="C14" s="25" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D14" s="15">
-        <f>SUMIF($D$20:$D$147,C14,$E$20:$E$147)+SUMIF($F$20:$F$147,C14,$G$20:$G$147)+ SUMIF($H$20:$H$147,C14,$I$20:$I$147)</f>
-        <v>66</v>
+        <f>SUMIF($D$20:$D$148,C14,$E$20:$E$148)+SUMIF($F$20:$F$148,C14,$G$20:$G$148)+ SUMIF($H$20:$H$148,C14,$I$20:$I$148)</f>
+        <v>51</v>
       </c>
       <c r="E14" s="46">
         <f t="shared" si="0"/>
-        <v>1139886</v>
-      </c>
+        <v>880821</v>
+      </c>
+      <c r="F14" s="45"/>
       <c r="G14" s="40">
         <f>SUM(D2:D16)</f>
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="H14" s="45">
-        <f>I11</f>
-        <v>13972500</v>
+        <f>I10</f>
+        <v>15266250</v>
       </c>
       <c r="I14" s="44">
         <f>H14/G14</f>
-        <v>18264.705882352941</v>
+        <v>19982.002617801048</v>
       </c>
       <c r="N14" s="31">
         <f t="shared" ref="N14:BH14" si="2">N17</f>
@@ -2146,30 +2163,33 @@
     </row>
     <row r="15" spans="3:68" s="31" customFormat="1" ht="14.25" customHeight="1">
       <c r="C15" s="25" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D15" s="15">
-        <f>SUMIF($D$20:$D$147,C15,$E$20:$E$147)+SUMIF($F$20:$F$147,C15,$G$20:$G$147)+ SUMIF($H$20:$H$147,C15,$I$20:$I$147)</f>
+        <f>SUMIF($D$20:$D$148,C15,$E$20:$E$148)+SUMIF($F$20:$F$148,C15,$G$20:$G$148)+ SUMIF($H$20:$H$148,C15,$I$20:$I$148)</f>
         <v>15</v>
       </c>
       <c r="E15" s="46">
         <f t="shared" si="0"/>
         <v>259065</v>
       </c>
+      <c r="F15" s="45"/>
     </row>
     <row r="16" spans="3:68" ht="14.25" customHeight="1">
       <c r="C16" s="25" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D16" s="15">
-        <f>SUMIF($D$20:$D$147,C16,$E$20:$E$147)+SUMIF($F$20:$F$147,C16,$G$20:$G$147)+ SUMIF($H$20:$H$147,C16,$I$20:$I$147)</f>
-        <v>37</v>
+        <f>SUMIF($D$20:$D$148,C16,$E$20:$E$148)+SUMIF($F$20:$F$148,C16,$G$20:$G$148)+ SUMIF($H$20:$H$148,C16,$I$20:$I$148)</f>
+        <v>42</v>
       </c>
       <c r="E16" s="46">
         <f t="shared" si="0"/>
-        <v>639027</v>
-      </c>
-      <c r="F16" s="31"/>
+        <v>725382</v>
+      </c>
+      <c r="F16" s="45">
+        <v>25000</v>
+      </c>
       <c r="G16" s="31"/>
       <c r="H16" s="31"/>
       <c r="I16" s="31"/>
@@ -2184,19 +2204,19 @@
         <v>41</v>
       </c>
       <c r="D17" s="17" t="s">
+        <v>150</v>
+      </c>
+      <c r="E17" s="17" t="s">
+        <v>149</v>
+      </c>
+      <c r="F17" s="17" t="s">
         <v>151</v>
       </c>
-      <c r="E17" s="17" t="s">
-        <v>150</v>
-      </c>
-      <c r="F17" s="17" t="s">
+      <c r="G17" s="17" t="s">
+        <v>149</v>
+      </c>
+      <c r="H17" s="17" t="s">
         <v>152</v>
-      </c>
-      <c r="G17" s="17" t="s">
-        <v>150</v>
-      </c>
-      <c r="H17" s="17" t="s">
-        <v>153</v>
       </c>
       <c r="I17" s="17" t="s">
         <v>42</v>
@@ -2568,7 +2588,7 @@
     <row r="18" spans="2:101" s="18" customFormat="1">
       <c r="B18" s="19"/>
       <c r="C18" s="28" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D18" s="32"/>
       <c r="E18" s="32"/>
@@ -2774,7 +2794,7 @@
     <row r="20" spans="2:101">
       <c r="B20" s="20"/>
       <c r="C20" s="27" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D20" s="20" t="s">
         <v>55</v>
@@ -2888,16 +2908,16 @@
     <row r="21" spans="2:101">
       <c r="B21" s="20"/>
       <c r="C21" s="27" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D21" s="20" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E21" s="20">
         <v>3</v>
       </c>
       <c r="F21" s="20" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G21" s="20">
         <v>3</v>
@@ -3006,16 +3026,16 @@
     <row r="22" spans="2:101">
       <c r="B22" s="20"/>
       <c r="C22" s="27" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D22" s="20" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E22" s="20">
         <v>3</v>
       </c>
       <c r="F22" s="20" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G22" s="20">
         <v>3</v>
@@ -3124,16 +3144,16 @@
     <row r="23" spans="2:101">
       <c r="B23" s="20"/>
       <c r="C23" s="27" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D23" s="20" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E23" s="20">
         <v>3</v>
       </c>
       <c r="F23" s="20" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G23" s="20">
         <v>3</v>
@@ -3242,10 +3262,10 @@
     <row r="24" spans="2:101">
       <c r="B24" s="20"/>
       <c r="C24" s="27" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D24" s="20" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E24" s="20">
         <v>3</v>
@@ -3356,10 +3376,10 @@
     <row r="25" spans="2:101">
       <c r="B25" s="20"/>
       <c r="C25" s="27" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D25" s="20" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E25" s="20">
         <v>3</v>
@@ -3470,10 +3490,10 @@
     <row r="26" spans="2:101">
       <c r="B26" s="20"/>
       <c r="C26" s="27" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D26" s="20" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E26" s="20">
         <v>3</v>
@@ -3584,10 +3604,10 @@
     <row r="27" spans="2:101">
       <c r="B27" s="20"/>
       <c r="C27" s="27" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D27" s="20" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E27" s="20">
         <v>3</v>
@@ -3696,10 +3716,10 @@
     <row r="28" spans="2:101">
       <c r="B28" s="20"/>
       <c r="C28" s="27" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D28" s="20" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E28" s="20">
         <v>3</v>
@@ -3808,10 +3828,10 @@
     <row r="29" spans="2:101">
       <c r="B29" s="20"/>
       <c r="C29" s="27" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D29" s="20" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E29" s="20">
         <v>3</v>
@@ -3825,7 +3845,7 @@
       <c r="H29" s="20"/>
       <c r="I29" s="20"/>
       <c r="J29" s="20" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="K29" s="21"/>
       <c r="L29" s="21"/>
@@ -3922,10 +3942,10 @@
     <row r="30" spans="2:101">
       <c r="B30" s="20"/>
       <c r="C30" s="27" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D30" s="20" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E30" s="20">
         <v>3</v>
@@ -3939,7 +3959,7 @@
       <c r="H30" s="20"/>
       <c r="I30" s="20"/>
       <c r="J30" s="20" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="K30" s="21"/>
       <c r="L30" s="21" t="s">
@@ -4038,10 +4058,10 @@
     <row r="31" spans="2:101">
       <c r="B31" s="20"/>
       <c r="C31" s="27" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D31" s="20" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E31" s="20">
         <v>3</v>
@@ -4154,7 +4174,7 @@
     <row r="32" spans="2:101">
       <c r="B32" s="20"/>
       <c r="C32" s="27" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D32" s="20" t="s">
         <v>56</v>
@@ -4268,10 +4288,10 @@
     <row r="33" spans="2:101">
       <c r="B33" s="20"/>
       <c r="C33" s="27" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D33" s="20" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E33" s="20">
         <v>3</v>
@@ -4380,10 +4400,10 @@
     <row r="34" spans="2:101">
       <c r="B34" s="20"/>
       <c r="C34" s="27" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D34" s="20" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E34" s="20">
         <v>5</v>
@@ -4498,10 +4518,10 @@
     <row r="35" spans="2:101">
       <c r="B35" s="20"/>
       <c r="C35" s="27" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D35" s="20" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E35" s="20">
         <v>3</v>
@@ -4614,10 +4634,10 @@
     <row r="36" spans="2:101">
       <c r="B36" s="20"/>
       <c r="C36" s="27" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D36" s="20" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E36" s="20">
         <v>3</v>
@@ -4722,10 +4742,10 @@
     <row r="37" spans="2:101">
       <c r="B37" s="20"/>
       <c r="C37" s="27" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D37" s="20" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E37" s="20">
         <v>3</v>
@@ -4830,10 +4850,10 @@
     <row r="38" spans="2:101">
       <c r="B38" s="20"/>
       <c r="C38" s="27" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D38" s="20" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E38" s="20">
         <v>3</v>
@@ -5042,7 +5062,7 @@
     <row r="40" spans="2:101" s="18" customFormat="1">
       <c r="B40" s="19"/>
       <c r="C40" s="28" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D40" s="19"/>
       <c r="E40" s="19"/>
@@ -5146,10 +5166,10 @@
     <row r="41" spans="2:101">
       <c r="B41" s="20"/>
       <c r="C41" s="27" t="s">
+        <v>63</v>
+      </c>
+      <c r="D41" s="20" t="s">
         <v>64</v>
-      </c>
-      <c r="D41" s="20" t="s">
-        <v>65</v>
       </c>
       <c r="E41" s="20">
         <v>15</v>
@@ -5256,16 +5276,16 @@
     <row r="42" spans="2:101">
       <c r="B42" s="20"/>
       <c r="C42" s="27" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D42" s="20" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E42" s="20">
         <v>3</v>
       </c>
       <c r="F42" s="20" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G42" s="20">
         <v>1</v>
@@ -5370,7 +5390,7 @@
     <row r="43" spans="2:101">
       <c r="B43" s="20"/>
       <c r="C43" s="27" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D43" s="20" t="s">
         <v>57</v>
@@ -5379,7 +5399,7 @@
         <v>5</v>
       </c>
       <c r="F43" s="20" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G43" s="20">
         <v>5</v>
@@ -5484,13 +5504,13 @@
     <row r="44" spans="2:101">
       <c r="B44" s="20"/>
       <c r="C44" s="27" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D44" s="20" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E44" s="20">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="F44" s="20" t="s">
         <v>56</v>
@@ -5602,18 +5622,16 @@
     <row r="45" spans="2:101">
       <c r="B45" s="20"/>
       <c r="C45" s="27" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D45" s="20" t="s">
         <v>56</v>
       </c>
       <c r="E45" s="20">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F45" s="20"/>
-      <c r="G45" s="20">
-        <v>0</v>
-      </c>
+      <c r="G45" s="20"/>
       <c r="H45" s="20"/>
       <c r="I45" s="20"/>
       <c r="J45" s="21"/>
@@ -5714,7 +5732,7 @@
     <row r="46" spans="2:101">
       <c r="B46" s="20"/>
       <c r="C46" s="27" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D46" s="20" t="s">
         <v>57</v>
@@ -5824,22 +5842,26 @@
     <row r="47" spans="2:101">
       <c r="B47" s="20"/>
       <c r="C47" s="27" t="s">
+        <v>70</v>
+      </c>
+      <c r="D47" s="20" t="s">
         <v>71</v>
       </c>
-      <c r="D47" s="20" t="s">
+      <c r="E47" s="20">
+        <v>5</v>
+      </c>
+      <c r="F47" s="20" t="s">
         <v>72</v>
       </c>
-      <c r="E47" s="20">
+      <c r="G47" s="20">
+        <v>5</v>
+      </c>
+      <c r="H47" s="20" t="s">
+        <v>57</v>
+      </c>
+      <c r="I47" s="20">
         <v>3</v>
       </c>
-      <c r="F47" s="20" t="s">
-        <v>73</v>
-      </c>
-      <c r="G47" s="20">
-        <v>3</v>
-      </c>
-      <c r="H47" s="20"/>
-      <c r="I47" s="20"/>
       <c r="J47" s="21"/>
       <c r="K47" s="21"/>
       <c r="L47" s="21" t="s">
@@ -6478,7 +6500,7 @@
     <row r="53" spans="2:101">
       <c r="B53" s="20"/>
       <c r="C53" s="27" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D53" s="27" t="s">
         <v>56</v>
@@ -6690,14 +6712,14 @@
     <row r="55" spans="2:101" s="18" customFormat="1">
       <c r="B55" s="19"/>
       <c r="C55" s="28" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D55" s="19" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E55" s="19"/>
       <c r="F55" s="19" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="G55" s="19"/>
       <c r="H55" s="19" t="s">
@@ -6800,10 +6822,10 @@
     <row r="56" spans="2:101">
       <c r="B56" s="20"/>
       <c r="C56" s="27" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D56" s="20" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E56" s="20">
         <v>1</v>
@@ -6914,7 +6936,7 @@
     <row r="57" spans="2:101">
       <c r="B57" s="20"/>
       <c r="C57" s="27" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D57" s="20" t="s">
         <v>57</v>
@@ -7028,10 +7050,10 @@
     <row r="58" spans="2:101">
       <c r="B58" s="20"/>
       <c r="C58" s="27" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D58" s="20" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E58" s="20">
         <v>2</v>
@@ -7142,7 +7164,7 @@
     <row r="59" spans="2:101">
       <c r="B59" s="20"/>
       <c r="C59" s="27" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D59" s="20" t="s">
         <v>59</v>
@@ -7218,10 +7240,10 @@
       <c r="BM59" s="1"/>
       <c r="BN59" s="1"/>
       <c r="BO59" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="BP59" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="BQ59" s="1"/>
       <c r="BR59" s="1"/>
@@ -7260,10 +7282,10 @@
     <row r="60" spans="2:101">
       <c r="B60" s="20"/>
       <c r="C60" s="27" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D60" s="20" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E60" s="20">
         <v>1</v>
@@ -7336,10 +7358,10 @@
       <c r="BM60" s="1"/>
       <c r="BN60" s="1"/>
       <c r="BO60" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="BP60" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="BT60" s="1"/>
       <c r="BU60" s="1"/>
@@ -7375,10 +7397,10 @@
     <row r="61" spans="2:101">
       <c r="B61" s="20"/>
       <c r="C61" s="27" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D61" s="20" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E61" s="20">
         <v>1</v>
@@ -7447,19 +7469,19 @@
       <c r="BM61" s="1"/>
       <c r="BN61" s="1"/>
       <c r="BO61" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="BP61" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="BP61" s="1" t="s">
+      <c r="BQ61" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="BR61" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="BS61" s="1" t="s">
         <v>122</v>
-      </c>
-      <c r="BQ61" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="BR61" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="BS61" s="1" t="s">
-        <v>123</v>
       </c>
       <c r="BT61" s="1"/>
       <c r="BU61" s="1"/>
@@ -7495,10 +7517,10 @@
     <row r="62" spans="2:101">
       <c r="B62" s="20"/>
       <c r="C62" s="27" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D62" s="20" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E62" s="20">
         <v>1</v>
@@ -7605,10 +7627,10 @@
     <row r="63" spans="2:101">
       <c r="B63" s="20"/>
       <c r="C63" s="27" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D63" s="20" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E63" s="20">
         <v>0.5</v>
@@ -7677,19 +7699,19 @@
       <c r="BM63" s="1"/>
       <c r="BN63" s="1"/>
       <c r="BO63" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="BP63" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="BP63" s="1" t="s">
+      <c r="BQ63" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="BR63" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="BS63" s="1" t="s">
         <v>122</v>
-      </c>
-      <c r="BQ63" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="BR63" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="BS63" s="1" t="s">
-        <v>123</v>
       </c>
       <c r="BT63" s="1"/>
       <c r="BU63" s="1"/>
@@ -7725,10 +7747,10 @@
     <row r="64" spans="2:101">
       <c r="B64" s="20"/>
       <c r="C64" s="27" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D64" s="20" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E64" s="20">
         <v>0.5</v>
@@ -7937,14 +7959,14 @@
     <row r="66" spans="1:101" s="18" customFormat="1">
       <c r="B66" s="19"/>
       <c r="C66" s="28" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D66" s="19" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E66" s="19"/>
       <c r="F66" s="19" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G66" s="19"/>
       <c r="H66" s="19"/>
@@ -8045,7 +8067,7 @@
     <row r="67" spans="1:101">
       <c r="B67" s="20"/>
       <c r="C67" s="27" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D67" s="20" t="s">
         <v>58</v>
@@ -8054,7 +8076,7 @@
         <v>5</v>
       </c>
       <c r="F67" s="20" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G67" s="20">
         <v>15</v>
@@ -8159,7 +8181,7 @@
     <row r="68" spans="1:101">
       <c r="B68" s="20"/>
       <c r="C68" s="27" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D68" s="20" t="s">
         <v>58</v>
@@ -8168,7 +8190,7 @@
         <v>5</v>
       </c>
       <c r="F68" s="20" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G68" s="20">
         <v>15</v>
@@ -8273,7 +8295,7 @@
     <row r="69" spans="1:101">
       <c r="B69" s="20"/>
       <c r="C69" s="27" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D69" s="20" t="s">
         <v>59</v>
@@ -8349,19 +8371,19 @@
       <c r="BM69" s="1"/>
       <c r="BN69" s="1"/>
       <c r="BO69" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="BP69" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="BP69" s="1" t="s">
+      <c r="BQ69" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="BR69" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="BS69" s="1" t="s">
         <v>122</v>
-      </c>
-      <c r="BQ69" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="BR69" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="BS69" s="1" t="s">
-        <v>123</v>
       </c>
       <c r="BT69" s="1"/>
       <c r="BU69" s="1"/>
@@ -8397,7 +8419,7 @@
     <row r="70" spans="1:101">
       <c r="B70" s="20"/>
       <c r="C70" s="27" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D70" s="20" t="s">
         <v>59</v>
@@ -8473,19 +8495,19 @@
       <c r="BM70" s="1"/>
       <c r="BN70" s="1"/>
       <c r="BO70" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="BP70" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="BP70" s="1" t="s">
+      <c r="BQ70" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="BR70" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="BS70" s="1" t="s">
         <v>122</v>
-      </c>
-      <c r="BQ70" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="BR70" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="BS70" s="1" t="s">
-        <v>123</v>
       </c>
       <c r="BT70" s="1"/>
       <c r="BU70" s="1"/>
@@ -8521,7 +8543,7 @@
     <row r="71" spans="1:101">
       <c r="B71" s="20"/>
       <c r="C71" s="27" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D71" s="20" t="s">
         <v>56</v>
@@ -8597,19 +8619,19 @@
       <c r="BM71" s="1"/>
       <c r="BN71" s="1"/>
       <c r="BO71" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="BP71" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="BP71" s="1" t="s">
+      <c r="BQ71" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="BR71" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="BS71" s="1" t="s">
         <v>122</v>
-      </c>
-      <c r="BQ71" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="BR71" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="BS71" s="1" t="s">
-        <v>123</v>
       </c>
       <c r="BT71" s="1"/>
       <c r="BU71" s="1"/>
@@ -8645,16 +8667,16 @@
     <row r="72" spans="1:101">
       <c r="B72" s="20"/>
       <c r="C72" s="27" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D72" s="20" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E72" s="20">
         <v>5</v>
       </c>
       <c r="F72" s="20" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G72" s="20">
         <v>25</v>
@@ -8721,19 +8743,19 @@
       <c r="BM72" s="1"/>
       <c r="BN72" s="1"/>
       <c r="BO72" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="BP72" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="BP72" s="1" t="s">
+      <c r="BQ72" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="BR72" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="BS72" s="1" t="s">
         <v>122</v>
-      </c>
-      <c r="BQ72" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="BR72" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="BS72" s="1" t="s">
-        <v>123</v>
       </c>
       <c r="BT72" s="1"/>
       <c r="BU72" s="1"/>
@@ -8769,7 +8791,7 @@
     <row r="73" spans="1:101">
       <c r="B73" s="20"/>
       <c r="C73" s="27" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D73" s="20" t="s">
         <v>56</v>
@@ -8845,19 +8867,19 @@
       <c r="BM73" s="1"/>
       <c r="BN73" s="1"/>
       <c r="BO73" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="BP73" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="BP73" s="1" t="s">
+      <c r="BQ73" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="BR73" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="BS73" s="1" t="s">
         <v>122</v>
-      </c>
-      <c r="BQ73" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="BR73" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="BS73" s="1" t="s">
-        <v>123</v>
       </c>
       <c r="BT73" s="1"/>
       <c r="BU73" s="1"/>
@@ -8893,16 +8915,16 @@
     <row r="74" spans="1:101">
       <c r="B74" s="20"/>
       <c r="C74" s="27" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D74" s="20" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E74" s="20">
         <v>5</v>
       </c>
       <c r="F74" s="20" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G74" s="20">
         <v>15</v>
@@ -8969,19 +8991,19 @@
       <c r="BM74" s="1"/>
       <c r="BN74" s="1"/>
       <c r="BO74" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="BP74" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="BP74" s="1" t="s">
+      <c r="BQ74" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="BR74" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="BS74" s="1" t="s">
         <v>122</v>
-      </c>
-      <c r="BQ74" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="BR74" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="BS74" s="1" t="s">
-        <v>123</v>
       </c>
       <c r="BT74" s="1"/>
       <c r="BU74" s="1"/>
@@ -9017,7 +9039,7 @@
     <row r="75" spans="1:101">
       <c r="B75" s="20"/>
       <c r="C75" s="27" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D75" s="20" t="s">
         <v>58</v>
@@ -9026,7 +9048,7 @@
         <v>5</v>
       </c>
       <c r="F75" s="20" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="G75" s="20">
         <v>15</v>
@@ -9093,19 +9115,19 @@
       <c r="BM75" s="1"/>
       <c r="BN75" s="1"/>
       <c r="BO75" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="BP75" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="BP75" s="1" t="s">
+      <c r="BQ75" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="BR75" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="BS75" s="1" t="s">
         <v>122</v>
-      </c>
-      <c r="BQ75" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="BR75" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="BS75" s="1" t="s">
-        <v>123</v>
       </c>
       <c r="BT75" s="1"/>
       <c r="BU75" s="1"/>
@@ -9141,22 +9163,22 @@
     <row r="76" spans="1:101">
       <c r="B76" s="20"/>
       <c r="C76" s="27" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D76" s="20" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E76" s="20">
         <v>5</v>
       </c>
       <c r="F76" s="20" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G76" s="20">
         <v>20</v>
       </c>
       <c r="H76" s="20" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="I76" s="20">
         <v>15</v>
@@ -9221,19 +9243,19 @@
       <c r="BM76" s="1"/>
       <c r="BN76" s="1"/>
       <c r="BO76" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="BP76" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="BP76" s="1" t="s">
+      <c r="BQ76" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="BR76" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="BS76" s="1" t="s">
         <v>122</v>
-      </c>
-      <c r="BQ76" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="BR76" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="BS76" s="1" t="s">
-        <v>123</v>
       </c>
       <c r="BT76" s="1"/>
       <c r="BU76" s="1"/>
@@ -9269,16 +9291,16 @@
     <row r="77" spans="1:101">
       <c r="B77" s="20"/>
       <c r="C77" s="27" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D77" s="20" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E77" s="20">
         <v>5</v>
       </c>
       <c r="F77" s="20" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G77" s="20">
         <v>15</v>
@@ -9345,19 +9367,19 @@
       <c r="BM77" s="1"/>
       <c r="BN77" s="1"/>
       <c r="BO77" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="BP77" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="BP77" s="1" t="s">
+      <c r="BQ77" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="BR77" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="BS77" s="1" t="s">
         <v>122</v>
-      </c>
-      <c r="BQ77" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="BR77" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="BS77" s="1" t="s">
-        <v>123</v>
       </c>
       <c r="BT77" s="1"/>
       <c r="BU77" s="1"/>
@@ -9459,19 +9481,19 @@
       <c r="BM78" s="1"/>
       <c r="BN78" s="1"/>
       <c r="BO78" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="BP78" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="BP78" s="1" t="s">
+      <c r="BQ78" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="BR78" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="BS78" s="1" t="s">
         <v>122</v>
-      </c>
-      <c r="BQ78" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="BR78" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="BS78" s="1" t="s">
-        <v>123</v>
       </c>
       <c r="BT78" s="1"/>
       <c r="BU78" s="1"/>
@@ -9610,7 +9632,7 @@
       <c r="A80"/>
       <c r="B80" s="19"/>
       <c r="C80" s="28" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D80" s="19"/>
       <c r="E80" s="19"/>
@@ -9719,7 +9741,7 @@
       </c>
       <c r="B81" s="39"/>
       <c r="C81" s="34" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D81" s="20"/>
       <c r="E81" s="20"/>
@@ -9828,7 +9850,7 @@
         <v>651</v>
       </c>
       <c r="C82" s="27" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D82" s="20" t="s">
         <v>57</v>
@@ -9840,7 +9862,7 @@
       <c r="G82" s="20"/>
       <c r="H82" s="20"/>
       <c r="I82" s="33" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="J82" s="21"/>
       <c r="K82" s="21"/>
@@ -9902,19 +9924,19 @@
       <c r="BM82" s="1"/>
       <c r="BN82" s="1"/>
       <c r="BO82" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="BP82" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="BP82" s="1" t="s">
+      <c r="BQ82" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="BR82" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="BS82" s="1" t="s">
         <v>122</v>
-      </c>
-      <c r="BQ82" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="BR82" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="BS82" s="1" t="s">
-        <v>123</v>
       </c>
       <c r="BT82" s="1"/>
       <c r="BU82" s="1"/>
@@ -9955,7 +9977,7 @@
         <v>652</v>
       </c>
       <c r="C83" s="27" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D83" s="20" t="s">
         <v>57</v>
@@ -9967,7 +9989,7 @@
       <c r="G83" s="20"/>
       <c r="H83" s="20"/>
       <c r="I83" s="33" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="J83" s="21"/>
       <c r="K83" s="21"/>
@@ -10029,19 +10051,19 @@
       <c r="BM83" s="1"/>
       <c r="BN83" s="1"/>
       <c r="BO83" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="BP83" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="BP83" s="1" t="s">
+      <c r="BQ83" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="BR83" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="BS83" s="1" t="s">
         <v>122</v>
-      </c>
-      <c r="BQ83" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="BR83" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="BS83" s="1" t="s">
-        <v>123</v>
       </c>
       <c r="BT83" s="1"/>
       <c r="BU83" s="1"/>
@@ -10077,7 +10099,7 @@
     <row r="84" spans="1:101">
       <c r="B84" s="20"/>
       <c r="C84" s="34" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D84" s="20"/>
       <c r="E84" s="20"/>
@@ -10186,7 +10208,7 @@
         <v>653</v>
       </c>
       <c r="C85" s="27" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D85" s="20" t="s">
         <v>57</v>
@@ -10198,7 +10220,7 @@
       <c r="G85" s="20"/>
       <c r="H85" s="20"/>
       <c r="I85" s="20" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="J85" s="21"/>
       <c r="K85" s="21"/>
@@ -10260,19 +10282,19 @@
       <c r="BM85" s="1"/>
       <c r="BN85" s="1"/>
       <c r="BO85" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="BP85" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="BP85" s="1" t="s">
+      <c r="BQ85" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="BR85" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="BS85" s="1" t="s">
         <v>122</v>
-      </c>
-      <c r="BQ85" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="BR85" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="BS85" s="1" t="s">
-        <v>123</v>
       </c>
       <c r="BT85" s="1"/>
       <c r="BU85" s="1"/>
@@ -10313,7 +10335,7 @@
         <v>654</v>
       </c>
       <c r="C86" s="27" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D86" s="20" t="s">
         <v>59</v>
@@ -10325,7 +10347,7 @@
       <c r="G86" s="20"/>
       <c r="H86" s="20"/>
       <c r="I86" s="20" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="J86" s="21"/>
       <c r="K86" s="21"/>
@@ -10387,19 +10409,19 @@
       <c r="BM86" s="1"/>
       <c r="BN86" s="1"/>
       <c r="BO86" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="BP86" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="BP86" s="1" t="s">
+      <c r="BQ86" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="BR86" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="BS86" s="1" t="s">
         <v>122</v>
-      </c>
-      <c r="BQ86" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="BR86" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="BS86" s="1" t="s">
-        <v>123</v>
       </c>
       <c r="BT86" s="1"/>
       <c r="BU86" s="1"/>
@@ -10440,7 +10462,7 @@
         <v>655</v>
       </c>
       <c r="C87" s="27" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D87" s="20" t="s">
         <v>59</v>
@@ -10452,7 +10474,7 @@
       <c r="G87" s="20"/>
       <c r="H87" s="20"/>
       <c r="I87" s="20" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="J87" s="21"/>
       <c r="K87" s="21"/>
@@ -10514,19 +10536,19 @@
       <c r="BM87" s="1"/>
       <c r="BN87" s="1"/>
       <c r="BO87" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="BP87" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="BP87" s="1" t="s">
+      <c r="BQ87" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="BR87" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="BS87" s="1" t="s">
         <v>122</v>
-      </c>
-      <c r="BQ87" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="BR87" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="BS87" s="1" t="s">
-        <v>123</v>
       </c>
       <c r="BT87" s="1"/>
       <c r="BU87" s="1"/>
@@ -10567,7 +10589,7 @@
         <v>656</v>
       </c>
       <c r="C88" s="27" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D88" s="20" t="s">
         <v>59</v>
@@ -10579,7 +10601,7 @@
       <c r="G88" s="20"/>
       <c r="H88" s="20"/>
       <c r="I88" s="20" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="J88" s="21"/>
       <c r="K88" s="21"/>
@@ -10641,19 +10663,19 @@
       <c r="BM88" s="1"/>
       <c r="BN88" s="1"/>
       <c r="BO88" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="BP88" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="BP88" s="1" t="s">
+      <c r="BQ88" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="BR88" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="BS88" s="1" t="s">
         <v>122</v>
-      </c>
-      <c r="BQ88" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="BR88" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="BS88" s="1" t="s">
-        <v>123</v>
       </c>
       <c r="BT88" s="1"/>
       <c r="BU88" s="1"/>
@@ -10694,7 +10716,7 @@
         <v>657</v>
       </c>
       <c r="C89" s="34" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D89" s="20" t="s">
         <v>56</v>
@@ -10706,7 +10728,7 @@
       <c r="G89" s="20"/>
       <c r="H89" s="20"/>
       <c r="I89" s="20" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="J89" s="21"/>
       <c r="K89" s="21"/>
@@ -10768,19 +10790,19 @@
       <c r="BM89" s="1"/>
       <c r="BN89" s="1"/>
       <c r="BO89" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="BP89" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="BP89" s="1" t="s">
+      <c r="BQ89" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="BR89" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="BS89" s="1" t="s">
         <v>122</v>
-      </c>
-      <c r="BQ89" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="BR89" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="BS89" s="1" t="s">
-        <v>123</v>
       </c>
       <c r="BT89" s="1"/>
       <c r="BU89" s="1"/>
@@ -10821,7 +10843,7 @@
         <v>658</v>
       </c>
       <c r="C90" s="34" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D90" s="20" t="s">
         <v>59</v>
@@ -10833,7 +10855,7 @@
       <c r="G90" s="20"/>
       <c r="H90" s="20"/>
       <c r="I90" s="20" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="J90" s="21"/>
       <c r="K90" s="21"/>
@@ -10895,19 +10917,19 @@
       <c r="BM90" s="1"/>
       <c r="BN90" s="1"/>
       <c r="BO90" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="BP90" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="BP90" s="1" t="s">
+      <c r="BQ90" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="BR90" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="BS90" s="1" t="s">
         <v>122</v>
-      </c>
-      <c r="BQ90" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="BR90" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="BS90" s="1" t="s">
-        <v>123</v>
       </c>
       <c r="BT90" s="1"/>
       <c r="BU90" s="1"/>
@@ -10945,10 +10967,10 @@
         <v>659</v>
       </c>
       <c r="C91" s="34" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D91" s="20" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E91" s="20">
         <v>3</v>
@@ -10957,7 +10979,7 @@
       <c r="G91" s="20"/>
       <c r="H91" s="20"/>
       <c r="I91" s="20" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="J91" s="21"/>
       <c r="K91" s="21"/>
@@ -11019,19 +11041,19 @@
       <c r="BM91" s="1"/>
       <c r="BN91" s="1"/>
       <c r="BO91" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="BP91" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="BP91" s="1" t="s">
+      <c r="BQ91" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="BR91" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="BS91" s="1" t="s">
         <v>122</v>
-      </c>
-      <c r="BQ91" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="BR91" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="BS91" s="1" t="s">
-        <v>123</v>
       </c>
       <c r="BT91" s="1"/>
       <c r="BU91" s="1"/>
@@ -11069,10 +11091,10 @@
         <v>660</v>
       </c>
       <c r="C92" s="34" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D92" s="20" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E92" s="20">
         <v>3</v>
@@ -11081,7 +11103,7 @@
       <c r="G92" s="20"/>
       <c r="H92" s="20"/>
       <c r="I92" s="20" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="J92" s="21"/>
       <c r="K92" s="21"/>
@@ -11143,19 +11165,19 @@
       <c r="BM92" s="1"/>
       <c r="BN92" s="1"/>
       <c r="BO92" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="BP92" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="BP92" s="1" t="s">
+      <c r="BQ92" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="BR92" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="BS92" s="1" t="s">
         <v>122</v>
-      </c>
-      <c r="BQ92" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="BR92" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="BS92" s="1" t="s">
-        <v>123</v>
       </c>
       <c r="BT92" s="1"/>
       <c r="BU92" s="1"/>
@@ -11196,10 +11218,10 @@
         <v>601</v>
       </c>
       <c r="C93" s="34" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D93" s="20" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E93" s="20">
         <v>3</v>
@@ -11208,7 +11230,7 @@
       <c r="G93" s="20"/>
       <c r="H93" s="20"/>
       <c r="I93" s="20" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="J93" s="21"/>
       <c r="K93" s="21"/>
@@ -11270,19 +11292,19 @@
       <c r="BM93" s="1"/>
       <c r="BN93" s="1"/>
       <c r="BO93" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="BP93" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="BP93" s="1" t="s">
+      <c r="BQ93" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="BR93" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="BS93" s="1" t="s">
         <v>122</v>
-      </c>
-      <c r="BQ93" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="BR93" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="BS93" s="1" t="s">
-        <v>123</v>
       </c>
       <c r="BT93" s="1"/>
       <c r="BU93" s="1"/>
@@ -11323,7 +11345,7 @@
         <v>662</v>
       </c>
       <c r="C94" s="27" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D94" s="20" t="s">
         <v>56</v>
@@ -11432,7 +11454,7 @@
       <c r="A95"/>
       <c r="B95" s="19"/>
       <c r="C95" s="28" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D95" s="19"/>
       <c r="E95" s="19"/>
@@ -11536,10 +11558,10 @@
     <row r="96" spans="1:101">
       <c r="B96" s="20"/>
       <c r="C96" s="33" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D96" s="20" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E96" s="20">
         <v>5</v>
@@ -11644,10 +11666,10 @@
     <row r="97" spans="1:101">
       <c r="B97" s="20"/>
       <c r="C97" s="33" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D97" s="20" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E97" s="20">
         <v>5</v>
@@ -11752,7 +11774,7 @@
     <row r="98" spans="1:101">
       <c r="B98" s="20"/>
       <c r="C98" s="33" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D98" s="20" t="s">
         <v>56</v>
@@ -11860,10 +11882,10 @@
     <row r="99" spans="1:101">
       <c r="B99" s="20"/>
       <c r="C99" s="33" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D99" s="20" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E99" s="20">
         <v>5</v>
@@ -11968,10 +11990,10 @@
     <row r="100" spans="1:101">
       <c r="B100" s="20"/>
       <c r="C100" s="33" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D100" s="20" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E100" s="20">
         <v>5</v>
@@ -12076,10 +12098,10 @@
     <row r="101" spans="1:101">
       <c r="B101" s="20"/>
       <c r="C101" s="33" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D101" s="20" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E101" s="20">
         <v>15</v>
@@ -12289,16 +12311,16 @@
     <row r="103" spans="1:101">
       <c r="B103" s="20"/>
       <c r="C103" s="27" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D103" s="20" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E103" s="20">
         <v>10</v>
       </c>
       <c r="F103" s="20" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G103" s="20">
         <v>5</v>
@@ -12610,7 +12632,7 @@
     <row r="106" spans="1:101">
       <c r="B106" s="20"/>
       <c r="C106" s="27" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D106" s="20" t="s">
         <v>57</v>
@@ -12619,7 +12641,7 @@
         <v>25</v>
       </c>
       <c r="F106" s="20" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G106" s="20">
         <v>5</v>
@@ -12686,19 +12708,19 @@
       <c r="BM106" s="1"/>
       <c r="BN106" s="1"/>
       <c r="BO106" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="BP106" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="BP106" s="1" t="s">
+      <c r="BQ106" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="BR106" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="BS106" s="1" t="s">
         <v>122</v>
-      </c>
-      <c r="BQ106" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="BR106" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="BS106" s="1" t="s">
-        <v>123</v>
       </c>
       <c r="BT106" s="1"/>
       <c r="BU106" s="1"/>
@@ -12734,7 +12756,7 @@
     <row r="107" spans="1:101">
       <c r="B107" s="20"/>
       <c r="C107" s="27" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D107" s="20" t="s">
         <v>57</v>
@@ -12743,13 +12765,13 @@
         <v>25</v>
       </c>
       <c r="F107" s="20" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="G107" s="20">
         <v>15</v>
       </c>
       <c r="H107" s="20" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="I107" s="20">
         <v>2</v>
@@ -12814,19 +12836,19 @@
       <c r="BM107" s="1"/>
       <c r="BN107" s="1"/>
       <c r="BO107" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="BP107" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="BP107" s="1" t="s">
+      <c r="BQ107" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="BR107" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="BS107" s="1" t="s">
         <v>122</v>
-      </c>
-      <c r="BQ107" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="BR107" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="BS107" s="1" t="s">
-        <v>123</v>
       </c>
       <c r="BT107" s="1"/>
       <c r="BU107" s="1"/>
@@ -12862,7 +12884,7 @@
     <row r="108" spans="1:101">
       <c r="B108" s="20"/>
       <c r="C108" s="27" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D108" s="20" t="s">
         <v>57</v>
@@ -12934,19 +12956,19 @@
       <c r="BM108" s="1"/>
       <c r="BN108" s="1"/>
       <c r="BO108" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="BP108" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="BP108" s="1" t="s">
+      <c r="BQ108" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="BR108" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="BS108" s="1" t="s">
         <v>122</v>
-      </c>
-      <c r="BQ108" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="BR108" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="BS108" s="1" t="s">
-        <v>123</v>
       </c>
       <c r="BT108" s="1"/>
       <c r="BU108" s="1"/>
@@ -12982,7 +13004,7 @@
     <row r="109" spans="1:101" s="26" customFormat="1">
       <c r="A109"/>
       <c r="C109" s="26" t="s">
-        <v>61</v>
+        <v>187</v>
       </c>
       <c r="L109" s="26" t="s">
         <v>39</v>
@@ -12991,7 +13013,7 @@
     <row r="110" spans="1:101">
       <c r="B110" s="20"/>
       <c r="C110" s="27" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D110" s="20" t="s">
         <v>57</v>
@@ -13000,7 +13022,7 @@
         <v>10</v>
       </c>
       <c r="F110" s="20" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G110" s="20">
         <v>10</v>
@@ -13069,46 +13091,46 @@
       <c r="BM110" s="1"/>
       <c r="BN110" s="1"/>
       <c r="BO110" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="BP110" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="BP110" s="1" t="s">
+      <c r="BQ110" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="BR110" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="BS110" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="BT110" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="BU110" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="BV110" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="BW110" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="BX110" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="BY110" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="BZ110" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="CA110" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="CB110" s="1" t="s">
         <v>122</v>
-      </c>
-      <c r="BQ110" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="BR110" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="BS110" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="BT110" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="BU110" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="BV110" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="BW110" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="BX110" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="BY110" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="BZ110" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="CA110" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="CB110" s="1" t="s">
-        <v>123</v>
       </c>
       <c r="CC110" s="1"/>
       <c r="CD110" s="1"/>
@@ -13132,376 +13154,488 @@
       <c r="CV110" s="1"/>
       <c r="CW110" s="1"/>
     </row>
-    <row r="111" spans="1:101" s="18" customFormat="1">
-      <c r="A111"/>
-      <c r="B111" s="19"/>
-      <c r="C111" s="26" t="s">
+    <row r="111" spans="1:101">
+      <c r="B111" s="20"/>
+      <c r="C111" s="27" t="s">
+        <v>188</v>
+      </c>
+      <c r="D111" s="20" t="s">
+        <v>77</v>
+      </c>
+      <c r="E111" s="20">
+        <v>5</v>
+      </c>
+      <c r="F111" s="20" t="s">
+        <v>68</v>
+      </c>
+      <c r="G111" s="20">
+        <v>5</v>
+      </c>
+      <c r="H111" s="20"/>
+      <c r="I111" s="20"/>
+      <c r="J111" s="21"/>
+      <c r="K111" s="21"/>
+      <c r="L111" s="21"/>
+      <c r="M111" s="20"/>
+      <c r="N111" s="1"/>
+      <c r="O111" s="1"/>
+      <c r="P111" s="1"/>
+      <c r="Q111" s="1"/>
+      <c r="R111" s="1"/>
+      <c r="S111" s="1"/>
+      <c r="T111" s="1"/>
+      <c r="U111" s="1"/>
+      <c r="V111" s="1"/>
+      <c r="W111" s="1"/>
+      <c r="X111" s="1"/>
+      <c r="Y111" s="1"/>
+      <c r="Z111" s="1"/>
+      <c r="AA111" s="1"/>
+      <c r="AB111" s="1"/>
+      <c r="AC111" s="1"/>
+      <c r="AD111" s="1"/>
+      <c r="AE111" s="1"/>
+      <c r="AF111" s="1"/>
+      <c r="AG111" s="1"/>
+      <c r="AH111" s="1"/>
+      <c r="AI111" s="1"/>
+      <c r="AJ111" s="1"/>
+      <c r="AK111" s="1"/>
+      <c r="AL111" s="1"/>
+      <c r="AM111" s="1"/>
+      <c r="AN111" s="1"/>
+      <c r="AO111" s="1"/>
+      <c r="AP111" s="1"/>
+      <c r="AQ111" s="1"/>
+      <c r="AR111" s="1"/>
+      <c r="AS111" s="1"/>
+      <c r="AT111" s="1"/>
+      <c r="AU111" s="1"/>
+      <c r="AV111" s="1"/>
+      <c r="AW111" s="1"/>
+      <c r="AX111" s="1"/>
+      <c r="AY111" s="1"/>
+      <c r="AZ111" s="1"/>
+      <c r="BA111" s="1"/>
+      <c r="BB111" s="1"/>
+      <c r="BC111" s="1"/>
+      <c r="BD111" s="1"/>
+      <c r="BE111" s="1"/>
+      <c r="BF111" s="1"/>
+      <c r="BG111" s="1"/>
+      <c r="BH111" s="1"/>
+      <c r="BI111" s="1"/>
+      <c r="BJ111" s="1"/>
+      <c r="BK111" s="1"/>
+      <c r="BL111" s="1"/>
+      <c r="BM111" s="1"/>
+      <c r="BN111" s="1"/>
+      <c r="BO111" s="1"/>
+      <c r="BP111" s="1"/>
+      <c r="BQ111" s="1"/>
+      <c r="BR111" s="1"/>
+      <c r="BS111" s="1"/>
+      <c r="BT111" s="1"/>
+      <c r="BU111" s="1"/>
+      <c r="BV111" s="1"/>
+      <c r="BW111" s="1"/>
+      <c r="BX111" s="1"/>
+      <c r="BY111" s="1"/>
+      <c r="BZ111" s="1"/>
+      <c r="CA111" s="1"/>
+      <c r="CB111" s="1"/>
+      <c r="CC111" s="1"/>
+      <c r="CD111" s="1"/>
+      <c r="CE111" s="1"/>
+      <c r="CF111" s="1"/>
+      <c r="CG111" s="1"/>
+      <c r="CH111" s="1"/>
+      <c r="CI111" s="1"/>
+      <c r="CJ111" s="1"/>
+      <c r="CK111" s="1"/>
+      <c r="CL111" s="1"/>
+      <c r="CM111" s="1"/>
+      <c r="CN111" s="1"/>
+      <c r="CO111" s="1"/>
+      <c r="CP111" s="1"/>
+      <c r="CQ111" s="1"/>
+      <c r="CR111" s="1"/>
+      <c r="CS111" s="1"/>
+      <c r="CT111" s="1"/>
+      <c r="CU111" s="1"/>
+      <c r="CV111" s="1"/>
+      <c r="CW111" s="1"/>
+    </row>
+    <row r="112" spans="1:101" s="18" customFormat="1">
+      <c r="A112"/>
+      <c r="B112" s="19"/>
+      <c r="C112" s="26" t="s">
         <v>53</v>
       </c>
-      <c r="D111" s="19"/>
-      <c r="E111" s="19"/>
-      <c r="F111" s="19"/>
-      <c r="G111" s="19"/>
-      <c r="H111" s="19"/>
-      <c r="I111" s="19"/>
-      <c r="J111" s="19"/>
-      <c r="K111" s="19"/>
-      <c r="L111" s="19"/>
-      <c r="M111" s="19"/>
-      <c r="N111" s="19"/>
-      <c r="O111" s="19"/>
-      <c r="P111" s="19"/>
-      <c r="Q111" s="19"/>
-      <c r="R111" s="19"/>
-      <c r="S111" s="19"/>
-      <c r="T111" s="19"/>
-      <c r="U111" s="19"/>
-      <c r="V111" s="19"/>
-      <c r="W111" s="19"/>
-      <c r="X111" s="19"/>
-      <c r="Y111" s="19"/>
-      <c r="Z111" s="19"/>
-      <c r="AA111" s="19"/>
-      <c r="AB111" s="19"/>
-      <c r="AC111" s="19"/>
-      <c r="AD111" s="19"/>
-      <c r="AE111" s="19"/>
-      <c r="AF111" s="19"/>
-      <c r="AG111" s="19"/>
-      <c r="AH111" s="19"/>
-      <c r="AI111" s="19"/>
-      <c r="AJ111" s="19"/>
-      <c r="AK111" s="19"/>
-      <c r="AL111" s="19"/>
-      <c r="AM111" s="19"/>
-      <c r="AN111" s="19"/>
-      <c r="AO111" s="19"/>
-      <c r="AP111" s="19"/>
-      <c r="AQ111" s="19"/>
-      <c r="AR111" s="19"/>
-      <c r="AS111" s="19"/>
-      <c r="AT111" s="19"/>
-      <c r="AU111" s="19"/>
-      <c r="AV111" s="19"/>
-      <c r="AW111" s="19"/>
-      <c r="AX111" s="19"/>
-      <c r="AY111" s="19"/>
-      <c r="AZ111" s="19"/>
-      <c r="BA111" s="19"/>
-      <c r="BB111" s="19"/>
-      <c r="BC111" s="19"/>
-      <c r="BD111" s="19"/>
-      <c r="BE111" s="19"/>
-      <c r="BF111" s="19"/>
-      <c r="BG111" s="19"/>
-      <c r="BH111" s="19"/>
-      <c r="BI111" s="19"/>
-      <c r="BJ111" s="19"/>
-      <c r="BK111" s="19"/>
-      <c r="BL111" s="19"/>
-      <c r="BM111" s="19"/>
-      <c r="BN111" s="19"/>
-      <c r="BO111" s="19"/>
-      <c r="BP111" s="19"/>
-      <c r="BQ111" s="19"/>
-      <c r="BR111" s="19"/>
-      <c r="BS111" s="19"/>
-      <c r="BT111" s="19"/>
-      <c r="BU111" s="19"/>
-      <c r="BV111" s="19"/>
-      <c r="BW111" s="19"/>
-      <c r="BX111" s="19"/>
-      <c r="BY111" s="19"/>
-      <c r="BZ111" s="19"/>
-      <c r="CA111" s="19"/>
-      <c r="CB111" s="19"/>
-      <c r="CC111" s="19"/>
-      <c r="CD111" s="19"/>
-      <c r="CE111" s="19"/>
-      <c r="CF111" s="19"/>
-      <c r="CG111" s="19"/>
-      <c r="CH111" s="19"/>
-      <c r="CI111" s="19"/>
-      <c r="CJ111" s="19"/>
-      <c r="CK111" s="19"/>
-      <c r="CL111" s="19"/>
-      <c r="CM111" s="19"/>
-      <c r="CN111" s="19"/>
-      <c r="CO111" s="19"/>
-      <c r="CP111" s="19"/>
-      <c r="CQ111" s="19"/>
-      <c r="CR111" s="19"/>
-      <c r="CS111" s="19"/>
-      <c r="CT111" s="19"/>
-      <c r="CU111" s="19"/>
-      <c r="CV111" s="19"/>
-      <c r="CW111" s="19"/>
+      <c r="D112" s="19"/>
+      <c r="E112" s="19"/>
+      <c r="F112" s="19"/>
+      <c r="G112" s="19"/>
+      <c r="H112" s="19"/>
+      <c r="I112" s="19"/>
+      <c r="J112" s="19"/>
+      <c r="K112" s="19"/>
+      <c r="L112" s="19"/>
+      <c r="M112" s="19"/>
+      <c r="N112" s="19"/>
+      <c r="O112" s="19"/>
+      <c r="P112" s="19"/>
+      <c r="Q112" s="19"/>
+      <c r="R112" s="19"/>
+      <c r="S112" s="19"/>
+      <c r="T112" s="19"/>
+      <c r="U112" s="19"/>
+      <c r="V112" s="19"/>
+      <c r="W112" s="19"/>
+      <c r="X112" s="19"/>
+      <c r="Y112" s="19"/>
+      <c r="Z112" s="19"/>
+      <c r="AA112" s="19"/>
+      <c r="AB112" s="19"/>
+      <c r="AC112" s="19"/>
+      <c r="AD112" s="19"/>
+      <c r="AE112" s="19"/>
+      <c r="AF112" s="19"/>
+      <c r="AG112" s="19"/>
+      <c r="AH112" s="19"/>
+      <c r="AI112" s="19"/>
+      <c r="AJ112" s="19"/>
+      <c r="AK112" s="19"/>
+      <c r="AL112" s="19"/>
+      <c r="AM112" s="19"/>
+      <c r="AN112" s="19"/>
+      <c r="AO112" s="19"/>
+      <c r="AP112" s="19"/>
+      <c r="AQ112" s="19"/>
+      <c r="AR112" s="19"/>
+      <c r="AS112" s="19"/>
+      <c r="AT112" s="19"/>
+      <c r="AU112" s="19"/>
+      <c r="AV112" s="19"/>
+      <c r="AW112" s="19"/>
+      <c r="AX112" s="19"/>
+      <c r="AY112" s="19"/>
+      <c r="AZ112" s="19"/>
+      <c r="BA112" s="19"/>
+      <c r="BB112" s="19"/>
+      <c r="BC112" s="19"/>
+      <c r="BD112" s="19"/>
+      <c r="BE112" s="19"/>
+      <c r="BF112" s="19"/>
+      <c r="BG112" s="19"/>
+      <c r="BH112" s="19"/>
+      <c r="BI112" s="19"/>
+      <c r="BJ112" s="19"/>
+      <c r="BK112" s="19"/>
+      <c r="BL112" s="19"/>
+      <c r="BM112" s="19"/>
+      <c r="BN112" s="19"/>
+      <c r="BO112" s="19"/>
+      <c r="BP112" s="19"/>
+      <c r="BQ112" s="19"/>
+      <c r="BR112" s="19"/>
+      <c r="BS112" s="19"/>
+      <c r="BT112" s="19"/>
+      <c r="BU112" s="19"/>
+      <c r="BV112" s="19"/>
+      <c r="BW112" s="19"/>
+      <c r="BX112" s="19"/>
+      <c r="BY112" s="19"/>
+      <c r="BZ112" s="19"/>
+      <c r="CA112" s="19"/>
+      <c r="CB112" s="19"/>
+      <c r="CC112" s="19"/>
+      <c r="CD112" s="19"/>
+      <c r="CE112" s="19"/>
+      <c r="CF112" s="19"/>
+      <c r="CG112" s="19"/>
+      <c r="CH112" s="19"/>
+      <c r="CI112" s="19"/>
+      <c r="CJ112" s="19"/>
+      <c r="CK112" s="19"/>
+      <c r="CL112" s="19"/>
+      <c r="CM112" s="19"/>
+      <c r="CN112" s="19"/>
+      <c r="CO112" s="19"/>
+      <c r="CP112" s="19"/>
+      <c r="CQ112" s="19"/>
+      <c r="CR112" s="19"/>
+      <c r="CS112" s="19"/>
+      <c r="CT112" s="19"/>
+      <c r="CU112" s="19"/>
+      <c r="CV112" s="19"/>
+      <c r="CW112" s="19"/>
     </row>
-    <row r="112" spans="1:101">
-      <c r="B112" s="20"/>
-      <c r="C112" s="27" t="s">
-        <v>172</v>
-      </c>
-      <c r="D112" s="20" t="s">
+    <row r="113" spans="1:101">
+      <c r="B113" s="20"/>
+      <c r="C113" s="27" t="s">
+        <v>171</v>
+      </c>
+      <c r="D113" s="20" t="s">
         <v>57</v>
       </c>
-      <c r="E112" s="20">
+      <c r="E113" s="20">
         <v>10</v>
       </c>
-      <c r="F112" s="20" t="s">
-        <v>69</v>
-      </c>
-      <c r="G112" s="20">
+      <c r="F113" s="20" t="s">
+        <v>68</v>
+      </c>
+      <c r="G113" s="20">
         <v>10</v>
       </c>
     </row>
-    <row r="115" spans="1:101" s="22" customFormat="1">
-      <c r="A115"/>
-      <c r="C115" s="30" t="s">
+    <row r="116" spans="1:101" s="22" customFormat="1">
+      <c r="A116"/>
+      <c r="C116" s="30" t="s">
         <v>51</v>
       </c>
-      <c r="J115" s="23"/>
-      <c r="K115" s="23"/>
-      <c r="L115" s="23"/>
-      <c r="N115" s="23">
+      <c r="J116" s="23"/>
+      <c r="K116" s="23"/>
+      <c r="L116" s="23"/>
+      <c r="N116" s="23">
         <f>N17</f>
         <v>41133</v>
       </c>
-      <c r="O115" s="23">
-        <f t="shared" ref="O115:BH115" si="8">O17</f>
+      <c r="O116" s="23">
+        <f t="shared" ref="O116:BH116" si="8">O17</f>
         <v>41134</v>
       </c>
-      <c r="P115" s="23">
+      <c r="P116" s="23">
         <f t="shared" si="8"/>
         <v>41135</v>
       </c>
-      <c r="Q115" s="23">
+      <c r="Q116" s="23">
         <f t="shared" si="8"/>
         <v>41136</v>
       </c>
-      <c r="R115" s="23">
+      <c r="R116" s="23">
         <f t="shared" si="8"/>
         <v>41137</v>
       </c>
-      <c r="S115" s="23">
+      <c r="S116" s="23">
         <f t="shared" si="8"/>
         <v>41138</v>
       </c>
-      <c r="T115" s="23">
+      <c r="T116" s="23">
         <f t="shared" si="8"/>
         <v>41139</v>
       </c>
-      <c r="U115" s="23">
+      <c r="U116" s="23">
         <f t="shared" si="8"/>
         <v>41140</v>
       </c>
-      <c r="V115" s="23">
+      <c r="V116" s="23">
         <f t="shared" si="8"/>
         <v>41141</v>
       </c>
-      <c r="W115" s="23">
+      <c r="W116" s="23">
         <f t="shared" si="8"/>
         <v>41142</v>
       </c>
-      <c r="X115" s="23">
+      <c r="X116" s="23">
         <f t="shared" si="8"/>
         <v>41143</v>
       </c>
-      <c r="Y115" s="23">
+      <c r="Y116" s="23">
         <f t="shared" si="8"/>
         <v>41144</v>
       </c>
-      <c r="Z115" s="23">
+      <c r="Z116" s="23">
         <f t="shared" si="8"/>
         <v>41145</v>
       </c>
-      <c r="AA115" s="23">
+      <c r="AA116" s="23">
         <f t="shared" si="8"/>
         <v>41146</v>
       </c>
-      <c r="AB115" s="23">
+      <c r="AB116" s="23">
         <f t="shared" si="8"/>
         <v>41147</v>
       </c>
-      <c r="AC115" s="23">
+      <c r="AC116" s="23">
         <f t="shared" si="8"/>
         <v>41148</v>
       </c>
-      <c r="AD115" s="23">
+      <c r="AD116" s="23">
         <f t="shared" si="8"/>
         <v>41149</v>
       </c>
-      <c r="AE115" s="23">
+      <c r="AE116" s="23">
         <f t="shared" si="8"/>
         <v>41150</v>
       </c>
-      <c r="AF115" s="23">
+      <c r="AF116" s="23">
         <f t="shared" si="8"/>
         <v>41151</v>
       </c>
-      <c r="AG115" s="23">
+      <c r="AG116" s="23">
         <f t="shared" si="8"/>
         <v>41152</v>
       </c>
-      <c r="AH115" s="23">
+      <c r="AH116" s="23">
         <f t="shared" si="8"/>
         <v>41153</v>
       </c>
-      <c r="AI115" s="23">
+      <c r="AI116" s="23">
         <f t="shared" si="8"/>
         <v>41154</v>
       </c>
-      <c r="AJ115" s="23">
+      <c r="AJ116" s="23">
         <f t="shared" si="8"/>
         <v>41155</v>
       </c>
-      <c r="AK115" s="23">
+      <c r="AK116" s="23">
         <f t="shared" si="8"/>
         <v>41156</v>
       </c>
-      <c r="AL115" s="23">
+      <c r="AL116" s="23">
         <f t="shared" si="8"/>
         <v>41157</v>
       </c>
-      <c r="AM115" s="23">
+      <c r="AM116" s="23">
         <f t="shared" si="8"/>
         <v>41158</v>
       </c>
-      <c r="AN115" s="23">
+      <c r="AN116" s="23">
         <f t="shared" si="8"/>
         <v>41159</v>
       </c>
-      <c r="AO115" s="23">
+      <c r="AO116" s="23">
         <f t="shared" si="8"/>
         <v>41160</v>
       </c>
-      <c r="AP115" s="23">
+      <c r="AP116" s="23">
         <f t="shared" si="8"/>
         <v>41161</v>
       </c>
-      <c r="AQ115" s="23">
+      <c r="AQ116" s="23">
         <f t="shared" si="8"/>
         <v>41162</v>
       </c>
-      <c r="AR115" s="23">
+      <c r="AR116" s="23">
         <f t="shared" si="8"/>
         <v>41163</v>
       </c>
-      <c r="AS115" s="23">
+      <c r="AS116" s="23">
         <f t="shared" si="8"/>
         <v>41164</v>
       </c>
-      <c r="AT115" s="23">
+      <c r="AT116" s="23">
         <f t="shared" si="8"/>
         <v>41165</v>
       </c>
-      <c r="AU115" s="23">
+      <c r="AU116" s="23">
         <f t="shared" si="8"/>
         <v>41166</v>
       </c>
-      <c r="AV115" s="23">
+      <c r="AV116" s="23">
         <f t="shared" si="8"/>
         <v>41167</v>
       </c>
-      <c r="AW115" s="23">
+      <c r="AW116" s="23">
         <f t="shared" si="8"/>
         <v>41168</v>
       </c>
-      <c r="AX115" s="23">
+      <c r="AX116" s="23">
         <f t="shared" si="8"/>
         <v>41169</v>
       </c>
-      <c r="AY115" s="23">
+      <c r="AY116" s="23">
         <f t="shared" si="8"/>
         <v>41170</v>
       </c>
-      <c r="AZ115" s="23">
+      <c r="AZ116" s="23">
         <f t="shared" si="8"/>
         <v>41171</v>
       </c>
-      <c r="BA115" s="23">
+      <c r="BA116" s="23">
         <f t="shared" si="8"/>
         <v>41172</v>
       </c>
-      <c r="BB115" s="23">
+      <c r="BB116" s="23">
         <f t="shared" si="8"/>
         <v>41173</v>
       </c>
-      <c r="BC115" s="23">
+      <c r="BC116" s="23">
         <f t="shared" si="8"/>
         <v>41174</v>
       </c>
-      <c r="BD115" s="23">
+      <c r="BD116" s="23">
         <f t="shared" si="8"/>
         <v>41175</v>
       </c>
-      <c r="BE115" s="23">
+      <c r="BE116" s="23">
         <f t="shared" si="8"/>
         <v>41176</v>
       </c>
-      <c r="BF115" s="23">
+      <c r="BF116" s="23">
         <f t="shared" si="8"/>
         <v>41177</v>
       </c>
-      <c r="BG115" s="23">
+      <c r="BG116" s="23">
         <f t="shared" si="8"/>
         <v>41178</v>
       </c>
-      <c r="BH115" s="23">
+      <c r="BH116" s="23">
         <f t="shared" si="8"/>
         <v>41179</v>
       </c>
-      <c r="BI115" s="23"/>
-      <c r="BJ115" s="23"/>
-      <c r="BK115" s="23"/>
-      <c r="BL115" s="23"/>
-      <c r="BM115" s="23"/>
-      <c r="BN115" s="23"/>
-      <c r="BO115" s="23"/>
-      <c r="BP115" s="23"/>
-      <c r="BQ115" s="23"/>
-      <c r="BR115" s="23"/>
-      <c r="BS115" s="23"/>
-      <c r="BT115" s="23"/>
-      <c r="BU115" s="23"/>
-      <c r="BV115" s="23"/>
-      <c r="BW115" s="23"/>
-      <c r="BX115" s="23"/>
-      <c r="BY115" s="23"/>
-      <c r="BZ115" s="23"/>
-      <c r="CA115" s="23"/>
-      <c r="CB115" s="23"/>
-      <c r="CC115" s="23"/>
-      <c r="CD115" s="23"/>
-      <c r="CE115" s="23"/>
-      <c r="CF115" s="23"/>
-      <c r="CG115" s="23"/>
-      <c r="CH115" s="23"/>
-      <c r="CI115" s="23"/>
-      <c r="CJ115" s="23"/>
-      <c r="CK115" s="23"/>
-      <c r="CL115" s="23"/>
-      <c r="CM115" s="23"/>
-      <c r="CN115" s="23"/>
-      <c r="CO115" s="23"/>
-      <c r="CP115" s="23"/>
-      <c r="CQ115" s="23"/>
-      <c r="CR115" s="23"/>
-      <c r="CS115" s="23"/>
-      <c r="CT115" s="23"/>
-      <c r="CU115" s="23"/>
-      <c r="CV115" s="23"/>
-      <c r="CW115" s="23"/>
+      <c r="BI116" s="23"/>
+      <c r="BJ116" s="23"/>
+      <c r="BK116" s="23"/>
+      <c r="BL116" s="23"/>
+      <c r="BM116" s="23"/>
+      <c r="BN116" s="23"/>
+      <c r="BO116" s="23"/>
+      <c r="BP116" s="23"/>
+      <c r="BQ116" s="23"/>
+      <c r="BR116" s="23"/>
+      <c r="BS116" s="23"/>
+      <c r="BT116" s="23"/>
+      <c r="BU116" s="23"/>
+      <c r="BV116" s="23"/>
+      <c r="BW116" s="23"/>
+      <c r="BX116" s="23"/>
+      <c r="BY116" s="23"/>
+      <c r="BZ116" s="23"/>
+      <c r="CA116" s="23"/>
+      <c r="CB116" s="23"/>
+      <c r="CC116" s="23"/>
+      <c r="CD116" s="23"/>
+      <c r="CE116" s="23"/>
+      <c r="CF116" s="23"/>
+      <c r="CG116" s="23"/>
+      <c r="CH116" s="23"/>
+      <c r="CI116" s="23"/>
+      <c r="CJ116" s="23"/>
+      <c r="CK116" s="23"/>
+      <c r="CL116" s="23"/>
+      <c r="CM116" s="23"/>
+      <c r="CN116" s="23"/>
+      <c r="CO116" s="23"/>
+      <c r="CP116" s="23"/>
+      <c r="CQ116" s="23"/>
+      <c r="CR116" s="23"/>
+      <c r="CS116" s="23"/>
+      <c r="CT116" s="23"/>
+      <c r="CU116" s="23"/>
+      <c r="CV116" s="23"/>
+      <c r="CW116" s="23"/>
     </row>
   </sheetData>
-  <autoFilter ref="A17:BH111">
+  <autoFilter ref="A17:BH112">
     <filterColumn colId="4"/>
     <filterColumn colId="6"/>
   </autoFilter>
   <sortState ref="C2:D16">
     <sortCondition ref="C2"/>
   </sortState>
-  <conditionalFormatting sqref="N112:BA112 N103:CW104 N96:CW101 N81:CW94 N67:CW79 N106:CW108 N110:CW110 N41:CW48 N50:CW54 N56:BN65 BT56:CW65 BO61:BS65 BQ56:BS59 BO56:BP60 N20:CW39">
+  <conditionalFormatting sqref="N113:BA113 N103:CW104 N96:CW101 N81:CW94 N67:CW79 N106:CW108 N110:CW111 N41:CW48 N50:CW54 N56:BN65 BT56:CW65 BO61:BS65 BQ56:BS59 BO56:BP60 N20:CW39">
     <cfRule type="cellIs" dxfId="5" priority="201" operator="equal">
       <formula>"-"</formula>
     </cfRule>
@@ -13512,29 +13646,29 @@
       <formula>"B"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N103:CW104 N96:CW101 N81:CW94 N67:CW79 N106:CW108 N110:CW110 N41:CW48 N50:CW54 N56:BN65 BT56:CW65 BO61:BS65 BQ56:BS59 BO56:BP60 N20:CW39">
+  <conditionalFormatting sqref="N103:CW104 N96:CW101 N81:CW94 N67:CW79 N106:CW108 N110:CW111 N41:CW48 N50:CW54 N56:BN65 BT56:CW65 BO61:BS65 BQ56:BS59 BO56:BP60 N20:CW39">
     <cfRule type="cellIs" dxfId="2" priority="200" operator="equal">
       <formula>"BE"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L103 L85:L93 L82:L83 L110 L67:L78 L106:L108 L41:L47 L56:L64 L50:L53 L20:L39">
+  <conditionalFormatting sqref="L103 L85:L93 L82:L83 L110:L111 L67:L78 L106:L108 L41:L47 L56:L64 L50:L53 L20:L39">
     <cfRule type="cellIs" dxfId="1" priority="274" operator="equal">
       <formula>$K$3</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L41:L47 L50:L53 L20:L39 L85:L93 L103 L56:L64 L82:L83 L110 L67:L78 L106:L108">
+  <conditionalFormatting sqref="L41:L47 L50:L53 L20:L39 L85:L93 L103 L56:L64 L82:L83 L110:L111 L67:L78 L106:L108">
     <cfRule type="expression" dxfId="0" priority="281">
       <formula>AND(L20&lt;&gt;$K$3,$K20&lt;TODAY())</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E67:E77 E112 G112 I107 E96:E101 D18:E39 I76 E82:E94 E103 G103 E106:E108 G106:G108 E110 G110 G56:G60 E56:E64 G50 E50:E53 I41:I47 G41:G47 E41:E47 G18:G35 F18:F23 G67:G77">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E67:E77 E113 G113 I107 E96:E101 D18:E39 I76 E82:E94 E103 G103 E106:E108 G106:G108 E110:E111 G110:G111 G56:G60 E56:E64 G50 E50:E53 I41:I47 G41:G47 E41:E47 G18:G35 F18:F23 G67:G77">
       <formula1>members</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D88:D112 H66:H111 D56:D64 D41:D48 E48 F41:F48 H41:H48 D50:D54 E54 F50:F54 H50:H54 G51:G54 H56:H64 F61:G64 F109:F112 E109 E111 G104:G105 E104:E105 G78:G102 E78:E81 E102 G48 F67:F107 G111 G109 D67:D73 D75:D86 E95 F56:F60">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D88:D113 H66:H112 D56:D64 D41:D48 E48 F41:F48 H41:H48 D50:D54 E54 F50:F54 H50:H54 G51:G54 H56:H64 F61:G64 F109:F113 E109 E112 G104:G105 E104:E105 G78:G102 E78:E81 E102 G48 F67:F107 G112 G109 D67:D73 D75:D86 E95 F56:F60">
       <formula1>$C$2:$C$16</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L82:L83 L101:L104 L85:L93 L106:L110 L67:L78 L41:L47 L50:L53 L56:L64 L20:L39">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L82:L83 L101:L104 L85:L93 L106:L111 L67:L78 L41:L47 L50:L53 L56:L64 L20:L39">
       <formula1>$K$3:$K$12</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K18:K39">
@@ -13568,7 +13702,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:IV52"/>
+  <dimension ref="A1:IV53"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="DO52" sqref="DO52"/>
@@ -14668,7 +14802,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="Q2" t="e">
-        <f>AND(Plan!B2,"AAAAAH//txA=")</f>
+        <f>AND(Plan!F2,"AAAAAH//txA=")</f>
         <v>#VALUE!</v>
       </c>
       <c r="R2" t="e">
@@ -14684,8 +14818,8 @@
         <v>#VALUE!</v>
       </c>
       <c r="U2" t="e">
-        <f>AND(Plan!F2,"AAAAAH//txQ=")</f>
-        <v>#VALUE!</v>
+        <f>AND(Plan!#REF!,"AAAAAH//txQ=")</f>
+        <v>#REF!</v>
       </c>
       <c r="V2" t="e">
         <f>AND(Plan!G2,"AAAAAH//txU=")</f>
@@ -15894,7 +16028,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="BO3" t="e">
-        <f>AND(Plan!B3,"AAAAAH/3XUI=")</f>
+        <f>AND(Plan!F3,"AAAAAH/3XUI=")</f>
         <v>#VALUE!</v>
       </c>
       <c r="BP3" t="e">
@@ -15910,8 +16044,8 @@
         <v>#VALUE!</v>
       </c>
       <c r="BS3" t="e">
-        <f>AND(Plan!F3,"AAAAAH/3XUY=")</f>
-        <v>#VALUE!</v>
+        <f>AND(Plan!#REF!,"AAAAAH/3XUY=")</f>
+        <v>#REF!</v>
       </c>
       <c r="BT3" t="e">
         <f>AND(Plan!G3,"AAAAAH/3XUc=")</f>
@@ -16302,7 +16436,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="FM3" t="e">
-        <f>AND(Plan!B4,"AAAAAH/3Xag=")</f>
+        <f>AND(Plan!F4,"AAAAAH/3Xag=")</f>
         <v>#VALUE!</v>
       </c>
       <c r="FN3" t="e">
@@ -16318,8 +16452,8 @@
         <v>#VALUE!</v>
       </c>
       <c r="FQ3" t="e">
-        <f>AND(Plan!F4,"AAAAAH/3Xaw=")</f>
-        <v>#VALUE!</v>
+        <f>AND(Plan!#REF!,"AAAAAH/3Xaw=")</f>
+        <v>#REF!</v>
       </c>
       <c r="FR3" t="e">
         <f>AND(Plan!G4,"AAAAAH/3Xa0=")</f>
@@ -16712,7 +16846,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="O4" t="e">
-        <f>AND(Plan!B5,"AAAAADq38g4=")</f>
+        <f>AND(Plan!F5,"AAAAADq38g4=")</f>
         <v>#VALUE!</v>
       </c>
       <c r="P4" t="e">
@@ -16728,8 +16862,8 @@
         <v>#VALUE!</v>
       </c>
       <c r="S4" t="e">
-        <f>AND(Plan!F5,"AAAAADq38hI=")</f>
-        <v>#VALUE!</v>
+        <f>AND(Plan!#REF!,"AAAAADq38hI=")</f>
+        <v>#REF!</v>
       </c>
       <c r="T4" t="e">
         <f>AND(Plan!#REF!,"AAAAADq38hM=")</f>
@@ -17120,7 +17254,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="DM4" t="e">
-        <f>AND(Plan!B6,"AAAAADq38nQ=")</f>
+        <f>AND(Plan!F6,"AAAAADq38nQ=")</f>
         <v>#VALUE!</v>
       </c>
       <c r="DN4" t="e">
@@ -17136,24 +17270,24 @@
         <v>#VALUE!</v>
       </c>
       <c r="DQ4" t="e">
-        <f>AND(Plan!F6,"AAAAADq38ng=")</f>
-        <v>#VALUE!</v>
+        <f>AND(Plan!#REF!,"AAAAADq38ng=")</f>
+        <v>#REF!</v>
       </c>
       <c r="DR4" t="e">
-        <f>AND(Plan!G5,"AAAAADq38nk=")</f>
-        <v>#VALUE!</v>
+        <f>AND(Plan!#REF!,"AAAAADq38nk=")</f>
+        <v>#REF!</v>
       </c>
       <c r="DS4" t="e">
         <f>AND(Plan!#REF!,"AAAAADq38no=")</f>
         <v>#REF!</v>
       </c>
       <c r="DT4" t="e">
-        <f>AND(Plan!I5,"AAAAADq38ns=")</f>
-        <v>#VALUE!</v>
+        <f>AND(Plan!#REF!,"AAAAADq38ns=")</f>
+        <v>#REF!</v>
       </c>
       <c r="DU4" t="e">
-        <f>AND(Plan!H5,"AAAAADq38nw=")</f>
-        <v>#VALUE!</v>
+        <f>AND(Plan!#REF!,"AAAAADq38nw=")</f>
+        <v>#REF!</v>
       </c>
       <c r="DV4" t="e">
         <f>AND(Plan!K6,"AAAAADq38n0=")</f>
@@ -17528,7 +17662,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="HK4" t="e">
-        <f>AND(Plan!B7,"AAAAADq38to=")</f>
+        <f>AND(Plan!F7,"AAAAADq38to=")</f>
         <v>#VALUE!</v>
       </c>
       <c r="HL4" t="e">
@@ -17544,11 +17678,11 @@
         <v>#VALUE!</v>
       </c>
       <c r="HO4" t="e">
-        <f>AND(Plan!F7,"AAAAADq38t4=")</f>
-        <v>#VALUE!</v>
+        <f>AND(Plan!#REF!,"AAAAADq38t4=")</f>
+        <v>#REF!</v>
       </c>
       <c r="HP4" t="e">
-        <f>AND(Plan!G6,"AAAAADq38t8=")</f>
+        <f>AND(Plan!G5,"AAAAADq38t8=")</f>
         <v>#VALUE!</v>
       </c>
       <c r="HQ4" t="e">
@@ -17556,11 +17690,11 @@
         <v>#REF!</v>
       </c>
       <c r="HR4" t="e">
-        <f>AND(Plan!I6,"AAAAADq38uE=")</f>
+        <f>AND(Plan!I5,"AAAAADq38uE=")</f>
         <v>#VALUE!</v>
       </c>
       <c r="HS4" t="e">
-        <f>AND(Plan!H6,"AAAAADq38uI=")</f>
+        <f>AND(Plan!H5,"AAAAADq38uI=")</f>
         <v>#VALUE!</v>
       </c>
       <c r="HT4" t="e">
@@ -17938,7 +18072,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="BM5" t="e">
-        <f>AND(Plan!B8,"AAAAAH73dkA=")</f>
+        <f>AND(Plan!F8,"AAAAAH73dkA=")</f>
         <v>#VALUE!</v>
       </c>
       <c r="BN5" t="e">
@@ -17954,11 +18088,11 @@
         <v>#VALUE!</v>
       </c>
       <c r="BQ5" t="e">
-        <f>AND(Plan!F8,"AAAAAH73dkQ=")</f>
-        <v>#VALUE!</v>
+        <f>AND(Plan!#REF!,"AAAAAH73dkQ=")</f>
+        <v>#REF!</v>
       </c>
       <c r="BR5" t="e">
-        <f>AND(Plan!G7,"AAAAAH73dkU=")</f>
+        <f>AND(Plan!G6,"AAAAAH73dkU=")</f>
         <v>#VALUE!</v>
       </c>
       <c r="BS5" t="e">
@@ -17966,11 +18100,11 @@
         <v>#REF!</v>
       </c>
       <c r="BT5" t="e">
-        <f>AND(Plan!I7,"AAAAAH73dkc=")</f>
+        <f>AND(Plan!I6,"AAAAAH73dkc=")</f>
         <v>#VALUE!</v>
       </c>
       <c r="BU5" t="e">
-        <f>AND(Plan!H7,"AAAAAH73dkg=")</f>
+        <f>AND(Plan!H6,"AAAAAH73dkg=")</f>
         <v>#VALUE!</v>
       </c>
       <c r="BV5" t="e">
@@ -18346,7 +18480,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="FK5" t="e">
-        <f>AND(Plan!B9,"AAAAAH73dqY=")</f>
+        <f>AND(Plan!F9,"AAAAAH73dqY=")</f>
         <v>#VALUE!</v>
       </c>
       <c r="FL5" t="e">
@@ -18362,11 +18496,11 @@
         <v>#VALUE!</v>
       </c>
       <c r="FO5" t="e">
-        <f>AND(Plan!F9,"AAAAAH73dqo=")</f>
-        <v>#VALUE!</v>
+        <f>AND(Plan!#REF!,"AAAAAH73dqo=")</f>
+        <v>#REF!</v>
       </c>
       <c r="FP5" t="e">
-        <f>AND(Plan!G8,"AAAAAH73dqs=")</f>
+        <f>AND(Plan!G7,"AAAAAH73dqs=")</f>
         <v>#VALUE!</v>
       </c>
       <c r="FQ5" t="e">
@@ -18374,11 +18508,11 @@
         <v>#REF!</v>
       </c>
       <c r="FR5" t="e">
-        <f>AND(Plan!I8,"AAAAAH73dq0=")</f>
+        <f>AND(Plan!I7,"AAAAAH73dq0=")</f>
         <v>#VALUE!</v>
       </c>
       <c r="FS5" t="e">
-        <f>AND(Plan!H8,"AAAAAH73dq4=")</f>
+        <f>AND(Plan!H7,"AAAAAH73dq4=")</f>
         <v>#VALUE!</v>
       </c>
       <c r="FT5" t="e">
@@ -18756,7 +18890,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="M6" t="e">
-        <f>AND(Plan!B10,"AAAAAH/rZww=")</f>
+        <f>AND(Plan!F10,"AAAAAH/rZww=")</f>
         <v>#VALUE!</v>
       </c>
       <c r="N6" t="e">
@@ -18772,11 +18906,11 @@
         <v>#VALUE!</v>
       </c>
       <c r="Q6" t="e">
-        <f>AND(Plan!F10,"AAAAAH/rZxA=")</f>
-        <v>#VALUE!</v>
+        <f>AND(Plan!#REF!,"AAAAAH/rZxA=")</f>
+        <v>#REF!</v>
       </c>
       <c r="R6" t="e">
-        <f>AND(Plan!G9,"AAAAAH/rZxE=")</f>
+        <f>AND(Plan!G8,"AAAAAH/rZxE=")</f>
         <v>#VALUE!</v>
       </c>
       <c r="S6" t="e">
@@ -18784,11 +18918,11 @@
         <v>#REF!</v>
       </c>
       <c r="T6" t="e">
-        <f>AND(Plan!I9,"AAAAAH/rZxM=")</f>
+        <f>AND(Plan!I8,"AAAAAH/rZxM=")</f>
         <v>#VALUE!</v>
       </c>
       <c r="U6" t="e">
-        <f>AND(Plan!H9,"AAAAAH/rZxQ=")</f>
+        <f>AND(Plan!H8,"AAAAAH/rZxQ=")</f>
         <v>#VALUE!</v>
       </c>
       <c r="V6" t="e">
@@ -19164,7 +19298,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="DK6" t="e">
-        <f>AND(Plan!B11,"AAAAAH/rZ3I=")</f>
+        <f>AND(Plan!F11,"AAAAAH/rZ3I=")</f>
         <v>#VALUE!</v>
       </c>
       <c r="DL6" t="e">
@@ -19180,11 +19314,11 @@
         <v>#VALUE!</v>
       </c>
       <c r="DO6" t="e">
-        <f>AND(Plan!F11,"AAAAAH/rZ3Y=")</f>
-        <v>#VALUE!</v>
+        <f>AND(Plan!#REF!,"AAAAAH/rZ3Y=")</f>
+        <v>#REF!</v>
       </c>
       <c r="DP6" t="e">
-        <f>AND(Plan!G10,"AAAAAH/rZ3c=")</f>
+        <f>AND(Plan!G9,"AAAAAH/rZ3c=")</f>
         <v>#VALUE!</v>
       </c>
       <c r="DQ6" t="e">
@@ -19192,11 +19326,11 @@
         <v>#REF!</v>
       </c>
       <c r="DR6" t="e">
-        <f>AND(Plan!I10,"AAAAAH/rZ3k=")</f>
+        <f>AND(Plan!I9,"AAAAAH/rZ3k=")</f>
         <v>#VALUE!</v>
       </c>
       <c r="DS6" t="e">
-        <f>AND(Plan!H10,"AAAAAH/rZ3o=")</f>
+        <f>AND(Plan!H9,"AAAAAH/rZ3o=")</f>
         <v>#VALUE!</v>
       </c>
       <c r="DT6" t="e">
@@ -19572,7 +19706,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="HI6" t="e">
-        <f>AND(Plan!B12,"AAAAAH/rZ9g=")</f>
+        <f>AND(Plan!F12,"AAAAAH/rZ9g=")</f>
         <v>#VALUE!</v>
       </c>
       <c r="HJ6" t="e">
@@ -19588,11 +19722,11 @@
         <v>#VALUE!</v>
       </c>
       <c r="HM6" t="e">
-        <f>AND(Plan!F12,"AAAAAH/rZ9w=")</f>
-        <v>#VALUE!</v>
+        <f>AND(Plan!#REF!,"AAAAAH/rZ9w=")</f>
+        <v>#REF!</v>
       </c>
       <c r="HN6" t="e">
-        <f>AND(Plan!G11,"AAAAAH/rZ90=")</f>
+        <f>AND(Plan!G10,"AAAAAH/rZ90=")</f>
         <v>#VALUE!</v>
       </c>
       <c r="HO6" t="e">
@@ -19600,11 +19734,11 @@
         <v>#REF!</v>
       </c>
       <c r="HP6" t="e">
-        <f>AND(Plan!I11,"AAAAAH/rZ98=")</f>
+        <f>AND(Plan!I10,"AAAAAH/rZ98=")</f>
         <v>#VALUE!</v>
       </c>
       <c r="HQ6" t="e">
-        <f>AND(Plan!H11,"AAAAAH/rZ+A=")</f>
+        <f>AND(Plan!H10,"AAAAAH/rZ+A=")</f>
         <v>#VALUE!</v>
       </c>
       <c r="HR6" t="e">
@@ -19982,7 +20116,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="BK7" t="e">
-        <f>AND(Plan!B13,"AAAAAG7bfz4=")</f>
+        <f>AND(Plan!F13,"AAAAAG7bfz4=")</f>
         <v>#VALUE!</v>
       </c>
       <c r="BL7" t="e">
@@ -19998,8 +20132,8 @@
         <v>#VALUE!</v>
       </c>
       <c r="BO7" t="e">
-        <f>AND(Plan!F13,"AAAAAG7bf0I=")</f>
-        <v>#VALUE!</v>
+        <f>AND(Plan!#REF!,"AAAAAG7bf0I=")</f>
+        <v>#REF!</v>
       </c>
       <c r="BP7" t="e">
         <f>AND(Plan!G13,"AAAAAG7bf0M=")</f>
@@ -20390,7 +20524,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="FI7" t="e">
-        <f>AND(Plan!B14,"AAAAAG7bf6Q=")</f>
+        <f>AND(Plan!F14,"AAAAAG7bf6Q=")</f>
         <v>#VALUE!</v>
       </c>
       <c r="FJ7" t="e">
@@ -20406,8 +20540,8 @@
         <v>#VALUE!</v>
       </c>
       <c r="FM7" t="e">
-        <f>AND(Plan!F14,"AAAAAG7bf6g=")</f>
-        <v>#VALUE!</v>
+        <f>AND(Plan!#REF!,"AAAAAG7bf6g=")</f>
+        <v>#REF!</v>
       </c>
       <c r="FN7" t="e">
         <f>AND(Plan!G14,"AAAAAG7bf6k=")</f>
@@ -20800,7 +20934,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="K8" t="e">
-        <f>AND(Plan!B16,"AAAAAArvnwo=")</f>
+        <f>AND(Plan!F16,"AAAAAArvnwo=")</f>
         <v>#VALUE!</v>
       </c>
       <c r="L8" t="e">
@@ -20816,8 +20950,8 @@
         <v>#VALUE!</v>
       </c>
       <c r="O8" t="e">
-        <f>AND(Plan!F16,"AAAAAArvnw4=")</f>
-        <v>#VALUE!</v>
+        <f>AND(Plan!#REF!,"AAAAAArvnw4=")</f>
+        <v>#REF!</v>
       </c>
       <c r="P8" t="e">
         <f>AND(Plan!G16,"AAAAAArvnw8=")</f>
@@ -60036,1225 +60170,1225 @@
         <v>#VALUE!</v>
       </c>
       <c r="BU46">
-        <f>IF(Plan!111:111,"AAAAAH+s/Ug=",0)</f>
+        <f>IF(Plan!112:112,"AAAAAH+s/Ug=",0)</f>
         <v>0</v>
       </c>
       <c r="BV46" t="e">
-        <f>AND(Plan!A111,"AAAAAH+s/Uk=")</f>
+        <f>AND(Plan!A112,"AAAAAH+s/Uk=")</f>
         <v>#VALUE!</v>
       </c>
       <c r="BW46" t="e">
-        <f>AND(Plan!B111,"AAAAAH+s/Uo=")</f>
+        <f>AND(Plan!B112,"AAAAAH+s/Uo=")</f>
         <v>#VALUE!</v>
       </c>
       <c r="BX46" t="e">
-        <f>AND(Plan!C111,"AAAAAH+s/Us=")</f>
+        <f>AND(Plan!C112,"AAAAAH+s/Us=")</f>
         <v>#VALUE!</v>
       </c>
       <c r="BY46" t="e">
-        <f>AND(Plan!D111,"AAAAAH+s/Uw=")</f>
+        <f>AND(Plan!D112,"AAAAAH+s/Uw=")</f>
         <v>#VALUE!</v>
       </c>
       <c r="BZ46" t="e">
-        <f>AND(Plan!E111,"AAAAAH+s/U0=")</f>
+        <f>AND(Plan!E112,"AAAAAH+s/U0=")</f>
         <v>#VALUE!</v>
       </c>
       <c r="CA46" t="e">
-        <f>AND(Plan!F111,"AAAAAH+s/U4=")</f>
+        <f>AND(Plan!F112,"AAAAAH+s/U4=")</f>
         <v>#VALUE!</v>
       </c>
       <c r="CB46" t="e">
-        <f>AND(Plan!G111,"AAAAAH+s/U8=")</f>
+        <f>AND(Plan!G112,"AAAAAH+s/U8=")</f>
         <v>#VALUE!</v>
       </c>
       <c r="CC46" t="e">
-        <f>AND(Plan!H111,"AAAAAH+s/VA=")</f>
+        <f>AND(Plan!H112,"AAAAAH+s/VA=")</f>
         <v>#VALUE!</v>
       </c>
       <c r="CD46" t="e">
-        <f>AND(Plan!I111,"AAAAAH+s/VE=")</f>
+        <f>AND(Plan!I112,"AAAAAH+s/VE=")</f>
         <v>#VALUE!</v>
       </c>
       <c r="CE46" t="e">
-        <f>AND(Plan!J111,"AAAAAH+s/VI=")</f>
+        <f>AND(Plan!J112,"AAAAAH+s/VI=")</f>
         <v>#VALUE!</v>
       </c>
       <c r="CF46" t="e">
-        <f>AND(Plan!K111,"AAAAAH+s/VM=")</f>
+        <f>AND(Plan!K112,"AAAAAH+s/VM=")</f>
         <v>#VALUE!</v>
       </c>
       <c r="CG46" t="e">
-        <f>AND(Plan!L111,"AAAAAH+s/VQ=")</f>
+        <f>AND(Plan!L112,"AAAAAH+s/VQ=")</f>
         <v>#VALUE!</v>
       </c>
       <c r="CH46" t="e">
-        <f>AND(Plan!M111,"AAAAAH+s/VU=")</f>
+        <f>AND(Plan!M112,"AAAAAH+s/VU=")</f>
         <v>#VALUE!</v>
       </c>
       <c r="CI46" t="e">
-        <f>AND(Plan!N111,"AAAAAH+s/VY=")</f>
+        <f>AND(Plan!N112,"AAAAAH+s/VY=")</f>
         <v>#VALUE!</v>
       </c>
       <c r="CJ46" t="e">
-        <f>AND(Plan!O111,"AAAAAH+s/Vc=")</f>
+        <f>AND(Plan!O112,"AAAAAH+s/Vc=")</f>
         <v>#VALUE!</v>
       </c>
       <c r="CK46" t="e">
-        <f>AND(Plan!P111,"AAAAAH+s/Vg=")</f>
+        <f>AND(Plan!P112,"AAAAAH+s/Vg=")</f>
         <v>#VALUE!</v>
       </c>
       <c r="CL46" t="e">
-        <f>AND(Plan!Q111,"AAAAAH+s/Vk=")</f>
+        <f>AND(Plan!Q112,"AAAAAH+s/Vk=")</f>
         <v>#VALUE!</v>
       </c>
       <c r="CM46" t="e">
-        <f>AND(Plan!R111,"AAAAAH+s/Vo=")</f>
+        <f>AND(Plan!R112,"AAAAAH+s/Vo=")</f>
         <v>#VALUE!</v>
       </c>
       <c r="CN46" t="e">
-        <f>AND(Plan!S111,"AAAAAH+s/Vs=")</f>
+        <f>AND(Plan!S112,"AAAAAH+s/Vs=")</f>
         <v>#VALUE!</v>
       </c>
       <c r="CO46" t="e">
-        <f>AND(Plan!T111,"AAAAAH+s/Vw=")</f>
+        <f>AND(Plan!T112,"AAAAAH+s/Vw=")</f>
         <v>#VALUE!</v>
       </c>
       <c r="CP46" t="e">
-        <f>AND(Plan!U111,"AAAAAH+s/V0=")</f>
+        <f>AND(Plan!U112,"AAAAAH+s/V0=")</f>
         <v>#VALUE!</v>
       </c>
       <c r="CQ46" t="e">
-        <f>AND(Plan!V111,"AAAAAH+s/V4=")</f>
+        <f>AND(Plan!V112,"AAAAAH+s/V4=")</f>
         <v>#VALUE!</v>
       </c>
       <c r="CR46" t="e">
-        <f>AND(Plan!W111,"AAAAAH+s/V8=")</f>
+        <f>AND(Plan!W112,"AAAAAH+s/V8=")</f>
         <v>#VALUE!</v>
       </c>
       <c r="CS46" t="e">
-        <f>AND(Plan!X111,"AAAAAH+s/WA=")</f>
+        <f>AND(Plan!X112,"AAAAAH+s/WA=")</f>
         <v>#VALUE!</v>
       </c>
       <c r="CT46" t="e">
-        <f>AND(Plan!Y111,"AAAAAH+s/WE=")</f>
+        <f>AND(Plan!Y112,"AAAAAH+s/WE=")</f>
         <v>#VALUE!</v>
       </c>
       <c r="CU46" t="e">
-        <f>AND(Plan!Z111,"AAAAAH+s/WI=")</f>
+        <f>AND(Plan!Z112,"AAAAAH+s/WI=")</f>
         <v>#VALUE!</v>
       </c>
       <c r="CV46" t="e">
-        <f>AND(Plan!AA111,"AAAAAH+s/WM=")</f>
+        <f>AND(Plan!AA112,"AAAAAH+s/WM=")</f>
         <v>#VALUE!</v>
       </c>
       <c r="CW46" t="e">
-        <f>AND(Plan!AB111,"AAAAAH+s/WQ=")</f>
+        <f>AND(Plan!AB112,"AAAAAH+s/WQ=")</f>
         <v>#VALUE!</v>
       </c>
       <c r="CX46" t="e">
-        <f>AND(Plan!AC111,"AAAAAH+s/WU=")</f>
+        <f>AND(Plan!AC112,"AAAAAH+s/WU=")</f>
         <v>#VALUE!</v>
       </c>
       <c r="CY46" t="e">
-        <f>AND(Plan!AD111,"AAAAAH+s/WY=")</f>
+        <f>AND(Plan!AD112,"AAAAAH+s/WY=")</f>
         <v>#VALUE!</v>
       </c>
       <c r="CZ46" t="e">
-        <f>AND(Plan!AE111,"AAAAAH+s/Wc=")</f>
+        <f>AND(Plan!AE112,"AAAAAH+s/Wc=")</f>
         <v>#VALUE!</v>
       </c>
       <c r="DA46" t="e">
-        <f>AND(Plan!AF111,"AAAAAH+s/Wg=")</f>
+        <f>AND(Plan!AF112,"AAAAAH+s/Wg=")</f>
         <v>#VALUE!</v>
       </c>
       <c r="DB46" t="e">
-        <f>AND(Plan!AG111,"AAAAAH+s/Wk=")</f>
+        <f>AND(Plan!AG112,"AAAAAH+s/Wk=")</f>
         <v>#VALUE!</v>
       </c>
       <c r="DC46" t="e">
-        <f>AND(Plan!AH111,"AAAAAH+s/Wo=")</f>
+        <f>AND(Plan!AH112,"AAAAAH+s/Wo=")</f>
         <v>#VALUE!</v>
       </c>
       <c r="DD46" t="e">
-        <f>AND(Plan!AI111,"AAAAAH+s/Ws=")</f>
+        <f>AND(Plan!AI112,"AAAAAH+s/Ws=")</f>
         <v>#VALUE!</v>
       </c>
       <c r="DE46" t="e">
-        <f>AND(Plan!AJ111,"AAAAAH+s/Ww=")</f>
+        <f>AND(Plan!AJ112,"AAAAAH+s/Ww=")</f>
         <v>#VALUE!</v>
       </c>
       <c r="DF46" t="e">
-        <f>AND(Plan!AK111,"AAAAAH+s/W0=")</f>
+        <f>AND(Plan!AK112,"AAAAAH+s/W0=")</f>
         <v>#VALUE!</v>
       </c>
       <c r="DG46" t="e">
-        <f>AND(Plan!AL111,"AAAAAH+s/W4=")</f>
+        <f>AND(Plan!AL112,"AAAAAH+s/W4=")</f>
         <v>#VALUE!</v>
       </c>
       <c r="DH46" t="e">
-        <f>AND(Plan!AM111,"AAAAAH+s/W8=")</f>
+        <f>AND(Plan!AM112,"AAAAAH+s/W8=")</f>
         <v>#VALUE!</v>
       </c>
       <c r="DI46" t="e">
-        <f>AND(Plan!AN111,"AAAAAH+s/XA=")</f>
+        <f>AND(Plan!AN112,"AAAAAH+s/XA=")</f>
         <v>#VALUE!</v>
       </c>
       <c r="DJ46" t="e">
-        <f>AND(Plan!AO111,"AAAAAH+s/XE=")</f>
+        <f>AND(Plan!AO112,"AAAAAH+s/XE=")</f>
         <v>#VALUE!</v>
       </c>
       <c r="DK46" t="e">
-        <f>AND(Plan!AP111,"AAAAAH+s/XI=")</f>
+        <f>AND(Plan!AP112,"AAAAAH+s/XI=")</f>
         <v>#VALUE!</v>
       </c>
       <c r="DL46" t="e">
-        <f>AND(Plan!AQ111,"AAAAAH+s/XM=")</f>
+        <f>AND(Plan!AQ112,"AAAAAH+s/XM=")</f>
         <v>#VALUE!</v>
       </c>
       <c r="DM46" t="e">
-        <f>AND(Plan!AR111,"AAAAAH+s/XQ=")</f>
+        <f>AND(Plan!AR112,"AAAAAH+s/XQ=")</f>
         <v>#VALUE!</v>
       </c>
       <c r="DN46" t="e">
-        <f>AND(Plan!AS111,"AAAAAH+s/XU=")</f>
+        <f>AND(Plan!AS112,"AAAAAH+s/XU=")</f>
         <v>#VALUE!</v>
       </c>
       <c r="DO46" t="e">
-        <f>AND(Plan!AT111,"AAAAAH+s/XY=")</f>
+        <f>AND(Plan!AT112,"AAAAAH+s/XY=")</f>
         <v>#VALUE!</v>
       </c>
       <c r="DP46" t="e">
-        <f>AND(Plan!AU111,"AAAAAH+s/Xc=")</f>
+        <f>AND(Plan!AU112,"AAAAAH+s/Xc=")</f>
         <v>#VALUE!</v>
       </c>
       <c r="DQ46" t="e">
-        <f>AND(Plan!AV111,"AAAAAH+s/Xg=")</f>
+        <f>AND(Plan!AV112,"AAAAAH+s/Xg=")</f>
         <v>#VALUE!</v>
       </c>
       <c r="DR46" t="e">
-        <f>AND(Plan!AW111,"AAAAAH+s/Xk=")</f>
+        <f>AND(Plan!AW112,"AAAAAH+s/Xk=")</f>
         <v>#VALUE!</v>
       </c>
       <c r="DS46" t="e">
-        <f>AND(Plan!AX111,"AAAAAH+s/Xo=")</f>
+        <f>AND(Plan!AX112,"AAAAAH+s/Xo=")</f>
         <v>#VALUE!</v>
       </c>
       <c r="DT46" t="e">
-        <f>AND(Plan!AY111,"AAAAAH+s/Xs=")</f>
+        <f>AND(Plan!AY112,"AAAAAH+s/Xs=")</f>
         <v>#VALUE!</v>
       </c>
       <c r="DU46" t="e">
-        <f>AND(Plan!AZ111,"AAAAAH+s/Xw=")</f>
+        <f>AND(Plan!AZ112,"AAAAAH+s/Xw=")</f>
         <v>#VALUE!</v>
       </c>
       <c r="DV46" t="e">
-        <f>AND(Plan!BA111,"AAAAAH+s/X0=")</f>
+        <f>AND(Plan!BA112,"AAAAAH+s/X0=")</f>
         <v>#VALUE!</v>
       </c>
       <c r="DW46" t="e">
-        <f>AND(Plan!BB111,"AAAAAH+s/X4=")</f>
+        <f>AND(Plan!BB112,"AAAAAH+s/X4=")</f>
         <v>#VALUE!</v>
       </c>
       <c r="DX46" t="e">
-        <f>AND(Plan!BC111,"AAAAAH+s/X8=")</f>
+        <f>AND(Plan!BC112,"AAAAAH+s/X8=")</f>
         <v>#VALUE!</v>
       </c>
       <c r="DY46" t="e">
-        <f>AND(Plan!BD111,"AAAAAH+s/YA=")</f>
+        <f>AND(Plan!BD112,"AAAAAH+s/YA=")</f>
         <v>#VALUE!</v>
       </c>
       <c r="DZ46" t="e">
-        <f>AND(Plan!BE111,"AAAAAH+s/YE=")</f>
+        <f>AND(Plan!BE112,"AAAAAH+s/YE=")</f>
         <v>#VALUE!</v>
       </c>
       <c r="EA46" t="e">
-        <f>AND(Plan!BF111,"AAAAAH+s/YI=")</f>
+        <f>AND(Plan!BF112,"AAAAAH+s/YI=")</f>
         <v>#VALUE!</v>
       </c>
       <c r="EB46" t="e">
-        <f>AND(Plan!BG111,"AAAAAH+s/YM=")</f>
+        <f>AND(Plan!BG112,"AAAAAH+s/YM=")</f>
         <v>#VALUE!</v>
       </c>
       <c r="EC46" t="e">
-        <f>AND(Plan!BH111,"AAAAAH+s/YQ=")</f>
+        <f>AND(Plan!BH112,"AAAAAH+s/YQ=")</f>
         <v>#VALUE!</v>
       </c>
       <c r="ED46">
-        <f>IF(Plan!112:112,"AAAAAH+s/YU=",0)</f>
+        <f>IF(Plan!113:113,"AAAAAH+s/YU=",0)</f>
         <v>0</v>
       </c>
       <c r="EE46" t="e">
-        <f>AND(Plan!A112,"AAAAAH+s/YY=")</f>
+        <f>AND(Plan!A113,"AAAAAH+s/YY=")</f>
         <v>#VALUE!</v>
       </c>
       <c r="EF46" t="e">
-        <f>AND(Plan!B112,"AAAAAH+s/Yc=")</f>
+        <f>AND(Plan!B113,"AAAAAH+s/Yc=")</f>
         <v>#VALUE!</v>
       </c>
       <c r="EG46" t="e">
-        <f>AND(Plan!C112,"AAAAAH+s/Yg=")</f>
+        <f>AND(Plan!C113,"AAAAAH+s/Yg=")</f>
         <v>#VALUE!</v>
       </c>
       <c r="EH46" t="e">
-        <f>AND(Plan!D112,"AAAAAH+s/Yk=")</f>
+        <f>AND(Plan!D113,"AAAAAH+s/Yk=")</f>
         <v>#VALUE!</v>
       </c>
       <c r="EI46" t="e">
-        <f>AND(Plan!E112,"AAAAAH+s/Yo=")</f>
+        <f>AND(Plan!E113,"AAAAAH+s/Yo=")</f>
         <v>#VALUE!</v>
       </c>
       <c r="EJ46" t="e">
-        <f>AND(Plan!F112,"AAAAAH+s/Ys=")</f>
+        <f>AND(Plan!F113,"AAAAAH+s/Ys=")</f>
         <v>#VALUE!</v>
       </c>
       <c r="EK46" t="e">
-        <f>AND(Plan!G112,"AAAAAH+s/Yw=")</f>
+        <f>AND(Plan!G113,"AAAAAH+s/Yw=")</f>
         <v>#VALUE!</v>
       </c>
       <c r="EL46" t="e">
-        <f>AND(Plan!H112,"AAAAAH+s/Y0=")</f>
+        <f>AND(Plan!H113,"AAAAAH+s/Y0=")</f>
         <v>#VALUE!</v>
       </c>
       <c r="EM46" t="e">
-        <f>AND(Plan!I112,"AAAAAH+s/Y4=")</f>
+        <f>AND(Plan!I113,"AAAAAH+s/Y4=")</f>
         <v>#VALUE!</v>
       </c>
       <c r="EN46" t="e">
-        <f>AND(Plan!J112,"AAAAAH+s/Y8=")</f>
+        <f>AND(Plan!J113,"AAAAAH+s/Y8=")</f>
         <v>#VALUE!</v>
       </c>
       <c r="EO46" t="e">
-        <f>AND(Plan!K112,"AAAAAH+s/ZA=")</f>
+        <f>AND(Plan!K113,"AAAAAH+s/ZA=")</f>
         <v>#VALUE!</v>
       </c>
       <c r="EP46" t="e">
-        <f>AND(Plan!L112,"AAAAAH+s/ZE=")</f>
+        <f>AND(Plan!L113,"AAAAAH+s/ZE=")</f>
         <v>#VALUE!</v>
       </c>
       <c r="EQ46" t="e">
-        <f>AND(Plan!M112,"AAAAAH+s/ZI=")</f>
+        <f>AND(Plan!M113,"AAAAAH+s/ZI=")</f>
         <v>#VALUE!</v>
       </c>
       <c r="ER46" t="e">
-        <f>AND(Plan!N112,"AAAAAH+s/ZM=")</f>
+        <f>AND(Plan!N113,"AAAAAH+s/ZM=")</f>
         <v>#VALUE!</v>
       </c>
       <c r="ES46" t="e">
-        <f>AND(Plan!O112,"AAAAAH+s/ZQ=")</f>
+        <f>AND(Plan!O113,"AAAAAH+s/ZQ=")</f>
         <v>#VALUE!</v>
       </c>
       <c r="ET46" t="e">
-        <f>AND(Plan!P112,"AAAAAH+s/ZU=")</f>
+        <f>AND(Plan!P113,"AAAAAH+s/ZU=")</f>
         <v>#VALUE!</v>
       </c>
       <c r="EU46" t="e">
-        <f>AND(Plan!Q112,"AAAAAH+s/ZY=")</f>
+        <f>AND(Plan!Q113,"AAAAAH+s/ZY=")</f>
         <v>#VALUE!</v>
       </c>
       <c r="EV46" t="e">
-        <f>AND(Plan!R112,"AAAAAH+s/Zc=")</f>
+        <f>AND(Plan!R113,"AAAAAH+s/Zc=")</f>
         <v>#VALUE!</v>
       </c>
       <c r="EW46" t="e">
-        <f>AND(Plan!S112,"AAAAAH+s/Zg=")</f>
+        <f>AND(Plan!S113,"AAAAAH+s/Zg=")</f>
         <v>#VALUE!</v>
       </c>
       <c r="EX46" t="e">
-        <f>AND(Plan!T112,"AAAAAH+s/Zk=")</f>
+        <f>AND(Plan!T113,"AAAAAH+s/Zk=")</f>
         <v>#VALUE!</v>
       </c>
       <c r="EY46" t="e">
-        <f>AND(Plan!U112,"AAAAAH+s/Zo=")</f>
+        <f>AND(Plan!U113,"AAAAAH+s/Zo=")</f>
         <v>#VALUE!</v>
       </c>
       <c r="EZ46" t="e">
-        <f>AND(Plan!V112,"AAAAAH+s/Zs=")</f>
+        <f>AND(Plan!V113,"AAAAAH+s/Zs=")</f>
         <v>#VALUE!</v>
       </c>
       <c r="FA46" t="e">
-        <f>AND(Plan!W112,"AAAAAH+s/Zw=")</f>
+        <f>AND(Plan!W113,"AAAAAH+s/Zw=")</f>
         <v>#VALUE!</v>
       </c>
       <c r="FB46" t="e">
-        <f>AND(Plan!X112,"AAAAAH+s/Z0=")</f>
+        <f>AND(Plan!X113,"AAAAAH+s/Z0=")</f>
         <v>#VALUE!</v>
       </c>
       <c r="FC46" t="e">
-        <f>AND(Plan!Y112,"AAAAAH+s/Z4=")</f>
+        <f>AND(Plan!Y113,"AAAAAH+s/Z4=")</f>
         <v>#VALUE!</v>
       </c>
       <c r="FD46" t="e">
-        <f>AND(Plan!Z112,"AAAAAH+s/Z8=")</f>
+        <f>AND(Plan!Z113,"AAAAAH+s/Z8=")</f>
         <v>#VALUE!</v>
       </c>
       <c r="FE46" t="e">
-        <f>AND(Plan!AA112,"AAAAAH+s/aA=")</f>
+        <f>AND(Plan!AA113,"AAAAAH+s/aA=")</f>
         <v>#VALUE!</v>
       </c>
       <c r="FF46" t="e">
-        <f>AND(Plan!AB112,"AAAAAH+s/aE=")</f>
+        <f>AND(Plan!AB113,"AAAAAH+s/aE=")</f>
         <v>#VALUE!</v>
       </c>
       <c r="FG46" t="e">
-        <f>AND(Plan!AC112,"AAAAAH+s/aI=")</f>
+        <f>AND(Plan!AC113,"AAAAAH+s/aI=")</f>
         <v>#VALUE!</v>
       </c>
       <c r="FH46" t="e">
-        <f>AND(Plan!AD112,"AAAAAH+s/aM=")</f>
+        <f>AND(Plan!AD113,"AAAAAH+s/aM=")</f>
         <v>#VALUE!</v>
       </c>
       <c r="FI46" t="e">
-        <f>AND(Plan!AE112,"AAAAAH+s/aQ=")</f>
+        <f>AND(Plan!AE113,"AAAAAH+s/aQ=")</f>
         <v>#VALUE!</v>
       </c>
       <c r="FJ46" t="e">
-        <f>AND(Plan!AF112,"AAAAAH+s/aU=")</f>
+        <f>AND(Plan!AF113,"AAAAAH+s/aU=")</f>
         <v>#VALUE!</v>
       </c>
       <c r="FK46" t="e">
-        <f>AND(Plan!AG112,"AAAAAH+s/aY=")</f>
+        <f>AND(Plan!AG113,"AAAAAH+s/aY=")</f>
         <v>#VALUE!</v>
       </c>
       <c r="FL46" t="e">
-        <f>AND(Plan!AH112,"AAAAAH+s/ac=")</f>
+        <f>AND(Plan!AH113,"AAAAAH+s/ac=")</f>
         <v>#VALUE!</v>
       </c>
       <c r="FM46" t="e">
-        <f>AND(Plan!AI112,"AAAAAH+s/ag=")</f>
+        <f>AND(Plan!AI113,"AAAAAH+s/ag=")</f>
         <v>#VALUE!</v>
       </c>
       <c r="FN46" t="e">
-        <f>AND(Plan!AJ112,"AAAAAH+s/ak=")</f>
+        <f>AND(Plan!AJ113,"AAAAAH+s/ak=")</f>
         <v>#VALUE!</v>
       </c>
       <c r="FO46" t="e">
-        <f>AND(Plan!AK112,"AAAAAH+s/ao=")</f>
+        <f>AND(Plan!AK113,"AAAAAH+s/ao=")</f>
         <v>#VALUE!</v>
       </c>
       <c r="FP46" t="e">
-        <f>AND(Plan!AL112,"AAAAAH+s/as=")</f>
+        <f>AND(Plan!AL113,"AAAAAH+s/as=")</f>
         <v>#VALUE!</v>
       </c>
       <c r="FQ46" t="e">
-        <f>AND(Plan!AM112,"AAAAAH+s/aw=")</f>
+        <f>AND(Plan!AM113,"AAAAAH+s/aw=")</f>
         <v>#VALUE!</v>
       </c>
       <c r="FR46" t="e">
-        <f>AND(Plan!AN112,"AAAAAH+s/a0=")</f>
+        <f>AND(Plan!AN113,"AAAAAH+s/a0=")</f>
         <v>#VALUE!</v>
       </c>
       <c r="FS46" t="e">
-        <f>AND(Plan!AO112,"AAAAAH+s/a4=")</f>
+        <f>AND(Plan!AO113,"AAAAAH+s/a4=")</f>
         <v>#VALUE!</v>
       </c>
       <c r="FT46" t="e">
-        <f>AND(Plan!AP112,"AAAAAH+s/a8=")</f>
+        <f>AND(Plan!AP113,"AAAAAH+s/a8=")</f>
         <v>#VALUE!</v>
       </c>
       <c r="FU46" t="e">
-        <f>AND(Plan!AQ112,"AAAAAH+s/bA=")</f>
+        <f>AND(Plan!AQ113,"AAAAAH+s/bA=")</f>
         <v>#VALUE!</v>
       </c>
       <c r="FV46" t="e">
-        <f>AND(Plan!AR112,"AAAAAH+s/bE=")</f>
+        <f>AND(Plan!AR113,"AAAAAH+s/bE=")</f>
         <v>#VALUE!</v>
       </c>
       <c r="FW46" t="e">
-        <f>AND(Plan!AS112,"AAAAAH+s/bI=")</f>
+        <f>AND(Plan!AS113,"AAAAAH+s/bI=")</f>
         <v>#VALUE!</v>
       </c>
       <c r="FX46" t="e">
-        <f>AND(Plan!AT112,"AAAAAH+s/bM=")</f>
+        <f>AND(Plan!AT113,"AAAAAH+s/bM=")</f>
         <v>#VALUE!</v>
       </c>
       <c r="FY46" t="e">
-        <f>AND(Plan!AU112,"AAAAAH+s/bQ=")</f>
+        <f>AND(Plan!AU113,"AAAAAH+s/bQ=")</f>
         <v>#VALUE!</v>
       </c>
       <c r="FZ46" t="e">
-        <f>AND(Plan!AV112,"AAAAAH+s/bU=")</f>
+        <f>AND(Plan!AV113,"AAAAAH+s/bU=")</f>
         <v>#VALUE!</v>
       </c>
       <c r="GA46" t="e">
-        <f>AND(Plan!AW112,"AAAAAH+s/bY=")</f>
+        <f>AND(Plan!AW113,"AAAAAH+s/bY=")</f>
         <v>#VALUE!</v>
       </c>
       <c r="GB46" t="e">
-        <f>AND(Plan!AX112,"AAAAAH+s/bc=")</f>
+        <f>AND(Plan!AX113,"AAAAAH+s/bc=")</f>
         <v>#VALUE!</v>
       </c>
       <c r="GC46" t="e">
-        <f>AND(Plan!AY112,"AAAAAH+s/bg=")</f>
+        <f>AND(Plan!AY113,"AAAAAH+s/bg=")</f>
         <v>#VALUE!</v>
       </c>
       <c r="GD46" t="e">
-        <f>AND(Plan!AZ112,"AAAAAH+s/bk=")</f>
+        <f>AND(Plan!AZ113,"AAAAAH+s/bk=")</f>
         <v>#VALUE!</v>
       </c>
       <c r="GE46" t="e">
-        <f>AND(Plan!BA112,"AAAAAH+s/bo=")</f>
+        <f>AND(Plan!BA113,"AAAAAH+s/bo=")</f>
         <v>#VALUE!</v>
       </c>
       <c r="GF46" t="e">
-        <f>AND(Plan!BB112,"AAAAAH+s/bs=")</f>
+        <f>AND(Plan!BB113,"AAAAAH+s/bs=")</f>
         <v>#VALUE!</v>
       </c>
       <c r="GG46" t="e">
-        <f>AND(Plan!BC112,"AAAAAH+s/bw=")</f>
+        <f>AND(Plan!BC113,"AAAAAH+s/bw=")</f>
         <v>#VALUE!</v>
       </c>
       <c r="GH46" t="e">
-        <f>AND(Plan!BD112,"AAAAAH+s/b0=")</f>
+        <f>AND(Plan!BD113,"AAAAAH+s/b0=")</f>
         <v>#VALUE!</v>
       </c>
       <c r="GI46" t="e">
-        <f>AND(Plan!BE112,"AAAAAH+s/b4=")</f>
+        <f>AND(Plan!BE113,"AAAAAH+s/b4=")</f>
         <v>#VALUE!</v>
       </c>
       <c r="GJ46" t="e">
-        <f>AND(Plan!BF112,"AAAAAH+s/b8=")</f>
+        <f>AND(Plan!BF113,"AAAAAH+s/b8=")</f>
         <v>#VALUE!</v>
       </c>
       <c r="GK46" t="e">
-        <f>AND(Plan!BG112,"AAAAAH+s/cA=")</f>
+        <f>AND(Plan!BG113,"AAAAAH+s/cA=")</f>
         <v>#VALUE!</v>
       </c>
       <c r="GL46" t="e">
-        <f>AND(Plan!BH112,"AAAAAH+s/cE=")</f>
+        <f>AND(Plan!BH113,"AAAAAH+s/cE=")</f>
         <v>#VALUE!</v>
       </c>
       <c r="GM46">
-        <f>IF(Plan!113:113,"AAAAAH+s/cI=",0)</f>
+        <f>IF(Plan!114:114,"AAAAAH+s/cI=",0)</f>
         <v>0</v>
       </c>
       <c r="GN46" t="e">
-        <f>AND(Plan!A113,"AAAAAH+s/cM=")</f>
+        <f>AND(Plan!A114,"AAAAAH+s/cM=")</f>
         <v>#VALUE!</v>
       </c>
       <c r="GO46" t="e">
-        <f>AND(Plan!B113,"AAAAAH+s/cQ=")</f>
+        <f>AND(Plan!B114,"AAAAAH+s/cQ=")</f>
         <v>#VALUE!</v>
       </c>
       <c r="GP46" t="e">
-        <f>AND(Plan!C113,"AAAAAH+s/cU=")</f>
+        <f>AND(Plan!C114,"AAAAAH+s/cU=")</f>
         <v>#VALUE!</v>
       </c>
       <c r="GQ46" t="e">
-        <f>AND(Plan!D113,"AAAAAH+s/cY=")</f>
+        <f>AND(Plan!D114,"AAAAAH+s/cY=")</f>
         <v>#VALUE!</v>
       </c>
       <c r="GR46" t="e">
-        <f>AND(Plan!E113,"AAAAAH+s/cc=")</f>
+        <f>AND(Plan!E114,"AAAAAH+s/cc=")</f>
         <v>#VALUE!</v>
       </c>
       <c r="GS46" t="e">
-        <f>AND(Plan!F113,"AAAAAH+s/cg=")</f>
+        <f>AND(Plan!F114,"AAAAAH+s/cg=")</f>
         <v>#VALUE!</v>
       </c>
       <c r="GT46" t="e">
-        <f>AND(Plan!G113,"AAAAAH+s/ck=")</f>
+        <f>AND(Plan!G114,"AAAAAH+s/ck=")</f>
         <v>#VALUE!</v>
       </c>
       <c r="GU46" t="e">
-        <f>AND(Plan!H113,"AAAAAH+s/co=")</f>
+        <f>AND(Plan!H114,"AAAAAH+s/co=")</f>
         <v>#VALUE!</v>
       </c>
       <c r="GV46" t="e">
-        <f>AND(Plan!I113,"AAAAAH+s/cs=")</f>
+        <f>AND(Plan!I114,"AAAAAH+s/cs=")</f>
         <v>#VALUE!</v>
       </c>
       <c r="GW46" t="e">
-        <f>AND(Plan!J113,"AAAAAH+s/cw=")</f>
+        <f>AND(Plan!J114,"AAAAAH+s/cw=")</f>
         <v>#VALUE!</v>
       </c>
       <c r="GX46" t="e">
-        <f>AND(Plan!K113,"AAAAAH+s/c0=")</f>
+        <f>AND(Plan!K114,"AAAAAH+s/c0=")</f>
         <v>#VALUE!</v>
       </c>
       <c r="GY46" t="e">
-        <f>AND(Plan!L113,"AAAAAH+s/c4=")</f>
+        <f>AND(Plan!L114,"AAAAAH+s/c4=")</f>
         <v>#VALUE!</v>
       </c>
       <c r="GZ46" t="e">
-        <f>AND(Plan!M113,"AAAAAH+s/c8=")</f>
+        <f>AND(Plan!M114,"AAAAAH+s/c8=")</f>
         <v>#VALUE!</v>
       </c>
       <c r="HA46" t="e">
-        <f>AND(Plan!N113,"AAAAAH+s/dA=")</f>
+        <f>AND(Plan!N114,"AAAAAH+s/dA=")</f>
         <v>#VALUE!</v>
       </c>
       <c r="HB46" t="e">
-        <f>AND(Plan!O113,"AAAAAH+s/dE=")</f>
+        <f>AND(Plan!O114,"AAAAAH+s/dE=")</f>
         <v>#VALUE!</v>
       </c>
       <c r="HC46" t="e">
-        <f>AND(Plan!P113,"AAAAAH+s/dI=")</f>
+        <f>AND(Plan!P114,"AAAAAH+s/dI=")</f>
         <v>#VALUE!</v>
       </c>
       <c r="HD46" t="e">
-        <f>AND(Plan!Q113,"AAAAAH+s/dM=")</f>
+        <f>AND(Plan!Q114,"AAAAAH+s/dM=")</f>
         <v>#VALUE!</v>
       </c>
       <c r="HE46" t="e">
-        <f>AND(Plan!R113,"AAAAAH+s/dQ=")</f>
+        <f>AND(Plan!R114,"AAAAAH+s/dQ=")</f>
         <v>#VALUE!</v>
       </c>
       <c r="HF46" t="e">
-        <f>AND(Plan!S113,"AAAAAH+s/dU=")</f>
+        <f>AND(Plan!S114,"AAAAAH+s/dU=")</f>
         <v>#VALUE!</v>
       </c>
       <c r="HG46" t="e">
-        <f>AND(Plan!T113,"AAAAAH+s/dY=")</f>
+        <f>AND(Plan!T114,"AAAAAH+s/dY=")</f>
         <v>#VALUE!</v>
       </c>
       <c r="HH46" t="e">
-        <f>AND(Plan!U113,"AAAAAH+s/dc=")</f>
+        <f>AND(Plan!U114,"AAAAAH+s/dc=")</f>
         <v>#VALUE!</v>
       </c>
       <c r="HI46" t="e">
-        <f>AND(Plan!V113,"AAAAAH+s/dg=")</f>
+        <f>AND(Plan!V114,"AAAAAH+s/dg=")</f>
         <v>#VALUE!</v>
       </c>
       <c r="HJ46" t="e">
-        <f>AND(Plan!W113,"AAAAAH+s/dk=")</f>
+        <f>AND(Plan!W114,"AAAAAH+s/dk=")</f>
         <v>#VALUE!</v>
       </c>
       <c r="HK46" t="e">
-        <f>AND(Plan!X113,"AAAAAH+s/do=")</f>
+        <f>AND(Plan!X114,"AAAAAH+s/do=")</f>
         <v>#VALUE!</v>
       </c>
       <c r="HL46" t="e">
-        <f>AND(Plan!Y113,"AAAAAH+s/ds=")</f>
+        <f>AND(Plan!Y114,"AAAAAH+s/ds=")</f>
         <v>#VALUE!</v>
       </c>
       <c r="HM46" t="e">
-        <f>AND(Plan!Z113,"AAAAAH+s/dw=")</f>
+        <f>AND(Plan!Z114,"AAAAAH+s/dw=")</f>
         <v>#VALUE!</v>
       </c>
       <c r="HN46" t="e">
-        <f>AND(Plan!AA113,"AAAAAH+s/d0=")</f>
+        <f>AND(Plan!AA114,"AAAAAH+s/d0=")</f>
         <v>#VALUE!</v>
       </c>
       <c r="HO46" t="e">
-        <f>AND(Plan!AB113,"AAAAAH+s/d4=")</f>
+        <f>AND(Plan!AB114,"AAAAAH+s/d4=")</f>
         <v>#VALUE!</v>
       </c>
       <c r="HP46" t="e">
-        <f>AND(Plan!AC113,"AAAAAH+s/d8=")</f>
+        <f>AND(Plan!AC114,"AAAAAH+s/d8=")</f>
         <v>#VALUE!</v>
       </c>
       <c r="HQ46" t="e">
-        <f>AND(Plan!AD113,"AAAAAH+s/eA=")</f>
+        <f>AND(Plan!AD114,"AAAAAH+s/eA=")</f>
         <v>#VALUE!</v>
       </c>
       <c r="HR46" t="e">
-        <f>AND(Plan!AE113,"AAAAAH+s/eE=")</f>
+        <f>AND(Plan!AE114,"AAAAAH+s/eE=")</f>
         <v>#VALUE!</v>
       </c>
       <c r="HS46" t="e">
-        <f>AND(Plan!AF113,"AAAAAH+s/eI=")</f>
+        <f>AND(Plan!AF114,"AAAAAH+s/eI=")</f>
         <v>#VALUE!</v>
       </c>
       <c r="HT46" t="e">
-        <f>AND(Plan!AG113,"AAAAAH+s/eM=")</f>
+        <f>AND(Plan!AG114,"AAAAAH+s/eM=")</f>
         <v>#VALUE!</v>
       </c>
       <c r="HU46" t="e">
-        <f>AND(Plan!AH113,"AAAAAH+s/eQ=")</f>
+        <f>AND(Plan!AH114,"AAAAAH+s/eQ=")</f>
         <v>#VALUE!</v>
       </c>
       <c r="HV46" t="e">
-        <f>AND(Plan!AI113,"AAAAAH+s/eU=")</f>
+        <f>AND(Plan!AI114,"AAAAAH+s/eU=")</f>
         <v>#VALUE!</v>
       </c>
       <c r="HW46" t="e">
-        <f>AND(Plan!AJ113,"AAAAAH+s/eY=")</f>
+        <f>AND(Plan!AJ114,"AAAAAH+s/eY=")</f>
         <v>#VALUE!</v>
       </c>
       <c r="HX46" t="e">
-        <f>AND(Plan!AK113,"AAAAAH+s/ec=")</f>
+        <f>AND(Plan!AK114,"AAAAAH+s/ec=")</f>
         <v>#VALUE!</v>
       </c>
       <c r="HY46" t="e">
-        <f>AND(Plan!AL113,"AAAAAH+s/eg=")</f>
+        <f>AND(Plan!AL114,"AAAAAH+s/eg=")</f>
         <v>#VALUE!</v>
       </c>
       <c r="HZ46" t="e">
-        <f>AND(Plan!AM113,"AAAAAH+s/ek=")</f>
+        <f>AND(Plan!AM114,"AAAAAH+s/ek=")</f>
         <v>#VALUE!</v>
       </c>
       <c r="IA46" t="e">
-        <f>AND(Plan!AN113,"AAAAAH+s/eo=")</f>
+        <f>AND(Plan!AN114,"AAAAAH+s/eo=")</f>
         <v>#VALUE!</v>
       </c>
       <c r="IB46" t="e">
-        <f>AND(Plan!AO113,"AAAAAH+s/es=")</f>
+        <f>AND(Plan!AO114,"AAAAAH+s/es=")</f>
         <v>#VALUE!</v>
       </c>
       <c r="IC46" t="e">
-        <f>AND(Plan!AP113,"AAAAAH+s/ew=")</f>
+        <f>AND(Plan!AP114,"AAAAAH+s/ew=")</f>
         <v>#VALUE!</v>
       </c>
       <c r="ID46" t="e">
-        <f>AND(Plan!AQ113,"AAAAAH+s/e0=")</f>
+        <f>AND(Plan!AQ114,"AAAAAH+s/e0=")</f>
         <v>#VALUE!</v>
       </c>
       <c r="IE46" t="e">
-        <f>AND(Plan!AR113,"AAAAAH+s/e4=")</f>
+        <f>AND(Plan!AR114,"AAAAAH+s/e4=")</f>
         <v>#VALUE!</v>
       </c>
       <c r="IF46" t="e">
-        <f>AND(Plan!AS113,"AAAAAH+s/e8=")</f>
+        <f>AND(Plan!AS114,"AAAAAH+s/e8=")</f>
         <v>#VALUE!</v>
       </c>
       <c r="IG46" t="e">
-        <f>AND(Plan!AT113,"AAAAAH+s/fA=")</f>
+        <f>AND(Plan!AT114,"AAAAAH+s/fA=")</f>
         <v>#VALUE!</v>
       </c>
       <c r="IH46" t="e">
-        <f>AND(Plan!AU113,"AAAAAH+s/fE=")</f>
+        <f>AND(Plan!AU114,"AAAAAH+s/fE=")</f>
         <v>#VALUE!</v>
       </c>
       <c r="II46" t="e">
-        <f>AND(Plan!AV113,"AAAAAH+s/fI=")</f>
+        <f>AND(Plan!AV114,"AAAAAH+s/fI=")</f>
         <v>#VALUE!</v>
       </c>
       <c r="IJ46" t="e">
-        <f>AND(Plan!AW113,"AAAAAH+s/fM=")</f>
+        <f>AND(Plan!AW114,"AAAAAH+s/fM=")</f>
         <v>#VALUE!</v>
       </c>
       <c r="IK46" t="e">
-        <f>AND(Plan!AX113,"AAAAAH+s/fQ=")</f>
+        <f>AND(Plan!AX114,"AAAAAH+s/fQ=")</f>
         <v>#VALUE!</v>
       </c>
       <c r="IL46" t="e">
-        <f>AND(Plan!AY113,"AAAAAH+s/fU=")</f>
+        <f>AND(Plan!AY114,"AAAAAH+s/fU=")</f>
         <v>#VALUE!</v>
       </c>
       <c r="IM46" t="e">
-        <f>AND(Plan!AZ113,"AAAAAH+s/fY=")</f>
+        <f>AND(Plan!AZ114,"AAAAAH+s/fY=")</f>
         <v>#VALUE!</v>
       </c>
       <c r="IN46" t="e">
-        <f>AND(Plan!BA113,"AAAAAH+s/fc=")</f>
+        <f>AND(Plan!BA114,"AAAAAH+s/fc=")</f>
         <v>#VALUE!</v>
       </c>
       <c r="IO46" t="e">
-        <f>AND(Plan!BB113,"AAAAAH+s/fg=")</f>
+        <f>AND(Plan!BB114,"AAAAAH+s/fg=")</f>
         <v>#VALUE!</v>
       </c>
       <c r="IP46" t="e">
-        <f>AND(Plan!BC113,"AAAAAH+s/fk=")</f>
+        <f>AND(Plan!BC114,"AAAAAH+s/fk=")</f>
         <v>#VALUE!</v>
       </c>
       <c r="IQ46" t="e">
-        <f>AND(Plan!BD113,"AAAAAH+s/fo=")</f>
+        <f>AND(Plan!BD114,"AAAAAH+s/fo=")</f>
         <v>#VALUE!</v>
       </c>
       <c r="IR46" t="e">
-        <f>AND(Plan!BE113,"AAAAAH+s/fs=")</f>
+        <f>AND(Plan!BE114,"AAAAAH+s/fs=")</f>
         <v>#VALUE!</v>
       </c>
       <c r="IS46" t="e">
-        <f>AND(Plan!BF113,"AAAAAH+s/fw=")</f>
+        <f>AND(Plan!BF114,"AAAAAH+s/fw=")</f>
         <v>#VALUE!</v>
       </c>
       <c r="IT46" t="e">
-        <f>AND(Plan!BG113,"AAAAAH+s/f0=")</f>
+        <f>AND(Plan!BG114,"AAAAAH+s/f0=")</f>
         <v>#VALUE!</v>
       </c>
       <c r="IU46" t="e">
-        <f>AND(Plan!BH113,"AAAAAH+s/f4=")</f>
+        <f>AND(Plan!BH114,"AAAAAH+s/f4=")</f>
         <v>#VALUE!</v>
       </c>
       <c r="IV46">
-        <f>IF(Plan!114:114,"AAAAAH+s/f8=",0)</f>
+        <f>IF(Plan!115:115,"AAAAAH+s/f8=",0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:256">
       <c r="A47" t="e">
-        <f>AND(Plan!A114,"AAAAAGV/8gA=")</f>
+        <f>AND(Plan!A115,"AAAAAGV/8gA=")</f>
         <v>#VALUE!</v>
       </c>
       <c r="B47" t="e">
-        <f>AND(Plan!B114,"AAAAAGV/8gE=")</f>
+        <f>AND(Plan!B115,"AAAAAGV/8gE=")</f>
         <v>#VALUE!</v>
       </c>
       <c r="C47" t="e">
-        <f>AND(Plan!C114,"AAAAAGV/8gI=")</f>
+        <f>AND(Plan!C115,"AAAAAGV/8gI=")</f>
         <v>#VALUE!</v>
       </c>
       <c r="D47" t="e">
-        <f>AND(Plan!D114,"AAAAAGV/8gM=")</f>
+        <f>AND(Plan!D115,"AAAAAGV/8gM=")</f>
         <v>#VALUE!</v>
       </c>
       <c r="E47" t="e">
-        <f>AND(Plan!E114,"AAAAAGV/8gQ=")</f>
+        <f>AND(Plan!E115,"AAAAAGV/8gQ=")</f>
         <v>#VALUE!</v>
       </c>
       <c r="F47" t="e">
-        <f>AND(Plan!F114,"AAAAAGV/8gU=")</f>
+        <f>AND(Plan!F115,"AAAAAGV/8gU=")</f>
         <v>#VALUE!</v>
       </c>
       <c r="G47" t="e">
-        <f>AND(Plan!G114,"AAAAAGV/8gY=")</f>
+        <f>AND(Plan!G115,"AAAAAGV/8gY=")</f>
         <v>#VALUE!</v>
       </c>
       <c r="H47" t="e">
-        <f>AND(Plan!H114,"AAAAAGV/8gc=")</f>
+        <f>AND(Plan!H115,"AAAAAGV/8gc=")</f>
         <v>#VALUE!</v>
       </c>
       <c r="I47" t="e">
-        <f>AND(Plan!I114,"AAAAAGV/8gg=")</f>
+        <f>AND(Plan!I115,"AAAAAGV/8gg=")</f>
         <v>#VALUE!</v>
       </c>
       <c r="J47" t="e">
-        <f>AND(Plan!J114,"AAAAAGV/8gk=")</f>
+        <f>AND(Plan!J115,"AAAAAGV/8gk=")</f>
         <v>#VALUE!</v>
       </c>
       <c r="K47" t="e">
-        <f>AND(Plan!K114,"AAAAAGV/8go=")</f>
+        <f>AND(Plan!K115,"AAAAAGV/8go=")</f>
         <v>#VALUE!</v>
       </c>
       <c r="L47" t="e">
-        <f>AND(Plan!L114,"AAAAAGV/8gs=")</f>
+        <f>AND(Plan!L115,"AAAAAGV/8gs=")</f>
         <v>#VALUE!</v>
       </c>
       <c r="M47" t="e">
-        <f>AND(Plan!M114,"AAAAAGV/8gw=")</f>
+        <f>AND(Plan!M115,"AAAAAGV/8gw=")</f>
         <v>#VALUE!</v>
       </c>
       <c r="N47" t="e">
-        <f>AND(Plan!N114,"AAAAAGV/8g0=")</f>
+        <f>AND(Plan!N115,"AAAAAGV/8g0=")</f>
         <v>#VALUE!</v>
       </c>
       <c r="O47" t="e">
-        <f>AND(Plan!O114,"AAAAAGV/8g4=")</f>
+        <f>AND(Plan!O115,"AAAAAGV/8g4=")</f>
         <v>#VALUE!</v>
       </c>
       <c r="P47" t="e">
-        <f>AND(Plan!P114,"AAAAAGV/8g8=")</f>
+        <f>AND(Plan!P115,"AAAAAGV/8g8=")</f>
         <v>#VALUE!</v>
       </c>
       <c r="Q47" t="e">
-        <f>AND(Plan!Q114,"AAAAAGV/8hA=")</f>
+        <f>AND(Plan!Q115,"AAAAAGV/8hA=")</f>
         <v>#VALUE!</v>
       </c>
       <c r="R47" t="e">
-        <f>AND(Plan!R114,"AAAAAGV/8hE=")</f>
+        <f>AND(Plan!R115,"AAAAAGV/8hE=")</f>
         <v>#VALUE!</v>
       </c>
       <c r="S47" t="e">
-        <f>AND(Plan!S114,"AAAAAGV/8hI=")</f>
+        <f>AND(Plan!S115,"AAAAAGV/8hI=")</f>
         <v>#VALUE!</v>
       </c>
       <c r="T47" t="e">
-        <f>AND(Plan!T114,"AAAAAGV/8hM=")</f>
+        <f>AND(Plan!T115,"AAAAAGV/8hM=")</f>
         <v>#VALUE!</v>
       </c>
       <c r="U47" t="e">
-        <f>AND(Plan!U114,"AAAAAGV/8hQ=")</f>
+        <f>AND(Plan!U115,"AAAAAGV/8hQ=")</f>
         <v>#VALUE!</v>
       </c>
       <c r="V47" t="e">
-        <f>AND(Plan!V114,"AAAAAGV/8hU=")</f>
+        <f>AND(Plan!V115,"AAAAAGV/8hU=")</f>
         <v>#VALUE!</v>
       </c>
       <c r="W47" t="e">
-        <f>AND(Plan!W114,"AAAAAGV/8hY=")</f>
+        <f>AND(Plan!W115,"AAAAAGV/8hY=")</f>
         <v>#VALUE!</v>
       </c>
       <c r="X47" t="e">
-        <f>AND(Plan!X114,"AAAAAGV/8hc=")</f>
+        <f>AND(Plan!X115,"AAAAAGV/8hc=")</f>
         <v>#VALUE!</v>
       </c>
       <c r="Y47" t="e">
-        <f>AND(Plan!Y114,"AAAAAGV/8hg=")</f>
+        <f>AND(Plan!Y115,"AAAAAGV/8hg=")</f>
         <v>#VALUE!</v>
       </c>
       <c r="Z47" t="e">
-        <f>AND(Plan!Z114,"AAAAAGV/8hk=")</f>
+        <f>AND(Plan!Z115,"AAAAAGV/8hk=")</f>
         <v>#VALUE!</v>
       </c>
       <c r="AA47" t="e">
-        <f>AND(Plan!AA114,"AAAAAGV/8ho=")</f>
+        <f>AND(Plan!AA115,"AAAAAGV/8ho=")</f>
         <v>#VALUE!</v>
       </c>
       <c r="AB47" t="e">
-        <f>AND(Plan!AB114,"AAAAAGV/8hs=")</f>
+        <f>AND(Plan!AB115,"AAAAAGV/8hs=")</f>
         <v>#VALUE!</v>
       </c>
       <c r="AC47" t="e">
-        <f>AND(Plan!AC114,"AAAAAGV/8hw=")</f>
+        <f>AND(Plan!AC115,"AAAAAGV/8hw=")</f>
         <v>#VALUE!</v>
       </c>
       <c r="AD47" t="e">
-        <f>AND(Plan!AD114,"AAAAAGV/8h0=")</f>
+        <f>AND(Plan!AD115,"AAAAAGV/8h0=")</f>
         <v>#VALUE!</v>
       </c>
       <c r="AE47" t="e">
-        <f>AND(Plan!AE114,"AAAAAGV/8h4=")</f>
+        <f>AND(Plan!AE115,"AAAAAGV/8h4=")</f>
         <v>#VALUE!</v>
       </c>
       <c r="AF47" t="e">
-        <f>AND(Plan!AF114,"AAAAAGV/8h8=")</f>
+        <f>AND(Plan!AF115,"AAAAAGV/8h8=")</f>
         <v>#VALUE!</v>
       </c>
       <c r="AG47" t="e">
-        <f>AND(Plan!AG114,"AAAAAGV/8iA=")</f>
+        <f>AND(Plan!AG115,"AAAAAGV/8iA=")</f>
         <v>#VALUE!</v>
       </c>
       <c r="AH47" t="e">
-        <f>AND(Plan!AH114,"AAAAAGV/8iE=")</f>
+        <f>AND(Plan!AH115,"AAAAAGV/8iE=")</f>
         <v>#VALUE!</v>
       </c>
       <c r="AI47" t="e">
-        <f>AND(Plan!AI114,"AAAAAGV/8iI=")</f>
+        <f>AND(Plan!AI115,"AAAAAGV/8iI=")</f>
         <v>#VALUE!</v>
       </c>
       <c r="AJ47" t="e">
-        <f>AND(Plan!AJ114,"AAAAAGV/8iM=")</f>
+        <f>AND(Plan!AJ115,"AAAAAGV/8iM=")</f>
         <v>#VALUE!</v>
       </c>
       <c r="AK47" t="e">
-        <f>AND(Plan!AK114,"AAAAAGV/8iQ=")</f>
+        <f>AND(Plan!AK115,"AAAAAGV/8iQ=")</f>
         <v>#VALUE!</v>
       </c>
       <c r="AL47" t="e">
-        <f>AND(Plan!AL114,"AAAAAGV/8iU=")</f>
+        <f>AND(Plan!AL115,"AAAAAGV/8iU=")</f>
         <v>#VALUE!</v>
       </c>
       <c r="AM47" t="e">
-        <f>AND(Plan!AM114,"AAAAAGV/8iY=")</f>
+        <f>AND(Plan!AM115,"AAAAAGV/8iY=")</f>
         <v>#VALUE!</v>
       </c>
       <c r="AN47" t="e">
-        <f>AND(Plan!AN114,"AAAAAGV/8ic=")</f>
+        <f>AND(Plan!AN115,"AAAAAGV/8ic=")</f>
         <v>#VALUE!</v>
       </c>
       <c r="AO47" t="e">
-        <f>AND(Plan!AO114,"AAAAAGV/8ig=")</f>
+        <f>AND(Plan!AO115,"AAAAAGV/8ig=")</f>
         <v>#VALUE!</v>
       </c>
       <c r="AP47" t="e">
-        <f>AND(Plan!AP114,"AAAAAGV/8ik=")</f>
+        <f>AND(Plan!AP115,"AAAAAGV/8ik=")</f>
         <v>#VALUE!</v>
       </c>
       <c r="AQ47" t="e">
-        <f>AND(Plan!AQ114,"AAAAAGV/8io=")</f>
+        <f>AND(Plan!AQ115,"AAAAAGV/8io=")</f>
         <v>#VALUE!</v>
       </c>
       <c r="AR47" t="e">
-        <f>AND(Plan!AR114,"AAAAAGV/8is=")</f>
+        <f>AND(Plan!AR115,"AAAAAGV/8is=")</f>
         <v>#VALUE!</v>
       </c>
       <c r="AS47" t="e">
-        <f>AND(Plan!AS114,"AAAAAGV/8iw=")</f>
+        <f>AND(Plan!AS115,"AAAAAGV/8iw=")</f>
         <v>#VALUE!</v>
       </c>
       <c r="AT47" t="e">
-        <f>AND(Plan!AT114,"AAAAAGV/8i0=")</f>
+        <f>AND(Plan!AT115,"AAAAAGV/8i0=")</f>
         <v>#VALUE!</v>
       </c>
       <c r="AU47" t="e">
-        <f>AND(Plan!AU114,"AAAAAGV/8i4=")</f>
+        <f>AND(Plan!AU115,"AAAAAGV/8i4=")</f>
         <v>#VALUE!</v>
       </c>
       <c r="AV47" t="e">
-        <f>AND(Plan!AV114,"AAAAAGV/8i8=")</f>
+        <f>AND(Plan!AV115,"AAAAAGV/8i8=")</f>
         <v>#VALUE!</v>
       </c>
       <c r="AW47" t="e">
-        <f>AND(Plan!AW114,"AAAAAGV/8jA=")</f>
+        <f>AND(Plan!AW115,"AAAAAGV/8jA=")</f>
         <v>#VALUE!</v>
       </c>
       <c r="AX47" t="e">
-        <f>AND(Plan!AX114,"AAAAAGV/8jE=")</f>
+        <f>AND(Plan!AX115,"AAAAAGV/8jE=")</f>
         <v>#VALUE!</v>
       </c>
       <c r="AY47" t="e">
-        <f>AND(Plan!AY114,"AAAAAGV/8jI=")</f>
+        <f>AND(Plan!AY115,"AAAAAGV/8jI=")</f>
         <v>#VALUE!</v>
       </c>
       <c r="AZ47" t="e">
-        <f>AND(Plan!AZ114,"AAAAAGV/8jM=")</f>
+        <f>AND(Plan!AZ115,"AAAAAGV/8jM=")</f>
         <v>#VALUE!</v>
       </c>
       <c r="BA47" t="e">
-        <f>AND(Plan!BA114,"AAAAAGV/8jQ=")</f>
+        <f>AND(Plan!BA115,"AAAAAGV/8jQ=")</f>
         <v>#VALUE!</v>
       </c>
       <c r="BB47" t="e">
-        <f>AND(Plan!BB114,"AAAAAGV/8jU=")</f>
+        <f>AND(Plan!BB115,"AAAAAGV/8jU=")</f>
         <v>#VALUE!</v>
       </c>
       <c r="BC47" t="e">
-        <f>AND(Plan!BC114,"AAAAAGV/8jY=")</f>
+        <f>AND(Plan!BC115,"AAAAAGV/8jY=")</f>
         <v>#VALUE!</v>
       </c>
       <c r="BD47" t="e">
-        <f>AND(Plan!BD114,"AAAAAGV/8jc=")</f>
+        <f>AND(Plan!BD115,"AAAAAGV/8jc=")</f>
         <v>#VALUE!</v>
       </c>
       <c r="BE47" t="e">
-        <f>AND(Plan!BE114,"AAAAAGV/8jg=")</f>
+        <f>AND(Plan!BE115,"AAAAAGV/8jg=")</f>
         <v>#VALUE!</v>
       </c>
       <c r="BF47" t="e">
-        <f>AND(Plan!BF114,"AAAAAGV/8jk=")</f>
+        <f>AND(Plan!BF115,"AAAAAGV/8jk=")</f>
         <v>#VALUE!</v>
       </c>
       <c r="BG47" t="e">
-        <f>AND(Plan!BG114,"AAAAAGV/8jo=")</f>
+        <f>AND(Plan!BG115,"AAAAAGV/8jo=")</f>
         <v>#VALUE!</v>
       </c>
       <c r="BH47" t="e">
-        <f>AND(Plan!BH114,"AAAAAGV/8js=")</f>
+        <f>AND(Plan!BH115,"AAAAAGV/8js=")</f>
         <v>#VALUE!</v>
       </c>
       <c r="BI47">
-        <f>IF(Plan!115:115,"AAAAAGV/8jw=",0)</f>
+        <f>IF(Plan!116:116,"AAAAAGV/8jw=",0)</f>
         <v>0</v>
       </c>
       <c r="BJ47" t="e">
-        <f>AND(Plan!A115,"AAAAAGV/8j0=")</f>
+        <f>AND(Plan!A116,"AAAAAGV/8j0=")</f>
         <v>#VALUE!</v>
       </c>
       <c r="BK47" t="e">
-        <f>AND(Plan!B115,"AAAAAGV/8j4=")</f>
+        <f>AND(Plan!B116,"AAAAAGV/8j4=")</f>
         <v>#VALUE!</v>
       </c>
       <c r="BL47" t="e">
-        <f>AND(Plan!C115,"AAAAAGV/8j8=")</f>
+        <f>AND(Plan!C116,"AAAAAGV/8j8=")</f>
         <v>#VALUE!</v>
       </c>
       <c r="BM47" t="e">
-        <f>AND(Plan!D115,"AAAAAGV/8kA=")</f>
+        <f>AND(Plan!D116,"AAAAAGV/8kA=")</f>
         <v>#VALUE!</v>
       </c>
       <c r="BN47" t="e">
-        <f>AND(Plan!E115,"AAAAAGV/8kE=")</f>
+        <f>AND(Plan!E116,"AAAAAGV/8kE=")</f>
         <v>#VALUE!</v>
       </c>
       <c r="BO47" t="e">
-        <f>AND(Plan!F115,"AAAAAGV/8kI=")</f>
+        <f>AND(Plan!F116,"AAAAAGV/8kI=")</f>
         <v>#VALUE!</v>
       </c>
       <c r="BP47" t="e">
-        <f>AND(Plan!G115,"AAAAAGV/8kM=")</f>
+        <f>AND(Plan!G116,"AAAAAGV/8kM=")</f>
         <v>#VALUE!</v>
       </c>
       <c r="BQ47" t="e">
-        <f>AND(Plan!H115,"AAAAAGV/8kQ=")</f>
+        <f>AND(Plan!H116,"AAAAAGV/8kQ=")</f>
         <v>#VALUE!</v>
       </c>
       <c r="BR47" t="e">
-        <f>AND(Plan!I115,"AAAAAGV/8kU=")</f>
+        <f>AND(Plan!I116,"AAAAAGV/8kU=")</f>
         <v>#VALUE!</v>
       </c>
       <c r="BS47" t="e">
-        <f>AND(Plan!J115,"AAAAAGV/8kY=")</f>
+        <f>AND(Plan!J116,"AAAAAGV/8kY=")</f>
         <v>#VALUE!</v>
       </c>
       <c r="BT47" t="e">
-        <f>AND(Plan!K115,"AAAAAGV/8kc=")</f>
+        <f>AND(Plan!K116,"AAAAAGV/8kc=")</f>
         <v>#VALUE!</v>
       </c>
       <c r="BU47" t="e">
-        <f>AND(Plan!L115,"AAAAAGV/8kg=")</f>
+        <f>AND(Plan!L116,"AAAAAGV/8kg=")</f>
         <v>#VALUE!</v>
       </c>
       <c r="BV47" t="e">
-        <f>AND(Plan!M115,"AAAAAGV/8kk=")</f>
+        <f>AND(Plan!M116,"AAAAAGV/8kk=")</f>
         <v>#VALUE!</v>
       </c>
       <c r="BW47" t="e">
-        <f>AND(Plan!N115,"AAAAAGV/8ko=")</f>
+        <f>AND(Plan!N116,"AAAAAGV/8ko=")</f>
         <v>#VALUE!</v>
       </c>
       <c r="BX47" t="e">
-        <f>AND(Plan!O115,"AAAAAGV/8ks=")</f>
+        <f>AND(Plan!O116,"AAAAAGV/8ks=")</f>
         <v>#VALUE!</v>
       </c>
       <c r="BY47" t="e">
-        <f>AND(Plan!P115,"AAAAAGV/8kw=")</f>
+        <f>AND(Plan!P116,"AAAAAGV/8kw=")</f>
         <v>#VALUE!</v>
       </c>
       <c r="BZ47" t="e">
-        <f>AND(Plan!Q115,"AAAAAGV/8k0=")</f>
+        <f>AND(Plan!Q116,"AAAAAGV/8k0=")</f>
         <v>#VALUE!</v>
       </c>
       <c r="CA47" t="e">
-        <f>AND(Plan!R115,"AAAAAGV/8k4=")</f>
+        <f>AND(Plan!R116,"AAAAAGV/8k4=")</f>
         <v>#VALUE!</v>
       </c>
       <c r="CB47" t="e">
-        <f>AND(Plan!S115,"AAAAAGV/8k8=")</f>
+        <f>AND(Plan!S116,"AAAAAGV/8k8=")</f>
         <v>#VALUE!</v>
       </c>
       <c r="CC47" t="e">
-        <f>AND(Plan!T115,"AAAAAGV/8lA=")</f>
+        <f>AND(Plan!T116,"AAAAAGV/8lA=")</f>
         <v>#VALUE!</v>
       </c>
       <c r="CD47" t="e">
-        <f>AND(Plan!U115,"AAAAAGV/8lE=")</f>
+        <f>AND(Plan!U116,"AAAAAGV/8lE=")</f>
         <v>#VALUE!</v>
       </c>
       <c r="CE47" t="e">
-        <f>AND(Plan!V115,"AAAAAGV/8lI=")</f>
+        <f>AND(Plan!V116,"AAAAAGV/8lI=")</f>
         <v>#VALUE!</v>
       </c>
       <c r="CF47" t="e">
-        <f>AND(Plan!W115,"AAAAAGV/8lM=")</f>
+        <f>AND(Plan!W116,"AAAAAGV/8lM=")</f>
         <v>#VALUE!</v>
       </c>
       <c r="CG47" t="e">
-        <f>AND(Plan!X115,"AAAAAGV/8lQ=")</f>
+        <f>AND(Plan!X116,"AAAAAGV/8lQ=")</f>
         <v>#VALUE!</v>
       </c>
       <c r="CH47" t="e">
-        <f>AND(Plan!Y115,"AAAAAGV/8lU=")</f>
+        <f>AND(Plan!Y116,"AAAAAGV/8lU=")</f>
         <v>#VALUE!</v>
       </c>
       <c r="CI47" t="e">
-        <f>AND(Plan!Z115,"AAAAAGV/8lY=")</f>
+        <f>AND(Plan!Z116,"AAAAAGV/8lY=")</f>
         <v>#VALUE!</v>
       </c>
       <c r="CJ47" t="e">
-        <f>AND(Plan!AA115,"AAAAAGV/8lc=")</f>
+        <f>AND(Plan!AA116,"AAAAAGV/8lc=")</f>
         <v>#VALUE!</v>
       </c>
       <c r="CK47" t="e">
-        <f>AND(Plan!AB115,"AAAAAGV/8lg=")</f>
+        <f>AND(Plan!AB116,"AAAAAGV/8lg=")</f>
         <v>#VALUE!</v>
       </c>
       <c r="CL47" t="e">
-        <f>AND(Plan!AC115,"AAAAAGV/8lk=")</f>
+        <f>AND(Plan!AC116,"AAAAAGV/8lk=")</f>
         <v>#VALUE!</v>
       </c>
       <c r="CM47" t="e">
-        <f>AND(Plan!AD115,"AAAAAGV/8lo=")</f>
+        <f>AND(Plan!AD116,"AAAAAGV/8lo=")</f>
         <v>#VALUE!</v>
       </c>
       <c r="CN47" t="e">
-        <f>AND(Plan!AE115,"AAAAAGV/8ls=")</f>
+        <f>AND(Plan!AE116,"AAAAAGV/8ls=")</f>
         <v>#VALUE!</v>
       </c>
       <c r="CO47" t="e">
-        <f>AND(Plan!AF115,"AAAAAGV/8lw=")</f>
+        <f>AND(Plan!AF116,"AAAAAGV/8lw=")</f>
         <v>#VALUE!</v>
       </c>
       <c r="CP47" t="e">
-        <f>AND(Plan!AG115,"AAAAAGV/8l0=")</f>
+        <f>AND(Plan!AG116,"AAAAAGV/8l0=")</f>
         <v>#VALUE!</v>
       </c>
       <c r="CQ47" t="e">
-        <f>AND(Plan!AH115,"AAAAAGV/8l4=")</f>
+        <f>AND(Plan!AH116,"AAAAAGV/8l4=")</f>
         <v>#VALUE!</v>
       </c>
       <c r="CR47" t="e">
-        <f>AND(Plan!AI115,"AAAAAGV/8l8=")</f>
+        <f>AND(Plan!AI116,"AAAAAGV/8l8=")</f>
         <v>#VALUE!</v>
       </c>
       <c r="CS47" t="e">
-        <f>AND(Plan!AJ115,"AAAAAGV/8mA=")</f>
+        <f>AND(Plan!AJ116,"AAAAAGV/8mA=")</f>
         <v>#VALUE!</v>
       </c>
       <c r="CT47" t="e">
-        <f>AND(Plan!AK115,"AAAAAGV/8mE=")</f>
+        <f>AND(Plan!AK116,"AAAAAGV/8mE=")</f>
         <v>#VALUE!</v>
       </c>
       <c r="CU47" t="e">
-        <f>AND(Plan!AL115,"AAAAAGV/8mI=")</f>
+        <f>AND(Plan!AL116,"AAAAAGV/8mI=")</f>
         <v>#VALUE!</v>
       </c>
       <c r="CV47" t="e">
-        <f>AND(Plan!AM115,"AAAAAGV/8mM=")</f>
+        <f>AND(Plan!AM116,"AAAAAGV/8mM=")</f>
         <v>#VALUE!</v>
       </c>
       <c r="CW47" t="e">
-        <f>AND(Plan!AN115,"AAAAAGV/8mQ=")</f>
+        <f>AND(Plan!AN116,"AAAAAGV/8mQ=")</f>
         <v>#VALUE!</v>
       </c>
       <c r="CX47" t="e">
-        <f>AND(Plan!AO115,"AAAAAGV/8mU=")</f>
+        <f>AND(Plan!AO116,"AAAAAGV/8mU=")</f>
         <v>#VALUE!</v>
       </c>
       <c r="CY47" t="e">
-        <f>AND(Plan!AP115,"AAAAAGV/8mY=")</f>
+        <f>AND(Plan!AP116,"AAAAAGV/8mY=")</f>
         <v>#VALUE!</v>
       </c>
       <c r="CZ47" t="e">
-        <f>AND(Plan!AQ115,"AAAAAGV/8mc=")</f>
+        <f>AND(Plan!AQ116,"AAAAAGV/8mc=")</f>
         <v>#VALUE!</v>
       </c>
       <c r="DA47" t="e">
-        <f>AND(Plan!AR115,"AAAAAGV/8mg=")</f>
+        <f>AND(Plan!AR116,"AAAAAGV/8mg=")</f>
         <v>#VALUE!</v>
       </c>
       <c r="DB47" t="e">
-        <f>AND(Plan!AS115,"AAAAAGV/8mk=")</f>
+        <f>AND(Plan!AS116,"AAAAAGV/8mk=")</f>
         <v>#VALUE!</v>
       </c>
       <c r="DC47" t="e">
-        <f>AND(Plan!AT115,"AAAAAGV/8mo=")</f>
+        <f>AND(Plan!AT116,"AAAAAGV/8mo=")</f>
         <v>#VALUE!</v>
       </c>
       <c r="DD47" t="e">
-        <f>AND(Plan!AU115,"AAAAAGV/8ms=")</f>
+        <f>AND(Plan!AU116,"AAAAAGV/8ms=")</f>
         <v>#VALUE!</v>
       </c>
       <c r="DE47" t="e">
-        <f>AND(Plan!AV115,"AAAAAGV/8mw=")</f>
+        <f>AND(Plan!AV116,"AAAAAGV/8mw=")</f>
         <v>#VALUE!</v>
       </c>
       <c r="DF47" t="e">
-        <f>AND(Plan!AW115,"AAAAAGV/8m0=")</f>
+        <f>AND(Plan!AW116,"AAAAAGV/8m0=")</f>
         <v>#VALUE!</v>
       </c>
       <c r="DG47" t="e">
-        <f>AND(Plan!AX115,"AAAAAGV/8m4=")</f>
+        <f>AND(Plan!AX116,"AAAAAGV/8m4=")</f>
         <v>#VALUE!</v>
       </c>
       <c r="DH47" t="e">
-        <f>AND(Plan!AY115,"AAAAAGV/8m8=")</f>
+        <f>AND(Plan!AY116,"AAAAAGV/8m8=")</f>
         <v>#VALUE!</v>
       </c>
       <c r="DI47" t="e">
-        <f>AND(Plan!AZ115,"AAAAAGV/8nA=")</f>
+        <f>AND(Plan!AZ116,"AAAAAGV/8nA=")</f>
         <v>#VALUE!</v>
       </c>
       <c r="DJ47" t="e">
-        <f>AND(Plan!BA115,"AAAAAGV/8nE=")</f>
+        <f>AND(Plan!BA116,"AAAAAGV/8nE=")</f>
         <v>#VALUE!</v>
       </c>
       <c r="DK47" t="e">
-        <f>AND(Plan!BB115,"AAAAAGV/8nI=")</f>
+        <f>AND(Plan!BB116,"AAAAAGV/8nI=")</f>
         <v>#VALUE!</v>
       </c>
       <c r="DL47" t="e">
-        <f>AND(Plan!BC115,"AAAAAGV/8nM=")</f>
+        <f>AND(Plan!BC116,"AAAAAGV/8nM=")</f>
         <v>#VALUE!</v>
       </c>
       <c r="DM47" t="e">
-        <f>AND(Plan!BD115,"AAAAAGV/8nQ=")</f>
+        <f>AND(Plan!BD116,"AAAAAGV/8nQ=")</f>
         <v>#VALUE!</v>
       </c>
       <c r="DN47" t="e">
-        <f>AND(Plan!BE115,"AAAAAGV/8nU=")</f>
+        <f>AND(Plan!BE116,"AAAAAGV/8nU=")</f>
         <v>#VALUE!</v>
       </c>
       <c r="DO47" t="e">
-        <f>AND(Plan!BF115,"AAAAAGV/8nY=")</f>
+        <f>AND(Plan!BF116,"AAAAAGV/8nY=")</f>
         <v>#VALUE!</v>
       </c>
       <c r="DP47" t="e">
-        <f>AND(Plan!BG115,"AAAAAGV/8nc=")</f>
+        <f>AND(Plan!BG116,"AAAAAGV/8nc=")</f>
         <v>#VALUE!</v>
       </c>
       <c r="DQ47" t="e">
-        <f>AND(Plan!BH115,"AAAAAGV/8ng=")</f>
+        <f>AND(Plan!BH116,"AAAAAGV/8ng=")</f>
         <v>#VALUE!</v>
       </c>
       <c r="DR47">
@@ -61285,13 +61419,13 @@
         <f>IF(Plan!G:G,"AAAAAGV/8n8=",0)</f>
         <v>AAAAAGV/8n8=</v>
       </c>
-      <c r="DY47">
+      <c r="DY47" t="e">
         <f>IF(Plan!H:H,"AAAAAGV/8oA=",0)</f>
-        <v>0</v>
-      </c>
-      <c r="DZ47">
+        <v>#VALUE!</v>
+      </c>
+      <c r="DZ47" t="str">
         <f>IF(Plan!I:I,"AAAAAGV/8oE=",0)</f>
-        <v>0</v>
+        <v>AAAAAGV/8oE=</v>
       </c>
       <c r="EA47">
         <f>IF(Plan!J:J,"AAAAAGV/8oI=",0)</f>
@@ -61674,7 +61808,7 @@
         <v>0</v>
       </c>
       <c r="HR47" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="HS47" t="e">
         <f>IF("N",Plan!_xlnm._FilterDatabase,"AAAAAGV/8uI=")</f>
@@ -63071,7 +63205,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="R52" t="e">
-        <f>AND(Plan!B15,"AAAAAHfvvxE=")</f>
+        <f>AND(Plan!F15,"AAAAAHfvvxE=")</f>
         <v>#VALUE!</v>
       </c>
       <c r="S52" t="e">
@@ -63087,8 +63221,8 @@
         <v>#VALUE!</v>
       </c>
       <c r="V52" t="e">
-        <f>AND(Plan!F15,"AAAAAHfvvxU=")</f>
-        <v>#VALUE!</v>
+        <f>AND(Plan!#REF!,"AAAAAHfvvxU=")</f>
+        <v>#REF!</v>
       </c>
       <c r="W52" t="e">
         <f>AND(Plan!G15,"AAAAAHfvvxY=")</f>
@@ -63471,10 +63605,328 @@
         <v>#VALUE!</v>
       </c>
       <c r="DN52" s="44" t="s">
+        <v>185</v>
+      </c>
+      <c r="DO52" s="48" t="s">
         <v>186</v>
       </c>
-      <c r="DO52" s="48" t="s">
-        <v>187</v>
+    </row>
+    <row r="53" spans="1:256">
+      <c r="A53" t="e">
+        <f>AND(Plan!B2,"AAAAACv8MgA=")</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="B53" t="e">
+        <f>AND(Plan!B3,"AAAAACv8MgE=")</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="C53" t="e">
+        <f>AND(Plan!B4,"AAAAACv8MgI=")</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="D53" t="e">
+        <f>AND(Plan!B5,"AAAAACv8MgM=")</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="E53" t="e">
+        <f>AND(Plan!B6,"AAAAACv8MgQ=")</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F53" t="e">
+        <f>AND(Plan!B7,"AAAAACv8MgU=")</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="G53" t="e">
+        <f>AND(Plan!B8,"AAAAACv8MgY=")</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="H53" t="e">
+        <f>AND(Plan!B9,"AAAAACv8Mgc=")</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="I53" t="e">
+        <f>AND(Plan!B10,"AAAAACv8Mgg=")</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="J53" t="e">
+        <f>AND(Plan!B11,"AAAAACv8Mgk=")</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="K53" t="e">
+        <f>AND(Plan!G11,"AAAAACv8Mgo=")</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="L53" t="e">
+        <f>AND(Plan!H11,"AAAAACv8Mgs=")</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="M53" t="e">
+        <f>AND(Plan!I11,"AAAAACv8Mgw=")</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="N53" t="e">
+        <f>AND(Plan!B12,"AAAAACv8Mg0=")</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="O53" t="e">
+        <f>AND(Plan!B13,"AAAAACv8Mg4=")</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="P53" t="e">
+        <f>AND(Plan!B14,"AAAAACv8Mg8=")</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="Q53" t="e">
+        <f>AND(Plan!B15,"AAAAACv8MhA=")</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="R53" t="e">
+        <f>AND(Plan!B16,"AAAAACv8MhE=")</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="S53">
+        <f>IF(Plan!111:111,"AAAAACv8MhI=",0)</f>
+        <v>0</v>
+      </c>
+      <c r="T53" t="e">
+        <f>AND(Plan!A111,"AAAAACv8MhM=")</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="U53" t="e">
+        <f>AND(Plan!B111,"AAAAACv8MhQ=")</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="V53" t="e">
+        <f>AND(Plan!C111,"AAAAACv8MhU=")</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="W53" t="e">
+        <f>AND(Plan!D111,"AAAAACv8MhY=")</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="X53" t="e">
+        <f>AND(Plan!E111,"AAAAACv8Mhc=")</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="Y53" t="e">
+        <f>AND(Plan!F111,"AAAAACv8Mhg=")</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="Z53" t="e">
+        <f>AND(Plan!G111,"AAAAACv8Mhk=")</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AA53" t="e">
+        <f>AND(Plan!H111,"AAAAACv8Mho=")</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AB53" t="e">
+        <f>AND(Plan!I111,"AAAAACv8Mhs=")</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AC53" t="e">
+        <f>AND(Plan!J111,"AAAAACv8Mhw=")</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AD53" t="e">
+        <f>AND(Plan!K111,"AAAAACv8Mh0=")</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AE53" t="e">
+        <f>AND(Plan!L111,"AAAAACv8Mh4=")</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AF53" t="e">
+        <f>AND(Plan!M111,"AAAAACv8Mh8=")</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AG53" t="e">
+        <f>AND(Plan!N111,"AAAAACv8MiA=")</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AH53" t="e">
+        <f>AND(Plan!O111,"AAAAACv8MiE=")</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AI53" t="e">
+        <f>AND(Plan!P111,"AAAAACv8MiI=")</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AJ53" t="e">
+        <f>AND(Plan!Q111,"AAAAACv8MiM=")</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AK53" t="e">
+        <f>AND(Plan!R111,"AAAAACv8MiQ=")</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AL53" t="e">
+        <f>AND(Plan!S111,"AAAAACv8MiU=")</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AM53" t="e">
+        <f>AND(Plan!T111,"AAAAACv8MiY=")</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AN53" t="e">
+        <f>AND(Plan!U111,"AAAAACv8Mic=")</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AO53" t="e">
+        <f>AND(Plan!V111,"AAAAACv8Mig=")</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AP53" t="e">
+        <f>AND(Plan!W111,"AAAAACv8Mik=")</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AQ53" t="e">
+        <f>AND(Plan!X111,"AAAAACv8Mio=")</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AR53" t="e">
+        <f>AND(Plan!Y111,"AAAAACv8Mis=")</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AS53" t="e">
+        <f>AND(Plan!Z111,"AAAAACv8Miw=")</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AT53" t="e">
+        <f>AND(Plan!AA111,"AAAAACv8Mi0=")</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AU53" t="e">
+        <f>AND(Plan!AB111,"AAAAACv8Mi4=")</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AV53" t="e">
+        <f>AND(Plan!AC111,"AAAAACv8Mi8=")</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AW53" t="e">
+        <f>AND(Plan!AD111,"AAAAACv8MjA=")</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AX53" t="e">
+        <f>AND(Plan!AE111,"AAAAACv8MjE=")</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AY53" t="e">
+        <f>AND(Plan!AF111,"AAAAACv8MjI=")</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AZ53" t="e">
+        <f>AND(Plan!AG111,"AAAAACv8MjM=")</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="BA53" t="e">
+        <f>AND(Plan!AH111,"AAAAACv8MjQ=")</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="BB53" t="e">
+        <f>AND(Plan!AI111,"AAAAACv8MjU=")</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="BC53" t="e">
+        <f>AND(Plan!AJ111,"AAAAACv8MjY=")</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="BD53" t="e">
+        <f>AND(Plan!AK111,"AAAAACv8Mjc=")</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="BE53" t="e">
+        <f>AND(Plan!AL111,"AAAAACv8Mjg=")</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="BF53" t="e">
+        <f>AND(Plan!AM111,"AAAAACv8Mjk=")</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="BG53" t="e">
+        <f>AND(Plan!AN111,"AAAAACv8Mjo=")</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="BH53" t="e">
+        <f>AND(Plan!AO111,"AAAAACv8Mjs=")</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="BI53" t="e">
+        <f>AND(Plan!AP111,"AAAAACv8Mjw=")</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="BJ53" t="e">
+        <f>AND(Plan!AQ111,"AAAAACv8Mj0=")</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="BK53" t="e">
+        <f>AND(Plan!AR111,"AAAAACv8Mj4=")</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="BL53" t="e">
+        <f>AND(Plan!AS111,"AAAAACv8Mj8=")</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="BM53" t="e">
+        <f>AND(Plan!AT111,"AAAAACv8MkA=")</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="BN53" t="e">
+        <f>AND(Plan!AU111,"AAAAACv8MkE=")</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="BO53" t="e">
+        <f>AND(Plan!AV111,"AAAAACv8MkI=")</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="BP53" t="e">
+        <f>AND(Plan!AW111,"AAAAACv8MkM=")</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="BQ53" t="e">
+        <f>AND(Plan!AX111,"AAAAACv8MkQ=")</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="BR53" t="e">
+        <f>AND(Plan!AY111,"AAAAACv8MkU=")</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="BS53" t="e">
+        <f>AND(Plan!AZ111,"AAAAACv8MkY=")</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="BT53" t="e">
+        <f>AND(Plan!BA111,"AAAAACv8Mkc=")</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="BU53" t="e">
+        <f>AND(Plan!BB111,"AAAAACv8Mkg=")</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="BV53" t="e">
+        <f>AND(Plan!BC111,"AAAAACv8Mkk=")</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="BW53" t="e">
+        <f>AND(Plan!BD111,"AAAAACv8Mko=")</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="BX53" t="e">
+        <f>AND(Plan!BE111,"AAAAACv8Mks=")</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="BY53" t="e">
+        <f>AND(Plan!BF111,"AAAAACv8Mkw=")</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="BZ53" t="e">
+        <f>AND(Plan!BG111,"AAAAACv8Mk0=")</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="CA53" t="e">
+        <f>AND(Plan!BH111,"AAAAACv8Mk4=")</f>
+        <v>#VALUE!</v>
       </c>
     </row>
   </sheetData>

--- a/trunk/Document/VietinBankSC Project Plan v2012.009.20.xlsx
+++ b/trunk/Document/VietinBankSC Project Plan v2012.009.20.xlsx
@@ -1569,8 +1569,8 @@
   </sheetPr>
   <dimension ref="A1:CW116"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1860,11 +1860,11 @@
       </c>
       <c r="D11" s="15">
         <f>SUMIF($D$20:$D$148,C11,$E$20:$E$148)+SUMIF($F$20:$F$148,C11,$G$20:$G$148)+ SUMIF($H$20:$H$148,C11,$I$20:$I$148)</f>
-        <v>180</v>
+        <v>105</v>
       </c>
       <c r="E11" s="46">
         <f t="shared" si="0"/>
-        <v>3108780</v>
+        <v>1813455</v>
       </c>
       <c r="F11" s="45">
         <v>10000</v>
@@ -1930,7 +1930,7 @@
       <c r="F14" s="45"/>
       <c r="G14" s="40">
         <f>SUM(D2:D16)</f>
-        <v>764</v>
+        <v>689</v>
       </c>
       <c r="H14" s="45">
         <f>I10</f>
@@ -1938,7 +1938,7 @@
       </c>
       <c r="I14" s="44">
         <f>H14/G14</f>
-        <v>19982.002617801048</v>
+        <v>22157.11175616836</v>
       </c>
       <c r="N14" s="31">
         <f t="shared" ref="N14:BH14" si="2">N17</f>
@@ -12637,9 +12637,7 @@
       <c r="D106" s="20" t="s">
         <v>57</v>
       </c>
-      <c r="E106" s="20">
-        <v>25</v>
-      </c>
+      <c r="E106" s="20"/>
       <c r="F106" s="20" t="s">
         <v>61</v>
       </c>
@@ -12761,9 +12759,7 @@
       <c r="D107" s="20" t="s">
         <v>57</v>
       </c>
-      <c r="E107" s="20">
-        <v>25</v>
-      </c>
+      <c r="E107" s="20"/>
       <c r="F107" s="20" t="s">
         <v>169</v>
       </c>
@@ -12889,9 +12885,7 @@
       <c r="D108" s="20" t="s">
         <v>57</v>
       </c>
-      <c r="E108" s="20">
-        <v>25</v>
-      </c>
+      <c r="E108" s="20"/>
       <c r="F108" s="20"/>
       <c r="G108" s="20"/>
       <c r="H108" s="20"/>

--- a/trunk/Document/VietinBankSC Project Plan v2012.009.20.xlsx
+++ b/trunk/Document/VietinBankSC Project Plan v2012.009.20.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="537" uniqueCount="190">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="562" uniqueCount="192">
   <si>
     <t>GVCM</t>
   </si>
@@ -608,6 +608,12 @@
   <si>
     <t>Ủng hộ</t>
   </si>
+  <si>
+    <t>Sửa lỗi phát sinh</t>
+  </si>
+  <si>
+    <t>Thưởng</t>
+  </si>
 </sst>
 </file>
 
@@ -786,7 +792,7 @@
     <xf numFmtId="44" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -868,6 +874,8 @@
     <xf numFmtId="44" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="9" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="178" fontId="7" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Currency" xfId="1" builtinId="4"/>
@@ -1567,16 +1575,16 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:CW116"/>
+  <dimension ref="A1:CW119"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="4" customWidth="1"/>
-    <col min="2" max="2" width="15" customWidth="1"/>
+    <col min="1" max="1" width="4.85546875" customWidth="1"/>
+    <col min="2" max="2" width="10.85546875" customWidth="1"/>
     <col min="3" max="3" width="50" style="29" customWidth="1"/>
     <col min="4" max="4" width="14.5703125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="15.140625" bestFit="1" customWidth="1"/>
@@ -1586,14 +1594,18 @@
     <col min="9" max="9" width="13.28515625" customWidth="1"/>
     <col min="10" max="10" width="12" style="14" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="13.140625" style="14" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="10" style="14" customWidth="1"/>
+    <col min="12" max="12" width="10.5703125" style="14" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.5703125" bestFit="1" customWidth="1"/>
     <col min="14" max="52" width="5.7109375" hidden="1" customWidth="1"/>
     <col min="53" max="66" width="6.140625" hidden="1" customWidth="1"/>
     <col min="67" max="67" width="6.140625" bestFit="1" customWidth="1"/>
     <col min="68" max="101" width="6.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="3:68" ht="14.25" customHeight="1">
+    <row r="1" spans="2:66" ht="14.25" customHeight="1">
+      <c r="B1" s="49" t="s">
+        <v>191</v>
+      </c>
       <c r="C1" s="24" t="s">
         <v>36</v>
       </c>
@@ -1602,9 +1614,6 @@
       </c>
       <c r="E1" s="36" t="s">
         <v>184</v>
-      </c>
-      <c r="F1" s="31" t="s">
-        <v>189</v>
       </c>
       <c r="G1" s="40"/>
       <c r="H1" s="41">
@@ -1615,21 +1624,26 @@
         <v>25875000</v>
       </c>
       <c r="J1" s="41"/>
-      <c r="M1" s="14"/>
+      <c r="K1" s="24" t="s">
+        <v>36</v>
+      </c>
+      <c r="L1" s="31" t="s">
+        <v>189</v>
+      </c>
     </row>
-    <row r="2" spans="3:68" ht="14.25" customHeight="1">
+    <row r="2" spans="2:66" ht="14.25" customHeight="1">
+      <c r="B2" s="50"/>
       <c r="C2" s="25" t="s">
         <v>61</v>
       </c>
       <c r="D2" s="15">
-        <f>SUMIF($D$20:$D$148,C2,$E$20:$E$148)+SUMIF($F$20:$F$148,C2,$G$20:$G$148)+ SUMIF($H$20:$H$148,C2,$I$20:$I$148)</f>
+        <f>SUMIF($D$20:$D$151,C2,$E$20:$E$151)+SUMIF($F$20:$F$151,C2,$G$20:$G$151)+ SUMIF($H$20:$H$151,C2,$I$20:$I$151)</f>
         <v>17</v>
       </c>
       <c r="E2" s="46">
         <f>D2*17271</f>
         <v>293607</v>
       </c>
-      <c r="F2" s="45"/>
       <c r="G2" s="42" t="s">
         <v>172</v>
       </c>
@@ -1640,22 +1654,25 @@
         <f>25875000*H2</f>
         <v>3881250</v>
       </c>
-      <c r="M2" s="14"/>
+      <c r="K2" s="25" t="s">
+        <v>61</v>
+      </c>
+      <c r="L2" s="45"/>
     </row>
-    <row r="3" spans="3:68" ht="14.25" customHeight="1">
+    <row r="3" spans="2:66" ht="14.25" customHeight="1">
+      <c r="B3" s="50">
+        <v>50000</v>
+      </c>
       <c r="C3" s="25" t="s">
         <v>58</v>
       </c>
       <c r="D3" s="15">
-        <f>SUMIF($D$20:$D$148,C3,$E$20:$E$148)+SUMIF($F$20:$F$148,C3,$G$20:$G$148)+ SUMIF($H$20:$H$148,C3,$I$20:$I$148)</f>
-        <v>27</v>
+        <f>SUMIF($D$20:$D$151,C3,$E$20:$E$151)+SUMIF($F$20:$F$151,C3,$G$20:$G$151)+ SUMIF($H$20:$H$151,C3,$I$20:$I$151)</f>
+        <v>32.5</v>
       </c>
       <c r="E3" s="46">
         <f t="shared" ref="E3:E16" si="0">D3*17271</f>
-        <v>466317</v>
-      </c>
-      <c r="F3" s="45">
-        <v>10000</v>
+        <v>561307.5</v>
       </c>
       <c r="G3" s="42" t="s">
         <v>173</v>
@@ -1667,23 +1684,26 @@
         <f t="shared" ref="I3:I12" si="1">25875000*H3</f>
         <v>517500</v>
       </c>
-      <c r="M3" s="14"/>
+      <c r="K3" s="25" t="s">
+        <v>58</v>
+      </c>
+      <c r="L3" s="45">
+        <v>10000</v>
+      </c>
     </row>
-    <row r="4" spans="3:68" ht="14.25" customHeight="1">
+    <row r="4" spans="2:66" ht="14.25" customHeight="1">
+      <c r="B4" s="50"/>
       <c r="C4" s="25" t="s">
         <v>78</v>
       </c>
       <c r="D4" s="15">
-        <f>SUMIF($D$20:$D$148,C4,$E$20:$E$148)+SUMIF($F$20:$F$148,C4,$G$20:$G$148)+ SUMIF($H$20:$H$148,C4,$I$20:$I$148)</f>
+        <f>SUMIF($D$20:$D$151,C4,$E$20:$E$151)+SUMIF($F$20:$F$151,C4,$G$20:$G$151)+ SUMIF($H$20:$H$151,C4,$I$20:$I$151)</f>
         <v>5</v>
       </c>
       <c r="E4" s="46">
         <f t="shared" si="0"/>
         <v>86355</v>
       </c>
-      <c r="F4" s="45">
-        <v>10000</v>
-      </c>
       <c r="G4" s="42" t="s">
         <v>174</v>
       </c>
@@ -1694,21 +1714,26 @@
         <f t="shared" si="1"/>
         <v>1293750</v>
       </c>
-      <c r="M4" s="14"/>
+      <c r="K4" s="25" t="s">
+        <v>78</v>
+      </c>
+      <c r="L4" s="45">
+        <v>10000</v>
+      </c>
     </row>
-    <row r="5" spans="3:68" ht="14.25" customHeight="1">
+    <row r="5" spans="2:66" ht="14.25" customHeight="1">
+      <c r="B5" s="50"/>
       <c r="C5" s="25" t="s">
         <v>72</v>
       </c>
       <c r="D5" s="15">
-        <f>SUMIF($D$20:$D$148,C5,$E$20:$E$148)+SUMIF($F$20:$F$148,C5,$G$20:$G$148)+ SUMIF($H$20:$H$148,C5,$I$20:$I$148)</f>
+        <f>SUMIF($D$20:$D$151,C5,$E$20:$E$151)+SUMIF($F$20:$F$151,C5,$G$20:$G$151)+ SUMIF($H$20:$H$151,C5,$I$20:$I$151)</f>
         <v>5</v>
       </c>
       <c r="E5" s="46">
         <f t="shared" si="0"/>
         <v>86355</v>
       </c>
-      <c r="F5" s="45"/>
       <c r="G5" s="42" t="s">
         <v>175</v>
       </c>
@@ -1719,22 +1744,25 @@
         <f>25875000*H5</f>
         <v>1293750</v>
       </c>
-      <c r="M5" s="14"/>
+      <c r="K5" s="25" t="s">
+        <v>72</v>
+      </c>
+      <c r="L5" s="45"/>
     </row>
-    <row r="6" spans="3:68" ht="14.25" customHeight="1">
+    <row r="6" spans="2:66" ht="14.25" customHeight="1">
+      <c r="B6" s="50">
+        <v>250000</v>
+      </c>
       <c r="C6" s="25" t="s">
         <v>68</v>
       </c>
       <c r="D6" s="15">
-        <f>SUMIF($D$20:$D$148,C6,$E$20:$E$148)+SUMIF($F$20:$F$148,C6,$G$20:$G$148)+ SUMIF($H$20:$H$148,C6,$I$20:$I$148)</f>
-        <v>203</v>
+        <f>SUMIF($D$20:$D$151,C6,$E$20:$E$151)+SUMIF($F$20:$F$151,C6,$G$20:$G$151)+ SUMIF($H$20:$H$151,C6,$I$20:$I$151)</f>
+        <v>240.3</v>
       </c>
       <c r="E6" s="46">
         <f t="shared" si="0"/>
-        <v>3506013</v>
-      </c>
-      <c r="F6" s="45">
-        <v>95000</v>
+        <v>4150221.3000000003</v>
       </c>
       <c r="G6" s="42" t="s">
         <v>176</v>
@@ -1746,21 +1774,26 @@
         <f>25875000*H6</f>
         <v>1293750</v>
       </c>
-      <c r="M6" s="14"/>
+      <c r="K6" s="25" t="s">
+        <v>68</v>
+      </c>
+      <c r="L6" s="45">
+        <v>95000</v>
+      </c>
     </row>
-    <row r="7" spans="3:68" ht="14.25" customHeight="1">
+    <row r="7" spans="2:66" ht="14.25" customHeight="1">
+      <c r="B7" s="49"/>
       <c r="C7" s="25" t="s">
         <v>67</v>
       </c>
       <c r="D7" s="15">
-        <f>SUMIF($D$20:$D$148,C7,$E$20:$E$148)+SUMIF($F$20:$F$148,C7,$G$20:$G$148)+ SUMIF($H$20:$H$148,C7,$I$20:$I$148)</f>
+        <f>SUMIF($D$20:$D$151,C7,$E$20:$E$151)+SUMIF($F$20:$F$151,C7,$G$20:$G$151)+ SUMIF($H$20:$H$151,C7,$I$20:$I$151)</f>
         <v>8</v>
       </c>
       <c r="E7" s="46">
         <f t="shared" si="0"/>
         <v>138168</v>
       </c>
-      <c r="F7" s="45"/>
       <c r="G7" s="42" t="s">
         <v>177</v>
       </c>
@@ -1771,22 +1804,25 @@
         <f>25875000*H7</f>
         <v>517500</v>
       </c>
-      <c r="M7" s="14"/>
+      <c r="K7" s="25" t="s">
+        <v>67</v>
+      </c>
+      <c r="L7" s="45"/>
     </row>
-    <row r="8" spans="3:68" ht="14.25" customHeight="1">
+    <row r="8" spans="2:66" ht="14.25" customHeight="1">
+      <c r="B8" s="50">
+        <v>150000</v>
+      </c>
       <c r="C8" s="25" t="s">
         <v>56</v>
       </c>
       <c r="D8" s="15">
-        <f>SUMIF($D$20:$D$148,C8,$E$20:$E$148)+SUMIF($F$20:$F$148,C8,$G$20:$G$148)+ SUMIF($H$20:$H$148,C8,$I$20:$I$148)</f>
-        <v>149</v>
+        <f>SUMIF($D$20:$D$151,C8,$E$20:$E$151)+SUMIF($F$20:$F$151,C8,$G$20:$G$151)+ SUMIF($H$20:$H$151,C8,$I$20:$I$151)</f>
+        <v>190.6</v>
       </c>
       <c r="E8" s="46">
         <f t="shared" si="0"/>
-        <v>2573379</v>
-      </c>
-      <c r="F8" s="45">
-        <v>100000</v>
+        <v>3291852.6</v>
       </c>
       <c r="G8" s="42" t="s">
         <v>178</v>
@@ -1798,22 +1834,25 @@
         <f>25875000*H8</f>
         <v>1293750</v>
       </c>
-      <c r="M8" s="14"/>
+      <c r="K8" s="25" t="s">
+        <v>56</v>
+      </c>
+      <c r="L8" s="45">
+        <v>100000</v>
+      </c>
     </row>
-    <row r="9" spans="3:68" ht="14.25" customHeight="1">
+    <row r="9" spans="2:66" ht="14.25" customHeight="1">
+      <c r="B9" s="50"/>
       <c r="C9" s="25" t="s">
         <v>59</v>
       </c>
       <c r="D9" s="15">
-        <f>SUMIF($D$20:$D$148,C9,$E$20:$E$148)+SUMIF($F$20:$F$148,C9,$G$20:$G$148)+ SUMIF($H$20:$H$148,C9,$I$20:$I$148)</f>
-        <v>46</v>
+        <f>SUMIF($D$20:$D$151,C9,$E$20:$E$151)+SUMIF($F$20:$F$151,C9,$G$20:$G$151)+ SUMIF($H$20:$H$151,C9,$I$20:$I$151)</f>
+        <v>48</v>
       </c>
       <c r="E9" s="46">
         <f t="shared" si="0"/>
-        <v>794466</v>
-      </c>
-      <c r="F9" s="45">
-        <v>10000</v>
+        <v>829008</v>
       </c>
       <c r="G9" s="42" t="s">
         <v>179</v>
@@ -1825,23 +1864,26 @@
         <f>25875000*H9</f>
         <v>517500</v>
       </c>
-      <c r="M9" s="14"/>
+      <c r="K9" s="25" t="s">
+        <v>59</v>
+      </c>
+      <c r="L9" s="45">
+        <v>10000</v>
+      </c>
     </row>
-    <row r="10" spans="3:68" ht="14.25" customHeight="1">
+    <row r="10" spans="2:66" ht="14.25" customHeight="1">
+      <c r="B10" s="50"/>
       <c r="C10" s="25" t="s">
         <v>79</v>
       </c>
       <c r="D10" s="15">
-        <f>SUMIF($D$20:$D$148,C10,$E$20:$E$148)+SUMIF($F$20:$F$148,C10,$G$20:$G$148)+ SUMIF($H$20:$H$148,C10,$I$20:$I$148)</f>
+        <f>SUMIF($D$20:$D$151,C10,$E$20:$E$151)+SUMIF($F$20:$F$151,C10,$G$20:$G$151)+ SUMIF($H$20:$H$151,C10,$I$20:$I$151)</f>
         <v>5</v>
       </c>
       <c r="E10" s="46">
         <f t="shared" si="0"/>
         <v>86355</v>
       </c>
-      <c r="F10" s="45">
-        <v>10000</v>
-      </c>
       <c r="G10" s="42" t="s">
         <v>180</v>
       </c>
@@ -1852,57 +1894,66 @@
         <f>25875000*H10</f>
         <v>15266250</v>
       </c>
-      <c r="M10" s="14"/>
+      <c r="K10" s="25" t="s">
+        <v>79</v>
+      </c>
+      <c r="L10" s="45">
+        <v>10000</v>
+      </c>
     </row>
-    <row r="11" spans="3:68" ht="14.25" customHeight="1">
+    <row r="11" spans="2:66" ht="14.25" customHeight="1">
+      <c r="B11" s="50"/>
       <c r="C11" s="25" t="s">
         <v>57</v>
       </c>
       <c r="D11" s="15">
-        <f>SUMIF($D$20:$D$148,C11,$E$20:$E$148)+SUMIF($F$20:$F$148,C11,$G$20:$G$148)+ SUMIF($H$20:$H$148,C11,$I$20:$I$148)</f>
-        <v>105</v>
+        <f>SUMIF($D$20:$D$151,C11,$E$20:$E$151)+SUMIF($F$20:$F$151,C11,$G$20:$G$151)+ SUMIF($H$20:$H$151,C11,$I$20:$I$151)</f>
+        <v>188.3</v>
       </c>
       <c r="E11" s="46">
         <f t="shared" si="0"/>
-        <v>1813455</v>
-      </c>
-      <c r="F11" s="45">
+        <v>3252129.3000000003</v>
+      </c>
+      <c r="K11" s="25" t="s">
+        <v>57</v>
+      </c>
+      <c r="L11" s="45">
         <v>10000</v>
       </c>
-      <c r="M11" s="14"/>
     </row>
-    <row r="12" spans="3:68" ht="14.25" customHeight="1">
+    <row r="12" spans="2:66" ht="14.25" customHeight="1">
+      <c r="B12" s="50"/>
       <c r="C12" s="25" t="s">
         <v>71</v>
       </c>
       <c r="D12" s="15">
-        <f>SUMIF($D$20:$D$148,C12,$E$20:$E$148)+SUMIF($F$20:$F$148,C12,$G$20:$G$148)+ SUMIF($H$20:$H$148,C12,$I$20:$I$148)</f>
+        <f>SUMIF($D$20:$D$151,C12,$E$20:$E$151)+SUMIF($F$20:$F$151,C12,$G$20:$G$151)+ SUMIF($H$20:$H$151,C12,$I$20:$I$151)</f>
         <v>5</v>
       </c>
       <c r="E12" s="46">
         <f t="shared" si="0"/>
         <v>86355</v>
       </c>
-      <c r="F12" s="45">
+      <c r="K12" s="25" t="s">
+        <v>71</v>
+      </c>
+      <c r="L12" s="45">
         <v>10000</v>
       </c>
-      <c r="M12" s="14"/>
     </row>
-    <row r="13" spans="3:68" ht="14.25" customHeight="1">
+    <row r="13" spans="2:66" ht="14.25" customHeight="1">
+      <c r="B13" s="50"/>
       <c r="C13" s="25" t="s">
         <v>55</v>
       </c>
       <c r="D13" s="15">
-        <f>SUMIF($D$20:$D$148,C13,$E$20:$E$148)+SUMIF($F$20:$F$148,C13,$G$20:$G$148)+ SUMIF($H$20:$H$148,C13,$I$20:$I$148)</f>
+        <f>SUMIF($D$20:$D$151,C13,$E$20:$E$151)+SUMIF($F$20:$F$151,C13,$G$20:$G$151)+ SUMIF($H$20:$H$151,C13,$I$20:$I$151)</f>
         <v>6</v>
       </c>
       <c r="E13" s="46">
         <f t="shared" si="0"/>
         <v>103626</v>
       </c>
-      <c r="F13" s="45">
-        <v>10000</v>
-      </c>
       <c r="G13" s="31" t="s">
         <v>181</v>
       </c>
@@ -1913,24 +1964,29 @@
         <v>183</v>
       </c>
       <c r="J13" s="31"/>
-      <c r="M13" s="14"/>
+      <c r="K13" s="25" t="s">
+        <v>55</v>
+      </c>
+      <c r="L13" s="45">
+        <v>10000</v>
+      </c>
     </row>
-    <row r="14" spans="3:68" s="31" customFormat="1" ht="14.25" customHeight="1">
+    <row r="14" spans="2:66" s="31" customFormat="1" ht="14.25" customHeight="1">
+      <c r="B14" s="50"/>
       <c r="C14" s="25" t="s">
         <v>64</v>
       </c>
       <c r="D14" s="15">
-        <f>SUMIF($D$20:$D$148,C14,$E$20:$E$148)+SUMIF($F$20:$F$148,C14,$G$20:$G$148)+ SUMIF($H$20:$H$148,C14,$I$20:$I$148)</f>
-        <v>51</v>
+        <f>SUMIF($D$20:$D$151,C14,$E$20:$E$151)+SUMIF($F$20:$F$151,C14,$G$20:$G$151)+ SUMIF($H$20:$H$151,C14,$I$20:$I$151)</f>
+        <v>51.4</v>
       </c>
       <c r="E14" s="46">
         <f t="shared" si="0"/>
-        <v>880821</v>
-      </c>
-      <c r="F14" s="45"/>
+        <v>887729.4</v>
+      </c>
       <c r="G14" s="40">
         <f>SUM(D2:D16)</f>
-        <v>689</v>
+        <v>859.1</v>
       </c>
       <c r="H14" s="45">
         <f>I10</f>
@@ -1938,8 +1994,12 @@
       </c>
       <c r="I14" s="44">
         <f>H14/G14</f>
-        <v>22157.11175616836</v>
-      </c>
+        <v>17770.050052380397</v>
+      </c>
+      <c r="K14" s="25" t="s">
+        <v>64</v>
+      </c>
+      <c r="L14" s="45"/>
       <c r="N14" s="31">
         <f t="shared" ref="N14:BH14" si="2">N17</f>
         <v>41133</v>
@@ -2152,49 +2212,50 @@
         <f t="shared" si="3"/>
         <v>41185</v>
       </c>
-      <c r="BO14" s="31">
-        <f t="shared" si="3"/>
-        <v>41186</v>
-      </c>
-      <c r="BP14" s="31">
-        <f t="shared" si="3"/>
-        <v>41187</v>
-      </c>
     </row>
-    <row r="15" spans="3:68" s="31" customFormat="1" ht="14.25" customHeight="1">
+    <row r="15" spans="2:66" s="31" customFormat="1" ht="14.25" customHeight="1">
+      <c r="B15" s="50">
+        <v>60000</v>
+      </c>
       <c r="C15" s="25" t="s">
         <v>169</v>
       </c>
       <c r="D15" s="15">
-        <f>SUMIF($D$20:$D$148,C15,$E$20:$E$148)+SUMIF($F$20:$F$148,C15,$G$20:$G$148)+ SUMIF($H$20:$H$148,C15,$I$20:$I$148)</f>
+        <f>SUMIF($D$20:$D$151,C15,$E$20:$E$151)+SUMIF($F$20:$F$151,C15,$G$20:$G$151)+ SUMIF($H$20:$H$151,C15,$I$20:$I$151)</f>
         <v>15</v>
       </c>
       <c r="E15" s="46">
         <f t="shared" si="0"/>
         <v>259065</v>
       </c>
-      <c r="F15" s="45"/>
+      <c r="K15" s="25" t="s">
+        <v>169</v>
+      </c>
+      <c r="L15" s="45"/>
     </row>
-    <row r="16" spans="3:68" ht="14.25" customHeight="1">
+    <row r="16" spans="2:66" ht="14.25" customHeight="1">
+      <c r="B16" s="50"/>
       <c r="C16" s="25" t="s">
         <v>77</v>
       </c>
       <c r="D16" s="15">
-        <f>SUMIF($D$20:$D$148,C16,$E$20:$E$148)+SUMIF($F$20:$F$148,C16,$G$20:$G$148)+ SUMIF($H$20:$H$148,C16,$I$20:$I$148)</f>
+        <f>SUMIF($D$20:$D$151,C16,$E$20:$E$151)+SUMIF($F$20:$F$151,C16,$G$20:$G$151)+ SUMIF($H$20:$H$151,C16,$I$20:$I$151)</f>
         <v>42</v>
       </c>
       <c r="E16" s="46">
         <f t="shared" si="0"/>
         <v>725382</v>
-      </c>
-      <c r="F16" s="45">
-        <v>25000</v>
       </c>
       <c r="G16" s="31"/>
       <c r="H16" s="31"/>
       <c r="I16" s="31"/>
       <c r="J16" s="31"/>
-      <c r="M16" s="14"/>
+      <c r="K16" s="25" t="s">
+        <v>77</v>
+      </c>
+      <c r="L16" s="45">
+        <v>25000</v>
+      </c>
     </row>
     <row r="17" spans="2:101" s="16" customFormat="1" ht="13.5" customHeight="1">
       <c r="B17" s="17" t="s">
@@ -12637,7 +12698,9 @@
       <c r="D106" s="20" t="s">
         <v>57</v>
       </c>
-      <c r="E106" s="20"/>
+      <c r="E106" s="20">
+        <v>25</v>
+      </c>
       <c r="F106" s="20" t="s">
         <v>61</v>
       </c>
@@ -12759,7 +12822,9 @@
       <c r="D107" s="20" t="s">
         <v>57</v>
       </c>
-      <c r="E107" s="20"/>
+      <c r="E107" s="20">
+        <v>25</v>
+      </c>
       <c r="F107" s="20" t="s">
         <v>169</v>
       </c>
@@ -12885,7 +12950,9 @@
       <c r="D108" s="20" t="s">
         <v>57</v>
       </c>
-      <c r="E108" s="20"/>
+      <c r="E108" s="20">
+        <v>25</v>
+      </c>
       <c r="F108" s="20"/>
       <c r="G108" s="20"/>
       <c r="H108" s="20"/>
@@ -13383,243 +13450,311 @@
         <v>10</v>
       </c>
     </row>
-    <row r="116" spans="1:101" s="22" customFormat="1">
-      <c r="A116"/>
-      <c r="C116" s="30" t="s">
+    <row r="114" spans="1:101">
+      <c r="B114" s="19"/>
+      <c r="C114" s="26" t="s">
+        <v>53</v>
+      </c>
+      <c r="D114" s="19"/>
+      <c r="E114" s="19"/>
+      <c r="F114" s="19"/>
+      <c r="G114" s="19"/>
+    </row>
+    <row r="115" spans="1:101">
+      <c r="B115" s="20"/>
+      <c r="C115" s="27" t="s">
+        <v>190</v>
+      </c>
+      <c r="D115" s="20" t="s">
+        <v>56</v>
+      </c>
+      <c r="E115" s="20">
+        <v>41.6</v>
+      </c>
+      <c r="F115" s="20" t="s">
+        <v>57</v>
+      </c>
+      <c r="G115" s="20">
+        <v>8.3000000000000007</v>
+      </c>
+    </row>
+    <row r="116" spans="1:101">
+      <c r="B116" s="20"/>
+      <c r="C116" s="27"/>
+      <c r="D116" s="20" t="s">
+        <v>58</v>
+      </c>
+      <c r="E116" s="20">
+        <v>5.5</v>
+      </c>
+      <c r="F116" s="20" t="s">
+        <v>59</v>
+      </c>
+      <c r="G116" s="20">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="117" spans="1:101">
+      <c r="B117" s="20"/>
+      <c r="C117" s="27"/>
+      <c r="D117" s="20" t="s">
+        <v>68</v>
+      </c>
+      <c r="E117" s="20">
+        <v>37.299999999999997</v>
+      </c>
+      <c r="F117" s="20" t="s">
+        <v>64</v>
+      </c>
+      <c r="G117" s="20">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="118" spans="1:101">
+      <c r="B118" s="20"/>
+      <c r="C118" s="27"/>
+      <c r="D118" s="20"/>
+      <c r="E118" s="20"/>
+      <c r="F118" s="20"/>
+      <c r="G118" s="20"/>
+    </row>
+    <row r="119" spans="1:101" s="22" customFormat="1">
+      <c r="A119"/>
+      <c r="C119" s="30" t="s">
         <v>51</v>
       </c>
-      <c r="J116" s="23"/>
-      <c r="K116" s="23"/>
-      <c r="L116" s="23"/>
-      <c r="N116" s="23">
+      <c r="J119" s="23"/>
+      <c r="K119" s="23"/>
+      <c r="L119" s="23"/>
+      <c r="N119" s="23">
         <f>N17</f>
         <v>41133</v>
       </c>
-      <c r="O116" s="23">
-        <f t="shared" ref="O116:BH116" si="8">O17</f>
+      <c r="O119" s="23">
+        <f t="shared" ref="O119:BH119" si="8">O17</f>
         <v>41134</v>
       </c>
-      <c r="P116" s="23">
+      <c r="P119" s="23">
         <f t="shared" si="8"/>
         <v>41135</v>
       </c>
-      <c r="Q116" s="23">
+      <c r="Q119" s="23">
         <f t="shared" si="8"/>
         <v>41136</v>
       </c>
-      <c r="R116" s="23">
+      <c r="R119" s="23">
         <f t="shared" si="8"/>
         <v>41137</v>
       </c>
-      <c r="S116" s="23">
+      <c r="S119" s="23">
         <f t="shared" si="8"/>
         <v>41138</v>
       </c>
-      <c r="T116" s="23">
+      <c r="T119" s="23">
         <f t="shared" si="8"/>
         <v>41139</v>
       </c>
-      <c r="U116" s="23">
+      <c r="U119" s="23">
         <f t="shared" si="8"/>
         <v>41140</v>
       </c>
-      <c r="V116" s="23">
+      <c r="V119" s="23">
         <f t="shared" si="8"/>
         <v>41141</v>
       </c>
-      <c r="W116" s="23">
+      <c r="W119" s="23">
         <f t="shared" si="8"/>
         <v>41142</v>
       </c>
-      <c r="X116" s="23">
+      <c r="X119" s="23">
         <f t="shared" si="8"/>
         <v>41143</v>
       </c>
-      <c r="Y116" s="23">
+      <c r="Y119" s="23">
         <f t="shared" si="8"/>
         <v>41144</v>
       </c>
-      <c r="Z116" s="23">
+      <c r="Z119" s="23">
         <f t="shared" si="8"/>
         <v>41145</v>
       </c>
-      <c r="AA116" s="23">
+      <c r="AA119" s="23">
         <f t="shared" si="8"/>
         <v>41146</v>
       </c>
-      <c r="AB116" s="23">
+      <c r="AB119" s="23">
         <f t="shared" si="8"/>
         <v>41147</v>
       </c>
-      <c r="AC116" s="23">
+      <c r="AC119" s="23">
         <f t="shared" si="8"/>
         <v>41148</v>
       </c>
-      <c r="AD116" s="23">
+      <c r="AD119" s="23">
         <f t="shared" si="8"/>
         <v>41149</v>
       </c>
-      <c r="AE116" s="23">
+      <c r="AE119" s="23">
         <f t="shared" si="8"/>
         <v>41150</v>
       </c>
-      <c r="AF116" s="23">
+      <c r="AF119" s="23">
         <f t="shared" si="8"/>
         <v>41151</v>
       </c>
-      <c r="AG116" s="23">
+      <c r="AG119" s="23">
         <f t="shared" si="8"/>
         <v>41152</v>
       </c>
-      <c r="AH116" s="23">
+      <c r="AH119" s="23">
         <f t="shared" si="8"/>
         <v>41153</v>
       </c>
-      <c r="AI116" s="23">
+      <c r="AI119" s="23">
         <f t="shared" si="8"/>
         <v>41154</v>
       </c>
-      <c r="AJ116" s="23">
+      <c r="AJ119" s="23">
         <f t="shared" si="8"/>
         <v>41155</v>
       </c>
-      <c r="AK116" s="23">
+      <c r="AK119" s="23">
         <f t="shared" si="8"/>
         <v>41156</v>
       </c>
-      <c r="AL116" s="23">
+      <c r="AL119" s="23">
         <f t="shared" si="8"/>
         <v>41157</v>
       </c>
-      <c r="AM116" s="23">
+      <c r="AM119" s="23">
         <f t="shared" si="8"/>
         <v>41158</v>
       </c>
-      <c r="AN116" s="23">
+      <c r="AN119" s="23">
         <f t="shared" si="8"/>
         <v>41159</v>
       </c>
-      <c r="AO116" s="23">
+      <c r="AO119" s="23">
         <f t="shared" si="8"/>
         <v>41160</v>
       </c>
-      <c r="AP116" s="23">
+      <c r="AP119" s="23">
         <f t="shared" si="8"/>
         <v>41161</v>
       </c>
-      <c r="AQ116" s="23">
+      <c r="AQ119" s="23">
         <f t="shared" si="8"/>
         <v>41162</v>
       </c>
-      <c r="AR116" s="23">
+      <c r="AR119" s="23">
         <f t="shared" si="8"/>
         <v>41163</v>
       </c>
-      <c r="AS116" s="23">
+      <c r="AS119" s="23">
         <f t="shared" si="8"/>
         <v>41164</v>
       </c>
-      <c r="AT116" s="23">
+      <c r="AT119" s="23">
         <f t="shared" si="8"/>
         <v>41165</v>
       </c>
-      <c r="AU116" s="23">
+      <c r="AU119" s="23">
         <f t="shared" si="8"/>
         <v>41166</v>
       </c>
-      <c r="AV116" s="23">
+      <c r="AV119" s="23">
         <f t="shared" si="8"/>
         <v>41167</v>
       </c>
-      <c r="AW116" s="23">
+      <c r="AW119" s="23">
         <f t="shared" si="8"/>
         <v>41168</v>
       </c>
-      <c r="AX116" s="23">
+      <c r="AX119" s="23">
         <f t="shared" si="8"/>
         <v>41169</v>
       </c>
-      <c r="AY116" s="23">
+      <c r="AY119" s="23">
         <f t="shared" si="8"/>
         <v>41170</v>
       </c>
-      <c r="AZ116" s="23">
+      <c r="AZ119" s="23">
         <f t="shared" si="8"/>
         <v>41171</v>
       </c>
-      <c r="BA116" s="23">
+      <c r="BA119" s="23">
         <f t="shared" si="8"/>
         <v>41172</v>
       </c>
-      <c r="BB116" s="23">
+      <c r="BB119" s="23">
         <f t="shared" si="8"/>
         <v>41173</v>
       </c>
-      <c r="BC116" s="23">
+      <c r="BC119" s="23">
         <f t="shared" si="8"/>
         <v>41174</v>
       </c>
-      <c r="BD116" s="23">
+      <c r="BD119" s="23">
         <f t="shared" si="8"/>
         <v>41175</v>
       </c>
-      <c r="BE116" s="23">
+      <c r="BE119" s="23">
         <f t="shared" si="8"/>
         <v>41176</v>
       </c>
-      <c r="BF116" s="23">
+      <c r="BF119" s="23">
         <f t="shared" si="8"/>
         <v>41177</v>
       </c>
-      <c r="BG116" s="23">
+      <c r="BG119" s="23">
         <f t="shared" si="8"/>
         <v>41178</v>
       </c>
-      <c r="BH116" s="23">
+      <c r="BH119" s="23">
         <f t="shared" si="8"/>
         <v>41179</v>
       </c>
-      <c r="BI116" s="23"/>
-      <c r="BJ116" s="23"/>
-      <c r="BK116" s="23"/>
-      <c r="BL116" s="23"/>
-      <c r="BM116" s="23"/>
-      <c r="BN116" s="23"/>
-      <c r="BO116" s="23"/>
-      <c r="BP116" s="23"/>
-      <c r="BQ116" s="23"/>
-      <c r="BR116" s="23"/>
-      <c r="BS116" s="23"/>
-      <c r="BT116" s="23"/>
-      <c r="BU116" s="23"/>
-      <c r="BV116" s="23"/>
-      <c r="BW116" s="23"/>
-      <c r="BX116" s="23"/>
-      <c r="BY116" s="23"/>
-      <c r="BZ116" s="23"/>
-      <c r="CA116" s="23"/>
-      <c r="CB116" s="23"/>
-      <c r="CC116" s="23"/>
-      <c r="CD116" s="23"/>
-      <c r="CE116" s="23"/>
-      <c r="CF116" s="23"/>
-      <c r="CG116" s="23"/>
-      <c r="CH116" s="23"/>
-      <c r="CI116" s="23"/>
-      <c r="CJ116" s="23"/>
-      <c r="CK116" s="23"/>
-      <c r="CL116" s="23"/>
-      <c r="CM116" s="23"/>
-      <c r="CN116" s="23"/>
-      <c r="CO116" s="23"/>
-      <c r="CP116" s="23"/>
-      <c r="CQ116" s="23"/>
-      <c r="CR116" s="23"/>
-      <c r="CS116" s="23"/>
-      <c r="CT116" s="23"/>
-      <c r="CU116" s="23"/>
-      <c r="CV116" s="23"/>
-      <c r="CW116" s="23"/>
+      <c r="BI119" s="23"/>
+      <c r="BJ119" s="23"/>
+      <c r="BK119" s="23"/>
+      <c r="BL119" s="23"/>
+      <c r="BM119" s="23"/>
+      <c r="BN119" s="23"/>
+      <c r="BO119" s="23"/>
+      <c r="BP119" s="23"/>
+      <c r="BQ119" s="23"/>
+      <c r="BR119" s="23"/>
+      <c r="BS119" s="23"/>
+      <c r="BT119" s="23"/>
+      <c r="BU119" s="23"/>
+      <c r="BV119" s="23"/>
+      <c r="BW119" s="23"/>
+      <c r="BX119" s="23"/>
+      <c r="BY119" s="23"/>
+      <c r="BZ119" s="23"/>
+      <c r="CA119" s="23"/>
+      <c r="CB119" s="23"/>
+      <c r="CC119" s="23"/>
+      <c r="CD119" s="23"/>
+      <c r="CE119" s="23"/>
+      <c r="CF119" s="23"/>
+      <c r="CG119" s="23"/>
+      <c r="CH119" s="23"/>
+      <c r="CI119" s="23"/>
+      <c r="CJ119" s="23"/>
+      <c r="CK119" s="23"/>
+      <c r="CL119" s="23"/>
+      <c r="CM119" s="23"/>
+      <c r="CN119" s="23"/>
+      <c r="CO119" s="23"/>
+      <c r="CP119" s="23"/>
+      <c r="CQ119" s="23"/>
+      <c r="CR119" s="23"/>
+      <c r="CS119" s="23"/>
+      <c r="CT119" s="23"/>
+      <c r="CU119" s="23"/>
+      <c r="CV119" s="23"/>
+      <c r="CW119" s="23"/>
     </row>
   </sheetData>
   <autoFilter ref="A17:BH112">
@@ -13656,10 +13791,10 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E67:E77 E113 G113 I107 E96:E101 D18:E39 I76 E82:E94 E103 G103 E106:E108 G106:G108 E110:E111 G110:G111 G56:G60 E56:E64 G50 E50:E53 I41:I47 G41:G47 E41:E47 G18:G35 F18:F23 G67:G77">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E67:E77 E113 G113 I107 E96:E101 D18:E39 I76 E82:E94 E103 G103 E106:E108 G106:G108 E110:E111 G110:G111 G56:G60 E56:E64 G50 E50:E53 I41:I47 G41:G47 E41:E47 G18:G35 F18:F23 G67:G77 G115:G118 E115:E118">
       <formula1>members</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D88:D113 H66:H112 D56:D64 D41:D48 E48 F41:F48 H41:H48 D50:D54 E54 F50:F54 H50:H54 G51:G54 H56:H64 F61:G64 F109:F113 E109 E112 G104:G105 E104:E105 G78:G102 E78:E81 E102 G48 F67:F107 G112 G109 D67:D73 D75:D86 E95 F56:F60">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H66:H112 D56:D64 D41:D48 E48 F41:F48 H41:H48 D50:D54 E54 F50:F54 H50:H54 G51:G54 H56:H64 F61:G64 G114 E109 E112 G104:G105 E104:E105 G78:G102 E78:E81 E102 G48 F67:F107 G112 G109 D67:D73 D75:D86 E95 F56:F60 E114 F109:F118 D88:D118">
       <formula1>$C$2:$C$16</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L82:L83 L101:L104 L85:L93 L106:L111 L67:L78 L41:L47 L50:L53 L56:L64 L20:L39">
@@ -13696,7 +13831,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:IV53"/>
+  <dimension ref="A1:IV56"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="DO52" sqref="DO52"/>
@@ -14386,8 +14521,8 @@
         <v>#VALUE!</v>
       </c>
       <c r="FO1" t="e">
-        <f>AND(Plan!B1,"AAAAAHzUvao=")</f>
-        <v>#VALUE!</v>
+        <f>AND(Plan!#REF!,"AAAAAHzUvao=")</f>
+        <v>#REF!</v>
       </c>
       <c r="FP1" t="e">
         <f>AND(Plan!C1,"AAAAAHzUvas=")</f>
@@ -14402,7 +14537,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="FS1" t="e">
-        <f>AND(Plan!F1,"AAAAAHzUva4=")</f>
+        <f>AND(Plan!L1,"AAAAAHzUva4=")</f>
         <v>#VALUE!</v>
       </c>
       <c r="FT1" t="e">
@@ -14426,12 +14561,12 @@
         <v>#VALUE!</v>
       </c>
       <c r="FY1" t="e">
-        <f>AND(Plan!L1,"AAAAAHzUvbQ=")</f>
+        <f>AND(Plan!B1,"AAAAAHzUvbQ=")</f>
         <v>#VALUE!</v>
       </c>
       <c r="FZ1" t="e">
-        <f>AND(Plan!M1,"AAAAAHzUvbU=")</f>
-        <v>#VALUE!</v>
+        <f>AND(Plan!#REF!,"AAAAAHzUvbU=")</f>
+        <v>#REF!</v>
       </c>
       <c r="GA1" t="e">
         <f>AND(Plan!N1,"AAAAAHzUvbY=")</f>
@@ -14796,7 +14931,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="Q2" t="e">
-        <f>AND(Plan!F2,"AAAAAH//txA=")</f>
+        <f>AND(Plan!L2,"AAAAAH//txA=")</f>
         <v>#VALUE!</v>
       </c>
       <c r="R2" t="e">
@@ -14836,12 +14971,12 @@
         <v>#VALUE!</v>
       </c>
       <c r="AA2" t="e">
-        <f>AND(Plan!L2,"AAAAAH//txo=")</f>
+        <f>AND(Plan!B2,"AAAAAH//txo=")</f>
         <v>#VALUE!</v>
       </c>
       <c r="AB2" t="e">
-        <f>AND(Plan!M2,"AAAAAH//txs=")</f>
-        <v>#VALUE!</v>
+        <f>AND(Plan!#REF!,"AAAAAH//txs=")</f>
+        <v>#REF!</v>
       </c>
       <c r="AC2" t="e">
         <f>AND(Plan!N2,"AAAAAH//txw=")</f>
@@ -16022,7 +16157,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="BO3" t="e">
-        <f>AND(Plan!F3,"AAAAAH/3XUI=")</f>
+        <f>AND(Plan!L3,"AAAAAH/3XUI=")</f>
         <v>#VALUE!</v>
       </c>
       <c r="BP3" t="e">
@@ -16062,12 +16197,12 @@
         <v>#VALUE!</v>
       </c>
       <c r="BY3" t="e">
-        <f>AND(Plan!L3,"AAAAAH/3XUw=")</f>
+        <f>AND(Plan!B3,"AAAAAH/3XUw=")</f>
         <v>#VALUE!</v>
       </c>
       <c r="BZ3" t="e">
-        <f>AND(Plan!M3,"AAAAAH/3XU0=")</f>
-        <v>#VALUE!</v>
+        <f>AND(Plan!#REF!,"AAAAAH/3XU0=")</f>
+        <v>#REF!</v>
       </c>
       <c r="CA3" t="e">
         <f>AND(Plan!N3,"AAAAAH/3XU4=")</f>
@@ -16430,7 +16565,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="FM3" t="e">
-        <f>AND(Plan!F4,"AAAAAH/3Xag=")</f>
+        <f>AND(Plan!L4,"AAAAAH/3Xag=")</f>
         <v>#VALUE!</v>
       </c>
       <c r="FN3" t="e">
@@ -16470,12 +16605,12 @@
         <v>#VALUE!</v>
       </c>
       <c r="FW3" t="e">
-        <f>AND(Plan!L4,"AAAAAH/3XbI=")</f>
+        <f>AND(Plan!B4,"AAAAAH/3XbI=")</f>
         <v>#VALUE!</v>
       </c>
       <c r="FX3" t="e">
-        <f>AND(Plan!M4,"AAAAAH/3XbM=")</f>
-        <v>#VALUE!</v>
+        <f>AND(Plan!#REF!,"AAAAAH/3XbM=")</f>
+        <v>#REF!</v>
       </c>
       <c r="FY3" t="e">
         <f>AND(Plan!N4,"AAAAAH/3XbQ=")</f>
@@ -16840,7 +16975,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="O4" t="e">
-        <f>AND(Plan!F5,"AAAAADq38g4=")</f>
+        <f>AND(Plan!L5,"AAAAADq38g4=")</f>
         <v>#VALUE!</v>
       </c>
       <c r="P4" t="e">
@@ -16880,12 +17015,12 @@
         <v>#VALUE!</v>
       </c>
       <c r="Y4" t="e">
-        <f>AND(Plan!L5,"AAAAADq38hg=")</f>
+        <f>AND(Plan!B5,"AAAAADq38hg=")</f>
         <v>#VALUE!</v>
       </c>
       <c r="Z4" t="e">
-        <f>AND(Plan!M5,"AAAAADq38hk=")</f>
-        <v>#VALUE!</v>
+        <f>AND(Plan!#REF!,"AAAAADq38hk=")</f>
+        <v>#REF!</v>
       </c>
       <c r="AA4" t="e">
         <f>AND(Plan!N5,"AAAAADq38ho=")</f>
@@ -17248,7 +17383,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="DM4" t="e">
-        <f>AND(Plan!F6,"AAAAADq38nQ=")</f>
+        <f>AND(Plan!L6,"AAAAADq38nQ=")</f>
         <v>#VALUE!</v>
       </c>
       <c r="DN4" t="e">
@@ -17288,12 +17423,12 @@
         <v>#VALUE!</v>
       </c>
       <c r="DW4" t="e">
-        <f>AND(Plan!L6,"AAAAADq38n4=")</f>
+        <f>AND(Plan!B6,"AAAAADq38n4=")</f>
         <v>#VALUE!</v>
       </c>
       <c r="DX4" t="e">
-        <f>AND(Plan!M6,"AAAAADq38n8=")</f>
-        <v>#VALUE!</v>
+        <f>AND(Plan!#REF!,"AAAAADq38n8=")</f>
+        <v>#REF!</v>
       </c>
       <c r="DY4" t="e">
         <f>AND(Plan!N6,"AAAAADq38oA=")</f>
@@ -17656,7 +17791,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="HK4" t="e">
-        <f>AND(Plan!F7,"AAAAADq38to=")</f>
+        <f>AND(Plan!L7,"AAAAADq38to=")</f>
         <v>#VALUE!</v>
       </c>
       <c r="HL4" t="e">
@@ -17696,12 +17831,12 @@
         <v>#VALUE!</v>
       </c>
       <c r="HU4" t="e">
-        <f>AND(Plan!L7,"AAAAADq38uQ=")</f>
+        <f>AND(Plan!B8,"AAAAADq38uQ=")</f>
         <v>#VALUE!</v>
       </c>
       <c r="HV4" t="e">
-        <f>AND(Plan!M7,"AAAAADq38uU=")</f>
-        <v>#VALUE!</v>
+        <f>AND(Plan!#REF!,"AAAAADq38uU=")</f>
+        <v>#REF!</v>
       </c>
       <c r="HW4" t="e">
         <f>AND(Plan!N7,"AAAAADq38uY=")</f>
@@ -18066,7 +18201,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="BM5" t="e">
-        <f>AND(Plan!F8,"AAAAAH73dkA=")</f>
+        <f>AND(Plan!L8,"AAAAAH73dkA=")</f>
         <v>#VALUE!</v>
       </c>
       <c r="BN5" t="e">
@@ -18106,12 +18241,12 @@
         <v>#VALUE!</v>
       </c>
       <c r="BW5" t="e">
-        <f>AND(Plan!L8,"AAAAAH73dko=")</f>
-        <v>#VALUE!</v>
+        <f>AND(Plan!#REF!,"AAAAAH73dko=")</f>
+        <v>#REF!</v>
       </c>
       <c r="BX5" t="e">
-        <f>AND(Plan!M8,"AAAAAH73dks=")</f>
-        <v>#VALUE!</v>
+        <f>AND(Plan!#REF!,"AAAAAH73dks=")</f>
+        <v>#REF!</v>
       </c>
       <c r="BY5" t="e">
         <f>AND(Plan!N8,"AAAAAH73dkw=")</f>
@@ -18474,7 +18609,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="FK5" t="e">
-        <f>AND(Plan!F9,"AAAAAH73dqY=")</f>
+        <f>AND(Plan!L9,"AAAAAH73dqY=")</f>
         <v>#VALUE!</v>
       </c>
       <c r="FL5" t="e">
@@ -18514,12 +18649,12 @@
         <v>#VALUE!</v>
       </c>
       <c r="FU5" t="e">
-        <f>AND(Plan!L9,"AAAAAH73drA=")</f>
+        <f>AND(Plan!B9,"AAAAAH73drA=")</f>
         <v>#VALUE!</v>
       </c>
       <c r="FV5" t="e">
-        <f>AND(Plan!M9,"AAAAAH73drE=")</f>
-        <v>#VALUE!</v>
+        <f>AND(Plan!#REF!,"AAAAAH73drE=")</f>
+        <v>#REF!</v>
       </c>
       <c r="FW5" t="e">
         <f>AND(Plan!N9,"AAAAAH73drI=")</f>
@@ -18875,16 +19010,16 @@
         <f>AND(Plan!CW9,"AAAAAH/rZwk=")</f>
         <v>#VALUE!</v>
       </c>
-      <c r="K6">
+      <c r="K6" t="e">
         <f>IF(Plan!10:10,"AAAAAH/rZwo=",0)</f>
-        <v>0</v>
+        <v>#VALUE!</v>
       </c>
       <c r="L6" t="e">
         <f>AND(Plan!A10,"AAAAAH/rZws=")</f>
         <v>#VALUE!</v>
       </c>
       <c r="M6" t="e">
-        <f>AND(Plan!F10,"AAAAAH/rZww=")</f>
+        <f>AND(Plan!L10,"AAAAAH/rZww=")</f>
         <v>#VALUE!</v>
       </c>
       <c r="N6" t="e">
@@ -18924,12 +19059,12 @@
         <v>#VALUE!</v>
       </c>
       <c r="W6" t="e">
-        <f>AND(Plan!L10,"AAAAAH/rZxY=")</f>
+        <f>AND(Plan!B10,"AAAAAH/rZxY=")</f>
         <v>#VALUE!</v>
       </c>
       <c r="X6" t="e">
-        <f>AND(Plan!M10,"AAAAAH/rZxc=")</f>
-        <v>#VALUE!</v>
+        <f>AND(Plan!#REF!,"AAAAAH/rZxc=")</f>
+        <v>#REF!</v>
       </c>
       <c r="Y6" t="e">
         <f>AND(Plan!N10,"AAAAAH/rZxg=")</f>
@@ -19292,7 +19427,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="DK6" t="e">
-        <f>AND(Plan!F11,"AAAAAH/rZ3I=")</f>
+        <f>AND(Plan!L11,"AAAAAH/rZ3I=")</f>
         <v>#VALUE!</v>
       </c>
       <c r="DL6" t="e">
@@ -19332,12 +19467,12 @@
         <v>#VALUE!</v>
       </c>
       <c r="DU6" t="e">
-        <f>AND(Plan!L11,"AAAAAH/rZ3w=")</f>
+        <f>AND(Plan!B11,"AAAAAH/rZ3w=")</f>
         <v>#VALUE!</v>
       </c>
       <c r="DV6" t="e">
-        <f>AND(Plan!M11,"AAAAAH/rZ30=")</f>
-        <v>#VALUE!</v>
+        <f>AND(Plan!#REF!,"AAAAAH/rZ30=")</f>
+        <v>#REF!</v>
       </c>
       <c r="DW6" t="e">
         <f>AND(Plan!N11,"AAAAAH/rZ34=")</f>
@@ -19700,7 +19835,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="HI6" t="e">
-        <f>AND(Plan!F12,"AAAAAH/rZ9g=")</f>
+        <f>AND(Plan!L12,"AAAAAH/rZ9g=")</f>
         <v>#VALUE!</v>
       </c>
       <c r="HJ6" t="e">
@@ -19740,12 +19875,12 @@
         <v>#VALUE!</v>
       </c>
       <c r="HS6" t="e">
-        <f>AND(Plan!L12,"AAAAAH/rZ+I=")</f>
+        <f>AND(Plan!B12,"AAAAAH/rZ+I=")</f>
         <v>#VALUE!</v>
       </c>
       <c r="HT6" t="e">
-        <f>AND(Plan!M12,"AAAAAH/rZ+M=")</f>
-        <v>#VALUE!</v>
+        <f>AND(Plan!#REF!,"AAAAAH/rZ+M=")</f>
+        <v>#REF!</v>
       </c>
       <c r="HU6" t="e">
         <f>AND(Plan!N12,"AAAAAH/rZ+Q=")</f>
@@ -20110,7 +20245,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="BK7" t="e">
-        <f>AND(Plan!F13,"AAAAAG7bfz4=")</f>
+        <f>AND(Plan!L13,"AAAAAG7bfz4=")</f>
         <v>#VALUE!</v>
       </c>
       <c r="BL7" t="e">
@@ -20150,12 +20285,12 @@
         <v>#VALUE!</v>
       </c>
       <c r="BU7" t="e">
-        <f>AND(Plan!L13,"AAAAAG7bf0g=")</f>
+        <f>AND(Plan!B13,"AAAAAG7bf0g=")</f>
         <v>#VALUE!</v>
       </c>
       <c r="BV7" t="e">
-        <f>AND(Plan!M13,"AAAAAG7bf0k=")</f>
-        <v>#VALUE!</v>
+        <f>AND(Plan!#REF!,"AAAAAG7bf0k=")</f>
+        <v>#REF!</v>
       </c>
       <c r="BW7" t="e">
         <f>AND(Plan!N13,"AAAAAG7bf0o=")</f>
@@ -20518,7 +20653,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="FI7" t="e">
-        <f>AND(Plan!F14,"AAAAAG7bf6Q=")</f>
+        <f>AND(Plan!L14,"AAAAAG7bf6Q=")</f>
         <v>#VALUE!</v>
       </c>
       <c r="FJ7" t="e">
@@ -20558,12 +20693,12 @@
         <v>#VALUE!</v>
       </c>
       <c r="FS7" t="e">
-        <f>AND(Plan!L14,"AAAAAG7bf64=")</f>
+        <f>AND(Plan!B14,"AAAAAG7bf64=")</f>
         <v>#VALUE!</v>
       </c>
       <c r="FT7" t="e">
-        <f>AND(Plan!M14,"AAAAAG7bf68=")</f>
-        <v>#VALUE!</v>
+        <f>AND(Plan!#REF!,"AAAAAG7bf68=")</f>
+        <v>#REF!</v>
       </c>
       <c r="FU7" t="e">
         <f>AND(Plan!N14,"AAAAAG7bf7A=")</f>
@@ -20928,7 +21063,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="K8" t="e">
-        <f>AND(Plan!F16,"AAAAAArvnwo=")</f>
+        <f>AND(Plan!L16,"AAAAAArvnwo=")</f>
         <v>#VALUE!</v>
       </c>
       <c r="L8" t="e">
@@ -20968,12 +21103,12 @@
         <v>#VALUE!</v>
       </c>
       <c r="U8" t="e">
-        <f>AND(Plan!L16,"AAAAAArvnxQ=")</f>
+        <f>AND(Plan!B16,"AAAAAArvnxQ=")</f>
         <v>#VALUE!</v>
       </c>
       <c r="V8" t="e">
-        <f>AND(Plan!M16,"AAAAAArvnxU=")</f>
-        <v>#VALUE!</v>
+        <f>AND(Plan!#REF!,"AAAAAArvnxU=")</f>
+        <v>#REF!</v>
       </c>
       <c r="W8" t="e">
         <f>AND(Plan!N16,"AAAAAArvnxY=")</f>
@@ -61142,247 +61277,247 @@
         <v>#VALUE!</v>
       </c>
       <c r="BI47">
-        <f>IF(Plan!116:116,"AAAAAGV/8jw=",0)</f>
+        <f>IF(Plan!119:119,"AAAAAGV/8jw=",0)</f>
         <v>0</v>
       </c>
       <c r="BJ47" t="e">
-        <f>AND(Plan!A116,"AAAAAGV/8j0=")</f>
+        <f>AND(Plan!A119,"AAAAAGV/8j0=")</f>
         <v>#VALUE!</v>
       </c>
       <c r="BK47" t="e">
-        <f>AND(Plan!B116,"AAAAAGV/8j4=")</f>
+        <f>AND(Plan!B119,"AAAAAGV/8j4=")</f>
         <v>#VALUE!</v>
       </c>
       <c r="BL47" t="e">
-        <f>AND(Plan!C116,"AAAAAGV/8j8=")</f>
+        <f>AND(Plan!C119,"AAAAAGV/8j8=")</f>
         <v>#VALUE!</v>
       </c>
       <c r="BM47" t="e">
-        <f>AND(Plan!D116,"AAAAAGV/8kA=")</f>
+        <f>AND(Plan!D119,"AAAAAGV/8kA=")</f>
         <v>#VALUE!</v>
       </c>
       <c r="BN47" t="e">
-        <f>AND(Plan!E116,"AAAAAGV/8kE=")</f>
+        <f>AND(Plan!E119,"AAAAAGV/8kE=")</f>
         <v>#VALUE!</v>
       </c>
       <c r="BO47" t="e">
-        <f>AND(Plan!F116,"AAAAAGV/8kI=")</f>
+        <f>AND(Plan!F119,"AAAAAGV/8kI=")</f>
         <v>#VALUE!</v>
       </c>
       <c r="BP47" t="e">
-        <f>AND(Plan!G116,"AAAAAGV/8kM=")</f>
+        <f>AND(Plan!G119,"AAAAAGV/8kM=")</f>
         <v>#VALUE!</v>
       </c>
       <c r="BQ47" t="e">
-        <f>AND(Plan!H116,"AAAAAGV/8kQ=")</f>
+        <f>AND(Plan!H119,"AAAAAGV/8kQ=")</f>
         <v>#VALUE!</v>
       </c>
       <c r="BR47" t="e">
-        <f>AND(Plan!I116,"AAAAAGV/8kU=")</f>
+        <f>AND(Plan!I119,"AAAAAGV/8kU=")</f>
         <v>#VALUE!</v>
       </c>
       <c r="BS47" t="e">
-        <f>AND(Plan!J116,"AAAAAGV/8kY=")</f>
+        <f>AND(Plan!J119,"AAAAAGV/8kY=")</f>
         <v>#VALUE!</v>
       </c>
       <c r="BT47" t="e">
-        <f>AND(Plan!K116,"AAAAAGV/8kc=")</f>
+        <f>AND(Plan!K119,"AAAAAGV/8kc=")</f>
         <v>#VALUE!</v>
       </c>
       <c r="BU47" t="e">
-        <f>AND(Plan!L116,"AAAAAGV/8kg=")</f>
+        <f>AND(Plan!L119,"AAAAAGV/8kg=")</f>
         <v>#VALUE!</v>
       </c>
       <c r="BV47" t="e">
-        <f>AND(Plan!M116,"AAAAAGV/8kk=")</f>
+        <f>AND(Plan!M119,"AAAAAGV/8kk=")</f>
         <v>#VALUE!</v>
       </c>
       <c r="BW47" t="e">
-        <f>AND(Plan!N116,"AAAAAGV/8ko=")</f>
+        <f>AND(Plan!N119,"AAAAAGV/8ko=")</f>
         <v>#VALUE!</v>
       </c>
       <c r="BX47" t="e">
-        <f>AND(Plan!O116,"AAAAAGV/8ks=")</f>
+        <f>AND(Plan!O119,"AAAAAGV/8ks=")</f>
         <v>#VALUE!</v>
       </c>
       <c r="BY47" t="e">
-        <f>AND(Plan!P116,"AAAAAGV/8kw=")</f>
+        <f>AND(Plan!P119,"AAAAAGV/8kw=")</f>
         <v>#VALUE!</v>
       </c>
       <c r="BZ47" t="e">
-        <f>AND(Plan!Q116,"AAAAAGV/8k0=")</f>
+        <f>AND(Plan!Q119,"AAAAAGV/8k0=")</f>
         <v>#VALUE!</v>
       </c>
       <c r="CA47" t="e">
-        <f>AND(Plan!R116,"AAAAAGV/8k4=")</f>
+        <f>AND(Plan!R119,"AAAAAGV/8k4=")</f>
         <v>#VALUE!</v>
       </c>
       <c r="CB47" t="e">
-        <f>AND(Plan!S116,"AAAAAGV/8k8=")</f>
+        <f>AND(Plan!S119,"AAAAAGV/8k8=")</f>
         <v>#VALUE!</v>
       </c>
       <c r="CC47" t="e">
-        <f>AND(Plan!T116,"AAAAAGV/8lA=")</f>
+        <f>AND(Plan!T119,"AAAAAGV/8lA=")</f>
         <v>#VALUE!</v>
       </c>
       <c r="CD47" t="e">
-        <f>AND(Plan!U116,"AAAAAGV/8lE=")</f>
+        <f>AND(Plan!U119,"AAAAAGV/8lE=")</f>
         <v>#VALUE!</v>
       </c>
       <c r="CE47" t="e">
-        <f>AND(Plan!V116,"AAAAAGV/8lI=")</f>
+        <f>AND(Plan!V119,"AAAAAGV/8lI=")</f>
         <v>#VALUE!</v>
       </c>
       <c r="CF47" t="e">
-        <f>AND(Plan!W116,"AAAAAGV/8lM=")</f>
+        <f>AND(Plan!W119,"AAAAAGV/8lM=")</f>
         <v>#VALUE!</v>
       </c>
       <c r="CG47" t="e">
-        <f>AND(Plan!X116,"AAAAAGV/8lQ=")</f>
+        <f>AND(Plan!X119,"AAAAAGV/8lQ=")</f>
         <v>#VALUE!</v>
       </c>
       <c r="CH47" t="e">
-        <f>AND(Plan!Y116,"AAAAAGV/8lU=")</f>
+        <f>AND(Plan!Y119,"AAAAAGV/8lU=")</f>
         <v>#VALUE!</v>
       </c>
       <c r="CI47" t="e">
-        <f>AND(Plan!Z116,"AAAAAGV/8lY=")</f>
+        <f>AND(Plan!Z119,"AAAAAGV/8lY=")</f>
         <v>#VALUE!</v>
       </c>
       <c r="CJ47" t="e">
-        <f>AND(Plan!AA116,"AAAAAGV/8lc=")</f>
+        <f>AND(Plan!AA119,"AAAAAGV/8lc=")</f>
         <v>#VALUE!</v>
       </c>
       <c r="CK47" t="e">
-        <f>AND(Plan!AB116,"AAAAAGV/8lg=")</f>
+        <f>AND(Plan!AB119,"AAAAAGV/8lg=")</f>
         <v>#VALUE!</v>
       </c>
       <c r="CL47" t="e">
-        <f>AND(Plan!AC116,"AAAAAGV/8lk=")</f>
+        <f>AND(Plan!AC119,"AAAAAGV/8lk=")</f>
         <v>#VALUE!</v>
       </c>
       <c r="CM47" t="e">
-        <f>AND(Plan!AD116,"AAAAAGV/8lo=")</f>
+        <f>AND(Plan!AD119,"AAAAAGV/8lo=")</f>
         <v>#VALUE!</v>
       </c>
       <c r="CN47" t="e">
-        <f>AND(Plan!AE116,"AAAAAGV/8ls=")</f>
+        <f>AND(Plan!AE119,"AAAAAGV/8ls=")</f>
         <v>#VALUE!</v>
       </c>
       <c r="CO47" t="e">
-        <f>AND(Plan!AF116,"AAAAAGV/8lw=")</f>
+        <f>AND(Plan!AF119,"AAAAAGV/8lw=")</f>
         <v>#VALUE!</v>
       </c>
       <c r="CP47" t="e">
-        <f>AND(Plan!AG116,"AAAAAGV/8l0=")</f>
+        <f>AND(Plan!AG119,"AAAAAGV/8l0=")</f>
         <v>#VALUE!</v>
       </c>
       <c r="CQ47" t="e">
-        <f>AND(Plan!AH116,"AAAAAGV/8l4=")</f>
+        <f>AND(Plan!AH119,"AAAAAGV/8l4=")</f>
         <v>#VALUE!</v>
       </c>
       <c r="CR47" t="e">
-        <f>AND(Plan!AI116,"AAAAAGV/8l8=")</f>
+        <f>AND(Plan!AI119,"AAAAAGV/8l8=")</f>
         <v>#VALUE!</v>
       </c>
       <c r="CS47" t="e">
-        <f>AND(Plan!AJ116,"AAAAAGV/8mA=")</f>
+        <f>AND(Plan!AJ119,"AAAAAGV/8mA=")</f>
         <v>#VALUE!</v>
       </c>
       <c r="CT47" t="e">
-        <f>AND(Plan!AK116,"AAAAAGV/8mE=")</f>
+        <f>AND(Plan!AK119,"AAAAAGV/8mE=")</f>
         <v>#VALUE!</v>
       </c>
       <c r="CU47" t="e">
-        <f>AND(Plan!AL116,"AAAAAGV/8mI=")</f>
+        <f>AND(Plan!AL119,"AAAAAGV/8mI=")</f>
         <v>#VALUE!</v>
       </c>
       <c r="CV47" t="e">
-        <f>AND(Plan!AM116,"AAAAAGV/8mM=")</f>
+        <f>AND(Plan!AM119,"AAAAAGV/8mM=")</f>
         <v>#VALUE!</v>
       </c>
       <c r="CW47" t="e">
-        <f>AND(Plan!AN116,"AAAAAGV/8mQ=")</f>
+        <f>AND(Plan!AN119,"AAAAAGV/8mQ=")</f>
         <v>#VALUE!</v>
       </c>
       <c r="CX47" t="e">
-        <f>AND(Plan!AO116,"AAAAAGV/8mU=")</f>
+        <f>AND(Plan!AO119,"AAAAAGV/8mU=")</f>
         <v>#VALUE!</v>
       </c>
       <c r="CY47" t="e">
-        <f>AND(Plan!AP116,"AAAAAGV/8mY=")</f>
+        <f>AND(Plan!AP119,"AAAAAGV/8mY=")</f>
         <v>#VALUE!</v>
       </c>
       <c r="CZ47" t="e">
-        <f>AND(Plan!AQ116,"AAAAAGV/8mc=")</f>
+        <f>AND(Plan!AQ119,"AAAAAGV/8mc=")</f>
         <v>#VALUE!</v>
       </c>
       <c r="DA47" t="e">
-        <f>AND(Plan!AR116,"AAAAAGV/8mg=")</f>
+        <f>AND(Plan!AR119,"AAAAAGV/8mg=")</f>
         <v>#VALUE!</v>
       </c>
       <c r="DB47" t="e">
-        <f>AND(Plan!AS116,"AAAAAGV/8mk=")</f>
+        <f>AND(Plan!AS119,"AAAAAGV/8mk=")</f>
         <v>#VALUE!</v>
       </c>
       <c r="DC47" t="e">
-        <f>AND(Plan!AT116,"AAAAAGV/8mo=")</f>
+        <f>AND(Plan!AT119,"AAAAAGV/8mo=")</f>
         <v>#VALUE!</v>
       </c>
       <c r="DD47" t="e">
-        <f>AND(Plan!AU116,"AAAAAGV/8ms=")</f>
+        <f>AND(Plan!AU119,"AAAAAGV/8ms=")</f>
         <v>#VALUE!</v>
       </c>
       <c r="DE47" t="e">
-        <f>AND(Plan!AV116,"AAAAAGV/8mw=")</f>
+        <f>AND(Plan!AV119,"AAAAAGV/8mw=")</f>
         <v>#VALUE!</v>
       </c>
       <c r="DF47" t="e">
-        <f>AND(Plan!AW116,"AAAAAGV/8m0=")</f>
+        <f>AND(Plan!AW119,"AAAAAGV/8m0=")</f>
         <v>#VALUE!</v>
       </c>
       <c r="DG47" t="e">
-        <f>AND(Plan!AX116,"AAAAAGV/8m4=")</f>
+        <f>AND(Plan!AX119,"AAAAAGV/8m4=")</f>
         <v>#VALUE!</v>
       </c>
       <c r="DH47" t="e">
-        <f>AND(Plan!AY116,"AAAAAGV/8m8=")</f>
+        <f>AND(Plan!AY119,"AAAAAGV/8m8=")</f>
         <v>#VALUE!</v>
       </c>
       <c r="DI47" t="e">
-        <f>AND(Plan!AZ116,"AAAAAGV/8nA=")</f>
+        <f>AND(Plan!AZ119,"AAAAAGV/8nA=")</f>
         <v>#VALUE!</v>
       </c>
       <c r="DJ47" t="e">
-        <f>AND(Plan!BA116,"AAAAAGV/8nE=")</f>
+        <f>AND(Plan!BA119,"AAAAAGV/8nE=")</f>
         <v>#VALUE!</v>
       </c>
       <c r="DK47" t="e">
-        <f>AND(Plan!BB116,"AAAAAGV/8nI=")</f>
+        <f>AND(Plan!BB119,"AAAAAGV/8nI=")</f>
         <v>#VALUE!</v>
       </c>
       <c r="DL47" t="e">
-        <f>AND(Plan!BC116,"AAAAAGV/8nM=")</f>
+        <f>AND(Plan!BC119,"AAAAAGV/8nM=")</f>
         <v>#VALUE!</v>
       </c>
       <c r="DM47" t="e">
-        <f>AND(Plan!BD116,"AAAAAGV/8nQ=")</f>
+        <f>AND(Plan!BD119,"AAAAAGV/8nQ=")</f>
         <v>#VALUE!</v>
       </c>
       <c r="DN47" t="e">
-        <f>AND(Plan!BE116,"AAAAAGV/8nU=")</f>
+        <f>AND(Plan!BE119,"AAAAAGV/8nU=")</f>
         <v>#VALUE!</v>
       </c>
       <c r="DO47" t="e">
-        <f>AND(Plan!BF116,"AAAAAGV/8nY=")</f>
+        <f>AND(Plan!BF119,"AAAAAGV/8nY=")</f>
         <v>#VALUE!</v>
       </c>
       <c r="DP47" t="e">
-        <f>AND(Plan!BG116,"AAAAAGV/8nc=")</f>
+        <f>AND(Plan!BG119,"AAAAAGV/8nc=")</f>
         <v>#VALUE!</v>
       </c>
       <c r="DQ47" t="e">
-        <f>AND(Plan!BH116,"AAAAAGV/8ng=")</f>
+        <f>AND(Plan!BH119,"AAAAAGV/8ng=")</f>
         <v>#VALUE!</v>
       </c>
       <c r="DR47">
@@ -63199,7 +63334,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="R52" t="e">
-        <f>AND(Plan!F15,"AAAAAHfvvxE=")</f>
+        <f>AND(Plan!L15,"AAAAAHfvvxE=")</f>
         <v>#VALUE!</v>
       </c>
       <c r="S52" t="e">
@@ -63239,12 +63374,12 @@
         <v>#VALUE!</v>
       </c>
       <c r="AB52" t="e">
-        <f>AND(Plan!L15,"AAAAAHfvvxs=")</f>
+        <f>AND(Plan!B15,"AAAAAHfvvxs=")</f>
         <v>#VALUE!</v>
       </c>
       <c r="AC52" t="e">
-        <f>AND(Plan!M15,"AAAAAHfvvxw=")</f>
-        <v>#VALUE!</v>
+        <f>AND(Plan!#REF!,"AAAAAHfvvxw=")</f>
+        <v>#REF!</v>
       </c>
       <c r="AD52" t="e">
         <f>AND(Plan!N15,"AAAAAHfvvx0=")</f>
@@ -63607,44 +63742,44 @@
     </row>
     <row r="53" spans="1:256">
       <c r="A53" t="e">
-        <f>AND(Plan!B2,"AAAAACv8MgA=")</f>
-        <v>#VALUE!</v>
+        <f>AND(Plan!#REF!,"AAAAACv8MgA=")</f>
+        <v>#REF!</v>
       </c>
       <c r="B53" t="e">
-        <f>AND(Plan!B3,"AAAAACv8MgE=")</f>
-        <v>#VALUE!</v>
+        <f>AND(Plan!#REF!,"AAAAACv8MgE=")</f>
+        <v>#REF!</v>
       </c>
       <c r="C53" t="e">
-        <f>AND(Plan!B4,"AAAAACv8MgI=")</f>
-        <v>#VALUE!</v>
+        <f>AND(Plan!#REF!,"AAAAACv8MgI=")</f>
+        <v>#REF!</v>
       </c>
       <c r="D53" t="e">
-        <f>AND(Plan!B5,"AAAAACv8MgM=")</f>
-        <v>#VALUE!</v>
+        <f>AND(Plan!#REF!,"AAAAACv8MgM=")</f>
+        <v>#REF!</v>
       </c>
       <c r="E53" t="e">
-        <f>AND(Plan!B6,"AAAAACv8MgQ=")</f>
-        <v>#VALUE!</v>
+        <f>AND(Plan!#REF!,"AAAAACv8MgQ=")</f>
+        <v>#REF!</v>
       </c>
       <c r="F53" t="e">
-        <f>AND(Plan!B7,"AAAAACv8MgU=")</f>
-        <v>#VALUE!</v>
+        <f>AND(Plan!#REF!,"AAAAACv8MgU=")</f>
+        <v>#REF!</v>
       </c>
       <c r="G53" t="e">
-        <f>AND(Plan!B8,"AAAAACv8MgY=")</f>
-        <v>#VALUE!</v>
+        <f>AND(Plan!#REF!,"AAAAACv8MgY=")</f>
+        <v>#REF!</v>
       </c>
       <c r="H53" t="e">
-        <f>AND(Plan!B9,"AAAAACv8Mgc=")</f>
-        <v>#VALUE!</v>
+        <f>AND(Plan!#REF!,"AAAAACv8Mgc=")</f>
+        <v>#REF!</v>
       </c>
       <c r="I53" t="e">
-        <f>AND(Plan!B10,"AAAAACv8Mgg=")</f>
-        <v>#VALUE!</v>
+        <f>AND(Plan!#REF!,"AAAAACv8Mgg=")</f>
+        <v>#REF!</v>
       </c>
       <c r="J53" t="e">
-        <f>AND(Plan!B11,"AAAAACv8Mgk=")</f>
-        <v>#VALUE!</v>
+        <f>AND(Plan!#REF!,"AAAAACv8Mgk=")</f>
+        <v>#REF!</v>
       </c>
       <c r="K53" t="e">
         <f>AND(Plan!G11,"AAAAACv8Mgo=")</f>
@@ -63659,24 +63794,24 @@
         <v>#VALUE!</v>
       </c>
       <c r="N53" t="e">
-        <f>AND(Plan!B12,"AAAAACv8Mg0=")</f>
-        <v>#VALUE!</v>
+        <f>AND(Plan!#REF!,"AAAAACv8Mg0=")</f>
+        <v>#REF!</v>
       </c>
       <c r="O53" t="e">
-        <f>AND(Plan!B13,"AAAAACv8Mg4=")</f>
-        <v>#VALUE!</v>
+        <f>AND(Plan!#REF!,"AAAAACv8Mg4=")</f>
+        <v>#REF!</v>
       </c>
       <c r="P53" t="e">
-        <f>AND(Plan!B14,"AAAAACv8Mg8=")</f>
-        <v>#VALUE!</v>
+        <f>AND(Plan!#REF!,"AAAAACv8Mg8=")</f>
+        <v>#REF!</v>
       </c>
       <c r="Q53" t="e">
-        <f>AND(Plan!B15,"AAAAACv8MhA=")</f>
-        <v>#VALUE!</v>
+        <f>AND(Plan!#REF!,"AAAAACv8MhA=")</f>
+        <v>#REF!</v>
       </c>
       <c r="R53" t="e">
-        <f>AND(Plan!B16,"AAAAACv8MhE=")</f>
-        <v>#VALUE!</v>
+        <f>AND(Plan!#REF!,"AAAAACv8MhE=")</f>
+        <v>#REF!</v>
       </c>
       <c r="S53">
         <f>IF(Plan!111:111,"AAAAACv8MhI=",0)</f>
@@ -63920,6 +64055,876 @@
       </c>
       <c r="CA53" t="e">
         <f>AND(Plan!BH111,"AAAAACv8Mk4=")</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="54" spans="1:256">
+      <c r="A54">
+        <f>IF(Plan!116:116,"AAAAAGe2+wA=",0)</f>
+        <v>0</v>
+      </c>
+      <c r="B54" t="e">
+        <f>AND(Plan!A116,"AAAAAGe2+wE=")</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="C54" t="e">
+        <f>AND(Plan!B116,"AAAAAGe2+wI=")</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="D54" t="e">
+        <f>AND(Plan!C116,"AAAAAGe2+wM=")</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="E54" t="e">
+        <f>AND(Plan!D116,"AAAAAGe2+wQ=")</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F54" t="e">
+        <f>AND(Plan!E116,"AAAAAGe2+wU=")</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="G54" t="e">
+        <f>AND(Plan!F116,"AAAAAGe2+wY=")</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="H54" t="e">
+        <f>AND(Plan!G116,"AAAAAGe2+wc=")</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="I54" t="e">
+        <f>AND(Plan!H116,"AAAAAGe2+wg=")</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="J54" t="e">
+        <f>AND(Plan!I116,"AAAAAGe2+wk=")</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="K54" t="e">
+        <f>AND(Plan!J116,"AAAAAGe2+wo=")</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="L54" t="e">
+        <f>AND(Plan!K116,"AAAAAGe2+ws=")</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="M54" t="e">
+        <f>AND(Plan!L116,"AAAAAGe2+ww=")</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="N54" t="e">
+        <f>AND(Plan!M116,"AAAAAGe2+w0=")</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="O54" t="e">
+        <f>AND(Plan!N116,"AAAAAGe2+w4=")</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="P54" t="e">
+        <f>AND(Plan!O116,"AAAAAGe2+w8=")</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="Q54" t="e">
+        <f>AND(Plan!P116,"AAAAAGe2+xA=")</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="R54" t="e">
+        <f>AND(Plan!Q116,"AAAAAGe2+xE=")</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="S54" t="e">
+        <f>AND(Plan!R116,"AAAAAGe2+xI=")</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="T54" t="e">
+        <f>AND(Plan!S116,"AAAAAGe2+xM=")</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="U54" t="e">
+        <f>AND(Plan!T116,"AAAAAGe2+xQ=")</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="V54" t="e">
+        <f>AND(Plan!U116,"AAAAAGe2+xU=")</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="W54" t="e">
+        <f>AND(Plan!V116,"AAAAAGe2+xY=")</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="X54" t="e">
+        <f>AND(Plan!W116,"AAAAAGe2+xc=")</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="Y54" t="e">
+        <f>AND(Plan!X116,"AAAAAGe2+xg=")</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="Z54" t="e">
+        <f>AND(Plan!Y116,"AAAAAGe2+xk=")</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AA54" t="e">
+        <f>AND(Plan!Z116,"AAAAAGe2+xo=")</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AB54" t="e">
+        <f>AND(Plan!AA116,"AAAAAGe2+xs=")</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AC54" t="e">
+        <f>AND(Plan!AB116,"AAAAAGe2+xw=")</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AD54" t="e">
+        <f>AND(Plan!AC116,"AAAAAGe2+x0=")</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AE54" t="e">
+        <f>AND(Plan!AD116,"AAAAAGe2+x4=")</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AF54" t="e">
+        <f>AND(Plan!AE116,"AAAAAGe2+x8=")</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AG54" t="e">
+        <f>AND(Plan!AF116,"AAAAAGe2+yA=")</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AH54" t="e">
+        <f>AND(Plan!AG116,"AAAAAGe2+yE=")</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AI54" t="e">
+        <f>AND(Plan!AH116,"AAAAAGe2+yI=")</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AJ54" t="e">
+        <f>AND(Plan!AI116,"AAAAAGe2+yM=")</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AK54" t="e">
+        <f>AND(Plan!AJ116,"AAAAAGe2+yQ=")</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AL54" t="e">
+        <f>AND(Plan!AK116,"AAAAAGe2+yU=")</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AM54" t="e">
+        <f>AND(Plan!AL116,"AAAAAGe2+yY=")</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AN54" t="e">
+        <f>AND(Plan!AM116,"AAAAAGe2+yc=")</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AO54" t="e">
+        <f>AND(Plan!AN116,"AAAAAGe2+yg=")</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AP54" t="e">
+        <f>AND(Plan!AO116,"AAAAAGe2+yk=")</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AQ54" t="e">
+        <f>AND(Plan!AP116,"AAAAAGe2+yo=")</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AR54" t="e">
+        <f>AND(Plan!AQ116,"AAAAAGe2+ys=")</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AS54" t="e">
+        <f>AND(Plan!AR116,"AAAAAGe2+yw=")</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AT54" t="e">
+        <f>AND(Plan!AS116,"AAAAAGe2+y0=")</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AU54" t="e">
+        <f>AND(Plan!AT116,"AAAAAGe2+y4=")</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AV54" t="e">
+        <f>AND(Plan!AU116,"AAAAAGe2+y8=")</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AW54" t="e">
+        <f>AND(Plan!AV116,"AAAAAGe2+zA=")</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AX54" t="e">
+        <f>AND(Plan!AW116,"AAAAAGe2+zE=")</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AY54" t="e">
+        <f>AND(Plan!AX116,"AAAAAGe2+zI=")</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AZ54" t="e">
+        <f>AND(Plan!AY116,"AAAAAGe2+zM=")</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="BA54" t="e">
+        <f>AND(Plan!AZ116,"AAAAAGe2+zQ=")</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="BB54" t="e">
+        <f>AND(Plan!BA116,"AAAAAGe2+zU=")</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="BC54" t="e">
+        <f>AND(Plan!BB116,"AAAAAGe2+zY=")</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="BD54" t="e">
+        <f>AND(Plan!BC116,"AAAAAGe2+zc=")</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="BE54" t="e">
+        <f>AND(Plan!BD116,"AAAAAGe2+zg=")</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="BF54" t="e">
+        <f>AND(Plan!BE116,"AAAAAGe2+zk=")</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="BG54" t="e">
+        <f>AND(Plan!BF116,"AAAAAGe2+zo=")</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="BH54" t="e">
+        <f>AND(Plan!BG116,"AAAAAGe2+zs=")</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="BI54" t="e">
+        <f>AND(Plan!BH116,"AAAAAGe2+zw=")</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="BJ54">
+        <f>IF(Plan!117:117,"AAAAAGe2+z0=",0)</f>
+        <v>0</v>
+      </c>
+      <c r="BK54" t="e">
+        <f>AND(Plan!A117,"AAAAAGe2+z4=")</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="BL54" t="e">
+        <f>AND(Plan!B117,"AAAAAGe2+z8=")</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="BM54" t="e">
+        <f>AND(Plan!C117,"AAAAAGe2+0A=")</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="BN54" t="e">
+        <f>AND(Plan!D117,"AAAAAGe2+0E=")</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="BO54" t="e">
+        <f>AND(Plan!E117,"AAAAAGe2+0I=")</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="BP54" t="e">
+        <f>AND(Plan!F117,"AAAAAGe2+0M=")</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="BQ54" t="e">
+        <f>AND(Plan!G117,"AAAAAGe2+0Q=")</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="BR54" t="e">
+        <f>AND(Plan!H117,"AAAAAGe2+0U=")</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="BS54" t="e">
+        <f>AND(Plan!I117,"AAAAAGe2+0Y=")</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="BT54" t="e">
+        <f>AND(Plan!J117,"AAAAAGe2+0c=")</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="BU54" t="e">
+        <f>AND(Plan!K117,"AAAAAGe2+0g=")</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="BV54" t="e">
+        <f>AND(Plan!L117,"AAAAAGe2+0k=")</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="BW54" t="e">
+        <f>AND(Plan!M117,"AAAAAGe2+0o=")</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="BX54" t="e">
+        <f>AND(Plan!N117,"AAAAAGe2+0s=")</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="BY54" t="e">
+        <f>AND(Plan!O117,"AAAAAGe2+0w=")</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="BZ54" t="e">
+        <f>AND(Plan!P117,"AAAAAGe2+00=")</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="CA54" t="e">
+        <f>AND(Plan!Q117,"AAAAAGe2+04=")</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="CB54" t="e">
+        <f>AND(Plan!R117,"AAAAAGe2+08=")</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="CC54" t="e">
+        <f>AND(Plan!S117,"AAAAAGe2+1A=")</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="CD54" t="e">
+        <f>AND(Plan!T117,"AAAAAGe2+1E=")</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="CE54" t="e">
+        <f>AND(Plan!U117,"AAAAAGe2+1I=")</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="CF54" t="e">
+        <f>AND(Plan!V117,"AAAAAGe2+1M=")</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="CG54" t="e">
+        <f>AND(Plan!W117,"AAAAAGe2+1Q=")</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="CH54" t="e">
+        <f>AND(Plan!X117,"AAAAAGe2+1U=")</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="CI54" t="e">
+        <f>AND(Plan!Y117,"AAAAAGe2+1Y=")</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="CJ54" t="e">
+        <f>AND(Plan!Z117,"AAAAAGe2+1c=")</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="CK54" t="e">
+        <f>AND(Plan!AA117,"AAAAAGe2+1g=")</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="CL54" t="e">
+        <f>AND(Plan!AB117,"AAAAAGe2+1k=")</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="CM54" t="e">
+        <f>AND(Plan!AC117,"AAAAAGe2+1o=")</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="CN54" t="e">
+        <f>AND(Plan!AD117,"AAAAAGe2+1s=")</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="CO54" t="e">
+        <f>AND(Plan!AE117,"AAAAAGe2+1w=")</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="CP54" t="e">
+        <f>AND(Plan!AF117,"AAAAAGe2+10=")</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="CQ54" t="e">
+        <f>AND(Plan!AG117,"AAAAAGe2+14=")</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="CR54" t="e">
+        <f>AND(Plan!AH117,"AAAAAGe2+18=")</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="CS54" t="e">
+        <f>AND(Plan!AI117,"AAAAAGe2+2A=")</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="CT54" t="e">
+        <f>AND(Plan!AJ117,"AAAAAGe2+2E=")</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="CU54" t="e">
+        <f>AND(Plan!AK117,"AAAAAGe2+2I=")</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="CV54" t="e">
+        <f>AND(Plan!AL117,"AAAAAGe2+2M=")</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="CW54" t="e">
+        <f>AND(Plan!AM117,"AAAAAGe2+2Q=")</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="CX54" t="e">
+        <f>AND(Plan!AN117,"AAAAAGe2+2U=")</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="CY54" t="e">
+        <f>AND(Plan!AO117,"AAAAAGe2+2Y=")</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="CZ54" t="e">
+        <f>AND(Plan!AP117,"AAAAAGe2+2c=")</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="DA54" t="e">
+        <f>AND(Plan!AQ117,"AAAAAGe2+2g=")</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="DB54" t="e">
+        <f>AND(Plan!AR117,"AAAAAGe2+2k=")</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="DC54" t="e">
+        <f>AND(Plan!AS117,"AAAAAGe2+2o=")</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="DD54" t="e">
+        <f>AND(Plan!AT117,"AAAAAGe2+2s=")</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="DE54" t="e">
+        <f>AND(Plan!AU117,"AAAAAGe2+2w=")</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="DF54" t="e">
+        <f>AND(Plan!AV117,"AAAAAGe2+20=")</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="DG54" t="e">
+        <f>AND(Plan!AW117,"AAAAAGe2+24=")</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="DH54" t="e">
+        <f>AND(Plan!AX117,"AAAAAGe2+28=")</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="DI54" t="e">
+        <f>AND(Plan!AY117,"AAAAAGe2+3A=")</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="DJ54" t="e">
+        <f>AND(Plan!AZ117,"AAAAAGe2+3E=")</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="DK54" t="e">
+        <f>AND(Plan!BA117,"AAAAAGe2+3I=")</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="DL54" t="e">
+        <f>AND(Plan!BB117,"AAAAAGe2+3M=")</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="DM54" t="e">
+        <f>AND(Plan!BC117,"AAAAAGe2+3Q=")</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="DN54" t="e">
+        <f>AND(Plan!BD117,"AAAAAGe2+3U=")</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="DO54" t="e">
+        <f>AND(Plan!BE117,"AAAAAGe2+3Y=")</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="DP54" t="e">
+        <f>AND(Plan!BF117,"AAAAAGe2+3c=")</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="DQ54" t="e">
+        <f>AND(Plan!BG117,"AAAAAGe2+3g=")</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="DR54" t="e">
+        <f>AND(Plan!BH117,"AAAAAGe2+3k=")</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="DS54">
+        <f>IF(Plan!118:118,"AAAAAGe2+3o=",0)</f>
+        <v>0</v>
+      </c>
+      <c r="DT54" t="e">
+        <f>AND(Plan!A118,"AAAAAGe2+3s=")</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="DU54" t="e">
+        <f>AND(Plan!B118,"AAAAAGe2+3w=")</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="DV54" t="e">
+        <f>AND(Plan!C118,"AAAAAGe2+30=")</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="DW54" t="e">
+        <f>AND(Plan!D118,"AAAAAGe2+34=")</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="DX54" t="e">
+        <f>AND(Plan!E118,"AAAAAGe2+38=")</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="DY54" t="e">
+        <f>AND(Plan!F118,"AAAAAGe2+4A=")</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="DZ54" t="e">
+        <f>AND(Plan!G118,"AAAAAGe2+4E=")</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="EA54" t="e">
+        <f>AND(Plan!H118,"AAAAAGe2+4I=")</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="EB54" t="e">
+        <f>AND(Plan!I118,"AAAAAGe2+4M=")</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="EC54" t="e">
+        <f>AND(Plan!J118,"AAAAAGe2+4Q=")</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="ED54" t="e">
+        <f>AND(Plan!K118,"AAAAAGe2+4U=")</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="EE54" t="e">
+        <f>AND(Plan!L118,"AAAAAGe2+4Y=")</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="EF54" t="e">
+        <f>AND(Plan!M118,"AAAAAGe2+4c=")</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="EG54" t="e">
+        <f>AND(Plan!N118,"AAAAAGe2+4g=")</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="EH54" t="e">
+        <f>AND(Plan!O118,"AAAAAGe2+4k=")</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="EI54" t="e">
+        <f>AND(Plan!P118,"AAAAAGe2+4o=")</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="EJ54" t="e">
+        <f>AND(Plan!Q118,"AAAAAGe2+4s=")</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="EK54" t="e">
+        <f>AND(Plan!R118,"AAAAAGe2+4w=")</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="EL54" t="e">
+        <f>AND(Plan!S118,"AAAAAGe2+40=")</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="EM54" t="e">
+        <f>AND(Plan!T118,"AAAAAGe2+44=")</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="EN54" t="e">
+        <f>AND(Plan!U118,"AAAAAGe2+48=")</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="EO54" t="e">
+        <f>AND(Plan!V118,"AAAAAGe2+5A=")</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="EP54" t="e">
+        <f>AND(Plan!W118,"AAAAAGe2+5E=")</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="EQ54" t="e">
+        <f>AND(Plan!X118,"AAAAAGe2+5I=")</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="ER54" t="e">
+        <f>AND(Plan!Y118,"AAAAAGe2+5M=")</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="ES54" t="e">
+        <f>AND(Plan!Z118,"AAAAAGe2+5Q=")</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="ET54" t="e">
+        <f>AND(Plan!AA118,"AAAAAGe2+5U=")</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="EU54" t="e">
+        <f>AND(Plan!AB118,"AAAAAGe2+5Y=")</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="EV54" t="e">
+        <f>AND(Plan!AC118,"AAAAAGe2+5c=")</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="EW54" t="e">
+        <f>AND(Plan!AD118,"AAAAAGe2+5g=")</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="EX54" t="e">
+        <f>AND(Plan!AE118,"AAAAAGe2+5k=")</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="EY54" t="e">
+        <f>AND(Plan!AF118,"AAAAAGe2+5o=")</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="EZ54" t="e">
+        <f>AND(Plan!AG118,"AAAAAGe2+5s=")</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="FA54" t="e">
+        <f>AND(Plan!AH118,"AAAAAGe2+5w=")</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="FB54" t="e">
+        <f>AND(Plan!AI118,"AAAAAGe2+50=")</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="FC54" t="e">
+        <f>AND(Plan!AJ118,"AAAAAGe2+54=")</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="FD54" t="e">
+        <f>AND(Plan!AK118,"AAAAAGe2+58=")</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="FE54" t="e">
+        <f>AND(Plan!AL118,"AAAAAGe2+6A=")</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="FF54" t="e">
+        <f>AND(Plan!AM118,"AAAAAGe2+6E=")</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="FG54" t="e">
+        <f>AND(Plan!AN118,"AAAAAGe2+6I=")</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="FH54" t="e">
+        <f>AND(Plan!AO118,"AAAAAGe2+6M=")</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="FI54" t="e">
+        <f>AND(Plan!AP118,"AAAAAGe2+6Q=")</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="FJ54" t="e">
+        <f>AND(Plan!AQ118,"AAAAAGe2+6U=")</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="FK54" t="e">
+        <f>AND(Plan!AR118,"AAAAAGe2+6Y=")</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="FL54" t="e">
+        <f>AND(Plan!AS118,"AAAAAGe2+6c=")</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="FM54" t="e">
+        <f>AND(Plan!AT118,"AAAAAGe2+6g=")</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="FN54" t="e">
+        <f>AND(Plan!AU118,"AAAAAGe2+6k=")</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="FO54" t="e">
+        <f>AND(Plan!AV118,"AAAAAGe2+6o=")</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="FP54" t="e">
+        <f>AND(Plan!AW118,"AAAAAGe2+6s=")</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="FQ54" t="e">
+        <f>AND(Plan!AX118,"AAAAAGe2+6w=")</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="FR54" t="e">
+        <f>AND(Plan!AY118,"AAAAAGe2+60=")</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="FS54" t="e">
+        <f>AND(Plan!AZ118,"AAAAAGe2+64=")</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="FT54" t="e">
+        <f>AND(Plan!BA118,"AAAAAGe2+68=")</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="FU54" t="e">
+        <f>AND(Plan!BB118,"AAAAAGe2+7A=")</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="FV54" t="e">
+        <f>AND(Plan!BC118,"AAAAAGe2+7E=")</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="FW54" t="e">
+        <f>AND(Plan!BD118,"AAAAAGe2+7I=")</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="FX54" t="e">
+        <f>AND(Plan!BE118,"AAAAAGe2+7M=")</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="FY54" t="e">
+        <f>AND(Plan!BF118,"AAAAAGe2+7Q=")</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="FZ54" t="e">
+        <f>AND(Plan!BG118,"AAAAAGe2+7U=")</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="GA54" t="e">
+        <f>AND(Plan!BH118,"AAAAAGe2+7Y=")</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="55" spans="1:256">
+      <c r="A55" t="e">
+        <f>AND(Plan!F1,"AAAAAH6XDwA=")</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="B55" t="e">
+        <f>AND(Plan!F2,"AAAAAH6XDwE=")</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="C55" t="e">
+        <f>AND(Plan!F3,"AAAAAH6XDwI=")</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="D55" t="e">
+        <f>AND(Plan!F4,"AAAAAH6XDwM=")</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="E55" t="e">
+        <f>AND(Plan!F5,"AAAAAH6XDwQ=")</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F55" t="e">
+        <f>AND(Plan!F6,"AAAAAH6XDwU=")</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="G55" t="e">
+        <f>AND(Plan!F7,"AAAAAH6XDwY=")</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="H55" t="e">
+        <f>AND(Plan!B7,"AAAAAH6XDwc=")</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="I55" t="e">
+        <f>AND(Plan!F8,"AAAAAH6XDwg=")</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="J55" t="e">
+        <f>AND(Plan!F9,"AAAAAH6XDwk=")</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="K55" t="e">
+        <f>AND(Plan!F10,"AAAAAH6XDwo=")</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="L55" t="e">
+        <f>AND(Plan!F11,"AAAAAH6XDws=")</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="M55" t="e">
+        <f>AND(Plan!F12,"AAAAAH6XDww=")</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="N55" t="e">
+        <f>AND(Plan!F13,"AAAAAH6XDw0=")</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="O55" t="e">
+        <f>AND(Plan!F14,"AAAAAH6XDw4=")</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="P55" t="e">
+        <f>AND(Plan!F15,"AAAAAH6XDw8=")</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="Q55" t="e">
+        <f>AND(Plan!F16,"AAAAAH6XDxA=")</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="56" spans="1:256">
+      <c r="A56" t="e">
+        <f>AND(Plan!M1,"AAAAAFfJ8wA=")</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="B56" t="e">
+        <f>AND(Plan!M2,"AAAAAFfJ8wE=")</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="C56" t="e">
+        <f>AND(Plan!M3,"AAAAAFfJ8wI=")</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="D56" t="e">
+        <f>AND(Plan!M4,"AAAAAFfJ8wM=")</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="E56" t="e">
+        <f>AND(Plan!M5,"AAAAAFfJ8wQ=")</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F56" t="e">
+        <f>AND(Plan!M6,"AAAAAFfJ8wU=")</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="G56" t="e">
+        <f>AND(Plan!M7,"AAAAAFfJ8wY=")</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="H56" t="e">
+        <f>AND(Plan!M8,"AAAAAFfJ8wc=")</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="I56" t="e">
+        <f>AND(Plan!M9,"AAAAAFfJ8wg=")</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="J56" t="e">
+        <f>AND(Plan!M10,"AAAAAFfJ8wk=")</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="K56" t="e">
+        <f>AND(Plan!M11,"AAAAAFfJ8wo=")</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="L56" t="e">
+        <f>AND(Plan!M12,"AAAAAFfJ8ws=")</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="M56" t="e">
+        <f>AND(Plan!M13,"AAAAAFfJ8ww=")</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="N56" t="e">
+        <f>AND(Plan!M14,"AAAAAFfJ8w0=")</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="O56" t="e">
+        <f>AND(Plan!M15,"AAAAAFfJ8w4=")</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="P56" t="e">
+        <f>AND(Plan!M16,"AAAAAFfJ8w8=")</f>
         <v>#VALUE!</v>
       </c>
     </row>

--- a/trunk/Document/VietinBankSC Project Plan v2012.009.20.xlsx
+++ b/trunk/Document/VietinBankSC Project Plan v2012.009.20.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="562" uniqueCount="192">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="565" uniqueCount="193">
   <si>
     <t>GVCM</t>
   </si>
@@ -513,6 +513,9 @@
     <t>Lần 13</t>
   </si>
   <si>
+    <t>Phạt</t>
+  </si>
+  <si>
     <t>Tạo mới nhóm người dùng</t>
   </si>
   <si>
@@ -606,13 +609,13 @@
     <t>Xuất phần mềm</t>
   </si>
   <si>
-    <t>Ủng hộ</t>
-  </si>
-  <si>
     <t>Sửa lỗi phát sinh</t>
   </si>
   <si>
     <t>Thưởng</t>
+  </si>
+  <si>
+    <t>Đã chi 1 triệu</t>
   </si>
 </sst>
 </file>
@@ -1577,8 +1580,8 @@
   </sheetPr>
   <dimension ref="A1:CW119"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1613,7 +1616,7 @@
         <v>37</v>
       </c>
       <c r="E1" s="36" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="G1" s="40"/>
       <c r="H1" s="41">
@@ -1628,7 +1631,7 @@
         <v>36</v>
       </c>
       <c r="L1" s="31" t="s">
-        <v>189</v>
+        <v>158</v>
       </c>
     </row>
     <row r="2" spans="2:66" ht="14.25" customHeight="1">
@@ -1645,7 +1648,7 @@
         <v>293607</v>
       </c>
       <c r="G2" s="42" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="H2" s="47">
         <v>0.15</v>
@@ -1675,7 +1678,7 @@
         <v>561307.5</v>
       </c>
       <c r="G3" s="42" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="H3" s="47">
         <v>0.02</v>
@@ -1683,6 +1686,9 @@
       <c r="I3" s="43">
         <f t="shared" ref="I3:I12" si="1">25875000*H3</f>
         <v>517500</v>
+      </c>
+      <c r="J3" s="25" t="s">
+        <v>64</v>
       </c>
       <c r="K3" s="25" t="s">
         <v>58</v>
@@ -1705,7 +1711,7 @@
         <v>86355</v>
       </c>
       <c r="G4" s="42" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="H4" s="47">
         <v>0.05</v>
@@ -1713,6 +1719,9 @@
       <c r="I4" s="43">
         <f t="shared" si="1"/>
         <v>1293750</v>
+      </c>
+      <c r="J4" s="25" t="s">
+        <v>57</v>
       </c>
       <c r="K4" s="25" t="s">
         <v>78</v>
@@ -1735,7 +1744,7 @@
         <v>86355</v>
       </c>
       <c r="G5" s="42" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="H5" s="47">
         <v>0.05</v>
@@ -1743,6 +1752,9 @@
       <c r="I5" s="43">
         <f>25875000*H5</f>
         <v>1293750</v>
+      </c>
+      <c r="J5" s="14" t="s">
+        <v>192</v>
       </c>
       <c r="K5" s="25" t="s">
         <v>72</v>
@@ -1765,7 +1777,7 @@
         <v>4150221.3000000003</v>
       </c>
       <c r="G6" s="42" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="H6" s="47">
         <v>0.05</v>
@@ -1795,7 +1807,7 @@
         <v>138168</v>
       </c>
       <c r="G7" s="42" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="H7" s="47">
         <v>0.02</v>
@@ -1825,7 +1837,7 @@
         <v>3291852.6</v>
       </c>
       <c r="G8" s="42" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="H8" s="47">
         <v>0.05</v>
@@ -1855,7 +1867,7 @@
         <v>829008</v>
       </c>
       <c r="G9" s="42" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="H9" s="47">
         <v>0.02</v>
@@ -1885,7 +1897,7 @@
         <v>86355</v>
       </c>
       <c r="G10" s="42" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="H10" s="47">
         <v>0.59</v>
@@ -1955,13 +1967,13 @@
         <v>103626</v>
       </c>
       <c r="G13" s="31" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="H13" s="31" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="I13" s="31" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="J13" s="31"/>
       <c r="K13" s="25" t="s">
@@ -2215,10 +2227,10 @@
     </row>
     <row r="15" spans="2:66" s="31" customFormat="1" ht="14.25" customHeight="1">
       <c r="B15" s="50">
-        <v>60000</v>
+        <v>50000</v>
       </c>
       <c r="C15" s="25" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="D15" s="15">
         <f>SUMIF($D$20:$D$151,C15,$E$20:$E$151)+SUMIF($F$20:$F$151,C15,$G$20:$G$151)+ SUMIF($H$20:$H$151,C15,$I$20:$I$151)</f>
@@ -2229,7 +2241,7 @@
         <v>259065</v>
       </c>
       <c r="K15" s="25" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="L15" s="45"/>
     </row>
@@ -6997,7 +7009,7 @@
     <row r="57" spans="2:101">
       <c r="B57" s="20"/>
       <c r="C57" s="27" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="D57" s="20" t="s">
         <v>57</v>
@@ -8356,7 +8368,7 @@
     <row r="69" spans="1:101">
       <c r="B69" s="20"/>
       <c r="C69" s="27" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="D69" s="20" t="s">
         <v>59</v>
@@ -8604,7 +8616,7 @@
     <row r="71" spans="1:101">
       <c r="B71" s="20"/>
       <c r="C71" s="27" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="D71" s="20" t="s">
         <v>56</v>
@@ -8728,7 +8740,7 @@
     <row r="72" spans="1:101">
       <c r="B72" s="20"/>
       <c r="C72" s="27" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="D72" s="20" t="s">
         <v>68</v>
@@ -9100,7 +9112,7 @@
     <row r="75" spans="1:101">
       <c r="B75" s="20"/>
       <c r="C75" s="27" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="D75" s="20" t="s">
         <v>58</v>
@@ -11406,7 +11418,7 @@
         <v>662</v>
       </c>
       <c r="C94" s="27" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="D94" s="20" t="s">
         <v>56</v>
@@ -11619,7 +11631,7 @@
     <row r="96" spans="1:101">
       <c r="B96" s="20"/>
       <c r="C96" s="33" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="D96" s="20" t="s">
         <v>68</v>
@@ -11727,7 +11739,7 @@
     <row r="97" spans="1:101">
       <c r="B97" s="20"/>
       <c r="C97" s="33" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="D97" s="20" t="s">
         <v>68</v>
@@ -11943,7 +11955,7 @@
     <row r="99" spans="1:101">
       <c r="B99" s="20"/>
       <c r="C99" s="33" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="D99" s="20" t="s">
         <v>68</v>
@@ -12051,7 +12063,7 @@
     <row r="100" spans="1:101">
       <c r="B100" s="20"/>
       <c r="C100" s="33" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="D100" s="20" t="s">
         <v>68</v>
@@ -12159,7 +12171,7 @@
     <row r="101" spans="1:101">
       <c r="B101" s="20"/>
       <c r="C101" s="33" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="D101" s="20" t="s">
         <v>68</v>
@@ -12826,7 +12838,7 @@
         <v>25</v>
       </c>
       <c r="F107" s="20" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="G107" s="20">
         <v>15</v>
@@ -13065,7 +13077,7 @@
     <row r="109" spans="1:101" s="26" customFormat="1">
       <c r="A109"/>
       <c r="C109" s="26" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="L109" s="26" t="s">
         <v>39</v>
@@ -13074,7 +13086,7 @@
     <row r="110" spans="1:101">
       <c r="B110" s="20"/>
       <c r="C110" s="27" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="D110" s="20" t="s">
         <v>57</v>
@@ -13218,7 +13230,7 @@
     <row r="111" spans="1:101">
       <c r="B111" s="20"/>
       <c r="C111" s="27" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="D111" s="20" t="s">
         <v>77</v>
@@ -13435,7 +13447,7 @@
     <row r="113" spans="1:101">
       <c r="B113" s="20"/>
       <c r="C113" s="27" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="D113" s="20" t="s">
         <v>57</v>
@@ -63734,10 +63746,10 @@
         <v>#VALUE!</v>
       </c>
       <c r="DN52" s="44" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="DO52" s="48" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
     </row>
     <row r="53" spans="1:256">

--- a/trunk/Document/VietinBankSC Project Plan v2012.009.20.xlsx
+++ b/trunk/Document/VietinBankSC Project Plan v2012.009.20.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="565" uniqueCount="193">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="572" uniqueCount="194">
   <si>
     <t>GVCM</t>
   </si>
@@ -540,9 +540,6 @@
     <t>Cập nhật lãi suất</t>
   </si>
   <si>
-    <t>Quản lý thỏa thuận lãi suất theo khoảng thời gian</t>
-  </si>
-  <si>
     <t>Chi tiết giao dịch chốt lãi (tính lãi)</t>
   </si>
   <si>
@@ -617,6 +614,12 @@
   <si>
     <t>Đã chi 1 triệu</t>
   </si>
+  <si>
+    <t>Cập nhật lãi suất thỏa thuận</t>
+  </si>
+  <si>
+    <t>Sửa</t>
+  </si>
 </sst>
 </file>
 
@@ -626,8 +629,8 @@
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="dd\-mm"/>
     <numFmt numFmtId="165" formatCode="ddd"/>
-    <numFmt numFmtId="176" formatCode="&quot;$&quot;#,##0"/>
-    <numFmt numFmtId="178" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="166" formatCode="&quot;$&quot;#,##0"/>
+    <numFmt numFmtId="167" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="10">
     <font>
@@ -863,22 +866,22 @@
     <xf numFmtId="0" fontId="8" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="16" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="176" fontId="0" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="166" fontId="0" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="44" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="9" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1"/>
     <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="178" fontId="7" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="167" fontId="7" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Currency" xfId="1" builtinId="4"/>
@@ -1419,7 +1422,7 @@
       </c>
     </row>
     <row r="3" spans="1:10">
-      <c r="A3" s="37" t="s">
+      <c r="A3" s="50" t="s">
         <v>22</v>
       </c>
       <c r="B3" s="1" t="s">
@@ -1436,7 +1439,7 @@
       </c>
     </row>
     <row r="4" spans="1:10">
-      <c r="A4" s="37"/>
+      <c r="A4" s="50"/>
       <c r="B4" s="1" t="s">
         <v>1</v>
       </c>
@@ -1451,7 +1454,7 @@
       </c>
     </row>
     <row r="5" spans="1:10">
-      <c r="A5" s="37" t="s">
+      <c r="A5" s="50" t="s">
         <v>21</v>
       </c>
       <c r="B5" s="1" t="s">
@@ -1466,7 +1469,7 @@
       <c r="E5" s="2"/>
     </row>
     <row r="6" spans="1:10">
-      <c r="A6" s="37"/>
+      <c r="A6" s="50"/>
       <c r="B6" s="1" t="s">
         <v>3</v>
       </c>
@@ -1479,7 +1482,7 @@
       <c r="E6" s="2"/>
     </row>
     <row r="7" spans="1:10">
-      <c r="A7" s="37"/>
+      <c r="A7" s="50"/>
       <c r="B7" s="1" t="s">
         <v>4</v>
       </c>
@@ -1580,8 +1583,8 @@
   </sheetPr>
   <dimension ref="A1:CW119"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="I16" sqref="I16"/>
+    <sheetView tabSelected="1" topLeftCell="A103" workbookViewId="0">
+      <selection activeCell="C115" sqref="C115:G117"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1606,8 +1609,8 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:66" ht="14.25" customHeight="1">
-      <c r="B1" s="49" t="s">
-        <v>191</v>
+      <c r="B1" s="48" t="s">
+        <v>190</v>
       </c>
       <c r="C1" s="24" t="s">
         <v>36</v>
@@ -1616,17 +1619,17 @@
         <v>37</v>
       </c>
       <c r="E1" s="36" t="s">
-        <v>185</v>
-      </c>
-      <c r="G1" s="40"/>
-      <c r="H1" s="41">
+        <v>184</v>
+      </c>
+      <c r="G1" s="39"/>
+      <c r="H1" s="40">
         <v>34500000</v>
       </c>
-      <c r="I1" s="41">
-        <f>SUM(I2:I10)</f>
+      <c r="I1" s="40">
+        <f>H1*0.75</f>
         <v>25875000</v>
       </c>
-      <c r="J1" s="41"/>
+      <c r="J1" s="40"/>
       <c r="K1" s="24" t="s">
         <v>36</v>
       </c>
@@ -1635,56 +1638,56 @@
       </c>
     </row>
     <row r="2" spans="2:66" ht="14.25" customHeight="1">
-      <c r="B2" s="50"/>
+      <c r="B2" s="49"/>
       <c r="C2" s="25" t="s">
         <v>61</v>
       </c>
       <c r="D2" s="15">
-        <f>SUMIF($D$20:$D$151,C2,$E$20:$E$151)+SUMIF($F$20:$F$151,C2,$G$20:$G$151)+ SUMIF($H$20:$H$151,C2,$I$20:$I$151)</f>
+        <f t="shared" ref="D2:D16" si="0">SUMIF($D$20:$D$151,C2,$E$20:$E$151)+SUMIF($F$20:$F$151,C2,$G$20:$G$151)+ SUMIF($H$20:$H$151,C2,$I$20:$I$151)</f>
         <v>17</v>
       </c>
-      <c r="E2" s="46">
-        <f>D2*17271</f>
-        <v>293607</v>
-      </c>
-      <c r="G2" s="42" t="s">
-        <v>173</v>
-      </c>
-      <c r="H2" s="47">
+      <c r="E2" s="45">
+        <f>D2*$I$14</f>
+        <v>269190.17736749299</v>
+      </c>
+      <c r="G2" s="41" t="s">
+        <v>172</v>
+      </c>
+      <c r="H2" s="46">
         <v>0.15</v>
       </c>
-      <c r="I2" s="43">
-        <f>25875000*H2</f>
+      <c r="I2" s="42">
+        <f>H2*$I$1</f>
         <v>3881250</v>
       </c>
       <c r="K2" s="25" t="s">
         <v>61</v>
       </c>
-      <c r="L2" s="45"/>
+      <c r="L2" s="44"/>
     </row>
     <row r="3" spans="2:66" ht="14.25" customHeight="1">
-      <c r="B3" s="50">
+      <c r="B3" s="49">
         <v>50000</v>
       </c>
       <c r="C3" s="25" t="s">
         <v>58</v>
       </c>
       <c r="D3" s="15">
-        <f>SUMIF($D$20:$D$151,C3,$E$20:$E$151)+SUMIF($F$20:$F$151,C3,$G$20:$G$151)+ SUMIF($H$20:$H$151,C3,$I$20:$I$151)</f>
+        <f t="shared" si="0"/>
         <v>32.5</v>
       </c>
-      <c r="E3" s="46">
-        <f t="shared" ref="E3:E16" si="0">D3*17271</f>
-        <v>561307.5</v>
-      </c>
-      <c r="G3" s="42" t="s">
-        <v>174</v>
-      </c>
-      <c r="H3" s="47">
+      <c r="E3" s="45">
+        <f>D3*$I$14</f>
+        <v>514628.28026138368</v>
+      </c>
+      <c r="G3" s="41" t="s">
+        <v>173</v>
+      </c>
+      <c r="H3" s="46">
         <v>0.02</v>
       </c>
-      <c r="I3" s="43">
-        <f t="shared" ref="I3:I12" si="1">25875000*H3</f>
+      <c r="I3" s="42">
+        <f t="shared" ref="I3:I10" si="1">H3*$I$1</f>
         <v>517500</v>
       </c>
       <c r="J3" s="25" t="s">
@@ -1693,30 +1696,30 @@
       <c r="K3" s="25" t="s">
         <v>58</v>
       </c>
-      <c r="L3" s="45">
+      <c r="L3" s="44">
         <v>10000</v>
       </c>
     </row>
     <row r="4" spans="2:66" ht="14.25" customHeight="1">
-      <c r="B4" s="50"/>
+      <c r="B4" s="49"/>
       <c r="C4" s="25" t="s">
         <v>78</v>
       </c>
       <c r="D4" s="15">
-        <f>SUMIF($D$20:$D$151,C4,$E$20:$E$151)+SUMIF($F$20:$F$151,C4,$G$20:$G$151)+ SUMIF($H$20:$H$151,C4,$I$20:$I$151)</f>
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="E4" s="46">
-        <f t="shared" si="0"/>
-        <v>86355</v>
-      </c>
-      <c r="G4" s="42" t="s">
-        <v>175</v>
-      </c>
-      <c r="H4" s="47">
+      <c r="E4" s="45">
+        <f t="shared" ref="E3:E16" si="2">D4*$I$14</f>
+        <v>79173.581578674406</v>
+      </c>
+      <c r="G4" s="41" t="s">
+        <v>174</v>
+      </c>
+      <c r="H4" s="46">
         <v>0.05</v>
       </c>
-      <c r="I4" s="43">
+      <c r="I4" s="42">
         <f t="shared" si="1"/>
         <v>1293750</v>
       </c>
@@ -1726,537 +1729,537 @@
       <c r="K4" s="25" t="s">
         <v>78</v>
       </c>
-      <c r="L4" s="45">
+      <c r="L4" s="44">
         <v>10000</v>
       </c>
     </row>
     <row r="5" spans="2:66" ht="14.25" customHeight="1">
-      <c r="B5" s="50"/>
+      <c r="B5" s="49"/>
       <c r="C5" s="25" t="s">
         <v>72</v>
       </c>
       <c r="D5" s="15">
-        <f>SUMIF($D$20:$D$151,C5,$E$20:$E$151)+SUMIF($F$20:$F$151,C5,$G$20:$G$151)+ SUMIF($H$20:$H$151,C5,$I$20:$I$151)</f>
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="E5" s="46">
-        <f t="shared" si="0"/>
-        <v>86355</v>
-      </c>
-      <c r="G5" s="42" t="s">
-        <v>176</v>
-      </c>
-      <c r="H5" s="47">
+      <c r="E5" s="45">
+        <f t="shared" si="2"/>
+        <v>79173.581578674406</v>
+      </c>
+      <c r="G5" s="41" t="s">
+        <v>175</v>
+      </c>
+      <c r="H5" s="46">
         <v>0.05</v>
       </c>
-      <c r="I5" s="43">
-        <f>25875000*H5</f>
+      <c r="I5" s="42">
+        <f t="shared" si="1"/>
         <v>1293750</v>
       </c>
       <c r="J5" s="14" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="K5" s="25" t="s">
         <v>72</v>
       </c>
-      <c r="L5" s="45"/>
+      <c r="L5" s="44"/>
     </row>
     <row r="6" spans="2:66" ht="14.25" customHeight="1">
-      <c r="B6" s="50">
+      <c r="B6" s="49">
         <v>250000</v>
       </c>
       <c r="C6" s="25" t="s">
         <v>68</v>
       </c>
       <c r="D6" s="15">
-        <f>SUMIF($D$20:$D$151,C6,$E$20:$E$151)+SUMIF($F$20:$F$151,C6,$G$20:$G$151)+ SUMIF($H$20:$H$151,C6,$I$20:$I$151)</f>
-        <v>240.3</v>
-      </c>
-      <c r="E6" s="46">
         <f t="shared" si="0"/>
-        <v>4150221.3000000003</v>
-      </c>
-      <c r="G6" s="42" t="s">
-        <v>177</v>
-      </c>
-      <c r="H6" s="47">
+        <v>232.3</v>
+      </c>
+      <c r="E6" s="45">
+        <f t="shared" si="2"/>
+        <v>3678404.6001452133</v>
+      </c>
+      <c r="G6" s="41" t="s">
+        <v>176</v>
+      </c>
+      <c r="H6" s="46">
         <v>0.05</v>
       </c>
-      <c r="I6" s="43">
-        <f>25875000*H6</f>
+      <c r="I6" s="42">
+        <f t="shared" si="1"/>
         <v>1293750</v>
       </c>
       <c r="K6" s="25" t="s">
         <v>68</v>
       </c>
-      <c r="L6" s="45">
+      <c r="L6" s="44">
         <v>95000</v>
       </c>
     </row>
     <row r="7" spans="2:66" ht="14.25" customHeight="1">
-      <c r="B7" s="49"/>
+      <c r="B7" s="48"/>
       <c r="C7" s="25" t="s">
         <v>67</v>
       </c>
       <c r="D7" s="15">
-        <f>SUMIF($D$20:$D$151,C7,$E$20:$E$151)+SUMIF($F$20:$F$151,C7,$G$20:$G$151)+ SUMIF($H$20:$H$151,C7,$I$20:$I$151)</f>
+        <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="E7" s="46">
-        <f t="shared" si="0"/>
-        <v>138168</v>
-      </c>
-      <c r="G7" s="42" t="s">
-        <v>178</v>
-      </c>
-      <c r="H7" s="47">
+      <c r="E7" s="45">
+        <f t="shared" si="2"/>
+        <v>126677.73052587906</v>
+      </c>
+      <c r="G7" s="41" t="s">
+        <v>177</v>
+      </c>
+      <c r="H7" s="46">
         <v>0.02</v>
       </c>
-      <c r="I7" s="43">
-        <f>25875000*H7</f>
+      <c r="I7" s="42">
+        <f t="shared" si="1"/>
         <v>517500</v>
       </c>
       <c r="K7" s="25" t="s">
         <v>67</v>
       </c>
-      <c r="L7" s="45"/>
+      <c r="L7" s="44"/>
     </row>
     <row r="8" spans="2:66" ht="14.25" customHeight="1">
-      <c r="B8" s="50">
+      <c r="B8" s="49">
         <v>150000</v>
       </c>
       <c r="C8" s="25" t="s">
         <v>56</v>
       </c>
       <c r="D8" s="15">
-        <f>SUMIF($D$20:$D$151,C8,$E$20:$E$151)+SUMIF($F$20:$F$151,C8,$G$20:$G$151)+ SUMIF($H$20:$H$151,C8,$I$20:$I$151)</f>
-        <v>190.6</v>
-      </c>
-      <c r="E8" s="46">
         <f t="shared" si="0"/>
-        <v>3291852.6</v>
-      </c>
-      <c r="G8" s="42" t="s">
-        <v>179</v>
-      </c>
-      <c r="H8" s="47">
+        <v>229.6</v>
+      </c>
+      <c r="E8" s="45">
+        <f t="shared" si="2"/>
+        <v>3635650.8660927289</v>
+      </c>
+      <c r="G8" s="41" t="s">
+        <v>178</v>
+      </c>
+      <c r="H8" s="46">
         <v>0.05</v>
       </c>
-      <c r="I8" s="43">
-        <f>25875000*H8</f>
+      <c r="I8" s="42">
+        <f t="shared" si="1"/>
         <v>1293750</v>
       </c>
       <c r="K8" s="25" t="s">
         <v>56</v>
       </c>
-      <c r="L8" s="45">
+      <c r="L8" s="44">
         <v>100000</v>
       </c>
     </row>
     <row r="9" spans="2:66" ht="14.25" customHeight="1">
-      <c r="B9" s="50"/>
+      <c r="B9" s="49"/>
       <c r="C9" s="25" t="s">
         <v>59</v>
       </c>
       <c r="D9" s="15">
-        <f>SUMIF($D$20:$D$151,C9,$E$20:$E$151)+SUMIF($F$20:$F$151,C9,$G$20:$G$151)+ SUMIF($H$20:$H$151,C9,$I$20:$I$151)</f>
-        <v>48</v>
-      </c>
-      <c r="E9" s="46">
         <f t="shared" si="0"/>
-        <v>829008</v>
-      </c>
-      <c r="G9" s="42" t="s">
-        <v>180</v>
-      </c>
-      <c r="H9" s="47">
+        <v>58</v>
+      </c>
+      <c r="E9" s="45">
+        <f t="shared" si="2"/>
+        <v>918413.54631262319</v>
+      </c>
+      <c r="G9" s="41" t="s">
+        <v>179</v>
+      </c>
+      <c r="H9" s="46">
         <v>0.02</v>
       </c>
-      <c r="I9" s="43">
-        <f>25875000*H9</f>
+      <c r="I9" s="42">
+        <f t="shared" si="1"/>
         <v>517500</v>
       </c>
       <c r="K9" s="25" t="s">
         <v>59</v>
       </c>
-      <c r="L9" s="45">
+      <c r="L9" s="44">
         <v>10000</v>
       </c>
     </row>
     <row r="10" spans="2:66" ht="14.25" customHeight="1">
-      <c r="B10" s="50"/>
+      <c r="B10" s="49"/>
       <c r="C10" s="25" t="s">
         <v>79</v>
       </c>
       <c r="D10" s="15">
-        <f>SUMIF($D$20:$D$151,C10,$E$20:$E$151)+SUMIF($F$20:$F$151,C10,$G$20:$G$151)+ SUMIF($H$20:$H$151,C10,$I$20:$I$151)</f>
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="E10" s="46">
-        <f t="shared" si="0"/>
-        <v>86355</v>
-      </c>
-      <c r="G10" s="42" t="s">
-        <v>181</v>
-      </c>
-      <c r="H10" s="47">
+      <c r="E10" s="45">
+        <f t="shared" si="2"/>
+        <v>79173.581578674406</v>
+      </c>
+      <c r="G10" s="41" t="s">
+        <v>180</v>
+      </c>
+      <c r="H10" s="46">
         <v>0.59</v>
       </c>
-      <c r="I10" s="43">
-        <f>25875000*H10</f>
+      <c r="I10" s="42">
+        <f t="shared" si="1"/>
         <v>15266250</v>
       </c>
       <c r="K10" s="25" t="s">
         <v>79</v>
       </c>
-      <c r="L10" s="45">
+      <c r="L10" s="44">
         <v>10000</v>
       </c>
     </row>
     <row r="11" spans="2:66" ht="14.25" customHeight="1">
-      <c r="B11" s="50"/>
+      <c r="B11" s="49"/>
       <c r="C11" s="25" t="s">
         <v>57</v>
       </c>
       <c r="D11" s="15">
-        <f>SUMIF($D$20:$D$151,C11,$E$20:$E$151)+SUMIF($F$20:$F$151,C11,$G$20:$G$151)+ SUMIF($H$20:$H$151,C11,$I$20:$I$151)</f>
+        <f t="shared" si="0"/>
         <v>188.3</v>
       </c>
-      <c r="E11" s="46">
-        <f t="shared" si="0"/>
-        <v>3252129.3000000003</v>
+      <c r="E11" s="45">
+        <f t="shared" si="2"/>
+        <v>2981677.0822528787</v>
       </c>
       <c r="K11" s="25" t="s">
         <v>57</v>
       </c>
-      <c r="L11" s="45">
+      <c r="L11" s="44">
         <v>10000</v>
       </c>
     </row>
     <row r="12" spans="2:66" ht="14.25" customHeight="1">
-      <c r="B12" s="50"/>
+      <c r="B12" s="49"/>
       <c r="C12" s="25" t="s">
         <v>71</v>
       </c>
       <c r="D12" s="15">
-        <f>SUMIF($D$20:$D$151,C12,$E$20:$E$151)+SUMIF($F$20:$F$151,C12,$G$20:$G$151)+ SUMIF($H$20:$H$151,C12,$I$20:$I$151)</f>
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="E12" s="46">
-        <f t="shared" si="0"/>
-        <v>86355</v>
+      <c r="E12" s="45">
+        <f t="shared" si="2"/>
+        <v>79173.581578674406</v>
       </c>
       <c r="K12" s="25" t="s">
         <v>71</v>
       </c>
-      <c r="L12" s="45">
+      <c r="L12" s="44">
         <v>10000</v>
       </c>
     </row>
     <row r="13" spans="2:66" ht="14.25" customHeight="1">
-      <c r="B13" s="50"/>
+      <c r="B13" s="49"/>
       <c r="C13" s="25" t="s">
         <v>55</v>
       </c>
       <c r="D13" s="15">
-        <f>SUMIF($D$20:$D$151,C13,$E$20:$E$151)+SUMIF($F$20:$F$151,C13,$G$20:$G$151)+ SUMIF($H$20:$H$151,C13,$I$20:$I$151)</f>
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="E13" s="46">
-        <f t="shared" si="0"/>
-        <v>103626</v>
+      <c r="E13" s="45">
+        <f t="shared" si="2"/>
+        <v>95008.29789440929</v>
       </c>
       <c r="G13" s="31" t="s">
+        <v>181</v>
+      </c>
+      <c r="H13" s="31" t="s">
         <v>182</v>
       </c>
-      <c r="H13" s="31" t="s">
+      <c r="I13" s="31" t="s">
         <v>183</v>
-      </c>
-      <c r="I13" s="31" t="s">
-        <v>184</v>
       </c>
       <c r="J13" s="31"/>
       <c r="K13" s="25" t="s">
         <v>55</v>
       </c>
-      <c r="L13" s="45">
+      <c r="L13" s="44">
         <v>10000</v>
       </c>
     </row>
     <row r="14" spans="2:66" s="31" customFormat="1" ht="14.25" customHeight="1">
-      <c r="B14" s="50"/>
+      <c r="B14" s="49"/>
       <c r="C14" s="25" t="s">
         <v>64</v>
       </c>
       <c r="D14" s="15">
-        <f>SUMIF($D$20:$D$151,C14,$E$20:$E$151)+SUMIF($F$20:$F$151,C14,$G$20:$G$151)+ SUMIF($H$20:$H$151,C14,$I$20:$I$151)</f>
-        <v>51.4</v>
-      </c>
-      <c r="E14" s="46">
         <f t="shared" si="0"/>
-        <v>887729.4</v>
-      </c>
-      <c r="G14" s="40">
+        <v>115.4</v>
+      </c>
+      <c r="E14" s="45">
+        <f t="shared" si="2"/>
+        <v>1827326.2628358055</v>
+      </c>
+      <c r="G14" s="39">
         <f>SUM(D2:D16)</f>
-        <v>859.1</v>
-      </c>
-      <c r="H14" s="45">
+        <v>964.1</v>
+      </c>
+      <c r="H14" s="44">
         <f>I10</f>
         <v>15266250</v>
       </c>
-      <c r="I14" s="44">
+      <c r="I14" s="43">
         <f>H14/G14</f>
-        <v>17770.050052380397</v>
+        <v>15834.716315734882</v>
       </c>
       <c r="K14" s="25" t="s">
         <v>64</v>
       </c>
-      <c r="L14" s="45"/>
+      <c r="L14" s="44"/>
       <c r="N14" s="31">
-        <f t="shared" ref="N14:BH14" si="2">N17</f>
+        <f t="shared" ref="N14:BH14" si="3">N17</f>
         <v>41133</v>
       </c>
       <c r="O14" s="31">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>41134</v>
       </c>
       <c r="P14" s="31">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>41135</v>
       </c>
       <c r="Q14" s="31">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>41136</v>
       </c>
       <c r="R14" s="31">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>41137</v>
       </c>
       <c r="S14" s="31">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>41138</v>
       </c>
       <c r="T14" s="31">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>41139</v>
       </c>
       <c r="U14" s="31">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>41140</v>
       </c>
       <c r="V14" s="31">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>41141</v>
       </c>
       <c r="W14" s="31">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>41142</v>
       </c>
       <c r="X14" s="31">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>41143</v>
       </c>
       <c r="Y14" s="31">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>41144</v>
       </c>
       <c r="Z14" s="31">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>41145</v>
       </c>
       <c r="AA14" s="31">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>41146</v>
       </c>
       <c r="AB14" s="31">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>41147</v>
       </c>
       <c r="AC14" s="31">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>41148</v>
       </c>
       <c r="AD14" s="31">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>41149</v>
       </c>
       <c r="AE14" s="31">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>41150</v>
       </c>
       <c r="AF14" s="31">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>41151</v>
       </c>
       <c r="AG14" s="31">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>41152</v>
       </c>
       <c r="AH14" s="31">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>41153</v>
       </c>
       <c r="AI14" s="31">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>41154</v>
       </c>
       <c r="AJ14" s="31">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>41155</v>
       </c>
       <c r="AK14" s="31">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>41156</v>
       </c>
       <c r="AL14" s="31">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>41157</v>
       </c>
       <c r="AM14" s="31">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>41158</v>
       </c>
       <c r="AN14" s="31">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>41159</v>
       </c>
       <c r="AO14" s="31">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>41160</v>
       </c>
       <c r="AP14" s="31">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>41161</v>
       </c>
       <c r="AQ14" s="31">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>41162</v>
       </c>
       <c r="AR14" s="31">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>41163</v>
       </c>
       <c r="AS14" s="31">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>41164</v>
       </c>
       <c r="AT14" s="31">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>41165</v>
       </c>
       <c r="AU14" s="31">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>41166</v>
       </c>
       <c r="AV14" s="31">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>41167</v>
       </c>
       <c r="AW14" s="31">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>41168</v>
       </c>
       <c r="AX14" s="31">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>41169</v>
       </c>
       <c r="AY14" s="31">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>41170</v>
       </c>
       <c r="AZ14" s="31">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>41171</v>
       </c>
       <c r="BA14" s="31">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>41172</v>
       </c>
       <c r="BB14" s="31">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>41173</v>
       </c>
       <c r="BC14" s="31">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>41174</v>
       </c>
       <c r="BD14" s="31">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>41175</v>
       </c>
       <c r="BE14" s="31">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>41176</v>
       </c>
       <c r="BF14" s="31">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>41177</v>
       </c>
       <c r="BG14" s="31">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>41178</v>
       </c>
       <c r="BH14" s="31">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>41179</v>
       </c>
       <c r="BI14" s="31">
-        <f t="shared" ref="BI14:BP14" si="3">BI17</f>
+        <f t="shared" ref="BI14:BN14" si="4">BI17</f>
         <v>41180</v>
       </c>
       <c r="BJ14" s="31">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>41181</v>
       </c>
       <c r="BK14" s="31">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>41182</v>
       </c>
       <c r="BL14" s="31">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>41183</v>
       </c>
       <c r="BM14" s="31">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>41184</v>
       </c>
       <c r="BN14" s="31">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>41185</v>
       </c>
     </row>
     <row r="15" spans="2:66" s="31" customFormat="1" ht="14.25" customHeight="1">
-      <c r="B15" s="50">
+      <c r="B15" s="49">
         <v>50000</v>
       </c>
       <c r="C15" s="25" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D15" s="15">
-        <f>SUMIF($D$20:$D$151,C15,$E$20:$E$151)+SUMIF($F$20:$F$151,C15,$G$20:$G$151)+ SUMIF($H$20:$H$151,C15,$I$20:$I$151)</f>
+        <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="E15" s="46">
-        <f t="shared" si="0"/>
-        <v>259065</v>
+      <c r="E15" s="45">
+        <f t="shared" si="2"/>
+        <v>237520.74473602325</v>
       </c>
       <c r="K15" s="25" t="s">
-        <v>170</v>
-      </c>
-      <c r="L15" s="45"/>
+        <v>169</v>
+      </c>
+      <c r="L15" s="44"/>
     </row>
     <row r="16" spans="2:66" ht="14.25" customHeight="1">
-      <c r="B16" s="50"/>
+      <c r="B16" s="49"/>
       <c r="C16" s="25" t="s">
         <v>77</v>
       </c>
       <c r="D16" s="15">
-        <f>SUMIF($D$20:$D$151,C16,$E$20:$E$151)+SUMIF($F$20:$F$151,C16,$G$20:$G$151)+ SUMIF($H$20:$H$151,C16,$I$20:$I$151)</f>
+        <f t="shared" si="0"/>
         <v>42</v>
       </c>
-      <c r="E16" s="46">
-        <f t="shared" si="0"/>
-        <v>725382</v>
+      <c r="E16" s="45">
+        <f t="shared" si="2"/>
+        <v>665058.08526086505</v>
       </c>
       <c r="G16" s="31"/>
       <c r="H16" s="31"/>
@@ -2265,7 +2268,7 @@
       <c r="K16" s="25" t="s">
         <v>77</v>
       </c>
-      <c r="L16" s="45">
+      <c r="L16" s="44">
         <v>25000</v>
       </c>
     </row>
@@ -2314,151 +2317,151 @@
         <v>41134</v>
       </c>
       <c r="P17" s="17">
-        <f t="shared" ref="P17:AZ17" si="4">O17+1</f>
+        <f t="shared" ref="P17:AZ17" si="5">O17+1</f>
         <v>41135</v>
       </c>
       <c r="Q17" s="17">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>41136</v>
       </c>
       <c r="R17" s="17">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>41137</v>
       </c>
       <c r="S17" s="17">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>41138</v>
       </c>
       <c r="T17" s="17">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>41139</v>
       </c>
       <c r="U17" s="17">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>41140</v>
       </c>
       <c r="V17" s="17">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>41141</v>
       </c>
       <c r="W17" s="17">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>41142</v>
       </c>
       <c r="X17" s="17">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>41143</v>
       </c>
       <c r="Y17" s="17">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>41144</v>
       </c>
       <c r="Z17" s="17">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>41145</v>
       </c>
       <c r="AA17" s="17">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>41146</v>
       </c>
       <c r="AB17" s="17">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>41147</v>
       </c>
       <c r="AC17" s="17">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>41148</v>
       </c>
       <c r="AD17" s="17">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>41149</v>
       </c>
       <c r="AE17" s="17">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>41150</v>
       </c>
       <c r="AF17" s="17">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>41151</v>
       </c>
       <c r="AG17" s="17">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>41152</v>
       </c>
       <c r="AH17" s="17">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>41153</v>
       </c>
       <c r="AI17" s="17">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>41154</v>
       </c>
       <c r="AJ17" s="17">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>41155</v>
       </c>
       <c r="AK17" s="17">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>41156</v>
       </c>
       <c r="AL17" s="17">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>41157</v>
       </c>
       <c r="AM17" s="17">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>41158</v>
       </c>
       <c r="AN17" s="17">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>41159</v>
       </c>
       <c r="AO17" s="17">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>41160</v>
       </c>
       <c r="AP17" s="17">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>41161</v>
       </c>
       <c r="AQ17" s="17">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>41162</v>
       </c>
       <c r="AR17" s="17">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>41163</v>
       </c>
       <c r="AS17" s="17">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>41164</v>
       </c>
       <c r="AT17" s="17">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>41165</v>
       </c>
       <c r="AU17" s="17">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>41166</v>
       </c>
       <c r="AV17" s="17">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>41167</v>
       </c>
       <c r="AW17" s="17">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>41168</v>
       </c>
       <c r="AX17" s="17">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>41169</v>
       </c>
       <c r="AY17" s="17">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>41170</v>
       </c>
       <c r="AZ17" s="17">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>41171</v>
       </c>
       <c r="BA17" s="17">
@@ -2470,191 +2473,191 @@
         <v>41173</v>
       </c>
       <c r="BC17" s="17">
-        <f t="shared" ref="BC17:BD17" si="5">BB17+1</f>
+        <f t="shared" ref="BC17:BD17" si="6">BB17+1</f>
         <v>41174</v>
       </c>
       <c r="BD17" s="17">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>41175</v>
       </c>
       <c r="BE17" s="17">
-        <f t="shared" ref="BE17:BO17" si="6">BD17+1</f>
+        <f t="shared" ref="BE17:BO17" si="7">BD17+1</f>
         <v>41176</v>
       </c>
       <c r="BF17" s="17">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>41177</v>
       </c>
       <c r="BG17" s="17">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>41178</v>
       </c>
       <c r="BH17" s="17">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>41179</v>
       </c>
       <c r="BI17" s="17">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>41180</v>
       </c>
       <c r="BJ17" s="17">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>41181</v>
       </c>
       <c r="BK17" s="17">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>41182</v>
       </c>
       <c r="BL17" s="17">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>41183</v>
       </c>
       <c r="BM17" s="17">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>41184</v>
       </c>
       <c r="BN17" s="17">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>41185</v>
       </c>
       <c r="BO17" s="17">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>41186</v>
       </c>
       <c r="BP17" s="17">
-        <f t="shared" ref="BP17:CW17" si="7">BO17+1</f>
+        <f t="shared" ref="BP17:CW17" si="8">BO17+1</f>
         <v>41187</v>
       </c>
       <c r="BQ17" s="17">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>41188</v>
       </c>
       <c r="BR17" s="17">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>41189</v>
       </c>
       <c r="BS17" s="17">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>41190</v>
       </c>
       <c r="BT17" s="17">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>41191</v>
       </c>
       <c r="BU17" s="17">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>41192</v>
       </c>
       <c r="BV17" s="17">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>41193</v>
       </c>
       <c r="BW17" s="17">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>41194</v>
       </c>
       <c r="BX17" s="17">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>41195</v>
       </c>
       <c r="BY17" s="17">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>41196</v>
       </c>
       <c r="BZ17" s="17">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>41197</v>
       </c>
       <c r="CA17" s="17">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>41198</v>
       </c>
       <c r="CB17" s="17">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>41199</v>
       </c>
       <c r="CC17" s="17">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>41200</v>
       </c>
       <c r="CD17" s="17">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>41201</v>
       </c>
       <c r="CE17" s="17">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>41202</v>
       </c>
       <c r="CF17" s="17">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>41203</v>
       </c>
       <c r="CG17" s="17">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>41204</v>
       </c>
       <c r="CH17" s="17">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>41205</v>
       </c>
       <c r="CI17" s="17">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>41206</v>
       </c>
       <c r="CJ17" s="17">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>41207</v>
       </c>
       <c r="CK17" s="17">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>41208</v>
       </c>
       <c r="CL17" s="17">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>41209</v>
       </c>
       <c r="CM17" s="17">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>41210</v>
       </c>
       <c r="CN17" s="17">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>41211</v>
       </c>
       <c r="CO17" s="17">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>41212</v>
       </c>
       <c r="CP17" s="17">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>41213</v>
       </c>
       <c r="CQ17" s="17">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>41214</v>
       </c>
       <c r="CR17" s="17">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>41215</v>
       </c>
       <c r="CS17" s="17">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>41216</v>
       </c>
       <c r="CT17" s="17">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>41217</v>
       </c>
       <c r="CU17" s="17">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>41218</v>
       </c>
       <c r="CV17" s="17">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>41219</v>
       </c>
       <c r="CW17" s="17">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>41220</v>
       </c>
     </row>
@@ -2987,7 +2990,7 @@
         <v>86</v>
       </c>
       <c r="E21" s="20">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F21" s="20" t="s">
         <v>68</v>
@@ -3105,7 +3108,7 @@
         <v>64</v>
       </c>
       <c r="E22" s="20">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F22" s="20" t="s">
         <v>68</v>
@@ -3223,7 +3226,7 @@
         <v>64</v>
       </c>
       <c r="E23" s="20">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F23" s="20" t="s">
         <v>68</v>
@@ -5583,7 +5586,7 @@
         <v>64</v>
       </c>
       <c r="E44" s="20">
-        <v>5</v>
+        <v>50</v>
       </c>
       <c r="F44" s="20" t="s">
         <v>56</v>
@@ -6796,7 +6799,7 @@
       </c>
       <c r="G55" s="19"/>
       <c r="H55" s="19" t="s">
-        <v>55</v>
+        <v>193</v>
       </c>
       <c r="I55" s="19"/>
       <c r="J55" s="19"/>
@@ -6909,8 +6912,12 @@
       <c r="G56" s="20">
         <v>5</v>
       </c>
-      <c r="H56" s="20"/>
-      <c r="I56" s="20"/>
+      <c r="H56" s="20" t="s">
+        <v>68</v>
+      </c>
+      <c r="I56" s="20">
+        <v>5</v>
+      </c>
       <c r="J56" s="21"/>
       <c r="K56" s="21"/>
       <c r="L56" s="21" t="s">
@@ -7023,8 +7030,12 @@
       <c r="G57" s="20">
         <v>5</v>
       </c>
-      <c r="H57" s="20"/>
-      <c r="I57" s="20"/>
+      <c r="H57" s="20" t="s">
+        <v>68</v>
+      </c>
+      <c r="I57" s="20">
+        <v>5</v>
+      </c>
       <c r="J57" s="21"/>
       <c r="K57" s="21"/>
       <c r="L57" s="21" t="s">
@@ -7137,8 +7148,12 @@
       <c r="G58" s="20">
         <v>7</v>
       </c>
-      <c r="H58" s="20"/>
-      <c r="I58" s="20"/>
+      <c r="H58" s="20" t="s">
+        <v>68</v>
+      </c>
+      <c r="I58" s="20">
+        <v>7</v>
+      </c>
       <c r="J58" s="21"/>
       <c r="K58" s="21"/>
       <c r="L58" s="21" t="s">
@@ -7251,8 +7266,12 @@
       <c r="G59" s="20">
         <v>5</v>
       </c>
-      <c r="H59" s="20"/>
-      <c r="I59" s="20"/>
+      <c r="H59" s="20" t="s">
+        <v>68</v>
+      </c>
+      <c r="I59" s="20">
+        <v>5</v>
+      </c>
       <c r="J59" s="21"/>
       <c r="K59" s="21"/>
       <c r="L59" s="21" t="s">
@@ -8154,8 +8173,12 @@
       <c r="G67" s="20">
         <v>15</v>
       </c>
-      <c r="H67" s="20"/>
-      <c r="I67" s="20"/>
+      <c r="H67" s="20" t="s">
+        <v>56</v>
+      </c>
+      <c r="I67" s="20">
+        <v>15</v>
+      </c>
       <c r="J67" s="21"/>
       <c r="K67" s="21"/>
       <c r="L67" s="21" t="s">
@@ -8268,8 +8291,12 @@
       <c r="G68" s="20">
         <v>15</v>
       </c>
-      <c r="H68" s="20"/>
-      <c r="I68" s="20"/>
+      <c r="H68" s="20" t="s">
+        <v>56</v>
+      </c>
+      <c r="I68" s="20">
+        <v>15</v>
+      </c>
       <c r="J68" s="21"/>
       <c r="K68" s="21"/>
       <c r="L68" s="21" t="s">
@@ -8380,7 +8407,7 @@
         <v>59</v>
       </c>
       <c r="G69" s="20">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="H69" s="20"/>
       <c r="I69" s="20"/>
@@ -8504,7 +8531,7 @@
         <v>59</v>
       </c>
       <c r="G70" s="20">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="H70" s="20"/>
       <c r="I70" s="20"/>
@@ -8628,7 +8655,7 @@
         <v>56</v>
       </c>
       <c r="G71" s="20">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="H71" s="20"/>
       <c r="I71" s="20"/>
@@ -8740,16 +8767,16 @@
     <row r="72" spans="1:101">
       <c r="B72" s="20"/>
       <c r="C72" s="27" t="s">
-        <v>167</v>
+        <v>192</v>
       </c>
       <c r="D72" s="20" t="s">
-        <v>68</v>
+        <v>56</v>
       </c>
       <c r="E72" s="20">
         <v>5</v>
       </c>
       <c r="F72" s="20" t="s">
-        <v>68</v>
+        <v>56</v>
       </c>
       <c r="G72" s="20">
         <v>25</v>
@@ -9112,7 +9139,7 @@
     <row r="75" spans="1:101">
       <c r="B75" s="20"/>
       <c r="C75" s="27" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D75" s="20" t="s">
         <v>58</v>
@@ -9809,10 +9836,10 @@
       <c r="CW80" s="19"/>
     </row>
     <row r="81" spans="1:101">
-      <c r="A81" s="38" t="s">
+      <c r="A81" s="37" t="s">
         <v>40</v>
       </c>
-      <c r="B81" s="39"/>
+      <c r="B81" s="38"/>
       <c r="C81" s="34" t="s">
         <v>101</v>
       </c>
@@ -11418,13 +11445,13 @@
         <v>662</v>
       </c>
       <c r="C94" s="27" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D94" s="20" t="s">
         <v>56</v>
       </c>
       <c r="E94" s="20">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F94" s="20"/>
       <c r="G94" s="20"/>
@@ -11853,10 +11880,14 @@
         <v>56</v>
       </c>
       <c r="E98" s="20">
-        <v>30</v>
-      </c>
-      <c r="F98" s="20"/>
-      <c r="G98" s="20"/>
+        <v>15</v>
+      </c>
+      <c r="F98" s="20" t="s">
+        <v>64</v>
+      </c>
+      <c r="G98" s="20">
+        <v>15</v>
+      </c>
       <c r="H98" s="20"/>
       <c r="I98" s="20"/>
       <c r="J98" s="21"/>
@@ -12838,7 +12869,7 @@
         <v>25</v>
       </c>
       <c r="F107" s="20" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="G107" s="20">
         <v>15</v>
@@ -13077,7 +13108,7 @@
     <row r="109" spans="1:101" s="26" customFormat="1">
       <c r="A109"/>
       <c r="C109" s="26" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="L109" s="26" t="s">
         <v>39</v>
@@ -13086,7 +13117,7 @@
     <row r="110" spans="1:101">
       <c r="B110" s="20"/>
       <c r="C110" s="27" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D110" s="20" t="s">
         <v>57</v>
@@ -13230,7 +13261,7 @@
     <row r="111" spans="1:101">
       <c r="B111" s="20"/>
       <c r="C111" s="27" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D111" s="20" t="s">
         <v>77</v>
@@ -13447,7 +13478,7 @@
     <row r="113" spans="1:101">
       <c r="B113" s="20"/>
       <c r="C113" s="27" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D113" s="20" t="s">
         <v>57</v>
@@ -13475,7 +13506,7 @@
     <row r="115" spans="1:101">
       <c r="B115" s="20"/>
       <c r="C115" s="27" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D115" s="20" t="s">
         <v>56</v>
@@ -13543,187 +13574,187 @@
         <v>41133</v>
       </c>
       <c r="O119" s="23">
-        <f t="shared" ref="O119:BH119" si="8">O17</f>
+        <f t="shared" ref="O119:BH119" si="9">O17</f>
         <v>41134</v>
       </c>
       <c r="P119" s="23">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>41135</v>
       </c>
       <c r="Q119" s="23">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>41136</v>
       </c>
       <c r="R119" s="23">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>41137</v>
       </c>
       <c r="S119" s="23">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>41138</v>
       </c>
       <c r="T119" s="23">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>41139</v>
       </c>
       <c r="U119" s="23">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>41140</v>
       </c>
       <c r="V119" s="23">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>41141</v>
       </c>
       <c r="W119" s="23">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>41142</v>
       </c>
       <c r="X119" s="23">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>41143</v>
       </c>
       <c r="Y119" s="23">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>41144</v>
       </c>
       <c r="Z119" s="23">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>41145</v>
       </c>
       <c r="AA119" s="23">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>41146</v>
       </c>
       <c r="AB119" s="23">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>41147</v>
       </c>
       <c r="AC119" s="23">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>41148</v>
       </c>
       <c r="AD119" s="23">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>41149</v>
       </c>
       <c r="AE119" s="23">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>41150</v>
       </c>
       <c r="AF119" s="23">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>41151</v>
       </c>
       <c r="AG119" s="23">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>41152</v>
       </c>
       <c r="AH119" s="23">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>41153</v>
       </c>
       <c r="AI119" s="23">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>41154</v>
       </c>
       <c r="AJ119" s="23">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>41155</v>
       </c>
       <c r="AK119" s="23">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>41156</v>
       </c>
       <c r="AL119" s="23">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>41157</v>
       </c>
       <c r="AM119" s="23">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>41158</v>
       </c>
       <c r="AN119" s="23">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>41159</v>
       </c>
       <c r="AO119" s="23">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>41160</v>
       </c>
       <c r="AP119" s="23">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>41161</v>
       </c>
       <c r="AQ119" s="23">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>41162</v>
       </c>
       <c r="AR119" s="23">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>41163</v>
       </c>
       <c r="AS119" s="23">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>41164</v>
       </c>
       <c r="AT119" s="23">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>41165</v>
       </c>
       <c r="AU119" s="23">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>41166</v>
       </c>
       <c r="AV119" s="23">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>41167</v>
       </c>
       <c r="AW119" s="23">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>41168</v>
       </c>
       <c r="AX119" s="23">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>41169</v>
       </c>
       <c r="AY119" s="23">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>41170</v>
       </c>
       <c r="AZ119" s="23">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>41171</v>
       </c>
       <c r="BA119" s="23">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>41172</v>
       </c>
       <c r="BB119" s="23">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>41173</v>
       </c>
       <c r="BC119" s="23">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>41174</v>
       </c>
       <c r="BD119" s="23">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>41175</v>
       </c>
       <c r="BE119" s="23">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>41176</v>
       </c>
       <c r="BF119" s="23">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>41177</v>
       </c>
       <c r="BG119" s="23">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>41178</v>
       </c>
       <c r="BH119" s="23">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>41179</v>
       </c>
       <c r="BI119" s="23"/>
@@ -13803,10 +13834,10 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E67:E77 E113 G113 I107 E96:E101 D18:E39 I76 E82:E94 E103 G103 E106:E108 G106:G108 E110:E111 G110:G111 G56:G60 E56:E64 G50 E50:E53 I41:I47 G41:G47 E41:E47 G18:G35 F18:F23 G67:G77 G115:G118 E115:E118">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E67:E77 E113 G113 I107 E96:E101 D18:E39 I76 E82:E94 E103 G103 E106:E108 G106:G108 E110:E111 G110:G111 G56:G60 E56:E64 G50 E50:E53 I41:I47 G41:G47 E41:E47 G18:G35 F18:F23 G67:G77 G115:G118 E115:E118 G98 I56:I60 I67:I68">
       <formula1>members</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H66:H112 D56:D64 D41:D48 E48 F41:F48 H41:H48 D50:D54 E54 F50:F54 H50:H54 G51:G54 H56:H64 F61:G64 G114 E109 E112 G104:G105 E104:E105 G78:G102 E78:E81 E102 G48 F67:F107 G112 G109 D67:D73 D75:D86 E95 F56:F60 E114 F109:F118 D88:D118">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H56:H64 D56:D64 D41:D48 E48 F41:F48 H41:H48 D50:D54 E54 F50:F54 H50:H54 G51:G54 G99:G102 F61:G64 G114 E109 E112 G104:G105 E104:E105 F67:F107 E78:E81 E102 G48 D67:D73 G112 G109 D88:D118 D75:D86 E95 F56:F60 E114 F109:F118 G78:G97 H66:H112">
       <formula1>$C$2:$C$16</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L82:L83 L101:L104 L85:L93 L106:L111 L67:L78 L41:L47 L50:L53 L56:L64 L20:L39">
@@ -63745,11 +63776,11 @@
         <f>AND(Plan!CW15,"AAAAAHfvv3Q=")</f>
         <v>#VALUE!</v>
       </c>
-      <c r="DN52" s="44" t="s">
+      <c r="DN52" s="43" t="s">
+        <v>185</v>
+      </c>
+      <c r="DO52" s="47" t="s">
         <v>186</v>
-      </c>
-      <c r="DO52" s="48" t="s">
-        <v>187</v>
       </c>
     </row>
     <row r="53" spans="1:256">

--- a/trunk/Document/VietinBankSC Project Plan v2012.009.20.xlsx
+++ b/trunk/Document/VietinBankSC Project Plan v2012.009.20.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="572" uniqueCount="194">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="573" uniqueCount="193">
   <si>
     <t>GVCM</t>
   </si>
@@ -151,9 +151,6 @@
   </si>
   <si>
     <t>Hệ số công việc</t>
-  </si>
-  <si>
-    <t>Đang làm</t>
   </si>
   <si>
     <t>Đã xong</t>
@@ -888,7 +885,24 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Percent" xfId="2" builtinId="5"/>
   </cellStyles>
-  <dxfs count="6">
+  <dxfs count="8">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0000CC"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -1583,8 +1597,8 @@
   </sheetPr>
   <dimension ref="A1:CW119"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A103" workbookViewId="0">
-      <selection activeCell="C115" sqref="C115:G117"/>
+    <sheetView tabSelected="1" topLeftCell="A47" workbookViewId="0">
+      <selection activeCell="D107" sqref="D107"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1610,7 +1624,7 @@
   <sheetData>
     <row r="1" spans="2:66" ht="14.25" customHeight="1">
       <c r="B1" s="48" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C1" s="24" t="s">
         <v>36</v>
@@ -1619,7 +1633,7 @@
         <v>37</v>
       </c>
       <c r="E1" s="36" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="G1" s="39"/>
       <c r="H1" s="40">
@@ -1634,13 +1648,13 @@
         <v>36</v>
       </c>
       <c r="L1" s="31" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="2" spans="2:66" ht="14.25" customHeight="1">
       <c r="B2" s="49"/>
       <c r="C2" s="25" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D2" s="15">
         <f t="shared" ref="D2:D16" si="0">SUMIF($D$20:$D$151,C2,$E$20:$E$151)+SUMIF($F$20:$F$151,C2,$G$20:$G$151)+ SUMIF($H$20:$H$151,C2,$I$20:$I$151)</f>
@@ -1651,7 +1665,7 @@
         <v>269190.17736749299</v>
       </c>
       <c r="G2" s="41" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="H2" s="46">
         <v>0.15</v>
@@ -1661,7 +1675,7 @@
         <v>3881250</v>
       </c>
       <c r="K2" s="25" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="L2" s="44"/>
     </row>
@@ -1670,7 +1684,7 @@
         <v>50000</v>
       </c>
       <c r="C3" s="25" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D3" s="15">
         <f t="shared" si="0"/>
@@ -1681,7 +1695,7 @@
         <v>514628.28026138368</v>
       </c>
       <c r="G3" s="41" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="H3" s="46">
         <v>0.02</v>
@@ -1691,10 +1705,10 @@
         <v>517500</v>
       </c>
       <c r="J3" s="25" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="K3" s="25" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="L3" s="44">
         <v>10000</v>
@@ -1703,18 +1717,18 @@
     <row r="4" spans="2:66" ht="14.25" customHeight="1">
       <c r="B4" s="49"/>
       <c r="C4" s="25" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D4" s="15">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="E4" s="45">
-        <f t="shared" ref="E3:E16" si="2">D4*$I$14</f>
+        <f t="shared" ref="E4:E16" si="2">D4*$I$14</f>
         <v>79173.581578674406</v>
       </c>
       <c r="G4" s="41" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="H4" s="46">
         <v>0.05</v>
@@ -1724,10 +1738,10 @@
         <v>1293750</v>
       </c>
       <c r="J4" s="25" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K4" s="25" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="L4" s="44">
         <v>10000</v>
@@ -1736,7 +1750,7 @@
     <row r="5" spans="2:66" ht="14.25" customHeight="1">
       <c r="B5" s="49"/>
       <c r="C5" s="25" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D5" s="15">
         <f t="shared" si="0"/>
@@ -1747,7 +1761,7 @@
         <v>79173.581578674406</v>
       </c>
       <c r="G5" s="41" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="H5" s="46">
         <v>0.05</v>
@@ -1757,10 +1771,10 @@
         <v>1293750</v>
       </c>
       <c r="J5" s="14" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="K5" s="25" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="L5" s="44"/>
     </row>
@@ -1769,7 +1783,7 @@
         <v>250000</v>
       </c>
       <c r="C6" s="25" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D6" s="15">
         <f t="shared" si="0"/>
@@ -1780,7 +1794,7 @@
         <v>3678404.6001452133</v>
       </c>
       <c r="G6" s="41" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="H6" s="46">
         <v>0.05</v>
@@ -1790,7 +1804,7 @@
         <v>1293750</v>
       </c>
       <c r="K6" s="25" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="L6" s="44">
         <v>95000</v>
@@ -1799,7 +1813,7 @@
     <row r="7" spans="2:66" ht="14.25" customHeight="1">
       <c r="B7" s="48"/>
       <c r="C7" s="25" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D7" s="15">
         <f t="shared" si="0"/>
@@ -1810,7 +1824,7 @@
         <v>126677.73052587906</v>
       </c>
       <c r="G7" s="41" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="H7" s="46">
         <v>0.02</v>
@@ -1820,7 +1834,7 @@
         <v>517500</v>
       </c>
       <c r="K7" s="25" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="L7" s="44"/>
     </row>
@@ -1829,7 +1843,7 @@
         <v>150000</v>
       </c>
       <c r="C8" s="25" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D8" s="15">
         <f t="shared" si="0"/>
@@ -1840,7 +1854,7 @@
         <v>3635650.8660927289</v>
       </c>
       <c r="G8" s="41" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="H8" s="46">
         <v>0.05</v>
@@ -1850,7 +1864,7 @@
         <v>1293750</v>
       </c>
       <c r="K8" s="25" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="L8" s="44">
         <v>100000</v>
@@ -1859,7 +1873,7 @@
     <row r="9" spans="2:66" ht="14.25" customHeight="1">
       <c r="B9" s="49"/>
       <c r="C9" s="25" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D9" s="15">
         <f t="shared" si="0"/>
@@ -1870,7 +1884,7 @@
         <v>918413.54631262319</v>
       </c>
       <c r="G9" s="41" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="H9" s="46">
         <v>0.02</v>
@@ -1880,7 +1894,7 @@
         <v>517500</v>
       </c>
       <c r="K9" s="25" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="L9" s="44">
         <v>10000</v>
@@ -1889,7 +1903,7 @@
     <row r="10" spans="2:66" ht="14.25" customHeight="1">
       <c r="B10" s="49"/>
       <c r="C10" s="25" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D10" s="15">
         <f t="shared" si="0"/>
@@ -1900,7 +1914,7 @@
         <v>79173.581578674406</v>
       </c>
       <c r="G10" s="41" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="H10" s="46">
         <v>0.59</v>
@@ -1910,7 +1924,7 @@
         <v>15266250</v>
       </c>
       <c r="K10" s="25" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="L10" s="44">
         <v>10000</v>
@@ -1919,7 +1933,7 @@
     <row r="11" spans="2:66" ht="14.25" customHeight="1">
       <c r="B11" s="49"/>
       <c r="C11" s="25" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D11" s="15">
         <f t="shared" si="0"/>
@@ -1930,7 +1944,7 @@
         <v>2981677.0822528787</v>
       </c>
       <c r="K11" s="25" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="L11" s="44">
         <v>10000</v>
@@ -1939,7 +1953,7 @@
     <row r="12" spans="2:66" ht="14.25" customHeight="1">
       <c r="B12" s="49"/>
       <c r="C12" s="25" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D12" s="15">
         <f t="shared" si="0"/>
@@ -1950,7 +1964,7 @@
         <v>79173.581578674406</v>
       </c>
       <c r="K12" s="25" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="L12" s="44">
         <v>10000</v>
@@ -1959,7 +1973,7 @@
     <row r="13" spans="2:66" ht="14.25" customHeight="1">
       <c r="B13" s="49"/>
       <c r="C13" s="25" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D13" s="15">
         <f t="shared" si="0"/>
@@ -1970,17 +1984,17 @@
         <v>95008.29789440929</v>
       </c>
       <c r="G13" s="31" t="s">
+        <v>180</v>
+      </c>
+      <c r="H13" s="31" t="s">
         <v>181</v>
       </c>
-      <c r="H13" s="31" t="s">
+      <c r="I13" s="31" t="s">
         <v>182</v>
-      </c>
-      <c r="I13" s="31" t="s">
-        <v>183</v>
       </c>
       <c r="J13" s="31"/>
       <c r="K13" s="25" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="L13" s="44">
         <v>10000</v>
@@ -1989,7 +2003,7 @@
     <row r="14" spans="2:66" s="31" customFormat="1" ht="14.25" customHeight="1">
       <c r="B14" s="49"/>
       <c r="C14" s="25" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D14" s="15">
         <f t="shared" si="0"/>
@@ -2012,7 +2026,7 @@
         <v>15834.716315734882</v>
       </c>
       <c r="K14" s="25" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="L14" s="44"/>
       <c r="N14" s="31">
@@ -2233,7 +2247,7 @@
         <v>50000</v>
       </c>
       <c r="C15" s="25" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D15" s="15">
         <f t="shared" si="0"/>
@@ -2244,14 +2258,14 @@
         <v>237520.74473602325</v>
       </c>
       <c r="K15" s="25" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="L15" s="44"/>
     </row>
     <row r="16" spans="2:66" ht="14.25" customHeight="1">
       <c r="B16" s="49"/>
       <c r="C16" s="25" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D16" s="15">
         <f t="shared" si="0"/>
@@ -2266,7 +2280,7 @@
       <c r="I16" s="31"/>
       <c r="J16" s="31"/>
       <c r="K16" s="25" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="L16" s="44">
         <v>25000</v>
@@ -2274,40 +2288,40 @@
     </row>
     <row r="17" spans="2:101" s="16" customFormat="1" ht="13.5" customHeight="1">
       <c r="B17" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="C17" s="17" t="s">
         <v>40</v>
       </c>
-      <c r="C17" s="17" t="s">
+      <c r="D17" s="17" t="s">
+        <v>149</v>
+      </c>
+      <c r="E17" s="17" t="s">
+        <v>148</v>
+      </c>
+      <c r="F17" s="17" t="s">
+        <v>150</v>
+      </c>
+      <c r="G17" s="17" t="s">
+        <v>148</v>
+      </c>
+      <c r="H17" s="17" t="s">
+        <v>151</v>
+      </c>
+      <c r="I17" s="17" t="s">
         <v>41</v>
       </c>
-      <c r="D17" s="17" t="s">
-        <v>150</v>
-      </c>
-      <c r="E17" s="17" t="s">
-        <v>149</v>
-      </c>
-      <c r="F17" s="17" t="s">
-        <v>151</v>
-      </c>
-      <c r="G17" s="17" t="s">
-        <v>149</v>
-      </c>
-      <c r="H17" s="17" t="s">
-        <v>152</v>
-      </c>
-      <c r="I17" s="17" t="s">
+      <c r="J17" s="17" t="s">
         <v>42</v>
       </c>
-      <c r="J17" s="17" t="s">
+      <c r="K17" s="17" t="s">
         <v>43</v>
       </c>
-      <c r="K17" s="17" t="s">
+      <c r="L17" s="17" t="s">
         <v>44</v>
       </c>
-      <c r="L17" s="17" t="s">
+      <c r="M17" s="17" t="s">
         <v>45</v>
-      </c>
-      <c r="M17" s="17" t="s">
-        <v>46</v>
       </c>
       <c r="N17" s="17">
         <v>41133</v>
@@ -2664,7 +2678,7 @@
     <row r="18" spans="2:101" s="18" customFormat="1">
       <c r="B18" s="19"/>
       <c r="C18" s="28" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D18" s="32"/>
       <c r="E18" s="32"/>
@@ -2870,16 +2884,16 @@
     <row r="20" spans="2:101">
       <c r="B20" s="20"/>
       <c r="C20" s="27" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D20" s="20" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E20" s="20">
         <v>3</v>
       </c>
       <c r="F20" s="20" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G20" s="20">
         <v>3</v>
@@ -2889,7 +2903,7 @@
       <c r="J20" s="21"/>
       <c r="K20" s="21"/>
       <c r="L20" s="21" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="M20" s="20"/>
       <c r="N20" s="1"/>
@@ -2984,22 +2998,22 @@
     <row r="21" spans="2:101">
       <c r="B21" s="20"/>
       <c r="C21" s="27" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D21" s="20" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E21" s="20">
         <v>5</v>
       </c>
       <c r="F21" s="20" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G21" s="20">
         <v>3</v>
       </c>
       <c r="H21" s="20" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="I21" s="20">
         <v>3</v>
@@ -3007,7 +3021,7 @@
       <c r="J21" s="21"/>
       <c r="K21" s="21"/>
       <c r="L21" s="21" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="M21" s="20"/>
       <c r="N21" s="1"/>
@@ -3102,22 +3116,22 @@
     <row r="22" spans="2:101">
       <c r="B22" s="20"/>
       <c r="C22" s="27" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D22" s="20" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E22" s="20">
         <v>5</v>
       </c>
       <c r="F22" s="20" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G22" s="20">
         <v>3</v>
       </c>
       <c r="H22" s="20" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="I22" s="20">
         <v>3</v>
@@ -3125,7 +3139,7 @@
       <c r="J22" s="21"/>
       <c r="K22" s="21"/>
       <c r="L22" s="21" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="M22" s="20"/>
       <c r="N22" s="1"/>
@@ -3220,22 +3234,22 @@
     <row r="23" spans="2:101">
       <c r="B23" s="20"/>
       <c r="C23" s="27" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D23" s="20" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E23" s="20">
         <v>5</v>
       </c>
       <c r="F23" s="20" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G23" s="20">
         <v>3</v>
       </c>
       <c r="H23" s="20" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="I23" s="20">
         <v>3</v>
@@ -3243,7 +3257,7 @@
       <c r="J23" s="21"/>
       <c r="K23" s="21"/>
       <c r="L23" s="21" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="M23" s="20"/>
       <c r="N23" s="1"/>
@@ -3338,16 +3352,16 @@
     <row r="24" spans="2:101">
       <c r="B24" s="20"/>
       <c r="C24" s="27" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D24" s="20" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E24" s="20">
         <v>3</v>
       </c>
       <c r="F24" s="20" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G24" s="20">
         <v>3</v>
@@ -3357,7 +3371,7 @@
       <c r="J24" s="21"/>
       <c r="K24" s="21"/>
       <c r="L24" s="21" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="M24" s="20"/>
       <c r="N24" s="1"/>
@@ -3452,16 +3466,16 @@
     <row r="25" spans="2:101">
       <c r="B25" s="20"/>
       <c r="C25" s="27" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D25" s="20" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E25" s="20">
         <v>3</v>
       </c>
       <c r="F25" s="20" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G25" s="20">
         <v>3</v>
@@ -3471,7 +3485,7 @@
       <c r="J25" s="21"/>
       <c r="K25" s="21"/>
       <c r="L25" s="21" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="M25" s="20"/>
       <c r="N25" s="1"/>
@@ -3566,16 +3580,16 @@
     <row r="26" spans="2:101">
       <c r="B26" s="20"/>
       <c r="C26" s="27" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D26" s="20" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E26" s="20">
         <v>3</v>
       </c>
       <c r="F26" s="20" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G26" s="20">
         <v>3</v>
@@ -3585,7 +3599,7 @@
       <c r="J26" s="21"/>
       <c r="K26" s="21"/>
       <c r="L26" s="21" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="M26" s="20"/>
       <c r="N26" s="1"/>
@@ -3680,16 +3694,16 @@
     <row r="27" spans="2:101">
       <c r="B27" s="20"/>
       <c r="C27" s="27" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D27" s="20" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E27" s="20">
         <v>3</v>
       </c>
       <c r="F27" s="20" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G27" s="20">
         <v>3</v>
@@ -3792,16 +3806,16 @@
     <row r="28" spans="2:101">
       <c r="B28" s="20"/>
       <c r="C28" s="27" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D28" s="20" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E28" s="20">
         <v>3</v>
       </c>
       <c r="F28" s="20" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G28" s="20">
         <v>3</v>
@@ -3904,16 +3918,16 @@
     <row r="29" spans="2:101">
       <c r="B29" s="20"/>
       <c r="C29" s="27" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D29" s="20" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E29" s="20">
         <v>3</v>
       </c>
       <c r="F29" s="20" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G29" s="20">
         <v>3</v>
@@ -3921,7 +3935,7 @@
       <c r="H29" s="20"/>
       <c r="I29" s="20"/>
       <c r="J29" s="20" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="K29" s="21"/>
       <c r="L29" s="21"/>
@@ -4018,16 +4032,16 @@
     <row r="30" spans="2:101">
       <c r="B30" s="20"/>
       <c r="C30" s="27" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D30" s="20" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E30" s="20">
         <v>3</v>
       </c>
       <c r="F30" s="20" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G30" s="20">
         <v>3</v>
@@ -4035,11 +4049,11 @@
       <c r="H30" s="20"/>
       <c r="I30" s="20"/>
       <c r="J30" s="20" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="K30" s="21"/>
       <c r="L30" s="21" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="M30" s="20"/>
       <c r="N30" s="1"/>
@@ -4134,16 +4148,16 @@
     <row r="31" spans="2:101">
       <c r="B31" s="20"/>
       <c r="C31" s="27" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D31" s="20" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E31" s="20">
         <v>3</v>
       </c>
       <c r="F31" s="20" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G31" s="20">
         <v>3</v>
@@ -4155,7 +4169,7 @@
       </c>
       <c r="K31" s="21"/>
       <c r="L31" s="21" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="M31" s="20"/>
       <c r="N31" s="1"/>
@@ -4250,16 +4264,16 @@
     <row r="32" spans="2:101">
       <c r="B32" s="20"/>
       <c r="C32" s="27" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D32" s="20" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E32" s="20">
         <v>3</v>
       </c>
       <c r="F32" s="20" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G32" s="20">
         <v>3</v>
@@ -4364,16 +4378,16 @@
     <row r="33" spans="2:101">
       <c r="B33" s="20"/>
       <c r="C33" s="27" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D33" s="20" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E33" s="20">
         <v>3</v>
       </c>
       <c r="F33" s="20" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G33" s="20">
         <v>3</v>
@@ -4476,22 +4490,22 @@
     <row r="34" spans="2:101">
       <c r="B34" s="20"/>
       <c r="C34" s="27" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D34" s="20" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E34" s="20">
         <v>5</v>
       </c>
       <c r="F34" s="20" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G34" s="20">
         <v>5</v>
       </c>
       <c r="H34" s="20" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="I34" s="20">
         <v>5</v>
@@ -4594,22 +4608,22 @@
     <row r="35" spans="2:101">
       <c r="B35" s="20"/>
       <c r="C35" s="27" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D35" s="20" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E35" s="20">
         <v>3</v>
       </c>
       <c r="F35" s="20" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G35" s="20">
         <v>3</v>
       </c>
       <c r="H35" s="20" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="I35" s="20">
         <v>3</v>
@@ -4710,10 +4724,10 @@
     <row r="36" spans="2:101">
       <c r="B36" s="20"/>
       <c r="C36" s="27" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D36" s="20" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E36" s="20">
         <v>3</v>
@@ -4818,10 +4832,10 @@
     <row r="37" spans="2:101">
       <c r="B37" s="20"/>
       <c r="C37" s="27" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D37" s="20" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E37" s="20">
         <v>3</v>
@@ -4926,10 +4940,10 @@
     <row r="38" spans="2:101">
       <c r="B38" s="20"/>
       <c r="C38" s="27" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D38" s="20" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E38" s="20">
         <v>3</v>
@@ -5043,7 +5057,7 @@
       <c r="J39" s="21"/>
       <c r="K39" s="21"/>
       <c r="L39" s="21" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="M39" s="20"/>
       <c r="N39" s="1"/>
@@ -5138,7 +5152,7 @@
     <row r="40" spans="2:101" s="18" customFormat="1">
       <c r="B40" s="19"/>
       <c r="C40" s="28" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D40" s="19"/>
       <c r="E40" s="19"/>
@@ -5242,10 +5256,10 @@
     <row r="41" spans="2:101">
       <c r="B41" s="20"/>
       <c r="C41" s="27" t="s">
+        <v>62</v>
+      </c>
+      <c r="D41" s="20" t="s">
         <v>63</v>
-      </c>
-      <c r="D41" s="20" t="s">
-        <v>64</v>
       </c>
       <c r="E41" s="20">
         <v>15</v>
@@ -5257,7 +5271,7 @@
       <c r="J41" s="21"/>
       <c r="K41" s="21"/>
       <c r="L41" s="21" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="M41" s="20"/>
       <c r="N41" s="1"/>
@@ -5352,16 +5366,16 @@
     <row r="42" spans="2:101">
       <c r="B42" s="20"/>
       <c r="C42" s="27" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D42" s="20" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E42" s="20">
         <v>3</v>
       </c>
       <c r="F42" s="20" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G42" s="20">
         <v>1</v>
@@ -5371,7 +5385,7 @@
       <c r="J42" s="21"/>
       <c r="K42" s="21"/>
       <c r="L42" s="21" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="M42" s="20"/>
       <c r="N42" s="1"/>
@@ -5466,16 +5480,16 @@
     <row r="43" spans="2:101">
       <c r="B43" s="20"/>
       <c r="C43" s="27" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D43" s="20" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E43" s="20">
         <v>5</v>
       </c>
       <c r="F43" s="20" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G43" s="20">
         <v>5</v>
@@ -5485,7 +5499,7 @@
       <c r="J43" s="21"/>
       <c r="K43" s="21"/>
       <c r="L43" s="21" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="M43" s="20"/>
       <c r="N43" s="1"/>
@@ -5580,22 +5594,22 @@
     <row r="44" spans="2:101">
       <c r="B44" s="20"/>
       <c r="C44" s="27" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D44" s="20" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E44" s="20">
         <v>50</v>
       </c>
       <c r="F44" s="20" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G44" s="20">
         <v>5</v>
       </c>
       <c r="H44" s="20" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="I44" s="20">
         <v>2</v>
@@ -5603,7 +5617,7 @@
       <c r="J44" s="21"/>
       <c r="K44" s="21"/>
       <c r="L44" s="21" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="M44" s="20"/>
       <c r="N44" s="1"/>
@@ -5698,10 +5712,10 @@
     <row r="45" spans="2:101">
       <c r="B45" s="20"/>
       <c r="C45" s="27" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D45" s="20" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E45" s="20">
         <v>2</v>
@@ -5713,7 +5727,7 @@
       <c r="J45" s="21"/>
       <c r="K45" s="21"/>
       <c r="L45" s="21" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="M45" s="20"/>
       <c r="N45" s="1"/>
@@ -5808,10 +5822,10 @@
     <row r="46" spans="2:101">
       <c r="B46" s="20"/>
       <c r="C46" s="27" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D46" s="20" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E46" s="20">
         <v>5</v>
@@ -5823,7 +5837,7 @@
       <c r="J46" s="21"/>
       <c r="K46" s="21"/>
       <c r="L46" s="21" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="M46" s="20"/>
       <c r="N46" s="1"/>
@@ -5918,22 +5932,22 @@
     <row r="47" spans="2:101">
       <c r="B47" s="20"/>
       <c r="C47" s="27" t="s">
+        <v>69</v>
+      </c>
+      <c r="D47" s="20" t="s">
         <v>70</v>
-      </c>
-      <c r="D47" s="20" t="s">
-        <v>71</v>
       </c>
       <c r="E47" s="20">
         <v>5</v>
       </c>
       <c r="F47" s="20" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G47" s="20">
         <v>5</v>
       </c>
       <c r="H47" s="20" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="I47" s="20">
         <v>3</v>
@@ -5941,7 +5955,7 @@
       <c r="J47" s="21"/>
       <c r="K47" s="21"/>
       <c r="L47" s="21" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="M47" s="20"/>
       <c r="N47" s="1"/>
@@ -6138,7 +6152,7 @@
     <row r="49" spans="2:101" s="18" customFormat="1">
       <c r="B49" s="19"/>
       <c r="C49" s="28" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D49" s="19"/>
       <c r="E49" s="19"/>
@@ -6242,16 +6256,16 @@
     <row r="50" spans="2:101">
       <c r="B50" s="20"/>
       <c r="C50" s="27" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D50" s="20" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E50" s="20">
         <v>5</v>
       </c>
       <c r="F50" s="20" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G50" s="20">
         <v>5</v>
@@ -6261,7 +6275,7 @@
       <c r="J50" s="21"/>
       <c r="K50" s="21"/>
       <c r="L50" s="21" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="M50" s="20"/>
       <c r="N50" s="1"/>
@@ -6356,10 +6370,10 @@
     <row r="51" spans="2:101">
       <c r="B51" s="20"/>
       <c r="C51" s="27" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D51" s="20" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E51" s="20">
         <v>2</v>
@@ -6371,7 +6385,7 @@
       <c r="J51" s="21"/>
       <c r="K51" s="21"/>
       <c r="L51" s="21" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="M51" s="20"/>
       <c r="N51" s="1"/>
@@ -6466,10 +6480,10 @@
     <row r="52" spans="2:101">
       <c r="B52" s="20"/>
       <c r="C52" s="27" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D52" s="20" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E52" s="20">
         <v>2</v>
@@ -6481,7 +6495,7 @@
       <c r="J52" s="21"/>
       <c r="K52" s="21"/>
       <c r="L52" s="21" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="M52" s="20"/>
       <c r="N52" s="1"/>
@@ -6576,10 +6590,10 @@
     <row r="53" spans="2:101">
       <c r="B53" s="20"/>
       <c r="C53" s="27" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D53" s="27" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E53" s="20">
         <v>2</v>
@@ -6591,7 +6605,7 @@
       <c r="J53" s="21"/>
       <c r="K53" s="21"/>
       <c r="L53" s="21" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="M53" s="20"/>
       <c r="N53" s="1"/>
@@ -6788,18 +6802,18 @@
     <row r="55" spans="2:101" s="18" customFormat="1">
       <c r="B55" s="19"/>
       <c r="C55" s="28" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D55" s="19" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E55" s="19"/>
       <c r="F55" s="19" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G55" s="19"/>
       <c r="H55" s="19" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="I55" s="19"/>
       <c r="J55" s="19"/>
@@ -6898,22 +6912,22 @@
     <row r="56" spans="2:101">
       <c r="B56" s="20"/>
       <c r="C56" s="27" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D56" s="20" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E56" s="20">
         <v>1</v>
       </c>
       <c r="F56" s="20" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G56" s="20">
         <v>5</v>
       </c>
       <c r="H56" s="20" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="I56" s="20">
         <v>5</v>
@@ -6921,7 +6935,7 @@
       <c r="J56" s="21"/>
       <c r="K56" s="21"/>
       <c r="L56" s="21" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="M56" s="20"/>
       <c r="N56" s="1"/>
@@ -7016,22 +7030,22 @@
     <row r="57" spans="2:101">
       <c r="B57" s="20"/>
       <c r="C57" s="27" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D57" s="20" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E57" s="20">
         <v>1</v>
       </c>
       <c r="F57" s="20" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G57" s="20">
         <v>5</v>
       </c>
       <c r="H57" s="20" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="I57" s="20">
         <v>5</v>
@@ -7039,7 +7053,7 @@
       <c r="J57" s="21"/>
       <c r="K57" s="21"/>
       <c r="L57" s="21" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="M57" s="20"/>
       <c r="N57" s="1"/>
@@ -7134,22 +7148,22 @@
     <row r="58" spans="2:101">
       <c r="B58" s="20"/>
       <c r="C58" s="27" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D58" s="20" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E58" s="20">
         <v>2</v>
       </c>
       <c r="F58" s="20" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G58" s="20">
         <v>7</v>
       </c>
       <c r="H58" s="20" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="I58" s="20">
         <v>7</v>
@@ -7157,7 +7171,7 @@
       <c r="J58" s="21"/>
       <c r="K58" s="21"/>
       <c r="L58" s="21" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="M58" s="20"/>
       <c r="N58" s="1"/>
@@ -7252,22 +7266,22 @@
     <row r="59" spans="2:101">
       <c r="B59" s="20"/>
       <c r="C59" s="27" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D59" s="20" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E59" s="20">
         <v>1</v>
       </c>
       <c r="F59" s="20" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G59" s="20">
         <v>5</v>
       </c>
       <c r="H59" s="20" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="I59" s="20">
         <v>5</v>
@@ -7332,10 +7346,10 @@
       <c r="BM59" s="1"/>
       <c r="BN59" s="1"/>
       <c r="BO59" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="BP59" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="BQ59" s="1"/>
       <c r="BR59" s="1"/>
@@ -7374,16 +7388,16 @@
     <row r="60" spans="2:101">
       <c r="B60" s="20"/>
       <c r="C60" s="27" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D60" s="20" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E60" s="20">
         <v>1</v>
       </c>
       <c r="F60" s="20" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G60" s="20">
         <v>10</v>
@@ -7450,10 +7464,10 @@
       <c r="BM60" s="1"/>
       <c r="BN60" s="1"/>
       <c r="BO60" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="BP60" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="BT60" s="1"/>
       <c r="BU60" s="1"/>
@@ -7489,10 +7503,10 @@
     <row r="61" spans="2:101">
       <c r="B61" s="20"/>
       <c r="C61" s="27" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D61" s="20" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E61" s="20">
         <v>1</v>
@@ -7561,19 +7575,19 @@
       <c r="BM61" s="1"/>
       <c r="BN61" s="1"/>
       <c r="BO61" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="BP61" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="BP61" s="1" t="s">
+      <c r="BQ61" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="BR61" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="BS61" s="1" t="s">
         <v>121</v>
-      </c>
-      <c r="BQ61" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="BR61" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="BS61" s="1" t="s">
-        <v>122</v>
       </c>
       <c r="BT61" s="1"/>
       <c r="BU61" s="1"/>
@@ -7609,10 +7623,10 @@
     <row r="62" spans="2:101">
       <c r="B62" s="20"/>
       <c r="C62" s="27" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D62" s="20" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E62" s="20">
         <v>1</v>
@@ -7624,7 +7638,7 @@
       <c r="J62" s="21"/>
       <c r="K62" s="21"/>
       <c r="L62" s="21" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="M62" s="20"/>
       <c r="N62" s="1"/>
@@ -7719,10 +7733,10 @@
     <row r="63" spans="2:101">
       <c r="B63" s="20"/>
       <c r="C63" s="27" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D63" s="20" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E63" s="20">
         <v>0.5</v>
@@ -7791,19 +7805,19 @@
       <c r="BM63" s="1"/>
       <c r="BN63" s="1"/>
       <c r="BO63" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="BP63" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="BP63" s="1" t="s">
+      <c r="BQ63" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="BR63" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="BS63" s="1" t="s">
         <v>121</v>
-      </c>
-      <c r="BQ63" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="BR63" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="BS63" s="1" t="s">
-        <v>122</v>
       </c>
       <c r="BT63" s="1"/>
       <c r="BU63" s="1"/>
@@ -7839,10 +7853,10 @@
     <row r="64" spans="2:101">
       <c r="B64" s="20"/>
       <c r="C64" s="27" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D64" s="20" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E64" s="20">
         <v>0.5</v>
@@ -7854,7 +7868,7 @@
       <c r="J64" s="21"/>
       <c r="K64" s="21"/>
       <c r="L64" s="21" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="M64" s="20"/>
       <c r="N64" s="1"/>
@@ -8051,14 +8065,14 @@
     <row r="66" spans="1:101" s="18" customFormat="1">
       <c r="B66" s="19"/>
       <c r="C66" s="28" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D66" s="19" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E66" s="19"/>
       <c r="F66" s="19" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G66" s="19"/>
       <c r="H66" s="19"/>
@@ -8159,22 +8173,22 @@
     <row r="67" spans="1:101">
       <c r="B67" s="20"/>
       <c r="C67" s="27" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D67" s="20" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E67" s="20">
         <v>5</v>
       </c>
       <c r="F67" s="20" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G67" s="20">
         <v>15</v>
       </c>
       <c r="H67" s="20" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="I67" s="20">
         <v>15</v>
@@ -8277,22 +8291,22 @@
     <row r="68" spans="1:101">
       <c r="B68" s="20"/>
       <c r="C68" s="27" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D68" s="20" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E68" s="20">
         <v>5</v>
       </c>
       <c r="F68" s="20" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G68" s="20">
         <v>15</v>
       </c>
       <c r="H68" s="20" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="I68" s="20">
         <v>15</v>
@@ -8395,16 +8409,16 @@
     <row r="69" spans="1:101">
       <c r="B69" s="20"/>
       <c r="C69" s="27" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D69" s="20" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E69" s="20">
         <v>5</v>
       </c>
       <c r="F69" s="20" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G69" s="20">
         <v>10</v>
@@ -8471,19 +8485,19 @@
       <c r="BM69" s="1"/>
       <c r="BN69" s="1"/>
       <c r="BO69" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="BP69" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="BP69" s="1" t="s">
+      <c r="BQ69" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="BR69" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="BS69" s="1" t="s">
         <v>121</v>
-      </c>
-      <c r="BQ69" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="BR69" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="BS69" s="1" t="s">
-        <v>122</v>
       </c>
       <c r="BT69" s="1"/>
       <c r="BU69" s="1"/>
@@ -8519,16 +8533,16 @@
     <row r="70" spans="1:101">
       <c r="B70" s="20"/>
       <c r="C70" s="27" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D70" s="20" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E70" s="20">
         <v>5</v>
       </c>
       <c r="F70" s="20" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G70" s="20">
         <v>10</v>
@@ -8595,19 +8609,19 @@
       <c r="BM70" s="1"/>
       <c r="BN70" s="1"/>
       <c r="BO70" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="BP70" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="BP70" s="1" t="s">
+      <c r="BQ70" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="BR70" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="BS70" s="1" t="s">
         <v>121</v>
-      </c>
-      <c r="BQ70" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="BR70" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="BS70" s="1" t="s">
-        <v>122</v>
       </c>
       <c r="BT70" s="1"/>
       <c r="BU70" s="1"/>
@@ -8643,16 +8657,16 @@
     <row r="71" spans="1:101">
       <c r="B71" s="20"/>
       <c r="C71" s="27" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D71" s="20" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E71" s="20">
         <v>5</v>
       </c>
       <c r="F71" s="20" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G71" s="20">
         <v>15</v>
@@ -8719,19 +8733,19 @@
       <c r="BM71" s="1"/>
       <c r="BN71" s="1"/>
       <c r="BO71" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="BP71" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="BP71" s="1" t="s">
+      <c r="BQ71" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="BR71" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="BS71" s="1" t="s">
         <v>121</v>
-      </c>
-      <c r="BQ71" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="BR71" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="BS71" s="1" t="s">
-        <v>122</v>
       </c>
       <c r="BT71" s="1"/>
       <c r="BU71" s="1"/>
@@ -8767,16 +8781,16 @@
     <row r="72" spans="1:101">
       <c r="B72" s="20"/>
       <c r="C72" s="27" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D72" s="20" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E72" s="20">
         <v>5</v>
       </c>
       <c r="F72" s="20" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G72" s="20">
         <v>25</v>
@@ -8843,19 +8857,19 @@
       <c r="BM72" s="1"/>
       <c r="BN72" s="1"/>
       <c r="BO72" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="BP72" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="BP72" s="1" t="s">
+      <c r="BQ72" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="BR72" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="BS72" s="1" t="s">
         <v>121</v>
-      </c>
-      <c r="BQ72" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="BR72" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="BS72" s="1" t="s">
-        <v>122</v>
       </c>
       <c r="BT72" s="1"/>
       <c r="BU72" s="1"/>
@@ -8891,16 +8905,16 @@
     <row r="73" spans="1:101">
       <c r="B73" s="20"/>
       <c r="C73" s="27" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D73" s="20" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E73" s="20">
         <v>7</v>
       </c>
       <c r="F73" s="20" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G73" s="20">
         <v>15</v>
@@ -8967,19 +8981,19 @@
       <c r="BM73" s="1"/>
       <c r="BN73" s="1"/>
       <c r="BO73" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="BP73" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="BP73" s="1" t="s">
+      <c r="BQ73" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="BR73" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="BS73" s="1" t="s">
         <v>121</v>
-      </c>
-      <c r="BQ73" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="BR73" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="BS73" s="1" t="s">
-        <v>122</v>
       </c>
       <c r="BT73" s="1"/>
       <c r="BU73" s="1"/>
@@ -9015,16 +9029,16 @@
     <row r="74" spans="1:101">
       <c r="B74" s="20"/>
       <c r="C74" s="27" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D74" s="20" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E74" s="20">
         <v>5</v>
       </c>
       <c r="F74" s="20" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G74" s="20">
         <v>15</v>
@@ -9091,19 +9105,19 @@
       <c r="BM74" s="1"/>
       <c r="BN74" s="1"/>
       <c r="BO74" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="BP74" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="BP74" s="1" t="s">
+      <c r="BQ74" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="BR74" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="BS74" s="1" t="s">
         <v>121</v>
-      </c>
-      <c r="BQ74" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="BR74" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="BS74" s="1" t="s">
-        <v>122</v>
       </c>
       <c r="BT74" s="1"/>
       <c r="BU74" s="1"/>
@@ -9139,16 +9153,16 @@
     <row r="75" spans="1:101">
       <c r="B75" s="20"/>
       <c r="C75" s="27" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D75" s="20" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E75" s="20">
         <v>5</v>
       </c>
       <c r="F75" s="20" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G75" s="20">
         <v>15</v>
@@ -9215,19 +9229,19 @@
       <c r="BM75" s="1"/>
       <c r="BN75" s="1"/>
       <c r="BO75" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="BP75" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="BP75" s="1" t="s">
+      <c r="BQ75" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="BR75" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="BS75" s="1" t="s">
         <v>121</v>
-      </c>
-      <c r="BQ75" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="BR75" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="BS75" s="1" t="s">
-        <v>122</v>
       </c>
       <c r="BT75" s="1"/>
       <c r="BU75" s="1"/>
@@ -9263,22 +9277,22 @@
     <row r="76" spans="1:101">
       <c r="B76" s="20"/>
       <c r="C76" s="27" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D76" s="20" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E76" s="20">
         <v>5</v>
       </c>
       <c r="F76" s="20" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G76" s="20">
         <v>20</v>
       </c>
       <c r="H76" s="20" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="I76" s="20">
         <v>15</v>
@@ -9343,19 +9357,19 @@
       <c r="BM76" s="1"/>
       <c r="BN76" s="1"/>
       <c r="BO76" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="BP76" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="BP76" s="1" t="s">
+      <c r="BQ76" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="BR76" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="BS76" s="1" t="s">
         <v>121</v>
-      </c>
-      <c r="BQ76" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="BR76" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="BS76" s="1" t="s">
-        <v>122</v>
       </c>
       <c r="BT76" s="1"/>
       <c r="BU76" s="1"/>
@@ -9391,16 +9405,16 @@
     <row r="77" spans="1:101">
       <c r="B77" s="20"/>
       <c r="C77" s="27" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D77" s="20" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E77" s="20">
         <v>5</v>
       </c>
       <c r="F77" s="20" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G77" s="20">
         <v>15</v>
@@ -9467,19 +9481,19 @@
       <c r="BM77" s="1"/>
       <c r="BN77" s="1"/>
       <c r="BO77" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="BP77" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="BP77" s="1" t="s">
+      <c r="BQ77" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="BR77" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="BS77" s="1" t="s">
         <v>121</v>
-      </c>
-      <c r="BQ77" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="BR77" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="BS77" s="1" t="s">
-        <v>122</v>
       </c>
       <c r="BT77" s="1"/>
       <c r="BU77" s="1"/>
@@ -9581,19 +9595,19 @@
       <c r="BM78" s="1"/>
       <c r="BN78" s="1"/>
       <c r="BO78" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="BP78" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="BP78" s="1" t="s">
+      <c r="BQ78" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="BR78" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="BS78" s="1" t="s">
         <v>121</v>
-      </c>
-      <c r="BQ78" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="BR78" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="BS78" s="1" t="s">
-        <v>122</v>
       </c>
       <c r="BT78" s="1"/>
       <c r="BU78" s="1"/>
@@ -9732,14 +9746,14 @@
       <c r="A80"/>
       <c r="B80" s="19"/>
       <c r="C80" s="28" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D80" s="19"/>
       <c r="E80" s="19"/>
       <c r="F80" s="19"/>
       <c r="G80" s="19"/>
       <c r="H80" s="19" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="I80" s="19"/>
       <c r="J80" s="19"/>
@@ -9837,11 +9851,11 @@
     </row>
     <row r="81" spans="1:101">
       <c r="A81" s="37" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B81" s="38"/>
       <c r="C81" s="34" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D81" s="20"/>
       <c r="E81" s="20"/>
@@ -9950,10 +9964,10 @@
         <v>651</v>
       </c>
       <c r="C82" s="27" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D82" s="20" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E82" s="20">
         <v>5</v>
@@ -9962,12 +9976,12 @@
       <c r="G82" s="20"/>
       <c r="H82" s="20"/>
       <c r="I82" s="33" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="J82" s="21"/>
       <c r="K82" s="21"/>
       <c r="L82" s="21" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="M82" s="20"/>
       <c r="N82" s="1"/>
@@ -10024,19 +10038,19 @@
       <c r="BM82" s="1"/>
       <c r="BN82" s="1"/>
       <c r="BO82" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="BP82" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="BP82" s="1" t="s">
+      <c r="BQ82" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="BR82" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="BS82" s="1" t="s">
         <v>121</v>
-      </c>
-      <c r="BQ82" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="BR82" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="BS82" s="1" t="s">
-        <v>122</v>
       </c>
       <c r="BT82" s="1"/>
       <c r="BU82" s="1"/>
@@ -10077,10 +10091,10 @@
         <v>652</v>
       </c>
       <c r="C83" s="27" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D83" s="20" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E83" s="20">
         <v>5</v>
@@ -10089,7 +10103,7 @@
       <c r="G83" s="20"/>
       <c r="H83" s="20"/>
       <c r="I83" s="33" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="J83" s="21"/>
       <c r="K83" s="21"/>
@@ -10151,19 +10165,19 @@
       <c r="BM83" s="1"/>
       <c r="BN83" s="1"/>
       <c r="BO83" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="BP83" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="BP83" s="1" t="s">
+      <c r="BQ83" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="BR83" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="BS83" s="1" t="s">
         <v>121</v>
-      </c>
-      <c r="BQ83" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="BR83" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="BS83" s="1" t="s">
-        <v>122</v>
       </c>
       <c r="BT83" s="1"/>
       <c r="BU83" s="1"/>
@@ -10199,7 +10213,7 @@
     <row r="84" spans="1:101">
       <c r="B84" s="20"/>
       <c r="C84" s="34" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D84" s="20"/>
       <c r="E84" s="20"/>
@@ -10209,7 +10223,9 @@
       <c r="I84" s="20"/>
       <c r="J84" s="21"/>
       <c r="K84" s="21"/>
-      <c r="L84" s="21"/>
+      <c r="L84" s="21" t="s">
+        <v>38</v>
+      </c>
       <c r="M84" s="20"/>
       <c r="N84" s="1"/>
       <c r="O84" s="1"/>
@@ -10308,10 +10324,10 @@
         <v>653</v>
       </c>
       <c r="C85" s="27" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D85" s="20" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E85" s="20">
         <v>5</v>
@@ -10320,7 +10336,7 @@
       <c r="G85" s="20"/>
       <c r="H85" s="20"/>
       <c r="I85" s="20" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="J85" s="21"/>
       <c r="K85" s="21"/>
@@ -10382,19 +10398,19 @@
       <c r="BM85" s="1"/>
       <c r="BN85" s="1"/>
       <c r="BO85" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="BP85" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="BP85" s="1" t="s">
+      <c r="BQ85" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="BR85" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="BS85" s="1" t="s">
         <v>121</v>
-      </c>
-      <c r="BQ85" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="BR85" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="BS85" s="1" t="s">
-        <v>122</v>
       </c>
       <c r="BT85" s="1"/>
       <c r="BU85" s="1"/>
@@ -10435,10 +10451,10 @@
         <v>654</v>
       </c>
       <c r="C86" s="27" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D86" s="20" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E86" s="20">
         <v>5</v>
@@ -10447,7 +10463,7 @@
       <c r="G86" s="20"/>
       <c r="H86" s="20"/>
       <c r="I86" s="20" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="J86" s="21"/>
       <c r="K86" s="21"/>
@@ -10509,19 +10525,19 @@
       <c r="BM86" s="1"/>
       <c r="BN86" s="1"/>
       <c r="BO86" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="BP86" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="BP86" s="1" t="s">
+      <c r="BQ86" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="BR86" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="BS86" s="1" t="s">
         <v>121</v>
-      </c>
-      <c r="BQ86" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="BR86" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="BS86" s="1" t="s">
-        <v>122</v>
       </c>
       <c r="BT86" s="1"/>
       <c r="BU86" s="1"/>
@@ -10562,10 +10578,10 @@
         <v>655</v>
       </c>
       <c r="C87" s="27" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D87" s="20" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E87" s="20">
         <v>5</v>
@@ -10574,7 +10590,7 @@
       <c r="G87" s="20"/>
       <c r="H87" s="20"/>
       <c r="I87" s="20" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="J87" s="21"/>
       <c r="K87" s="21"/>
@@ -10636,19 +10652,19 @@
       <c r="BM87" s="1"/>
       <c r="BN87" s="1"/>
       <c r="BO87" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="BP87" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="BP87" s="1" t="s">
+      <c r="BQ87" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="BR87" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="BS87" s="1" t="s">
         <v>121</v>
-      </c>
-      <c r="BQ87" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="BR87" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="BS87" s="1" t="s">
-        <v>122</v>
       </c>
       <c r="BT87" s="1"/>
       <c r="BU87" s="1"/>
@@ -10689,10 +10705,10 @@
         <v>656</v>
       </c>
       <c r="C88" s="27" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D88" s="20" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E88" s="20">
         <v>5</v>
@@ -10701,7 +10717,7 @@
       <c r="G88" s="20"/>
       <c r="H88" s="20"/>
       <c r="I88" s="20" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="J88" s="21"/>
       <c r="K88" s="21"/>
@@ -10763,19 +10779,19 @@
       <c r="BM88" s="1"/>
       <c r="BN88" s="1"/>
       <c r="BO88" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="BP88" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="BP88" s="1" t="s">
+      <c r="BQ88" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="BR88" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="BS88" s="1" t="s">
         <v>121</v>
-      </c>
-      <c r="BQ88" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="BR88" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="BS88" s="1" t="s">
-        <v>122</v>
       </c>
       <c r="BT88" s="1"/>
       <c r="BU88" s="1"/>
@@ -10816,10 +10832,10 @@
         <v>657</v>
       </c>
       <c r="C89" s="34" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D89" s="20" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E89" s="20">
         <v>5</v>
@@ -10828,7 +10844,7 @@
       <c r="G89" s="20"/>
       <c r="H89" s="20"/>
       <c r="I89" s="20" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="J89" s="21"/>
       <c r="K89" s="21"/>
@@ -10890,19 +10906,19 @@
       <c r="BM89" s="1"/>
       <c r="BN89" s="1"/>
       <c r="BO89" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="BP89" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="BP89" s="1" t="s">
+      <c r="BQ89" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="BR89" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="BS89" s="1" t="s">
         <v>121</v>
-      </c>
-      <c r="BQ89" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="BR89" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="BS89" s="1" t="s">
-        <v>122</v>
       </c>
       <c r="BT89" s="1"/>
       <c r="BU89" s="1"/>
@@ -10943,10 +10959,10 @@
         <v>658</v>
       </c>
       <c r="C90" s="34" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D90" s="20" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E90" s="20">
         <v>5</v>
@@ -10955,7 +10971,7 @@
       <c r="G90" s="20"/>
       <c r="H90" s="20"/>
       <c r="I90" s="20" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="J90" s="21"/>
       <c r="K90" s="21"/>
@@ -11017,19 +11033,19 @@
       <c r="BM90" s="1"/>
       <c r="BN90" s="1"/>
       <c r="BO90" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="BP90" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="BP90" s="1" t="s">
+      <c r="BQ90" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="BR90" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="BS90" s="1" t="s">
         <v>121</v>
-      </c>
-      <c r="BQ90" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="BR90" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="BS90" s="1" t="s">
-        <v>122</v>
       </c>
       <c r="BT90" s="1"/>
       <c r="BU90" s="1"/>
@@ -11067,10 +11083,10 @@
         <v>659</v>
       </c>
       <c r="C91" s="34" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D91" s="20" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E91" s="20">
         <v>3</v>
@@ -11079,7 +11095,7 @@
       <c r="G91" s="20"/>
       <c r="H91" s="20"/>
       <c r="I91" s="20" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="J91" s="21"/>
       <c r="K91" s="21"/>
@@ -11141,19 +11157,19 @@
       <c r="BM91" s="1"/>
       <c r="BN91" s="1"/>
       <c r="BO91" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="BP91" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="BP91" s="1" t="s">
+      <c r="BQ91" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="BR91" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="BS91" s="1" t="s">
         <v>121</v>
-      </c>
-      <c r="BQ91" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="BR91" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="BS91" s="1" t="s">
-        <v>122</v>
       </c>
       <c r="BT91" s="1"/>
       <c r="BU91" s="1"/>
@@ -11191,10 +11207,10 @@
         <v>660</v>
       </c>
       <c r="C92" s="34" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D92" s="20" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E92" s="20">
         <v>3</v>
@@ -11203,7 +11219,7 @@
       <c r="G92" s="20"/>
       <c r="H92" s="20"/>
       <c r="I92" s="20" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="J92" s="21"/>
       <c r="K92" s="21"/>
@@ -11265,19 +11281,19 @@
       <c r="BM92" s="1"/>
       <c r="BN92" s="1"/>
       <c r="BO92" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="BP92" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="BP92" s="1" t="s">
+      <c r="BQ92" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="BR92" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="BS92" s="1" t="s">
         <v>121</v>
-      </c>
-      <c r="BQ92" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="BR92" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="BS92" s="1" t="s">
-        <v>122</v>
       </c>
       <c r="BT92" s="1"/>
       <c r="BU92" s="1"/>
@@ -11318,10 +11334,10 @@
         <v>601</v>
       </c>
       <c r="C93" s="34" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D93" s="20" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E93" s="20">
         <v>3</v>
@@ -11330,7 +11346,7 @@
       <c r="G93" s="20"/>
       <c r="H93" s="20"/>
       <c r="I93" s="20" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="J93" s="21"/>
       <c r="K93" s="21"/>
@@ -11392,19 +11408,19 @@
       <c r="BM93" s="1"/>
       <c r="BN93" s="1"/>
       <c r="BO93" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="BP93" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="BP93" s="1" t="s">
+      <c r="BQ93" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="BR93" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="BS93" s="1" t="s">
         <v>121</v>
-      </c>
-      <c r="BQ93" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="BR93" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="BS93" s="1" t="s">
-        <v>122</v>
       </c>
       <c r="BT93" s="1"/>
       <c r="BU93" s="1"/>
@@ -11445,10 +11461,10 @@
         <v>662</v>
       </c>
       <c r="C94" s="27" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D94" s="20" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E94" s="20">
         <v>9</v>
@@ -11554,7 +11570,7 @@
       <c r="A95"/>
       <c r="B95" s="19"/>
       <c r="C95" s="28" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D95" s="19"/>
       <c r="E95" s="19"/>
@@ -11658,10 +11674,10 @@
     <row r="96" spans="1:101">
       <c r="B96" s="20"/>
       <c r="C96" s="33" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D96" s="20" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E96" s="20">
         <v>5</v>
@@ -11766,10 +11782,10 @@
     <row r="97" spans="1:101">
       <c r="B97" s="20"/>
       <c r="C97" s="33" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D97" s="20" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E97" s="20">
         <v>5</v>
@@ -11874,16 +11890,16 @@
     <row r="98" spans="1:101">
       <c r="B98" s="20"/>
       <c r="C98" s="33" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D98" s="20" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E98" s="20">
         <v>15</v>
       </c>
       <c r="F98" s="20" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G98" s="20">
         <v>15</v>
@@ -11986,10 +12002,10 @@
     <row r="99" spans="1:101">
       <c r="B99" s="20"/>
       <c r="C99" s="33" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D99" s="20" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E99" s="20">
         <v>5</v>
@@ -12094,10 +12110,10 @@
     <row r="100" spans="1:101">
       <c r="B100" s="20"/>
       <c r="C100" s="33" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D100" s="20" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E100" s="20">
         <v>5</v>
@@ -12202,10 +12218,10 @@
     <row r="101" spans="1:101">
       <c r="B101" s="20"/>
       <c r="C101" s="33" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D101" s="20" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E101" s="20">
         <v>15</v>
@@ -12311,7 +12327,7 @@
       <c r="A102"/>
       <c r="B102" s="19"/>
       <c r="C102" s="28" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D102" s="19"/>
       <c r="E102" s="19"/>
@@ -12415,16 +12431,16 @@
     <row r="103" spans="1:101">
       <c r="B103" s="20"/>
       <c r="C103" s="27" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D103" s="20" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E103" s="20">
         <v>10</v>
       </c>
       <c r="F103" s="20" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G103" s="20">
         <v>5</v>
@@ -12434,7 +12450,7 @@
       <c r="J103" s="21"/>
       <c r="K103" s="21"/>
       <c r="L103" s="21" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="M103" s="20"/>
       <c r="N103" s="1"/>
@@ -12632,7 +12648,7 @@
       <c r="A105"/>
       <c r="B105" s="19"/>
       <c r="C105" s="26" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D105" s="19"/>
       <c r="E105" s="19"/>
@@ -12736,16 +12752,16 @@
     <row r="106" spans="1:101">
       <c r="B106" s="20"/>
       <c r="C106" s="27" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D106" s="20" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E106" s="20">
         <v>25</v>
       </c>
       <c r="F106" s="20" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G106" s="20">
         <v>5</v>
@@ -12812,19 +12828,19 @@
       <c r="BM106" s="1"/>
       <c r="BN106" s="1"/>
       <c r="BO106" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="BP106" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="BP106" s="1" t="s">
+      <c r="BQ106" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="BR106" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="BS106" s="1" t="s">
         <v>121</v>
-      </c>
-      <c r="BQ106" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="BR106" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="BS106" s="1" t="s">
-        <v>122</v>
       </c>
       <c r="BT106" s="1"/>
       <c r="BU106" s="1"/>
@@ -12860,22 +12876,22 @@
     <row r="107" spans="1:101">
       <c r="B107" s="20"/>
       <c r="C107" s="27" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D107" s="20" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E107" s="20">
         <v>25</v>
       </c>
       <c r="F107" s="20" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="G107" s="20">
         <v>15</v>
       </c>
       <c r="H107" s="20" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="I107" s="20">
         <v>2</v>
@@ -12940,19 +12956,19 @@
       <c r="BM107" s="1"/>
       <c r="BN107" s="1"/>
       <c r="BO107" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="BP107" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="BP107" s="1" t="s">
+      <c r="BQ107" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="BR107" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="BS107" s="1" t="s">
         <v>121</v>
-      </c>
-      <c r="BQ107" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="BR107" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="BS107" s="1" t="s">
-        <v>122</v>
       </c>
       <c r="BT107" s="1"/>
       <c r="BU107" s="1"/>
@@ -12988,10 +13004,10 @@
     <row r="108" spans="1:101">
       <c r="B108" s="20"/>
       <c r="C108" s="27" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D108" s="20" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E108" s="20">
         <v>25</v>
@@ -13060,19 +13076,19 @@
       <c r="BM108" s="1"/>
       <c r="BN108" s="1"/>
       <c r="BO108" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="BP108" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="BP108" s="1" t="s">
+      <c r="BQ108" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="BR108" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="BS108" s="1" t="s">
         <v>121</v>
-      </c>
-      <c r="BQ108" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="BR108" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="BS108" s="1" t="s">
-        <v>122</v>
       </c>
       <c r="BT108" s="1"/>
       <c r="BU108" s="1"/>
@@ -13108,25 +13124,25 @@
     <row r="109" spans="1:101" s="26" customFormat="1">
       <c r="A109"/>
       <c r="C109" s="26" t="s">
-        <v>187</v>
-      </c>
-      <c r="L109" s="26" t="s">
-        <v>39</v>
+        <v>186</v>
+      </c>
+      <c r="L109" s="21" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="110" spans="1:101">
       <c r="B110" s="20"/>
       <c r="C110" s="27" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D110" s="20" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E110" s="20">
         <v>10</v>
       </c>
       <c r="F110" s="20" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G110" s="20">
         <v>10</v>
@@ -13160,7 +13176,7 @@
       <c r="AF110" s="1"/>
       <c r="AG110" s="1"/>
       <c r="AH110" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="AI110" s="1"/>
       <c r="AJ110" s="1"/>
@@ -13195,46 +13211,46 @@
       <c r="BM110" s="1"/>
       <c r="BN110" s="1"/>
       <c r="BO110" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="BP110" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="BP110" s="1" t="s">
+      <c r="BQ110" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="BR110" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="BS110" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="BT110" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="BU110" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="BV110" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="BW110" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="BX110" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="BY110" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="BZ110" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="CA110" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="CB110" s="1" t="s">
         <v>121</v>
-      </c>
-      <c r="BQ110" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="BR110" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="BS110" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="BT110" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="BU110" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="BV110" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="BW110" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="BX110" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="BY110" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="BZ110" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="CA110" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="CB110" s="1" t="s">
-        <v>122</v>
       </c>
       <c r="CC110" s="1"/>
       <c r="CD110" s="1"/>
@@ -13261,16 +13277,16 @@
     <row r="111" spans="1:101">
       <c r="B111" s="20"/>
       <c r="C111" s="27" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D111" s="20" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E111" s="20">
         <v>5</v>
       </c>
       <c r="F111" s="20" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G111" s="20">
         <v>5</v>
@@ -13374,7 +13390,7 @@
       <c r="A112"/>
       <c r="B112" s="19"/>
       <c r="C112" s="26" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D112" s="19"/>
       <c r="E112" s="19"/>
@@ -13478,16 +13494,16 @@
     <row r="113" spans="1:101">
       <c r="B113" s="20"/>
       <c r="C113" s="27" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D113" s="20" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E113" s="20">
         <v>10</v>
       </c>
       <c r="F113" s="20" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G113" s="20">
         <v>10</v>
@@ -13496,7 +13512,7 @@
     <row r="114" spans="1:101">
       <c r="B114" s="19"/>
       <c r="C114" s="26" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D114" s="19"/>
       <c r="E114" s="19"/>
@@ -13506,16 +13522,16 @@
     <row r="115" spans="1:101">
       <c r="B115" s="20"/>
       <c r="C115" s="27" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D115" s="20" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E115" s="20">
         <v>41.6</v>
       </c>
       <c r="F115" s="20" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G115" s="20">
         <v>8.3000000000000007</v>
@@ -13525,13 +13541,13 @@
       <c r="B116" s="20"/>
       <c r="C116" s="27"/>
       <c r="D116" s="20" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E116" s="20">
         <v>5.5</v>
       </c>
       <c r="F116" s="20" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G116" s="20">
         <v>2</v>
@@ -13541,13 +13557,13 @@
       <c r="B117" s="20"/>
       <c r="C117" s="27"/>
       <c r="D117" s="20" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E117" s="20">
         <v>37.299999999999997</v>
       </c>
       <c r="F117" s="20" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G117" s="20">
         <v>0.4</v>
@@ -13564,7 +13580,7 @@
     <row r="119" spans="1:101" s="22" customFormat="1">
       <c r="A119"/>
       <c r="C119" s="30" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="J119" s="23"/>
       <c r="K119" s="23"/>
@@ -13808,28 +13824,28 @@
     <sortCondition ref="C2"/>
   </sortState>
   <conditionalFormatting sqref="N113:BA113 N103:CW104 N96:CW101 N81:CW94 N67:CW79 N106:CW108 N110:CW111 N41:CW48 N50:CW54 N56:BN65 BT56:CW65 BO61:BS65 BQ56:BS59 BO56:BP60 N20:CW39">
-    <cfRule type="cellIs" dxfId="5" priority="201" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="201" operator="equal">
       <formula>"-"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="202" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="202" operator="equal">
       <formula>"E"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="203" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="203" operator="equal">
       <formula>"B"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N103:CW104 N96:CW101 N81:CW94 N67:CW79 N106:CW108 N110:CW111 N41:CW48 N50:CW54 N56:BN65 BT56:CW65 BO61:BS65 BQ56:BS59 BO56:BP60 N20:CW39">
-    <cfRule type="cellIs" dxfId="2" priority="200" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="200" operator="equal">
       <formula>"BE"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L103 L85:L93 L82:L83 L110:L111 L67:L78 L106:L108 L41:L47 L56:L64 L50:L53 L20:L39">
-    <cfRule type="cellIs" dxfId="1" priority="274" operator="equal">
+  <conditionalFormatting sqref="L103 L82:L93 L41:L47 L50:L53 L20:L39 L56:L64 L67:L78 L106:L111">
+    <cfRule type="cellIs" dxfId="3" priority="274" operator="equal">
       <formula>$K$3</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L41:L47 L50:L53 L20:L39 L85:L93 L103 L56:L64 L82:L83 L110:L111 L67:L78 L106:L108">
-    <cfRule type="expression" dxfId="0" priority="281">
+  <conditionalFormatting sqref="L41:L47 L50:L53 L20:L39 L103 L82:L93 L56:L64 L67:L78 L106:L111">
+    <cfRule type="expression" dxfId="2" priority="281">
       <formula>AND(L20&lt;&gt;$K$3,$K20&lt;TODAY())</formula>
     </cfRule>
   </conditionalFormatting>
@@ -13840,7 +13856,7 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H56:H64 D56:D64 D41:D48 E48 F41:F48 H41:H48 D50:D54 E54 F50:F54 H50:H54 G51:G54 G99:G102 F61:G64 G114 E109 E112 G104:G105 E104:E105 F67:F107 E78:E81 E102 G48 D67:D73 G112 G109 D88:D118 D75:D86 E95 F56:F60 E114 F109:F118 G78:G97 H66:H112">
       <formula1>$C$2:$C$16</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L82:L83 L101:L104 L85:L93 L106:L111 L67:L78 L41:L47 L50:L53 L56:L64 L20:L39">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L20:L39 L101:L104 L67:L78 L82:L93 L56:L64 L41:L47 L50:L53 L106:L111">
       <formula1>$K$3:$K$12</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K18:K39">
@@ -61980,7 +61996,7 @@
         <v>0</v>
       </c>
       <c r="HR47" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="HS47" t="e">
         <f>IF("N",Plan!_xlnm._FilterDatabase,"AAAAAGV/8uI=")</f>
@@ -63777,10 +63793,10 @@
         <v>#VALUE!</v>
       </c>
       <c r="DN52" s="43" t="s">
+        <v>184</v>
+      </c>
+      <c r="DO52" s="47" t="s">
         <v>185</v>
-      </c>
-      <c r="DO52" s="47" t="s">
-        <v>186</v>
       </c>
     </row>
     <row r="53" spans="1:256">

--- a/trunk/Document/VietinBankSC Project Plan v2012.009.20.xlsx
+++ b/trunk/Document/VietinBankSC Project Plan v2012.009.20.xlsx
@@ -1592,7 +1592,7 @@
   <dimension ref="A1:CW120"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C117" sqref="C117"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1655,12 +1655,12 @@
         <v>60</v>
       </c>
       <c r="D2" s="15">
-        <f>SUMIF($D$21:$D$152,C2,$E$21:$E$152)+SUMIF($F$21:$F$152,C2,$G$21:$G$152)+ SUMIF($H$21:$H$152,C2,$I$21:$I$152)</f>
+        <f t="shared" ref="D2:D17" si="0">SUMIF($D$21:$D$152,C2,$E$21:$E$152)+SUMIF($F$21:$F$152,C2,$G$21:$G$152)+ SUMIF($H$21:$H$152,C2,$I$21:$I$152)</f>
         <v>17</v>
       </c>
       <c r="E2" s="44">
         <f>D2*$I$14</f>
-        <v>267346.12413082668</v>
+        <v>263277.96094344411</v>
       </c>
       <c r="G2" s="40" t="s">
         <v>171</v>
@@ -1686,12 +1686,12 @@
         <v>57</v>
       </c>
       <c r="D3" s="15">
-        <f>SUMIF($D$21:$D$152,C3,$E$21:$E$152)+SUMIF($F$21:$F$152,C3,$G$21:$G$152)+ SUMIF($H$21:$H$152,C3,$I$21:$I$152)</f>
+        <f t="shared" si="0"/>
         <v>33</v>
       </c>
       <c r="E3" s="44">
         <f>D3*$I$14</f>
-        <v>518966.00566572242</v>
+        <v>511068.98300786206</v>
       </c>
       <c r="G3" s="40" t="s">
         <v>172</v>
@@ -1700,7 +1700,7 @@
         <v>0.02</v>
       </c>
       <c r="I3" s="41">
-        <f t="shared" ref="I3:I10" si="0">H3*$I$1</f>
+        <f t="shared" ref="I3:I10" si="1">H3*$I$1</f>
         <v>517500</v>
       </c>
       <c r="J3" s="25" t="s">
@@ -1720,12 +1720,12 @@
         <v>77</v>
       </c>
       <c r="D4" s="15">
-        <f>SUMIF($D$21:$D$152,C4,$E$21:$E$152)+SUMIF($F$21:$F$152,C4,$G$21:$G$152)+ SUMIF($H$21:$H$152,C4,$I$21:$I$152)</f>
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="E4" s="44">
-        <f t="shared" ref="E4:E17" si="1">D4*$I$14</f>
-        <v>78631.212979654912</v>
+        <f t="shared" ref="E4:E17" si="2">D4*$I$14</f>
+        <v>77434.694395130617</v>
       </c>
       <c r="G4" s="40" t="s">
         <v>173</v>
@@ -1734,7 +1734,7 @@
         <v>0.05</v>
       </c>
       <c r="I4" s="41">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1293750</v>
       </c>
       <c r="J4" s="25" t="s">
@@ -1754,12 +1754,12 @@
         <v>71</v>
       </c>
       <c r="D5" s="15">
-        <f>SUMIF($D$21:$D$152,C5,$E$21:$E$152)+SUMIF($F$21:$F$152,C5,$G$21:$G$152)+ SUMIF($H$21:$H$152,C5,$I$21:$I$152)</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="E5" s="44">
-        <f t="shared" si="1"/>
-        <v>47178.727787792945</v>
+        <f t="shared" si="2"/>
+        <v>46460.816637078373</v>
       </c>
       <c r="G5" s="40" t="s">
         <v>174</v>
@@ -1768,7 +1768,7 @@
         <v>0.05</v>
       </c>
       <c r="I5" s="41">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1293750</v>
       </c>
       <c r="J5" s="14" t="s">
@@ -1788,12 +1788,12 @@
         <v>67</v>
       </c>
       <c r="D6" s="15">
-        <f>SUMIF($D$21:$D$152,C6,$E$21:$E$152)+SUMIF($F$21:$F$152,C6,$G$21:$G$152)+ SUMIF($H$21:$H$152,C6,$I$21:$I$152)</f>
+        <f t="shared" si="0"/>
         <v>235.4</v>
       </c>
       <c r="E6" s="44">
-        <f t="shared" si="1"/>
-        <v>3701957.5070821531</v>
+        <f t="shared" si="2"/>
+        <v>3645625.4121227497</v>
       </c>
       <c r="G6" s="40" t="s">
         <v>175</v>
@@ -1802,7 +1802,7 @@
         <v>0.05</v>
       </c>
       <c r="I6" s="41">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1293750</v>
       </c>
       <c r="K6" s="25" t="s">
@@ -1819,12 +1819,12 @@
         <v>66</v>
       </c>
       <c r="D7" s="15">
-        <f>SUMIF($D$21:$D$152,C7,$E$21:$E$152)+SUMIF($F$21:$F$152,C7,$G$21:$G$152)+ SUMIF($H$21:$H$152,C7,$I$21:$I$152)</f>
+        <f t="shared" si="0"/>
         <v>8</v>
       </c>
       <c r="E7" s="44">
-        <f t="shared" si="1"/>
-        <v>125809.94076744786</v>
+        <f t="shared" si="2"/>
+        <v>123895.51103220899</v>
       </c>
       <c r="G7" s="40" t="s">
         <v>176</v>
@@ -1833,7 +1833,7 @@
         <v>0.02</v>
       </c>
       <c r="I7" s="41">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>517500</v>
       </c>
       <c r="K7" s="25" t="s">
@@ -1850,12 +1850,12 @@
         <v>55</v>
       </c>
       <c r="D8" s="15">
-        <f>SUMIF($D$21:$D$152,C8,$E$21:$E$152)+SUMIF($F$21:$F$152,C8,$G$21:$G$152)+ SUMIF($H$21:$H$152,C8,$I$21:$I$152)</f>
-        <v>231.4</v>
+        <f t="shared" si="0"/>
+        <v>246.4</v>
       </c>
       <c r="E8" s="44">
-        <f t="shared" si="1"/>
-        <v>3639052.5366984294</v>
+        <f t="shared" si="2"/>
+        <v>3815981.7397920368</v>
       </c>
       <c r="G8" s="40" t="s">
         <v>177</v>
@@ -1864,7 +1864,7 @@
         <v>0.05</v>
       </c>
       <c r="I8" s="41">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1293750</v>
       </c>
       <c r="K8" s="25" t="s">
@@ -1881,12 +1881,12 @@
         <v>58</v>
       </c>
       <c r="D9" s="15">
-        <f>SUMIF($D$21:$D$152,C9,$E$21:$E$152)+SUMIF($F$21:$F$152,C9,$G$21:$G$152)+ SUMIF($H$21:$H$152,C9,$I$21:$I$152)</f>
+        <f t="shared" si="0"/>
         <v>58</v>
       </c>
       <c r="E9" s="44">
-        <f t="shared" si="1"/>
-        <v>912122.07056399691</v>
+        <f t="shared" si="2"/>
+        <v>898242.4549835152</v>
       </c>
       <c r="G9" s="40" t="s">
         <v>178</v>
@@ -1895,7 +1895,7 @@
         <v>0.02</v>
       </c>
       <c r="I9" s="41">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>517500</v>
       </c>
       <c r="K9" s="25" t="s">
@@ -1912,12 +1912,12 @@
         <v>78</v>
       </c>
       <c r="D10" s="15">
-        <f>SUMIF($D$21:$D$152,C10,$E$21:$E$152)+SUMIF($F$21:$F$152,C10,$G$21:$G$152)+ SUMIF($H$21:$H$152,C10,$I$21:$I$152)</f>
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="E10" s="44">
-        <f t="shared" si="1"/>
-        <v>78631.212979654912</v>
+        <f t="shared" si="2"/>
+        <v>77434.694395130617</v>
       </c>
       <c r="G10" s="40" t="s">
         <v>179</v>
@@ -1926,7 +1926,7 @@
         <v>0.59</v>
       </c>
       <c r="I10" s="41">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>15266250</v>
       </c>
       <c r="K10" s="25" t="s">
@@ -1943,12 +1943,12 @@
         <v>56</v>
       </c>
       <c r="D11" s="15">
-        <f>SUMIF($D$21:$D$152,C11,$E$21:$E$152)+SUMIF($F$21:$F$152,C11,$G$21:$G$152)+ SUMIF($H$21:$H$152,C11,$I$21:$I$152)</f>
+        <f t="shared" si="0"/>
         <v>188.55</v>
       </c>
       <c r="E11" s="44">
-        <f t="shared" si="1"/>
-        <v>2965183.041462787</v>
+        <f t="shared" si="2"/>
+        <v>2920062.3256403757</v>
       </c>
       <c r="K11" s="25" t="s">
         <v>56</v>
@@ -1964,12 +1964,12 @@
         <v>70</v>
       </c>
       <c r="D12" s="15">
-        <f>SUMIF($D$21:$D$152,C12,$E$21:$E$152)+SUMIF($F$21:$F$152,C12,$G$21:$G$152)+ SUMIF($H$21:$H$152,C12,$I$21:$I$152)</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="E12" s="44">
-        <f t="shared" si="1"/>
-        <v>47178.727787792945</v>
+        <f t="shared" si="2"/>
+        <v>46460.816637078373</v>
       </c>
       <c r="K12" s="25" t="s">
         <v>70</v>
@@ -1985,12 +1985,12 @@
         <v>54</v>
       </c>
       <c r="D13" s="15">
-        <f>SUMIF($D$21:$D$152,C13,$E$21:$E$152)+SUMIF($F$21:$F$152,C13,$G$21:$G$152)+ SUMIF($H$21:$H$152,C13,$I$21:$I$152)</f>
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="E13" s="44">
-        <f t="shared" si="1"/>
-        <v>94357.455575585889</v>
+        <f t="shared" si="2"/>
+        <v>92921.633274156746</v>
       </c>
       <c r="G13" s="31" t="s">
         <v>180</v>
@@ -2016,16 +2016,16 @@
         <v>63</v>
       </c>
       <c r="D14" s="15">
-        <f>SUMIF($D$21:$D$152,C14,$E$21:$E$152)+SUMIF($F$21:$F$152,C14,$G$21:$G$152)+ SUMIF($H$21:$H$152,C14,$I$21:$I$152)</f>
+        <f t="shared" si="0"/>
         <v>115.4</v>
       </c>
       <c r="E14" s="44">
-        <f t="shared" si="1"/>
-        <v>1814808.3955704353</v>
+        <f t="shared" si="2"/>
+        <v>1787192.7466396147</v>
       </c>
       <c r="G14" s="38">
         <f>SUM(D2:D17)</f>
-        <v>970.74999999999989</v>
+        <v>985.74999999999989</v>
       </c>
       <c r="H14" s="43">
         <f>I10</f>
@@ -2033,222 +2033,222 @@
       </c>
       <c r="I14" s="42">
         <f>H14/G14</f>
-        <v>15726.242595930982</v>
+        <v>15486.938879026124</v>
       </c>
       <c r="K14" s="25" t="s">
         <v>63</v>
       </c>
       <c r="L14" s="43"/>
       <c r="N14" s="31">
-        <f t="shared" ref="N14:BH14" si="2">N18</f>
+        <f t="shared" ref="N14:BH14" si="3">N18</f>
         <v>41133</v>
       </c>
       <c r="O14" s="31">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>41134</v>
       </c>
       <c r="P14" s="31">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>41135</v>
       </c>
       <c r="Q14" s="31">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>41136</v>
       </c>
       <c r="R14" s="31">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>41137</v>
       </c>
       <c r="S14" s="31">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>41138</v>
       </c>
       <c r="T14" s="31">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>41139</v>
       </c>
       <c r="U14" s="31">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>41140</v>
       </c>
       <c r="V14" s="31">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>41141</v>
       </c>
       <c r="W14" s="31">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>41142</v>
       </c>
       <c r="X14" s="31">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>41143</v>
       </c>
       <c r="Y14" s="31">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>41144</v>
       </c>
       <c r="Z14" s="31">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>41145</v>
       </c>
       <c r="AA14" s="31">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>41146</v>
       </c>
       <c r="AB14" s="31">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>41147</v>
       </c>
       <c r="AC14" s="31">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>41148</v>
       </c>
       <c r="AD14" s="31">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>41149</v>
       </c>
       <c r="AE14" s="31">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>41150</v>
       </c>
       <c r="AF14" s="31">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>41151</v>
       </c>
       <c r="AG14" s="31">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>41152</v>
       </c>
       <c r="AH14" s="31">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>41153</v>
       </c>
       <c r="AI14" s="31">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>41154</v>
       </c>
       <c r="AJ14" s="31">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>41155</v>
       </c>
       <c r="AK14" s="31">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>41156</v>
       </c>
       <c r="AL14" s="31">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>41157</v>
       </c>
       <c r="AM14" s="31">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>41158</v>
       </c>
       <c r="AN14" s="31">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>41159</v>
       </c>
       <c r="AO14" s="31">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>41160</v>
       </c>
       <c r="AP14" s="31">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>41161</v>
       </c>
       <c r="AQ14" s="31">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>41162</v>
       </c>
       <c r="AR14" s="31">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>41163</v>
       </c>
       <c r="AS14" s="31">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>41164</v>
       </c>
       <c r="AT14" s="31">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>41165</v>
       </c>
       <c r="AU14" s="31">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>41166</v>
       </c>
       <c r="AV14" s="31">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>41167</v>
       </c>
       <c r="AW14" s="31">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>41168</v>
       </c>
       <c r="AX14" s="31">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>41169</v>
       </c>
       <c r="AY14" s="31">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>41170</v>
       </c>
       <c r="AZ14" s="31">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>41171</v>
       </c>
       <c r="BA14" s="31">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>41172</v>
       </c>
       <c r="BB14" s="31">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>41173</v>
       </c>
       <c r="BC14" s="31">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>41174</v>
       </c>
       <c r="BD14" s="31">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>41175</v>
       </c>
       <c r="BE14" s="31">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>41176</v>
       </c>
       <c r="BF14" s="31">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>41177</v>
       </c>
       <c r="BG14" s="31">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>41178</v>
       </c>
       <c r="BH14" s="31">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>41179</v>
       </c>
       <c r="BI14" s="31">
-        <f t="shared" ref="BI14:BN14" si="3">BI18</f>
+        <f t="shared" ref="BI14:BN14" si="4">BI18</f>
         <v>41180</v>
       </c>
       <c r="BJ14" s="31">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>41181</v>
       </c>
       <c r="BK14" s="31">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>41182</v>
       </c>
       <c r="BL14" s="31">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>41183</v>
       </c>
       <c r="BM14" s="31">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>41184</v>
       </c>
       <c r="BN14" s="31">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>41185</v>
       </c>
     </row>
@@ -2261,12 +2261,12 @@
         <v>168</v>
       </c>
       <c r="D15" s="15">
-        <f>SUMIF($D$21:$D$152,C15,$E$21:$E$152)+SUMIF($F$21:$F$152,C15,$G$21:$G$152)+ SUMIF($H$21:$H$152,C15,$I$21:$I$152)</f>
+        <f t="shared" si="0"/>
         <v>15</v>
       </c>
       <c r="E15" s="44">
-        <f t="shared" si="1"/>
-        <v>235893.63893896472</v>
+        <f t="shared" si="2"/>
+        <v>232304.08318539185</v>
       </c>
       <c r="K15" s="25" t="s">
         <v>168</v>
@@ -2280,12 +2280,12 @@
         <v>85</v>
       </c>
       <c r="D16" s="15">
-        <f>SUMIF($D$21:$D$152,C16,$E$21:$E$152)+SUMIF($F$21:$F$152,C16,$G$21:$G$152)+ SUMIF($H$21:$H$152,C16,$I$21:$I$152)</f>
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="E16" s="44">
-        <f t="shared" si="1"/>
-        <v>78631.212979654912</v>
+        <f t="shared" si="2"/>
+        <v>77434.694395130617</v>
       </c>
       <c r="K16" s="25"/>
       <c r="L16" s="43"/>
@@ -2297,12 +2297,12 @@
         <v>76</v>
       </c>
       <c r="D17" s="15">
-        <f>SUMIF($D$21:$D$152,C17,$E$21:$E$152)+SUMIF($F$21:$F$152,C17,$G$21:$G$152)+ SUMIF($H$21:$H$152,C17,$I$21:$I$152)</f>
+        <f t="shared" si="0"/>
         <v>42</v>
       </c>
       <c r="E17" s="44">
-        <f t="shared" si="1"/>
-        <v>660502.18902910128</v>
+        <f t="shared" si="2"/>
+        <v>650451.43291909725</v>
       </c>
       <c r="G17" s="31"/>
       <c r="H17" s="31"/>
@@ -2361,151 +2361,151 @@
         <v>41134</v>
       </c>
       <c r="P18" s="17">
-        <f t="shared" ref="P18:AZ18" si="4">O18+1</f>
+        <f t="shared" ref="P18:AZ18" si="5">O18+1</f>
         <v>41135</v>
       </c>
       <c r="Q18" s="17">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>41136</v>
       </c>
       <c r="R18" s="17">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>41137</v>
       </c>
       <c r="S18" s="17">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>41138</v>
       </c>
       <c r="T18" s="17">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>41139</v>
       </c>
       <c r="U18" s="17">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>41140</v>
       </c>
       <c r="V18" s="17">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>41141</v>
       </c>
       <c r="W18" s="17">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>41142</v>
       </c>
       <c r="X18" s="17">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>41143</v>
       </c>
       <c r="Y18" s="17">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>41144</v>
       </c>
       <c r="Z18" s="17">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>41145</v>
       </c>
       <c r="AA18" s="17">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>41146</v>
       </c>
       <c r="AB18" s="17">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>41147</v>
       </c>
       <c r="AC18" s="17">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>41148</v>
       </c>
       <c r="AD18" s="17">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>41149</v>
       </c>
       <c r="AE18" s="17">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>41150</v>
       </c>
       <c r="AF18" s="17">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>41151</v>
       </c>
       <c r="AG18" s="17">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>41152</v>
       </c>
       <c r="AH18" s="17">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>41153</v>
       </c>
       <c r="AI18" s="17">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>41154</v>
       </c>
       <c r="AJ18" s="17">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>41155</v>
       </c>
       <c r="AK18" s="17">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>41156</v>
       </c>
       <c r="AL18" s="17">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>41157</v>
       </c>
       <c r="AM18" s="17">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>41158</v>
       </c>
       <c r="AN18" s="17">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>41159</v>
       </c>
       <c r="AO18" s="17">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>41160</v>
       </c>
       <c r="AP18" s="17">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>41161</v>
       </c>
       <c r="AQ18" s="17">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>41162</v>
       </c>
       <c r="AR18" s="17">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>41163</v>
       </c>
       <c r="AS18" s="17">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>41164</v>
       </c>
       <c r="AT18"